--- a/sheet/CONTROLE_DE_TERRITORIO_2022.xlsx
+++ b/sheet/CONTROLE_DE_TERRITORIO_2022.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="40">
   <si>
     <t>OK</t>
   </si>
@@ -138,9 +138,6 @@
   </si>
   <si>
     <t>Número de Casas</t>
-  </si>
-  <si>
-    <t>OK- FALTANDO 2 folhas</t>
   </si>
   <si>
     <t>OK - Faltando 1 folha</t>
@@ -917,6 +914,45 @@
     <xf numFmtId="164" fontId="9" fillId="4" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="4" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -929,16 +965,31 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="4" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="8" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -950,67 +1001,13 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="8" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="16" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1305,7 +1302,7 @@
   <dimension ref="A1:L64"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="99" zoomScaleNormal="100" zoomScalePageLayoutView="45" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1357,7 +1354,7 @@
         <v>36</v>
       </c>
       <c r="K1" s="55" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L1" s="56" t="s">
         <v>29</v>
@@ -1398,7 +1395,7 @@
       <c r="L2" s="53"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="105">
+      <c r="A3" s="84">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -1420,19 +1417,19 @@
       <c r="H3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="78" t="s">
-        <v>4</v>
-      </c>
-      <c r="J3" s="92">
+      <c r="I3" s="76" t="s">
+        <v>4</v>
+      </c>
+      <c r="J3" s="78">
         <v>58</v>
       </c>
-      <c r="K3" s="92">
-        <v>4</v>
-      </c>
-      <c r="L3" s="85"/>
+      <c r="K3" s="78">
+        <v>4</v>
+      </c>
+      <c r="L3" s="74"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="105"/>
+      <c r="A4" s="84"/>
       <c r="B4" s="61" t="s">
         <v>26</v>
       </c>
@@ -1454,10 +1451,10 @@
       <c r="H4" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="I4" s="79"/>
-      <c r="J4" s="93"/>
-      <c r="K4" s="93"/>
-      <c r="L4" s="87"/>
+      <c r="I4" s="77"/>
+      <c r="J4" s="79"/>
+      <c r="K4" s="79"/>
+      <c r="L4" s="75"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="28">
@@ -1494,7 +1491,7 @@
       <c r="L5" s="29"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="88">
+      <c r="A6" s="80">
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -1519,19 +1516,19 @@
       <c r="H6" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I6" s="78" t="s">
-        <v>4</v>
-      </c>
-      <c r="J6" s="92">
+      <c r="I6" s="76" t="s">
+        <v>4</v>
+      </c>
+      <c r="J6" s="78">
         <v>59</v>
       </c>
-      <c r="K6" s="92">
-        <v>4</v>
-      </c>
-      <c r="L6" s="85"/>
+      <c r="K6" s="78">
+        <v>4</v>
+      </c>
+      <c r="L6" s="74"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="89"/>
+      <c r="A7" s="81"/>
       <c r="B7" s="58" t="s">
         <v>26</v>
       </c>
@@ -1553,10 +1550,10 @@
       <c r="H7" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="I7" s="79"/>
-      <c r="J7" s="93"/>
-      <c r="K7" s="93"/>
-      <c r="L7" s="87"/>
+      <c r="I7" s="77"/>
+      <c r="J7" s="79"/>
+      <c r="K7" s="79"/>
+      <c r="L7" s="75"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="30">
@@ -1752,26 +1749,23 @@
       </c>
       <c r="B14" s="9"/>
       <c r="C14" s="22">
-        <v>44808</v>
-      </c>
-      <c r="D14" s="22">
-        <f>C14+7</f>
-        <v>44815</v>
-      </c>
+        <v>44838</v>
+      </c>
+      <c r="D14" s="22"/>
       <c r="E14" s="23">
-        <v>44818</v>
+        <v>44839</v>
       </c>
       <c r="F14" s="24" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G14" s="25" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H14" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="I14" s="71" t="s">
-        <v>37</v>
+        <v>16</v>
+      </c>
+      <c r="I14" s="17" t="s">
+        <v>4</v>
       </c>
       <c r="J14" s="8">
         <v>128</v>
@@ -1786,14 +1780,24 @@
         <v>12</v>
       </c>
       <c r="B15" s="10"/>
-      <c r="C15" s="19"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="27" t="s">
-        <v>0</v>
+      <c r="C15" s="22">
+        <v>44838</v>
+      </c>
+      <c r="D15" s="22"/>
+      <c r="E15" s="23">
+        <v>44839</v>
+      </c>
+      <c r="F15" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="G15" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="H15" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="I15" s="17" t="s">
+        <v>4</v>
       </c>
       <c r="J15" s="10">
         <v>66</v>
@@ -1851,7 +1855,7 @@
         <v>7</v>
       </c>
       <c r="G17" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H17" s="10" t="s">
         <v>8</v>
@@ -1868,7 +1872,7 @@
       <c r="L17" s="34"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="80">
+      <c r="A18" s="85">
         <v>15</v>
       </c>
       <c r="B18" s="4" t="s">
@@ -1890,19 +1894,19 @@
       <c r="H18" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="I18" s="78" t="s">
-        <v>4</v>
-      </c>
-      <c r="J18" s="74">
+      <c r="I18" s="76" t="s">
+        <v>4</v>
+      </c>
+      <c r="J18" s="87">
         <v>38</v>
       </c>
-      <c r="K18" s="74">
+      <c r="K18" s="87">
         <v>3</v>
       </c>
-      <c r="L18" s="76"/>
+      <c r="L18" s="89"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="81"/>
+      <c r="A19" s="86"/>
       <c r="B19" s="57" t="s">
         <v>26</v>
       </c>
@@ -1917,18 +1921,18 @@
         <v>7</v>
       </c>
       <c r="G19" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H19" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="I19" s="79"/>
-      <c r="J19" s="75"/>
-      <c r="K19" s="75"/>
-      <c r="L19" s="77"/>
+      <c r="I19" s="77"/>
+      <c r="J19" s="88"/>
+      <c r="K19" s="88"/>
+      <c r="L19" s="90"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="88">
+      <c r="A20" s="80">
         <v>16</v>
       </c>
       <c r="B20" s="1" t="s">
@@ -1950,19 +1954,19 @@
       <c r="H20" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I20" s="78" t="s">
-        <v>4</v>
-      </c>
-      <c r="J20" s="103">
+      <c r="I20" s="76" t="s">
+        <v>4</v>
+      </c>
+      <c r="J20" s="82">
         <v>37</v>
       </c>
-      <c r="K20" s="92">
+      <c r="K20" s="78">
         <v>3</v>
       </c>
-      <c r="L20" s="85"/>
+      <c r="L20" s="74"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="89"/>
+      <c r="A21" s="81"/>
       <c r="B21" s="58" t="s">
         <v>26</v>
       </c>
@@ -1977,15 +1981,15 @@
         <v>7</v>
       </c>
       <c r="G21" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H21" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="I21" s="79"/>
-      <c r="J21" s="104"/>
-      <c r="K21" s="93"/>
-      <c r="L21" s="87"/>
+      <c r="I21" s="77"/>
+      <c r="J21" s="83"/>
+      <c r="K21" s="79"/>
+      <c r="L21" s="75"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="35">
@@ -2019,7 +2023,7 @@
         <v>7</v>
       </c>
       <c r="G23" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H23" s="10" t="s">
         <v>8</v>
@@ -2057,7 +2061,7 @@
         <v>8</v>
       </c>
       <c r="I24" s="71" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J24" s="8">
         <v>68</v>
@@ -2068,7 +2072,7 @@
       <c r="L24" s="29"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="88">
+      <c r="A25" s="80">
         <v>20</v>
       </c>
       <c r="B25" s="1" t="s">
@@ -2090,19 +2094,19 @@
       <c r="H25" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I25" s="78" t="s">
-        <v>4</v>
-      </c>
-      <c r="J25" s="92">
+      <c r="I25" s="76" t="s">
+        <v>4</v>
+      </c>
+      <c r="J25" s="78">
         <v>13</v>
       </c>
-      <c r="K25" s="92">
+      <c r="K25" s="78">
         <v>1</v>
       </c>
-      <c r="L25" s="85"/>
+      <c r="L25" s="74"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="89"/>
+      <c r="A26" s="81"/>
       <c r="B26" s="58" t="s">
         <v>26</v>
       </c>
@@ -2117,15 +2121,15 @@
         <v>7</v>
       </c>
       <c r="G26" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H26" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="I26" s="79"/>
-      <c r="J26" s="93"/>
-      <c r="K26" s="93"/>
-      <c r="L26" s="87"/>
+      <c r="I26" s="77"/>
+      <c r="J26" s="79"/>
+      <c r="K26" s="79"/>
+      <c r="L26" s="75"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="30">
@@ -2181,7 +2185,7 @@
         <v>11</v>
       </c>
       <c r="I28" s="71" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J28" s="10">
         <v>71</v>
@@ -2310,7 +2314,7 @@
       <c r="L32" s="34"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A33" s="80">
+      <c r="A33" s="85">
         <v>27</v>
       </c>
       <c r="B33" s="4" t="s">
@@ -2332,19 +2336,19 @@
       <c r="H33" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="I33" s="78" t="s">
-        <v>4</v>
-      </c>
-      <c r="J33" s="74">
+      <c r="I33" s="76" t="s">
+        <v>4</v>
+      </c>
+      <c r="J33" s="87">
         <v>11</v>
       </c>
-      <c r="K33" s="74">
+      <c r="K33" s="87">
         <v>1</v>
       </c>
-      <c r="L33" s="76"/>
+      <c r="L33" s="89"/>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A34" s="81"/>
+      <c r="A34" s="86"/>
       <c r="B34" s="57" t="s">
         <v>26</v>
       </c>
@@ -2366,13 +2370,13 @@
       <c r="H34" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="I34" s="79"/>
-      <c r="J34" s="75"/>
-      <c r="K34" s="75"/>
-      <c r="L34" s="77"/>
+      <c r="I34" s="77"/>
+      <c r="J34" s="88"/>
+      <c r="K34" s="88"/>
+      <c r="L34" s="90"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A35" s="88">
+      <c r="A35" s="80">
         <v>28</v>
       </c>
       <c r="B35" s="1" t="s">
@@ -2394,19 +2398,19 @@
       <c r="H35" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I35" s="78" t="s">
-        <v>4</v>
-      </c>
-      <c r="J35" s="92">
+      <c r="I35" s="76" t="s">
+        <v>4</v>
+      </c>
+      <c r="J35" s="78">
         <v>20</v>
       </c>
-      <c r="K35" s="92">
+      <c r="K35" s="78">
         <v>2</v>
       </c>
-      <c r="L35" s="85"/>
+      <c r="L35" s="74"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A36" s="89"/>
+      <c r="A36" s="81"/>
       <c r="B36" s="58" t="s">
         <v>26</v>
       </c>
@@ -2428,13 +2432,13 @@
       <c r="H36" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="I36" s="79"/>
-      <c r="J36" s="93"/>
-      <c r="K36" s="93"/>
-      <c r="L36" s="87"/>
+      <c r="I36" s="77"/>
+      <c r="J36" s="79"/>
+      <c r="K36" s="79"/>
+      <c r="L36" s="75"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A37" s="80">
+      <c r="A37" s="85">
         <v>29</v>
       </c>
       <c r="B37" s="4" t="s">
@@ -2456,19 +2460,19 @@
       <c r="H37" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="I37" s="78" t="s">
-        <v>4</v>
-      </c>
-      <c r="J37" s="74">
+      <c r="I37" s="76" t="s">
+        <v>4</v>
+      </c>
+      <c r="J37" s="87">
         <v>35</v>
       </c>
-      <c r="K37" s="74">
+      <c r="K37" s="87">
         <v>2</v>
       </c>
-      <c r="L37" s="76"/>
+      <c r="L37" s="89"/>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A38" s="99"/>
+      <c r="A38" s="91"/>
       <c r="B38" s="4" t="s">
         <v>26</v>
       </c>
@@ -2488,13 +2492,13 @@
       <c r="H38" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="I38" s="94"/>
-      <c r="J38" s="100"/>
-      <c r="K38" s="100"/>
-      <c r="L38" s="84"/>
+      <c r="I38" s="97"/>
+      <c r="J38" s="92"/>
+      <c r="K38" s="92"/>
+      <c r="L38" s="102"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A39" s="81"/>
+      <c r="A39" s="86"/>
       <c r="B39" s="57" t="s">
         <v>28</v>
       </c>
@@ -2516,13 +2520,13 @@
       <c r="H39" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="I39" s="79"/>
-      <c r="J39" s="75"/>
-      <c r="K39" s="75"/>
-      <c r="L39" s="77"/>
+      <c r="I39" s="77"/>
+      <c r="J39" s="88"/>
+      <c r="K39" s="88"/>
+      <c r="L39" s="90"/>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A40" s="88">
+      <c r="A40" s="80">
         <v>30</v>
       </c>
       <c r="B40" s="1" t="s">
@@ -2544,19 +2548,19 @@
       <c r="H40" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I40" s="78" t="s">
-        <v>4</v>
-      </c>
-      <c r="J40" s="92">
+      <c r="I40" s="76" t="s">
+        <v>4</v>
+      </c>
+      <c r="J40" s="78">
         <v>19</v>
       </c>
-      <c r="K40" s="92">
+      <c r="K40" s="78">
         <v>1</v>
       </c>
-      <c r="L40" s="85"/>
+      <c r="L40" s="74"/>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A41" s="101"/>
+      <c r="A41" s="93"/>
       <c r="B41" s="1" t="s">
         <v>26</v>
       </c>
@@ -2576,13 +2580,13 @@
       <c r="H41" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I41" s="94"/>
-      <c r="J41" s="102"/>
-      <c r="K41" s="102"/>
-      <c r="L41" s="86"/>
+      <c r="I41" s="97"/>
+      <c r="J41" s="94"/>
+      <c r="K41" s="94"/>
+      <c r="L41" s="103"/>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A42" s="89"/>
+      <c r="A42" s="81"/>
       <c r="B42" s="58" t="s">
         <v>28</v>
       </c>
@@ -2604,13 +2608,13 @@
       <c r="H42" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="I42" s="79"/>
-      <c r="J42" s="93"/>
-      <c r="K42" s="93"/>
-      <c r="L42" s="87"/>
+      <c r="I42" s="77"/>
+      <c r="J42" s="79"/>
+      <c r="K42" s="79"/>
+      <c r="L42" s="75"/>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A43" s="80">
+      <c r="A43" s="85">
         <v>31</v>
       </c>
       <c r="B43" s="4" t="s">
@@ -2632,19 +2636,19 @@
       <c r="H43" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="I43" s="95" t="s">
+      <c r="I43" s="98" t="s">
         <v>0</v>
       </c>
-      <c r="J43" s="74">
+      <c r="J43" s="87">
         <v>21</v>
       </c>
-      <c r="K43" s="74">
-        <v>4</v>
-      </c>
-      <c r="L43" s="76"/>
+      <c r="K43" s="87">
+        <v>4</v>
+      </c>
+      <c r="L43" s="89"/>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A44" s="81"/>
+      <c r="A44" s="86"/>
       <c r="B44" s="57" t="s">
         <v>26</v>
       </c>
@@ -2664,10 +2668,10 @@
       <c r="H44" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="I44" s="96"/>
-      <c r="J44" s="75"/>
-      <c r="K44" s="75"/>
-      <c r="L44" s="77"/>
+      <c r="I44" s="99"/>
+      <c r="J44" s="88"/>
+      <c r="K44" s="88"/>
+      <c r="L44" s="90"/>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="67">
@@ -2702,7 +2706,7 @@
       <c r="L45" s="66"/>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A46" s="80">
+      <c r="A46" s="85">
         <v>33</v>
       </c>
       <c r="B46" s="4" t="s">
@@ -2724,19 +2728,19 @@
       <c r="H46" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="I46" s="95" t="s">
+      <c r="I46" s="98" t="s">
         <v>0</v>
       </c>
-      <c r="J46" s="74">
+      <c r="J46" s="87">
         <v>57</v>
       </c>
-      <c r="K46" s="74">
-        <v>4</v>
-      </c>
-      <c r="L46" s="76"/>
+      <c r="K46" s="87">
+        <v>4</v>
+      </c>
+      <c r="L46" s="89"/>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A47" s="81"/>
+      <c r="A47" s="86"/>
       <c r="B47" s="57" t="s">
         <v>26</v>
       </c>
@@ -2756,13 +2760,13 @@
       <c r="H47" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="I47" s="96"/>
-      <c r="J47" s="75"/>
-      <c r="K47" s="75"/>
-      <c r="L47" s="77"/>
+      <c r="I47" s="99"/>
+      <c r="J47" s="88"/>
+      <c r="K47" s="88"/>
+      <c r="L47" s="90"/>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A48" s="88">
+      <c r="A48" s="80">
         <v>34</v>
       </c>
       <c r="B48" s="1" t="s">
@@ -2784,21 +2788,21 @@
       <c r="H48" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I48" s="78" t="s">
-        <v>4</v>
-      </c>
-      <c r="J48" s="92">
+      <c r="I48" s="76" t="s">
+        <v>4</v>
+      </c>
+      <c r="J48" s="78">
         <v>58</v>
       </c>
-      <c r="K48" s="92">
+      <c r="K48" s="78">
         <v>3</v>
       </c>
-      <c r="L48" s="97" t="s">
+      <c r="L48" s="104" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A49" s="89"/>
+      <c r="A49" s="81"/>
       <c r="B49" s="58" t="s">
         <v>26</v>
       </c>
@@ -2822,10 +2826,10 @@
       <c r="H49" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="I49" s="79"/>
-      <c r="J49" s="93"/>
-      <c r="K49" s="93"/>
-      <c r="L49" s="98"/>
+      <c r="I49" s="77"/>
+      <c r="J49" s="79"/>
+      <c r="K49" s="79"/>
+      <c r="L49" s="105"/>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" s="68">
@@ -2895,7 +2899,7 @@
       <c r="L51" s="34"/>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A52" s="80">
+      <c r="A52" s="85">
         <v>37</v>
       </c>
       <c r="B52" s="4" t="s">
@@ -2917,19 +2921,19 @@
       <c r="H52" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="78" t="s">
-        <v>4</v>
-      </c>
-      <c r="J52" s="74">
+      <c r="I52" s="76" t="s">
+        <v>4</v>
+      </c>
+      <c r="J52" s="87">
         <v>48</v>
       </c>
-      <c r="K52" s="74">
+      <c r="K52" s="87">
         <v>3</v>
       </c>
-      <c r="L52" s="76"/>
+      <c r="L52" s="89"/>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A53" s="81"/>
+      <c r="A53" s="86"/>
       <c r="B53" s="57" t="s">
         <v>26</v>
       </c>
@@ -2953,13 +2957,13 @@
       <c r="H53" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="I53" s="79"/>
-      <c r="J53" s="75"/>
-      <c r="K53" s="75"/>
-      <c r="L53" s="77"/>
+      <c r="I53" s="77"/>
+      <c r="J53" s="88"/>
+      <c r="K53" s="88"/>
+      <c r="L53" s="90"/>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A54" s="88">
+      <c r="A54" s="80">
         <v>38</v>
       </c>
       <c r="B54" s="1" t="s">
@@ -2981,19 +2985,19 @@
       <c r="H54" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I54" s="78" t="s">
-        <v>4</v>
-      </c>
-      <c r="J54" s="92">
+      <c r="I54" s="76" t="s">
+        <v>4</v>
+      </c>
+      <c r="J54" s="78">
         <v>58</v>
       </c>
-      <c r="K54" s="92">
+      <c r="K54" s="78">
         <v>3</v>
       </c>
-      <c r="L54" s="85"/>
+      <c r="L54" s="74"/>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A55" s="89"/>
+      <c r="A55" s="81"/>
       <c r="B55" s="58" t="s">
         <v>26</v>
       </c>
@@ -3015,13 +3019,13 @@
       <c r="H55" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="I55" s="79"/>
-      <c r="J55" s="93"/>
-      <c r="K55" s="93"/>
-      <c r="L55" s="87"/>
+      <c r="I55" s="77"/>
+      <c r="J55" s="79"/>
+      <c r="K55" s="79"/>
+      <c r="L55" s="75"/>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A56" s="80">
+      <c r="A56" s="85">
         <v>39</v>
       </c>
       <c r="B56" s="4" t="s">
@@ -3043,19 +3047,19 @@
       <c r="H56" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="I56" s="78" t="s">
-        <v>4</v>
-      </c>
-      <c r="J56" s="74">
+      <c r="I56" s="76" t="s">
+        <v>4</v>
+      </c>
+      <c r="J56" s="87">
         <v>20</v>
       </c>
-      <c r="K56" s="74">
+      <c r="K56" s="87">
         <v>1</v>
       </c>
-      <c r="L56" s="76"/>
+      <c r="L56" s="89"/>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A57" s="81"/>
+      <c r="A57" s="86"/>
       <c r="B57" s="57" t="s">
         <v>26</v>
       </c>
@@ -3079,13 +3083,13 @@
       <c r="H57" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="I57" s="79"/>
-      <c r="J57" s="75"/>
-      <c r="K57" s="75"/>
-      <c r="L57" s="77"/>
+      <c r="I57" s="77"/>
+      <c r="J57" s="88"/>
+      <c r="K57" s="88"/>
+      <c r="L57" s="90"/>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A58" s="88">
+      <c r="A58" s="80">
         <v>40</v>
       </c>
       <c r="B58" s="1" t="s">
@@ -3107,19 +3111,19 @@
       <c r="H58" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I58" s="78" t="s">
-        <v>4</v>
-      </c>
-      <c r="J58" s="90">
+      <c r="I58" s="76" t="s">
+        <v>4</v>
+      </c>
+      <c r="J58" s="95">
         <v>17</v>
       </c>
-      <c r="K58" s="92">
+      <c r="K58" s="78">
         <v>1</v>
       </c>
-      <c r="L58" s="82"/>
+      <c r="L58" s="100"/>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A59" s="89"/>
+      <c r="A59" s="81"/>
       <c r="B59" s="58" t="s">
         <v>26</v>
       </c>
@@ -3143,10 +3147,10 @@
       <c r="H59" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="I59" s="79"/>
-      <c r="J59" s="91"/>
-      <c r="K59" s="93"/>
-      <c r="L59" s="83"/>
+      <c r="I59" s="77"/>
+      <c r="J59" s="96"/>
+      <c r="K59" s="79"/>
+      <c r="L59" s="101"/>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" s="35">
@@ -3287,51 +3291,25 @@
     </row>
   </sheetData>
   <mergeCells count="80">
-    <mergeCell ref="L20:L21"/>
-    <mergeCell ref="I25:I26"/>
-    <mergeCell ref="J25:J26"/>
-    <mergeCell ref="K25:K26"/>
-    <mergeCell ref="L25:L26"/>
-    <mergeCell ref="I20:I21"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="J20:J21"/>
-    <mergeCell ref="K20:K21"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="J18:J19"/>
-    <mergeCell ref="K18:K19"/>
-    <mergeCell ref="L18:L19"/>
-    <mergeCell ref="I18:I19"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="J33:J34"/>
-    <mergeCell ref="K33:K34"/>
-    <mergeCell ref="L33:L34"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="J35:J36"/>
-    <mergeCell ref="K35:K36"/>
-    <mergeCell ref="L35:L36"/>
-    <mergeCell ref="I33:I34"/>
-    <mergeCell ref="I35:I36"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="J43:J44"/>
-    <mergeCell ref="K43:K44"/>
-    <mergeCell ref="L43:L44"/>
-    <mergeCell ref="A37:A39"/>
-    <mergeCell ref="J37:J39"/>
-    <mergeCell ref="K37:K39"/>
-    <mergeCell ref="A40:A42"/>
-    <mergeCell ref="J40:J42"/>
-    <mergeCell ref="K40:K42"/>
+    <mergeCell ref="J52:J53"/>
+    <mergeCell ref="K52:K53"/>
+    <mergeCell ref="L52:L53"/>
+    <mergeCell ref="I52:I53"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="J46:J47"/>
+    <mergeCell ref="K46:K47"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="J48:J49"/>
+    <mergeCell ref="K48:K49"/>
+    <mergeCell ref="I46:I47"/>
+    <mergeCell ref="I48:I49"/>
+    <mergeCell ref="L58:L59"/>
+    <mergeCell ref="L37:L39"/>
+    <mergeCell ref="L40:L42"/>
+    <mergeCell ref="L54:L55"/>
+    <mergeCell ref="L56:L57"/>
+    <mergeCell ref="L46:L47"/>
+    <mergeCell ref="L48:L49"/>
     <mergeCell ref="A58:A59"/>
     <mergeCell ref="J58:J59"/>
     <mergeCell ref="K58:K59"/>
@@ -3348,25 +3326,51 @@
     <mergeCell ref="I56:I57"/>
     <mergeCell ref="I58:I59"/>
     <mergeCell ref="A52:A53"/>
-    <mergeCell ref="L58:L59"/>
-    <mergeCell ref="L37:L39"/>
-    <mergeCell ref="L40:L42"/>
-    <mergeCell ref="L54:L55"/>
-    <mergeCell ref="L56:L57"/>
-    <mergeCell ref="L46:L47"/>
-    <mergeCell ref="L48:L49"/>
-    <mergeCell ref="J52:J53"/>
-    <mergeCell ref="K52:K53"/>
-    <mergeCell ref="L52:L53"/>
-    <mergeCell ref="I52:I53"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="J46:J47"/>
-    <mergeCell ref="K46:K47"/>
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="J48:J49"/>
-    <mergeCell ref="K48:K49"/>
-    <mergeCell ref="I46:I47"/>
-    <mergeCell ref="I48:I49"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="J43:J44"/>
+    <mergeCell ref="K43:K44"/>
+    <mergeCell ref="L43:L44"/>
+    <mergeCell ref="A37:A39"/>
+    <mergeCell ref="J37:J39"/>
+    <mergeCell ref="K37:K39"/>
+    <mergeCell ref="A40:A42"/>
+    <mergeCell ref="J40:J42"/>
+    <mergeCell ref="K40:K42"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="J33:J34"/>
+    <mergeCell ref="K33:K34"/>
+    <mergeCell ref="L33:L34"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="J35:J36"/>
+    <mergeCell ref="K35:K36"/>
+    <mergeCell ref="L35:L36"/>
+    <mergeCell ref="I33:I34"/>
+    <mergeCell ref="I35:I36"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="J18:J19"/>
+    <mergeCell ref="K18:K19"/>
+    <mergeCell ref="L18:L19"/>
+    <mergeCell ref="I18:I19"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="J20:J21"/>
+    <mergeCell ref="K20:K21"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="L20:L21"/>
+    <mergeCell ref="I25:I26"/>
+    <mergeCell ref="J25:J26"/>
+    <mergeCell ref="K25:K26"/>
+    <mergeCell ref="L25:L26"/>
+    <mergeCell ref="I20:I21"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0" right="0" top="0.19685039370078741" bottom="0.19685039370078741" header="0" footer="0"/>

--- a/sheet/CONTROLE_DE_TERRITORIO_2022.xlsx
+++ b/sheet/CONTROLE_DE_TERRITORIO_2022.xlsx
@@ -15,7 +15,7 @@
     <sheet name="NOVA" sheetId="3" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">NOVA!$A$1:$K$64</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">NOVA!$A$1:$K$66</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="40">
   <si>
     <t>OK</t>
   </si>
@@ -1299,10 +1299,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L64"/>
+  <dimension ref="A1:L66"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="99" zoomScaleNormal="100" zoomScalePageLayoutView="45" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="99" zoomScaleNormal="100" zoomScalePageLayoutView="45" workbookViewId="0">
+      <selection activeCell="I65" sqref="I65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3169,10 +3169,12 @@
       <c r="L60" s="36"/>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A61" s="33">
+      <c r="A61" s="80">
         <v>42</v>
       </c>
-      <c r="B61" s="10"/>
+      <c r="B61" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="C61" s="19">
         <v>44822</v>
       </c>
@@ -3189,108 +3191,182 @@
       <c r="H61" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="I61" s="27" t="s">
+      <c r="I61" s="76" t="s">
+        <v>4</v>
+      </c>
+      <c r="J61" s="78">
+        <v>41</v>
+      </c>
+      <c r="K61" s="78">
+        <v>3</v>
+      </c>
+      <c r="L61" s="74"/>
+    </row>
+    <row r="62" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="81"/>
+      <c r="B62" s="58" t="s">
+        <v>26</v>
+      </c>
+      <c r="C62" s="19">
+        <v>44839</v>
+      </c>
+      <c r="D62" s="19"/>
+      <c r="E62" s="20">
+        <v>44839</v>
+      </c>
+      <c r="F62" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="G62" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="H62" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="I62" s="77"/>
+      <c r="J62" s="79"/>
+      <c r="K62" s="79"/>
+      <c r="L62" s="75"/>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A63" s="85">
+        <v>43</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C63" s="22">
+        <v>44815</v>
+      </c>
+      <c r="D63" s="22">
+        <f t="shared" ref="D63" si="1">C63+7</f>
+        <v>44822</v>
+      </c>
+      <c r="E63" s="23">
+        <v>44822</v>
+      </c>
+      <c r="F63" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="G63" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="H63" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="I63" s="76" t="s">
+        <v>4</v>
+      </c>
+      <c r="J63" s="87">
+        <v>57</v>
+      </c>
+      <c r="K63" s="87">
+        <v>4</v>
+      </c>
+      <c r="L63" s="89"/>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A64" s="86"/>
+      <c r="B64" s="57" t="s">
+        <v>26</v>
+      </c>
+      <c r="C64" s="22">
+        <v>44839</v>
+      </c>
+      <c r="D64" s="22"/>
+      <c r="E64" s="23">
+        <v>44839</v>
+      </c>
+      <c r="F64" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="G64" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="H64" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="I64" s="77"/>
+      <c r="J64" s="88"/>
+      <c r="K64" s="88"/>
+      <c r="L64" s="90"/>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A65" s="33">
+        <v>44</v>
+      </c>
+      <c r="B65" s="10"/>
+      <c r="C65" s="19">
+        <v>44839</v>
+      </c>
+      <c r="D65" s="19"/>
+      <c r="E65" s="20">
+        <v>44839</v>
+      </c>
+      <c r="F65" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="G65" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="H65" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="I65" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="J65" s="10">
+        <v>38</v>
+      </c>
+      <c r="K65" s="10">
+        <v>3</v>
+      </c>
+      <c r="L65" s="34"/>
+    </row>
+    <row r="66" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="37">
+        <v>45</v>
+      </c>
+      <c r="B66" s="38"/>
+      <c r="C66" s="39">
+        <v>44829</v>
+      </c>
+      <c r="D66" s="39"/>
+      <c r="E66" s="40">
+        <v>44829</v>
+      </c>
+      <c r="F66" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="G66" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="H66" s="42" t="s">
+        <v>11</v>
+      </c>
+      <c r="I66" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="J61" s="10">
-        <v>41</v>
-      </c>
-      <c r="K61" s="10">
+      <c r="J66" s="44">
+        <v>53</v>
+      </c>
+      <c r="K66" s="44">
         <v>3</v>
       </c>
-      <c r="L61" s="34"/>
-    </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A62" s="30">
-        <v>43</v>
-      </c>
-      <c r="B62" s="9"/>
-      <c r="C62" s="22">
-        <v>44815</v>
-      </c>
-      <c r="D62" s="22">
-        <f t="shared" ref="D62" si="1">C62+7</f>
-        <v>44822</v>
-      </c>
-      <c r="E62" s="23">
-        <v>44822</v>
-      </c>
-      <c r="F62" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="G62" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="H62" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="I62" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="J62" s="8">
-        <v>57</v>
-      </c>
-      <c r="K62" s="8">
-        <v>4</v>
-      </c>
-      <c r="L62" s="29"/>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A63" s="33">
-        <v>44</v>
-      </c>
-      <c r="B63" s="10"/>
-      <c r="C63" s="19"/>
-      <c r="D63" s="19"/>
-      <c r="E63" s="20"/>
-      <c r="F63" s="21"/>
-      <c r="G63" s="10"/>
-      <c r="H63" s="10"/>
-      <c r="I63" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="J63" s="10">
-        <v>38</v>
-      </c>
-      <c r="K63" s="10">
-        <v>3</v>
-      </c>
-      <c r="L63" s="34"/>
-    </row>
-    <row r="64" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="37">
-        <v>45</v>
-      </c>
-      <c r="B64" s="38"/>
-      <c r="C64" s="39">
-        <v>44829</v>
-      </c>
-      <c r="D64" s="39"/>
-      <c r="E64" s="40">
-        <v>44829</v>
-      </c>
-      <c r="F64" s="41" t="s">
-        <v>10</v>
-      </c>
-      <c r="G64" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="H64" s="42" t="s">
-        <v>11</v>
-      </c>
-      <c r="I64" s="43" t="s">
-        <v>0</v>
-      </c>
-      <c r="J64" s="44">
-        <v>53</v>
-      </c>
-      <c r="K64" s="44">
-        <v>3</v>
-      </c>
-      <c r="L64" s="45"/>
+      <c r="L66" s="45"/>
     </row>
   </sheetData>
-  <mergeCells count="80">
+  <mergeCells count="90">
+    <mergeCell ref="L61:L62"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="I63:I64"/>
+    <mergeCell ref="J63:J64"/>
+    <mergeCell ref="K63:K64"/>
+    <mergeCell ref="L63:L64"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="I61:I62"/>
+    <mergeCell ref="J61:J62"/>
+    <mergeCell ref="K61:K62"/>
     <mergeCell ref="J52:J53"/>
     <mergeCell ref="K52:K53"/>
     <mergeCell ref="L52:L53"/>

--- a/sheet/CONTROLE_DE_TERRITORIO_2022.xlsx
+++ b/sheet/CONTROLE_DE_TERRITORIO_2022.xlsx
@@ -920,22 +920,85 @@
     <xf numFmtId="0" fontId="7" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="4" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="5" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="16" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="8" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="7" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -945,69 +1008,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="8" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="16" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1301,8 +1301,8 @@
   </sheetPr>
   <dimension ref="A1:L66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="99" zoomScaleNormal="100" zoomScalePageLayoutView="45" workbookViewId="0">
-      <selection activeCell="I65" sqref="I65"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="99" zoomScaleNormal="100" zoomScalePageLayoutView="45" workbookViewId="0">
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1395,7 +1395,7 @@
       <c r="L2" s="53"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="84">
+      <c r="A3" s="105">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -1417,19 +1417,19 @@
       <c r="H3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="76" t="s">
-        <v>4</v>
-      </c>
-      <c r="J3" s="78">
+      <c r="I3" s="78" t="s">
+        <v>4</v>
+      </c>
+      <c r="J3" s="86">
         <v>58</v>
       </c>
-      <c r="K3" s="78">
+      <c r="K3" s="86">
         <v>4</v>
       </c>
       <c r="L3" s="74"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="84"/>
+      <c r="A4" s="105"/>
       <c r="B4" s="61" t="s">
         <v>26</v>
       </c>
@@ -1451,9 +1451,9 @@
       <c r="H4" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="I4" s="77"/>
-      <c r="J4" s="79"/>
-      <c r="K4" s="79"/>
+      <c r="I4" s="79"/>
+      <c r="J4" s="87"/>
+      <c r="K4" s="87"/>
       <c r="L4" s="75"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -1491,7 +1491,7 @@
       <c r="L5" s="29"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="80">
+      <c r="A6" s="84">
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -1516,19 +1516,19 @@
       <c r="H6" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I6" s="76" t="s">
-        <v>4</v>
-      </c>
-      <c r="J6" s="78">
+      <c r="I6" s="78" t="s">
+        <v>4</v>
+      </c>
+      <c r="J6" s="86">
         <v>59</v>
       </c>
-      <c r="K6" s="78">
+      <c r="K6" s="86">
         <v>4</v>
       </c>
       <c r="L6" s="74"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="81"/>
+      <c r="A7" s="85"/>
       <c r="B7" s="58" t="s">
         <v>26</v>
       </c>
@@ -1550,9 +1550,9 @@
       <c r="H7" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="I7" s="77"/>
-      <c r="J7" s="79"/>
-      <c r="K7" s="79"/>
+      <c r="I7" s="79"/>
+      <c r="J7" s="87"/>
+      <c r="K7" s="87"/>
       <c r="L7" s="75"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -1872,7 +1872,7 @@
       <c r="L17" s="34"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="85">
+      <c r="A18" s="76">
         <v>15</v>
       </c>
       <c r="B18" s="4" t="s">
@@ -1894,19 +1894,19 @@
       <c r="H18" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="I18" s="76" t="s">
-        <v>4</v>
-      </c>
-      <c r="J18" s="87">
+      <c r="I18" s="78" t="s">
+        <v>4</v>
+      </c>
+      <c r="J18" s="80">
         <v>38</v>
       </c>
-      <c r="K18" s="87">
+      <c r="K18" s="80">
         <v>3</v>
       </c>
-      <c r="L18" s="89"/>
+      <c r="L18" s="82"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="86"/>
+      <c r="A19" s="77"/>
       <c r="B19" s="57" t="s">
         <v>26</v>
       </c>
@@ -1926,13 +1926,13 @@
       <c r="H19" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="I19" s="77"/>
-      <c r="J19" s="88"/>
-      <c r="K19" s="88"/>
-      <c r="L19" s="90"/>
+      <c r="I19" s="79"/>
+      <c r="J19" s="81"/>
+      <c r="K19" s="81"/>
+      <c r="L19" s="83"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="80">
+      <c r="A20" s="84">
         <v>16</v>
       </c>
       <c r="B20" s="1" t="s">
@@ -1954,19 +1954,19 @@
       <c r="H20" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I20" s="76" t="s">
-        <v>4</v>
-      </c>
-      <c r="J20" s="82">
+      <c r="I20" s="78" t="s">
+        <v>4</v>
+      </c>
+      <c r="J20" s="103">
         <v>37</v>
       </c>
-      <c r="K20" s="78">
+      <c r="K20" s="86">
         <v>3</v>
       </c>
       <c r="L20" s="74"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="81"/>
+      <c r="A21" s="85"/>
       <c r="B21" s="58" t="s">
         <v>26</v>
       </c>
@@ -1986,9 +1986,9 @@
       <c r="H21" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="I21" s="77"/>
-      <c r="J21" s="83"/>
-      <c r="K21" s="79"/>
+      <c r="I21" s="79"/>
+      <c r="J21" s="104"/>
+      <c r="K21" s="87"/>
       <c r="L21" s="75"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
@@ -2072,7 +2072,7 @@
       <c r="L24" s="29"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="80">
+      <c r="A25" s="84">
         <v>20</v>
       </c>
       <c r="B25" s="1" t="s">
@@ -2094,19 +2094,19 @@
       <c r="H25" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I25" s="76" t="s">
-        <v>4</v>
-      </c>
-      <c r="J25" s="78">
+      <c r="I25" s="78" t="s">
+        <v>4</v>
+      </c>
+      <c r="J25" s="86">
         <v>13</v>
       </c>
-      <c r="K25" s="78">
+      <c r="K25" s="86">
         <v>1</v>
       </c>
       <c r="L25" s="74"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="81"/>
+      <c r="A26" s="85"/>
       <c r="B26" s="58" t="s">
         <v>26</v>
       </c>
@@ -2126,9 +2126,9 @@
       <c r="H26" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="I26" s="77"/>
-      <c r="J26" s="79"/>
-      <c r="K26" s="79"/>
+      <c r="I26" s="79"/>
+      <c r="J26" s="87"/>
+      <c r="K26" s="87"/>
       <c r="L26" s="75"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
@@ -2314,7 +2314,7 @@
       <c r="L32" s="34"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A33" s="85">
+      <c r="A33" s="76">
         <v>27</v>
       </c>
       <c r="B33" s="4" t="s">
@@ -2336,19 +2336,19 @@
       <c r="H33" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="I33" s="76" t="s">
-        <v>4</v>
-      </c>
-      <c r="J33" s="87">
+      <c r="I33" s="78" t="s">
+        <v>4</v>
+      </c>
+      <c r="J33" s="80">
         <v>11</v>
       </c>
-      <c r="K33" s="87">
+      <c r="K33" s="80">
         <v>1</v>
       </c>
-      <c r="L33" s="89"/>
+      <c r="L33" s="82"/>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A34" s="86"/>
+      <c r="A34" s="77"/>
       <c r="B34" s="57" t="s">
         <v>26</v>
       </c>
@@ -2370,13 +2370,13 @@
       <c r="H34" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="I34" s="77"/>
-      <c r="J34" s="88"/>
-      <c r="K34" s="88"/>
-      <c r="L34" s="90"/>
+      <c r="I34" s="79"/>
+      <c r="J34" s="81"/>
+      <c r="K34" s="81"/>
+      <c r="L34" s="83"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A35" s="80">
+      <c r="A35" s="84">
         <v>28</v>
       </c>
       <c r="B35" s="1" t="s">
@@ -2398,19 +2398,19 @@
       <c r="H35" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I35" s="76" t="s">
-        <v>4</v>
-      </c>
-      <c r="J35" s="78">
+      <c r="I35" s="78" t="s">
+        <v>4</v>
+      </c>
+      <c r="J35" s="86">
         <v>20</v>
       </c>
-      <c r="K35" s="78">
+      <c r="K35" s="86">
         <v>2</v>
       </c>
       <c r="L35" s="74"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A36" s="81"/>
+      <c r="A36" s="85"/>
       <c r="B36" s="58" t="s">
         <v>26</v>
       </c>
@@ -2432,13 +2432,13 @@
       <c r="H36" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="I36" s="77"/>
-      <c r="J36" s="79"/>
-      <c r="K36" s="79"/>
+      <c r="I36" s="79"/>
+      <c r="J36" s="87"/>
+      <c r="K36" s="87"/>
       <c r="L36" s="75"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A37" s="85">
+      <c r="A37" s="76">
         <v>29</v>
       </c>
       <c r="B37" s="4" t="s">
@@ -2460,19 +2460,19 @@
       <c r="H37" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="I37" s="76" t="s">
-        <v>4</v>
-      </c>
-      <c r="J37" s="87">
+      <c r="I37" s="78" t="s">
+        <v>4</v>
+      </c>
+      <c r="J37" s="80">
         <v>35</v>
       </c>
-      <c r="K37" s="87">
+      <c r="K37" s="80">
         <v>2</v>
       </c>
-      <c r="L37" s="89"/>
+      <c r="L37" s="82"/>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A38" s="91"/>
+      <c r="A38" s="99"/>
       <c r="B38" s="4" t="s">
         <v>26</v>
       </c>
@@ -2492,13 +2492,13 @@
       <c r="H38" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="I38" s="97"/>
-      <c r="J38" s="92"/>
-      <c r="K38" s="92"/>
-      <c r="L38" s="102"/>
+      <c r="I38" s="98"/>
+      <c r="J38" s="100"/>
+      <c r="K38" s="100"/>
+      <c r="L38" s="92"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A39" s="86"/>
+      <c r="A39" s="77"/>
       <c r="B39" s="57" t="s">
         <v>28</v>
       </c>
@@ -2520,13 +2520,13 @@
       <c r="H39" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="I39" s="77"/>
-      <c r="J39" s="88"/>
-      <c r="K39" s="88"/>
-      <c r="L39" s="90"/>
+      <c r="I39" s="79"/>
+      <c r="J39" s="81"/>
+      <c r="K39" s="81"/>
+      <c r="L39" s="83"/>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A40" s="80">
+      <c r="A40" s="84">
         <v>30</v>
       </c>
       <c r="B40" s="1" t="s">
@@ -2548,19 +2548,19 @@
       <c r="H40" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I40" s="76" t="s">
-        <v>4</v>
-      </c>
-      <c r="J40" s="78">
+      <c r="I40" s="78" t="s">
+        <v>4</v>
+      </c>
+      <c r="J40" s="86">
         <v>19</v>
       </c>
-      <c r="K40" s="78">
+      <c r="K40" s="86">
         <v>1</v>
       </c>
       <c r="L40" s="74"/>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A41" s="93"/>
+      <c r="A41" s="101"/>
       <c r="B41" s="1" t="s">
         <v>26</v>
       </c>
@@ -2580,13 +2580,13 @@
       <c r="H41" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I41" s="97"/>
-      <c r="J41" s="94"/>
-      <c r="K41" s="94"/>
-      <c r="L41" s="103"/>
+      <c r="I41" s="98"/>
+      <c r="J41" s="102"/>
+      <c r="K41" s="102"/>
+      <c r="L41" s="93"/>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A42" s="81"/>
+      <c r="A42" s="85"/>
       <c r="B42" s="58" t="s">
         <v>28</v>
       </c>
@@ -2608,13 +2608,13 @@
       <c r="H42" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="I42" s="77"/>
-      <c r="J42" s="79"/>
-      <c r="K42" s="79"/>
+      <c r="I42" s="79"/>
+      <c r="J42" s="87"/>
+      <c r="K42" s="87"/>
       <c r="L42" s="75"/>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A43" s="85">
+      <c r="A43" s="76">
         <v>31</v>
       </c>
       <c r="B43" s="4" t="s">
@@ -2636,19 +2636,19 @@
       <c r="H43" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="I43" s="98" t="s">
+      <c r="I43" s="88" t="s">
         <v>0</v>
       </c>
-      <c r="J43" s="87">
+      <c r="J43" s="80">
         <v>21</v>
       </c>
-      <c r="K43" s="87">
-        <v>4</v>
-      </c>
-      <c r="L43" s="89"/>
+      <c r="K43" s="80">
+        <v>4</v>
+      </c>
+      <c r="L43" s="82"/>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A44" s="86"/>
+      <c r="A44" s="77"/>
       <c r="B44" s="57" t="s">
         <v>26</v>
       </c>
@@ -2668,10 +2668,10 @@
       <c r="H44" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="I44" s="99"/>
-      <c r="J44" s="88"/>
-      <c r="K44" s="88"/>
-      <c r="L44" s="90"/>
+      <c r="I44" s="89"/>
+      <c r="J44" s="81"/>
+      <c r="K44" s="81"/>
+      <c r="L44" s="83"/>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="67">
@@ -2706,7 +2706,7 @@
       <c r="L45" s="66"/>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A46" s="85">
+      <c r="A46" s="76">
         <v>33</v>
       </c>
       <c r="B46" s="4" t="s">
@@ -2728,19 +2728,19 @@
       <c r="H46" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="I46" s="98" t="s">
+      <c r="I46" s="88" t="s">
         <v>0</v>
       </c>
-      <c r="J46" s="87">
+      <c r="J46" s="80">
         <v>57</v>
       </c>
-      <c r="K46" s="87">
-        <v>4</v>
-      </c>
-      <c r="L46" s="89"/>
+      <c r="K46" s="80">
+        <v>4</v>
+      </c>
+      <c r="L46" s="82"/>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A47" s="86"/>
+      <c r="A47" s="77"/>
       <c r="B47" s="57" t="s">
         <v>26</v>
       </c>
@@ -2760,13 +2760,13 @@
       <c r="H47" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="I47" s="99"/>
-      <c r="J47" s="88"/>
-      <c r="K47" s="88"/>
-      <c r="L47" s="90"/>
+      <c r="I47" s="89"/>
+      <c r="J47" s="81"/>
+      <c r="K47" s="81"/>
+      <c r="L47" s="83"/>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A48" s="80">
+      <c r="A48" s="84">
         <v>34</v>
       </c>
       <c r="B48" s="1" t="s">
@@ -2788,21 +2788,21 @@
       <c r="H48" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I48" s="76" t="s">
-        <v>4</v>
-      </c>
-      <c r="J48" s="78">
+      <c r="I48" s="78" t="s">
+        <v>4</v>
+      </c>
+      <c r="J48" s="86">
         <v>58</v>
       </c>
-      <c r="K48" s="78">
+      <c r="K48" s="86">
         <v>3</v>
       </c>
-      <c r="L48" s="104" t="s">
+      <c r="L48" s="94" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A49" s="81"/>
+      <c r="A49" s="85"/>
       <c r="B49" s="58" t="s">
         <v>26</v>
       </c>
@@ -2826,10 +2826,10 @@
       <c r="H49" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="I49" s="77"/>
-      <c r="J49" s="79"/>
-      <c r="K49" s="79"/>
-      <c r="L49" s="105"/>
+      <c r="I49" s="79"/>
+      <c r="J49" s="87"/>
+      <c r="K49" s="87"/>
+      <c r="L49" s="95"/>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" s="68">
@@ -2899,7 +2899,7 @@
       <c r="L51" s="34"/>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A52" s="85">
+      <c r="A52" s="76">
         <v>37</v>
       </c>
       <c r="B52" s="4" t="s">
@@ -2921,19 +2921,19 @@
       <c r="H52" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="76" t="s">
-        <v>4</v>
-      </c>
-      <c r="J52" s="87">
+      <c r="I52" s="78" t="s">
+        <v>4</v>
+      </c>
+      <c r="J52" s="80">
         <v>48</v>
       </c>
-      <c r="K52" s="87">
+      <c r="K52" s="80">
         <v>3</v>
       </c>
-      <c r="L52" s="89"/>
+      <c r="L52" s="82"/>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A53" s="86"/>
+      <c r="A53" s="77"/>
       <c r="B53" s="57" t="s">
         <v>26</v>
       </c>
@@ -2957,13 +2957,13 @@
       <c r="H53" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="I53" s="77"/>
-      <c r="J53" s="88"/>
-      <c r="K53" s="88"/>
-      <c r="L53" s="90"/>
+      <c r="I53" s="79"/>
+      <c r="J53" s="81"/>
+      <c r="K53" s="81"/>
+      <c r="L53" s="83"/>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A54" s="80">
+      <c r="A54" s="84">
         <v>38</v>
       </c>
       <c r="B54" s="1" t="s">
@@ -2985,19 +2985,19 @@
       <c r="H54" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I54" s="76" t="s">
-        <v>4</v>
-      </c>
-      <c r="J54" s="78">
+      <c r="I54" s="78" t="s">
+        <v>4</v>
+      </c>
+      <c r="J54" s="86">
         <v>58</v>
       </c>
-      <c r="K54" s="78">
+      <c r="K54" s="86">
         <v>3</v>
       </c>
       <c r="L54" s="74"/>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A55" s="81"/>
+      <c r="A55" s="85"/>
       <c r="B55" s="58" t="s">
         <v>26</v>
       </c>
@@ -3019,13 +3019,13 @@
       <c r="H55" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="I55" s="77"/>
-      <c r="J55" s="79"/>
-      <c r="K55" s="79"/>
+      <c r="I55" s="79"/>
+      <c r="J55" s="87"/>
+      <c r="K55" s="87"/>
       <c r="L55" s="75"/>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A56" s="85">
+      <c r="A56" s="76">
         <v>39</v>
       </c>
       <c r="B56" s="4" t="s">
@@ -3047,19 +3047,19 @@
       <c r="H56" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="I56" s="76" t="s">
-        <v>4</v>
-      </c>
-      <c r="J56" s="87">
+      <c r="I56" s="78" t="s">
+        <v>4</v>
+      </c>
+      <c r="J56" s="80">
         <v>20</v>
       </c>
-      <c r="K56" s="87">
+      <c r="K56" s="80">
         <v>1</v>
       </c>
-      <c r="L56" s="89"/>
+      <c r="L56" s="82"/>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A57" s="86"/>
+      <c r="A57" s="77"/>
       <c r="B57" s="57" t="s">
         <v>26</v>
       </c>
@@ -3083,13 +3083,13 @@
       <c r="H57" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="I57" s="77"/>
-      <c r="J57" s="88"/>
-      <c r="K57" s="88"/>
-      <c r="L57" s="90"/>
+      <c r="I57" s="79"/>
+      <c r="J57" s="81"/>
+      <c r="K57" s="81"/>
+      <c r="L57" s="83"/>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A58" s="80">
+      <c r="A58" s="84">
         <v>40</v>
       </c>
       <c r="B58" s="1" t="s">
@@ -3111,19 +3111,19 @@
       <c r="H58" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I58" s="76" t="s">
-        <v>4</v>
-      </c>
-      <c r="J58" s="95">
+      <c r="I58" s="78" t="s">
+        <v>4</v>
+      </c>
+      <c r="J58" s="96">
         <v>17</v>
       </c>
-      <c r="K58" s="78">
+      <c r="K58" s="86">
         <v>1</v>
       </c>
-      <c r="L58" s="100"/>
+      <c r="L58" s="90"/>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A59" s="81"/>
+      <c r="A59" s="85"/>
       <c r="B59" s="58" t="s">
         <v>26</v>
       </c>
@@ -3147,10 +3147,10 @@
       <c r="H59" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="I59" s="77"/>
-      <c r="J59" s="96"/>
-      <c r="K59" s="79"/>
-      <c r="L59" s="101"/>
+      <c r="I59" s="79"/>
+      <c r="J59" s="97"/>
+      <c r="K59" s="87"/>
+      <c r="L59" s="91"/>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" s="35">
@@ -3169,7 +3169,7 @@
       <c r="L60" s="36"/>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A61" s="80">
+      <c r="A61" s="84">
         <v>42</v>
       </c>
       <c r="B61" s="1" t="s">
@@ -3191,19 +3191,19 @@
       <c r="H61" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="I61" s="76" t="s">
-        <v>4</v>
-      </c>
-      <c r="J61" s="78">
+      <c r="I61" s="78" t="s">
+        <v>4</v>
+      </c>
+      <c r="J61" s="86">
         <v>41</v>
       </c>
-      <c r="K61" s="78">
+      <c r="K61" s="86">
         <v>3</v>
       </c>
       <c r="L61" s="74"/>
     </row>
     <row r="62" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="81"/>
+      <c r="A62" s="85"/>
       <c r="B62" s="58" t="s">
         <v>26</v>
       </c>
@@ -3223,13 +3223,13 @@
       <c r="H62" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="I62" s="77"/>
-      <c r="J62" s="79"/>
-      <c r="K62" s="79"/>
+      <c r="I62" s="79"/>
+      <c r="J62" s="87"/>
+      <c r="K62" s="87"/>
       <c r="L62" s="75"/>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A63" s="85">
+      <c r="A63" s="76">
         <v>43</v>
       </c>
       <c r="B63" s="4" t="s">
@@ -3254,19 +3254,19 @@
       <c r="H63" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="I63" s="76" t="s">
-        <v>4</v>
-      </c>
-      <c r="J63" s="87">
+      <c r="I63" s="78" t="s">
+        <v>4</v>
+      </c>
+      <c r="J63" s="80">
         <v>57</v>
       </c>
-      <c r="K63" s="87">
-        <v>4</v>
-      </c>
-      <c r="L63" s="89"/>
+      <c r="K63" s="80">
+        <v>4</v>
+      </c>
+      <c r="L63" s="82"/>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A64" s="86"/>
+      <c r="A64" s="77"/>
       <c r="B64" s="57" t="s">
         <v>26</v>
       </c>
@@ -3286,10 +3286,10 @@
       <c r="H64" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="I64" s="77"/>
-      <c r="J64" s="88"/>
-      <c r="K64" s="88"/>
-      <c r="L64" s="90"/>
+      <c r="I64" s="79"/>
+      <c r="J64" s="81"/>
+      <c r="K64" s="81"/>
+      <c r="L64" s="83"/>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" s="33">
@@ -3357,35 +3357,51 @@
     </row>
   </sheetData>
   <mergeCells count="90">
-    <mergeCell ref="L61:L62"/>
-    <mergeCell ref="A63:A64"/>
-    <mergeCell ref="I63:I64"/>
-    <mergeCell ref="J63:J64"/>
-    <mergeCell ref="K63:K64"/>
-    <mergeCell ref="L63:L64"/>
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="I61:I62"/>
-    <mergeCell ref="J61:J62"/>
-    <mergeCell ref="K61:K62"/>
-    <mergeCell ref="J52:J53"/>
-    <mergeCell ref="K52:K53"/>
-    <mergeCell ref="L52:L53"/>
-    <mergeCell ref="I52:I53"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="J46:J47"/>
-    <mergeCell ref="K46:K47"/>
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="J48:J49"/>
-    <mergeCell ref="K48:K49"/>
-    <mergeCell ref="I46:I47"/>
-    <mergeCell ref="I48:I49"/>
-    <mergeCell ref="L58:L59"/>
-    <mergeCell ref="L37:L39"/>
-    <mergeCell ref="L40:L42"/>
-    <mergeCell ref="L54:L55"/>
-    <mergeCell ref="L56:L57"/>
-    <mergeCell ref="L46:L47"/>
-    <mergeCell ref="L48:L49"/>
+    <mergeCell ref="L20:L21"/>
+    <mergeCell ref="I25:I26"/>
+    <mergeCell ref="J25:J26"/>
+    <mergeCell ref="K25:K26"/>
+    <mergeCell ref="L25:L26"/>
+    <mergeCell ref="I20:I21"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="J20:J21"/>
+    <mergeCell ref="K20:K21"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="J18:J19"/>
+    <mergeCell ref="K18:K19"/>
+    <mergeCell ref="L18:L19"/>
+    <mergeCell ref="I18:I19"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="J33:J34"/>
+    <mergeCell ref="K33:K34"/>
+    <mergeCell ref="L33:L34"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="J35:J36"/>
+    <mergeCell ref="K35:K36"/>
+    <mergeCell ref="L35:L36"/>
+    <mergeCell ref="I33:I34"/>
+    <mergeCell ref="I35:I36"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="J43:J44"/>
+    <mergeCell ref="K43:K44"/>
+    <mergeCell ref="L43:L44"/>
+    <mergeCell ref="A37:A39"/>
+    <mergeCell ref="J37:J39"/>
+    <mergeCell ref="K37:K39"/>
+    <mergeCell ref="A40:A42"/>
+    <mergeCell ref="J40:J42"/>
+    <mergeCell ref="K40:K42"/>
     <mergeCell ref="A58:A59"/>
     <mergeCell ref="J58:J59"/>
     <mergeCell ref="K58:K59"/>
@@ -3402,54 +3418,38 @@
     <mergeCell ref="I56:I57"/>
     <mergeCell ref="I58:I59"/>
     <mergeCell ref="A52:A53"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="J43:J44"/>
-    <mergeCell ref="K43:K44"/>
-    <mergeCell ref="L43:L44"/>
-    <mergeCell ref="A37:A39"/>
-    <mergeCell ref="J37:J39"/>
-    <mergeCell ref="K37:K39"/>
-    <mergeCell ref="A40:A42"/>
-    <mergeCell ref="J40:J42"/>
-    <mergeCell ref="K40:K42"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="J33:J34"/>
-    <mergeCell ref="K33:K34"/>
-    <mergeCell ref="L33:L34"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="J35:J36"/>
-    <mergeCell ref="K35:K36"/>
-    <mergeCell ref="L35:L36"/>
-    <mergeCell ref="I33:I34"/>
-    <mergeCell ref="I35:I36"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="J18:J19"/>
-    <mergeCell ref="K18:K19"/>
-    <mergeCell ref="L18:L19"/>
-    <mergeCell ref="I18:I19"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="J20:J21"/>
-    <mergeCell ref="K20:K21"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="L20:L21"/>
-    <mergeCell ref="I25:I26"/>
-    <mergeCell ref="J25:J26"/>
-    <mergeCell ref="K25:K26"/>
-    <mergeCell ref="L25:L26"/>
-    <mergeCell ref="I20:I21"/>
+    <mergeCell ref="L58:L59"/>
+    <mergeCell ref="L37:L39"/>
+    <mergeCell ref="L40:L42"/>
+    <mergeCell ref="L54:L55"/>
+    <mergeCell ref="L56:L57"/>
+    <mergeCell ref="L46:L47"/>
+    <mergeCell ref="L48:L49"/>
+    <mergeCell ref="J52:J53"/>
+    <mergeCell ref="K52:K53"/>
+    <mergeCell ref="L52:L53"/>
+    <mergeCell ref="I52:I53"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="J46:J47"/>
+    <mergeCell ref="K46:K47"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="J48:J49"/>
+    <mergeCell ref="K48:K49"/>
+    <mergeCell ref="I46:I47"/>
+    <mergeCell ref="I48:I49"/>
+    <mergeCell ref="L61:L62"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="I63:I64"/>
+    <mergeCell ref="J63:J64"/>
+    <mergeCell ref="K63:K64"/>
+    <mergeCell ref="L63:L64"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="I61:I62"/>
+    <mergeCell ref="J61:J62"/>
+    <mergeCell ref="K61:K62"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0" right="0" top="0.19685039370078741" bottom="0.19685039370078741" header="0" footer="0"/>
-  <pageSetup paperSize="9" scale="60" fitToWidth="0" orientation="landscape" useFirstPageNumber="1" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="55" fitToWidth="0" orientation="landscape" useFirstPageNumber="1" r:id="rId1"/>
 </worksheet>
 </file>
--- a/sheet/CONTROLE_DE_TERRITORIO_2022.xlsx
+++ b/sheet/CONTROLE_DE_TERRITORIO_2022.xlsx
@@ -15,7 +15,7 @@
     <sheet name="NOVA" sheetId="3" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">NOVA!$A$1:$K$63</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">NOVA!$A$1:$K$64</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="40">
   <si>
     <t>OK</t>
   </si>
@@ -674,7 +674,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="110">
+  <cellXfs count="112">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="3" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -727,9 +727,6 @@
     <xf numFmtId="0" fontId="9" fillId="6" borderId="3" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="11" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="9" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -862,9 +859,6 @@
     <xf numFmtId="164" fontId="10" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -913,49 +907,85 @@
     <xf numFmtId="0" fontId="9" fillId="7" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="4" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="5" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="14" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="16" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="8" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -970,37 +1000,13 @@
     <xf numFmtId="0" fontId="9" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="8" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="14" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="16" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="10" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1291,10 +1297,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L63"/>
+  <dimension ref="A1:L64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="99" zoomScaleNormal="100" zoomScalePageLayoutView="45" workbookViewId="0">
-      <selection activeCell="H40" sqref="H40"/>
+    <sheetView tabSelected="1" zoomScale="99" zoomScaleNormal="100" zoomScalePageLayoutView="45" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7:I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1315,67 +1321,77 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="52" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="54" t="s">
+      <c r="B1" s="53" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="54" t="s">
+      <c r="C1" s="53" t="s">
         <v>32</v>
       </c>
-      <c r="D1" s="54" t="s">
+      <c r="D1" s="53" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="54" t="s">
+      <c r="E1" s="53" t="s">
         <v>34</v>
       </c>
-      <c r="F1" s="54" t="s">
+      <c r="F1" s="53" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="54" t="s">
+      <c r="G1" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="H1" s="54" t="s">
+      <c r="H1" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="I1" s="54" t="s">
+      <c r="I1" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="J1" s="54" t="s">
+      <c r="J1" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="K1" s="54" t="s">
+      <c r="K1" s="53" t="s">
         <v>38</v>
       </c>
-      <c r="L1" s="55" t="s">
+      <c r="L1" s="54" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="46">
+      <c r="A2" s="45">
         <v>1</v>
       </c>
-      <c r="B2" s="47"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="J2" s="47">
+      <c r="B2" s="46"/>
+      <c r="C2" s="47">
+        <v>44811</v>
+      </c>
+      <c r="D2" s="47"/>
+      <c r="E2" s="48">
+        <v>44813</v>
+      </c>
+      <c r="F2" s="49" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="50" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="J2" s="46">
         <v>5</v>
       </c>
-      <c r="K2" s="47">
+      <c r="K2" s="46">
         <v>1</v>
       </c>
-      <c r="L2" s="52"/>
+      <c r="L2" s="51"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="88">
+      <c r="A3" s="90">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -1397,1051 +1413,1053 @@
       <c r="H3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="82" t="s">
+      <c r="I3" s="84" t="s">
         <v>4</v>
       </c>
-      <c r="J3" s="84">
+      <c r="J3" s="92">
         <v>58</v>
       </c>
-      <c r="K3" s="84">
+      <c r="K3" s="92">
         <v>4</v>
       </c>
       <c r="L3" s="80"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="88"/>
-      <c r="B4" s="60" t="s">
+      <c r="A4" s="107"/>
+      <c r="B4" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="18">
+      <c r="C4" s="2">
         <v>44825</v>
       </c>
-      <c r="D4" s="18">
+      <c r="D4" s="2">
         <v>44832</v>
       </c>
-      <c r="E4" s="18">
+      <c r="E4" s="2">
         <v>44836</v>
       </c>
-      <c r="F4" s="63" t="s">
+      <c r="F4" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G4" s="60" t="s">
+      <c r="G4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="H4" s="60" t="s">
+      <c r="H4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I4" s="83"/>
-      <c r="J4" s="85"/>
-      <c r="K4" s="85"/>
+      <c r="I4" s="104"/>
+      <c r="J4" s="108"/>
+      <c r="K4" s="93"/>
       <c r="L4" s="81"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="28">
+      <c r="A5" s="91"/>
+      <c r="B5" s="59" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="109">
+        <v>44811</v>
+      </c>
+      <c r="D5" s="109"/>
+      <c r="E5" s="109">
+        <v>44813</v>
+      </c>
+      <c r="F5" s="110" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" s="111" t="s">
+        <v>2</v>
+      </c>
+      <c r="H5" s="59" t="s">
+        <v>1</v>
+      </c>
+      <c r="I5" s="85"/>
+      <c r="J5" s="93"/>
+      <c r="K5" s="79"/>
+      <c r="L5" s="78"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="27">
         <v>3</v>
       </c>
-      <c r="B5" s="9"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="J5" s="8">
+      <c r="B6" s="9"/>
+      <c r="C6" s="47">
+        <v>44811</v>
+      </c>
+      <c r="D6" s="47"/>
+      <c r="E6" s="48">
+        <v>44813</v>
+      </c>
+      <c r="F6" s="49" t="s">
+        <v>6</v>
+      </c>
+      <c r="G6" s="50" t="s">
+        <v>2</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="I6" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="J6" s="8">
         <v>7</v>
       </c>
-      <c r="K5" s="8">
+      <c r="K6" s="8">
         <v>1</v>
       </c>
-      <c r="L5" s="29"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="86">
+      <c r="L6" s="28"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="90">
         <v>4</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B7" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C7" s="2">
         <v>44805</v>
       </c>
-      <c r="D6" s="2">
-        <f t="shared" ref="D6" si="0">C6+7</f>
+      <c r="D7" s="2">
+        <f t="shared" ref="D7" si="0">C7+7</f>
         <v>44812</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E7" s="2">
         <v>44815</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F7" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="G7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="H7" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I6" s="102" t="s">
-        <v>0</v>
-      </c>
-      <c r="J6" s="84">
+      <c r="I7" s="84" t="s">
+        <v>4</v>
+      </c>
+      <c r="J7" s="92">
         <v>59</v>
       </c>
-      <c r="K6" s="84">
+      <c r="K7" s="92">
         <v>4</v>
       </c>
-      <c r="L6" s="80"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="87"/>
-      <c r="B7" s="57" t="s">
+      <c r="L7" s="80"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="91"/>
+      <c r="B8" s="56" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="20">
-        <v>44820</v>
-      </c>
-      <c r="D7" s="20">
-        <v>45192</v>
-      </c>
-      <c r="E7" s="20">
+      <c r="C8" s="109">
+        <v>44811</v>
+      </c>
+      <c r="D8" s="109"/>
+      <c r="E8" s="109">
+        <v>44813</v>
+      </c>
+      <c r="F8" s="110" t="s">
+        <v>6</v>
+      </c>
+      <c r="G8" s="111" t="s">
+        <v>2</v>
+      </c>
+      <c r="H8" s="59" t="s">
+        <v>1</v>
+      </c>
+      <c r="I8" s="85"/>
+      <c r="J8" s="93"/>
+      <c r="K8" s="93"/>
+      <c r="L8" s="81"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="29">
+        <v>5</v>
+      </c>
+      <c r="B9" s="9"/>
+      <c r="C9" s="21">
+        <v>44822</v>
+      </c>
+      <c r="D9" s="21">
         <v>44829</v>
       </c>
-      <c r="F7" s="62" t="s">
-        <v>6</v>
-      </c>
-      <c r="G7" s="57" t="s">
-        <v>2</v>
-      </c>
-      <c r="H7" s="57" t="s">
-        <v>5</v>
-      </c>
-      <c r="I7" s="103"/>
-      <c r="J7" s="85"/>
-      <c r="K7" s="85"/>
-      <c r="L7" s="81"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="30">
-        <v>5</v>
-      </c>
-      <c r="B8" s="9"/>
-      <c r="C8" s="22">
-        <v>44822</v>
-      </c>
-      <c r="D8" s="22">
+      <c r="E9" s="22">
         <v>44829</v>
       </c>
-      <c r="E8" s="23">
-        <v>44829</v>
-      </c>
-      <c r="F8" s="24" t="s">
+      <c r="F9" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="G8" s="25" t="s">
+      <c r="G9" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="H8" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="I8" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="J8" s="8">
-        <v>8</v>
-      </c>
-      <c r="K8" s="8">
-        <v>1</v>
-      </c>
-      <c r="L8" s="29"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="31">
-        <v>6</v>
-      </c>
-      <c r="B9" s="11"/>
-      <c r="C9" s="19">
-        <v>44822</v>
-      </c>
-      <c r="D9" s="19">
-        <v>44829</v>
-      </c>
-      <c r="E9" s="20">
-        <v>44829</v>
-      </c>
-      <c r="F9" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="G9" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="H9" s="10" t="s">
+      <c r="H9" s="24" t="s">
         <v>11</v>
       </c>
       <c r="I9" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="J9" s="11">
-        <v>28</v>
-      </c>
-      <c r="K9" s="11">
-        <v>2</v>
-      </c>
-      <c r="L9" s="32" t="s">
-        <v>20</v>
-      </c>
+      <c r="J9" s="8">
+        <v>8</v>
+      </c>
+      <c r="K9" s="8">
+        <v>1</v>
+      </c>
+      <c r="L9" s="28"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="30">
-        <v>7</v>
-      </c>
-      <c r="B10" s="9"/>
-      <c r="C10" s="22">
+        <v>6</v>
+      </c>
+      <c r="B10" s="11"/>
+      <c r="C10" s="18">
         <v>44822</v>
       </c>
-      <c r="D10" s="22">
+      <c r="D10" s="18">
         <v>44829</v>
       </c>
-      <c r="E10" s="23">
+      <c r="E10" s="19">
         <v>44829</v>
       </c>
-      <c r="F10" s="24" t="s">
+      <c r="F10" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="G10" s="25" t="s">
+      <c r="G10" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="H10" s="25" t="s">
+      <c r="H10" s="10" t="s">
         <v>11</v>
       </c>
       <c r="I10" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="J10" s="8">
-        <v>21</v>
-      </c>
-      <c r="K10" s="8">
+      <c r="J10" s="11">
+        <v>28</v>
+      </c>
+      <c r="K10" s="11">
         <v>2</v>
       </c>
-      <c r="L10" s="29"/>
+      <c r="L10" s="31" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="33">
-        <v>8</v>
-      </c>
-      <c r="B11" s="10"/>
-      <c r="C11" s="19">
+      <c r="A11" s="29">
+        <v>7</v>
+      </c>
+      <c r="B11" s="9"/>
+      <c r="C11" s="21">
         <v>44822</v>
       </c>
-      <c r="D11" s="19">
+      <c r="D11" s="21">
         <v>44829</v>
       </c>
-      <c r="E11" s="20">
+      <c r="E11" s="22">
         <v>44829</v>
       </c>
-      <c r="F11" s="21" t="s">
+      <c r="F11" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="G11" s="10" t="s">
+      <c r="G11" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="H11" s="10" t="s">
+      <c r="H11" s="24" t="s">
         <v>11</v>
       </c>
       <c r="I11" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="J11" s="10">
-        <v>33</v>
-      </c>
-      <c r="K11" s="10">
+      <c r="J11" s="8">
+        <v>21</v>
+      </c>
+      <c r="K11" s="8">
         <v>2</v>
       </c>
-      <c r="L11" s="34"/>
+      <c r="L11" s="28"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="30">
-        <v>9</v>
-      </c>
-      <c r="B12" s="9"/>
-      <c r="C12" s="14">
-        <v>44825</v>
-      </c>
-      <c r="D12" s="14">
-        <v>44832</v>
-      </c>
-      <c r="E12" s="15">
-        <v>44836</v>
-      </c>
-      <c r="F12" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="G12" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="H12" s="9" t="s">
-        <v>1</v>
+      <c r="A12" s="32">
+        <v>8</v>
+      </c>
+      <c r="B12" s="10"/>
+      <c r="C12" s="18">
+        <v>44822</v>
+      </c>
+      <c r="D12" s="18">
+        <v>44829</v>
+      </c>
+      <c r="E12" s="19">
+        <v>44829</v>
+      </c>
+      <c r="F12" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="G12" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H12" s="10" t="s">
+        <v>11</v>
       </c>
       <c r="I12" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="J12" s="8">
+      <c r="J12" s="10">
+        <v>33</v>
+      </c>
+      <c r="K12" s="10">
+        <v>2</v>
+      </c>
+      <c r="L12" s="33"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="29">
+        <v>9</v>
+      </c>
+      <c r="B13" s="9"/>
+      <c r="C13" s="14">
+        <v>44825</v>
+      </c>
+      <c r="D13" s="14">
+        <v>44832</v>
+      </c>
+      <c r="E13" s="15">
+        <v>44836</v>
+      </c>
+      <c r="F13" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="H13" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="I13" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="J13" s="8">
         <v>61</v>
       </c>
-      <c r="K12" s="8">
+      <c r="K13" s="8">
         <v>4</v>
       </c>
-      <c r="L12" s="29"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="35">
+      <c r="L13" s="28"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="34">
         <v>10</v>
       </c>
-      <c r="B13" s="12"/>
-      <c r="C13" s="26"/>
-      <c r="D13" s="26"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="26"/>
-      <c r="G13" s="26"/>
-      <c r="H13" s="26"/>
-      <c r="I13" s="26"/>
-      <c r="J13" s="26"/>
-      <c r="K13" s="26"/>
-      <c r="L13" s="36"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="30">
+      <c r="B14" s="12"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="25"/>
+      <c r="I14" s="25"/>
+      <c r="J14" s="25"/>
+      <c r="K14" s="25"/>
+      <c r="L14" s="35"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="29">
         <v>11</v>
       </c>
-      <c r="B14" s="9"/>
-      <c r="C14" s="22">
+      <c r="B15" s="9"/>
+      <c r="C15" s="21">
         <v>44838</v>
       </c>
-      <c r="D14" s="22"/>
-      <c r="E14" s="23">
+      <c r="D15" s="21"/>
+      <c r="E15" s="22">
         <v>44839</v>
       </c>
-      <c r="F14" s="24" t="s">
+      <c r="F15" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="G14" s="25" t="s">
+      <c r="G15" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="H14" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="I14" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="J14" s="8">
-        <v>128</v>
-      </c>
-      <c r="K14" s="8">
-        <v>8</v>
-      </c>
-      <c r="L14" s="29"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="33">
-        <v>12</v>
-      </c>
-      <c r="B15" s="10"/>
-      <c r="C15" s="22">
-        <v>44838</v>
-      </c>
-      <c r="D15" s="22"/>
-      <c r="E15" s="23">
-        <v>44839</v>
-      </c>
-      <c r="F15" s="24" t="s">
-        <v>15</v>
-      </c>
-      <c r="G15" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="H15" s="25" t="s">
+      <c r="H15" s="24" t="s">
         <v>16</v>
       </c>
       <c r="I15" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="J15" s="10">
+      <c r="J15" s="8">
+        <v>128</v>
+      </c>
+      <c r="K15" s="8">
+        <v>8</v>
+      </c>
+      <c r="L15" s="28"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="32">
+        <v>12</v>
+      </c>
+      <c r="B16" s="10"/>
+      <c r="C16" s="21">
+        <v>44838</v>
+      </c>
+      <c r="D16" s="21"/>
+      <c r="E16" s="22">
+        <v>44839</v>
+      </c>
+      <c r="F16" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="G16" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="H16" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="I16" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="J16" s="10">
         <v>66</v>
       </c>
-      <c r="K15" s="10">
+      <c r="K16" s="10">
         <v>5</v>
       </c>
-      <c r="L15" s="34"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="30">
+      <c r="L16" s="33"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="29">
         <v>13</v>
       </c>
-      <c r="B16" s="9"/>
-      <c r="C16" s="14">
+      <c r="B17" s="9"/>
+      <c r="C17" s="14">
         <v>44829</v>
       </c>
-      <c r="D16" s="14"/>
-      <c r="E16" s="23">
+      <c r="D17" s="14"/>
+      <c r="E17" s="22">
         <v>44829</v>
       </c>
-      <c r="F16" s="16" t="s">
+      <c r="F17" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="G16" s="9" t="s">
+      <c r="G17" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="H16" s="9" t="s">
+      <c r="H17" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="I16" s="27" t="s">
+      <c r="I17" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="J16" s="8">
+      <c r="J17" s="8">
         <v>7</v>
       </c>
-      <c r="K16" s="8">
+      <c r="K17" s="8">
         <v>1</v>
       </c>
-      <c r="L16" s="29"/>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="33">
+      <c r="L17" s="28"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="32">
         <v>14</v>
       </c>
-      <c r="B17" s="10"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="27" t="s">
+      <c r="B18" s="10"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="J17" s="10">
+      <c r="J18" s="10">
         <v>39</v>
       </c>
-      <c r="K17" s="10">
+      <c r="K18" s="10">
         <v>3</v>
       </c>
-      <c r="L17" s="34"/>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="73">
+      <c r="L18" s="33"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="71">
         <v>15</v>
       </c>
-      <c r="B18" s="4"/>
-      <c r="C18" s="70">
+      <c r="B19" s="4"/>
+      <c r="C19" s="68">
         <v>44826</v>
       </c>
-      <c r="D18" s="70"/>
-      <c r="E18" s="70">
+      <c r="D19" s="68"/>
+      <c r="E19" s="68">
         <v>44829</v>
       </c>
-      <c r="F18" s="71" t="s">
+      <c r="F19" s="69" t="s">
         <v>3</v>
       </c>
-      <c r="G18" s="4" t="s">
+      <c r="G19" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H18" s="4" t="s">
+      <c r="H19" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="I18" s="27" t="s">
+      <c r="I19" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="J18" s="75">
+      <c r="J19" s="73">
         <v>38</v>
       </c>
-      <c r="K18" s="75">
+      <c r="K19" s="73">
         <v>3</v>
       </c>
-      <c r="L18" s="76"/>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="77">
+      <c r="L19" s="74"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="75">
         <v>16</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B20" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C19" s="2">
+      <c r="C20" s="2">
         <v>44826</v>
       </c>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2">
+      <c r="D20" s="2"/>
+      <c r="E20" s="2">
         <v>44829</v>
       </c>
-      <c r="F19" s="3" t="s">
+      <c r="F20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G19" s="1" t="s">
+      <c r="G20" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H19" s="1" t="s">
+      <c r="H20" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I19" s="27" t="s">
+      <c r="I20" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="J19" s="79">
+      <c r="J20" s="77">
         <v>37</v>
       </c>
-      <c r="K19" s="78">
+      <c r="K20" s="76">
         <v>3</v>
       </c>
-      <c r="L19" s="72"/>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="35">
+      <c r="L20" s="70"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="34">
         <v>17</v>
       </c>
-      <c r="B20" s="12"/>
-      <c r="C20" s="26"/>
-      <c r="D20" s="26"/>
-      <c r="E20" s="26"/>
-      <c r="F20" s="26"/>
-      <c r="G20" s="26"/>
-      <c r="H20" s="26"/>
-      <c r="I20" s="26"/>
-      <c r="J20" s="26"/>
-      <c r="K20" s="26"/>
-      <c r="L20" s="36"/>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="33">
+      <c r="B21" s="12"/>
+      <c r="C21" s="25"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="25"/>
+      <c r="H21" s="25"/>
+      <c r="I21" s="25"/>
+      <c r="J21" s="25"/>
+      <c r="K21" s="25"/>
+      <c r="L21" s="35"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" s="32">
         <v>18</v>
       </c>
-      <c r="B21" s="10"/>
-      <c r="C21" s="19">
+      <c r="B22" s="10"/>
+      <c r="C22" s="18">
         <v>44835</v>
       </c>
-      <c r="D21" s="19"/>
-      <c r="E21" s="20">
+      <c r="D22" s="18"/>
+      <c r="E22" s="19">
         <v>44836</v>
       </c>
-      <c r="F21" s="21" t="s">
+      <c r="F22" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="G21" s="10" t="s">
+      <c r="G22" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="H21" s="10" t="s">
+      <c r="H22" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="I21" s="27" t="s">
+      <c r="I22" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="J21" s="10">
+      <c r="J22" s="10">
         <v>47</v>
       </c>
-      <c r="K21" s="10">
+      <c r="K22" s="10">
         <v>3</v>
       </c>
-      <c r="L21" s="34"/>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="30">
+      <c r="L22" s="33"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" s="29">
         <v>19</v>
       </c>
-      <c r="B22" s="9"/>
-      <c r="C22" s="14">
+      <c r="B23" s="9"/>
+      <c r="C23" s="14">
         <v>44822</v>
       </c>
-      <c r="D22" s="14"/>
-      <c r="E22" s="15">
+      <c r="D23" s="14"/>
+      <c r="E23" s="15">
         <v>44822</v>
       </c>
-      <c r="F22" s="16" t="s">
+      <c r="F23" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="G22" s="9" t="s">
+      <c r="G23" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="H22" s="9" t="s">
+      <c r="H23" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="I22" s="27" t="s">
+      <c r="I23" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="J22" s="8">
+      <c r="J23" s="8">
         <v>68</v>
       </c>
-      <c r="K22" s="8">
+      <c r="K23" s="8">
         <v>4</v>
       </c>
-      <c r="L22" s="29"/>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="77">
+      <c r="L23" s="28"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" s="75">
         <v>20</v>
       </c>
-      <c r="B23" s="1"/>
-      <c r="C23" s="2">
+      <c r="B24" s="1"/>
+      <c r="C24" s="2">
         <v>44815</v>
       </c>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2">
+      <c r="D24" s="2"/>
+      <c r="E24" s="2">
         <v>44818</v>
       </c>
-      <c r="F23" s="3" t="s">
+      <c r="F24" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G23" s="1" t="s">
+      <c r="G24" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="H23" s="1" t="s">
+      <c r="H24" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I23" s="74" t="s">
+      <c r="I24" s="72" t="s">
         <v>4</v>
       </c>
-      <c r="J23" s="78">
+      <c r="J24" s="76">
         <v>13</v>
       </c>
-      <c r="K23" s="78">
+      <c r="K24" s="76">
         <v>1</v>
       </c>
-      <c r="L23" s="72"/>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="30">
+      <c r="L24" s="70"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" s="29">
         <v>21</v>
       </c>
-      <c r="B24" s="9"/>
-      <c r="C24" s="22">
+      <c r="B25" s="9"/>
+      <c r="C25" s="21">
         <v>44815</v>
       </c>
-      <c r="D24" s="22"/>
-      <c r="E24" s="23">
+      <c r="D25" s="21"/>
+      <c r="E25" s="22">
         <v>44818</v>
       </c>
-      <c r="F24" s="24" t="s">
+      <c r="F25" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="G24" s="25" t="s">
+      <c r="G25" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="H24" s="25" t="s">
+      <c r="H25" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="I24" s="27" t="s">
+      <c r="I25" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="J24" s="8">
+      <c r="J25" s="8">
         <v>93</v>
       </c>
-      <c r="K24" s="8">
+      <c r="K25" s="8">
         <v>6</v>
       </c>
-      <c r="L24" s="29"/>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="33">
+      <c r="L25" s="28"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" s="32">
         <v>22</v>
       </c>
-      <c r="B25" s="10"/>
-      <c r="C25" s="19">
+      <c r="B26" s="10"/>
+      <c r="C26" s="18">
         <v>44822</v>
       </c>
-      <c r="D25" s="19"/>
-      <c r="E25" s="20">
+      <c r="D26" s="18"/>
+      <c r="E26" s="19">
         <v>44822</v>
       </c>
-      <c r="F25" s="21" t="s">
+      <c r="F26" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="G25" s="10" t="s">
+      <c r="G26" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="H25" s="10" t="s">
+      <c r="H26" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="I25" s="27" t="s">
+      <c r="I26" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="J25" s="10">
+      <c r="J26" s="10">
         <v>71</v>
       </c>
-      <c r="K25" s="10">
+      <c r="K26" s="10">
         <v>4</v>
       </c>
-      <c r="L25" s="34"/>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="30">
+      <c r="L26" s="33"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" s="29">
         <v>23</v>
       </c>
-      <c r="B26" s="9"/>
-      <c r="C26" s="22">
+      <c r="B27" s="9"/>
+      <c r="C27" s="21">
         <v>44808</v>
       </c>
-      <c r="D26" s="22"/>
-      <c r="E26" s="23">
+      <c r="D27" s="21"/>
+      <c r="E27" s="22">
         <v>44818</v>
       </c>
-      <c r="F26" s="24" t="s">
+      <c r="F27" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="G26" s="25" t="s">
+      <c r="G27" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="H26" s="25" t="s">
+      <c r="H27" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="I26" s="27" t="s">
+      <c r="I27" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="J26" s="8">
+      <c r="J27" s="8">
         <v>28</v>
       </c>
-      <c r="K26" s="8">
+      <c r="K27" s="8">
         <v>2</v>
       </c>
-      <c r="L26" s="29"/>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="33">
+      <c r="L27" s="28"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" s="32">
         <v>24</v>
       </c>
-      <c r="B27" s="10"/>
-      <c r="C27" s="19">
+      <c r="B28" s="10"/>
+      <c r="C28" s="18">
         <v>44815</v>
       </c>
-      <c r="D27" s="19"/>
-      <c r="E27" s="20">
+      <c r="D28" s="18"/>
+      <c r="E28" s="19">
         <v>44818</v>
       </c>
-      <c r="F27" s="21" t="s">
+      <c r="F28" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="G27" s="10" t="s">
+      <c r="G28" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="H27" s="10" t="s">
+      <c r="H28" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="I27" s="27" t="s">
+      <c r="I28" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="J27" s="10">
+      <c r="J28" s="10">
         <v>29</v>
       </c>
-      <c r="K27" s="10">
+      <c r="K28" s="10">
         <v>2</v>
       </c>
-      <c r="L27" s="34"/>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="30">
+      <c r="L28" s="33"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" s="29">
         <v>25</v>
       </c>
-      <c r="B28" s="9"/>
-      <c r="C28" s="22"/>
-      <c r="D28" s="22"/>
-      <c r="E28" s="23"/>
-      <c r="F28" s="24"/>
-      <c r="G28" s="25"/>
-      <c r="H28" s="25"/>
-      <c r="I28" s="27" t="s">
+      <c r="B29" s="9"/>
+      <c r="C29" s="21"/>
+      <c r="D29" s="21"/>
+      <c r="E29" s="22"/>
+      <c r="F29" s="23"/>
+      <c r="G29" s="24"/>
+      <c r="H29" s="24"/>
+      <c r="I29" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="J28" s="8">
+      <c r="J29" s="8">
         <v>44</v>
       </c>
-      <c r="K28" s="8">
+      <c r="K29" s="8">
         <v>3</v>
       </c>
-      <c r="L28" s="29"/>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" s="33">
+      <c r="L29" s="28"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" s="32">
         <v>26</v>
       </c>
-      <c r="B29" s="10"/>
-      <c r="C29" s="19">
+      <c r="B30" s="10"/>
+      <c r="C30" s="18">
         <v>44829</v>
       </c>
-      <c r="D29" s="19"/>
-      <c r="E29" s="20">
+      <c r="D30" s="18"/>
+      <c r="E30" s="19">
         <v>44832</v>
       </c>
-      <c r="F29" s="21" t="s">
+      <c r="F30" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="G29" s="10" t="s">
+      <c r="G30" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="H29" s="10" t="s">
+      <c r="H30" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="I29" s="27" t="s">
+      <c r="I30" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="J29" s="10">
+      <c r="J30" s="10">
         <v>28</v>
       </c>
-      <c r="K29" s="10">
+      <c r="K30" s="10">
         <v>3</v>
       </c>
-      <c r="L29" s="34"/>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" s="89">
+      <c r="L30" s="33"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" s="82">
         <v>27</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="B31" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C30" s="5">
+      <c r="C31" s="5">
         <v>44810</v>
       </c>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5">
+      <c r="D31" s="5"/>
+      <c r="E31" s="5">
         <v>44818</v>
       </c>
-      <c r="F30" s="6" t="s">
+      <c r="F31" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="G30" s="7" t="s">
+      <c r="G31" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="H30" s="7" t="s">
+      <c r="H31" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="I30" s="102" t="s">
+      <c r="I31" s="94" t="s">
         <v>39</v>
       </c>
-      <c r="J30" s="91">
+      <c r="J31" s="86">
         <v>11</v>
       </c>
-      <c r="K30" s="91">
+      <c r="K31" s="86">
         <v>1</v>
       </c>
-      <c r="L30" s="93"/>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" s="90"/>
-      <c r="B31" s="56" t="s">
+      <c r="L31" s="88"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" s="83"/>
+      <c r="B32" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="C31" s="23">
+      <c r="C32" s="22">
         <v>44829</v>
       </c>
-      <c r="D31" s="23">
+      <c r="D32" s="22">
         <v>44836</v>
       </c>
-      <c r="E31" s="23">
+      <c r="E32" s="22">
         <v>44836</v>
       </c>
-      <c r="F31" s="58" t="s">
+      <c r="F32" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="G31" s="59" t="s">
+      <c r="G32" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="H31" s="59" t="s">
+      <c r="H32" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="I31" s="103"/>
-      <c r="J31" s="92"/>
-      <c r="K31" s="92"/>
-      <c r="L31" s="94"/>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A32" s="86">
+      <c r="I32" s="95"/>
+      <c r="J32" s="87"/>
+      <c r="K32" s="87"/>
+      <c r="L32" s="89"/>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33" s="90">
         <v>28</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B33" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C32" s="2">
+      <c r="C33" s="2">
         <v>44807</v>
       </c>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2">
+      <c r="D33" s="2"/>
+      <c r="E33" s="2">
         <v>44808</v>
       </c>
-      <c r="F32" s="3" t="s">
+      <c r="F33" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G32" s="1" t="s">
+      <c r="G33" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H32" s="1" t="s">
+      <c r="H33" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I32" s="82" t="s">
+      <c r="I33" s="84" t="s">
         <v>4</v>
       </c>
-      <c r="J32" s="84">
+      <c r="J33" s="92">
         <v>20</v>
       </c>
-      <c r="K32" s="84">
+      <c r="K33" s="92">
         <v>2</v>
       </c>
-      <c r="L32" s="80"/>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A33" s="87"/>
-      <c r="B33" s="57" t="s">
+      <c r="L33" s="80"/>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34" s="91"/>
+      <c r="B34" s="56" t="s">
         <v>26</v>
       </c>
-      <c r="C33" s="20">
+      <c r="C34" s="19">
         <v>44829</v>
       </c>
-      <c r="D33" s="20">
+      <c r="D34" s="19">
         <v>44836</v>
       </c>
-      <c r="E33" s="20">
+      <c r="E34" s="19">
         <v>44836</v>
       </c>
-      <c r="F33" s="62" t="s">
+      <c r="F34" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="G33" s="57" t="s">
+      <c r="G34" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="H33" s="57" t="s">
+      <c r="H34" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="I33" s="83"/>
-      <c r="J33" s="85"/>
-      <c r="K33" s="85"/>
-      <c r="L33" s="81"/>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A34" s="89">
+      <c r="I34" s="85"/>
+      <c r="J34" s="93"/>
+      <c r="K34" s="93"/>
+      <c r="L34" s="81"/>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35" s="82">
         <v>29</v>
       </c>
-      <c r="B34" s="4" t="s">
+      <c r="B35" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C34" s="5">
+      <c r="C35" s="5">
         <v>44807</v>
-      </c>
-      <c r="D34" s="5"/>
-      <c r="E34" s="5">
-        <v>44808</v>
-      </c>
-      <c r="F34" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="H34" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="I34" s="82" t="s">
-        <v>4</v>
-      </c>
-      <c r="J34" s="91">
-        <v>35</v>
-      </c>
-      <c r="K34" s="91">
-        <v>2</v>
-      </c>
-      <c r="L34" s="93"/>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A35" s="95"/>
-      <c r="B35" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C35" s="5">
-        <v>44810</v>
       </c>
       <c r="D35" s="5"/>
       <c r="E35" s="5">
+        <v>44808</v>
+      </c>
+      <c r="F35" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H35" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I35" s="84" t="s">
+        <v>4</v>
+      </c>
+      <c r="J35" s="86">
+        <v>35</v>
+      </c>
+      <c r="K35" s="86">
+        <v>2</v>
+      </c>
+      <c r="L35" s="88"/>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A36" s="105"/>
+      <c r="B36" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" s="5">
+        <v>44810</v>
+      </c>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5">
         <v>44818</v>
       </c>
-      <c r="F35" s="6" t="s">
+      <c r="F36" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="G35" s="7" t="s">
+      <c r="G36" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="H35" s="7" t="s">
+      <c r="H36" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="I35" s="101"/>
-      <c r="J35" s="96"/>
-      <c r="K35" s="96"/>
-      <c r="L35" s="106"/>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A36" s="90"/>
-      <c r="B36" s="56" t="s">
+      <c r="I36" s="104"/>
+      <c r="J36" s="106"/>
+      <c r="K36" s="106"/>
+      <c r="L36" s="98"/>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A37" s="83"/>
+      <c r="B37" s="55" t="s">
         <v>28</v>
       </c>
-      <c r="C36" s="23">
+      <c r="C37" s="22">
         <v>44829</v>
       </c>
-      <c r="D36" s="23">
+      <c r="D37" s="22">
         <v>44836</v>
       </c>
-      <c r="E36" s="23">
+      <c r="E37" s="22">
         <v>44836</v>
       </c>
-      <c r="F36" s="58" t="s">
+      <c r="F37" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="G36" s="59" t="s">
+      <c r="G37" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="H36" s="59" t="s">
+      <c r="H37" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="I36" s="83"/>
-      <c r="J36" s="92"/>
-      <c r="K36" s="92"/>
-      <c r="L36" s="94"/>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A37" s="86">
+      <c r="I37" s="85"/>
+      <c r="J37" s="87"/>
+      <c r="K37" s="87"/>
+      <c r="L37" s="89"/>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A38" s="90">
         <v>30</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B38" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C37" s="2">
+      <c r="C38" s="2">
         <v>44807</v>
-      </c>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2">
-        <v>44815</v>
-      </c>
-      <c r="F37" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H37" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I37" s="82" t="s">
-        <v>4</v>
-      </c>
-      <c r="J37" s="84">
-        <v>19</v>
-      </c>
-      <c r="K37" s="84">
-        <v>1</v>
-      </c>
-      <c r="L37" s="80"/>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A38" s="97"/>
-      <c r="B38" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C38" s="2">
-        <v>44814</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" s="2">
@@ -2451,861 +2469,893 @@
         <v>7</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="H38" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I38" s="101"/>
-      <c r="J38" s="98"/>
-      <c r="K38" s="98"/>
-      <c r="L38" s="107"/>
+      <c r="I38" s="84" t="s">
+        <v>4</v>
+      </c>
+      <c r="J38" s="92">
+        <v>19</v>
+      </c>
+      <c r="K38" s="92">
+        <v>1</v>
+      </c>
+      <c r="L38" s="80"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A39" s="87"/>
-      <c r="B39" s="57" t="s">
+      <c r="A39" s="107"/>
+      <c r="B39" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C39" s="2">
+        <v>44814</v>
+      </c>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2">
+        <v>44815</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I39" s="104"/>
+      <c r="J39" s="108"/>
+      <c r="K39" s="108"/>
+      <c r="L39" s="99"/>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A40" s="91"/>
+      <c r="B40" s="56" t="s">
         <v>28</v>
       </c>
-      <c r="C39" s="20">
+      <c r="C40" s="19">
         <v>44829</v>
       </c>
-      <c r="D39" s="20">
+      <c r="D40" s="19">
         <v>44836</v>
       </c>
-      <c r="E39" s="20">
+      <c r="E40" s="19">
         <v>44836</v>
       </c>
-      <c r="F39" s="62" t="s">
+      <c r="F40" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="G39" s="57" t="s">
+      <c r="G40" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="H39" s="57" t="s">
+      <c r="H40" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="I39" s="83"/>
-      <c r="J39" s="85"/>
-      <c r="K39" s="85"/>
-      <c r="L39" s="81"/>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A40" s="89">
+      <c r="I40" s="85"/>
+      <c r="J40" s="93"/>
+      <c r="K40" s="93"/>
+      <c r="L40" s="81"/>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A41" s="82">
         <v>31</v>
       </c>
-      <c r="B40" s="4" t="s">
+      <c r="B41" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C40" s="5">
+      <c r="C41" s="5">
         <v>44813</v>
       </c>
-      <c r="D40" s="5"/>
-      <c r="E40" s="5">
+      <c r="D41" s="5"/>
+      <c r="E41" s="5">
         <v>44815</v>
       </c>
-      <c r="F40" s="6" t="s">
+      <c r="F41" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="G40" s="7" t="s">
+      <c r="G41" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="H40" s="7" t="s">
+      <c r="H41" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="I40" s="102" t="s">
+      <c r="I41" s="94" t="s">
         <v>0</v>
       </c>
-      <c r="J40" s="91">
+      <c r="J41" s="86">
         <v>21</v>
       </c>
-      <c r="K40" s="91">
+      <c r="K41" s="86">
         <v>4</v>
       </c>
-      <c r="L40" s="93"/>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A41" s="90"/>
-      <c r="B41" s="56" t="s">
+      <c r="L41" s="88"/>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A42" s="83"/>
+      <c r="B42" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="C41" s="15">
+      <c r="C42" s="15">
         <v>44824</v>
       </c>
-      <c r="D41" s="15"/>
-      <c r="E41" s="15">
+      <c r="D42" s="15"/>
+      <c r="E42" s="15">
         <v>44832</v>
       </c>
-      <c r="F41" s="61" t="s">
+      <c r="F42" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="G41" s="59" t="s">
+      <c r="G42" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="H41" s="59" t="s">
+      <c r="H42" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="I41" s="103"/>
-      <c r="J41" s="92"/>
-      <c r="K41" s="92"/>
-      <c r="L41" s="94"/>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A42" s="66">
+      <c r="I42" s="95"/>
+      <c r="J42" s="87"/>
+      <c r="K42" s="87"/>
+      <c r="L42" s="89"/>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A43" s="64">
         <v>32</v>
       </c>
-      <c r="B42" s="10"/>
-      <c r="C42" s="19">
+      <c r="B43" s="10"/>
+      <c r="C43" s="18">
         <v>44813</v>
       </c>
-      <c r="D42" s="19"/>
-      <c r="E42" s="20">
+      <c r="D43" s="18"/>
+      <c r="E43" s="19">
         <v>44815</v>
       </c>
-      <c r="F42" s="21" t="s">
+      <c r="F43" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="G42" s="10" t="s">
+      <c r="G43" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="H42" s="10" t="s">
+      <c r="H43" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="I42" s="27" t="s">
+      <c r="I43" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="J42" s="64">
+      <c r="J43" s="62">
         <v>77</v>
       </c>
-      <c r="K42" s="64">
+      <c r="K43" s="62">
         <v>4</v>
       </c>
-      <c r="L42" s="65"/>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A43" s="89">
+      <c r="L43" s="63"/>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A44" s="82">
         <v>33</v>
       </c>
-      <c r="B43" s="4" t="s">
+      <c r="B44" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C43" s="5">
+      <c r="C44" s="5">
         <v>44806</v>
       </c>
-      <c r="D43" s="5"/>
-      <c r="E43" s="5">
+      <c r="D44" s="5"/>
+      <c r="E44" s="5">
         <v>44815</v>
       </c>
-      <c r="F43" s="6" t="s">
+      <c r="F44" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="G43" s="7" t="s">
+      <c r="G44" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="H43" s="7" t="s">
+      <c r="H44" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="I43" s="102" t="s">
+      <c r="I44" s="94" t="s">
         <v>0</v>
       </c>
-      <c r="J43" s="91">
+      <c r="J44" s="86">
         <v>57</v>
       </c>
-      <c r="K43" s="91">
+      <c r="K44" s="86">
         <v>4</v>
       </c>
-      <c r="L43" s="93"/>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A44" s="90"/>
-      <c r="B44" s="56" t="s">
+      <c r="L44" s="88"/>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A45" s="83"/>
+      <c r="B45" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="C44" s="14">
+      <c r="C45" s="14">
         <v>44824</v>
       </c>
-      <c r="D44" s="14"/>
-      <c r="E44" s="15">
+      <c r="D45" s="14"/>
+      <c r="E45" s="15">
         <v>44832</v>
       </c>
-      <c r="F44" s="16" t="s">
+      <c r="F45" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="G44" s="25" t="s">
+      <c r="G45" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="H44" s="25" t="s">
+      <c r="H45" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="I44" s="103"/>
-      <c r="J44" s="92"/>
-      <c r="K44" s="92"/>
-      <c r="L44" s="94"/>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A45" s="86">
+      <c r="I45" s="95"/>
+      <c r="J45" s="87"/>
+      <c r="K45" s="87"/>
+      <c r="L45" s="89"/>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A46" s="90">
         <v>34</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="B46" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C45" s="2">
+      <c r="C46" s="2">
         <v>44807</v>
       </c>
-      <c r="D45" s="2"/>
-      <c r="E45" s="2">
+      <c r="D46" s="2"/>
+      <c r="E46" s="2">
         <v>44808</v>
       </c>
-      <c r="F45" s="3" t="s">
+      <c r="F46" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G45" s="1" t="s">
+      <c r="G46" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H45" s="1" t="s">
+      <c r="H46" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I45" s="82" t="s">
+      <c r="I46" s="84" t="s">
         <v>4</v>
       </c>
-      <c r="J45" s="84">
+      <c r="J46" s="92">
         <v>58</v>
       </c>
-      <c r="K45" s="84">
+      <c r="K46" s="92">
         <v>3</v>
       </c>
-      <c r="L45" s="108" t="s">
+      <c r="L46" s="100" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A46" s="87"/>
-      <c r="B46" s="57" t="s">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A47" s="91"/>
+      <c r="B47" s="56" t="s">
         <v>26</v>
       </c>
-      <c r="C46" s="20">
+      <c r="C47" s="19">
         <v>44829</v>
       </c>
-      <c r="D46" s="20">
-        <f>C46+7</f>
+      <c r="D47" s="19">
+        <f>C47+7</f>
         <v>44836</v>
       </c>
-      <c r="E46" s="20">
-        <f>D46+3</f>
+      <c r="E47" s="19">
+        <f>D47+3</f>
         <v>44839</v>
       </c>
-      <c r="F46" s="62" t="s">
+      <c r="F47" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="G46" s="57" t="s">
+      <c r="G47" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="H46" s="57" t="s">
+      <c r="H47" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="I46" s="83"/>
-      <c r="J46" s="85"/>
-      <c r="K46" s="85"/>
-      <c r="L46" s="109"/>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A47" s="67">
+      <c r="I47" s="85"/>
+      <c r="J47" s="93"/>
+      <c r="K47" s="93"/>
+      <c r="L47" s="101"/>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A48" s="65">
         <v>35</v>
       </c>
-      <c r="B47" s="9"/>
-      <c r="C47" s="22">
+      <c r="B48" s="9"/>
+      <c r="C48" s="21">
         <v>44807</v>
       </c>
-      <c r="D47" s="22"/>
-      <c r="E47" s="23">
+      <c r="D48" s="21"/>
+      <c r="E48" s="22">
         <v>44808</v>
       </c>
-      <c r="F47" s="24" t="s">
+      <c r="F48" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="G47" s="25" t="s">
+      <c r="G48" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="H47" s="25" t="s">
+      <c r="H48" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="I47" s="27" t="s">
+      <c r="I48" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="J47" s="68">
+      <c r="J48" s="66">
         <v>28</v>
       </c>
-      <c r="K47" s="68">
+      <c r="K48" s="66">
         <v>2</v>
       </c>
-      <c r="L47" s="69"/>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A48" s="33">
+      <c r="L48" s="67"/>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A49" s="32">
         <v>36</v>
       </c>
-      <c r="B48" s="10"/>
-      <c r="C48" s="19">
+      <c r="B49" s="10"/>
+      <c r="C49" s="18">
         <v>44808</v>
       </c>
-      <c r="D48" s="19">
-        <f>C48+7</f>
+      <c r="D49" s="18">
+        <f>C49+7</f>
         <v>44815</v>
       </c>
-      <c r="E48" s="20">
+      <c r="E49" s="19">
         <v>44818</v>
       </c>
-      <c r="F48" s="21" t="s">
+      <c r="F49" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="G48" s="10" t="s">
+      <c r="G49" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="H48" s="10" t="s">
+      <c r="H49" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="I48" s="27" t="s">
+      <c r="I49" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="J48" s="10">
+      <c r="J49" s="10">
         <v>35</v>
       </c>
-      <c r="K48" s="10">
+      <c r="K49" s="10">
         <v>8</v>
       </c>
-      <c r="L48" s="34"/>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A49" s="89">
+      <c r="L49" s="33"/>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A50" s="82">
         <v>37</v>
       </c>
-      <c r="B49" s="4" t="s">
+      <c r="B50" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C49" s="5">
+      <c r="C50" s="5">
         <v>44822</v>
       </c>
-      <c r="D49" s="5"/>
-      <c r="E49" s="5">
+      <c r="D50" s="5"/>
+      <c r="E50" s="5">
         <v>44822</v>
       </c>
-      <c r="F49" s="6" t="s">
+      <c r="F50" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G49" s="7" t="s">
+      <c r="G50" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="H49" s="7" t="s">
+      <c r="H50" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="I49" s="82" t="s">
+      <c r="I50" s="84" t="s">
         <v>4</v>
       </c>
-      <c r="J49" s="91">
+      <c r="J50" s="86">
         <v>48</v>
       </c>
-      <c r="K49" s="91">
+      <c r="K50" s="86">
         <v>3</v>
       </c>
-      <c r="L49" s="93"/>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A50" s="90"/>
-      <c r="B50" s="56" t="s">
+      <c r="L50" s="88"/>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A51" s="83"/>
+      <c r="B51" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="C50" s="23">
+      <c r="C51" s="22">
         <v>44829</v>
       </c>
-      <c r="D50" s="23">
-        <f>C50+7</f>
+      <c r="D51" s="22">
+        <f>C51+7</f>
         <v>44836</v>
       </c>
-      <c r="E50" s="23">
-        <f>D50+3</f>
+      <c r="E51" s="22">
+        <f>D51+3</f>
         <v>44839</v>
       </c>
-      <c r="F50" s="58" t="s">
+      <c r="F51" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="G50" s="59" t="s">
+      <c r="G51" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="H50" s="59" t="s">
+      <c r="H51" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="I50" s="83"/>
-      <c r="J50" s="92"/>
-      <c r="K50" s="92"/>
-      <c r="L50" s="94"/>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A51" s="86">
+      <c r="I51" s="85"/>
+      <c r="J51" s="87"/>
+      <c r="K51" s="87"/>
+      <c r="L51" s="89"/>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A52" s="90">
         <v>38</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="B52" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C51" s="2">
+      <c r="C52" s="2">
         <v>44815</v>
       </c>
-      <c r="D51" s="2"/>
-      <c r="E51" s="2">
+      <c r="D52" s="2"/>
+      <c r="E52" s="2">
         <v>44818</v>
       </c>
-      <c r="F51" s="3" t="s">
+      <c r="F52" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G51" s="1" t="s">
+      <c r="G52" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H51" s="1" t="s">
+      <c r="H52" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I51" s="102" t="s">
+      <c r="I52" s="94" t="s">
         <v>0</v>
       </c>
-      <c r="J51" s="84">
+      <c r="J52" s="92">
         <v>58</v>
       </c>
-      <c r="K51" s="84">
+      <c r="K52" s="92">
         <v>3</v>
       </c>
-      <c r="L51" s="80"/>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A52" s="87"/>
-      <c r="B52" s="57" t="s">
+      <c r="L52" s="80"/>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A53" s="91"/>
+      <c r="B53" s="56" t="s">
         <v>26</v>
       </c>
-      <c r="C52" s="20">
+      <c r="C53" s="19">
         <v>44829</v>
       </c>
-      <c r="D52" s="20"/>
-      <c r="E52" s="20">
+      <c r="D53" s="19"/>
+      <c r="E53" s="19">
         <v>44836</v>
       </c>
-      <c r="F52" s="62" t="s">
+      <c r="F53" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="G52" s="57" t="s">
+      <c r="G53" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="H52" s="57" t="s">
+      <c r="H53" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="103"/>
-      <c r="J52" s="85"/>
-      <c r="K52" s="85"/>
-      <c r="L52" s="81"/>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A53" s="89">
+      <c r="I53" s="95"/>
+      <c r="J53" s="93"/>
+      <c r="K53" s="93"/>
+      <c r="L53" s="81"/>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A54" s="82">
         <v>39</v>
       </c>
-      <c r="B53" s="4" t="s">
+      <c r="B54" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C53" s="5">
+      <c r="C54" s="5">
         <v>44822</v>
       </c>
-      <c r="D53" s="5"/>
-      <c r="E53" s="5">
+      <c r="D54" s="5"/>
+      <c r="E54" s="5">
         <v>44822</v>
       </c>
-      <c r="F53" s="6" t="s">
+      <c r="F54" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G53" s="7" t="s">
+      <c r="G54" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="H53" s="7" t="s">
+      <c r="H54" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="I53" s="82" t="s">
+      <c r="I54" s="84" t="s">
         <v>4</v>
       </c>
-      <c r="J53" s="91">
+      <c r="J54" s="86">
         <v>20</v>
       </c>
-      <c r="K53" s="91">
+      <c r="K54" s="86">
         <v>1</v>
       </c>
-      <c r="L53" s="93"/>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A54" s="90"/>
-      <c r="B54" s="56" t="s">
+      <c r="L54" s="88"/>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A55" s="83"/>
+      <c r="B55" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="C54" s="22">
+      <c r="C55" s="21">
         <v>44829</v>
       </c>
-      <c r="D54" s="22">
-        <f>C54+7</f>
+      <c r="D55" s="21">
+        <f>C55+7</f>
         <v>44836</v>
       </c>
-      <c r="E54" s="23">
-        <f>D54+3</f>
+      <c r="E55" s="22">
+        <f>D55+3</f>
         <v>44839</v>
       </c>
-      <c r="F54" s="24" t="s">
+      <c r="F55" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="G54" s="25" t="s">
+      <c r="G55" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="H54" s="25" t="s">
+      <c r="H55" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="I54" s="83"/>
-      <c r="J54" s="92"/>
-      <c r="K54" s="92"/>
-      <c r="L54" s="94"/>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A55" s="86">
+      <c r="I55" s="85"/>
+      <c r="J55" s="87"/>
+      <c r="K55" s="87"/>
+      <c r="L55" s="89"/>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A56" s="90">
         <v>40</v>
       </c>
-      <c r="B55" s="1" t="s">
+      <c r="B56" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C55" s="2">
+      <c r="C56" s="2">
         <v>44822</v>
       </c>
-      <c r="D55" s="2"/>
-      <c r="E55" s="2">
+      <c r="D56" s="2"/>
+      <c r="E56" s="2">
         <v>44822</v>
       </c>
-      <c r="F55" s="3" t="s">
+      <c r="F56" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G55" s="1" t="s">
+      <c r="G56" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H55" s="1" t="s">
+      <c r="H56" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I55" s="82" t="s">
+      <c r="I56" s="84" t="s">
         <v>4</v>
       </c>
-      <c r="J55" s="99">
+      <c r="J56" s="102">
         <v>17</v>
       </c>
-      <c r="K55" s="84">
+      <c r="K56" s="92">
         <v>1</v>
       </c>
-      <c r="L55" s="104"/>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A56" s="87"/>
-      <c r="B56" s="57" t="s">
+      <c r="L56" s="96"/>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A57" s="91"/>
+      <c r="B57" s="56" t="s">
         <v>26</v>
       </c>
-      <c r="C56" s="20">
+      <c r="C57" s="19">
         <v>44829</v>
       </c>
-      <c r="D56" s="20">
-        <f>C56+7</f>
+      <c r="D57" s="19">
+        <f>C57+7</f>
         <v>44836</v>
       </c>
-      <c r="E56" s="20">
-        <f>D56+3</f>
+      <c r="E57" s="19">
+        <f>D57+3</f>
         <v>44839</v>
       </c>
-      <c r="F56" s="62" t="s">
+      <c r="F57" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="G56" s="57" t="s">
+      <c r="G57" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="H56" s="57" t="s">
+      <c r="H57" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="I56" s="83"/>
-      <c r="J56" s="100"/>
-      <c r="K56" s="85"/>
-      <c r="L56" s="105"/>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A57" s="35">
+      <c r="I57" s="85"/>
+      <c r="J57" s="103"/>
+      <c r="K57" s="93"/>
+      <c r="L57" s="97"/>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A58" s="34">
         <v>41</v>
       </c>
-      <c r="B57" s="12"/>
-      <c r="C57" s="26"/>
-      <c r="D57" s="26"/>
-      <c r="E57" s="26"/>
-      <c r="F57" s="26"/>
-      <c r="G57" s="26"/>
-      <c r="H57" s="26"/>
-      <c r="I57" s="26"/>
-      <c r="J57" s="26"/>
-      <c r="K57" s="26"/>
-      <c r="L57" s="36"/>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A58" s="86">
+      <c r="B58" s="12"/>
+      <c r="C58" s="25"/>
+      <c r="D58" s="25"/>
+      <c r="E58" s="25"/>
+      <c r="F58" s="25"/>
+      <c r="G58" s="25"/>
+      <c r="H58" s="25"/>
+      <c r="I58" s="25"/>
+      <c r="J58" s="25"/>
+      <c r="K58" s="25"/>
+      <c r="L58" s="35"/>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A59" s="90">
         <v>42</v>
       </c>
-      <c r="B58" s="1" t="s">
+      <c r="B59" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C58" s="19">
+      <c r="C59" s="18">
         <v>44822</v>
       </c>
-      <c r="D58" s="19"/>
-      <c r="E58" s="20">
+      <c r="D59" s="18"/>
+      <c r="E59" s="19">
         <v>44822</v>
       </c>
-      <c r="F58" s="21" t="s">
+      <c r="F59" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="G58" s="10" t="s">
+      <c r="G59" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="H58" s="10" t="s">
+      <c r="H59" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="I58" s="82" t="s">
+      <c r="I59" s="84" t="s">
         <v>4</v>
       </c>
-      <c r="J58" s="84">
+      <c r="J59" s="92">
         <v>41</v>
       </c>
-      <c r="K58" s="84">
+      <c r="K59" s="92">
         <v>3</v>
       </c>
-      <c r="L58" s="80"/>
-    </row>
-    <row r="59" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="87"/>
-      <c r="B59" s="57" t="s">
+      <c r="L59" s="80"/>
+    </row>
+    <row r="60" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="91"/>
+      <c r="B60" s="56" t="s">
         <v>26</v>
       </c>
-      <c r="C59" s="19">
+      <c r="C60" s="18">
         <v>44839</v>
       </c>
-      <c r="D59" s="19"/>
-      <c r="E59" s="20">
+      <c r="D60" s="18"/>
+      <c r="E60" s="19">
         <v>44839</v>
       </c>
-      <c r="F59" s="21" t="s">
+      <c r="F60" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="G59" s="10" t="s">
+      <c r="G60" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="H59" s="10" t="s">
+      <c r="H60" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="I59" s="83"/>
-      <c r="J59" s="85"/>
-      <c r="K59" s="85"/>
-      <c r="L59" s="81"/>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A60" s="89">
+      <c r="I60" s="85"/>
+      <c r="J60" s="93"/>
+      <c r="K60" s="93"/>
+      <c r="L60" s="81"/>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A61" s="82">
         <v>43</v>
       </c>
-      <c r="B60" s="4" t="s">
+      <c r="B61" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C60" s="22">
+      <c r="C61" s="21">
         <v>44815</v>
       </c>
-      <c r="D60" s="22">
-        <f t="shared" ref="D60" si="1">C60+7</f>
+      <c r="D61" s="21">
+        <f t="shared" ref="D61" si="1">C61+7</f>
         <v>44822</v>
       </c>
-      <c r="E60" s="23">
+      <c r="E61" s="22">
         <v>44822</v>
       </c>
-      <c r="F60" s="24" t="s">
+      <c r="F61" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="G60" s="25" t="s">
+      <c r="G61" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="H60" s="25" t="s">
+      <c r="H61" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="I60" s="82" t="s">
+      <c r="I61" s="84" t="s">
         <v>4</v>
       </c>
-      <c r="J60" s="91">
+      <c r="J61" s="86">
         <v>57</v>
       </c>
-      <c r="K60" s="91">
+      <c r="K61" s="86">
         <v>4</v>
       </c>
-      <c r="L60" s="93"/>
-    </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A61" s="90"/>
-      <c r="B61" s="56" t="s">
+      <c r="L61" s="88"/>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A62" s="83"/>
+      <c r="B62" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="C61" s="22">
+      <c r="C62" s="21">
         <v>44839</v>
       </c>
-      <c r="D61" s="22"/>
-      <c r="E61" s="23">
+      <c r="D62" s="21"/>
+      <c r="E62" s="22">
         <v>44839</v>
       </c>
-      <c r="F61" s="24" t="s">
+      <c r="F62" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="G61" s="25" t="s">
+      <c r="G62" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="H61" s="25" t="s">
+      <c r="H62" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="I61" s="83"/>
-      <c r="J61" s="92"/>
-      <c r="K61" s="92"/>
-      <c r="L61" s="94"/>
-    </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A62" s="33">
+      <c r="I62" s="85"/>
+      <c r="J62" s="87"/>
+      <c r="K62" s="87"/>
+      <c r="L62" s="89"/>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A63" s="32">
         <v>44</v>
       </c>
-      <c r="B62" s="10"/>
-      <c r="C62" s="19">
+      <c r="B63" s="10"/>
+      <c r="C63" s="18">
         <v>44839</v>
       </c>
-      <c r="D62" s="19"/>
-      <c r="E62" s="20">
+      <c r="D63" s="18"/>
+      <c r="E63" s="19">
         <v>44839</v>
       </c>
-      <c r="F62" s="21" t="s">
+      <c r="F63" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="G62" s="10" t="s">
+      <c r="G63" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="H62" s="10" t="s">
+      <c r="H63" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="I62" s="17" t="s">
+      <c r="I63" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="J62" s="10">
+      <c r="J63" s="10">
         <v>38</v>
       </c>
-      <c r="K62" s="10">
+      <c r="K63" s="10">
         <v>3</v>
       </c>
-      <c r="L62" s="34"/>
-    </row>
-    <row r="63" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="37">
+      <c r="L63" s="33"/>
+    </row>
+    <row r="64" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="36">
         <v>45</v>
       </c>
-      <c r="B63" s="38"/>
-      <c r="C63" s="39">
+      <c r="B64" s="37"/>
+      <c r="C64" s="38">
         <v>44829</v>
       </c>
-      <c r="D63" s="39"/>
-      <c r="E63" s="40">
+      <c r="D64" s="38"/>
+      <c r="E64" s="39">
         <v>44829</v>
       </c>
-      <c r="F63" s="41" t="s">
+      <c r="F64" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="G63" s="42" t="s">
+      <c r="G64" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="H63" s="42" t="s">
+      <c r="H64" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="I63" s="43" t="s">
+      <c r="I64" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="J63" s="44">
+      <c r="J64" s="43">
         <v>53</v>
       </c>
-      <c r="K63" s="44">
+      <c r="K64" s="43">
         <v>3</v>
       </c>
-      <c r="L63" s="45"/>
+      <c r="L64" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="75">
-    <mergeCell ref="L58:L59"/>
-    <mergeCell ref="A60:A61"/>
-    <mergeCell ref="I60:I61"/>
-    <mergeCell ref="J60:J61"/>
-    <mergeCell ref="K60:K61"/>
-    <mergeCell ref="L60:L61"/>
-    <mergeCell ref="A58:A59"/>
-    <mergeCell ref="I58:I59"/>
-    <mergeCell ref="J58:J59"/>
-    <mergeCell ref="K58:K59"/>
-    <mergeCell ref="J49:J50"/>
-    <mergeCell ref="K49:K50"/>
-    <mergeCell ref="L49:L50"/>
-    <mergeCell ref="I49:I50"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="J43:J44"/>
-    <mergeCell ref="K43:K44"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="J45:J46"/>
-    <mergeCell ref="K45:K46"/>
-    <mergeCell ref="I43:I44"/>
-    <mergeCell ref="I45:I46"/>
-    <mergeCell ref="L55:L56"/>
-    <mergeCell ref="L34:L36"/>
-    <mergeCell ref="L37:L39"/>
-    <mergeCell ref="L51:L52"/>
-    <mergeCell ref="L53:L54"/>
-    <mergeCell ref="L43:L44"/>
-    <mergeCell ref="L45:L46"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="J55:J56"/>
-    <mergeCell ref="K55:K56"/>
-    <mergeCell ref="I34:I36"/>
-    <mergeCell ref="I37:I39"/>
-    <mergeCell ref="I40:I41"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="J51:J52"/>
-    <mergeCell ref="K51:K52"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="J53:J54"/>
-    <mergeCell ref="K53:K54"/>
-    <mergeCell ref="I51:I52"/>
-    <mergeCell ref="I53:I54"/>
-    <mergeCell ref="I55:I56"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="J40:J41"/>
-    <mergeCell ref="K40:K41"/>
-    <mergeCell ref="L40:L41"/>
-    <mergeCell ref="A34:A36"/>
-    <mergeCell ref="J34:J36"/>
-    <mergeCell ref="K34:K36"/>
-    <mergeCell ref="A37:A39"/>
-    <mergeCell ref="J37:J39"/>
-    <mergeCell ref="K37:K39"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="J30:J31"/>
-    <mergeCell ref="K30:K31"/>
-    <mergeCell ref="L30:L31"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="J32:J33"/>
-    <mergeCell ref="K32:K33"/>
-    <mergeCell ref="L32:L33"/>
-    <mergeCell ref="I30:I31"/>
-    <mergeCell ref="I32:I33"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="I3:I5"/>
+    <mergeCell ref="J3:J5"/>
     <mergeCell ref="L3:L4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="J31:J32"/>
+    <mergeCell ref="K31:K32"/>
+    <mergeCell ref="L31:L32"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="J33:J34"/>
+    <mergeCell ref="K33:K34"/>
+    <mergeCell ref="L33:L34"/>
+    <mergeCell ref="I31:I32"/>
+    <mergeCell ref="I33:I34"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="J41:J42"/>
+    <mergeCell ref="K41:K42"/>
+    <mergeCell ref="L41:L42"/>
+    <mergeCell ref="A35:A37"/>
+    <mergeCell ref="J35:J37"/>
+    <mergeCell ref="K35:K37"/>
+    <mergeCell ref="A38:A40"/>
+    <mergeCell ref="J38:J40"/>
+    <mergeCell ref="K38:K40"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="J56:J57"/>
+    <mergeCell ref="K56:K57"/>
+    <mergeCell ref="I35:I37"/>
+    <mergeCell ref="I38:I40"/>
+    <mergeCell ref="I41:I42"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="J52:J53"/>
+    <mergeCell ref="K52:K53"/>
+    <mergeCell ref="A54:A55"/>
+    <mergeCell ref="J54:J55"/>
+    <mergeCell ref="K54:K55"/>
+    <mergeCell ref="I52:I53"/>
+    <mergeCell ref="I54:I55"/>
+    <mergeCell ref="I56:I57"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="L56:L57"/>
+    <mergeCell ref="L35:L37"/>
+    <mergeCell ref="L38:L40"/>
+    <mergeCell ref="L52:L53"/>
+    <mergeCell ref="L54:L55"/>
+    <mergeCell ref="L44:L45"/>
+    <mergeCell ref="L46:L47"/>
+    <mergeCell ref="J50:J51"/>
+    <mergeCell ref="K50:K51"/>
+    <mergeCell ref="L50:L51"/>
+    <mergeCell ref="I50:I51"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="J44:J45"/>
+    <mergeCell ref="K44:K45"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="J46:J47"/>
+    <mergeCell ref="K46:K47"/>
+    <mergeCell ref="I44:I45"/>
+    <mergeCell ref="I46:I47"/>
+    <mergeCell ref="L59:L60"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="I61:I62"/>
+    <mergeCell ref="J61:J62"/>
+    <mergeCell ref="K61:K62"/>
+    <mergeCell ref="L61:L62"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="I59:I60"/>
+    <mergeCell ref="J59:J60"/>
+    <mergeCell ref="K59:K60"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0" right="0" top="0.19685039370078741" bottom="0.19685039370078741" header="0" footer="0"/>

--- a/sheet/CONTROLE_DE_TERRITORIO_2022.xlsx
+++ b/sheet/CONTROLE_DE_TERRITORIO_2022.xlsx
@@ -15,7 +15,7 @@
     <sheet name="NOVA" sheetId="3" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">NOVA!$A$1:$K$64</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">NOVA!$A$1:$K$67</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="40">
   <si>
     <t>OK</t>
   </si>
@@ -674,7 +674,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="112">
+  <cellXfs count="115">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="3" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -889,78 +889,108 @@
     <xf numFmtId="0" fontId="10" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="4" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="8" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="5" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="4" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="5" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -979,34 +1009,13 @@
     <xf numFmtId="0" fontId="8" fillId="7" borderId="16" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="8" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="9" fillId="7" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="7" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="3" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1297,10 +1306,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L64"/>
+  <dimension ref="A1:L67"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="99" zoomScaleNormal="100" zoomScalePageLayoutView="45" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7:I8"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="99" zoomScaleNormal="100" zoomScalePageLayoutView="45" workbookViewId="0">
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1391,7 +1400,7 @@
       <c r="L2" s="51"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="90">
+      <c r="A3" s="83">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -1413,19 +1422,19 @@
       <c r="H3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="84" t="s">
+      <c r="I3" s="88" t="s">
         <v>4</v>
       </c>
-      <c r="J3" s="92">
+      <c r="J3" s="85">
         <v>58</v>
       </c>
-      <c r="K3" s="92">
+      <c r="K3" s="85">
         <v>4</v>
       </c>
-      <c r="L3" s="80"/>
+      <c r="L3" s="92"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="107"/>
+      <c r="A4" s="87"/>
       <c r="B4" s="1" t="s">
         <v>26</v>
       </c>
@@ -1447,36 +1456,36 @@
       <c r="H4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I4" s="104"/>
-      <c r="J4" s="108"/>
-      <c r="K4" s="93"/>
-      <c r="L4" s="81"/>
+      <c r="I4" s="89"/>
+      <c r="J4" s="91"/>
+      <c r="K4" s="91"/>
+      <c r="L4" s="93"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="91"/>
+      <c r="A5" s="84"/>
       <c r="B5" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="109">
+      <c r="C5" s="80">
         <v>44811</v>
       </c>
-      <c r="D5" s="109"/>
-      <c r="E5" s="109">
+      <c r="D5" s="80"/>
+      <c r="E5" s="80">
         <v>44813</v>
       </c>
-      <c r="F5" s="110" t="s">
+      <c r="F5" s="81" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="111" t="s">
+      <c r="G5" s="82" t="s">
         <v>2</v>
       </c>
       <c r="H5" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="I5" s="85"/>
-      <c r="J5" s="93"/>
-      <c r="K5" s="79"/>
-      <c r="L5" s="78"/>
+      <c r="I5" s="90"/>
+      <c r="J5" s="86"/>
+      <c r="K5" s="86"/>
+      <c r="L5" s="77"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="27">
@@ -1511,7 +1520,7 @@
       <c r="L6" s="28"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="90">
+      <c r="A7" s="83">
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -1536,42 +1545,42 @@
       <c r="H7" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I7" s="84" t="s">
+      <c r="I7" s="88" t="s">
         <v>4</v>
       </c>
-      <c r="J7" s="92">
+      <c r="J7" s="85">
         <v>59</v>
       </c>
-      <c r="K7" s="92">
+      <c r="K7" s="85">
         <v>4</v>
       </c>
-      <c r="L7" s="80"/>
+      <c r="L7" s="92"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="91"/>
+      <c r="A8" s="84"/>
       <c r="B8" s="56" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="109">
+      <c r="C8" s="80">
         <v>44811</v>
       </c>
-      <c r="D8" s="109"/>
-      <c r="E8" s="109">
+      <c r="D8" s="80"/>
+      <c r="E8" s="80">
         <v>44813</v>
       </c>
-      <c r="F8" s="110" t="s">
+      <c r="F8" s="81" t="s">
         <v>6</v>
       </c>
-      <c r="G8" s="111" t="s">
+      <c r="G8" s="82" t="s">
         <v>2</v>
       </c>
       <c r="H8" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="I8" s="85"/>
-      <c r="J8" s="93"/>
-      <c r="K8" s="93"/>
-      <c r="L8" s="81"/>
+      <c r="I8" s="90"/>
+      <c r="J8" s="86"/>
+      <c r="K8" s="86"/>
+      <c r="L8" s="93"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="29">
@@ -1903,16 +1912,16 @@
       <c r="I19" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="J19" s="73">
+      <c r="J19" s="72">
         <v>38</v>
       </c>
-      <c r="K19" s="73">
+      <c r="K19" s="72">
         <v>3</v>
       </c>
-      <c r="L19" s="74"/>
+      <c r="L19" s="73"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="75">
+      <c r="A20" s="74">
         <v>16</v>
       </c>
       <c r="B20" s="1" t="s">
@@ -1937,10 +1946,10 @@
       <c r="I20" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="J20" s="77">
+      <c r="J20" s="76">
         <v>37</v>
       </c>
-      <c r="K20" s="76">
+      <c r="K20" s="75">
         <v>3</v>
       </c>
       <c r="L20" s="70"/>
@@ -1994,10 +2003,12 @@
       <c r="L22" s="33"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="29">
+      <c r="A23" s="94">
         <v>19</v>
       </c>
-      <c r="B23" s="9"/>
+      <c r="B23" s="9" t="s">
+        <v>27</v>
+      </c>
       <c r="C23" s="14">
         <v>44822</v>
       </c>
@@ -2014,120 +2025,112 @@
       <c r="H23" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="I23" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="J23" s="8">
+      <c r="I23" s="88" t="s">
+        <v>4</v>
+      </c>
+      <c r="J23" s="96">
         <v>68</v>
       </c>
-      <c r="K23" s="8">
+      <c r="K23" s="96">
         <v>4</v>
       </c>
-      <c r="L23" s="28"/>
+      <c r="L23" s="98"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="75">
+      <c r="A24" s="95"/>
+      <c r="B24" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" s="14">
+        <v>44842</v>
+      </c>
+      <c r="D24" s="14"/>
+      <c r="E24" s="15">
+        <v>44813</v>
+      </c>
+      <c r="F24" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="G24" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="H24" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="I24" s="90"/>
+      <c r="J24" s="97"/>
+      <c r="K24" s="97"/>
+      <c r="L24" s="99"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" s="83">
         <v>20</v>
       </c>
-      <c r="B24" s="1"/>
-      <c r="C24" s="2">
+      <c r="B25" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C25" s="2">
         <v>44815</v>
       </c>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2">
+      <c r="D25" s="2"/>
+      <c r="E25" s="2">
         <v>44818</v>
       </c>
-      <c r="F24" s="3" t="s">
+      <c r="F25" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G24" s="1" t="s">
+      <c r="G25" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="H24" s="1" t="s">
+      <c r="H25" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I24" s="72" t="s">
+      <c r="I25" s="88" t="s">
         <v>4</v>
       </c>
-      <c r="J24" s="76">
+      <c r="J25" s="75">
         <v>13</v>
       </c>
-      <c r="K24" s="76">
+      <c r="K25" s="75">
         <v>1</v>
       </c>
-      <c r="L24" s="70"/>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="29">
+      <c r="L25" s="70"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" s="84"/>
+      <c r="B26" s="56" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" s="112">
+        <v>44842</v>
+      </c>
+      <c r="D26" s="112"/>
+      <c r="E26" s="112">
+        <v>44813</v>
+      </c>
+      <c r="F26" s="113" t="s">
+        <v>10</v>
+      </c>
+      <c r="G26" s="114" t="s">
+        <v>9</v>
+      </c>
+      <c r="H26" s="114" t="s">
+        <v>8</v>
+      </c>
+      <c r="I26" s="90"/>
+      <c r="J26" s="79"/>
+      <c r="K26" s="79"/>
+      <c r="L26" s="78"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" s="94">
         <v>21</v>
       </c>
-      <c r="B25" s="9"/>
-      <c r="C25" s="21">
+      <c r="B27" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27" s="21">
         <v>44815</v>
-      </c>
-      <c r="D25" s="21"/>
-      <c r="E25" s="22">
-        <v>44818</v>
-      </c>
-      <c r="F25" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="G25" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="H25" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="I25" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="J25" s="8">
-        <v>93</v>
-      </c>
-      <c r="K25" s="8">
-        <v>6</v>
-      </c>
-      <c r="L25" s="28"/>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="32">
-        <v>22</v>
-      </c>
-      <c r="B26" s="10"/>
-      <c r="C26" s="18">
-        <v>44822</v>
-      </c>
-      <c r="D26" s="18"/>
-      <c r="E26" s="19">
-        <v>44822</v>
-      </c>
-      <c r="F26" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="G26" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="H26" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="I26" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="J26" s="10">
-        <v>71</v>
-      </c>
-      <c r="K26" s="10">
-        <v>4</v>
-      </c>
-      <c r="L26" s="33"/>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="29">
-        <v>23</v>
-      </c>
-      <c r="B27" s="9"/>
-      <c r="C27" s="21">
-        <v>44808</v>
       </c>
       <c r="D27" s="21"/>
       <c r="E27" s="22">
@@ -2137,509 +2140,507 @@
         <v>10</v>
       </c>
       <c r="G27" s="24" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="H27" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="I27" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="J27" s="8">
-        <v>28</v>
-      </c>
-      <c r="K27" s="8">
+      <c r="I27" s="88" t="s">
+        <v>4</v>
+      </c>
+      <c r="J27" s="96">
+        <v>93</v>
+      </c>
+      <c r="K27" s="96">
+        <v>6</v>
+      </c>
+      <c r="L27" s="98"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" s="95"/>
+      <c r="B28" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" s="14">
+        <v>44842</v>
+      </c>
+      <c r="D28" s="14"/>
+      <c r="E28" s="15">
+        <v>44813</v>
+      </c>
+      <c r="F28" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="G28" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="H28" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="I28" s="90"/>
+      <c r="J28" s="97"/>
+      <c r="K28" s="97"/>
+      <c r="L28" s="99"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" s="32">
+        <v>22</v>
+      </c>
+      <c r="B29" s="10"/>
+      <c r="C29" s="18">
+        <v>44822</v>
+      </c>
+      <c r="D29" s="18"/>
+      <c r="E29" s="19">
+        <v>44822</v>
+      </c>
+      <c r="F29" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="G29" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="L27" s="28"/>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="32">
-        <v>24</v>
-      </c>
-      <c r="B28" s="10"/>
-      <c r="C28" s="18">
-        <v>44815</v>
-      </c>
-      <c r="D28" s="18"/>
-      <c r="E28" s="19">
-        <v>44818</v>
-      </c>
-      <c r="F28" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="G28" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="H28" s="10" t="s">
+      <c r="H29" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="I28" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="J28" s="10">
-        <v>29</v>
-      </c>
-      <c r="K28" s="10">
-        <v>2</v>
-      </c>
-      <c r="L28" s="33"/>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" s="29">
-        <v>25</v>
-      </c>
-      <c r="B29" s="9"/>
-      <c r="C29" s="21"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="22"/>
-      <c r="F29" s="23"/>
-      <c r="G29" s="24"/>
-      <c r="H29" s="24"/>
       <c r="I29" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="J29" s="8">
-        <v>44</v>
-      </c>
-      <c r="K29" s="8">
-        <v>3</v>
-      </c>
-      <c r="L29" s="28"/>
+      <c r="J29" s="10">
+        <v>71</v>
+      </c>
+      <c r="K29" s="10">
+        <v>4</v>
+      </c>
+      <c r="L29" s="33"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" s="32">
-        <v>26</v>
-      </c>
-      <c r="B30" s="10"/>
-      <c r="C30" s="18">
-        <v>44829</v>
-      </c>
-      <c r="D30" s="18"/>
-      <c r="E30" s="19">
-        <v>44832</v>
-      </c>
-      <c r="F30" s="20" t="s">
+      <c r="A30" s="29">
+        <v>23</v>
+      </c>
+      <c r="B30" s="9"/>
+      <c r="C30" s="21">
+        <v>44808</v>
+      </c>
+      <c r="D30" s="21"/>
+      <c r="E30" s="22">
+        <v>44818</v>
+      </c>
+      <c r="F30" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="G30" s="10" t="s">
+      <c r="G30" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="H30" s="10" t="s">
+      <c r="H30" s="24" t="s">
         <v>11</v>
       </c>
       <c r="I30" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="J30" s="10">
+      <c r="J30" s="8">
         <v>28</v>
       </c>
-      <c r="K30" s="10">
+      <c r="K30" s="8">
+        <v>2</v>
+      </c>
+      <c r="L30" s="28"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" s="32">
+        <v>24</v>
+      </c>
+      <c r="B31" s="10"/>
+      <c r="C31" s="18">
+        <v>44815</v>
+      </c>
+      <c r="D31" s="18"/>
+      <c r="E31" s="19">
+        <v>44818</v>
+      </c>
+      <c r="F31" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="G31" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H31" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="I31" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="J31" s="10">
+        <v>29</v>
+      </c>
+      <c r="K31" s="10">
+        <v>2</v>
+      </c>
+      <c r="L31" s="33"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" s="29">
+        <v>25</v>
+      </c>
+      <c r="B32" s="9"/>
+      <c r="C32" s="21"/>
+      <c r="D32" s="21"/>
+      <c r="E32" s="22"/>
+      <c r="F32" s="23"/>
+      <c r="G32" s="24"/>
+      <c r="H32" s="24"/>
+      <c r="I32" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="J32" s="8">
+        <v>44</v>
+      </c>
+      <c r="K32" s="8">
         <v>3</v>
       </c>
-      <c r="L30" s="33"/>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" s="82">
+      <c r="L32" s="28"/>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33" s="32">
+        <v>26</v>
+      </c>
+      <c r="B33" s="10"/>
+      <c r="C33" s="18">
+        <v>44829</v>
+      </c>
+      <c r="D33" s="18"/>
+      <c r="E33" s="19">
+        <v>44832</v>
+      </c>
+      <c r="F33" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="G33" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H33" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="I33" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="J33" s="10">
+        <v>28</v>
+      </c>
+      <c r="K33" s="10">
+        <v>3</v>
+      </c>
+      <c r="L33" s="33"/>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34" s="94">
         <v>27</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="B34" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C31" s="5">
+      <c r="C34" s="5">
         <v>44810</v>
       </c>
-      <c r="D31" s="5"/>
-      <c r="E31" s="5">
+      <c r="D34" s="5"/>
+      <c r="E34" s="5">
         <v>44818</v>
       </c>
-      <c r="F31" s="6" t="s">
+      <c r="F34" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="G31" s="7" t="s">
+      <c r="G34" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="H31" s="7" t="s">
+      <c r="H34" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="I31" s="94" t="s">
+      <c r="I34" s="100" t="s">
         <v>39</v>
       </c>
-      <c r="J31" s="86">
+      <c r="J34" s="96">
         <v>11</v>
       </c>
-      <c r="K31" s="86">
+      <c r="K34" s="96">
         <v>1</v>
       </c>
-      <c r="L31" s="88"/>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A32" s="83"/>
-      <c r="B32" s="55" t="s">
+      <c r="L34" s="98"/>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35" s="95"/>
+      <c r="B35" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="C32" s="22">
+      <c r="C35" s="22">
         <v>44829</v>
       </c>
-      <c r="D32" s="22">
+      <c r="D35" s="22">
         <v>44836</v>
       </c>
-      <c r="E32" s="22">
+      <c r="E35" s="22">
         <v>44836</v>
       </c>
-      <c r="F32" s="57" t="s">
+      <c r="F35" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="G32" s="58" t="s">
+      <c r="G35" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="H32" s="58" t="s">
+      <c r="H35" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="I32" s="95"/>
-      <c r="J32" s="87"/>
-      <c r="K32" s="87"/>
-      <c r="L32" s="89"/>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A33" s="90">
+      <c r="I35" s="101"/>
+      <c r="J35" s="97"/>
+      <c r="K35" s="97"/>
+      <c r="L35" s="99"/>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A36" s="83">
         <v>28</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B36" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C33" s="2">
+      <c r="C36" s="2">
         <v>44807</v>
       </c>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2">
+      <c r="D36" s="2"/>
+      <c r="E36" s="2">
         <v>44808</v>
       </c>
-      <c r="F33" s="3" t="s">
+      <c r="F36" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G33" s="1" t="s">
+      <c r="G36" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H33" s="1" t="s">
+      <c r="H36" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I33" s="84" t="s">
+      <c r="I36" s="88" t="s">
         <v>4</v>
       </c>
-      <c r="J33" s="92">
+      <c r="J36" s="85">
         <v>20</v>
       </c>
-      <c r="K33" s="92">
+      <c r="K36" s="85">
         <v>2</v>
       </c>
-      <c r="L33" s="80"/>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A34" s="91"/>
-      <c r="B34" s="56" t="s">
+      <c r="L36" s="92"/>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A37" s="84"/>
+      <c r="B37" s="56" t="s">
         <v>26</v>
       </c>
-      <c r="C34" s="19">
+      <c r="C37" s="19">
         <v>44829</v>
       </c>
-      <c r="D34" s="19">
+      <c r="D37" s="19">
         <v>44836</v>
       </c>
-      <c r="E34" s="19">
+      <c r="E37" s="19">
         <v>44836</v>
       </c>
-      <c r="F34" s="61" t="s">
+      <c r="F37" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="G34" s="56" t="s">
+      <c r="G37" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="H34" s="56" t="s">
+      <c r="H37" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="I34" s="85"/>
-      <c r="J34" s="93"/>
-      <c r="K34" s="93"/>
-      <c r="L34" s="81"/>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A35" s="82">
+      <c r="I37" s="90"/>
+      <c r="J37" s="86"/>
+      <c r="K37" s="86"/>
+      <c r="L37" s="93"/>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A38" s="94">
         <v>29</v>
       </c>
-      <c r="B35" s="4" t="s">
+      <c r="B38" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C35" s="5">
+      <c r="C38" s="5">
         <v>44807</v>
       </c>
-      <c r="D35" s="5"/>
-      <c r="E35" s="5">
+      <c r="D38" s="5"/>
+      <c r="E38" s="5">
         <v>44808</v>
       </c>
-      <c r="F35" s="6" t="s">
+      <c r="F38" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G35" s="7" t="s">
+      <c r="G38" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="H35" s="7" t="s">
+      <c r="H38" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="I35" s="84" t="s">
+      <c r="I38" s="88" t="s">
         <v>4</v>
       </c>
-      <c r="J35" s="86">
+      <c r="J38" s="96">
         <v>35</v>
       </c>
-      <c r="K35" s="86">
+      <c r="K38" s="96">
         <v>2</v>
       </c>
-      <c r="L35" s="88"/>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A36" s="105"/>
-      <c r="B36" s="4" t="s">
+      <c r="L38" s="98"/>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A39" s="102"/>
+      <c r="B39" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C36" s="5">
+      <c r="C39" s="5">
         <v>44810</v>
       </c>
-      <c r="D36" s="5"/>
-      <c r="E36" s="5">
+      <c r="D39" s="5"/>
+      <c r="E39" s="5">
         <v>44818</v>
       </c>
-      <c r="F36" s="6" t="s">
+      <c r="F39" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="G36" s="7" t="s">
+      <c r="G39" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="H36" s="7" t="s">
+      <c r="H39" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="I36" s="104"/>
-      <c r="J36" s="106"/>
-      <c r="K36" s="106"/>
-      <c r="L36" s="98"/>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A37" s="83"/>
-      <c r="B37" s="55" t="s">
+      <c r="I39" s="89"/>
+      <c r="J39" s="103"/>
+      <c r="K39" s="103"/>
+      <c r="L39" s="108"/>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A40" s="95"/>
+      <c r="B40" s="55" t="s">
         <v>28</v>
       </c>
-      <c r="C37" s="22">
+      <c r="C40" s="22">
         <v>44829</v>
       </c>
-      <c r="D37" s="22">
+      <c r="D40" s="22">
         <v>44836</v>
       </c>
-      <c r="E37" s="22">
+      <c r="E40" s="22">
         <v>44836</v>
       </c>
-      <c r="F37" s="57" t="s">
+      <c r="F40" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="G37" s="58" t="s">
+      <c r="G40" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="H37" s="58" t="s">
+      <c r="H40" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="I37" s="85"/>
-      <c r="J37" s="87"/>
-      <c r="K37" s="87"/>
-      <c r="L37" s="89"/>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A38" s="90">
+      <c r="I40" s="90"/>
+      <c r="J40" s="97"/>
+      <c r="K40" s="97"/>
+      <c r="L40" s="99"/>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A41" s="83">
         <v>30</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="B41" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C38" s="2">
+      <c r="C41" s="2">
         <v>44807</v>
       </c>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2">
+      <c r="D41" s="2"/>
+      <c r="E41" s="2">
         <v>44815</v>
       </c>
-      <c r="F38" s="3" t="s">
+      <c r="F41" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G38" s="1" t="s">
+      <c r="G41" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H38" s="1" t="s">
+      <c r="H41" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I38" s="84" t="s">
+      <c r="I41" s="88" t="s">
         <v>4</v>
       </c>
-      <c r="J38" s="92">
+      <c r="J41" s="85">
         <v>19</v>
       </c>
-      <c r="K38" s="92">
+      <c r="K41" s="85">
         <v>1</v>
       </c>
-      <c r="L38" s="80"/>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A39" s="107"/>
-      <c r="B39" s="1" t="s">
+      <c r="L41" s="92"/>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A42" s="87"/>
+      <c r="B42" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C39" s="2">
+      <c r="C42" s="2">
         <v>44814</v>
       </c>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2">
+      <c r="D42" s="2"/>
+      <c r="E42" s="2">
         <v>44815</v>
       </c>
-      <c r="F39" s="3" t="s">
+      <c r="F42" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G39" s="1" t="s">
+      <c r="G42" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H39" s="1" t="s">
+      <c r="H42" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I39" s="104"/>
-      <c r="J39" s="108"/>
-      <c r="K39" s="108"/>
-      <c r="L39" s="99"/>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A40" s="91"/>
-      <c r="B40" s="56" t="s">
+      <c r="I42" s="89"/>
+      <c r="J42" s="91"/>
+      <c r="K42" s="91"/>
+      <c r="L42" s="109"/>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A43" s="84"/>
+      <c r="B43" s="56" t="s">
         <v>28</v>
       </c>
-      <c r="C40" s="19">
+      <c r="C43" s="19">
         <v>44829</v>
       </c>
-      <c r="D40" s="19">
+      <c r="D43" s="19">
         <v>44836</v>
       </c>
-      <c r="E40" s="19">
+      <c r="E43" s="19">
         <v>44836</v>
       </c>
-      <c r="F40" s="61" t="s">
+      <c r="F43" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="G40" s="56" t="s">
+      <c r="G43" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="H40" s="56" t="s">
+      <c r="H43" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="I40" s="85"/>
-      <c r="J40" s="93"/>
-      <c r="K40" s="93"/>
-      <c r="L40" s="81"/>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A41" s="82">
+      <c r="I43" s="90"/>
+      <c r="J43" s="86"/>
+      <c r="K43" s="86"/>
+      <c r="L43" s="93"/>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A44" s="94">
         <v>31</v>
-      </c>
-      <c r="B41" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C41" s="5">
-        <v>44813</v>
-      </c>
-      <c r="D41" s="5"/>
-      <c r="E41" s="5">
-        <v>44815</v>
-      </c>
-      <c r="F41" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="G41" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="H41" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="I41" s="94" t="s">
-        <v>0</v>
-      </c>
-      <c r="J41" s="86">
-        <v>21</v>
-      </c>
-      <c r="K41" s="86">
-        <v>4</v>
-      </c>
-      <c r="L41" s="88"/>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A42" s="83"/>
-      <c r="B42" s="55" t="s">
-        <v>26</v>
-      </c>
-      <c r="C42" s="15">
-        <v>44824</v>
-      </c>
-      <c r="D42" s="15"/>
-      <c r="E42" s="15">
-        <v>44832</v>
-      </c>
-      <c r="F42" s="60" t="s">
-        <v>15</v>
-      </c>
-      <c r="G42" s="58" t="s">
-        <v>23</v>
-      </c>
-      <c r="H42" s="58" t="s">
-        <v>16</v>
-      </c>
-      <c r="I42" s="95"/>
-      <c r="J42" s="87"/>
-      <c r="K42" s="87"/>
-      <c r="L42" s="89"/>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A43" s="64">
-        <v>32</v>
-      </c>
-      <c r="B43" s="10"/>
-      <c r="C43" s="18">
-        <v>44813</v>
-      </c>
-      <c r="D43" s="18"/>
-      <c r="E43" s="19">
-        <v>44815</v>
-      </c>
-      <c r="F43" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="G43" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="H43" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="I43" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="J43" s="62">
-        <v>77</v>
-      </c>
-      <c r="K43" s="62">
-        <v>4</v>
-      </c>
-      <c r="L43" s="63"/>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A44" s="82">
-        <v>33</v>
       </c>
       <c r="B44" s="4" t="s">
         <v>27</v>
       </c>
       <c r="C44" s="5">
-        <v>44806</v>
+        <v>44813</v>
       </c>
       <c r="D44" s="5"/>
       <c r="E44" s="5">
@@ -2654,572 +2655,575 @@
       <c r="H44" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="I44" s="94" t="s">
+      <c r="I44" s="100" t="s">
         <v>0</v>
       </c>
-      <c r="J44" s="86">
-        <v>57</v>
-      </c>
-      <c r="K44" s="86">
+      <c r="J44" s="96">
+        <v>21</v>
+      </c>
+      <c r="K44" s="96">
         <v>4</v>
       </c>
-      <c r="L44" s="88"/>
+      <c r="L44" s="98"/>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A45" s="83"/>
+      <c r="A45" s="95"/>
       <c r="B45" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="C45" s="14">
+      <c r="C45" s="15">
         <v>44824</v>
       </c>
-      <c r="D45" s="14"/>
+      <c r="D45" s="15"/>
       <c r="E45" s="15">
         <v>44832</v>
       </c>
-      <c r="F45" s="16" t="s">
+      <c r="F45" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="G45" s="24" t="s">
+      <c r="G45" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="H45" s="24" t="s">
+      <c r="H45" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="I45" s="95"/>
-      <c r="J45" s="87"/>
-      <c r="K45" s="87"/>
-      <c r="L45" s="89"/>
+      <c r="I45" s="101"/>
+      <c r="J45" s="97"/>
+      <c r="K45" s="97"/>
+      <c r="L45" s="99"/>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A46" s="90">
+      <c r="A46" s="64">
+        <v>32</v>
+      </c>
+      <c r="B46" s="10"/>
+      <c r="C46" s="18">
+        <v>44813</v>
+      </c>
+      <c r="D46" s="18"/>
+      <c r="E46" s="19">
+        <v>44815</v>
+      </c>
+      <c r="F46" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="G46" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="H46" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="I46" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="J46" s="62">
+        <v>77</v>
+      </c>
+      <c r="K46" s="62">
+        <v>4</v>
+      </c>
+      <c r="L46" s="63"/>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A47" s="94">
+        <v>33</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C47" s="5">
+        <v>44806</v>
+      </c>
+      <c r="D47" s="5"/>
+      <c r="E47" s="5">
+        <v>44815</v>
+      </c>
+      <c r="F47" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G47" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="H47" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="I47" s="100" t="s">
+        <v>0</v>
+      </c>
+      <c r="J47" s="96">
+        <v>57</v>
+      </c>
+      <c r="K47" s="96">
+        <v>4</v>
+      </c>
+      <c r="L47" s="98"/>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A48" s="95"/>
+      <c r="B48" s="55" t="s">
+        <v>26</v>
+      </c>
+      <c r="C48" s="14">
+        <v>44824</v>
+      </c>
+      <c r="D48" s="14"/>
+      <c r="E48" s="15">
+        <v>44832</v>
+      </c>
+      <c r="F48" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="G48" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="H48" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="I48" s="101"/>
+      <c r="J48" s="97"/>
+      <c r="K48" s="97"/>
+      <c r="L48" s="99"/>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A49" s="83">
         <v>34</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="B49" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C46" s="2">
+      <c r="C49" s="2">
         <v>44807</v>
       </c>
-      <c r="D46" s="2"/>
-      <c r="E46" s="2">
+      <c r="D49" s="2"/>
+      <c r="E49" s="2">
         <v>44808</v>
       </c>
-      <c r="F46" s="3" t="s">
+      <c r="F49" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G46" s="1" t="s">
+      <c r="G49" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H46" s="1" t="s">
+      <c r="H49" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I46" s="84" t="s">
+      <c r="I49" s="88" t="s">
         <v>4</v>
       </c>
-      <c r="J46" s="92">
+      <c r="J49" s="85">
         <v>58</v>
       </c>
-      <c r="K46" s="92">
+      <c r="K49" s="85">
         <v>3</v>
       </c>
-      <c r="L46" s="100" t="s">
+      <c r="L49" s="110" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A47" s="91"/>
-      <c r="B47" s="56" t="s">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A50" s="84"/>
+      <c r="B50" s="56" t="s">
         <v>26</v>
       </c>
-      <c r="C47" s="19">
+      <c r="C50" s="19">
         <v>44829</v>
       </c>
-      <c r="D47" s="19">
-        <f>C47+7</f>
+      <c r="D50" s="19">
+        <f>C50+7</f>
         <v>44836</v>
       </c>
-      <c r="E47" s="19">
-        <f>D47+3</f>
+      <c r="E50" s="19">
+        <f>D50+3</f>
         <v>44839</v>
       </c>
-      <c r="F47" s="61" t="s">
+      <c r="F50" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="G47" s="56" t="s">
+      <c r="G50" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="H47" s="56" t="s">
+      <c r="H50" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="I47" s="85"/>
-      <c r="J47" s="93"/>
-      <c r="K47" s="93"/>
-      <c r="L47" s="101"/>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A48" s="65">
+      <c r="I50" s="90"/>
+      <c r="J50" s="86"/>
+      <c r="K50" s="86"/>
+      <c r="L50" s="111"/>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A51" s="65">
         <v>35</v>
       </c>
-      <c r="B48" s="9"/>
-      <c r="C48" s="21">
+      <c r="B51" s="9"/>
+      <c r="C51" s="21">
         <v>44807</v>
       </c>
-      <c r="D48" s="21"/>
-      <c r="E48" s="22">
+      <c r="D51" s="21"/>
+      <c r="E51" s="22">
         <v>44808</v>
       </c>
-      <c r="F48" s="23" t="s">
+      <c r="F51" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="G48" s="24" t="s">
+      <c r="G51" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="H48" s="24" t="s">
+      <c r="H51" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="I48" s="26" t="s">
+      <c r="I51" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="J48" s="66">
+      <c r="J51" s="66">
         <v>28</v>
       </c>
-      <c r="K48" s="66">
+      <c r="K51" s="66">
         <v>2</v>
       </c>
-      <c r="L48" s="67"/>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A49" s="32">
+      <c r="L51" s="67"/>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A52" s="32">
         <v>36</v>
       </c>
-      <c r="B49" s="10"/>
-      <c r="C49" s="18">
+      <c r="B52" s="10"/>
+      <c r="C52" s="18">
         <v>44808</v>
       </c>
-      <c r="D49" s="18">
-        <f>C49+7</f>
+      <c r="D52" s="18">
+        <f>C52+7</f>
         <v>44815</v>
       </c>
-      <c r="E49" s="19">
+      <c r="E52" s="19">
         <v>44818</v>
       </c>
-      <c r="F49" s="20" t="s">
+      <c r="F52" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="G49" s="10" t="s">
+      <c r="G52" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="H49" s="10" t="s">
+      <c r="H52" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="I49" s="26" t="s">
+      <c r="I52" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="J49" s="10">
+      <c r="J52" s="10">
         <v>35</v>
       </c>
-      <c r="K49" s="10">
+      <c r="K52" s="10">
         <v>8</v>
       </c>
-      <c r="L49" s="33"/>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A50" s="82">
+      <c r="L52" s="33"/>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A53" s="94">
         <v>37</v>
       </c>
-      <c r="B50" s="4" t="s">
+      <c r="B53" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C50" s="5">
+      <c r="C53" s="5">
         <v>44822</v>
       </c>
-      <c r="D50" s="5"/>
-      <c r="E50" s="5">
+      <c r="D53" s="5"/>
+      <c r="E53" s="5">
         <v>44822</v>
       </c>
-      <c r="F50" s="6" t="s">
+      <c r="F53" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G50" s="7" t="s">
+      <c r="G53" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="H50" s="7" t="s">
+      <c r="H53" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="I50" s="84" t="s">
+      <c r="I53" s="88" t="s">
         <v>4</v>
       </c>
-      <c r="J50" s="86">
+      <c r="J53" s="96">
         <v>48</v>
       </c>
-      <c r="K50" s="86">
+      <c r="K53" s="96">
         <v>3</v>
       </c>
-      <c r="L50" s="88"/>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A51" s="83"/>
-      <c r="B51" s="55" t="s">
+      <c r="L53" s="98"/>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A54" s="95"/>
+      <c r="B54" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="C51" s="22">
+      <c r="C54" s="22">
         <v>44829</v>
       </c>
-      <c r="D51" s="22">
-        <f>C51+7</f>
+      <c r="D54" s="22">
+        <f>C54+7</f>
         <v>44836</v>
       </c>
-      <c r="E51" s="22">
-        <f>D51+3</f>
+      <c r="E54" s="22">
+        <f>D54+3</f>
         <v>44839</v>
       </c>
-      <c r="F51" s="57" t="s">
+      <c r="F54" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="G51" s="58" t="s">
+      <c r="G54" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="H51" s="58" t="s">
+      <c r="H54" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="I51" s="85"/>
-      <c r="J51" s="87"/>
-      <c r="K51" s="87"/>
-      <c r="L51" s="89"/>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A52" s="90">
+      <c r="I54" s="90"/>
+      <c r="J54" s="97"/>
+      <c r="K54" s="97"/>
+      <c r="L54" s="99"/>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A55" s="83">
         <v>38</v>
       </c>
-      <c r="B52" s="1" t="s">
+      <c r="B55" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C52" s="2">
+      <c r="C55" s="2">
         <v>44815</v>
       </c>
-      <c r="D52" s="2"/>
-      <c r="E52" s="2">
+      <c r="D55" s="2"/>
+      <c r="E55" s="2">
         <v>44818</v>
       </c>
-      <c r="F52" s="3" t="s">
+      <c r="F55" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G52" s="1" t="s">
+      <c r="G55" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H52" s="1" t="s">
+      <c r="H55" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="94" t="s">
+      <c r="I55" s="100" t="s">
         <v>0</v>
       </c>
-      <c r="J52" s="92">
+      <c r="J55" s="85">
         <v>58</v>
       </c>
-      <c r="K52" s="92">
+      <c r="K55" s="85">
         <v>3</v>
       </c>
-      <c r="L52" s="80"/>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A53" s="91"/>
-      <c r="B53" s="56" t="s">
+      <c r="L55" s="92"/>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A56" s="84"/>
+      <c r="B56" s="56" t="s">
         <v>26</v>
       </c>
-      <c r="C53" s="19">
+      <c r="C56" s="19">
         <v>44829</v>
       </c>
-      <c r="D53" s="19"/>
-      <c r="E53" s="19">
+      <c r="D56" s="19"/>
+      <c r="E56" s="19">
         <v>44836</v>
       </c>
-      <c r="F53" s="61" t="s">
+      <c r="F56" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="G53" s="56" t="s">
+      <c r="G56" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="H53" s="56" t="s">
+      <c r="H56" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="I53" s="95"/>
-      <c r="J53" s="93"/>
-      <c r="K53" s="93"/>
-      <c r="L53" s="81"/>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A54" s="82">
+      <c r="I56" s="101"/>
+      <c r="J56" s="86"/>
+      <c r="K56" s="86"/>
+      <c r="L56" s="93"/>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A57" s="94">
         <v>39</v>
       </c>
-      <c r="B54" s="4" t="s">
+      <c r="B57" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C54" s="5">
+      <c r="C57" s="5">
         <v>44822</v>
       </c>
-      <c r="D54" s="5"/>
-      <c r="E54" s="5">
+      <c r="D57" s="5"/>
+      <c r="E57" s="5">
         <v>44822</v>
       </c>
-      <c r="F54" s="6" t="s">
+      <c r="F57" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G54" s="7" t="s">
+      <c r="G57" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="H54" s="7" t="s">
+      <c r="H57" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="I54" s="84" t="s">
+      <c r="I57" s="88" t="s">
         <v>4</v>
       </c>
-      <c r="J54" s="86">
+      <c r="J57" s="96">
         <v>20</v>
       </c>
-      <c r="K54" s="86">
+      <c r="K57" s="96">
         <v>1</v>
       </c>
-      <c r="L54" s="88"/>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A55" s="83"/>
-      <c r="B55" s="55" t="s">
+      <c r="L57" s="98"/>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A58" s="95"/>
+      <c r="B58" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="C55" s="21">
+      <c r="C58" s="21">
         <v>44829</v>
       </c>
-      <c r="D55" s="21">
-        <f>C55+7</f>
+      <c r="D58" s="21">
+        <f>C58+7</f>
         <v>44836</v>
       </c>
-      <c r="E55" s="22">
-        <f>D55+3</f>
+      <c r="E58" s="22">
+        <f>D58+3</f>
         <v>44839</v>
       </c>
-      <c r="F55" s="23" t="s">
+      <c r="F58" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="G55" s="24" t="s">
+      <c r="G58" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="H55" s="24" t="s">
+      <c r="H58" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="I55" s="85"/>
-      <c r="J55" s="87"/>
-      <c r="K55" s="87"/>
-      <c r="L55" s="89"/>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A56" s="90">
+      <c r="I58" s="90"/>
+      <c r="J58" s="97"/>
+      <c r="K58" s="97"/>
+      <c r="L58" s="99"/>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A59" s="83">
         <v>40</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C56" s="2">
-        <v>44822</v>
-      </c>
-      <c r="D56" s="2"/>
-      <c r="E56" s="2">
-        <v>44822</v>
-      </c>
-      <c r="F56" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G56" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H56" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I56" s="84" t="s">
-        <v>4</v>
-      </c>
-      <c r="J56" s="102">
-        <v>17</v>
-      </c>
-      <c r="K56" s="92">
-        <v>1</v>
-      </c>
-      <c r="L56" s="96"/>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A57" s="91"/>
-      <c r="B57" s="56" t="s">
-        <v>26</v>
-      </c>
-      <c r="C57" s="19">
-        <v>44829</v>
-      </c>
-      <c r="D57" s="19">
-        <f>C57+7</f>
-        <v>44836</v>
-      </c>
-      <c r="E57" s="19">
-        <f>D57+3</f>
-        <v>44839</v>
-      </c>
-      <c r="F57" s="61" t="s">
-        <v>10</v>
-      </c>
-      <c r="G57" s="56" t="s">
-        <v>2</v>
-      </c>
-      <c r="H57" s="56" t="s">
-        <v>11</v>
-      </c>
-      <c r="I57" s="85"/>
-      <c r="J57" s="103"/>
-      <c r="K57" s="93"/>
-      <c r="L57" s="97"/>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A58" s="34">
-        <v>41</v>
-      </c>
-      <c r="B58" s="12"/>
-      <c r="C58" s="25"/>
-      <c r="D58" s="25"/>
-      <c r="E58" s="25"/>
-      <c r="F58" s="25"/>
-      <c r="G58" s="25"/>
-      <c r="H58" s="25"/>
-      <c r="I58" s="25"/>
-      <c r="J58" s="25"/>
-      <c r="K58" s="25"/>
-      <c r="L58" s="35"/>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A59" s="90">
-        <v>42</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C59" s="18">
+      <c r="C59" s="2">
         <v>44822</v>
       </c>
-      <c r="D59" s="18"/>
-      <c r="E59" s="19">
+      <c r="D59" s="2"/>
+      <c r="E59" s="2">
         <v>44822</v>
       </c>
-      <c r="F59" s="20" t="s">
+      <c r="F59" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G59" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="H59" s="10" t="s">
+      <c r="G59" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H59" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I59" s="84" t="s">
+      <c r="I59" s="88" t="s">
         <v>4</v>
       </c>
-      <c r="J59" s="92">
-        <v>41</v>
-      </c>
-      <c r="K59" s="92">
-        <v>3</v>
-      </c>
-      <c r="L59" s="80"/>
-    </row>
-    <row r="60" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="91"/>
+      <c r="J59" s="104">
+        <v>17</v>
+      </c>
+      <c r="K59" s="85">
+        <v>1</v>
+      </c>
+      <c r="L59" s="106"/>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A60" s="84"/>
       <c r="B60" s="56" t="s">
         <v>26</v>
       </c>
-      <c r="C60" s="18">
+      <c r="C60" s="19">
+        <v>44829</v>
+      </c>
+      <c r="D60" s="19">
+        <f>C60+7</f>
+        <v>44836</v>
+      </c>
+      <c r="E60" s="19">
+        <f>D60+3</f>
         <v>44839</v>
       </c>
-      <c r="D60" s="18"/>
-      <c r="E60" s="19">
-        <v>44839</v>
-      </c>
-      <c r="F60" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="G60" s="10" t="s">
+      <c r="F60" s="61" t="s">
+        <v>10</v>
+      </c>
+      <c r="G60" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="H60" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="I60" s="85"/>
-      <c r="J60" s="93"/>
-      <c r="K60" s="93"/>
-      <c r="L60" s="81"/>
+      <c r="H60" s="56" t="s">
+        <v>11</v>
+      </c>
+      <c r="I60" s="90"/>
+      <c r="J60" s="105"/>
+      <c r="K60" s="86"/>
+      <c r="L60" s="107"/>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A61" s="82">
-        <v>43</v>
-      </c>
-      <c r="B61" s="4" t="s">
+      <c r="A61" s="34">
+        <v>41</v>
+      </c>
+      <c r="B61" s="12"/>
+      <c r="C61" s="25"/>
+      <c r="D61" s="25"/>
+      <c r="E61" s="25"/>
+      <c r="F61" s="25"/>
+      <c r="G61" s="25"/>
+      <c r="H61" s="25"/>
+      <c r="I61" s="25"/>
+      <c r="J61" s="25"/>
+      <c r="K61" s="25"/>
+      <c r="L61" s="35"/>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A62" s="83">
+        <v>42</v>
+      </c>
+      <c r="B62" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C61" s="21">
-        <v>44815</v>
-      </c>
-      <c r="D61" s="21">
-        <f t="shared" ref="D61" si="1">C61+7</f>
+      <c r="C62" s="18">
         <v>44822</v>
       </c>
-      <c r="E61" s="22">
+      <c r="D62" s="18"/>
+      <c r="E62" s="19">
         <v>44822</v>
       </c>
-      <c r="F61" s="23" t="s">
+      <c r="F62" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="G61" s="24" t="s">
+      <c r="G62" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="H61" s="24" t="s">
+      <c r="H62" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="I61" s="84" t="s">
+      <c r="I62" s="88" t="s">
         <v>4</v>
       </c>
-      <c r="J61" s="86">
-        <v>57</v>
-      </c>
-      <c r="K61" s="86">
-        <v>4</v>
-      </c>
-      <c r="L61" s="88"/>
-    </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A62" s="83"/>
-      <c r="B62" s="55" t="s">
+      <c r="J62" s="85">
+        <v>41</v>
+      </c>
+      <c r="K62" s="85">
+        <v>3</v>
+      </c>
+      <c r="L62" s="92"/>
+    </row>
+    <row r="63" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="84"/>
+      <c r="B63" s="56" t="s">
         <v>26</v>
       </c>
-      <c r="C62" s="21">
-        <v>44839</v>
-      </c>
-      <c r="D62" s="21"/>
-      <c r="E62" s="22">
-        <v>44839</v>
-      </c>
-      <c r="F62" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="G62" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="H62" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="I62" s="85"/>
-      <c r="J62" s="87"/>
-      <c r="K62" s="87"/>
-      <c r="L62" s="89"/>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A63" s="32">
-        <v>44</v>
-      </c>
-      <c r="B63" s="10"/>
       <c r="C63" s="18">
         <v>44839</v>
       </c>
@@ -3236,126 +3240,227 @@
       <c r="H63" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="I63" s="17" t="s">
+      <c r="I63" s="90"/>
+      <c r="J63" s="86"/>
+      <c r="K63" s="86"/>
+      <c r="L63" s="93"/>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A64" s="94">
+        <v>43</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C64" s="21">
+        <v>44815</v>
+      </c>
+      <c r="D64" s="21">
+        <f t="shared" ref="D64" si="1">C64+7</f>
+        <v>44822</v>
+      </c>
+      <c r="E64" s="22">
+        <v>44822</v>
+      </c>
+      <c r="F64" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="G64" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="H64" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="I64" s="88" t="s">
         <v>4</v>
       </c>
-      <c r="J63" s="10">
+      <c r="J64" s="96">
+        <v>57</v>
+      </c>
+      <c r="K64" s="96">
+        <v>4</v>
+      </c>
+      <c r="L64" s="98"/>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A65" s="95"/>
+      <c r="B65" s="55" t="s">
+        <v>26</v>
+      </c>
+      <c r="C65" s="21">
+        <v>44839</v>
+      </c>
+      <c r="D65" s="21"/>
+      <c r="E65" s="22">
+        <v>44839</v>
+      </c>
+      <c r="F65" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="G65" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="H65" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="I65" s="90"/>
+      <c r="J65" s="97"/>
+      <c r="K65" s="97"/>
+      <c r="L65" s="99"/>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A66" s="32">
+        <v>44</v>
+      </c>
+      <c r="B66" s="10"/>
+      <c r="C66" s="18">
+        <v>44839</v>
+      </c>
+      <c r="D66" s="18"/>
+      <c r="E66" s="19">
+        <v>44839</v>
+      </c>
+      <c r="F66" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="G66" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="H66" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="I66" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="J66" s="10">
         <v>38</v>
       </c>
-      <c r="K63" s="10">
+      <c r="K66" s="10">
         <v>3</v>
       </c>
-      <c r="L63" s="33"/>
-    </row>
-    <row r="64" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="36">
+      <c r="L66" s="33"/>
+    </row>
+    <row r="67" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="36">
         <v>45</v>
       </c>
-      <c r="B64" s="37"/>
-      <c r="C64" s="38">
+      <c r="B67" s="37"/>
+      <c r="C67" s="38">
         <v>44829</v>
       </c>
-      <c r="D64" s="38"/>
-      <c r="E64" s="39">
+      <c r="D67" s="38"/>
+      <c r="E67" s="39">
         <v>44829</v>
       </c>
-      <c r="F64" s="40" t="s">
+      <c r="F67" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="G64" s="41" t="s">
+      <c r="G67" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="H64" s="41" t="s">
+      <c r="H67" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="I64" s="42" t="s">
+      <c r="I67" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="J64" s="43">
+      <c r="J67" s="43">
         <v>53</v>
       </c>
-      <c r="K64" s="43">
+      <c r="K67" s="43">
         <v>3</v>
       </c>
-      <c r="L64" s="44"/>
+      <c r="L67" s="44"/>
     </row>
   </sheetData>
-  <mergeCells count="75">
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="I3:I5"/>
-    <mergeCell ref="J3:J5"/>
+  <mergeCells count="87">
+    <mergeCell ref="L23:L24"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="I27:I28"/>
+    <mergeCell ref="J27:J28"/>
+    <mergeCell ref="K27:K28"/>
+    <mergeCell ref="L27:L28"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="I25:I26"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="K3:K5"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="J23:J24"/>
+    <mergeCell ref="K23:K24"/>
+    <mergeCell ref="L62:L63"/>
+    <mergeCell ref="A64:A65"/>
+    <mergeCell ref="I64:I65"/>
+    <mergeCell ref="J64:J65"/>
+    <mergeCell ref="K64:K65"/>
+    <mergeCell ref="L64:L65"/>
+    <mergeCell ref="A62:A63"/>
+    <mergeCell ref="I62:I63"/>
+    <mergeCell ref="J62:J63"/>
+    <mergeCell ref="K62:K63"/>
+    <mergeCell ref="J53:J54"/>
+    <mergeCell ref="K53:K54"/>
+    <mergeCell ref="L53:L54"/>
+    <mergeCell ref="I53:I54"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="J47:J48"/>
+    <mergeCell ref="K47:K48"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="J49:J50"/>
+    <mergeCell ref="K49:K50"/>
+    <mergeCell ref="I47:I48"/>
+    <mergeCell ref="I49:I50"/>
+    <mergeCell ref="L59:L60"/>
+    <mergeCell ref="L38:L40"/>
+    <mergeCell ref="L41:L43"/>
+    <mergeCell ref="L55:L56"/>
+    <mergeCell ref="L57:L58"/>
+    <mergeCell ref="L47:L48"/>
+    <mergeCell ref="L49:L50"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="J59:J60"/>
+    <mergeCell ref="K59:K60"/>
+    <mergeCell ref="I38:I40"/>
+    <mergeCell ref="I41:I43"/>
+    <mergeCell ref="I44:I45"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="J55:J56"/>
+    <mergeCell ref="K55:K56"/>
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="J57:J58"/>
+    <mergeCell ref="K57:K58"/>
+    <mergeCell ref="I55:I56"/>
+    <mergeCell ref="I57:I58"/>
+    <mergeCell ref="I59:I60"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="J44:J45"/>
+    <mergeCell ref="K44:K45"/>
+    <mergeCell ref="L44:L45"/>
+    <mergeCell ref="A38:A40"/>
+    <mergeCell ref="J38:J40"/>
+    <mergeCell ref="K38:K40"/>
+    <mergeCell ref="A41:A43"/>
+    <mergeCell ref="J41:J43"/>
+    <mergeCell ref="K41:K43"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="J34:J35"/>
+    <mergeCell ref="K34:K35"/>
+    <mergeCell ref="L34:L35"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="J36:J37"/>
+    <mergeCell ref="K36:K37"/>
+    <mergeCell ref="L36:L37"/>
+    <mergeCell ref="I34:I35"/>
+    <mergeCell ref="I36:I37"/>
     <mergeCell ref="L3:L4"/>
     <mergeCell ref="I7:I8"/>
     <mergeCell ref="L7:L8"/>
     <mergeCell ref="K7:K8"/>
     <mergeCell ref="J7:J8"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="J31:J32"/>
-    <mergeCell ref="K31:K32"/>
-    <mergeCell ref="L31:L32"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="J33:J34"/>
-    <mergeCell ref="K33:K34"/>
-    <mergeCell ref="L33:L34"/>
-    <mergeCell ref="I31:I32"/>
-    <mergeCell ref="I33:I34"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="J41:J42"/>
-    <mergeCell ref="K41:K42"/>
-    <mergeCell ref="L41:L42"/>
-    <mergeCell ref="A35:A37"/>
-    <mergeCell ref="J35:J37"/>
-    <mergeCell ref="K35:K37"/>
-    <mergeCell ref="A38:A40"/>
-    <mergeCell ref="J38:J40"/>
-    <mergeCell ref="K38:K40"/>
-    <mergeCell ref="A56:A57"/>
-    <mergeCell ref="J56:J57"/>
-    <mergeCell ref="K56:K57"/>
-    <mergeCell ref="I35:I37"/>
-    <mergeCell ref="I38:I40"/>
-    <mergeCell ref="I41:I42"/>
-    <mergeCell ref="A52:A53"/>
-    <mergeCell ref="J52:J53"/>
-    <mergeCell ref="K52:K53"/>
-    <mergeCell ref="A54:A55"/>
-    <mergeCell ref="J54:J55"/>
-    <mergeCell ref="K54:K55"/>
-    <mergeCell ref="I52:I53"/>
-    <mergeCell ref="I54:I55"/>
-    <mergeCell ref="I56:I57"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="L56:L57"/>
-    <mergeCell ref="L35:L37"/>
-    <mergeCell ref="L38:L40"/>
-    <mergeCell ref="L52:L53"/>
-    <mergeCell ref="L54:L55"/>
-    <mergeCell ref="L44:L45"/>
-    <mergeCell ref="L46:L47"/>
-    <mergeCell ref="J50:J51"/>
-    <mergeCell ref="K50:K51"/>
-    <mergeCell ref="L50:L51"/>
-    <mergeCell ref="I50:I51"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="J44:J45"/>
-    <mergeCell ref="K44:K45"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="J46:J47"/>
-    <mergeCell ref="K46:K47"/>
-    <mergeCell ref="I44:I45"/>
-    <mergeCell ref="I46:I47"/>
-    <mergeCell ref="L59:L60"/>
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="I61:I62"/>
-    <mergeCell ref="J61:J62"/>
-    <mergeCell ref="K61:K62"/>
-    <mergeCell ref="L61:L62"/>
-    <mergeCell ref="A59:A60"/>
-    <mergeCell ref="I59:I60"/>
-    <mergeCell ref="J59:J60"/>
-    <mergeCell ref="K59:K60"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="I3:I5"/>
+    <mergeCell ref="J3:J5"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0" right="0" top="0.19685039370078741" bottom="0.19685039370078741" header="0" footer="0"/>

--- a/sheet/CONTROLE_DE_TERRITORIO_2022.xlsx
+++ b/sheet/CONTROLE_DE_TERRITORIO_2022.xlsx
@@ -927,37 +927,229 @@
     <xf numFmtId="0" fontId="9" fillId="7" borderId="3" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="3" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="15" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="7" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="15" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="7" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="3" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="15" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="3" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="3" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="4" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="4" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="12" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="4" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="5" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="4" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="5" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="8" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="21" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="28" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="22" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -966,199 +1158,7 @@
     <xf numFmtId="0" fontId="9" fillId="5" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="8" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="13" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="3" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="15" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="7" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="14" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="15" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="7" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="3" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="14" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="15" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="3" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="3" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="14" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="14" fillId="4" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="4" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="14" fillId="0" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="12" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="21" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="28" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="22" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1451,8 +1451,8 @@
   </sheetPr>
   <dimension ref="A1:L74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="99" zoomScaleNormal="100" zoomScalePageLayoutView="45" workbookViewId="0">
-      <selection activeCell="E57" sqref="E57"/>
+    <sheetView tabSelected="1" topLeftCell="A44" zoomScale="99" zoomScaleNormal="100" zoomScalePageLayoutView="45" workbookViewId="0">
+      <selection activeCell="I71" sqref="I71:I72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1506,7 +1506,7 @@
       <c r="K1" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="L1" s="119" t="s">
+      <c r="L1" s="99" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1537,13 +1537,13 @@
       <c r="J2" s="64">
         <v>5</v>
       </c>
-      <c r="K2" s="133">
+      <c r="K2" s="106">
         <v>1</v>
       </c>
-      <c r="L2" s="120"/>
+      <c r="L2" s="100"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="75">
+      <c r="A3" s="140">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -1565,19 +1565,19 @@
       <c r="H3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="71" t="s">
+      <c r="I3" s="144" t="s">
+        <v>0</v>
+      </c>
+      <c r="J3" s="116">
+        <v>58</v>
+      </c>
+      <c r="K3" s="118">
         <v>4</v>
       </c>
-      <c r="J3" s="77">
-        <v>58</v>
-      </c>
-      <c r="K3" s="134">
-        <v>4</v>
-      </c>
-      <c r="L3" s="82"/>
+      <c r="L3" s="120"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="87"/>
+      <c r="A4" s="141"/>
       <c r="B4" s="1" t="s">
         <v>26</v>
       </c>
@@ -1599,13 +1599,13 @@
       <c r="H4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I4" s="84"/>
-      <c r="J4" s="78"/>
-      <c r="K4" s="135"/>
-      <c r="L4" s="121"/>
+      <c r="I4" s="146"/>
+      <c r="J4" s="125"/>
+      <c r="K4" s="126"/>
+      <c r="L4" s="127"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="76"/>
+      <c r="A5" s="142"/>
       <c r="B5" s="53" t="s">
         <v>28</v>
       </c>
@@ -1625,10 +1625,10 @@
       <c r="H5" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="I5" s="72"/>
-      <c r="J5" s="79"/>
-      <c r="K5" s="136"/>
-      <c r="L5" s="83"/>
+      <c r="I5" s="145"/>
+      <c r="J5" s="117"/>
+      <c r="K5" s="119"/>
+      <c r="L5" s="121"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="27">
@@ -1647,10 +1647,10 @@
       <c r="J6" s="8">
         <v>7</v>
       </c>
-      <c r="K6" s="137">
+      <c r="K6" s="107">
         <v>1</v>
       </c>
-      <c r="L6" s="122"/>
+      <c r="L6" s="101"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="60">
@@ -1682,7 +1682,7 @@
       <c r="J7" s="61">
         <v>59</v>
       </c>
-      <c r="K7" s="138">
+      <c r="K7" s="108">
         <v>4</v>
       </c>
       <c r="L7" s="65"/>
@@ -1716,10 +1716,10 @@
       <c r="J8" s="8">
         <v>8</v>
       </c>
-      <c r="K8" s="137">
+      <c r="K8" s="107">
         <v>1</v>
       </c>
-      <c r="L8" s="122"/>
+      <c r="L8" s="101"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="29">
@@ -1750,10 +1750,10 @@
       <c r="J9" s="11">
         <v>28</v>
       </c>
-      <c r="K9" s="139">
+      <c r="K9" s="109">
         <v>2</v>
       </c>
-      <c r="L9" s="123" t="s">
+      <c r="L9" s="102" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1786,10 +1786,10 @@
       <c r="J10" s="8">
         <v>21</v>
       </c>
-      <c r="K10" s="137">
+      <c r="K10" s="107">
         <v>2</v>
       </c>
-      <c r="L10" s="122"/>
+      <c r="L10" s="101"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="30">
@@ -1820,10 +1820,10 @@
       <c r="J11" s="10">
         <v>33</v>
       </c>
-      <c r="K11" s="140">
+      <c r="K11" s="110">
         <v>2</v>
       </c>
-      <c r="L11" s="124"/>
+      <c r="L11" s="103"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="28">
@@ -1842,10 +1842,10 @@
       <c r="J12" s="8">
         <v>61</v>
       </c>
-      <c r="K12" s="137">
+      <c r="K12" s="107">
         <v>4</v>
       </c>
-      <c r="L12" s="122"/>
+      <c r="L12" s="101"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="31">
@@ -1860,7 +1860,7 @@
       <c r="H13" s="25"/>
       <c r="I13" s="25"/>
       <c r="J13" s="25"/>
-      <c r="K13" s="141"/>
+      <c r="K13" s="111"/>
       <c r="L13" s="32"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
@@ -1890,10 +1890,10 @@
       <c r="J14" s="8">
         <v>128</v>
       </c>
-      <c r="K14" s="137">
+      <c r="K14" s="107">
         <v>8</v>
       </c>
-      <c r="L14" s="122"/>
+      <c r="L14" s="101"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="30">
@@ -1922,47 +1922,47 @@
       <c r="J15" s="10">
         <v>66</v>
       </c>
-      <c r="K15" s="140">
+      <c r="K15" s="110">
         <v>5</v>
       </c>
-      <c r="L15" s="124"/>
+      <c r="L15" s="103"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="69">
+      <c r="A16" s="128">
         <v>13</v>
       </c>
-      <c r="B16" s="96" t="s">
+      <c r="B16" s="76" t="s">
         <v>27</v>
       </c>
-      <c r="C16" s="97">
+      <c r="C16" s="77">
         <v>44829</v>
       </c>
-      <c r="D16" s="97"/>
-      <c r="E16" s="103">
+      <c r="D16" s="77"/>
+      <c r="E16" s="83">
         <v>44829</v>
       </c>
-      <c r="F16" s="99" t="s">
-        <v>10</v>
-      </c>
-      <c r="G16" s="96" t="s">
+      <c r="F16" s="79" t="s">
+        <v>10</v>
+      </c>
+      <c r="G16" s="76" t="s">
         <v>14</v>
       </c>
-      <c r="H16" s="96" t="s">
+      <c r="H16" s="76" t="s">
         <v>11</v>
       </c>
-      <c r="I16" s="71" t="s">
-        <v>4</v>
-      </c>
-      <c r="J16" s="73">
+      <c r="I16" s="144" t="s">
+        <v>0</v>
+      </c>
+      <c r="J16" s="130">
         <v>7</v>
       </c>
-      <c r="K16" s="142">
+      <c r="K16" s="132">
         <v>1</v>
       </c>
-      <c r="L16" s="125"/>
+      <c r="L16" s="114"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="70"/>
+      <c r="A17" s="129"/>
       <c r="B17" s="49" t="s">
         <v>26</v>
       </c>
@@ -1982,10 +1982,10 @@
       <c r="H17" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="I17" s="72"/>
-      <c r="J17" s="74"/>
-      <c r="K17" s="143"/>
-      <c r="L17" s="126"/>
+      <c r="I17" s="145"/>
+      <c r="J17" s="131"/>
+      <c r="K17" s="133"/>
+      <c r="L17" s="115"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="30">
@@ -2008,53 +2008,53 @@
       <c r="H18" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="I18" s="17" t="s">
-        <v>4</v>
+      <c r="I18" s="26" t="s">
+        <v>0</v>
       </c>
       <c r="J18" s="10">
         <v>39</v>
       </c>
-      <c r="K18" s="140">
+      <c r="K18" s="110">
         <v>3</v>
       </c>
-      <c r="L18" s="124"/>
+      <c r="L18" s="103"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="69">
+      <c r="A19" s="128">
         <v>15</v>
       </c>
-      <c r="B19" s="96" t="s">
+      <c r="B19" s="76" t="s">
         <v>27</v>
       </c>
-      <c r="C19" s="114">
+      <c r="C19" s="94">
         <v>44826</v>
       </c>
-      <c r="D19" s="114"/>
-      <c r="E19" s="114">
+      <c r="D19" s="94"/>
+      <c r="E19" s="94">
         <v>44829</v>
       </c>
-      <c r="F19" s="115" t="s">
+      <c r="F19" s="95" t="s">
         <v>3</v>
       </c>
-      <c r="G19" s="106" t="s">
+      <c r="G19" s="86" t="s">
         <v>13</v>
       </c>
-      <c r="H19" s="106" t="s">
+      <c r="H19" s="86" t="s">
         <v>1</v>
       </c>
-      <c r="I19" s="71" t="s">
-        <v>4</v>
-      </c>
-      <c r="J19" s="73">
+      <c r="I19" s="144" t="s">
+        <v>0</v>
+      </c>
+      <c r="J19" s="130">
         <v>38</v>
       </c>
-      <c r="K19" s="142">
+      <c r="K19" s="132">
         <v>3</v>
       </c>
-      <c r="L19" s="125"/>
+      <c r="L19" s="114"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="70"/>
+      <c r="A20" s="129"/>
       <c r="B20" s="49" t="s">
         <v>26</v>
       </c>
@@ -2074,10 +2074,10 @@
       <c r="H20" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="I20" s="72"/>
-      <c r="J20" s="74"/>
-      <c r="K20" s="143"/>
-      <c r="L20" s="126"/>
+      <c r="I20" s="145"/>
+      <c r="J20" s="131"/>
+      <c r="K20" s="133"/>
+      <c r="L20" s="115"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="60">
@@ -2106,7 +2106,7 @@
       <c r="J21" s="56">
         <v>37</v>
       </c>
-      <c r="K21" s="138">
+      <c r="K21" s="108">
         <v>3</v>
       </c>
       <c r="L21" s="65"/>
@@ -2124,7 +2124,7 @@
       <c r="H22" s="25"/>
       <c r="I22" s="25"/>
       <c r="J22" s="25"/>
-      <c r="K22" s="141"/>
+      <c r="K22" s="111"/>
       <c r="L22" s="32"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
@@ -2154,47 +2154,47 @@
       <c r="J23" s="10">
         <v>47</v>
       </c>
-      <c r="K23" s="140">
+      <c r="K23" s="110">
         <v>3</v>
       </c>
-      <c r="L23" s="124"/>
+      <c r="L23" s="103"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="69">
+      <c r="A24" s="128">
         <v>19</v>
       </c>
-      <c r="B24" s="96" t="s">
+      <c r="B24" s="76" t="s">
         <v>27</v>
       </c>
-      <c r="C24" s="97">
+      <c r="C24" s="77">
         <v>44822</v>
       </c>
-      <c r="D24" s="97"/>
-      <c r="E24" s="98">
+      <c r="D24" s="77"/>
+      <c r="E24" s="78">
         <v>44822</v>
       </c>
-      <c r="F24" s="99" t="s">
-        <v>10</v>
-      </c>
-      <c r="G24" s="96" t="s">
+      <c r="F24" s="79" t="s">
+        <v>10</v>
+      </c>
+      <c r="G24" s="76" t="s">
         <v>18</v>
       </c>
-      <c r="H24" s="96" t="s">
+      <c r="H24" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="I24" s="71" t="s">
+      <c r="I24" s="144" t="s">
+        <v>0</v>
+      </c>
+      <c r="J24" s="130">
+        <v>68</v>
+      </c>
+      <c r="K24" s="132">
         <v>4</v>
       </c>
-      <c r="J24" s="73">
-        <v>68</v>
-      </c>
-      <c r="K24" s="142">
-        <v>4</v>
-      </c>
-      <c r="L24" s="125"/>
+      <c r="L24" s="114"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="70"/>
+      <c r="A25" s="129"/>
       <c r="B25" s="49" t="s">
         <v>26</v>
       </c>
@@ -2214,13 +2214,13 @@
       <c r="H25" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="I25" s="72"/>
-      <c r="J25" s="74"/>
-      <c r="K25" s="143"/>
-      <c r="L25" s="126"/>
+      <c r="I25" s="145"/>
+      <c r="J25" s="131"/>
+      <c r="K25" s="133"/>
+      <c r="L25" s="115"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="75">
+      <c r="A26" s="140">
         <v>20</v>
       </c>
       <c r="B26" s="1" t="s">
@@ -2242,79 +2242,79 @@
       <c r="H26" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I26" s="71" t="s">
-        <v>4</v>
-      </c>
-      <c r="J26" s="77">
+      <c r="I26" s="144" t="s">
+        <v>0</v>
+      </c>
+      <c r="J26" s="116">
         <v>13</v>
       </c>
-      <c r="K26" s="134">
+      <c r="K26" s="118">
         <v>1</v>
       </c>
-      <c r="L26" s="82"/>
+      <c r="L26" s="120"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="76"/>
+      <c r="A27" s="142"/>
       <c r="B27" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="C27" s="95">
+      <c r="C27" s="75">
         <v>44842</v>
       </c>
-      <c r="D27" s="95"/>
-      <c r="E27" s="95">
+      <c r="D27" s="75"/>
+      <c r="E27" s="75">
         <v>44813</v>
       </c>
-      <c r="F27" s="100" t="s">
-        <v>10</v>
-      </c>
-      <c r="G27" s="101" t="s">
+      <c r="F27" s="80" t="s">
+        <v>10</v>
+      </c>
+      <c r="G27" s="81" t="s">
         <v>9</v>
       </c>
-      <c r="H27" s="101" t="s">
+      <c r="H27" s="81" t="s">
         <v>8</v>
       </c>
-      <c r="I27" s="72"/>
-      <c r="J27" s="79"/>
-      <c r="K27" s="136"/>
-      <c r="L27" s="83"/>
+      <c r="I27" s="145"/>
+      <c r="J27" s="117"/>
+      <c r="K27" s="119"/>
+      <c r="L27" s="121"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="69">
+      <c r="A28" s="128">
         <v>21</v>
       </c>
-      <c r="B28" s="96" t="s">
+      <c r="B28" s="76" t="s">
         <v>27</v>
       </c>
-      <c r="C28" s="102">
+      <c r="C28" s="82">
         <v>44815</v>
       </c>
-      <c r="D28" s="102"/>
-      <c r="E28" s="103">
+      <c r="D28" s="82"/>
+      <c r="E28" s="83">
         <v>44818</v>
       </c>
-      <c r="F28" s="104" t="s">
-        <v>10</v>
-      </c>
-      <c r="G28" s="105" t="s">
+      <c r="F28" s="84" t="s">
+        <v>10</v>
+      </c>
+      <c r="G28" s="85" t="s">
         <v>2</v>
       </c>
-      <c r="H28" s="105" t="s">
+      <c r="H28" s="85" t="s">
         <v>11</v>
       </c>
-      <c r="I28" s="71" t="s">
-        <v>4</v>
-      </c>
-      <c r="J28" s="73">
+      <c r="I28" s="144" t="s">
+        <v>0</v>
+      </c>
+      <c r="J28" s="130">
         <v>93</v>
       </c>
-      <c r="K28" s="142">
+      <c r="K28" s="132">
         <v>6</v>
       </c>
-      <c r="L28" s="125"/>
+      <c r="L28" s="114"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" s="70"/>
+      <c r="A29" s="129"/>
       <c r="B29" s="49" t="s">
         <v>26</v>
       </c>
@@ -2334,10 +2334,10 @@
       <c r="H29" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="I29" s="72"/>
-      <c r="J29" s="74"/>
-      <c r="K29" s="143"/>
-      <c r="L29" s="126"/>
+      <c r="I29" s="145"/>
+      <c r="J29" s="131"/>
+      <c r="K29" s="133"/>
+      <c r="L29" s="115"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="30">
@@ -2368,10 +2368,10 @@
       <c r="J30" s="10">
         <v>71</v>
       </c>
-      <c r="K30" s="140">
+      <c r="K30" s="110">
         <v>4</v>
       </c>
-      <c r="L30" s="124"/>
+      <c r="L30" s="103"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="28">
@@ -2400,10 +2400,10 @@
       <c r="J31" s="8">
         <v>28</v>
       </c>
-      <c r="K31" s="137">
+      <c r="K31" s="107">
         <v>2</v>
       </c>
-      <c r="L31" s="122"/>
+      <c r="L31" s="101"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="30">
@@ -2432,10 +2432,10 @@
       <c r="J32" s="10">
         <v>29</v>
       </c>
-      <c r="K32" s="140">
+      <c r="K32" s="110">
         <v>2</v>
       </c>
-      <c r="L32" s="124"/>
+      <c r="L32" s="103"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="28">
@@ -2454,10 +2454,10 @@
       <c r="J33" s="8">
         <v>44</v>
       </c>
-      <c r="K33" s="137">
+      <c r="K33" s="107">
         <v>3</v>
       </c>
-      <c r="L33" s="122"/>
+      <c r="L33" s="101"/>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="30">
@@ -2486,13 +2486,13 @@
       <c r="J34" s="10">
         <v>28</v>
       </c>
-      <c r="K34" s="140">
+      <c r="K34" s="110">
         <v>3</v>
       </c>
-      <c r="L34" s="124"/>
+      <c r="L34" s="103"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A35" s="69">
+      <c r="A35" s="128">
         <v>27</v>
       </c>
       <c r="B35" s="4" t="s">
@@ -2514,19 +2514,19 @@
       <c r="H35" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="I35" s="80" t="s">
+      <c r="I35" s="144" t="s">
         <v>0</v>
       </c>
-      <c r="J35" s="73">
+      <c r="J35" s="130">
         <v>11</v>
       </c>
-      <c r="K35" s="142">
+      <c r="K35" s="132">
         <v>1</v>
       </c>
-      <c r="L35" s="125"/>
+      <c r="L35" s="114"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A36" s="70"/>
+      <c r="A36" s="129"/>
       <c r="B36" s="49" t="s">
         <v>26</v>
       </c>
@@ -2546,13 +2546,13 @@
       <c r="H36" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="I36" s="81"/>
-      <c r="J36" s="74"/>
-      <c r="K36" s="143"/>
-      <c r="L36" s="126"/>
+      <c r="I36" s="145"/>
+      <c r="J36" s="131"/>
+      <c r="K36" s="133"/>
+      <c r="L36" s="115"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A37" s="75">
+      <c r="A37" s="140">
         <v>28</v>
       </c>
       <c r="B37" s="1" t="s">
@@ -2574,19 +2574,19 @@
       <c r="H37" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I37" s="71" t="s">
-        <v>4</v>
-      </c>
-      <c r="J37" s="77">
+      <c r="I37" s="144" t="s">
+        <v>0</v>
+      </c>
+      <c r="J37" s="116">
         <v>20</v>
       </c>
-      <c r="K37" s="134">
+      <c r="K37" s="118">
         <v>2</v>
       </c>
-      <c r="L37" s="82"/>
+      <c r="L37" s="120"/>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A38" s="76"/>
+      <c r="A38" s="142"/>
       <c r="B38" s="50" t="s">
         <v>26</v>
       </c>
@@ -2608,13 +2608,13 @@
       <c r="H38" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="I38" s="72"/>
-      <c r="J38" s="79"/>
-      <c r="K38" s="136"/>
-      <c r="L38" s="83"/>
+      <c r="I38" s="145"/>
+      <c r="J38" s="117"/>
+      <c r="K38" s="119"/>
+      <c r="L38" s="121"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A39" s="69">
+      <c r="A39" s="128">
         <v>29</v>
       </c>
       <c r="B39" s="4" t="s">
@@ -2636,19 +2636,19 @@
       <c r="H39" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="I39" s="71" t="s">
-        <v>4</v>
-      </c>
-      <c r="J39" s="73">
+      <c r="I39" s="144" t="s">
+        <v>0</v>
+      </c>
+      <c r="J39" s="130">
         <v>35</v>
       </c>
-      <c r="K39" s="142">
+      <c r="K39" s="132">
         <v>2</v>
       </c>
-      <c r="L39" s="125"/>
+      <c r="L39" s="114"/>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A40" s="85"/>
+      <c r="A40" s="143"/>
       <c r="B40" s="4" t="s">
         <v>26</v>
       </c>
@@ -2668,13 +2668,13 @@
       <c r="H40" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="I40" s="84"/>
-      <c r="J40" s="86"/>
-      <c r="K40" s="144"/>
-      <c r="L40" s="127"/>
+      <c r="I40" s="146"/>
+      <c r="J40" s="135"/>
+      <c r="K40" s="136"/>
+      <c r="L40" s="124"/>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A41" s="70"/>
+      <c r="A41" s="129"/>
       <c r="B41" s="49" t="s">
         <v>28</v>
       </c>
@@ -2696,13 +2696,13 @@
       <c r="H41" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="I41" s="72"/>
-      <c r="J41" s="74"/>
-      <c r="K41" s="143"/>
-      <c r="L41" s="126"/>
+      <c r="I41" s="145"/>
+      <c r="J41" s="131"/>
+      <c r="K41" s="133"/>
+      <c r="L41" s="115"/>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A42" s="75">
+      <c r="A42" s="140">
         <v>30</v>
       </c>
       <c r="B42" s="1" t="s">
@@ -2724,19 +2724,19 @@
       <c r="H42" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I42" s="71" t="s">
-        <v>4</v>
-      </c>
-      <c r="J42" s="77">
+      <c r="I42" s="144" t="s">
+        <v>0</v>
+      </c>
+      <c r="J42" s="116">
         <v>19</v>
       </c>
-      <c r="K42" s="134">
+      <c r="K42" s="118">
         <v>1</v>
       </c>
-      <c r="L42" s="82"/>
+      <c r="L42" s="120"/>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A43" s="87"/>
+      <c r="A43" s="141"/>
       <c r="B43" s="1" t="s">
         <v>26</v>
       </c>
@@ -2756,13 +2756,13 @@
       <c r="H43" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I43" s="84"/>
-      <c r="J43" s="78"/>
-      <c r="K43" s="135"/>
-      <c r="L43" s="121"/>
+      <c r="I43" s="146"/>
+      <c r="J43" s="125"/>
+      <c r="K43" s="126"/>
+      <c r="L43" s="127"/>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A44" s="76"/>
+      <c r="A44" s="142"/>
       <c r="B44" s="50" t="s">
         <v>28</v>
       </c>
@@ -2784,13 +2784,13 @@
       <c r="H44" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="I44" s="72"/>
-      <c r="J44" s="79"/>
-      <c r="K44" s="136"/>
-      <c r="L44" s="83"/>
+      <c r="I44" s="145"/>
+      <c r="J44" s="117"/>
+      <c r="K44" s="119"/>
+      <c r="L44" s="121"/>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A45" s="69">
+      <c r="A45" s="128">
         <v>31</v>
       </c>
       <c r="B45" s="4" t="s">
@@ -2812,45 +2812,45 @@
       <c r="H45" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="I45" s="71" t="s">
+      <c r="I45" s="144" t="s">
+        <v>0</v>
+      </c>
+      <c r="J45" s="130">
+        <v>21</v>
+      </c>
+      <c r="K45" s="132">
         <v>4</v>
       </c>
-      <c r="J45" s="73">
-        <v>21</v>
-      </c>
-      <c r="K45" s="142">
-        <v>4</v>
-      </c>
-      <c r="L45" s="125"/>
+      <c r="L45" s="114"/>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A46" s="85"/>
-      <c r="B46" s="96" t="s">
+      <c r="A46" s="143"/>
+      <c r="B46" s="76" t="s">
         <v>26</v>
       </c>
-      <c r="C46" s="97">
+      <c r="C46" s="77">
         <v>44824</v>
       </c>
-      <c r="D46" s="97"/>
-      <c r="E46" s="97">
+      <c r="D46" s="77"/>
+      <c r="E46" s="77">
         <v>44832</v>
       </c>
-      <c r="F46" s="99" t="s">
+      <c r="F46" s="79" t="s">
         <v>15</v>
       </c>
-      <c r="G46" s="105" t="s">
+      <c r="G46" s="85" t="s">
         <v>23</v>
       </c>
-      <c r="H46" s="105" t="s">
+      <c r="H46" s="85" t="s">
         <v>16</v>
       </c>
-      <c r="I46" s="84"/>
-      <c r="J46" s="86"/>
-      <c r="K46" s="144"/>
-      <c r="L46" s="127"/>
+      <c r="I46" s="146"/>
+      <c r="J46" s="135"/>
+      <c r="K46" s="136"/>
+      <c r="L46" s="124"/>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A47" s="70"/>
+      <c r="A47" s="129"/>
       <c r="B47" s="49" t="s">
         <v>28</v>
       </c>
@@ -2870,47 +2870,47 @@
       <c r="H47" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="I47" s="72"/>
-      <c r="J47" s="74"/>
-      <c r="K47" s="143"/>
-      <c r="L47" s="126"/>
+      <c r="I47" s="145"/>
+      <c r="J47" s="131"/>
+      <c r="K47" s="133"/>
+      <c r="L47" s="115"/>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A48" s="75">
+      <c r="A48" s="140">
         <v>32</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C48" s="111">
+      <c r="C48" s="91">
         <v>44813</v>
       </c>
-      <c r="D48" s="111"/>
-      <c r="E48" s="94">
+      <c r="D48" s="91"/>
+      <c r="E48" s="74">
         <v>44815</v>
       </c>
-      <c r="F48" s="112" t="s">
+      <c r="F48" s="92" t="s">
         <v>6</v>
       </c>
-      <c r="G48" s="113" t="s">
+      <c r="G48" s="93" t="s">
         <v>2</v>
       </c>
-      <c r="H48" s="113" t="s">
+      <c r="H48" s="93" t="s">
         <v>5</v>
       </c>
-      <c r="I48" s="71" t="s">
+      <c r="I48" s="144" t="s">
+        <v>0</v>
+      </c>
+      <c r="J48" s="116">
+        <v>77</v>
+      </c>
+      <c r="K48" s="118">
         <v>4</v>
       </c>
-      <c r="J48" s="77">
-        <v>77</v>
-      </c>
-      <c r="K48" s="134">
-        <v>4</v>
-      </c>
-      <c r="L48" s="82"/>
+      <c r="L48" s="120"/>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A49" s="76"/>
+      <c r="A49" s="142"/>
       <c r="B49" s="50" t="s">
         <v>26</v>
       </c>
@@ -2930,73 +2930,73 @@
       <c r="H49" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="I49" s="72"/>
-      <c r="J49" s="79"/>
-      <c r="K49" s="136"/>
-      <c r="L49" s="83"/>
+      <c r="I49" s="145"/>
+      <c r="J49" s="117"/>
+      <c r="K49" s="119"/>
+      <c r="L49" s="121"/>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A50" s="69">
+      <c r="A50" s="128">
         <v>33</v>
       </c>
-      <c r="B50" s="106" t="s">
+      <c r="B50" s="86" t="s">
         <v>27</v>
       </c>
-      <c r="C50" s="116">
+      <c r="C50" s="96">
         <v>44806</v>
       </c>
-      <c r="D50" s="116"/>
-      <c r="E50" s="116">
+      <c r="D50" s="96"/>
+      <c r="E50" s="96">
         <v>44815</v>
       </c>
-      <c r="F50" s="117" t="s">
+      <c r="F50" s="97" t="s">
         <v>6</v>
       </c>
-      <c r="G50" s="118" t="s">
+      <c r="G50" s="98" t="s">
         <v>2</v>
       </c>
-      <c r="H50" s="118" t="s">
+      <c r="H50" s="98" t="s">
         <v>5</v>
       </c>
-      <c r="I50" s="71" t="s">
+      <c r="I50" s="122" t="s">
         <v>4</v>
       </c>
-      <c r="J50" s="73">
+      <c r="J50" s="130">
         <v>57</v>
       </c>
-      <c r="K50" s="142">
+      <c r="K50" s="132">
         <v>4</v>
       </c>
-      <c r="L50" s="125"/>
+      <c r="L50" s="114"/>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A51" s="85"/>
-      <c r="B51" s="106" t="s">
+      <c r="A51" s="143"/>
+      <c r="B51" s="86" t="s">
         <v>26</v>
       </c>
-      <c r="C51" s="97">
+      <c r="C51" s="77">
         <v>44824</v>
       </c>
-      <c r="D51" s="97"/>
-      <c r="E51" s="98">
+      <c r="D51" s="77"/>
+      <c r="E51" s="78">
         <v>44832</v>
       </c>
-      <c r="F51" s="99" t="s">
+      <c r="F51" s="79" t="s">
         <v>15</v>
       </c>
-      <c r="G51" s="105" t="s">
+      <c r="G51" s="85" t="s">
         <v>23</v>
       </c>
-      <c r="H51" s="105" t="s">
+      <c r="H51" s="85" t="s">
         <v>16</v>
       </c>
-      <c r="I51" s="84"/>
-      <c r="J51" s="86"/>
-      <c r="K51" s="144"/>
-      <c r="L51" s="127"/>
+      <c r="I51" s="134"/>
+      <c r="J51" s="135"/>
+      <c r="K51" s="136"/>
+      <c r="L51" s="124"/>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A52" s="70"/>
+      <c r="A52" s="129"/>
       <c r="B52" s="49" t="s">
         <v>28</v>
       </c>
@@ -3016,13 +3016,13 @@
       <c r="H52" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="72"/>
-      <c r="J52" s="74"/>
-      <c r="K52" s="143"/>
-      <c r="L52" s="126"/>
+      <c r="I52" s="123"/>
+      <c r="J52" s="131"/>
+      <c r="K52" s="133"/>
+      <c r="L52" s="115"/>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A53" s="75">
+      <c r="A53" s="140">
         <v>34</v>
       </c>
       <c r="B53" s="1" t="s">
@@ -3044,51 +3044,51 @@
       <c r="H53" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I53" s="71" t="s">
+      <c r="I53" s="122" t="s">
         <v>4</v>
       </c>
-      <c r="J53" s="77">
+      <c r="J53" s="116">
         <v>58</v>
       </c>
-      <c r="K53" s="134">
+      <c r="K53" s="118">
         <v>3</v>
       </c>
-      <c r="L53" s="128" t="s">
+      <c r="L53" s="137" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A54" s="87"/>
+      <c r="A54" s="141"/>
       <c r="B54" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C54" s="90">
+      <c r="C54" s="70">
         <v>44829</v>
       </c>
-      <c r="D54" s="90">
+      <c r="D54" s="70">
         <f>C54+7</f>
         <v>44836</v>
       </c>
-      <c r="E54" s="90">
+      <c r="E54" s="70">
         <f>D54+3</f>
         <v>44839</v>
       </c>
-      <c r="F54" s="91" t="s">
-        <v>10</v>
-      </c>
-      <c r="G54" s="92" t="s">
+      <c r="F54" s="71" t="s">
+        <v>10</v>
+      </c>
+      <c r="G54" s="72" t="s">
         <v>2</v>
       </c>
-      <c r="H54" s="89" t="s">
+      <c r="H54" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="I54" s="84"/>
-      <c r="J54" s="78"/>
-      <c r="K54" s="135"/>
-      <c r="L54" s="129"/>
+      <c r="I54" s="134"/>
+      <c r="J54" s="125"/>
+      <c r="K54" s="126"/>
+      <c r="L54" s="138"/>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A55" s="76"/>
+      <c r="A55" s="142"/>
       <c r="B55" s="50" t="s">
         <v>28</v>
       </c>
@@ -3108,48 +3108,48 @@
       <c r="H55" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="I55" s="72"/>
-      <c r="J55" s="79"/>
-      <c r="K55" s="136"/>
-      <c r="L55" s="130"/>
+      <c r="I55" s="123"/>
+      <c r="J55" s="117"/>
+      <c r="K55" s="119"/>
+      <c r="L55" s="139"/>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A56" s="69">
+      <c r="A56" s="128">
         <v>35</v>
       </c>
-      <c r="B56" s="106" t="s">
+      <c r="B56" s="86" t="s">
         <v>27</v>
       </c>
-      <c r="C56" s="102">
+      <c r="C56" s="82">
         <v>44807</v>
       </c>
-      <c r="D56" s="102"/>
-      <c r="E56" s="103">
+      <c r="D56" s="82"/>
+      <c r="E56" s="83">
         <v>44808</v>
       </c>
-      <c r="F56" s="104" t="s">
+      <c r="F56" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="G56" s="105" t="s">
+      <c r="G56" s="85" t="s">
         <v>9</v>
       </c>
-      <c r="H56" s="105" t="s">
+      <c r="H56" s="85" t="s">
         <v>8</v>
       </c>
-      <c r="I56" s="71" t="s">
+      <c r="I56" s="122" t="s">
         <v>4</v>
       </c>
-      <c r="J56" s="73">
+      <c r="J56" s="130">
         <v>28</v>
       </c>
-      <c r="K56" s="142">
+      <c r="K56" s="132">
         <v>2</v>
       </c>
-      <c r="L56" s="125"/>
+      <c r="L56" s="114"/>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A57" s="70"/>
-      <c r="B57" s="107" t="s">
+      <c r="A57" s="129"/>
+      <c r="B57" s="87" t="s">
         <v>26</v>
       </c>
       <c r="C57" s="15">
@@ -3168,50 +3168,50 @@
       <c r="H57" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="I57" s="72"/>
-      <c r="J57" s="74"/>
-      <c r="K57" s="143"/>
-      <c r="L57" s="126"/>
+      <c r="I57" s="123"/>
+      <c r="J57" s="131"/>
+      <c r="K57" s="133"/>
+      <c r="L57" s="115"/>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A58" s="75">
+      <c r="A58" s="140">
         <v>36</v>
       </c>
-      <c r="B58" s="93" t="s">
+      <c r="B58" s="73" t="s">
         <v>27</v>
       </c>
-      <c r="C58" s="111">
+      <c r="C58" s="91">
         <v>44808</v>
       </c>
-      <c r="D58" s="111">
+      <c r="D58" s="91">
         <f>C58+7</f>
         <v>44815</v>
       </c>
-      <c r="E58" s="94">
+      <c r="E58" s="74">
         <v>44818</v>
       </c>
-      <c r="F58" s="112" t="s">
-        <v>10</v>
-      </c>
-      <c r="G58" s="113" t="s">
+      <c r="F58" s="92" t="s">
+        <v>10</v>
+      </c>
+      <c r="G58" s="93" t="s">
         <v>12</v>
       </c>
-      <c r="H58" s="113" t="s">
+      <c r="H58" s="93" t="s">
         <v>11</v>
       </c>
-      <c r="I58" s="71" t="s">
-        <v>4</v>
-      </c>
-      <c r="J58" s="77">
+      <c r="I58" s="144" t="s">
+        <v>0</v>
+      </c>
+      <c r="J58" s="116">
         <v>35</v>
       </c>
-      <c r="K58" s="134">
+      <c r="K58" s="118">
         <v>8</v>
       </c>
-      <c r="L58" s="82"/>
+      <c r="L58" s="120"/>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A59" s="76"/>
+      <c r="A59" s="142"/>
       <c r="B59" s="50" t="s">
         <v>26</v>
       </c>
@@ -3231,30 +3231,30 @@
       <c r="H59" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="I59" s="72"/>
-      <c r="J59" s="79"/>
-      <c r="K59" s="136"/>
-      <c r="L59" s="83"/>
+      <c r="I59" s="145"/>
+      <c r="J59" s="117"/>
+      <c r="K59" s="119"/>
+      <c r="L59" s="121"/>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" s="62">
         <v>37</v>
       </c>
       <c r="B60" s="4"/>
-      <c r="C60" s="108">
+      <c r="C60" s="88">
         <v>44822</v>
       </c>
-      <c r="D60" s="108"/>
-      <c r="E60" s="108">
+      <c r="D60" s="88"/>
+      <c r="E60" s="88">
         <v>44822</v>
       </c>
-      <c r="F60" s="109" t="s">
-        <v>10</v>
-      </c>
-      <c r="G60" s="110" t="s">
+      <c r="F60" s="89" t="s">
+        <v>10</v>
+      </c>
+      <c r="G60" s="90" t="s">
         <v>12</v>
       </c>
-      <c r="H60" s="110" t="s">
+      <c r="H60" s="90" t="s">
         <v>11</v>
       </c>
       <c r="I60" s="26" t="s">
@@ -3263,13 +3263,13 @@
       <c r="J60" s="63">
         <v>48</v>
       </c>
-      <c r="K60" s="145">
+      <c r="K60" s="112">
         <v>3</v>
       </c>
-      <c r="L60" s="131"/>
+      <c r="L60" s="104"/>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A61" s="75">
+      <c r="A61" s="140">
         <v>38</v>
       </c>
       <c r="B61" s="1" t="s">
@@ -3291,45 +3291,45 @@
       <c r="H61" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I61" s="80" t="s">
+      <c r="I61" s="144" t="s">
         <v>0</v>
       </c>
-      <c r="J61" s="77">
+      <c r="J61" s="116">
         <v>58</v>
       </c>
-      <c r="K61" s="134">
+      <c r="K61" s="118">
         <v>3</v>
       </c>
-      <c r="L61" s="82"/>
+      <c r="L61" s="120"/>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A62" s="87"/>
-      <c r="B62" s="93" t="s">
+      <c r="A62" s="141"/>
+      <c r="B62" s="73" t="s">
         <v>26</v>
       </c>
-      <c r="C62" s="111">
+      <c r="C62" s="91">
         <v>44829</v>
       </c>
-      <c r="D62" s="111"/>
-      <c r="E62" s="111">
+      <c r="D62" s="91"/>
+      <c r="E62" s="91">
         <v>44836</v>
       </c>
-      <c r="F62" s="112" t="s">
-        <v>10</v>
-      </c>
-      <c r="G62" s="113" t="s">
+      <c r="F62" s="92" t="s">
+        <v>10</v>
+      </c>
+      <c r="G62" s="93" t="s">
         <v>25</v>
       </c>
-      <c r="H62" s="113" t="s">
+      <c r="H62" s="93" t="s">
         <v>11</v>
       </c>
-      <c r="I62" s="88"/>
-      <c r="J62" s="78"/>
-      <c r="K62" s="135"/>
-      <c r="L62" s="121"/>
+      <c r="I62" s="146"/>
+      <c r="J62" s="125"/>
+      <c r="K62" s="126"/>
+      <c r="L62" s="127"/>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A63" s="76"/>
+      <c r="A63" s="142"/>
       <c r="B63" s="50" t="s">
         <v>28</v>
       </c>
@@ -3349,13 +3349,13 @@
       <c r="H63" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="I63" s="81"/>
-      <c r="J63" s="79"/>
-      <c r="K63" s="136"/>
-      <c r="L63" s="83"/>
+      <c r="I63" s="145"/>
+      <c r="J63" s="117"/>
+      <c r="K63" s="119"/>
+      <c r="L63" s="121"/>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A64" s="69">
+      <c r="A64" s="128">
         <v>39</v>
       </c>
       <c r="B64" s="4" t="s">
@@ -3377,19 +3377,19 @@
       <c r="H64" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="I64" s="80" t="s">
+      <c r="I64" s="144" t="s">
         <v>0</v>
       </c>
-      <c r="J64" s="73">
+      <c r="J64" s="130">
         <v>20</v>
       </c>
-      <c r="K64" s="142">
+      <c r="K64" s="132">
         <v>1</v>
       </c>
-      <c r="L64" s="125"/>
+      <c r="L64" s="114"/>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A65" s="70"/>
+      <c r="A65" s="129"/>
       <c r="B65" s="49" t="s">
         <v>26</v>
       </c>
@@ -3409,13 +3409,13 @@
       <c r="H65" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="I65" s="81"/>
-      <c r="J65" s="74"/>
-      <c r="K65" s="143"/>
-      <c r="L65" s="126"/>
+      <c r="I65" s="145"/>
+      <c r="J65" s="131"/>
+      <c r="K65" s="133"/>
+      <c r="L65" s="115"/>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A66" s="75">
+      <c r="A66" s="140">
         <v>40</v>
       </c>
       <c r="B66" s="1" t="s">
@@ -3437,19 +3437,19 @@
       <c r="H66" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I66" s="80" t="s">
+      <c r="I66" s="144" t="s">
         <v>0</v>
       </c>
-      <c r="J66" s="77">
+      <c r="J66" s="116">
         <v>17</v>
       </c>
-      <c r="K66" s="134">
+      <c r="K66" s="118">
         <v>1</v>
       </c>
-      <c r="L66" s="82"/>
+      <c r="L66" s="120"/>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A67" s="76"/>
+      <c r="A67" s="142"/>
       <c r="B67" s="50" t="s">
         <v>26</v>
       </c>
@@ -3469,10 +3469,10 @@
       <c r="H67" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="I67" s="81"/>
-      <c r="J67" s="79"/>
-      <c r="K67" s="136"/>
-      <c r="L67" s="83"/>
+      <c r="I67" s="145"/>
+      <c r="J67" s="117"/>
+      <c r="K67" s="119"/>
+      <c r="L67" s="121"/>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" s="31">
@@ -3487,45 +3487,45 @@
       <c r="H68" s="25"/>
       <c r="I68" s="25"/>
       <c r="J68" s="25"/>
-      <c r="K68" s="141"/>
+      <c r="K68" s="111"/>
       <c r="L68" s="32"/>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A69" s="75">
+      <c r="A69" s="140">
         <v>42</v>
       </c>
-      <c r="B69" s="93" t="s">
+      <c r="B69" s="73" t="s">
         <v>27</v>
       </c>
-      <c r="C69" s="111">
+      <c r="C69" s="91">
         <v>44822</v>
       </c>
-      <c r="D69" s="111"/>
-      <c r="E69" s="94">
+      <c r="D69" s="91"/>
+      <c r="E69" s="74">
         <v>44822</v>
       </c>
-      <c r="F69" s="112" t="s">
-        <v>10</v>
-      </c>
-      <c r="G69" s="113" t="s">
+      <c r="F69" s="92" t="s">
+        <v>10</v>
+      </c>
+      <c r="G69" s="93" t="s">
         <v>9</v>
       </c>
-      <c r="H69" s="113" t="s">
+      <c r="H69" s="93" t="s">
         <v>11</v>
       </c>
-      <c r="I69" s="80" t="s">
+      <c r="I69" s="144" t="s">
         <v>0</v>
       </c>
-      <c r="J69" s="77">
+      <c r="J69" s="116">
         <v>41</v>
       </c>
-      <c r="K69" s="134">
+      <c r="K69" s="118">
         <v>3</v>
       </c>
-      <c r="L69" s="82"/>
+      <c r="L69" s="120"/>
     </row>
     <row r="70" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="76"/>
+      <c r="A70" s="142"/>
       <c r="B70" s="50" t="s">
         <v>26</v>
       </c>
@@ -3545,50 +3545,50 @@
       <c r="H70" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="I70" s="81"/>
-      <c r="J70" s="79"/>
-      <c r="K70" s="136"/>
-      <c r="L70" s="83"/>
+      <c r="I70" s="145"/>
+      <c r="J70" s="117"/>
+      <c r="K70" s="119"/>
+      <c r="L70" s="121"/>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A71" s="69">
+      <c r="A71" s="128">
         <v>43</v>
       </c>
-      <c r="B71" s="106" t="s">
+      <c r="B71" s="86" t="s">
         <v>27</v>
       </c>
-      <c r="C71" s="102">
+      <c r="C71" s="82">
         <v>44815</v>
       </c>
-      <c r="D71" s="102">
+      <c r="D71" s="82">
         <f t="shared" ref="D71" si="1">C71+7</f>
         <v>44822</v>
       </c>
-      <c r="E71" s="103">
+      <c r="E71" s="83">
         <v>44822</v>
       </c>
-      <c r="F71" s="104" t="s">
-        <v>10</v>
-      </c>
-      <c r="G71" s="105" t="s">
+      <c r="F71" s="84" t="s">
+        <v>10</v>
+      </c>
+      <c r="G71" s="85" t="s">
         <v>9</v>
       </c>
-      <c r="H71" s="105" t="s">
+      <c r="H71" s="85" t="s">
         <v>11</v>
       </c>
-      <c r="I71" s="71" t="s">
+      <c r="I71" s="144" t="s">
+        <v>0</v>
+      </c>
+      <c r="J71" s="130">
+        <v>57</v>
+      </c>
+      <c r="K71" s="132">
         <v>4</v>
       </c>
-      <c r="J71" s="73">
-        <v>57</v>
-      </c>
-      <c r="K71" s="142">
-        <v>4</v>
-      </c>
-      <c r="L71" s="125"/>
+      <c r="L71" s="114"/>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A72" s="70"/>
+      <c r="A72" s="129"/>
       <c r="B72" s="49" t="s">
         <v>26</v>
       </c>
@@ -3608,10 +3608,10 @@
       <c r="H72" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="I72" s="72"/>
-      <c r="J72" s="74"/>
-      <c r="K72" s="143"/>
-      <c r="L72" s="126"/>
+      <c r="I72" s="145"/>
+      <c r="J72" s="131"/>
+      <c r="K72" s="133"/>
+      <c r="L72" s="115"/>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73" s="30">
@@ -3630,10 +3630,10 @@
       <c r="J73" s="10">
         <v>38</v>
       </c>
-      <c r="K73" s="140">
+      <c r="K73" s="110">
         <v>3</v>
       </c>
-      <c r="L73" s="124"/>
+      <c r="L73" s="103"/>
     </row>
     <row r="74" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="33">
@@ -3662,93 +3662,13 @@
       <c r="J74" s="40">
         <v>53</v>
       </c>
-      <c r="K74" s="146">
+      <c r="K74" s="113">
         <v>3</v>
       </c>
-      <c r="L74" s="132"/>
+      <c r="L74" s="105"/>
     </row>
   </sheetData>
   <mergeCells count="105">
-    <mergeCell ref="L16:L17"/>
-    <mergeCell ref="L19:L20"/>
-    <mergeCell ref="J26:J27"/>
-    <mergeCell ref="K26:K27"/>
-    <mergeCell ref="L26:L27"/>
-    <mergeCell ref="L48:L49"/>
-    <mergeCell ref="I58:I59"/>
-    <mergeCell ref="J58:J59"/>
-    <mergeCell ref="K58:K59"/>
-    <mergeCell ref="L58:L59"/>
-    <mergeCell ref="L50:L52"/>
-    <mergeCell ref="L56:L57"/>
-    <mergeCell ref="J61:J63"/>
-    <mergeCell ref="K61:K63"/>
-    <mergeCell ref="L61:L63"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="I16:I17"/>
-    <mergeCell ref="J16:J17"/>
-    <mergeCell ref="K16:K17"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="J19:J20"/>
-    <mergeCell ref="K19:K20"/>
-    <mergeCell ref="I45:I47"/>
-    <mergeCell ref="J45:J47"/>
-    <mergeCell ref="K45:K47"/>
-    <mergeCell ref="L45:L47"/>
-    <mergeCell ref="L53:L55"/>
-    <mergeCell ref="I56:I57"/>
-    <mergeCell ref="J56:J57"/>
-    <mergeCell ref="K56:K57"/>
-    <mergeCell ref="A56:A57"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="I3:I5"/>
-    <mergeCell ref="J3:J5"/>
-    <mergeCell ref="A50:A52"/>
-    <mergeCell ref="I50:I52"/>
-    <mergeCell ref="J50:J52"/>
-    <mergeCell ref="A45:A47"/>
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="I48:I49"/>
-    <mergeCell ref="J48:J49"/>
-    <mergeCell ref="L3:L5"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="J35:J36"/>
-    <mergeCell ref="K35:K36"/>
-    <mergeCell ref="L35:L36"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="J37:J38"/>
-    <mergeCell ref="K37:K38"/>
-    <mergeCell ref="L37:L38"/>
-    <mergeCell ref="I35:I36"/>
-    <mergeCell ref="I37:I38"/>
-    <mergeCell ref="A39:A41"/>
-    <mergeCell ref="J39:J41"/>
-    <mergeCell ref="K39:K41"/>
-    <mergeCell ref="A42:A44"/>
-    <mergeCell ref="J42:J44"/>
-    <mergeCell ref="K42:K44"/>
-    <mergeCell ref="I64:I65"/>
-    <mergeCell ref="I66:I67"/>
-    <mergeCell ref="A53:A55"/>
-    <mergeCell ref="I53:I55"/>
-    <mergeCell ref="A61:A63"/>
-    <mergeCell ref="I61:I63"/>
-    <mergeCell ref="A58:A59"/>
-    <mergeCell ref="K50:K52"/>
-    <mergeCell ref="J53:J55"/>
-    <mergeCell ref="K53:K55"/>
-    <mergeCell ref="K48:K49"/>
-    <mergeCell ref="A69:A70"/>
-    <mergeCell ref="I69:I70"/>
-    <mergeCell ref="J69:J70"/>
-    <mergeCell ref="K69:K70"/>
-    <mergeCell ref="A66:A67"/>
-    <mergeCell ref="J66:J67"/>
-    <mergeCell ref="K66:K67"/>
-    <mergeCell ref="A64:A65"/>
-    <mergeCell ref="J64:J65"/>
-    <mergeCell ref="K64:K65"/>
     <mergeCell ref="A71:A72"/>
     <mergeCell ref="I71:I72"/>
     <mergeCell ref="J71:J72"/>
@@ -3773,7 +3693,87 @@
     <mergeCell ref="L28:L29"/>
     <mergeCell ref="A26:A27"/>
     <mergeCell ref="I26:I27"/>
+    <mergeCell ref="A69:A70"/>
+    <mergeCell ref="I69:I70"/>
+    <mergeCell ref="J69:J70"/>
+    <mergeCell ref="K69:K70"/>
+    <mergeCell ref="A66:A67"/>
+    <mergeCell ref="J66:J67"/>
+    <mergeCell ref="K66:K67"/>
+    <mergeCell ref="A64:A65"/>
+    <mergeCell ref="J64:J65"/>
+    <mergeCell ref="K64:K65"/>
+    <mergeCell ref="I64:I65"/>
+    <mergeCell ref="I66:I67"/>
+    <mergeCell ref="A53:A55"/>
+    <mergeCell ref="I53:I55"/>
+    <mergeCell ref="A61:A63"/>
+    <mergeCell ref="I61:I63"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="K50:K52"/>
+    <mergeCell ref="J53:J55"/>
+    <mergeCell ref="K53:K55"/>
+    <mergeCell ref="L3:L5"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="J35:J36"/>
+    <mergeCell ref="K35:K36"/>
+    <mergeCell ref="L35:L36"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="J37:J38"/>
+    <mergeCell ref="K37:K38"/>
+    <mergeCell ref="L37:L38"/>
+    <mergeCell ref="I35:I36"/>
+    <mergeCell ref="I37:I38"/>
     <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="I3:I5"/>
+    <mergeCell ref="J3:J5"/>
+    <mergeCell ref="A50:A52"/>
+    <mergeCell ref="I50:I52"/>
+    <mergeCell ref="J50:J52"/>
+    <mergeCell ref="A45:A47"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="I48:I49"/>
+    <mergeCell ref="J48:J49"/>
+    <mergeCell ref="A39:A41"/>
+    <mergeCell ref="J39:J41"/>
+    <mergeCell ref="A42:A44"/>
+    <mergeCell ref="J42:J44"/>
+    <mergeCell ref="J61:J63"/>
+    <mergeCell ref="K61:K63"/>
+    <mergeCell ref="L61:L63"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="J16:J17"/>
+    <mergeCell ref="K16:K17"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="J19:J20"/>
+    <mergeCell ref="K19:K20"/>
+    <mergeCell ref="I45:I47"/>
+    <mergeCell ref="J45:J47"/>
+    <mergeCell ref="K45:K47"/>
+    <mergeCell ref="L45:L47"/>
+    <mergeCell ref="L53:L55"/>
+    <mergeCell ref="I56:I57"/>
+    <mergeCell ref="J56:J57"/>
+    <mergeCell ref="K56:K57"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="K39:K41"/>
+    <mergeCell ref="K42:K44"/>
+    <mergeCell ref="K48:K49"/>
+    <mergeCell ref="L16:L17"/>
+    <mergeCell ref="L19:L20"/>
+    <mergeCell ref="J26:J27"/>
+    <mergeCell ref="K26:K27"/>
+    <mergeCell ref="L26:L27"/>
+    <mergeCell ref="L48:L49"/>
+    <mergeCell ref="I58:I59"/>
+    <mergeCell ref="J58:J59"/>
+    <mergeCell ref="K58:K59"/>
+    <mergeCell ref="L58:L59"/>
+    <mergeCell ref="L50:L52"/>
+    <mergeCell ref="L56:L57"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0" right="0" top="1.1811023622047244E-2" bottom="0.11811023622047245" header="0" footer="0"/>

--- a/sheet/CONTROLE_DE_TERRITORIO_2022.xlsx
+++ b/sheet/CONTROLE_DE_TERRITORIO_2022.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="62">
   <si>
     <t>OK</t>
   </si>
@@ -172,6 +172,48 @@
   </si>
   <si>
     <t>FALTA 2</t>
+  </si>
+  <si>
+    <t>Quinta</t>
+  </si>
+  <si>
+    <t>Sexta</t>
+  </si>
+  <si>
+    <t>Sabado</t>
+  </si>
+  <si>
+    <t>Bruno</t>
+  </si>
+  <si>
+    <t>Arnaldo</t>
+  </si>
+  <si>
+    <t>Marcos</t>
+  </si>
+  <si>
+    <t>Joao</t>
+  </si>
+  <si>
+    <t>Volnei</t>
+  </si>
+  <si>
+    <t>FALTA LAMINA</t>
+  </si>
+  <si>
+    <t>1,2,3,4,9</t>
+  </si>
+  <si>
+    <t>16,22,23</t>
+  </si>
+  <si>
+    <t>25,26,27,30</t>
+  </si>
+  <si>
+    <t>31,32,33</t>
+  </si>
+  <si>
+    <t>37,38,39,40</t>
   </si>
 </sst>
 </file>
@@ -181,7 +223,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-416]dddd"/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -300,8 +342,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -347,6 +396,11 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="42">
     <border>
@@ -874,15 +928,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="162">
+  <cellXfs count="163">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="3" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1154,165 +1209,12 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="19" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="26" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="20" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="4" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="5" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="8" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="10" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="28" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="24" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="34" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="35" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1320,18 +1222,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="38" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1340,36 +1230,205 @@
     <xf numFmtId="0" fontId="6" fillId="7" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="7" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="7" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="10" fillId="0" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="14" fillId="7" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="7" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="14" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="4" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="5" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="38" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="24" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="34" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="35" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="28" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="8" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="19" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="26" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="20" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" xfId="6" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="7">
     <cellStyle name="40% - Ênfase3" xfId="5" builtinId="39"/>
+    <cellStyle name="Bom" xfId="6" builtinId="26"/>
     <cellStyle name="Entrada" xfId="2" builtinId="20"/>
     <cellStyle name="Incorreto" xfId="1" builtinId="27"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1655,10 +1714,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L89"/>
+  <dimension ref="A1:O89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="99" zoomScaleNormal="100" zoomScalePageLayoutView="45" workbookViewId="0">
-      <selection activeCell="I82" sqref="I82:I83"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="99" zoomScaleNormal="100" zoomScalePageLayoutView="45" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16:J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1675,10 +1734,12 @@
     <col min="10" max="10" width="24.140625" style="13" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10.28515625" style="13" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="17.7109375" style="13" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="13"/>
+    <col min="13" max="14" width="9.140625" style="13"/>
+    <col min="15" max="15" width="12" style="13" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="36" t="s">
         <v>30</v>
       </c>
@@ -1716,42 +1777,42 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="125">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="147">
         <v>1</v>
       </c>
       <c r="B2" s="62" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="159">
+      <c r="C2" s="103">
         <v>44811</v>
       </c>
-      <c r="D2" s="159"/>
-      <c r="E2" s="159">
+      <c r="D2" s="103"/>
+      <c r="E2" s="103">
         <v>44813</v>
       </c>
-      <c r="F2" s="160" t="s">
+      <c r="F2" s="104" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="161" t="s">
+      <c r="G2" s="105" t="s">
         <v>2</v>
       </c>
       <c r="H2" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="128" t="s">
+      <c r="I2" s="149" t="s">
         <v>0</v>
       </c>
-      <c r="J2" s="129">
+      <c r="J2" s="150">
         <v>5</v>
       </c>
-      <c r="K2" s="130">
+      <c r="K2" s="151">
         <v>1</v>
       </c>
-      <c r="L2" s="153"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="124"/>
+      <c r="L2" s="121"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="148"/>
       <c r="B3" s="39" t="s">
         <v>26</v>
       </c>
@@ -1762,22 +1823,22 @@
       <c r="E3" s="33">
         <v>44850</v>
       </c>
-      <c r="F3" s="126" t="s">
+      <c r="F3" s="91" t="s">
         <v>24</v>
       </c>
-      <c r="G3" s="127" t="s">
+      <c r="G3" s="92" t="s">
         <v>40</v>
       </c>
       <c r="H3" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="I3" s="100"/>
-      <c r="J3" s="108"/>
-      <c r="K3" s="110"/>
-      <c r="L3" s="133"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="121">
+      <c r="I3" s="111"/>
+      <c r="J3" s="125"/>
+      <c r="K3" s="127"/>
+      <c r="L3" s="117"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="108">
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -1799,19 +1860,19 @@
       <c r="H4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I4" s="99" t="s">
+      <c r="I4" s="110" t="s">
         <v>0</v>
       </c>
-      <c r="J4" s="93">
+      <c r="J4" s="112">
         <v>58</v>
       </c>
-      <c r="K4" s="95">
+      <c r="K4" s="114">
         <v>4</v>
       </c>
-      <c r="L4" s="97"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="123"/>
+      <c r="L4" s="152"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="130"/>
       <c r="B5" s="1" t="s">
         <v>26</v>
       </c>
@@ -1833,13 +1894,19 @@
       <c r="H5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I5" s="111"/>
-      <c r="J5" s="102"/>
-      <c r="K5" s="103"/>
-      <c r="L5" s="104"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="122"/>
+      <c r="I5" s="131"/>
+      <c r="J5" s="119"/>
+      <c r="K5" s="120"/>
+      <c r="L5" s="157"/>
+      <c r="N5" s="162" t="s">
+        <v>48</v>
+      </c>
+      <c r="O5" s="162" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="109"/>
       <c r="B6" s="43" t="s">
         <v>28</v>
       </c>
@@ -1859,12 +1926,18 @@
       <c r="H6" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="I6" s="100"/>
-      <c r="J6" s="94"/>
-      <c r="K6" s="96"/>
-      <c r="L6" s="98"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I6" s="111"/>
+      <c r="J6" s="113"/>
+      <c r="K6" s="115"/>
+      <c r="L6" s="153"/>
+      <c r="N6" s="162" t="s">
+        <v>49</v>
+      </c>
+      <c r="O6" s="162" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="25">
         <v>3</v>
       </c>
@@ -1885,25 +1958,31 @@
         <v>1</v>
       </c>
       <c r="L7" s="83"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="121">
+      <c r="N7" s="162" t="s">
+        <v>50</v>
+      </c>
+      <c r="O7" s="162" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="108">
         <v>4</v>
       </c>
       <c r="B8" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="157">
+      <c r="C8" s="101">
         <v>44805</v>
       </c>
-      <c r="D8" s="157">
+      <c r="D8" s="101">
         <f t="shared" ref="D8" si="0">C8+7</f>
         <v>44812</v>
       </c>
-      <c r="E8" s="157">
+      <c r="E8" s="101">
         <v>44815</v>
       </c>
-      <c r="F8" s="158" t="s">
+      <c r="F8" s="102" t="s">
         <v>3</v>
       </c>
       <c r="G8" s="59" t="s">
@@ -1912,19 +1991,25 @@
       <c r="H8" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="I8" s="99" t="s">
+      <c r="I8" s="110" t="s">
         <v>0</v>
       </c>
-      <c r="J8" s="93">
+      <c r="J8" s="112">
         <v>59</v>
       </c>
-      <c r="K8" s="95">
+      <c r="K8" s="114">
         <v>4</v>
       </c>
-      <c r="L8" s="134"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="122"/>
+      <c r="L8" s="106"/>
+      <c r="N8" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="O8" s="13" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="109"/>
       <c r="B9" s="40" t="s">
         <v>26</v>
       </c>
@@ -1944,12 +2029,18 @@
       <c r="H9" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="I9" s="100"/>
-      <c r="J9" s="94"/>
-      <c r="K9" s="96"/>
-      <c r="L9" s="136"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I9" s="111"/>
+      <c r="J9" s="113"/>
+      <c r="K9" s="115"/>
+      <c r="L9" s="107"/>
+      <c r="N9" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="O9" s="13" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="26">
         <v>5</v>
       </c>
@@ -1982,8 +2073,11 @@
         <v>1</v>
       </c>
       <c r="L10" s="83"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N10" s="13" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="27">
         <v>6</v>
       </c>
@@ -2018,8 +2112,11 @@
       <c r="L11" s="84" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N11" s="13" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="26">
         <v>7</v>
       </c>
@@ -2052,8 +2149,11 @@
         <v>2</v>
       </c>
       <c r="L12" s="83"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N12" s="13" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="28">
         <v>8</v>
       </c>
@@ -2087,7 +2187,7 @@
       </c>
       <c r="L13" s="85"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="26">
         <v>9</v>
       </c>
@@ -2119,7 +2219,7 @@
       </c>
       <c r="L14" s="83"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="29">
         <v>10</v>
       </c>
@@ -2135,8 +2235,8 @@
       <c r="K15" s="90"/>
       <c r="L15" s="30"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="105">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" s="122">
         <v>11</v>
       </c>
       <c r="B16" s="62" t="s">
@@ -2158,19 +2258,19 @@
       <c r="H16" s="71" t="s">
         <v>16</v>
       </c>
-      <c r="I16" s="117" t="s">
+      <c r="I16" s="128" t="s">
         <v>4</v>
       </c>
-      <c r="J16" s="107">
+      <c r="J16" s="124">
         <v>128</v>
       </c>
-      <c r="K16" s="109">
+      <c r="K16" s="126">
         <v>8</v>
       </c>
-      <c r="L16" s="131"/>
+      <c r="L16" s="116"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="106"/>
+      <c r="A17" s="123"/>
       <c r="B17" s="39" t="s">
         <v>26</v>
       </c>
@@ -2193,13 +2293,13 @@
       <c r="H17" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="I17" s="118"/>
-      <c r="J17" s="108"/>
-      <c r="K17" s="110"/>
-      <c r="L17" s="133"/>
+      <c r="I17" s="129"/>
+      <c r="J17" s="125"/>
+      <c r="K17" s="127"/>
+      <c r="L17" s="117"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="121">
+      <c r="A18" s="108">
         <v>12</v>
       </c>
       <c r="B18" s="59" t="s">
@@ -2221,21 +2321,21 @@
       <c r="H18" s="76" t="s">
         <v>16</v>
       </c>
-      <c r="I18" s="99" t="s">
+      <c r="I18" s="110" t="s">
         <v>0</v>
       </c>
-      <c r="J18" s="93">
+      <c r="J18" s="112">
         <v>66</v>
       </c>
-      <c r="K18" s="95">
+      <c r="K18" s="114">
         <v>5</v>
       </c>
-      <c r="L18" s="134" t="s">
+      <c r="L18" s="106" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="122"/>
+      <c r="A19" s="109"/>
       <c r="B19" s="40" t="s">
         <v>26</v>
       </c>
@@ -2255,13 +2355,13 @@
       <c r="H19" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="I19" s="100"/>
-      <c r="J19" s="94"/>
-      <c r="K19" s="96"/>
-      <c r="L19" s="136"/>
+      <c r="I19" s="111"/>
+      <c r="J19" s="113"/>
+      <c r="K19" s="115"/>
+      <c r="L19" s="107"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="105">
+      <c r="A20" s="122">
         <v>13</v>
       </c>
       <c r="B20" s="62" t="s">
@@ -2283,21 +2383,21 @@
       <c r="H20" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="I20" s="117" t="s">
+      <c r="I20" s="128" t="s">
         <v>4</v>
       </c>
-      <c r="J20" s="107">
+      <c r="J20" s="124">
         <v>7</v>
       </c>
-      <c r="K20" s="109">
+      <c r="K20" s="126">
         <v>1</v>
       </c>
-      <c r="L20" s="131" t="s">
+      <c r="L20" s="116" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="106"/>
+      <c r="A21" s="123"/>
       <c r="B21" s="39" t="s">
         <v>26</v>
       </c>
@@ -2320,10 +2420,10 @@
       <c r="H21" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="I21" s="118"/>
-      <c r="J21" s="108"/>
-      <c r="K21" s="110"/>
-      <c r="L21" s="133"/>
+      <c r="I21" s="129"/>
+      <c r="J21" s="125"/>
+      <c r="K21" s="127"/>
+      <c r="L21" s="117"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="28">
@@ -2360,7 +2460,7 @@
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="105">
+      <c r="A23" s="122">
         <v>15</v>
       </c>
       <c r="B23" s="62" t="s">
@@ -2382,21 +2482,21 @@
       <c r="H23" s="72" t="s">
         <v>1</v>
       </c>
-      <c r="I23" s="99" t="s">
+      <c r="I23" s="110" t="s">
         <v>0</v>
       </c>
-      <c r="J23" s="107">
+      <c r="J23" s="124">
         <v>38</v>
       </c>
-      <c r="K23" s="109">
+      <c r="K23" s="126">
         <v>3</v>
       </c>
-      <c r="L23" s="91" t="s">
+      <c r="L23" s="154" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="106"/>
+      <c r="A24" s="123"/>
       <c r="B24" s="39" t="s">
         <v>26</v>
       </c>
@@ -2416,10 +2516,10 @@
       <c r="H24" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="I24" s="100"/>
-      <c r="J24" s="108"/>
-      <c r="K24" s="110"/>
-      <c r="L24" s="92"/>
+      <c r="I24" s="111"/>
+      <c r="J24" s="125"/>
+      <c r="K24" s="127"/>
+      <c r="L24" s="156"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="50">
@@ -2470,7 +2570,7 @@
       <c r="L26" s="30"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="121">
+      <c r="A27" s="108">
         <v>18</v>
       </c>
       <c r="B27" s="59" t="s">
@@ -2492,21 +2592,21 @@
       <c r="H27" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="I27" s="99" t="s">
+      <c r="I27" s="110" t="s">
         <v>0</v>
       </c>
-      <c r="J27" s="93">
+      <c r="J27" s="112">
         <v>47</v>
       </c>
-      <c r="K27" s="95">
+      <c r="K27" s="114">
         <v>3</v>
       </c>
-      <c r="L27" s="134" t="s">
+      <c r="L27" s="106" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="122"/>
+      <c r="A28" s="109"/>
       <c r="B28" s="40" t="s">
         <v>26</v>
       </c>
@@ -2526,13 +2626,13 @@
       <c r="H28" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="I28" s="100"/>
-      <c r="J28" s="94"/>
-      <c r="K28" s="96"/>
-      <c r="L28" s="136"/>
+      <c r="I28" s="111"/>
+      <c r="J28" s="113"/>
+      <c r="K28" s="115"/>
+      <c r="L28" s="107"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" s="105">
+      <c r="A29" s="122">
         <v>19</v>
       </c>
       <c r="B29" s="62" t="s">
@@ -2554,19 +2654,19 @@
       <c r="H29" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="I29" s="99" t="s">
+      <c r="I29" s="110" t="s">
         <v>0</v>
       </c>
-      <c r="J29" s="107">
+      <c r="J29" s="124">
         <v>68</v>
       </c>
-      <c r="K29" s="109">
+      <c r="K29" s="126">
         <v>4</v>
       </c>
-      <c r="L29" s="91"/>
+      <c r="L29" s="154"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" s="106"/>
+      <c r="A30" s="123"/>
       <c r="B30" s="39" t="s">
         <v>26</v>
       </c>
@@ -2586,13 +2686,13 @@
       <c r="H30" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="I30" s="100"/>
-      <c r="J30" s="108"/>
-      <c r="K30" s="110"/>
-      <c r="L30" s="92"/>
+      <c r="I30" s="111"/>
+      <c r="J30" s="125"/>
+      <c r="K30" s="127"/>
+      <c r="L30" s="156"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" s="121">
+      <c r="A31" s="108">
         <v>20</v>
       </c>
       <c r="B31" s="1" t="s">
@@ -2614,19 +2714,19 @@
       <c r="H31" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I31" s="99" t="s">
+      <c r="I31" s="110" t="s">
         <v>0</v>
       </c>
-      <c r="J31" s="93">
+      <c r="J31" s="112">
         <v>13</v>
       </c>
-      <c r="K31" s="95">
+      <c r="K31" s="114">
         <v>1</v>
       </c>
-      <c r="L31" s="97"/>
+      <c r="L31" s="152"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A32" s="122"/>
+      <c r="A32" s="109"/>
       <c r="B32" s="40" t="s">
         <v>26</v>
       </c>
@@ -2646,13 +2746,13 @@
       <c r="H32" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="I32" s="100"/>
-      <c r="J32" s="94"/>
-      <c r="K32" s="96"/>
-      <c r="L32" s="98"/>
+      <c r="I32" s="111"/>
+      <c r="J32" s="113"/>
+      <c r="K32" s="115"/>
+      <c r="L32" s="153"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A33" s="105">
+      <c r="A33" s="122">
         <v>21</v>
       </c>
       <c r="B33" s="62" t="s">
@@ -2674,19 +2774,19 @@
       <c r="H33" s="71" t="s">
         <v>11</v>
       </c>
-      <c r="I33" s="99" t="s">
+      <c r="I33" s="110" t="s">
         <v>0</v>
       </c>
-      <c r="J33" s="107">
+      <c r="J33" s="124">
         <v>93</v>
       </c>
-      <c r="K33" s="109">
+      <c r="K33" s="126">
         <v>6</v>
       </c>
-      <c r="L33" s="91"/>
+      <c r="L33" s="154"/>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A34" s="106"/>
+      <c r="A34" s="123"/>
       <c r="B34" s="39" t="s">
         <v>26</v>
       </c>
@@ -2706,13 +2806,13 @@
       <c r="H34" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="I34" s="100"/>
-      <c r="J34" s="108"/>
-      <c r="K34" s="110"/>
-      <c r="L34" s="92"/>
+      <c r="I34" s="111"/>
+      <c r="J34" s="125"/>
+      <c r="K34" s="127"/>
+      <c r="L34" s="156"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A35" s="121">
+      <c r="A35" s="108">
         <v>22</v>
       </c>
       <c r="B35" s="59" t="s">
@@ -2736,19 +2836,19 @@
       <c r="H35" s="76" t="s">
         <v>11</v>
       </c>
-      <c r="I35" s="99" t="s">
+      <c r="I35" s="110" t="s">
         <v>0</v>
       </c>
-      <c r="J35" s="93">
+      <c r="J35" s="112">
         <v>71</v>
       </c>
-      <c r="K35" s="95">
+      <c r="K35" s="114">
         <v>4</v>
       </c>
-      <c r="L35" s="151"/>
+      <c r="L35" s="96"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A36" s="122"/>
+      <c r="A36" s="109"/>
       <c r="B36" s="40" t="s">
         <v>26</v>
       </c>
@@ -2768,13 +2868,13 @@
       <c r="H36" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="I36" s="100"/>
-      <c r="J36" s="94"/>
-      <c r="K36" s="96"/>
-      <c r="L36" s="152"/>
+      <c r="I36" s="111"/>
+      <c r="J36" s="113"/>
+      <c r="K36" s="115"/>
+      <c r="L36" s="97"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A37" s="105">
+      <c r="A37" s="122">
         <v>23</v>
       </c>
       <c r="B37" s="9"/>
@@ -2794,19 +2894,19 @@
       <c r="H37" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="I37" s="99" t="s">
+      <c r="I37" s="110" t="s">
         <v>0</v>
       </c>
-      <c r="J37" s="107">
+      <c r="J37" s="124">
         <v>28</v>
       </c>
-      <c r="K37" s="109">
+      <c r="K37" s="126">
         <v>2</v>
       </c>
-      <c r="L37" s="131"/>
+      <c r="L37" s="116"/>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A38" s="106"/>
+      <c r="A38" s="123"/>
       <c r="B38" s="9"/>
       <c r="C38" s="19">
         <v>44850</v>
@@ -2824,10 +2924,10 @@
       <c r="H38" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="I38" s="100"/>
-      <c r="J38" s="108"/>
-      <c r="K38" s="110"/>
-      <c r="L38" s="133"/>
+      <c r="I38" s="111"/>
+      <c r="J38" s="125"/>
+      <c r="K38" s="127"/>
+      <c r="L38" s="117"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="28">
@@ -2894,7 +2994,7 @@
       <c r="L40" s="83"/>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A41" s="121">
+      <c r="A41" s="108">
         <v>26</v>
       </c>
       <c r="B41" s="59" t="s">
@@ -2916,19 +3016,19 @@
       <c r="H41" s="76" t="s">
         <v>11</v>
       </c>
-      <c r="I41" s="99" t="s">
+      <c r="I41" s="110" t="s">
         <v>0</v>
       </c>
-      <c r="J41" s="93">
+      <c r="J41" s="112">
         <v>28</v>
       </c>
-      <c r="K41" s="95">
+      <c r="K41" s="114">
         <v>3</v>
       </c>
-      <c r="L41" s="134"/>
+      <c r="L41" s="106"/>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A42" s="122"/>
+      <c r="A42" s="109"/>
       <c r="B42" s="40" t="s">
         <v>26</v>
       </c>
@@ -2948,13 +3048,13 @@
       <c r="H42" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="I42" s="100"/>
-      <c r="J42" s="94"/>
-      <c r="K42" s="96"/>
-      <c r="L42" s="136"/>
+      <c r="I42" s="111"/>
+      <c r="J42" s="113"/>
+      <c r="K42" s="115"/>
+      <c r="L42" s="107"/>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A43" s="105">
+      <c r="A43" s="122">
         <v>27</v>
       </c>
       <c r="B43" s="4" t="s">
@@ -2976,19 +3076,21 @@
       <c r="H43" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="I43" s="99" t="s">
+      <c r="I43" s="110" t="s">
         <v>0</v>
       </c>
-      <c r="J43" s="107">
+      <c r="J43" s="124">
         <v>11</v>
       </c>
-      <c r="K43" s="109">
+      <c r="K43" s="126">
         <v>1</v>
       </c>
-      <c r="L43" s="91"/>
+      <c r="L43" s="154" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A44" s="106"/>
+      <c r="A44" s="123"/>
       <c r="B44" s="39" t="s">
         <v>26</v>
       </c>
@@ -3008,13 +3110,13 @@
       <c r="H44" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="I44" s="100"/>
-      <c r="J44" s="108"/>
-      <c r="K44" s="110"/>
-      <c r="L44" s="92"/>
+      <c r="I44" s="111"/>
+      <c r="J44" s="125"/>
+      <c r="K44" s="127"/>
+      <c r="L44" s="156"/>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A45" s="121">
+      <c r="A45" s="108">
         <v>28</v>
       </c>
       <c r="B45" s="1" t="s">
@@ -3036,19 +3138,19 @@
       <c r="H45" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I45" s="99" t="s">
+      <c r="I45" s="110" t="s">
         <v>0</v>
       </c>
-      <c r="J45" s="93">
+      <c r="J45" s="112">
         <v>20</v>
       </c>
-      <c r="K45" s="95">
+      <c r="K45" s="114">
         <v>2</v>
       </c>
-      <c r="L45" s="97"/>
+      <c r="L45" s="152"/>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A46" s="122"/>
+      <c r="A46" s="109"/>
       <c r="B46" s="40" t="s">
         <v>26</v>
       </c>
@@ -3070,13 +3172,13 @@
       <c r="H46" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="I46" s="100"/>
-      <c r="J46" s="94"/>
-      <c r="K46" s="96"/>
-      <c r="L46" s="98"/>
+      <c r="I46" s="111"/>
+      <c r="J46" s="113"/>
+      <c r="K46" s="115"/>
+      <c r="L46" s="153"/>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A47" s="105">
+      <c r="A47" s="122">
         <v>29</v>
       </c>
       <c r="B47" s="4" t="s">
@@ -3098,19 +3200,19 @@
       <c r="H47" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="I47" s="99" t="s">
+      <c r="I47" s="110" t="s">
         <v>0</v>
       </c>
-      <c r="J47" s="107">
+      <c r="J47" s="124">
         <v>35</v>
       </c>
-      <c r="K47" s="109">
+      <c r="K47" s="126">
         <v>2</v>
       </c>
-      <c r="L47" s="91"/>
+      <c r="L47" s="154"/>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A48" s="120"/>
+      <c r="A48" s="139"/>
       <c r="B48" s="4" t="s">
         <v>26</v>
       </c>
@@ -3130,13 +3232,13 @@
       <c r="H48" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="I48" s="111"/>
-      <c r="J48" s="112"/>
-      <c r="K48" s="113"/>
-      <c r="L48" s="101"/>
+      <c r="I48" s="131"/>
+      <c r="J48" s="140"/>
+      <c r="K48" s="138"/>
+      <c r="L48" s="155"/>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A49" s="106"/>
+      <c r="A49" s="123"/>
       <c r="B49" s="39" t="s">
         <v>28</v>
       </c>
@@ -3158,13 +3260,13 @@
       <c r="H49" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="I49" s="100"/>
-      <c r="J49" s="108"/>
-      <c r="K49" s="110"/>
-      <c r="L49" s="92"/>
+      <c r="I49" s="111"/>
+      <c r="J49" s="125"/>
+      <c r="K49" s="127"/>
+      <c r="L49" s="156"/>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A50" s="121">
+      <c r="A50" s="108">
         <v>30</v>
       </c>
       <c r="B50" s="1" t="s">
@@ -3186,19 +3288,19 @@
       <c r="H50" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I50" s="99" t="s">
+      <c r="I50" s="110" t="s">
         <v>0</v>
       </c>
-      <c r="J50" s="93">
+      <c r="J50" s="112">
         <v>19</v>
       </c>
-      <c r="K50" s="95">
+      <c r="K50" s="114">
         <v>1</v>
       </c>
-      <c r="L50" s="97"/>
+      <c r="L50" s="152"/>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A51" s="123"/>
+      <c r="A51" s="130"/>
       <c r="B51" s="67" t="s">
         <v>26</v>
       </c>
@@ -3218,13 +3320,13 @@
       <c r="H51" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="I51" s="111"/>
-      <c r="J51" s="102"/>
-      <c r="K51" s="103"/>
-      <c r="L51" s="104"/>
+      <c r="I51" s="131"/>
+      <c r="J51" s="119"/>
+      <c r="K51" s="120"/>
+      <c r="L51" s="157"/>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A52" s="105">
+      <c r="A52" s="122">
         <v>31</v>
       </c>
       <c r="B52" s="4" t="s">
@@ -3246,19 +3348,19 @@
       <c r="H52" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="I52" s="99" t="s">
+      <c r="I52" s="110" t="s">
         <v>0</v>
       </c>
-      <c r="J52" s="107">
+      <c r="J52" s="124">
         <v>21</v>
       </c>
-      <c r="K52" s="109">
+      <c r="K52" s="126">
         <v>4</v>
       </c>
-      <c r="L52" s="131"/>
+      <c r="L52" s="116"/>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A53" s="120"/>
+      <c r="A53" s="139"/>
       <c r="B53" s="62" t="s">
         <v>26</v>
       </c>
@@ -3278,13 +3380,13 @@
       <c r="H53" s="71" t="s">
         <v>16</v>
       </c>
-      <c r="I53" s="111"/>
-      <c r="J53" s="112"/>
-      <c r="K53" s="113"/>
-      <c r="L53" s="132"/>
+      <c r="I53" s="131"/>
+      <c r="J53" s="140"/>
+      <c r="K53" s="138"/>
+      <c r="L53" s="137"/>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A54" s="120"/>
+      <c r="A54" s="139"/>
       <c r="B54" s="62" t="s">
         <v>28</v>
       </c>
@@ -3304,13 +3406,13 @@
       <c r="H54" s="71" t="s">
         <v>11</v>
       </c>
-      <c r="I54" s="111"/>
-      <c r="J54" s="112"/>
-      <c r="K54" s="113"/>
-      <c r="L54" s="132"/>
+      <c r="I54" s="131"/>
+      <c r="J54" s="140"/>
+      <c r="K54" s="138"/>
+      <c r="L54" s="137"/>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A55" s="106"/>
+      <c r="A55" s="123"/>
       <c r="B55" s="73" t="s">
         <v>42</v>
       </c>
@@ -3330,13 +3432,13 @@
       <c r="H55" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="I55" s="100"/>
-      <c r="J55" s="108"/>
-      <c r="K55" s="110"/>
-      <c r="L55" s="133"/>
+      <c r="I55" s="111"/>
+      <c r="J55" s="125"/>
+      <c r="K55" s="127"/>
+      <c r="L55" s="117"/>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A56" s="121">
+      <c r="A56" s="108">
         <v>32</v>
       </c>
       <c r="B56" s="1" t="s">
@@ -3358,19 +3460,19 @@
       <c r="H56" s="76" t="s">
         <v>5</v>
       </c>
-      <c r="I56" s="99" t="s">
+      <c r="I56" s="110" t="s">
         <v>0</v>
       </c>
-      <c r="J56" s="93">
+      <c r="J56" s="112">
         <v>77</v>
       </c>
-      <c r="K56" s="95">
+      <c r="K56" s="114">
         <v>4</v>
       </c>
-      <c r="L56" s="134"/>
+      <c r="L56" s="106"/>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A57" s="123"/>
+      <c r="A57" s="130"/>
       <c r="B57" s="1" t="s">
         <v>26</v>
       </c>
@@ -3390,13 +3492,13 @@
       <c r="H57" s="76" t="s">
         <v>11</v>
       </c>
-      <c r="I57" s="111"/>
-      <c r="J57" s="102"/>
-      <c r="K57" s="103"/>
-      <c r="L57" s="135"/>
+      <c r="I57" s="131"/>
+      <c r="J57" s="119"/>
+      <c r="K57" s="120"/>
+      <c r="L57" s="118"/>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A58" s="122"/>
+      <c r="A58" s="109"/>
       <c r="B58" s="40" t="s">
         <v>28</v>
       </c>
@@ -3416,13 +3518,13 @@
       <c r="H58" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="I58" s="100"/>
-      <c r="J58" s="94"/>
-      <c r="K58" s="96"/>
-      <c r="L58" s="136"/>
+      <c r="I58" s="111"/>
+      <c r="J58" s="113"/>
+      <c r="K58" s="115"/>
+      <c r="L58" s="107"/>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A59" s="105">
+      <c r="A59" s="122">
         <v>33</v>
       </c>
       <c r="B59" s="72" t="s">
@@ -3444,19 +3546,19 @@
       <c r="H59" s="81" t="s">
         <v>5</v>
       </c>
-      <c r="I59" s="99" t="s">
+      <c r="I59" s="110" t="s">
         <v>0</v>
       </c>
-      <c r="J59" s="107">
+      <c r="J59" s="124">
         <v>57</v>
       </c>
-      <c r="K59" s="109">
+      <c r="K59" s="126">
         <v>4</v>
       </c>
-      <c r="L59" s="91"/>
+      <c r="L59" s="154"/>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A60" s="120"/>
+      <c r="A60" s="139"/>
       <c r="B60" s="72" t="s">
         <v>26</v>
       </c>
@@ -3476,13 +3578,13 @@
       <c r="H60" s="71" t="s">
         <v>16</v>
       </c>
-      <c r="I60" s="100"/>
-      <c r="J60" s="112"/>
-      <c r="K60" s="113"/>
-      <c r="L60" s="101"/>
+      <c r="I60" s="111"/>
+      <c r="J60" s="140"/>
+      <c r="K60" s="138"/>
+      <c r="L60" s="155"/>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A61" s="121">
+      <c r="A61" s="108">
         <v>34</v>
       </c>
       <c r="B61" s="1" t="s">
@@ -3504,21 +3606,21 @@
       <c r="H61" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I61" s="117" t="s">
+      <c r="I61" s="128" t="s">
         <v>4</v>
       </c>
-      <c r="J61" s="93">
+      <c r="J61" s="112">
         <v>58</v>
       </c>
-      <c r="K61" s="95">
+      <c r="K61" s="114">
         <v>3</v>
       </c>
-      <c r="L61" s="114" t="s">
+      <c r="L61" s="159" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A62" s="123"/>
+      <c r="A62" s="130"/>
       <c r="B62" s="1" t="s">
         <v>26</v>
       </c>
@@ -3542,13 +3644,13 @@
       <c r="H62" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="I62" s="119"/>
-      <c r="J62" s="102"/>
-      <c r="K62" s="103"/>
-      <c r="L62" s="115"/>
+      <c r="I62" s="158"/>
+      <c r="J62" s="119"/>
+      <c r="K62" s="120"/>
+      <c r="L62" s="160"/>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A63" s="122"/>
+      <c r="A63" s="109"/>
       <c r="B63" s="40" t="s">
         <v>28</v>
       </c>
@@ -3568,13 +3670,13 @@
       <c r="H63" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="I63" s="118"/>
-      <c r="J63" s="94"/>
-      <c r="K63" s="96"/>
-      <c r="L63" s="116"/>
+      <c r="I63" s="129"/>
+      <c r="J63" s="113"/>
+      <c r="K63" s="115"/>
+      <c r="L63" s="161"/>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A64" s="105">
+      <c r="A64" s="122">
         <v>35</v>
       </c>
       <c r="B64" s="72" t="s">
@@ -3596,19 +3698,19 @@
       <c r="H64" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="I64" s="99" t="s">
+      <c r="I64" s="110" t="s">
         <v>0</v>
       </c>
-      <c r="J64" s="107">
+      <c r="J64" s="124">
         <v>28</v>
       </c>
-      <c r="K64" s="109">
+      <c r="K64" s="126">
         <v>2</v>
       </c>
-      <c r="L64" s="91"/>
+      <c r="L64" s="154"/>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A65" s="106"/>
+      <c r="A65" s="123"/>
       <c r="B65" s="73" t="s">
         <v>26</v>
       </c>
@@ -3628,13 +3730,13 @@
       <c r="H65" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="I65" s="100"/>
-      <c r="J65" s="108"/>
-      <c r="K65" s="110"/>
-      <c r="L65" s="92"/>
+      <c r="I65" s="111"/>
+      <c r="J65" s="125"/>
+      <c r="K65" s="127"/>
+      <c r="L65" s="156"/>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A66" s="121">
+      <c r="A66" s="108">
         <v>36</v>
       </c>
       <c r="B66" s="59" t="s">
@@ -3659,21 +3761,21 @@
       <c r="H66" s="76" t="s">
         <v>11</v>
       </c>
-      <c r="I66" s="99" t="s">
+      <c r="I66" s="110" t="s">
         <v>0</v>
       </c>
-      <c r="J66" s="93">
+      <c r="J66" s="112">
         <v>35</v>
       </c>
-      <c r="K66" s="95">
+      <c r="K66" s="114">
         <v>8</v>
       </c>
-      <c r="L66" s="134" t="s">
+      <c r="L66" s="106" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A67" s="123"/>
+      <c r="A67" s="130"/>
       <c r="B67" s="76" t="s">
         <v>26</v>
       </c>
@@ -3693,13 +3795,13 @@
       <c r="H67" s="76" t="s">
         <v>1</v>
       </c>
-      <c r="I67" s="111"/>
-      <c r="J67" s="102"/>
-      <c r="K67" s="103"/>
-      <c r="L67" s="135"/>
+      <c r="I67" s="131"/>
+      <c r="J67" s="119"/>
+      <c r="K67" s="120"/>
+      <c r="L67" s="118"/>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A68" s="122"/>
+      <c r="A68" s="109"/>
       <c r="B68" s="40" t="s">
         <v>28</v>
       </c>
@@ -3719,13 +3821,13 @@
       <c r="H68" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="I68" s="100"/>
-      <c r="J68" s="94"/>
-      <c r="K68" s="96"/>
-      <c r="L68" s="136"/>
+      <c r="I68" s="111"/>
+      <c r="J68" s="113"/>
+      <c r="K68" s="115"/>
+      <c r="L68" s="107"/>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A69" s="105">
+      <c r="A69" s="122">
         <v>37</v>
       </c>
       <c r="B69" s="72" t="s">
@@ -3747,45 +3849,45 @@
       <c r="H69" s="81" t="s">
         <v>11</v>
       </c>
-      <c r="I69" s="99" t="s">
+      <c r="I69" s="110" t="s">
         <v>0</v>
       </c>
-      <c r="J69" s="107">
+      <c r="J69" s="124">
         <v>48</v>
       </c>
-      <c r="K69" s="109">
+      <c r="K69" s="126">
         <v>3</v>
       </c>
-      <c r="L69" s="131"/>
+      <c r="L69" s="116"/>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A70" s="106"/>
+      <c r="A70" s="123"/>
       <c r="B70" s="73" t="s">
         <v>26</v>
       </c>
-      <c r="C70" s="154">
+      <c r="C70" s="98">
         <v>44847</v>
       </c>
-      <c r="D70" s="154"/>
-      <c r="E70" s="154">
+      <c r="D70" s="98"/>
+      <c r="E70" s="98">
         <v>44850</v>
       </c>
-      <c r="F70" s="155" t="s">
+      <c r="F70" s="99" t="s">
         <v>3</v>
       </c>
-      <c r="G70" s="156" t="s">
+      <c r="G70" s="100" t="s">
         <v>40</v>
       </c>
-      <c r="H70" s="156" t="s">
+      <c r="H70" s="100" t="s">
         <v>41</v>
       </c>
-      <c r="I70" s="100"/>
-      <c r="J70" s="108"/>
-      <c r="K70" s="110"/>
-      <c r="L70" s="133"/>
+      <c r="I70" s="111"/>
+      <c r="J70" s="125"/>
+      <c r="K70" s="127"/>
+      <c r="L70" s="117"/>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A71" s="121">
+      <c r="A71" s="108">
         <v>38</v>
       </c>
       <c r="B71" s="1" t="s">
@@ -3807,19 +3909,19 @@
       <c r="H71" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I71" s="99" t="s">
+      <c r="I71" s="110" t="s">
         <v>0</v>
       </c>
-      <c r="J71" s="93">
+      <c r="J71" s="112">
         <v>58</v>
       </c>
-      <c r="K71" s="95">
+      <c r="K71" s="114">
         <v>3</v>
       </c>
-      <c r="L71" s="134"/>
+      <c r="L71" s="106"/>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A72" s="123"/>
+      <c r="A72" s="130"/>
       <c r="B72" s="59" t="s">
         <v>26</v>
       </c>
@@ -3839,13 +3941,13 @@
       <c r="H72" s="76" t="s">
         <v>11</v>
       </c>
-      <c r="I72" s="111"/>
-      <c r="J72" s="102"/>
-      <c r="K72" s="103"/>
-      <c r="L72" s="135"/>
+      <c r="I72" s="131"/>
+      <c r="J72" s="119"/>
+      <c r="K72" s="120"/>
+      <c r="L72" s="118"/>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A73" s="123"/>
+      <c r="A73" s="130"/>
       <c r="B73" s="76" t="s">
         <v>28</v>
       </c>
@@ -3865,13 +3967,13 @@
       <c r="H73" s="76" t="s">
         <v>11</v>
       </c>
-      <c r="I73" s="111"/>
-      <c r="J73" s="102"/>
-      <c r="K73" s="103"/>
-      <c r="L73" s="135"/>
+      <c r="I73" s="131"/>
+      <c r="J73" s="119"/>
+      <c r="K73" s="120"/>
+      <c r="L73" s="118"/>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A74" s="122"/>
+      <c r="A74" s="109"/>
       <c r="B74" s="40" t="s">
         <v>42</v>
       </c>
@@ -3891,13 +3993,13 @@
       <c r="H74" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="I74" s="100"/>
-      <c r="J74" s="94"/>
-      <c r="K74" s="96"/>
-      <c r="L74" s="136"/>
+      <c r="I74" s="111"/>
+      <c r="J74" s="113"/>
+      <c r="K74" s="115"/>
+      <c r="L74" s="107"/>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A75" s="105">
+      <c r="A75" s="122">
         <v>39</v>
       </c>
       <c r="B75" s="4" t="s">
@@ -3919,19 +4021,19 @@
       <c r="H75" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="I75" s="99" t="s">
+      <c r="I75" s="110" t="s">
         <v>0</v>
       </c>
-      <c r="J75" s="107">
+      <c r="J75" s="124">
         <v>20</v>
       </c>
-      <c r="K75" s="109">
+      <c r="K75" s="126">
         <v>1</v>
       </c>
-      <c r="L75" s="131"/>
+      <c r="L75" s="116"/>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A76" s="120"/>
+      <c r="A76" s="139"/>
       <c r="B76" s="4" t="s">
         <v>26</v>
       </c>
@@ -3951,13 +4053,13 @@
       <c r="H76" s="71" t="s">
         <v>11</v>
       </c>
-      <c r="I76" s="111"/>
-      <c r="J76" s="112"/>
-      <c r="K76" s="113"/>
-      <c r="L76" s="132"/>
+      <c r="I76" s="131"/>
+      <c r="J76" s="140"/>
+      <c r="K76" s="138"/>
+      <c r="L76" s="137"/>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A77" s="106"/>
+      <c r="A77" s="123"/>
       <c r="B77" s="39" t="s">
         <v>28</v>
       </c>
@@ -3977,13 +4079,13 @@
       <c r="H77" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="I77" s="100"/>
-      <c r="J77" s="108"/>
-      <c r="K77" s="110"/>
-      <c r="L77" s="133"/>
+      <c r="I77" s="111"/>
+      <c r="J77" s="125"/>
+      <c r="K77" s="127"/>
+      <c r="L77" s="117"/>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A78" s="121">
+      <c r="A78" s="108">
         <v>40</v>
       </c>
       <c r="B78" s="1" t="s">
@@ -4005,19 +4107,19 @@
       <c r="H78" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I78" s="137" t="s">
+      <c r="I78" s="141" t="s">
         <v>0</v>
       </c>
-      <c r="J78" s="140">
+      <c r="J78" s="144">
         <v>17</v>
       </c>
-      <c r="K78" s="95">
+      <c r="K78" s="114">
         <v>1</v>
       </c>
-      <c r="L78" s="134"/>
+      <c r="L78" s="106"/>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A79" s="123"/>
+      <c r="A79" s="130"/>
       <c r="B79" s="1" t="s">
         <v>26</v>
       </c>
@@ -4037,13 +4139,13 @@
       <c r="H79" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="I79" s="138"/>
-      <c r="J79" s="141"/>
-      <c r="K79" s="103"/>
-      <c r="L79" s="135"/>
+      <c r="I79" s="142"/>
+      <c r="J79" s="145"/>
+      <c r="K79" s="120"/>
+      <c r="L79" s="118"/>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A80" s="122"/>
+      <c r="A80" s="109"/>
       <c r="B80" s="40" t="s">
         <v>28</v>
       </c>
@@ -4063,10 +4165,10 @@
       <c r="H80" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="I80" s="139"/>
-      <c r="J80" s="142"/>
-      <c r="K80" s="96"/>
-      <c r="L80" s="136"/>
+      <c r="I80" s="143"/>
+      <c r="J80" s="146"/>
+      <c r="K80" s="115"/>
+      <c r="L80" s="107"/>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A81" s="29">
@@ -4085,7 +4187,7 @@
       <c r="L81" s="30"/>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A82" s="121">
+      <c r="A82" s="108">
         <v>42</v>
       </c>
       <c r="B82" s="59" t="s">
@@ -4107,21 +4209,21 @@
       <c r="H82" s="76" t="s">
         <v>11</v>
       </c>
-      <c r="I82" s="99" t="s">
+      <c r="I82" s="110" t="s">
         <v>0</v>
       </c>
-      <c r="J82" s="93">
+      <c r="J82" s="112">
         <v>41</v>
       </c>
-      <c r="K82" s="95">
+      <c r="K82" s="114">
         <v>3</v>
       </c>
-      <c r="L82" s="97" t="s">
+      <c r="L82" s="152" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="83" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="122"/>
+      <c r="A83" s="109"/>
       <c r="B83" s="40" t="s">
         <v>26</v>
       </c>
@@ -4141,13 +4243,13 @@
       <c r="H83" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="I83" s="100"/>
-      <c r="J83" s="94"/>
-      <c r="K83" s="96"/>
-      <c r="L83" s="98"/>
+      <c r="I83" s="111"/>
+      <c r="J83" s="113"/>
+      <c r="K83" s="115"/>
+      <c r="L83" s="153"/>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A84" s="105">
+      <c r="A84" s="122">
         <v>43</v>
       </c>
       <c r="B84" s="72" t="s">
@@ -4172,21 +4274,21 @@
       <c r="H84" s="71" t="s">
         <v>11</v>
       </c>
-      <c r="I84" s="99" t="s">
+      <c r="I84" s="110" t="s">
         <v>0</v>
       </c>
-      <c r="J84" s="107">
+      <c r="J84" s="124">
         <v>57</v>
       </c>
-      <c r="K84" s="109">
+      <c r="K84" s="126">
         <v>4</v>
       </c>
-      <c r="L84" s="131" t="s">
+      <c r="L84" s="116" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A85" s="120"/>
+      <c r="A85" s="139"/>
       <c r="B85" s="62" t="s">
         <v>26</v>
       </c>
@@ -4206,13 +4308,13 @@
       <c r="H85" s="71" t="s">
         <v>1</v>
       </c>
-      <c r="I85" s="111"/>
-      <c r="J85" s="112"/>
-      <c r="K85" s="113"/>
-      <c r="L85" s="132"/>
+      <c r="I85" s="131"/>
+      <c r="J85" s="140"/>
+      <c r="K85" s="138"/>
+      <c r="L85" s="137"/>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A86" s="106"/>
+      <c r="A86" s="123"/>
       <c r="B86" s="39" t="s">
         <v>28</v>
       </c>
@@ -4232,10 +4334,10 @@
       <c r="H86" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="I86" s="100"/>
-      <c r="J86" s="108"/>
-      <c r="K86" s="110"/>
-      <c r="L86" s="133"/>
+      <c r="I86" s="111"/>
+      <c r="J86" s="125"/>
+      <c r="K86" s="127"/>
+      <c r="L86" s="117"/>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A87" s="28">
@@ -4270,7 +4372,7 @@
       <c r="L87" s="85"/>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A88" s="105">
+      <c r="A88" s="122">
         <v>45</v>
       </c>
       <c r="B88" s="4" t="s">
@@ -4292,20 +4394,20 @@
       <c r="H88" s="71" t="s">
         <v>11</v>
       </c>
-      <c r="I88" s="99" t="s">
+      <c r="I88" s="110" t="s">
         <v>0</v>
       </c>
-      <c r="J88" s="107">
+      <c r="J88" s="124">
         <v>53</v>
       </c>
-      <c r="K88" s="109">
+      <c r="K88" s="126">
         <v>3</v>
       </c>
-      <c r="L88" s="131"/>
+      <c r="L88" s="116"/>
     </row>
     <row r="89" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="143"/>
-      <c r="B89" s="144" t="s">
+      <c r="A89" s="132"/>
+      <c r="B89" s="93" t="s">
         <v>26</v>
       </c>
       <c r="C89" s="31">
@@ -4315,33 +4417,129 @@
       <c r="E89" s="31">
         <v>44829</v>
       </c>
-      <c r="F89" s="145" t="s">
+      <c r="F89" s="94" t="s">
         <v>6</v>
       </c>
-      <c r="G89" s="146" t="s">
+      <c r="G89" s="95" t="s">
         <v>40</v>
       </c>
-      <c r="H89" s="146" t="s">
+      <c r="H89" s="95" t="s">
         <v>41</v>
       </c>
-      <c r="I89" s="147"/>
-      <c r="J89" s="148"/>
-      <c r="K89" s="149"/>
-      <c r="L89" s="150"/>
+      <c r="I89" s="133"/>
+      <c r="J89" s="134"/>
+      <c r="K89" s="135"/>
+      <c r="L89" s="136"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:L89"/>
   <mergeCells count="154">
-    <mergeCell ref="L18:L19"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="J8:J9"/>
-    <mergeCell ref="K8:K9"/>
-    <mergeCell ref="L8:L9"/>
-    <mergeCell ref="L20:L21"/>
-    <mergeCell ref="L66:L68"/>
-    <mergeCell ref="J66:J68"/>
-    <mergeCell ref="K66:K68"/>
+    <mergeCell ref="K50:K51"/>
+    <mergeCell ref="L23:L24"/>
+    <mergeCell ref="J31:J32"/>
+    <mergeCell ref="K31:K32"/>
+    <mergeCell ref="L31:L32"/>
+    <mergeCell ref="L59:L60"/>
+    <mergeCell ref="L64:L65"/>
+    <mergeCell ref="I59:I60"/>
+    <mergeCell ref="J59:J60"/>
+    <mergeCell ref="J41:J42"/>
+    <mergeCell ref="K41:K42"/>
+    <mergeCell ref="K52:K55"/>
+    <mergeCell ref="L52:L55"/>
+    <mergeCell ref="K56:K58"/>
+    <mergeCell ref="L56:L58"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="I4:I6"/>
+    <mergeCell ref="J4:J6"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="I41:I42"/>
+    <mergeCell ref="A47:A49"/>
+    <mergeCell ref="J47:J49"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="J50:J51"/>
+    <mergeCell ref="A52:A55"/>
+    <mergeCell ref="I52:I55"/>
+    <mergeCell ref="A56:A58"/>
+    <mergeCell ref="I56:I58"/>
+    <mergeCell ref="J56:J58"/>
+    <mergeCell ref="J52:J55"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="J23:J24"/>
+    <mergeCell ref="L82:L83"/>
+    <mergeCell ref="L47:L49"/>
+    <mergeCell ref="L50:L51"/>
+    <mergeCell ref="I47:I49"/>
+    <mergeCell ref="I50:I51"/>
+    <mergeCell ref="L29:L30"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="I33:I34"/>
+    <mergeCell ref="J33:J34"/>
+    <mergeCell ref="K33:K34"/>
+    <mergeCell ref="L33:L34"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="I31:I32"/>
+    <mergeCell ref="A82:A83"/>
+    <mergeCell ref="I82:I83"/>
+    <mergeCell ref="J82:J83"/>
+    <mergeCell ref="K82:K83"/>
+    <mergeCell ref="K59:K60"/>
+    <mergeCell ref="J61:J63"/>
+    <mergeCell ref="K61:K63"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="J43:J44"/>
+    <mergeCell ref="K43:K44"/>
+    <mergeCell ref="L43:L44"/>
+    <mergeCell ref="K78:K80"/>
+    <mergeCell ref="L78:L80"/>
+    <mergeCell ref="J75:J77"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="I35:I36"/>
+    <mergeCell ref="J35:J36"/>
+    <mergeCell ref="K35:K36"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="I37:I38"/>
+    <mergeCell ref="J37:J38"/>
+    <mergeCell ref="K37:K38"/>
+    <mergeCell ref="J18:J19"/>
+    <mergeCell ref="K18:K19"/>
+    <mergeCell ref="K4:K6"/>
+    <mergeCell ref="I29:I30"/>
+    <mergeCell ref="J29:J30"/>
+    <mergeCell ref="K29:K30"/>
+    <mergeCell ref="L4:L6"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="J45:J46"/>
+    <mergeCell ref="A88:A89"/>
+    <mergeCell ref="I88:I89"/>
+    <mergeCell ref="J88:J89"/>
+    <mergeCell ref="K88:K89"/>
+    <mergeCell ref="L88:L89"/>
+    <mergeCell ref="L75:L77"/>
+    <mergeCell ref="K75:K77"/>
+    <mergeCell ref="L37:L38"/>
+    <mergeCell ref="L41:L42"/>
+    <mergeCell ref="A84:A86"/>
+    <mergeCell ref="K84:K86"/>
+    <mergeCell ref="J84:J86"/>
+    <mergeCell ref="I84:I86"/>
+    <mergeCell ref="L84:L86"/>
+    <mergeCell ref="A71:A74"/>
+    <mergeCell ref="I71:I74"/>
+    <mergeCell ref="A75:A77"/>
+    <mergeCell ref="I75:I77"/>
+    <mergeCell ref="A78:A80"/>
+    <mergeCell ref="I78:I80"/>
+    <mergeCell ref="J71:J74"/>
+    <mergeCell ref="K71:K74"/>
+    <mergeCell ref="L71:L74"/>
+    <mergeCell ref="J78:J80"/>
     <mergeCell ref="L2:L3"/>
     <mergeCell ref="A69:A70"/>
     <mergeCell ref="I69:I70"/>
@@ -4366,104 +4564,23 @@
     <mergeCell ref="L27:L28"/>
     <mergeCell ref="A18:A19"/>
     <mergeCell ref="I18:I19"/>
-    <mergeCell ref="A88:A89"/>
-    <mergeCell ref="I88:I89"/>
-    <mergeCell ref="J88:J89"/>
-    <mergeCell ref="K88:K89"/>
-    <mergeCell ref="L88:L89"/>
-    <mergeCell ref="L75:L77"/>
-    <mergeCell ref="K75:K77"/>
-    <mergeCell ref="L37:L38"/>
-    <mergeCell ref="L41:L42"/>
-    <mergeCell ref="A84:A86"/>
-    <mergeCell ref="K84:K86"/>
-    <mergeCell ref="J84:J86"/>
-    <mergeCell ref="I84:I86"/>
-    <mergeCell ref="L84:L86"/>
-    <mergeCell ref="A71:A74"/>
-    <mergeCell ref="I71:I74"/>
-    <mergeCell ref="A75:A77"/>
-    <mergeCell ref="I75:I77"/>
-    <mergeCell ref="A78:A80"/>
-    <mergeCell ref="I78:I80"/>
-    <mergeCell ref="J71:J74"/>
-    <mergeCell ref="K71:K74"/>
-    <mergeCell ref="L71:L74"/>
-    <mergeCell ref="J78:J80"/>
-    <mergeCell ref="K78:K80"/>
-    <mergeCell ref="L78:L80"/>
-    <mergeCell ref="J75:J77"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="I35:I36"/>
-    <mergeCell ref="J35:J36"/>
-    <mergeCell ref="K35:K36"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="I37:I38"/>
-    <mergeCell ref="J37:J38"/>
-    <mergeCell ref="K37:K38"/>
-    <mergeCell ref="J18:J19"/>
-    <mergeCell ref="K18:K19"/>
-    <mergeCell ref="K4:K6"/>
-    <mergeCell ref="I29:I30"/>
-    <mergeCell ref="J29:J30"/>
-    <mergeCell ref="K29:K30"/>
-    <mergeCell ref="L82:L83"/>
-    <mergeCell ref="L47:L49"/>
-    <mergeCell ref="L50:L51"/>
-    <mergeCell ref="I47:I49"/>
-    <mergeCell ref="I50:I51"/>
-    <mergeCell ref="L29:L30"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="I33:I34"/>
-    <mergeCell ref="J33:J34"/>
-    <mergeCell ref="K33:K34"/>
-    <mergeCell ref="L33:L34"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="I31:I32"/>
-    <mergeCell ref="A82:A83"/>
-    <mergeCell ref="I82:I83"/>
-    <mergeCell ref="J82:J83"/>
-    <mergeCell ref="K82:K83"/>
-    <mergeCell ref="K59:K60"/>
-    <mergeCell ref="J61:J63"/>
-    <mergeCell ref="K61:K63"/>
-    <mergeCell ref="L4:L6"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="J43:J44"/>
-    <mergeCell ref="K43:K44"/>
-    <mergeCell ref="L43:L44"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="J45:J46"/>
+    <mergeCell ref="L18:L19"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="K8:K9"/>
+    <mergeCell ref="L8:L9"/>
+    <mergeCell ref="L20:L21"/>
+    <mergeCell ref="L66:L68"/>
+    <mergeCell ref="J66:J68"/>
+    <mergeCell ref="K66:K68"/>
     <mergeCell ref="K45:K46"/>
     <mergeCell ref="L45:L46"/>
     <mergeCell ref="I43:I44"/>
     <mergeCell ref="I45:I46"/>
     <mergeCell ref="A29:A30"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="I4:I6"/>
-    <mergeCell ref="J4:J6"/>
-    <mergeCell ref="A59:A60"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="I41:I42"/>
-    <mergeCell ref="A47:A49"/>
-    <mergeCell ref="J47:J49"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="J50:J51"/>
     <mergeCell ref="A61:A63"/>
     <mergeCell ref="I61:I63"/>
-    <mergeCell ref="A52:A55"/>
-    <mergeCell ref="I52:I55"/>
-    <mergeCell ref="A56:A58"/>
-    <mergeCell ref="I56:I58"/>
-    <mergeCell ref="J56:J58"/>
-    <mergeCell ref="J52:J55"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="J23:J24"/>
     <mergeCell ref="K23:K24"/>
     <mergeCell ref="L61:L63"/>
     <mergeCell ref="I64:I65"/>
@@ -4471,21 +4588,6 @@
     <mergeCell ref="K64:K65"/>
     <mergeCell ref="A64:A65"/>
     <mergeCell ref="K47:K49"/>
-    <mergeCell ref="K50:K51"/>
-    <mergeCell ref="L23:L24"/>
-    <mergeCell ref="J31:J32"/>
-    <mergeCell ref="K31:K32"/>
-    <mergeCell ref="L31:L32"/>
-    <mergeCell ref="L59:L60"/>
-    <mergeCell ref="L64:L65"/>
-    <mergeCell ref="I59:I60"/>
-    <mergeCell ref="J59:J60"/>
-    <mergeCell ref="J41:J42"/>
-    <mergeCell ref="K41:K42"/>
-    <mergeCell ref="K52:K55"/>
-    <mergeCell ref="L52:L55"/>
-    <mergeCell ref="K56:K58"/>
-    <mergeCell ref="L56:L58"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0" right="0" top="1.1811023622047244E-2" bottom="0.11811023622047245" header="0" footer="0"/>

--- a/sheet/CONTROLE_DE_TERRITORIO_2022.xlsx
+++ b/sheet/CONTROLE_DE_TERRITORIO_2022.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="46">
   <si>
     <t>OK</t>
   </si>
@@ -798,14 +798,11 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="159">
+  <cellXfs count="156">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -851,18 +848,9 @@
     <xf numFmtId="14" fontId="10" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="9" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="10" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1085,6 +1073,15 @@
     <xf numFmtId="0" fontId="5" fillId="8" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="31" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1106,55 +1103,154 @@
     <xf numFmtId="0" fontId="6" fillId="7" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="4" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="8" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="5" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="29" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="20" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="31" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="31" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1166,112 +1262,7 @@
     <xf numFmtId="0" fontId="14" fillId="2" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="4" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="8" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="5" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="20" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="29" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="31" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="31" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1564,589 +1555,593 @@
   </sheetPr>
   <dimension ref="A1:L129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="99" zoomScaleNormal="100" zoomScalePageLayoutView="45" workbookViewId="0">
-      <selection activeCell="I78" sqref="I78:I80"/>
+    <sheetView tabSelected="1" zoomScale="99" zoomScaleNormal="100" zoomScalePageLayoutView="45" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.140625" style="51" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.85546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.85546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="45" style="6" customWidth="1"/>
-    <col min="8" max="8" width="24.42578125" style="6" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="27.140625" style="6" customWidth="1"/>
-    <col min="10" max="10" width="24.140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="9.140625" style="6"/>
-    <col min="15" max="15" width="12" style="6" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="6"/>
+    <col min="1" max="1" width="15.140625" style="47" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="45" style="5" customWidth="1"/>
+    <col min="8" max="8" width="24.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="27.140625" style="5" customWidth="1"/>
+    <col min="10" max="10" width="24.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="9.140625" style="5"/>
+    <col min="15" max="15" width="12" style="5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="84" t="s">
+      <c r="A1" s="80" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="85" t="s">
+      <c r="B1" s="81" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="85" t="s">
+      <c r="C1" s="81" t="s">
         <v>32</v>
       </c>
-      <c r="D1" s="85" t="s">
+      <c r="D1" s="81" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="85" t="s">
+      <c r="E1" s="81" t="s">
         <v>34</v>
       </c>
-      <c r="F1" s="85" t="s">
+      <c r="F1" s="81" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="85" t="s">
+      <c r="G1" s="81" t="s">
         <v>21</v>
       </c>
-      <c r="H1" s="85" t="s">
+      <c r="H1" s="81" t="s">
         <v>22</v>
       </c>
-      <c r="I1" s="85" t="s">
+      <c r="I1" s="81" t="s">
         <v>19</v>
       </c>
-      <c r="J1" s="85" t="s">
+      <c r="J1" s="81" t="s">
         <v>36</v>
       </c>
-      <c r="K1" s="91" t="s">
+      <c r="K1" s="87" t="s">
         <v>38</v>
       </c>
-      <c r="L1" s="95" t="s">
+      <c r="L1" s="91" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="152">
+      <c r="A2" s="124">
         <v>1</v>
       </c>
-      <c r="B2" s="86" t="s">
+      <c r="B2" s="82" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="87">
+      <c r="C2" s="83">
         <v>44811</v>
       </c>
-      <c r="D2" s="87"/>
-      <c r="E2" s="87">
+      <c r="D2" s="83"/>
+      <c r="E2" s="83">
         <v>44813</v>
       </c>
-      <c r="F2" s="88" t="s">
+      <c r="F2" s="84" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="89" t="s">
+      <c r="G2" s="85" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="89" t="s">
+      <c r="H2" s="85" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="148" t="s">
+      <c r="I2" s="120" t="s">
         <v>0</v>
       </c>
-      <c r="J2" s="149">
+      <c r="J2" s="121">
         <v>5</v>
       </c>
-      <c r="K2" s="150">
+      <c r="K2" s="122">
         <v>1</v>
       </c>
-      <c r="L2" s="151"/>
+      <c r="L2" s="123"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="153"/>
-      <c r="B3" s="54" t="s">
+      <c r="A3" s="125"/>
+      <c r="B3" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="55">
+      <c r="C3" s="51">
         <v>44846</v>
       </c>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55">
+      <c r="D3" s="51"/>
+      <c r="E3" s="51">
         <v>44850</v>
       </c>
-      <c r="F3" s="56" t="s">
+      <c r="F3" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="G3" s="57" t="s">
+      <c r="G3" s="53" t="s">
         <v>40</v>
       </c>
-      <c r="H3" s="58" t="s">
+      <c r="H3" s="54" t="s">
         <v>41</v>
       </c>
-      <c r="I3" s="134"/>
-      <c r="J3" s="109"/>
-      <c r="K3" s="112"/>
-      <c r="L3" s="104"/>
+      <c r="I3" s="94"/>
+      <c r="J3" s="112"/>
+      <c r="K3" s="115"/>
+      <c r="L3" s="93"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="153"/>
-      <c r="B4" s="58" t="s">
+      <c r="A4" s="125"/>
+      <c r="B4" s="54" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="55">
+      <c r="C4" s="51">
         <v>44856</v>
       </c>
-      <c r="D4" s="55"/>
-      <c r="E4" s="55">
+      <c r="D4" s="51"/>
+      <c r="E4" s="51">
         <v>44857</v>
       </c>
-      <c r="F4" s="56" t="s">
+      <c r="F4" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="57" t="s">
+      <c r="G4" s="53" t="s">
         <v>43</v>
       </c>
-      <c r="H4" s="58" t="s">
+      <c r="H4" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="134"/>
-      <c r="J4" s="109"/>
-      <c r="K4" s="112"/>
-      <c r="L4" s="104"/>
+      <c r="I4" s="94"/>
+      <c r="J4" s="112"/>
+      <c r="K4" s="115"/>
+      <c r="L4" s="93"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="153"/>
-      <c r="B5" s="58" t="s">
+      <c r="A5" s="125"/>
+      <c r="B5" s="54" t="s">
         <v>42</v>
       </c>
-      <c r="C5" s="55">
+      <c r="C5" s="51">
         <v>44863</v>
       </c>
-      <c r="D5" s="55"/>
-      <c r="E5" s="55">
+      <c r="D5" s="51"/>
+      <c r="E5" s="51">
         <v>44864</v>
       </c>
-      <c r="F5" s="56" t="s">
+      <c r="F5" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="57" t="s">
+      <c r="G5" s="53" t="s">
         <v>25</v>
       </c>
-      <c r="H5" s="58" t="s">
+      <c r="H5" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="134"/>
-      <c r="J5" s="109"/>
-      <c r="K5" s="112"/>
-      <c r="L5" s="104"/>
+      <c r="I5" s="94"/>
+      <c r="J5" s="112"/>
+      <c r="K5" s="115"/>
+      <c r="L5" s="93"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="154"/>
-      <c r="B6" s="22" t="s">
+      <c r="A6" s="126"/>
+      <c r="B6" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="C6" s="19">
+      <c r="C6" s="17">
         <v>44870</v>
       </c>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19">
+      <c r="D6" s="17"/>
+      <c r="E6" s="17">
         <v>44871</v>
       </c>
-      <c r="F6" s="39" t="s">
+      <c r="F6" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="G6" s="40" t="s">
+      <c r="G6" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="H6" s="22" t="s">
+      <c r="H6" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="I6" s="134"/>
-      <c r="J6" s="110"/>
-      <c r="K6" s="113"/>
-      <c r="L6" s="104"/>
+      <c r="I6" s="94"/>
+      <c r="J6" s="113"/>
+      <c r="K6" s="116"/>
+      <c r="L6" s="93"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="117">
+      <c r="A7" s="102">
         <v>2</v>
       </c>
-      <c r="B7" s="59" t="s">
+      <c r="B7" s="55" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="60">
+      <c r="C7" s="56">
         <v>44805</v>
       </c>
-      <c r="D7" s="60"/>
-      <c r="E7" s="60">
+      <c r="D7" s="56"/>
+      <c r="E7" s="56">
         <v>44815</v>
       </c>
-      <c r="F7" s="61" t="s">
+      <c r="F7" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="G7" s="59" t="s">
+      <c r="G7" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="H7" s="59" t="s">
+      <c r="H7" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="I7" s="134" t="s">
+      <c r="I7" s="94" t="s">
         <v>0</v>
       </c>
-      <c r="J7" s="96">
+      <c r="J7" s="95">
         <v>60</v>
       </c>
-      <c r="K7" s="99">
+      <c r="K7" s="98">
         <v>4</v>
       </c>
-      <c r="L7" s="102"/>
+      <c r="L7" s="101"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="118"/>
-      <c r="B8" s="59" t="s">
+      <c r="A8" s="103"/>
+      <c r="B8" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="60">
+      <c r="C8" s="56">
         <v>44825</v>
       </c>
-      <c r="D8" s="60">
+      <c r="D8" s="56">
         <v>44832</v>
       </c>
-      <c r="E8" s="60">
+      <c r="E8" s="56">
         <v>44836</v>
       </c>
-      <c r="F8" s="61" t="s">
+      <c r="F8" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="G8" s="59" t="s">
+      <c r="G8" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="H8" s="59" t="s">
+      <c r="H8" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="I8" s="134"/>
-      <c r="J8" s="97"/>
-      <c r="K8" s="100"/>
-      <c r="L8" s="102"/>
+      <c r="I8" s="94"/>
+      <c r="J8" s="96"/>
+      <c r="K8" s="99"/>
+      <c r="L8" s="101"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="118"/>
-      <c r="B9" s="62" t="s">
+      <c r="A9" s="103"/>
+      <c r="B9" s="58" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="63">
+      <c r="C9" s="59">
         <v>44841</v>
       </c>
-      <c r="D9" s="63"/>
-      <c r="E9" s="63">
+      <c r="D9" s="59"/>
+      <c r="E9" s="59">
         <v>44843</v>
       </c>
-      <c r="F9" s="64" t="s">
+      <c r="F9" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="G9" s="65" t="s">
+      <c r="G9" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="H9" s="62" t="s">
+      <c r="H9" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="I9" s="134"/>
-      <c r="J9" s="97"/>
-      <c r="K9" s="100"/>
-      <c r="L9" s="102"/>
+      <c r="I9" s="94"/>
+      <c r="J9" s="96"/>
+      <c r="K9" s="99"/>
+      <c r="L9" s="101"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="118"/>
-      <c r="B10" s="62" t="s">
+      <c r="A10" s="103"/>
+      <c r="B10" s="58" t="s">
         <v>42</v>
       </c>
-      <c r="C10" s="63">
+      <c r="C10" s="59">
         <v>44856</v>
       </c>
-      <c r="D10" s="63"/>
-      <c r="E10" s="63">
+      <c r="D10" s="59"/>
+      <c r="E10" s="59">
         <v>44857</v>
       </c>
-      <c r="F10" s="64" t="s">
+      <c r="F10" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="G10" s="65" t="s">
+      <c r="G10" s="61" t="s">
         <v>43</v>
       </c>
-      <c r="H10" s="62" t="s">
+      <c r="H10" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="I10" s="134"/>
-      <c r="J10" s="97"/>
-      <c r="K10" s="100"/>
-      <c r="L10" s="102"/>
+      <c r="I10" s="94"/>
+      <c r="J10" s="96"/>
+      <c r="K10" s="99"/>
+      <c r="L10" s="101"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="119"/>
-      <c r="B11" s="23" t="s">
+      <c r="A11" s="104"/>
+      <c r="B11" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="C11" s="29">
+      <c r="C11" s="25">
         <v>44870</v>
       </c>
-      <c r="D11" s="29"/>
-      <c r="E11" s="29">
+      <c r="D11" s="25"/>
+      <c r="E11" s="25">
         <v>44871</v>
       </c>
-      <c r="F11" s="30" t="s">
+      <c r="F11" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="G11" s="31" t="s">
+      <c r="G11" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="H11" s="26" t="s">
+      <c r="H11" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="I11" s="134"/>
-      <c r="J11" s="98"/>
-      <c r="K11" s="101"/>
-      <c r="L11" s="102"/>
+      <c r="I11" s="94"/>
+      <c r="J11" s="97"/>
+      <c r="K11" s="100"/>
+      <c r="L11" s="101"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="14">
+      <c r="A12" s="13">
         <v>3</v>
       </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="18">
+      <c r="B12" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="17">
         <v>44863</v>
       </c>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18">
+      <c r="D12" s="17"/>
+      <c r="E12" s="17">
         <v>44864</v>
       </c>
-      <c r="F12" s="20" t="s">
+      <c r="F12" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="G12" s="21" t="s">
+      <c r="G12" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="H12" s="2" t="s">
+      <c r="H12" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="I12" s="90" t="s">
+      <c r="I12" s="86" t="s">
         <v>0</v>
       </c>
       <c r="J12" s="1">
         <v>7</v>
       </c>
-      <c r="K12" s="81">
+      <c r="K12" s="77">
         <v>1</v>
       </c>
-      <c r="L12" s="92"/>
+      <c r="L12" s="88"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="117">
+      <c r="A13" s="102">
         <v>4</v>
       </c>
-      <c r="B13" s="59" t="s">
+      <c r="B13" s="55" t="s">
         <v>27</v>
       </c>
-      <c r="C13" s="60">
+      <c r="C13" s="56">
         <v>44805</v>
       </c>
-      <c r="D13" s="60">
+      <c r="D13" s="56">
         <f t="shared" ref="D13" si="0">C13+7</f>
         <v>44812</v>
       </c>
-      <c r="E13" s="60">
+      <c r="E13" s="56">
         <v>44815</v>
       </c>
-      <c r="F13" s="61" t="s">
+      <c r="F13" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="G13" s="59" t="s">
+      <c r="G13" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="H13" s="59" t="s">
+      <c r="H13" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="I13" s="136" t="s">
+      <c r="I13" s="143" t="s">
         <v>0</v>
       </c>
-      <c r="J13" s="96">
+      <c r="J13" s="95">
         <v>59</v>
       </c>
-      <c r="K13" s="99">
+      <c r="K13" s="98">
         <v>4</v>
       </c>
-      <c r="L13" s="102"/>
+      <c r="L13" s="101"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="118"/>
-      <c r="B14" s="59" t="s">
+      <c r="A14" s="103"/>
+      <c r="B14" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="66">
+      <c r="C14" s="62">
         <v>44846</v>
       </c>
-      <c r="D14" s="66"/>
-      <c r="E14" s="66">
+      <c r="D14" s="62"/>
+      <c r="E14" s="62">
         <v>44850</v>
       </c>
-      <c r="F14" s="67" t="s">
+      <c r="F14" s="63" t="s">
         <v>24</v>
       </c>
-      <c r="G14" s="62" t="s">
+      <c r="G14" s="58" t="s">
         <v>40</v>
       </c>
-      <c r="H14" s="62" t="s">
+      <c r="H14" s="58" t="s">
         <v>41</v>
       </c>
-      <c r="I14" s="136"/>
-      <c r="J14" s="97"/>
-      <c r="K14" s="100"/>
-      <c r="L14" s="102"/>
+      <c r="I14" s="143"/>
+      <c r="J14" s="96"/>
+      <c r="K14" s="99"/>
+      <c r="L14" s="101"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="118"/>
-      <c r="B15" s="62" t="s">
+      <c r="A15" s="103"/>
+      <c r="B15" s="58" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="63">
+      <c r="C15" s="59">
         <v>44856</v>
       </c>
-      <c r="D15" s="63"/>
-      <c r="E15" s="63">
+      <c r="D15" s="59"/>
+      <c r="E15" s="59">
         <v>44857</v>
       </c>
-      <c r="F15" s="64" t="s">
+      <c r="F15" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="G15" s="65" t="s">
+      <c r="G15" s="61" t="s">
         <v>43</v>
       </c>
-      <c r="H15" s="62" t="s">
+      <c r="H15" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="I15" s="136"/>
-      <c r="J15" s="97"/>
-      <c r="K15" s="100"/>
-      <c r="L15" s="102"/>
+      <c r="I15" s="143"/>
+      <c r="J15" s="96"/>
+      <c r="K15" s="99"/>
+      <c r="L15" s="101"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="119"/>
-      <c r="B16" s="23" t="s">
+      <c r="A16" s="104"/>
+      <c r="B16" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="C16" s="29">
+      <c r="C16" s="25">
         <v>44870</v>
       </c>
-      <c r="D16" s="29"/>
-      <c r="E16" s="29">
+      <c r="D16" s="25"/>
+      <c r="E16" s="25">
         <v>44871</v>
       </c>
-      <c r="F16" s="30" t="s">
+      <c r="F16" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="G16" s="31" t="s">
+      <c r="G16" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="H16" s="26" t="s">
+      <c r="H16" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="I16" s="136"/>
-      <c r="J16" s="98"/>
-      <c r="K16" s="101"/>
-      <c r="L16" s="102"/>
+      <c r="I16" s="143"/>
+      <c r="J16" s="97"/>
+      <c r="K16" s="100"/>
+      <c r="L16" s="101"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="105">
         <v>5</v>
       </c>
-      <c r="B17" s="54" t="s">
+      <c r="B17" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="C17" s="68">
+      <c r="C17" s="64">
         <v>44822</v>
       </c>
-      <c r="D17" s="68">
+      <c r="D17" s="64">
         <v>44829</v>
       </c>
-      <c r="E17" s="68">
+      <c r="E17" s="64">
         <v>44829</v>
       </c>
-      <c r="F17" s="69" t="s">
+      <c r="F17" s="65" t="s">
         <v>10</v>
       </c>
-      <c r="G17" s="70" t="s">
+      <c r="G17" s="66" t="s">
         <v>14</v>
       </c>
-      <c r="H17" s="70" t="s">
+      <c r="H17" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="I17" s="134" t="s">
+      <c r="I17" s="94" t="s">
         <v>0</v>
       </c>
-      <c r="J17" s="108">
+      <c r="J17" s="111">
         <v>8</v>
       </c>
-      <c r="K17" s="111">
+      <c r="K17" s="114">
         <v>1</v>
       </c>
-      <c r="L17" s="104"/>
+      <c r="L17" s="93"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="107"/>
-      <c r="B18" s="22" t="s">
+      <c r="B18" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="C18" s="11">
+      <c r="C18" s="10">
         <v>44861</v>
       </c>
-      <c r="D18" s="11">
+      <c r="D18" s="10">
         <v>44868</v>
       </c>
-      <c r="E18" s="11">
+      <c r="E18" s="10">
         <v>44871</v>
       </c>
-      <c r="F18" s="24" t="s">
+      <c r="F18" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="G18" s="25" t="s">
+      <c r="G18" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="H18" s="25" t="s">
+      <c r="H18" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="I18" s="134"/>
-      <c r="J18" s="110"/>
-      <c r="K18" s="113"/>
-      <c r="L18" s="104"/>
+      <c r="I18" s="94"/>
+      <c r="J18" s="113"/>
+      <c r="K18" s="116"/>
+      <c r="L18" s="93"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="53">
+      <c r="A19" s="49">
         <v>6</v>
       </c>
-      <c r="B19" s="4"/>
-      <c r="C19" s="8">
+      <c r="B19" s="155" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" s="7">
         <v>44822</v>
       </c>
-      <c r="D19" s="8">
+      <c r="D19" s="7">
         <v>44829</v>
       </c>
-      <c r="E19" s="9">
+      <c r="E19" s="8">
         <v>44829</v>
       </c>
-      <c r="F19" s="10" t="s">
+      <c r="F19" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="G19" s="3" t="s">
+      <c r="G19" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H19" s="3" t="s">
+      <c r="H19" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I19" s="13" t="s">
+      <c r="I19" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="J19" s="4">
+      <c r="J19" s="3">
         <v>28</v>
       </c>
-      <c r="K19" s="82">
+      <c r="K19" s="78">
         <v>2</v>
       </c>
-      <c r="L19" s="157" t="s">
+      <c r="L19" s="92" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2154,3205 +2149,3376 @@
       <c r="A20" s="105">
         <v>7</v>
       </c>
-      <c r="B20" s="54" t="s">
+      <c r="B20" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="C20" s="68">
+      <c r="C20" s="64">
         <v>44822</v>
       </c>
-      <c r="D20" s="68">
+      <c r="D20" s="64">
         <v>44829</v>
       </c>
-      <c r="E20" s="68">
+      <c r="E20" s="64">
         <v>44829</v>
       </c>
-      <c r="F20" s="69" t="s">
+      <c r="F20" s="65" t="s">
         <v>10</v>
       </c>
-      <c r="G20" s="70" t="s">
+      <c r="G20" s="66" t="s">
         <v>14</v>
       </c>
-      <c r="H20" s="70" t="s">
+      <c r="H20" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="I20" s="134" t="s">
+      <c r="I20" s="94" t="s">
         <v>0</v>
       </c>
-      <c r="J20" s="108">
+      <c r="J20" s="111">
         <v>21</v>
       </c>
-      <c r="K20" s="111">
+      <c r="K20" s="114">
         <v>2</v>
       </c>
-      <c r="L20" s="104"/>
+      <c r="L20" s="93"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="107"/>
-      <c r="B21" s="22" t="s">
+      <c r="B21" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="C21" s="11">
+      <c r="C21" s="10">
         <v>44861</v>
       </c>
-      <c r="D21" s="11">
+      <c r="D21" s="10">
         <v>44868</v>
       </c>
-      <c r="E21" s="11">
+      <c r="E21" s="10">
         <v>44871</v>
       </c>
-      <c r="F21" s="24" t="s">
+      <c r="F21" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="G21" s="25" t="s">
+      <c r="G21" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="H21" s="25" t="s">
+      <c r="H21" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="I21" s="134"/>
-      <c r="J21" s="110"/>
-      <c r="K21" s="113"/>
-      <c r="L21" s="104"/>
+      <c r="I21" s="94"/>
+      <c r="J21" s="113"/>
+      <c r="K21" s="116"/>
+      <c r="L21" s="93"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="117">
+      <c r="A22" s="102">
         <v>8</v>
       </c>
-      <c r="B22" s="59" t="s">
+      <c r="B22" s="55" t="s">
         <v>27</v>
       </c>
-      <c r="C22" s="66">
+      <c r="C22" s="62">
         <v>44822</v>
       </c>
-      <c r="D22" s="66">
+      <c r="D22" s="62">
         <v>44829</v>
       </c>
-      <c r="E22" s="66">
+      <c r="E22" s="62">
         <v>44829</v>
       </c>
-      <c r="F22" s="67" t="s">
+      <c r="F22" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="G22" s="62" t="s">
+      <c r="G22" s="58" t="s">
         <v>14</v>
       </c>
-      <c r="H22" s="62" t="s">
+      <c r="H22" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="I22" s="134" t="s">
+      <c r="I22" s="94" t="s">
         <v>0</v>
       </c>
-      <c r="J22" s="99">
+      <c r="J22" s="98">
         <v>33</v>
       </c>
-      <c r="K22" s="140">
+      <c r="K22" s="127">
         <v>2</v>
       </c>
-      <c r="L22" s="102"/>
+      <c r="L22" s="101"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="119"/>
-      <c r="B23" s="23" t="s">
+      <c r="A23" s="104"/>
+      <c r="B23" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="C23" s="29">
+      <c r="C23" s="25">
         <v>44861</v>
       </c>
-      <c r="D23" s="29">
+      <c r="D23" s="25">
         <v>44868</v>
       </c>
-      <c r="E23" s="29">
+      <c r="E23" s="25">
         <v>44871</v>
       </c>
-      <c r="F23" s="30" t="s">
+      <c r="F23" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="G23" s="31" t="s">
+      <c r="G23" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="H23" s="23" t="s">
+      <c r="H23" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="I23" s="134"/>
-      <c r="J23" s="101"/>
-      <c r="K23" s="141"/>
-      <c r="L23" s="102"/>
+      <c r="I23" s="94"/>
+      <c r="J23" s="100"/>
+      <c r="K23" s="128"/>
+      <c r="L23" s="101"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="105">
         <v>9</v>
       </c>
-      <c r="B24" s="54" t="s">
+      <c r="B24" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="C24" s="55">
+      <c r="C24" s="51">
         <v>44846</v>
       </c>
-      <c r="D24" s="55"/>
-      <c r="E24" s="55">
+      <c r="D24" s="51"/>
+      <c r="E24" s="51">
         <v>44850</v>
       </c>
-      <c r="F24" s="56" t="s">
+      <c r="F24" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="G24" s="57" t="s">
+      <c r="G24" s="53" t="s">
         <v>40</v>
       </c>
-      <c r="H24" s="58" t="s">
+      <c r="H24" s="54" t="s">
         <v>41</v>
       </c>
-      <c r="I24" s="114" t="s">
+      <c r="I24" s="108" t="s">
         <v>0</v>
       </c>
-      <c r="J24" s="137">
+      <c r="J24" s="129">
         <v>61</v>
       </c>
-      <c r="K24" s="137">
+      <c r="K24" s="129">
         <v>4</v>
       </c>
-      <c r="L24" s="104"/>
+      <c r="L24" s="93"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="106"/>
-      <c r="B25" s="54" t="s">
+      <c r="B25" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="C25" s="55">
+      <c r="C25" s="51">
         <v>44856</v>
       </c>
-      <c r="D25" s="55"/>
-      <c r="E25" s="55">
+      <c r="D25" s="51"/>
+      <c r="E25" s="51">
         <v>44857</v>
       </c>
-      <c r="F25" s="56" t="s">
+      <c r="F25" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="G25" s="57" t="s">
+      <c r="G25" s="53" t="s">
         <v>43</v>
       </c>
-      <c r="H25" s="58" t="s">
+      <c r="H25" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="I25" s="115"/>
-      <c r="J25" s="138"/>
-      <c r="K25" s="138"/>
-      <c r="L25" s="104"/>
+      <c r="I25" s="109"/>
+      <c r="J25" s="130"/>
+      <c r="K25" s="130"/>
+      <c r="L25" s="93"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="107"/>
-      <c r="B26" s="50" t="s">
+      <c r="B26" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="C26" s="11">
+      <c r="C26" s="10">
         <v>44861</v>
       </c>
-      <c r="D26" s="11">
+      <c r="D26" s="10">
         <v>44868</v>
       </c>
-      <c r="E26" s="11">
+      <c r="E26" s="10">
         <v>44871</v>
       </c>
-      <c r="F26" s="24" t="s">
+      <c r="F26" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="G26" s="25" t="s">
+      <c r="G26" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="H26" s="25" t="s">
+      <c r="H26" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="I26" s="116"/>
-      <c r="J26" s="139"/>
-      <c r="K26" s="139"/>
-      <c r="L26" s="104"/>
+      <c r="I26" s="110"/>
+      <c r="J26" s="131"/>
+      <c r="K26" s="131"/>
+      <c r="L26" s="93"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="16">
+      <c r="A27" s="15">
         <v>10</v>
       </c>
-      <c r="B27" s="5"/>
-      <c r="C27" s="12"/>
-      <c r="D27" s="12"/>
-      <c r="E27" s="12"/>
-      <c r="F27" s="12"/>
-      <c r="G27" s="12"/>
-      <c r="H27" s="12"/>
-      <c r="I27" s="12"/>
-      <c r="J27" s="12"/>
-      <c r="K27" s="12"/>
-      <c r="L27" s="93"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="11"/>
+      <c r="J27" s="11"/>
+      <c r="K27" s="11"/>
+      <c r="L27" s="89"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="105">
         <v>11</v>
       </c>
-      <c r="B28" s="58" t="s">
+      <c r="B28" s="54" t="s">
         <v>27</v>
       </c>
-      <c r="C28" s="68">
+      <c r="C28" s="64">
         <v>44845</v>
       </c>
-      <c r="D28" s="68"/>
-      <c r="E28" s="68">
+      <c r="D28" s="64"/>
+      <c r="E28" s="64">
         <v>44845</v>
       </c>
-      <c r="F28" s="69" t="s">
+      <c r="F28" s="65" t="s">
         <v>15</v>
       </c>
-      <c r="G28" s="70" t="s">
+      <c r="G28" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="H28" s="70" t="s">
+      <c r="H28" s="66" t="s">
         <v>16</v>
       </c>
-      <c r="I28" s="114" t="s">
+      <c r="I28" s="108" t="s">
         <v>0</v>
       </c>
-      <c r="J28" s="108">
+      <c r="J28" s="111">
         <v>132</v>
       </c>
-      <c r="K28" s="111">
+      <c r="K28" s="114">
         <v>8</v>
       </c>
-      <c r="L28" s="104"/>
+      <c r="L28" s="93"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="106"/>
-      <c r="B29" s="58" t="s">
+      <c r="B29" s="54" t="s">
         <v>26</v>
       </c>
-      <c r="C29" s="68">
+      <c r="C29" s="64">
         <v>44853</v>
       </c>
-      <c r="D29" s="68">
+      <c r="D29" s="64">
         <f>C29+7</f>
         <v>44860</v>
       </c>
-      <c r="E29" s="68">
+      <c r="E29" s="64">
         <v>44860</v>
       </c>
-      <c r="F29" s="69" t="s">
+      <c r="F29" s="65" t="s">
         <v>24</v>
       </c>
-      <c r="G29" s="70" t="s">
+      <c r="G29" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="H29" s="70" t="s">
+      <c r="H29" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="I29" s="115"/>
-      <c r="J29" s="109"/>
-      <c r="K29" s="112"/>
-      <c r="L29" s="104"/>
+      <c r="I29" s="109"/>
+      <c r="J29" s="112"/>
+      <c r="K29" s="115"/>
+      <c r="L29" s="93"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="107"/>
-      <c r="B30" s="22" t="s">
+      <c r="B30" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="C30" s="11">
+      <c r="C30" s="10">
         <v>44870</v>
       </c>
-      <c r="D30" s="11"/>
-      <c r="E30" s="11">
+      <c r="D30" s="10"/>
+      <c r="E30" s="10">
         <v>44871</v>
       </c>
-      <c r="F30" s="24" t="s">
+      <c r="F30" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="G30" s="25" t="s">
+      <c r="G30" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="H30" s="25" t="s">
+      <c r="H30" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="I30" s="116"/>
-      <c r="J30" s="110"/>
-      <c r="K30" s="113"/>
-      <c r="L30" s="104"/>
+      <c r="I30" s="110"/>
+      <c r="J30" s="113"/>
+      <c r="K30" s="116"/>
+      <c r="L30" s="93"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" s="117">
+      <c r="A31" s="102">
         <v>12</v>
       </c>
-      <c r="B31" s="59" t="s">
+      <c r="B31" s="55" t="s">
         <v>27</v>
       </c>
-      <c r="C31" s="66">
+      <c r="C31" s="62">
         <v>44838</v>
       </c>
-      <c r="D31" s="66"/>
-      <c r="E31" s="66">
+      <c r="D31" s="62"/>
+      <c r="E31" s="62">
         <v>44839</v>
       </c>
-      <c r="F31" s="67" t="s">
+      <c r="F31" s="63" t="s">
         <v>15</v>
       </c>
-      <c r="G31" s="62" t="s">
+      <c r="G31" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="H31" s="62" t="s">
+      <c r="H31" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="I31" s="114" t="s">
+      <c r="I31" s="108" t="s">
         <v>0</v>
       </c>
-      <c r="J31" s="96">
+      <c r="J31" s="95">
         <v>72</v>
       </c>
-      <c r="K31" s="99">
+      <c r="K31" s="98">
         <v>5</v>
       </c>
-      <c r="L31" s="102"/>
+      <c r="L31" s="101"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A32" s="118"/>
-      <c r="B32" s="62" t="s">
+      <c r="A32" s="103"/>
+      <c r="B32" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="C32" s="66">
+      <c r="C32" s="62">
         <v>44845</v>
       </c>
-      <c r="D32" s="66"/>
-      <c r="E32" s="66">
+      <c r="D32" s="62"/>
+      <c r="E32" s="62">
         <v>44850</v>
       </c>
-      <c r="F32" s="67" t="s">
+      <c r="F32" s="63" t="s">
         <v>15</v>
       </c>
-      <c r="G32" s="62" t="s">
+      <c r="G32" s="58" t="s">
         <v>40</v>
       </c>
-      <c r="H32" s="62" t="s">
+      <c r="H32" s="58" t="s">
         <v>41</v>
       </c>
-      <c r="I32" s="115"/>
-      <c r="J32" s="97"/>
-      <c r="K32" s="100"/>
-      <c r="L32" s="102"/>
+      <c r="I32" s="109"/>
+      <c r="J32" s="96"/>
+      <c r="K32" s="99"/>
+      <c r="L32" s="101"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A33" s="119"/>
-      <c r="B33" s="23" t="s">
+      <c r="A33" s="104"/>
+      <c r="B33" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="C33" s="9">
+      <c r="C33" s="8">
         <v>44859</v>
       </c>
-      <c r="D33" s="9">
+      <c r="D33" s="8">
         <v>44835</v>
       </c>
-      <c r="E33" s="9">
+      <c r="E33" s="8">
         <v>44836</v>
       </c>
-      <c r="F33" s="28" t="s">
+      <c r="F33" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="G33" s="23" t="s">
+      <c r="G33" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="H33" s="23" t="s">
+      <c r="H33" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="I33" s="116"/>
-      <c r="J33" s="98"/>
-      <c r="K33" s="101"/>
-      <c r="L33" s="102"/>
+      <c r="I33" s="110"/>
+      <c r="J33" s="97"/>
+      <c r="K33" s="100"/>
+      <c r="L33" s="101"/>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="105">
         <v>13</v>
       </c>
-      <c r="B34" s="58" t="s">
+      <c r="B34" s="54" t="s">
         <v>27</v>
       </c>
-      <c r="C34" s="71">
+      <c r="C34" s="67">
         <v>44829</v>
       </c>
-      <c r="D34" s="71"/>
-      <c r="E34" s="68">
+      <c r="D34" s="67"/>
+      <c r="E34" s="64">
         <v>44829</v>
       </c>
-      <c r="F34" s="72" t="s">
+      <c r="F34" s="68" t="s">
         <v>10</v>
       </c>
-      <c r="G34" s="58" t="s">
+      <c r="G34" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="H34" s="58" t="s">
+      <c r="H34" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="I34" s="114" t="s">
+      <c r="I34" s="108" t="s">
         <v>0</v>
       </c>
-      <c r="J34" s="108">
+      <c r="J34" s="111">
         <v>7</v>
       </c>
-      <c r="K34" s="111">
+      <c r="K34" s="114">
         <v>1</v>
       </c>
-      <c r="L34" s="104"/>
+      <c r="L34" s="93"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="107"/>
-      <c r="B35" s="22" t="s">
+      <c r="B35" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="C35" s="11">
+      <c r="C35" s="10">
         <v>44853</v>
       </c>
-      <c r="D35" s="11">
+      <c r="D35" s="10">
         <f>C35+7</f>
         <v>44860</v>
       </c>
-      <c r="E35" s="11">
+      <c r="E35" s="10">
         <v>44860</v>
       </c>
-      <c r="F35" s="24" t="s">
+      <c r="F35" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="G35" s="25" t="s">
+      <c r="G35" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="H35" s="25" t="s">
+      <c r="H35" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="I35" s="116"/>
-      <c r="J35" s="110"/>
-      <c r="K35" s="113"/>
-      <c r="L35" s="104"/>
+      <c r="I35" s="110"/>
+      <c r="J35" s="113"/>
+      <c r="K35" s="116"/>
+      <c r="L35" s="93"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A36" s="117">
+      <c r="A36" s="102">
         <v>14</v>
       </c>
-      <c r="B36" s="59" t="s">
+      <c r="B36" s="55" t="s">
         <v>27</v>
       </c>
-      <c r="C36" s="66">
+      <c r="C36" s="62">
         <v>44843</v>
       </c>
-      <c r="D36" s="66"/>
-      <c r="E36" s="66">
+      <c r="D36" s="62"/>
+      <c r="E36" s="62">
         <v>44843</v>
       </c>
-      <c r="F36" s="67" t="s">
+      <c r="F36" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="G36" s="62" t="s">
+      <c r="G36" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="H36" s="62" t="s">
+      <c r="H36" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="I36" s="114" t="s">
+      <c r="I36" s="108" t="s">
         <v>0</v>
       </c>
-      <c r="J36" s="96">
+      <c r="J36" s="95">
         <v>39</v>
       </c>
-      <c r="K36" s="99">
+      <c r="K36" s="98">
         <v>3</v>
       </c>
-      <c r="L36" s="102"/>
+      <c r="L36" s="101"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A37" s="119"/>
-      <c r="B37" s="23" t="s">
+      <c r="A37" s="104"/>
+      <c r="B37" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="C37" s="9">
+      <c r="C37" s="8">
         <v>44859</v>
       </c>
-      <c r="D37" s="9">
+      <c r="D37" s="8">
         <v>44835</v>
       </c>
-      <c r="E37" s="9">
+      <c r="E37" s="8">
         <v>44836</v>
       </c>
-      <c r="F37" s="28" t="s">
+      <c r="F37" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="G37" s="23" t="s">
+      <c r="G37" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="H37" s="23" t="s">
+      <c r="H37" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="I37" s="116"/>
-      <c r="J37" s="98"/>
-      <c r="K37" s="101"/>
-      <c r="L37" s="102"/>
+      <c r="I37" s="110"/>
+      <c r="J37" s="97"/>
+      <c r="K37" s="100"/>
+      <c r="L37" s="101"/>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="105">
         <v>15</v>
       </c>
-      <c r="B38" s="58" t="s">
+      <c r="B38" s="54" t="s">
         <v>27</v>
       </c>
-      <c r="C38" s="73">
+      <c r="C38" s="69">
         <v>44826</v>
       </c>
-      <c r="D38" s="73"/>
-      <c r="E38" s="73">
+      <c r="D38" s="69"/>
+      <c r="E38" s="69">
         <v>44829</v>
       </c>
-      <c r="F38" s="74" t="s">
+      <c r="F38" s="70" t="s">
         <v>3</v>
       </c>
-      <c r="G38" s="54" t="s">
+      <c r="G38" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="H38" s="54" t="s">
+      <c r="H38" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="I38" s="114" t="s">
+      <c r="I38" s="108" t="s">
         <v>0</v>
       </c>
-      <c r="J38" s="111">
+      <c r="J38" s="114">
         <v>39</v>
       </c>
-      <c r="K38" s="137">
+      <c r="K38" s="129">
         <v>3</v>
       </c>
-      <c r="L38" s="104"/>
+      <c r="L38" s="93"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="106"/>
-      <c r="B39" s="58" t="s">
+      <c r="B39" s="54" t="s">
         <v>26</v>
       </c>
-      <c r="C39" s="71">
+      <c r="C39" s="67">
         <v>44843</v>
       </c>
-      <c r="D39" s="71"/>
-      <c r="E39" s="71">
+      <c r="D39" s="67"/>
+      <c r="E39" s="67">
         <v>44843</v>
       </c>
-      <c r="F39" s="72" t="s">
+      <c r="F39" s="68" t="s">
         <v>10</v>
       </c>
-      <c r="G39" s="70" t="s">
+      <c r="G39" s="66" t="s">
         <v>12</v>
       </c>
-      <c r="H39" s="70" t="s">
+      <c r="H39" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="I39" s="115"/>
-      <c r="J39" s="112"/>
-      <c r="K39" s="138"/>
-      <c r="L39" s="104"/>
+      <c r="I39" s="109"/>
+      <c r="J39" s="115"/>
+      <c r="K39" s="130"/>
+      <c r="L39" s="93"/>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="107"/>
-      <c r="B40" s="22" t="s">
+      <c r="B40" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="C40" s="7">
+      <c r="C40" s="6">
         <v>44859</v>
       </c>
-      <c r="D40" s="7">
+      <c r="D40" s="6">
         <v>44835</v>
       </c>
-      <c r="E40" s="7">
+      <c r="E40" s="6">
         <v>44836</v>
       </c>
-      <c r="F40" s="27" t="s">
+      <c r="F40" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="G40" s="25" t="s">
+      <c r="G40" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="H40" s="25" t="s">
+      <c r="H40" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="I40" s="116"/>
-      <c r="J40" s="113"/>
-      <c r="K40" s="139"/>
-      <c r="L40" s="104"/>
+      <c r="I40" s="110"/>
+      <c r="J40" s="116"/>
+      <c r="K40" s="131"/>
+      <c r="L40" s="93"/>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A41" s="117">
+      <c r="A41" s="102">
         <v>16</v>
       </c>
-      <c r="B41" s="59" t="s">
+      <c r="B41" s="55" t="s">
         <v>27</v>
       </c>
-      <c r="C41" s="60">
+      <c r="C41" s="56">
         <v>44826</v>
       </c>
-      <c r="D41" s="60"/>
-      <c r="E41" s="60">
+      <c r="D41" s="56"/>
+      <c r="E41" s="56">
         <v>44829</v>
       </c>
-      <c r="F41" s="61" t="s">
+      <c r="F41" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="G41" s="59" t="s">
+      <c r="G41" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="H41" s="59" t="s">
+      <c r="H41" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="I41" s="114" t="s">
+      <c r="I41" s="108" t="s">
         <v>0</v>
       </c>
-      <c r="J41" s="99">
+      <c r="J41" s="98">
         <v>39</v>
       </c>
-      <c r="K41" s="140">
+      <c r="K41" s="127">
         <v>3</v>
       </c>
-      <c r="L41" s="102"/>
+      <c r="L41" s="101"/>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A42" s="119"/>
-      <c r="B42" s="23" t="s">
+      <c r="A42" s="104"/>
+      <c r="B42" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="C42" s="48">
+      <c r="C42" s="44">
         <v>44854</v>
       </c>
-      <c r="D42" s="48">
+      <c r="D42" s="44">
         <f>C42+7</f>
         <v>44861</v>
       </c>
-      <c r="E42" s="48">
+      <c r="E42" s="44">
         <v>44864</v>
       </c>
-      <c r="F42" s="36" t="s">
+      <c r="F42" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="G42" s="37" t="s">
+      <c r="G42" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="H42" s="37" t="s">
+      <c r="H42" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="I42" s="116"/>
-      <c r="J42" s="101"/>
-      <c r="K42" s="141"/>
-      <c r="L42" s="102"/>
+      <c r="I42" s="110"/>
+      <c r="J42" s="100"/>
+      <c r="K42" s="128"/>
+      <c r="L42" s="101"/>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A43" s="16">
+      <c r="A43" s="15">
         <v>17</v>
       </c>
-      <c r="B43" s="5"/>
-      <c r="C43" s="12"/>
-      <c r="D43" s="12"/>
-      <c r="E43" s="12"/>
-      <c r="F43" s="12"/>
-      <c r="G43" s="12"/>
-      <c r="H43" s="12"/>
-      <c r="I43" s="12"/>
-      <c r="J43" s="12"/>
-      <c r="K43" s="12"/>
-      <c r="L43" s="93"/>
+      <c r="B43" s="4"/>
+      <c r="C43" s="11"/>
+      <c r="D43" s="11"/>
+      <c r="E43" s="11"/>
+      <c r="F43" s="11"/>
+      <c r="G43" s="11"/>
+      <c r="H43" s="11"/>
+      <c r="I43" s="11"/>
+      <c r="J43" s="11"/>
+      <c r="K43" s="11"/>
+      <c r="L43" s="89"/>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A44" s="117">
+      <c r="A44" s="102">
         <v>18</v>
       </c>
-      <c r="B44" s="59" t="s">
+      <c r="B44" s="55" t="s">
         <v>27</v>
       </c>
-      <c r="C44" s="66">
+      <c r="C44" s="62">
         <v>44835</v>
       </c>
-      <c r="D44" s="66"/>
-      <c r="E44" s="75">
+      <c r="D44" s="62"/>
+      <c r="E44" s="71">
         <v>44836</v>
       </c>
-      <c r="F44" s="67" t="s">
+      <c r="F44" s="63" t="s">
         <v>7</v>
       </c>
-      <c r="G44" s="62" t="s">
+      <c r="G44" s="58" t="s">
         <v>37</v>
       </c>
-      <c r="H44" s="62" t="s">
+      <c r="H44" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="I44" s="114" t="s">
+      <c r="I44" s="108" t="s">
         <v>0</v>
       </c>
-      <c r="J44" s="96">
+      <c r="J44" s="95">
         <v>47</v>
       </c>
-      <c r="K44" s="99">
+      <c r="K44" s="98">
         <v>3</v>
       </c>
-      <c r="L44" s="102"/>
+      <c r="L44" s="101"/>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A45" s="118"/>
-      <c r="B45" s="62" t="s">
+      <c r="A45" s="103"/>
+      <c r="B45" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="C45" s="66">
+      <c r="C45" s="62">
         <v>44846</v>
       </c>
-      <c r="D45" s="66"/>
-      <c r="E45" s="66">
+      <c r="D45" s="62"/>
+      <c r="E45" s="62">
         <v>44850</v>
       </c>
-      <c r="F45" s="67" t="s">
+      <c r="F45" s="63" t="s">
         <v>24</v>
       </c>
-      <c r="G45" s="62" t="s">
+      <c r="G45" s="58" t="s">
         <v>40</v>
       </c>
-      <c r="H45" s="62" t="s">
+      <c r="H45" s="58" t="s">
         <v>41</v>
       </c>
-      <c r="I45" s="115"/>
-      <c r="J45" s="97"/>
-      <c r="K45" s="100"/>
-      <c r="L45" s="102"/>
+      <c r="I45" s="109"/>
+      <c r="J45" s="96"/>
+      <c r="K45" s="99"/>
+      <c r="L45" s="101"/>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A46" s="119"/>
-      <c r="B46" s="23" t="s">
+      <c r="A46" s="104"/>
+      <c r="B46" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="C46" s="9">
+      <c r="C46" s="8">
         <v>44859</v>
       </c>
-      <c r="D46" s="9">
+      <c r="D46" s="8">
         <v>44835</v>
       </c>
-      <c r="E46" s="9">
+      <c r="E46" s="8">
         <v>44836</v>
       </c>
-      <c r="F46" s="28" t="s">
+      <c r="F46" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="G46" s="23" t="s">
+      <c r="G46" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="H46" s="23" t="s">
+      <c r="H46" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="I46" s="116"/>
-      <c r="J46" s="98"/>
-      <c r="K46" s="101"/>
-      <c r="L46" s="102"/>
+      <c r="I46" s="110"/>
+      <c r="J46" s="97"/>
+      <c r="K46" s="100"/>
+      <c r="L46" s="101"/>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A47" s="131">
+      <c r="A47" s="139">
         <v>19</v>
       </c>
-      <c r="B47" s="58" t="s">
+      <c r="B47" s="54" t="s">
         <v>27</v>
       </c>
-      <c r="C47" s="71">
+      <c r="C47" s="67">
         <v>44822</v>
       </c>
-      <c r="D47" s="71"/>
-      <c r="E47" s="71">
+      <c r="D47" s="67"/>
+      <c r="E47" s="67">
         <v>44822</v>
       </c>
-      <c r="F47" s="72" t="s">
+      <c r="F47" s="68" t="s">
         <v>10</v>
       </c>
-      <c r="G47" s="58" t="s">
+      <c r="G47" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="H47" s="58" t="s">
+      <c r="H47" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="I47" s="114" t="s">
+      <c r="I47" s="108" t="s">
         <v>0</v>
       </c>
-      <c r="J47" s="108">
+      <c r="J47" s="111">
         <v>68</v>
       </c>
-      <c r="K47" s="111">
+      <c r="K47" s="114">
         <v>4</v>
       </c>
-      <c r="L47" s="104"/>
+      <c r="L47" s="93"/>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A48" s="132"/>
-      <c r="B48" s="58" t="s">
+      <c r="A48" s="140"/>
+      <c r="B48" s="54" t="s">
         <v>26</v>
       </c>
-      <c r="C48" s="71">
+      <c r="C48" s="67">
         <v>44842</v>
       </c>
-      <c r="D48" s="71"/>
-      <c r="E48" s="71">
+      <c r="D48" s="67"/>
+      <c r="E48" s="67">
         <v>44813</v>
       </c>
-      <c r="F48" s="72" t="s">
+      <c r="F48" s="68" t="s">
         <v>10</v>
       </c>
-      <c r="G48" s="58" t="s">
+      <c r="G48" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="H48" s="58" t="s">
+      <c r="H48" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="I48" s="115"/>
-      <c r="J48" s="109"/>
-      <c r="K48" s="112"/>
-      <c r="L48" s="104"/>
+      <c r="I48" s="109"/>
+      <c r="J48" s="112"/>
+      <c r="K48" s="115"/>
+      <c r="L48" s="93"/>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A49" s="133"/>
-      <c r="B49" s="22" t="s">
+      <c r="A49" s="141"/>
+      <c r="B49" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="C49" s="7">
+      <c r="C49" s="6">
         <v>44857</v>
       </c>
-      <c r="D49" s="7">
+      <c r="D49" s="6">
         <v>44871</v>
       </c>
-      <c r="E49" s="7">
+      <c r="E49" s="6">
         <v>44875</v>
       </c>
-      <c r="F49" s="27" t="s">
+      <c r="F49" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="G49" s="22" t="s">
+      <c r="G49" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="H49" s="22" t="s">
+      <c r="H49" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="I49" s="116"/>
-      <c r="J49" s="110"/>
-      <c r="K49" s="113"/>
-      <c r="L49" s="104"/>
+      <c r="I49" s="110"/>
+      <c r="J49" s="113"/>
+      <c r="K49" s="116"/>
+      <c r="L49" s="93"/>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A50" s="117">
+      <c r="A50" s="102">
         <v>20</v>
       </c>
-      <c r="B50" s="59" t="s">
+      <c r="B50" s="55" t="s">
         <v>27</v>
       </c>
-      <c r="C50" s="60">
+      <c r="C50" s="56">
         <v>44815</v>
       </c>
-      <c r="D50" s="60"/>
-      <c r="E50" s="60">
+      <c r="D50" s="56"/>
+      <c r="E50" s="56">
         <v>44818</v>
       </c>
-      <c r="F50" s="61" t="s">
+      <c r="F50" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="G50" s="59" t="s">
+      <c r="G50" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="H50" s="59" t="s">
+      <c r="H50" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="I50" s="114" t="s">
+      <c r="I50" s="108" t="s">
         <v>0</v>
       </c>
-      <c r="J50" s="96">
+      <c r="J50" s="95">
         <v>13</v>
       </c>
-      <c r="K50" s="99">
+      <c r="K50" s="98">
         <v>1</v>
       </c>
-      <c r="L50" s="102"/>
+      <c r="L50" s="101"/>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A51" s="118"/>
-      <c r="B51" s="59" t="s">
+      <c r="A51" s="103"/>
+      <c r="B51" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="C51" s="60">
+      <c r="C51" s="56">
         <v>44842</v>
       </c>
-      <c r="D51" s="60"/>
-      <c r="E51" s="60">
+      <c r="D51" s="56"/>
+      <c r="E51" s="56">
         <v>44813</v>
       </c>
-      <c r="F51" s="61" t="s">
+      <c r="F51" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="G51" s="59" t="s">
+      <c r="G51" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="H51" s="59" t="s">
+      <c r="H51" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="I51" s="115"/>
-      <c r="J51" s="97"/>
-      <c r="K51" s="100"/>
-      <c r="L51" s="102"/>
+      <c r="I51" s="109"/>
+      <c r="J51" s="96"/>
+      <c r="K51" s="99"/>
+      <c r="L51" s="101"/>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A52" s="119"/>
-      <c r="B52" s="23" t="s">
+      <c r="A52" s="104"/>
+      <c r="B52" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="C52" s="35">
+      <c r="C52" s="31">
         <v>44857</v>
       </c>
-      <c r="D52" s="35">
+      <c r="D52" s="31">
         <v>44871</v>
       </c>
-      <c r="E52" s="35">
+      <c r="E52" s="31">
         <v>44875</v>
       </c>
-      <c r="F52" s="36" t="s">
+      <c r="F52" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="G52" s="37" t="s">
+      <c r="G52" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="H52" s="37" t="s">
+      <c r="H52" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="116"/>
-      <c r="J52" s="98"/>
-      <c r="K52" s="101"/>
-      <c r="L52" s="102"/>
+      <c r="I52" s="110"/>
+      <c r="J52" s="97"/>
+      <c r="K52" s="100"/>
+      <c r="L52" s="101"/>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" s="105">
         <v>21</v>
       </c>
-      <c r="B53" s="58" t="s">
+      <c r="B53" s="54" t="s">
         <v>27</v>
       </c>
-      <c r="C53" s="68">
+      <c r="C53" s="64">
         <v>44815</v>
       </c>
-      <c r="D53" s="68"/>
-      <c r="E53" s="68">
+      <c r="D53" s="64"/>
+      <c r="E53" s="64">
         <v>44818</v>
       </c>
-      <c r="F53" s="69" t="s">
+      <c r="F53" s="65" t="s">
         <v>10</v>
       </c>
-      <c r="G53" s="70" t="s">
+      <c r="G53" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="H53" s="70" t="s">
+      <c r="H53" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="I53" s="114" t="s">
+      <c r="I53" s="108" t="s">
         <v>0</v>
       </c>
-      <c r="J53" s="108">
+      <c r="J53" s="111">
         <v>94</v>
       </c>
-      <c r="K53" s="111">
+      <c r="K53" s="114">
         <v>6</v>
       </c>
-      <c r="L53" s="104"/>
+      <c r="L53" s="93"/>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" s="106"/>
-      <c r="B54" s="58" t="s">
+      <c r="B54" s="54" t="s">
         <v>26</v>
       </c>
-      <c r="C54" s="71">
+      <c r="C54" s="67">
         <v>44842</v>
       </c>
-      <c r="D54" s="71"/>
-      <c r="E54" s="71">
+      <c r="D54" s="67"/>
+      <c r="E54" s="67">
         <v>44813</v>
       </c>
-      <c r="F54" s="72" t="s">
+      <c r="F54" s="68" t="s">
         <v>10</v>
       </c>
-      <c r="G54" s="58" t="s">
+      <c r="G54" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="H54" s="58" t="s">
+      <c r="H54" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="I54" s="115"/>
-      <c r="J54" s="109"/>
-      <c r="K54" s="112"/>
-      <c r="L54" s="104"/>
+      <c r="I54" s="109"/>
+      <c r="J54" s="112"/>
+      <c r="K54" s="115"/>
+      <c r="L54" s="93"/>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" s="107"/>
-      <c r="B55" s="22" t="s">
+      <c r="B55" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="C55" s="7">
+      <c r="C55" s="6">
         <v>44857</v>
       </c>
-      <c r="D55" s="7">
+      <c r="D55" s="6">
         <v>44871</v>
       </c>
-      <c r="E55" s="7">
+      <c r="E55" s="6">
         <v>44875</v>
       </c>
-      <c r="F55" s="27" t="s">
+      <c r="F55" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="G55" s="22" t="s">
+      <c r="G55" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="H55" s="22" t="s">
+      <c r="H55" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="I55" s="116"/>
-      <c r="J55" s="110"/>
-      <c r="K55" s="113"/>
-      <c r="L55" s="104"/>
+      <c r="I55" s="110"/>
+      <c r="J55" s="113"/>
+      <c r="K55" s="116"/>
+      <c r="L55" s="93"/>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A56" s="117">
+      <c r="A56" s="102">
         <v>22</v>
       </c>
-      <c r="B56" s="47" t="s">
+      <c r="B56" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="C56" s="32">
+      <c r="C56" s="28">
         <v>44822</v>
       </c>
-      <c r="D56" s="32">
+      <c r="D56" s="28">
         <v>44828</v>
       </c>
-      <c r="E56" s="32">
+      <c r="E56" s="28">
         <v>44828</v>
       </c>
-      <c r="F56" s="33" t="s">
+      <c r="F56" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="G56" s="34" t="s">
+      <c r="G56" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="H56" s="34" t="s">
+      <c r="H56" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="I56" s="114" t="s">
+      <c r="I56" s="108" t="s">
         <v>0</v>
       </c>
-      <c r="J56" s="96">
+      <c r="J56" s="95">
         <v>67</v>
       </c>
-      <c r="K56" s="99">
+      <c r="K56" s="98">
         <v>4</v>
       </c>
-      <c r="L56" s="102"/>
+      <c r="L56" s="101"/>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A57" s="118"/>
-      <c r="B57" s="47" t="s">
+      <c r="A57" s="103"/>
+      <c r="B57" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="C57" s="32">
+      <c r="C57" s="28">
         <v>44846</v>
       </c>
-      <c r="D57" s="32"/>
-      <c r="E57" s="32">
+      <c r="D57" s="28"/>
+      <c r="E57" s="28">
         <v>44850</v>
       </c>
-      <c r="F57" s="33" t="s">
+      <c r="F57" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="G57" s="34" t="s">
+      <c r="G57" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="H57" s="34" t="s">
+      <c r="H57" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="I57" s="115"/>
-      <c r="J57" s="97"/>
-      <c r="K57" s="100"/>
-      <c r="L57" s="102"/>
+      <c r="I57" s="109"/>
+      <c r="J57" s="96"/>
+      <c r="K57" s="99"/>
+      <c r="L57" s="101"/>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A58" s="119"/>
-      <c r="B58" s="23" t="s">
+      <c r="A58" s="104"/>
+      <c r="B58" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="C58" s="48">
+      <c r="C58" s="44">
         <v>44854</v>
       </c>
-      <c r="D58" s="48">
+      <c r="D58" s="44">
         <f>C58+7</f>
         <v>44861</v>
       </c>
-      <c r="E58" s="48">
+      <c r="E58" s="44">
         <v>44864</v>
       </c>
-      <c r="F58" s="36" t="s">
+      <c r="F58" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="G58" s="37" t="s">
+      <c r="G58" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="H58" s="37" t="s">
+      <c r="H58" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="I58" s="116"/>
-      <c r="J58" s="98"/>
-      <c r="K58" s="101"/>
-      <c r="L58" s="102"/>
+      <c r="I58" s="110"/>
+      <c r="J58" s="97"/>
+      <c r="K58" s="100"/>
+      <c r="L58" s="101"/>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" s="105">
         <v>23</v>
       </c>
-      <c r="B59" s="54" t="s">
+      <c r="B59" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="C59" s="68">
+      <c r="C59" s="64">
         <v>44808</v>
       </c>
-      <c r="D59" s="68"/>
-      <c r="E59" s="68">
+      <c r="D59" s="64"/>
+      <c r="E59" s="64">
         <v>44818</v>
       </c>
-      <c r="F59" s="69" t="s">
+      <c r="F59" s="65" t="s">
         <v>10</v>
       </c>
-      <c r="G59" s="70" t="s">
+      <c r="G59" s="66" t="s">
         <v>14</v>
       </c>
-      <c r="H59" s="70" t="s">
+      <c r="H59" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="I59" s="114" t="s">
+      <c r="I59" s="108" t="s">
         <v>0</v>
       </c>
-      <c r="J59" s="108">
+      <c r="J59" s="111">
         <v>22</v>
       </c>
-      <c r="K59" s="111">
+      <c r="K59" s="114">
         <v>2</v>
       </c>
-      <c r="L59" s="104"/>
+      <c r="L59" s="93"/>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" s="106"/>
-      <c r="B60" s="54" t="s">
+      <c r="B60" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="C60" s="68">
+      <c r="C60" s="64">
         <v>44850</v>
       </c>
-      <c r="D60" s="68"/>
-      <c r="E60" s="68">
+      <c r="D60" s="64"/>
+      <c r="E60" s="64">
         <v>44850</v>
       </c>
-      <c r="F60" s="69" t="s">
+      <c r="F60" s="65" t="s">
         <v>10</v>
       </c>
-      <c r="G60" s="70" t="s">
+      <c r="G60" s="66" t="s">
         <v>40</v>
       </c>
-      <c r="H60" s="70" t="s">
+      <c r="H60" s="66" t="s">
         <v>41</v>
       </c>
-      <c r="I60" s="115"/>
-      <c r="J60" s="109"/>
-      <c r="K60" s="112"/>
-      <c r="L60" s="104"/>
+      <c r="I60" s="109"/>
+      <c r="J60" s="112"/>
+      <c r="K60" s="115"/>
+      <c r="L60" s="93"/>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" s="107"/>
-      <c r="B61" s="22" t="s">
+      <c r="B61" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="C61" s="11">
+      <c r="C61" s="10">
         <v>44854</v>
       </c>
-      <c r="D61" s="11">
+      <c r="D61" s="10">
         <f>C61+7</f>
         <v>44861</v>
       </c>
-      <c r="E61" s="11">
+      <c r="E61" s="10">
         <v>44864</v>
       </c>
-      <c r="F61" s="24" t="s">
+      <c r="F61" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="G61" s="25" t="s">
+      <c r="G61" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="H61" s="25" t="s">
+      <c r="H61" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="I61" s="116"/>
-      <c r="J61" s="110"/>
-      <c r="K61" s="113"/>
-      <c r="L61" s="104"/>
+      <c r="I61" s="110"/>
+      <c r="J61" s="113"/>
+      <c r="K61" s="116"/>
+      <c r="L61" s="93"/>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A62" s="15">
+      <c r="A62" s="14">
         <v>24</v>
       </c>
-      <c r="B62" s="3"/>
-      <c r="C62" s="8">
+      <c r="B62" s="2"/>
+      <c r="C62" s="7">
         <v>44815</v>
       </c>
-      <c r="D62" s="8"/>
-      <c r="E62" s="9">
+      <c r="D62" s="7"/>
+      <c r="E62" s="8">
         <v>44818</v>
       </c>
-      <c r="F62" s="10" t="s">
+      <c r="F62" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="G62" s="3" t="s">
+      <c r="G62" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H62" s="3" t="s">
+      <c r="H62" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I62" s="13" t="s">
+      <c r="I62" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="J62" s="3">
+      <c r="J62" s="2">
         <v>31</v>
       </c>
-      <c r="K62" s="83">
+      <c r="K62" s="79">
         <v>2</v>
       </c>
-      <c r="L62" s="94"/>
+      <c r="L62" s="90"/>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" s="105">
         <v>25</v>
       </c>
-      <c r="B63" s="58" t="s">
+      <c r="B63" s="54" t="s">
         <v>27</v>
       </c>
-      <c r="C63" s="68">
+      <c r="C63" s="64">
         <v>44846</v>
       </c>
-      <c r="D63" s="68"/>
-      <c r="E63" s="68">
+      <c r="D63" s="64"/>
+      <c r="E63" s="64">
         <v>44846</v>
       </c>
-      <c r="F63" s="69" t="s">
+      <c r="F63" s="65" t="s">
         <v>24</v>
       </c>
-      <c r="G63" s="70" t="s">
+      <c r="G63" s="66" t="s">
         <v>40</v>
       </c>
-      <c r="H63" s="70" t="s">
+      <c r="H63" s="66" t="s">
         <v>41</v>
       </c>
-      <c r="I63" s="114" t="s">
+      <c r="I63" s="108" t="s">
         <v>0</v>
       </c>
-      <c r="J63" s="108">
+      <c r="J63" s="111">
         <v>44</v>
       </c>
-      <c r="K63" s="111">
+      <c r="K63" s="114">
         <v>3</v>
       </c>
-      <c r="L63" s="104"/>
+      <c r="L63" s="93"/>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" s="107"/>
-      <c r="B64" s="22" t="s">
+      <c r="B64" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="C64" s="11">
+      <c r="C64" s="10">
         <v>44855</v>
       </c>
-      <c r="D64" s="11">
+      <c r="D64" s="10">
         <v>44862</v>
       </c>
-      <c r="E64" s="11">
+      <c r="E64" s="10">
         <v>44864</v>
       </c>
-      <c r="F64" s="24" t="s">
+      <c r="F64" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="G64" s="25" t="s">
+      <c r="G64" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="H64" s="25" t="s">
+      <c r="H64" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="I64" s="116"/>
-      <c r="J64" s="110"/>
-      <c r="K64" s="113"/>
-      <c r="L64" s="104"/>
+      <c r="I64" s="110"/>
+      <c r="J64" s="113"/>
+      <c r="K64" s="116"/>
+      <c r="L64" s="93"/>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A65" s="117">
+      <c r="A65" s="102">
         <v>26</v>
       </c>
-      <c r="B65" s="59" t="s">
+      <c r="B65" s="55" t="s">
         <v>27</v>
       </c>
-      <c r="C65" s="66">
+      <c r="C65" s="62">
         <v>44829</v>
       </c>
-      <c r="D65" s="66"/>
-      <c r="E65" s="66">
+      <c r="D65" s="62"/>
+      <c r="E65" s="62">
         <v>44832</v>
       </c>
-      <c r="F65" s="67" t="s">
+      <c r="F65" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="G65" s="62" t="s">
+      <c r="G65" s="58" t="s">
         <v>14</v>
       </c>
-      <c r="H65" s="62" t="s">
+      <c r="H65" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="I65" s="114" t="s">
+      <c r="I65" s="108" t="s">
         <v>0</v>
       </c>
-      <c r="J65" s="96">
+      <c r="J65" s="95">
         <v>30</v>
       </c>
-      <c r="K65" s="99">
+      <c r="K65" s="98">
         <v>3</v>
       </c>
-      <c r="L65" s="102"/>
+      <c r="L65" s="101"/>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A66" s="118"/>
-      <c r="B66" s="59" t="s">
+      <c r="A66" s="103"/>
+      <c r="B66" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="C66" s="66">
+      <c r="C66" s="62">
         <v>44850</v>
       </c>
-      <c r="D66" s="66"/>
-      <c r="E66" s="66">
+      <c r="D66" s="62"/>
+      <c r="E66" s="62">
         <v>44850</v>
       </c>
-      <c r="F66" s="67" t="s">
+      <c r="F66" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="G66" s="62" t="s">
+      <c r="G66" s="58" t="s">
         <v>40</v>
       </c>
-      <c r="H66" s="62" t="s">
+      <c r="H66" s="58" t="s">
         <v>41</v>
       </c>
-      <c r="I66" s="115"/>
-      <c r="J66" s="97"/>
-      <c r="K66" s="100"/>
-      <c r="L66" s="102"/>
+      <c r="I66" s="109"/>
+      <c r="J66" s="96"/>
+      <c r="K66" s="99"/>
+      <c r="L66" s="101"/>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A67" s="119"/>
-      <c r="B67" s="23" t="s">
+      <c r="A67" s="104"/>
+      <c r="B67" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="C67" s="9">
+      <c r="C67" s="8">
         <v>44855</v>
       </c>
-      <c r="D67" s="9">
+      <c r="D67" s="8">
         <v>44862</v>
       </c>
-      <c r="E67" s="9">
+      <c r="E67" s="8">
         <v>44864</v>
       </c>
-      <c r="F67" s="28" t="s">
+      <c r="F67" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="G67" s="23" t="s">
+      <c r="G67" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="H67" s="23" t="s">
+      <c r="H67" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="I67" s="116"/>
-      <c r="J67" s="98"/>
-      <c r="K67" s="101"/>
-      <c r="L67" s="102"/>
+      <c r="I67" s="110"/>
+      <c r="J67" s="97"/>
+      <c r="K67" s="100"/>
+      <c r="L67" s="101"/>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" s="105">
         <v>27</v>
       </c>
-      <c r="B68" s="54" t="s">
+      <c r="B68" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="C68" s="76">
+      <c r="C68" s="72">
         <v>44810</v>
       </c>
-      <c r="D68" s="76"/>
-      <c r="E68" s="76">
+      <c r="D68" s="72"/>
+      <c r="E68" s="72">
         <v>44818</v>
       </c>
-      <c r="F68" s="77" t="s">
+      <c r="F68" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="G68" s="78" t="s">
+      <c r="G68" s="74" t="s">
         <v>17</v>
       </c>
-      <c r="H68" s="78" t="s">
+      <c r="H68" s="74" t="s">
         <v>16</v>
       </c>
-      <c r="I68" s="123" t="s">
+      <c r="I68" s="117" t="s">
         <v>4</v>
       </c>
-      <c r="J68" s="108">
+      <c r="J68" s="111">
         <v>12</v>
       </c>
-      <c r="K68" s="111">
+      <c r="K68" s="114">
         <v>1</v>
       </c>
-      <c r="L68" s="104"/>
+      <c r="L68" s="93"/>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" s="106"/>
-      <c r="B69" s="58" t="s">
+      <c r="B69" s="54" t="s">
         <v>26</v>
       </c>
-      <c r="C69" s="68">
+      <c r="C69" s="64">
         <v>44829</v>
       </c>
-      <c r="D69" s="68"/>
-      <c r="E69" s="68">
+      <c r="D69" s="64"/>
+      <c r="E69" s="64">
         <v>44836</v>
       </c>
-      <c r="F69" s="69" t="s">
+      <c r="F69" s="65" t="s">
         <v>10</v>
       </c>
-      <c r="G69" s="70" t="s">
+      <c r="G69" s="66" t="s">
         <v>25</v>
       </c>
-      <c r="H69" s="70" t="s">
+      <c r="H69" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="I69" s="124"/>
-      <c r="J69" s="109"/>
-      <c r="K69" s="112"/>
-      <c r="L69" s="104"/>
+      <c r="I69" s="118"/>
+      <c r="J69" s="112"/>
+      <c r="K69" s="115"/>
+      <c r="L69" s="93"/>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70" s="106"/>
-      <c r="B70" s="58" t="s">
+      <c r="B70" s="54" t="s">
         <v>28</v>
       </c>
-      <c r="C70" s="68">
+      <c r="C70" s="64">
         <v>44855</v>
       </c>
-      <c r="D70" s="68">
+      <c r="D70" s="64">
         <v>44862</v>
       </c>
-      <c r="E70" s="68">
+      <c r="E70" s="64">
         <v>44864</v>
       </c>
-      <c r="F70" s="69" t="s">
+      <c r="F70" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="G70" s="70" t="s">
+      <c r="G70" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="H70" s="70" t="s">
+      <c r="H70" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="I70" s="124"/>
-      <c r="J70" s="109"/>
-      <c r="K70" s="112"/>
-      <c r="L70" s="104"/>
+      <c r="I70" s="118"/>
+      <c r="J70" s="112"/>
+      <c r="K70" s="115"/>
+      <c r="L70" s="93"/>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71" s="107"/>
-      <c r="B71" s="80" t="s">
+      <c r="B71" s="76" t="s">
         <v>42</v>
       </c>
-      <c r="C71" s="11">
+      <c r="C71" s="10">
         <v>44869</v>
       </c>
-      <c r="D71" s="11">
+      <c r="D71" s="10">
         <v>44876</v>
       </c>
-      <c r="E71" s="11">
+      <c r="E71" s="10">
         <v>44847</v>
       </c>
-      <c r="F71" s="24" t="s">
+      <c r="F71" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="G71" s="25" t="s">
+      <c r="G71" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="H71" s="25" t="s">
+      <c r="H71" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="I71" s="125"/>
-      <c r="J71" s="110"/>
-      <c r="K71" s="113"/>
-      <c r="L71" s="104"/>
+      <c r="I71" s="119"/>
+      <c r="J71" s="113"/>
+      <c r="K71" s="116"/>
+      <c r="L71" s="93"/>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A72" s="117">
+      <c r="A72" s="102">
         <v>28</v>
       </c>
-      <c r="B72" s="59" t="s">
+      <c r="B72" s="55" t="s">
         <v>27</v>
       </c>
-      <c r="C72" s="60">
+      <c r="C72" s="56">
         <v>44807</v>
       </c>
-      <c r="D72" s="60"/>
-      <c r="E72" s="60">
+      <c r="D72" s="56"/>
+      <c r="E72" s="56">
         <v>44808</v>
       </c>
-      <c r="F72" s="61" t="s">
+      <c r="F72" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="G72" s="59" t="s">
+      <c r="G72" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="H72" s="59" t="s">
+      <c r="H72" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="I72" s="123" t="s">
+      <c r="I72" s="117" t="s">
         <v>4</v>
       </c>
-      <c r="J72" s="96">
+      <c r="J72" s="95">
         <v>21</v>
       </c>
-      <c r="K72" s="99">
+      <c r="K72" s="98">
         <v>2</v>
       </c>
-      <c r="L72" s="102"/>
+      <c r="L72" s="101"/>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A73" s="118"/>
-      <c r="B73" s="59" t="s">
+      <c r="A73" s="103"/>
+      <c r="B73" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="C73" s="66">
+      <c r="C73" s="62">
         <v>44829</v>
       </c>
-      <c r="D73" s="66">
+      <c r="D73" s="62">
         <v>44843</v>
       </c>
-      <c r="E73" s="66">
+      <c r="E73" s="62">
         <v>44843</v>
       </c>
-      <c r="F73" s="67" t="s">
+      <c r="F73" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="G73" s="62" t="s">
+      <c r="G73" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="H73" s="62" t="s">
+      <c r="H73" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="I73" s="124"/>
-      <c r="J73" s="97"/>
-      <c r="K73" s="100"/>
-      <c r="L73" s="102"/>
+      <c r="I73" s="118"/>
+      <c r="J73" s="96"/>
+      <c r="K73" s="99"/>
+      <c r="L73" s="101"/>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A74" s="119"/>
-      <c r="B74" s="23" t="s">
+      <c r="A74" s="104"/>
+      <c r="B74" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="C74" s="9">
+      <c r="C74" s="8">
         <v>44869</v>
       </c>
-      <c r="D74" s="9">
+      <c r="D74" s="8">
         <f>C74+7</f>
         <v>44876</v>
       </c>
-      <c r="E74" s="9">
+      <c r="E74" s="8">
         <v>44847</v>
       </c>
-      <c r="F74" s="28" t="s">
+      <c r="F74" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="G74" s="23" t="s">
+      <c r="G74" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="H74" s="23" t="s">
+      <c r="H74" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="I74" s="125"/>
-      <c r="J74" s="98"/>
-      <c r="K74" s="101"/>
-      <c r="L74" s="102"/>
+      <c r="I74" s="119"/>
+      <c r="J74" s="97"/>
+      <c r="K74" s="100"/>
+      <c r="L74" s="101"/>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75" s="105">
         <v>29</v>
       </c>
-      <c r="B75" s="54" t="s">
+      <c r="B75" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="C75" s="76">
+      <c r="C75" s="72">
         <v>44807</v>
       </c>
-      <c r="D75" s="76"/>
-      <c r="E75" s="76">
+      <c r="D75" s="72"/>
+      <c r="E75" s="72">
         <v>44808</v>
       </c>
-      <c r="F75" s="77" t="s">
+      <c r="F75" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="G75" s="78" t="s">
+      <c r="G75" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="H75" s="78" t="s">
+      <c r="H75" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="I75" s="114" t="s">
+      <c r="I75" s="108" t="s">
         <v>0</v>
       </c>
-      <c r="J75" s="108">
+      <c r="J75" s="111">
         <v>35</v>
       </c>
-      <c r="K75" s="111">
+      <c r="K75" s="114">
         <v>2</v>
       </c>
-      <c r="L75" s="104"/>
+      <c r="L75" s="93"/>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76" s="106"/>
-      <c r="B76" s="54" t="s">
+      <c r="B76" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="C76" s="76">
+      <c r="C76" s="72">
         <v>44810</v>
       </c>
-      <c r="D76" s="76"/>
-      <c r="E76" s="76">
+      <c r="D76" s="72"/>
+      <c r="E76" s="72">
         <v>44818</v>
       </c>
-      <c r="F76" s="77" t="s">
+      <c r="F76" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="G76" s="78" t="s">
+      <c r="G76" s="74" t="s">
         <v>17</v>
       </c>
-      <c r="H76" s="78" t="s">
+      <c r="H76" s="74" t="s">
         <v>16</v>
       </c>
-      <c r="I76" s="115"/>
-      <c r="J76" s="109"/>
-      <c r="K76" s="112"/>
-      <c r="L76" s="104"/>
+      <c r="I76" s="109"/>
+      <c r="J76" s="112"/>
+      <c r="K76" s="115"/>
+      <c r="L76" s="93"/>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77" s="107"/>
-      <c r="B77" s="22" t="s">
+      <c r="B77" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="C77" s="11">
+      <c r="C77" s="10">
         <v>44829</v>
       </c>
-      <c r="D77" s="11">
+      <c r="D77" s="10">
         <v>44843</v>
       </c>
-      <c r="E77" s="11">
+      <c r="E77" s="10">
         <v>44843</v>
       </c>
-      <c r="F77" s="24" t="s">
+      <c r="F77" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="G77" s="25" t="s">
+      <c r="G77" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="H77" s="25" t="s">
+      <c r="H77" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="I77" s="116"/>
-      <c r="J77" s="110"/>
-      <c r="K77" s="113"/>
-      <c r="L77" s="104"/>
+      <c r="I77" s="110"/>
+      <c r="J77" s="113"/>
+      <c r="K77" s="116"/>
+      <c r="L77" s="93"/>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A78" s="117">
+      <c r="A78" s="102">
         <v>30</v>
       </c>
-      <c r="B78" s="59" t="s">
+      <c r="B78" s="55" t="s">
         <v>27</v>
       </c>
-      <c r="C78" s="60">
+      <c r="C78" s="56">
         <v>44807</v>
       </c>
-      <c r="D78" s="60"/>
-      <c r="E78" s="60">
+      <c r="D78" s="56"/>
+      <c r="E78" s="56">
         <v>44815</v>
       </c>
-      <c r="F78" s="61" t="s">
+      <c r="F78" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="G78" s="59" t="s">
+      <c r="G78" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="H78" s="59" t="s">
+      <c r="H78" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="I78" s="114" t="s">
+      <c r="I78" s="108" t="s">
         <v>0</v>
       </c>
-      <c r="J78" s="96">
+      <c r="J78" s="95">
         <v>19</v>
       </c>
-      <c r="K78" s="99">
+      <c r="K78" s="98">
         <v>1</v>
       </c>
-      <c r="L78" s="102"/>
+      <c r="L78" s="101"/>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A79" s="118"/>
-      <c r="B79" s="59" t="s">
+      <c r="A79" s="103"/>
+      <c r="B79" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="C79" s="60">
+      <c r="C79" s="56">
         <v>44814</v>
       </c>
-      <c r="D79" s="60"/>
-      <c r="E79" s="60">
+      <c r="D79" s="56"/>
+      <c r="E79" s="56">
         <v>44815</v>
       </c>
-      <c r="F79" s="61" t="s">
+      <c r="F79" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="G79" s="59" t="s">
+      <c r="G79" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="H79" s="59" t="s">
+      <c r="H79" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="I79" s="115"/>
-      <c r="J79" s="97"/>
-      <c r="K79" s="100"/>
-      <c r="L79" s="102"/>
+      <c r="I79" s="109"/>
+      <c r="J79" s="96"/>
+      <c r="K79" s="99"/>
+      <c r="L79" s="101"/>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A80" s="52"/>
-      <c r="B80" s="23" t="s">
+      <c r="A80" s="48"/>
+      <c r="B80" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="C80" s="9">
+      <c r="C80" s="8">
         <v>44855</v>
       </c>
-      <c r="D80" s="9">
+      <c r="D80" s="8">
         <v>44862</v>
       </c>
-      <c r="E80" s="9">
+      <c r="E80" s="8">
         <v>44864</v>
       </c>
-      <c r="F80" s="28" t="s">
+      <c r="F80" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="G80" s="23" t="s">
+      <c r="G80" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="H80" s="23" t="s">
+      <c r="H80" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="I80" s="116"/>
-      <c r="J80" s="98"/>
-      <c r="K80" s="101"/>
-      <c r="L80" s="94"/>
+      <c r="I80" s="110"/>
+      <c r="J80" s="97"/>
+      <c r="K80" s="100"/>
+      <c r="L80" s="90"/>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A81" s="105">
         <v>31</v>
       </c>
-      <c r="B81" s="54" t="s">
+      <c r="B81" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="C81" s="76">
+      <c r="C81" s="72">
         <v>44813</v>
       </c>
-      <c r="D81" s="76"/>
-      <c r="E81" s="76">
+      <c r="D81" s="72"/>
+      <c r="E81" s="72">
         <v>44815</v>
       </c>
-      <c r="F81" s="77" t="s">
+      <c r="F81" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="G81" s="78" t="s">
+      <c r="G81" s="74" t="s">
         <v>2</v>
       </c>
-      <c r="H81" s="78" t="s">
+      <c r="H81" s="74" t="s">
         <v>5</v>
       </c>
-      <c r="I81" s="134" t="s">
+      <c r="I81" s="94" t="s">
         <v>0</v>
       </c>
-      <c r="J81" s="108">
+      <c r="J81" s="111">
         <v>50</v>
       </c>
-      <c r="K81" s="111">
+      <c r="K81" s="114">
         <v>4</v>
       </c>
-      <c r="L81" s="104"/>
+      <c r="L81" s="93"/>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A82" s="106"/>
-      <c r="B82" s="58" t="s">
+      <c r="B82" s="54" t="s">
         <v>26</v>
       </c>
-      <c r="C82" s="71">
+      <c r="C82" s="67">
         <v>44824</v>
       </c>
-      <c r="D82" s="71"/>
-      <c r="E82" s="71">
+      <c r="D82" s="67"/>
+      <c r="E82" s="67">
         <v>44832</v>
       </c>
-      <c r="F82" s="72" t="s">
+      <c r="F82" s="68" t="s">
         <v>15</v>
       </c>
-      <c r="G82" s="70" t="s">
+      <c r="G82" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="H82" s="70" t="s">
+      <c r="H82" s="66" t="s">
         <v>16</v>
       </c>
-      <c r="I82" s="134"/>
-      <c r="J82" s="109"/>
-      <c r="K82" s="112"/>
-      <c r="L82" s="104"/>
+      <c r="I82" s="94"/>
+      <c r="J82" s="112"/>
+      <c r="K82" s="115"/>
+      <c r="L82" s="93"/>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83" s="106"/>
-      <c r="B83" s="58" t="s">
+      <c r="B83" s="54" t="s">
         <v>28</v>
       </c>
-      <c r="C83" s="71">
+      <c r="C83" s="67">
         <v>44843</v>
       </c>
-      <c r="D83" s="71"/>
-      <c r="E83" s="71">
+      <c r="D83" s="67"/>
+      <c r="E83" s="67">
         <v>44843</v>
       </c>
-      <c r="F83" s="72" t="s">
+      <c r="F83" s="68" t="s">
         <v>10</v>
       </c>
-      <c r="G83" s="70" t="s">
+      <c r="G83" s="66" t="s">
         <v>14</v>
       </c>
-      <c r="H83" s="70" t="s">
+      <c r="H83" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="I83" s="134"/>
-      <c r="J83" s="109"/>
-      <c r="K83" s="112"/>
-      <c r="L83" s="104"/>
+      <c r="I83" s="94"/>
+      <c r="J83" s="112"/>
+      <c r="K83" s="115"/>
+      <c r="L83" s="93"/>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84" s="106"/>
-      <c r="B84" s="54" t="s">
+      <c r="B84" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="C84" s="71">
+      <c r="C84" s="67">
         <v>44850</v>
       </c>
-      <c r="D84" s="71"/>
-      <c r="E84" s="71">
+      <c r="D84" s="67"/>
+      <c r="E84" s="67">
         <v>44850</v>
       </c>
-      <c r="F84" s="72" t="s">
+      <c r="F84" s="68" t="s">
         <v>10</v>
       </c>
-      <c r="G84" s="70" t="s">
+      <c r="G84" s="66" t="s">
         <v>40</v>
       </c>
-      <c r="H84" s="70" t="s">
+      <c r="H84" s="66" t="s">
         <v>41</v>
       </c>
-      <c r="I84" s="134"/>
-      <c r="J84" s="109"/>
-      <c r="K84" s="112"/>
-      <c r="L84" s="104"/>
+      <c r="I84" s="94"/>
+      <c r="J84" s="112"/>
+      <c r="K84" s="115"/>
+      <c r="L84" s="93"/>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A85" s="107"/>
-      <c r="B85" s="38" t="s">
+      <c r="B85" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="C85" s="7">
+      <c r="C85" s="6">
         <v>44857</v>
       </c>
-      <c r="D85" s="7">
+      <c r="D85" s="6">
         <v>44871</v>
       </c>
-      <c r="E85" s="7">
+      <c r="E85" s="6">
         <v>44875</v>
       </c>
-      <c r="F85" s="27" t="s">
+      <c r="F85" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="G85" s="25" t="s">
+      <c r="G85" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="H85" s="25" t="s">
+      <c r="H85" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="I85" s="134"/>
-      <c r="J85" s="110"/>
-      <c r="K85" s="113"/>
-      <c r="L85" s="104"/>
+      <c r="I85" s="94"/>
+      <c r="J85" s="113"/>
+      <c r="K85" s="116"/>
+      <c r="L85" s="93"/>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A86" s="155">
+      <c r="A86" s="142">
         <v>32</v>
       </c>
-      <c r="B86" s="59" t="s">
+      <c r="B86" s="55" t="s">
         <v>27</v>
       </c>
-      <c r="C86" s="66">
+      <c r="C86" s="62">
         <v>44813</v>
       </c>
-      <c r="D86" s="66"/>
-      <c r="E86" s="75">
+      <c r="D86" s="62"/>
+      <c r="E86" s="71">
         <v>44815</v>
       </c>
-      <c r="F86" s="67" t="s">
+      <c r="F86" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="G86" s="62" t="s">
+      <c r="G86" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="H86" s="62" t="s">
+      <c r="H86" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="I86" s="114" t="s">
+      <c r="I86" s="108" t="s">
         <v>0</v>
       </c>
-      <c r="J86" s="96">
+      <c r="J86" s="95">
         <v>77</v>
       </c>
-      <c r="K86" s="99">
+      <c r="K86" s="98">
         <v>4</v>
       </c>
-      <c r="L86" s="102"/>
+      <c r="L86" s="101"/>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A87" s="155"/>
-      <c r="B87" s="59" t="s">
+      <c r="A87" s="142"/>
+      <c r="B87" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="C87" s="66">
+      <c r="C87" s="62">
         <v>44843</v>
       </c>
-      <c r="D87" s="66"/>
-      <c r="E87" s="66">
+      <c r="D87" s="62"/>
+      <c r="E87" s="62">
         <v>44843</v>
       </c>
-      <c r="F87" s="67" t="s">
+      <c r="F87" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="G87" s="62" t="s">
+      <c r="G87" s="58" t="s">
         <v>14</v>
       </c>
-      <c r="H87" s="62" t="s">
+      <c r="H87" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="I87" s="115"/>
-      <c r="J87" s="97"/>
-      <c r="K87" s="100"/>
-      <c r="L87" s="102"/>
+      <c r="I87" s="109"/>
+      <c r="J87" s="96"/>
+      <c r="K87" s="99"/>
+      <c r="L87" s="101"/>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A88" s="155"/>
-      <c r="B88" s="62" t="s">
+      <c r="A88" s="142"/>
+      <c r="B88" s="58" t="s">
         <v>28</v>
       </c>
-      <c r="C88" s="66">
+      <c r="C88" s="62">
         <v>44850</v>
       </c>
-      <c r="D88" s="66"/>
-      <c r="E88" s="66">
+      <c r="D88" s="62"/>
+      <c r="E88" s="62">
         <v>44850</v>
       </c>
-      <c r="F88" s="67" t="s">
+      <c r="F88" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="G88" s="62" t="s">
+      <c r="G88" s="58" t="s">
         <v>40</v>
       </c>
-      <c r="H88" s="62" t="s">
+      <c r="H88" s="58" t="s">
         <v>41</v>
       </c>
-      <c r="I88" s="115"/>
-      <c r="J88" s="97"/>
-      <c r="K88" s="100"/>
-      <c r="L88" s="102"/>
+      <c r="I88" s="109"/>
+      <c r="J88" s="96"/>
+      <c r="K88" s="99"/>
+      <c r="L88" s="101"/>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A89" s="155"/>
-      <c r="B89" s="23" t="s">
+      <c r="A89" s="142"/>
+      <c r="B89" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="C89" s="9">
+      <c r="C89" s="8">
         <v>44857</v>
       </c>
-      <c r="D89" s="35">
+      <c r="D89" s="31">
         <v>44871</v>
       </c>
-      <c r="E89" s="35">
+      <c r="E89" s="31">
         <v>44875</v>
       </c>
-      <c r="F89" s="28" t="s">
+      <c r="F89" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="G89" s="23" t="s">
+      <c r="G89" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="H89" s="23" t="s">
+      <c r="H89" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="I89" s="116"/>
-      <c r="J89" s="98"/>
-      <c r="K89" s="101"/>
-      <c r="L89" s="102"/>
+      <c r="I89" s="110"/>
+      <c r="J89" s="97"/>
+      <c r="K89" s="100"/>
+      <c r="L89" s="101"/>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A90" s="105">
         <v>33</v>
       </c>
-      <c r="B90" s="54" t="s">
+      <c r="B90" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="C90" s="76">
+      <c r="C90" s="72">
         <v>44806</v>
       </c>
-      <c r="D90" s="76"/>
-      <c r="E90" s="76">
+      <c r="D90" s="72"/>
+      <c r="E90" s="72">
         <v>44815</v>
       </c>
-      <c r="F90" s="77" t="s">
+      <c r="F90" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="G90" s="78" t="s">
+      <c r="G90" s="74" t="s">
         <v>2</v>
       </c>
-      <c r="H90" s="78" t="s">
+      <c r="H90" s="74" t="s">
         <v>5</v>
       </c>
-      <c r="I90" s="114" t="s">
+      <c r="I90" s="108" t="s">
         <v>0</v>
       </c>
-      <c r="J90" s="108">
+      <c r="J90" s="111">
         <v>62</v>
       </c>
-      <c r="K90" s="111">
+      <c r="K90" s="114">
         <v>4</v>
       </c>
-      <c r="L90" s="104"/>
+      <c r="L90" s="93"/>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A91" s="106"/>
-      <c r="B91" s="54" t="s">
+      <c r="B91" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="C91" s="71">
+      <c r="C91" s="67">
         <v>44824</v>
       </c>
-      <c r="D91" s="71"/>
-      <c r="E91" s="79">
+      <c r="D91" s="67"/>
+      <c r="E91" s="75">
         <v>44832</v>
       </c>
-      <c r="F91" s="72" t="s">
+      <c r="F91" s="68" t="s">
         <v>15</v>
       </c>
-      <c r="G91" s="70" t="s">
+      <c r="G91" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="H91" s="70" t="s">
+      <c r="H91" s="66" t="s">
         <v>16</v>
       </c>
-      <c r="I91" s="115"/>
-      <c r="J91" s="109"/>
-      <c r="K91" s="112"/>
-      <c r="L91" s="104"/>
+      <c r="I91" s="109"/>
+      <c r="J91" s="112"/>
+      <c r="K91" s="115"/>
+      <c r="L91" s="93"/>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A92" s="107"/>
-      <c r="B92" s="22" t="s">
+      <c r="B92" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="C92" s="7">
+      <c r="C92" s="6">
         <v>44857</v>
       </c>
-      <c r="D92" s="7">
+      <c r="D92" s="6">
         <v>44871</v>
       </c>
-      <c r="E92" s="7">
+      <c r="E92" s="6">
         <v>44875</v>
       </c>
-      <c r="F92" s="27" t="s">
+      <c r="F92" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="G92" s="25" t="s">
+      <c r="G92" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="H92" s="25" t="s">
+      <c r="H92" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="I92" s="116"/>
-      <c r="J92" s="110"/>
-      <c r="K92" s="113"/>
-      <c r="L92" s="104"/>
+      <c r="I92" s="110"/>
+      <c r="J92" s="113"/>
+      <c r="K92" s="116"/>
+      <c r="L92" s="93"/>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A93" s="120">
+      <c r="A93" s="152">
         <v>34</v>
       </c>
-      <c r="B93" s="59" t="s">
+      <c r="B93" s="55" t="s">
         <v>27</v>
       </c>
-      <c r="C93" s="60">
+      <c r="C93" s="56">
         <v>44807</v>
       </c>
-      <c r="D93" s="60"/>
-      <c r="E93" s="60">
+      <c r="D93" s="56"/>
+      <c r="E93" s="56">
         <v>44808</v>
       </c>
-      <c r="F93" s="61" t="s">
+      <c r="F93" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="G93" s="59" t="s">
+      <c r="G93" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="H93" s="59" t="s">
+      <c r="H93" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="I93" s="123" t="s">
+      <c r="I93" s="117" t="s">
         <v>4</v>
       </c>
-      <c r="J93" s="96">
+      <c r="J93" s="95">
         <v>58</v>
       </c>
-      <c r="K93" s="99">
+      <c r="K93" s="98">
         <v>3</v>
       </c>
-      <c r="L93" s="158" t="s">
+      <c r="L93" s="151" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A94" s="121"/>
-      <c r="B94" s="59" t="s">
+      <c r="A94" s="153"/>
+      <c r="B94" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="C94" s="66">
+      <c r="C94" s="62">
         <v>44829</v>
       </c>
-      <c r="D94" s="66">
+      <c r="D94" s="62">
         <f>C94+7</f>
         <v>44836</v>
       </c>
-      <c r="E94" s="66">
+      <c r="E94" s="62">
         <f>D94+3</f>
         <v>44839</v>
       </c>
-      <c r="F94" s="67" t="s">
+      <c r="F94" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="G94" s="62" t="s">
+      <c r="G94" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="H94" s="62" t="s">
+      <c r="H94" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="I94" s="124"/>
-      <c r="J94" s="97"/>
-      <c r="K94" s="100"/>
-      <c r="L94" s="158"/>
+      <c r="I94" s="118"/>
+      <c r="J94" s="96"/>
+      <c r="K94" s="99"/>
+      <c r="L94" s="151"/>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A95" s="122"/>
-      <c r="B95" s="23" t="s">
+      <c r="A95" s="154"/>
+      <c r="B95" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="C95" s="9">
+      <c r="C95" s="8">
         <v>44843</v>
       </c>
-      <c r="D95" s="9"/>
-      <c r="E95" s="9">
+      <c r="D95" s="8"/>
+      <c r="E95" s="8">
         <v>44843</v>
       </c>
-      <c r="F95" s="28" t="s">
+      <c r="F95" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="G95" s="23" t="s">
+      <c r="G95" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="H95" s="23" t="s">
+      <c r="H95" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="I95" s="125"/>
-      <c r="J95" s="98"/>
-      <c r="K95" s="101"/>
-      <c r="L95" s="158"/>
+      <c r="I95" s="119"/>
+      <c r="J95" s="97"/>
+      <c r="K95" s="100"/>
+      <c r="L95" s="151"/>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A96" s="131">
+      <c r="A96" s="139">
         <v>35</v>
       </c>
-      <c r="B96" s="54" t="s">
+      <c r="B96" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="C96" s="68">
+      <c r="C96" s="64">
         <v>44807</v>
       </c>
-      <c r="D96" s="68"/>
-      <c r="E96" s="68">
+      <c r="D96" s="64"/>
+      <c r="E96" s="64">
         <v>44808</v>
       </c>
-      <c r="F96" s="69" t="s">
+      <c r="F96" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="G96" s="70" t="s">
+      <c r="G96" s="66" t="s">
         <v>9</v>
       </c>
-      <c r="H96" s="70" t="s">
+      <c r="H96" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="I96" s="123" t="s">
+      <c r="I96" s="117" t="s">
         <v>4</v>
       </c>
-      <c r="J96" s="108">
+      <c r="J96" s="111">
         <v>40</v>
       </c>
-      <c r="K96" s="111">
+      <c r="K96" s="114">
         <v>2</v>
       </c>
-      <c r="L96" s="104"/>
+      <c r="L96" s="93"/>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A97" s="132"/>
-      <c r="B97" s="54" t="s">
+      <c r="A97" s="140"/>
+      <c r="B97" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="C97" s="71">
+      <c r="C97" s="67">
         <v>44843</v>
       </c>
-      <c r="D97" s="71"/>
-      <c r="E97" s="71">
+      <c r="D97" s="67"/>
+      <c r="E97" s="67">
         <v>44843</v>
       </c>
-      <c r="F97" s="72" t="s">
+      <c r="F97" s="68" t="s">
         <v>10</v>
       </c>
-      <c r="G97" s="70" t="s">
+      <c r="G97" s="66" t="s">
         <v>9</v>
       </c>
-      <c r="H97" s="70" t="s">
+      <c r="H97" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="I97" s="124"/>
-      <c r="J97" s="109"/>
-      <c r="K97" s="112"/>
-      <c r="L97" s="104"/>
+      <c r="I97" s="118"/>
+      <c r="J97" s="112"/>
+      <c r="K97" s="115"/>
+      <c r="L97" s="93"/>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A98" s="133"/>
-      <c r="B98" s="22" t="s">
+      <c r="A98" s="141"/>
+      <c r="B98" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="C98" s="19">
+      <c r="C98" s="17">
         <v>44863</v>
       </c>
-      <c r="D98" s="19"/>
-      <c r="E98" s="19">
+      <c r="D98" s="17"/>
+      <c r="E98" s="17">
         <v>44864</v>
       </c>
-      <c r="F98" s="39" t="s">
+      <c r="F98" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="G98" s="40" t="s">
+      <c r="G98" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="H98" s="22" t="s">
+      <c r="H98" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="I98" s="125"/>
-      <c r="J98" s="110"/>
-      <c r="K98" s="113"/>
-      <c r="L98" s="104"/>
+      <c r="I98" s="119"/>
+      <c r="J98" s="113"/>
+      <c r="K98" s="116"/>
+      <c r="L98" s="93"/>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A99" s="142">
+      <c r="A99" s="132">
         <v>36</v>
       </c>
-      <c r="B99" s="59" t="s">
+      <c r="B99" s="55" t="s">
         <v>27</v>
       </c>
-      <c r="C99" s="66">
+      <c r="C99" s="62">
         <v>44808</v>
       </c>
-      <c r="D99" s="66">
+      <c r="D99" s="62">
         <f>C99+7</f>
         <v>44815</v>
       </c>
-      <c r="E99" s="75">
+      <c r="E99" s="71">
         <v>44818</v>
       </c>
-      <c r="F99" s="67" t="s">
+      <c r="F99" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="G99" s="62" t="s">
+      <c r="G99" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="H99" s="62" t="s">
+      <c r="H99" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="I99" s="114" t="s">
+      <c r="I99" s="108" t="s">
         <v>0</v>
       </c>
-      <c r="J99" s="96">
+      <c r="J99" s="95">
         <v>152</v>
       </c>
-      <c r="K99" s="99">
+      <c r="K99" s="98">
         <v>8</v>
       </c>
-      <c r="L99" s="103"/>
+      <c r="L99" s="149"/>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A100" s="156"/>
-      <c r="B100" s="62" t="s">
+      <c r="A100" s="150"/>
+      <c r="B100" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="C100" s="66">
+      <c r="C100" s="62">
         <v>44840</v>
       </c>
-      <c r="D100" s="66"/>
-      <c r="E100" s="66">
+      <c r="D100" s="62"/>
+      <c r="E100" s="62">
         <v>44843</v>
       </c>
-      <c r="F100" s="67" t="s">
+      <c r="F100" s="63" t="s">
         <v>3</v>
       </c>
-      <c r="G100" s="62" t="s">
+      <c r="G100" s="58" t="s">
         <v>39</v>
       </c>
-      <c r="H100" s="62" t="s">
+      <c r="H100" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="I100" s="115"/>
-      <c r="J100" s="97"/>
-      <c r="K100" s="100"/>
-      <c r="L100" s="103"/>
+      <c r="I100" s="109"/>
+      <c r="J100" s="96"/>
+      <c r="K100" s="99"/>
+      <c r="L100" s="149"/>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A101" s="143"/>
-      <c r="B101" s="23" t="s">
+      <c r="A101" s="133"/>
+      <c r="B101" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="C101" s="9">
+      <c r="C101" s="8">
         <v>44847</v>
       </c>
-      <c r="D101" s="9"/>
-      <c r="E101" s="9">
+      <c r="D101" s="8"/>
+      <c r="E101" s="8">
         <v>44850</v>
       </c>
-      <c r="F101" s="28" t="s">
+      <c r="F101" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="G101" s="23" t="s">
+      <c r="G101" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="H101" s="23" t="s">
+      <c r="H101" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="I101" s="116"/>
-      <c r="J101" s="98"/>
-      <c r="K101" s="101"/>
-      <c r="L101" s="103"/>
+      <c r="I101" s="110"/>
+      <c r="J101" s="97"/>
+      <c r="K101" s="100"/>
+      <c r="L101" s="149"/>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A102" s="105">
         <v>37</v>
       </c>
-      <c r="B102" s="54" t="s">
+      <c r="B102" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="C102" s="76">
+      <c r="C102" s="72">
         <v>44822</v>
       </c>
-      <c r="D102" s="76"/>
-      <c r="E102" s="76">
+      <c r="D102" s="72"/>
+      <c r="E102" s="72">
         <v>44822</v>
       </c>
-      <c r="F102" s="77" t="s">
+      <c r="F102" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="G102" s="78" t="s">
+      <c r="G102" s="74" t="s">
         <v>12</v>
       </c>
-      <c r="H102" s="78" t="s">
+      <c r="H102" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="I102" s="114" t="s">
+      <c r="I102" s="108" t="s">
         <v>0</v>
       </c>
-      <c r="J102" s="108">
+      <c r="J102" s="111">
         <v>55</v>
       </c>
-      <c r="K102" s="111">
+      <c r="K102" s="114">
         <v>3</v>
       </c>
-      <c r="L102" s="104"/>
+      <c r="L102" s="93"/>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A103" s="106"/>
-      <c r="B103" s="54" t="s">
+      <c r="B103" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="C103" s="76">
+      <c r="C103" s="72">
         <v>44847</v>
       </c>
-      <c r="D103" s="76"/>
-      <c r="E103" s="76">
+      <c r="D103" s="72"/>
+      <c r="E103" s="72">
         <v>44850</v>
       </c>
-      <c r="F103" s="77" t="s">
+      <c r="F103" s="73" t="s">
         <v>3</v>
       </c>
-      <c r="G103" s="78" t="s">
+      <c r="G103" s="74" t="s">
         <v>40</v>
       </c>
-      <c r="H103" s="78" t="s">
+      <c r="H103" s="74" t="s">
         <v>41</v>
       </c>
-      <c r="I103" s="115"/>
-      <c r="J103" s="109"/>
-      <c r="K103" s="112"/>
-      <c r="L103" s="104"/>
+      <c r="I103" s="109"/>
+      <c r="J103" s="112"/>
+      <c r="K103" s="115"/>
+      <c r="L103" s="93"/>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A104" s="107"/>
-      <c r="B104" s="22" t="s">
+      <c r="B104" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="C104" s="44">
+      <c r="C104" s="40">
         <v>44857</v>
       </c>
-      <c r="D104" s="7">
+      <c r="D104" s="6">
         <v>44871</v>
       </c>
-      <c r="E104" s="7">
+      <c r="E104" s="6">
         <v>44875</v>
       </c>
-      <c r="F104" s="45" t="s">
+      <c r="F104" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="G104" s="46" t="s">
+      <c r="G104" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="H104" s="46" t="s">
+      <c r="H104" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="I104" s="116"/>
-      <c r="J104" s="110"/>
-      <c r="K104" s="113"/>
-      <c r="L104" s="104"/>
+      <c r="I104" s="110"/>
+      <c r="J104" s="113"/>
+      <c r="K104" s="116"/>
+      <c r="L104" s="93"/>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A105" s="117">
+      <c r="A105" s="102">
         <v>38</v>
       </c>
-      <c r="B105" s="59" t="s">
+      <c r="B105" s="55" t="s">
         <v>27</v>
       </c>
-      <c r="C105" s="60">
+      <c r="C105" s="56">
         <v>44815</v>
       </c>
-      <c r="D105" s="60"/>
-      <c r="E105" s="60">
+      <c r="D105" s="56"/>
+      <c r="E105" s="56">
         <v>44818</v>
       </c>
-      <c r="F105" s="61" t="s">
+      <c r="F105" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="G105" s="59" t="s">
+      <c r="G105" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="H105" s="59" t="s">
+      <c r="H105" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="I105" s="134" t="s">
+      <c r="I105" s="94" t="s">
         <v>0</v>
       </c>
-      <c r="J105" s="96">
+      <c r="J105" s="95">
         <v>61</v>
       </c>
-      <c r="K105" s="99">
+      <c r="K105" s="98">
         <v>3</v>
       </c>
-      <c r="L105" s="102"/>
+      <c r="L105" s="101"/>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A106" s="118"/>
-      <c r="B106" s="59" t="s">
+      <c r="A106" s="103"/>
+      <c r="B106" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="C106" s="66">
+      <c r="C106" s="62">
         <v>44829</v>
       </c>
-      <c r="D106" s="66"/>
-      <c r="E106" s="66">
+      <c r="D106" s="62"/>
+      <c r="E106" s="62">
         <v>44836</v>
       </c>
-      <c r="F106" s="67" t="s">
+      <c r="F106" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="G106" s="62" t="s">
+      <c r="G106" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="H106" s="62" t="s">
+      <c r="H106" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="I106" s="134"/>
-      <c r="J106" s="97"/>
-      <c r="K106" s="100"/>
-      <c r="L106" s="102"/>
+      <c r="I106" s="94"/>
+      <c r="J106" s="96"/>
+      <c r="K106" s="99"/>
+      <c r="L106" s="101"/>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A107" s="118"/>
-      <c r="B107" s="62" t="s">
+      <c r="A107" s="103"/>
+      <c r="B107" s="58" t="s">
         <v>28</v>
       </c>
-      <c r="C107" s="66">
+      <c r="C107" s="62">
         <v>44843</v>
       </c>
-      <c r="D107" s="66"/>
-      <c r="E107" s="66">
+      <c r="D107" s="62"/>
+      <c r="E107" s="62">
         <v>44843</v>
       </c>
-      <c r="F107" s="67" t="s">
+      <c r="F107" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="G107" s="62" t="s">
+      <c r="G107" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="H107" s="62" t="s">
+      <c r="H107" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="I107" s="134"/>
-      <c r="J107" s="97"/>
-      <c r="K107" s="100"/>
-      <c r="L107" s="102"/>
+      <c r="I107" s="94"/>
+      <c r="J107" s="96"/>
+      <c r="K107" s="99"/>
+      <c r="L107" s="101"/>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A108" s="118"/>
-      <c r="B108" s="62" t="s">
+      <c r="A108" s="103"/>
+      <c r="B108" s="58" t="s">
         <v>42</v>
       </c>
-      <c r="C108" s="66">
+      <c r="C108" s="62">
         <v>44847</v>
       </c>
-      <c r="D108" s="66"/>
-      <c r="E108" s="66">
+      <c r="D108" s="62"/>
+      <c r="E108" s="62">
         <v>44850</v>
       </c>
-      <c r="F108" s="67" t="s">
+      <c r="F108" s="63" t="s">
         <v>3</v>
       </c>
-      <c r="G108" s="62" t="s">
+      <c r="G108" s="58" t="s">
         <v>40</v>
       </c>
-      <c r="H108" s="62" t="s">
+      <c r="H108" s="58" t="s">
         <v>41</v>
       </c>
-      <c r="I108" s="134"/>
-      <c r="J108" s="97"/>
-      <c r="K108" s="100"/>
-      <c r="L108" s="102"/>
+      <c r="I108" s="94"/>
+      <c r="J108" s="96"/>
+      <c r="K108" s="99"/>
+      <c r="L108" s="101"/>
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A109" s="119"/>
-      <c r="B109" s="23" t="s">
+      <c r="A109" s="104"/>
+      <c r="B109" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="C109" s="9">
+      <c r="C109" s="8">
         <v>44857</v>
       </c>
-      <c r="D109" s="35">
+      <c r="D109" s="31">
         <v>44871</v>
       </c>
-      <c r="E109" s="35">
+      <c r="E109" s="31">
         <v>44875</v>
       </c>
-      <c r="F109" s="28" t="s">
+      <c r="F109" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="G109" s="23" t="s">
+      <c r="G109" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="H109" s="23" t="s">
+      <c r="H109" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="I109" s="134"/>
-      <c r="J109" s="98"/>
-      <c r="K109" s="101"/>
-      <c r="L109" s="102"/>
+      <c r="I109" s="94"/>
+      <c r="J109" s="97"/>
+      <c r="K109" s="100"/>
+      <c r="L109" s="101"/>
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A110" s="105">
         <v>39</v>
       </c>
-      <c r="B110" s="54" t="s">
+      <c r="B110" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="C110" s="76">
+      <c r="C110" s="72">
         <v>44822</v>
       </c>
-      <c r="D110" s="76"/>
-      <c r="E110" s="76">
+      <c r="D110" s="72"/>
+      <c r="E110" s="72">
         <v>44822</v>
       </c>
-      <c r="F110" s="77" t="s">
+      <c r="F110" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="G110" s="78" t="s">
+      <c r="G110" s="74" t="s">
         <v>12</v>
       </c>
-      <c r="H110" s="78" t="s">
+      <c r="H110" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="I110" s="134" t="s">
+      <c r="I110" s="94" t="s">
         <v>0</v>
       </c>
-      <c r="J110" s="145">
+      <c r="J110" s="136">
         <v>20</v>
       </c>
-      <c r="K110" s="111">
+      <c r="K110" s="114">
         <v>1</v>
       </c>
-      <c r="L110" s="104"/>
+      <c r="L110" s="93"/>
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A111" s="106"/>
-      <c r="B111" s="54" t="s">
+      <c r="B111" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="C111" s="68">
+      <c r="C111" s="64">
         <v>44829</v>
       </c>
-      <c r="D111" s="68"/>
-      <c r="E111" s="68">
+      <c r="D111" s="64"/>
+      <c r="E111" s="64">
         <v>44829</v>
       </c>
-      <c r="F111" s="69" t="s">
+      <c r="F111" s="65" t="s">
         <v>10</v>
       </c>
-      <c r="G111" s="70" t="s">
+      <c r="G111" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="H111" s="70" t="s">
+      <c r="H111" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="I111" s="134"/>
-      <c r="J111" s="146"/>
-      <c r="K111" s="112"/>
-      <c r="L111" s="104"/>
+      <c r="I111" s="94"/>
+      <c r="J111" s="137"/>
+      <c r="K111" s="115"/>
+      <c r="L111" s="93"/>
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A112" s="106"/>
-      <c r="B112" s="58" t="s">
+      <c r="B112" s="54" t="s">
         <v>28</v>
       </c>
-      <c r="C112" s="68">
+      <c r="C112" s="64">
         <v>44847</v>
       </c>
-      <c r="D112" s="68"/>
-      <c r="E112" s="68">
+      <c r="D112" s="64"/>
+      <c r="E112" s="64">
         <v>44850</v>
       </c>
-      <c r="F112" s="69" t="s">
+      <c r="F112" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="G112" s="70" t="s">
+      <c r="G112" s="66" t="s">
         <v>40</v>
       </c>
-      <c r="H112" s="70" t="s">
+      <c r="H112" s="66" t="s">
         <v>41</v>
       </c>
-      <c r="I112" s="134"/>
-      <c r="J112" s="146"/>
-      <c r="K112" s="112"/>
-      <c r="L112" s="104"/>
+      <c r="I112" s="94"/>
+      <c r="J112" s="137"/>
+      <c r="K112" s="115"/>
+      <c r="L112" s="93"/>
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A113" s="107"/>
-      <c r="B113" s="22" t="s">
+      <c r="B113" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="C113" s="44">
+      <c r="C113" s="40">
         <v>44857</v>
       </c>
-      <c r="D113" s="7">
+      <c r="D113" s="6">
         <v>44871</v>
       </c>
-      <c r="E113" s="7">
+      <c r="E113" s="6">
         <v>44875</v>
       </c>
-      <c r="F113" s="45" t="s">
+      <c r="F113" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="G113" s="46" t="s">
+      <c r="G113" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="H113" s="46" t="s">
+      <c r="H113" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="I113" s="134"/>
-      <c r="J113" s="147"/>
-      <c r="K113" s="113"/>
-      <c r="L113" s="104"/>
+      <c r="I113" s="94"/>
+      <c r="J113" s="138"/>
+      <c r="K113" s="116"/>
+      <c r="L113" s="93"/>
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A114" s="117">
+      <c r="A114" s="102">
         <v>40</v>
       </c>
-      <c r="B114" s="59" t="s">
+      <c r="B114" s="55" t="s">
         <v>27</v>
       </c>
-      <c r="C114" s="60">
+      <c r="C114" s="56">
         <v>44822</v>
       </c>
-      <c r="D114" s="60"/>
-      <c r="E114" s="60">
+      <c r="D114" s="56"/>
+      <c r="E114" s="56">
         <v>44822</v>
       </c>
-      <c r="F114" s="61" t="s">
+      <c r="F114" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="G114" s="59" t="s">
+      <c r="G114" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="H114" s="59" t="s">
+      <c r="H114" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="I114" s="134" t="s">
+      <c r="I114" s="94" t="s">
         <v>0</v>
       </c>
-      <c r="J114" s="99">
+      <c r="J114" s="98">
         <v>17</v>
       </c>
-      <c r="K114" s="140">
+      <c r="K114" s="127">
         <v>1</v>
       </c>
-      <c r="L114" s="102"/>
+      <c r="L114" s="101"/>
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A115" s="118"/>
-      <c r="B115" s="59" t="s">
+      <c r="A115" s="103"/>
+      <c r="B115" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="C115" s="66">
+      <c r="C115" s="62">
         <v>44829</v>
       </c>
-      <c r="D115" s="66"/>
-      <c r="E115" s="66">
+      <c r="D115" s="62"/>
+      <c r="E115" s="62">
         <v>44829</v>
       </c>
-      <c r="F115" s="67" t="s">
+      <c r="F115" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="G115" s="62" t="s">
+      <c r="G115" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="H115" s="62" t="s">
+      <c r="H115" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="I115" s="134"/>
-      <c r="J115" s="100"/>
-      <c r="K115" s="144"/>
-      <c r="L115" s="102"/>
+      <c r="I115" s="94"/>
+      <c r="J115" s="99"/>
+      <c r="K115" s="134"/>
+      <c r="L115" s="101"/>
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A116" s="118"/>
-      <c r="B116" s="62" t="s">
+      <c r="A116" s="103"/>
+      <c r="B116" s="58" t="s">
         <v>28</v>
       </c>
-      <c r="C116" s="66">
+      <c r="C116" s="62">
         <v>44847</v>
       </c>
-      <c r="D116" s="66"/>
-      <c r="E116" s="66">
+      <c r="D116" s="62"/>
+      <c r="E116" s="62">
         <v>44850</v>
       </c>
-      <c r="F116" s="67" t="s">
+      <c r="F116" s="63" t="s">
         <v>3</v>
       </c>
-      <c r="G116" s="62" t="s">
+      <c r="G116" s="58" t="s">
         <v>40</v>
       </c>
-      <c r="H116" s="62" t="s">
+      <c r="H116" s="58" t="s">
         <v>41</v>
       </c>
-      <c r="I116" s="134"/>
-      <c r="J116" s="100"/>
-      <c r="K116" s="144"/>
-      <c r="L116" s="102"/>
+      <c r="I116" s="94"/>
+      <c r="J116" s="99"/>
+      <c r="K116" s="134"/>
+      <c r="L116" s="101"/>
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A117" s="119"/>
-      <c r="B117" s="49" t="s">
+      <c r="A117" s="104"/>
+      <c r="B117" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="C117" s="9">
+      <c r="C117" s="8">
         <v>44857</v>
       </c>
-      <c r="D117" s="35">
+      <c r="D117" s="31">
         <v>44871</v>
       </c>
-      <c r="E117" s="35">
+      <c r="E117" s="31">
         <v>44875</v>
       </c>
-      <c r="F117" s="28" t="s">
+      <c r="F117" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="G117" s="23" t="s">
+      <c r="G117" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="H117" s="23" t="s">
+      <c r="H117" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="I117" s="134"/>
-      <c r="J117" s="101"/>
-      <c r="K117" s="141"/>
-      <c r="L117" s="102"/>
+      <c r="I117" s="94"/>
+      <c r="J117" s="100"/>
+      <c r="K117" s="128"/>
+      <c r="L117" s="101"/>
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A118" s="16">
+      <c r="A118" s="15">
         <v>41</v>
       </c>
-      <c r="B118" s="5"/>
-      <c r="C118" s="12"/>
-      <c r="D118" s="12"/>
-      <c r="E118" s="12"/>
-      <c r="F118" s="12"/>
-      <c r="G118" s="12"/>
-      <c r="H118" s="12"/>
-      <c r="I118" s="12"/>
-      <c r="J118" s="12"/>
-      <c r="K118" s="12"/>
-      <c r="L118" s="93"/>
+      <c r="B118" s="4"/>
+      <c r="C118" s="11"/>
+      <c r="D118" s="11"/>
+      <c r="E118" s="11"/>
+      <c r="F118" s="11"/>
+      <c r="G118" s="11"/>
+      <c r="H118" s="11"/>
+      <c r="I118" s="11"/>
+      <c r="J118" s="11"/>
+      <c r="K118" s="11"/>
+      <c r="L118" s="89"/>
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A119" s="135">
         <v>42</v>
       </c>
-      <c r="B119" s="59" t="s">
+      <c r="B119" s="55" t="s">
         <v>27</v>
       </c>
-      <c r="C119" s="66">
+      <c r="C119" s="62">
         <v>44822</v>
       </c>
-      <c r="D119" s="66"/>
-      <c r="E119" s="66">
+      <c r="D119" s="62"/>
+      <c r="E119" s="62">
         <v>44822</v>
       </c>
-      <c r="F119" s="67" t="s">
+      <c r="F119" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="G119" s="62" t="s">
+      <c r="G119" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="H119" s="62" t="s">
+      <c r="H119" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="I119" s="123" t="s">
+      <c r="I119" s="117" t="s">
         <v>4</v>
       </c>
-      <c r="J119" s="96">
+      <c r="J119" s="95">
         <v>41</v>
       </c>
-      <c r="K119" s="99">
+      <c r="K119" s="98">
         <v>3</v>
       </c>
-      <c r="L119" s="102"/>
+      <c r="L119" s="101"/>
     </row>
     <row r="120" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="135"/>
-      <c r="B120" s="62" t="s">
+      <c r="B120" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="C120" s="66">
+      <c r="C120" s="62">
         <v>44839</v>
       </c>
-      <c r="D120" s="66"/>
-      <c r="E120" s="66">
+      <c r="D120" s="62"/>
+      <c r="E120" s="62">
         <v>44839</v>
       </c>
-      <c r="F120" s="67" t="s">
+      <c r="F120" s="63" t="s">
         <v>24</v>
       </c>
-      <c r="G120" s="62" t="s">
+      <c r="G120" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="H120" s="62" t="s">
+      <c r="H120" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="I120" s="124"/>
-      <c r="J120" s="97"/>
-      <c r="K120" s="100"/>
-      <c r="L120" s="102"/>
+      <c r="I120" s="118"/>
+      <c r="J120" s="96"/>
+      <c r="K120" s="99"/>
+      <c r="L120" s="101"/>
     </row>
     <row r="121" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="135"/>
-      <c r="B121" s="23" t="s">
+      <c r="B121" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="C121" s="9">
+      <c r="C121" s="8">
         <v>44863</v>
       </c>
-      <c r="D121" s="9"/>
-      <c r="E121" s="9">
+      <c r="D121" s="8"/>
+      <c r="E121" s="8">
         <v>44864</v>
       </c>
-      <c r="F121" s="28" t="s">
+      <c r="F121" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="G121" s="23" t="s">
+      <c r="G121" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="H121" s="23" t="s">
+      <c r="H121" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="I121" s="125"/>
-      <c r="J121" s="98"/>
-      <c r="K121" s="101"/>
-      <c r="L121" s="102"/>
+      <c r="I121" s="119"/>
+      <c r="J121" s="97"/>
+      <c r="K121" s="100"/>
+      <c r="L121" s="101"/>
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A122" s="105">
         <v>43</v>
       </c>
-      <c r="B122" s="54" t="s">
+      <c r="B122" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="C122" s="68">
+      <c r="C122" s="64">
         <v>44815</v>
       </c>
-      <c r="D122" s="68">
+      <c r="D122" s="64">
         <f t="shared" ref="D122" si="1">C122+7</f>
         <v>44822</v>
       </c>
-      <c r="E122" s="68">
+      <c r="E122" s="64">
         <v>44822</v>
       </c>
-      <c r="F122" s="69" t="s">
+      <c r="F122" s="65" t="s">
         <v>10</v>
       </c>
-      <c r="G122" s="70" t="s">
+      <c r="G122" s="66" t="s">
         <v>9</v>
       </c>
-      <c r="H122" s="70" t="s">
+      <c r="H122" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="I122" s="123" t="s">
+      <c r="I122" s="117" t="s">
         <v>4</v>
       </c>
-      <c r="J122" s="108">
+      <c r="J122" s="111">
         <v>77</v>
       </c>
-      <c r="K122" s="111">
+      <c r="K122" s="114">
         <v>4</v>
       </c>
-      <c r="L122" s="104"/>
+      <c r="L122" s="93"/>
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A123" s="106"/>
-      <c r="B123" s="58" t="s">
+      <c r="B123" s="54" t="s">
         <v>26</v>
       </c>
-      <c r="C123" s="68">
+      <c r="C123" s="64">
         <v>44839</v>
       </c>
-      <c r="D123" s="68"/>
-      <c r="E123" s="68">
+      <c r="D123" s="64"/>
+      <c r="E123" s="64">
         <v>44839</v>
       </c>
-      <c r="F123" s="69" t="s">
+      <c r="F123" s="65" t="s">
         <v>24</v>
       </c>
-      <c r="G123" s="70" t="s">
+      <c r="G123" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="H123" s="70" t="s">
+      <c r="H123" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="I123" s="124"/>
-      <c r="J123" s="109"/>
-      <c r="K123" s="112"/>
-      <c r="L123" s="104"/>
+      <c r="I123" s="118"/>
+      <c r="J123" s="112"/>
+      <c r="K123" s="115"/>
+      <c r="L123" s="93"/>
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A124" s="106"/>
-      <c r="B124" s="58" t="s">
+      <c r="B124" s="54" t="s">
         <v>28</v>
       </c>
-      <c r="C124" s="68">
+      <c r="C124" s="64">
         <v>44848</v>
       </c>
-      <c r="D124" s="68"/>
-      <c r="E124" s="68">
+      <c r="D124" s="64"/>
+      <c r="E124" s="64">
         <v>44850</v>
       </c>
-      <c r="F124" s="69" t="s">
+      <c r="F124" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="G124" s="70" t="s">
+      <c r="G124" s="66" t="s">
         <v>40</v>
       </c>
-      <c r="H124" s="70" t="s">
+      <c r="H124" s="66" t="s">
         <v>41</v>
       </c>
-      <c r="I124" s="124"/>
-      <c r="J124" s="109"/>
-      <c r="K124" s="112"/>
-      <c r="L124" s="104"/>
+      <c r="I124" s="118"/>
+      <c r="J124" s="112"/>
+      <c r="K124" s="115"/>
+      <c r="L124" s="93"/>
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A125" s="107"/>
-      <c r="B125" s="22" t="s">
+      <c r="B125" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="C125" s="19">
+      <c r="C125" s="17">
         <v>44863</v>
       </c>
-      <c r="D125" s="19"/>
-      <c r="E125" s="19">
+      <c r="D125" s="17"/>
+      <c r="E125" s="17">
         <v>44864</v>
       </c>
-      <c r="F125" s="39" t="s">
+      <c r="F125" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="G125" s="40" t="s">
+      <c r="G125" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="H125" s="22" t="s">
+      <c r="H125" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="I125" s="124"/>
-      <c r="J125" s="110"/>
-      <c r="K125" s="113"/>
-      <c r="L125" s="104"/>
+      <c r="I125" s="118"/>
+      <c r="J125" s="113"/>
+      <c r="K125" s="116"/>
+      <c r="L125" s="93"/>
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A126" s="142">
+      <c r="A126" s="132">
         <v>44</v>
       </c>
-      <c r="B126" s="59" t="s">
+      <c r="B126" s="55" t="s">
         <v>27</v>
       </c>
-      <c r="C126" s="66">
+      <c r="C126" s="62">
         <v>44848</v>
       </c>
-      <c r="D126" s="66"/>
-      <c r="E126" s="66">
+      <c r="D126" s="62"/>
+      <c r="E126" s="62">
         <v>44850</v>
       </c>
-      <c r="F126" s="67" t="s">
+      <c r="F126" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="G126" s="62" t="s">
+      <c r="G126" s="58" t="s">
         <v>40</v>
       </c>
-      <c r="H126" s="62" t="s">
+      <c r="H126" s="58" t="s">
         <v>41</v>
       </c>
-      <c r="I126" s="123" t="s">
+      <c r="I126" s="117" t="s">
         <v>4</v>
       </c>
-      <c r="J126" s="96">
+      <c r="J126" s="95">
         <v>39</v>
       </c>
-      <c r="K126" s="99">
+      <c r="K126" s="98">
         <v>3</v>
       </c>
-      <c r="L126" s="102"/>
+      <c r="L126" s="101"/>
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A127" s="143"/>
-      <c r="B127" s="23" t="s">
+      <c r="A127" s="133"/>
+      <c r="B127" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="C127" s="9">
+      <c r="C127" s="8">
         <v>44863</v>
       </c>
-      <c r="D127" s="9"/>
-      <c r="E127" s="9">
+      <c r="D127" s="8"/>
+      <c r="E127" s="8">
         <v>44864</v>
       </c>
-      <c r="F127" s="28" t="s">
+      <c r="F127" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="G127" s="23" t="s">
+      <c r="G127" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="H127" s="23" t="s">
+      <c r="H127" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="I127" s="125"/>
-      <c r="J127" s="98"/>
-      <c r="K127" s="101"/>
-      <c r="L127" s="102"/>
+      <c r="I127" s="119"/>
+      <c r="J127" s="97"/>
+      <c r="K127" s="100"/>
+      <c r="L127" s="101"/>
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A128" s="105">
         <v>45</v>
       </c>
-      <c r="B128" s="54" t="s">
+      <c r="B128" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="C128" s="68">
+      <c r="C128" s="64">
         <v>44829</v>
       </c>
-      <c r="D128" s="68"/>
-      <c r="E128" s="68">
+      <c r="D128" s="64"/>
+      <c r="E128" s="64">
         <v>44829</v>
       </c>
-      <c r="F128" s="69" t="s">
+      <c r="F128" s="65" t="s">
         <v>10</v>
       </c>
-      <c r="G128" s="70" t="s">
+      <c r="G128" s="66" t="s">
         <v>9</v>
       </c>
-      <c r="H128" s="70" t="s">
+      <c r="H128" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="I128" s="114" t="s">
+      <c r="I128" s="108" t="s">
         <v>0</v>
       </c>
-      <c r="J128" s="108">
+      <c r="J128" s="111">
         <v>53</v>
       </c>
-      <c r="K128" s="111">
+      <c r="K128" s="114">
         <v>3</v>
       </c>
-      <c r="L128" s="104"/>
+      <c r="L128" s="93"/>
     </row>
     <row r="129" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A129" s="126"/>
-      <c r="B129" s="41" t="s">
+      <c r="A129" s="144"/>
+      <c r="B129" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="C129" s="17">
+      <c r="C129" s="16">
         <v>44848</v>
       </c>
-      <c r="D129" s="17"/>
-      <c r="E129" s="17">
+      <c r="D129" s="16"/>
+      <c r="E129" s="16">
         <v>44829</v>
       </c>
-      <c r="F129" s="42" t="s">
+      <c r="F129" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="G129" s="43" t="s">
+      <c r="G129" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="H129" s="43" t="s">
+      <c r="H129" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="I129" s="127"/>
-      <c r="J129" s="128"/>
-      <c r="K129" s="129"/>
-      <c r="L129" s="130"/>
+      <c r="I129" s="145"/>
+      <c r="J129" s="146"/>
+      <c r="K129" s="147"/>
+      <c r="L129" s="148"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:L129"/>
   <mergeCells count="195">
+    <mergeCell ref="J44:J46"/>
+    <mergeCell ref="K44:K46"/>
+    <mergeCell ref="L44:L46"/>
+    <mergeCell ref="L93:L95"/>
+    <mergeCell ref="L59:L61"/>
+    <mergeCell ref="L81:L85"/>
+    <mergeCell ref="A59:A61"/>
+    <mergeCell ref="J59:J61"/>
+    <mergeCell ref="K59:K61"/>
+    <mergeCell ref="I86:I89"/>
+    <mergeCell ref="A44:A46"/>
+    <mergeCell ref="I44:I46"/>
+    <mergeCell ref="A90:A92"/>
+    <mergeCell ref="I90:I92"/>
+    <mergeCell ref="J90:J92"/>
+    <mergeCell ref="K90:K92"/>
+    <mergeCell ref="L90:L92"/>
+    <mergeCell ref="A93:A95"/>
+    <mergeCell ref="I93:I95"/>
+    <mergeCell ref="L53:L55"/>
+    <mergeCell ref="J47:J49"/>
+    <mergeCell ref="K47:K49"/>
+    <mergeCell ref="L47:L49"/>
+    <mergeCell ref="J50:J52"/>
+    <mergeCell ref="L50:L52"/>
+    <mergeCell ref="K86:K89"/>
+    <mergeCell ref="L86:L89"/>
+    <mergeCell ref="A128:A129"/>
+    <mergeCell ref="I128:I129"/>
+    <mergeCell ref="J128:J129"/>
+    <mergeCell ref="K128:K129"/>
+    <mergeCell ref="L128:L129"/>
+    <mergeCell ref="L75:L77"/>
+    <mergeCell ref="L78:L79"/>
+    <mergeCell ref="I75:I77"/>
+    <mergeCell ref="L99:L101"/>
+    <mergeCell ref="J99:J101"/>
+    <mergeCell ref="K99:K101"/>
+    <mergeCell ref="J93:J95"/>
+    <mergeCell ref="K93:K95"/>
+    <mergeCell ref="A75:A77"/>
+    <mergeCell ref="A99:A101"/>
+    <mergeCell ref="I99:I101"/>
+    <mergeCell ref="I78:I80"/>
+    <mergeCell ref="A81:A85"/>
+    <mergeCell ref="I81:I85"/>
+    <mergeCell ref="J81:J85"/>
+    <mergeCell ref="K81:K85"/>
+    <mergeCell ref="A86:A89"/>
+    <mergeCell ref="K75:K77"/>
+    <mergeCell ref="J86:J89"/>
+    <mergeCell ref="A13:A16"/>
+    <mergeCell ref="I13:I16"/>
+    <mergeCell ref="J13:J16"/>
+    <mergeCell ref="K13:K16"/>
+    <mergeCell ref="L13:L16"/>
+    <mergeCell ref="I59:I61"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="J63:J64"/>
+    <mergeCell ref="K63:K64"/>
+    <mergeCell ref="L63:L64"/>
+    <mergeCell ref="I63:I64"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="I34:I35"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="I41:I42"/>
+    <mergeCell ref="J41:J42"/>
+    <mergeCell ref="I56:I58"/>
+    <mergeCell ref="A56:A58"/>
+    <mergeCell ref="A53:A55"/>
+    <mergeCell ref="I53:I55"/>
+    <mergeCell ref="A47:A49"/>
+    <mergeCell ref="I47:I49"/>
+    <mergeCell ref="A50:A52"/>
+    <mergeCell ref="I50:I52"/>
+    <mergeCell ref="J34:J35"/>
+    <mergeCell ref="K34:K35"/>
+    <mergeCell ref="L34:L35"/>
+    <mergeCell ref="J75:J77"/>
+    <mergeCell ref="A78:A79"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="I36:I37"/>
+    <mergeCell ref="J36:J37"/>
+    <mergeCell ref="K36:K37"/>
+    <mergeCell ref="L36:L37"/>
+    <mergeCell ref="A38:A40"/>
+    <mergeCell ref="I38:I40"/>
+    <mergeCell ref="J38:J40"/>
+    <mergeCell ref="K38:K40"/>
+    <mergeCell ref="L38:L40"/>
+    <mergeCell ref="I65:I67"/>
+    <mergeCell ref="K41:K42"/>
+    <mergeCell ref="L41:L42"/>
+    <mergeCell ref="J56:J58"/>
+    <mergeCell ref="K50:K52"/>
+    <mergeCell ref="K56:K58"/>
+    <mergeCell ref="L56:L58"/>
+    <mergeCell ref="J53:J55"/>
+    <mergeCell ref="K53:K55"/>
+    <mergeCell ref="A122:A125"/>
+    <mergeCell ref="I122:I125"/>
+    <mergeCell ref="J122:J125"/>
+    <mergeCell ref="K122:K125"/>
+    <mergeCell ref="L122:L125"/>
+    <mergeCell ref="K78:K80"/>
+    <mergeCell ref="A102:A104"/>
+    <mergeCell ref="I102:I104"/>
+    <mergeCell ref="J102:J104"/>
+    <mergeCell ref="K102:K104"/>
+    <mergeCell ref="L102:L104"/>
+    <mergeCell ref="A110:A113"/>
+    <mergeCell ref="I110:I113"/>
+    <mergeCell ref="J110:J113"/>
+    <mergeCell ref="A96:A98"/>
+    <mergeCell ref="I96:I98"/>
+    <mergeCell ref="J96:J98"/>
+    <mergeCell ref="K96:K98"/>
+    <mergeCell ref="L96:L98"/>
+    <mergeCell ref="K110:K113"/>
+    <mergeCell ref="A126:A127"/>
+    <mergeCell ref="I126:I127"/>
+    <mergeCell ref="J126:J127"/>
+    <mergeCell ref="K126:K127"/>
+    <mergeCell ref="L126:L127"/>
+    <mergeCell ref="A114:A117"/>
+    <mergeCell ref="I114:I117"/>
+    <mergeCell ref="J114:J117"/>
+    <mergeCell ref="K114:K117"/>
+    <mergeCell ref="L114:L117"/>
+    <mergeCell ref="A119:A121"/>
+    <mergeCell ref="I119:I121"/>
+    <mergeCell ref="J119:J121"/>
+    <mergeCell ref="K119:K121"/>
+    <mergeCell ref="L119:L121"/>
+    <mergeCell ref="I24:I26"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="J17:J18"/>
+    <mergeCell ref="K17:K18"/>
+    <mergeCell ref="L17:L18"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="I20:I21"/>
+    <mergeCell ref="J20:J21"/>
+    <mergeCell ref="K20:K21"/>
+    <mergeCell ref="L20:L21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="K31:K33"/>
+    <mergeCell ref="L31:L33"/>
+    <mergeCell ref="A31:A33"/>
+    <mergeCell ref="A65:A67"/>
+    <mergeCell ref="J65:J67"/>
+    <mergeCell ref="K65:K67"/>
+    <mergeCell ref="L65:L67"/>
+    <mergeCell ref="I2:I6"/>
+    <mergeCell ref="J2:J6"/>
+    <mergeCell ref="K2:K6"/>
+    <mergeCell ref="L2:L6"/>
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="I7:I11"/>
+    <mergeCell ref="A7:A11"/>
+    <mergeCell ref="J7:J11"/>
+    <mergeCell ref="K7:K11"/>
+    <mergeCell ref="L7:L11"/>
+    <mergeCell ref="J22:J23"/>
+    <mergeCell ref="K22:K23"/>
+    <mergeCell ref="L22:L23"/>
+    <mergeCell ref="A24:A26"/>
+    <mergeCell ref="J24:J26"/>
+    <mergeCell ref="K24:K26"/>
+    <mergeCell ref="L24:L26"/>
     <mergeCell ref="L110:L113"/>
     <mergeCell ref="I105:I109"/>
     <mergeCell ref="J105:J109"/>
@@ -5377,177 +5543,6 @@
     <mergeCell ref="L68:L71"/>
     <mergeCell ref="I31:I33"/>
     <mergeCell ref="J31:J33"/>
-    <mergeCell ref="K31:K33"/>
-    <mergeCell ref="L31:L33"/>
-    <mergeCell ref="A31:A33"/>
-    <mergeCell ref="A65:A67"/>
-    <mergeCell ref="J65:J67"/>
-    <mergeCell ref="K65:K67"/>
-    <mergeCell ref="L65:L67"/>
-    <mergeCell ref="I2:I6"/>
-    <mergeCell ref="J2:J6"/>
-    <mergeCell ref="K2:K6"/>
-    <mergeCell ref="L2:L6"/>
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="I7:I11"/>
-    <mergeCell ref="A7:A11"/>
-    <mergeCell ref="J7:J11"/>
-    <mergeCell ref="K7:K11"/>
-    <mergeCell ref="L7:L11"/>
-    <mergeCell ref="J22:J23"/>
-    <mergeCell ref="K22:K23"/>
-    <mergeCell ref="L22:L23"/>
-    <mergeCell ref="A24:A26"/>
-    <mergeCell ref="J24:J26"/>
-    <mergeCell ref="K24:K26"/>
-    <mergeCell ref="L24:L26"/>
-    <mergeCell ref="I24:I26"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="J17:J18"/>
-    <mergeCell ref="K17:K18"/>
-    <mergeCell ref="L17:L18"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="I20:I21"/>
-    <mergeCell ref="J20:J21"/>
-    <mergeCell ref="K20:K21"/>
-    <mergeCell ref="L20:L21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="I22:I23"/>
-    <mergeCell ref="A126:A127"/>
-    <mergeCell ref="I126:I127"/>
-    <mergeCell ref="J126:J127"/>
-    <mergeCell ref="K126:K127"/>
-    <mergeCell ref="L126:L127"/>
-    <mergeCell ref="A114:A117"/>
-    <mergeCell ref="I114:I117"/>
-    <mergeCell ref="J114:J117"/>
-    <mergeCell ref="K114:K117"/>
-    <mergeCell ref="L114:L117"/>
-    <mergeCell ref="A119:A121"/>
-    <mergeCell ref="I119:I121"/>
-    <mergeCell ref="J119:J121"/>
-    <mergeCell ref="K119:K121"/>
-    <mergeCell ref="L119:L121"/>
-    <mergeCell ref="K56:K58"/>
-    <mergeCell ref="L56:L58"/>
-    <mergeCell ref="J53:J55"/>
-    <mergeCell ref="K53:K55"/>
-    <mergeCell ref="A122:A125"/>
-    <mergeCell ref="I122:I125"/>
-    <mergeCell ref="J122:J125"/>
-    <mergeCell ref="K122:K125"/>
-    <mergeCell ref="L122:L125"/>
-    <mergeCell ref="K78:K80"/>
-    <mergeCell ref="A102:A104"/>
-    <mergeCell ref="I102:I104"/>
-    <mergeCell ref="J102:J104"/>
-    <mergeCell ref="K102:K104"/>
-    <mergeCell ref="L102:L104"/>
-    <mergeCell ref="A110:A113"/>
-    <mergeCell ref="I110:I113"/>
-    <mergeCell ref="J110:J113"/>
-    <mergeCell ref="A96:A98"/>
-    <mergeCell ref="I96:I98"/>
-    <mergeCell ref="J96:J98"/>
-    <mergeCell ref="K96:K98"/>
-    <mergeCell ref="L96:L98"/>
-    <mergeCell ref="K110:K113"/>
-    <mergeCell ref="A47:A49"/>
-    <mergeCell ref="I47:I49"/>
-    <mergeCell ref="A50:A52"/>
-    <mergeCell ref="I50:I52"/>
-    <mergeCell ref="J34:J35"/>
-    <mergeCell ref="K34:K35"/>
-    <mergeCell ref="L34:L35"/>
-    <mergeCell ref="J75:J77"/>
-    <mergeCell ref="A78:A79"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="I36:I37"/>
-    <mergeCell ref="J36:J37"/>
-    <mergeCell ref="K36:K37"/>
-    <mergeCell ref="L36:L37"/>
-    <mergeCell ref="A38:A40"/>
-    <mergeCell ref="I38:I40"/>
-    <mergeCell ref="J38:J40"/>
-    <mergeCell ref="K38:K40"/>
-    <mergeCell ref="L38:L40"/>
-    <mergeCell ref="I65:I67"/>
-    <mergeCell ref="K41:K42"/>
-    <mergeCell ref="L41:L42"/>
-    <mergeCell ref="J56:J58"/>
-    <mergeCell ref="K81:K85"/>
-    <mergeCell ref="A86:A89"/>
-    <mergeCell ref="K75:K77"/>
-    <mergeCell ref="J86:J89"/>
-    <mergeCell ref="A13:A16"/>
-    <mergeCell ref="I13:I16"/>
-    <mergeCell ref="J13:J16"/>
-    <mergeCell ref="K13:K16"/>
-    <mergeCell ref="L13:L16"/>
-    <mergeCell ref="I59:I61"/>
-    <mergeCell ref="A63:A64"/>
-    <mergeCell ref="J63:J64"/>
-    <mergeCell ref="K63:K64"/>
-    <mergeCell ref="L63:L64"/>
-    <mergeCell ref="I63:I64"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="I34:I35"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="I41:I42"/>
-    <mergeCell ref="J41:J42"/>
-    <mergeCell ref="I56:I58"/>
-    <mergeCell ref="A56:A58"/>
-    <mergeCell ref="A53:A55"/>
-    <mergeCell ref="I53:I55"/>
-    <mergeCell ref="K50:K52"/>
-    <mergeCell ref="L50:L52"/>
-    <mergeCell ref="K86:K89"/>
-    <mergeCell ref="L86:L89"/>
-    <mergeCell ref="A128:A129"/>
-    <mergeCell ref="I128:I129"/>
-    <mergeCell ref="J128:J129"/>
-    <mergeCell ref="K128:K129"/>
-    <mergeCell ref="L128:L129"/>
-    <mergeCell ref="L75:L77"/>
-    <mergeCell ref="L78:L79"/>
-    <mergeCell ref="I75:I77"/>
-    <mergeCell ref="L99:L101"/>
-    <mergeCell ref="J99:J101"/>
-    <mergeCell ref="K99:K101"/>
-    <mergeCell ref="J93:J95"/>
-    <mergeCell ref="K93:K95"/>
-    <mergeCell ref="A75:A77"/>
-    <mergeCell ref="A99:A101"/>
-    <mergeCell ref="I99:I101"/>
-    <mergeCell ref="I78:I80"/>
-    <mergeCell ref="A81:A85"/>
-    <mergeCell ref="I81:I85"/>
-    <mergeCell ref="J81:J85"/>
-    <mergeCell ref="J44:J46"/>
-    <mergeCell ref="K44:K46"/>
-    <mergeCell ref="L44:L46"/>
-    <mergeCell ref="L93:L95"/>
-    <mergeCell ref="L59:L61"/>
-    <mergeCell ref="L81:L85"/>
-    <mergeCell ref="A59:A61"/>
-    <mergeCell ref="J59:J61"/>
-    <mergeCell ref="K59:K61"/>
-    <mergeCell ref="I86:I89"/>
-    <mergeCell ref="A44:A46"/>
-    <mergeCell ref="I44:I46"/>
-    <mergeCell ref="A90:A92"/>
-    <mergeCell ref="I90:I92"/>
-    <mergeCell ref="J90:J92"/>
-    <mergeCell ref="K90:K92"/>
-    <mergeCell ref="L90:L92"/>
-    <mergeCell ref="A93:A95"/>
-    <mergeCell ref="I93:I95"/>
-    <mergeCell ref="L53:L55"/>
-    <mergeCell ref="J47:J49"/>
-    <mergeCell ref="K47:K49"/>
-    <mergeCell ref="L47:L49"/>
-    <mergeCell ref="J50:J52"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0" right="0" top="1.1811023622047244E-2" bottom="0.11811023622047245" header="0" footer="0"/>

--- a/sheet/CONTROLE_DE_TERRITORIO_2022.xlsx
+++ b/sheet/CONTROLE_DE_TERRITORIO_2022.xlsx
@@ -15,8 +15,8 @@
     <sheet name="NOVA" sheetId="3" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">NOVA!$A$1:$L$129</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">NOVA!$A$1:$K$129</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">NOVA!$A$1:$L$133</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">NOVA!$A$1:$K$133</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="47">
   <si>
     <t>OK</t>
   </si>
@@ -167,6 +167,9 @@
   <si>
     <t>5º</t>
   </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
 </sst>
 </file>
 
@@ -175,7 +178,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-416]dddd"/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -317,6 +320,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="2" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="9">
     <fill>
@@ -365,7 +375,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="35">
+  <borders count="42">
     <border>
       <left/>
       <right/>
@@ -789,6 +799,83 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -798,7 +885,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="156">
+  <cellXfs count="180">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1076,85 +1163,175 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="31" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="31" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="4" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="8" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="5" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="20" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="31" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="4" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="8" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="5" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="29" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1178,91 +1355,73 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="20" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="31" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="31" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="35" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="36" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="37" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="3" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="19" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="19" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="41" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="24" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="25" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1553,10 +1712,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L129"/>
+  <dimension ref="A1:L133"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="99" zoomScaleNormal="100" zoomScalePageLayoutView="45" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="G90" sqref="G90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1617,7 +1776,7 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="124">
+      <c r="A2" s="154">
         <v>1</v>
       </c>
       <c r="B2" s="82" t="s">
@@ -1639,19 +1798,19 @@
       <c r="H2" s="85" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="120" t="s">
+      <c r="I2" s="150" t="s">
         <v>0</v>
       </c>
-      <c r="J2" s="121">
+      <c r="J2" s="151">
         <v>5</v>
       </c>
-      <c r="K2" s="122">
+      <c r="K2" s="152">
         <v>1</v>
       </c>
-      <c r="L2" s="123"/>
+      <c r="L2" s="153"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="125"/>
+      <c r="A3" s="155"/>
       <c r="B3" s="50" t="s">
         <v>26</v>
       </c>
@@ -1671,13 +1830,13 @@
       <c r="H3" s="54" t="s">
         <v>41</v>
       </c>
-      <c r="I3" s="94"/>
-      <c r="J3" s="112"/>
-      <c r="K3" s="115"/>
-      <c r="L3" s="93"/>
+      <c r="I3" s="134"/>
+      <c r="J3" s="108"/>
+      <c r="K3" s="111"/>
+      <c r="L3" s="103"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="125"/>
+      <c r="A4" s="155"/>
       <c r="B4" s="54" t="s">
         <v>28</v>
       </c>
@@ -1697,13 +1856,13 @@
       <c r="H4" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="94"/>
-      <c r="J4" s="112"/>
-      <c r="K4" s="115"/>
-      <c r="L4" s="93"/>
+      <c r="I4" s="134"/>
+      <c r="J4" s="108"/>
+      <c r="K4" s="111"/>
+      <c r="L4" s="103"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="125"/>
+      <c r="A5" s="155"/>
       <c r="B5" s="54" t="s">
         <v>42</v>
       </c>
@@ -1723,13 +1882,13 @@
       <c r="H5" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="94"/>
-      <c r="J5" s="112"/>
-      <c r="K5" s="115"/>
-      <c r="L5" s="93"/>
+      <c r="I5" s="134"/>
+      <c r="J5" s="108"/>
+      <c r="K5" s="111"/>
+      <c r="L5" s="103"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="126"/>
+      <c r="A6" s="156"/>
       <c r="B6" s="18" t="s">
         <v>45</v>
       </c>
@@ -1749,13 +1908,13 @@
       <c r="H6" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="I6" s="94"/>
-      <c r="J6" s="113"/>
-      <c r="K6" s="116"/>
-      <c r="L6" s="93"/>
+      <c r="I6" s="134"/>
+      <c r="J6" s="109"/>
+      <c r="K6" s="112"/>
+      <c r="L6" s="103"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="102">
+      <c r="A7" s="116">
         <v>2</v>
       </c>
       <c r="B7" s="55" t="s">
@@ -1777,7 +1936,7 @@
       <c r="H7" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="I7" s="94" t="s">
+      <c r="I7" s="134" t="s">
         <v>0</v>
       </c>
       <c r="J7" s="95">
@@ -1789,7 +1948,7 @@
       <c r="L7" s="101"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="103"/>
+      <c r="A8" s="117"/>
       <c r="B8" s="55" t="s">
         <v>26</v>
       </c>
@@ -1811,18 +1970,18 @@
       <c r="H8" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="I8" s="94"/>
+      <c r="I8" s="134"/>
       <c r="J8" s="96"/>
       <c r="K8" s="99"/>
       <c r="L8" s="101"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="103"/>
+      <c r="A9" s="117"/>
       <c r="B9" s="58" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="59">
-        <v>44841</v>
+      <c r="C9" s="59" t="s">
+        <v>46</v>
       </c>
       <c r="D9" s="59"/>
       <c r="E9" s="59">
@@ -1837,13 +1996,13 @@
       <c r="H9" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="I9" s="94"/>
+      <c r="I9" s="134"/>
       <c r="J9" s="96"/>
       <c r="K9" s="99"/>
       <c r="L9" s="101"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="103"/>
+      <c r="A10" s="117"/>
       <c r="B10" s="58" t="s">
         <v>42</v>
       </c>
@@ -1863,13 +2022,13 @@
       <c r="H10" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="I10" s="94"/>
+      <c r="I10" s="134"/>
       <c r="J10" s="96"/>
       <c r="K10" s="99"/>
       <c r="L10" s="101"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="104"/>
+      <c r="A11" s="118"/>
       <c r="B11" s="19" t="s">
         <v>45</v>
       </c>
@@ -1889,7 +2048,7 @@
       <c r="H11" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="I11" s="94"/>
+      <c r="I11" s="134"/>
       <c r="J11" s="97"/>
       <c r="K11" s="100"/>
       <c r="L11" s="101"/>
@@ -1929,7 +2088,7 @@
       <c r="L12" s="88"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="102">
+      <c r="A13" s="116">
         <v>4</v>
       </c>
       <c r="B13" s="55" t="s">
@@ -1954,7 +2113,7 @@
       <c r="H13" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="I13" s="143" t="s">
+      <c r="I13" s="136" t="s">
         <v>0</v>
       </c>
       <c r="J13" s="95">
@@ -1966,7 +2125,7 @@
       <c r="L13" s="101"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="103"/>
+      <c r="A14" s="117"/>
       <c r="B14" s="55" t="s">
         <v>26</v>
       </c>
@@ -1986,13 +2145,13 @@
       <c r="H14" s="58" t="s">
         <v>41</v>
       </c>
-      <c r="I14" s="143"/>
+      <c r="I14" s="136"/>
       <c r="J14" s="96"/>
       <c r="K14" s="99"/>
       <c r="L14" s="101"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="103"/>
+      <c r="A15" s="117"/>
       <c r="B15" s="58" t="s">
         <v>28</v>
       </c>
@@ -2012,13 +2171,13 @@
       <c r="H15" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="I15" s="143"/>
+      <c r="I15" s="136"/>
       <c r="J15" s="96"/>
       <c r="K15" s="99"/>
       <c r="L15" s="101"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="104"/>
+      <c r="A16" s="118"/>
       <c r="B16" s="19" t="s">
         <v>42</v>
       </c>
@@ -2038,13 +2197,13 @@
       <c r="H16" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="I16" s="143"/>
+      <c r="I16" s="136"/>
       <c r="J16" s="97"/>
       <c r="K16" s="100"/>
       <c r="L16" s="101"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="105">
+      <c r="A17" s="104">
         <v>5</v>
       </c>
       <c r="B17" s="50" t="s">
@@ -2068,19 +2227,19 @@
       <c r="H17" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="I17" s="94" t="s">
+      <c r="I17" s="134" t="s">
         <v>0</v>
       </c>
-      <c r="J17" s="111">
+      <c r="J17" s="107">
         <v>8</v>
       </c>
-      <c r="K17" s="114">
+      <c r="K17" s="110">
         <v>1</v>
       </c>
-      <c r="L17" s="93"/>
+      <c r="L17" s="103"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="107"/>
+      <c r="A18" s="106"/>
       <c r="B18" s="18" t="s">
         <v>26</v>
       </c>
@@ -2102,16 +2261,16 @@
       <c r="H18" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="I18" s="94"/>
-      <c r="J18" s="113"/>
-      <c r="K18" s="116"/>
-      <c r="L18" s="93"/>
+      <c r="I18" s="134"/>
+      <c r="J18" s="109"/>
+      <c r="K18" s="112"/>
+      <c r="L18" s="103"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="49">
         <v>6</v>
       </c>
-      <c r="B19" s="155" t="s">
+      <c r="B19" s="94" t="s">
         <v>27</v>
       </c>
       <c r="C19" s="7">
@@ -2146,7 +2305,7 @@
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="105">
+      <c r="A20" s="104">
         <v>7</v>
       </c>
       <c r="B20" s="50" t="s">
@@ -2170,491 +2329,478 @@
       <c r="H20" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="I20" s="94" t="s">
+      <c r="I20" s="157" t="s">
         <v>0</v>
       </c>
-      <c r="J20" s="111">
+      <c r="J20" s="160">
         <v>21</v>
       </c>
-      <c r="K20" s="114">
+      <c r="K20" s="145">
         <v>2</v>
       </c>
-      <c r="L20" s="93"/>
+      <c r="L20" s="103"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="107"/>
-      <c r="B21" s="18" t="s">
+      <c r="A21" s="105"/>
+      <c r="B21" s="163" t="s">
         <v>26</v>
       </c>
-      <c r="C21" s="10">
+      <c r="C21" s="164">
         <v>44861</v>
       </c>
-      <c r="D21" s="10">
+      <c r="D21" s="164">
         <v>44868</v>
       </c>
-      <c r="E21" s="10">
+      <c r="E21" s="164">
         <v>44871</v>
       </c>
-      <c r="F21" s="20" t="s">
+      <c r="F21" s="165" t="s">
         <v>3</v>
       </c>
-      <c r="G21" s="21" t="s">
+      <c r="G21" s="166" t="s">
         <v>39</v>
       </c>
-      <c r="H21" s="21" t="s">
+      <c r="H21" s="166" t="s">
         <v>1</v>
       </c>
-      <c r="I21" s="94"/>
-      <c r="J21" s="113"/>
-      <c r="K21" s="116"/>
-      <c r="L21" s="93"/>
+      <c r="I21" s="158"/>
+      <c r="J21" s="161"/>
+      <c r="K21" s="146"/>
+      <c r="L21" s="103"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="102">
+      <c r="A22" s="106"/>
+      <c r="B22" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22" s="10">
+        <v>44873</v>
+      </c>
+      <c r="D22" s="10">
+        <v>44880</v>
+      </c>
+      <c r="E22" s="10">
+        <v>44881</v>
+      </c>
+      <c r="F22" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="G22" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="H22" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="I22" s="159"/>
+      <c r="J22" s="162"/>
+      <c r="K22" s="147"/>
+      <c r="L22" s="103"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" s="116">
         <v>8</v>
       </c>
-      <c r="B22" s="55" t="s">
+      <c r="B23" s="55" t="s">
         <v>27</v>
       </c>
-      <c r="C22" s="62">
+      <c r="C23" s="62">
         <v>44822</v>
       </c>
-      <c r="D22" s="62">
+      <c r="D23" s="62">
         <v>44829</v>
       </c>
-      <c r="E22" s="62">
+      <c r="E23" s="62">
         <v>44829</v>
       </c>
-      <c r="F22" s="63" t="s">
+      <c r="F23" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="G22" s="58" t="s">
+      <c r="G23" s="58" t="s">
         <v>14</v>
       </c>
-      <c r="H22" s="58" t="s">
+      <c r="H23" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="I22" s="94" t="s">
+      <c r="I23" s="171" t="s">
         <v>0</v>
       </c>
-      <c r="J22" s="98">
+      <c r="J23" s="143">
         <v>33</v>
       </c>
-      <c r="K22" s="127">
+      <c r="K23" s="174">
         <v>2</v>
       </c>
-      <c r="L22" s="101"/>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="104"/>
-      <c r="B23" s="19" t="s">
+      <c r="L23" s="101"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" s="117"/>
+      <c r="B24" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="C23" s="25">
+      <c r="C24" s="167">
         <v>44861</v>
       </c>
-      <c r="D23" s="25">
+      <c r="D24" s="167">
         <v>44868</v>
       </c>
-      <c r="E23" s="25">
+      <c r="E24" s="167">
         <v>44871</v>
       </c>
-      <c r="F23" s="26" t="s">
+      <c r="F24" s="168" t="s">
         <v>3</v>
       </c>
-      <c r="G23" s="27" t="s">
+      <c r="G24" s="169" t="s">
         <v>39</v>
       </c>
-      <c r="H23" s="19" t="s">
+      <c r="H24" s="170" t="s">
         <v>1</v>
       </c>
-      <c r="I23" s="94"/>
-      <c r="J23" s="100"/>
-      <c r="K23" s="128"/>
-      <c r="L23" s="101"/>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="105">
+      <c r="I24" s="172"/>
+      <c r="J24" s="148"/>
+      <c r="K24" s="175"/>
+      <c r="L24" s="101"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" s="118"/>
+      <c r="B25" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25" s="25">
+        <v>44873</v>
+      </c>
+      <c r="D25" s="25">
+        <v>44880</v>
+      </c>
+      <c r="E25" s="25">
+        <v>44881</v>
+      </c>
+      <c r="F25" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="G25" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="H25" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="I25" s="173"/>
+      <c r="J25" s="144"/>
+      <c r="K25" s="176"/>
+      <c r="L25" s="93"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" s="104">
         <v>9</v>
       </c>
-      <c r="B24" s="50" t="s">
+      <c r="B26" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="C24" s="51">
+      <c r="C26" s="51">
         <v>44846</v>
       </c>
-      <c r="D24" s="51"/>
-      <c r="E24" s="51">
+      <c r="D26" s="51"/>
+      <c r="E26" s="51">
         <v>44850</v>
       </c>
-      <c r="F24" s="52" t="s">
+      <c r="F26" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="G24" s="53" t="s">
+      <c r="G26" s="53" t="s">
         <v>40</v>
       </c>
-      <c r="H24" s="54" t="s">
+      <c r="H26" s="54" t="s">
         <v>41</v>
       </c>
-      <c r="I24" s="108" t="s">
+      <c r="I26" s="177" t="s">
         <v>0</v>
       </c>
-      <c r="J24" s="129">
+      <c r="J26" s="140">
         <v>61</v>
       </c>
-      <c r="K24" s="129">
+      <c r="K26" s="145">
         <v>4</v>
       </c>
-      <c r="L24" s="93"/>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="106"/>
-      <c r="B25" s="50" t="s">
+      <c r="L26" s="103"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" s="105"/>
+      <c r="B27" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="C25" s="51">
+      <c r="C27" s="51">
         <v>44856</v>
       </c>
-      <c r="D25" s="51"/>
-      <c r="E25" s="51">
+      <c r="D27" s="51"/>
+      <c r="E27" s="51">
         <v>44857</v>
       </c>
-      <c r="F25" s="52" t="s">
+      <c r="F27" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="G25" s="53" t="s">
+      <c r="G27" s="53" t="s">
         <v>43</v>
       </c>
-      <c r="H25" s="54" t="s">
+      <c r="H27" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="I25" s="109"/>
-      <c r="J25" s="130"/>
-      <c r="K25" s="130"/>
-      <c r="L25" s="93"/>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="107"/>
-      <c r="B26" s="46" t="s">
+      <c r="I27" s="172"/>
+      <c r="J27" s="141"/>
+      <c r="K27" s="146"/>
+      <c r="L27" s="103"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" s="105"/>
+      <c r="B28" s="178" t="s">
         <v>28</v>
       </c>
-      <c r="C26" s="10">
+      <c r="C28" s="164">
         <v>44861</v>
       </c>
-      <c r="D26" s="10">
+      <c r="D28" s="164">
         <v>44868</v>
       </c>
-      <c r="E26" s="10">
+      <c r="E28" s="164">
         <v>44871</v>
       </c>
-      <c r="F26" s="20" t="s">
+      <c r="F28" s="165" t="s">
         <v>3</v>
       </c>
-      <c r="G26" s="21" t="s">
+      <c r="G28" s="166" t="s">
         <v>39</v>
       </c>
-      <c r="H26" s="21" t="s">
+      <c r="H28" s="166" t="s">
         <v>1</v>
       </c>
-      <c r="I26" s="110"/>
-      <c r="J26" s="131"/>
-      <c r="K26" s="131"/>
-      <c r="L26" s="93"/>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="15">
-        <v>10</v>
-      </c>
-      <c r="B27" s="4"/>
-      <c r="C27" s="11"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="11"/>
-      <c r="H27" s="11"/>
-      <c r="I27" s="11"/>
-      <c r="J27" s="11"/>
-      <c r="K27" s="11"/>
-      <c r="L27" s="89"/>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="105">
-        <v>11</v>
-      </c>
-      <c r="B28" s="54" t="s">
-        <v>27</v>
-      </c>
-      <c r="C28" s="64">
-        <v>44845</v>
-      </c>
-      <c r="D28" s="64"/>
-      <c r="E28" s="64">
-        <v>44845</v>
-      </c>
-      <c r="F28" s="65" t="s">
-        <v>15</v>
-      </c>
-      <c r="G28" s="66" t="s">
-        <v>23</v>
-      </c>
-      <c r="H28" s="66" t="s">
-        <v>16</v>
-      </c>
-      <c r="I28" s="108" t="s">
-        <v>0</v>
-      </c>
-      <c r="J28" s="111">
-        <v>132</v>
-      </c>
-      <c r="K28" s="114">
-        <v>8</v>
-      </c>
-      <c r="L28" s="93"/>
+      <c r="I28" s="172"/>
+      <c r="J28" s="141"/>
+      <c r="K28" s="146"/>
+      <c r="L28" s="103"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="106"/>
-      <c r="B29" s="54" t="s">
+      <c r="B29" s="46" t="s">
+        <v>42</v>
+      </c>
+      <c r="C29" s="10">
+        <v>44873</v>
+      </c>
+      <c r="D29" s="10">
+        <v>44880</v>
+      </c>
+      <c r="E29" s="10">
+        <v>44881</v>
+      </c>
+      <c r="F29" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="G29" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="H29" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="I29" s="173"/>
+      <c r="J29" s="142"/>
+      <c r="K29" s="147"/>
+      <c r="L29" s="103"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" s="15">
+        <v>10</v>
+      </c>
+      <c r="B30" s="4"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11"/>
+      <c r="H30" s="11"/>
+      <c r="I30" s="11"/>
+      <c r="J30" s="11"/>
+      <c r="K30" s="11"/>
+      <c r="L30" s="89"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" s="104">
+        <v>11</v>
+      </c>
+      <c r="B31" s="54" t="s">
+        <v>27</v>
+      </c>
+      <c r="C31" s="64">
+        <v>44845</v>
+      </c>
+      <c r="D31" s="64"/>
+      <c r="E31" s="64">
+        <v>44845</v>
+      </c>
+      <c r="F31" s="65" t="s">
+        <v>15</v>
+      </c>
+      <c r="G31" s="66" t="s">
+        <v>23</v>
+      </c>
+      <c r="H31" s="66" t="s">
+        <v>16</v>
+      </c>
+      <c r="I31" s="113" t="s">
+        <v>0</v>
+      </c>
+      <c r="J31" s="107">
+        <v>132</v>
+      </c>
+      <c r="K31" s="107">
+        <v>8</v>
+      </c>
+      <c r="L31" s="103"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" s="105"/>
+      <c r="B32" s="54" t="s">
         <v>26</v>
       </c>
-      <c r="C29" s="64">
+      <c r="C32" s="64">
         <v>44853</v>
       </c>
-      <c r="D29" s="64">
-        <f>C29+7</f>
+      <c r="D32" s="64">
+        <f>C32+7</f>
         <v>44860</v>
       </c>
-      <c r="E29" s="64">
+      <c r="E32" s="64">
         <v>44860</v>
       </c>
-      <c r="F29" s="65" t="s">
+      <c r="F32" s="65" t="s">
         <v>24</v>
       </c>
-      <c r="G29" s="66" t="s">
+      <c r="G32" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="H29" s="66" t="s">
+      <c r="H32" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="I29" s="109"/>
-      <c r="J29" s="112"/>
-      <c r="K29" s="115"/>
-      <c r="L29" s="93"/>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" s="107"/>
-      <c r="B30" s="18" t="s">
+      <c r="I32" s="114"/>
+      <c r="J32" s="108"/>
+      <c r="K32" s="108"/>
+      <c r="L32" s="103"/>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33" s="105"/>
+      <c r="B33" s="179" t="s">
         <v>28</v>
       </c>
-      <c r="C30" s="10">
+      <c r="C33" s="164">
         <v>44870</v>
       </c>
-      <c r="D30" s="10"/>
-      <c r="E30" s="10">
+      <c r="D33" s="164"/>
+      <c r="E33" s="164">
         <v>44871</v>
       </c>
-      <c r="F30" s="20" t="s">
+      <c r="F33" s="165" t="s">
         <v>7</v>
       </c>
-      <c r="G30" s="21" t="s">
+      <c r="G33" s="166" t="s">
         <v>9</v>
       </c>
-      <c r="H30" s="21" t="s">
+      <c r="H33" s="166" t="s">
         <v>8</v>
       </c>
-      <c r="I30" s="110"/>
-      <c r="J30" s="113"/>
-      <c r="K30" s="116"/>
-      <c r="L30" s="93"/>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" s="102">
+      <c r="I33" s="114"/>
+      <c r="J33" s="108"/>
+      <c r="K33" s="108"/>
+      <c r="L33" s="103"/>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34" s="106"/>
+      <c r="B34" s="46" t="s">
+        <v>42</v>
+      </c>
+      <c r="C34" s="10">
+        <v>44873</v>
+      </c>
+      <c r="D34" s="10">
+        <v>44880</v>
+      </c>
+      <c r="E34" s="10">
+        <v>44881</v>
+      </c>
+      <c r="F34" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="G34" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="H34" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="I34" s="115"/>
+      <c r="J34" s="109"/>
+      <c r="K34" s="109"/>
+      <c r="L34" s="103"/>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35" s="116">
         <v>12</v>
       </c>
-      <c r="B31" s="55" t="s">
+      <c r="B35" s="55" t="s">
         <v>27</v>
       </c>
-      <c r="C31" s="62">
+      <c r="C35" s="62">
         <v>44838</v>
       </c>
-      <c r="D31" s="62"/>
-      <c r="E31" s="62">
+      <c r="D35" s="62"/>
+      <c r="E35" s="62">
         <v>44839</v>
       </c>
-      <c r="F31" s="63" t="s">
+      <c r="F35" s="63" t="s">
         <v>15</v>
       </c>
-      <c r="G31" s="58" t="s">
+      <c r="G35" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="H31" s="58" t="s">
+      <c r="H35" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="I31" s="108" t="s">
+      <c r="I35" s="113" t="s">
         <v>0</v>
       </c>
-      <c r="J31" s="95">
+      <c r="J35" s="95">
         <v>72</v>
       </c>
-      <c r="K31" s="98">
+      <c r="K35" s="98">
         <v>5</v>
       </c>
-      <c r="L31" s="101"/>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A32" s="103"/>
-      <c r="B32" s="58" t="s">
+      <c r="L35" s="101"/>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A36" s="117"/>
+      <c r="B36" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="C32" s="62">
+      <c r="C36" s="62">
         <v>44845</v>
-      </c>
-      <c r="D32" s="62"/>
-      <c r="E32" s="62">
-        <v>44850</v>
-      </c>
-      <c r="F32" s="63" t="s">
-        <v>15</v>
-      </c>
-      <c r="G32" s="58" t="s">
-        <v>40</v>
-      </c>
-      <c r="H32" s="58" t="s">
-        <v>41</v>
-      </c>
-      <c r="I32" s="109"/>
-      <c r="J32" s="96"/>
-      <c r="K32" s="99"/>
-      <c r="L32" s="101"/>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A33" s="104"/>
-      <c r="B33" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="C33" s="8">
-        <v>44859</v>
-      </c>
-      <c r="D33" s="8">
-        <v>44835</v>
-      </c>
-      <c r="E33" s="8">
-        <v>44836</v>
-      </c>
-      <c r="F33" s="24" t="s">
-        <v>15</v>
-      </c>
-      <c r="G33" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="H33" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="I33" s="110"/>
-      <c r="J33" s="97"/>
-      <c r="K33" s="100"/>
-      <c r="L33" s="101"/>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A34" s="105">
-        <v>13</v>
-      </c>
-      <c r="B34" s="54" t="s">
-        <v>27</v>
-      </c>
-      <c r="C34" s="67">
-        <v>44829</v>
-      </c>
-      <c r="D34" s="67"/>
-      <c r="E34" s="64">
-        <v>44829</v>
-      </c>
-      <c r="F34" s="68" t="s">
-        <v>10</v>
-      </c>
-      <c r="G34" s="54" t="s">
-        <v>14</v>
-      </c>
-      <c r="H34" s="54" t="s">
-        <v>11</v>
-      </c>
-      <c r="I34" s="108" t="s">
-        <v>0</v>
-      </c>
-      <c r="J34" s="111">
-        <v>7</v>
-      </c>
-      <c r="K34" s="114">
-        <v>1</v>
-      </c>
-      <c r="L34" s="93"/>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A35" s="107"/>
-      <c r="B35" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="C35" s="10">
-        <v>44853</v>
-      </c>
-      <c r="D35" s="10">
-        <f>C35+7</f>
-        <v>44860</v>
-      </c>
-      <c r="E35" s="10">
-        <v>44860</v>
-      </c>
-      <c r="F35" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="G35" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="H35" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="I35" s="110"/>
-      <c r="J35" s="113"/>
-      <c r="K35" s="116"/>
-      <c r="L35" s="93"/>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A36" s="102">
-        <v>14</v>
-      </c>
-      <c r="B36" s="55" t="s">
-        <v>27</v>
-      </c>
-      <c r="C36" s="62">
-        <v>44843</v>
       </c>
       <c r="D36" s="62"/>
       <c r="E36" s="62">
-        <v>44843</v>
+        <v>44850</v>
       </c>
       <c r="F36" s="63" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G36" s="58" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="H36" s="58" t="s">
-        <v>11</v>
-      </c>
-      <c r="I36" s="108" t="s">
-        <v>0</v>
-      </c>
-      <c r="J36" s="95">
-        <v>39</v>
-      </c>
-      <c r="K36" s="98">
-        <v>3</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="I36" s="114"/>
+      <c r="J36" s="96"/>
+      <c r="K36" s="99"/>
       <c r="L36" s="101"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A37" s="104"/>
+      <c r="A37" s="118"/>
       <c r="B37" s="19" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C37" s="8">
         <v>44859</v>
@@ -2674,2834 +2820,2838 @@
       <c r="H37" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="I37" s="110"/>
+      <c r="I37" s="115"/>
       <c r="J37" s="97"/>
       <c r="K37" s="100"/>
       <c r="L37" s="101"/>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A38" s="105">
-        <v>15</v>
+      <c r="A38" s="104">
+        <v>13</v>
       </c>
       <c r="B38" s="54" t="s">
         <v>27</v>
       </c>
-      <c r="C38" s="69">
-        <v>44826</v>
-      </c>
-      <c r="D38" s="69"/>
-      <c r="E38" s="69">
+      <c r="C38" s="67">
         <v>44829</v>
       </c>
-      <c r="F38" s="70" t="s">
-        <v>3</v>
-      </c>
-      <c r="G38" s="50" t="s">
-        <v>13</v>
-      </c>
-      <c r="H38" s="50" t="s">
+      <c r="D38" s="67"/>
+      <c r="E38" s="64">
+        <v>44829</v>
+      </c>
+      <c r="F38" s="68" t="s">
+        <v>10</v>
+      </c>
+      <c r="G38" s="54" t="s">
+        <v>14</v>
+      </c>
+      <c r="H38" s="54" t="s">
+        <v>11</v>
+      </c>
+      <c r="I38" s="113" t="s">
+        <v>0</v>
+      </c>
+      <c r="J38" s="107">
+        <v>7</v>
+      </c>
+      <c r="K38" s="110">
         <v>1</v>
       </c>
-      <c r="I38" s="108" t="s">
-        <v>0</v>
-      </c>
-      <c r="J38" s="114">
-        <v>39</v>
-      </c>
-      <c r="K38" s="129">
-        <v>3</v>
-      </c>
-      <c r="L38" s="93"/>
+      <c r="L38" s="103"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="106"/>
-      <c r="B39" s="54" t="s">
+      <c r="B39" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="C39" s="67">
+      <c r="C39" s="10">
+        <v>44853</v>
+      </c>
+      <c r="D39" s="10">
+        <f>C39+7</f>
+        <v>44860</v>
+      </c>
+      <c r="E39" s="10">
+        <v>44860</v>
+      </c>
+      <c r="F39" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="G39" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="H39" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="I39" s="115"/>
+      <c r="J39" s="109"/>
+      <c r="K39" s="112"/>
+      <c r="L39" s="103"/>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A40" s="116">
+        <v>14</v>
+      </c>
+      <c r="B40" s="55" t="s">
+        <v>27</v>
+      </c>
+      <c r="C40" s="62">
         <v>44843</v>
       </c>
-      <c r="D39" s="67"/>
-      <c r="E39" s="67">
+      <c r="D40" s="62"/>
+      <c r="E40" s="62">
         <v>44843</v>
       </c>
-      <c r="F39" s="68" t="s">
+      <c r="F40" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="G39" s="66" t="s">
+      <c r="G40" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="H39" s="66" t="s">
+      <c r="H40" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="I39" s="109"/>
-      <c r="J39" s="115"/>
-      <c r="K39" s="130"/>
-      <c r="L39" s="93"/>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A40" s="107"/>
-      <c r="B40" s="18" t="s">
+      <c r="I40" s="113" t="s">
+        <v>0</v>
+      </c>
+      <c r="J40" s="95">
+        <v>39</v>
+      </c>
+      <c r="K40" s="98">
+        <v>3</v>
+      </c>
+      <c r="L40" s="101"/>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A41" s="118"/>
+      <c r="B41" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C41" s="8">
+        <v>44859</v>
+      </c>
+      <c r="D41" s="8">
+        <v>44835</v>
+      </c>
+      <c r="E41" s="8">
+        <v>44836</v>
+      </c>
+      <c r="F41" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="G41" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="H41" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="I41" s="115"/>
+      <c r="J41" s="97"/>
+      <c r="K41" s="100"/>
+      <c r="L41" s="101"/>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A42" s="104">
+        <v>15</v>
+      </c>
+      <c r="B42" s="54" t="s">
+        <v>27</v>
+      </c>
+      <c r="C42" s="69">
+        <v>44826</v>
+      </c>
+      <c r="D42" s="69"/>
+      <c r="E42" s="69">
+        <v>44829</v>
+      </c>
+      <c r="F42" s="70" t="s">
+        <v>3</v>
+      </c>
+      <c r="G42" s="50" t="s">
+        <v>13</v>
+      </c>
+      <c r="H42" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="I42" s="113" t="s">
+        <v>0</v>
+      </c>
+      <c r="J42" s="110">
+        <v>39</v>
+      </c>
+      <c r="K42" s="140">
+        <v>3</v>
+      </c>
+      <c r="L42" s="103"/>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A43" s="105"/>
+      <c r="B43" s="54" t="s">
+        <v>26</v>
+      </c>
+      <c r="C43" s="67">
+        <v>44843</v>
+      </c>
+      <c r="D43" s="67"/>
+      <c r="E43" s="67">
+        <v>44843</v>
+      </c>
+      <c r="F43" s="68" t="s">
+        <v>10</v>
+      </c>
+      <c r="G43" s="66" t="s">
+        <v>12</v>
+      </c>
+      <c r="H43" s="66" t="s">
+        <v>11</v>
+      </c>
+      <c r="I43" s="114"/>
+      <c r="J43" s="111"/>
+      <c r="K43" s="141"/>
+      <c r="L43" s="103"/>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A44" s="106"/>
+      <c r="B44" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="C40" s="6">
+      <c r="C44" s="6">
         <v>44859</v>
       </c>
-      <c r="D40" s="6">
+      <c r="D44" s="6">
         <v>44835</v>
       </c>
-      <c r="E40" s="6">
+      <c r="E44" s="6">
         <v>44836</v>
       </c>
-      <c r="F40" s="23" t="s">
+      <c r="F44" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="G40" s="21" t="s">
+      <c r="G44" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="H40" s="21" t="s">
+      <c r="H44" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="I40" s="110"/>
-      <c r="J40" s="116"/>
-      <c r="K40" s="131"/>
-      <c r="L40" s="93"/>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A41" s="102">
+      <c r="I44" s="115"/>
+      <c r="J44" s="112"/>
+      <c r="K44" s="142"/>
+      <c r="L44" s="103"/>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A45" s="116">
         <v>16</v>
       </c>
-      <c r="B41" s="55" t="s">
+      <c r="B45" s="55" t="s">
         <v>27</v>
       </c>
-      <c r="C41" s="56">
+      <c r="C45" s="56">
         <v>44826</v>
       </c>
-      <c r="D41" s="56"/>
-      <c r="E41" s="56">
+      <c r="D45" s="56"/>
+      <c r="E45" s="56">
         <v>44829</v>
       </c>
-      <c r="F41" s="57" t="s">
+      <c r="F45" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="G41" s="55" t="s">
+      <c r="G45" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="H41" s="55" t="s">
+      <c r="H45" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="I41" s="108" t="s">
+      <c r="I45" s="113" t="s">
         <v>0</v>
       </c>
-      <c r="J41" s="98">
+      <c r="J45" s="98">
         <v>39</v>
       </c>
-      <c r="K41" s="127">
+      <c r="K45" s="143">
         <v>3</v>
       </c>
-      <c r="L41" s="101"/>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A42" s="104"/>
-      <c r="B42" s="19" t="s">
+      <c r="L45" s="101"/>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A46" s="118"/>
+      <c r="B46" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="C42" s="44">
+      <c r="C46" s="44">
         <v>44854</v>
       </c>
-      <c r="D42" s="44">
-        <f>C42+7</f>
+      <c r="D46" s="44">
+        <f>C46+7</f>
         <v>44861</v>
       </c>
-      <c r="E42" s="44">
+      <c r="E46" s="44">
         <v>44864</v>
       </c>
-      <c r="F42" s="32" t="s">
+      <c r="F46" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="G42" s="33" t="s">
+      <c r="G46" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="H42" s="33" t="s">
+      <c r="H46" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="I42" s="110"/>
-      <c r="J42" s="100"/>
-      <c r="K42" s="128"/>
-      <c r="L42" s="101"/>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A43" s="15">
+      <c r="I46" s="115"/>
+      <c r="J46" s="100"/>
+      <c r="K46" s="144"/>
+      <c r="L46" s="101"/>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A47" s="15">
         <v>17</v>
       </c>
-      <c r="B43" s="4"/>
-      <c r="C43" s="11"/>
-      <c r="D43" s="11"/>
-      <c r="E43" s="11"/>
-      <c r="F43" s="11"/>
-      <c r="G43" s="11"/>
-      <c r="H43" s="11"/>
-      <c r="I43" s="11"/>
-      <c r="J43" s="11"/>
-      <c r="K43" s="11"/>
-      <c r="L43" s="89"/>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A44" s="102">
+      <c r="B47" s="4"/>
+      <c r="C47" s="11"/>
+      <c r="D47" s="11"/>
+      <c r="E47" s="11"/>
+      <c r="F47" s="11"/>
+      <c r="G47" s="11"/>
+      <c r="H47" s="11"/>
+      <c r="I47" s="11"/>
+      <c r="J47" s="11"/>
+      <c r="K47" s="11"/>
+      <c r="L47" s="89"/>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A48" s="116">
         <v>18</v>
       </c>
-      <c r="B44" s="55" t="s">
+      <c r="B48" s="55" t="s">
         <v>27</v>
       </c>
-      <c r="C44" s="62">
+      <c r="C48" s="62">
         <v>44835</v>
       </c>
-      <c r="D44" s="62"/>
-      <c r="E44" s="71">
+      <c r="D48" s="62"/>
+      <c r="E48" s="71">
         <v>44836</v>
       </c>
-      <c r="F44" s="63" t="s">
+      <c r="F48" s="63" t="s">
         <v>7</v>
       </c>
-      <c r="G44" s="58" t="s">
+      <c r="G48" s="58" t="s">
         <v>37</v>
       </c>
-      <c r="H44" s="58" t="s">
+      <c r="H48" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="I44" s="108" t="s">
+      <c r="I48" s="113" t="s">
         <v>0</v>
       </c>
-      <c r="J44" s="95">
+      <c r="J48" s="95">
         <v>47</v>
       </c>
-      <c r="K44" s="98">
+      <c r="K48" s="98">
         <v>3</v>
       </c>
-      <c r="L44" s="101"/>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A45" s="103"/>
-      <c r="B45" s="58" t="s">
+      <c r="L48" s="101"/>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A49" s="117"/>
+      <c r="B49" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="C45" s="62">
+      <c r="C49" s="62">
         <v>44846</v>
       </c>
-      <c r="D45" s="62"/>
-      <c r="E45" s="62">
+      <c r="D49" s="62"/>
+      <c r="E49" s="62">
         <v>44850</v>
       </c>
-      <c r="F45" s="63" t="s">
+      <c r="F49" s="63" t="s">
         <v>24</v>
       </c>
-      <c r="G45" s="58" t="s">
+      <c r="G49" s="58" t="s">
         <v>40</v>
       </c>
-      <c r="H45" s="58" t="s">
+      <c r="H49" s="58" t="s">
         <v>41</v>
       </c>
-      <c r="I45" s="109"/>
-      <c r="J45" s="96"/>
-      <c r="K45" s="99"/>
-      <c r="L45" s="101"/>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A46" s="104"/>
-      <c r="B46" s="19" t="s">
+      <c r="I49" s="114"/>
+      <c r="J49" s="96"/>
+      <c r="K49" s="99"/>
+      <c r="L49" s="101"/>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A50" s="118"/>
+      <c r="B50" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="C46" s="8">
+      <c r="C50" s="8">
         <v>44859</v>
       </c>
-      <c r="D46" s="8">
+      <c r="D50" s="8">
         <v>44835</v>
       </c>
-      <c r="E46" s="8">
+      <c r="E50" s="8">
         <v>44836</v>
       </c>
-      <c r="F46" s="24" t="s">
+      <c r="F50" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="G46" s="19" t="s">
+      <c r="G50" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="H46" s="19" t="s">
+      <c r="H50" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="I46" s="110"/>
-      <c r="J46" s="97"/>
-      <c r="K46" s="100"/>
-      <c r="L46" s="101"/>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A47" s="139">
+      <c r="I50" s="115"/>
+      <c r="J50" s="97"/>
+      <c r="K50" s="100"/>
+      <c r="L50" s="101"/>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A51" s="137">
         <v>19</v>
       </c>
-      <c r="B47" s="54" t="s">
+      <c r="B51" s="54" t="s">
         <v>27</v>
       </c>
-      <c r="C47" s="67">
+      <c r="C51" s="67">
         <v>44822</v>
       </c>
-      <c r="D47" s="67"/>
-      <c r="E47" s="67">
+      <c r="D51" s="67"/>
+      <c r="E51" s="67">
         <v>44822</v>
       </c>
-      <c r="F47" s="68" t="s">
+      <c r="F51" s="68" t="s">
         <v>10</v>
       </c>
-      <c r="G47" s="54" t="s">
+      <c r="G51" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="H47" s="54" t="s">
+      <c r="H51" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="I47" s="108" t="s">
+      <c r="I51" s="113" t="s">
         <v>0</v>
       </c>
-      <c r="J47" s="111">
+      <c r="J51" s="107">
         <v>68</v>
       </c>
-      <c r="K47" s="114">
+      <c r="K51" s="110">
         <v>4</v>
       </c>
-      <c r="L47" s="93"/>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A48" s="140"/>
-      <c r="B48" s="54" t="s">
+      <c r="L51" s="103"/>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A52" s="138"/>
+      <c r="B52" s="54" t="s">
         <v>26</v>
       </c>
-      <c r="C48" s="67">
+      <c r="C52" s="67">
         <v>44842</v>
       </c>
-      <c r="D48" s="67"/>
-      <c r="E48" s="67">
+      <c r="D52" s="67"/>
+      <c r="E52" s="67">
         <v>44813</v>
       </c>
-      <c r="F48" s="68" t="s">
+      <c r="F52" s="68" t="s">
         <v>10</v>
       </c>
-      <c r="G48" s="54" t="s">
+      <c r="G52" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="H48" s="54" t="s">
+      <c r="H52" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="I48" s="109"/>
-      <c r="J48" s="112"/>
-      <c r="K48" s="115"/>
-      <c r="L48" s="93"/>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A49" s="141"/>
-      <c r="B49" s="18" t="s">
+      <c r="I52" s="114"/>
+      <c r="J52" s="108"/>
+      <c r="K52" s="111"/>
+      <c r="L52" s="103"/>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A53" s="139"/>
+      <c r="B53" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="C49" s="6">
+      <c r="C53" s="6">
         <v>44857</v>
       </c>
-      <c r="D49" s="6">
+      <c r="D53" s="6">
         <v>44871</v>
       </c>
-      <c r="E49" s="6">
+      <c r="E53" s="6">
         <v>44875</v>
       </c>
-      <c r="F49" s="23" t="s">
+      <c r="F53" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="G49" s="18" t="s">
+      <c r="G53" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="H49" s="18" t="s">
+      <c r="H53" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="I49" s="110"/>
-      <c r="J49" s="113"/>
-      <c r="K49" s="116"/>
-      <c r="L49" s="93"/>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A50" s="102">
+      <c r="I53" s="115"/>
+      <c r="J53" s="109"/>
+      <c r="K53" s="112"/>
+      <c r="L53" s="103"/>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A54" s="116">
         <v>20</v>
       </c>
-      <c r="B50" s="55" t="s">
+      <c r="B54" s="55" t="s">
         <v>27</v>
       </c>
-      <c r="C50" s="56">
+      <c r="C54" s="56">
         <v>44815</v>
       </c>
-      <c r="D50" s="56"/>
-      <c r="E50" s="56">
+      <c r="D54" s="56"/>
+      <c r="E54" s="56">
         <v>44818</v>
       </c>
-      <c r="F50" s="57" t="s">
+      <c r="F54" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="G50" s="55" t="s">
+      <c r="G54" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="H50" s="55" t="s">
+      <c r="H54" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="I50" s="108" t="s">
+      <c r="I54" s="113" t="s">
         <v>0</v>
       </c>
-      <c r="J50" s="95">
+      <c r="J54" s="95">
         <v>13</v>
       </c>
-      <c r="K50" s="98">
+      <c r="K54" s="98">
         <v>1</v>
       </c>
-      <c r="L50" s="101"/>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A51" s="103"/>
-      <c r="B51" s="55" t="s">
+      <c r="L54" s="101"/>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A55" s="117"/>
+      <c r="B55" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="C51" s="56">
+      <c r="C55" s="56">
         <v>44842</v>
       </c>
-      <c r="D51" s="56"/>
-      <c r="E51" s="56">
+      <c r="D55" s="56"/>
+      <c r="E55" s="56">
         <v>44813</v>
       </c>
-      <c r="F51" s="57" t="s">
+      <c r="F55" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="G51" s="55" t="s">
+      <c r="G55" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="H51" s="55" t="s">
+      <c r="H55" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="I51" s="109"/>
-      <c r="J51" s="96"/>
-      <c r="K51" s="99"/>
-      <c r="L51" s="101"/>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A52" s="104"/>
-      <c r="B52" s="19" t="s">
+      <c r="I55" s="114"/>
+      <c r="J55" s="96"/>
+      <c r="K55" s="99"/>
+      <c r="L55" s="101"/>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A56" s="118"/>
+      <c r="B56" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="C52" s="31">
+      <c r="C56" s="31">
         <v>44857</v>
       </c>
-      <c r="D52" s="31">
+      <c r="D56" s="31">
         <v>44871</v>
       </c>
-      <c r="E52" s="31">
+      <c r="E56" s="31">
         <v>44875</v>
       </c>
-      <c r="F52" s="32" t="s">
+      <c r="F56" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="G52" s="33" t="s">
+      <c r="G56" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="H52" s="33" t="s">
+      <c r="H56" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="110"/>
-      <c r="J52" s="97"/>
-      <c r="K52" s="100"/>
-      <c r="L52" s="101"/>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A53" s="105">
+      <c r="I56" s="115"/>
+      <c r="J56" s="97"/>
+      <c r="K56" s="100"/>
+      <c r="L56" s="101"/>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A57" s="104">
         <v>21</v>
       </c>
-      <c r="B53" s="54" t="s">
+      <c r="B57" s="54" t="s">
         <v>27</v>
       </c>
-      <c r="C53" s="64">
+      <c r="C57" s="64">
         <v>44815</v>
       </c>
-      <c r="D53" s="64"/>
-      <c r="E53" s="64">
+      <c r="D57" s="64"/>
+      <c r="E57" s="64">
         <v>44818</v>
       </c>
-      <c r="F53" s="65" t="s">
+      <c r="F57" s="65" t="s">
         <v>10</v>
       </c>
-      <c r="G53" s="66" t="s">
+      <c r="G57" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="H53" s="66" t="s">
+      <c r="H57" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="I53" s="108" t="s">
+      <c r="I57" s="113" t="s">
         <v>0</v>
       </c>
-      <c r="J53" s="111">
+      <c r="J57" s="107">
         <v>94</v>
       </c>
-      <c r="K53" s="114">
+      <c r="K57" s="110">
         <v>6</v>
       </c>
-      <c r="L53" s="93"/>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A54" s="106"/>
-      <c r="B54" s="54" t="s">
+      <c r="L57" s="103"/>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A58" s="105"/>
+      <c r="B58" s="54" t="s">
         <v>26</v>
       </c>
-      <c r="C54" s="67">
+      <c r="C58" s="67">
         <v>44842</v>
       </c>
-      <c r="D54" s="67"/>
-      <c r="E54" s="67">
+      <c r="D58" s="67"/>
+      <c r="E58" s="67">
         <v>44813</v>
       </c>
-      <c r="F54" s="68" t="s">
+      <c r="F58" s="68" t="s">
         <v>10</v>
       </c>
-      <c r="G54" s="54" t="s">
+      <c r="G58" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="H54" s="54" t="s">
+      <c r="H58" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="I54" s="109"/>
-      <c r="J54" s="112"/>
-      <c r="K54" s="115"/>
-      <c r="L54" s="93"/>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A55" s="107"/>
-      <c r="B55" s="18" t="s">
+      <c r="I58" s="114"/>
+      <c r="J58" s="108"/>
+      <c r="K58" s="111"/>
+      <c r="L58" s="103"/>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A59" s="106"/>
+      <c r="B59" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="C55" s="6">
+      <c r="C59" s="6">
         <v>44857</v>
       </c>
-      <c r="D55" s="6">
+      <c r="D59" s="6">
         <v>44871</v>
       </c>
-      <c r="E55" s="6">
+      <c r="E59" s="6">
         <v>44875</v>
       </c>
-      <c r="F55" s="23" t="s">
+      <c r="F59" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="G55" s="18" t="s">
+      <c r="G59" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="H55" s="18" t="s">
+      <c r="H59" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="I55" s="110"/>
-      <c r="J55" s="113"/>
-      <c r="K55" s="116"/>
-      <c r="L55" s="93"/>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A56" s="102">
+      <c r="I59" s="115"/>
+      <c r="J59" s="109"/>
+      <c r="K59" s="112"/>
+      <c r="L59" s="103"/>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A60" s="116">
         <v>22</v>
       </c>
-      <c r="B56" s="43" t="s">
+      <c r="B60" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="C56" s="28">
+      <c r="C60" s="28">
         <v>44822</v>
       </c>
-      <c r="D56" s="28">
+      <c r="D60" s="28">
         <v>44828</v>
       </c>
-      <c r="E56" s="28">
+      <c r="E60" s="28">
         <v>44828</v>
       </c>
-      <c r="F56" s="29" t="s">
+      <c r="F60" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="G56" s="30" t="s">
+      <c r="G60" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="H56" s="30" t="s">
+      <c r="H60" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="I56" s="108" t="s">
+      <c r="I60" s="113" t="s">
         <v>0</v>
       </c>
-      <c r="J56" s="95">
+      <c r="J60" s="95">
         <v>67</v>
       </c>
-      <c r="K56" s="98">
+      <c r="K60" s="98">
         <v>4</v>
       </c>
-      <c r="L56" s="101"/>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A57" s="103"/>
-      <c r="B57" s="43" t="s">
+      <c r="L60" s="101"/>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A61" s="117"/>
+      <c r="B61" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="C57" s="28">
+      <c r="C61" s="28">
         <v>44846</v>
       </c>
-      <c r="D57" s="28"/>
-      <c r="E57" s="28">
+      <c r="D61" s="28"/>
+      <c r="E61" s="28">
         <v>44850</v>
       </c>
-      <c r="F57" s="29" t="s">
+      <c r="F61" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="G57" s="30" t="s">
+      <c r="G61" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="H57" s="30" t="s">
+      <c r="H61" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="I57" s="109"/>
-      <c r="J57" s="96"/>
-      <c r="K57" s="99"/>
-      <c r="L57" s="101"/>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A58" s="104"/>
-      <c r="B58" s="19" t="s">
+      <c r="I61" s="114"/>
+      <c r="J61" s="96"/>
+      <c r="K61" s="99"/>
+      <c r="L61" s="101"/>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A62" s="118"/>
+      <c r="B62" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="C58" s="44">
+      <c r="C62" s="44">
         <v>44854</v>
       </c>
-      <c r="D58" s="44">
-        <f>C58+7</f>
+      <c r="D62" s="44">
+        <f>C62+7</f>
         <v>44861</v>
       </c>
-      <c r="E58" s="44">
+      <c r="E62" s="44">
         <v>44864</v>
       </c>
-      <c r="F58" s="32" t="s">
+      <c r="F62" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="G58" s="33" t="s">
+      <c r="G62" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="H58" s="33" t="s">
+      <c r="H62" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="I58" s="110"/>
-      <c r="J58" s="97"/>
-      <c r="K58" s="100"/>
-      <c r="L58" s="101"/>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A59" s="105">
+      <c r="I62" s="115"/>
+      <c r="J62" s="97"/>
+      <c r="K62" s="100"/>
+      <c r="L62" s="101"/>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A63" s="104">
         <v>23</v>
       </c>
-      <c r="B59" s="50" t="s">
+      <c r="B63" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="C59" s="64">
+      <c r="C63" s="64">
         <v>44808</v>
-      </c>
-      <c r="D59" s="64"/>
-      <c r="E59" s="64">
-        <v>44818</v>
-      </c>
-      <c r="F59" s="65" t="s">
-        <v>10</v>
-      </c>
-      <c r="G59" s="66" t="s">
-        <v>14</v>
-      </c>
-      <c r="H59" s="66" t="s">
-        <v>11</v>
-      </c>
-      <c r="I59" s="108" t="s">
-        <v>0</v>
-      </c>
-      <c r="J59" s="111">
-        <v>22</v>
-      </c>
-      <c r="K59" s="114">
-        <v>2</v>
-      </c>
-      <c r="L59" s="93"/>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A60" s="106"/>
-      <c r="B60" s="50" t="s">
-        <v>26</v>
-      </c>
-      <c r="C60" s="64">
-        <v>44850</v>
-      </c>
-      <c r="D60" s="64"/>
-      <c r="E60" s="64">
-        <v>44850</v>
-      </c>
-      <c r="F60" s="65" t="s">
-        <v>10</v>
-      </c>
-      <c r="G60" s="66" t="s">
-        <v>40</v>
-      </c>
-      <c r="H60" s="66" t="s">
-        <v>41</v>
-      </c>
-      <c r="I60" s="109"/>
-      <c r="J60" s="112"/>
-      <c r="K60" s="115"/>
-      <c r="L60" s="93"/>
-    </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A61" s="107"/>
-      <c r="B61" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="C61" s="10">
-        <v>44854</v>
-      </c>
-      <c r="D61" s="10">
-        <f>C61+7</f>
-        <v>44861</v>
-      </c>
-      <c r="E61" s="10">
-        <v>44864</v>
-      </c>
-      <c r="F61" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="G61" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="H61" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="I61" s="110"/>
-      <c r="J61" s="113"/>
-      <c r="K61" s="116"/>
-      <c r="L61" s="93"/>
-    </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A62" s="14">
-        <v>24</v>
-      </c>
-      <c r="B62" s="2"/>
-      <c r="C62" s="7">
-        <v>44815</v>
-      </c>
-      <c r="D62" s="7"/>
-      <c r="E62" s="8">
-        <v>44818</v>
-      </c>
-      <c r="F62" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="G62" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H62" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I62" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="J62" s="2">
-        <v>31</v>
-      </c>
-      <c r="K62" s="79">
-        <v>2</v>
-      </c>
-      <c r="L62" s="90"/>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A63" s="105">
-        <v>25</v>
-      </c>
-      <c r="B63" s="54" t="s">
-        <v>27</v>
-      </c>
-      <c r="C63" s="64">
-        <v>44846</v>
       </c>
       <c r="D63" s="64"/>
       <c r="E63" s="64">
+        <v>44818</v>
+      </c>
+      <c r="F63" s="65" t="s">
+        <v>10</v>
+      </c>
+      <c r="G63" s="66" t="s">
+        <v>14</v>
+      </c>
+      <c r="H63" s="66" t="s">
+        <v>11</v>
+      </c>
+      <c r="I63" s="113" t="s">
+        <v>0</v>
+      </c>
+      <c r="J63" s="107">
+        <v>22</v>
+      </c>
+      <c r="K63" s="110">
+        <v>2</v>
+      </c>
+      <c r="L63" s="103"/>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A64" s="105"/>
+      <c r="B64" s="50" t="s">
+        <v>26</v>
+      </c>
+      <c r="C64" s="64">
+        <v>44850</v>
+      </c>
+      <c r="D64" s="64"/>
+      <c r="E64" s="64">
+        <v>44850</v>
+      </c>
+      <c r="F64" s="65" t="s">
+        <v>10</v>
+      </c>
+      <c r="G64" s="66" t="s">
+        <v>40</v>
+      </c>
+      <c r="H64" s="66" t="s">
+        <v>41</v>
+      </c>
+      <c r="I64" s="114"/>
+      <c r="J64" s="108"/>
+      <c r="K64" s="111"/>
+      <c r="L64" s="103"/>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A65" s="106"/>
+      <c r="B65" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="C65" s="10">
+        <v>44854</v>
+      </c>
+      <c r="D65" s="10">
+        <f>C65+7</f>
+        <v>44861</v>
+      </c>
+      <c r="E65" s="10">
+        <v>44864</v>
+      </c>
+      <c r="F65" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="G65" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="H65" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="I65" s="115"/>
+      <c r="J65" s="109"/>
+      <c r="K65" s="112"/>
+      <c r="L65" s="103"/>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A66" s="14">
+        <v>24</v>
+      </c>
+      <c r="B66" s="2"/>
+      <c r="C66" s="7">
+        <v>44815</v>
+      </c>
+      <c r="D66" s="7"/>
+      <c r="E66" s="8">
+        <v>44818</v>
+      </c>
+      <c r="F66" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H66" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I66" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="J66" s="2">
+        <v>31</v>
+      </c>
+      <c r="K66" s="79">
+        <v>2</v>
+      </c>
+      <c r="L66" s="90"/>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A67" s="104">
+        <v>25</v>
+      </c>
+      <c r="B67" s="54" t="s">
+        <v>27</v>
+      </c>
+      <c r="C67" s="64">
         <v>44846</v>
       </c>
-      <c r="F63" s="65" t="s">
+      <c r="D67" s="64"/>
+      <c r="E67" s="64">
+        <v>44846</v>
+      </c>
+      <c r="F67" s="65" t="s">
         <v>24</v>
       </c>
-      <c r="G63" s="66" t="s">
+      <c r="G67" s="66" t="s">
         <v>40</v>
       </c>
-      <c r="H63" s="66" t="s">
+      <c r="H67" s="66" t="s">
         <v>41</v>
       </c>
-      <c r="I63" s="108" t="s">
+      <c r="I67" s="113" t="s">
         <v>0</v>
       </c>
-      <c r="J63" s="111">
+      <c r="J67" s="107">
         <v>44</v>
       </c>
-      <c r="K63" s="114">
+      <c r="K67" s="110">
         <v>3</v>
       </c>
-      <c r="L63" s="93"/>
-    </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A64" s="107"/>
-      <c r="B64" s="18" t="s">
+      <c r="L67" s="103"/>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A68" s="106"/>
+      <c r="B68" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="C64" s="10">
+      <c r="C68" s="10">
         <v>44855</v>
       </c>
-      <c r="D64" s="10">
+      <c r="D68" s="10">
         <v>44862</v>
       </c>
-      <c r="E64" s="10">
+      <c r="E68" s="10">
         <v>44864</v>
       </c>
-      <c r="F64" s="20" t="s">
+      <c r="F68" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="G64" s="21" t="s">
+      <c r="G68" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="H64" s="21" t="s">
+      <c r="H68" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="I64" s="110"/>
-      <c r="J64" s="113"/>
-      <c r="K64" s="116"/>
-      <c r="L64" s="93"/>
-    </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A65" s="102">
+      <c r="I68" s="115"/>
+      <c r="J68" s="109"/>
+      <c r="K68" s="112"/>
+      <c r="L68" s="103"/>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A69" s="116">
         <v>26</v>
       </c>
-      <c r="B65" s="55" t="s">
+      <c r="B69" s="55" t="s">
         <v>27</v>
       </c>
-      <c r="C65" s="62">
+      <c r="C69" s="62">
         <v>44829</v>
       </c>
-      <c r="D65" s="62"/>
-      <c r="E65" s="62">
+      <c r="D69" s="62"/>
+      <c r="E69" s="62">
         <v>44832</v>
       </c>
-      <c r="F65" s="63" t="s">
+      <c r="F69" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="G65" s="58" t="s">
+      <c r="G69" s="58" t="s">
         <v>14</v>
       </c>
-      <c r="H65" s="58" t="s">
+      <c r="H69" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="I65" s="108" t="s">
+      <c r="I69" s="113" t="s">
         <v>0</v>
       </c>
-      <c r="J65" s="95">
+      <c r="J69" s="95">
         <v>30</v>
       </c>
-      <c r="K65" s="98">
+      <c r="K69" s="98">
         <v>3</v>
       </c>
-      <c r="L65" s="101"/>
-    </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A66" s="103"/>
-      <c r="B66" s="55" t="s">
+      <c r="L69" s="101"/>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A70" s="117"/>
+      <c r="B70" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="C66" s="62">
+      <c r="C70" s="62">
         <v>44850</v>
       </c>
-      <c r="D66" s="62"/>
-      <c r="E66" s="62">
+      <c r="D70" s="62"/>
+      <c r="E70" s="62">
         <v>44850</v>
       </c>
-      <c r="F66" s="63" t="s">
+      <c r="F70" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="G66" s="58" t="s">
+      <c r="G70" s="58" t="s">
         <v>40</v>
       </c>
-      <c r="H66" s="58" t="s">
+      <c r="H70" s="58" t="s">
         <v>41</v>
       </c>
-      <c r="I66" s="109"/>
-      <c r="J66" s="96"/>
-      <c r="K66" s="99"/>
-      <c r="L66" s="101"/>
-    </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A67" s="104"/>
-      <c r="B67" s="19" t="s">
+      <c r="I70" s="114"/>
+      <c r="J70" s="96"/>
+      <c r="K70" s="99"/>
+      <c r="L70" s="101"/>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A71" s="118"/>
+      <c r="B71" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="C67" s="8">
+      <c r="C71" s="8">
         <v>44855</v>
       </c>
-      <c r="D67" s="8">
+      <c r="D71" s="8">
         <v>44862</v>
       </c>
-      <c r="E67" s="8">
+      <c r="E71" s="8">
         <v>44864</v>
       </c>
-      <c r="F67" s="24" t="s">
+      <c r="F71" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="G67" s="19" t="s">
+      <c r="G71" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="H67" s="19" t="s">
+      <c r="H71" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="I67" s="110"/>
-      <c r="J67" s="97"/>
-      <c r="K67" s="100"/>
-      <c r="L67" s="101"/>
-    </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A68" s="105">
+      <c r="I71" s="115"/>
+      <c r="J71" s="97"/>
+      <c r="K71" s="100"/>
+      <c r="L71" s="101"/>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A72" s="104">
         <v>27</v>
       </c>
-      <c r="B68" s="50" t="s">
+      <c r="B72" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="C68" s="72">
+      <c r="C72" s="72">
         <v>44810</v>
       </c>
-      <c r="D68" s="72"/>
-      <c r="E68" s="72">
+      <c r="D72" s="72"/>
+      <c r="E72" s="72">
         <v>44818</v>
       </c>
-      <c r="F68" s="73" t="s">
+      <c r="F72" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="G68" s="74" t="s">
+      <c r="G72" s="74" t="s">
         <v>17</v>
       </c>
-      <c r="H68" s="74" t="s">
+      <c r="H72" s="74" t="s">
         <v>16</v>
       </c>
-      <c r="I68" s="117" t="s">
+      <c r="I72" s="122" t="s">
         <v>4</v>
       </c>
-      <c r="J68" s="111">
+      <c r="J72" s="107">
         <v>12</v>
       </c>
-      <c r="K68" s="114">
+      <c r="K72" s="110">
         <v>1</v>
       </c>
-      <c r="L68" s="93"/>
-    </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A69" s="106"/>
-      <c r="B69" s="54" t="s">
+      <c r="L72" s="103"/>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A73" s="105"/>
+      <c r="B73" s="54" t="s">
         <v>26</v>
       </c>
-      <c r="C69" s="64">
+      <c r="C73" s="64">
         <v>44829</v>
       </c>
-      <c r="D69" s="64"/>
-      <c r="E69" s="64">
+      <c r="D73" s="64"/>
+      <c r="E73" s="64">
         <v>44836</v>
       </c>
-      <c r="F69" s="65" t="s">
+      <c r="F73" s="65" t="s">
         <v>10</v>
       </c>
-      <c r="G69" s="66" t="s">
+      <c r="G73" s="66" t="s">
         <v>25</v>
       </c>
-      <c r="H69" s="66" t="s">
+      <c r="H73" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="I69" s="118"/>
-      <c r="J69" s="112"/>
-      <c r="K69" s="115"/>
-      <c r="L69" s="93"/>
-    </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A70" s="106"/>
-      <c r="B70" s="54" t="s">
+      <c r="I73" s="123"/>
+      <c r="J73" s="108"/>
+      <c r="K73" s="111"/>
+      <c r="L73" s="103"/>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A74" s="105"/>
+      <c r="B74" s="54" t="s">
         <v>28</v>
       </c>
-      <c r="C70" s="64">
+      <c r="C74" s="64">
         <v>44855</v>
       </c>
-      <c r="D70" s="64">
+      <c r="D74" s="64">
         <v>44862</v>
       </c>
-      <c r="E70" s="64">
+      <c r="E74" s="64">
         <v>44864</v>
       </c>
-      <c r="F70" s="65" t="s">
+      <c r="F74" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="G70" s="66" t="s">
+      <c r="G74" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="H70" s="66" t="s">
+      <c r="H74" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="I70" s="118"/>
-      <c r="J70" s="112"/>
-      <c r="K70" s="115"/>
-      <c r="L70" s="93"/>
-    </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A71" s="107"/>
-      <c r="B71" s="76" t="s">
+      <c r="I74" s="123"/>
+      <c r="J74" s="108"/>
+      <c r="K74" s="111"/>
+      <c r="L74" s="103"/>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A75" s="106"/>
+      <c r="B75" s="76" t="s">
         <v>42</v>
       </c>
-      <c r="C71" s="10">
+      <c r="C75" s="10">
         <v>44869</v>
       </c>
-      <c r="D71" s="10">
+      <c r="D75" s="10">
         <v>44876</v>
       </c>
-      <c r="E71" s="10">
+      <c r="E75" s="10">
         <v>44847</v>
       </c>
-      <c r="F71" s="20" t="s">
+      <c r="F75" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="G71" s="21" t="s">
+      <c r="G75" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="H71" s="21" t="s">
+      <c r="H75" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="I71" s="119"/>
-      <c r="J71" s="113"/>
-      <c r="K71" s="116"/>
-      <c r="L71" s="93"/>
-    </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A72" s="102">
+      <c r="I75" s="124"/>
+      <c r="J75" s="109"/>
+      <c r="K75" s="112"/>
+      <c r="L75" s="103"/>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A76" s="116">
         <v>28</v>
       </c>
-      <c r="B72" s="55" t="s">
+      <c r="B76" s="55" t="s">
         <v>27</v>
       </c>
-      <c r="C72" s="56">
+      <c r="C76" s="56">
         <v>44807</v>
       </c>
-      <c r="D72" s="56"/>
-      <c r="E72" s="56">
+      <c r="D76" s="56"/>
+      <c r="E76" s="56">
         <v>44808</v>
       </c>
-      <c r="F72" s="57" t="s">
+      <c r="F76" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="G72" s="55" t="s">
+      <c r="G76" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="H72" s="55" t="s">
+      <c r="H76" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="I72" s="117" t="s">
+      <c r="I76" s="122" t="s">
         <v>4</v>
       </c>
-      <c r="J72" s="95">
+      <c r="J76" s="95">
         <v>21</v>
       </c>
-      <c r="K72" s="98">
+      <c r="K76" s="98">
         <v>2</v>
       </c>
-      <c r="L72" s="101"/>
-    </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A73" s="103"/>
-      <c r="B73" s="55" t="s">
+      <c r="L76" s="101"/>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A77" s="117"/>
+      <c r="B77" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="C73" s="62">
+      <c r="C77" s="62">
         <v>44829</v>
       </c>
-      <c r="D73" s="62">
+      <c r="D77" s="62">
         <v>44843</v>
       </c>
-      <c r="E73" s="62">
+      <c r="E77" s="62">
         <v>44843</v>
       </c>
-      <c r="F73" s="63" t="s">
+      <c r="F77" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="G73" s="58" t="s">
+      <c r="G77" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="H73" s="58" t="s">
+      <c r="H77" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="I73" s="118"/>
-      <c r="J73" s="96"/>
-      <c r="K73" s="99"/>
-      <c r="L73" s="101"/>
-    </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A74" s="104"/>
-      <c r="B74" s="19" t="s">
+      <c r="I77" s="123"/>
+      <c r="J77" s="96"/>
+      <c r="K77" s="99"/>
+      <c r="L77" s="101"/>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A78" s="118"/>
+      <c r="B78" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="C74" s="8">
+      <c r="C78" s="8">
         <v>44869</v>
       </c>
-      <c r="D74" s="8">
-        <f>C74+7</f>
+      <c r="D78" s="8">
+        <f>C78+7</f>
         <v>44876</v>
       </c>
-      <c r="E74" s="8">
+      <c r="E78" s="8">
         <v>44847</v>
       </c>
-      <c r="F74" s="24" t="s">
+      <c r="F78" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="G74" s="19" t="s">
+      <c r="G78" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="H74" s="19" t="s">
+      <c r="H78" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="I74" s="119"/>
-      <c r="J74" s="97"/>
-      <c r="K74" s="100"/>
-      <c r="L74" s="101"/>
-    </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A75" s="105">
+      <c r="I78" s="124"/>
+      <c r="J78" s="97"/>
+      <c r="K78" s="100"/>
+      <c r="L78" s="101"/>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A79" s="104">
         <v>29</v>
       </c>
-      <c r="B75" s="50" t="s">
+      <c r="B79" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="C75" s="72">
+      <c r="C79" s="72">
         <v>44807</v>
       </c>
-      <c r="D75" s="72"/>
-      <c r="E75" s="72">
+      <c r="D79" s="72"/>
+      <c r="E79" s="72">
         <v>44808</v>
       </c>
-      <c r="F75" s="73" t="s">
+      <c r="F79" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="G75" s="74" t="s">
+      <c r="G79" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="H75" s="74" t="s">
+      <c r="H79" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="I75" s="108" t="s">
+      <c r="I79" s="113" t="s">
         <v>0</v>
       </c>
-      <c r="J75" s="111">
+      <c r="J79" s="107">
         <v>35</v>
       </c>
-      <c r="K75" s="114">
+      <c r="K79" s="110">
         <v>2</v>
       </c>
-      <c r="L75" s="93"/>
-    </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A76" s="106"/>
-      <c r="B76" s="50" t="s">
+      <c r="L79" s="103"/>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A80" s="105"/>
+      <c r="B80" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="C76" s="72">
+      <c r="C80" s="72">
         <v>44810</v>
       </c>
-      <c r="D76" s="72"/>
-      <c r="E76" s="72">
+      <c r="D80" s="72"/>
+      <c r="E80" s="72">
         <v>44818</v>
       </c>
-      <c r="F76" s="73" t="s">
+      <c r="F80" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="G76" s="74" t="s">
+      <c r="G80" s="74" t="s">
         <v>17</v>
       </c>
-      <c r="H76" s="74" t="s">
+      <c r="H80" s="74" t="s">
         <v>16</v>
       </c>
-      <c r="I76" s="109"/>
-      <c r="J76" s="112"/>
-      <c r="K76" s="115"/>
-      <c r="L76" s="93"/>
-    </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A77" s="107"/>
-      <c r="B77" s="18" t="s">
+      <c r="I80" s="114"/>
+      <c r="J80" s="108"/>
+      <c r="K80" s="111"/>
+      <c r="L80" s="103"/>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A81" s="106"/>
+      <c r="B81" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="C77" s="10">
+      <c r="C81" s="10">
         <v>44829</v>
       </c>
-      <c r="D77" s="10">
+      <c r="D81" s="10">
         <v>44843</v>
       </c>
-      <c r="E77" s="10">
+      <c r="E81" s="10">
         <v>44843</v>
       </c>
-      <c r="F77" s="20" t="s">
+      <c r="F81" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="G77" s="21" t="s">
+      <c r="G81" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="H77" s="21" t="s">
+      <c r="H81" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="I77" s="110"/>
-      <c r="J77" s="113"/>
-      <c r="K77" s="116"/>
-      <c r="L77" s="93"/>
-    </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A78" s="102">
+      <c r="I81" s="115"/>
+      <c r="J81" s="109"/>
+      <c r="K81" s="112"/>
+      <c r="L81" s="103"/>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A82" s="116">
         <v>30</v>
       </c>
-      <c r="B78" s="55" t="s">
+      <c r="B82" s="55" t="s">
         <v>27</v>
       </c>
-      <c r="C78" s="56">
+      <c r="C82" s="56">
         <v>44807</v>
       </c>
-      <c r="D78" s="56"/>
-      <c r="E78" s="56">
+      <c r="D82" s="56"/>
+      <c r="E82" s="56">
         <v>44815</v>
       </c>
-      <c r="F78" s="57" t="s">
+      <c r="F82" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="G78" s="55" t="s">
+      <c r="G82" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="H78" s="55" t="s">
+      <c r="H82" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="I78" s="108" t="s">
+      <c r="I82" s="113" t="s">
         <v>0</v>
       </c>
-      <c r="J78" s="95">
+      <c r="J82" s="95">
         <v>19</v>
       </c>
-      <c r="K78" s="98">
+      <c r="K82" s="98">
         <v>1</v>
       </c>
-      <c r="L78" s="101"/>
-    </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A79" s="103"/>
-      <c r="B79" s="55" t="s">
+      <c r="L82" s="101"/>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A83" s="117"/>
+      <c r="B83" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="C79" s="56">
+      <c r="C83" s="56">
         <v>44814</v>
       </c>
-      <c r="D79" s="56"/>
-      <c r="E79" s="56">
+      <c r="D83" s="56"/>
+      <c r="E83" s="56">
         <v>44815</v>
       </c>
-      <c r="F79" s="57" t="s">
+      <c r="F83" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="G79" s="55" t="s">
+      <c r="G83" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="H79" s="55" t="s">
+      <c r="H83" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="I79" s="109"/>
-      <c r="J79" s="96"/>
-      <c r="K79" s="99"/>
-      <c r="L79" s="101"/>
-    </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A80" s="48"/>
-      <c r="B80" s="19" t="s">
+      <c r="I83" s="114"/>
+      <c r="J83" s="96"/>
+      <c r="K83" s="99"/>
+      <c r="L83" s="101"/>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A84" s="48"/>
+      <c r="B84" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="C80" s="8">
+      <c r="C84" s="8">
         <v>44855</v>
       </c>
-      <c r="D80" s="8">
+      <c r="D84" s="8">
         <v>44862</v>
       </c>
-      <c r="E80" s="8">
+      <c r="E84" s="8">
         <v>44864</v>
       </c>
-      <c r="F80" s="24" t="s">
+      <c r="F84" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="G80" s="19" t="s">
+      <c r="G84" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="H80" s="19" t="s">
+      <c r="H84" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="I80" s="110"/>
-      <c r="J80" s="97"/>
-      <c r="K80" s="100"/>
-      <c r="L80" s="90"/>
-    </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A81" s="105">
+      <c r="I84" s="115"/>
+      <c r="J84" s="97"/>
+      <c r="K84" s="100"/>
+      <c r="L84" s="90"/>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A85" s="104">
         <v>31</v>
       </c>
-      <c r="B81" s="50" t="s">
+      <c r="B85" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="C81" s="72">
+      <c r="C85" s="72">
         <v>44813</v>
       </c>
-      <c r="D81" s="72"/>
-      <c r="E81" s="72">
+      <c r="D85" s="72"/>
+      <c r="E85" s="72">
         <v>44815</v>
       </c>
-      <c r="F81" s="73" t="s">
+      <c r="F85" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="G81" s="74" t="s">
+      <c r="G85" s="74" t="s">
         <v>2</v>
       </c>
-      <c r="H81" s="74" t="s">
+      <c r="H85" s="74" t="s">
         <v>5</v>
       </c>
-      <c r="I81" s="94" t="s">
+      <c r="I85" s="134" t="s">
         <v>0</v>
       </c>
-      <c r="J81" s="111">
+      <c r="J85" s="107">
         <v>50</v>
       </c>
-      <c r="K81" s="114">
+      <c r="K85" s="110">
         <v>4</v>
       </c>
-      <c r="L81" s="93"/>
-    </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A82" s="106"/>
-      <c r="B82" s="54" t="s">
+      <c r="L85" s="103"/>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A86" s="105"/>
+      <c r="B86" s="54" t="s">
         <v>26</v>
       </c>
-      <c r="C82" s="67">
+      <c r="C86" s="67">
         <v>44824</v>
       </c>
-      <c r="D82" s="67"/>
-      <c r="E82" s="67">
+      <c r="D86" s="67"/>
+      <c r="E86" s="67">
         <v>44832</v>
       </c>
-      <c r="F82" s="68" t="s">
+      <c r="F86" s="68" t="s">
         <v>15</v>
       </c>
-      <c r="G82" s="66" t="s">
+      <c r="G86" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="H82" s="66" t="s">
+      <c r="H86" s="66" t="s">
         <v>16</v>
       </c>
-      <c r="I82" s="94"/>
-      <c r="J82" s="112"/>
-      <c r="K82" s="115"/>
-      <c r="L82" s="93"/>
-    </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A83" s="106"/>
-      <c r="B83" s="54" t="s">
+      <c r="I86" s="134"/>
+      <c r="J86" s="108"/>
+      <c r="K86" s="111"/>
+      <c r="L86" s="103"/>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A87" s="105"/>
+      <c r="B87" s="54" t="s">
         <v>28</v>
       </c>
-      <c r="C83" s="67">
+      <c r="C87" s="67">
         <v>44843</v>
       </c>
-      <c r="D83" s="67"/>
-      <c r="E83" s="67">
+      <c r="D87" s="67"/>
+      <c r="E87" s="67">
         <v>44843</v>
       </c>
-      <c r="F83" s="68" t="s">
+      <c r="F87" s="68" t="s">
         <v>10</v>
       </c>
-      <c r="G83" s="66" t="s">
+      <c r="G87" s="66" t="s">
         <v>14</v>
       </c>
-      <c r="H83" s="66" t="s">
+      <c r="H87" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="I83" s="94"/>
-      <c r="J83" s="112"/>
-      <c r="K83" s="115"/>
-      <c r="L83" s="93"/>
-    </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A84" s="106"/>
-      <c r="B84" s="50" t="s">
+      <c r="I87" s="134"/>
+      <c r="J87" s="108"/>
+      <c r="K87" s="111"/>
+      <c r="L87" s="103"/>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A88" s="105"/>
+      <c r="B88" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="C84" s="67">
+      <c r="C88" s="67">
         <v>44850</v>
       </c>
-      <c r="D84" s="67"/>
-      <c r="E84" s="67">
+      <c r="D88" s="67"/>
+      <c r="E88" s="67">
         <v>44850</v>
       </c>
-      <c r="F84" s="68" t="s">
+      <c r="F88" s="68" t="s">
         <v>10</v>
       </c>
-      <c r="G84" s="66" t="s">
+      <c r="G88" s="66" t="s">
         <v>40</v>
       </c>
-      <c r="H84" s="66" t="s">
+      <c r="H88" s="66" t="s">
         <v>41</v>
       </c>
-      <c r="I84" s="94"/>
-      <c r="J84" s="112"/>
-      <c r="K84" s="115"/>
-      <c r="L84" s="93"/>
-    </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A85" s="107"/>
-      <c r="B85" s="34" t="s">
+      <c r="I88" s="134"/>
+      <c r="J88" s="108"/>
+      <c r="K88" s="111"/>
+      <c r="L88" s="103"/>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A89" s="106"/>
+      <c r="B89" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="C85" s="6">
+      <c r="C89" s="6">
         <v>44857</v>
       </c>
-      <c r="D85" s="6">
+      <c r="D89" s="6">
         <v>44871</v>
       </c>
-      <c r="E85" s="6">
+      <c r="E89" s="6">
         <v>44875</v>
       </c>
-      <c r="F85" s="23" t="s">
+      <c r="F89" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="G85" s="21" t="s">
+      <c r="G89" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="H85" s="21" t="s">
+      <c r="H89" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="I85" s="94"/>
-      <c r="J85" s="113"/>
-      <c r="K85" s="116"/>
-      <c r="L85" s="93"/>
-    </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A86" s="142">
+      <c r="I89" s="134"/>
+      <c r="J89" s="109"/>
+      <c r="K89" s="112"/>
+      <c r="L89" s="103"/>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A90" s="135">
         <v>32</v>
       </c>
-      <c r="B86" s="55" t="s">
+      <c r="B90" s="55" t="s">
         <v>27</v>
       </c>
-      <c r="C86" s="62">
+      <c r="C90" s="62">
         <v>44813</v>
       </c>
-      <c r="D86" s="62"/>
-      <c r="E86" s="71">
+      <c r="D90" s="62"/>
+      <c r="E90" s="71">
         <v>44815</v>
       </c>
-      <c r="F86" s="63" t="s">
+      <c r="F90" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="G86" s="58" t="s">
+      <c r="G90" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="H86" s="58" t="s">
+      <c r="H90" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="I86" s="108" t="s">
+      <c r="I90" s="113" t="s">
         <v>0</v>
       </c>
-      <c r="J86" s="95">
+      <c r="J90" s="95">
         <v>77</v>
       </c>
-      <c r="K86" s="98">
+      <c r="K90" s="98">
         <v>4</v>
       </c>
-      <c r="L86" s="101"/>
-    </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A87" s="142"/>
-      <c r="B87" s="55" t="s">
+      <c r="L90" s="101"/>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A91" s="135"/>
+      <c r="B91" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="C87" s="62">
+      <c r="C91" s="62">
         <v>44843</v>
       </c>
-      <c r="D87" s="62"/>
-      <c r="E87" s="62">
+      <c r="D91" s="62"/>
+      <c r="E91" s="62">
         <v>44843</v>
       </c>
-      <c r="F87" s="63" t="s">
+      <c r="F91" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="G87" s="58" t="s">
+      <c r="G91" s="58" t="s">
         <v>14</v>
       </c>
-      <c r="H87" s="58" t="s">
+      <c r="H91" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="I87" s="109"/>
-      <c r="J87" s="96"/>
-      <c r="K87" s="99"/>
-      <c r="L87" s="101"/>
-    </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A88" s="142"/>
-      <c r="B88" s="58" t="s">
+      <c r="I91" s="114"/>
+      <c r="J91" s="96"/>
+      <c r="K91" s="99"/>
+      <c r="L91" s="101"/>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A92" s="135"/>
+      <c r="B92" s="58" t="s">
         <v>28</v>
       </c>
-      <c r="C88" s="62">
+      <c r="C92" s="62">
         <v>44850</v>
       </c>
-      <c r="D88" s="62"/>
-      <c r="E88" s="62">
+      <c r="D92" s="62"/>
+      <c r="E92" s="62">
         <v>44850</v>
       </c>
-      <c r="F88" s="63" t="s">
+      <c r="F92" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="G88" s="58" t="s">
+      <c r="G92" s="58" t="s">
         <v>40</v>
       </c>
-      <c r="H88" s="58" t="s">
+      <c r="H92" s="58" t="s">
         <v>41</v>
       </c>
-      <c r="I88" s="109"/>
-      <c r="J88" s="96"/>
-      <c r="K88" s="99"/>
-      <c r="L88" s="101"/>
-    </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A89" s="142"/>
-      <c r="B89" s="19" t="s">
+      <c r="I92" s="114"/>
+      <c r="J92" s="96"/>
+      <c r="K92" s="99"/>
+      <c r="L92" s="101"/>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A93" s="135"/>
+      <c r="B93" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="C89" s="8">
+      <c r="C93" s="8">
         <v>44857</v>
       </c>
-      <c r="D89" s="31">
+      <c r="D93" s="31">
         <v>44871</v>
       </c>
-      <c r="E89" s="31">
+      <c r="E93" s="31">
         <v>44875</v>
       </c>
-      <c r="F89" s="24" t="s">
+      <c r="F93" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="G89" s="19" t="s">
+      <c r="G93" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="H89" s="19" t="s">
+      <c r="H93" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="I89" s="110"/>
-      <c r="J89" s="97"/>
-      <c r="K89" s="100"/>
-      <c r="L89" s="101"/>
-    </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A90" s="105">
+      <c r="I93" s="115"/>
+      <c r="J93" s="97"/>
+      <c r="K93" s="100"/>
+      <c r="L93" s="101"/>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A94" s="104">
         <v>33</v>
       </c>
-      <c r="B90" s="50" t="s">
+      <c r="B94" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="C90" s="72">
+      <c r="C94" s="72">
         <v>44806</v>
       </c>
-      <c r="D90" s="72"/>
-      <c r="E90" s="72">
+      <c r="D94" s="72"/>
+      <c r="E94" s="72">
         <v>44815</v>
       </c>
-      <c r="F90" s="73" t="s">
+      <c r="F94" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="G90" s="74" t="s">
+      <c r="G94" s="74" t="s">
         <v>2</v>
       </c>
-      <c r="H90" s="74" t="s">
+      <c r="H94" s="74" t="s">
         <v>5</v>
       </c>
-      <c r="I90" s="108" t="s">
+      <c r="I94" s="113" t="s">
         <v>0</v>
       </c>
-      <c r="J90" s="111">
+      <c r="J94" s="107">
         <v>62</v>
       </c>
-      <c r="K90" s="114">
+      <c r="K94" s="110">
         <v>4</v>
       </c>
-      <c r="L90" s="93"/>
-    </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A91" s="106"/>
-      <c r="B91" s="50" t="s">
+      <c r="L94" s="103"/>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A95" s="105"/>
+      <c r="B95" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="C91" s="67">
+      <c r="C95" s="67">
         <v>44824</v>
       </c>
-      <c r="D91" s="67"/>
-      <c r="E91" s="75">
+      <c r="D95" s="67"/>
+      <c r="E95" s="75">
         <v>44832</v>
       </c>
-      <c r="F91" s="68" t="s">
+      <c r="F95" s="68" t="s">
         <v>15</v>
       </c>
-      <c r="G91" s="66" t="s">
+      <c r="G95" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="H91" s="66" t="s">
+      <c r="H95" s="66" t="s">
         <v>16</v>
       </c>
-      <c r="I91" s="109"/>
-      <c r="J91" s="112"/>
-      <c r="K91" s="115"/>
-      <c r="L91" s="93"/>
-    </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A92" s="107"/>
-      <c r="B92" s="18" t="s">
+      <c r="I95" s="114"/>
+      <c r="J95" s="108"/>
+      <c r="K95" s="111"/>
+      <c r="L95" s="103"/>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A96" s="106"/>
+      <c r="B96" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="C92" s="6">
+      <c r="C96" s="6">
         <v>44857</v>
       </c>
-      <c r="D92" s="6">
+      <c r="D96" s="6">
         <v>44871</v>
       </c>
-      <c r="E92" s="6">
+      <c r="E96" s="6">
         <v>44875</v>
       </c>
-      <c r="F92" s="23" t="s">
+      <c r="F96" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="G92" s="21" t="s">
+      <c r="G96" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="H92" s="21" t="s">
+      <c r="H96" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="I92" s="110"/>
-      <c r="J92" s="113"/>
-      <c r="K92" s="116"/>
-      <c r="L92" s="93"/>
-    </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A93" s="152">
+      <c r="I96" s="115"/>
+      <c r="J96" s="109"/>
+      <c r="K96" s="112"/>
+      <c r="L96" s="103"/>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A97" s="119">
         <v>34</v>
       </c>
-      <c r="B93" s="55" t="s">
+      <c r="B97" s="55" t="s">
         <v>27</v>
       </c>
-      <c r="C93" s="56">
+      <c r="C97" s="56">
         <v>44807</v>
       </c>
-      <c r="D93" s="56"/>
-      <c r="E93" s="56">
+      <c r="D97" s="56"/>
+      <c r="E97" s="56">
         <v>44808</v>
       </c>
-      <c r="F93" s="57" t="s">
+      <c r="F97" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="G93" s="55" t="s">
+      <c r="G97" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="H93" s="55" t="s">
+      <c r="H97" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="I93" s="117" t="s">
+      <c r="I97" s="122" t="s">
         <v>4</v>
       </c>
-      <c r="J93" s="95">
+      <c r="J97" s="95">
         <v>58</v>
       </c>
-      <c r="K93" s="98">
+      <c r="K97" s="98">
         <v>3</v>
       </c>
-      <c r="L93" s="151" t="s">
+      <c r="L97" s="102" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A94" s="153"/>
-      <c r="B94" s="55" t="s">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A98" s="120"/>
+      <c r="B98" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="C94" s="62">
+      <c r="C98" s="62">
         <v>44829</v>
       </c>
-      <c r="D94" s="62">
-        <f>C94+7</f>
+      <c r="D98" s="62">
+        <f>C98+7</f>
         <v>44836</v>
       </c>
-      <c r="E94" s="62">
-        <f>D94+3</f>
+      <c r="E98" s="62">
+        <f>D98+3</f>
         <v>44839</v>
       </c>
-      <c r="F94" s="63" t="s">
+      <c r="F98" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="G94" s="58" t="s">
+      <c r="G98" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="H94" s="58" t="s">
+      <c r="H98" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="I94" s="118"/>
-      <c r="J94" s="96"/>
-      <c r="K94" s="99"/>
-      <c r="L94" s="151"/>
-    </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A95" s="154"/>
-      <c r="B95" s="19" t="s">
+      <c r="I98" s="123"/>
+      <c r="J98" s="96"/>
+      <c r="K98" s="99"/>
+      <c r="L98" s="102"/>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A99" s="121"/>
+      <c r="B99" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="C95" s="8">
+      <c r="C99" s="8">
         <v>44843</v>
       </c>
-      <c r="D95" s="8"/>
-      <c r="E95" s="8">
+      <c r="D99" s="8"/>
+      <c r="E99" s="8">
         <v>44843</v>
       </c>
-      <c r="F95" s="24" t="s">
+      <c r="F99" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="G95" s="19" t="s">
+      <c r="G99" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="H95" s="19" t="s">
+      <c r="H99" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="I95" s="119"/>
-      <c r="J95" s="97"/>
-      <c r="K95" s="100"/>
-      <c r="L95" s="151"/>
-    </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A96" s="139">
+      <c r="I99" s="124"/>
+      <c r="J99" s="97"/>
+      <c r="K99" s="100"/>
+      <c r="L99" s="102"/>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A100" s="137">
         <v>35</v>
       </c>
-      <c r="B96" s="50" t="s">
+      <c r="B100" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="C96" s="64">
+      <c r="C100" s="64">
         <v>44807</v>
       </c>
-      <c r="D96" s="64"/>
-      <c r="E96" s="64">
+      <c r="D100" s="64"/>
+      <c r="E100" s="64">
         <v>44808</v>
       </c>
-      <c r="F96" s="65" t="s">
+      <c r="F100" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="G96" s="66" t="s">
+      <c r="G100" s="66" t="s">
         <v>9</v>
       </c>
-      <c r="H96" s="66" t="s">
+      <c r="H100" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="I96" s="117" t="s">
+      <c r="I100" s="122" t="s">
         <v>4</v>
       </c>
-      <c r="J96" s="111">
+      <c r="J100" s="107">
         <v>40</v>
       </c>
-      <c r="K96" s="114">
+      <c r="K100" s="110">
         <v>2</v>
       </c>
-      <c r="L96" s="93"/>
-    </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A97" s="140"/>
-      <c r="B97" s="50" t="s">
+      <c r="L100" s="103"/>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A101" s="138"/>
+      <c r="B101" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="C97" s="67">
+      <c r="C101" s="67">
         <v>44843</v>
       </c>
-      <c r="D97" s="67"/>
-      <c r="E97" s="67">
+      <c r="D101" s="67"/>
+      <c r="E101" s="67">
         <v>44843</v>
       </c>
-      <c r="F97" s="68" t="s">
+      <c r="F101" s="68" t="s">
         <v>10</v>
       </c>
-      <c r="G97" s="66" t="s">
+      <c r="G101" s="66" t="s">
         <v>9</v>
       </c>
-      <c r="H97" s="66" t="s">
+      <c r="H101" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="I97" s="118"/>
-      <c r="J97" s="112"/>
-      <c r="K97" s="115"/>
-      <c r="L97" s="93"/>
-    </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A98" s="141"/>
-      <c r="B98" s="18" t="s">
+      <c r="I101" s="123"/>
+      <c r="J101" s="108"/>
+      <c r="K101" s="111"/>
+      <c r="L101" s="103"/>
+    </row>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A102" s="139"/>
+      <c r="B102" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="C98" s="17">
+      <c r="C102" s="17">
         <v>44863</v>
       </c>
-      <c r="D98" s="17"/>
-      <c r="E98" s="17">
+      <c r="D102" s="17"/>
+      <c r="E102" s="17">
         <v>44864</v>
       </c>
-      <c r="F98" s="35" t="s">
+      <c r="F102" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="G98" s="36" t="s">
+      <c r="G102" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="H98" s="18" t="s">
+      <c r="H102" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="I98" s="119"/>
-      <c r="J98" s="113"/>
-      <c r="K98" s="116"/>
-      <c r="L98" s="93"/>
-    </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A99" s="132">
+      <c r="I102" s="124"/>
+      <c r="J102" s="109"/>
+      <c r="K102" s="112"/>
+      <c r="L102" s="103"/>
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A103" s="131">
         <v>36</v>
       </c>
-      <c r="B99" s="55" t="s">
+      <c r="B103" s="55" t="s">
         <v>27</v>
       </c>
-      <c r="C99" s="62">
+      <c r="C103" s="62">
         <v>44808</v>
       </c>
-      <c r="D99" s="62">
-        <f>C99+7</f>
+      <c r="D103" s="62">
+        <f>C103+7</f>
         <v>44815</v>
       </c>
-      <c r="E99" s="71">
+      <c r="E103" s="71">
         <v>44818</v>
       </c>
-      <c r="F99" s="63" t="s">
+      <c r="F103" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="G99" s="58" t="s">
+      <c r="G103" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="H99" s="58" t="s">
+      <c r="H103" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="I99" s="108" t="s">
+      <c r="I103" s="113" t="s">
         <v>0</v>
       </c>
-      <c r="J99" s="95">
+      <c r="J103" s="95">
         <v>152</v>
       </c>
-      <c r="K99" s="98">
+      <c r="K103" s="98">
         <v>8</v>
       </c>
-      <c r="L99" s="149"/>
-    </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A100" s="150"/>
-      <c r="B100" s="58" t="s">
+      <c r="L103" s="130"/>
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A104" s="132"/>
+      <c r="B104" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="C100" s="62">
+      <c r="C104" s="62">
         <v>44840</v>
       </c>
-      <c r="D100" s="62"/>
-      <c r="E100" s="62">
+      <c r="D104" s="62"/>
+      <c r="E104" s="62">
         <v>44843</v>
       </c>
-      <c r="F100" s="63" t="s">
+      <c r="F104" s="63" t="s">
         <v>3</v>
       </c>
-      <c r="G100" s="58" t="s">
+      <c r="G104" s="58" t="s">
         <v>39</v>
       </c>
-      <c r="H100" s="58" t="s">
+      <c r="H104" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="I100" s="109"/>
-      <c r="J100" s="96"/>
-      <c r="K100" s="99"/>
-      <c r="L100" s="149"/>
-    </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A101" s="133"/>
-      <c r="B101" s="19" t="s">
+      <c r="I104" s="114"/>
+      <c r="J104" s="96"/>
+      <c r="K104" s="99"/>
+      <c r="L104" s="130"/>
+    </row>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A105" s="133"/>
+      <c r="B105" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="C101" s="8">
+      <c r="C105" s="8">
         <v>44847</v>
       </c>
-      <c r="D101" s="8"/>
-      <c r="E101" s="8">
+      <c r="D105" s="8"/>
+      <c r="E105" s="8">
         <v>44850</v>
       </c>
-      <c r="F101" s="24" t="s">
+      <c r="F105" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="G101" s="19" t="s">
+      <c r="G105" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="H101" s="19" t="s">
+      <c r="H105" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="I101" s="110"/>
-      <c r="J101" s="97"/>
-      <c r="K101" s="100"/>
-      <c r="L101" s="149"/>
-    </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A102" s="105">
+      <c r="I105" s="115"/>
+      <c r="J105" s="97"/>
+      <c r="K105" s="100"/>
+      <c r="L105" s="130"/>
+    </row>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A106" s="104">
         <v>37</v>
       </c>
-      <c r="B102" s="50" t="s">
+      <c r="B106" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="C102" s="72">
+      <c r="C106" s="72">
         <v>44822</v>
       </c>
-      <c r="D102" s="72"/>
-      <c r="E102" s="72">
+      <c r="D106" s="72"/>
+      <c r="E106" s="72">
         <v>44822</v>
       </c>
-      <c r="F102" s="73" t="s">
+      <c r="F106" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="G102" s="74" t="s">
+      <c r="G106" s="74" t="s">
         <v>12</v>
       </c>
-      <c r="H102" s="74" t="s">
+      <c r="H106" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="I102" s="108" t="s">
+      <c r="I106" s="113" t="s">
         <v>0</v>
       </c>
-      <c r="J102" s="111">
+      <c r="J106" s="107">
         <v>55</v>
       </c>
-      <c r="K102" s="114">
+      <c r="K106" s="110">
         <v>3</v>
       </c>
-      <c r="L102" s="93"/>
-    </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A103" s="106"/>
-      <c r="B103" s="50" t="s">
+      <c r="L106" s="103"/>
+    </row>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A107" s="105"/>
+      <c r="B107" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="C103" s="72">
+      <c r="C107" s="72">
         <v>44847</v>
       </c>
-      <c r="D103" s="72"/>
-      <c r="E103" s="72">
+      <c r="D107" s="72"/>
+      <c r="E107" s="72">
         <v>44850</v>
       </c>
-      <c r="F103" s="73" t="s">
+      <c r="F107" s="73" t="s">
         <v>3</v>
       </c>
-      <c r="G103" s="74" t="s">
+      <c r="G107" s="74" t="s">
         <v>40</v>
       </c>
-      <c r="H103" s="74" t="s">
+      <c r="H107" s="74" t="s">
         <v>41</v>
       </c>
-      <c r="I103" s="109"/>
-      <c r="J103" s="112"/>
-      <c r="K103" s="115"/>
-      <c r="L103" s="93"/>
-    </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A104" s="107"/>
-      <c r="B104" s="18" t="s">
+      <c r="I107" s="114"/>
+      <c r="J107" s="108"/>
+      <c r="K107" s="111"/>
+      <c r="L107" s="103"/>
+    </row>
+    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A108" s="106"/>
+      <c r="B108" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="C104" s="40">
+      <c r="C108" s="40">
         <v>44857</v>
       </c>
-      <c r="D104" s="6">
+      <c r="D108" s="6">
         <v>44871</v>
       </c>
-      <c r="E104" s="6">
+      <c r="E108" s="6">
         <v>44875</v>
       </c>
-      <c r="F104" s="41" t="s">
+      <c r="F108" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="G104" s="42" t="s">
+      <c r="G108" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="H104" s="42" t="s">
+      <c r="H108" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="I104" s="110"/>
-      <c r="J104" s="113"/>
-      <c r="K104" s="116"/>
-      <c r="L104" s="93"/>
-    </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A105" s="102">
+      <c r="I108" s="115"/>
+      <c r="J108" s="109"/>
+      <c r="K108" s="112"/>
+      <c r="L108" s="103"/>
+    </row>
+    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A109" s="116">
         <v>38</v>
       </c>
-      <c r="B105" s="55" t="s">
+      <c r="B109" s="55" t="s">
         <v>27</v>
       </c>
-      <c r="C105" s="56">
+      <c r="C109" s="56">
         <v>44815</v>
       </c>
-      <c r="D105" s="56"/>
-      <c r="E105" s="56">
+      <c r="D109" s="56"/>
+      <c r="E109" s="56">
         <v>44818</v>
       </c>
-      <c r="F105" s="57" t="s">
+      <c r="F109" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="G105" s="55" t="s">
+      <c r="G109" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="H105" s="55" t="s">
+      <c r="H109" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="I105" s="94" t="s">
+      <c r="I109" s="134" t="s">
         <v>0</v>
       </c>
-      <c r="J105" s="95">
+      <c r="J109" s="95">
         <v>61</v>
       </c>
-      <c r="K105" s="98">
+      <c r="K109" s="98">
         <v>3</v>
       </c>
-      <c r="L105" s="101"/>
-    </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A106" s="103"/>
-      <c r="B106" s="55" t="s">
+      <c r="L109" s="101"/>
+    </row>
+    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A110" s="117"/>
+      <c r="B110" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="C106" s="62">
+      <c r="C110" s="62">
         <v>44829</v>
       </c>
-      <c r="D106" s="62"/>
-      <c r="E106" s="62">
+      <c r="D110" s="62"/>
+      <c r="E110" s="62">
         <v>44836</v>
       </c>
-      <c r="F106" s="63" t="s">
+      <c r="F110" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="G106" s="58" t="s">
+      <c r="G110" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="H106" s="58" t="s">
+      <c r="H110" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="I106" s="94"/>
-      <c r="J106" s="96"/>
-      <c r="K106" s="99"/>
-      <c r="L106" s="101"/>
-    </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A107" s="103"/>
-      <c r="B107" s="58" t="s">
+      <c r="I110" s="134"/>
+      <c r="J110" s="96"/>
+      <c r="K110" s="99"/>
+      <c r="L110" s="101"/>
+    </row>
+    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A111" s="117"/>
+      <c r="B111" s="58" t="s">
         <v>28</v>
       </c>
-      <c r="C107" s="62">
+      <c r="C111" s="62">
         <v>44843</v>
       </c>
-      <c r="D107" s="62"/>
-      <c r="E107" s="62">
+      <c r="D111" s="62"/>
+      <c r="E111" s="62">
         <v>44843</v>
       </c>
-      <c r="F107" s="63" t="s">
+      <c r="F111" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="G107" s="58" t="s">
+      <c r="G111" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="H107" s="58" t="s">
+      <c r="H111" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="I107" s="94"/>
-      <c r="J107" s="96"/>
-      <c r="K107" s="99"/>
-      <c r="L107" s="101"/>
-    </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A108" s="103"/>
-      <c r="B108" s="58" t="s">
+      <c r="I111" s="134"/>
+      <c r="J111" s="96"/>
+      <c r="K111" s="99"/>
+      <c r="L111" s="101"/>
+    </row>
+    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A112" s="117"/>
+      <c r="B112" s="58" t="s">
         <v>42</v>
       </c>
-      <c r="C108" s="62">
+      <c r="C112" s="62">
         <v>44847</v>
       </c>
-      <c r="D108" s="62"/>
-      <c r="E108" s="62">
+      <c r="D112" s="62"/>
+      <c r="E112" s="62">
         <v>44850</v>
       </c>
-      <c r="F108" s="63" t="s">
+      <c r="F112" s="63" t="s">
         <v>3</v>
       </c>
-      <c r="G108" s="58" t="s">
+      <c r="G112" s="58" t="s">
         <v>40</v>
       </c>
-      <c r="H108" s="58" t="s">
+      <c r="H112" s="58" t="s">
         <v>41</v>
       </c>
-      <c r="I108" s="94"/>
-      <c r="J108" s="96"/>
-      <c r="K108" s="99"/>
-      <c r="L108" s="101"/>
-    </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A109" s="104"/>
-      <c r="B109" s="19" t="s">
+      <c r="I112" s="134"/>
+      <c r="J112" s="96"/>
+      <c r="K112" s="99"/>
+      <c r="L112" s="101"/>
+    </row>
+    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A113" s="118"/>
+      <c r="B113" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="C109" s="8">
+      <c r="C113" s="8">
         <v>44857</v>
       </c>
-      <c r="D109" s="31">
+      <c r="D113" s="31">
         <v>44871</v>
       </c>
-      <c r="E109" s="31">
+      <c r="E113" s="31">
         <v>44875</v>
       </c>
-      <c r="F109" s="24" t="s">
+      <c r="F113" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="G109" s="19" t="s">
+      <c r="G113" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="H109" s="19" t="s">
+      <c r="H113" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="I109" s="94"/>
-      <c r="J109" s="97"/>
-      <c r="K109" s="100"/>
-      <c r="L109" s="101"/>
-    </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A110" s="105">
+      <c r="I113" s="134"/>
+      <c r="J113" s="97"/>
+      <c r="K113" s="100"/>
+      <c r="L113" s="101"/>
+    </row>
+    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A114" s="104">
         <v>39</v>
       </c>
-      <c r="B110" s="50" t="s">
+      <c r="B114" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="C110" s="72">
+      <c r="C114" s="72">
         <v>44822</v>
       </c>
-      <c r="D110" s="72"/>
-      <c r="E110" s="72">
+      <c r="D114" s="72"/>
+      <c r="E114" s="72">
         <v>44822</v>
       </c>
-      <c r="F110" s="73" t="s">
+      <c r="F114" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="G110" s="74" t="s">
+      <c r="G114" s="74" t="s">
         <v>12</v>
       </c>
-      <c r="H110" s="74" t="s">
+      <c r="H114" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="I110" s="94" t="s">
+      <c r="I114" s="134" t="s">
         <v>0</v>
       </c>
-      <c r="J110" s="136">
+      <c r="J114" s="145">
         <v>20</v>
       </c>
-      <c r="K110" s="114">
+      <c r="K114" s="110">
         <v>1</v>
       </c>
-      <c r="L110" s="93"/>
-    </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A111" s="106"/>
-      <c r="B111" s="50" t="s">
+      <c r="L114" s="103"/>
+    </row>
+    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A115" s="105"/>
+      <c r="B115" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="C111" s="64">
+      <c r="C115" s="64">
         <v>44829</v>
       </c>
-      <c r="D111" s="64"/>
-      <c r="E111" s="64">
+      <c r="D115" s="64"/>
+      <c r="E115" s="64">
         <v>44829</v>
       </c>
-      <c r="F111" s="65" t="s">
+      <c r="F115" s="65" t="s">
         <v>10</v>
       </c>
-      <c r="G111" s="66" t="s">
+      <c r="G115" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="H111" s="66" t="s">
+      <c r="H115" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="I111" s="94"/>
-      <c r="J111" s="137"/>
-      <c r="K111" s="115"/>
-      <c r="L111" s="93"/>
-    </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A112" s="106"/>
-      <c r="B112" s="54" t="s">
+      <c r="I115" s="134"/>
+      <c r="J115" s="146"/>
+      <c r="K115" s="111"/>
+      <c r="L115" s="103"/>
+    </row>
+    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A116" s="105"/>
+      <c r="B116" s="54" t="s">
         <v>28</v>
       </c>
-      <c r="C112" s="64">
+      <c r="C116" s="64">
         <v>44847</v>
       </c>
-      <c r="D112" s="64"/>
-      <c r="E112" s="64">
+      <c r="D116" s="64"/>
+      <c r="E116" s="64">
         <v>44850</v>
       </c>
-      <c r="F112" s="65" t="s">
+      <c r="F116" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="G112" s="66" t="s">
+      <c r="G116" s="66" t="s">
         <v>40</v>
       </c>
-      <c r="H112" s="66" t="s">
+      <c r="H116" s="66" t="s">
         <v>41</v>
       </c>
-      <c r="I112" s="94"/>
-      <c r="J112" s="137"/>
-      <c r="K112" s="115"/>
-      <c r="L112" s="93"/>
-    </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A113" s="107"/>
-      <c r="B113" s="18" t="s">
+      <c r="I116" s="134"/>
+      <c r="J116" s="146"/>
+      <c r="K116" s="111"/>
+      <c r="L116" s="103"/>
+    </row>
+    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A117" s="106"/>
+      <c r="B117" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="C113" s="40">
+      <c r="C117" s="40">
         <v>44857</v>
       </c>
-      <c r="D113" s="6">
+      <c r="D117" s="6">
         <v>44871</v>
       </c>
-      <c r="E113" s="6">
+      <c r="E117" s="6">
         <v>44875</v>
       </c>
-      <c r="F113" s="41" t="s">
+      <c r="F117" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="G113" s="42" t="s">
+      <c r="G117" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="H113" s="42" t="s">
+      <c r="H117" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="I113" s="94"/>
-      <c r="J113" s="138"/>
-      <c r="K113" s="116"/>
-      <c r="L113" s="93"/>
-    </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A114" s="102">
+      <c r="I117" s="134"/>
+      <c r="J117" s="147"/>
+      <c r="K117" s="112"/>
+      <c r="L117" s="103"/>
+    </row>
+    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A118" s="116">
         <v>40</v>
       </c>
-      <c r="B114" s="55" t="s">
+      <c r="B118" s="55" t="s">
         <v>27</v>
       </c>
-      <c r="C114" s="56">
+      <c r="C118" s="56">
         <v>44822</v>
       </c>
-      <c r="D114" s="56"/>
-      <c r="E114" s="56">
+      <c r="D118" s="56"/>
+      <c r="E118" s="56">
         <v>44822</v>
       </c>
-      <c r="F114" s="57" t="s">
+      <c r="F118" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="G114" s="55" t="s">
+      <c r="G118" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="H114" s="55" t="s">
+      <c r="H118" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="I114" s="94" t="s">
+      <c r="I118" s="134" t="s">
         <v>0</v>
       </c>
-      <c r="J114" s="98">
+      <c r="J118" s="98">
         <v>17</v>
       </c>
-      <c r="K114" s="127">
+      <c r="K118" s="143">
         <v>1</v>
       </c>
-      <c r="L114" s="101"/>
-    </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A115" s="103"/>
-      <c r="B115" s="55" t="s">
+      <c r="L118" s="101"/>
+    </row>
+    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A119" s="117"/>
+      <c r="B119" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="C115" s="62">
+      <c r="C119" s="62">
         <v>44829</v>
-      </c>
-      <c r="D115" s="62"/>
-      <c r="E115" s="62">
-        <v>44829</v>
-      </c>
-      <c r="F115" s="63" t="s">
-        <v>10</v>
-      </c>
-      <c r="G115" s="58" t="s">
-        <v>2</v>
-      </c>
-      <c r="H115" s="58" t="s">
-        <v>11</v>
-      </c>
-      <c r="I115" s="94"/>
-      <c r="J115" s="99"/>
-      <c r="K115" s="134"/>
-      <c r="L115" s="101"/>
-    </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A116" s="103"/>
-      <c r="B116" s="58" t="s">
-        <v>28</v>
-      </c>
-      <c r="C116" s="62">
-        <v>44847</v>
-      </c>
-      <c r="D116" s="62"/>
-      <c r="E116" s="62">
-        <v>44850</v>
-      </c>
-      <c r="F116" s="63" t="s">
-        <v>3</v>
-      </c>
-      <c r="G116" s="58" t="s">
-        <v>40</v>
-      </c>
-      <c r="H116" s="58" t="s">
-        <v>41</v>
-      </c>
-      <c r="I116" s="94"/>
-      <c r="J116" s="99"/>
-      <c r="K116" s="134"/>
-      <c r="L116" s="101"/>
-    </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A117" s="104"/>
-      <c r="B117" s="45" t="s">
-        <v>42</v>
-      </c>
-      <c r="C117" s="8">
-        <v>44857</v>
-      </c>
-      <c r="D117" s="31">
-        <v>44871</v>
-      </c>
-      <c r="E117" s="31">
-        <v>44875</v>
-      </c>
-      <c r="F117" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="G117" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="H117" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="I117" s="94"/>
-      <c r="J117" s="100"/>
-      <c r="K117" s="128"/>
-      <c r="L117" s="101"/>
-    </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A118" s="15">
-        <v>41</v>
-      </c>
-      <c r="B118" s="4"/>
-      <c r="C118" s="11"/>
-      <c r="D118" s="11"/>
-      <c r="E118" s="11"/>
-      <c r="F118" s="11"/>
-      <c r="G118" s="11"/>
-      <c r="H118" s="11"/>
-      <c r="I118" s="11"/>
-      <c r="J118" s="11"/>
-      <c r="K118" s="11"/>
-      <c r="L118" s="89"/>
-    </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A119" s="135">
-        <v>42</v>
-      </c>
-      <c r="B119" s="55" t="s">
-        <v>27</v>
-      </c>
-      <c r="C119" s="62">
-        <v>44822</v>
       </c>
       <c r="D119" s="62"/>
       <c r="E119" s="62">
-        <v>44822</v>
+        <v>44829</v>
       </c>
       <c r="F119" s="63" t="s">
         <v>10</v>
       </c>
       <c r="G119" s="58" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="H119" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="I119" s="117" t="s">
-        <v>4</v>
-      </c>
-      <c r="J119" s="95">
-        <v>41</v>
-      </c>
-      <c r="K119" s="98">
-        <v>3</v>
-      </c>
+      <c r="I119" s="134"/>
+      <c r="J119" s="99"/>
+      <c r="K119" s="148"/>
       <c r="L119" s="101"/>
     </row>
-    <row r="120" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="135"/>
+    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A120" s="117"/>
       <c r="B120" s="58" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C120" s="62">
-        <v>44839</v>
+        <v>44847</v>
       </c>
       <c r="D120" s="62"/>
       <c r="E120" s="62">
+        <v>44850</v>
+      </c>
+      <c r="F120" s="63" t="s">
+        <v>3</v>
+      </c>
+      <c r="G120" s="58" t="s">
+        <v>40</v>
+      </c>
+      <c r="H120" s="58" t="s">
+        <v>41</v>
+      </c>
+      <c r="I120" s="134"/>
+      <c r="J120" s="99"/>
+      <c r="K120" s="148"/>
+      <c r="L120" s="101"/>
+    </row>
+    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A121" s="118"/>
+      <c r="B121" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="C121" s="8">
+        <v>44857</v>
+      </c>
+      <c r="D121" s="31">
+        <v>44871</v>
+      </c>
+      <c r="E121" s="31">
+        <v>44875</v>
+      </c>
+      <c r="F121" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="G121" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="H121" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="I121" s="134"/>
+      <c r="J121" s="100"/>
+      <c r="K121" s="144"/>
+      <c r="L121" s="101"/>
+    </row>
+    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A122" s="15">
+        <v>41</v>
+      </c>
+      <c r="B122" s="4"/>
+      <c r="C122" s="11"/>
+      <c r="D122" s="11"/>
+      <c r="E122" s="11"/>
+      <c r="F122" s="11"/>
+      <c r="G122" s="11"/>
+      <c r="H122" s="11"/>
+      <c r="I122" s="11"/>
+      <c r="J122" s="11"/>
+      <c r="K122" s="11"/>
+      <c r="L122" s="89"/>
+    </row>
+    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A123" s="149">
+        <v>42</v>
+      </c>
+      <c r="B123" s="55" t="s">
+        <v>27</v>
+      </c>
+      <c r="C123" s="62">
+        <v>44822</v>
+      </c>
+      <c r="D123" s="62"/>
+      <c r="E123" s="62">
+        <v>44822</v>
+      </c>
+      <c r="F123" s="63" t="s">
+        <v>10</v>
+      </c>
+      <c r="G123" s="58" t="s">
+        <v>9</v>
+      </c>
+      <c r="H123" s="58" t="s">
+        <v>11</v>
+      </c>
+      <c r="I123" s="122" t="s">
+        <v>4</v>
+      </c>
+      <c r="J123" s="95">
+        <v>41</v>
+      </c>
+      <c r="K123" s="98">
+        <v>3</v>
+      </c>
+      <c r="L123" s="101"/>
+    </row>
+    <row r="124" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A124" s="149"/>
+      <c r="B124" s="58" t="s">
+        <v>26</v>
+      </c>
+      <c r="C124" s="62">
         <v>44839</v>
       </c>
-      <c r="F120" s="63" t="s">
+      <c r="D124" s="62"/>
+      <c r="E124" s="62">
+        <v>44839</v>
+      </c>
+      <c r="F124" s="63" t="s">
         <v>24</v>
       </c>
-      <c r="G120" s="58" t="s">
+      <c r="G124" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="H120" s="58" t="s">
+      <c r="H124" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="I120" s="118"/>
-      <c r="J120" s="96"/>
-      <c r="K120" s="99"/>
-      <c r="L120" s="101"/>
-    </row>
-    <row r="121" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="135"/>
-      <c r="B121" s="19" t="s">
+      <c r="I124" s="123"/>
+      <c r="J124" s="96"/>
+      <c r="K124" s="99"/>
+      <c r="L124" s="101"/>
+    </row>
+    <row r="125" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A125" s="149"/>
+      <c r="B125" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="C121" s="8">
+      <c r="C125" s="8">
         <v>44863</v>
       </c>
-      <c r="D121" s="8"/>
-      <c r="E121" s="8">
+      <c r="D125" s="8"/>
+      <c r="E125" s="8">
         <v>44864</v>
       </c>
-      <c r="F121" s="24" t="s">
+      <c r="F125" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="G121" s="19" t="s">
+      <c r="G125" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="H121" s="19" t="s">
+      <c r="H125" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="I121" s="119"/>
-      <c r="J121" s="97"/>
-      <c r="K121" s="100"/>
-      <c r="L121" s="101"/>
-    </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A122" s="105">
+      <c r="I125" s="124"/>
+      <c r="J125" s="97"/>
+      <c r="K125" s="100"/>
+      <c r="L125" s="101"/>
+    </row>
+    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A126" s="104">
         <v>43</v>
       </c>
-      <c r="B122" s="50" t="s">
+      <c r="B126" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="C122" s="64">
+      <c r="C126" s="64">
         <v>44815</v>
       </c>
-      <c r="D122" s="64">
-        <f t="shared" ref="D122" si="1">C122+7</f>
+      <c r="D126" s="64">
+        <f t="shared" ref="D126" si="1">C126+7</f>
         <v>44822</v>
       </c>
-      <c r="E122" s="64">
+      <c r="E126" s="64">
         <v>44822</v>
       </c>
-      <c r="F122" s="65" t="s">
+      <c r="F126" s="65" t="s">
         <v>10</v>
       </c>
-      <c r="G122" s="66" t="s">
+      <c r="G126" s="66" t="s">
         <v>9</v>
       </c>
-      <c r="H122" s="66" t="s">
+      <c r="H126" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="I122" s="117" t="s">
+      <c r="I126" s="122" t="s">
         <v>4</v>
       </c>
-      <c r="J122" s="111">
+      <c r="J126" s="107">
         <v>77</v>
       </c>
-      <c r="K122" s="114">
+      <c r="K126" s="110">
         <v>4</v>
       </c>
-      <c r="L122" s="93"/>
-    </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A123" s="106"/>
-      <c r="B123" s="54" t="s">
+      <c r="L126" s="103"/>
+    </row>
+    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A127" s="105"/>
+      <c r="B127" s="54" t="s">
         <v>26</v>
       </c>
-      <c r="C123" s="64">
+      <c r="C127" s="64">
         <v>44839</v>
       </c>
-      <c r="D123" s="64"/>
-      <c r="E123" s="64">
+      <c r="D127" s="64"/>
+      <c r="E127" s="64">
         <v>44839</v>
       </c>
-      <c r="F123" s="65" t="s">
+      <c r="F127" s="65" t="s">
         <v>24</v>
       </c>
-      <c r="G123" s="66" t="s">
+      <c r="G127" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="H123" s="66" t="s">
+      <c r="H127" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="I123" s="118"/>
-      <c r="J123" s="112"/>
-      <c r="K123" s="115"/>
-      <c r="L123" s="93"/>
-    </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A124" s="106"/>
-      <c r="B124" s="54" t="s">
+      <c r="I127" s="123"/>
+      <c r="J127" s="108"/>
+      <c r="K127" s="111"/>
+      <c r="L127" s="103"/>
+    </row>
+    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A128" s="105"/>
+      <c r="B128" s="54" t="s">
         <v>28</v>
       </c>
-      <c r="C124" s="64">
+      <c r="C128" s="64">
         <v>44848</v>
-      </c>
-      <c r="D124" s="64"/>
-      <c r="E124" s="64">
-        <v>44850</v>
-      </c>
-      <c r="F124" s="65" t="s">
-        <v>6</v>
-      </c>
-      <c r="G124" s="66" t="s">
-        <v>40</v>
-      </c>
-      <c r="H124" s="66" t="s">
-        <v>41</v>
-      </c>
-      <c r="I124" s="118"/>
-      <c r="J124" s="112"/>
-      <c r="K124" s="115"/>
-      <c r="L124" s="93"/>
-    </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A125" s="107"/>
-      <c r="B125" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="C125" s="17">
-        <v>44863</v>
-      </c>
-      <c r="D125" s="17"/>
-      <c r="E125" s="17">
-        <v>44864</v>
-      </c>
-      <c r="F125" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="G125" s="36" t="s">
-        <v>25</v>
-      </c>
-      <c r="H125" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="I125" s="118"/>
-      <c r="J125" s="113"/>
-      <c r="K125" s="116"/>
-      <c r="L125" s="93"/>
-    </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A126" s="132">
-        <v>44</v>
-      </c>
-      <c r="B126" s="55" t="s">
-        <v>27</v>
-      </c>
-      <c r="C126" s="62">
-        <v>44848</v>
-      </c>
-      <c r="D126" s="62"/>
-      <c r="E126" s="62">
-        <v>44850</v>
-      </c>
-      <c r="F126" s="63" t="s">
-        <v>6</v>
-      </c>
-      <c r="G126" s="58" t="s">
-        <v>40</v>
-      </c>
-      <c r="H126" s="58" t="s">
-        <v>41</v>
-      </c>
-      <c r="I126" s="117" t="s">
-        <v>4</v>
-      </c>
-      <c r="J126" s="95">
-        <v>39</v>
-      </c>
-      <c r="K126" s="98">
-        <v>3</v>
-      </c>
-      <c r="L126" s="101"/>
-    </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A127" s="133"/>
-      <c r="B127" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="C127" s="8">
-        <v>44863</v>
-      </c>
-      <c r="D127" s="8"/>
-      <c r="E127" s="8">
-        <v>44864</v>
-      </c>
-      <c r="F127" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="G127" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="H127" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="I127" s="119"/>
-      <c r="J127" s="97"/>
-      <c r="K127" s="100"/>
-      <c r="L127" s="101"/>
-    </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A128" s="105">
-        <v>45</v>
-      </c>
-      <c r="B128" s="50" t="s">
-        <v>27</v>
-      </c>
-      <c r="C128" s="64">
-        <v>44829</v>
       </c>
       <c r="D128" s="64"/>
       <c r="E128" s="64">
+        <v>44850</v>
+      </c>
+      <c r="F128" s="65" t="s">
+        <v>6</v>
+      </c>
+      <c r="G128" s="66" t="s">
+        <v>40</v>
+      </c>
+      <c r="H128" s="66" t="s">
+        <v>41</v>
+      </c>
+      <c r="I128" s="123"/>
+      <c r="J128" s="108"/>
+      <c r="K128" s="111"/>
+      <c r="L128" s="103"/>
+    </row>
+    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A129" s="106"/>
+      <c r="B129" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="C129" s="17">
+        <v>44863</v>
+      </c>
+      <c r="D129" s="17"/>
+      <c r="E129" s="17">
+        <v>44864</v>
+      </c>
+      <c r="F129" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="G129" s="36" t="s">
+        <v>25</v>
+      </c>
+      <c r="H129" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="I129" s="123"/>
+      <c r="J129" s="109"/>
+      <c r="K129" s="112"/>
+      <c r="L129" s="103"/>
+    </row>
+    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A130" s="131">
+        <v>44</v>
+      </c>
+      <c r="B130" s="55" t="s">
+        <v>27</v>
+      </c>
+      <c r="C130" s="62">
+        <v>44848</v>
+      </c>
+      <c r="D130" s="62"/>
+      <c r="E130" s="62">
+        <v>44850</v>
+      </c>
+      <c r="F130" s="63" t="s">
+        <v>6</v>
+      </c>
+      <c r="G130" s="58" t="s">
+        <v>40</v>
+      </c>
+      <c r="H130" s="58" t="s">
+        <v>41</v>
+      </c>
+      <c r="I130" s="122" t="s">
+        <v>4</v>
+      </c>
+      <c r="J130" s="95">
+        <v>39</v>
+      </c>
+      <c r="K130" s="98">
+        <v>3</v>
+      </c>
+      <c r="L130" s="101"/>
+    </row>
+    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A131" s="133"/>
+      <c r="B131" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C131" s="8">
+        <v>44863</v>
+      </c>
+      <c r="D131" s="8"/>
+      <c r="E131" s="8">
+        <v>44864</v>
+      </c>
+      <c r="F131" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="G131" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="H131" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="I131" s="124"/>
+      <c r="J131" s="97"/>
+      <c r="K131" s="100"/>
+      <c r="L131" s="101"/>
+    </row>
+    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A132" s="104">
+        <v>45</v>
+      </c>
+      <c r="B132" s="50" t="s">
+        <v>27</v>
+      </c>
+      <c r="C132" s="64">
         <v>44829</v>
       </c>
-      <c r="F128" s="65" t="s">
+      <c r="D132" s="64"/>
+      <c r="E132" s="64">
+        <v>44829</v>
+      </c>
+      <c r="F132" s="65" t="s">
         <v>10</v>
       </c>
-      <c r="G128" s="66" t="s">
+      <c r="G132" s="66" t="s">
         <v>9</v>
       </c>
-      <c r="H128" s="66" t="s">
+      <c r="H132" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="I128" s="108" t="s">
+      <c r="I132" s="113" t="s">
         <v>0</v>
       </c>
-      <c r="J128" s="111">
+      <c r="J132" s="107">
         <v>53</v>
       </c>
-      <c r="K128" s="114">
+      <c r="K132" s="110">
         <v>3</v>
       </c>
-      <c r="L128" s="93"/>
-    </row>
-    <row r="129" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A129" s="144"/>
-      <c r="B129" s="37" t="s">
+      <c r="L132" s="103"/>
+    </row>
+    <row r="133" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A133" s="125"/>
+      <c r="B133" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="C129" s="16">
+      <c r="C133" s="16">
         <v>44848</v>
       </c>
-      <c r="D129" s="16"/>
-      <c r="E129" s="16">
+      <c r="D133" s="16"/>
+      <c r="E133" s="16">
         <v>44829</v>
       </c>
-      <c r="F129" s="38" t="s">
+      <c r="F133" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="G129" s="39" t="s">
+      <c r="G133" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="H129" s="39" t="s">
+      <c r="H133" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="I129" s="145"/>
-      <c r="J129" s="146"/>
-      <c r="K129" s="147"/>
-      <c r="L129" s="148"/>
+      <c r="I133" s="126"/>
+      <c r="J133" s="127"/>
+      <c r="K133" s="128"/>
+      <c r="L133" s="129"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L129"/>
+  <autoFilter ref="A1:L133"/>
   <mergeCells count="195">
-    <mergeCell ref="J44:J46"/>
-    <mergeCell ref="K44:K46"/>
-    <mergeCell ref="L44:L46"/>
-    <mergeCell ref="L93:L95"/>
-    <mergeCell ref="L59:L61"/>
-    <mergeCell ref="L81:L85"/>
-    <mergeCell ref="A59:A61"/>
-    <mergeCell ref="J59:J61"/>
-    <mergeCell ref="K59:K61"/>
-    <mergeCell ref="I86:I89"/>
-    <mergeCell ref="A44:A46"/>
-    <mergeCell ref="I44:I46"/>
-    <mergeCell ref="A90:A92"/>
-    <mergeCell ref="I90:I92"/>
-    <mergeCell ref="J90:J92"/>
-    <mergeCell ref="K90:K92"/>
-    <mergeCell ref="L90:L92"/>
-    <mergeCell ref="A93:A95"/>
-    <mergeCell ref="I93:I95"/>
-    <mergeCell ref="L53:L55"/>
-    <mergeCell ref="J47:J49"/>
-    <mergeCell ref="K47:K49"/>
-    <mergeCell ref="L47:L49"/>
-    <mergeCell ref="J50:J52"/>
-    <mergeCell ref="L50:L52"/>
-    <mergeCell ref="K86:K89"/>
-    <mergeCell ref="L86:L89"/>
-    <mergeCell ref="A128:A129"/>
-    <mergeCell ref="I128:I129"/>
-    <mergeCell ref="J128:J129"/>
-    <mergeCell ref="K128:K129"/>
-    <mergeCell ref="L128:L129"/>
-    <mergeCell ref="L75:L77"/>
-    <mergeCell ref="L78:L79"/>
-    <mergeCell ref="I75:I77"/>
-    <mergeCell ref="L99:L101"/>
-    <mergeCell ref="J99:J101"/>
-    <mergeCell ref="K99:K101"/>
-    <mergeCell ref="J93:J95"/>
-    <mergeCell ref="K93:K95"/>
-    <mergeCell ref="A75:A77"/>
-    <mergeCell ref="A99:A101"/>
-    <mergeCell ref="I99:I101"/>
-    <mergeCell ref="I78:I80"/>
-    <mergeCell ref="A81:A85"/>
-    <mergeCell ref="I81:I85"/>
-    <mergeCell ref="J81:J85"/>
-    <mergeCell ref="K81:K85"/>
-    <mergeCell ref="A86:A89"/>
-    <mergeCell ref="K75:K77"/>
-    <mergeCell ref="J86:J89"/>
-    <mergeCell ref="A13:A16"/>
-    <mergeCell ref="I13:I16"/>
-    <mergeCell ref="J13:J16"/>
-    <mergeCell ref="K13:K16"/>
-    <mergeCell ref="L13:L16"/>
-    <mergeCell ref="I59:I61"/>
-    <mergeCell ref="A63:A64"/>
-    <mergeCell ref="J63:J64"/>
-    <mergeCell ref="K63:K64"/>
-    <mergeCell ref="L63:L64"/>
-    <mergeCell ref="I63:I64"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="I34:I35"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="I41:I42"/>
-    <mergeCell ref="J41:J42"/>
-    <mergeCell ref="I56:I58"/>
-    <mergeCell ref="A56:A58"/>
-    <mergeCell ref="A53:A55"/>
-    <mergeCell ref="I53:I55"/>
-    <mergeCell ref="A47:A49"/>
-    <mergeCell ref="I47:I49"/>
-    <mergeCell ref="A50:A52"/>
-    <mergeCell ref="I50:I52"/>
-    <mergeCell ref="J34:J35"/>
-    <mergeCell ref="K34:K35"/>
-    <mergeCell ref="L34:L35"/>
-    <mergeCell ref="J75:J77"/>
-    <mergeCell ref="A78:A79"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="I36:I37"/>
-    <mergeCell ref="J36:J37"/>
-    <mergeCell ref="K36:K37"/>
-    <mergeCell ref="L36:L37"/>
-    <mergeCell ref="A38:A40"/>
-    <mergeCell ref="I38:I40"/>
-    <mergeCell ref="J38:J40"/>
-    <mergeCell ref="K38:K40"/>
-    <mergeCell ref="L38:L40"/>
-    <mergeCell ref="I65:I67"/>
-    <mergeCell ref="K41:K42"/>
-    <mergeCell ref="L41:L42"/>
-    <mergeCell ref="J56:J58"/>
-    <mergeCell ref="K50:K52"/>
-    <mergeCell ref="K56:K58"/>
-    <mergeCell ref="L56:L58"/>
-    <mergeCell ref="J53:J55"/>
-    <mergeCell ref="K53:K55"/>
-    <mergeCell ref="A122:A125"/>
-    <mergeCell ref="I122:I125"/>
-    <mergeCell ref="J122:J125"/>
-    <mergeCell ref="K122:K125"/>
-    <mergeCell ref="L122:L125"/>
-    <mergeCell ref="K78:K80"/>
-    <mergeCell ref="A102:A104"/>
-    <mergeCell ref="I102:I104"/>
-    <mergeCell ref="J102:J104"/>
-    <mergeCell ref="K102:K104"/>
-    <mergeCell ref="L102:L104"/>
-    <mergeCell ref="A110:A113"/>
-    <mergeCell ref="I110:I113"/>
-    <mergeCell ref="J110:J113"/>
-    <mergeCell ref="A96:A98"/>
-    <mergeCell ref="I96:I98"/>
-    <mergeCell ref="J96:J98"/>
-    <mergeCell ref="K96:K98"/>
-    <mergeCell ref="L96:L98"/>
-    <mergeCell ref="K110:K113"/>
-    <mergeCell ref="A126:A127"/>
-    <mergeCell ref="I126:I127"/>
-    <mergeCell ref="J126:J127"/>
-    <mergeCell ref="K126:K127"/>
-    <mergeCell ref="L126:L127"/>
-    <mergeCell ref="A114:A117"/>
-    <mergeCell ref="I114:I117"/>
-    <mergeCell ref="J114:J117"/>
-    <mergeCell ref="K114:K117"/>
-    <mergeCell ref="L114:L117"/>
-    <mergeCell ref="A119:A121"/>
-    <mergeCell ref="I119:I121"/>
-    <mergeCell ref="J119:J121"/>
-    <mergeCell ref="K119:K121"/>
-    <mergeCell ref="L119:L121"/>
-    <mergeCell ref="I24:I26"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="J17:J18"/>
-    <mergeCell ref="K17:K18"/>
-    <mergeCell ref="L17:L18"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="I20:I21"/>
-    <mergeCell ref="J20:J21"/>
-    <mergeCell ref="K20:K21"/>
-    <mergeCell ref="L20:L21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="I22:I23"/>
-    <mergeCell ref="K31:K33"/>
-    <mergeCell ref="L31:L33"/>
-    <mergeCell ref="A31:A33"/>
-    <mergeCell ref="A65:A67"/>
-    <mergeCell ref="J65:J67"/>
-    <mergeCell ref="K65:K67"/>
-    <mergeCell ref="L65:L67"/>
+    <mergeCell ref="K26:K29"/>
+    <mergeCell ref="I26:I29"/>
+    <mergeCell ref="L26:L29"/>
+    <mergeCell ref="A31:A34"/>
+    <mergeCell ref="I31:I34"/>
+    <mergeCell ref="J31:J34"/>
+    <mergeCell ref="K31:K34"/>
+    <mergeCell ref="L31:L34"/>
+    <mergeCell ref="I109:I113"/>
+    <mergeCell ref="J109:J113"/>
+    <mergeCell ref="K109:K113"/>
+    <mergeCell ref="L109:L113"/>
+    <mergeCell ref="A109:A113"/>
+    <mergeCell ref="J82:J84"/>
+    <mergeCell ref="A76:A78"/>
+    <mergeCell ref="I76:I78"/>
+    <mergeCell ref="J76:J78"/>
+    <mergeCell ref="K76:K78"/>
+    <mergeCell ref="L76:L78"/>
+    <mergeCell ref="A72:A75"/>
+    <mergeCell ref="I72:I75"/>
+    <mergeCell ref="J72:J75"/>
+    <mergeCell ref="K72:K75"/>
+    <mergeCell ref="L72:L75"/>
+    <mergeCell ref="I35:I37"/>
+    <mergeCell ref="J35:J37"/>
+    <mergeCell ref="K35:K37"/>
+    <mergeCell ref="L35:L37"/>
+    <mergeCell ref="A35:A37"/>
+    <mergeCell ref="A69:A71"/>
+    <mergeCell ref="J69:J71"/>
+    <mergeCell ref="K69:K71"/>
+    <mergeCell ref="L69:L71"/>
     <mergeCell ref="I2:I6"/>
     <mergeCell ref="J2:J6"/>
     <mergeCell ref="K2:K6"/>
@@ -5512,37 +5662,158 @@
     <mergeCell ref="J7:J11"/>
     <mergeCell ref="K7:K11"/>
     <mergeCell ref="L7:L11"/>
-    <mergeCell ref="J22:J23"/>
-    <mergeCell ref="K22:K23"/>
-    <mergeCell ref="L22:L23"/>
-    <mergeCell ref="A24:A26"/>
-    <mergeCell ref="J24:J26"/>
-    <mergeCell ref="K24:K26"/>
-    <mergeCell ref="L24:L26"/>
-    <mergeCell ref="L110:L113"/>
-    <mergeCell ref="I105:I109"/>
-    <mergeCell ref="J105:J109"/>
-    <mergeCell ref="K105:K109"/>
-    <mergeCell ref="L105:L109"/>
-    <mergeCell ref="A105:A109"/>
-    <mergeCell ref="J78:J80"/>
-    <mergeCell ref="A28:A30"/>
-    <mergeCell ref="I28:I30"/>
-    <mergeCell ref="J28:J30"/>
-    <mergeCell ref="K28:K30"/>
-    <mergeCell ref="L28:L30"/>
-    <mergeCell ref="A72:A74"/>
-    <mergeCell ref="I72:I74"/>
-    <mergeCell ref="J72:J74"/>
-    <mergeCell ref="K72:K74"/>
-    <mergeCell ref="L72:L74"/>
-    <mergeCell ref="A68:A71"/>
-    <mergeCell ref="I68:I71"/>
-    <mergeCell ref="J68:J71"/>
-    <mergeCell ref="K68:K71"/>
-    <mergeCell ref="L68:L71"/>
-    <mergeCell ref="I31:I33"/>
-    <mergeCell ref="J31:J33"/>
+    <mergeCell ref="L23:L24"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="J17:J18"/>
+    <mergeCell ref="K17:K18"/>
+    <mergeCell ref="L17:L18"/>
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="I20:I22"/>
+    <mergeCell ref="J20:J22"/>
+    <mergeCell ref="K20:K22"/>
+    <mergeCell ref="L20:L22"/>
+    <mergeCell ref="A23:A25"/>
+    <mergeCell ref="I23:I25"/>
+    <mergeCell ref="J23:J25"/>
+    <mergeCell ref="K23:K25"/>
+    <mergeCell ref="A26:A29"/>
+    <mergeCell ref="J26:J29"/>
+    <mergeCell ref="A130:A131"/>
+    <mergeCell ref="I130:I131"/>
+    <mergeCell ref="J130:J131"/>
+    <mergeCell ref="K130:K131"/>
+    <mergeCell ref="L130:L131"/>
+    <mergeCell ref="A118:A121"/>
+    <mergeCell ref="I118:I121"/>
+    <mergeCell ref="J118:J121"/>
+    <mergeCell ref="K118:K121"/>
+    <mergeCell ref="L118:L121"/>
+    <mergeCell ref="A123:A125"/>
+    <mergeCell ref="I123:I125"/>
+    <mergeCell ref="J123:J125"/>
+    <mergeCell ref="K123:K125"/>
+    <mergeCell ref="L123:L125"/>
+    <mergeCell ref="L60:L62"/>
+    <mergeCell ref="J57:J59"/>
+    <mergeCell ref="K57:K59"/>
+    <mergeCell ref="A126:A129"/>
+    <mergeCell ref="I126:I129"/>
+    <mergeCell ref="J126:J129"/>
+    <mergeCell ref="K126:K129"/>
+    <mergeCell ref="L126:L129"/>
+    <mergeCell ref="K82:K84"/>
+    <mergeCell ref="A106:A108"/>
+    <mergeCell ref="I106:I108"/>
+    <mergeCell ref="J106:J108"/>
+    <mergeCell ref="K106:K108"/>
+    <mergeCell ref="L106:L108"/>
+    <mergeCell ref="A114:A117"/>
+    <mergeCell ref="I114:I117"/>
+    <mergeCell ref="J114:J117"/>
+    <mergeCell ref="A100:A102"/>
+    <mergeCell ref="I100:I102"/>
+    <mergeCell ref="J100:J102"/>
+    <mergeCell ref="K100:K102"/>
+    <mergeCell ref="L100:L102"/>
+    <mergeCell ref="K114:K117"/>
+    <mergeCell ref="L114:L117"/>
+    <mergeCell ref="I51:I53"/>
+    <mergeCell ref="A54:A56"/>
+    <mergeCell ref="I54:I56"/>
+    <mergeCell ref="J38:J39"/>
+    <mergeCell ref="K38:K39"/>
+    <mergeCell ref="L38:L39"/>
+    <mergeCell ref="J79:J81"/>
+    <mergeCell ref="A82:A83"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="I40:I41"/>
+    <mergeCell ref="J40:J41"/>
+    <mergeCell ref="K40:K41"/>
+    <mergeCell ref="L40:L41"/>
+    <mergeCell ref="A42:A44"/>
+    <mergeCell ref="I42:I44"/>
+    <mergeCell ref="J42:J44"/>
+    <mergeCell ref="K42:K44"/>
+    <mergeCell ref="L42:L44"/>
+    <mergeCell ref="I69:I71"/>
+    <mergeCell ref="K45:K46"/>
+    <mergeCell ref="L45:L46"/>
+    <mergeCell ref="J60:J62"/>
+    <mergeCell ref="K54:K56"/>
+    <mergeCell ref="K60:K62"/>
+    <mergeCell ref="A90:A93"/>
+    <mergeCell ref="K79:K81"/>
+    <mergeCell ref="J90:J93"/>
+    <mergeCell ref="A13:A16"/>
+    <mergeCell ref="I13:I16"/>
+    <mergeCell ref="J13:J16"/>
+    <mergeCell ref="K13:K16"/>
+    <mergeCell ref="L13:L16"/>
+    <mergeCell ref="I63:I65"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="J67:J68"/>
+    <mergeCell ref="K67:K68"/>
+    <mergeCell ref="L67:L68"/>
+    <mergeCell ref="I67:I68"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="I38:I39"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="I45:I46"/>
+    <mergeCell ref="J45:J46"/>
+    <mergeCell ref="I60:I62"/>
+    <mergeCell ref="A60:A62"/>
+    <mergeCell ref="A57:A59"/>
+    <mergeCell ref="I57:I59"/>
+    <mergeCell ref="A51:A53"/>
+    <mergeCell ref="L54:L56"/>
+    <mergeCell ref="K90:K93"/>
+    <mergeCell ref="L90:L93"/>
+    <mergeCell ref="A132:A133"/>
+    <mergeCell ref="I132:I133"/>
+    <mergeCell ref="J132:J133"/>
+    <mergeCell ref="K132:K133"/>
+    <mergeCell ref="L132:L133"/>
+    <mergeCell ref="L79:L81"/>
+    <mergeCell ref="L82:L83"/>
+    <mergeCell ref="I79:I81"/>
+    <mergeCell ref="L103:L105"/>
+    <mergeCell ref="J103:J105"/>
+    <mergeCell ref="K103:K105"/>
+    <mergeCell ref="J97:J99"/>
+    <mergeCell ref="K97:K99"/>
+    <mergeCell ref="A79:A81"/>
+    <mergeCell ref="A103:A105"/>
+    <mergeCell ref="I103:I105"/>
+    <mergeCell ref="I82:I84"/>
+    <mergeCell ref="A85:A89"/>
+    <mergeCell ref="I85:I89"/>
+    <mergeCell ref="J85:J89"/>
+    <mergeCell ref="K85:K89"/>
+    <mergeCell ref="J48:J50"/>
+    <mergeCell ref="K48:K50"/>
+    <mergeCell ref="L48:L50"/>
+    <mergeCell ref="L97:L99"/>
+    <mergeCell ref="L63:L65"/>
+    <mergeCell ref="L85:L89"/>
+    <mergeCell ref="A63:A65"/>
+    <mergeCell ref="J63:J65"/>
+    <mergeCell ref="K63:K65"/>
+    <mergeCell ref="I90:I93"/>
+    <mergeCell ref="A48:A50"/>
+    <mergeCell ref="I48:I50"/>
+    <mergeCell ref="A94:A96"/>
+    <mergeCell ref="I94:I96"/>
+    <mergeCell ref="J94:J96"/>
+    <mergeCell ref="K94:K96"/>
+    <mergeCell ref="L94:L96"/>
+    <mergeCell ref="A97:A99"/>
+    <mergeCell ref="I97:I99"/>
+    <mergeCell ref="L57:L59"/>
+    <mergeCell ref="J51:J53"/>
+    <mergeCell ref="K51:K53"/>
+    <mergeCell ref="L51:L53"/>
+    <mergeCell ref="J54:J56"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0" right="0" top="1.1811023622047244E-2" bottom="0.11811023622047245" header="0" footer="0"/>

--- a/sheet/CONTROLE_DE_TERRITORIO_2022.xlsx
+++ b/sheet/CONTROLE_DE_TERRITORIO_2022.xlsx
@@ -13,6 +13,7 @@
   </bookViews>
   <sheets>
     <sheet name="NOVA" sheetId="3" r:id="rId1"/>
+    <sheet name="Plan1" sheetId="4" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">NOVA!$A$1:$L$145</definedName>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="47">
   <si>
     <t>OK</t>
   </si>
@@ -163,9 +164,6 @@
   </si>
   <si>
     <t>5º</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
   </si>
   <si>
     <t>6º</t>
@@ -929,7 +927,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="190">
+  <cellXfs count="197">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1264,6 +1262,18 @@
     <xf numFmtId="0" fontId="16" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="5" fillId="8" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1273,10 +1283,217 @@
     <xf numFmtId="0" fontId="10" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="4" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="8" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="5" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="29" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="42" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="8" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="43" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="35" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="36" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="37" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="41" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="24" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="20" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="31" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="31" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="25" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1288,214 +1505,16 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="4" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="5" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="20" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="31" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="31" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="35" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="36" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="37" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="41" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="24" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="29" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="43" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="25" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="9" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1789,16 +1808,16 @@
   <dimension ref="A1:L145"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="99" zoomScaleNormal="100" zoomScalePageLayoutView="45" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.140625" style="42" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20" style="114" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.140625" style="114" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.85546875" style="114" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19.85546875" style="5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="45" style="5" customWidth="1"/>
     <col min="8" max="8" width="24.42578125" style="5" bestFit="1" customWidth="1"/>
@@ -1818,13 +1837,13 @@
       <c r="B1" s="74" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="74" t="s">
+      <c r="C1" s="112" t="s">
         <v>31</v>
       </c>
-      <c r="D1" s="74" t="s">
+      <c r="D1" s="112" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="74" t="s">
+      <c r="E1" s="112" t="s">
         <v>33</v>
       </c>
       <c r="F1" s="74" t="s">
@@ -1850,7 +1869,7 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="185">
+      <c r="A2" s="146">
         <v>1</v>
       </c>
       <c r="B2" s="75" t="s">
@@ -1872,19 +1891,19 @@
       <c r="H2" s="78" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="181" t="s">
+      <c r="I2" s="142" t="s">
         <v>0</v>
       </c>
-      <c r="J2" s="182">
+      <c r="J2" s="143">
         <v>5</v>
       </c>
-      <c r="K2" s="183">
+      <c r="K2" s="144">
         <v>1</v>
       </c>
-      <c r="L2" s="184"/>
+      <c r="L2" s="145"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="186"/>
+      <c r="A3" s="147"/>
       <c r="B3" s="44" t="s">
         <v>25</v>
       </c>
@@ -1904,13 +1923,13 @@
       <c r="H3" s="48" t="s">
         <v>40</v>
       </c>
-      <c r="I3" s="154"/>
-      <c r="J3" s="121"/>
-      <c r="K3" s="139"/>
-      <c r="L3" s="137"/>
+      <c r="I3" s="125"/>
+      <c r="J3" s="123"/>
+      <c r="K3" s="140"/>
+      <c r="L3" s="115"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="186"/>
+      <c r="A4" s="147"/>
       <c r="B4" s="48" t="s">
         <v>27</v>
       </c>
@@ -1930,13 +1949,13 @@
       <c r="H4" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="154"/>
-      <c r="J4" s="121"/>
-      <c r="K4" s="139"/>
-      <c r="L4" s="137"/>
+      <c r="I4" s="125"/>
+      <c r="J4" s="123"/>
+      <c r="K4" s="140"/>
+      <c r="L4" s="115"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="186"/>
+      <c r="A5" s="147"/>
       <c r="B5" s="48" t="s">
         <v>41</v>
       </c>
@@ -1956,13 +1975,13 @@
       <c r="H5" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="154"/>
-      <c r="J5" s="121"/>
-      <c r="K5" s="139"/>
-      <c r="L5" s="137"/>
+      <c r="I5" s="125"/>
+      <c r="J5" s="123"/>
+      <c r="K5" s="140"/>
+      <c r="L5" s="115"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="187"/>
+      <c r="A6" s="148"/>
       <c r="B6" s="17" t="s">
         <v>44</v>
       </c>
@@ -1982,13 +2001,13 @@
       <c r="H6" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="I6" s="154"/>
-      <c r="J6" s="122"/>
-      <c r="K6" s="140"/>
-      <c r="L6" s="137"/>
+      <c r="I6" s="125"/>
+      <c r="J6" s="124"/>
+      <c r="K6" s="141"/>
+      <c r="L6" s="115"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="134">
+      <c r="A7" s="133">
         <v>2</v>
       </c>
       <c r="B7" s="101" t="s">
@@ -2010,19 +2029,19 @@
       <c r="H7" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="I7" s="115" t="s">
+      <c r="I7" s="149" t="s">
         <v>4</v>
       </c>
-      <c r="J7" s="129">
+      <c r="J7" s="126">
         <v>60</v>
       </c>
-      <c r="K7" s="129">
+      <c r="K7" s="126">
         <v>4</v>
       </c>
-      <c r="L7" s="147"/>
+      <c r="L7" s="132"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="135"/>
+      <c r="A8" s="134"/>
       <c r="B8" s="101" t="s">
         <v>25</v>
       </c>
@@ -2044,18 +2063,18 @@
       <c r="H8" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="I8" s="116"/>
-      <c r="J8" s="130"/>
-      <c r="K8" s="130"/>
-      <c r="L8" s="147"/>
+      <c r="I8" s="137"/>
+      <c r="J8" s="127"/>
+      <c r="K8" s="127"/>
+      <c r="L8" s="132"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="135"/>
+      <c r="A9" s="134"/>
       <c r="B9" s="98" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="53" t="s">
-        <v>45</v>
+      <c r="C9" s="53">
+        <v>44811</v>
       </c>
       <c r="D9" s="53"/>
       <c r="E9" s="53">
@@ -2070,13 +2089,13 @@
       <c r="H9" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="I9" s="116"/>
-      <c r="J9" s="130"/>
-      <c r="K9" s="130"/>
-      <c r="L9" s="147"/>
+      <c r="I9" s="137"/>
+      <c r="J9" s="127"/>
+      <c r="K9" s="127"/>
+      <c r="L9" s="132"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="135"/>
+      <c r="A10" s="134"/>
       <c r="B10" s="98" t="s">
         <v>41</v>
       </c>
@@ -2096,13 +2115,13 @@
       <c r="H10" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="I10" s="116"/>
-      <c r="J10" s="130"/>
-      <c r="K10" s="130"/>
-      <c r="L10" s="147"/>
+      <c r="I10" s="137"/>
+      <c r="J10" s="127"/>
+      <c r="K10" s="127"/>
+      <c r="L10" s="132"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="135"/>
+      <c r="A11" s="134"/>
       <c r="B11" s="98" t="s">
         <v>44</v>
       </c>
@@ -2122,21 +2141,20 @@
       <c r="H11" s="98" t="s">
         <v>8</v>
       </c>
-      <c r="I11" s="116"/>
-      <c r="J11" s="130"/>
-      <c r="K11" s="130"/>
-      <c r="L11" s="147"/>
+      <c r="I11" s="137"/>
+      <c r="J11" s="127"/>
+      <c r="K11" s="127"/>
+      <c r="L11" s="132"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="136"/>
+      <c r="A12" s="135"/>
       <c r="B12" s="18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C12" s="24">
         <v>44875</v>
       </c>
       <c r="D12" s="24">
-        <f>C12+7</f>
         <v>44882</v>
       </c>
       <c r="E12" s="24">
@@ -2151,32 +2169,30 @@
       <c r="H12" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="I12" s="188"/>
-      <c r="J12" s="131"/>
-      <c r="K12" s="131"/>
+      <c r="I12" s="150"/>
+      <c r="J12" s="128"/>
+      <c r="K12" s="128"/>
       <c r="L12" s="88"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="13">
         <v>3</v>
       </c>
-      <c r="B13" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" s="16">
+      <c r="B13" s="17"/>
+      <c r="C13" s="193">
         <v>44863</v>
       </c>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16">
+      <c r="D13" s="193"/>
+      <c r="E13" s="193">
         <v>44864</v>
       </c>
-      <c r="F13" s="31" t="s">
+      <c r="F13" s="194" t="s">
         <v>7</v>
       </c>
-      <c r="G13" s="32" t="s">
+      <c r="G13" s="195" t="s">
         <v>24</v>
       </c>
-      <c r="H13" s="17" t="s">
+      <c r="H13" s="196" t="s">
         <v>8</v>
       </c>
       <c r="I13" s="79" t="s">
@@ -2191,7 +2207,7 @@
       <c r="L13" s="81"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="134">
+      <c r="A14" s="133">
         <v>4</v>
       </c>
       <c r="B14" s="101" t="s">
@@ -2201,7 +2217,6 @@
         <v>44805</v>
       </c>
       <c r="D14" s="102">
-        <f t="shared" ref="D14" si="0">C14+7</f>
         <v>44812</v>
       </c>
       <c r="E14" s="102">
@@ -2216,19 +2231,19 @@
       <c r="H14" s="101" t="s">
         <v>1</v>
       </c>
-      <c r="I14" s="115" t="s">
+      <c r="I14" s="149" t="s">
         <v>4</v>
       </c>
-      <c r="J14" s="126">
+      <c r="J14" s="186">
         <v>59</v>
       </c>
-      <c r="K14" s="129">
+      <c r="K14" s="126">
         <v>4</v>
       </c>
-      <c r="L14" s="147"/>
+      <c r="L14" s="132"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="135"/>
+      <c r="A15" s="134"/>
       <c r="B15" s="101" t="s">
         <v>25</v>
       </c>
@@ -2248,13 +2263,13 @@
       <c r="H15" s="98" t="s">
         <v>40</v>
       </c>
-      <c r="I15" s="116"/>
-      <c r="J15" s="127"/>
-      <c r="K15" s="130"/>
-      <c r="L15" s="147"/>
+      <c r="I15" s="137"/>
+      <c r="J15" s="187"/>
+      <c r="K15" s="127"/>
+      <c r="L15" s="132"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="135"/>
+      <c r="A16" s="134"/>
       <c r="B16" s="98" t="s">
         <v>27</v>
       </c>
@@ -2274,13 +2289,13 @@
       <c r="H16" s="98" t="s">
         <v>8</v>
       </c>
-      <c r="I16" s="116"/>
-      <c r="J16" s="127"/>
-      <c r="K16" s="130"/>
-      <c r="L16" s="147"/>
+      <c r="I16" s="137"/>
+      <c r="J16" s="187"/>
+      <c r="K16" s="127"/>
+      <c r="L16" s="132"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="135"/>
+      <c r="A17" s="134"/>
       <c r="B17" s="98" t="s">
         <v>41</v>
       </c>
@@ -2300,13 +2315,13 @@
       <c r="H17" s="98" t="s">
         <v>8</v>
       </c>
-      <c r="I17" s="116"/>
-      <c r="J17" s="127"/>
-      <c r="K17" s="130"/>
-      <c r="L17" s="147"/>
+      <c r="I17" s="137"/>
+      <c r="J17" s="187"/>
+      <c r="K17" s="127"/>
+      <c r="L17" s="132"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="136"/>
+      <c r="A18" s="135"/>
       <c r="B18" s="18" t="s">
         <v>43</v>
       </c>
@@ -2314,7 +2329,6 @@
         <v>44875</v>
       </c>
       <c r="D18" s="24">
-        <f>C18+7</f>
         <v>44882</v>
       </c>
       <c r="E18" s="24">
@@ -2329,13 +2343,13 @@
       <c r="H18" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="I18" s="116"/>
-      <c r="J18" s="128"/>
-      <c r="K18" s="131"/>
+      <c r="I18" s="137"/>
+      <c r="J18" s="188"/>
+      <c r="K18" s="128"/>
       <c r="L18" s="88"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="112">
+      <c r="A19" s="116">
         <v>5</v>
       </c>
       <c r="B19" s="44" t="s">
@@ -2359,19 +2373,19 @@
       <c r="H19" s="94" t="s">
         <v>11</v>
       </c>
-      <c r="I19" s="132" t="s">
+      <c r="I19" s="136" t="s">
         <v>4</v>
       </c>
-      <c r="J19" s="120">
+      <c r="J19" s="122">
         <v>8</v>
       </c>
-      <c r="K19" s="120">
+      <c r="K19" s="122">
         <v>1</v>
       </c>
-      <c r="L19" s="137"/>
+      <c r="L19" s="115"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="113"/>
+      <c r="A20" s="117"/>
       <c r="B20" s="91" t="s">
         <v>25</v>
       </c>
@@ -2393,13 +2407,13 @@
       <c r="H20" s="94" t="s">
         <v>1</v>
       </c>
-      <c r="I20" s="116"/>
-      <c r="J20" s="121"/>
-      <c r="K20" s="121"/>
-      <c r="L20" s="137"/>
+      <c r="I20" s="137"/>
+      <c r="J20" s="123"/>
+      <c r="K20" s="123"/>
+      <c r="L20" s="115"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="114"/>
+      <c r="A21" s="118"/>
       <c r="B21" s="41" t="s">
         <v>27</v>
       </c>
@@ -2421,18 +2435,16 @@
       <c r="H21" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="I21" s="133"/>
-      <c r="J21" s="122"/>
-      <c r="K21" s="122"/>
-      <c r="L21" s="137"/>
+      <c r="I21" s="138"/>
+      <c r="J21" s="124"/>
+      <c r="K21" s="124"/>
+      <c r="L21" s="115"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="87">
         <v>6</v>
       </c>
-      <c r="B22" s="87" t="s">
-        <v>26</v>
-      </c>
+      <c r="B22" s="87"/>
       <c r="C22" s="7">
         <v>44822</v>
       </c>
@@ -2463,7 +2475,7 @@
       <c r="L22" s="85"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="112">
+      <c r="A23" s="116">
         <v>7</v>
       </c>
       <c r="B23" s="44" t="s">
@@ -2487,19 +2499,19 @@
       <c r="H23" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="I23" s="169" t="s">
+      <c r="I23" s="151" t="s">
         <v>0</v>
       </c>
-      <c r="J23" s="172">
+      <c r="J23" s="154">
         <v>21</v>
       </c>
-      <c r="K23" s="164">
+      <c r="K23" s="157">
         <v>2</v>
       </c>
-      <c r="L23" s="137"/>
+      <c r="L23" s="115"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="113"/>
+      <c r="A24" s="117"/>
       <c r="B24" s="91" t="s">
         <v>25</v>
       </c>
@@ -2521,13 +2533,13 @@
       <c r="H24" s="94" t="s">
         <v>1</v>
       </c>
-      <c r="I24" s="170"/>
-      <c r="J24" s="173"/>
-      <c r="K24" s="165"/>
-      <c r="L24" s="137"/>
+      <c r="I24" s="152"/>
+      <c r="J24" s="155"/>
+      <c r="K24" s="158"/>
+      <c r="L24" s="115"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="114"/>
+      <c r="A25" s="118"/>
       <c r="B25" s="41" t="s">
         <v>27</v>
       </c>
@@ -2549,13 +2561,13 @@
       <c r="H25" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="I25" s="171"/>
-      <c r="J25" s="174"/>
-      <c r="K25" s="166"/>
-      <c r="L25" s="137"/>
+      <c r="I25" s="153"/>
+      <c r="J25" s="156"/>
+      <c r="K25" s="159"/>
+      <c r="L25" s="115"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="134">
+      <c r="A26" s="133">
         <v>8</v>
       </c>
       <c r="B26" s="49" t="s">
@@ -2579,19 +2591,19 @@
       <c r="H26" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="I26" s="175" t="s">
+      <c r="I26" s="160" t="s">
         <v>0</v>
       </c>
-      <c r="J26" s="162">
+      <c r="J26" s="163">
         <v>33</v>
       </c>
-      <c r="K26" s="178">
+      <c r="K26" s="166">
         <v>2</v>
       </c>
-      <c r="L26" s="147"/>
+      <c r="L26" s="132"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="135"/>
+      <c r="A27" s="134"/>
       <c r="B27" s="52" t="s">
         <v>25</v>
       </c>
@@ -2613,13 +2625,13 @@
       <c r="H27" s="98" t="s">
         <v>1</v>
       </c>
-      <c r="I27" s="176"/>
-      <c r="J27" s="168"/>
-      <c r="K27" s="179"/>
-      <c r="L27" s="147"/>
+      <c r="I27" s="161"/>
+      <c r="J27" s="164"/>
+      <c r="K27" s="167"/>
+      <c r="L27" s="132"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="136"/>
+      <c r="A28" s="135"/>
       <c r="B28" s="18" t="s">
         <v>27</v>
       </c>
@@ -2641,13 +2653,13 @@
       <c r="H28" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="I28" s="177"/>
-      <c r="J28" s="163"/>
-      <c r="K28" s="180"/>
+      <c r="I28" s="162"/>
+      <c r="J28" s="165"/>
+      <c r="K28" s="168"/>
       <c r="L28" s="86"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" s="112">
+      <c r="A29" s="116">
         <v>9</v>
       </c>
       <c r="B29" s="44" t="s">
@@ -2672,16 +2684,16 @@
       <c r="I29" s="189" t="s">
         <v>0</v>
       </c>
-      <c r="J29" s="159">
+      <c r="J29" s="173">
         <v>61</v>
       </c>
-      <c r="K29" s="164">
+      <c r="K29" s="157">
         <v>4</v>
       </c>
-      <c r="L29" s="137"/>
+      <c r="L29" s="115"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" s="113"/>
+      <c r="A30" s="117"/>
       <c r="B30" s="44" t="s">
         <v>25</v>
       </c>
@@ -2701,13 +2713,13 @@
       <c r="H30" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="I30" s="176"/>
-      <c r="J30" s="160"/>
-      <c r="K30" s="165"/>
-      <c r="L30" s="137"/>
+      <c r="I30" s="161"/>
+      <c r="J30" s="174"/>
+      <c r="K30" s="158"/>
+      <c r="L30" s="115"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" s="113"/>
+      <c r="A31" s="117"/>
       <c r="B31" s="99" t="s">
         <v>27</v>
       </c>
@@ -2729,13 +2741,13 @@
       <c r="H31" s="94" t="s">
         <v>1</v>
       </c>
-      <c r="I31" s="176"/>
-      <c r="J31" s="160"/>
-      <c r="K31" s="165"/>
-      <c r="L31" s="137"/>
+      <c r="I31" s="161"/>
+      <c r="J31" s="174"/>
+      <c r="K31" s="158"/>
+      <c r="L31" s="115"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A32" s="114"/>
+      <c r="A32" s="118"/>
       <c r="B32" s="41" t="s">
         <v>41</v>
       </c>
@@ -2757,19 +2769,19 @@
       <c r="H32" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="I32" s="177"/>
-      <c r="J32" s="161"/>
-      <c r="K32" s="166"/>
-      <c r="L32" s="137"/>
+      <c r="I32" s="162"/>
+      <c r="J32" s="175"/>
+      <c r="K32" s="159"/>
+      <c r="L32" s="115"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="14">
         <v>10</v>
       </c>
       <c r="B33" s="4"/>
-      <c r="C33" s="11"/>
-      <c r="D33" s="11"/>
-      <c r="E33" s="11"/>
+      <c r="C33" s="113"/>
+      <c r="D33" s="113"/>
+      <c r="E33" s="113"/>
       <c r="F33" s="11"/>
       <c r="G33" s="11"/>
       <c r="H33" s="11"/>
@@ -2779,7 +2791,7 @@
       <c r="L33" s="82"/>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A34" s="112">
+      <c r="A34" s="116">
         <v>11</v>
       </c>
       <c r="B34" s="48" t="s">
@@ -2801,19 +2813,19 @@
       <c r="H34" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="I34" s="142" t="s">
+      <c r="I34" s="119" t="s">
         <v>0</v>
       </c>
-      <c r="J34" s="120">
+      <c r="J34" s="122">
         <v>132</v>
       </c>
-      <c r="K34" s="120">
+      <c r="K34" s="122">
         <v>8</v>
       </c>
-      <c r="L34" s="137"/>
+      <c r="L34" s="115"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A35" s="113"/>
+      <c r="A35" s="117"/>
       <c r="B35" s="48" t="s">
         <v>25</v>
       </c>
@@ -2821,7 +2833,6 @@
         <v>44853</v>
       </c>
       <c r="D35" s="58">
-        <f>C35+7</f>
         <v>44860</v>
       </c>
       <c r="E35" s="58">
@@ -2836,13 +2847,13 @@
       <c r="H35" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="I35" s="148"/>
-      <c r="J35" s="121"/>
-      <c r="K35" s="121"/>
-      <c r="L35" s="137"/>
+      <c r="I35" s="120"/>
+      <c r="J35" s="123"/>
+      <c r="K35" s="123"/>
+      <c r="L35" s="115"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A36" s="113"/>
+      <c r="A36" s="117"/>
       <c r="B36" s="100" t="s">
         <v>27</v>
       </c>
@@ -2862,13 +2873,13 @@
       <c r="H36" s="94" t="s">
         <v>8</v>
       </c>
-      <c r="I36" s="148"/>
-      <c r="J36" s="121"/>
-      <c r="K36" s="121"/>
-      <c r="L36" s="137"/>
+      <c r="I36" s="120"/>
+      <c r="J36" s="123"/>
+      <c r="K36" s="123"/>
+      <c r="L36" s="115"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A37" s="114"/>
+      <c r="A37" s="118"/>
       <c r="B37" s="41" t="s">
         <v>41</v>
       </c>
@@ -2890,13 +2901,13 @@
       <c r="H37" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="I37" s="149"/>
-      <c r="J37" s="122"/>
-      <c r="K37" s="122"/>
-      <c r="L37" s="137"/>
+      <c r="I37" s="121"/>
+      <c r="J37" s="124"/>
+      <c r="K37" s="124"/>
+      <c r="L37" s="115"/>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A38" s="134">
+      <c r="A38" s="133">
         <v>12</v>
       </c>
       <c r="B38" s="49" t="s">
@@ -2918,19 +2929,19 @@
       <c r="H38" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="I38" s="142" t="s">
+      <c r="I38" s="119" t="s">
         <v>0</v>
       </c>
-      <c r="J38" s="129">
+      <c r="J38" s="126">
         <v>72</v>
       </c>
-      <c r="K38" s="151">
+      <c r="K38" s="129">
         <v>5</v>
       </c>
-      <c r="L38" s="147"/>
+      <c r="L38" s="132"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A39" s="135"/>
+      <c r="A39" s="134"/>
       <c r="B39" s="52" t="s">
         <v>25</v>
       </c>
@@ -2950,13 +2961,13 @@
       <c r="H39" s="52" t="s">
         <v>40</v>
       </c>
-      <c r="I39" s="148"/>
-      <c r="J39" s="130"/>
-      <c r="K39" s="152"/>
-      <c r="L39" s="147"/>
+      <c r="I39" s="120"/>
+      <c r="J39" s="127"/>
+      <c r="K39" s="130"/>
+      <c r="L39" s="132"/>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A40" s="136"/>
+      <c r="A40" s="135"/>
       <c r="B40" s="18" t="s">
         <v>27</v>
       </c>
@@ -2978,13 +2989,13 @@
       <c r="H40" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="I40" s="149"/>
-      <c r="J40" s="131"/>
-      <c r="K40" s="153"/>
-      <c r="L40" s="147"/>
+      <c r="I40" s="121"/>
+      <c r="J40" s="128"/>
+      <c r="K40" s="131"/>
+      <c r="L40" s="132"/>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A41" s="112">
+      <c r="A41" s="116">
         <v>13</v>
       </c>
       <c r="B41" s="48" t="s">
@@ -3006,19 +3017,19 @@
       <c r="H41" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="I41" s="142" t="s">
+      <c r="I41" s="119" t="s">
         <v>0</v>
       </c>
-      <c r="J41" s="120">
+      <c r="J41" s="122">
         <v>7</v>
       </c>
-      <c r="K41" s="138">
+      <c r="K41" s="139">
         <v>1</v>
       </c>
-      <c r="L41" s="137"/>
+      <c r="L41" s="115"/>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A42" s="114"/>
+      <c r="A42" s="118"/>
       <c r="B42" s="17" t="s">
         <v>25</v>
       </c>
@@ -3026,7 +3037,6 @@
         <v>44853</v>
       </c>
       <c r="D42" s="10">
-        <f>C42+7</f>
         <v>44860</v>
       </c>
       <c r="E42" s="10">
@@ -3041,13 +3051,13 @@
       <c r="H42" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="I42" s="149"/>
-      <c r="J42" s="122"/>
-      <c r="K42" s="140"/>
-      <c r="L42" s="137"/>
+      <c r="I42" s="121"/>
+      <c r="J42" s="124"/>
+      <c r="K42" s="141"/>
+      <c r="L42" s="115"/>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A43" s="134">
+      <c r="A43" s="133">
         <v>14</v>
       </c>
       <c r="B43" s="49" t="s">
@@ -3069,19 +3079,19 @@
       <c r="H43" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="I43" s="142" t="s">
+      <c r="I43" s="119" t="s">
         <v>0</v>
       </c>
-      <c r="J43" s="129">
+      <c r="J43" s="126">
         <v>39</v>
       </c>
-      <c r="K43" s="151">
+      <c r="K43" s="129">
         <v>3</v>
       </c>
-      <c r="L43" s="147"/>
+      <c r="L43" s="132"/>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A44" s="136"/>
+      <c r="A44" s="135"/>
       <c r="B44" s="18" t="s">
         <v>25</v>
       </c>
@@ -3103,13 +3113,13 @@
       <c r="H44" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="I44" s="149"/>
-      <c r="J44" s="131"/>
-      <c r="K44" s="153"/>
-      <c r="L44" s="147"/>
+      <c r="I44" s="121"/>
+      <c r="J44" s="128"/>
+      <c r="K44" s="131"/>
+      <c r="L44" s="132"/>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A45" s="112">
+      <c r="A45" s="116">
         <v>15</v>
       </c>
       <c r="B45" s="48" t="s">
@@ -3131,19 +3141,19 @@
       <c r="H45" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="I45" s="142" t="s">
+      <c r="I45" s="119" t="s">
         <v>0</v>
       </c>
-      <c r="J45" s="138">
+      <c r="J45" s="139">
         <v>39</v>
       </c>
-      <c r="K45" s="159">
+      <c r="K45" s="173">
         <v>3</v>
       </c>
-      <c r="L45" s="137"/>
+      <c r="L45" s="115"/>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A46" s="113"/>
+      <c r="A46" s="117"/>
       <c r="B46" s="48" t="s">
         <v>25</v>
       </c>
@@ -3163,13 +3173,13 @@
       <c r="H46" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="I46" s="148"/>
-      <c r="J46" s="139"/>
-      <c r="K46" s="160"/>
-      <c r="L46" s="137"/>
+      <c r="I46" s="120"/>
+      <c r="J46" s="140"/>
+      <c r="K46" s="174"/>
+      <c r="L46" s="115"/>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A47" s="114"/>
+      <c r="A47" s="118"/>
       <c r="B47" s="17" t="s">
         <v>27</v>
       </c>
@@ -3191,13 +3201,13 @@
       <c r="H47" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="I47" s="149"/>
-      <c r="J47" s="140"/>
-      <c r="K47" s="161"/>
-      <c r="L47" s="137"/>
+      <c r="I47" s="121"/>
+      <c r="J47" s="141"/>
+      <c r="K47" s="175"/>
+      <c r="L47" s="115"/>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A48" s="134">
+      <c r="A48" s="133">
         <v>16</v>
       </c>
       <c r="B48" s="49" t="s">
@@ -3219,19 +3229,19 @@
       <c r="H48" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="I48" s="142" t="s">
+      <c r="I48" s="119" t="s">
         <v>0</v>
       </c>
-      <c r="J48" s="151">
+      <c r="J48" s="129">
         <v>39</v>
       </c>
-      <c r="K48" s="162">
+      <c r="K48" s="163">
         <v>3</v>
       </c>
-      <c r="L48" s="147"/>
+      <c r="L48" s="132"/>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A49" s="136"/>
+      <c r="A49" s="135"/>
       <c r="B49" s="18" t="s">
         <v>25</v>
       </c>
@@ -3239,7 +3249,6 @@
         <v>44854</v>
       </c>
       <c r="D49" s="39">
-        <f>C49+7</f>
         <v>44861</v>
       </c>
       <c r="E49" s="39">
@@ -3254,19 +3263,19 @@
       <c r="H49" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="I49" s="149"/>
-      <c r="J49" s="153"/>
-      <c r="K49" s="163"/>
-      <c r="L49" s="147"/>
+      <c r="I49" s="121"/>
+      <c r="J49" s="131"/>
+      <c r="K49" s="165"/>
+      <c r="L49" s="132"/>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" s="14">
         <v>17</v>
       </c>
       <c r="B50" s="4"/>
-      <c r="C50" s="11"/>
-      <c r="D50" s="11"/>
-      <c r="E50" s="11"/>
+      <c r="C50" s="113"/>
+      <c r="D50" s="113"/>
+      <c r="E50" s="113"/>
       <c r="F50" s="11"/>
       <c r="G50" s="11"/>
       <c r="H50" s="11"/>
@@ -3276,7 +3285,7 @@
       <c r="L50" s="82"/>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A51" s="134">
+      <c r="A51" s="133">
         <v>18</v>
       </c>
       <c r="B51" s="49" t="s">
@@ -3298,19 +3307,19 @@
       <c r="H51" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="I51" s="142" t="s">
+      <c r="I51" s="119" t="s">
         <v>0</v>
       </c>
-      <c r="J51" s="129">
+      <c r="J51" s="126">
         <v>47</v>
       </c>
-      <c r="K51" s="151">
+      <c r="K51" s="129">
         <v>3</v>
       </c>
-      <c r="L51" s="147"/>
+      <c r="L51" s="132"/>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A52" s="135"/>
+      <c r="A52" s="134"/>
       <c r="B52" s="52" t="s">
         <v>25</v>
       </c>
@@ -3330,13 +3339,13 @@
       <c r="H52" s="52" t="s">
         <v>40</v>
       </c>
-      <c r="I52" s="148"/>
-      <c r="J52" s="130"/>
-      <c r="K52" s="152"/>
-      <c r="L52" s="147"/>
+      <c r="I52" s="120"/>
+      <c r="J52" s="127"/>
+      <c r="K52" s="130"/>
+      <c r="L52" s="132"/>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A53" s="136"/>
+      <c r="A53" s="135"/>
       <c r="B53" s="18" t="s">
         <v>27</v>
       </c>
@@ -3358,13 +3367,13 @@
       <c r="H53" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="I53" s="149"/>
-      <c r="J53" s="131"/>
-      <c r="K53" s="153"/>
-      <c r="L53" s="147"/>
+      <c r="I53" s="121"/>
+      <c r="J53" s="128"/>
+      <c r="K53" s="131"/>
+      <c r="L53" s="132"/>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A54" s="156">
+      <c r="A54" s="169">
         <v>19</v>
       </c>
       <c r="B54" s="48" t="s">
@@ -3386,19 +3395,19 @@
       <c r="H54" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="I54" s="142" t="s">
+      <c r="I54" s="119" t="s">
         <v>0</v>
       </c>
-      <c r="J54" s="120">
+      <c r="J54" s="122">
         <v>68</v>
       </c>
-      <c r="K54" s="138">
+      <c r="K54" s="139">
         <v>4</v>
       </c>
-      <c r="L54" s="137"/>
+      <c r="L54" s="115"/>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A55" s="157"/>
+      <c r="A55" s="170"/>
       <c r="B55" s="48" t="s">
         <v>25</v>
       </c>
@@ -3418,13 +3427,13 @@
       <c r="H55" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="I55" s="148"/>
-      <c r="J55" s="121"/>
-      <c r="K55" s="139"/>
-      <c r="L55" s="137"/>
+      <c r="I55" s="120"/>
+      <c r="J55" s="123"/>
+      <c r="K55" s="140"/>
+      <c r="L55" s="115"/>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A56" s="158"/>
+      <c r="A56" s="171"/>
       <c r="B56" s="17" t="s">
         <v>27</v>
       </c>
@@ -3446,13 +3455,13 @@
       <c r="H56" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="I56" s="149"/>
-      <c r="J56" s="122"/>
-      <c r="K56" s="140"/>
-      <c r="L56" s="137"/>
+      <c r="I56" s="121"/>
+      <c r="J56" s="124"/>
+      <c r="K56" s="141"/>
+      <c r="L56" s="115"/>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A57" s="134">
+      <c r="A57" s="133">
         <v>20</v>
       </c>
       <c r="B57" s="101" t="s">
@@ -3474,19 +3483,19 @@
       <c r="H57" s="101" t="s">
         <v>11</v>
       </c>
-      <c r="I57" s="132" t="s">
+      <c r="I57" s="136" t="s">
         <v>4</v>
       </c>
-      <c r="J57" s="129">
+      <c r="J57" s="126">
         <v>13</v>
       </c>
-      <c r="K57" s="129">
+      <c r="K57" s="126">
         <v>1</v>
       </c>
-      <c r="L57" s="147"/>
+      <c r="L57" s="132"/>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A58" s="135"/>
+      <c r="A58" s="134"/>
       <c r="B58" s="101" t="s">
         <v>25</v>
       </c>
@@ -3506,13 +3515,13 @@
       <c r="H58" s="101" t="s">
         <v>8</v>
       </c>
-      <c r="I58" s="116"/>
-      <c r="J58" s="130"/>
-      <c r="K58" s="130"/>
-      <c r="L58" s="147"/>
+      <c r="I58" s="137"/>
+      <c r="J58" s="127"/>
+      <c r="K58" s="127"/>
+      <c r="L58" s="132"/>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A59" s="135"/>
+      <c r="A59" s="134"/>
       <c r="B59" s="98" t="s">
         <v>27</v>
       </c>
@@ -3534,13 +3543,13 @@
       <c r="H59" s="101" t="s">
         <v>11</v>
       </c>
-      <c r="I59" s="116"/>
-      <c r="J59" s="130"/>
-      <c r="K59" s="130"/>
-      <c r="L59" s="147"/>
+      <c r="I59" s="137"/>
+      <c r="J59" s="127"/>
+      <c r="K59" s="127"/>
+      <c r="L59" s="132"/>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A60" s="136"/>
+      <c r="A60" s="135"/>
       <c r="B60" s="18" t="s">
         <v>41</v>
       </c>
@@ -3548,7 +3557,6 @@
         <v>44878</v>
       </c>
       <c r="D60" s="27">
-        <f>C60+7</f>
         <v>44885</v>
       </c>
       <c r="E60" s="27">
@@ -3563,13 +3571,13 @@
       <c r="H60" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="I60" s="133"/>
-      <c r="J60" s="131"/>
-      <c r="K60" s="131"/>
+      <c r="I60" s="138"/>
+      <c r="J60" s="128"/>
+      <c r="K60" s="128"/>
       <c r="L60" s="88"/>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A61" s="112">
+      <c r="A61" s="116">
         <v>21</v>
       </c>
       <c r="B61" s="44" t="s">
@@ -3591,19 +3599,19 @@
       <c r="H61" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="I61" s="132" t="s">
+      <c r="I61" s="136" t="s">
         <v>4</v>
       </c>
-      <c r="J61" s="120">
+      <c r="J61" s="122">
         <v>94</v>
       </c>
-      <c r="K61" s="120">
+      <c r="K61" s="122">
         <v>6</v>
       </c>
-      <c r="L61" s="137"/>
+      <c r="L61" s="115"/>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A62" s="113"/>
+      <c r="A62" s="117"/>
       <c r="B62" s="48" t="s">
         <v>25</v>
       </c>
@@ -3623,13 +3631,13 @@
       <c r="H62" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="I62" s="116"/>
-      <c r="J62" s="121"/>
-      <c r="K62" s="121"/>
-      <c r="L62" s="137"/>
+      <c r="I62" s="137"/>
+      <c r="J62" s="123"/>
+      <c r="K62" s="123"/>
+      <c r="L62" s="115"/>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A63" s="113"/>
+      <c r="A63" s="117"/>
       <c r="B63" s="100" t="s">
         <v>27</v>
       </c>
@@ -3651,13 +3659,13 @@
       <c r="H63" s="100" t="s">
         <v>11</v>
       </c>
-      <c r="I63" s="116"/>
-      <c r="J63" s="121"/>
-      <c r="K63" s="121"/>
-      <c r="L63" s="137"/>
+      <c r="I63" s="137"/>
+      <c r="J63" s="123"/>
+      <c r="K63" s="123"/>
+      <c r="L63" s="115"/>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A64" s="114"/>
+      <c r="A64" s="118"/>
       <c r="B64" s="70" t="s">
         <v>41</v>
       </c>
@@ -3679,13 +3687,13 @@
       <c r="H64" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="I64" s="133"/>
-      <c r="J64" s="122"/>
-      <c r="K64" s="122"/>
+      <c r="I64" s="138"/>
+      <c r="J64" s="124"/>
+      <c r="K64" s="124"/>
       <c r="L64" s="90"/>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A65" s="134">
+      <c r="A65" s="133">
         <v>22</v>
       </c>
       <c r="B65" s="101" t="s">
@@ -3709,19 +3717,19 @@
       <c r="H65" s="98" t="s">
         <v>11</v>
       </c>
-      <c r="I65" s="132" t="s">
+      <c r="I65" s="136" t="s">
         <v>4</v>
       </c>
-      <c r="J65" s="129">
+      <c r="J65" s="126">
         <v>67</v>
       </c>
-      <c r="K65" s="129">
+      <c r="K65" s="126">
         <v>4</v>
       </c>
-      <c r="L65" s="147"/>
+      <c r="L65" s="132"/>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A66" s="135"/>
+      <c r="A66" s="134"/>
       <c r="B66" s="101" t="s">
         <v>25</v>
       </c>
@@ -3741,13 +3749,13 @@
       <c r="H66" s="98" t="s">
         <v>40</v>
       </c>
-      <c r="I66" s="116"/>
-      <c r="J66" s="130"/>
-      <c r="K66" s="130"/>
-      <c r="L66" s="147"/>
+      <c r="I66" s="137"/>
+      <c r="J66" s="127"/>
+      <c r="K66" s="127"/>
+      <c r="L66" s="132"/>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A67" s="135"/>
+      <c r="A67" s="134"/>
       <c r="B67" s="98" t="s">
         <v>27</v>
       </c>
@@ -3755,7 +3763,6 @@
         <v>44854</v>
       </c>
       <c r="D67" s="108">
-        <f>C67+7</f>
         <v>44861</v>
       </c>
       <c r="E67" s="108">
@@ -3770,13 +3777,13 @@
       <c r="H67" s="101" t="s">
         <v>1</v>
       </c>
-      <c r="I67" s="116"/>
-      <c r="J67" s="130"/>
-      <c r="K67" s="130"/>
-      <c r="L67" s="147"/>
+      <c r="I67" s="137"/>
+      <c r="J67" s="127"/>
+      <c r="K67" s="127"/>
+      <c r="L67" s="132"/>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A68" s="136"/>
+      <c r="A68" s="135"/>
       <c r="B68" s="18" t="s">
         <v>41</v>
       </c>
@@ -3784,7 +3791,6 @@
         <v>44878</v>
       </c>
       <c r="D68" s="27">
-        <f>C68+7</f>
         <v>44885</v>
       </c>
       <c r="E68" s="27">
@@ -3799,13 +3805,13 @@
       <c r="H68" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="I68" s="133"/>
-      <c r="J68" s="131"/>
-      <c r="K68" s="131"/>
+      <c r="I68" s="138"/>
+      <c r="J68" s="128"/>
+      <c r="K68" s="128"/>
       <c r="L68" s="88"/>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A69" s="112">
+      <c r="A69" s="116">
         <v>23</v>
       </c>
       <c r="B69" s="44" t="s">
@@ -3827,19 +3833,19 @@
       <c r="H69" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="I69" s="142" t="s">
+      <c r="I69" s="119" t="s">
         <v>0</v>
       </c>
-      <c r="J69" s="120">
+      <c r="J69" s="122">
         <v>22</v>
       </c>
-      <c r="K69" s="138">
+      <c r="K69" s="139">
         <v>2</v>
       </c>
-      <c r="L69" s="137"/>
+      <c r="L69" s="115"/>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A70" s="113"/>
+      <c r="A70" s="117"/>
       <c r="B70" s="44" t="s">
         <v>25</v>
       </c>
@@ -3859,13 +3865,13 @@
       <c r="H70" s="60" t="s">
         <v>40</v>
       </c>
-      <c r="I70" s="148"/>
-      <c r="J70" s="121"/>
-      <c r="K70" s="139"/>
-      <c r="L70" s="137"/>
+      <c r="I70" s="120"/>
+      <c r="J70" s="123"/>
+      <c r="K70" s="140"/>
+      <c r="L70" s="115"/>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A71" s="114"/>
+      <c r="A71" s="118"/>
       <c r="B71" s="17" t="s">
         <v>27</v>
       </c>
@@ -3873,7 +3879,6 @@
         <v>44854</v>
       </c>
       <c r="D71" s="10">
-        <f>C71+7</f>
         <v>44861</v>
       </c>
       <c r="E71" s="10">
@@ -3888,13 +3893,13 @@
       <c r="H71" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="I71" s="149"/>
-      <c r="J71" s="122"/>
-      <c r="K71" s="140"/>
-      <c r="L71" s="137"/>
+      <c r="I71" s="121"/>
+      <c r="J71" s="124"/>
+      <c r="K71" s="141"/>
+      <c r="L71" s="115"/>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A72" s="134">
+      <c r="A72" s="133">
         <v>24</v>
       </c>
       <c r="B72" s="98" t="s">
@@ -3916,19 +3921,19 @@
       <c r="H72" s="98" t="s">
         <v>11</v>
       </c>
-      <c r="I72" s="132" t="s">
+      <c r="I72" s="136" t="s">
         <v>0</v>
       </c>
-      <c r="J72" s="129">
+      <c r="J72" s="126">
         <v>31</v>
       </c>
-      <c r="K72" s="129">
+      <c r="K72" s="126">
         <v>2</v>
       </c>
       <c r="L72" s="83"/>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A73" s="136"/>
+      <c r="A73" s="135"/>
       <c r="B73" s="18" t="s">
         <v>25</v>
       </c>
@@ -3936,7 +3941,6 @@
         <v>44878</v>
       </c>
       <c r="D73" s="27">
-        <f>C73+7</f>
         <v>44885</v>
       </c>
       <c r="E73" s="27">
@@ -3951,13 +3955,13 @@
       <c r="H73" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="I73" s="116"/>
-      <c r="J73" s="131"/>
-      <c r="K73" s="131"/>
+      <c r="I73" s="137"/>
+      <c r="J73" s="128"/>
+      <c r="K73" s="128"/>
       <c r="L73" s="88"/>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A74" s="112">
+      <c r="A74" s="116">
         <v>25</v>
       </c>
       <c r="B74" s="48" t="s">
@@ -3979,19 +3983,19 @@
       <c r="H74" s="60" t="s">
         <v>40</v>
       </c>
-      <c r="I74" s="142" t="s">
+      <c r="I74" s="119" t="s">
         <v>0</v>
       </c>
-      <c r="J74" s="120">
+      <c r="J74" s="122">
         <v>44</v>
       </c>
-      <c r="K74" s="138">
+      <c r="K74" s="139">
         <v>3</v>
       </c>
-      <c r="L74" s="137"/>
+      <c r="L74" s="115"/>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A75" s="114"/>
+      <c r="A75" s="118"/>
       <c r="B75" s="17" t="s">
         <v>25</v>
       </c>
@@ -4013,13 +4017,13 @@
       <c r="H75" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="I75" s="149"/>
-      <c r="J75" s="122"/>
-      <c r="K75" s="140"/>
-      <c r="L75" s="137"/>
+      <c r="I75" s="121"/>
+      <c r="J75" s="124"/>
+      <c r="K75" s="141"/>
+      <c r="L75" s="115"/>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A76" s="134">
+      <c r="A76" s="133">
         <v>26</v>
       </c>
       <c r="B76" s="49" t="s">
@@ -4041,19 +4045,19 @@
       <c r="H76" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="I76" s="142" t="s">
+      <c r="I76" s="119" t="s">
         <v>0</v>
       </c>
-      <c r="J76" s="129">
+      <c r="J76" s="126">
         <v>30</v>
       </c>
-      <c r="K76" s="151">
+      <c r="K76" s="129">
         <v>3</v>
       </c>
-      <c r="L76" s="147"/>
+      <c r="L76" s="132"/>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A77" s="135"/>
+      <c r="A77" s="134"/>
       <c r="B77" s="49" t="s">
         <v>25</v>
       </c>
@@ -4073,13 +4077,13 @@
       <c r="H77" s="52" t="s">
         <v>40</v>
       </c>
-      <c r="I77" s="148"/>
-      <c r="J77" s="130"/>
-      <c r="K77" s="152"/>
-      <c r="L77" s="147"/>
+      <c r="I77" s="120"/>
+      <c r="J77" s="127"/>
+      <c r="K77" s="130"/>
+      <c r="L77" s="132"/>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A78" s="136"/>
+      <c r="A78" s="135"/>
       <c r="B78" s="18" t="s">
         <v>27</v>
       </c>
@@ -4101,13 +4105,13 @@
       <c r="H78" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="I78" s="149"/>
-      <c r="J78" s="131"/>
-      <c r="K78" s="153"/>
-      <c r="L78" s="147"/>
+      <c r="I78" s="121"/>
+      <c r="J78" s="128"/>
+      <c r="K78" s="131"/>
+      <c r="L78" s="132"/>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A79" s="112">
+      <c r="A79" s="116">
         <v>27</v>
       </c>
       <c r="B79" s="44" t="s">
@@ -4129,19 +4133,19 @@
       <c r="H79" s="68" t="s">
         <v>16</v>
       </c>
-      <c r="I79" s="132" t="s">
+      <c r="I79" s="136" t="s">
         <v>4</v>
       </c>
-      <c r="J79" s="120">
+      <c r="J79" s="122">
         <v>12</v>
       </c>
-      <c r="K79" s="138">
+      <c r="K79" s="139">
         <v>1</v>
       </c>
-      <c r="L79" s="137"/>
+      <c r="L79" s="115"/>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A80" s="113"/>
+      <c r="A80" s="117"/>
       <c r="B80" s="48" t="s">
         <v>25</v>
       </c>
@@ -4161,13 +4165,13 @@
       <c r="H80" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="I80" s="116"/>
-      <c r="J80" s="121"/>
-      <c r="K80" s="139"/>
-      <c r="L80" s="137"/>
+      <c r="I80" s="137"/>
+      <c r="J80" s="123"/>
+      <c r="K80" s="140"/>
+      <c r="L80" s="115"/>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A81" s="113"/>
+      <c r="A81" s="117"/>
       <c r="B81" s="48" t="s">
         <v>27</v>
       </c>
@@ -4189,13 +4193,13 @@
       <c r="H81" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="I81" s="116"/>
-      <c r="J81" s="121"/>
-      <c r="K81" s="139"/>
-      <c r="L81" s="137"/>
+      <c r="I81" s="137"/>
+      <c r="J81" s="123"/>
+      <c r="K81" s="140"/>
+      <c r="L81" s="115"/>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A82" s="114"/>
+      <c r="A82" s="118"/>
       <c r="B82" s="70" t="s">
         <v>41</v>
       </c>
@@ -4217,13 +4221,13 @@
       <c r="H82" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="I82" s="133"/>
-      <c r="J82" s="122"/>
-      <c r="K82" s="140"/>
-      <c r="L82" s="137"/>
+      <c r="I82" s="138"/>
+      <c r="J82" s="124"/>
+      <c r="K82" s="141"/>
+      <c r="L82" s="115"/>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A83" s="134">
+      <c r="A83" s="133">
         <v>28</v>
       </c>
       <c r="B83" s="49" t="s">
@@ -4245,19 +4249,19 @@
       <c r="H83" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="I83" s="132" t="s">
+      <c r="I83" s="136" t="s">
         <v>4</v>
       </c>
-      <c r="J83" s="129">
+      <c r="J83" s="126">
         <v>21</v>
       </c>
-      <c r="K83" s="151">
+      <c r="K83" s="129">
         <v>2</v>
       </c>
-      <c r="L83" s="147"/>
+      <c r="L83" s="132"/>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A84" s="135"/>
+      <c r="A84" s="134"/>
       <c r="B84" s="49" t="s">
         <v>25</v>
       </c>
@@ -4279,13 +4283,13 @@
       <c r="H84" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="I84" s="116"/>
-      <c r="J84" s="130"/>
-      <c r="K84" s="152"/>
-      <c r="L84" s="147"/>
+      <c r="I84" s="137"/>
+      <c r="J84" s="127"/>
+      <c r="K84" s="130"/>
+      <c r="L84" s="132"/>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A85" s="136"/>
+      <c r="A85" s="135"/>
       <c r="B85" s="18" t="s">
         <v>27</v>
       </c>
@@ -4293,7 +4297,6 @@
         <v>44869</v>
       </c>
       <c r="D85" s="8">
-        <f>C85+7</f>
         <v>44876</v>
       </c>
       <c r="E85" s="8">
@@ -4308,13 +4311,13 @@
       <c r="H85" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="I85" s="133"/>
-      <c r="J85" s="131"/>
-      <c r="K85" s="153"/>
-      <c r="L85" s="147"/>
+      <c r="I85" s="138"/>
+      <c r="J85" s="128"/>
+      <c r="K85" s="131"/>
+      <c r="L85" s="132"/>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A86" s="112">
+      <c r="A86" s="116">
         <v>29</v>
       </c>
       <c r="B86" s="44" t="s">
@@ -4336,19 +4339,19 @@
       <c r="H86" s="68" t="s">
         <v>8</v>
       </c>
-      <c r="I86" s="142" t="s">
+      <c r="I86" s="119" t="s">
         <v>0</v>
       </c>
-      <c r="J86" s="120">
+      <c r="J86" s="122">
         <v>35</v>
       </c>
-      <c r="K86" s="138">
+      <c r="K86" s="139">
         <v>2</v>
       </c>
-      <c r="L86" s="137"/>
+      <c r="L86" s="115"/>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A87" s="113"/>
+      <c r="A87" s="117"/>
       <c r="B87" s="44" t="s">
         <v>25</v>
       </c>
@@ -4368,13 +4371,13 @@
       <c r="H87" s="68" t="s">
         <v>16</v>
       </c>
-      <c r="I87" s="148"/>
-      <c r="J87" s="121"/>
-      <c r="K87" s="139"/>
-      <c r="L87" s="137"/>
+      <c r="I87" s="120"/>
+      <c r="J87" s="123"/>
+      <c r="K87" s="140"/>
+      <c r="L87" s="115"/>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A88" s="114"/>
+      <c r="A88" s="118"/>
       <c r="B88" s="17" t="s">
         <v>27</v>
       </c>
@@ -4396,13 +4399,13 @@
       <c r="H88" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="I88" s="149"/>
-      <c r="J88" s="122"/>
-      <c r="K88" s="140"/>
-      <c r="L88" s="137"/>
+      <c r="I88" s="121"/>
+      <c r="J88" s="124"/>
+      <c r="K88" s="141"/>
+      <c r="L88" s="115"/>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A89" s="134">
+      <c r="A89" s="133">
         <v>30</v>
       </c>
       <c r="B89" s="49" t="s">
@@ -4424,19 +4427,19 @@
       <c r="H89" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="I89" s="142" t="s">
+      <c r="I89" s="119" t="s">
         <v>0</v>
       </c>
-      <c r="J89" s="129">
+      <c r="J89" s="126">
         <v>19</v>
       </c>
-      <c r="K89" s="151">
+      <c r="K89" s="129">
         <v>1</v>
       </c>
-      <c r="L89" s="147"/>
+      <c r="L89" s="132"/>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A90" s="135"/>
+      <c r="A90" s="134"/>
       <c r="B90" s="49" t="s">
         <v>25</v>
       </c>
@@ -4456,10 +4459,10 @@
       <c r="H90" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="I90" s="148"/>
-      <c r="J90" s="130"/>
-      <c r="K90" s="152"/>
-      <c r="L90" s="147"/>
+      <c r="I90" s="120"/>
+      <c r="J90" s="127"/>
+      <c r="K90" s="130"/>
+      <c r="L90" s="132"/>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A91" s="43"/>
@@ -4484,13 +4487,13 @@
       <c r="H91" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="I91" s="149"/>
-      <c r="J91" s="131"/>
-      <c r="K91" s="153"/>
+      <c r="I91" s="121"/>
+      <c r="J91" s="128"/>
+      <c r="K91" s="131"/>
       <c r="L91" s="83"/>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A92" s="112">
+      <c r="A92" s="116">
         <v>31</v>
       </c>
       <c r="B92" s="44" t="s">
@@ -4512,19 +4515,19 @@
       <c r="H92" s="68" t="s">
         <v>5</v>
       </c>
-      <c r="I92" s="154" t="s">
+      <c r="I92" s="125" t="s">
         <v>0</v>
       </c>
-      <c r="J92" s="120">
+      <c r="J92" s="122">
         <v>50</v>
       </c>
-      <c r="K92" s="138">
+      <c r="K92" s="139">
         <v>4</v>
       </c>
-      <c r="L92" s="137"/>
+      <c r="L92" s="115"/>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A93" s="113"/>
+      <c r="A93" s="117"/>
       <c r="B93" s="48" t="s">
         <v>25</v>
       </c>
@@ -4544,13 +4547,13 @@
       <c r="H93" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="I93" s="154"/>
-      <c r="J93" s="121"/>
-      <c r="K93" s="139"/>
-      <c r="L93" s="137"/>
+      <c r="I93" s="125"/>
+      <c r="J93" s="123"/>
+      <c r="K93" s="140"/>
+      <c r="L93" s="115"/>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A94" s="113"/>
+      <c r="A94" s="117"/>
       <c r="B94" s="48" t="s">
         <v>27</v>
       </c>
@@ -4570,13 +4573,13 @@
       <c r="H94" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="I94" s="154"/>
-      <c r="J94" s="121"/>
-      <c r="K94" s="139"/>
-      <c r="L94" s="137"/>
+      <c r="I94" s="125"/>
+      <c r="J94" s="123"/>
+      <c r="K94" s="140"/>
+      <c r="L94" s="115"/>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A95" s="113"/>
+      <c r="A95" s="117"/>
       <c r="B95" s="44" t="s">
         <v>41</v>
       </c>
@@ -4596,13 +4599,13 @@
       <c r="H95" s="60" t="s">
         <v>40</v>
       </c>
-      <c r="I95" s="154"/>
-      <c r="J95" s="121"/>
-      <c r="K95" s="139"/>
-      <c r="L95" s="137"/>
+      <c r="I95" s="125"/>
+      <c r="J95" s="123"/>
+      <c r="K95" s="140"/>
+      <c r="L95" s="115"/>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A96" s="114"/>
+      <c r="A96" s="118"/>
       <c r="B96" s="30" t="s">
         <v>43</v>
       </c>
@@ -4624,13 +4627,13 @@
       <c r="H96" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="I96" s="154"/>
-      <c r="J96" s="122"/>
-      <c r="K96" s="140"/>
-      <c r="L96" s="137"/>
+      <c r="I96" s="125"/>
+      <c r="J96" s="124"/>
+      <c r="K96" s="141"/>
+      <c r="L96" s="115"/>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A97" s="167">
+      <c r="A97" s="172">
         <v>32</v>
       </c>
       <c r="B97" s="49" t="s">
@@ -4652,19 +4655,19 @@
       <c r="H97" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="I97" s="142" t="s">
+      <c r="I97" s="119" t="s">
         <v>0</v>
       </c>
-      <c r="J97" s="129">
+      <c r="J97" s="126">
         <v>77</v>
       </c>
-      <c r="K97" s="151">
+      <c r="K97" s="129">
         <v>4</v>
       </c>
-      <c r="L97" s="147"/>
+      <c r="L97" s="132"/>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A98" s="167"/>
+      <c r="A98" s="172"/>
       <c r="B98" s="49" t="s">
         <v>25</v>
       </c>
@@ -4684,13 +4687,13 @@
       <c r="H98" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="I98" s="148"/>
-      <c r="J98" s="130"/>
-      <c r="K98" s="152"/>
-      <c r="L98" s="147"/>
+      <c r="I98" s="120"/>
+      <c r="J98" s="127"/>
+      <c r="K98" s="130"/>
+      <c r="L98" s="132"/>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A99" s="167"/>
+      <c r="A99" s="172"/>
       <c r="B99" s="52" t="s">
         <v>27</v>
       </c>
@@ -4710,13 +4713,13 @@
       <c r="H99" s="52" t="s">
         <v>40</v>
       </c>
-      <c r="I99" s="148"/>
-      <c r="J99" s="130"/>
-      <c r="K99" s="152"/>
-      <c r="L99" s="147"/>
+      <c r="I99" s="120"/>
+      <c r="J99" s="127"/>
+      <c r="K99" s="130"/>
+      <c r="L99" s="132"/>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A100" s="167"/>
+      <c r="A100" s="172"/>
       <c r="B100" s="18" t="s">
         <v>41</v>
       </c>
@@ -4738,13 +4741,13 @@
       <c r="H100" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="I100" s="149"/>
-      <c r="J100" s="131"/>
-      <c r="K100" s="153"/>
-      <c r="L100" s="147"/>
+      <c r="I100" s="121"/>
+      <c r="J100" s="128"/>
+      <c r="K100" s="131"/>
+      <c r="L100" s="132"/>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A101" s="112">
+      <c r="A101" s="116">
         <v>33</v>
       </c>
       <c r="B101" s="44" t="s">
@@ -4766,19 +4769,19 @@
       <c r="H101" s="68" t="s">
         <v>5</v>
       </c>
-      <c r="I101" s="132" t="s">
+      <c r="I101" s="136" t="s">
         <v>4</v>
       </c>
-      <c r="J101" s="120">
+      <c r="J101" s="122">
         <v>62</v>
       </c>
-      <c r="K101" s="120">
+      <c r="K101" s="122">
         <v>4</v>
       </c>
-      <c r="L101" s="137"/>
+      <c r="L101" s="115"/>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A102" s="113"/>
+      <c r="A102" s="117"/>
       <c r="B102" s="48" t="s">
         <v>25</v>
       </c>
@@ -4798,13 +4801,13 @@
       <c r="H102" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="I102" s="116"/>
-      <c r="J102" s="121"/>
-      <c r="K102" s="121"/>
-      <c r="L102" s="137"/>
+      <c r="I102" s="137"/>
+      <c r="J102" s="123"/>
+      <c r="K102" s="123"/>
+      <c r="L102" s="115"/>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A103" s="113"/>
+      <c r="A103" s="117"/>
       <c r="B103" s="48" t="s">
         <v>27</v>
       </c>
@@ -4826,13 +4829,13 @@
       <c r="H103" s="94" t="s">
         <v>11</v>
       </c>
-      <c r="I103" s="116"/>
-      <c r="J103" s="121"/>
-      <c r="K103" s="121"/>
-      <c r="L103" s="137"/>
+      <c r="I103" s="137"/>
+      <c r="J103" s="123"/>
+      <c r="K103" s="123"/>
+      <c r="L103" s="115"/>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A104" s="114"/>
+      <c r="A104" s="118"/>
       <c r="B104" s="70" t="s">
         <v>41</v>
       </c>
@@ -4854,13 +4857,13 @@
       <c r="H104" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="I104" s="133"/>
-      <c r="J104" s="122"/>
-      <c r="K104" s="122"/>
+      <c r="I104" s="138"/>
+      <c r="J104" s="124"/>
+      <c r="K104" s="124"/>
       <c r="L104" s="90"/>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A105" s="134">
+      <c r="A105" s="133">
         <v>34</v>
       </c>
       <c r="B105" s="101" t="s">
@@ -4882,19 +4885,19 @@
       <c r="H105" s="101" t="s">
         <v>8</v>
       </c>
-      <c r="I105" s="132" t="s">
+      <c r="I105" s="136" t="s">
         <v>4</v>
       </c>
-      <c r="J105" s="129">
+      <c r="J105" s="126">
         <v>58</v>
       </c>
-      <c r="K105" s="129">
+      <c r="K105" s="126">
         <v>3</v>
       </c>
-      <c r="L105" s="155"/>
+      <c r="L105" s="185"/>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A106" s="135"/>
+      <c r="A106" s="134"/>
       <c r="B106" s="101" t="s">
         <v>25</v>
       </c>
@@ -4902,7 +4905,6 @@
         <v>44829</v>
       </c>
       <c r="D106" s="104">
-        <f>C106+7</f>
         <v>44836</v>
       </c>
       <c r="E106" s="104">
@@ -4918,13 +4920,13 @@
       <c r="H106" s="98" t="s">
         <v>11</v>
       </c>
-      <c r="I106" s="116"/>
-      <c r="J106" s="130"/>
-      <c r="K106" s="130"/>
-      <c r="L106" s="155"/>
+      <c r="I106" s="137"/>
+      <c r="J106" s="127"/>
+      <c r="K106" s="127"/>
+      <c r="L106" s="185"/>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A107" s="135"/>
+      <c r="A107" s="134"/>
       <c r="B107" s="98" t="s">
         <v>27</v>
       </c>
@@ -4944,13 +4946,13 @@
       <c r="H107" s="98" t="s">
         <v>11</v>
       </c>
-      <c r="I107" s="116"/>
-      <c r="J107" s="130"/>
-      <c r="K107" s="130"/>
-      <c r="L107" s="155"/>
+      <c r="I107" s="137"/>
+      <c r="J107" s="127"/>
+      <c r="K107" s="127"/>
+      <c r="L107" s="185"/>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A108" s="135"/>
+      <c r="A108" s="134"/>
       <c r="B108" s="18" t="s">
         <v>41</v>
       </c>
@@ -4972,13 +4974,13 @@
       <c r="H108" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="I108" s="133"/>
-      <c r="J108" s="131"/>
-      <c r="K108" s="131"/>
+      <c r="I108" s="138"/>
+      <c r="J108" s="128"/>
+      <c r="K108" s="128"/>
       <c r="L108" s="89"/>
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A109" s="156">
+      <c r="A109" s="169">
         <v>35</v>
       </c>
       <c r="B109" s="44" t="s">
@@ -5000,19 +5002,19 @@
       <c r="H109" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="I109" s="132" t="s">
+      <c r="I109" s="136" t="s">
         <v>4</v>
       </c>
-      <c r="J109" s="120">
+      <c r="J109" s="122">
         <v>40</v>
       </c>
-      <c r="K109" s="138">
+      <c r="K109" s="139">
         <v>2</v>
       </c>
-      <c r="L109" s="137"/>
+      <c r="L109" s="115"/>
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A110" s="157"/>
+      <c r="A110" s="170"/>
       <c r="B110" s="44" t="s">
         <v>25</v>
       </c>
@@ -5032,13 +5034,13 @@
       <c r="H110" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="I110" s="116"/>
-      <c r="J110" s="121"/>
-      <c r="K110" s="139"/>
-      <c r="L110" s="137"/>
+      <c r="I110" s="137"/>
+      <c r="J110" s="123"/>
+      <c r="K110" s="140"/>
+      <c r="L110" s="115"/>
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A111" s="158"/>
+      <c r="A111" s="171"/>
       <c r="B111" s="17" t="s">
         <v>27</v>
       </c>
@@ -5058,13 +5060,13 @@
       <c r="H111" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="I111" s="133"/>
-      <c r="J111" s="122"/>
-      <c r="K111" s="140"/>
-      <c r="L111" s="137"/>
+      <c r="I111" s="138"/>
+      <c r="J111" s="124"/>
+      <c r="K111" s="141"/>
+      <c r="L111" s="115"/>
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A112" s="123">
+      <c r="A112" s="182">
         <v>36</v>
       </c>
       <c r="B112" s="49" t="s">
@@ -5074,7 +5076,6 @@
         <v>44808</v>
       </c>
       <c r="D112" s="56">
-        <f>C112+7</f>
         <v>44815</v>
       </c>
       <c r="E112" s="65">
@@ -5089,19 +5090,19 @@
       <c r="H112" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="I112" s="142" t="s">
+      <c r="I112" s="119" t="s">
         <v>0</v>
       </c>
-      <c r="J112" s="129">
+      <c r="J112" s="126">
         <v>152</v>
       </c>
-      <c r="K112" s="151">
+      <c r="K112" s="129">
         <v>8</v>
       </c>
-      <c r="L112" s="150"/>
+      <c r="L112" s="181"/>
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A113" s="124"/>
+      <c r="A113" s="183"/>
       <c r="B113" s="52" t="s">
         <v>25</v>
       </c>
@@ -5121,13 +5122,13 @@
       <c r="H113" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="I113" s="148"/>
-      <c r="J113" s="130"/>
-      <c r="K113" s="152"/>
-      <c r="L113" s="150"/>
+      <c r="I113" s="120"/>
+      <c r="J113" s="127"/>
+      <c r="K113" s="130"/>
+      <c r="L113" s="181"/>
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A114" s="125"/>
+      <c r="A114" s="184"/>
       <c r="B114" s="18" t="s">
         <v>27</v>
       </c>
@@ -5147,13 +5148,13 @@
       <c r="H114" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="I114" s="149"/>
-      <c r="J114" s="131"/>
-      <c r="K114" s="153"/>
-      <c r="L114" s="150"/>
+      <c r="I114" s="121"/>
+      <c r="J114" s="128"/>
+      <c r="K114" s="131"/>
+      <c r="L114" s="181"/>
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A115" s="112">
+      <c r="A115" s="116">
         <v>37</v>
       </c>
       <c r="B115" s="44" t="s">
@@ -5175,19 +5176,19 @@
       <c r="H115" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="I115" s="142" t="s">
+      <c r="I115" s="119" t="s">
         <v>0</v>
       </c>
-      <c r="J115" s="120">
+      <c r="J115" s="122">
         <v>55</v>
       </c>
-      <c r="K115" s="138">
+      <c r="K115" s="139">
         <v>3</v>
       </c>
-      <c r="L115" s="137"/>
+      <c r="L115" s="115"/>
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A116" s="113"/>
+      <c r="A116" s="117"/>
       <c r="B116" s="44" t="s">
         <v>25</v>
       </c>
@@ -5207,13 +5208,13 @@
       <c r="H116" s="68" t="s">
         <v>40</v>
       </c>
-      <c r="I116" s="148"/>
-      <c r="J116" s="121"/>
-      <c r="K116" s="139"/>
-      <c r="L116" s="137"/>
+      <c r="I116" s="120"/>
+      <c r="J116" s="123"/>
+      <c r="K116" s="140"/>
+      <c r="L116" s="115"/>
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A117" s="114"/>
+      <c r="A117" s="118"/>
       <c r="B117" s="17" t="s">
         <v>27</v>
       </c>
@@ -5235,13 +5236,13 @@
       <c r="H117" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="I117" s="149"/>
-      <c r="J117" s="122"/>
-      <c r="K117" s="140"/>
-      <c r="L117" s="137"/>
+      <c r="I117" s="121"/>
+      <c r="J117" s="124"/>
+      <c r="K117" s="141"/>
+      <c r="L117" s="115"/>
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A118" s="134">
+      <c r="A118" s="133">
         <v>38</v>
       </c>
       <c r="B118" s="49" t="s">
@@ -5263,19 +5264,19 @@
       <c r="H118" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="I118" s="154" t="s">
+      <c r="I118" s="125" t="s">
         <v>0</v>
       </c>
-      <c r="J118" s="129">
+      <c r="J118" s="126">
         <v>61</v>
       </c>
-      <c r="K118" s="151">
+      <c r="K118" s="129">
         <v>3</v>
       </c>
-      <c r="L118" s="147"/>
+      <c r="L118" s="132"/>
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A119" s="135"/>
+      <c r="A119" s="134"/>
       <c r="B119" s="49" t="s">
         <v>25</v>
       </c>
@@ -5295,13 +5296,13 @@
       <c r="H119" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="I119" s="154"/>
-      <c r="J119" s="130"/>
-      <c r="K119" s="152"/>
-      <c r="L119" s="147"/>
+      <c r="I119" s="125"/>
+      <c r="J119" s="127"/>
+      <c r="K119" s="130"/>
+      <c r="L119" s="132"/>
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A120" s="135"/>
+      <c r="A120" s="134"/>
       <c r="B120" s="52" t="s">
         <v>27</v>
       </c>
@@ -5321,13 +5322,13 @@
       <c r="H120" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="I120" s="154"/>
-      <c r="J120" s="130"/>
-      <c r="K120" s="152"/>
-      <c r="L120" s="147"/>
+      <c r="I120" s="125"/>
+      <c r="J120" s="127"/>
+      <c r="K120" s="130"/>
+      <c r="L120" s="132"/>
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A121" s="135"/>
+      <c r="A121" s="134"/>
       <c r="B121" s="52" t="s">
         <v>41</v>
       </c>
@@ -5347,13 +5348,13 @@
       <c r="H121" s="52" t="s">
         <v>40</v>
       </c>
-      <c r="I121" s="154"/>
-      <c r="J121" s="130"/>
-      <c r="K121" s="152"/>
-      <c r="L121" s="147"/>
+      <c r="I121" s="125"/>
+      <c r="J121" s="127"/>
+      <c r="K121" s="130"/>
+      <c r="L121" s="132"/>
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A122" s="136"/>
+      <c r="A122" s="135"/>
       <c r="B122" s="18" t="s">
         <v>44</v>
       </c>
@@ -5375,13 +5376,13 @@
       <c r="H122" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="I122" s="154"/>
-      <c r="J122" s="131"/>
-      <c r="K122" s="153"/>
-      <c r="L122" s="147"/>
+      <c r="I122" s="125"/>
+      <c r="J122" s="128"/>
+      <c r="K122" s="131"/>
+      <c r="L122" s="132"/>
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A123" s="112">
+      <c r="A123" s="116">
         <v>39</v>
       </c>
       <c r="B123" s="44" t="s">
@@ -5403,19 +5404,19 @@
       <c r="H123" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="I123" s="154" t="s">
+      <c r="I123" s="125" t="s">
         <v>0</v>
       </c>
-      <c r="J123" s="164">
+      <c r="J123" s="157">
         <v>20</v>
       </c>
-      <c r="K123" s="138">
+      <c r="K123" s="139">
         <v>1</v>
       </c>
-      <c r="L123" s="137"/>
+      <c r="L123" s="115"/>
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A124" s="113"/>
+      <c r="A124" s="117"/>
       <c r="B124" s="44" t="s">
         <v>25</v>
       </c>
@@ -5435,13 +5436,13 @@
       <c r="H124" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="I124" s="154"/>
-      <c r="J124" s="165"/>
-      <c r="K124" s="139"/>
-      <c r="L124" s="137"/>
+      <c r="I124" s="125"/>
+      <c r="J124" s="158"/>
+      <c r="K124" s="140"/>
+      <c r="L124" s="115"/>
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A125" s="113"/>
+      <c r="A125" s="117"/>
       <c r="B125" s="48" t="s">
         <v>27</v>
       </c>
@@ -5461,13 +5462,13 @@
       <c r="H125" s="60" t="s">
         <v>40</v>
       </c>
-      <c r="I125" s="154"/>
-      <c r="J125" s="165"/>
-      <c r="K125" s="139"/>
-      <c r="L125" s="137"/>
+      <c r="I125" s="125"/>
+      <c r="J125" s="158"/>
+      <c r="K125" s="140"/>
+      <c r="L125" s="115"/>
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A126" s="114"/>
+      <c r="A126" s="118"/>
       <c r="B126" s="17" t="s">
         <v>41</v>
       </c>
@@ -5489,13 +5490,13 @@
       <c r="H126" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="I126" s="154"/>
-      <c r="J126" s="166"/>
-      <c r="K126" s="140"/>
-      <c r="L126" s="137"/>
+      <c r="I126" s="125"/>
+      <c r="J126" s="159"/>
+      <c r="K126" s="141"/>
+      <c r="L126" s="115"/>
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A127" s="134">
+      <c r="A127" s="133">
         <v>40</v>
       </c>
       <c r="B127" s="49" t="s">
@@ -5517,19 +5518,19 @@
       <c r="H127" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="I127" s="154" t="s">
+      <c r="I127" s="125" t="s">
         <v>0</v>
       </c>
-      <c r="J127" s="151">
+      <c r="J127" s="129">
         <v>17</v>
       </c>
-      <c r="K127" s="162">
+      <c r="K127" s="163">
         <v>1</v>
       </c>
-      <c r="L127" s="147"/>
+      <c r="L127" s="132"/>
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A128" s="135"/>
+      <c r="A128" s="134"/>
       <c r="B128" s="49" t="s">
         <v>25</v>
       </c>
@@ -5549,13 +5550,13 @@
       <c r="H128" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="I128" s="154"/>
-      <c r="J128" s="152"/>
-      <c r="K128" s="168"/>
-      <c r="L128" s="147"/>
+      <c r="I128" s="125"/>
+      <c r="J128" s="130"/>
+      <c r="K128" s="164"/>
+      <c r="L128" s="132"/>
     </row>
     <row r="129" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A129" s="135"/>
+      <c r="A129" s="134"/>
       <c r="B129" s="52" t="s">
         <v>27</v>
       </c>
@@ -5575,13 +5576,13 @@
       <c r="H129" s="52" t="s">
         <v>40</v>
       </c>
-      <c r="I129" s="154"/>
-      <c r="J129" s="152"/>
-      <c r="K129" s="168"/>
-      <c r="L129" s="147"/>
+      <c r="I129" s="125"/>
+      <c r="J129" s="130"/>
+      <c r="K129" s="164"/>
+      <c r="L129" s="132"/>
     </row>
     <row r="130" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A130" s="136"/>
+      <c r="A130" s="135"/>
       <c r="B130" s="40" t="s">
         <v>41</v>
       </c>
@@ -5603,19 +5604,19 @@
       <c r="H130" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="I130" s="154"/>
-      <c r="J130" s="153"/>
-      <c r="K130" s="163"/>
-      <c r="L130" s="147"/>
+      <c r="I130" s="125"/>
+      <c r="J130" s="131"/>
+      <c r="K130" s="165"/>
+      <c r="L130" s="132"/>
     </row>
     <row r="131" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A131" s="14">
         <v>41</v>
       </c>
       <c r="B131" s="4"/>
-      <c r="C131" s="11"/>
-      <c r="D131" s="11"/>
-      <c r="E131" s="11"/>
+      <c r="C131" s="113"/>
+      <c r="D131" s="113"/>
+      <c r="E131" s="113"/>
       <c r="F131" s="11"/>
       <c r="G131" s="11"/>
       <c r="H131" s="11"/>
@@ -5625,7 +5626,7 @@
       <c r="L131" s="82"/>
     </row>
     <row r="132" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A132" s="123">
+      <c r="A132" s="182">
         <v>42</v>
       </c>
       <c r="B132" s="101" t="s">
@@ -5647,19 +5648,19 @@
       <c r="H132" s="98" t="s">
         <v>11</v>
       </c>
-      <c r="I132" s="132" t="s">
+      <c r="I132" s="136" t="s">
         <v>4</v>
       </c>
-      <c r="J132" s="129">
+      <c r="J132" s="126">
         <v>41</v>
       </c>
-      <c r="K132" s="129">
+      <c r="K132" s="126">
         <v>3</v>
       </c>
-      <c r="L132" s="147"/>
+      <c r="L132" s="132"/>
     </row>
     <row r="133" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="124"/>
+      <c r="A133" s="183"/>
       <c r="B133" s="98" t="s">
         <v>25</v>
       </c>
@@ -5679,13 +5680,13 @@
       <c r="H133" s="98" t="s">
         <v>1</v>
       </c>
-      <c r="I133" s="116"/>
-      <c r="J133" s="130"/>
-      <c r="K133" s="130"/>
-      <c r="L133" s="147"/>
+      <c r="I133" s="137"/>
+      <c r="J133" s="127"/>
+      <c r="K133" s="127"/>
+      <c r="L133" s="132"/>
     </row>
     <row r="134" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="124"/>
+      <c r="A134" s="183"/>
       <c r="B134" s="98" t="s">
         <v>27</v>
       </c>
@@ -5705,13 +5706,13 @@
       <c r="H134" s="98" t="s">
         <v>8</v>
       </c>
-      <c r="I134" s="116"/>
-      <c r="J134" s="130"/>
-      <c r="K134" s="130"/>
-      <c r="L134" s="147"/>
+      <c r="I134" s="137"/>
+      <c r="J134" s="127"/>
+      <c r="K134" s="127"/>
+      <c r="L134" s="132"/>
     </row>
     <row r="135" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="125"/>
+      <c r="A135" s="184"/>
       <c r="B135" s="18" t="s">
         <v>41</v>
       </c>
@@ -5728,18 +5729,18 @@
         <v>10</v>
       </c>
       <c r="G135" s="18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H135" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="I135" s="133"/>
-      <c r="J135" s="131"/>
-      <c r="K135" s="131"/>
+      <c r="I135" s="138"/>
+      <c r="J135" s="128"/>
+      <c r="K135" s="128"/>
       <c r="L135" s="88"/>
     </row>
     <row r="136" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A136" s="112">
+      <c r="A136" s="116">
         <v>43</v>
       </c>
       <c r="B136" s="44" t="s">
@@ -5749,7 +5750,6 @@
         <v>44815</v>
       </c>
       <c r="D136" s="58">
-        <f t="shared" ref="D136" si="1">C136+7</f>
         <v>44822</v>
       </c>
       <c r="E136" s="58">
@@ -5764,19 +5764,19 @@
       <c r="H136" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="I136" s="115" t="s">
+      <c r="I136" s="149" t="s">
         <v>4</v>
       </c>
-      <c r="J136" s="117">
+      <c r="J136" s="190">
         <v>77</v>
       </c>
-      <c r="K136" s="120">
+      <c r="K136" s="122">
         <v>4</v>
       </c>
-      <c r="L136" s="137"/>
+      <c r="L136" s="115"/>
     </row>
     <row r="137" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A137" s="113"/>
+      <c r="A137" s="117"/>
       <c r="B137" s="48" t="s">
         <v>25</v>
       </c>
@@ -5796,13 +5796,13 @@
       <c r="H137" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="I137" s="116"/>
-      <c r="J137" s="118"/>
-      <c r="K137" s="121"/>
-      <c r="L137" s="137"/>
+      <c r="I137" s="137"/>
+      <c r="J137" s="191"/>
+      <c r="K137" s="123"/>
+      <c r="L137" s="115"/>
     </row>
     <row r="138" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A138" s="113"/>
+      <c r="A138" s="117"/>
       <c r="B138" s="48" t="s">
         <v>27</v>
       </c>
@@ -5822,13 +5822,13 @@
       <c r="H138" s="60" t="s">
         <v>40</v>
       </c>
-      <c r="I138" s="116"/>
-      <c r="J138" s="118"/>
-      <c r="K138" s="121"/>
-      <c r="L138" s="137"/>
+      <c r="I138" s="137"/>
+      <c r="J138" s="191"/>
+      <c r="K138" s="123"/>
+      <c r="L138" s="115"/>
     </row>
     <row r="139" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A139" s="113"/>
+      <c r="A139" s="117"/>
       <c r="B139" s="100" t="s">
         <v>41</v>
       </c>
@@ -5848,13 +5848,13 @@
       <c r="H139" s="100" t="s">
         <v>8</v>
       </c>
-      <c r="I139" s="116"/>
-      <c r="J139" s="118"/>
-      <c r="K139" s="121"/>
-      <c r="L139" s="137"/>
+      <c r="I139" s="137"/>
+      <c r="J139" s="191"/>
+      <c r="K139" s="123"/>
+      <c r="L139" s="115"/>
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A140" s="114"/>
+      <c r="A140" s="118"/>
       <c r="B140" s="17" t="s">
         <v>44</v>
       </c>
@@ -5871,18 +5871,18 @@
         <v>10</v>
       </c>
       <c r="G140" s="32" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H140" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="I140" s="116"/>
-      <c r="J140" s="119"/>
-      <c r="K140" s="122"/>
+      <c r="I140" s="137"/>
+      <c r="J140" s="192"/>
+      <c r="K140" s="124"/>
       <c r="L140" s="90"/>
     </row>
     <row r="141" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A141" s="123">
+      <c r="A141" s="182">
         <v>44</v>
       </c>
       <c r="B141" s="49" t="s">
@@ -5904,19 +5904,19 @@
       <c r="H141" s="52" t="s">
         <v>40</v>
       </c>
-      <c r="I141" s="115" t="s">
+      <c r="I141" s="149" t="s">
         <v>4</v>
       </c>
-      <c r="J141" s="126">
+      <c r="J141" s="186">
         <v>39</v>
       </c>
-      <c r="K141" s="129">
+      <c r="K141" s="126">
         <v>3</v>
       </c>
-      <c r="L141" s="147"/>
+      <c r="L141" s="132"/>
     </row>
     <row r="142" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A142" s="124"/>
+      <c r="A142" s="183"/>
       <c r="B142" s="52" t="s">
         <v>25</v>
       </c>
@@ -5936,13 +5936,13 @@
       <c r="H142" s="98" t="s">
         <v>8</v>
       </c>
-      <c r="I142" s="116"/>
-      <c r="J142" s="127"/>
-      <c r="K142" s="130"/>
-      <c r="L142" s="147"/>
+      <c r="I142" s="137"/>
+      <c r="J142" s="187"/>
+      <c r="K142" s="127"/>
+      <c r="L142" s="132"/>
     </row>
     <row r="143" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A143" s="125"/>
+      <c r="A143" s="184"/>
       <c r="B143" s="18" t="s">
         <v>27</v>
       </c>
@@ -5959,18 +5959,18 @@
         <v>10</v>
       </c>
       <c r="G143" s="18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H143" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="I143" s="116"/>
-      <c r="J143" s="128"/>
-      <c r="K143" s="131"/>
+      <c r="I143" s="137"/>
+      <c r="J143" s="188"/>
+      <c r="K143" s="128"/>
       <c r="L143" s="88"/>
     </row>
     <row r="144" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A144" s="112">
+      <c r="A144" s="116">
         <v>45</v>
       </c>
       <c r="B144" s="44" t="s">
@@ -5992,19 +5992,19 @@
       <c r="H144" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="I144" s="142" t="s">
+      <c r="I144" s="119" t="s">
         <v>0</v>
       </c>
-      <c r="J144" s="120">
+      <c r="J144" s="122">
         <v>53</v>
       </c>
-      <c r="K144" s="138">
+      <c r="K144" s="139">
         <v>3</v>
       </c>
-      <c r="L144" s="137"/>
+      <c r="L144" s="115"/>
     </row>
     <row r="145" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A145" s="141"/>
+      <c r="A145" s="176"/>
       <c r="B145" s="33" t="s">
         <v>25</v>
       </c>
@@ -6024,60 +6024,145 @@
       <c r="H145" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="I145" s="143"/>
-      <c r="J145" s="144"/>
-      <c r="K145" s="145"/>
-      <c r="L145" s="146"/>
+      <c r="I145" s="177"/>
+      <c r="J145" s="178"/>
+      <c r="K145" s="179"/>
+      <c r="L145" s="180"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:L145"/>
   <mergeCells count="199">
+    <mergeCell ref="L19:L21"/>
+    <mergeCell ref="L14:L17"/>
+    <mergeCell ref="A136:A140"/>
+    <mergeCell ref="I136:I140"/>
+    <mergeCell ref="J136:J140"/>
+    <mergeCell ref="K136:K140"/>
+    <mergeCell ref="A141:A143"/>
+    <mergeCell ref="I141:I143"/>
+    <mergeCell ref="J141:J143"/>
+    <mergeCell ref="K141:K143"/>
+    <mergeCell ref="A101:A104"/>
+    <mergeCell ref="I101:I104"/>
+    <mergeCell ref="J101:J104"/>
+    <mergeCell ref="K101:K104"/>
+    <mergeCell ref="A105:A108"/>
+    <mergeCell ref="I105:I108"/>
+    <mergeCell ref="J105:J108"/>
+    <mergeCell ref="K105:K108"/>
+    <mergeCell ref="A132:A135"/>
+    <mergeCell ref="I132:I135"/>
+    <mergeCell ref="J132:J135"/>
+    <mergeCell ref="K132:K135"/>
+    <mergeCell ref="A72:A73"/>
+    <mergeCell ref="I72:I73"/>
+    <mergeCell ref="J72:J73"/>
+    <mergeCell ref="I69:I71"/>
+    <mergeCell ref="A74:A75"/>
+    <mergeCell ref="J74:J75"/>
+    <mergeCell ref="K74:K75"/>
+    <mergeCell ref="A14:A18"/>
+    <mergeCell ref="J14:J18"/>
+    <mergeCell ref="K14:K18"/>
+    <mergeCell ref="I14:I18"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="I19:I21"/>
+    <mergeCell ref="J19:J21"/>
+    <mergeCell ref="K19:K21"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="I41:I42"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="I48:I49"/>
+    <mergeCell ref="J48:J49"/>
+    <mergeCell ref="A54:A56"/>
+    <mergeCell ref="A29:A32"/>
+    <mergeCell ref="J29:J32"/>
     <mergeCell ref="K29:K32"/>
     <mergeCell ref="I29:I32"/>
-    <mergeCell ref="L29:L32"/>
-    <mergeCell ref="A34:A37"/>
-    <mergeCell ref="I34:I37"/>
-    <mergeCell ref="J34:J37"/>
-    <mergeCell ref="K34:K37"/>
-    <mergeCell ref="L34:L37"/>
-    <mergeCell ref="I118:I122"/>
-    <mergeCell ref="J118:J122"/>
-    <mergeCell ref="K118:K122"/>
-    <mergeCell ref="L118:L122"/>
-    <mergeCell ref="A118:A122"/>
-    <mergeCell ref="J89:J91"/>
-    <mergeCell ref="A83:A85"/>
-    <mergeCell ref="I83:I85"/>
-    <mergeCell ref="J83:J85"/>
-    <mergeCell ref="K83:K85"/>
-    <mergeCell ref="L83:L85"/>
-    <mergeCell ref="A79:A82"/>
-    <mergeCell ref="I79:I82"/>
-    <mergeCell ref="J79:J82"/>
-    <mergeCell ref="K79:K82"/>
-    <mergeCell ref="L79:L82"/>
-    <mergeCell ref="I2:I6"/>
-    <mergeCell ref="J2:J6"/>
-    <mergeCell ref="K2:K6"/>
-    <mergeCell ref="L2:L6"/>
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="L7:L11"/>
-    <mergeCell ref="A7:A12"/>
-    <mergeCell ref="I7:I12"/>
-    <mergeCell ref="J7:J12"/>
-    <mergeCell ref="K7:K12"/>
-    <mergeCell ref="L26:L27"/>
-    <mergeCell ref="A23:A25"/>
-    <mergeCell ref="I23:I25"/>
-    <mergeCell ref="J23:J25"/>
-    <mergeCell ref="K23:K25"/>
-    <mergeCell ref="L23:L25"/>
-    <mergeCell ref="A26:A28"/>
-    <mergeCell ref="I26:I28"/>
-    <mergeCell ref="J26:J28"/>
-    <mergeCell ref="K26:K28"/>
-    <mergeCell ref="A29:A32"/>
-    <mergeCell ref="J29:J32"/>
+    <mergeCell ref="K61:K64"/>
+    <mergeCell ref="A144:A145"/>
+    <mergeCell ref="I144:I145"/>
+    <mergeCell ref="J144:J145"/>
+    <mergeCell ref="K144:K145"/>
+    <mergeCell ref="L144:L145"/>
+    <mergeCell ref="L86:L88"/>
+    <mergeCell ref="L89:L90"/>
+    <mergeCell ref="I86:I88"/>
+    <mergeCell ref="L112:L114"/>
+    <mergeCell ref="J112:J114"/>
+    <mergeCell ref="K112:K114"/>
+    <mergeCell ref="A86:A88"/>
+    <mergeCell ref="A112:A114"/>
+    <mergeCell ref="I112:I114"/>
+    <mergeCell ref="I89:I91"/>
+    <mergeCell ref="A92:A96"/>
+    <mergeCell ref="I92:I96"/>
+    <mergeCell ref="J92:J96"/>
+    <mergeCell ref="K92:K96"/>
+    <mergeCell ref="L105:L107"/>
+    <mergeCell ref="L92:L96"/>
+    <mergeCell ref="I97:I100"/>
+    <mergeCell ref="J86:J88"/>
+    <mergeCell ref="A89:A90"/>
+    <mergeCell ref="A65:A68"/>
+    <mergeCell ref="I65:I68"/>
+    <mergeCell ref="J65:J68"/>
+    <mergeCell ref="K65:K68"/>
+    <mergeCell ref="L57:L59"/>
+    <mergeCell ref="J51:J53"/>
+    <mergeCell ref="K51:K53"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="I43:I44"/>
+    <mergeCell ref="J43:J44"/>
+    <mergeCell ref="K43:K44"/>
+    <mergeCell ref="L43:L44"/>
+    <mergeCell ref="A45:A47"/>
+    <mergeCell ref="I45:I47"/>
+    <mergeCell ref="J45:J47"/>
+    <mergeCell ref="K45:K47"/>
+    <mergeCell ref="L45:L47"/>
+    <mergeCell ref="J54:J56"/>
+    <mergeCell ref="K54:K56"/>
+    <mergeCell ref="L54:L56"/>
+    <mergeCell ref="A57:A60"/>
+    <mergeCell ref="I57:I60"/>
+    <mergeCell ref="A97:A100"/>
+    <mergeCell ref="J97:J100"/>
+    <mergeCell ref="K97:K100"/>
+    <mergeCell ref="L97:L100"/>
+    <mergeCell ref="L101:L103"/>
+    <mergeCell ref="I76:I78"/>
+    <mergeCell ref="K48:K49"/>
+    <mergeCell ref="L48:L49"/>
+    <mergeCell ref="K86:K88"/>
+    <mergeCell ref="L51:L53"/>
+    <mergeCell ref="L69:L71"/>
+    <mergeCell ref="A69:A71"/>
+    <mergeCell ref="J69:J71"/>
+    <mergeCell ref="K69:K71"/>
+    <mergeCell ref="I51:I53"/>
+    <mergeCell ref="K72:K73"/>
+    <mergeCell ref="L74:L75"/>
+    <mergeCell ref="I74:I75"/>
+    <mergeCell ref="L61:L63"/>
+    <mergeCell ref="J57:J60"/>
+    <mergeCell ref="K57:K60"/>
+    <mergeCell ref="A61:A64"/>
+    <mergeCell ref="I61:I64"/>
+    <mergeCell ref="J61:J64"/>
+    <mergeCell ref="J115:J117"/>
+    <mergeCell ref="K115:K117"/>
+    <mergeCell ref="L115:L117"/>
+    <mergeCell ref="A123:A126"/>
+    <mergeCell ref="I123:I126"/>
+    <mergeCell ref="J123:J126"/>
+    <mergeCell ref="A109:A111"/>
+    <mergeCell ref="I109:I111"/>
+    <mergeCell ref="J109:J111"/>
+    <mergeCell ref="K109:K111"/>
+    <mergeCell ref="L109:L111"/>
+    <mergeCell ref="K123:K126"/>
+    <mergeCell ref="L123:L126"/>
     <mergeCell ref="L141:L142"/>
     <mergeCell ref="A127:A130"/>
     <mergeCell ref="I127:I130"/>
@@ -6102,138 +6187,1045 @@
     <mergeCell ref="A51:A53"/>
     <mergeCell ref="L136:L139"/>
     <mergeCell ref="K89:K91"/>
+    <mergeCell ref="L26:L27"/>
+    <mergeCell ref="A23:A25"/>
+    <mergeCell ref="I23:I25"/>
+    <mergeCell ref="J23:J25"/>
+    <mergeCell ref="K23:K25"/>
+    <mergeCell ref="L23:L25"/>
+    <mergeCell ref="A26:A28"/>
+    <mergeCell ref="I26:I28"/>
+    <mergeCell ref="J26:J28"/>
+    <mergeCell ref="K26:K28"/>
+    <mergeCell ref="I2:I6"/>
+    <mergeCell ref="J2:J6"/>
+    <mergeCell ref="K2:K6"/>
+    <mergeCell ref="L2:L6"/>
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="L7:L11"/>
+    <mergeCell ref="A7:A12"/>
+    <mergeCell ref="I7:I12"/>
+    <mergeCell ref="J7:J12"/>
+    <mergeCell ref="K7:K12"/>
+    <mergeCell ref="L29:L32"/>
+    <mergeCell ref="A34:A37"/>
+    <mergeCell ref="I34:I37"/>
+    <mergeCell ref="J34:J37"/>
+    <mergeCell ref="K34:K37"/>
+    <mergeCell ref="L34:L37"/>
+    <mergeCell ref="I118:I122"/>
+    <mergeCell ref="J118:J122"/>
+    <mergeCell ref="K118:K122"/>
+    <mergeCell ref="L118:L122"/>
+    <mergeCell ref="A118:A122"/>
+    <mergeCell ref="J89:J91"/>
+    <mergeCell ref="A83:A85"/>
+    <mergeCell ref="I83:I85"/>
+    <mergeCell ref="J83:J85"/>
+    <mergeCell ref="K83:K85"/>
+    <mergeCell ref="L83:L85"/>
+    <mergeCell ref="A79:A82"/>
+    <mergeCell ref="I79:I82"/>
+    <mergeCell ref="J79:J82"/>
+    <mergeCell ref="K79:K82"/>
+    <mergeCell ref="L79:L82"/>
     <mergeCell ref="A115:A117"/>
     <mergeCell ref="I115:I117"/>
-    <mergeCell ref="J115:J117"/>
-    <mergeCell ref="K115:K117"/>
-    <mergeCell ref="L115:L117"/>
-    <mergeCell ref="A123:A126"/>
-    <mergeCell ref="I123:I126"/>
-    <mergeCell ref="J123:J126"/>
-    <mergeCell ref="A109:A111"/>
-    <mergeCell ref="I109:I111"/>
-    <mergeCell ref="J109:J111"/>
-    <mergeCell ref="K109:K111"/>
-    <mergeCell ref="L109:L111"/>
-    <mergeCell ref="K123:K126"/>
-    <mergeCell ref="L123:L126"/>
-    <mergeCell ref="A97:A100"/>
-    <mergeCell ref="J97:J100"/>
-    <mergeCell ref="K97:K100"/>
-    <mergeCell ref="L97:L100"/>
-    <mergeCell ref="I76:I78"/>
-    <mergeCell ref="K48:K49"/>
-    <mergeCell ref="L48:L49"/>
-    <mergeCell ref="K86:K88"/>
-    <mergeCell ref="L51:L53"/>
-    <mergeCell ref="L69:L71"/>
-    <mergeCell ref="A69:A71"/>
-    <mergeCell ref="J69:J71"/>
-    <mergeCell ref="K69:K71"/>
-    <mergeCell ref="I51:I53"/>
-    <mergeCell ref="K72:K73"/>
-    <mergeCell ref="L74:L75"/>
-    <mergeCell ref="I74:I75"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="I41:I42"/>
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="I48:I49"/>
-    <mergeCell ref="J48:J49"/>
-    <mergeCell ref="A54:A56"/>
-    <mergeCell ref="L57:L59"/>
-    <mergeCell ref="J51:J53"/>
-    <mergeCell ref="K51:K53"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="I43:I44"/>
-    <mergeCell ref="J43:J44"/>
-    <mergeCell ref="K43:K44"/>
-    <mergeCell ref="L43:L44"/>
-    <mergeCell ref="A45:A47"/>
-    <mergeCell ref="I45:I47"/>
-    <mergeCell ref="J45:J47"/>
-    <mergeCell ref="K45:K47"/>
-    <mergeCell ref="L45:L47"/>
-    <mergeCell ref="A144:A145"/>
-    <mergeCell ref="I144:I145"/>
-    <mergeCell ref="J144:J145"/>
-    <mergeCell ref="K144:K145"/>
-    <mergeCell ref="L144:L145"/>
-    <mergeCell ref="L86:L88"/>
-    <mergeCell ref="L89:L90"/>
-    <mergeCell ref="I86:I88"/>
-    <mergeCell ref="L112:L114"/>
-    <mergeCell ref="J112:J114"/>
-    <mergeCell ref="K112:K114"/>
-    <mergeCell ref="A86:A88"/>
-    <mergeCell ref="A112:A114"/>
-    <mergeCell ref="I112:I114"/>
-    <mergeCell ref="I89:I91"/>
-    <mergeCell ref="A92:A96"/>
-    <mergeCell ref="I92:I96"/>
-    <mergeCell ref="J92:J96"/>
-    <mergeCell ref="K92:K96"/>
-    <mergeCell ref="L105:L107"/>
-    <mergeCell ref="L92:L96"/>
-    <mergeCell ref="I97:I100"/>
-    <mergeCell ref="J86:J88"/>
-    <mergeCell ref="A89:A90"/>
-    <mergeCell ref="L101:L103"/>
-    <mergeCell ref="L61:L63"/>
-    <mergeCell ref="J54:J56"/>
-    <mergeCell ref="K54:K56"/>
-    <mergeCell ref="L54:L56"/>
-    <mergeCell ref="A57:A60"/>
-    <mergeCell ref="I57:I60"/>
-    <mergeCell ref="J57:J60"/>
-    <mergeCell ref="K57:K60"/>
-    <mergeCell ref="A61:A64"/>
-    <mergeCell ref="I61:I64"/>
-    <mergeCell ref="J61:J64"/>
-    <mergeCell ref="K61:K64"/>
-    <mergeCell ref="A65:A68"/>
-    <mergeCell ref="I65:I68"/>
-    <mergeCell ref="J65:J68"/>
-    <mergeCell ref="K65:K68"/>
-    <mergeCell ref="A72:A73"/>
-    <mergeCell ref="I72:I73"/>
-    <mergeCell ref="J72:J73"/>
-    <mergeCell ref="I69:I71"/>
-    <mergeCell ref="A74:A75"/>
-    <mergeCell ref="J74:J75"/>
-    <mergeCell ref="K74:K75"/>
-    <mergeCell ref="A14:A18"/>
-    <mergeCell ref="J14:J18"/>
-    <mergeCell ref="K14:K18"/>
-    <mergeCell ref="I14:I18"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="I19:I21"/>
-    <mergeCell ref="J19:J21"/>
-    <mergeCell ref="K19:K21"/>
-    <mergeCell ref="L19:L21"/>
-    <mergeCell ref="L14:L17"/>
-    <mergeCell ref="A136:A140"/>
-    <mergeCell ref="I136:I140"/>
-    <mergeCell ref="J136:J140"/>
-    <mergeCell ref="K136:K140"/>
-    <mergeCell ref="A141:A143"/>
-    <mergeCell ref="I141:I143"/>
-    <mergeCell ref="J141:J143"/>
-    <mergeCell ref="K141:K143"/>
-    <mergeCell ref="A101:A104"/>
-    <mergeCell ref="I101:I104"/>
-    <mergeCell ref="J101:J104"/>
-    <mergeCell ref="K101:K104"/>
-    <mergeCell ref="A105:A108"/>
-    <mergeCell ref="I105:I108"/>
-    <mergeCell ref="J105:J108"/>
-    <mergeCell ref="K105:K108"/>
-    <mergeCell ref="A132:A135"/>
-    <mergeCell ref="I132:I135"/>
-    <mergeCell ref="J132:J135"/>
-    <mergeCell ref="K132:K135"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0" right="0" top="1.1811023622047244E-2" bottom="0.11811023622047245" header="0" footer="0"/>
   <pageSetup paperSize="9" scale="50" fitToWidth="0" orientation="landscape" useFirstPageNumber="1" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D144"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D144" sqref="D1:D144"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="76"/>
+      <c r="D1" s="76">
+        <v>44813</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="45"/>
+      <c r="D2" s="45">
+        <v>44850</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="45"/>
+      <c r="D3" s="45">
+        <v>44857</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="45"/>
+      <c r="D4" s="45">
+        <v>44864</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="16"/>
+      <c r="D5" s="16">
+        <v>44871</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="50"/>
+      <c r="D6" s="50">
+        <v>44815</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="50">
+        <v>44832</v>
+      </c>
+      <c r="D7" s="50">
+        <v>44836</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="53"/>
+      <c r="D8" s="53">
+        <v>44843</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="53"/>
+      <c r="D9" s="53">
+        <v>44857</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="95"/>
+      <c r="D10" s="95">
+        <v>44871</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="24">
+        <v>44882</v>
+      </c>
+      <c r="D11" s="24">
+        <v>44885</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="16"/>
+      <c r="D12" s="16">
+        <v>44864</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="102">
+        <v>44812</v>
+      </c>
+      <c r="D13" s="102">
+        <v>44815</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="104"/>
+      <c r="D14" s="104">
+        <v>44850</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="95"/>
+      <c r="D15" s="95">
+        <v>44857</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="95"/>
+      <c r="D16" s="95">
+        <v>44871</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="24">
+        <v>44882</v>
+      </c>
+      <c r="D17" s="24">
+        <v>44885</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="92">
+        <v>44829</v>
+      </c>
+      <c r="D18" s="92">
+        <v>44829</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="92">
+        <v>44868</v>
+      </c>
+      <c r="D19" s="92">
+        <v>44871</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="10">
+        <v>44882</v>
+      </c>
+      <c r="D20" s="10">
+        <v>44885</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="7">
+        <v>44829</v>
+      </c>
+      <c r="D21" s="8">
+        <v>44829</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="58">
+        <v>44829</v>
+      </c>
+      <c r="D22" s="58">
+        <v>44829</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="92">
+        <v>44868</v>
+      </c>
+      <c r="D23" s="92">
+        <v>44871</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="10">
+        <v>44880</v>
+      </c>
+      <c r="D24" s="10">
+        <v>44881</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="56">
+        <v>44829</v>
+      </c>
+      <c r="D25" s="56">
+        <v>44829</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="95">
+        <v>44868</v>
+      </c>
+      <c r="D26" s="95">
+        <v>44871</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="24">
+        <v>44880</v>
+      </c>
+      <c r="D27" s="24">
+        <v>44881</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="45"/>
+      <c r="D28" s="45">
+        <v>44850</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="45"/>
+      <c r="D29" s="45">
+        <v>44857</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="92">
+        <v>44868</v>
+      </c>
+      <c r="D30" s="92">
+        <v>44871</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="10">
+        <v>44880</v>
+      </c>
+      <c r="D31" s="10">
+        <v>44881</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="11"/>
+      <c r="D32" s="11"/>
+    </row>
+    <row r="33" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A33" s="58"/>
+      <c r="D33" s="58">
+        <v>44845</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A34" s="58">
+        <v>44860</v>
+      </c>
+      <c r="D34" s="58">
+        <v>44860</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A35" s="92"/>
+      <c r="D35" s="92">
+        <v>44871</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A36" s="10">
+        <v>44880</v>
+      </c>
+      <c r="D36" s="10">
+        <v>44881</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A37" s="56"/>
+      <c r="D37" s="56">
+        <v>44839</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A38" s="56"/>
+      <c r="D38" s="56">
+        <v>44850</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A39" s="8">
+        <v>44835</v>
+      </c>
+      <c r="D39" s="8">
+        <v>44836</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A40" s="61"/>
+      <c r="D40" s="58">
+        <v>44829</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A41" s="10">
+        <v>44860</v>
+      </c>
+      <c r="D41" s="10">
+        <v>44860</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A42" s="56"/>
+      <c r="D42" s="56">
+        <v>44843</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A43" s="8">
+        <v>44835</v>
+      </c>
+      <c r="D43" s="8">
+        <v>44836</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A44" s="63"/>
+      <c r="D44" s="63">
+        <v>44829</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A45" s="61"/>
+      <c r="D45" s="61">
+        <v>44843</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A46" s="6">
+        <v>44835</v>
+      </c>
+      <c r="D46" s="6">
+        <v>44836</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A47" s="50"/>
+      <c r="D47" s="50">
+        <v>44829</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A48" s="39">
+        <v>44861</v>
+      </c>
+      <c r="D48" s="39">
+        <v>44864</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A49" s="11"/>
+      <c r="D49" s="11"/>
+    </row>
+    <row r="50" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A50" s="56"/>
+      <c r="D50" s="65">
+        <v>44836</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A51" s="56"/>
+      <c r="D51" s="56">
+        <v>44850</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A52" s="8">
+        <v>44835</v>
+      </c>
+      <c r="D52" s="8">
+        <v>44836</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A53" s="61"/>
+      <c r="D53" s="61">
+        <v>44822</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A54" s="61"/>
+      <c r="D54" s="61">
+        <v>44813</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A55" s="6">
+        <v>44871</v>
+      </c>
+      <c r="D55" s="6">
+        <v>44875</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A56" s="102"/>
+      <c r="D56" s="102">
+        <v>44818</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A57" s="102"/>
+      <c r="D57" s="102">
+        <v>44813</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A58" s="102">
+        <v>44871</v>
+      </c>
+      <c r="D58" s="102">
+        <v>44875</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A59" s="27">
+        <v>44885</v>
+      </c>
+      <c r="D59" s="27">
+        <v>44888</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A60" s="58"/>
+      <c r="D60" s="58">
+        <v>44818</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A61" s="61"/>
+      <c r="D61" s="61">
+        <v>44813</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A62" s="106">
+        <v>44871</v>
+      </c>
+      <c r="D62" s="106">
+        <v>44875</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A63" s="6">
+        <v>44885</v>
+      </c>
+      <c r="D63" s="6">
+        <v>44888</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A64" s="104">
+        <v>44828</v>
+      </c>
+      <c r="D64" s="104">
+        <v>44828</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A65" s="104"/>
+      <c r="D65" s="104">
+        <v>44850</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A66" s="108">
+        <v>44861</v>
+      </c>
+      <c r="D66" s="108">
+        <v>44864</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A67" s="27">
+        <v>44885</v>
+      </c>
+      <c r="D67" s="27">
+        <v>44888</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A68" s="58"/>
+      <c r="D68" s="58">
+        <v>44818</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A69" s="58"/>
+      <c r="D69" s="58">
+        <v>44850</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A70" s="10">
+        <v>44861</v>
+      </c>
+      <c r="D70" s="10">
+        <v>44864</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A71" s="104"/>
+      <c r="D71" s="104">
+        <v>44818</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A72" s="27">
+        <v>44885</v>
+      </c>
+      <c r="D72" s="27">
+        <v>44888</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A73" s="58"/>
+      <c r="D73" s="58">
+        <v>44846</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A74" s="10">
+        <v>44862</v>
+      </c>
+      <c r="D74" s="10">
+        <v>44864</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A75" s="56"/>
+      <c r="D75" s="56">
+        <v>44832</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A76" s="56"/>
+      <c r="D76" s="56">
+        <v>44850</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A77" s="8">
+        <v>44862</v>
+      </c>
+      <c r="D77" s="8">
+        <v>44864</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A78" s="66"/>
+      <c r="D78" s="66">
+        <v>44818</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A79" s="58"/>
+      <c r="D79" s="58">
+        <v>44836</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A80" s="58">
+        <v>44862</v>
+      </c>
+      <c r="D80" s="58">
+        <v>44864</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A81" s="10">
+        <v>44876</v>
+      </c>
+      <c r="D81" s="10">
+        <v>44847</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A82" s="50"/>
+      <c r="D82" s="50">
+        <v>44808</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A83" s="56">
+        <v>44843</v>
+      </c>
+      <c r="D83" s="56">
+        <v>44843</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A84" s="8">
+        <v>44876</v>
+      </c>
+      <c r="D84" s="8">
+        <v>44847</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A85" s="66"/>
+      <c r="D85" s="66">
+        <v>44808</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A86" s="66"/>
+      <c r="D86" s="66">
+        <v>44818</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A87" s="10">
+        <v>44843</v>
+      </c>
+      <c r="D87" s="10">
+        <v>44843</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A88" s="50"/>
+      <c r="D88" s="50">
+        <v>44815</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A89" s="50"/>
+      <c r="D89" s="50">
+        <v>44815</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A90" s="8">
+        <v>44862</v>
+      </c>
+      <c r="D90" s="8">
+        <v>44864</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A91" s="66"/>
+      <c r="D91" s="66">
+        <v>44815</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A92" s="61"/>
+      <c r="D92" s="61">
+        <v>44832</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A93" s="61"/>
+      <c r="D93" s="61">
+        <v>44843</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A94" s="61"/>
+      <c r="D94" s="61">
+        <v>44850</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A95" s="6">
+        <v>44871</v>
+      </c>
+      <c r="D95" s="6">
+        <v>44875</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A96" s="56"/>
+      <c r="D96" s="65">
+        <v>44815</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A97" s="56"/>
+      <c r="D97" s="56">
+        <v>44843</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A98" s="56"/>
+      <c r="D98" s="56">
+        <v>44850</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A99" s="27">
+        <v>44871</v>
+      </c>
+      <c r="D99" s="27">
+        <v>44875</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A100" s="66"/>
+      <c r="D100" s="66">
+        <v>44815</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A101" s="61"/>
+      <c r="D101" s="69">
+        <v>44832</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A102" s="106">
+        <v>44871</v>
+      </c>
+      <c r="D102" s="106">
+        <v>44875</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A103" s="6">
+        <v>44885</v>
+      </c>
+      <c r="D103" s="6">
+        <v>44888</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A104" s="102"/>
+      <c r="D104" s="102">
+        <v>44808</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A105" s="104">
+        <v>44836</v>
+      </c>
+      <c r="D105" s="104">
+        <f>C105+3</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A106" s="104"/>
+      <c r="D106" s="104">
+        <v>44843</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A107" s="8">
+        <v>44885</v>
+      </c>
+      <c r="D107" s="8">
+        <v>44888</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A108" s="58"/>
+      <c r="D108" s="58">
+        <v>44808</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A109" s="61"/>
+      <c r="D109" s="61">
+        <v>44843</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A110" s="16"/>
+      <c r="D110" s="16">
+        <v>44864</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A111" s="56">
+        <v>44815</v>
+      </c>
+      <c r="D111" s="65">
+        <v>44818</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A112" s="56"/>
+      <c r="D112" s="56">
+        <v>44843</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A113" s="8"/>
+      <c r="D113" s="8">
+        <v>44850</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A114" s="66"/>
+      <c r="D114" s="66">
+        <v>44822</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A115" s="66"/>
+      <c r="D115" s="66">
+        <v>44850</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A116" s="6">
+        <v>44871</v>
+      </c>
+      <c r="D116" s="6">
+        <v>44875</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A117" s="50"/>
+      <c r="D117" s="50">
+        <v>44818</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A118" s="56"/>
+      <c r="D118" s="56">
+        <v>44836</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A119" s="56"/>
+      <c r="D119" s="56">
+        <v>44843</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A120" s="56"/>
+      <c r="D120" s="56">
+        <v>44850</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A121" s="27">
+        <v>44871</v>
+      </c>
+      <c r="D121" s="27">
+        <v>44875</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A122" s="66"/>
+      <c r="D122" s="66">
+        <v>44822</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A123" s="58"/>
+      <c r="D123" s="58">
+        <v>44829</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A124" s="58"/>
+      <c r="D124" s="58">
+        <v>44850</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A125" s="6">
+        <v>44871</v>
+      </c>
+      <c r="D125" s="6">
+        <v>44875</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A126" s="50"/>
+      <c r="D126" s="50">
+        <v>44822</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A127" s="56"/>
+      <c r="D127" s="56">
+        <v>44829</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A128" s="56"/>
+      <c r="D128" s="56">
+        <v>44850</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A129" s="27">
+        <v>44871</v>
+      </c>
+      <c r="D129" s="27">
+        <v>44875</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A130" s="11"/>
+      <c r="D130" s="11"/>
+    </row>
+    <row r="131" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A131" s="104"/>
+      <c r="D131" s="104">
+        <v>44822</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A132" s="104"/>
+      <c r="D132" s="104">
+        <v>44839</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A133" s="104"/>
+      <c r="D133" s="104">
+        <v>44864</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A134" s="8">
+        <v>44885</v>
+      </c>
+      <c r="D134" s="8">
+        <v>44888</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A135" s="58">
+        <v>44822</v>
+      </c>
+      <c r="D135" s="58">
+        <v>44822</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A136" s="58"/>
+      <c r="D136" s="58">
+        <v>44839</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A137" s="58"/>
+      <c r="D137" s="58">
+        <v>44850</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A138" s="109"/>
+      <c r="D138" s="109">
+        <v>44864</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A139" s="16">
+        <v>44885</v>
+      </c>
+      <c r="D139" s="16">
+        <v>44888</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A140" s="56"/>
+      <c r="D140" s="56">
+        <v>44850</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A141" s="104"/>
+      <c r="D141" s="104">
+        <v>44864</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A142" s="8">
+        <v>44885</v>
+      </c>
+      <c r="D142" s="8">
+        <v>44888</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A143" s="58"/>
+      <c r="D143" s="58">
+        <v>44829</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A144" s="15"/>
+      <c r="D144" s="15">
+        <v>44829</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
 </file>
--- a/sheet/CONTROLE_DE_TERRITORIO_2022.xlsx
+++ b/sheet/CONTROLE_DE_TERRITORIO_2022.xlsx
@@ -1271,9 +1271,24 @@
     <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="9" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1283,6 +1298,72 @@
     <xf numFmtId="0" fontId="10" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="42" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="8" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="4" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="5" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1292,64 +1373,124 @@
     <xf numFmtId="0" fontId="9" fillId="5" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="25" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="24" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="20" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="31" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="4" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="8" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="5" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="31" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="35" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="36" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="37" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="41" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="29" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1373,148 +1514,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="42" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="43" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="35" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="36" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="37" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="41" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="24" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="20" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="31" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="31" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="25" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="9" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1808,7 +1808,7 @@
   <dimension ref="A1:L145"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="99" zoomScaleNormal="100" zoomScalePageLayoutView="45" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="I7" sqref="I7:I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1869,7 +1869,7 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="146">
+      <c r="A2" s="193">
         <v>1</v>
       </c>
       <c r="B2" s="75" t="s">
@@ -1891,19 +1891,19 @@
       <c r="H2" s="78" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="142" t="s">
+      <c r="I2" s="189" t="s">
         <v>0</v>
       </c>
-      <c r="J2" s="143">
+      <c r="J2" s="190">
         <v>5</v>
       </c>
-      <c r="K2" s="144">
+      <c r="K2" s="191">
         <v>1</v>
       </c>
-      <c r="L2" s="145"/>
+      <c r="L2" s="192"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="147"/>
+      <c r="A3" s="194"/>
       <c r="B3" s="44" t="s">
         <v>25</v>
       </c>
@@ -1923,13 +1923,13 @@
       <c r="H3" s="48" t="s">
         <v>40</v>
       </c>
-      <c r="I3" s="125"/>
-      <c r="J3" s="123"/>
-      <c r="K3" s="140"/>
-      <c r="L3" s="115"/>
+      <c r="I3" s="172"/>
+      <c r="J3" s="130"/>
+      <c r="K3" s="173"/>
+      <c r="L3" s="119"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="147"/>
+      <c r="A4" s="194"/>
       <c r="B4" s="48" t="s">
         <v>27</v>
       </c>
@@ -1949,13 +1949,13 @@
       <c r="H4" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="125"/>
-      <c r="J4" s="123"/>
-      <c r="K4" s="140"/>
-      <c r="L4" s="115"/>
+      <c r="I4" s="172"/>
+      <c r="J4" s="130"/>
+      <c r="K4" s="173"/>
+      <c r="L4" s="119"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="147"/>
+      <c r="A5" s="194"/>
       <c r="B5" s="48" t="s">
         <v>41</v>
       </c>
@@ -1975,13 +1975,13 @@
       <c r="H5" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="125"/>
-      <c r="J5" s="123"/>
-      <c r="K5" s="140"/>
-      <c r="L5" s="115"/>
+      <c r="I5" s="172"/>
+      <c r="J5" s="130"/>
+      <c r="K5" s="173"/>
+      <c r="L5" s="119"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="148"/>
+      <c r="A6" s="195"/>
       <c r="B6" s="17" t="s">
         <v>44</v>
       </c>
@@ -2001,13 +2001,13 @@
       <c r="H6" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="I6" s="125"/>
-      <c r="J6" s="124"/>
-      <c r="K6" s="141"/>
-      <c r="L6" s="115"/>
+      <c r="I6" s="172"/>
+      <c r="J6" s="131"/>
+      <c r="K6" s="150"/>
+      <c r="L6" s="119"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="133">
+      <c r="A7" s="143">
         <v>2</v>
       </c>
       <c r="B7" s="101" t="s">
@@ -2029,19 +2029,19 @@
       <c r="H7" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="I7" s="149" t="s">
+      <c r="I7" s="124" t="s">
         <v>4</v>
       </c>
-      <c r="J7" s="126">
+      <c r="J7" s="138">
         <v>60</v>
       </c>
-      <c r="K7" s="126">
+      <c r="K7" s="138">
         <v>4</v>
       </c>
-      <c r="L7" s="132"/>
+      <c r="L7" s="120"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="134"/>
+      <c r="A8" s="144"/>
       <c r="B8" s="101" t="s">
         <v>25</v>
       </c>
@@ -2063,13 +2063,13 @@
       <c r="H8" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="I8" s="137"/>
-      <c r="J8" s="127"/>
-      <c r="K8" s="127"/>
-      <c r="L8" s="132"/>
+      <c r="I8" s="125"/>
+      <c r="J8" s="139"/>
+      <c r="K8" s="139"/>
+      <c r="L8" s="120"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="134"/>
+      <c r="A9" s="144"/>
       <c r="B9" s="98" t="s">
         <v>27</v>
       </c>
@@ -2089,13 +2089,13 @@
       <c r="H9" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="I9" s="137"/>
-      <c r="J9" s="127"/>
-      <c r="K9" s="127"/>
-      <c r="L9" s="132"/>
+      <c r="I9" s="125"/>
+      <c r="J9" s="139"/>
+      <c r="K9" s="139"/>
+      <c r="L9" s="120"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="134"/>
+      <c r="A10" s="144"/>
       <c r="B10" s="98" t="s">
         <v>41</v>
       </c>
@@ -2115,13 +2115,13 @@
       <c r="H10" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="I10" s="137"/>
-      <c r="J10" s="127"/>
-      <c r="K10" s="127"/>
-      <c r="L10" s="132"/>
+      <c r="I10" s="125"/>
+      <c r="J10" s="139"/>
+      <c r="K10" s="139"/>
+      <c r="L10" s="120"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="134"/>
+      <c r="A11" s="144"/>
       <c r="B11" s="98" t="s">
         <v>44</v>
       </c>
@@ -2141,13 +2141,13 @@
       <c r="H11" s="98" t="s">
         <v>8</v>
       </c>
-      <c r="I11" s="137"/>
-      <c r="J11" s="127"/>
-      <c r="K11" s="127"/>
-      <c r="L11" s="132"/>
+      <c r="I11" s="125"/>
+      <c r="J11" s="139"/>
+      <c r="K11" s="139"/>
+      <c r="L11" s="120"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="135"/>
+      <c r="A12" s="145"/>
       <c r="B12" s="18" t="s">
         <v>45</v>
       </c>
@@ -2169,9 +2169,9 @@
       <c r="H12" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="I12" s="150"/>
-      <c r="J12" s="128"/>
-      <c r="K12" s="128"/>
+      <c r="I12" s="196"/>
+      <c r="J12" s="140"/>
+      <c r="K12" s="140"/>
       <c r="L12" s="88"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
@@ -2179,20 +2179,20 @@
         <v>3</v>
       </c>
       <c r="B13" s="17"/>
-      <c r="C13" s="193">
+      <c r="C13" s="115">
         <v>44863</v>
       </c>
-      <c r="D13" s="193"/>
-      <c r="E13" s="193">
+      <c r="D13" s="115"/>
+      <c r="E13" s="115">
         <v>44864</v>
       </c>
-      <c r="F13" s="194" t="s">
+      <c r="F13" s="116" t="s">
         <v>7</v>
       </c>
-      <c r="G13" s="195" t="s">
+      <c r="G13" s="117" t="s">
         <v>24</v>
       </c>
-      <c r="H13" s="196" t="s">
+      <c r="H13" s="118" t="s">
         <v>8</v>
       </c>
       <c r="I13" s="79" t="s">
@@ -2207,7 +2207,7 @@
       <c r="L13" s="81"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="133">
+      <c r="A14" s="143">
         <v>4</v>
       </c>
       <c r="B14" s="101" t="s">
@@ -2231,19 +2231,19 @@
       <c r="H14" s="101" t="s">
         <v>1</v>
       </c>
-      <c r="I14" s="149" t="s">
+      <c r="I14" s="124" t="s">
         <v>4</v>
       </c>
-      <c r="J14" s="186">
+      <c r="J14" s="135">
         <v>59</v>
       </c>
-      <c r="K14" s="126">
+      <c r="K14" s="138">
         <v>4</v>
       </c>
-      <c r="L14" s="132"/>
+      <c r="L14" s="120"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="134"/>
+      <c r="A15" s="144"/>
       <c r="B15" s="101" t="s">
         <v>25</v>
       </c>
@@ -2263,13 +2263,13 @@
       <c r="H15" s="98" t="s">
         <v>40</v>
       </c>
-      <c r="I15" s="137"/>
-      <c r="J15" s="187"/>
-      <c r="K15" s="127"/>
-      <c r="L15" s="132"/>
+      <c r="I15" s="125"/>
+      <c r="J15" s="136"/>
+      <c r="K15" s="139"/>
+      <c r="L15" s="120"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="134"/>
+      <c r="A16" s="144"/>
       <c r="B16" s="98" t="s">
         <v>27</v>
       </c>
@@ -2289,13 +2289,13 @@
       <c r="H16" s="98" t="s">
         <v>8</v>
       </c>
-      <c r="I16" s="137"/>
-      <c r="J16" s="187"/>
-      <c r="K16" s="127"/>
-      <c r="L16" s="132"/>
+      <c r="I16" s="125"/>
+      <c r="J16" s="136"/>
+      <c r="K16" s="139"/>
+      <c r="L16" s="120"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="134"/>
+      <c r="A17" s="144"/>
       <c r="B17" s="98" t="s">
         <v>41</v>
       </c>
@@ -2315,13 +2315,13 @@
       <c r="H17" s="98" t="s">
         <v>8</v>
       </c>
-      <c r="I17" s="137"/>
-      <c r="J17" s="187"/>
-      <c r="K17" s="127"/>
-      <c r="L17" s="132"/>
+      <c r="I17" s="125"/>
+      <c r="J17" s="136"/>
+      <c r="K17" s="139"/>
+      <c r="L17" s="120"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="135"/>
+      <c r="A18" s="145"/>
       <c r="B18" s="18" t="s">
         <v>43</v>
       </c>
@@ -2343,13 +2343,13 @@
       <c r="H18" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="I18" s="137"/>
-      <c r="J18" s="188"/>
-      <c r="K18" s="128"/>
+      <c r="I18" s="125"/>
+      <c r="J18" s="137"/>
+      <c r="K18" s="140"/>
       <c r="L18" s="88"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="116">
+      <c r="A19" s="121">
         <v>5</v>
       </c>
       <c r="B19" s="44" t="s">
@@ -2373,19 +2373,19 @@
       <c r="H19" s="94" t="s">
         <v>11</v>
       </c>
-      <c r="I19" s="136" t="s">
+      <c r="I19" s="141" t="s">
         <v>4</v>
       </c>
-      <c r="J19" s="122">
+      <c r="J19" s="129">
         <v>8</v>
       </c>
-      <c r="K19" s="122">
+      <c r="K19" s="129">
         <v>1</v>
       </c>
-      <c r="L19" s="115"/>
+      <c r="L19" s="119"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="117"/>
+      <c r="A20" s="122"/>
       <c r="B20" s="91" t="s">
         <v>25</v>
       </c>
@@ -2407,13 +2407,13 @@
       <c r="H20" s="94" t="s">
         <v>1</v>
       </c>
-      <c r="I20" s="137"/>
-      <c r="J20" s="123"/>
-      <c r="K20" s="123"/>
-      <c r="L20" s="115"/>
+      <c r="I20" s="125"/>
+      <c r="J20" s="130"/>
+      <c r="K20" s="130"/>
+      <c r="L20" s="119"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="118"/>
+      <c r="A21" s="123"/>
       <c r="B21" s="41" t="s">
         <v>27</v>
       </c>
@@ -2435,10 +2435,10 @@
       <c r="H21" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="I21" s="138"/>
-      <c r="J21" s="124"/>
-      <c r="K21" s="124"/>
-      <c r="L21" s="115"/>
+      <c r="I21" s="142"/>
+      <c r="J21" s="131"/>
+      <c r="K21" s="131"/>
+      <c r="L21" s="119"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="87">
@@ -2475,7 +2475,7 @@
       <c r="L22" s="85"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="116">
+      <c r="A23" s="121">
         <v>7</v>
       </c>
       <c r="B23" s="44" t="s">
@@ -2499,19 +2499,19 @@
       <c r="H23" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="I23" s="151" t="s">
+      <c r="I23" s="179" t="s">
         <v>0</v>
       </c>
-      <c r="J23" s="154">
+      <c r="J23" s="182">
         <v>21</v>
       </c>
-      <c r="K23" s="157">
+      <c r="K23" s="159">
         <v>2</v>
       </c>
-      <c r="L23" s="115"/>
+      <c r="L23" s="119"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="117"/>
+      <c r="A24" s="122"/>
       <c r="B24" s="91" t="s">
         <v>25</v>
       </c>
@@ -2533,13 +2533,13 @@
       <c r="H24" s="94" t="s">
         <v>1</v>
       </c>
-      <c r="I24" s="152"/>
-      <c r="J24" s="155"/>
-      <c r="K24" s="158"/>
-      <c r="L24" s="115"/>
+      <c r="I24" s="180"/>
+      <c r="J24" s="183"/>
+      <c r="K24" s="160"/>
+      <c r="L24" s="119"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="118"/>
+      <c r="A25" s="123"/>
       <c r="B25" s="41" t="s">
         <v>27</v>
       </c>
@@ -2561,13 +2561,13 @@
       <c r="H25" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="I25" s="153"/>
-      <c r="J25" s="156"/>
-      <c r="K25" s="159"/>
-      <c r="L25" s="115"/>
+      <c r="I25" s="181"/>
+      <c r="J25" s="184"/>
+      <c r="K25" s="161"/>
+      <c r="L25" s="119"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="133">
+      <c r="A26" s="143">
         <v>8</v>
       </c>
       <c r="B26" s="49" t="s">
@@ -2591,19 +2591,19 @@
       <c r="H26" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="I26" s="160" t="s">
+      <c r="I26" s="185" t="s">
         <v>0</v>
       </c>
-      <c r="J26" s="163">
+      <c r="J26" s="176">
         <v>33</v>
       </c>
-      <c r="K26" s="166">
+      <c r="K26" s="186">
         <v>2</v>
       </c>
-      <c r="L26" s="132"/>
+      <c r="L26" s="120"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="134"/>
+      <c r="A27" s="144"/>
       <c r="B27" s="52" t="s">
         <v>25</v>
       </c>
@@ -2625,13 +2625,13 @@
       <c r="H27" s="98" t="s">
         <v>1</v>
       </c>
-      <c r="I27" s="161"/>
-      <c r="J27" s="164"/>
-      <c r="K27" s="167"/>
-      <c r="L27" s="132"/>
+      <c r="I27" s="163"/>
+      <c r="J27" s="178"/>
+      <c r="K27" s="187"/>
+      <c r="L27" s="120"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="135"/>
+      <c r="A28" s="145"/>
       <c r="B28" s="18" t="s">
         <v>27</v>
       </c>
@@ -2653,13 +2653,13 @@
       <c r="H28" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="I28" s="162"/>
-      <c r="J28" s="165"/>
-      <c r="K28" s="168"/>
+      <c r="I28" s="164"/>
+      <c r="J28" s="177"/>
+      <c r="K28" s="188"/>
       <c r="L28" s="86"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" s="116">
+      <c r="A29" s="121">
         <v>9</v>
       </c>
       <c r="B29" s="44" t="s">
@@ -2681,19 +2681,19 @@
       <c r="H29" s="48" t="s">
         <v>40</v>
       </c>
-      <c r="I29" s="189" t="s">
+      <c r="I29" s="162" t="s">
         <v>0</v>
       </c>
-      <c r="J29" s="173">
+      <c r="J29" s="156">
         <v>61</v>
       </c>
-      <c r="K29" s="157">
+      <c r="K29" s="159">
         <v>4</v>
       </c>
-      <c r="L29" s="115"/>
+      <c r="L29" s="119"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" s="117"/>
+      <c r="A30" s="122"/>
       <c r="B30" s="44" t="s">
         <v>25</v>
       </c>
@@ -2713,13 +2713,13 @@
       <c r="H30" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="I30" s="161"/>
-      <c r="J30" s="174"/>
-      <c r="K30" s="158"/>
-      <c r="L30" s="115"/>
+      <c r="I30" s="163"/>
+      <c r="J30" s="157"/>
+      <c r="K30" s="160"/>
+      <c r="L30" s="119"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" s="117"/>
+      <c r="A31" s="122"/>
       <c r="B31" s="99" t="s">
         <v>27</v>
       </c>
@@ -2741,13 +2741,13 @@
       <c r="H31" s="94" t="s">
         <v>1</v>
       </c>
-      <c r="I31" s="161"/>
-      <c r="J31" s="174"/>
-      <c r="K31" s="158"/>
-      <c r="L31" s="115"/>
+      <c r="I31" s="163"/>
+      <c r="J31" s="157"/>
+      <c r="K31" s="160"/>
+      <c r="L31" s="119"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A32" s="118"/>
+      <c r="A32" s="123"/>
       <c r="B32" s="41" t="s">
         <v>41</v>
       </c>
@@ -2769,10 +2769,10 @@
       <c r="H32" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="I32" s="162"/>
-      <c r="J32" s="175"/>
-      <c r="K32" s="159"/>
-      <c r="L32" s="115"/>
+      <c r="I32" s="164"/>
+      <c r="J32" s="158"/>
+      <c r="K32" s="161"/>
+      <c r="L32" s="119"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="14">
@@ -2791,7 +2791,7 @@
       <c r="L33" s="82"/>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A34" s="116">
+      <c r="A34" s="121">
         <v>11</v>
       </c>
       <c r="B34" s="48" t="s">
@@ -2813,19 +2813,19 @@
       <c r="H34" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="I34" s="119" t="s">
+      <c r="I34" s="146" t="s">
         <v>0</v>
       </c>
-      <c r="J34" s="122">
+      <c r="J34" s="129">
         <v>132</v>
       </c>
-      <c r="K34" s="122">
+      <c r="K34" s="129">
         <v>8</v>
       </c>
-      <c r="L34" s="115"/>
+      <c r="L34" s="119"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A35" s="117"/>
+      <c r="A35" s="122"/>
       <c r="B35" s="48" t="s">
         <v>25</v>
       </c>
@@ -2847,13 +2847,13 @@
       <c r="H35" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="I35" s="120"/>
-      <c r="J35" s="123"/>
-      <c r="K35" s="123"/>
-      <c r="L35" s="115"/>
+      <c r="I35" s="147"/>
+      <c r="J35" s="130"/>
+      <c r="K35" s="130"/>
+      <c r="L35" s="119"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A36" s="117"/>
+      <c r="A36" s="122"/>
       <c r="B36" s="100" t="s">
         <v>27</v>
       </c>
@@ -2873,13 +2873,13 @@
       <c r="H36" s="94" t="s">
         <v>8</v>
       </c>
-      <c r="I36" s="120"/>
-      <c r="J36" s="123"/>
-      <c r="K36" s="123"/>
-      <c r="L36" s="115"/>
+      <c r="I36" s="147"/>
+      <c r="J36" s="130"/>
+      <c r="K36" s="130"/>
+      <c r="L36" s="119"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A37" s="118"/>
+      <c r="A37" s="123"/>
       <c r="B37" s="41" t="s">
         <v>41</v>
       </c>
@@ -2901,13 +2901,13 @@
       <c r="H37" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="I37" s="121"/>
-      <c r="J37" s="124"/>
-      <c r="K37" s="124"/>
-      <c r="L37" s="115"/>
+      <c r="I37" s="148"/>
+      <c r="J37" s="131"/>
+      <c r="K37" s="131"/>
+      <c r="L37" s="119"/>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A38" s="133">
+      <c r="A38" s="143">
         <v>12</v>
       </c>
       <c r="B38" s="49" t="s">
@@ -2929,19 +2929,19 @@
       <c r="H38" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="I38" s="119" t="s">
+      <c r="I38" s="146" t="s">
         <v>0</v>
       </c>
-      <c r="J38" s="126">
+      <c r="J38" s="138">
         <v>72</v>
       </c>
-      <c r="K38" s="129">
+      <c r="K38" s="151">
         <v>5</v>
       </c>
-      <c r="L38" s="132"/>
+      <c r="L38" s="120"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A39" s="134"/>
+      <c r="A39" s="144"/>
       <c r="B39" s="52" t="s">
         <v>25</v>
       </c>
@@ -2961,13 +2961,13 @@
       <c r="H39" s="52" t="s">
         <v>40</v>
       </c>
-      <c r="I39" s="120"/>
-      <c r="J39" s="127"/>
-      <c r="K39" s="130"/>
-      <c r="L39" s="132"/>
+      <c r="I39" s="147"/>
+      <c r="J39" s="139"/>
+      <c r="K39" s="171"/>
+      <c r="L39" s="120"/>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A40" s="135"/>
+      <c r="A40" s="145"/>
       <c r="B40" s="18" t="s">
         <v>27</v>
       </c>
@@ -2989,13 +2989,13 @@
       <c r="H40" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="I40" s="121"/>
-      <c r="J40" s="128"/>
-      <c r="K40" s="131"/>
-      <c r="L40" s="132"/>
+      <c r="I40" s="148"/>
+      <c r="J40" s="140"/>
+      <c r="K40" s="152"/>
+      <c r="L40" s="120"/>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A41" s="116">
+      <c r="A41" s="121">
         <v>13</v>
       </c>
       <c r="B41" s="48" t="s">
@@ -3017,19 +3017,19 @@
       <c r="H41" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="I41" s="119" t="s">
+      <c r="I41" s="146" t="s">
         <v>0</v>
       </c>
-      <c r="J41" s="122">
+      <c r="J41" s="129">
         <v>7</v>
       </c>
-      <c r="K41" s="139">
+      <c r="K41" s="149">
         <v>1</v>
       </c>
-      <c r="L41" s="115"/>
+      <c r="L41" s="119"/>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A42" s="118"/>
+      <c r="A42" s="123"/>
       <c r="B42" s="17" t="s">
         <v>25</v>
       </c>
@@ -3051,13 +3051,13 @@
       <c r="H42" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="I42" s="121"/>
-      <c r="J42" s="124"/>
-      <c r="K42" s="141"/>
-      <c r="L42" s="115"/>
+      <c r="I42" s="148"/>
+      <c r="J42" s="131"/>
+      <c r="K42" s="150"/>
+      <c r="L42" s="119"/>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A43" s="133">
+      <c r="A43" s="143">
         <v>14</v>
       </c>
       <c r="B43" s="49" t="s">
@@ -3079,19 +3079,19 @@
       <c r="H43" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="I43" s="119" t="s">
+      <c r="I43" s="146" t="s">
         <v>0</v>
       </c>
-      <c r="J43" s="126">
+      <c r="J43" s="138">
         <v>39</v>
       </c>
-      <c r="K43" s="129">
+      <c r="K43" s="151">
         <v>3</v>
       </c>
-      <c r="L43" s="132"/>
+      <c r="L43" s="120"/>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A44" s="135"/>
+      <c r="A44" s="145"/>
       <c r="B44" s="18" t="s">
         <v>25</v>
       </c>
@@ -3113,13 +3113,13 @@
       <c r="H44" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="I44" s="121"/>
-      <c r="J44" s="128"/>
-      <c r="K44" s="131"/>
-      <c r="L44" s="132"/>
+      <c r="I44" s="148"/>
+      <c r="J44" s="140"/>
+      <c r="K44" s="152"/>
+      <c r="L44" s="120"/>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A45" s="116">
+      <c r="A45" s="121">
         <v>15</v>
       </c>
       <c r="B45" s="48" t="s">
@@ -3141,19 +3141,19 @@
       <c r="H45" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="I45" s="119" t="s">
+      <c r="I45" s="146" t="s">
         <v>0</v>
       </c>
-      <c r="J45" s="139">
+      <c r="J45" s="149">
         <v>39</v>
       </c>
-      <c r="K45" s="173">
+      <c r="K45" s="156">
         <v>3</v>
       </c>
-      <c r="L45" s="115"/>
+      <c r="L45" s="119"/>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A46" s="117"/>
+      <c r="A46" s="122"/>
       <c r="B46" s="48" t="s">
         <v>25</v>
       </c>
@@ -3173,13 +3173,13 @@
       <c r="H46" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="I46" s="120"/>
-      <c r="J46" s="140"/>
-      <c r="K46" s="174"/>
-      <c r="L46" s="115"/>
+      <c r="I46" s="147"/>
+      <c r="J46" s="173"/>
+      <c r="K46" s="157"/>
+      <c r="L46" s="119"/>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A47" s="118"/>
+      <c r="A47" s="123"/>
       <c r="B47" s="17" t="s">
         <v>27</v>
       </c>
@@ -3201,13 +3201,13 @@
       <c r="H47" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="I47" s="121"/>
-      <c r="J47" s="141"/>
-      <c r="K47" s="175"/>
-      <c r="L47" s="115"/>
+      <c r="I47" s="148"/>
+      <c r="J47" s="150"/>
+      <c r="K47" s="158"/>
+      <c r="L47" s="119"/>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A48" s="133">
+      <c r="A48" s="143">
         <v>16</v>
       </c>
       <c r="B48" s="49" t="s">
@@ -3229,19 +3229,19 @@
       <c r="H48" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="I48" s="119" t="s">
+      <c r="I48" s="146" t="s">
         <v>0</v>
       </c>
-      <c r="J48" s="129">
+      <c r="J48" s="151">
         <v>39</v>
       </c>
-      <c r="K48" s="163">
+      <c r="K48" s="176">
         <v>3</v>
       </c>
-      <c r="L48" s="132"/>
+      <c r="L48" s="120"/>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A49" s="135"/>
+      <c r="A49" s="145"/>
       <c r="B49" s="18" t="s">
         <v>25</v>
       </c>
@@ -3263,10 +3263,10 @@
       <c r="H49" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="I49" s="121"/>
-      <c r="J49" s="131"/>
-      <c r="K49" s="165"/>
-      <c r="L49" s="132"/>
+      <c r="I49" s="148"/>
+      <c r="J49" s="152"/>
+      <c r="K49" s="177"/>
+      <c r="L49" s="120"/>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" s="14">
@@ -3285,7 +3285,7 @@
       <c r="L50" s="82"/>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A51" s="133">
+      <c r="A51" s="143">
         <v>18</v>
       </c>
       <c r="B51" s="49" t="s">
@@ -3307,19 +3307,19 @@
       <c r="H51" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="I51" s="119" t="s">
+      <c r="I51" s="146" t="s">
         <v>0</v>
       </c>
-      <c r="J51" s="126">
+      <c r="J51" s="138">
         <v>47</v>
       </c>
-      <c r="K51" s="129">
+      <c r="K51" s="151">
         <v>3</v>
       </c>
-      <c r="L51" s="132"/>
+      <c r="L51" s="120"/>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A52" s="134"/>
+      <c r="A52" s="144"/>
       <c r="B52" s="52" t="s">
         <v>25</v>
       </c>
@@ -3339,13 +3339,13 @@
       <c r="H52" s="52" t="s">
         <v>40</v>
       </c>
-      <c r="I52" s="120"/>
-      <c r="J52" s="127"/>
-      <c r="K52" s="130"/>
-      <c r="L52" s="132"/>
+      <c r="I52" s="147"/>
+      <c r="J52" s="139"/>
+      <c r="K52" s="171"/>
+      <c r="L52" s="120"/>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A53" s="135"/>
+      <c r="A53" s="145"/>
       <c r="B53" s="18" t="s">
         <v>27</v>
       </c>
@@ -3367,13 +3367,13 @@
       <c r="H53" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="I53" s="121"/>
-      <c r="J53" s="128"/>
-      <c r="K53" s="131"/>
-      <c r="L53" s="132"/>
+      <c r="I53" s="148"/>
+      <c r="J53" s="140"/>
+      <c r="K53" s="152"/>
+      <c r="L53" s="120"/>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A54" s="169">
+      <c r="A54" s="153">
         <v>19</v>
       </c>
       <c r="B54" s="48" t="s">
@@ -3395,19 +3395,19 @@
       <c r="H54" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="I54" s="119" t="s">
+      <c r="I54" s="146" t="s">
         <v>0</v>
       </c>
-      <c r="J54" s="122">
+      <c r="J54" s="129">
         <v>68</v>
       </c>
-      <c r="K54" s="139">
+      <c r="K54" s="149">
         <v>4</v>
       </c>
-      <c r="L54" s="115"/>
+      <c r="L54" s="119"/>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A55" s="170"/>
+      <c r="A55" s="154"/>
       <c r="B55" s="48" t="s">
         <v>25</v>
       </c>
@@ -3427,13 +3427,13 @@
       <c r="H55" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="I55" s="120"/>
-      <c r="J55" s="123"/>
-      <c r="K55" s="140"/>
-      <c r="L55" s="115"/>
+      <c r="I55" s="147"/>
+      <c r="J55" s="130"/>
+      <c r="K55" s="173"/>
+      <c r="L55" s="119"/>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A56" s="171"/>
+      <c r="A56" s="155"/>
       <c r="B56" s="17" t="s">
         <v>27</v>
       </c>
@@ -3455,13 +3455,13 @@
       <c r="H56" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="I56" s="121"/>
-      <c r="J56" s="124"/>
-      <c r="K56" s="141"/>
-      <c r="L56" s="115"/>
+      <c r="I56" s="148"/>
+      <c r="J56" s="131"/>
+      <c r="K56" s="150"/>
+      <c r="L56" s="119"/>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A57" s="133">
+      <c r="A57" s="143">
         <v>20</v>
       </c>
       <c r="B57" s="101" t="s">
@@ -3483,19 +3483,19 @@
       <c r="H57" s="101" t="s">
         <v>11</v>
       </c>
-      <c r="I57" s="136" t="s">
+      <c r="I57" s="141" t="s">
         <v>4</v>
       </c>
-      <c r="J57" s="126">
+      <c r="J57" s="138">
         <v>13</v>
       </c>
-      <c r="K57" s="126">
+      <c r="K57" s="138">
         <v>1</v>
       </c>
-      <c r="L57" s="132"/>
+      <c r="L57" s="120"/>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A58" s="134"/>
+      <c r="A58" s="144"/>
       <c r="B58" s="101" t="s">
         <v>25</v>
       </c>
@@ -3515,13 +3515,13 @@
       <c r="H58" s="101" t="s">
         <v>8</v>
       </c>
-      <c r="I58" s="137"/>
-      <c r="J58" s="127"/>
-      <c r="K58" s="127"/>
-      <c r="L58" s="132"/>
+      <c r="I58" s="125"/>
+      <c r="J58" s="139"/>
+      <c r="K58" s="139"/>
+      <c r="L58" s="120"/>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A59" s="134"/>
+      <c r="A59" s="144"/>
       <c r="B59" s="98" t="s">
         <v>27</v>
       </c>
@@ -3543,13 +3543,13 @@
       <c r="H59" s="101" t="s">
         <v>11</v>
       </c>
-      <c r="I59" s="137"/>
-      <c r="J59" s="127"/>
-      <c r="K59" s="127"/>
-      <c r="L59" s="132"/>
+      <c r="I59" s="125"/>
+      <c r="J59" s="139"/>
+      <c r="K59" s="139"/>
+      <c r="L59" s="120"/>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A60" s="135"/>
+      <c r="A60" s="145"/>
       <c r="B60" s="18" t="s">
         <v>41</v>
       </c>
@@ -3571,13 +3571,13 @@
       <c r="H60" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="I60" s="138"/>
-      <c r="J60" s="128"/>
-      <c r="K60" s="128"/>
+      <c r="I60" s="142"/>
+      <c r="J60" s="140"/>
+      <c r="K60" s="140"/>
       <c r="L60" s="88"/>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A61" s="116">
+      <c r="A61" s="121">
         <v>21</v>
       </c>
       <c r="B61" s="44" t="s">
@@ -3599,19 +3599,19 @@
       <c r="H61" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="I61" s="136" t="s">
+      <c r="I61" s="141" t="s">
         <v>4</v>
       </c>
-      <c r="J61" s="122">
+      <c r="J61" s="129">
         <v>94</v>
       </c>
-      <c r="K61" s="122">
+      <c r="K61" s="129">
         <v>6</v>
       </c>
-      <c r="L61" s="115"/>
+      <c r="L61" s="119"/>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A62" s="117"/>
+      <c r="A62" s="122"/>
       <c r="B62" s="48" t="s">
         <v>25</v>
       </c>
@@ -3631,13 +3631,13 @@
       <c r="H62" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="I62" s="137"/>
-      <c r="J62" s="123"/>
-      <c r="K62" s="123"/>
-      <c r="L62" s="115"/>
+      <c r="I62" s="125"/>
+      <c r="J62" s="130"/>
+      <c r="K62" s="130"/>
+      <c r="L62" s="119"/>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A63" s="117"/>
+      <c r="A63" s="122"/>
       <c r="B63" s="100" t="s">
         <v>27</v>
       </c>
@@ -3659,13 +3659,13 @@
       <c r="H63" s="100" t="s">
         <v>11</v>
       </c>
-      <c r="I63" s="137"/>
-      <c r="J63" s="123"/>
-      <c r="K63" s="123"/>
-      <c r="L63" s="115"/>
+      <c r="I63" s="125"/>
+      <c r="J63" s="130"/>
+      <c r="K63" s="130"/>
+      <c r="L63" s="119"/>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A64" s="118"/>
+      <c r="A64" s="123"/>
       <c r="B64" s="70" t="s">
         <v>41</v>
       </c>
@@ -3687,13 +3687,13 @@
       <c r="H64" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="I64" s="138"/>
-      <c r="J64" s="124"/>
-      <c r="K64" s="124"/>
+      <c r="I64" s="142"/>
+      <c r="J64" s="131"/>
+      <c r="K64" s="131"/>
       <c r="L64" s="90"/>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A65" s="133">
+      <c r="A65" s="143">
         <v>22</v>
       </c>
       <c r="B65" s="101" t="s">
@@ -3717,19 +3717,19 @@
       <c r="H65" s="98" t="s">
         <v>11</v>
       </c>
-      <c r="I65" s="136" t="s">
+      <c r="I65" s="141" t="s">
         <v>4</v>
       </c>
-      <c r="J65" s="126">
+      <c r="J65" s="138">
         <v>67</v>
       </c>
-      <c r="K65" s="126">
+      <c r="K65" s="138">
         <v>4</v>
       </c>
-      <c r="L65" s="132"/>
+      <c r="L65" s="120"/>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A66" s="134"/>
+      <c r="A66" s="144"/>
       <c r="B66" s="101" t="s">
         <v>25</v>
       </c>
@@ -3749,13 +3749,13 @@
       <c r="H66" s="98" t="s">
         <v>40</v>
       </c>
-      <c r="I66" s="137"/>
-      <c r="J66" s="127"/>
-      <c r="K66" s="127"/>
-      <c r="L66" s="132"/>
+      <c r="I66" s="125"/>
+      <c r="J66" s="139"/>
+      <c r="K66" s="139"/>
+      <c r="L66" s="120"/>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A67" s="134"/>
+      <c r="A67" s="144"/>
       <c r="B67" s="98" t="s">
         <v>27</v>
       </c>
@@ -3777,13 +3777,13 @@
       <c r="H67" s="101" t="s">
         <v>1</v>
       </c>
-      <c r="I67" s="137"/>
-      <c r="J67" s="127"/>
-      <c r="K67" s="127"/>
-      <c r="L67" s="132"/>
+      <c r="I67" s="125"/>
+      <c r="J67" s="139"/>
+      <c r="K67" s="139"/>
+      <c r="L67" s="120"/>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A68" s="135"/>
+      <c r="A68" s="145"/>
       <c r="B68" s="18" t="s">
         <v>41</v>
       </c>
@@ -3805,13 +3805,13 @@
       <c r="H68" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="I68" s="138"/>
-      <c r="J68" s="128"/>
-      <c r="K68" s="128"/>
+      <c r="I68" s="142"/>
+      <c r="J68" s="140"/>
+      <c r="K68" s="140"/>
       <c r="L68" s="88"/>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A69" s="116">
+      <c r="A69" s="121">
         <v>23</v>
       </c>
       <c r="B69" s="44" t="s">
@@ -3833,19 +3833,19 @@
       <c r="H69" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="I69" s="119" t="s">
+      <c r="I69" s="146" t="s">
         <v>0</v>
       </c>
-      <c r="J69" s="122">
+      <c r="J69" s="129">
         <v>22</v>
       </c>
-      <c r="K69" s="139">
+      <c r="K69" s="149">
         <v>2</v>
       </c>
-      <c r="L69" s="115"/>
+      <c r="L69" s="119"/>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A70" s="117"/>
+      <c r="A70" s="122"/>
       <c r="B70" s="44" t="s">
         <v>25</v>
       </c>
@@ -3865,13 +3865,13 @@
       <c r="H70" s="60" t="s">
         <v>40</v>
       </c>
-      <c r="I70" s="120"/>
-      <c r="J70" s="123"/>
-      <c r="K70" s="140"/>
-      <c r="L70" s="115"/>
+      <c r="I70" s="147"/>
+      <c r="J70" s="130"/>
+      <c r="K70" s="173"/>
+      <c r="L70" s="119"/>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A71" s="118"/>
+      <c r="A71" s="123"/>
       <c r="B71" s="17" t="s">
         <v>27</v>
       </c>
@@ -3893,13 +3893,13 @@
       <c r="H71" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="I71" s="121"/>
-      <c r="J71" s="124"/>
-      <c r="K71" s="141"/>
-      <c r="L71" s="115"/>
+      <c r="I71" s="148"/>
+      <c r="J71" s="131"/>
+      <c r="K71" s="150"/>
+      <c r="L71" s="119"/>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A72" s="133">
+      <c r="A72" s="143">
         <v>24</v>
       </c>
       <c r="B72" s="98" t="s">
@@ -3921,19 +3921,19 @@
       <c r="H72" s="98" t="s">
         <v>11</v>
       </c>
-      <c r="I72" s="136" t="s">
+      <c r="I72" s="141" t="s">
         <v>0</v>
       </c>
-      <c r="J72" s="126">
+      <c r="J72" s="138">
         <v>31</v>
       </c>
-      <c r="K72" s="126">
+      <c r="K72" s="138">
         <v>2</v>
       </c>
       <c r="L72" s="83"/>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A73" s="135"/>
+      <c r="A73" s="145"/>
       <c r="B73" s="18" t="s">
         <v>25</v>
       </c>
@@ -3955,13 +3955,13 @@
       <c r="H73" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="I73" s="137"/>
-      <c r="J73" s="128"/>
-      <c r="K73" s="128"/>
+      <c r="I73" s="125"/>
+      <c r="J73" s="140"/>
+      <c r="K73" s="140"/>
       <c r="L73" s="88"/>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A74" s="116">
+      <c r="A74" s="121">
         <v>25</v>
       </c>
       <c r="B74" s="48" t="s">
@@ -3983,19 +3983,19 @@
       <c r="H74" s="60" t="s">
         <v>40</v>
       </c>
-      <c r="I74" s="119" t="s">
+      <c r="I74" s="146" t="s">
         <v>0</v>
       </c>
-      <c r="J74" s="122">
+      <c r="J74" s="129">
         <v>44</v>
       </c>
-      <c r="K74" s="139">
+      <c r="K74" s="149">
         <v>3</v>
       </c>
-      <c r="L74" s="115"/>
+      <c r="L74" s="119"/>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A75" s="118"/>
+      <c r="A75" s="123"/>
       <c r="B75" s="17" t="s">
         <v>25</v>
       </c>
@@ -4017,13 +4017,13 @@
       <c r="H75" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="I75" s="121"/>
-      <c r="J75" s="124"/>
-      <c r="K75" s="141"/>
-      <c r="L75" s="115"/>
+      <c r="I75" s="148"/>
+      <c r="J75" s="131"/>
+      <c r="K75" s="150"/>
+      <c r="L75" s="119"/>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A76" s="133">
+      <c r="A76" s="143">
         <v>26</v>
       </c>
       <c r="B76" s="49" t="s">
@@ -4045,19 +4045,19 @@
       <c r="H76" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="I76" s="119" t="s">
+      <c r="I76" s="146" t="s">
         <v>0</v>
       </c>
-      <c r="J76" s="126">
+      <c r="J76" s="138">
         <v>30</v>
       </c>
-      <c r="K76" s="129">
+      <c r="K76" s="151">
         <v>3</v>
       </c>
-      <c r="L76" s="132"/>
+      <c r="L76" s="120"/>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A77" s="134"/>
+      <c r="A77" s="144"/>
       <c r="B77" s="49" t="s">
         <v>25</v>
       </c>
@@ -4077,13 +4077,13 @@
       <c r="H77" s="52" t="s">
         <v>40</v>
       </c>
-      <c r="I77" s="120"/>
-      <c r="J77" s="127"/>
-      <c r="K77" s="130"/>
-      <c r="L77" s="132"/>
+      <c r="I77" s="147"/>
+      <c r="J77" s="139"/>
+      <c r="K77" s="171"/>
+      <c r="L77" s="120"/>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A78" s="135"/>
+      <c r="A78" s="145"/>
       <c r="B78" s="18" t="s">
         <v>27</v>
       </c>
@@ -4105,13 +4105,13 @@
       <c r="H78" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="I78" s="121"/>
-      <c r="J78" s="128"/>
-      <c r="K78" s="131"/>
-      <c r="L78" s="132"/>
+      <c r="I78" s="148"/>
+      <c r="J78" s="140"/>
+      <c r="K78" s="152"/>
+      <c r="L78" s="120"/>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A79" s="116">
+      <c r="A79" s="121">
         <v>27</v>
       </c>
       <c r="B79" s="44" t="s">
@@ -4133,19 +4133,19 @@
       <c r="H79" s="68" t="s">
         <v>16</v>
       </c>
-      <c r="I79" s="136" t="s">
+      <c r="I79" s="141" t="s">
         <v>4</v>
       </c>
-      <c r="J79" s="122">
+      <c r="J79" s="129">
         <v>12</v>
       </c>
-      <c r="K79" s="139">
+      <c r="K79" s="149">
         <v>1</v>
       </c>
-      <c r="L79" s="115"/>
+      <c r="L79" s="119"/>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A80" s="117"/>
+      <c r="A80" s="122"/>
       <c r="B80" s="48" t="s">
         <v>25</v>
       </c>
@@ -4165,13 +4165,13 @@
       <c r="H80" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="I80" s="137"/>
-      <c r="J80" s="123"/>
-      <c r="K80" s="140"/>
-      <c r="L80" s="115"/>
+      <c r="I80" s="125"/>
+      <c r="J80" s="130"/>
+      <c r="K80" s="173"/>
+      <c r="L80" s="119"/>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A81" s="117"/>
+      <c r="A81" s="122"/>
       <c r="B81" s="48" t="s">
         <v>27</v>
       </c>
@@ -4193,13 +4193,13 @@
       <c r="H81" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="I81" s="137"/>
-      <c r="J81" s="123"/>
-      <c r="K81" s="140"/>
-      <c r="L81" s="115"/>
+      <c r="I81" s="125"/>
+      <c r="J81" s="130"/>
+      <c r="K81" s="173"/>
+      <c r="L81" s="119"/>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A82" s="118"/>
+      <c r="A82" s="123"/>
       <c r="B82" s="70" t="s">
         <v>41</v>
       </c>
@@ -4221,13 +4221,13 @@
       <c r="H82" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="I82" s="138"/>
-      <c r="J82" s="124"/>
-      <c r="K82" s="141"/>
-      <c r="L82" s="115"/>
+      <c r="I82" s="142"/>
+      <c r="J82" s="131"/>
+      <c r="K82" s="150"/>
+      <c r="L82" s="119"/>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A83" s="133">
+      <c r="A83" s="143">
         <v>28</v>
       </c>
       <c r="B83" s="49" t="s">
@@ -4249,19 +4249,19 @@
       <c r="H83" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="I83" s="136" t="s">
+      <c r="I83" s="141" t="s">
         <v>4</v>
       </c>
-      <c r="J83" s="126">
+      <c r="J83" s="138">
         <v>21</v>
       </c>
-      <c r="K83" s="129">
+      <c r="K83" s="151">
         <v>2</v>
       </c>
-      <c r="L83" s="132"/>
+      <c r="L83" s="120"/>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A84" s="134"/>
+      <c r="A84" s="144"/>
       <c r="B84" s="49" t="s">
         <v>25</v>
       </c>
@@ -4283,13 +4283,13 @@
       <c r="H84" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="I84" s="137"/>
-      <c r="J84" s="127"/>
-      <c r="K84" s="130"/>
-      <c r="L84" s="132"/>
+      <c r="I84" s="125"/>
+      <c r="J84" s="139"/>
+      <c r="K84" s="171"/>
+      <c r="L84" s="120"/>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A85" s="135"/>
+      <c r="A85" s="145"/>
       <c r="B85" s="18" t="s">
         <v>27</v>
       </c>
@@ -4311,13 +4311,13 @@
       <c r="H85" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="I85" s="138"/>
-      <c r="J85" s="128"/>
-      <c r="K85" s="131"/>
-      <c r="L85" s="132"/>
+      <c r="I85" s="142"/>
+      <c r="J85" s="140"/>
+      <c r="K85" s="152"/>
+      <c r="L85" s="120"/>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A86" s="116">
+      <c r="A86" s="121">
         <v>29</v>
       </c>
       <c r="B86" s="44" t="s">
@@ -4339,19 +4339,19 @@
       <c r="H86" s="68" t="s">
         <v>8</v>
       </c>
-      <c r="I86" s="119" t="s">
+      <c r="I86" s="146" t="s">
         <v>0</v>
       </c>
-      <c r="J86" s="122">
+      <c r="J86" s="129">
         <v>35</v>
       </c>
-      <c r="K86" s="139">
+      <c r="K86" s="149">
         <v>2</v>
       </c>
-      <c r="L86" s="115"/>
+      <c r="L86" s="119"/>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A87" s="117"/>
+      <c r="A87" s="122"/>
       <c r="B87" s="44" t="s">
         <v>25</v>
       </c>
@@ -4371,13 +4371,13 @@
       <c r="H87" s="68" t="s">
         <v>16</v>
       </c>
-      <c r="I87" s="120"/>
-      <c r="J87" s="123"/>
-      <c r="K87" s="140"/>
-      <c r="L87" s="115"/>
+      <c r="I87" s="147"/>
+      <c r="J87" s="130"/>
+      <c r="K87" s="173"/>
+      <c r="L87" s="119"/>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A88" s="118"/>
+      <c r="A88" s="123"/>
       <c r="B88" s="17" t="s">
         <v>27</v>
       </c>
@@ -4399,13 +4399,13 @@
       <c r="H88" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="I88" s="121"/>
-      <c r="J88" s="124"/>
-      <c r="K88" s="141"/>
-      <c r="L88" s="115"/>
+      <c r="I88" s="148"/>
+      <c r="J88" s="131"/>
+      <c r="K88" s="150"/>
+      <c r="L88" s="119"/>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A89" s="133">
+      <c r="A89" s="143">
         <v>30</v>
       </c>
       <c r="B89" s="49" t="s">
@@ -4427,19 +4427,19 @@
       <c r="H89" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="I89" s="119" t="s">
+      <c r="I89" s="146" t="s">
         <v>0</v>
       </c>
-      <c r="J89" s="126">
+      <c r="J89" s="138">
         <v>19</v>
       </c>
-      <c r="K89" s="129">
+      <c r="K89" s="151">
         <v>1</v>
       </c>
-      <c r="L89" s="132"/>
+      <c r="L89" s="120"/>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A90" s="134"/>
+      <c r="A90" s="144"/>
       <c r="B90" s="49" t="s">
         <v>25</v>
       </c>
@@ -4459,10 +4459,10 @@
       <c r="H90" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="I90" s="120"/>
-      <c r="J90" s="127"/>
-      <c r="K90" s="130"/>
-      <c r="L90" s="132"/>
+      <c r="I90" s="147"/>
+      <c r="J90" s="139"/>
+      <c r="K90" s="171"/>
+      <c r="L90" s="120"/>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A91" s="43"/>
@@ -4487,13 +4487,13 @@
       <c r="H91" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="I91" s="121"/>
-      <c r="J91" s="128"/>
-      <c r="K91" s="131"/>
+      <c r="I91" s="148"/>
+      <c r="J91" s="140"/>
+      <c r="K91" s="152"/>
       <c r="L91" s="83"/>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A92" s="116">
+      <c r="A92" s="121">
         <v>31</v>
       </c>
       <c r="B92" s="44" t="s">
@@ -4515,19 +4515,19 @@
       <c r="H92" s="68" t="s">
         <v>5</v>
       </c>
-      <c r="I92" s="125" t="s">
+      <c r="I92" s="172" t="s">
         <v>0</v>
       </c>
-      <c r="J92" s="122">
+      <c r="J92" s="129">
         <v>50</v>
       </c>
-      <c r="K92" s="139">
+      <c r="K92" s="149">
         <v>4</v>
       </c>
-      <c r="L92" s="115"/>
+      <c r="L92" s="119"/>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A93" s="117"/>
+      <c r="A93" s="122"/>
       <c r="B93" s="48" t="s">
         <v>25</v>
       </c>
@@ -4547,13 +4547,13 @@
       <c r="H93" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="I93" s="125"/>
-      <c r="J93" s="123"/>
-      <c r="K93" s="140"/>
-      <c r="L93" s="115"/>
+      <c r="I93" s="172"/>
+      <c r="J93" s="130"/>
+      <c r="K93" s="173"/>
+      <c r="L93" s="119"/>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A94" s="117"/>
+      <c r="A94" s="122"/>
       <c r="B94" s="48" t="s">
         <v>27</v>
       </c>
@@ -4573,13 +4573,13 @@
       <c r="H94" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="I94" s="125"/>
-      <c r="J94" s="123"/>
-      <c r="K94" s="140"/>
-      <c r="L94" s="115"/>
+      <c r="I94" s="172"/>
+      <c r="J94" s="130"/>
+      <c r="K94" s="173"/>
+      <c r="L94" s="119"/>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A95" s="117"/>
+      <c r="A95" s="122"/>
       <c r="B95" s="44" t="s">
         <v>41</v>
       </c>
@@ -4599,13 +4599,13 @@
       <c r="H95" s="60" t="s">
         <v>40</v>
       </c>
-      <c r="I95" s="125"/>
-      <c r="J95" s="123"/>
-      <c r="K95" s="140"/>
-      <c r="L95" s="115"/>
+      <c r="I95" s="172"/>
+      <c r="J95" s="130"/>
+      <c r="K95" s="173"/>
+      <c r="L95" s="119"/>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A96" s="118"/>
+      <c r="A96" s="123"/>
       <c r="B96" s="30" t="s">
         <v>43</v>
       </c>
@@ -4627,13 +4627,13 @@
       <c r="H96" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="I96" s="125"/>
-      <c r="J96" s="124"/>
-      <c r="K96" s="141"/>
-      <c r="L96" s="115"/>
+      <c r="I96" s="172"/>
+      <c r="J96" s="131"/>
+      <c r="K96" s="150"/>
+      <c r="L96" s="119"/>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A97" s="172">
+      <c r="A97" s="175">
         <v>32</v>
       </c>
       <c r="B97" s="49" t="s">
@@ -4655,19 +4655,19 @@
       <c r="H97" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="I97" s="119" t="s">
+      <c r="I97" s="146" t="s">
         <v>0</v>
       </c>
-      <c r="J97" s="126">
+      <c r="J97" s="138">
         <v>77</v>
       </c>
-      <c r="K97" s="129">
+      <c r="K97" s="151">
         <v>4</v>
       </c>
-      <c r="L97" s="132"/>
+      <c r="L97" s="120"/>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A98" s="172"/>
+      <c r="A98" s="175"/>
       <c r="B98" s="49" t="s">
         <v>25</v>
       </c>
@@ -4687,13 +4687,13 @@
       <c r="H98" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="I98" s="120"/>
-      <c r="J98" s="127"/>
-      <c r="K98" s="130"/>
-      <c r="L98" s="132"/>
+      <c r="I98" s="147"/>
+      <c r="J98" s="139"/>
+      <c r="K98" s="171"/>
+      <c r="L98" s="120"/>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A99" s="172"/>
+      <c r="A99" s="175"/>
       <c r="B99" s="52" t="s">
         <v>27</v>
       </c>
@@ -4713,13 +4713,13 @@
       <c r="H99" s="52" t="s">
         <v>40</v>
       </c>
-      <c r="I99" s="120"/>
-      <c r="J99" s="127"/>
-      <c r="K99" s="130"/>
-      <c r="L99" s="132"/>
+      <c r="I99" s="147"/>
+      <c r="J99" s="139"/>
+      <c r="K99" s="171"/>
+      <c r="L99" s="120"/>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A100" s="172"/>
+      <c r="A100" s="175"/>
       <c r="B100" s="18" t="s">
         <v>41</v>
       </c>
@@ -4741,13 +4741,13 @@
       <c r="H100" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="I100" s="121"/>
-      <c r="J100" s="128"/>
-      <c r="K100" s="131"/>
-      <c r="L100" s="132"/>
+      <c r="I100" s="148"/>
+      <c r="J100" s="140"/>
+      <c r="K100" s="152"/>
+      <c r="L100" s="120"/>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A101" s="116">
+      <c r="A101" s="121">
         <v>33</v>
       </c>
       <c r="B101" s="44" t="s">
@@ -4769,19 +4769,19 @@
       <c r="H101" s="68" t="s">
         <v>5</v>
       </c>
-      <c r="I101" s="136" t="s">
+      <c r="I101" s="141" t="s">
         <v>4</v>
       </c>
-      <c r="J101" s="122">
+      <c r="J101" s="129">
         <v>62</v>
       </c>
-      <c r="K101" s="122">
+      <c r="K101" s="129">
         <v>4</v>
       </c>
-      <c r="L101" s="115"/>
+      <c r="L101" s="119"/>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A102" s="117"/>
+      <c r="A102" s="122"/>
       <c r="B102" s="48" t="s">
         <v>25</v>
       </c>
@@ -4801,13 +4801,13 @@
       <c r="H102" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="I102" s="137"/>
-      <c r="J102" s="123"/>
-      <c r="K102" s="123"/>
-      <c r="L102" s="115"/>
+      <c r="I102" s="125"/>
+      <c r="J102" s="130"/>
+      <c r="K102" s="130"/>
+      <c r="L102" s="119"/>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A103" s="117"/>
+      <c r="A103" s="122"/>
       <c r="B103" s="48" t="s">
         <v>27</v>
       </c>
@@ -4829,13 +4829,13 @@
       <c r="H103" s="94" t="s">
         <v>11</v>
       </c>
-      <c r="I103" s="137"/>
-      <c r="J103" s="123"/>
-      <c r="K103" s="123"/>
-      <c r="L103" s="115"/>
+      <c r="I103" s="125"/>
+      <c r="J103" s="130"/>
+      <c r="K103" s="130"/>
+      <c r="L103" s="119"/>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A104" s="118"/>
+      <c r="A104" s="123"/>
       <c r="B104" s="70" t="s">
         <v>41</v>
       </c>
@@ -4857,13 +4857,13 @@
       <c r="H104" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="I104" s="138"/>
-      <c r="J104" s="124"/>
-      <c r="K104" s="124"/>
+      <c r="I104" s="142"/>
+      <c r="J104" s="131"/>
+      <c r="K104" s="131"/>
       <c r="L104" s="90"/>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A105" s="133">
+      <c r="A105" s="143">
         <v>34</v>
       </c>
       <c r="B105" s="101" t="s">
@@ -4885,19 +4885,19 @@
       <c r="H105" s="101" t="s">
         <v>8</v>
       </c>
-      <c r="I105" s="136" t="s">
+      <c r="I105" s="141" t="s">
         <v>4</v>
       </c>
-      <c r="J105" s="126">
+      <c r="J105" s="138">
         <v>58</v>
       </c>
-      <c r="K105" s="126">
+      <c r="K105" s="138">
         <v>3</v>
       </c>
-      <c r="L105" s="185"/>
+      <c r="L105" s="174"/>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A106" s="134"/>
+      <c r="A106" s="144"/>
       <c r="B106" s="101" t="s">
         <v>25</v>
       </c>
@@ -4920,13 +4920,13 @@
       <c r="H106" s="98" t="s">
         <v>11</v>
       </c>
-      <c r="I106" s="137"/>
-      <c r="J106" s="127"/>
-      <c r="K106" s="127"/>
-      <c r="L106" s="185"/>
+      <c r="I106" s="125"/>
+      <c r="J106" s="139"/>
+      <c r="K106" s="139"/>
+      <c r="L106" s="174"/>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A107" s="134"/>
+      <c r="A107" s="144"/>
       <c r="B107" s="98" t="s">
         <v>27</v>
       </c>
@@ -4946,13 +4946,13 @@
       <c r="H107" s="98" t="s">
         <v>11</v>
       </c>
-      <c r="I107" s="137"/>
-      <c r="J107" s="127"/>
-      <c r="K107" s="127"/>
-      <c r="L107" s="185"/>
+      <c r="I107" s="125"/>
+      <c r="J107" s="139"/>
+      <c r="K107" s="139"/>
+      <c r="L107" s="174"/>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A108" s="134"/>
+      <c r="A108" s="144"/>
       <c r="B108" s="18" t="s">
         <v>41</v>
       </c>
@@ -4974,13 +4974,13 @@
       <c r="H108" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="I108" s="138"/>
-      <c r="J108" s="128"/>
-      <c r="K108" s="128"/>
+      <c r="I108" s="142"/>
+      <c r="J108" s="140"/>
+      <c r="K108" s="140"/>
       <c r="L108" s="89"/>
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A109" s="169">
+      <c r="A109" s="153">
         <v>35</v>
       </c>
       <c r="B109" s="44" t="s">
@@ -5002,19 +5002,19 @@
       <c r="H109" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="I109" s="136" t="s">
+      <c r="I109" s="141" t="s">
         <v>4</v>
       </c>
-      <c r="J109" s="122">
+      <c r="J109" s="129">
         <v>40</v>
       </c>
-      <c r="K109" s="139">
+      <c r="K109" s="149">
         <v>2</v>
       </c>
-      <c r="L109" s="115"/>
+      <c r="L109" s="119"/>
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A110" s="170"/>
+      <c r="A110" s="154"/>
       <c r="B110" s="44" t="s">
         <v>25</v>
       </c>
@@ -5034,13 +5034,13 @@
       <c r="H110" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="I110" s="137"/>
-      <c r="J110" s="123"/>
-      <c r="K110" s="140"/>
-      <c r="L110" s="115"/>
+      <c r="I110" s="125"/>
+      <c r="J110" s="130"/>
+      <c r="K110" s="173"/>
+      <c r="L110" s="119"/>
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A111" s="171"/>
+      <c r="A111" s="155"/>
       <c r="B111" s="17" t="s">
         <v>27</v>
       </c>
@@ -5060,13 +5060,13 @@
       <c r="H111" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="I111" s="138"/>
-      <c r="J111" s="124"/>
-      <c r="K111" s="141"/>
-      <c r="L111" s="115"/>
+      <c r="I111" s="142"/>
+      <c r="J111" s="131"/>
+      <c r="K111" s="150"/>
+      <c r="L111" s="119"/>
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A112" s="182">
+      <c r="A112" s="132">
         <v>36</v>
       </c>
       <c r="B112" s="49" t="s">
@@ -5090,19 +5090,19 @@
       <c r="H112" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="I112" s="119" t="s">
+      <c r="I112" s="146" t="s">
         <v>0</v>
       </c>
-      <c r="J112" s="126">
+      <c r="J112" s="138">
         <v>152</v>
       </c>
-      <c r="K112" s="129">
+      <c r="K112" s="151">
         <v>8</v>
       </c>
-      <c r="L112" s="181"/>
+      <c r="L112" s="170"/>
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A113" s="183"/>
+      <c r="A113" s="133"/>
       <c r="B113" s="52" t="s">
         <v>25</v>
       </c>
@@ -5122,13 +5122,13 @@
       <c r="H113" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="I113" s="120"/>
-      <c r="J113" s="127"/>
-      <c r="K113" s="130"/>
-      <c r="L113" s="181"/>
+      <c r="I113" s="147"/>
+      <c r="J113" s="139"/>
+      <c r="K113" s="171"/>
+      <c r="L113" s="170"/>
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A114" s="184"/>
+      <c r="A114" s="134"/>
       <c r="B114" s="18" t="s">
         <v>27</v>
       </c>
@@ -5148,13 +5148,13 @@
       <c r="H114" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="I114" s="121"/>
-      <c r="J114" s="128"/>
-      <c r="K114" s="131"/>
-      <c r="L114" s="181"/>
+      <c r="I114" s="148"/>
+      <c r="J114" s="140"/>
+      <c r="K114" s="152"/>
+      <c r="L114" s="170"/>
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A115" s="116">
+      <c r="A115" s="121">
         <v>37</v>
       </c>
       <c r="B115" s="44" t="s">
@@ -5176,19 +5176,19 @@
       <c r="H115" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="I115" s="119" t="s">
+      <c r="I115" s="146" t="s">
         <v>0</v>
       </c>
-      <c r="J115" s="122">
+      <c r="J115" s="129">
         <v>55</v>
       </c>
-      <c r="K115" s="139">
+      <c r="K115" s="149">
         <v>3</v>
       </c>
-      <c r="L115" s="115"/>
+      <c r="L115" s="119"/>
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A116" s="117"/>
+      <c r="A116" s="122"/>
       <c r="B116" s="44" t="s">
         <v>25</v>
       </c>
@@ -5208,13 +5208,13 @@
       <c r="H116" s="68" t="s">
         <v>40</v>
       </c>
-      <c r="I116" s="120"/>
-      <c r="J116" s="123"/>
-      <c r="K116" s="140"/>
-      <c r="L116" s="115"/>
+      <c r="I116" s="147"/>
+      <c r="J116" s="130"/>
+      <c r="K116" s="173"/>
+      <c r="L116" s="119"/>
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A117" s="118"/>
+      <c r="A117" s="123"/>
       <c r="B117" s="17" t="s">
         <v>27</v>
       </c>
@@ -5236,13 +5236,13 @@
       <c r="H117" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="I117" s="121"/>
-      <c r="J117" s="124"/>
-      <c r="K117" s="141"/>
-      <c r="L117" s="115"/>
+      <c r="I117" s="148"/>
+      <c r="J117" s="131"/>
+      <c r="K117" s="150"/>
+      <c r="L117" s="119"/>
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A118" s="133">
+      <c r="A118" s="143">
         <v>38</v>
       </c>
       <c r="B118" s="49" t="s">
@@ -5264,19 +5264,19 @@
       <c r="H118" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="I118" s="125" t="s">
+      <c r="I118" s="172" t="s">
         <v>0</v>
       </c>
-      <c r="J118" s="126">
+      <c r="J118" s="138">
         <v>61</v>
       </c>
-      <c r="K118" s="129">
+      <c r="K118" s="151">
         <v>3</v>
       </c>
-      <c r="L118" s="132"/>
+      <c r="L118" s="120"/>
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A119" s="134"/>
+      <c r="A119" s="144"/>
       <c r="B119" s="49" t="s">
         <v>25</v>
       </c>
@@ -5296,13 +5296,13 @@
       <c r="H119" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="I119" s="125"/>
-      <c r="J119" s="127"/>
-      <c r="K119" s="130"/>
-      <c r="L119" s="132"/>
+      <c r="I119" s="172"/>
+      <c r="J119" s="139"/>
+      <c r="K119" s="171"/>
+      <c r="L119" s="120"/>
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A120" s="134"/>
+      <c r="A120" s="144"/>
       <c r="B120" s="52" t="s">
         <v>27</v>
       </c>
@@ -5322,13 +5322,13 @@
       <c r="H120" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="I120" s="125"/>
-      <c r="J120" s="127"/>
-      <c r="K120" s="130"/>
-      <c r="L120" s="132"/>
+      <c r="I120" s="172"/>
+      <c r="J120" s="139"/>
+      <c r="K120" s="171"/>
+      <c r="L120" s="120"/>
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A121" s="134"/>
+      <c r="A121" s="144"/>
       <c r="B121" s="52" t="s">
         <v>41</v>
       </c>
@@ -5348,13 +5348,13 @@
       <c r="H121" s="52" t="s">
         <v>40</v>
       </c>
-      <c r="I121" s="125"/>
-      <c r="J121" s="127"/>
-      <c r="K121" s="130"/>
-      <c r="L121" s="132"/>
+      <c r="I121" s="172"/>
+      <c r="J121" s="139"/>
+      <c r="K121" s="171"/>
+      <c r="L121" s="120"/>
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A122" s="135"/>
+      <c r="A122" s="145"/>
       <c r="B122" s="18" t="s">
         <v>44</v>
       </c>
@@ -5376,13 +5376,13 @@
       <c r="H122" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="I122" s="125"/>
-      <c r="J122" s="128"/>
-      <c r="K122" s="131"/>
-      <c r="L122" s="132"/>
+      <c r="I122" s="172"/>
+      <c r="J122" s="140"/>
+      <c r="K122" s="152"/>
+      <c r="L122" s="120"/>
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A123" s="116">
+      <c r="A123" s="121">
         <v>39</v>
       </c>
       <c r="B123" s="44" t="s">
@@ -5404,19 +5404,19 @@
       <c r="H123" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="I123" s="125" t="s">
+      <c r="I123" s="172" t="s">
         <v>0</v>
       </c>
-      <c r="J123" s="157">
+      <c r="J123" s="159">
         <v>20</v>
       </c>
-      <c r="K123" s="139">
+      <c r="K123" s="149">
         <v>1</v>
       </c>
-      <c r="L123" s="115"/>
+      <c r="L123" s="119"/>
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A124" s="117"/>
+      <c r="A124" s="122"/>
       <c r="B124" s="44" t="s">
         <v>25</v>
       </c>
@@ -5436,13 +5436,13 @@
       <c r="H124" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="I124" s="125"/>
-      <c r="J124" s="158"/>
-      <c r="K124" s="140"/>
-      <c r="L124" s="115"/>
+      <c r="I124" s="172"/>
+      <c r="J124" s="160"/>
+      <c r="K124" s="173"/>
+      <c r="L124" s="119"/>
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A125" s="117"/>
+      <c r="A125" s="122"/>
       <c r="B125" s="48" t="s">
         <v>27</v>
       </c>
@@ -5462,13 +5462,13 @@
       <c r="H125" s="60" t="s">
         <v>40</v>
       </c>
-      <c r="I125" s="125"/>
-      <c r="J125" s="158"/>
-      <c r="K125" s="140"/>
-      <c r="L125" s="115"/>
+      <c r="I125" s="172"/>
+      <c r="J125" s="160"/>
+      <c r="K125" s="173"/>
+      <c r="L125" s="119"/>
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A126" s="118"/>
+      <c r="A126" s="123"/>
       <c r="B126" s="17" t="s">
         <v>41</v>
       </c>
@@ -5490,13 +5490,13 @@
       <c r="H126" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="I126" s="125"/>
-      <c r="J126" s="159"/>
-      <c r="K126" s="141"/>
-      <c r="L126" s="115"/>
+      <c r="I126" s="172"/>
+      <c r="J126" s="161"/>
+      <c r="K126" s="150"/>
+      <c r="L126" s="119"/>
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A127" s="133">
+      <c r="A127" s="143">
         <v>40</v>
       </c>
       <c r="B127" s="49" t="s">
@@ -5518,19 +5518,19 @@
       <c r="H127" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="I127" s="125" t="s">
+      <c r="I127" s="172" t="s">
         <v>0</v>
       </c>
-      <c r="J127" s="129">
+      <c r="J127" s="151">
         <v>17</v>
       </c>
-      <c r="K127" s="163">
+      <c r="K127" s="176">
         <v>1</v>
       </c>
-      <c r="L127" s="132"/>
+      <c r="L127" s="120"/>
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A128" s="134"/>
+      <c r="A128" s="144"/>
       <c r="B128" s="49" t="s">
         <v>25</v>
       </c>
@@ -5550,13 +5550,13 @@
       <c r="H128" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="I128" s="125"/>
-      <c r="J128" s="130"/>
-      <c r="K128" s="164"/>
-      <c r="L128" s="132"/>
+      <c r="I128" s="172"/>
+      <c r="J128" s="171"/>
+      <c r="K128" s="178"/>
+      <c r="L128" s="120"/>
     </row>
     <row r="129" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A129" s="134"/>
+      <c r="A129" s="144"/>
       <c r="B129" s="52" t="s">
         <v>27</v>
       </c>
@@ -5576,13 +5576,13 @@
       <c r="H129" s="52" t="s">
         <v>40</v>
       </c>
-      <c r="I129" s="125"/>
-      <c r="J129" s="130"/>
-      <c r="K129" s="164"/>
-      <c r="L129" s="132"/>
+      <c r="I129" s="172"/>
+      <c r="J129" s="171"/>
+      <c r="K129" s="178"/>
+      <c r="L129" s="120"/>
     </row>
     <row r="130" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A130" s="135"/>
+      <c r="A130" s="145"/>
       <c r="B130" s="40" t="s">
         <v>41</v>
       </c>
@@ -5604,10 +5604,10 @@
       <c r="H130" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="I130" s="125"/>
-      <c r="J130" s="131"/>
-      <c r="K130" s="165"/>
-      <c r="L130" s="132"/>
+      <c r="I130" s="172"/>
+      <c r="J130" s="152"/>
+      <c r="K130" s="177"/>
+      <c r="L130" s="120"/>
     </row>
     <row r="131" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A131" s="14">
@@ -5626,7 +5626,7 @@
       <c r="L131" s="82"/>
     </row>
     <row r="132" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A132" s="182">
+      <c r="A132" s="132">
         <v>42</v>
       </c>
       <c r="B132" s="101" t="s">
@@ -5648,19 +5648,19 @@
       <c r="H132" s="98" t="s">
         <v>11</v>
       </c>
-      <c r="I132" s="136" t="s">
+      <c r="I132" s="141" t="s">
         <v>4</v>
       </c>
-      <c r="J132" s="126">
+      <c r="J132" s="138">
         <v>41</v>
       </c>
-      <c r="K132" s="126">
+      <c r="K132" s="138">
         <v>3</v>
       </c>
-      <c r="L132" s="132"/>
+      <c r="L132" s="120"/>
     </row>
     <row r="133" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="183"/>
+      <c r="A133" s="133"/>
       <c r="B133" s="98" t="s">
         <v>25</v>
       </c>
@@ -5680,13 +5680,13 @@
       <c r="H133" s="98" t="s">
         <v>1</v>
       </c>
-      <c r="I133" s="137"/>
-      <c r="J133" s="127"/>
-      <c r="K133" s="127"/>
-      <c r="L133" s="132"/>
+      <c r="I133" s="125"/>
+      <c r="J133" s="139"/>
+      <c r="K133" s="139"/>
+      <c r="L133" s="120"/>
     </row>
     <row r="134" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="183"/>
+      <c r="A134" s="133"/>
       <c r="B134" s="98" t="s">
         <v>27</v>
       </c>
@@ -5706,13 +5706,13 @@
       <c r="H134" s="98" t="s">
         <v>8</v>
       </c>
-      <c r="I134" s="137"/>
-      <c r="J134" s="127"/>
-      <c r="K134" s="127"/>
-      <c r="L134" s="132"/>
+      <c r="I134" s="125"/>
+      <c r="J134" s="139"/>
+      <c r="K134" s="139"/>
+      <c r="L134" s="120"/>
     </row>
     <row r="135" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="184"/>
+      <c r="A135" s="134"/>
       <c r="B135" s="18" t="s">
         <v>41</v>
       </c>
@@ -5734,13 +5734,13 @@
       <c r="H135" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="I135" s="138"/>
-      <c r="J135" s="128"/>
-      <c r="K135" s="128"/>
+      <c r="I135" s="142"/>
+      <c r="J135" s="140"/>
+      <c r="K135" s="140"/>
       <c r="L135" s="88"/>
     </row>
     <row r="136" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A136" s="116">
+      <c r="A136" s="121">
         <v>43</v>
       </c>
       <c r="B136" s="44" t="s">
@@ -5764,19 +5764,19 @@
       <c r="H136" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="I136" s="149" t="s">
+      <c r="I136" s="124" t="s">
         <v>4</v>
       </c>
-      <c r="J136" s="190">
+      <c r="J136" s="126">
         <v>77</v>
       </c>
-      <c r="K136" s="122">
+      <c r="K136" s="129">
         <v>4</v>
       </c>
-      <c r="L136" s="115"/>
+      <c r="L136" s="119"/>
     </row>
     <row r="137" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A137" s="117"/>
+      <c r="A137" s="122"/>
       <c r="B137" s="48" t="s">
         <v>25</v>
       </c>
@@ -5796,13 +5796,13 @@
       <c r="H137" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="I137" s="137"/>
-      <c r="J137" s="191"/>
-      <c r="K137" s="123"/>
-      <c r="L137" s="115"/>
+      <c r="I137" s="125"/>
+      <c r="J137" s="127"/>
+      <c r="K137" s="130"/>
+      <c r="L137" s="119"/>
     </row>
     <row r="138" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A138" s="117"/>
+      <c r="A138" s="122"/>
       <c r="B138" s="48" t="s">
         <v>27</v>
       </c>
@@ -5822,13 +5822,13 @@
       <c r="H138" s="60" t="s">
         <v>40</v>
       </c>
-      <c r="I138" s="137"/>
-      <c r="J138" s="191"/>
-      <c r="K138" s="123"/>
-      <c r="L138" s="115"/>
+      <c r="I138" s="125"/>
+      <c r="J138" s="127"/>
+      <c r="K138" s="130"/>
+      <c r="L138" s="119"/>
     </row>
     <row r="139" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A139" s="117"/>
+      <c r="A139" s="122"/>
       <c r="B139" s="100" t="s">
         <v>41</v>
       </c>
@@ -5848,13 +5848,13 @@
       <c r="H139" s="100" t="s">
         <v>8</v>
       </c>
-      <c r="I139" s="137"/>
-      <c r="J139" s="191"/>
-      <c r="K139" s="123"/>
-      <c r="L139" s="115"/>
+      <c r="I139" s="125"/>
+      <c r="J139" s="127"/>
+      <c r="K139" s="130"/>
+      <c r="L139" s="119"/>
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A140" s="118"/>
+      <c r="A140" s="123"/>
       <c r="B140" s="17" t="s">
         <v>44</v>
       </c>
@@ -5876,13 +5876,13 @@
       <c r="H140" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="I140" s="137"/>
-      <c r="J140" s="192"/>
-      <c r="K140" s="124"/>
+      <c r="I140" s="125"/>
+      <c r="J140" s="128"/>
+      <c r="K140" s="131"/>
       <c r="L140" s="90"/>
     </row>
     <row r="141" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A141" s="182">
+      <c r="A141" s="132">
         <v>44</v>
       </c>
       <c r="B141" s="49" t="s">
@@ -5904,19 +5904,19 @@
       <c r="H141" s="52" t="s">
         <v>40</v>
       </c>
-      <c r="I141" s="149" t="s">
+      <c r="I141" s="124" t="s">
         <v>4</v>
       </c>
-      <c r="J141" s="186">
+      <c r="J141" s="135">
         <v>39</v>
       </c>
-      <c r="K141" s="126">
+      <c r="K141" s="138">
         <v>3</v>
       </c>
-      <c r="L141" s="132"/>
+      <c r="L141" s="120"/>
     </row>
     <row r="142" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A142" s="183"/>
+      <c r="A142" s="133"/>
       <c r="B142" s="52" t="s">
         <v>25</v>
       </c>
@@ -5936,13 +5936,13 @@
       <c r="H142" s="98" t="s">
         <v>8</v>
       </c>
-      <c r="I142" s="137"/>
-      <c r="J142" s="187"/>
-      <c r="K142" s="127"/>
-      <c r="L142" s="132"/>
+      <c r="I142" s="125"/>
+      <c r="J142" s="136"/>
+      <c r="K142" s="139"/>
+      <c r="L142" s="120"/>
     </row>
     <row r="143" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A143" s="184"/>
+      <c r="A143" s="134"/>
       <c r="B143" s="18" t="s">
         <v>27</v>
       </c>
@@ -5964,13 +5964,13 @@
       <c r="H143" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="I143" s="137"/>
-      <c r="J143" s="188"/>
-      <c r="K143" s="128"/>
+      <c r="I143" s="125"/>
+      <c r="J143" s="137"/>
+      <c r="K143" s="140"/>
       <c r="L143" s="88"/>
     </row>
     <row r="144" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A144" s="116">
+      <c r="A144" s="121">
         <v>45</v>
       </c>
       <c r="B144" s="44" t="s">
@@ -5992,19 +5992,19 @@
       <c r="H144" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="I144" s="119" t="s">
+      <c r="I144" s="146" t="s">
         <v>0</v>
       </c>
-      <c r="J144" s="122">
+      <c r="J144" s="129">
         <v>53</v>
       </c>
-      <c r="K144" s="139">
+      <c r="K144" s="149">
         <v>3</v>
       </c>
-      <c r="L144" s="115"/>
+      <c r="L144" s="119"/>
     </row>
     <row r="145" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A145" s="176"/>
+      <c r="A145" s="165"/>
       <c r="B145" s="33" t="s">
         <v>25</v>
       </c>
@@ -6024,14 +6024,189 @@
       <c r="H145" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="I145" s="177"/>
-      <c r="J145" s="178"/>
-      <c r="K145" s="179"/>
-      <c r="L145" s="180"/>
+      <c r="I145" s="166"/>
+      <c r="J145" s="167"/>
+      <c r="K145" s="168"/>
+      <c r="L145" s="169"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:L145"/>
   <mergeCells count="199">
+    <mergeCell ref="L29:L32"/>
+    <mergeCell ref="A34:A37"/>
+    <mergeCell ref="I34:I37"/>
+    <mergeCell ref="J34:J37"/>
+    <mergeCell ref="K34:K37"/>
+    <mergeCell ref="L34:L37"/>
+    <mergeCell ref="I118:I122"/>
+    <mergeCell ref="J118:J122"/>
+    <mergeCell ref="K118:K122"/>
+    <mergeCell ref="L118:L122"/>
+    <mergeCell ref="A118:A122"/>
+    <mergeCell ref="J89:J91"/>
+    <mergeCell ref="A83:A85"/>
+    <mergeCell ref="I83:I85"/>
+    <mergeCell ref="J83:J85"/>
+    <mergeCell ref="K83:K85"/>
+    <mergeCell ref="L83:L85"/>
+    <mergeCell ref="A79:A82"/>
+    <mergeCell ref="I79:I82"/>
+    <mergeCell ref="J79:J82"/>
+    <mergeCell ref="K79:K82"/>
+    <mergeCell ref="L79:L82"/>
+    <mergeCell ref="A115:A117"/>
+    <mergeCell ref="I115:I117"/>
+    <mergeCell ref="I2:I6"/>
+    <mergeCell ref="J2:J6"/>
+    <mergeCell ref="K2:K6"/>
+    <mergeCell ref="L2:L6"/>
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="L7:L11"/>
+    <mergeCell ref="A7:A12"/>
+    <mergeCell ref="I7:I12"/>
+    <mergeCell ref="J7:J12"/>
+    <mergeCell ref="K7:K12"/>
+    <mergeCell ref="L26:L27"/>
+    <mergeCell ref="A23:A25"/>
+    <mergeCell ref="I23:I25"/>
+    <mergeCell ref="J23:J25"/>
+    <mergeCell ref="K23:K25"/>
+    <mergeCell ref="L23:L25"/>
+    <mergeCell ref="A26:A28"/>
+    <mergeCell ref="I26:I28"/>
+    <mergeCell ref="J26:J28"/>
+    <mergeCell ref="K26:K28"/>
+    <mergeCell ref="L141:L142"/>
+    <mergeCell ref="A127:A130"/>
+    <mergeCell ref="I127:I130"/>
+    <mergeCell ref="J127:J130"/>
+    <mergeCell ref="K127:K130"/>
+    <mergeCell ref="L127:L130"/>
+    <mergeCell ref="L132:L134"/>
+    <mergeCell ref="L65:L67"/>
+    <mergeCell ref="I38:I40"/>
+    <mergeCell ref="J38:J40"/>
+    <mergeCell ref="K38:K40"/>
+    <mergeCell ref="L38:L40"/>
+    <mergeCell ref="A38:A40"/>
+    <mergeCell ref="A76:A78"/>
+    <mergeCell ref="J76:J78"/>
+    <mergeCell ref="K76:K78"/>
+    <mergeCell ref="L76:L78"/>
+    <mergeCell ref="I54:I56"/>
+    <mergeCell ref="J41:J42"/>
+    <mergeCell ref="K41:K42"/>
+    <mergeCell ref="L41:L42"/>
+    <mergeCell ref="A51:A53"/>
+    <mergeCell ref="L136:L139"/>
+    <mergeCell ref="K89:K91"/>
+    <mergeCell ref="J115:J117"/>
+    <mergeCell ref="K115:K117"/>
+    <mergeCell ref="L115:L117"/>
+    <mergeCell ref="A123:A126"/>
+    <mergeCell ref="I123:I126"/>
+    <mergeCell ref="J123:J126"/>
+    <mergeCell ref="A109:A111"/>
+    <mergeCell ref="I109:I111"/>
+    <mergeCell ref="J109:J111"/>
+    <mergeCell ref="K109:K111"/>
+    <mergeCell ref="L109:L111"/>
+    <mergeCell ref="K123:K126"/>
+    <mergeCell ref="L123:L126"/>
+    <mergeCell ref="A97:A100"/>
+    <mergeCell ref="J97:J100"/>
+    <mergeCell ref="K97:K100"/>
+    <mergeCell ref="L97:L100"/>
+    <mergeCell ref="L101:L103"/>
+    <mergeCell ref="I76:I78"/>
+    <mergeCell ref="K48:K49"/>
+    <mergeCell ref="L48:L49"/>
+    <mergeCell ref="K86:K88"/>
+    <mergeCell ref="L51:L53"/>
+    <mergeCell ref="L69:L71"/>
+    <mergeCell ref="A69:A71"/>
+    <mergeCell ref="J69:J71"/>
+    <mergeCell ref="K69:K71"/>
+    <mergeCell ref="I51:I53"/>
+    <mergeCell ref="K72:K73"/>
+    <mergeCell ref="L74:L75"/>
+    <mergeCell ref="I74:I75"/>
+    <mergeCell ref="L61:L63"/>
+    <mergeCell ref="J57:J60"/>
+    <mergeCell ref="K57:K60"/>
+    <mergeCell ref="A61:A64"/>
+    <mergeCell ref="I61:I64"/>
+    <mergeCell ref="J61:J64"/>
+    <mergeCell ref="A65:A68"/>
+    <mergeCell ref="I65:I68"/>
+    <mergeCell ref="J65:J68"/>
+    <mergeCell ref="K65:K68"/>
+    <mergeCell ref="L57:L59"/>
+    <mergeCell ref="J51:J53"/>
+    <mergeCell ref="K51:K53"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="I43:I44"/>
+    <mergeCell ref="J43:J44"/>
+    <mergeCell ref="K43:K44"/>
+    <mergeCell ref="L43:L44"/>
+    <mergeCell ref="A45:A47"/>
+    <mergeCell ref="I45:I47"/>
+    <mergeCell ref="J45:J47"/>
+    <mergeCell ref="K45:K47"/>
+    <mergeCell ref="L45:L47"/>
+    <mergeCell ref="J54:J56"/>
+    <mergeCell ref="K54:K56"/>
+    <mergeCell ref="L54:L56"/>
+    <mergeCell ref="A57:A60"/>
+    <mergeCell ref="I57:I60"/>
+    <mergeCell ref="A144:A145"/>
+    <mergeCell ref="I144:I145"/>
+    <mergeCell ref="J144:J145"/>
+    <mergeCell ref="K144:K145"/>
+    <mergeCell ref="L144:L145"/>
+    <mergeCell ref="L86:L88"/>
+    <mergeCell ref="L89:L90"/>
+    <mergeCell ref="I86:I88"/>
+    <mergeCell ref="L112:L114"/>
+    <mergeCell ref="J112:J114"/>
+    <mergeCell ref="K112:K114"/>
+    <mergeCell ref="A86:A88"/>
+    <mergeCell ref="A112:A114"/>
+    <mergeCell ref="I112:I114"/>
+    <mergeCell ref="I89:I91"/>
+    <mergeCell ref="A92:A96"/>
+    <mergeCell ref="I92:I96"/>
+    <mergeCell ref="J92:J96"/>
+    <mergeCell ref="K92:K96"/>
+    <mergeCell ref="L105:L107"/>
+    <mergeCell ref="L92:L96"/>
+    <mergeCell ref="I97:I100"/>
+    <mergeCell ref="J86:J88"/>
+    <mergeCell ref="A89:A90"/>
+    <mergeCell ref="J72:J73"/>
+    <mergeCell ref="I69:I71"/>
+    <mergeCell ref="A74:A75"/>
+    <mergeCell ref="J74:J75"/>
+    <mergeCell ref="K74:K75"/>
+    <mergeCell ref="A14:A18"/>
+    <mergeCell ref="J14:J18"/>
+    <mergeCell ref="K14:K18"/>
+    <mergeCell ref="I14:I18"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="I19:I21"/>
+    <mergeCell ref="J19:J21"/>
+    <mergeCell ref="K19:K21"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="I41:I42"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="I48:I49"/>
+    <mergeCell ref="J48:J49"/>
+    <mergeCell ref="A54:A56"/>
+    <mergeCell ref="A29:A32"/>
+    <mergeCell ref="J29:J32"/>
+    <mergeCell ref="K29:K32"/>
+    <mergeCell ref="I29:I32"/>
+    <mergeCell ref="K61:K64"/>
     <mergeCell ref="L19:L21"/>
     <mergeCell ref="L14:L17"/>
     <mergeCell ref="A136:A140"/>
@@ -6056,181 +6231,6 @@
     <mergeCell ref="K132:K135"/>
     <mergeCell ref="A72:A73"/>
     <mergeCell ref="I72:I73"/>
-    <mergeCell ref="J72:J73"/>
-    <mergeCell ref="I69:I71"/>
-    <mergeCell ref="A74:A75"/>
-    <mergeCell ref="J74:J75"/>
-    <mergeCell ref="K74:K75"/>
-    <mergeCell ref="A14:A18"/>
-    <mergeCell ref="J14:J18"/>
-    <mergeCell ref="K14:K18"/>
-    <mergeCell ref="I14:I18"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="I19:I21"/>
-    <mergeCell ref="J19:J21"/>
-    <mergeCell ref="K19:K21"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="I41:I42"/>
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="I48:I49"/>
-    <mergeCell ref="J48:J49"/>
-    <mergeCell ref="A54:A56"/>
-    <mergeCell ref="A29:A32"/>
-    <mergeCell ref="J29:J32"/>
-    <mergeCell ref="K29:K32"/>
-    <mergeCell ref="I29:I32"/>
-    <mergeCell ref="K61:K64"/>
-    <mergeCell ref="A144:A145"/>
-    <mergeCell ref="I144:I145"/>
-    <mergeCell ref="J144:J145"/>
-    <mergeCell ref="K144:K145"/>
-    <mergeCell ref="L144:L145"/>
-    <mergeCell ref="L86:L88"/>
-    <mergeCell ref="L89:L90"/>
-    <mergeCell ref="I86:I88"/>
-    <mergeCell ref="L112:L114"/>
-    <mergeCell ref="J112:J114"/>
-    <mergeCell ref="K112:K114"/>
-    <mergeCell ref="A86:A88"/>
-    <mergeCell ref="A112:A114"/>
-    <mergeCell ref="I112:I114"/>
-    <mergeCell ref="I89:I91"/>
-    <mergeCell ref="A92:A96"/>
-    <mergeCell ref="I92:I96"/>
-    <mergeCell ref="J92:J96"/>
-    <mergeCell ref="K92:K96"/>
-    <mergeCell ref="L105:L107"/>
-    <mergeCell ref="L92:L96"/>
-    <mergeCell ref="I97:I100"/>
-    <mergeCell ref="J86:J88"/>
-    <mergeCell ref="A89:A90"/>
-    <mergeCell ref="A65:A68"/>
-    <mergeCell ref="I65:I68"/>
-    <mergeCell ref="J65:J68"/>
-    <mergeCell ref="K65:K68"/>
-    <mergeCell ref="L57:L59"/>
-    <mergeCell ref="J51:J53"/>
-    <mergeCell ref="K51:K53"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="I43:I44"/>
-    <mergeCell ref="J43:J44"/>
-    <mergeCell ref="K43:K44"/>
-    <mergeCell ref="L43:L44"/>
-    <mergeCell ref="A45:A47"/>
-    <mergeCell ref="I45:I47"/>
-    <mergeCell ref="J45:J47"/>
-    <mergeCell ref="K45:K47"/>
-    <mergeCell ref="L45:L47"/>
-    <mergeCell ref="J54:J56"/>
-    <mergeCell ref="K54:K56"/>
-    <mergeCell ref="L54:L56"/>
-    <mergeCell ref="A57:A60"/>
-    <mergeCell ref="I57:I60"/>
-    <mergeCell ref="A97:A100"/>
-    <mergeCell ref="J97:J100"/>
-    <mergeCell ref="K97:K100"/>
-    <mergeCell ref="L97:L100"/>
-    <mergeCell ref="L101:L103"/>
-    <mergeCell ref="I76:I78"/>
-    <mergeCell ref="K48:K49"/>
-    <mergeCell ref="L48:L49"/>
-    <mergeCell ref="K86:K88"/>
-    <mergeCell ref="L51:L53"/>
-    <mergeCell ref="L69:L71"/>
-    <mergeCell ref="A69:A71"/>
-    <mergeCell ref="J69:J71"/>
-    <mergeCell ref="K69:K71"/>
-    <mergeCell ref="I51:I53"/>
-    <mergeCell ref="K72:K73"/>
-    <mergeCell ref="L74:L75"/>
-    <mergeCell ref="I74:I75"/>
-    <mergeCell ref="L61:L63"/>
-    <mergeCell ref="J57:J60"/>
-    <mergeCell ref="K57:K60"/>
-    <mergeCell ref="A61:A64"/>
-    <mergeCell ref="I61:I64"/>
-    <mergeCell ref="J61:J64"/>
-    <mergeCell ref="J115:J117"/>
-    <mergeCell ref="K115:K117"/>
-    <mergeCell ref="L115:L117"/>
-    <mergeCell ref="A123:A126"/>
-    <mergeCell ref="I123:I126"/>
-    <mergeCell ref="J123:J126"/>
-    <mergeCell ref="A109:A111"/>
-    <mergeCell ref="I109:I111"/>
-    <mergeCell ref="J109:J111"/>
-    <mergeCell ref="K109:K111"/>
-    <mergeCell ref="L109:L111"/>
-    <mergeCell ref="K123:K126"/>
-    <mergeCell ref="L123:L126"/>
-    <mergeCell ref="L141:L142"/>
-    <mergeCell ref="A127:A130"/>
-    <mergeCell ref="I127:I130"/>
-    <mergeCell ref="J127:J130"/>
-    <mergeCell ref="K127:K130"/>
-    <mergeCell ref="L127:L130"/>
-    <mergeCell ref="L132:L134"/>
-    <mergeCell ref="L65:L67"/>
-    <mergeCell ref="I38:I40"/>
-    <mergeCell ref="J38:J40"/>
-    <mergeCell ref="K38:K40"/>
-    <mergeCell ref="L38:L40"/>
-    <mergeCell ref="A38:A40"/>
-    <mergeCell ref="A76:A78"/>
-    <mergeCell ref="J76:J78"/>
-    <mergeCell ref="K76:K78"/>
-    <mergeCell ref="L76:L78"/>
-    <mergeCell ref="I54:I56"/>
-    <mergeCell ref="J41:J42"/>
-    <mergeCell ref="K41:K42"/>
-    <mergeCell ref="L41:L42"/>
-    <mergeCell ref="A51:A53"/>
-    <mergeCell ref="L136:L139"/>
-    <mergeCell ref="K89:K91"/>
-    <mergeCell ref="L26:L27"/>
-    <mergeCell ref="A23:A25"/>
-    <mergeCell ref="I23:I25"/>
-    <mergeCell ref="J23:J25"/>
-    <mergeCell ref="K23:K25"/>
-    <mergeCell ref="L23:L25"/>
-    <mergeCell ref="A26:A28"/>
-    <mergeCell ref="I26:I28"/>
-    <mergeCell ref="J26:J28"/>
-    <mergeCell ref="K26:K28"/>
-    <mergeCell ref="I2:I6"/>
-    <mergeCell ref="J2:J6"/>
-    <mergeCell ref="K2:K6"/>
-    <mergeCell ref="L2:L6"/>
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="L7:L11"/>
-    <mergeCell ref="A7:A12"/>
-    <mergeCell ref="I7:I12"/>
-    <mergeCell ref="J7:J12"/>
-    <mergeCell ref="K7:K12"/>
-    <mergeCell ref="L29:L32"/>
-    <mergeCell ref="A34:A37"/>
-    <mergeCell ref="I34:I37"/>
-    <mergeCell ref="J34:J37"/>
-    <mergeCell ref="K34:K37"/>
-    <mergeCell ref="L34:L37"/>
-    <mergeCell ref="I118:I122"/>
-    <mergeCell ref="J118:J122"/>
-    <mergeCell ref="K118:K122"/>
-    <mergeCell ref="L118:L122"/>
-    <mergeCell ref="A118:A122"/>
-    <mergeCell ref="J89:J91"/>
-    <mergeCell ref="A83:A85"/>
-    <mergeCell ref="I83:I85"/>
-    <mergeCell ref="J83:J85"/>
-    <mergeCell ref="K83:K85"/>
-    <mergeCell ref="L83:L85"/>
-    <mergeCell ref="A79:A82"/>
-    <mergeCell ref="I79:I82"/>
-    <mergeCell ref="J79:J82"/>
-    <mergeCell ref="K79:K82"/>
-    <mergeCell ref="L79:L82"/>
-    <mergeCell ref="A115:A117"/>
-    <mergeCell ref="I115:I117"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0" right="0" top="1.1811023622047244E-2" bottom="0.11811023622047245" header="0" footer="0"/>

--- a/sheet/CONTROLE_DE_TERRITORIO_2022.xlsx
+++ b/sheet/CONTROLE_DE_TERRITORIO_2022.xlsx
@@ -13,11 +13,10 @@
   </bookViews>
   <sheets>
     <sheet name="NOVA" sheetId="3" r:id="rId1"/>
-    <sheet name="Plan1" sheetId="4" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">NOVA!$A$1:$L$145</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">NOVA!$A$1:$K$145</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">NOVA!$A$1:$L$146</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">NOVA!$A$1:$K$146</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -29,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="47">
   <si>
     <t>OK</t>
   </si>
@@ -354,7 +353,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="47">
+  <borders count="43">
     <border>
       <left/>
       <right/>
@@ -782,43 +781,6 @@
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
       <right/>
       <top style="hair">
         <color indexed="64"/>
@@ -847,15 +809,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="hair">
         <color indexed="64"/>
       </left>
@@ -927,7 +880,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="197">
+  <cellXfs count="191">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1271,6 +1224,9 @@
     <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="31" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="9" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1298,19 +1254,19 @@
     <xf numFmtId="0" fontId="10" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="42" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="38" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="8" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1331,13 +1287,13 @@
     <xf numFmtId="0" fontId="12" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1412,15 +1368,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="25" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="24" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1463,25 +1410,13 @@
     <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="35" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="36" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="37" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="41" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1514,7 +1449,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="43" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="39" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1805,10 +1740,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L145"/>
+  <dimension ref="A1:L146"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="99" zoomScaleNormal="100" zoomScalePageLayoutView="45" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7:I12"/>
+    <sheetView tabSelected="1" topLeftCell="A94" zoomScale="99" zoomScaleNormal="100" zoomScalePageLayoutView="45" workbookViewId="0">
+      <selection activeCell="G109" sqref="G109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1869,7 +1804,7 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="193">
+      <c r="A2" s="187">
         <v>1</v>
       </c>
       <c r="B2" s="75" t="s">
@@ -1891,19 +1826,19 @@
       <c r="H2" s="78" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="189" t="s">
+      <c r="I2" s="183" t="s">
         <v>0</v>
       </c>
-      <c r="J2" s="190">
+      <c r="J2" s="184">
         <v>5</v>
       </c>
-      <c r="K2" s="191">
+      <c r="K2" s="185">
         <v>1</v>
       </c>
-      <c r="L2" s="192"/>
+      <c r="L2" s="186"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="194"/>
+      <c r="A3" s="188"/>
       <c r="B3" s="44" t="s">
         <v>25</v>
       </c>
@@ -1923,13 +1858,13 @@
       <c r="H3" s="48" t="s">
         <v>40</v>
       </c>
-      <c r="I3" s="172"/>
-      <c r="J3" s="130"/>
-      <c r="K3" s="173"/>
-      <c r="L3" s="119"/>
+      <c r="I3" s="170"/>
+      <c r="J3" s="131"/>
+      <c r="K3" s="171"/>
+      <c r="L3" s="120"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="194"/>
+      <c r="A4" s="188"/>
       <c r="B4" s="48" t="s">
         <v>27</v>
       </c>
@@ -1949,13 +1884,13 @@
       <c r="H4" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="172"/>
-      <c r="J4" s="130"/>
-      <c r="K4" s="173"/>
-      <c r="L4" s="119"/>
+      <c r="I4" s="170"/>
+      <c r="J4" s="131"/>
+      <c r="K4" s="171"/>
+      <c r="L4" s="120"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="194"/>
+      <c r="A5" s="188"/>
       <c r="B5" s="48" t="s">
         <v>41</v>
       </c>
@@ -1975,13 +1910,13 @@
       <c r="H5" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="172"/>
-      <c r="J5" s="130"/>
-      <c r="K5" s="173"/>
-      <c r="L5" s="119"/>
+      <c r="I5" s="170"/>
+      <c r="J5" s="131"/>
+      <c r="K5" s="171"/>
+      <c r="L5" s="120"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="195"/>
+      <c r="A6" s="189"/>
       <c r="B6" s="17" t="s">
         <v>44</v>
       </c>
@@ -2001,13 +1936,13 @@
       <c r="H6" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="I6" s="172"/>
-      <c r="J6" s="131"/>
-      <c r="K6" s="150"/>
-      <c r="L6" s="119"/>
+      <c r="I6" s="170"/>
+      <c r="J6" s="132"/>
+      <c r="K6" s="151"/>
+      <c r="L6" s="120"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="143">
+      <c r="A7" s="144">
         <v>2</v>
       </c>
       <c r="B7" s="101" t="s">
@@ -2029,19 +1964,19 @@
       <c r="H7" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="I7" s="124" t="s">
+      <c r="I7" s="125" t="s">
         <v>4</v>
       </c>
-      <c r="J7" s="138">
+      <c r="J7" s="139">
         <v>60</v>
       </c>
-      <c r="K7" s="138">
+      <c r="K7" s="139">
         <v>4</v>
       </c>
-      <c r="L7" s="120"/>
+      <c r="L7" s="121"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="144"/>
+      <c r="A8" s="145"/>
       <c r="B8" s="101" t="s">
         <v>25</v>
       </c>
@@ -2063,13 +1998,13 @@
       <c r="H8" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="I8" s="125"/>
-      <c r="J8" s="139"/>
-      <c r="K8" s="139"/>
-      <c r="L8" s="120"/>
+      <c r="I8" s="126"/>
+      <c r="J8" s="140"/>
+      <c r="K8" s="140"/>
+      <c r="L8" s="121"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="144"/>
+      <c r="A9" s="145"/>
       <c r="B9" s="98" t="s">
         <v>27</v>
       </c>
@@ -2089,13 +2024,13 @@
       <c r="H9" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="I9" s="125"/>
-      <c r="J9" s="139"/>
-      <c r="K9" s="139"/>
-      <c r="L9" s="120"/>
+      <c r="I9" s="126"/>
+      <c r="J9" s="140"/>
+      <c r="K9" s="140"/>
+      <c r="L9" s="121"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="144"/>
+      <c r="A10" s="145"/>
       <c r="B10" s="98" t="s">
         <v>41</v>
       </c>
@@ -2115,13 +2050,13 @@
       <c r="H10" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="I10" s="125"/>
-      <c r="J10" s="139"/>
-      <c r="K10" s="139"/>
-      <c r="L10" s="120"/>
+      <c r="I10" s="126"/>
+      <c r="J10" s="140"/>
+      <c r="K10" s="140"/>
+      <c r="L10" s="121"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="144"/>
+      <c r="A11" s="145"/>
       <c r="B11" s="98" t="s">
         <v>44</v>
       </c>
@@ -2141,13 +2076,13 @@
       <c r="H11" s="98" t="s">
         <v>8</v>
       </c>
-      <c r="I11" s="125"/>
-      <c r="J11" s="139"/>
-      <c r="K11" s="139"/>
-      <c r="L11" s="120"/>
+      <c r="I11" s="126"/>
+      <c r="J11" s="140"/>
+      <c r="K11" s="140"/>
+      <c r="L11" s="121"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="145"/>
+      <c r="A12" s="146"/>
       <c r="B12" s="18" t="s">
         <v>45</v>
       </c>
@@ -2169,9 +2104,9 @@
       <c r="H12" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="I12" s="196"/>
-      <c r="J12" s="140"/>
-      <c r="K12" s="140"/>
+      <c r="I12" s="190"/>
+      <c r="J12" s="141"/>
+      <c r="K12" s="141"/>
       <c r="L12" s="88"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
@@ -2179,20 +2114,20 @@
         <v>3</v>
       </c>
       <c r="B13" s="17"/>
-      <c r="C13" s="115">
+      <c r="C13" s="116">
         <v>44863</v>
       </c>
-      <c r="D13" s="115"/>
-      <c r="E13" s="115">
+      <c r="D13" s="116"/>
+      <c r="E13" s="116">
         <v>44864</v>
       </c>
-      <c r="F13" s="116" t="s">
+      <c r="F13" s="117" t="s">
         <v>7</v>
       </c>
-      <c r="G13" s="117" t="s">
+      <c r="G13" s="118" t="s">
         <v>24</v>
       </c>
-      <c r="H13" s="118" t="s">
+      <c r="H13" s="119" t="s">
         <v>8</v>
       </c>
       <c r="I13" s="79" t="s">
@@ -2207,7 +2142,7 @@
       <c r="L13" s="81"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="143">
+      <c r="A14" s="144">
         <v>4</v>
       </c>
       <c r="B14" s="101" t="s">
@@ -2231,19 +2166,19 @@
       <c r="H14" s="101" t="s">
         <v>1</v>
       </c>
-      <c r="I14" s="124" t="s">
+      <c r="I14" s="125" t="s">
         <v>4</v>
       </c>
-      <c r="J14" s="135">
+      <c r="J14" s="136">
         <v>59</v>
       </c>
-      <c r="K14" s="138">
+      <c r="K14" s="139">
         <v>4</v>
       </c>
-      <c r="L14" s="120"/>
+      <c r="L14" s="121"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="144"/>
+      <c r="A15" s="145"/>
       <c r="B15" s="101" t="s">
         <v>25</v>
       </c>
@@ -2263,13 +2198,13 @@
       <c r="H15" s="98" t="s">
         <v>40</v>
       </c>
-      <c r="I15" s="125"/>
-      <c r="J15" s="136"/>
-      <c r="K15" s="139"/>
-      <c r="L15" s="120"/>
+      <c r="I15" s="126"/>
+      <c r="J15" s="137"/>
+      <c r="K15" s="140"/>
+      <c r="L15" s="121"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="144"/>
+      <c r="A16" s="145"/>
       <c r="B16" s="98" t="s">
         <v>27</v>
       </c>
@@ -2289,13 +2224,13 @@
       <c r="H16" s="98" t="s">
         <v>8</v>
       </c>
-      <c r="I16" s="125"/>
-      <c r="J16" s="136"/>
-      <c r="K16" s="139"/>
-      <c r="L16" s="120"/>
+      <c r="I16" s="126"/>
+      <c r="J16" s="137"/>
+      <c r="K16" s="140"/>
+      <c r="L16" s="121"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="144"/>
+      <c r="A17" s="145"/>
       <c r="B17" s="98" t="s">
         <v>41</v>
       </c>
@@ -2315,13 +2250,13 @@
       <c r="H17" s="98" t="s">
         <v>8</v>
       </c>
-      <c r="I17" s="125"/>
-      <c r="J17" s="136"/>
-      <c r="K17" s="139"/>
-      <c r="L17" s="120"/>
+      <c r="I17" s="126"/>
+      <c r="J17" s="137"/>
+      <c r="K17" s="140"/>
+      <c r="L17" s="121"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="145"/>
+      <c r="A18" s="146"/>
       <c r="B18" s="18" t="s">
         <v>43</v>
       </c>
@@ -2343,13 +2278,13 @@
       <c r="H18" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="I18" s="125"/>
-      <c r="J18" s="137"/>
-      <c r="K18" s="140"/>
+      <c r="I18" s="126"/>
+      <c r="J18" s="138"/>
+      <c r="K18" s="141"/>
       <c r="L18" s="88"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="121">
+      <c r="A19" s="122">
         <v>5</v>
       </c>
       <c r="B19" s="44" t="s">
@@ -2373,19 +2308,19 @@
       <c r="H19" s="94" t="s">
         <v>11</v>
       </c>
-      <c r="I19" s="141" t="s">
+      <c r="I19" s="142" t="s">
         <v>4</v>
       </c>
-      <c r="J19" s="129">
+      <c r="J19" s="130">
         <v>8</v>
       </c>
-      <c r="K19" s="129">
+      <c r="K19" s="130">
         <v>1</v>
       </c>
-      <c r="L19" s="119"/>
+      <c r="L19" s="120"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="122"/>
+      <c r="A20" s="123"/>
       <c r="B20" s="91" t="s">
         <v>25</v>
       </c>
@@ -2407,13 +2342,13 @@
       <c r="H20" s="94" t="s">
         <v>1</v>
       </c>
-      <c r="I20" s="125"/>
-      <c r="J20" s="130"/>
-      <c r="K20" s="130"/>
-      <c r="L20" s="119"/>
+      <c r="I20" s="126"/>
+      <c r="J20" s="131"/>
+      <c r="K20" s="131"/>
+      <c r="L20" s="120"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="123"/>
+      <c r="A21" s="124"/>
       <c r="B21" s="41" t="s">
         <v>27</v>
       </c>
@@ -2435,10 +2370,10 @@
       <c r="H21" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="I21" s="142"/>
-      <c r="J21" s="131"/>
-      <c r="K21" s="131"/>
-      <c r="L21" s="119"/>
+      <c r="I21" s="143"/>
+      <c r="J21" s="132"/>
+      <c r="K21" s="132"/>
+      <c r="L21" s="120"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="87">
@@ -2475,7 +2410,7 @@
       <c r="L22" s="85"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="121">
+      <c r="A23" s="122">
         <v>7</v>
       </c>
       <c r="B23" s="44" t="s">
@@ -2499,19 +2434,19 @@
       <c r="H23" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="I23" s="179" t="s">
-        <v>0</v>
-      </c>
-      <c r="J23" s="182">
+      <c r="I23" s="142" t="s">
+        <v>4</v>
+      </c>
+      <c r="J23" s="177">
         <v>21</v>
       </c>
-      <c r="K23" s="159">
+      <c r="K23" s="160">
         <v>2</v>
       </c>
-      <c r="L23" s="119"/>
+      <c r="L23" s="120"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="122"/>
+      <c r="A24" s="123"/>
       <c r="B24" s="91" t="s">
         <v>25</v>
       </c>
@@ -2533,13 +2468,13 @@
       <c r="H24" s="94" t="s">
         <v>1</v>
       </c>
-      <c r="I24" s="180"/>
-      <c r="J24" s="183"/>
-      <c r="K24" s="160"/>
-      <c r="L24" s="119"/>
+      <c r="I24" s="126"/>
+      <c r="J24" s="178"/>
+      <c r="K24" s="161"/>
+      <c r="L24" s="120"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="123"/>
+      <c r="A25" s="124"/>
       <c r="B25" s="41" t="s">
         <v>27</v>
       </c>
@@ -2561,13 +2496,13 @@
       <c r="H25" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="I25" s="181"/>
-      <c r="J25" s="184"/>
-      <c r="K25" s="161"/>
-      <c r="L25" s="119"/>
+      <c r="I25" s="143"/>
+      <c r="J25" s="179"/>
+      <c r="K25" s="162"/>
+      <c r="L25" s="120"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="143">
+      <c r="A26" s="144">
         <v>8</v>
       </c>
       <c r="B26" s="49" t="s">
@@ -2591,19 +2526,19 @@
       <c r="H26" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="I26" s="185" t="s">
-        <v>0</v>
-      </c>
-      <c r="J26" s="176">
+      <c r="I26" s="142" t="s">
+        <v>4</v>
+      </c>
+      <c r="J26" s="174">
         <v>33</v>
       </c>
-      <c r="K26" s="186">
+      <c r="K26" s="180">
         <v>2</v>
       </c>
-      <c r="L26" s="120"/>
+      <c r="L26" s="121"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="144"/>
+      <c r="A27" s="145"/>
       <c r="B27" s="52" t="s">
         <v>25</v>
       </c>
@@ -2625,13 +2560,13 @@
       <c r="H27" s="98" t="s">
         <v>1</v>
       </c>
-      <c r="I27" s="163"/>
-      <c r="J27" s="178"/>
-      <c r="K27" s="187"/>
-      <c r="L27" s="120"/>
+      <c r="I27" s="126"/>
+      <c r="J27" s="176"/>
+      <c r="K27" s="181"/>
+      <c r="L27" s="121"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="145"/>
+      <c r="A28" s="146"/>
       <c r="B28" s="18" t="s">
         <v>27</v>
       </c>
@@ -2653,13 +2588,13 @@
       <c r="H28" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="I28" s="164"/>
-      <c r="J28" s="177"/>
-      <c r="K28" s="188"/>
+      <c r="I28" s="143"/>
+      <c r="J28" s="175"/>
+      <c r="K28" s="182"/>
       <c r="L28" s="86"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" s="121">
+      <c r="A29" s="122">
         <v>9</v>
       </c>
       <c r="B29" s="44" t="s">
@@ -2681,19 +2616,19 @@
       <c r="H29" s="48" t="s">
         <v>40</v>
       </c>
-      <c r="I29" s="162" t="s">
-        <v>0</v>
-      </c>
-      <c r="J29" s="156">
+      <c r="I29" s="142" t="s">
+        <v>4</v>
+      </c>
+      <c r="J29" s="157">
         <v>61</v>
       </c>
-      <c r="K29" s="159">
+      <c r="K29" s="160">
         <v>4</v>
       </c>
-      <c r="L29" s="119"/>
+      <c r="L29" s="120"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" s="122"/>
+      <c r="A30" s="123"/>
       <c r="B30" s="44" t="s">
         <v>25</v>
       </c>
@@ -2713,13 +2648,13 @@
       <c r="H30" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="I30" s="163"/>
-      <c r="J30" s="157"/>
-      <c r="K30" s="160"/>
-      <c r="L30" s="119"/>
+      <c r="I30" s="126"/>
+      <c r="J30" s="158"/>
+      <c r="K30" s="161"/>
+      <c r="L30" s="120"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" s="122"/>
+      <c r="A31" s="123"/>
       <c r="B31" s="99" t="s">
         <v>27</v>
       </c>
@@ -2741,13 +2676,13 @@
       <c r="H31" s="94" t="s">
         <v>1</v>
       </c>
-      <c r="I31" s="163"/>
-      <c r="J31" s="157"/>
-      <c r="K31" s="160"/>
-      <c r="L31" s="119"/>
+      <c r="I31" s="126"/>
+      <c r="J31" s="158"/>
+      <c r="K31" s="161"/>
+      <c r="L31" s="120"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A32" s="123"/>
+      <c r="A32" s="124"/>
       <c r="B32" s="41" t="s">
         <v>41</v>
       </c>
@@ -2769,10 +2704,10 @@
       <c r="H32" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="I32" s="164"/>
-      <c r="J32" s="158"/>
-      <c r="K32" s="161"/>
-      <c r="L32" s="119"/>
+      <c r="I32" s="143"/>
+      <c r="J32" s="159"/>
+      <c r="K32" s="162"/>
+      <c r="L32" s="120"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="14">
@@ -2791,7 +2726,7 @@
       <c r="L33" s="82"/>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A34" s="121">
+      <c r="A34" s="122">
         <v>11</v>
       </c>
       <c r="B34" s="48" t="s">
@@ -2813,19 +2748,19 @@
       <c r="H34" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="I34" s="146" t="s">
+      <c r="I34" s="147" t="s">
         <v>0</v>
       </c>
-      <c r="J34" s="129">
+      <c r="J34" s="130">
         <v>132</v>
       </c>
-      <c r="K34" s="129">
+      <c r="K34" s="130">
         <v>8</v>
       </c>
-      <c r="L34" s="119"/>
+      <c r="L34" s="120"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A35" s="122"/>
+      <c r="A35" s="123"/>
       <c r="B35" s="48" t="s">
         <v>25</v>
       </c>
@@ -2847,13 +2782,13 @@
       <c r="H35" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="I35" s="147"/>
-      <c r="J35" s="130"/>
-      <c r="K35" s="130"/>
-      <c r="L35" s="119"/>
+      <c r="I35" s="148"/>
+      <c r="J35" s="131"/>
+      <c r="K35" s="131"/>
+      <c r="L35" s="120"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A36" s="122"/>
+      <c r="A36" s="123"/>
       <c r="B36" s="100" t="s">
         <v>27</v>
       </c>
@@ -2873,13 +2808,13 @@
       <c r="H36" s="94" t="s">
         <v>8</v>
       </c>
-      <c r="I36" s="147"/>
-      <c r="J36" s="130"/>
-      <c r="K36" s="130"/>
-      <c r="L36" s="119"/>
+      <c r="I36" s="148"/>
+      <c r="J36" s="131"/>
+      <c r="K36" s="131"/>
+      <c r="L36" s="120"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A37" s="123"/>
+      <c r="A37" s="124"/>
       <c r="B37" s="41" t="s">
         <v>41</v>
       </c>
@@ -2901,13 +2836,13 @@
       <c r="H37" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="I37" s="148"/>
-      <c r="J37" s="131"/>
-      <c r="K37" s="131"/>
-      <c r="L37" s="119"/>
+      <c r="I37" s="149"/>
+      <c r="J37" s="132"/>
+      <c r="K37" s="132"/>
+      <c r="L37" s="120"/>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A38" s="143">
+      <c r="A38" s="144">
         <v>12</v>
       </c>
       <c r="B38" s="49" t="s">
@@ -2929,19 +2864,19 @@
       <c r="H38" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="I38" s="146" t="s">
-        <v>0</v>
-      </c>
-      <c r="J38" s="138">
+      <c r="I38" s="142" t="s">
+        <v>4</v>
+      </c>
+      <c r="J38" s="139">
         <v>72</v>
       </c>
-      <c r="K38" s="151">
+      <c r="K38" s="152">
         <v>5</v>
       </c>
-      <c r="L38" s="120"/>
+      <c r="L38" s="121"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A39" s="144"/>
+      <c r="A39" s="145"/>
       <c r="B39" s="52" t="s">
         <v>25</v>
       </c>
@@ -2961,13 +2896,13 @@
       <c r="H39" s="52" t="s">
         <v>40</v>
       </c>
-      <c r="I39" s="147"/>
-      <c r="J39" s="139"/>
-      <c r="K39" s="171"/>
-      <c r="L39" s="120"/>
+      <c r="I39" s="126"/>
+      <c r="J39" s="140"/>
+      <c r="K39" s="169"/>
+      <c r="L39" s="121"/>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A40" s="145"/>
+      <c r="A40" s="146"/>
       <c r="B40" s="18" t="s">
         <v>27</v>
       </c>
@@ -2989,13 +2924,13 @@
       <c r="H40" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="I40" s="148"/>
-      <c r="J40" s="140"/>
-      <c r="K40" s="152"/>
-      <c r="L40" s="120"/>
+      <c r="I40" s="143"/>
+      <c r="J40" s="141"/>
+      <c r="K40" s="153"/>
+      <c r="L40" s="121"/>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A41" s="121">
+      <c r="A41" s="122">
         <v>13</v>
       </c>
       <c r="B41" s="48" t="s">
@@ -3017,19 +2952,19 @@
       <c r="H41" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="I41" s="146" t="s">
+      <c r="I41" s="147" t="s">
         <v>0</v>
       </c>
-      <c r="J41" s="129">
+      <c r="J41" s="130">
         <v>7</v>
       </c>
-      <c r="K41" s="149">
+      <c r="K41" s="150">
         <v>1</v>
       </c>
-      <c r="L41" s="119"/>
+      <c r="L41" s="120"/>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A42" s="123"/>
+      <c r="A42" s="124"/>
       <c r="B42" s="17" t="s">
         <v>25</v>
       </c>
@@ -3051,13 +2986,13 @@
       <c r="H42" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="I42" s="148"/>
-      <c r="J42" s="131"/>
-      <c r="K42" s="150"/>
-      <c r="L42" s="119"/>
+      <c r="I42" s="149"/>
+      <c r="J42" s="132"/>
+      <c r="K42" s="151"/>
+      <c r="L42" s="120"/>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A43" s="143">
+      <c r="A43" s="144">
         <v>14</v>
       </c>
       <c r="B43" s="49" t="s">
@@ -3079,19 +3014,19 @@
       <c r="H43" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="I43" s="146" t="s">
+      <c r="I43" s="147" t="s">
         <v>0</v>
       </c>
-      <c r="J43" s="138">
+      <c r="J43" s="139">
         <v>39</v>
       </c>
-      <c r="K43" s="151">
+      <c r="K43" s="152">
         <v>3</v>
       </c>
-      <c r="L43" s="120"/>
+      <c r="L43" s="121"/>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A44" s="145"/>
+      <c r="A44" s="146"/>
       <c r="B44" s="18" t="s">
         <v>25</v>
       </c>
@@ -3113,13 +3048,13 @@
       <c r="H44" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="I44" s="148"/>
-      <c r="J44" s="140"/>
-      <c r="K44" s="152"/>
-      <c r="L44" s="120"/>
+      <c r="I44" s="149"/>
+      <c r="J44" s="141"/>
+      <c r="K44" s="153"/>
+      <c r="L44" s="121"/>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A45" s="121">
+      <c r="A45" s="122">
         <v>15</v>
       </c>
       <c r="B45" s="48" t="s">
@@ -3141,19 +3076,19 @@
       <c r="H45" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="I45" s="146" t="s">
-        <v>0</v>
-      </c>
-      <c r="J45" s="149">
+      <c r="I45" s="142" t="s">
+        <v>4</v>
+      </c>
+      <c r="J45" s="150">
         <v>39</v>
       </c>
-      <c r="K45" s="156">
+      <c r="K45" s="157">
         <v>3</v>
       </c>
-      <c r="L45" s="119"/>
+      <c r="L45" s="120"/>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A46" s="122"/>
+      <c r="A46" s="123"/>
       <c r="B46" s="48" t="s">
         <v>25</v>
       </c>
@@ -3173,13 +3108,13 @@
       <c r="H46" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="I46" s="147"/>
-      <c r="J46" s="173"/>
-      <c r="K46" s="157"/>
-      <c r="L46" s="119"/>
+      <c r="I46" s="126"/>
+      <c r="J46" s="171"/>
+      <c r="K46" s="158"/>
+      <c r="L46" s="120"/>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A47" s="123"/>
+      <c r="A47" s="124"/>
       <c r="B47" s="17" t="s">
         <v>27</v>
       </c>
@@ -3201,13 +3136,13 @@
       <c r="H47" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="I47" s="148"/>
-      <c r="J47" s="150"/>
-      <c r="K47" s="158"/>
-      <c r="L47" s="119"/>
+      <c r="I47" s="143"/>
+      <c r="J47" s="151"/>
+      <c r="K47" s="159"/>
+      <c r="L47" s="120"/>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A48" s="143">
+      <c r="A48" s="144">
         <v>16</v>
       </c>
       <c r="B48" s="49" t="s">
@@ -3229,19 +3164,19 @@
       <c r="H48" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="I48" s="146" t="s">
+      <c r="I48" s="147" t="s">
         <v>0</v>
       </c>
-      <c r="J48" s="151">
+      <c r="J48" s="152">
         <v>39</v>
       </c>
-      <c r="K48" s="176">
+      <c r="K48" s="174">
         <v>3</v>
       </c>
-      <c r="L48" s="120"/>
+      <c r="L48" s="121"/>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A49" s="145"/>
+      <c r="A49" s="146"/>
       <c r="B49" s="18" t="s">
         <v>25</v>
       </c>
@@ -3263,10 +3198,10 @@
       <c r="H49" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="I49" s="148"/>
-      <c r="J49" s="152"/>
-      <c r="K49" s="177"/>
-      <c r="L49" s="120"/>
+      <c r="I49" s="149"/>
+      <c r="J49" s="153"/>
+      <c r="K49" s="175"/>
+      <c r="L49" s="121"/>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" s="14">
@@ -3285,7 +3220,7 @@
       <c r="L50" s="82"/>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A51" s="143">
+      <c r="A51" s="144">
         <v>18</v>
       </c>
       <c r="B51" s="49" t="s">
@@ -3307,19 +3242,19 @@
       <c r="H51" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="I51" s="146" t="s">
+      <c r="I51" s="147" t="s">
         <v>0</v>
       </c>
-      <c r="J51" s="138">
+      <c r="J51" s="139">
         <v>47</v>
       </c>
-      <c r="K51" s="151">
+      <c r="K51" s="152">
         <v>3</v>
       </c>
-      <c r="L51" s="120"/>
+      <c r="L51" s="121"/>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A52" s="144"/>
+      <c r="A52" s="145"/>
       <c r="B52" s="52" t="s">
         <v>25</v>
       </c>
@@ -3339,13 +3274,13 @@
       <c r="H52" s="52" t="s">
         <v>40</v>
       </c>
-      <c r="I52" s="147"/>
-      <c r="J52" s="139"/>
-      <c r="K52" s="171"/>
-      <c r="L52" s="120"/>
+      <c r="I52" s="148"/>
+      <c r="J52" s="140"/>
+      <c r="K52" s="169"/>
+      <c r="L52" s="121"/>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A53" s="145"/>
+      <c r="A53" s="146"/>
       <c r="B53" s="18" t="s">
         <v>27</v>
       </c>
@@ -3367,13 +3302,13 @@
       <c r="H53" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="I53" s="148"/>
-      <c r="J53" s="140"/>
-      <c r="K53" s="152"/>
-      <c r="L53" s="120"/>
+      <c r="I53" s="149"/>
+      <c r="J53" s="141"/>
+      <c r="K53" s="153"/>
+      <c r="L53" s="121"/>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A54" s="153">
+      <c r="A54" s="154">
         <v>19</v>
       </c>
       <c r="B54" s="48" t="s">
@@ -3395,19 +3330,19 @@
       <c r="H54" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="I54" s="146" t="s">
+      <c r="I54" s="147" t="s">
         <v>0</v>
       </c>
-      <c r="J54" s="129">
+      <c r="J54" s="130">
         <v>68</v>
       </c>
-      <c r="K54" s="149">
+      <c r="K54" s="150">
         <v>4</v>
       </c>
-      <c r="L54" s="119"/>
+      <c r="L54" s="120"/>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A55" s="154"/>
+      <c r="A55" s="155"/>
       <c r="B55" s="48" t="s">
         <v>25</v>
       </c>
@@ -3427,13 +3362,13 @@
       <c r="H55" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="I55" s="147"/>
-      <c r="J55" s="130"/>
-      <c r="K55" s="173"/>
-      <c r="L55" s="119"/>
+      <c r="I55" s="148"/>
+      <c r="J55" s="131"/>
+      <c r="K55" s="171"/>
+      <c r="L55" s="120"/>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A56" s="155"/>
+      <c r="A56" s="156"/>
       <c r="B56" s="17" t="s">
         <v>27</v>
       </c>
@@ -3455,13 +3390,13 @@
       <c r="H56" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="I56" s="148"/>
-      <c r="J56" s="131"/>
-      <c r="K56" s="150"/>
-      <c r="L56" s="119"/>
+      <c r="I56" s="149"/>
+      <c r="J56" s="132"/>
+      <c r="K56" s="151"/>
+      <c r="L56" s="120"/>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A57" s="143">
+      <c r="A57" s="144">
         <v>20</v>
       </c>
       <c r="B57" s="101" t="s">
@@ -3483,19 +3418,19 @@
       <c r="H57" s="101" t="s">
         <v>11</v>
       </c>
-      <c r="I57" s="141" t="s">
+      <c r="I57" s="142" t="s">
         <v>4</v>
       </c>
-      <c r="J57" s="138">
+      <c r="J57" s="139">
         <v>13</v>
       </c>
-      <c r="K57" s="138">
+      <c r="K57" s="139">
         <v>1</v>
       </c>
-      <c r="L57" s="120"/>
+      <c r="L57" s="121"/>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A58" s="144"/>
+      <c r="A58" s="145"/>
       <c r="B58" s="101" t="s">
         <v>25</v>
       </c>
@@ -3515,13 +3450,13 @@
       <c r="H58" s="101" t="s">
         <v>8</v>
       </c>
-      <c r="I58" s="125"/>
-      <c r="J58" s="139"/>
-      <c r="K58" s="139"/>
-      <c r="L58" s="120"/>
+      <c r="I58" s="126"/>
+      <c r="J58" s="140"/>
+      <c r="K58" s="140"/>
+      <c r="L58" s="121"/>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A59" s="144"/>
+      <c r="A59" s="145"/>
       <c r="B59" s="98" t="s">
         <v>27</v>
       </c>
@@ -3543,13 +3478,13 @@
       <c r="H59" s="101" t="s">
         <v>11</v>
       </c>
-      <c r="I59" s="125"/>
-      <c r="J59" s="139"/>
-      <c r="K59" s="139"/>
-      <c r="L59" s="120"/>
+      <c r="I59" s="126"/>
+      <c r="J59" s="140"/>
+      <c r="K59" s="140"/>
+      <c r="L59" s="121"/>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A60" s="145"/>
+      <c r="A60" s="146"/>
       <c r="B60" s="18" t="s">
         <v>41</v>
       </c>
@@ -3571,13 +3506,13 @@
       <c r="H60" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="I60" s="142"/>
-      <c r="J60" s="140"/>
-      <c r="K60" s="140"/>
+      <c r="I60" s="143"/>
+      <c r="J60" s="141"/>
+      <c r="K60" s="141"/>
       <c r="L60" s="88"/>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A61" s="121">
+      <c r="A61" s="122">
         <v>21</v>
       </c>
       <c r="B61" s="44" t="s">
@@ -3599,19 +3534,19 @@
       <c r="H61" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="I61" s="141" t="s">
+      <c r="I61" s="142" t="s">
         <v>4</v>
       </c>
-      <c r="J61" s="129">
+      <c r="J61" s="130">
         <v>94</v>
       </c>
-      <c r="K61" s="129">
+      <c r="K61" s="130">
         <v>6</v>
       </c>
-      <c r="L61" s="119"/>
+      <c r="L61" s="120"/>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A62" s="122"/>
+      <c r="A62" s="123"/>
       <c r="B62" s="48" t="s">
         <v>25</v>
       </c>
@@ -3631,13 +3566,13 @@
       <c r="H62" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="I62" s="125"/>
-      <c r="J62" s="130"/>
-      <c r="K62" s="130"/>
-      <c r="L62" s="119"/>
+      <c r="I62" s="126"/>
+      <c r="J62" s="131"/>
+      <c r="K62" s="131"/>
+      <c r="L62" s="120"/>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A63" s="122"/>
+      <c r="A63" s="123"/>
       <c r="B63" s="100" t="s">
         <v>27</v>
       </c>
@@ -3659,13 +3594,13 @@
       <c r="H63" s="100" t="s">
         <v>11</v>
       </c>
-      <c r="I63" s="125"/>
-      <c r="J63" s="130"/>
-      <c r="K63" s="130"/>
-      <c r="L63" s="119"/>
+      <c r="I63" s="126"/>
+      <c r="J63" s="131"/>
+      <c r="K63" s="131"/>
+      <c r="L63" s="120"/>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A64" s="123"/>
+      <c r="A64" s="124"/>
       <c r="B64" s="70" t="s">
         <v>41</v>
       </c>
@@ -3687,13 +3622,13 @@
       <c r="H64" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="I64" s="142"/>
-      <c r="J64" s="131"/>
-      <c r="K64" s="131"/>
+      <c r="I64" s="143"/>
+      <c r="J64" s="132"/>
+      <c r="K64" s="132"/>
       <c r="L64" s="90"/>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A65" s="143">
+      <c r="A65" s="144">
         <v>22</v>
       </c>
       <c r="B65" s="101" t="s">
@@ -3717,19 +3652,19 @@
       <c r="H65" s="98" t="s">
         <v>11</v>
       </c>
-      <c r="I65" s="141" t="s">
+      <c r="I65" s="142" t="s">
         <v>4</v>
       </c>
-      <c r="J65" s="138">
+      <c r="J65" s="139">
         <v>67</v>
       </c>
-      <c r="K65" s="138">
+      <c r="K65" s="139">
         <v>4</v>
       </c>
-      <c r="L65" s="120"/>
+      <c r="L65" s="121"/>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A66" s="144"/>
+      <c r="A66" s="145"/>
       <c r="B66" s="101" t="s">
         <v>25</v>
       </c>
@@ -3749,13 +3684,13 @@
       <c r="H66" s="98" t="s">
         <v>40</v>
       </c>
-      <c r="I66" s="125"/>
-      <c r="J66" s="139"/>
-      <c r="K66" s="139"/>
-      <c r="L66" s="120"/>
+      <c r="I66" s="126"/>
+      <c r="J66" s="140"/>
+      <c r="K66" s="140"/>
+      <c r="L66" s="121"/>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A67" s="144"/>
+      <c r="A67" s="145"/>
       <c r="B67" s="98" t="s">
         <v>27</v>
       </c>
@@ -3777,13 +3712,13 @@
       <c r="H67" s="101" t="s">
         <v>1</v>
       </c>
-      <c r="I67" s="125"/>
-      <c r="J67" s="139"/>
-      <c r="K67" s="139"/>
-      <c r="L67" s="120"/>
+      <c r="I67" s="126"/>
+      <c r="J67" s="140"/>
+      <c r="K67" s="140"/>
+      <c r="L67" s="121"/>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A68" s="145"/>
+      <c r="A68" s="146"/>
       <c r="B68" s="18" t="s">
         <v>41</v>
       </c>
@@ -3805,13 +3740,13 @@
       <c r="H68" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="I68" s="142"/>
-      <c r="J68" s="140"/>
-      <c r="K68" s="140"/>
+      <c r="I68" s="143"/>
+      <c r="J68" s="141"/>
+      <c r="K68" s="141"/>
       <c r="L68" s="88"/>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A69" s="121">
+      <c r="A69" s="122">
         <v>23</v>
       </c>
       <c r="B69" s="44" t="s">
@@ -3833,19 +3768,19 @@
       <c r="H69" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="I69" s="146" t="s">
+      <c r="I69" s="147" t="s">
         <v>0</v>
       </c>
-      <c r="J69" s="129">
+      <c r="J69" s="130">
         <v>22</v>
       </c>
-      <c r="K69" s="149">
+      <c r="K69" s="150">
         <v>2</v>
       </c>
-      <c r="L69" s="119"/>
+      <c r="L69" s="120"/>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A70" s="122"/>
+      <c r="A70" s="123"/>
       <c r="B70" s="44" t="s">
         <v>25</v>
       </c>
@@ -3865,13 +3800,13 @@
       <c r="H70" s="60" t="s">
         <v>40</v>
       </c>
-      <c r="I70" s="147"/>
-      <c r="J70" s="130"/>
-      <c r="K70" s="173"/>
-      <c r="L70" s="119"/>
+      <c r="I70" s="148"/>
+      <c r="J70" s="131"/>
+      <c r="K70" s="171"/>
+      <c r="L70" s="120"/>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A71" s="123"/>
+      <c r="A71" s="124"/>
       <c r="B71" s="17" t="s">
         <v>27</v>
       </c>
@@ -3893,13 +3828,13 @@
       <c r="H71" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="I71" s="148"/>
-      <c r="J71" s="131"/>
-      <c r="K71" s="150"/>
-      <c r="L71" s="119"/>
+      <c r="I71" s="149"/>
+      <c r="J71" s="132"/>
+      <c r="K71" s="151"/>
+      <c r="L71" s="120"/>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A72" s="143">
+      <c r="A72" s="144">
         <v>24</v>
       </c>
       <c r="B72" s="98" t="s">
@@ -3921,19 +3856,19 @@
       <c r="H72" s="98" t="s">
         <v>11</v>
       </c>
-      <c r="I72" s="141" t="s">
+      <c r="I72" s="142" t="s">
         <v>0</v>
       </c>
-      <c r="J72" s="138">
+      <c r="J72" s="139">
         <v>31</v>
       </c>
-      <c r="K72" s="138">
+      <c r="K72" s="139">
         <v>2</v>
       </c>
       <c r="L72" s="83"/>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A73" s="145"/>
+      <c r="A73" s="146"/>
       <c r="B73" s="18" t="s">
         <v>25</v>
       </c>
@@ -3955,13 +3890,13 @@
       <c r="H73" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="I73" s="125"/>
-      <c r="J73" s="140"/>
-      <c r="K73" s="140"/>
+      <c r="I73" s="126"/>
+      <c r="J73" s="141"/>
+      <c r="K73" s="141"/>
       <c r="L73" s="88"/>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A74" s="121">
+      <c r="A74" s="122">
         <v>25</v>
       </c>
       <c r="B74" s="48" t="s">
@@ -3983,19 +3918,19 @@
       <c r="H74" s="60" t="s">
         <v>40</v>
       </c>
-      <c r="I74" s="146" t="s">
+      <c r="I74" s="147" t="s">
         <v>0</v>
       </c>
-      <c r="J74" s="129">
+      <c r="J74" s="130">
         <v>44</v>
       </c>
-      <c r="K74" s="149">
+      <c r="K74" s="150">
         <v>3</v>
       </c>
-      <c r="L74" s="119"/>
+      <c r="L74" s="120"/>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A75" s="123"/>
+      <c r="A75" s="124"/>
       <c r="B75" s="17" t="s">
         <v>25</v>
       </c>
@@ -4017,13 +3952,13 @@
       <c r="H75" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="I75" s="148"/>
-      <c r="J75" s="131"/>
-      <c r="K75" s="150"/>
-      <c r="L75" s="119"/>
+      <c r="I75" s="149"/>
+      <c r="J75" s="132"/>
+      <c r="K75" s="151"/>
+      <c r="L75" s="120"/>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A76" s="143">
+      <c r="A76" s="144">
         <v>26</v>
       </c>
       <c r="B76" s="49" t="s">
@@ -4045,19 +3980,19 @@
       <c r="H76" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="I76" s="146" t="s">
+      <c r="I76" s="147" t="s">
         <v>0</v>
       </c>
-      <c r="J76" s="138">
+      <c r="J76" s="139">
         <v>30</v>
       </c>
-      <c r="K76" s="151">
+      <c r="K76" s="152">
         <v>3</v>
       </c>
-      <c r="L76" s="120"/>
+      <c r="L76" s="121"/>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A77" s="144"/>
+      <c r="A77" s="145"/>
       <c r="B77" s="49" t="s">
         <v>25</v>
       </c>
@@ -4077,13 +4012,13 @@
       <c r="H77" s="52" t="s">
         <v>40</v>
       </c>
-      <c r="I77" s="147"/>
-      <c r="J77" s="139"/>
-      <c r="K77" s="171"/>
-      <c r="L77" s="120"/>
+      <c r="I77" s="148"/>
+      <c r="J77" s="140"/>
+      <c r="K77" s="169"/>
+      <c r="L77" s="121"/>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A78" s="145"/>
+      <c r="A78" s="146"/>
       <c r="B78" s="18" t="s">
         <v>27</v>
       </c>
@@ -4105,13 +4040,13 @@
       <c r="H78" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="I78" s="148"/>
-      <c r="J78" s="140"/>
-      <c r="K78" s="152"/>
-      <c r="L78" s="120"/>
+      <c r="I78" s="149"/>
+      <c r="J78" s="141"/>
+      <c r="K78" s="153"/>
+      <c r="L78" s="121"/>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A79" s="121">
+      <c r="A79" s="122">
         <v>27</v>
       </c>
       <c r="B79" s="44" t="s">
@@ -4133,19 +4068,19 @@
       <c r="H79" s="68" t="s">
         <v>16</v>
       </c>
-      <c r="I79" s="141" t="s">
+      <c r="I79" s="142" t="s">
         <v>4</v>
       </c>
-      <c r="J79" s="129">
+      <c r="J79" s="130">
         <v>12</v>
       </c>
-      <c r="K79" s="149">
+      <c r="K79" s="150">
         <v>1</v>
       </c>
-      <c r="L79" s="119"/>
+      <c r="L79" s="120"/>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A80" s="122"/>
+      <c r="A80" s="123"/>
       <c r="B80" s="48" t="s">
         <v>25</v>
       </c>
@@ -4165,13 +4100,13 @@
       <c r="H80" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="I80" s="125"/>
-      <c r="J80" s="130"/>
-      <c r="K80" s="173"/>
-      <c r="L80" s="119"/>
+      <c r="I80" s="126"/>
+      <c r="J80" s="131"/>
+      <c r="K80" s="171"/>
+      <c r="L80" s="120"/>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A81" s="122"/>
+      <c r="A81" s="123"/>
       <c r="B81" s="48" t="s">
         <v>27</v>
       </c>
@@ -4193,13 +4128,13 @@
       <c r="H81" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="I81" s="125"/>
-      <c r="J81" s="130"/>
-      <c r="K81" s="173"/>
-      <c r="L81" s="119"/>
+      <c r="I81" s="126"/>
+      <c r="J81" s="131"/>
+      <c r="K81" s="171"/>
+      <c r="L81" s="120"/>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A82" s="123"/>
+      <c r="A82" s="124"/>
       <c r="B82" s="70" t="s">
         <v>41</v>
       </c>
@@ -4221,13 +4156,13 @@
       <c r="H82" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="I82" s="142"/>
-      <c r="J82" s="131"/>
-      <c r="K82" s="150"/>
-      <c r="L82" s="119"/>
+      <c r="I82" s="143"/>
+      <c r="J82" s="132"/>
+      <c r="K82" s="151"/>
+      <c r="L82" s="120"/>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A83" s="143">
+      <c r="A83" s="144">
         <v>28</v>
       </c>
       <c r="B83" s="49" t="s">
@@ -4249,19 +4184,19 @@
       <c r="H83" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="I83" s="141" t="s">
+      <c r="I83" s="142" t="s">
         <v>4</v>
       </c>
-      <c r="J83" s="138">
+      <c r="J83" s="139">
         <v>21</v>
       </c>
-      <c r="K83" s="151">
+      <c r="K83" s="152">
         <v>2</v>
       </c>
-      <c r="L83" s="120"/>
+      <c r="L83" s="121"/>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A84" s="144"/>
+      <c r="A84" s="145"/>
       <c r="B84" s="49" t="s">
         <v>25</v>
       </c>
@@ -4283,13 +4218,13 @@
       <c r="H84" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="I84" s="125"/>
-      <c r="J84" s="139"/>
-      <c r="K84" s="171"/>
-      <c r="L84" s="120"/>
+      <c r="I84" s="126"/>
+      <c r="J84" s="140"/>
+      <c r="K84" s="169"/>
+      <c r="L84" s="121"/>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A85" s="145"/>
+      <c r="A85" s="146"/>
       <c r="B85" s="18" t="s">
         <v>27</v>
       </c>
@@ -4311,13 +4246,13 @@
       <c r="H85" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="I85" s="142"/>
-      <c r="J85" s="140"/>
-      <c r="K85" s="152"/>
-      <c r="L85" s="120"/>
+      <c r="I85" s="143"/>
+      <c r="J85" s="141"/>
+      <c r="K85" s="153"/>
+      <c r="L85" s="121"/>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A86" s="121">
+      <c r="A86" s="122">
         <v>29</v>
       </c>
       <c r="B86" s="44" t="s">
@@ -4339,19 +4274,19 @@
       <c r="H86" s="68" t="s">
         <v>8</v>
       </c>
-      <c r="I86" s="146" t="s">
+      <c r="I86" s="147" t="s">
         <v>0</v>
       </c>
-      <c r="J86" s="129">
+      <c r="J86" s="130">
         <v>35</v>
       </c>
-      <c r="K86" s="149">
+      <c r="K86" s="150">
         <v>2</v>
       </c>
-      <c r="L86" s="119"/>
+      <c r="L86" s="120"/>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A87" s="122"/>
+      <c r="A87" s="123"/>
       <c r="B87" s="44" t="s">
         <v>25</v>
       </c>
@@ -4371,13 +4306,13 @@
       <c r="H87" s="68" t="s">
         <v>16</v>
       </c>
-      <c r="I87" s="147"/>
-      <c r="J87" s="130"/>
-      <c r="K87" s="173"/>
-      <c r="L87" s="119"/>
+      <c r="I87" s="148"/>
+      <c r="J87" s="131"/>
+      <c r="K87" s="171"/>
+      <c r="L87" s="120"/>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A88" s="123"/>
+      <c r="A88" s="124"/>
       <c r="B88" s="17" t="s">
         <v>27</v>
       </c>
@@ -4399,13 +4334,13 @@
       <c r="H88" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="I88" s="148"/>
-      <c r="J88" s="131"/>
-      <c r="K88" s="150"/>
-      <c r="L88" s="119"/>
+      <c r="I88" s="149"/>
+      <c r="J88" s="132"/>
+      <c r="K88" s="151"/>
+      <c r="L88" s="120"/>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A89" s="143">
+      <c r="A89" s="144">
         <v>30</v>
       </c>
       <c r="B89" s="49" t="s">
@@ -4427,19 +4362,19 @@
       <c r="H89" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="I89" s="146" t="s">
+      <c r="I89" s="147" t="s">
         <v>0</v>
       </c>
-      <c r="J89" s="138">
+      <c r="J89" s="139">
         <v>19</v>
       </c>
-      <c r="K89" s="151">
+      <c r="K89" s="152">
         <v>1</v>
       </c>
-      <c r="L89" s="120"/>
+      <c r="L89" s="121"/>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A90" s="144"/>
+      <c r="A90" s="145"/>
       <c r="B90" s="49" t="s">
         <v>25</v>
       </c>
@@ -4459,10 +4394,10 @@
       <c r="H90" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="I90" s="147"/>
-      <c r="J90" s="139"/>
-      <c r="K90" s="171"/>
-      <c r="L90" s="120"/>
+      <c r="I90" s="148"/>
+      <c r="J90" s="140"/>
+      <c r="K90" s="169"/>
+      <c r="L90" s="121"/>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A91" s="43"/>
@@ -4487,13 +4422,13 @@
       <c r="H91" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="I91" s="148"/>
-      <c r="J91" s="140"/>
-      <c r="K91" s="152"/>
+      <c r="I91" s="149"/>
+      <c r="J91" s="141"/>
+      <c r="K91" s="153"/>
       <c r="L91" s="83"/>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A92" s="121">
+      <c r="A92" s="122">
         <v>31</v>
       </c>
       <c r="B92" s="44" t="s">
@@ -4515,19 +4450,19 @@
       <c r="H92" s="68" t="s">
         <v>5</v>
       </c>
-      <c r="I92" s="172" t="s">
+      <c r="I92" s="170" t="s">
         <v>0</v>
       </c>
-      <c r="J92" s="129">
+      <c r="J92" s="130">
         <v>50</v>
       </c>
-      <c r="K92" s="149">
+      <c r="K92" s="150">
         <v>4</v>
       </c>
-      <c r="L92" s="119"/>
+      <c r="L92" s="120"/>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A93" s="122"/>
+      <c r="A93" s="123"/>
       <c r="B93" s="48" t="s">
         <v>25</v>
       </c>
@@ -4547,13 +4482,13 @@
       <c r="H93" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="I93" s="172"/>
-      <c r="J93" s="130"/>
-      <c r="K93" s="173"/>
-      <c r="L93" s="119"/>
+      <c r="I93" s="170"/>
+      <c r="J93" s="131"/>
+      <c r="K93" s="171"/>
+      <c r="L93" s="120"/>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A94" s="122"/>
+      <c r="A94" s="123"/>
       <c r="B94" s="48" t="s">
         <v>27</v>
       </c>
@@ -4573,13 +4508,13 @@
       <c r="H94" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="I94" s="172"/>
-      <c r="J94" s="130"/>
-      <c r="K94" s="173"/>
-      <c r="L94" s="119"/>
+      <c r="I94" s="170"/>
+      <c r="J94" s="131"/>
+      <c r="K94" s="171"/>
+      <c r="L94" s="120"/>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A95" s="122"/>
+      <c r="A95" s="123"/>
       <c r="B95" s="44" t="s">
         <v>41</v>
       </c>
@@ -4599,13 +4534,13 @@
       <c r="H95" s="60" t="s">
         <v>40</v>
       </c>
-      <c r="I95" s="172"/>
-      <c r="J95" s="130"/>
-      <c r="K95" s="173"/>
-      <c r="L95" s="119"/>
+      <c r="I95" s="170"/>
+      <c r="J95" s="131"/>
+      <c r="K95" s="171"/>
+      <c r="L95" s="120"/>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A96" s="123"/>
+      <c r="A96" s="124"/>
       <c r="B96" s="30" t="s">
         <v>43</v>
       </c>
@@ -4627,13 +4562,13 @@
       <c r="H96" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="I96" s="172"/>
-      <c r="J96" s="131"/>
-      <c r="K96" s="150"/>
-      <c r="L96" s="119"/>
+      <c r="I96" s="170"/>
+      <c r="J96" s="132"/>
+      <c r="K96" s="151"/>
+      <c r="L96" s="120"/>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A97" s="175">
+      <c r="A97" s="173">
         <v>32</v>
       </c>
       <c r="B97" s="49" t="s">
@@ -4655,19 +4590,19 @@
       <c r="H97" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="I97" s="146" t="s">
+      <c r="I97" s="147" t="s">
         <v>0</v>
       </c>
-      <c r="J97" s="138">
+      <c r="J97" s="139">
         <v>77</v>
       </c>
-      <c r="K97" s="151">
+      <c r="K97" s="152">
         <v>4</v>
       </c>
-      <c r="L97" s="120"/>
+      <c r="L97" s="121"/>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A98" s="175"/>
+      <c r="A98" s="173"/>
       <c r="B98" s="49" t="s">
         <v>25</v>
       </c>
@@ -4687,13 +4622,13 @@
       <c r="H98" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="I98" s="147"/>
-      <c r="J98" s="139"/>
-      <c r="K98" s="171"/>
-      <c r="L98" s="120"/>
+      <c r="I98" s="148"/>
+      <c r="J98" s="140"/>
+      <c r="K98" s="169"/>
+      <c r="L98" s="121"/>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A99" s="175"/>
+      <c r="A99" s="173"/>
       <c r="B99" s="52" t="s">
         <v>27</v>
       </c>
@@ -4713,13 +4648,13 @@
       <c r="H99" s="52" t="s">
         <v>40</v>
       </c>
-      <c r="I99" s="147"/>
-      <c r="J99" s="139"/>
-      <c r="K99" s="171"/>
-      <c r="L99" s="120"/>
+      <c r="I99" s="148"/>
+      <c r="J99" s="140"/>
+      <c r="K99" s="169"/>
+      <c r="L99" s="121"/>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A100" s="175"/>
+      <c r="A100" s="173"/>
       <c r="B100" s="18" t="s">
         <v>41</v>
       </c>
@@ -4741,13 +4676,13 @@
       <c r="H100" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="I100" s="148"/>
-      <c r="J100" s="140"/>
-      <c r="K100" s="152"/>
-      <c r="L100" s="120"/>
+      <c r="I100" s="149"/>
+      <c r="J100" s="141"/>
+      <c r="K100" s="153"/>
+      <c r="L100" s="121"/>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A101" s="121">
+      <c r="A101" s="122">
         <v>33</v>
       </c>
       <c r="B101" s="44" t="s">
@@ -4769,19 +4704,19 @@
       <c r="H101" s="68" t="s">
         <v>5</v>
       </c>
-      <c r="I101" s="141" t="s">
+      <c r="I101" s="142" t="s">
         <v>4</v>
       </c>
-      <c r="J101" s="129">
+      <c r="J101" s="130">
         <v>62</v>
       </c>
-      <c r="K101" s="129">
+      <c r="K101" s="130">
         <v>4</v>
       </c>
-      <c r="L101" s="119"/>
+      <c r="L101" s="120"/>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A102" s="122"/>
+      <c r="A102" s="123"/>
       <c r="B102" s="48" t="s">
         <v>25</v>
       </c>
@@ -4801,13 +4736,13 @@
       <c r="H102" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="I102" s="125"/>
-      <c r="J102" s="130"/>
-      <c r="K102" s="130"/>
-      <c r="L102" s="119"/>
+      <c r="I102" s="126"/>
+      <c r="J102" s="131"/>
+      <c r="K102" s="131"/>
+      <c r="L102" s="120"/>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A103" s="122"/>
+      <c r="A103" s="123"/>
       <c r="B103" s="48" t="s">
         <v>27</v>
       </c>
@@ -4829,13 +4764,13 @@
       <c r="H103" s="94" t="s">
         <v>11</v>
       </c>
-      <c r="I103" s="125"/>
-      <c r="J103" s="130"/>
-      <c r="K103" s="130"/>
-      <c r="L103" s="119"/>
+      <c r="I103" s="126"/>
+      <c r="J103" s="131"/>
+      <c r="K103" s="131"/>
+      <c r="L103" s="120"/>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A104" s="123"/>
+      <c r="A104" s="124"/>
       <c r="B104" s="70" t="s">
         <v>41</v>
       </c>
@@ -4857,13 +4792,13 @@
       <c r="H104" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="I104" s="142"/>
-      <c r="J104" s="131"/>
-      <c r="K104" s="131"/>
+      <c r="I104" s="143"/>
+      <c r="J104" s="132"/>
+      <c r="K104" s="132"/>
       <c r="L104" s="90"/>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A105" s="143">
+      <c r="A105" s="144">
         <v>34</v>
       </c>
       <c r="B105" s="101" t="s">
@@ -4885,19 +4820,19 @@
       <c r="H105" s="101" t="s">
         <v>8</v>
       </c>
-      <c r="I105" s="141" t="s">
+      <c r="I105" s="142" t="s">
         <v>4</v>
       </c>
-      <c r="J105" s="138">
+      <c r="J105" s="139">
         <v>58</v>
       </c>
-      <c r="K105" s="138">
+      <c r="K105" s="139">
         <v>3</v>
       </c>
-      <c r="L105" s="174"/>
+      <c r="L105" s="172"/>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A106" s="144"/>
+      <c r="A106" s="145"/>
       <c r="B106" s="101" t="s">
         <v>25</v>
       </c>
@@ -4920,13 +4855,13 @@
       <c r="H106" s="98" t="s">
         <v>11</v>
       </c>
-      <c r="I106" s="125"/>
-      <c r="J106" s="139"/>
-      <c r="K106" s="139"/>
-      <c r="L106" s="174"/>
+      <c r="I106" s="126"/>
+      <c r="J106" s="140"/>
+      <c r="K106" s="140"/>
+      <c r="L106" s="172"/>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A107" s="144"/>
+      <c r="A107" s="145"/>
       <c r="B107" s="98" t="s">
         <v>27</v>
       </c>
@@ -4946,13 +4881,13 @@
       <c r="H107" s="98" t="s">
         <v>11</v>
       </c>
-      <c r="I107" s="125"/>
-      <c r="J107" s="139"/>
-      <c r="K107" s="139"/>
-      <c r="L107" s="174"/>
+      <c r="I107" s="126"/>
+      <c r="J107" s="140"/>
+      <c r="K107" s="140"/>
+      <c r="L107" s="172"/>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A108" s="144"/>
+      <c r="A108" s="145"/>
       <c r="B108" s="18" t="s">
         <v>41</v>
       </c>
@@ -4974,13 +4909,13 @@
       <c r="H108" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="I108" s="142"/>
-      <c r="J108" s="140"/>
-      <c r="K108" s="140"/>
+      <c r="I108" s="143"/>
+      <c r="J108" s="141"/>
+      <c r="K108" s="141"/>
       <c r="L108" s="89"/>
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A109" s="153">
+      <c r="A109" s="154">
         <v>35</v>
       </c>
       <c r="B109" s="44" t="s">
@@ -5002,19 +4937,19 @@
       <c r="H109" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="I109" s="141" t="s">
+      <c r="I109" s="142" t="s">
         <v>4</v>
       </c>
-      <c r="J109" s="129">
+      <c r="J109" s="130">
         <v>40</v>
       </c>
-      <c r="K109" s="149">
+      <c r="K109" s="150">
         <v>2</v>
       </c>
-      <c r="L109" s="119"/>
+      <c r="L109" s="120"/>
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A110" s="154"/>
+      <c r="A110" s="155"/>
       <c r="B110" s="44" t="s">
         <v>25</v>
       </c>
@@ -5034,13 +4969,13 @@
       <c r="H110" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="I110" s="125"/>
-      <c r="J110" s="130"/>
-      <c r="K110" s="173"/>
-      <c r="L110" s="119"/>
+      <c r="I110" s="126"/>
+      <c r="J110" s="131"/>
+      <c r="K110" s="171"/>
+      <c r="L110" s="120"/>
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A111" s="155"/>
+      <c r="A111" s="156"/>
       <c r="B111" s="17" t="s">
         <v>27</v>
       </c>
@@ -5060,13 +4995,13 @@
       <c r="H111" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="I111" s="142"/>
-      <c r="J111" s="131"/>
-      <c r="K111" s="150"/>
-      <c r="L111" s="119"/>
+      <c r="I111" s="143"/>
+      <c r="J111" s="132"/>
+      <c r="K111" s="151"/>
+      <c r="L111" s="120"/>
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A112" s="132">
+      <c r="A112" s="133">
         <v>36</v>
       </c>
       <c r="B112" s="49" t="s">
@@ -5090,19 +5025,19 @@
       <c r="H112" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="I112" s="146" t="s">
-        <v>0</v>
-      </c>
-      <c r="J112" s="138">
+      <c r="I112" s="142" t="s">
+        <v>4</v>
+      </c>
+      <c r="J112" s="139">
         <v>152</v>
       </c>
-      <c r="K112" s="151">
+      <c r="K112" s="139">
         <v>8</v>
       </c>
-      <c r="L112" s="170"/>
+      <c r="L112" s="168"/>
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A113" s="133"/>
+      <c r="A113" s="134"/>
       <c r="B113" s="52" t="s">
         <v>25</v>
       </c>
@@ -5122,927 +5057,959 @@
       <c r="H113" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="I113" s="147"/>
-      <c r="J113" s="139"/>
-      <c r="K113" s="171"/>
-      <c r="L113" s="170"/>
+      <c r="I113" s="126"/>
+      <c r="J113" s="140"/>
+      <c r="K113" s="140"/>
+      <c r="L113" s="168"/>
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A114" s="134"/>
-      <c r="B114" s="18" t="s">
+      <c r="B114" s="52" t="s">
         <v>27</v>
       </c>
-      <c r="C114" s="8">
+      <c r="C114" s="56">
         <v>44847</v>
       </c>
-      <c r="D114" s="8"/>
-      <c r="E114" s="8">
+      <c r="D114" s="56"/>
+      <c r="E114" s="56">
         <v>44850</v>
       </c>
-      <c r="F114" s="23" t="s">
+      <c r="F114" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="G114" s="18" t="s">
+      <c r="G114" s="52" t="s">
         <v>39</v>
       </c>
-      <c r="H114" s="18" t="s">
+      <c r="H114" s="52" t="s">
         <v>40</v>
       </c>
-      <c r="I114" s="148"/>
+      <c r="I114" s="126"/>
       <c r="J114" s="140"/>
-      <c r="K114" s="152"/>
-      <c r="L114" s="170"/>
+      <c r="K114" s="140"/>
+      <c r="L114" s="168"/>
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A115" s="121">
+      <c r="A115" s="135"/>
+      <c r="B115" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="C115" s="8">
+        <v>44857</v>
+      </c>
+      <c r="D115" s="8">
+        <v>44871</v>
+      </c>
+      <c r="E115" s="8">
+        <v>44874</v>
+      </c>
+      <c r="F115" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="G115" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="H115" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="I115" s="143"/>
+      <c r="J115" s="141"/>
+      <c r="K115" s="141"/>
+      <c r="L115" s="115"/>
+    </row>
+    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A116" s="122">
         <v>37</v>
       </c>
-      <c r="B115" s="44" t="s">
+      <c r="B116" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="C115" s="66">
+      <c r="C116" s="66">
         <v>44822</v>
-      </c>
-      <c r="D115" s="66"/>
-      <c r="E115" s="66">
-        <v>44822</v>
-      </c>
-      <c r="F115" s="67" t="s">
-        <v>10</v>
-      </c>
-      <c r="G115" s="68" t="s">
-        <v>12</v>
-      </c>
-      <c r="H115" s="68" t="s">
-        <v>11</v>
-      </c>
-      <c r="I115" s="146" t="s">
-        <v>0</v>
-      </c>
-      <c r="J115" s="129">
-        <v>55</v>
-      </c>
-      <c r="K115" s="149">
-        <v>3</v>
-      </c>
-      <c r="L115" s="119"/>
-    </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A116" s="122"/>
-      <c r="B116" s="44" t="s">
-        <v>25</v>
-      </c>
-      <c r="C116" s="66">
-        <v>44847</v>
       </c>
       <c r="D116" s="66"/>
       <c r="E116" s="66">
-        <v>44850</v>
+        <v>44822</v>
       </c>
       <c r="F116" s="67" t="s">
+        <v>10</v>
+      </c>
+      <c r="G116" s="68" t="s">
+        <v>12</v>
+      </c>
+      <c r="H116" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="I116" s="147" t="s">
+        <v>0</v>
+      </c>
+      <c r="J116" s="130">
+        <v>55</v>
+      </c>
+      <c r="K116" s="150">
         <v>3</v>
       </c>
-      <c r="G116" s="68" t="s">
-        <v>39</v>
-      </c>
-      <c r="H116" s="68" t="s">
-        <v>40</v>
-      </c>
-      <c r="I116" s="147"/>
-      <c r="J116" s="130"/>
-      <c r="K116" s="173"/>
-      <c r="L116" s="119"/>
+      <c r="L116" s="120"/>
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A117" s="123"/>
-      <c r="B117" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="C117" s="36">
-        <v>44857</v>
-      </c>
-      <c r="D117" s="6">
-        <v>44871</v>
-      </c>
-      <c r="E117" s="6">
-        <v>44875</v>
-      </c>
-      <c r="F117" s="37" t="s">
-        <v>10</v>
-      </c>
-      <c r="G117" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="H117" s="38" t="s">
-        <v>11</v>
+      <c r="B117" s="44" t="s">
+        <v>25</v>
+      </c>
+      <c r="C117" s="66">
+        <v>44847</v>
+      </c>
+      <c r="D117" s="66"/>
+      <c r="E117" s="66">
+        <v>44850</v>
+      </c>
+      <c r="F117" s="67" t="s">
+        <v>3</v>
+      </c>
+      <c r="G117" s="68" t="s">
+        <v>39</v>
+      </c>
+      <c r="H117" s="68" t="s">
+        <v>40</v>
       </c>
       <c r="I117" s="148"/>
       <c r="J117" s="131"/>
-      <c r="K117" s="150"/>
-      <c r="L117" s="119"/>
+      <c r="K117" s="171"/>
+      <c r="L117" s="120"/>
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A118" s="143">
+      <c r="A118" s="124"/>
+      <c r="B118" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="C118" s="36">
+        <v>44857</v>
+      </c>
+      <c r="D118" s="6">
+        <v>44871</v>
+      </c>
+      <c r="E118" s="6">
+        <v>44875</v>
+      </c>
+      <c r="F118" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="G118" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="H118" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="I118" s="149"/>
+      <c r="J118" s="132"/>
+      <c r="K118" s="151"/>
+      <c r="L118" s="120"/>
+    </row>
+    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A119" s="144">
         <v>38</v>
       </c>
-      <c r="B118" s="49" t="s">
+      <c r="B119" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="C118" s="50">
+      <c r="C119" s="50">
         <v>44815</v>
       </c>
-      <c r="D118" s="50"/>
-      <c r="E118" s="50">
+      <c r="D119" s="50"/>
+      <c r="E119" s="50">
         <v>44818</v>
       </c>
-      <c r="F118" s="51" t="s">
+      <c r="F119" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="G118" s="49" t="s">
+      <c r="G119" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="H118" s="49" t="s">
+      <c r="H119" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="I118" s="172" t="s">
+      <c r="I119" s="170" t="s">
         <v>0</v>
       </c>
-      <c r="J118" s="138">
+      <c r="J119" s="139">
         <v>61</v>
       </c>
-      <c r="K118" s="151">
+      <c r="K119" s="152">
         <v>3</v>
       </c>
-      <c r="L118" s="120"/>
-    </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A119" s="144"/>
-      <c r="B119" s="49" t="s">
+      <c r="L119" s="121"/>
+    </row>
+    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A120" s="145"/>
+      <c r="B120" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="C119" s="56">
+      <c r="C120" s="56">
         <v>44829</v>
-      </c>
-      <c r="D119" s="56"/>
-      <c r="E119" s="56">
-        <v>44836</v>
-      </c>
-      <c r="F119" s="57" t="s">
-        <v>10</v>
-      </c>
-      <c r="G119" s="52" t="s">
-        <v>24</v>
-      </c>
-      <c r="H119" s="52" t="s">
-        <v>11</v>
-      </c>
-      <c r="I119" s="172"/>
-      <c r="J119" s="139"/>
-      <c r="K119" s="171"/>
-      <c r="L119" s="120"/>
-    </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A120" s="144"/>
-      <c r="B120" s="52" t="s">
-        <v>27</v>
-      </c>
-      <c r="C120" s="56">
-        <v>44843</v>
       </c>
       <c r="D120" s="56"/>
       <c r="E120" s="56">
-        <v>44843</v>
+        <v>44836</v>
       </c>
       <c r="F120" s="57" t="s">
         <v>10</v>
       </c>
       <c r="G120" s="52" t="s">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="H120" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="I120" s="172"/>
-      <c r="J120" s="139"/>
-      <c r="K120" s="171"/>
-      <c r="L120" s="120"/>
+      <c r="I120" s="170"/>
+      <c r="J120" s="140"/>
+      <c r="K120" s="169"/>
+      <c r="L120" s="121"/>
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A121" s="144"/>
+      <c r="A121" s="145"/>
       <c r="B121" s="52" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="C121" s="56">
-        <v>44847</v>
+        <v>44843</v>
       </c>
       <c r="D121" s="56"/>
       <c r="E121" s="56">
-        <v>44850</v>
+        <v>44843</v>
       </c>
       <c r="F121" s="57" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="G121" s="52" t="s">
-        <v>39</v>
+        <v>2</v>
       </c>
       <c r="H121" s="52" t="s">
-        <v>40</v>
-      </c>
-      <c r="I121" s="172"/>
-      <c r="J121" s="139"/>
-      <c r="K121" s="171"/>
-      <c r="L121" s="120"/>
+        <v>11</v>
+      </c>
+      <c r="I121" s="170"/>
+      <c r="J121" s="140"/>
+      <c r="K121" s="169"/>
+      <c r="L121" s="121"/>
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A122" s="145"/>
-      <c r="B122" s="18" t="s">
+      <c r="B122" s="52" t="s">
+        <v>41</v>
+      </c>
+      <c r="C122" s="56">
+        <v>44847</v>
+      </c>
+      <c r="D122" s="56"/>
+      <c r="E122" s="56">
+        <v>44850</v>
+      </c>
+      <c r="F122" s="57" t="s">
+        <v>3</v>
+      </c>
+      <c r="G122" s="52" t="s">
+        <v>39</v>
+      </c>
+      <c r="H122" s="52" t="s">
+        <v>40</v>
+      </c>
+      <c r="I122" s="170"/>
+      <c r="J122" s="140"/>
+      <c r="K122" s="169"/>
+      <c r="L122" s="121"/>
+    </row>
+    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A123" s="146"/>
+      <c r="B123" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="C122" s="8">
+      <c r="C123" s="8">
         <v>44857</v>
       </c>
-      <c r="D122" s="27">
+      <c r="D123" s="27">
         <v>44871</v>
       </c>
-      <c r="E122" s="27">
+      <c r="E123" s="27">
         <v>44875</v>
       </c>
-      <c r="F122" s="23" t="s">
+      <c r="F123" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="G122" s="18" t="s">
+      <c r="G123" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="H122" s="18" t="s">
+      <c r="H123" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="I122" s="172"/>
-      <c r="J122" s="140"/>
-      <c r="K122" s="152"/>
-      <c r="L122" s="120"/>
-    </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A123" s="121">
+      <c r="I123" s="170"/>
+      <c r="J123" s="141"/>
+      <c r="K123" s="153"/>
+      <c r="L123" s="121"/>
+    </row>
+    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A124" s="122">
         <v>39</v>
       </c>
-      <c r="B123" s="44" t="s">
+      <c r="B124" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="C123" s="66">
+      <c r="C124" s="66">
         <v>44822</v>
       </c>
-      <c r="D123" s="66"/>
-      <c r="E123" s="66">
+      <c r="D124" s="66"/>
+      <c r="E124" s="66">
         <v>44822</v>
       </c>
-      <c r="F123" s="67" t="s">
+      <c r="F124" s="67" t="s">
         <v>10</v>
       </c>
-      <c r="G123" s="68" t="s">
+      <c r="G124" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="H123" s="68" t="s">
+      <c r="H124" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="I123" s="172" t="s">
+      <c r="I124" s="170" t="s">
         <v>0</v>
       </c>
-      <c r="J123" s="159">
+      <c r="J124" s="160">
         <v>20</v>
       </c>
-      <c r="K123" s="149">
+      <c r="K124" s="150">
         <v>1</v>
       </c>
-      <c r="L123" s="119"/>
-    </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A124" s="122"/>
-      <c r="B124" s="44" t="s">
+      <c r="L124" s="120"/>
+    </row>
+    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A125" s="123"/>
+      <c r="B125" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="C124" s="58">
+      <c r="C125" s="58">
         <v>44829</v>
-      </c>
-      <c r="D124" s="58"/>
-      <c r="E124" s="58">
-        <v>44829</v>
-      </c>
-      <c r="F124" s="59" t="s">
-        <v>10</v>
-      </c>
-      <c r="G124" s="60" t="s">
-        <v>2</v>
-      </c>
-      <c r="H124" s="60" t="s">
-        <v>11</v>
-      </c>
-      <c r="I124" s="172"/>
-      <c r="J124" s="160"/>
-      <c r="K124" s="173"/>
-      <c r="L124" s="119"/>
-    </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A125" s="122"/>
-      <c r="B125" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C125" s="58">
-        <v>44847</v>
       </c>
       <c r="D125" s="58"/>
       <c r="E125" s="58">
-        <v>44850</v>
+        <v>44829</v>
       </c>
       <c r="F125" s="59" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="G125" s="60" t="s">
-        <v>39</v>
+        <v>2</v>
       </c>
       <c r="H125" s="60" t="s">
-        <v>40</v>
-      </c>
-      <c r="I125" s="172"/>
-      <c r="J125" s="160"/>
-      <c r="K125" s="173"/>
-      <c r="L125" s="119"/>
+        <v>11</v>
+      </c>
+      <c r="I125" s="170"/>
+      <c r="J125" s="161"/>
+      <c r="K125" s="171"/>
+      <c r="L125" s="120"/>
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A126" s="123"/>
-      <c r="B126" s="17" t="s">
+      <c r="B126" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C126" s="58">
+        <v>44847</v>
+      </c>
+      <c r="D126" s="58"/>
+      <c r="E126" s="58">
+        <v>44850</v>
+      </c>
+      <c r="F126" s="59" t="s">
+        <v>3</v>
+      </c>
+      <c r="G126" s="60" t="s">
+        <v>39</v>
+      </c>
+      <c r="H126" s="60" t="s">
+        <v>40</v>
+      </c>
+      <c r="I126" s="170"/>
+      <c r="J126" s="161"/>
+      <c r="K126" s="171"/>
+      <c r="L126" s="120"/>
+    </row>
+    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A127" s="124"/>
+      <c r="B127" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="C126" s="36">
+      <c r="C127" s="36">
         <v>44857</v>
       </c>
-      <c r="D126" s="6">
+      <c r="D127" s="6">
         <v>44871</v>
       </c>
-      <c r="E126" s="6">
+      <c r="E127" s="6">
         <v>44875</v>
       </c>
-      <c r="F126" s="37" t="s">
+      <c r="F127" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="G126" s="38" t="s">
+      <c r="G127" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="H126" s="38" t="s">
+      <c r="H127" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="I126" s="172"/>
-      <c r="J126" s="161"/>
-      <c r="K126" s="150"/>
-      <c r="L126" s="119"/>
-    </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A127" s="143">
+      <c r="I127" s="170"/>
+      <c r="J127" s="162"/>
+      <c r="K127" s="151"/>
+      <c r="L127" s="120"/>
+    </row>
+    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A128" s="144">
         <v>40</v>
       </c>
-      <c r="B127" s="49" t="s">
+      <c r="B128" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="C127" s="50">
+      <c r="C128" s="50">
         <v>44822</v>
       </c>
-      <c r="D127" s="50"/>
-      <c r="E127" s="50">
+      <c r="D128" s="50"/>
+      <c r="E128" s="50">
         <v>44822</v>
       </c>
-      <c r="F127" s="51" t="s">
+      <c r="F128" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="G127" s="49" t="s">
+      <c r="G128" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="H127" s="49" t="s">
+      <c r="H128" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="I127" s="172" t="s">
+      <c r="I128" s="170" t="s">
         <v>0</v>
       </c>
-      <c r="J127" s="151">
+      <c r="J128" s="152">
         <v>17</v>
       </c>
-      <c r="K127" s="176">
+      <c r="K128" s="174">
         <v>1</v>
       </c>
-      <c r="L127" s="120"/>
-    </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A128" s="144"/>
-      <c r="B128" s="49" t="s">
+      <c r="L128" s="121"/>
+    </row>
+    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A129" s="145"/>
+      <c r="B129" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="C128" s="56">
+      <c r="C129" s="56">
         <v>44829</v>
-      </c>
-      <c r="D128" s="56"/>
-      <c r="E128" s="56">
-        <v>44829</v>
-      </c>
-      <c r="F128" s="57" t="s">
-        <v>10</v>
-      </c>
-      <c r="G128" s="52" t="s">
-        <v>2</v>
-      </c>
-      <c r="H128" s="52" t="s">
-        <v>11</v>
-      </c>
-      <c r="I128" s="172"/>
-      <c r="J128" s="171"/>
-      <c r="K128" s="178"/>
-      <c r="L128" s="120"/>
-    </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A129" s="144"/>
-      <c r="B129" s="52" t="s">
-        <v>27</v>
-      </c>
-      <c r="C129" s="56">
-        <v>44847</v>
       </c>
       <c r="D129" s="56"/>
       <c r="E129" s="56">
-        <v>44850</v>
+        <v>44829</v>
       </c>
       <c r="F129" s="57" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="G129" s="52" t="s">
-        <v>39</v>
+        <v>2</v>
       </c>
       <c r="H129" s="52" t="s">
-        <v>40</v>
-      </c>
-      <c r="I129" s="172"/>
-      <c r="J129" s="171"/>
-      <c r="K129" s="178"/>
-      <c r="L129" s="120"/>
+        <v>11</v>
+      </c>
+      <c r="I129" s="170"/>
+      <c r="J129" s="169"/>
+      <c r="K129" s="176"/>
+      <c r="L129" s="121"/>
     </row>
     <row r="130" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A130" s="145"/>
-      <c r="B130" s="40" t="s">
+      <c r="B130" s="52" t="s">
+        <v>27</v>
+      </c>
+      <c r="C130" s="56">
+        <v>44847</v>
+      </c>
+      <c r="D130" s="56"/>
+      <c r="E130" s="56">
+        <v>44850</v>
+      </c>
+      <c r="F130" s="57" t="s">
+        <v>3</v>
+      </c>
+      <c r="G130" s="52" t="s">
+        <v>39</v>
+      </c>
+      <c r="H130" s="52" t="s">
+        <v>40</v>
+      </c>
+      <c r="I130" s="170"/>
+      <c r="J130" s="169"/>
+      <c r="K130" s="176"/>
+      <c r="L130" s="121"/>
+    </row>
+    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A131" s="146"/>
+      <c r="B131" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="C130" s="8">
+      <c r="C131" s="8">
         <v>44857</v>
       </c>
-      <c r="D130" s="27">
+      <c r="D131" s="27">
         <v>44871</v>
       </c>
-      <c r="E130" s="27">
+      <c r="E131" s="27">
         <v>44875</v>
       </c>
-      <c r="F130" s="23" t="s">
+      <c r="F131" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="G130" s="18" t="s">
+      <c r="G131" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="H130" s="18" t="s">
+      <c r="H131" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="I130" s="172"/>
-      <c r="J130" s="152"/>
-      <c r="K130" s="177"/>
-      <c r="L130" s="120"/>
-    </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A131" s="14">
+      <c r="I131" s="170"/>
+      <c r="J131" s="153"/>
+      <c r="K131" s="175"/>
+      <c r="L131" s="121"/>
+    </row>
+    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A132" s="14">
         <v>41</v>
       </c>
-      <c r="B131" s="4"/>
-      <c r="C131" s="113"/>
-      <c r="D131" s="113"/>
-      <c r="E131" s="113"/>
-      <c r="F131" s="11"/>
-      <c r="G131" s="11"/>
-      <c r="H131" s="11"/>
-      <c r="I131" s="11"/>
-      <c r="J131" s="11"/>
-      <c r="K131" s="11"/>
-      <c r="L131" s="82"/>
-    </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A132" s="132">
+      <c r="B132" s="4"/>
+      <c r="C132" s="113"/>
+      <c r="D132" s="113"/>
+      <c r="E132" s="113"/>
+      <c r="F132" s="11"/>
+      <c r="G132" s="11"/>
+      <c r="H132" s="11"/>
+      <c r="I132" s="11"/>
+      <c r="J132" s="11"/>
+      <c r="K132" s="11"/>
+      <c r="L132" s="82"/>
+    </row>
+    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A133" s="133">
         <v>42</v>
       </c>
-      <c r="B132" s="101" t="s">
+      <c r="B133" s="101" t="s">
         <v>26</v>
       </c>
-      <c r="C132" s="104">
+      <c r="C133" s="104">
         <v>44822</v>
-      </c>
-      <c r="D132" s="104"/>
-      <c r="E132" s="104">
-        <v>44822</v>
-      </c>
-      <c r="F132" s="105" t="s">
-        <v>10</v>
-      </c>
-      <c r="G132" s="98" t="s">
-        <v>9</v>
-      </c>
-      <c r="H132" s="98" t="s">
-        <v>11</v>
-      </c>
-      <c r="I132" s="141" t="s">
-        <v>4</v>
-      </c>
-      <c r="J132" s="138">
-        <v>41</v>
-      </c>
-      <c r="K132" s="138">
-        <v>3</v>
-      </c>
-      <c r="L132" s="120"/>
-    </row>
-    <row r="133" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="133"/>
-      <c r="B133" s="98" t="s">
-        <v>25</v>
-      </c>
-      <c r="C133" s="104">
-        <v>44839</v>
       </c>
       <c r="D133" s="104"/>
       <c r="E133" s="104">
+        <v>44822</v>
+      </c>
+      <c r="F133" s="105" t="s">
+        <v>10</v>
+      </c>
+      <c r="G133" s="98" t="s">
+        <v>9</v>
+      </c>
+      <c r="H133" s="98" t="s">
+        <v>11</v>
+      </c>
+      <c r="I133" s="142" t="s">
+        <v>4</v>
+      </c>
+      <c r="J133" s="139">
+        <v>41</v>
+      </c>
+      <c r="K133" s="139">
+        <v>3</v>
+      </c>
+      <c r="L133" s="121"/>
+    </row>
+    <row r="134" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A134" s="134"/>
+      <c r="B134" s="98" t="s">
+        <v>25</v>
+      </c>
+      <c r="C134" s="104">
         <v>44839</v>
-      </c>
-      <c r="F133" s="105" t="s">
-        <v>23</v>
-      </c>
-      <c r="G133" s="98" t="s">
-        <v>2</v>
-      </c>
-      <c r="H133" s="98" t="s">
-        <v>1</v>
-      </c>
-      <c r="I133" s="125"/>
-      <c r="J133" s="139"/>
-      <c r="K133" s="139"/>
-      <c r="L133" s="120"/>
-    </row>
-    <row r="134" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="133"/>
-      <c r="B134" s="98" t="s">
-        <v>27</v>
-      </c>
-      <c r="C134" s="104">
-        <v>44863</v>
       </c>
       <c r="D134" s="104"/>
       <c r="E134" s="104">
-        <v>44864</v>
+        <v>44839</v>
       </c>
       <c r="F134" s="105" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="G134" s="98" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="H134" s="98" t="s">
-        <v>8</v>
-      </c>
-      <c r="I134" s="125"/>
-      <c r="J134" s="139"/>
-      <c r="K134" s="139"/>
-      <c r="L134" s="120"/>
+        <v>1</v>
+      </c>
+      <c r="I134" s="126"/>
+      <c r="J134" s="140"/>
+      <c r="K134" s="140"/>
+      <c r="L134" s="121"/>
     </row>
     <row r="135" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="134"/>
-      <c r="B135" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="C135" s="8">
-        <v>44878</v>
-      </c>
-      <c r="D135" s="8">
-        <v>44885</v>
-      </c>
-      <c r="E135" s="8">
-        <v>44888</v>
-      </c>
-      <c r="F135" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="G135" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="H135" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="I135" s="142"/>
+      <c r="B135" s="98" t="s">
+        <v>27</v>
+      </c>
+      <c r="C135" s="104">
+        <v>44863</v>
+      </c>
+      <c r="D135" s="104"/>
+      <c r="E135" s="104">
+        <v>44864</v>
+      </c>
+      <c r="F135" s="105" t="s">
+        <v>7</v>
+      </c>
+      <c r="G135" s="98" t="s">
+        <v>18</v>
+      </c>
+      <c r="H135" s="98" t="s">
+        <v>8</v>
+      </c>
+      <c r="I135" s="126"/>
       <c r="J135" s="140"/>
       <c r="K135" s="140"/>
-      <c r="L135" s="88"/>
-    </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A136" s="121">
+      <c r="L135" s="121"/>
+    </row>
+    <row r="136" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A136" s="135"/>
+      <c r="B136" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="C136" s="8">
+        <v>44878</v>
+      </c>
+      <c r="D136" s="8">
+        <v>44885</v>
+      </c>
+      <c r="E136" s="8">
+        <v>44888</v>
+      </c>
+      <c r="F136" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="G136" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H136" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="I136" s="143"/>
+      <c r="J136" s="141"/>
+      <c r="K136" s="141"/>
+      <c r="L136" s="88"/>
+    </row>
+    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A137" s="122">
         <v>43</v>
       </c>
-      <c r="B136" s="44" t="s">
+      <c r="B137" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="C136" s="58">
+      <c r="C137" s="58">
         <v>44815</v>
       </c>
-      <c r="D136" s="58">
+      <c r="D137" s="58">
         <v>44822</v>
       </c>
-      <c r="E136" s="58">
+      <c r="E137" s="58">
         <v>44822</v>
       </c>
-      <c r="F136" s="59" t="s">
+      <c r="F137" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="G136" s="60" t="s">
+      <c r="G137" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="H136" s="60" t="s">
+      <c r="H137" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="I136" s="124" t="s">
+      <c r="I137" s="125" t="s">
         <v>4</v>
       </c>
-      <c r="J136" s="126">
+      <c r="J137" s="127">
         <v>77</v>
       </c>
-      <c r="K136" s="129">
+      <c r="K137" s="130">
         <v>4</v>
       </c>
-      <c r="L136" s="119"/>
-    </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A137" s="122"/>
-      <c r="B137" s="48" t="s">
+      <c r="L137" s="120"/>
+    </row>
+    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A138" s="123"/>
+      <c r="B138" s="48" t="s">
         <v>25</v>
       </c>
-      <c r="C137" s="58">
+      <c r="C138" s="58">
         <v>44839</v>
-      </c>
-      <c r="D137" s="58"/>
-      <c r="E137" s="58">
-        <v>44839</v>
-      </c>
-      <c r="F137" s="59" t="s">
-        <v>23</v>
-      </c>
-      <c r="G137" s="60" t="s">
-        <v>2</v>
-      </c>
-      <c r="H137" s="60" t="s">
-        <v>1</v>
-      </c>
-      <c r="I137" s="125"/>
-      <c r="J137" s="127"/>
-      <c r="K137" s="130"/>
-      <c r="L137" s="119"/>
-    </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A138" s="122"/>
-      <c r="B138" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C138" s="58">
-        <v>44848</v>
       </c>
       <c r="D138" s="58"/>
       <c r="E138" s="58">
+        <v>44839</v>
+      </c>
+      <c r="F138" s="59" t="s">
+        <v>23</v>
+      </c>
+      <c r="G138" s="60" t="s">
+        <v>2</v>
+      </c>
+      <c r="H138" s="60" t="s">
+        <v>1</v>
+      </c>
+      <c r="I138" s="126"/>
+      <c r="J138" s="128"/>
+      <c r="K138" s="131"/>
+      <c r="L138" s="120"/>
+    </row>
+    <row r="139" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A139" s="123"/>
+      <c r="B139" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C139" s="58">
+        <v>44848</v>
+      </c>
+      <c r="D139" s="58"/>
+      <c r="E139" s="58">
         <v>44850</v>
       </c>
-      <c r="F138" s="59" t="s">
+      <c r="F139" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="G138" s="60" t="s">
+      <c r="G139" s="60" t="s">
         <v>39</v>
       </c>
-      <c r="H138" s="60" t="s">
+      <c r="H139" s="60" t="s">
         <v>40</v>
       </c>
-      <c r="I138" s="125"/>
-      <c r="J138" s="127"/>
-      <c r="K138" s="130"/>
-      <c r="L138" s="119"/>
-    </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A139" s="122"/>
-      <c r="B139" s="100" t="s">
-        <v>41</v>
-      </c>
-      <c r="C139" s="109">
-        <v>44863</v>
-      </c>
-      <c r="D139" s="109"/>
-      <c r="E139" s="109">
-        <v>44864</v>
-      </c>
-      <c r="F139" s="110" t="s">
-        <v>7</v>
-      </c>
-      <c r="G139" s="111" t="s">
-        <v>18</v>
-      </c>
-      <c r="H139" s="100" t="s">
-        <v>8</v>
-      </c>
-      <c r="I139" s="125"/>
-      <c r="J139" s="127"/>
-      <c r="K139" s="130"/>
-      <c r="L139" s="119"/>
+      <c r="I139" s="126"/>
+      <c r="J139" s="128"/>
+      <c r="K139" s="131"/>
+      <c r="L139" s="120"/>
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A140" s="123"/>
-      <c r="B140" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="C140" s="16">
-        <v>44878</v>
-      </c>
-      <c r="D140" s="16">
-        <v>44885</v>
-      </c>
-      <c r="E140" s="16">
-        <v>44888</v>
-      </c>
-      <c r="F140" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="G140" s="32" t="s">
-        <v>46</v>
-      </c>
-      <c r="H140" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="I140" s="125"/>
+      <c r="B140" s="100" t="s">
+        <v>41</v>
+      </c>
+      <c r="C140" s="109">
+        <v>44863</v>
+      </c>
+      <c r="D140" s="109"/>
+      <c r="E140" s="109">
+        <v>44864</v>
+      </c>
+      <c r="F140" s="110" t="s">
+        <v>7</v>
+      </c>
+      <c r="G140" s="111" t="s">
+        <v>18</v>
+      </c>
+      <c r="H140" s="100" t="s">
+        <v>8</v>
+      </c>
+      <c r="I140" s="126"/>
       <c r="J140" s="128"/>
       <c r="K140" s="131"/>
-      <c r="L140" s="90"/>
+      <c r="L140" s="120"/>
     </row>
     <row r="141" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A141" s="132">
+      <c r="A141" s="124"/>
+      <c r="B141" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="B141" s="49" t="s">
+      <c r="C141" s="16">
+        <v>44878</v>
+      </c>
+      <c r="D141" s="16">
+        <v>44885</v>
+      </c>
+      <c r="E141" s="16">
+        <v>44888</v>
+      </c>
+      <c r="F141" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="G141" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H141" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="I141" s="126"/>
+      <c r="J141" s="129"/>
+      <c r="K141" s="132"/>
+      <c r="L141" s="90"/>
+    </row>
+    <row r="142" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A142" s="133">
+        <v>44</v>
+      </c>
+      <c r="B142" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="C141" s="56">
+      <c r="C142" s="56">
         <v>44848</v>
       </c>
-      <c r="D141" s="56"/>
-      <c r="E141" s="56">
+      <c r="D142" s="56"/>
+      <c r="E142" s="56">
         <v>44850</v>
       </c>
-      <c r="F141" s="57" t="s">
+      <c r="F142" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="G141" s="52" t="s">
+      <c r="G142" s="52" t="s">
         <v>39</v>
       </c>
-      <c r="H141" s="52" t="s">
+      <c r="H142" s="52" t="s">
         <v>40</v>
       </c>
-      <c r="I141" s="124" t="s">
+      <c r="I142" s="125" t="s">
         <v>4</v>
       </c>
-      <c r="J141" s="135">
+      <c r="J142" s="136">
         <v>39</v>
       </c>
-      <c r="K141" s="138">
+      <c r="K142" s="139">
         <v>3</v>
       </c>
-      <c r="L141" s="120"/>
-    </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A142" s="133"/>
-      <c r="B142" s="52" t="s">
-        <v>25</v>
-      </c>
-      <c r="C142" s="104">
-        <v>44863</v>
-      </c>
-      <c r="D142" s="104"/>
-      <c r="E142" s="104">
-        <v>44864</v>
-      </c>
-      <c r="F142" s="105" t="s">
-        <v>7</v>
-      </c>
-      <c r="G142" s="98" t="s">
-        <v>18</v>
-      </c>
-      <c r="H142" s="98" t="s">
-        <v>8</v>
-      </c>
-      <c r="I142" s="125"/>
-      <c r="J142" s="136"/>
-      <c r="K142" s="139"/>
-      <c r="L142" s="120"/>
+      <c r="L142" s="121"/>
     </row>
     <row r="143" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A143" s="134"/>
-      <c r="B143" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="C143" s="8">
-        <v>44878</v>
-      </c>
-      <c r="D143" s="8">
-        <v>44885</v>
-      </c>
-      <c r="E143" s="8">
-        <v>44888</v>
-      </c>
-      <c r="F143" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="G143" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="H143" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="I143" s="125"/>
+      <c r="B143" s="52" t="s">
+        <v>25</v>
+      </c>
+      <c r="C143" s="104">
+        <v>44863</v>
+      </c>
+      <c r="D143" s="104"/>
+      <c r="E143" s="104">
+        <v>44864</v>
+      </c>
+      <c r="F143" s="105" t="s">
+        <v>7</v>
+      </c>
+      <c r="G143" s="98" t="s">
+        <v>18</v>
+      </c>
+      <c r="H143" s="98" t="s">
+        <v>8</v>
+      </c>
+      <c r="I143" s="126"/>
       <c r="J143" s="137"/>
       <c r="K143" s="140"/>
-      <c r="L143" s="88"/>
+      <c r="L143" s="121"/>
     </row>
     <row r="144" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A144" s="121">
+      <c r="A144" s="135"/>
+      <c r="B144" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="C144" s="8">
+        <v>44878</v>
+      </c>
+      <c r="D144" s="8">
+        <v>44885</v>
+      </c>
+      <c r="E144" s="8">
+        <v>44888</v>
+      </c>
+      <c r="F144" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="G144" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H144" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="I144" s="126"/>
+      <c r="J144" s="138"/>
+      <c r="K144" s="141"/>
+      <c r="L144" s="88"/>
+    </row>
+    <row r="145" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A145" s="122">
         <v>45</v>
       </c>
-      <c r="B144" s="44" t="s">
+      <c r="B145" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="C144" s="58">
+      <c r="C145" s="58">
         <v>44829</v>
       </c>
-      <c r="D144" s="58"/>
-      <c r="E144" s="58">
+      <c r="D145" s="58"/>
+      <c r="E145" s="58">
         <v>44829</v>
       </c>
-      <c r="F144" s="59" t="s">
+      <c r="F145" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="G144" s="60" t="s">
+      <c r="G145" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="H144" s="60" t="s">
+      <c r="H145" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="I144" s="146" t="s">
+      <c r="I145" s="147" t="s">
         <v>0</v>
       </c>
-      <c r="J144" s="129">
+      <c r="J145" s="130">
         <v>53</v>
       </c>
-      <c r="K144" s="149">
+      <c r="K145" s="150">
         <v>3</v>
       </c>
-      <c r="L144" s="119"/>
-    </row>
-    <row r="145" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A145" s="165"/>
-      <c r="B145" s="33" t="s">
+      <c r="L145" s="120"/>
+    </row>
+    <row r="146" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A146" s="163"/>
+      <c r="B146" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="C145" s="15">
+      <c r="C146" s="15">
         <v>44848</v>
       </c>
-      <c r="D145" s="15"/>
-      <c r="E145" s="15">
+      <c r="D146" s="15"/>
+      <c r="E146" s="15">
         <v>44829</v>
       </c>
-      <c r="F145" s="34" t="s">
+      <c r="F146" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="G145" s="35" t="s">
+      <c r="G146" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="H145" s="35" t="s">
+      <c r="H146" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="I145" s="166"/>
-      <c r="J145" s="167"/>
-      <c r="K145" s="168"/>
-      <c r="L145" s="169"/>
+      <c r="I146" s="164"/>
+      <c r="J146" s="165"/>
+      <c r="K146" s="166"/>
+      <c r="L146" s="167"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L145"/>
+  <autoFilter ref="A1:L146"/>
   <mergeCells count="199">
+    <mergeCell ref="A112:A115"/>
+    <mergeCell ref="I112:I115"/>
+    <mergeCell ref="J112:J115"/>
+    <mergeCell ref="K112:K115"/>
     <mergeCell ref="L29:L32"/>
     <mergeCell ref="A34:A37"/>
     <mergeCell ref="I34:I37"/>
     <mergeCell ref="J34:J37"/>
     <mergeCell ref="K34:K37"/>
     <mergeCell ref="L34:L37"/>
-    <mergeCell ref="I118:I122"/>
-    <mergeCell ref="J118:J122"/>
-    <mergeCell ref="K118:K122"/>
-    <mergeCell ref="L118:L122"/>
-    <mergeCell ref="A118:A122"/>
+    <mergeCell ref="I119:I123"/>
+    <mergeCell ref="J119:J123"/>
+    <mergeCell ref="K119:K123"/>
+    <mergeCell ref="L119:L123"/>
+    <mergeCell ref="A119:A123"/>
     <mergeCell ref="J89:J91"/>
     <mergeCell ref="A83:A85"/>
     <mergeCell ref="I83:I85"/>
@@ -6054,8 +6021,8 @@
     <mergeCell ref="J79:J82"/>
     <mergeCell ref="K79:K82"/>
     <mergeCell ref="L79:L82"/>
-    <mergeCell ref="A115:A117"/>
-    <mergeCell ref="I115:I117"/>
+    <mergeCell ref="A116:A118"/>
+    <mergeCell ref="I116:I118"/>
     <mergeCell ref="I2:I6"/>
     <mergeCell ref="J2:J6"/>
     <mergeCell ref="K2:K6"/>
@@ -6076,13 +6043,13 @@
     <mergeCell ref="I26:I28"/>
     <mergeCell ref="J26:J28"/>
     <mergeCell ref="K26:K28"/>
-    <mergeCell ref="L141:L142"/>
-    <mergeCell ref="A127:A130"/>
-    <mergeCell ref="I127:I130"/>
-    <mergeCell ref="J127:J130"/>
-    <mergeCell ref="K127:K130"/>
-    <mergeCell ref="L127:L130"/>
-    <mergeCell ref="L132:L134"/>
+    <mergeCell ref="L142:L143"/>
+    <mergeCell ref="A128:A131"/>
+    <mergeCell ref="I128:I131"/>
+    <mergeCell ref="J128:J131"/>
+    <mergeCell ref="K128:K131"/>
+    <mergeCell ref="L128:L131"/>
+    <mergeCell ref="L133:L135"/>
     <mergeCell ref="L65:L67"/>
     <mergeCell ref="I38:I40"/>
     <mergeCell ref="J38:J40"/>
@@ -6098,21 +6065,21 @@
     <mergeCell ref="K41:K42"/>
     <mergeCell ref="L41:L42"/>
     <mergeCell ref="A51:A53"/>
-    <mergeCell ref="L136:L139"/>
+    <mergeCell ref="L137:L140"/>
     <mergeCell ref="K89:K91"/>
-    <mergeCell ref="J115:J117"/>
-    <mergeCell ref="K115:K117"/>
-    <mergeCell ref="L115:L117"/>
-    <mergeCell ref="A123:A126"/>
-    <mergeCell ref="I123:I126"/>
-    <mergeCell ref="J123:J126"/>
+    <mergeCell ref="J116:J118"/>
+    <mergeCell ref="K116:K118"/>
+    <mergeCell ref="L116:L118"/>
+    <mergeCell ref="A124:A127"/>
+    <mergeCell ref="I124:I127"/>
+    <mergeCell ref="J124:J127"/>
     <mergeCell ref="A109:A111"/>
     <mergeCell ref="I109:I111"/>
     <mergeCell ref="J109:J111"/>
     <mergeCell ref="K109:K111"/>
     <mergeCell ref="L109:L111"/>
-    <mergeCell ref="K123:K126"/>
-    <mergeCell ref="L123:L126"/>
+    <mergeCell ref="K124:K127"/>
+    <mergeCell ref="L124:L127"/>
     <mergeCell ref="A97:A100"/>
     <mergeCell ref="J97:J100"/>
     <mergeCell ref="K97:K100"/>
@@ -6159,20 +6126,16 @@
     <mergeCell ref="L54:L56"/>
     <mergeCell ref="A57:A60"/>
     <mergeCell ref="I57:I60"/>
-    <mergeCell ref="A144:A145"/>
-    <mergeCell ref="I144:I145"/>
-    <mergeCell ref="J144:J145"/>
-    <mergeCell ref="K144:K145"/>
-    <mergeCell ref="L144:L145"/>
+    <mergeCell ref="A145:A146"/>
+    <mergeCell ref="I145:I146"/>
+    <mergeCell ref="J145:J146"/>
+    <mergeCell ref="K145:K146"/>
+    <mergeCell ref="L145:L146"/>
     <mergeCell ref="L86:L88"/>
     <mergeCell ref="L89:L90"/>
     <mergeCell ref="I86:I88"/>
     <mergeCell ref="L112:L114"/>
-    <mergeCell ref="J112:J114"/>
-    <mergeCell ref="K112:K114"/>
     <mergeCell ref="A86:A88"/>
-    <mergeCell ref="A112:A114"/>
-    <mergeCell ref="I112:I114"/>
     <mergeCell ref="I89:I91"/>
     <mergeCell ref="A92:A96"/>
     <mergeCell ref="I92:I96"/>
@@ -6209,14 +6172,14 @@
     <mergeCell ref="K61:K64"/>
     <mergeCell ref="L19:L21"/>
     <mergeCell ref="L14:L17"/>
-    <mergeCell ref="A136:A140"/>
-    <mergeCell ref="I136:I140"/>
-    <mergeCell ref="J136:J140"/>
-    <mergeCell ref="K136:K140"/>
-    <mergeCell ref="A141:A143"/>
-    <mergeCell ref="I141:I143"/>
-    <mergeCell ref="J141:J143"/>
-    <mergeCell ref="K141:K143"/>
+    <mergeCell ref="A137:A141"/>
+    <mergeCell ref="I137:I141"/>
+    <mergeCell ref="J137:J141"/>
+    <mergeCell ref="K137:K141"/>
+    <mergeCell ref="A142:A144"/>
+    <mergeCell ref="I142:I144"/>
+    <mergeCell ref="J142:J144"/>
+    <mergeCell ref="K142:K144"/>
     <mergeCell ref="A101:A104"/>
     <mergeCell ref="I101:I104"/>
     <mergeCell ref="J101:J104"/>
@@ -6225,10 +6188,10 @@
     <mergeCell ref="I105:I108"/>
     <mergeCell ref="J105:J108"/>
     <mergeCell ref="K105:K108"/>
-    <mergeCell ref="A132:A135"/>
-    <mergeCell ref="I132:I135"/>
-    <mergeCell ref="J132:J135"/>
-    <mergeCell ref="K132:K135"/>
+    <mergeCell ref="A133:A136"/>
+    <mergeCell ref="I133:I136"/>
+    <mergeCell ref="J133:J136"/>
+    <mergeCell ref="K133:K136"/>
     <mergeCell ref="A72:A73"/>
     <mergeCell ref="I72:I73"/>
   </mergeCells>
@@ -6236,996 +6199,4 @@
   <pageMargins left="0" right="0" top="1.1811023622047244E-2" bottom="0.11811023622047245" header="0" footer="0"/>
   <pageSetup paperSize="9" scale="50" fitToWidth="0" orientation="landscape" useFirstPageNumber="1" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D144"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D144" sqref="D1:D144"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="76"/>
-      <c r="D1" s="76">
-        <v>44813</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="45"/>
-      <c r="D2" s="45">
-        <v>44850</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="45"/>
-      <c r="D3" s="45">
-        <v>44857</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="45"/>
-      <c r="D4" s="45">
-        <v>44864</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="16"/>
-      <c r="D5" s="16">
-        <v>44871</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="50"/>
-      <c r="D6" s="50">
-        <v>44815</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="50">
-        <v>44832</v>
-      </c>
-      <c r="D7" s="50">
-        <v>44836</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="53"/>
-      <c r="D8" s="53">
-        <v>44843</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="53"/>
-      <c r="D9" s="53">
-        <v>44857</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="95"/>
-      <c r="D10" s="95">
-        <v>44871</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="24">
-        <v>44882</v>
-      </c>
-      <c r="D11" s="24">
-        <v>44885</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="16"/>
-      <c r="D12" s="16">
-        <v>44864</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="102">
-        <v>44812</v>
-      </c>
-      <c r="D13" s="102">
-        <v>44815</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="104"/>
-      <c r="D14" s="104">
-        <v>44850</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="95"/>
-      <c r="D15" s="95">
-        <v>44857</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="95"/>
-      <c r="D16" s="95">
-        <v>44871</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="24">
-        <v>44882</v>
-      </c>
-      <c r="D17" s="24">
-        <v>44885</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="92">
-        <v>44829</v>
-      </c>
-      <c r="D18" s="92">
-        <v>44829</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="92">
-        <v>44868</v>
-      </c>
-      <c r="D19" s="92">
-        <v>44871</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="10">
-        <v>44882</v>
-      </c>
-      <c r="D20" s="10">
-        <v>44885</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="7">
-        <v>44829</v>
-      </c>
-      <c r="D21" s="8">
-        <v>44829</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="58">
-        <v>44829</v>
-      </c>
-      <c r="D22" s="58">
-        <v>44829</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="92">
-        <v>44868</v>
-      </c>
-      <c r="D23" s="92">
-        <v>44871</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="10">
-        <v>44880</v>
-      </c>
-      <c r="D24" s="10">
-        <v>44881</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="56">
-        <v>44829</v>
-      </c>
-      <c r="D25" s="56">
-        <v>44829</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="95">
-        <v>44868</v>
-      </c>
-      <c r="D26" s="95">
-        <v>44871</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="24">
-        <v>44880</v>
-      </c>
-      <c r="D27" s="24">
-        <v>44881</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="45"/>
-      <c r="D28" s="45">
-        <v>44850</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="45"/>
-      <c r="D29" s="45">
-        <v>44857</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="92">
-        <v>44868</v>
-      </c>
-      <c r="D30" s="92">
-        <v>44871</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="10">
-        <v>44880</v>
-      </c>
-      <c r="D31" s="10">
-        <v>44881</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="11"/>
-      <c r="D32" s="11"/>
-    </row>
-    <row r="33" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="58"/>
-      <c r="D33" s="58">
-        <v>44845</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="58">
-        <v>44860</v>
-      </c>
-      <c r="D34" s="58">
-        <v>44860</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="92"/>
-      <c r="D35" s="92">
-        <v>44871</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="10">
-        <v>44880</v>
-      </c>
-      <c r="D36" s="10">
-        <v>44881</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="56"/>
-      <c r="D37" s="56">
-        <v>44839</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="56"/>
-      <c r="D38" s="56">
-        <v>44850</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="8">
-        <v>44835</v>
-      </c>
-      <c r="D39" s="8">
-        <v>44836</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="61"/>
-      <c r="D40" s="58">
-        <v>44829</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="10">
-        <v>44860</v>
-      </c>
-      <c r="D41" s="10">
-        <v>44860</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="56"/>
-      <c r="D42" s="56">
-        <v>44843</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="8">
-        <v>44835</v>
-      </c>
-      <c r="D43" s="8">
-        <v>44836</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="63"/>
-      <c r="D44" s="63">
-        <v>44829</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="61"/>
-      <c r="D45" s="61">
-        <v>44843</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="6">
-        <v>44835</v>
-      </c>
-      <c r="D46" s="6">
-        <v>44836</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="50"/>
-      <c r="D47" s="50">
-        <v>44829</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="39">
-        <v>44861</v>
-      </c>
-      <c r="D48" s="39">
-        <v>44864</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A49" s="11"/>
-      <c r="D49" s="11"/>
-    </row>
-    <row r="50" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="56"/>
-      <c r="D50" s="65">
-        <v>44836</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="56"/>
-      <c r="D51" s="56">
-        <v>44850</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="8">
-        <v>44835</v>
-      </c>
-      <c r="D52" s="8">
-        <v>44836</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A53" s="61"/>
-      <c r="D53" s="61">
-        <v>44822</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A54" s="61"/>
-      <c r="D54" s="61">
-        <v>44813</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A55" s="6">
-        <v>44871</v>
-      </c>
-      <c r="D55" s="6">
-        <v>44875</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A56" s="102"/>
-      <c r="D56" s="102">
-        <v>44818</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A57" s="102"/>
-      <c r="D57" s="102">
-        <v>44813</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A58" s="102">
-        <v>44871</v>
-      </c>
-      <c r="D58" s="102">
-        <v>44875</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A59" s="27">
-        <v>44885</v>
-      </c>
-      <c r="D59" s="27">
-        <v>44888</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A60" s="58"/>
-      <c r="D60" s="58">
-        <v>44818</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A61" s="61"/>
-      <c r="D61" s="61">
-        <v>44813</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A62" s="106">
-        <v>44871</v>
-      </c>
-      <c r="D62" s="106">
-        <v>44875</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A63" s="6">
-        <v>44885</v>
-      </c>
-      <c r="D63" s="6">
-        <v>44888</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A64" s="104">
-        <v>44828</v>
-      </c>
-      <c r="D64" s="104">
-        <v>44828</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A65" s="104"/>
-      <c r="D65" s="104">
-        <v>44850</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A66" s="108">
-        <v>44861</v>
-      </c>
-      <c r="D66" s="108">
-        <v>44864</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A67" s="27">
-        <v>44885</v>
-      </c>
-      <c r="D67" s="27">
-        <v>44888</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A68" s="58"/>
-      <c r="D68" s="58">
-        <v>44818</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A69" s="58"/>
-      <c r="D69" s="58">
-        <v>44850</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A70" s="10">
-        <v>44861</v>
-      </c>
-      <c r="D70" s="10">
-        <v>44864</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A71" s="104"/>
-      <c r="D71" s="104">
-        <v>44818</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A72" s="27">
-        <v>44885</v>
-      </c>
-      <c r="D72" s="27">
-        <v>44888</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A73" s="58"/>
-      <c r="D73" s="58">
-        <v>44846</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A74" s="10">
-        <v>44862</v>
-      </c>
-      <c r="D74" s="10">
-        <v>44864</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A75" s="56"/>
-      <c r="D75" s="56">
-        <v>44832</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A76" s="56"/>
-      <c r="D76" s="56">
-        <v>44850</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A77" s="8">
-        <v>44862</v>
-      </c>
-      <c r="D77" s="8">
-        <v>44864</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A78" s="66"/>
-      <c r="D78" s="66">
-        <v>44818</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A79" s="58"/>
-      <c r="D79" s="58">
-        <v>44836</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A80" s="58">
-        <v>44862</v>
-      </c>
-      <c r="D80" s="58">
-        <v>44864</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A81" s="10">
-        <v>44876</v>
-      </c>
-      <c r="D81" s="10">
-        <v>44847</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A82" s="50"/>
-      <c r="D82" s="50">
-        <v>44808</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A83" s="56">
-        <v>44843</v>
-      </c>
-      <c r="D83" s="56">
-        <v>44843</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A84" s="8">
-        <v>44876</v>
-      </c>
-      <c r="D84" s="8">
-        <v>44847</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A85" s="66"/>
-      <c r="D85" s="66">
-        <v>44808</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A86" s="66"/>
-      <c r="D86" s="66">
-        <v>44818</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A87" s="10">
-        <v>44843</v>
-      </c>
-      <c r="D87" s="10">
-        <v>44843</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A88" s="50"/>
-      <c r="D88" s="50">
-        <v>44815</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A89" s="50"/>
-      <c r="D89" s="50">
-        <v>44815</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A90" s="8">
-        <v>44862</v>
-      </c>
-      <c r="D90" s="8">
-        <v>44864</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A91" s="66"/>
-      <c r="D91" s="66">
-        <v>44815</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A92" s="61"/>
-      <c r="D92" s="61">
-        <v>44832</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A93" s="61"/>
-      <c r="D93" s="61">
-        <v>44843</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A94" s="61"/>
-      <c r="D94" s="61">
-        <v>44850</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A95" s="6">
-        <v>44871</v>
-      </c>
-      <c r="D95" s="6">
-        <v>44875</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A96" s="56"/>
-      <c r="D96" s="65">
-        <v>44815</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A97" s="56"/>
-      <c r="D97" s="56">
-        <v>44843</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A98" s="56"/>
-      <c r="D98" s="56">
-        <v>44850</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A99" s="27">
-        <v>44871</v>
-      </c>
-      <c r="D99" s="27">
-        <v>44875</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A100" s="66"/>
-      <c r="D100" s="66">
-        <v>44815</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A101" s="61"/>
-      <c r="D101" s="69">
-        <v>44832</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A102" s="106">
-        <v>44871</v>
-      </c>
-      <c r="D102" s="106">
-        <v>44875</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A103" s="6">
-        <v>44885</v>
-      </c>
-      <c r="D103" s="6">
-        <v>44888</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A104" s="102"/>
-      <c r="D104" s="102">
-        <v>44808</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A105" s="104">
-        <v>44836</v>
-      </c>
-      <c r="D105" s="104">
-        <f>C105+3</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A106" s="104"/>
-      <c r="D106" s="104">
-        <v>44843</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A107" s="8">
-        <v>44885</v>
-      </c>
-      <c r="D107" s="8">
-        <v>44888</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A108" s="58"/>
-      <c r="D108" s="58">
-        <v>44808</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A109" s="61"/>
-      <c r="D109" s="61">
-        <v>44843</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A110" s="16"/>
-      <c r="D110" s="16">
-        <v>44864</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A111" s="56">
-        <v>44815</v>
-      </c>
-      <c r="D111" s="65">
-        <v>44818</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A112" s="56"/>
-      <c r="D112" s="56">
-        <v>44843</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A113" s="8"/>
-      <c r="D113" s="8">
-        <v>44850</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A114" s="66"/>
-      <c r="D114" s="66">
-        <v>44822</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A115" s="66"/>
-      <c r="D115" s="66">
-        <v>44850</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A116" s="6">
-        <v>44871</v>
-      </c>
-      <c r="D116" s="6">
-        <v>44875</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A117" s="50"/>
-      <c r="D117" s="50">
-        <v>44818</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A118" s="56"/>
-      <c r="D118" s="56">
-        <v>44836</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A119" s="56"/>
-      <c r="D119" s="56">
-        <v>44843</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A120" s="56"/>
-      <c r="D120" s="56">
-        <v>44850</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A121" s="27">
-        <v>44871</v>
-      </c>
-      <c r="D121" s="27">
-        <v>44875</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A122" s="66"/>
-      <c r="D122" s="66">
-        <v>44822</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A123" s="58"/>
-      <c r="D123" s="58">
-        <v>44829</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A124" s="58"/>
-      <c r="D124" s="58">
-        <v>44850</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A125" s="6">
-        <v>44871</v>
-      </c>
-      <c r="D125" s="6">
-        <v>44875</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A126" s="50"/>
-      <c r="D126" s="50">
-        <v>44822</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A127" s="56"/>
-      <c r="D127" s="56">
-        <v>44829</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A128" s="56"/>
-      <c r="D128" s="56">
-        <v>44850</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A129" s="27">
-        <v>44871</v>
-      </c>
-      <c r="D129" s="27">
-        <v>44875</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A130" s="11"/>
-      <c r="D130" s="11"/>
-    </row>
-    <row r="131" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A131" s="104"/>
-      <c r="D131" s="104">
-        <v>44822</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A132" s="104"/>
-      <c r="D132" s="104">
-        <v>44839</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A133" s="104"/>
-      <c r="D133" s="104">
-        <v>44864</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A134" s="8">
-        <v>44885</v>
-      </c>
-      <c r="D134" s="8">
-        <v>44888</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A135" s="58">
-        <v>44822</v>
-      </c>
-      <c r="D135" s="58">
-        <v>44822</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A136" s="58"/>
-      <c r="D136" s="58">
-        <v>44839</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A137" s="58"/>
-      <c r="D137" s="58">
-        <v>44850</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A138" s="109"/>
-      <c r="D138" s="109">
-        <v>44864</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A139" s="16">
-        <v>44885</v>
-      </c>
-      <c r="D139" s="16">
-        <v>44888</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A140" s="56"/>
-      <c r="D140" s="56">
-        <v>44850</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A141" s="104"/>
-      <c r="D141" s="104">
-        <v>44864</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A142" s="8">
-        <v>44885</v>
-      </c>
-      <c r="D142" s="8">
-        <v>44888</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A143" s="58"/>
-      <c r="D143" s="58">
-        <v>44829</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A144" s="15"/>
-      <c r="D144" s="15">
-        <v>44829</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-</worksheet>
 </file>
--- a/sheet/CONTROLE_DE_TERRITORIO_2022.xlsx
+++ b/sheet/CONTROLE_DE_TERRITORIO_2022.xlsx
@@ -15,8 +15,8 @@
     <sheet name="NOVA" sheetId="3" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">NOVA!$A$1:$L$146</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">NOVA!$A$1:$K$146</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">NOVA!$A$1:$L$151</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">NOVA!$A$1:$K$151</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="640" uniqueCount="47">
   <si>
     <t>OK</t>
   </si>
@@ -880,7 +880,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="191">
+  <cellXfs count="196">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1224,6 +1224,12 @@
     <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="31" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1450,6 +1456,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="39" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="7" borderId="7" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="7" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="7" borderId="7" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1740,10 +1755,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L146"/>
+  <dimension ref="A1:L151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" zoomScale="99" zoomScaleNormal="100" zoomScalePageLayoutView="45" workbookViewId="0">
-      <selection activeCell="G109" sqref="G109"/>
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="99" zoomScaleNormal="100" zoomScalePageLayoutView="45" workbookViewId="0">
+      <selection activeCell="G83" sqref="G83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1804,7 +1819,7 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="187">
+      <c r="A2" s="189">
         <v>1</v>
       </c>
       <c r="B2" s="75" t="s">
@@ -1826,19 +1841,19 @@
       <c r="H2" s="78" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="183" t="s">
+      <c r="I2" s="185" t="s">
         <v>0</v>
       </c>
-      <c r="J2" s="184">
+      <c r="J2" s="186">
         <v>5</v>
       </c>
-      <c r="K2" s="185">
+      <c r="K2" s="187">
         <v>1</v>
       </c>
-      <c r="L2" s="186"/>
+      <c r="L2" s="188"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="188"/>
+      <c r="A3" s="190"/>
       <c r="B3" s="44" t="s">
         <v>25</v>
       </c>
@@ -1858,13 +1873,13 @@
       <c r="H3" s="48" t="s">
         <v>40</v>
       </c>
-      <c r="I3" s="170"/>
-      <c r="J3" s="131"/>
-      <c r="K3" s="171"/>
-      <c r="L3" s="120"/>
+      <c r="I3" s="172"/>
+      <c r="J3" s="133"/>
+      <c r="K3" s="173"/>
+      <c r="L3" s="122"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="188"/>
+      <c r="A4" s="190"/>
       <c r="B4" s="48" t="s">
         <v>27</v>
       </c>
@@ -1884,13 +1899,13 @@
       <c r="H4" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="170"/>
-      <c r="J4" s="131"/>
-      <c r="K4" s="171"/>
-      <c r="L4" s="120"/>
+      <c r="I4" s="172"/>
+      <c r="J4" s="133"/>
+      <c r="K4" s="173"/>
+      <c r="L4" s="122"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="188"/>
+      <c r="A5" s="190"/>
       <c r="B5" s="48" t="s">
         <v>41</v>
       </c>
@@ -1910,13 +1925,13 @@
       <c r="H5" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="170"/>
-      <c r="J5" s="131"/>
-      <c r="K5" s="171"/>
-      <c r="L5" s="120"/>
+      <c r="I5" s="172"/>
+      <c r="J5" s="133"/>
+      <c r="K5" s="173"/>
+      <c r="L5" s="122"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="189"/>
+      <c r="A6" s="191"/>
       <c r="B6" s="17" t="s">
         <v>44</v>
       </c>
@@ -1936,13 +1951,13 @@
       <c r="H6" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="I6" s="170"/>
-      <c r="J6" s="132"/>
-      <c r="K6" s="151"/>
-      <c r="L6" s="120"/>
+      <c r="I6" s="172"/>
+      <c r="J6" s="134"/>
+      <c r="K6" s="153"/>
+      <c r="L6" s="122"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="144">
+      <c r="A7" s="146">
         <v>2</v>
       </c>
       <c r="B7" s="101" t="s">
@@ -1964,19 +1979,19 @@
       <c r="H7" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="I7" s="125" t="s">
+      <c r="I7" s="127" t="s">
         <v>4</v>
       </c>
-      <c r="J7" s="139">
+      <c r="J7" s="141">
         <v>60</v>
       </c>
-      <c r="K7" s="139">
+      <c r="K7" s="141">
         <v>4</v>
       </c>
-      <c r="L7" s="121"/>
+      <c r="L7" s="123"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="145"/>
+      <c r="A8" s="147"/>
       <c r="B8" s="101" t="s">
         <v>25</v>
       </c>
@@ -1998,13 +2013,13 @@
       <c r="H8" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="I8" s="126"/>
-      <c r="J8" s="140"/>
-      <c r="K8" s="140"/>
-      <c r="L8" s="121"/>
+      <c r="I8" s="128"/>
+      <c r="J8" s="142"/>
+      <c r="K8" s="142"/>
+      <c r="L8" s="123"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="145"/>
+      <c r="A9" s="147"/>
       <c r="B9" s="98" t="s">
         <v>27</v>
       </c>
@@ -2024,13 +2039,13 @@
       <c r="H9" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="I9" s="126"/>
-      <c r="J9" s="140"/>
-      <c r="K9" s="140"/>
-      <c r="L9" s="121"/>
+      <c r="I9" s="128"/>
+      <c r="J9" s="142"/>
+      <c r="K9" s="142"/>
+      <c r="L9" s="123"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="145"/>
+      <c r="A10" s="147"/>
       <c r="B10" s="98" t="s">
         <v>41</v>
       </c>
@@ -2050,13 +2065,13 @@
       <c r="H10" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="I10" s="126"/>
-      <c r="J10" s="140"/>
-      <c r="K10" s="140"/>
-      <c r="L10" s="121"/>
+      <c r="I10" s="128"/>
+      <c r="J10" s="142"/>
+      <c r="K10" s="142"/>
+      <c r="L10" s="123"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="145"/>
+      <c r="A11" s="147"/>
       <c r="B11" s="98" t="s">
         <v>44</v>
       </c>
@@ -2076,13 +2091,13 @@
       <c r="H11" s="98" t="s">
         <v>8</v>
       </c>
-      <c r="I11" s="126"/>
-      <c r="J11" s="140"/>
-      <c r="K11" s="140"/>
-      <c r="L11" s="121"/>
+      <c r="I11" s="128"/>
+      <c r="J11" s="142"/>
+      <c r="K11" s="142"/>
+      <c r="L11" s="123"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="146"/>
+      <c r="A12" s="148"/>
       <c r="B12" s="18" t="s">
         <v>45</v>
       </c>
@@ -2104,9 +2119,9 @@
       <c r="H12" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="I12" s="190"/>
-      <c r="J12" s="141"/>
-      <c r="K12" s="141"/>
+      <c r="I12" s="192"/>
+      <c r="J12" s="143"/>
+      <c r="K12" s="143"/>
       <c r="L12" s="88"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
@@ -2114,20 +2129,20 @@
         <v>3</v>
       </c>
       <c r="B13" s="17"/>
-      <c r="C13" s="116">
+      <c r="C13" s="118">
         <v>44863</v>
       </c>
-      <c r="D13" s="116"/>
-      <c r="E13" s="116">
+      <c r="D13" s="118"/>
+      <c r="E13" s="118">
         <v>44864</v>
       </c>
-      <c r="F13" s="117" t="s">
+      <c r="F13" s="119" t="s">
         <v>7</v>
       </c>
-      <c r="G13" s="118" t="s">
+      <c r="G13" s="120" t="s">
         <v>24</v>
       </c>
-      <c r="H13" s="119" t="s">
+      <c r="H13" s="121" t="s">
         <v>8</v>
       </c>
       <c r="I13" s="79" t="s">
@@ -2142,7 +2157,7 @@
       <c r="L13" s="81"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="144">
+      <c r="A14" s="146">
         <v>4</v>
       </c>
       <c r="B14" s="101" t="s">
@@ -2166,19 +2181,19 @@
       <c r="H14" s="101" t="s">
         <v>1</v>
       </c>
-      <c r="I14" s="125" t="s">
+      <c r="I14" s="127" t="s">
         <v>4</v>
       </c>
-      <c r="J14" s="136">
+      <c r="J14" s="138">
         <v>59</v>
       </c>
-      <c r="K14" s="139">
+      <c r="K14" s="141">
         <v>4</v>
       </c>
-      <c r="L14" s="121"/>
+      <c r="L14" s="123"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="145"/>
+      <c r="A15" s="147"/>
       <c r="B15" s="101" t="s">
         <v>25</v>
       </c>
@@ -2198,13 +2213,13 @@
       <c r="H15" s="98" t="s">
         <v>40</v>
       </c>
-      <c r="I15" s="126"/>
-      <c r="J15" s="137"/>
-      <c r="K15" s="140"/>
-      <c r="L15" s="121"/>
+      <c r="I15" s="128"/>
+      <c r="J15" s="139"/>
+      <c r="K15" s="142"/>
+      <c r="L15" s="123"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="145"/>
+      <c r="A16" s="147"/>
       <c r="B16" s="98" t="s">
         <v>27</v>
       </c>
@@ -2224,13 +2239,13 @@
       <c r="H16" s="98" t="s">
         <v>8</v>
       </c>
-      <c r="I16" s="126"/>
-      <c r="J16" s="137"/>
-      <c r="K16" s="140"/>
-      <c r="L16" s="121"/>
+      <c r="I16" s="128"/>
+      <c r="J16" s="139"/>
+      <c r="K16" s="142"/>
+      <c r="L16" s="123"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="145"/>
+      <c r="A17" s="147"/>
       <c r="B17" s="98" t="s">
         <v>41</v>
       </c>
@@ -2250,13 +2265,13 @@
       <c r="H17" s="98" t="s">
         <v>8</v>
       </c>
-      <c r="I17" s="126"/>
-      <c r="J17" s="137"/>
-      <c r="K17" s="140"/>
-      <c r="L17" s="121"/>
+      <c r="I17" s="128"/>
+      <c r="J17" s="139"/>
+      <c r="K17" s="142"/>
+      <c r="L17" s="123"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="146"/>
+      <c r="A18" s="148"/>
       <c r="B18" s="18" t="s">
         <v>43</v>
       </c>
@@ -2278,13 +2293,13 @@
       <c r="H18" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="I18" s="126"/>
-      <c r="J18" s="138"/>
-      <c r="K18" s="141"/>
+      <c r="I18" s="128"/>
+      <c r="J18" s="140"/>
+      <c r="K18" s="143"/>
       <c r="L18" s="88"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="122">
+      <c r="A19" s="124">
         <v>5</v>
       </c>
       <c r="B19" s="44" t="s">
@@ -2308,19 +2323,19 @@
       <c r="H19" s="94" t="s">
         <v>11</v>
       </c>
-      <c r="I19" s="142" t="s">
+      <c r="I19" s="144" t="s">
         <v>4</v>
       </c>
-      <c r="J19" s="130">
+      <c r="J19" s="132">
         <v>8</v>
       </c>
-      <c r="K19" s="130">
+      <c r="K19" s="132">
         <v>1</v>
       </c>
-      <c r="L19" s="120"/>
+      <c r="L19" s="122"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="123"/>
+      <c r="A20" s="125"/>
       <c r="B20" s="91" t="s">
         <v>25</v>
       </c>
@@ -2342,13 +2357,13 @@
       <c r="H20" s="94" t="s">
         <v>1</v>
       </c>
-      <c r="I20" s="126"/>
-      <c r="J20" s="131"/>
-      <c r="K20" s="131"/>
-      <c r="L20" s="120"/>
+      <c r="I20" s="128"/>
+      <c r="J20" s="133"/>
+      <c r="K20" s="133"/>
+      <c r="L20" s="122"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="124"/>
+      <c r="A21" s="126"/>
       <c r="B21" s="41" t="s">
         <v>27</v>
       </c>
@@ -2370,10 +2385,10 @@
       <c r="H21" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="I21" s="143"/>
-      <c r="J21" s="132"/>
-      <c r="K21" s="132"/>
-      <c r="L21" s="120"/>
+      <c r="I21" s="145"/>
+      <c r="J21" s="134"/>
+      <c r="K21" s="134"/>
+      <c r="L21" s="122"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="87">
@@ -2410,7 +2425,7 @@
       <c r="L22" s="85"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="122">
+      <c r="A23" s="124">
         <v>7</v>
       </c>
       <c r="B23" s="44" t="s">
@@ -2434,19 +2449,19 @@
       <c r="H23" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="I23" s="142" t="s">
+      <c r="I23" s="144" t="s">
         <v>4</v>
       </c>
-      <c r="J23" s="177">
+      <c r="J23" s="179">
         <v>21</v>
       </c>
-      <c r="K23" s="160">
+      <c r="K23" s="162">
         <v>2</v>
       </c>
-      <c r="L23" s="120"/>
+      <c r="L23" s="122"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="123"/>
+      <c r="A24" s="125"/>
       <c r="B24" s="91" t="s">
         <v>25</v>
       </c>
@@ -2468,13 +2483,13 @@
       <c r="H24" s="94" t="s">
         <v>1</v>
       </c>
-      <c r="I24" s="126"/>
-      <c r="J24" s="178"/>
-      <c r="K24" s="161"/>
-      <c r="L24" s="120"/>
+      <c r="I24" s="128"/>
+      <c r="J24" s="180"/>
+      <c r="K24" s="163"/>
+      <c r="L24" s="122"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="124"/>
+      <c r="A25" s="126"/>
       <c r="B25" s="41" t="s">
         <v>27</v>
       </c>
@@ -2496,13 +2511,13 @@
       <c r="H25" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="I25" s="143"/>
-      <c r="J25" s="179"/>
-      <c r="K25" s="162"/>
-      <c r="L25" s="120"/>
+      <c r="I25" s="145"/>
+      <c r="J25" s="181"/>
+      <c r="K25" s="164"/>
+      <c r="L25" s="122"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="144">
+      <c r="A26" s="146">
         <v>8</v>
       </c>
       <c r="B26" s="49" t="s">
@@ -2526,19 +2541,19 @@
       <c r="H26" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="I26" s="142" t="s">
+      <c r="I26" s="144" t="s">
         <v>4</v>
       </c>
-      <c r="J26" s="174">
+      <c r="J26" s="176">
         <v>33</v>
       </c>
-      <c r="K26" s="180">
+      <c r="K26" s="182">
         <v>2</v>
       </c>
-      <c r="L26" s="121"/>
+      <c r="L26" s="123"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="145"/>
+      <c r="A27" s="147"/>
       <c r="B27" s="52" t="s">
         <v>25</v>
       </c>
@@ -2560,13 +2575,13 @@
       <c r="H27" s="98" t="s">
         <v>1</v>
       </c>
-      <c r="I27" s="126"/>
-      <c r="J27" s="176"/>
-      <c r="K27" s="181"/>
-      <c r="L27" s="121"/>
+      <c r="I27" s="128"/>
+      <c r="J27" s="178"/>
+      <c r="K27" s="183"/>
+      <c r="L27" s="123"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="146"/>
+      <c r="A28" s="148"/>
       <c r="B28" s="18" t="s">
         <v>27</v>
       </c>
@@ -2588,13 +2603,13 @@
       <c r="H28" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="I28" s="143"/>
-      <c r="J28" s="175"/>
-      <c r="K28" s="182"/>
+      <c r="I28" s="145"/>
+      <c r="J28" s="177"/>
+      <c r="K28" s="184"/>
       <c r="L28" s="86"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" s="122">
+      <c r="A29" s="124">
         <v>9</v>
       </c>
       <c r="B29" s="44" t="s">
@@ -2616,19 +2631,19 @@
       <c r="H29" s="48" t="s">
         <v>40</v>
       </c>
-      <c r="I29" s="142" t="s">
+      <c r="I29" s="144" t="s">
         <v>4</v>
       </c>
-      <c r="J29" s="157">
+      <c r="J29" s="159">
         <v>61</v>
       </c>
-      <c r="K29" s="160">
+      <c r="K29" s="162">
         <v>4</v>
       </c>
-      <c r="L29" s="120"/>
+      <c r="L29" s="122"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" s="123"/>
+      <c r="A30" s="125"/>
       <c r="B30" s="44" t="s">
         <v>25</v>
       </c>
@@ -2648,13 +2663,13 @@
       <c r="H30" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="I30" s="126"/>
-      <c r="J30" s="158"/>
-      <c r="K30" s="161"/>
-      <c r="L30" s="120"/>
+      <c r="I30" s="128"/>
+      <c r="J30" s="160"/>
+      <c r="K30" s="163"/>
+      <c r="L30" s="122"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" s="123"/>
+      <c r="A31" s="125"/>
       <c r="B31" s="99" t="s">
         <v>27</v>
       </c>
@@ -2676,13 +2691,13 @@
       <c r="H31" s="94" t="s">
         <v>1</v>
       </c>
-      <c r="I31" s="126"/>
-      <c r="J31" s="158"/>
-      <c r="K31" s="161"/>
-      <c r="L31" s="120"/>
+      <c r="I31" s="128"/>
+      <c r="J31" s="160"/>
+      <c r="K31" s="163"/>
+      <c r="L31" s="122"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A32" s="124"/>
+      <c r="A32" s="126"/>
       <c r="B32" s="41" t="s">
         <v>41</v>
       </c>
@@ -2704,10 +2719,10 @@
       <c r="H32" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="I32" s="143"/>
-      <c r="J32" s="159"/>
-      <c r="K32" s="162"/>
-      <c r="L32" s="120"/>
+      <c r="I32" s="145"/>
+      <c r="J32" s="161"/>
+      <c r="K32" s="164"/>
+      <c r="L32" s="122"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="14">
@@ -2726,7 +2741,7 @@
       <c r="L33" s="82"/>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A34" s="122">
+      <c r="A34" s="124">
         <v>11</v>
       </c>
       <c r="B34" s="48" t="s">
@@ -2748,19 +2763,19 @@
       <c r="H34" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="I34" s="147" t="s">
+      <c r="I34" s="149" t="s">
         <v>0</v>
       </c>
-      <c r="J34" s="130">
+      <c r="J34" s="132">
         <v>132</v>
       </c>
-      <c r="K34" s="130">
+      <c r="K34" s="132">
         <v>8</v>
       </c>
-      <c r="L34" s="120"/>
+      <c r="L34" s="122"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A35" s="123"/>
+      <c r="A35" s="125"/>
       <c r="B35" s="48" t="s">
         <v>25</v>
       </c>
@@ -2782,13 +2797,13 @@
       <c r="H35" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="I35" s="148"/>
-      <c r="J35" s="131"/>
-      <c r="K35" s="131"/>
-      <c r="L35" s="120"/>
+      <c r="I35" s="150"/>
+      <c r="J35" s="133"/>
+      <c r="K35" s="133"/>
+      <c r="L35" s="122"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A36" s="123"/>
+      <c r="A36" s="125"/>
       <c r="B36" s="100" t="s">
         <v>27</v>
       </c>
@@ -2808,13 +2823,13 @@
       <c r="H36" s="94" t="s">
         <v>8</v>
       </c>
-      <c r="I36" s="148"/>
-      <c r="J36" s="131"/>
-      <c r="K36" s="131"/>
-      <c r="L36" s="120"/>
+      <c r="I36" s="150"/>
+      <c r="J36" s="133"/>
+      <c r="K36" s="133"/>
+      <c r="L36" s="122"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A37" s="124"/>
+      <c r="A37" s="126"/>
       <c r="B37" s="41" t="s">
         <v>41</v>
       </c>
@@ -2836,13 +2851,13 @@
       <c r="H37" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="I37" s="149"/>
-      <c r="J37" s="132"/>
-      <c r="K37" s="132"/>
-      <c r="L37" s="120"/>
+      <c r="I37" s="151"/>
+      <c r="J37" s="134"/>
+      <c r="K37" s="134"/>
+      <c r="L37" s="122"/>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A38" s="144">
+      <c r="A38" s="146">
         <v>12</v>
       </c>
       <c r="B38" s="49" t="s">
@@ -2864,19 +2879,19 @@
       <c r="H38" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="I38" s="142" t="s">
+      <c r="I38" s="144" t="s">
         <v>4</v>
       </c>
-      <c r="J38" s="139">
+      <c r="J38" s="141">
         <v>72</v>
       </c>
-      <c r="K38" s="152">
+      <c r="K38" s="154">
         <v>5</v>
       </c>
-      <c r="L38" s="121"/>
+      <c r="L38" s="123"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A39" s="145"/>
+      <c r="A39" s="147"/>
       <c r="B39" s="52" t="s">
         <v>25</v>
       </c>
@@ -2896,13 +2911,13 @@
       <c r="H39" s="52" t="s">
         <v>40</v>
       </c>
-      <c r="I39" s="126"/>
-      <c r="J39" s="140"/>
-      <c r="K39" s="169"/>
-      <c r="L39" s="121"/>
+      <c r="I39" s="128"/>
+      <c r="J39" s="142"/>
+      <c r="K39" s="171"/>
+      <c r="L39" s="123"/>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A40" s="146"/>
+      <c r="A40" s="148"/>
       <c r="B40" s="18" t="s">
         <v>27</v>
       </c>
@@ -2924,13 +2939,13 @@
       <c r="H40" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="I40" s="143"/>
-      <c r="J40" s="141"/>
-      <c r="K40" s="153"/>
-      <c r="L40" s="121"/>
+      <c r="I40" s="145"/>
+      <c r="J40" s="143"/>
+      <c r="K40" s="155"/>
+      <c r="L40" s="123"/>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A41" s="122">
+      <c r="A41" s="124">
         <v>13</v>
       </c>
       <c r="B41" s="48" t="s">
@@ -2952,3077 +2967,3237 @@
       <c r="H41" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="I41" s="147" t="s">
+      <c r="I41" s="144" t="s">
+        <v>4</v>
+      </c>
+      <c r="J41" s="132">
+        <v>7</v>
+      </c>
+      <c r="K41" s="132">
+        <v>1</v>
+      </c>
+      <c r="L41" s="122"/>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A42" s="125"/>
+      <c r="B42" s="48" t="s">
+        <v>25</v>
+      </c>
+      <c r="C42" s="58">
+        <v>44853</v>
+      </c>
+      <c r="D42" s="58">
+        <v>44860</v>
+      </c>
+      <c r="E42" s="58">
+        <v>44860</v>
+      </c>
+      <c r="F42" s="59" t="s">
+        <v>23</v>
+      </c>
+      <c r="G42" s="60" t="s">
+        <v>2</v>
+      </c>
+      <c r="H42" s="60" t="s">
+        <v>1</v>
+      </c>
+      <c r="I42" s="128"/>
+      <c r="J42" s="133"/>
+      <c r="K42" s="133"/>
+      <c r="L42" s="122"/>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A43" s="126"/>
+      <c r="B43" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="C43" s="10">
+        <v>44878</v>
+      </c>
+      <c r="D43" s="10">
+        <v>44885</v>
+      </c>
+      <c r="E43" s="10">
+        <v>44888</v>
+      </c>
+      <c r="F43" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="G43" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="H43" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="I43" s="145"/>
+      <c r="J43" s="134"/>
+      <c r="K43" s="134"/>
+      <c r="L43" s="115"/>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A44" s="146">
+        <v>14</v>
+      </c>
+      <c r="B44" s="49" t="s">
+        <v>26</v>
+      </c>
+      <c r="C44" s="56">
+        <v>44843</v>
+      </c>
+      <c r="D44" s="56"/>
+      <c r="E44" s="56">
+        <v>44843</v>
+      </c>
+      <c r="F44" s="57" t="s">
+        <v>10</v>
+      </c>
+      <c r="G44" s="52" t="s">
+        <v>12</v>
+      </c>
+      <c r="H44" s="52" t="s">
+        <v>11</v>
+      </c>
+      <c r="I44" s="149" t="s">
         <v>0</v>
       </c>
-      <c r="J41" s="130">
+      <c r="J44" s="141">
+        <v>39</v>
+      </c>
+      <c r="K44" s="154">
+        <v>3</v>
+      </c>
+      <c r="L44" s="123"/>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A45" s="148"/>
+      <c r="B45" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C45" s="8">
+        <v>44859</v>
+      </c>
+      <c r="D45" s="8">
+        <v>44835</v>
+      </c>
+      <c r="E45" s="8">
+        <v>44836</v>
+      </c>
+      <c r="F45" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="G45" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="H45" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="I45" s="151"/>
+      <c r="J45" s="143"/>
+      <c r="K45" s="155"/>
+      <c r="L45" s="123"/>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A46" s="124">
+        <v>15</v>
+      </c>
+      <c r="B46" s="48" t="s">
+        <v>26</v>
+      </c>
+      <c r="C46" s="63">
+        <v>44826</v>
+      </c>
+      <c r="D46" s="63"/>
+      <c r="E46" s="63">
+        <v>44829</v>
+      </c>
+      <c r="F46" s="64" t="s">
+        <v>3</v>
+      </c>
+      <c r="G46" s="44" t="s">
+        <v>13</v>
+      </c>
+      <c r="H46" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="I46" s="144" t="s">
+        <v>4</v>
+      </c>
+      <c r="J46" s="152">
+        <v>39</v>
+      </c>
+      <c r="K46" s="159">
+        <v>3</v>
+      </c>
+      <c r="L46" s="122"/>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A47" s="125"/>
+      <c r="B47" s="48" t="s">
+        <v>25</v>
+      </c>
+      <c r="C47" s="61">
+        <v>44843</v>
+      </c>
+      <c r="D47" s="61"/>
+      <c r="E47" s="61">
+        <v>44843</v>
+      </c>
+      <c r="F47" s="62" t="s">
+        <v>10</v>
+      </c>
+      <c r="G47" s="60" t="s">
+        <v>12</v>
+      </c>
+      <c r="H47" s="60" t="s">
+        <v>11</v>
+      </c>
+      <c r="I47" s="128"/>
+      <c r="J47" s="173"/>
+      <c r="K47" s="160"/>
+      <c r="L47" s="122"/>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A48" s="126"/>
+      <c r="B48" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="C48" s="6">
+        <v>44859</v>
+      </c>
+      <c r="D48" s="6">
+        <v>44835</v>
+      </c>
+      <c r="E48" s="6">
+        <v>44836</v>
+      </c>
+      <c r="F48" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="G48" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="H48" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="I48" s="145"/>
+      <c r="J48" s="153"/>
+      <c r="K48" s="161"/>
+      <c r="L48" s="122"/>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A49" s="146">
+        <v>16</v>
+      </c>
+      <c r="B49" s="49" t="s">
+        <v>26</v>
+      </c>
+      <c r="C49" s="50">
+        <v>44826</v>
+      </c>
+      <c r="D49" s="50"/>
+      <c r="E49" s="50">
+        <v>44829</v>
+      </c>
+      <c r="F49" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="G49" s="49" t="s">
+        <v>13</v>
+      </c>
+      <c r="H49" s="49" t="s">
+        <v>1</v>
+      </c>
+      <c r="I49" s="144" t="s">
+        <v>4</v>
+      </c>
+      <c r="J49" s="154">
+        <v>39</v>
+      </c>
+      <c r="K49" s="182">
+        <v>3</v>
+      </c>
+      <c r="L49" s="123"/>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A50" s="147"/>
+      <c r="B50" s="52" t="s">
+        <v>25</v>
+      </c>
+      <c r="C50" s="195">
+        <v>44854</v>
+      </c>
+      <c r="D50" s="195">
+        <v>44861</v>
+      </c>
+      <c r="E50" s="195">
+        <v>44864</v>
+      </c>
+      <c r="F50" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="G50" s="49" t="s">
+        <v>13</v>
+      </c>
+      <c r="H50" s="49" t="s">
+        <v>1</v>
+      </c>
+      <c r="I50" s="128"/>
+      <c r="J50" s="171"/>
+      <c r="K50" s="183"/>
+      <c r="L50" s="123"/>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A51" s="148"/>
+      <c r="B51" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="C51" s="39">
+        <v>44878</v>
+      </c>
+      <c r="D51" s="39">
+        <v>44885</v>
+      </c>
+      <c r="E51" s="39">
+        <v>44888</v>
+      </c>
+      <c r="F51" s="193" t="s">
+        <v>10</v>
+      </c>
+      <c r="G51" s="194" t="s">
+        <v>9</v>
+      </c>
+      <c r="H51" s="194" t="s">
+        <v>11</v>
+      </c>
+      <c r="I51" s="145"/>
+      <c r="J51" s="155"/>
+      <c r="K51" s="184"/>
+      <c r="L51" s="116"/>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A52" s="14">
+        <v>17</v>
+      </c>
+      <c r="B52" s="4"/>
+      <c r="C52" s="113"/>
+      <c r="D52" s="113"/>
+      <c r="E52" s="113"/>
+      <c r="F52" s="11"/>
+      <c r="G52" s="11"/>
+      <c r="H52" s="11"/>
+      <c r="I52" s="11"/>
+      <c r="J52" s="11"/>
+      <c r="K52" s="11"/>
+      <c r="L52" s="82"/>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A53" s="146">
+        <v>18</v>
+      </c>
+      <c r="B53" s="101" t="s">
+        <v>26</v>
+      </c>
+      <c r="C53" s="56">
+        <v>44835</v>
+      </c>
+      <c r="D53" s="56"/>
+      <c r="E53" s="65">
+        <v>44836</v>
+      </c>
+      <c r="F53" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="K41" s="150">
+      <c r="G53" s="52" t="s">
+        <v>36</v>
+      </c>
+      <c r="H53" s="52" t="s">
+        <v>8</v>
+      </c>
+      <c r="I53" s="144" t="s">
+        <v>4</v>
+      </c>
+      <c r="J53" s="141">
+        <v>47</v>
+      </c>
+      <c r="K53" s="141">
+        <v>3</v>
+      </c>
+      <c r="L53" s="123"/>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A54" s="147"/>
+      <c r="B54" s="101" t="s">
+        <v>25</v>
+      </c>
+      <c r="C54" s="56">
+        <v>44846</v>
+      </c>
+      <c r="D54" s="56"/>
+      <c r="E54" s="56">
+        <v>44850</v>
+      </c>
+      <c r="F54" s="57" t="s">
+        <v>23</v>
+      </c>
+      <c r="G54" s="52" t="s">
+        <v>39</v>
+      </c>
+      <c r="H54" s="52" t="s">
+        <v>40</v>
+      </c>
+      <c r="I54" s="128"/>
+      <c r="J54" s="142"/>
+      <c r="K54" s="142"/>
+      <c r="L54" s="123"/>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A55" s="147"/>
+      <c r="B55" s="98" t="s">
+        <v>27</v>
+      </c>
+      <c r="C55" s="56">
+        <v>44859</v>
+      </c>
+      <c r="D55" s="56">
+        <v>44835</v>
+      </c>
+      <c r="E55" s="56">
+        <v>44836</v>
+      </c>
+      <c r="F55" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="G55" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="H55" s="52" t="s">
+        <v>16</v>
+      </c>
+      <c r="I55" s="128"/>
+      <c r="J55" s="142"/>
+      <c r="K55" s="142"/>
+      <c r="L55" s="123"/>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A56" s="148"/>
+      <c r="B56" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="C56" s="39">
+        <v>44878</v>
+      </c>
+      <c r="D56" s="39">
+        <v>44885</v>
+      </c>
+      <c r="E56" s="39">
+        <v>44888</v>
+      </c>
+      <c r="F56" s="193" t="s">
+        <v>10</v>
+      </c>
+      <c r="G56" s="194" t="s">
+        <v>9</v>
+      </c>
+      <c r="H56" s="194" t="s">
+        <v>11</v>
+      </c>
+      <c r="I56" s="145"/>
+      <c r="J56" s="143"/>
+      <c r="K56" s="143"/>
+      <c r="L56" s="116"/>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A57" s="156">
+        <v>19</v>
+      </c>
+      <c r="B57" s="48" t="s">
+        <v>26</v>
+      </c>
+      <c r="C57" s="61">
+        <v>44822</v>
+      </c>
+      <c r="D57" s="61"/>
+      <c r="E57" s="61">
+        <v>44822</v>
+      </c>
+      <c r="F57" s="62" t="s">
+        <v>10</v>
+      </c>
+      <c r="G57" s="48" t="s">
+        <v>18</v>
+      </c>
+      <c r="H57" s="48" t="s">
+        <v>8</v>
+      </c>
+      <c r="I57" s="149" t="s">
+        <v>0</v>
+      </c>
+      <c r="J57" s="132">
+        <v>68</v>
+      </c>
+      <c r="K57" s="152">
+        <v>4</v>
+      </c>
+      <c r="L57" s="122"/>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A58" s="157"/>
+      <c r="B58" s="48" t="s">
+        <v>25</v>
+      </c>
+      <c r="C58" s="61">
+        <v>44842</v>
+      </c>
+      <c r="D58" s="61"/>
+      <c r="E58" s="61">
+        <v>44813</v>
+      </c>
+      <c r="F58" s="62" t="s">
+        <v>10</v>
+      </c>
+      <c r="G58" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="H58" s="48" t="s">
+        <v>8</v>
+      </c>
+      <c r="I58" s="150"/>
+      <c r="J58" s="133"/>
+      <c r="K58" s="173"/>
+      <c r="L58" s="122"/>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A59" s="158"/>
+      <c r="B59" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="C59" s="6">
+        <v>44857</v>
+      </c>
+      <c r="D59" s="6">
+        <v>44871</v>
+      </c>
+      <c r="E59" s="6">
+        <v>44875</v>
+      </c>
+      <c r="F59" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="G59" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="H59" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="I59" s="151"/>
+      <c r="J59" s="134"/>
+      <c r="K59" s="153"/>
+      <c r="L59" s="122"/>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A60" s="146">
+        <v>20</v>
+      </c>
+      <c r="B60" s="101" t="s">
+        <v>26</v>
+      </c>
+      <c r="C60" s="102">
+        <v>44815</v>
+      </c>
+      <c r="D60" s="102"/>
+      <c r="E60" s="102">
+        <v>44818</v>
+      </c>
+      <c r="F60" s="103" t="s">
+        <v>10</v>
+      </c>
+      <c r="G60" s="101" t="s">
+        <v>2</v>
+      </c>
+      <c r="H60" s="101" t="s">
+        <v>11</v>
+      </c>
+      <c r="I60" s="144" t="s">
+        <v>4</v>
+      </c>
+      <c r="J60" s="141">
+        <v>13</v>
+      </c>
+      <c r="K60" s="141">
         <v>1</v>
       </c>
-      <c r="L41" s="120"/>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A42" s="124"/>
-      <c r="B42" s="17" t="s">
+      <c r="L60" s="123"/>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A61" s="147"/>
+      <c r="B61" s="101" t="s">
         <v>25</v>
       </c>
-      <c r="C42" s="10">
-        <v>44853</v>
-      </c>
-      <c r="D42" s="10">
-        <v>44860</v>
-      </c>
-      <c r="E42" s="10">
-        <v>44860</v>
-      </c>
-      <c r="F42" s="19" t="s">
+      <c r="C61" s="102">
+        <v>44842</v>
+      </c>
+      <c r="D61" s="102"/>
+      <c r="E61" s="102">
+        <v>44813</v>
+      </c>
+      <c r="F61" s="103" t="s">
+        <v>10</v>
+      </c>
+      <c r="G61" s="101" t="s">
+        <v>9</v>
+      </c>
+      <c r="H61" s="101" t="s">
+        <v>8</v>
+      </c>
+      <c r="I61" s="128"/>
+      <c r="J61" s="142"/>
+      <c r="K61" s="142"/>
+      <c r="L61" s="123"/>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A62" s="147"/>
+      <c r="B62" s="98" t="s">
+        <v>27</v>
+      </c>
+      <c r="C62" s="102">
+        <v>44857</v>
+      </c>
+      <c r="D62" s="102">
+        <v>44871</v>
+      </c>
+      <c r="E62" s="102">
+        <v>44875</v>
+      </c>
+      <c r="F62" s="103" t="s">
+        <v>10</v>
+      </c>
+      <c r="G62" s="101" t="s">
+        <v>12</v>
+      </c>
+      <c r="H62" s="101" t="s">
+        <v>11</v>
+      </c>
+      <c r="I62" s="128"/>
+      <c r="J62" s="142"/>
+      <c r="K62" s="142"/>
+      <c r="L62" s="123"/>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A63" s="148"/>
+      <c r="B63" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="C63" s="27">
+        <v>44878</v>
+      </c>
+      <c r="D63" s="27">
+        <v>44885</v>
+      </c>
+      <c r="E63" s="27">
+        <v>44888</v>
+      </c>
+      <c r="F63" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="G63" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="H63" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="I63" s="145"/>
+      <c r="J63" s="143"/>
+      <c r="K63" s="143"/>
+      <c r="L63" s="88"/>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A64" s="124">
+        <v>21</v>
+      </c>
+      <c r="B64" s="44" t="s">
+        <v>26</v>
+      </c>
+      <c r="C64" s="58">
+        <v>44815</v>
+      </c>
+      <c r="D64" s="58"/>
+      <c r="E64" s="58">
+        <v>44818</v>
+      </c>
+      <c r="F64" s="59" t="s">
+        <v>10</v>
+      </c>
+      <c r="G64" s="60" t="s">
+        <v>2</v>
+      </c>
+      <c r="H64" s="60" t="s">
+        <v>11</v>
+      </c>
+      <c r="I64" s="144" t="s">
+        <v>4</v>
+      </c>
+      <c r="J64" s="132">
+        <v>94</v>
+      </c>
+      <c r="K64" s="132">
+        <v>6</v>
+      </c>
+      <c r="L64" s="122"/>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A65" s="125"/>
+      <c r="B65" s="48" t="s">
+        <v>25</v>
+      </c>
+      <c r="C65" s="61">
+        <v>44842</v>
+      </c>
+      <c r="D65" s="61"/>
+      <c r="E65" s="61">
+        <v>44813</v>
+      </c>
+      <c r="F65" s="62" t="s">
+        <v>10</v>
+      </c>
+      <c r="G65" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="H65" s="48" t="s">
+        <v>8</v>
+      </c>
+      <c r="I65" s="128"/>
+      <c r="J65" s="133"/>
+      <c r="K65" s="133"/>
+      <c r="L65" s="122"/>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A66" s="125"/>
+      <c r="B66" s="100" t="s">
+        <v>27</v>
+      </c>
+      <c r="C66" s="106">
+        <v>44857</v>
+      </c>
+      <c r="D66" s="106">
+        <v>44871</v>
+      </c>
+      <c r="E66" s="106">
+        <v>44875</v>
+      </c>
+      <c r="F66" s="107" t="s">
+        <v>10</v>
+      </c>
+      <c r="G66" s="100" t="s">
+        <v>12</v>
+      </c>
+      <c r="H66" s="100" t="s">
+        <v>11</v>
+      </c>
+      <c r="I66" s="128"/>
+      <c r="J66" s="133"/>
+      <c r="K66" s="133"/>
+      <c r="L66" s="122"/>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A67" s="126"/>
+      <c r="B67" s="70" t="s">
+        <v>41</v>
+      </c>
+      <c r="C67" s="6">
+        <v>44878</v>
+      </c>
+      <c r="D67" s="6">
+        <v>44885</v>
+      </c>
+      <c r="E67" s="6">
+        <v>44888</v>
+      </c>
+      <c r="F67" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="G67" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="H67" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="I67" s="145"/>
+      <c r="J67" s="134"/>
+      <c r="K67" s="134"/>
+      <c r="L67" s="90"/>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A68" s="146">
+        <v>22</v>
+      </c>
+      <c r="B68" s="101" t="s">
+        <v>26</v>
+      </c>
+      <c r="C68" s="104">
+        <v>44822</v>
+      </c>
+      <c r="D68" s="104">
+        <v>44828</v>
+      </c>
+      <c r="E68" s="104">
+        <v>44828</v>
+      </c>
+      <c r="F68" s="105" t="s">
+        <v>10</v>
+      </c>
+      <c r="G68" s="98" t="s">
+        <v>2</v>
+      </c>
+      <c r="H68" s="98" t="s">
+        <v>11</v>
+      </c>
+      <c r="I68" s="144" t="s">
+        <v>4</v>
+      </c>
+      <c r="J68" s="141">
+        <v>67</v>
+      </c>
+      <c r="K68" s="141">
+        <v>4</v>
+      </c>
+      <c r="L68" s="123"/>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A69" s="147"/>
+      <c r="B69" s="101" t="s">
+        <v>25</v>
+      </c>
+      <c r="C69" s="104">
+        <v>44846</v>
+      </c>
+      <c r="D69" s="104"/>
+      <c r="E69" s="104">
+        <v>44850</v>
+      </c>
+      <c r="F69" s="105" t="s">
         <v>23</v>
       </c>
-      <c r="G42" s="20" t="s">
+      <c r="G69" s="98" t="s">
+        <v>39</v>
+      </c>
+      <c r="H69" s="98" t="s">
+        <v>40</v>
+      </c>
+      <c r="I69" s="128"/>
+      <c r="J69" s="142"/>
+      <c r="K69" s="142"/>
+      <c r="L69" s="123"/>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A70" s="147"/>
+      <c r="B70" s="98" t="s">
+        <v>27</v>
+      </c>
+      <c r="C70" s="108">
+        <v>44854</v>
+      </c>
+      <c r="D70" s="108">
+        <v>44861</v>
+      </c>
+      <c r="E70" s="108">
+        <v>44864</v>
+      </c>
+      <c r="F70" s="103" t="s">
+        <v>3</v>
+      </c>
+      <c r="G70" s="101" t="s">
+        <v>13</v>
+      </c>
+      <c r="H70" s="101" t="s">
+        <v>1</v>
+      </c>
+      <c r="I70" s="128"/>
+      <c r="J70" s="142"/>
+      <c r="K70" s="142"/>
+      <c r="L70" s="123"/>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A71" s="148"/>
+      <c r="B71" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="C71" s="27">
+        <v>44878</v>
+      </c>
+      <c r="D71" s="27">
+        <v>44885</v>
+      </c>
+      <c r="E71" s="27">
+        <v>44888</v>
+      </c>
+      <c r="F71" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="G71" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="H71" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="I71" s="145"/>
+      <c r="J71" s="143"/>
+      <c r="K71" s="143"/>
+      <c r="L71" s="88"/>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A72" s="124">
+        <v>23</v>
+      </c>
+      <c r="B72" s="44" t="s">
+        <v>26</v>
+      </c>
+      <c r="C72" s="58">
+        <v>44808</v>
+      </c>
+      <c r="D72" s="58"/>
+      <c r="E72" s="58">
+        <v>44818</v>
+      </c>
+      <c r="F72" s="59" t="s">
+        <v>10</v>
+      </c>
+      <c r="G72" s="60" t="s">
+        <v>14</v>
+      </c>
+      <c r="H72" s="60" t="s">
+        <v>11</v>
+      </c>
+      <c r="I72" s="144" t="s">
+        <v>4</v>
+      </c>
+      <c r="J72" s="132">
+        <v>22</v>
+      </c>
+      <c r="K72" s="132">
         <v>2</v>
       </c>
-      <c r="H42" s="20" t="s">
+      <c r="L72" s="122"/>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A73" s="125"/>
+      <c r="B73" s="48" t="s">
+        <v>25</v>
+      </c>
+      <c r="C73" s="58">
+        <v>44850</v>
+      </c>
+      <c r="D73" s="58"/>
+      <c r="E73" s="58">
+        <v>44850</v>
+      </c>
+      <c r="F73" s="59" t="s">
+        <v>10</v>
+      </c>
+      <c r="G73" s="60" t="s">
+        <v>39</v>
+      </c>
+      <c r="H73" s="60" t="s">
+        <v>40</v>
+      </c>
+      <c r="I73" s="128"/>
+      <c r="J73" s="133"/>
+      <c r="K73" s="133"/>
+      <c r="L73" s="122"/>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A74" s="125"/>
+      <c r="B74" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C74" s="58">
+        <v>44854</v>
+      </c>
+      <c r="D74" s="58">
+        <v>44861</v>
+      </c>
+      <c r="E74" s="58">
+        <v>44864</v>
+      </c>
+      <c r="F74" s="59" t="s">
+        <v>3</v>
+      </c>
+      <c r="G74" s="60" t="s">
+        <v>13</v>
+      </c>
+      <c r="H74" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="I42" s="149"/>
-      <c r="J42" s="132"/>
-      <c r="K42" s="151"/>
-      <c r="L42" s="120"/>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A43" s="144">
+      <c r="I74" s="128"/>
+      <c r="J74" s="133"/>
+      <c r="K74" s="133"/>
+      <c r="L74" s="122"/>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A75" s="126"/>
+      <c r="B75" s="70" t="s">
+        <v>41</v>
+      </c>
+      <c r="C75" s="10">
+        <v>44878</v>
+      </c>
+      <c r="D75" s="10">
+        <v>44885</v>
+      </c>
+      <c r="E75" s="10">
+        <v>44888</v>
+      </c>
+      <c r="F75" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="G75" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="H75" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="I75" s="145"/>
+      <c r="J75" s="134"/>
+      <c r="K75" s="134"/>
+      <c r="L75" s="115"/>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A76" s="146">
+        <v>24</v>
+      </c>
+      <c r="B76" s="98" t="s">
+        <v>26</v>
+      </c>
+      <c r="C76" s="104">
+        <v>44815</v>
+      </c>
+      <c r="D76" s="104"/>
+      <c r="E76" s="104">
+        <v>44818</v>
+      </c>
+      <c r="F76" s="105" t="s">
+        <v>10</v>
+      </c>
+      <c r="G76" s="98" t="s">
         <v>14</v>
       </c>
-      <c r="B43" s="49" t="s">
+      <c r="H76" s="98" t="s">
+        <v>11</v>
+      </c>
+      <c r="I76" s="144" t="s">
+        <v>0</v>
+      </c>
+      <c r="J76" s="141">
+        <v>31</v>
+      </c>
+      <c r="K76" s="141">
+        <v>2</v>
+      </c>
+      <c r="L76" s="83"/>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A77" s="148"/>
+      <c r="B77" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C77" s="27">
+        <v>44878</v>
+      </c>
+      <c r="D77" s="27">
+        <v>44885</v>
+      </c>
+      <c r="E77" s="27">
+        <v>44888</v>
+      </c>
+      <c r="F77" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="G77" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="H77" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="I77" s="128"/>
+      <c r="J77" s="143"/>
+      <c r="K77" s="143"/>
+      <c r="L77" s="88"/>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A78" s="124">
+        <v>25</v>
+      </c>
+      <c r="B78" s="48" t="s">
         <v>26</v>
       </c>
-      <c r="C43" s="56">
+      <c r="C78" s="58">
+        <v>44846</v>
+      </c>
+      <c r="D78" s="58"/>
+      <c r="E78" s="58">
+        <v>44846</v>
+      </c>
+      <c r="F78" s="59" t="s">
+        <v>23</v>
+      </c>
+      <c r="G78" s="60" t="s">
+        <v>39</v>
+      </c>
+      <c r="H78" s="60" t="s">
+        <v>40</v>
+      </c>
+      <c r="I78" s="149" t="s">
+        <v>0</v>
+      </c>
+      <c r="J78" s="132">
+        <v>44</v>
+      </c>
+      <c r="K78" s="152">
+        <v>3</v>
+      </c>
+      <c r="L78" s="122"/>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A79" s="126"/>
+      <c r="B79" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C79" s="10">
+        <v>44855</v>
+      </c>
+      <c r="D79" s="10">
+        <v>44862</v>
+      </c>
+      <c r="E79" s="10">
+        <v>44864</v>
+      </c>
+      <c r="F79" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="G79" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="H79" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="I79" s="151"/>
+      <c r="J79" s="134"/>
+      <c r="K79" s="153"/>
+      <c r="L79" s="122"/>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A80" s="146">
+        <v>26</v>
+      </c>
+      <c r="B80" s="49" t="s">
+        <v>26</v>
+      </c>
+      <c r="C80" s="56">
+        <v>44829</v>
+      </c>
+      <c r="D80" s="56"/>
+      <c r="E80" s="56">
+        <v>44832</v>
+      </c>
+      <c r="F80" s="57" t="s">
+        <v>10</v>
+      </c>
+      <c r="G80" s="52" t="s">
+        <v>14</v>
+      </c>
+      <c r="H80" s="52" t="s">
+        <v>11</v>
+      </c>
+      <c r="I80" s="144" t="s">
+        <v>4</v>
+      </c>
+      <c r="J80" s="141">
+        <v>30</v>
+      </c>
+      <c r="K80" s="141">
+        <v>3</v>
+      </c>
+      <c r="L80" s="123"/>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A81" s="147"/>
+      <c r="B81" s="49" t="s">
+        <v>25</v>
+      </c>
+      <c r="C81" s="56">
+        <v>44850</v>
+      </c>
+      <c r="D81" s="56"/>
+      <c r="E81" s="56">
+        <v>44850</v>
+      </c>
+      <c r="F81" s="57" t="s">
+        <v>10</v>
+      </c>
+      <c r="G81" s="52" t="s">
+        <v>39</v>
+      </c>
+      <c r="H81" s="52" t="s">
+        <v>40</v>
+      </c>
+      <c r="I81" s="128"/>
+      <c r="J81" s="142"/>
+      <c r="K81" s="142"/>
+      <c r="L81" s="123"/>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A82" s="147"/>
+      <c r="B82" s="52" t="s">
+        <v>27</v>
+      </c>
+      <c r="C82" s="56">
+        <v>44855</v>
+      </c>
+      <c r="D82" s="56">
+        <v>44862</v>
+      </c>
+      <c r="E82" s="56">
+        <v>44864</v>
+      </c>
+      <c r="F82" s="57" t="s">
+        <v>6</v>
+      </c>
+      <c r="G82" s="52" t="s">
+        <v>2</v>
+      </c>
+      <c r="H82" s="52" t="s">
+        <v>5</v>
+      </c>
+      <c r="I82" s="128"/>
+      <c r="J82" s="142"/>
+      <c r="K82" s="142"/>
+      <c r="L82" s="123"/>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A83" s="148"/>
+      <c r="B83" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="C83" s="27">
+        <v>44878</v>
+      </c>
+      <c r="D83" s="27">
+        <v>44885</v>
+      </c>
+      <c r="E83" s="27">
+        <v>44888</v>
+      </c>
+      <c r="F83" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="G83" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="H83" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="I83" s="145"/>
+      <c r="J83" s="143"/>
+      <c r="K83" s="143"/>
+      <c r="L83" s="116"/>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A84" s="124">
+        <v>27</v>
+      </c>
+      <c r="B84" s="44" t="s">
+        <v>26</v>
+      </c>
+      <c r="C84" s="66">
+        <v>44810</v>
+      </c>
+      <c r="D84" s="66"/>
+      <c r="E84" s="66">
+        <v>44818</v>
+      </c>
+      <c r="F84" s="67" t="s">
+        <v>15</v>
+      </c>
+      <c r="G84" s="68" t="s">
+        <v>17</v>
+      </c>
+      <c r="H84" s="68" t="s">
+        <v>16</v>
+      </c>
+      <c r="I84" s="144" t="s">
+        <v>4</v>
+      </c>
+      <c r="J84" s="132">
+        <v>12</v>
+      </c>
+      <c r="K84" s="152">
+        <v>1</v>
+      </c>
+      <c r="L84" s="122"/>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A85" s="125"/>
+      <c r="B85" s="48" t="s">
+        <v>25</v>
+      </c>
+      <c r="C85" s="58">
+        <v>44829</v>
+      </c>
+      <c r="D85" s="58"/>
+      <c r="E85" s="58">
+        <v>44836</v>
+      </c>
+      <c r="F85" s="59" t="s">
+        <v>10</v>
+      </c>
+      <c r="G85" s="60" t="s">
+        <v>24</v>
+      </c>
+      <c r="H85" s="60" t="s">
+        <v>11</v>
+      </c>
+      <c r="I85" s="128"/>
+      <c r="J85" s="133"/>
+      <c r="K85" s="173"/>
+      <c r="L85" s="122"/>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A86" s="125"/>
+      <c r="B86" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C86" s="58">
+        <v>44855</v>
+      </c>
+      <c r="D86" s="58">
+        <v>44862</v>
+      </c>
+      <c r="E86" s="58">
+        <v>44864</v>
+      </c>
+      <c r="F86" s="59" t="s">
+        <v>6</v>
+      </c>
+      <c r="G86" s="60" t="s">
+        <v>2</v>
+      </c>
+      <c r="H86" s="60" t="s">
+        <v>5</v>
+      </c>
+      <c r="I86" s="128"/>
+      <c r="J86" s="133"/>
+      <c r="K86" s="173"/>
+      <c r="L86" s="122"/>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A87" s="126"/>
+      <c r="B87" s="70" t="s">
+        <v>41</v>
+      </c>
+      <c r="C87" s="10">
+        <v>44869</v>
+      </c>
+      <c r="D87" s="10">
+        <v>44876</v>
+      </c>
+      <c r="E87" s="10">
+        <v>44847</v>
+      </c>
+      <c r="F87" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="G87" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="H87" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="I87" s="145"/>
+      <c r="J87" s="134"/>
+      <c r="K87" s="153"/>
+      <c r="L87" s="122"/>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A88" s="146">
+        <v>28</v>
+      </c>
+      <c r="B88" s="49" t="s">
+        <v>26</v>
+      </c>
+      <c r="C88" s="50">
+        <v>44807</v>
+      </c>
+      <c r="D88" s="50"/>
+      <c r="E88" s="50">
+        <v>44808</v>
+      </c>
+      <c r="F88" s="51" t="s">
+        <v>7</v>
+      </c>
+      <c r="G88" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="H88" s="49" t="s">
+        <v>8</v>
+      </c>
+      <c r="I88" s="144" t="s">
+        <v>4</v>
+      </c>
+      <c r="J88" s="141">
+        <v>21</v>
+      </c>
+      <c r="K88" s="154">
+        <v>2</v>
+      </c>
+      <c r="L88" s="123"/>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A89" s="147"/>
+      <c r="B89" s="49" t="s">
+        <v>25</v>
+      </c>
+      <c r="C89" s="56">
+        <v>44829</v>
+      </c>
+      <c r="D89" s="56">
         <v>44843</v>
       </c>
-      <c r="D43" s="56"/>
-      <c r="E43" s="56">
+      <c r="E89" s="56">
         <v>44843</v>
       </c>
-      <c r="F43" s="57" t="s">
-        <v>10</v>
-      </c>
-      <c r="G43" s="52" t="s">
-        <v>12</v>
-      </c>
-      <c r="H43" s="52" t="s">
+      <c r="F89" s="57" t="s">
+        <v>10</v>
+      </c>
+      <c r="G89" s="52" t="s">
+        <v>24</v>
+      </c>
+      <c r="H89" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="I43" s="147" t="s">
+      <c r="I89" s="128"/>
+      <c r="J89" s="142"/>
+      <c r="K89" s="171"/>
+      <c r="L89" s="123"/>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A90" s="148"/>
+      <c r="B90" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="C90" s="8">
+        <v>44869</v>
+      </c>
+      <c r="D90" s="8">
+        <v>44876</v>
+      </c>
+      <c r="E90" s="8">
+        <v>44847</v>
+      </c>
+      <c r="F90" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="G90" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="H90" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="I90" s="145"/>
+      <c r="J90" s="143"/>
+      <c r="K90" s="155"/>
+      <c r="L90" s="123"/>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A91" s="124">
+        <v>29</v>
+      </c>
+      <c r="B91" s="44" t="s">
+        <v>26</v>
+      </c>
+      <c r="C91" s="66">
+        <v>44807</v>
+      </c>
+      <c r="D91" s="66"/>
+      <c r="E91" s="66">
+        <v>44808</v>
+      </c>
+      <c r="F91" s="67" t="s">
+        <v>7</v>
+      </c>
+      <c r="G91" s="68" t="s">
+        <v>9</v>
+      </c>
+      <c r="H91" s="68" t="s">
+        <v>8</v>
+      </c>
+      <c r="I91" s="149" t="s">
         <v>0</v>
       </c>
-      <c r="J43" s="139">
-        <v>39</v>
-      </c>
-      <c r="K43" s="152">
-        <v>3</v>
-      </c>
-      <c r="L43" s="121"/>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A44" s="146"/>
-      <c r="B44" s="18" t="s">
+      <c r="J91" s="132">
+        <v>35</v>
+      </c>
+      <c r="K91" s="152">
+        <v>2</v>
+      </c>
+      <c r="L91" s="122"/>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A92" s="125"/>
+      <c r="B92" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="C44" s="8">
-        <v>44859</v>
-      </c>
-      <c r="D44" s="8">
-        <v>44835</v>
-      </c>
-      <c r="E44" s="8">
-        <v>44836</v>
-      </c>
-      <c r="F44" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="G44" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="H44" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="I44" s="149"/>
-      <c r="J44" s="141"/>
-      <c r="K44" s="153"/>
-      <c r="L44" s="121"/>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A45" s="122">
-        <v>15</v>
-      </c>
-      <c r="B45" s="48" t="s">
-        <v>26</v>
-      </c>
-      <c r="C45" s="63">
-        <v>44826</v>
-      </c>
-      <c r="D45" s="63"/>
-      <c r="E45" s="63">
-        <v>44829</v>
-      </c>
-      <c r="F45" s="64" t="s">
-        <v>3</v>
-      </c>
-      <c r="G45" s="44" t="s">
-        <v>13</v>
-      </c>
-      <c r="H45" s="44" t="s">
-        <v>1</v>
-      </c>
-      <c r="I45" s="142" t="s">
-        <v>4</v>
-      </c>
-      <c r="J45" s="150">
-        <v>39</v>
-      </c>
-      <c r="K45" s="157">
-        <v>3</v>
-      </c>
-      <c r="L45" s="120"/>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A46" s="123"/>
-      <c r="B46" s="48" t="s">
-        <v>25</v>
-      </c>
-      <c r="C46" s="61">
-        <v>44843</v>
-      </c>
-      <c r="D46" s="61"/>
-      <c r="E46" s="61">
-        <v>44843</v>
-      </c>
-      <c r="F46" s="62" t="s">
-        <v>10</v>
-      </c>
-      <c r="G46" s="60" t="s">
-        <v>12</v>
-      </c>
-      <c r="H46" s="60" t="s">
-        <v>11</v>
-      </c>
-      <c r="I46" s="126"/>
-      <c r="J46" s="171"/>
-      <c r="K46" s="158"/>
-      <c r="L46" s="120"/>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A47" s="124"/>
-      <c r="B47" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="C47" s="6">
-        <v>44859</v>
-      </c>
-      <c r="D47" s="6">
-        <v>44835</v>
-      </c>
-      <c r="E47" s="6">
-        <v>44836</v>
-      </c>
-      <c r="F47" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="G47" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="H47" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="I47" s="143"/>
-      <c r="J47" s="151"/>
-      <c r="K47" s="159"/>
-      <c r="L47" s="120"/>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A48" s="144">
-        <v>16</v>
-      </c>
-      <c r="B48" s="49" t="s">
-        <v>26</v>
-      </c>
-      <c r="C48" s="50">
-        <v>44826</v>
-      </c>
-      <c r="D48" s="50"/>
-      <c r="E48" s="50">
-        <v>44829</v>
-      </c>
-      <c r="F48" s="51" t="s">
-        <v>3</v>
-      </c>
-      <c r="G48" s="49" t="s">
-        <v>13</v>
-      </c>
-      <c r="H48" s="49" t="s">
-        <v>1</v>
-      </c>
-      <c r="I48" s="147" t="s">
-        <v>0</v>
-      </c>
-      <c r="J48" s="152">
-        <v>39</v>
-      </c>
-      <c r="K48" s="174">
-        <v>3</v>
-      </c>
-      <c r="L48" s="121"/>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A49" s="146"/>
-      <c r="B49" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="C49" s="39">
-        <v>44854</v>
-      </c>
-      <c r="D49" s="39">
-        <v>44861</v>
-      </c>
-      <c r="E49" s="39">
-        <v>44864</v>
-      </c>
-      <c r="F49" s="28" t="s">
-        <v>3</v>
-      </c>
-      <c r="G49" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="H49" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="I49" s="149"/>
-      <c r="J49" s="153"/>
-      <c r="K49" s="175"/>
-      <c r="L49" s="121"/>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A50" s="14">
-        <v>17</v>
-      </c>
-      <c r="B50" s="4"/>
-      <c r="C50" s="113"/>
-      <c r="D50" s="113"/>
-      <c r="E50" s="113"/>
-      <c r="F50" s="11"/>
-      <c r="G50" s="11"/>
-      <c r="H50" s="11"/>
-      <c r="I50" s="11"/>
-      <c r="J50" s="11"/>
-      <c r="K50" s="11"/>
-      <c r="L50" s="82"/>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A51" s="144">
-        <v>18</v>
-      </c>
-      <c r="B51" s="49" t="s">
-        <v>26</v>
-      </c>
-      <c r="C51" s="56">
-        <v>44835</v>
-      </c>
-      <c r="D51" s="56"/>
-      <c r="E51" s="65">
-        <v>44836</v>
-      </c>
-      <c r="F51" s="57" t="s">
-        <v>7</v>
-      </c>
-      <c r="G51" s="52" t="s">
-        <v>36</v>
-      </c>
-      <c r="H51" s="52" t="s">
-        <v>8</v>
-      </c>
-      <c r="I51" s="147" t="s">
-        <v>0</v>
-      </c>
-      <c r="J51" s="139">
-        <v>47</v>
-      </c>
-      <c r="K51" s="152">
-        <v>3</v>
-      </c>
-      <c r="L51" s="121"/>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A52" s="145"/>
-      <c r="B52" s="52" t="s">
-        <v>25</v>
-      </c>
-      <c r="C52" s="56">
-        <v>44846</v>
-      </c>
-      <c r="D52" s="56"/>
-      <c r="E52" s="56">
-        <v>44850</v>
-      </c>
-      <c r="F52" s="57" t="s">
-        <v>23</v>
-      </c>
-      <c r="G52" s="52" t="s">
-        <v>39</v>
-      </c>
-      <c r="H52" s="52" t="s">
-        <v>40</v>
-      </c>
-      <c r="I52" s="148"/>
-      <c r="J52" s="140"/>
-      <c r="K52" s="169"/>
-      <c r="L52" s="121"/>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A53" s="146"/>
-      <c r="B53" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="C53" s="8">
-        <v>44859</v>
-      </c>
-      <c r="D53" s="8">
-        <v>44835</v>
-      </c>
-      <c r="E53" s="8">
-        <v>44836</v>
-      </c>
-      <c r="F53" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="G53" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="H53" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="I53" s="149"/>
-      <c r="J53" s="141"/>
-      <c r="K53" s="153"/>
-      <c r="L53" s="121"/>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A54" s="154">
-        <v>19</v>
-      </c>
-      <c r="B54" s="48" t="s">
-        <v>26</v>
-      </c>
-      <c r="C54" s="61">
-        <v>44822</v>
-      </c>
-      <c r="D54" s="61"/>
-      <c r="E54" s="61">
-        <v>44822</v>
-      </c>
-      <c r="F54" s="62" t="s">
-        <v>10</v>
-      </c>
-      <c r="G54" s="48" t="s">
-        <v>18</v>
-      </c>
-      <c r="H54" s="48" t="s">
-        <v>8</v>
-      </c>
-      <c r="I54" s="147" t="s">
-        <v>0</v>
-      </c>
-      <c r="J54" s="130">
-        <v>68</v>
-      </c>
-      <c r="K54" s="150">
-        <v>4</v>
-      </c>
-      <c r="L54" s="120"/>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A55" s="155"/>
-      <c r="B55" s="48" t="s">
-        <v>25</v>
-      </c>
-      <c r="C55" s="61">
-        <v>44842</v>
-      </c>
-      <c r="D55" s="61"/>
-      <c r="E55" s="61">
-        <v>44813</v>
-      </c>
-      <c r="F55" s="62" t="s">
-        <v>10</v>
-      </c>
-      <c r="G55" s="48" t="s">
-        <v>9</v>
-      </c>
-      <c r="H55" s="48" t="s">
-        <v>8</v>
-      </c>
-      <c r="I55" s="148"/>
-      <c r="J55" s="131"/>
-      <c r="K55" s="171"/>
-      <c r="L55" s="120"/>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A56" s="156"/>
-      <c r="B56" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="C56" s="6">
-        <v>44857</v>
-      </c>
-      <c r="D56" s="6">
-        <v>44871</v>
-      </c>
-      <c r="E56" s="6">
-        <v>44875</v>
-      </c>
-      <c r="F56" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="G56" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="H56" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="I56" s="149"/>
-      <c r="J56" s="132"/>
-      <c r="K56" s="151"/>
-      <c r="L56" s="120"/>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A57" s="144">
-        <v>20</v>
-      </c>
-      <c r="B57" s="101" t="s">
-        <v>26</v>
-      </c>
-      <c r="C57" s="102">
-        <v>44815</v>
-      </c>
-      <c r="D57" s="102"/>
-      <c r="E57" s="102">
-        <v>44818</v>
-      </c>
-      <c r="F57" s="103" t="s">
-        <v>10</v>
-      </c>
-      <c r="G57" s="101" t="s">
-        <v>2</v>
-      </c>
-      <c r="H57" s="101" t="s">
-        <v>11</v>
-      </c>
-      <c r="I57" s="142" t="s">
-        <v>4</v>
-      </c>
-      <c r="J57" s="139">
-        <v>13</v>
-      </c>
-      <c r="K57" s="139">
-        <v>1</v>
-      </c>
-      <c r="L57" s="121"/>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A58" s="145"/>
-      <c r="B58" s="101" t="s">
-        <v>25</v>
-      </c>
-      <c r="C58" s="102">
-        <v>44842</v>
-      </c>
-      <c r="D58" s="102"/>
-      <c r="E58" s="102">
-        <v>44813</v>
-      </c>
-      <c r="F58" s="103" t="s">
-        <v>10</v>
-      </c>
-      <c r="G58" s="101" t="s">
-        <v>9</v>
-      </c>
-      <c r="H58" s="101" t="s">
-        <v>8</v>
-      </c>
-      <c r="I58" s="126"/>
-      <c r="J58" s="140"/>
-      <c r="K58" s="140"/>
-      <c r="L58" s="121"/>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A59" s="145"/>
-      <c r="B59" s="98" t="s">
-        <v>27</v>
-      </c>
-      <c r="C59" s="102">
-        <v>44857</v>
-      </c>
-      <c r="D59" s="102">
-        <v>44871</v>
-      </c>
-      <c r="E59" s="102">
-        <v>44875</v>
-      </c>
-      <c r="F59" s="103" t="s">
-        <v>10</v>
-      </c>
-      <c r="G59" s="101" t="s">
-        <v>12</v>
-      </c>
-      <c r="H59" s="101" t="s">
-        <v>11</v>
-      </c>
-      <c r="I59" s="126"/>
-      <c r="J59" s="140"/>
-      <c r="K59" s="140"/>
-      <c r="L59" s="121"/>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A60" s="146"/>
-      <c r="B60" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="C60" s="27">
-        <v>44878</v>
-      </c>
-      <c r="D60" s="27">
-        <v>44885</v>
-      </c>
-      <c r="E60" s="27">
-        <v>44888</v>
-      </c>
-      <c r="F60" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="G60" s="29" t="s">
-        <v>38</v>
-      </c>
-      <c r="H60" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="I60" s="143"/>
-      <c r="J60" s="141"/>
-      <c r="K60" s="141"/>
-      <c r="L60" s="88"/>
-    </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A61" s="122">
-        <v>21</v>
-      </c>
-      <c r="B61" s="44" t="s">
-        <v>26</v>
-      </c>
-      <c r="C61" s="58">
-        <v>44815</v>
-      </c>
-      <c r="D61" s="58"/>
-      <c r="E61" s="58">
-        <v>44818</v>
-      </c>
-      <c r="F61" s="59" t="s">
-        <v>10</v>
-      </c>
-      <c r="G61" s="60" t="s">
-        <v>2</v>
-      </c>
-      <c r="H61" s="60" t="s">
-        <v>11</v>
-      </c>
-      <c r="I61" s="142" t="s">
-        <v>4</v>
-      </c>
-      <c r="J61" s="130">
-        <v>94</v>
-      </c>
-      <c r="K61" s="130">
-        <v>6</v>
-      </c>
-      <c r="L61" s="120"/>
-    </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A62" s="123"/>
-      <c r="B62" s="48" t="s">
-        <v>25</v>
-      </c>
-      <c r="C62" s="61">
-        <v>44842</v>
-      </c>
-      <c r="D62" s="61"/>
-      <c r="E62" s="61">
-        <v>44813</v>
-      </c>
-      <c r="F62" s="62" t="s">
-        <v>10</v>
-      </c>
-      <c r="G62" s="48" t="s">
-        <v>9</v>
-      </c>
-      <c r="H62" s="48" t="s">
-        <v>8</v>
-      </c>
-      <c r="I62" s="126"/>
-      <c r="J62" s="131"/>
-      <c r="K62" s="131"/>
-      <c r="L62" s="120"/>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A63" s="123"/>
-      <c r="B63" s="100" t="s">
-        <v>27</v>
-      </c>
-      <c r="C63" s="106">
-        <v>44857</v>
-      </c>
-      <c r="D63" s="106">
-        <v>44871</v>
-      </c>
-      <c r="E63" s="106">
-        <v>44875</v>
-      </c>
-      <c r="F63" s="107" t="s">
-        <v>10</v>
-      </c>
-      <c r="G63" s="100" t="s">
-        <v>12</v>
-      </c>
-      <c r="H63" s="100" t="s">
-        <v>11</v>
-      </c>
-      <c r="I63" s="126"/>
-      <c r="J63" s="131"/>
-      <c r="K63" s="131"/>
-      <c r="L63" s="120"/>
-    </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A64" s="124"/>
-      <c r="B64" s="70" t="s">
-        <v>41</v>
-      </c>
-      <c r="C64" s="6">
-        <v>44878</v>
-      </c>
-      <c r="D64" s="6">
-        <v>44885</v>
-      </c>
-      <c r="E64" s="6">
-        <v>44888</v>
-      </c>
-      <c r="F64" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="G64" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="H64" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="I64" s="143"/>
-      <c r="J64" s="132"/>
-      <c r="K64" s="132"/>
-      <c r="L64" s="90"/>
-    </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A65" s="144">
-        <v>22</v>
-      </c>
-      <c r="B65" s="101" t="s">
-        <v>26</v>
-      </c>
-      <c r="C65" s="104">
-        <v>44822</v>
-      </c>
-      <c r="D65" s="104">
-        <v>44828</v>
-      </c>
-      <c r="E65" s="104">
-        <v>44828</v>
-      </c>
-      <c r="F65" s="105" t="s">
-        <v>10</v>
-      </c>
-      <c r="G65" s="98" t="s">
-        <v>2</v>
-      </c>
-      <c r="H65" s="98" t="s">
-        <v>11</v>
-      </c>
-      <c r="I65" s="142" t="s">
-        <v>4</v>
-      </c>
-      <c r="J65" s="139">
-        <v>67</v>
-      </c>
-      <c r="K65" s="139">
-        <v>4</v>
-      </c>
-      <c r="L65" s="121"/>
-    </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A66" s="145"/>
-      <c r="B66" s="101" t="s">
-        <v>25</v>
-      </c>
-      <c r="C66" s="104">
-        <v>44846</v>
-      </c>
-      <c r="D66" s="104"/>
-      <c r="E66" s="104">
-        <v>44850</v>
-      </c>
-      <c r="F66" s="105" t="s">
-        <v>23</v>
-      </c>
-      <c r="G66" s="98" t="s">
-        <v>39</v>
-      </c>
-      <c r="H66" s="98" t="s">
-        <v>40</v>
-      </c>
-      <c r="I66" s="126"/>
-      <c r="J66" s="140"/>
-      <c r="K66" s="140"/>
-      <c r="L66" s="121"/>
-    </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A67" s="145"/>
-      <c r="B67" s="98" t="s">
-        <v>27</v>
-      </c>
-      <c r="C67" s="108">
-        <v>44854</v>
-      </c>
-      <c r="D67" s="108">
-        <v>44861</v>
-      </c>
-      <c r="E67" s="108">
-        <v>44864</v>
-      </c>
-      <c r="F67" s="103" t="s">
-        <v>3</v>
-      </c>
-      <c r="G67" s="101" t="s">
-        <v>13</v>
-      </c>
-      <c r="H67" s="101" t="s">
-        <v>1</v>
-      </c>
-      <c r="I67" s="126"/>
-      <c r="J67" s="140"/>
-      <c r="K67" s="140"/>
-      <c r="L67" s="121"/>
-    </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A68" s="146"/>
-      <c r="B68" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="C68" s="27">
-        <v>44878</v>
-      </c>
-      <c r="D68" s="27">
-        <v>44885</v>
-      </c>
-      <c r="E68" s="27">
-        <v>44888</v>
-      </c>
-      <c r="F68" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="G68" s="29" t="s">
-        <v>38</v>
-      </c>
-      <c r="H68" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="I68" s="143"/>
-      <c r="J68" s="141"/>
-      <c r="K68" s="141"/>
-      <c r="L68" s="88"/>
-    </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A69" s="122">
-        <v>23</v>
-      </c>
-      <c r="B69" s="44" t="s">
-        <v>26</v>
-      </c>
-      <c r="C69" s="58">
-        <v>44808</v>
-      </c>
-      <c r="D69" s="58"/>
-      <c r="E69" s="58">
-        <v>44818</v>
-      </c>
-      <c r="F69" s="59" t="s">
-        <v>10</v>
-      </c>
-      <c r="G69" s="60" t="s">
-        <v>14</v>
-      </c>
-      <c r="H69" s="60" t="s">
-        <v>11</v>
-      </c>
-      <c r="I69" s="147" t="s">
-        <v>0</v>
-      </c>
-      <c r="J69" s="130">
-        <v>22</v>
-      </c>
-      <c r="K69" s="150">
-        <v>2</v>
-      </c>
-      <c r="L69" s="120"/>
-    </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A70" s="123"/>
-      <c r="B70" s="44" t="s">
-        <v>25</v>
-      </c>
-      <c r="C70" s="58">
-        <v>44850</v>
-      </c>
-      <c r="D70" s="58"/>
-      <c r="E70" s="58">
-        <v>44850</v>
-      </c>
-      <c r="F70" s="59" t="s">
-        <v>10</v>
-      </c>
-      <c r="G70" s="60" t="s">
-        <v>39</v>
-      </c>
-      <c r="H70" s="60" t="s">
-        <v>40</v>
-      </c>
-      <c r="I70" s="148"/>
-      <c r="J70" s="131"/>
-      <c r="K70" s="171"/>
-      <c r="L70" s="120"/>
-    </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A71" s="124"/>
-      <c r="B71" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="C71" s="10">
-        <v>44854</v>
-      </c>
-      <c r="D71" s="10">
-        <v>44861</v>
-      </c>
-      <c r="E71" s="10">
-        <v>44864</v>
-      </c>
-      <c r="F71" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="G71" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="H71" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="I71" s="149"/>
-      <c r="J71" s="132"/>
-      <c r="K71" s="151"/>
-      <c r="L71" s="120"/>
-    </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A72" s="144">
-        <v>24</v>
-      </c>
-      <c r="B72" s="98" t="s">
-        <v>26</v>
-      </c>
-      <c r="C72" s="104">
-        <v>44815</v>
-      </c>
-      <c r="D72" s="104"/>
-      <c r="E72" s="104">
-        <v>44818</v>
-      </c>
-      <c r="F72" s="105" t="s">
-        <v>10</v>
-      </c>
-      <c r="G72" s="98" t="s">
-        <v>14</v>
-      </c>
-      <c r="H72" s="98" t="s">
-        <v>11</v>
-      </c>
-      <c r="I72" s="142" t="s">
-        <v>0</v>
-      </c>
-      <c r="J72" s="139">
-        <v>31</v>
-      </c>
-      <c r="K72" s="139">
-        <v>2</v>
-      </c>
-      <c r="L72" s="83"/>
-    </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A73" s="146"/>
-      <c r="B73" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="C73" s="27">
-        <v>44878</v>
-      </c>
-      <c r="D73" s="27">
-        <v>44885</v>
-      </c>
-      <c r="E73" s="27">
-        <v>44888</v>
-      </c>
-      <c r="F73" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="G73" s="29" t="s">
-        <v>38</v>
-      </c>
-      <c r="H73" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="I73" s="126"/>
-      <c r="J73" s="141"/>
-      <c r="K73" s="141"/>
-      <c r="L73" s="88"/>
-    </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A74" s="122">
-        <v>25</v>
-      </c>
-      <c r="B74" s="48" t="s">
-        <v>26</v>
-      </c>
-      <c r="C74" s="58">
-        <v>44846</v>
-      </c>
-      <c r="D74" s="58"/>
-      <c r="E74" s="58">
-        <v>44846</v>
-      </c>
-      <c r="F74" s="59" t="s">
-        <v>23</v>
-      </c>
-      <c r="G74" s="60" t="s">
-        <v>39</v>
-      </c>
-      <c r="H74" s="60" t="s">
-        <v>40</v>
-      </c>
-      <c r="I74" s="147" t="s">
-        <v>0</v>
-      </c>
-      <c r="J74" s="130">
-        <v>44</v>
-      </c>
-      <c r="K74" s="150">
-        <v>3</v>
-      </c>
-      <c r="L74" s="120"/>
-    </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A75" s="124"/>
-      <c r="B75" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="C75" s="10">
-        <v>44855</v>
-      </c>
-      <c r="D75" s="10">
-        <v>44862</v>
-      </c>
-      <c r="E75" s="10">
-        <v>44864</v>
-      </c>
-      <c r="F75" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="G75" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="H75" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="I75" s="149"/>
-      <c r="J75" s="132"/>
-      <c r="K75" s="151"/>
-      <c r="L75" s="120"/>
-    </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A76" s="144">
-        <v>26</v>
-      </c>
-      <c r="B76" s="49" t="s">
-        <v>26</v>
-      </c>
-      <c r="C76" s="56">
-        <v>44829</v>
-      </c>
-      <c r="D76" s="56"/>
-      <c r="E76" s="56">
-        <v>44832</v>
-      </c>
-      <c r="F76" s="57" t="s">
-        <v>10</v>
-      </c>
-      <c r="G76" s="52" t="s">
-        <v>14</v>
-      </c>
-      <c r="H76" s="52" t="s">
-        <v>11</v>
-      </c>
-      <c r="I76" s="147" t="s">
-        <v>0</v>
-      </c>
-      <c r="J76" s="139">
-        <v>30</v>
-      </c>
-      <c r="K76" s="152">
-        <v>3</v>
-      </c>
-      <c r="L76" s="121"/>
-    </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A77" s="145"/>
-      <c r="B77" s="49" t="s">
-        <v>25</v>
-      </c>
-      <c r="C77" s="56">
-        <v>44850</v>
-      </c>
-      <c r="D77" s="56"/>
-      <c r="E77" s="56">
-        <v>44850</v>
-      </c>
-      <c r="F77" s="57" t="s">
-        <v>10</v>
-      </c>
-      <c r="G77" s="52" t="s">
-        <v>39</v>
-      </c>
-      <c r="H77" s="52" t="s">
-        <v>40</v>
-      </c>
-      <c r="I77" s="148"/>
-      <c r="J77" s="140"/>
-      <c r="K77" s="169"/>
-      <c r="L77" s="121"/>
-    </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A78" s="146"/>
-      <c r="B78" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="C78" s="8">
-        <v>44855</v>
-      </c>
-      <c r="D78" s="8">
-        <v>44862</v>
-      </c>
-      <c r="E78" s="8">
-        <v>44864</v>
-      </c>
-      <c r="F78" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="G78" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="H78" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="I78" s="149"/>
-      <c r="J78" s="141"/>
-      <c r="K78" s="153"/>
-      <c r="L78" s="121"/>
-    </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A79" s="122">
-        <v>27</v>
-      </c>
-      <c r="B79" s="44" t="s">
-        <v>26</v>
-      </c>
-      <c r="C79" s="66">
+      <c r="C92" s="66">
         <v>44810</v>
-      </c>
-      <c r="D79" s="66"/>
-      <c r="E79" s="66">
-        <v>44818</v>
-      </c>
-      <c r="F79" s="67" t="s">
-        <v>15</v>
-      </c>
-      <c r="G79" s="68" t="s">
-        <v>17</v>
-      </c>
-      <c r="H79" s="68" t="s">
-        <v>16</v>
-      </c>
-      <c r="I79" s="142" t="s">
-        <v>4</v>
-      </c>
-      <c r="J79" s="130">
-        <v>12</v>
-      </c>
-      <c r="K79" s="150">
-        <v>1</v>
-      </c>
-      <c r="L79" s="120"/>
-    </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A80" s="123"/>
-      <c r="B80" s="48" t="s">
-        <v>25</v>
-      </c>
-      <c r="C80" s="58">
-        <v>44829</v>
-      </c>
-      <c r="D80" s="58"/>
-      <c r="E80" s="58">
-        <v>44836</v>
-      </c>
-      <c r="F80" s="59" t="s">
-        <v>10</v>
-      </c>
-      <c r="G80" s="60" t="s">
-        <v>24</v>
-      </c>
-      <c r="H80" s="60" t="s">
-        <v>11</v>
-      </c>
-      <c r="I80" s="126"/>
-      <c r="J80" s="131"/>
-      <c r="K80" s="171"/>
-      <c r="L80" s="120"/>
-    </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A81" s="123"/>
-      <c r="B81" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C81" s="58">
-        <v>44855</v>
-      </c>
-      <c r="D81" s="58">
-        <v>44862</v>
-      </c>
-      <c r="E81" s="58">
-        <v>44864</v>
-      </c>
-      <c r="F81" s="59" t="s">
-        <v>6</v>
-      </c>
-      <c r="G81" s="60" t="s">
-        <v>2</v>
-      </c>
-      <c r="H81" s="60" t="s">
-        <v>5</v>
-      </c>
-      <c r="I81" s="126"/>
-      <c r="J81" s="131"/>
-      <c r="K81" s="171"/>
-      <c r="L81" s="120"/>
-    </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A82" s="124"/>
-      <c r="B82" s="70" t="s">
-        <v>41</v>
-      </c>
-      <c r="C82" s="10">
-        <v>44869</v>
-      </c>
-      <c r="D82" s="10">
-        <v>44876</v>
-      </c>
-      <c r="E82" s="10">
-        <v>44847</v>
-      </c>
-      <c r="F82" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="G82" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="H82" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="I82" s="143"/>
-      <c r="J82" s="132"/>
-      <c r="K82" s="151"/>
-      <c r="L82" s="120"/>
-    </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A83" s="144">
-        <v>28</v>
-      </c>
-      <c r="B83" s="49" t="s">
-        <v>26</v>
-      </c>
-      <c r="C83" s="50">
-        <v>44807</v>
-      </c>
-      <c r="D83" s="50"/>
-      <c r="E83" s="50">
-        <v>44808</v>
-      </c>
-      <c r="F83" s="51" t="s">
-        <v>7</v>
-      </c>
-      <c r="G83" s="49" t="s">
-        <v>9</v>
-      </c>
-      <c r="H83" s="49" t="s">
-        <v>8</v>
-      </c>
-      <c r="I83" s="142" t="s">
-        <v>4</v>
-      </c>
-      <c r="J83" s="139">
-        <v>21</v>
-      </c>
-      <c r="K83" s="152">
-        <v>2</v>
-      </c>
-      <c r="L83" s="121"/>
-    </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A84" s="145"/>
-      <c r="B84" s="49" t="s">
-        <v>25</v>
-      </c>
-      <c r="C84" s="56">
-        <v>44829</v>
-      </c>
-      <c r="D84" s="56">
-        <v>44843</v>
-      </c>
-      <c r="E84" s="56">
-        <v>44843</v>
-      </c>
-      <c r="F84" s="57" t="s">
-        <v>10</v>
-      </c>
-      <c r="G84" s="52" t="s">
-        <v>24</v>
-      </c>
-      <c r="H84" s="52" t="s">
-        <v>11</v>
-      </c>
-      <c r="I84" s="126"/>
-      <c r="J84" s="140"/>
-      <c r="K84" s="169"/>
-      <c r="L84" s="121"/>
-    </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A85" s="146"/>
-      <c r="B85" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="C85" s="8">
-        <v>44869</v>
-      </c>
-      <c r="D85" s="8">
-        <v>44876</v>
-      </c>
-      <c r="E85" s="8">
-        <v>44847</v>
-      </c>
-      <c r="F85" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="G85" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="H85" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="I85" s="143"/>
-      <c r="J85" s="141"/>
-      <c r="K85" s="153"/>
-      <c r="L85" s="121"/>
-    </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A86" s="122">
-        <v>29</v>
-      </c>
-      <c r="B86" s="44" t="s">
-        <v>26</v>
-      </c>
-      <c r="C86" s="66">
-        <v>44807</v>
-      </c>
-      <c r="D86" s="66"/>
-      <c r="E86" s="66">
-        <v>44808</v>
-      </c>
-      <c r="F86" s="67" t="s">
-        <v>7</v>
-      </c>
-      <c r="G86" s="68" t="s">
-        <v>9</v>
-      </c>
-      <c r="H86" s="68" t="s">
-        <v>8</v>
-      </c>
-      <c r="I86" s="147" t="s">
-        <v>0</v>
-      </c>
-      <c r="J86" s="130">
-        <v>35</v>
-      </c>
-      <c r="K86" s="150">
-        <v>2</v>
-      </c>
-      <c r="L86" s="120"/>
-    </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A87" s="123"/>
-      <c r="B87" s="44" t="s">
-        <v>25</v>
-      </c>
-      <c r="C87" s="66">
-        <v>44810</v>
-      </c>
-      <c r="D87" s="66"/>
-      <c r="E87" s="66">
-        <v>44818</v>
-      </c>
-      <c r="F87" s="67" t="s">
-        <v>15</v>
-      </c>
-      <c r="G87" s="68" t="s">
-        <v>17</v>
-      </c>
-      <c r="H87" s="68" t="s">
-        <v>16</v>
-      </c>
-      <c r="I87" s="148"/>
-      <c r="J87" s="131"/>
-      <c r="K87" s="171"/>
-      <c r="L87" s="120"/>
-    </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A88" s="124"/>
-      <c r="B88" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="C88" s="10">
-        <v>44829</v>
-      </c>
-      <c r="D88" s="10">
-        <v>44843</v>
-      </c>
-      <c r="E88" s="10">
-        <v>44843</v>
-      </c>
-      <c r="F88" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="G88" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="H88" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="I88" s="149"/>
-      <c r="J88" s="132"/>
-      <c r="K88" s="151"/>
-      <c r="L88" s="120"/>
-    </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A89" s="144">
-        <v>30</v>
-      </c>
-      <c r="B89" s="49" t="s">
-        <v>26</v>
-      </c>
-      <c r="C89" s="50">
-        <v>44807</v>
-      </c>
-      <c r="D89" s="50"/>
-      <c r="E89" s="50">
-        <v>44815</v>
-      </c>
-      <c r="F89" s="51" t="s">
-        <v>7</v>
-      </c>
-      <c r="G89" s="49" t="s">
-        <v>9</v>
-      </c>
-      <c r="H89" s="49" t="s">
-        <v>8</v>
-      </c>
-      <c r="I89" s="147" t="s">
-        <v>0</v>
-      </c>
-      <c r="J89" s="139">
-        <v>19</v>
-      </c>
-      <c r="K89" s="152">
-        <v>1</v>
-      </c>
-      <c r="L89" s="121"/>
-    </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A90" s="145"/>
-      <c r="B90" s="49" t="s">
-        <v>25</v>
-      </c>
-      <c r="C90" s="50">
-        <v>44814</v>
-      </c>
-      <c r="D90" s="50"/>
-      <c r="E90" s="50">
-        <v>44815</v>
-      </c>
-      <c r="F90" s="51" t="s">
-        <v>7</v>
-      </c>
-      <c r="G90" s="49" t="s">
-        <v>18</v>
-      </c>
-      <c r="H90" s="49" t="s">
-        <v>8</v>
-      </c>
-      <c r="I90" s="148"/>
-      <c r="J90" s="140"/>
-      <c r="K90" s="169"/>
-      <c r="L90" s="121"/>
-    </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A91" s="43"/>
-      <c r="B91" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="C91" s="8">
-        <v>44855</v>
-      </c>
-      <c r="D91" s="8">
-        <v>44862</v>
-      </c>
-      <c r="E91" s="8">
-        <v>44864</v>
-      </c>
-      <c r="F91" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="G91" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="H91" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="I91" s="149"/>
-      <c r="J91" s="141"/>
-      <c r="K91" s="153"/>
-      <c r="L91" s="83"/>
-    </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A92" s="122">
-        <v>31</v>
-      </c>
-      <c r="B92" s="44" t="s">
-        <v>26</v>
-      </c>
-      <c r="C92" s="66">
-        <v>44813</v>
       </c>
       <c r="D92" s="66"/>
       <c r="E92" s="66">
+        <v>44818</v>
+      </c>
+      <c r="F92" s="67" t="s">
+        <v>15</v>
+      </c>
+      <c r="G92" s="68" t="s">
+        <v>17</v>
+      </c>
+      <c r="H92" s="68" t="s">
+        <v>16</v>
+      </c>
+      <c r="I92" s="150"/>
+      <c r="J92" s="133"/>
+      <c r="K92" s="173"/>
+      <c r="L92" s="122"/>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A93" s="126"/>
+      <c r="B93" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="C93" s="10">
+        <v>44829</v>
+      </c>
+      <c r="D93" s="10">
+        <v>44843</v>
+      </c>
+      <c r="E93" s="10">
+        <v>44843</v>
+      </c>
+      <c r="F93" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="G93" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="H93" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="I93" s="151"/>
+      <c r="J93" s="134"/>
+      <c r="K93" s="153"/>
+      <c r="L93" s="122"/>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A94" s="146">
+        <v>30</v>
+      </c>
+      <c r="B94" s="49" t="s">
+        <v>26</v>
+      </c>
+      <c r="C94" s="50">
+        <v>44807</v>
+      </c>
+      <c r="D94" s="50"/>
+      <c r="E94" s="50">
         <v>44815</v>
       </c>
-      <c r="F92" s="67" t="s">
+      <c r="F94" s="51" t="s">
+        <v>7</v>
+      </c>
+      <c r="G94" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="H94" s="49" t="s">
+        <v>8</v>
+      </c>
+      <c r="I94" s="149" t="s">
+        <v>0</v>
+      </c>
+      <c r="J94" s="141">
+        <v>19</v>
+      </c>
+      <c r="K94" s="154">
+        <v>1</v>
+      </c>
+      <c r="L94" s="123"/>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A95" s="147"/>
+      <c r="B95" s="49" t="s">
+        <v>25</v>
+      </c>
+      <c r="C95" s="50">
+        <v>44814</v>
+      </c>
+      <c r="D95" s="50"/>
+      <c r="E95" s="50">
+        <v>44815</v>
+      </c>
+      <c r="F95" s="51" t="s">
+        <v>7</v>
+      </c>
+      <c r="G95" s="49" t="s">
+        <v>18</v>
+      </c>
+      <c r="H95" s="49" t="s">
+        <v>8</v>
+      </c>
+      <c r="I95" s="150"/>
+      <c r="J95" s="142"/>
+      <c r="K95" s="171"/>
+      <c r="L95" s="123"/>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A96" s="43"/>
+      <c r="B96" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="C96" s="8">
+        <v>44855</v>
+      </c>
+      <c r="D96" s="8">
+        <v>44862</v>
+      </c>
+      <c r="E96" s="8">
+        <v>44864</v>
+      </c>
+      <c r="F96" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="G92" s="68" t="s">
+      <c r="G96" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="H92" s="68" t="s">
+      <c r="H96" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="I92" s="170" t="s">
+      <c r="I96" s="151"/>
+      <c r="J96" s="143"/>
+      <c r="K96" s="155"/>
+      <c r="L96" s="83"/>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A97" s="124">
+        <v>31</v>
+      </c>
+      <c r="B97" s="44" t="s">
+        <v>26</v>
+      </c>
+      <c r="C97" s="66">
+        <v>44813</v>
+      </c>
+      <c r="D97" s="66"/>
+      <c r="E97" s="66">
+        <v>44815</v>
+      </c>
+      <c r="F97" s="67" t="s">
+        <v>6</v>
+      </c>
+      <c r="G97" s="68" t="s">
+        <v>2</v>
+      </c>
+      <c r="H97" s="68" t="s">
+        <v>5</v>
+      </c>
+      <c r="I97" s="172" t="s">
         <v>0</v>
       </c>
-      <c r="J92" s="130">
+      <c r="J97" s="132">
         <v>50</v>
-      </c>
-      <c r="K92" s="150">
-        <v>4</v>
-      </c>
-      <c r="L92" s="120"/>
-    </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A93" s="123"/>
-      <c r="B93" s="48" t="s">
-        <v>25</v>
-      </c>
-      <c r="C93" s="61">
-        <v>44824</v>
-      </c>
-      <c r="D93" s="61"/>
-      <c r="E93" s="61">
-        <v>44832</v>
-      </c>
-      <c r="F93" s="62" t="s">
-        <v>15</v>
-      </c>
-      <c r="G93" s="60" t="s">
-        <v>22</v>
-      </c>
-      <c r="H93" s="60" t="s">
-        <v>16</v>
-      </c>
-      <c r="I93" s="170"/>
-      <c r="J93" s="131"/>
-      <c r="K93" s="171"/>
-      <c r="L93" s="120"/>
-    </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A94" s="123"/>
-      <c r="B94" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C94" s="61">
-        <v>44843</v>
-      </c>
-      <c r="D94" s="61"/>
-      <c r="E94" s="61">
-        <v>44843</v>
-      </c>
-      <c r="F94" s="62" t="s">
-        <v>10</v>
-      </c>
-      <c r="G94" s="60" t="s">
-        <v>14</v>
-      </c>
-      <c r="H94" s="60" t="s">
-        <v>11</v>
-      </c>
-      <c r="I94" s="170"/>
-      <c r="J94" s="131"/>
-      <c r="K94" s="171"/>
-      <c r="L94" s="120"/>
-    </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A95" s="123"/>
-      <c r="B95" s="44" t="s">
-        <v>41</v>
-      </c>
-      <c r="C95" s="61">
-        <v>44850</v>
-      </c>
-      <c r="D95" s="61"/>
-      <c r="E95" s="61">
-        <v>44850</v>
-      </c>
-      <c r="F95" s="62" t="s">
-        <v>10</v>
-      </c>
-      <c r="G95" s="60" t="s">
-        <v>39</v>
-      </c>
-      <c r="H95" s="60" t="s">
-        <v>40</v>
-      </c>
-      <c r="I95" s="170"/>
-      <c r="J95" s="131"/>
-      <c r="K95" s="171"/>
-      <c r="L95" s="120"/>
-    </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A96" s="124"/>
-      <c r="B96" s="30" t="s">
-        <v>43</v>
-      </c>
-      <c r="C96" s="6">
-        <v>44857</v>
-      </c>
-      <c r="D96" s="6">
-        <v>44871</v>
-      </c>
-      <c r="E96" s="6">
-        <v>44875</v>
-      </c>
-      <c r="F96" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="G96" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="H96" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="I96" s="170"/>
-      <c r="J96" s="132"/>
-      <c r="K96" s="151"/>
-      <c r="L96" s="120"/>
-    </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A97" s="173">
-        <v>32</v>
-      </c>
-      <c r="B97" s="49" t="s">
-        <v>26</v>
-      </c>
-      <c r="C97" s="56">
-        <v>44813</v>
-      </c>
-      <c r="D97" s="56"/>
-      <c r="E97" s="65">
-        <v>44815</v>
-      </c>
-      <c r="F97" s="57" t="s">
-        <v>6</v>
-      </c>
-      <c r="G97" s="52" t="s">
-        <v>2</v>
-      </c>
-      <c r="H97" s="52" t="s">
-        <v>5</v>
-      </c>
-      <c r="I97" s="147" t="s">
-        <v>0</v>
-      </c>
-      <c r="J97" s="139">
-        <v>77</v>
       </c>
       <c r="K97" s="152">
         <v>4</v>
       </c>
-      <c r="L97" s="121"/>
+      <c r="L97" s="122"/>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A98" s="173"/>
-      <c r="B98" s="49" t="s">
+      <c r="A98" s="125"/>
+      <c r="B98" s="48" t="s">
         <v>25</v>
       </c>
-      <c r="C98" s="56">
+      <c r="C98" s="61">
+        <v>44824</v>
+      </c>
+      <c r="D98" s="61"/>
+      <c r="E98" s="61">
+        <v>44832</v>
+      </c>
+      <c r="F98" s="62" t="s">
+        <v>15</v>
+      </c>
+      <c r="G98" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="H98" s="60" t="s">
+        <v>16</v>
+      </c>
+      <c r="I98" s="172"/>
+      <c r="J98" s="133"/>
+      <c r="K98" s="173"/>
+      <c r="L98" s="122"/>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A99" s="125"/>
+      <c r="B99" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C99" s="61">
         <v>44843</v>
       </c>
-      <c r="D98" s="56"/>
-      <c r="E98" s="56">
+      <c r="D99" s="61"/>
+      <c r="E99" s="61">
         <v>44843</v>
       </c>
-      <c r="F98" s="57" t="s">
-        <v>10</v>
-      </c>
-      <c r="G98" s="52" t="s">
+      <c r="F99" s="62" t="s">
+        <v>10</v>
+      </c>
+      <c r="G99" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="H98" s="52" t="s">
+      <c r="H99" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="I98" s="148"/>
-      <c r="J98" s="140"/>
-      <c r="K98" s="169"/>
-      <c r="L98" s="121"/>
-    </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A99" s="173"/>
-      <c r="B99" s="52" t="s">
+      <c r="I99" s="172"/>
+      <c r="J99" s="133"/>
+      <c r="K99" s="173"/>
+      <c r="L99" s="122"/>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A100" s="125"/>
+      <c r="B100" s="44" t="s">
+        <v>41</v>
+      </c>
+      <c r="C100" s="61">
+        <v>44850</v>
+      </c>
+      <c r="D100" s="61"/>
+      <c r="E100" s="61">
+        <v>44850</v>
+      </c>
+      <c r="F100" s="62" t="s">
+        <v>10</v>
+      </c>
+      <c r="G100" s="60" t="s">
+        <v>39</v>
+      </c>
+      <c r="H100" s="60" t="s">
+        <v>40</v>
+      </c>
+      <c r="I100" s="172"/>
+      <c r="J100" s="133"/>
+      <c r="K100" s="173"/>
+      <c r="L100" s="122"/>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A101" s="126"/>
+      <c r="B101" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="C101" s="6">
+        <v>44857</v>
+      </c>
+      <c r="D101" s="6">
+        <v>44871</v>
+      </c>
+      <c r="E101" s="6">
+        <v>44875</v>
+      </c>
+      <c r="F101" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="G101" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="H101" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="I101" s="172"/>
+      <c r="J101" s="134"/>
+      <c r="K101" s="153"/>
+      <c r="L101" s="122"/>
+    </row>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A102" s="175">
+        <v>32</v>
+      </c>
+      <c r="B102" s="49" t="s">
+        <v>26</v>
+      </c>
+      <c r="C102" s="56">
+        <v>44813</v>
+      </c>
+      <c r="D102" s="56"/>
+      <c r="E102" s="65">
+        <v>44815</v>
+      </c>
+      <c r="F102" s="57" t="s">
+        <v>6</v>
+      </c>
+      <c r="G102" s="52" t="s">
+        <v>2</v>
+      </c>
+      <c r="H102" s="52" t="s">
+        <v>5</v>
+      </c>
+      <c r="I102" s="149" t="s">
+        <v>0</v>
+      </c>
+      <c r="J102" s="141">
+        <v>77</v>
+      </c>
+      <c r="K102" s="154">
+        <v>4</v>
+      </c>
+      <c r="L102" s="123"/>
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A103" s="175"/>
+      <c r="B103" s="49" t="s">
+        <v>25</v>
+      </c>
+      <c r="C103" s="56">
+        <v>44843</v>
+      </c>
+      <c r="D103" s="56"/>
+      <c r="E103" s="56">
+        <v>44843</v>
+      </c>
+      <c r="F103" s="57" t="s">
+        <v>10</v>
+      </c>
+      <c r="G103" s="52" t="s">
+        <v>14</v>
+      </c>
+      <c r="H103" s="52" t="s">
+        <v>11</v>
+      </c>
+      <c r="I103" s="150"/>
+      <c r="J103" s="142"/>
+      <c r="K103" s="171"/>
+      <c r="L103" s="123"/>
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A104" s="175"/>
+      <c r="B104" s="52" t="s">
         <v>27</v>
       </c>
-      <c r="C99" s="56">
+      <c r="C104" s="56">
         <v>44850</v>
       </c>
-      <c r="D99" s="56"/>
-      <c r="E99" s="56">
+      <c r="D104" s="56"/>
+      <c r="E104" s="56">
         <v>44850</v>
       </c>
-      <c r="F99" s="57" t="s">
-        <v>10</v>
-      </c>
-      <c r="G99" s="52" t="s">
+      <c r="F104" s="57" t="s">
+        <v>10</v>
+      </c>
+      <c r="G104" s="52" t="s">
         <v>39</v>
       </c>
-      <c r="H99" s="52" t="s">
+      <c r="H104" s="52" t="s">
         <v>40</v>
       </c>
-      <c r="I99" s="148"/>
-      <c r="J99" s="140"/>
-      <c r="K99" s="169"/>
-      <c r="L99" s="121"/>
-    </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A100" s="173"/>
-      <c r="B100" s="18" t="s">
+      <c r="I104" s="150"/>
+      <c r="J104" s="142"/>
+      <c r="K104" s="171"/>
+      <c r="L104" s="123"/>
+    </row>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A105" s="175"/>
+      <c r="B105" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="C100" s="8">
+      <c r="C105" s="8">
         <v>44857</v>
       </c>
-      <c r="D100" s="27">
+      <c r="D105" s="27">
         <v>44871</v>
       </c>
-      <c r="E100" s="27">
+      <c r="E105" s="27">
         <v>44875</v>
       </c>
-      <c r="F100" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="G100" s="18" t="s">
+      <c r="F105" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="G105" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="H100" s="18" t="s">
+      <c r="H105" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="I100" s="149"/>
-      <c r="J100" s="141"/>
-      <c r="K100" s="153"/>
-      <c r="L100" s="121"/>
-    </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A101" s="122">
+      <c r="I105" s="151"/>
+      <c r="J105" s="143"/>
+      <c r="K105" s="155"/>
+      <c r="L105" s="123"/>
+    </row>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A106" s="124">
         <v>33</v>
       </c>
-      <c r="B101" s="44" t="s">
+      <c r="B106" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="C101" s="66">
+      <c r="C106" s="66">
         <v>44806</v>
       </c>
-      <c r="D101" s="66"/>
-      <c r="E101" s="66">
+      <c r="D106" s="66"/>
+      <c r="E106" s="66">
         <v>44815</v>
       </c>
-      <c r="F101" s="67" t="s">
+      <c r="F106" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="G101" s="68" t="s">
+      <c r="G106" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="H101" s="68" t="s">
+      <c r="H106" s="68" t="s">
         <v>5</v>
       </c>
-      <c r="I101" s="142" t="s">
+      <c r="I106" s="144" t="s">
         <v>4</v>
       </c>
-      <c r="J101" s="130">
+      <c r="J106" s="132">
         <v>62</v>
       </c>
-      <c r="K101" s="130">
+      <c r="K106" s="132">
         <v>4</v>
       </c>
-      <c r="L101" s="120"/>
-    </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A102" s="123"/>
-      <c r="B102" s="48" t="s">
+      <c r="L106" s="122"/>
+    </row>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A107" s="125"/>
+      <c r="B107" s="48" t="s">
         <v>25</v>
       </c>
-      <c r="C102" s="61">
+      <c r="C107" s="61">
         <v>44824</v>
       </c>
-      <c r="D102" s="61"/>
-      <c r="E102" s="69">
+      <c r="D107" s="61"/>
+      <c r="E107" s="69">
         <v>44832</v>
       </c>
-      <c r="F102" s="62" t="s">
+      <c r="F107" s="62" t="s">
         <v>15</v>
       </c>
-      <c r="G102" s="60" t="s">
+      <c r="G107" s="60" t="s">
         <v>22</v>
       </c>
-      <c r="H102" s="60" t="s">
+      <c r="H107" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="I102" s="126"/>
-      <c r="J102" s="131"/>
-      <c r="K102" s="131"/>
-      <c r="L102" s="120"/>
-    </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A103" s="123"/>
-      <c r="B103" s="48" t="s">
+      <c r="I107" s="128"/>
+      <c r="J107" s="133"/>
+      <c r="K107" s="133"/>
+      <c r="L107" s="122"/>
+    </row>
+    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A108" s="125"/>
+      <c r="B108" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="C103" s="106">
+      <c r="C108" s="106">
         <v>44857</v>
       </c>
-      <c r="D103" s="106">
+      <c r="D108" s="106">
         <v>44871</v>
       </c>
-      <c r="E103" s="106">
+      <c r="E108" s="106">
         <v>44875</v>
       </c>
-      <c r="F103" s="107" t="s">
-        <v>10</v>
-      </c>
-      <c r="G103" s="94" t="s">
+      <c r="F108" s="107" t="s">
+        <v>10</v>
+      </c>
+      <c r="G108" s="94" t="s">
         <v>14</v>
       </c>
-      <c r="H103" s="94" t="s">
+      <c r="H108" s="94" t="s">
         <v>11</v>
       </c>
-      <c r="I103" s="126"/>
-      <c r="J103" s="131"/>
-      <c r="K103" s="131"/>
-      <c r="L103" s="120"/>
-    </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A104" s="124"/>
-      <c r="B104" s="70" t="s">
+      <c r="I108" s="128"/>
+      <c r="J108" s="133"/>
+      <c r="K108" s="133"/>
+      <c r="L108" s="122"/>
+    </row>
+    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A109" s="126"/>
+      <c r="B109" s="70" t="s">
         <v>41</v>
       </c>
-      <c r="C104" s="6">
+      <c r="C109" s="6">
         <v>44878</v>
       </c>
-      <c r="D104" s="6">
+      <c r="D109" s="6">
         <v>44885</v>
       </c>
-      <c r="E104" s="6">
+      <c r="E109" s="6">
         <v>44888</v>
       </c>
-      <c r="F104" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="G104" s="20" t="s">
+      <c r="F109" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="G109" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="H104" s="20" t="s">
+      <c r="H109" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="I104" s="143"/>
-      <c r="J104" s="132"/>
-      <c r="K104" s="132"/>
-      <c r="L104" s="90"/>
-    </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A105" s="144">
+      <c r="I109" s="145"/>
+      <c r="J109" s="134"/>
+      <c r="K109" s="134"/>
+      <c r="L109" s="90"/>
+    </row>
+    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A110" s="146">
         <v>34</v>
       </c>
-      <c r="B105" s="101" t="s">
+      <c r="B110" s="101" t="s">
         <v>26</v>
       </c>
-      <c r="C105" s="102">
+      <c r="C110" s="102">
         <v>44807</v>
       </c>
-      <c r="D105" s="102"/>
-      <c r="E105" s="102">
+      <c r="D110" s="102"/>
+      <c r="E110" s="102">
         <v>44808</v>
       </c>
-      <c r="F105" s="103" t="s">
+      <c r="F110" s="103" t="s">
         <v>7</v>
       </c>
-      <c r="G105" s="101" t="s">
+      <c r="G110" s="101" t="s">
         <v>9</v>
       </c>
-      <c r="H105" s="101" t="s">
+      <c r="H110" s="101" t="s">
         <v>8</v>
       </c>
-      <c r="I105" s="142" t="s">
+      <c r="I110" s="144" t="s">
         <v>4</v>
       </c>
-      <c r="J105" s="139">
+      <c r="J110" s="141">
         <v>58</v>
       </c>
-      <c r="K105" s="139">
+      <c r="K110" s="141">
         <v>3</v>
       </c>
-      <c r="L105" s="172"/>
-    </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A106" s="145"/>
-      <c r="B106" s="101" t="s">
+      <c r="L110" s="174"/>
+    </row>
+    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A111" s="147"/>
+      <c r="B111" s="101" t="s">
         <v>25</v>
       </c>
-      <c r="C106" s="104">
+      <c r="C111" s="104">
         <v>44829</v>
       </c>
-      <c r="D106" s="104">
+      <c r="D111" s="104">
         <v>44836</v>
       </c>
-      <c r="E106" s="104">
-        <f>D106+3</f>
+      <c r="E111" s="104">
+        <f>D111+3</f>
         <v>44839</v>
       </c>
-      <c r="F106" s="105" t="s">
-        <v>10</v>
-      </c>
-      <c r="G106" s="98" t="s">
+      <c r="F111" s="105" t="s">
+        <v>10</v>
+      </c>
+      <c r="G111" s="98" t="s">
         <v>2</v>
       </c>
-      <c r="H106" s="98" t="s">
+      <c r="H111" s="98" t="s">
         <v>11</v>
       </c>
-      <c r="I106" s="126"/>
-      <c r="J106" s="140"/>
-      <c r="K106" s="140"/>
-      <c r="L106" s="172"/>
-    </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A107" s="145"/>
-      <c r="B107" s="98" t="s">
+      <c r="I111" s="128"/>
+      <c r="J111" s="142"/>
+      <c r="K111" s="142"/>
+      <c r="L111" s="174"/>
+    </row>
+    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A112" s="147"/>
+      <c r="B112" s="98" t="s">
         <v>27</v>
       </c>
-      <c r="C107" s="104">
+      <c r="C112" s="104">
         <v>44843</v>
       </c>
-      <c r="D107" s="104"/>
-      <c r="E107" s="104">
+      <c r="D112" s="104"/>
+      <c r="E112" s="104">
         <v>44843</v>
       </c>
-      <c r="F107" s="105" t="s">
-        <v>10</v>
-      </c>
-      <c r="G107" s="98" t="s">
+      <c r="F112" s="105" t="s">
+        <v>10</v>
+      </c>
+      <c r="G112" s="98" t="s">
         <v>9</v>
       </c>
-      <c r="H107" s="98" t="s">
+      <c r="H112" s="98" t="s">
         <v>11</v>
       </c>
-      <c r="I107" s="126"/>
-      <c r="J107" s="140"/>
-      <c r="K107" s="140"/>
-      <c r="L107" s="172"/>
-    </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A108" s="145"/>
-      <c r="B108" s="18" t="s">
+      <c r="I112" s="128"/>
+      <c r="J112" s="142"/>
+      <c r="K112" s="142"/>
+      <c r="L112" s="174"/>
+    </row>
+    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A113" s="147"/>
+      <c r="B113" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="C108" s="8">
+      <c r="C113" s="8">
         <v>44878</v>
       </c>
-      <c r="D108" s="8">
+      <c r="D113" s="8">
         <v>44885</v>
       </c>
-      <c r="E108" s="8">
+      <c r="E113" s="8">
         <v>44888</v>
       </c>
-      <c r="F108" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="G108" s="18" t="s">
+      <c r="F113" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="G113" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="H108" s="18" t="s">
+      <c r="H113" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="I108" s="143"/>
-      <c r="J108" s="141"/>
-      <c r="K108" s="141"/>
-      <c r="L108" s="89"/>
-    </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A109" s="154">
+      <c r="I113" s="145"/>
+      <c r="J113" s="143"/>
+      <c r="K113" s="143"/>
+      <c r="L113" s="89"/>
+    </row>
+    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A114" s="156">
         <v>35</v>
       </c>
-      <c r="B109" s="44" t="s">
+      <c r="B114" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="C109" s="58">
+      <c r="C114" s="58">
         <v>44807</v>
       </c>
-      <c r="D109" s="58"/>
-      <c r="E109" s="58">
+      <c r="D114" s="58"/>
+      <c r="E114" s="58">
         <v>44808</v>
       </c>
-      <c r="F109" s="59" t="s">
+      <c r="F114" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="G109" s="60" t="s">
+      <c r="G114" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="H109" s="60" t="s">
+      <c r="H114" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="I109" s="142" t="s">
+      <c r="I114" s="144" t="s">
         <v>4</v>
       </c>
-      <c r="J109" s="130">
+      <c r="J114" s="132">
         <v>40</v>
       </c>
-      <c r="K109" s="150">
+      <c r="K114" s="152">
         <v>2</v>
       </c>
-      <c r="L109" s="120"/>
-    </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A110" s="155"/>
-      <c r="B110" s="44" t="s">
+      <c r="L114" s="122"/>
+    </row>
+    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A115" s="157"/>
+      <c r="B115" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="C110" s="61">
+      <c r="C115" s="61">
         <v>44843</v>
       </c>
-      <c r="D110" s="61"/>
-      <c r="E110" s="61">
+      <c r="D115" s="61"/>
+      <c r="E115" s="61">
         <v>44843</v>
       </c>
-      <c r="F110" s="62" t="s">
-        <v>10</v>
-      </c>
-      <c r="G110" s="60" t="s">
+      <c r="F115" s="62" t="s">
+        <v>10</v>
+      </c>
+      <c r="G115" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="H110" s="60" t="s">
+      <c r="H115" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="I110" s="126"/>
-      <c r="J110" s="131"/>
-      <c r="K110" s="171"/>
-      <c r="L110" s="120"/>
-    </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A111" s="156"/>
-      <c r="B111" s="17" t="s">
+      <c r="I115" s="128"/>
+      <c r="J115" s="133"/>
+      <c r="K115" s="173"/>
+      <c r="L115" s="122"/>
+    </row>
+    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A116" s="158"/>
+      <c r="B116" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="C111" s="16">
+      <c r="C116" s="16">
         <v>44863</v>
       </c>
-      <c r="D111" s="16"/>
-      <c r="E111" s="16">
+      <c r="D116" s="16"/>
+      <c r="E116" s="16">
         <v>44864</v>
       </c>
-      <c r="F111" s="31" t="s">
+      <c r="F116" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="G111" s="32" t="s">
+      <c r="G116" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="H111" s="17" t="s">
+      <c r="H116" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="I111" s="143"/>
-      <c r="J111" s="132"/>
-      <c r="K111" s="151"/>
-      <c r="L111" s="120"/>
-    </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A112" s="133">
+      <c r="I116" s="145"/>
+      <c r="J116" s="134"/>
+      <c r="K116" s="153"/>
+      <c r="L116" s="122"/>
+    </row>
+    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A117" s="135">
         <v>36</v>
       </c>
-      <c r="B112" s="49" t="s">
+      <c r="B117" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="C112" s="56">
+      <c r="C117" s="56">
         <v>44808</v>
       </c>
-      <c r="D112" s="56">
+      <c r="D117" s="56">
         <v>44815</v>
       </c>
-      <c r="E112" s="65">
+      <c r="E117" s="65">
         <v>44818</v>
       </c>
-      <c r="F112" s="57" t="s">
-        <v>10</v>
-      </c>
-      <c r="G112" s="52" t="s">
+      <c r="F117" s="57" t="s">
+        <v>10</v>
+      </c>
+      <c r="G117" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="H112" s="52" t="s">
+      <c r="H117" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="I112" s="142" t="s">
+      <c r="I117" s="144" t="s">
         <v>4</v>
       </c>
-      <c r="J112" s="139">
+      <c r="J117" s="141">
         <v>152</v>
       </c>
-      <c r="K112" s="139">
+      <c r="K117" s="141">
         <v>8</v>
       </c>
-      <c r="L112" s="168"/>
-    </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A113" s="134"/>
-      <c r="B113" s="52" t="s">
+      <c r="L117" s="170"/>
+    </row>
+    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A118" s="136"/>
+      <c r="B118" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="C113" s="56">
+      <c r="C118" s="56">
         <v>44840</v>
       </c>
-      <c r="D113" s="56"/>
-      <c r="E113" s="56">
+      <c r="D118" s="56"/>
+      <c r="E118" s="56">
         <v>44843</v>
       </c>
-      <c r="F113" s="57" t="s">
+      <c r="F118" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="G113" s="52" t="s">
+      <c r="G118" s="52" t="s">
         <v>38</v>
       </c>
-      <c r="H113" s="52" t="s">
+      <c r="H118" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="I113" s="126"/>
-      <c r="J113" s="140"/>
-      <c r="K113" s="140"/>
-      <c r="L113" s="168"/>
-    </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A114" s="134"/>
-      <c r="B114" s="52" t="s">
+      <c r="I118" s="128"/>
+      <c r="J118" s="142"/>
+      <c r="K118" s="142"/>
+      <c r="L118" s="170"/>
+    </row>
+    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A119" s="136"/>
+      <c r="B119" s="52" t="s">
         <v>27</v>
       </c>
-      <c r="C114" s="56">
+      <c r="C119" s="56">
         <v>44847</v>
       </c>
-      <c r="D114" s="56"/>
-      <c r="E114" s="56">
+      <c r="D119" s="56"/>
+      <c r="E119" s="56">
         <v>44850</v>
       </c>
-      <c r="F114" s="57" t="s">
+      <c r="F119" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="G114" s="52" t="s">
+      <c r="G119" s="52" t="s">
         <v>39</v>
       </c>
-      <c r="H114" s="52" t="s">
+      <c r="H119" s="52" t="s">
         <v>40</v>
       </c>
-      <c r="I114" s="126"/>
-      <c r="J114" s="140"/>
-      <c r="K114" s="140"/>
-      <c r="L114" s="168"/>
-    </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A115" s="135"/>
-      <c r="B115" s="18" t="s">
+      <c r="I119" s="128"/>
+      <c r="J119" s="142"/>
+      <c r="K119" s="142"/>
+      <c r="L119" s="170"/>
+    </row>
+    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A120" s="137"/>
+      <c r="B120" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="C115" s="8">
+      <c r="C120" s="8">
         <v>44857</v>
       </c>
-      <c r="D115" s="8">
+      <c r="D120" s="8">
         <v>44871</v>
       </c>
-      <c r="E115" s="8">
+      <c r="E120" s="8">
         <v>44874</v>
       </c>
-      <c r="F115" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="G115" s="18" t="s">
+      <c r="F120" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="G120" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="H115" s="18" t="s">
+      <c r="H120" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="I115" s="143"/>
-      <c r="J115" s="141"/>
-      <c r="K115" s="141"/>
-      <c r="L115" s="115"/>
-    </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A116" s="122">
+      <c r="I120" s="145"/>
+      <c r="J120" s="143"/>
+      <c r="K120" s="143"/>
+      <c r="L120" s="117"/>
+    </row>
+    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A121" s="124">
         <v>37</v>
       </c>
-      <c r="B116" s="44" t="s">
+      <c r="B121" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="C116" s="66">
+      <c r="C121" s="66">
         <v>44822</v>
       </c>
-      <c r="D116" s="66"/>
-      <c r="E116" s="66">
+      <c r="D121" s="66"/>
+      <c r="E121" s="66">
         <v>44822</v>
       </c>
-      <c r="F116" s="67" t="s">
-        <v>10</v>
-      </c>
-      <c r="G116" s="68" t="s">
+      <c r="F121" s="67" t="s">
+        <v>10</v>
+      </c>
+      <c r="G121" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="H116" s="68" t="s">
+      <c r="H121" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="I116" s="147" t="s">
+      <c r="I121" s="149" t="s">
         <v>0</v>
       </c>
-      <c r="J116" s="130">
+      <c r="J121" s="132">
         <v>55</v>
       </c>
-      <c r="K116" s="150">
+      <c r="K121" s="152">
         <v>3</v>
       </c>
-      <c r="L116" s="120"/>
-    </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A117" s="123"/>
-      <c r="B117" s="44" t="s">
+      <c r="L121" s="122"/>
+    </row>
+    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A122" s="125"/>
+      <c r="B122" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="C117" s="66">
+      <c r="C122" s="66">
         <v>44847</v>
       </c>
-      <c r="D117" s="66"/>
-      <c r="E117" s="66">
+      <c r="D122" s="66"/>
+      <c r="E122" s="66">
         <v>44850</v>
       </c>
-      <c r="F117" s="67" t="s">
+      <c r="F122" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="G117" s="68" t="s">
+      <c r="G122" s="68" t="s">
         <v>39</v>
       </c>
-      <c r="H117" s="68" t="s">
+      <c r="H122" s="68" t="s">
         <v>40</v>
       </c>
-      <c r="I117" s="148"/>
-      <c r="J117" s="131"/>
-      <c r="K117" s="171"/>
-      <c r="L117" s="120"/>
-    </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A118" s="124"/>
-      <c r="B118" s="17" t="s">
+      <c r="I122" s="150"/>
+      <c r="J122" s="133"/>
+      <c r="K122" s="173"/>
+      <c r="L122" s="122"/>
+    </row>
+    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A123" s="126"/>
+      <c r="B123" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="C118" s="36">
+      <c r="C123" s="36">
         <v>44857</v>
       </c>
-      <c r="D118" s="6">
+      <c r="D123" s="6">
         <v>44871</v>
       </c>
-      <c r="E118" s="6">
+      <c r="E123" s="6">
         <v>44875</v>
       </c>
-      <c r="F118" s="37" t="s">
-        <v>10</v>
-      </c>
-      <c r="G118" s="38" t="s">
+      <c r="F123" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="G123" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="H118" s="38" t="s">
+      <c r="H123" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="I118" s="149"/>
-      <c r="J118" s="132"/>
-      <c r="K118" s="151"/>
-      <c r="L118" s="120"/>
-    </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A119" s="144">
+      <c r="I123" s="151"/>
+      <c r="J123" s="134"/>
+      <c r="K123" s="153"/>
+      <c r="L123" s="122"/>
+    </row>
+    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A124" s="146">
         <v>38</v>
       </c>
-      <c r="B119" s="49" t="s">
+      <c r="B124" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="C119" s="50">
+      <c r="C124" s="50">
         <v>44815</v>
       </c>
-      <c r="D119" s="50"/>
-      <c r="E119" s="50">
+      <c r="D124" s="50"/>
+      <c r="E124" s="50">
         <v>44818</v>
       </c>
-      <c r="F119" s="51" t="s">
-        <v>10</v>
-      </c>
-      <c r="G119" s="49" t="s">
+      <c r="F124" s="51" t="s">
+        <v>10</v>
+      </c>
+      <c r="G124" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="H119" s="49" t="s">
+      <c r="H124" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="I119" s="170" t="s">
+      <c r="I124" s="172" t="s">
         <v>0</v>
       </c>
-      <c r="J119" s="139">
+      <c r="J124" s="141">
         <v>61</v>
       </c>
-      <c r="K119" s="152">
+      <c r="K124" s="154">
         <v>3</v>
       </c>
-      <c r="L119" s="121"/>
-    </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A120" s="145"/>
-      <c r="B120" s="49" t="s">
+      <c r="L124" s="123"/>
+    </row>
+    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A125" s="147"/>
+      <c r="B125" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="C120" s="56">
+      <c r="C125" s="56">
         <v>44829</v>
       </c>
-      <c r="D120" s="56"/>
-      <c r="E120" s="56">
+      <c r="D125" s="56"/>
+      <c r="E125" s="56">
         <v>44836</v>
       </c>
-      <c r="F120" s="57" t="s">
-        <v>10</v>
-      </c>
-      <c r="G120" s="52" t="s">
+      <c r="F125" s="57" t="s">
+        <v>10</v>
+      </c>
+      <c r="G125" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="H120" s="52" t="s">
+      <c r="H125" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="I120" s="170"/>
-      <c r="J120" s="140"/>
-      <c r="K120" s="169"/>
-      <c r="L120" s="121"/>
-    </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A121" s="145"/>
-      <c r="B121" s="52" t="s">
+      <c r="I125" s="172"/>
+      <c r="J125" s="142"/>
+      <c r="K125" s="171"/>
+      <c r="L125" s="123"/>
+    </row>
+    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A126" s="147"/>
+      <c r="B126" s="52" t="s">
         <v>27</v>
       </c>
-      <c r="C121" s="56">
+      <c r="C126" s="56">
         <v>44843</v>
       </c>
-      <c r="D121" s="56"/>
-      <c r="E121" s="56">
+      <c r="D126" s="56"/>
+      <c r="E126" s="56">
         <v>44843</v>
       </c>
-      <c r="F121" s="57" t="s">
-        <v>10</v>
-      </c>
-      <c r="G121" s="52" t="s">
+      <c r="F126" s="57" t="s">
+        <v>10</v>
+      </c>
+      <c r="G126" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="H121" s="52" t="s">
+      <c r="H126" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="I121" s="170"/>
-      <c r="J121" s="140"/>
-      <c r="K121" s="169"/>
-      <c r="L121" s="121"/>
-    </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A122" s="145"/>
-      <c r="B122" s="52" t="s">
+      <c r="I126" s="172"/>
+      <c r="J126" s="142"/>
+      <c r="K126" s="171"/>
+      <c r="L126" s="123"/>
+    </row>
+    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A127" s="147"/>
+      <c r="B127" s="52" t="s">
         <v>41</v>
       </c>
-      <c r="C122" s="56">
+      <c r="C127" s="56">
         <v>44847</v>
       </c>
-      <c r="D122" s="56"/>
-      <c r="E122" s="56">
+      <c r="D127" s="56"/>
+      <c r="E127" s="56">
         <v>44850</v>
       </c>
-      <c r="F122" s="57" t="s">
+      <c r="F127" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="G122" s="52" t="s">
+      <c r="G127" s="52" t="s">
         <v>39</v>
       </c>
-      <c r="H122" s="52" t="s">
+      <c r="H127" s="52" t="s">
         <v>40</v>
       </c>
-      <c r="I122" s="170"/>
-      <c r="J122" s="140"/>
-      <c r="K122" s="169"/>
-      <c r="L122" s="121"/>
-    </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A123" s="146"/>
-      <c r="B123" s="18" t="s">
+      <c r="I127" s="172"/>
+      <c r="J127" s="142"/>
+      <c r="K127" s="171"/>
+      <c r="L127" s="123"/>
+    </row>
+    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A128" s="148"/>
+      <c r="B128" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="C123" s="8">
+      <c r="C128" s="8">
         <v>44857</v>
       </c>
-      <c r="D123" s="27">
+      <c r="D128" s="27">
         <v>44871</v>
       </c>
-      <c r="E123" s="27">
+      <c r="E128" s="27">
         <v>44875</v>
       </c>
-      <c r="F123" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="G123" s="18" t="s">
+      <c r="F128" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="G128" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="H123" s="18" t="s">
+      <c r="H128" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="I123" s="170"/>
-      <c r="J123" s="141"/>
-      <c r="K123" s="153"/>
-      <c r="L123" s="121"/>
-    </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A124" s="122">
+      <c r="I128" s="172"/>
+      <c r="J128" s="143"/>
+      <c r="K128" s="155"/>
+      <c r="L128" s="123"/>
+    </row>
+    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A129" s="124">
         <v>39</v>
       </c>
-      <c r="B124" s="44" t="s">
+      <c r="B129" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="C124" s="66">
+      <c r="C129" s="66">
         <v>44822</v>
       </c>
-      <c r="D124" s="66"/>
-      <c r="E124" s="66">
+      <c r="D129" s="66"/>
+      <c r="E129" s="66">
         <v>44822</v>
       </c>
-      <c r="F124" s="67" t="s">
-        <v>10</v>
-      </c>
-      <c r="G124" s="68" t="s">
+      <c r="F129" s="67" t="s">
+        <v>10</v>
+      </c>
+      <c r="G129" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="H124" s="68" t="s">
+      <c r="H129" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="I124" s="170" t="s">
+      <c r="I129" s="172" t="s">
         <v>0</v>
       </c>
-      <c r="J124" s="160">
+      <c r="J129" s="162">
         <v>20</v>
       </c>
-      <c r="K124" s="150">
+      <c r="K129" s="152">
         <v>1</v>
       </c>
-      <c r="L124" s="120"/>
-    </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A125" s="123"/>
-      <c r="B125" s="44" t="s">
+      <c r="L129" s="122"/>
+    </row>
+    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A130" s="125"/>
+      <c r="B130" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="C125" s="58">
+      <c r="C130" s="58">
         <v>44829</v>
       </c>
-      <c r="D125" s="58"/>
-      <c r="E125" s="58">
+      <c r="D130" s="58"/>
+      <c r="E130" s="58">
         <v>44829</v>
       </c>
-      <c r="F125" s="59" t="s">
-        <v>10</v>
-      </c>
-      <c r="G125" s="60" t="s">
+      <c r="F130" s="59" t="s">
+        <v>10</v>
+      </c>
+      <c r="G130" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="H125" s="60" t="s">
+      <c r="H130" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="I125" s="170"/>
-      <c r="J125" s="161"/>
-      <c r="K125" s="171"/>
-      <c r="L125" s="120"/>
-    </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A126" s="123"/>
-      <c r="B126" s="48" t="s">
+      <c r="I130" s="172"/>
+      <c r="J130" s="163"/>
+      <c r="K130" s="173"/>
+      <c r="L130" s="122"/>
+    </row>
+    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A131" s="125"/>
+      <c r="B131" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="C126" s="58">
+      <c r="C131" s="58">
         <v>44847</v>
       </c>
-      <c r="D126" s="58"/>
-      <c r="E126" s="58">
+      <c r="D131" s="58"/>
+      <c r="E131" s="58">
         <v>44850</v>
       </c>
-      <c r="F126" s="59" t="s">
+      <c r="F131" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="G126" s="60" t="s">
+      <c r="G131" s="60" t="s">
         <v>39</v>
       </c>
-      <c r="H126" s="60" t="s">
+      <c r="H131" s="60" t="s">
         <v>40</v>
       </c>
-      <c r="I126" s="170"/>
-      <c r="J126" s="161"/>
-      <c r="K126" s="171"/>
-      <c r="L126" s="120"/>
-    </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A127" s="124"/>
-      <c r="B127" s="17" t="s">
+      <c r="I131" s="172"/>
+      <c r="J131" s="163"/>
+      <c r="K131" s="173"/>
+      <c r="L131" s="122"/>
+    </row>
+    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A132" s="126"/>
+      <c r="B132" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="C127" s="36">
+      <c r="C132" s="36">
         <v>44857</v>
       </c>
-      <c r="D127" s="6">
+      <c r="D132" s="6">
         <v>44871</v>
       </c>
-      <c r="E127" s="6">
+      <c r="E132" s="6">
         <v>44875</v>
       </c>
-      <c r="F127" s="37" t="s">
-        <v>10</v>
-      </c>
-      <c r="G127" s="38" t="s">
+      <c r="F132" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="G132" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="H127" s="38" t="s">
+      <c r="H132" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="I127" s="170"/>
-      <c r="J127" s="162"/>
-      <c r="K127" s="151"/>
-      <c r="L127" s="120"/>
-    </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A128" s="144">
+      <c r="I132" s="172"/>
+      <c r="J132" s="164"/>
+      <c r="K132" s="153"/>
+      <c r="L132" s="122"/>
+    </row>
+    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A133" s="146">
         <v>40</v>
       </c>
-      <c r="B128" s="49" t="s">
+      <c r="B133" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="C128" s="50">
+      <c r="C133" s="50">
         <v>44822</v>
       </c>
-      <c r="D128" s="50"/>
-      <c r="E128" s="50">
+      <c r="D133" s="50"/>
+      <c r="E133" s="50">
         <v>44822</v>
       </c>
-      <c r="F128" s="51" t="s">
-        <v>10</v>
-      </c>
-      <c r="G128" s="49" t="s">
+      <c r="F133" s="51" t="s">
+        <v>10</v>
+      </c>
+      <c r="G133" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="H128" s="49" t="s">
+      <c r="H133" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="I128" s="170" t="s">
+      <c r="I133" s="172" t="s">
         <v>0</v>
       </c>
-      <c r="J128" s="152">
+      <c r="J133" s="154">
         <v>17</v>
       </c>
-      <c r="K128" s="174">
+      <c r="K133" s="176">
         <v>1</v>
       </c>
-      <c r="L128" s="121"/>
-    </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A129" s="145"/>
-      <c r="B129" s="49" t="s">
+      <c r="L133" s="123"/>
+    </row>
+    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A134" s="147"/>
+      <c r="B134" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="C129" s="56">
+      <c r="C134" s="56">
         <v>44829</v>
       </c>
-      <c r="D129" s="56"/>
-      <c r="E129" s="56">
+      <c r="D134" s="56"/>
+      <c r="E134" s="56">
         <v>44829</v>
       </c>
-      <c r="F129" s="57" t="s">
-        <v>10</v>
-      </c>
-      <c r="G129" s="52" t="s">
+      <c r="F134" s="57" t="s">
+        <v>10</v>
+      </c>
+      <c r="G134" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="H129" s="52" t="s">
+      <c r="H134" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="I129" s="170"/>
-      <c r="J129" s="169"/>
-      <c r="K129" s="176"/>
-      <c r="L129" s="121"/>
-    </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A130" s="145"/>
-      <c r="B130" s="52" t="s">
+      <c r="I134" s="172"/>
+      <c r="J134" s="171"/>
+      <c r="K134" s="178"/>
+      <c r="L134" s="123"/>
+    </row>
+    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A135" s="147"/>
+      <c r="B135" s="52" t="s">
         <v>27</v>
       </c>
-      <c r="C130" s="56">
+      <c r="C135" s="56">
         <v>44847</v>
       </c>
-      <c r="D130" s="56"/>
-      <c r="E130" s="56">
+      <c r="D135" s="56"/>
+      <c r="E135" s="56">
         <v>44850</v>
       </c>
-      <c r="F130" s="57" t="s">
+      <c r="F135" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="G130" s="52" t="s">
+      <c r="G135" s="52" t="s">
         <v>39</v>
       </c>
-      <c r="H130" s="52" t="s">
+      <c r="H135" s="52" t="s">
         <v>40</v>
       </c>
-      <c r="I130" s="170"/>
-      <c r="J130" s="169"/>
-      <c r="K130" s="176"/>
-      <c r="L130" s="121"/>
-    </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A131" s="146"/>
-      <c r="B131" s="40" t="s">
+      <c r="I135" s="172"/>
+      <c r="J135" s="171"/>
+      <c r="K135" s="178"/>
+      <c r="L135" s="123"/>
+    </row>
+    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A136" s="148"/>
+      <c r="B136" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="C131" s="8">
+      <c r="C136" s="8">
         <v>44857</v>
       </c>
-      <c r="D131" s="27">
+      <c r="D136" s="27">
         <v>44871</v>
       </c>
-      <c r="E131" s="27">
+      <c r="E136" s="27">
         <v>44875</v>
       </c>
-      <c r="F131" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="G131" s="18" t="s">
+      <c r="F136" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="G136" s="18" t="s">
         <v>9</v>
-      </c>
-      <c r="H131" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="I131" s="170"/>
-      <c r="J131" s="153"/>
-      <c r="K131" s="175"/>
-      <c r="L131" s="121"/>
-    </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A132" s="14">
-        <v>41</v>
-      </c>
-      <c r="B132" s="4"/>
-      <c r="C132" s="113"/>
-      <c r="D132" s="113"/>
-      <c r="E132" s="113"/>
-      <c r="F132" s="11"/>
-      <c r="G132" s="11"/>
-      <c r="H132" s="11"/>
-      <c r="I132" s="11"/>
-      <c r="J132" s="11"/>
-      <c r="K132" s="11"/>
-      <c r="L132" s="82"/>
-    </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A133" s="133">
-        <v>42</v>
-      </c>
-      <c r="B133" s="101" t="s">
-        <v>26</v>
-      </c>
-      <c r="C133" s="104">
-        <v>44822</v>
-      </c>
-      <c r="D133" s="104"/>
-      <c r="E133" s="104">
-        <v>44822</v>
-      </c>
-      <c r="F133" s="105" t="s">
-        <v>10</v>
-      </c>
-      <c r="G133" s="98" t="s">
-        <v>9</v>
-      </c>
-      <c r="H133" s="98" t="s">
-        <v>11</v>
-      </c>
-      <c r="I133" s="142" t="s">
-        <v>4</v>
-      </c>
-      <c r="J133" s="139">
-        <v>41</v>
-      </c>
-      <c r="K133" s="139">
-        <v>3</v>
-      </c>
-      <c r="L133" s="121"/>
-    </row>
-    <row r="134" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="134"/>
-      <c r="B134" s="98" t="s">
-        <v>25</v>
-      </c>
-      <c r="C134" s="104">
-        <v>44839</v>
-      </c>
-      <c r="D134" s="104"/>
-      <c r="E134" s="104">
-        <v>44839</v>
-      </c>
-      <c r="F134" s="105" t="s">
-        <v>23</v>
-      </c>
-      <c r="G134" s="98" t="s">
-        <v>2</v>
-      </c>
-      <c r="H134" s="98" t="s">
-        <v>1</v>
-      </c>
-      <c r="I134" s="126"/>
-      <c r="J134" s="140"/>
-      <c r="K134" s="140"/>
-      <c r="L134" s="121"/>
-    </row>
-    <row r="135" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="134"/>
-      <c r="B135" s="98" t="s">
-        <v>27</v>
-      </c>
-      <c r="C135" s="104">
-        <v>44863</v>
-      </c>
-      <c r="D135" s="104"/>
-      <c r="E135" s="104">
-        <v>44864</v>
-      </c>
-      <c r="F135" s="105" t="s">
-        <v>7</v>
-      </c>
-      <c r="G135" s="98" t="s">
-        <v>18</v>
-      </c>
-      <c r="H135" s="98" t="s">
-        <v>8</v>
-      </c>
-      <c r="I135" s="126"/>
-      <c r="J135" s="140"/>
-      <c r="K135" s="140"/>
-      <c r="L135" s="121"/>
-    </row>
-    <row r="136" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="135"/>
-      <c r="B136" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="C136" s="8">
-        <v>44878</v>
-      </c>
-      <c r="D136" s="8">
-        <v>44885</v>
-      </c>
-      <c r="E136" s="8">
-        <v>44888</v>
-      </c>
-      <c r="F136" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="G136" s="18" t="s">
-        <v>46</v>
       </c>
       <c r="H136" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="I136" s="143"/>
-      <c r="J136" s="141"/>
-      <c r="K136" s="141"/>
-      <c r="L136" s="88"/>
+      <c r="I136" s="172"/>
+      <c r="J136" s="155"/>
+      <c r="K136" s="177"/>
+      <c r="L136" s="123"/>
     </row>
     <row r="137" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A137" s="122">
+      <c r="A137" s="14">
+        <v>41</v>
+      </c>
+      <c r="B137" s="4"/>
+      <c r="C137" s="113"/>
+      <c r="D137" s="113"/>
+      <c r="E137" s="113"/>
+      <c r="F137" s="11"/>
+      <c r="G137" s="11"/>
+      <c r="H137" s="11"/>
+      <c r="I137" s="11"/>
+      <c r="J137" s="11"/>
+      <c r="K137" s="11"/>
+      <c r="L137" s="82"/>
+    </row>
+    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A138" s="135">
+        <v>42</v>
+      </c>
+      <c r="B138" s="101" t="s">
+        <v>26</v>
+      </c>
+      <c r="C138" s="104">
+        <v>44822</v>
+      </c>
+      <c r="D138" s="104"/>
+      <c r="E138" s="104">
+        <v>44822</v>
+      </c>
+      <c r="F138" s="105" t="s">
+        <v>10</v>
+      </c>
+      <c r="G138" s="98" t="s">
+        <v>9</v>
+      </c>
+      <c r="H138" s="98" t="s">
+        <v>11</v>
+      </c>
+      <c r="I138" s="144" t="s">
+        <v>4</v>
+      </c>
+      <c r="J138" s="141">
+        <v>41</v>
+      </c>
+      <c r="K138" s="141">
+        <v>3</v>
+      </c>
+      <c r="L138" s="123"/>
+    </row>
+    <row r="139" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A139" s="136"/>
+      <c r="B139" s="98" t="s">
+        <v>25</v>
+      </c>
+      <c r="C139" s="104">
+        <v>44839</v>
+      </c>
+      <c r="D139" s="104"/>
+      <c r="E139" s="104">
+        <v>44839</v>
+      </c>
+      <c r="F139" s="105" t="s">
+        <v>23</v>
+      </c>
+      <c r="G139" s="98" t="s">
+        <v>2</v>
+      </c>
+      <c r="H139" s="98" t="s">
+        <v>1</v>
+      </c>
+      <c r="I139" s="128"/>
+      <c r="J139" s="142"/>
+      <c r="K139" s="142"/>
+      <c r="L139" s="123"/>
+    </row>
+    <row r="140" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A140" s="136"/>
+      <c r="B140" s="98" t="s">
+        <v>27</v>
+      </c>
+      <c r="C140" s="104">
+        <v>44863</v>
+      </c>
+      <c r="D140" s="104"/>
+      <c r="E140" s="104">
+        <v>44864</v>
+      </c>
+      <c r="F140" s="105" t="s">
+        <v>7</v>
+      </c>
+      <c r="G140" s="98" t="s">
+        <v>18</v>
+      </c>
+      <c r="H140" s="98" t="s">
+        <v>8</v>
+      </c>
+      <c r="I140" s="128"/>
+      <c r="J140" s="142"/>
+      <c r="K140" s="142"/>
+      <c r="L140" s="123"/>
+    </row>
+    <row r="141" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A141" s="137"/>
+      <c r="B141" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="C141" s="8">
+        <v>44878</v>
+      </c>
+      <c r="D141" s="8">
+        <v>44885</v>
+      </c>
+      <c r="E141" s="8">
+        <v>44888</v>
+      </c>
+      <c r="F141" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="G141" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H141" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="I141" s="145"/>
+      <c r="J141" s="143"/>
+      <c r="K141" s="143"/>
+      <c r="L141" s="88"/>
+    </row>
+    <row r="142" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A142" s="124">
         <v>43</v>
       </c>
-      <c r="B137" s="44" t="s">
+      <c r="B142" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="C137" s="58">
+      <c r="C142" s="58">
         <v>44815</v>
       </c>
-      <c r="D137" s="58">
+      <c r="D142" s="58">
         <v>44822</v>
       </c>
-      <c r="E137" s="58">
+      <c r="E142" s="58">
         <v>44822</v>
       </c>
-      <c r="F137" s="59" t="s">
-        <v>10</v>
-      </c>
-      <c r="G137" s="60" t="s">
+      <c r="F142" s="59" t="s">
+        <v>10</v>
+      </c>
+      <c r="G142" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="H137" s="60" t="s">
+      <c r="H142" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="I137" s="125" t="s">
+      <c r="I142" s="127" t="s">
         <v>4</v>
       </c>
-      <c r="J137" s="127">
+      <c r="J142" s="129">
         <v>77</v>
       </c>
-      <c r="K137" s="130">
+      <c r="K142" s="132">
         <v>4</v>
       </c>
-      <c r="L137" s="120"/>
-    </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A138" s="123"/>
-      <c r="B138" s="48" t="s">
+      <c r="L142" s="122"/>
+    </row>
+    <row r="143" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A143" s="125"/>
+      <c r="B143" s="48" t="s">
         <v>25</v>
       </c>
-      <c r="C138" s="58">
+      <c r="C143" s="58">
         <v>44839</v>
       </c>
-      <c r="D138" s="58"/>
-      <c r="E138" s="58">
+      <c r="D143" s="58"/>
+      <c r="E143" s="58">
         <v>44839</v>
       </c>
-      <c r="F138" s="59" t="s">
+      <c r="F143" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="G138" s="60" t="s">
+      <c r="G143" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="H138" s="60" t="s">
+      <c r="H143" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="I138" s="126"/>
-      <c r="J138" s="128"/>
-      <c r="K138" s="131"/>
-      <c r="L138" s="120"/>
-    </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A139" s="123"/>
-      <c r="B139" s="48" t="s">
+      <c r="I143" s="128"/>
+      <c r="J143" s="130"/>
+      <c r="K143" s="133"/>
+      <c r="L143" s="122"/>
+    </row>
+    <row r="144" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A144" s="125"/>
+      <c r="B144" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="C139" s="58">
+      <c r="C144" s="58">
         <v>44848</v>
       </c>
-      <c r="D139" s="58"/>
-      <c r="E139" s="58">
+      <c r="D144" s="58"/>
+      <c r="E144" s="58">
         <v>44850</v>
       </c>
-      <c r="F139" s="59" t="s">
+      <c r="F144" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="G139" s="60" t="s">
+      <c r="G144" s="60" t="s">
         <v>39</v>
       </c>
-      <c r="H139" s="60" t="s">
+      <c r="H144" s="60" t="s">
         <v>40</v>
       </c>
-      <c r="I139" s="126"/>
-      <c r="J139" s="128"/>
-      <c r="K139" s="131"/>
-      <c r="L139" s="120"/>
-    </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A140" s="123"/>
-      <c r="B140" s="100" t="s">
+      <c r="I144" s="128"/>
+      <c r="J144" s="130"/>
+      <c r="K144" s="133"/>
+      <c r="L144" s="122"/>
+    </row>
+    <row r="145" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A145" s="125"/>
+      <c r="B145" s="100" t="s">
         <v>41</v>
       </c>
-      <c r="C140" s="109">
+      <c r="C145" s="109">
         <v>44863</v>
       </c>
-      <c r="D140" s="109"/>
-      <c r="E140" s="109">
+      <c r="D145" s="109"/>
+      <c r="E145" s="109">
         <v>44864</v>
       </c>
-      <c r="F140" s="110" t="s">
+      <c r="F145" s="110" t="s">
         <v>7</v>
       </c>
-      <c r="G140" s="111" t="s">
+      <c r="G145" s="111" t="s">
         <v>18</v>
       </c>
-      <c r="H140" s="100" t="s">
+      <c r="H145" s="100" t="s">
         <v>8</v>
       </c>
-      <c r="I140" s="126"/>
-      <c r="J140" s="128"/>
-      <c r="K140" s="131"/>
-      <c r="L140" s="120"/>
-    </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A141" s="124"/>
-      <c r="B141" s="17" t="s">
+      <c r="I145" s="128"/>
+      <c r="J145" s="130"/>
+      <c r="K145" s="133"/>
+      <c r="L145" s="122"/>
+    </row>
+    <row r="146" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A146" s="126"/>
+      <c r="B146" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="C141" s="16">
+      <c r="C146" s="16">
         <v>44878</v>
       </c>
-      <c r="D141" s="16">
+      <c r="D146" s="16">
         <v>44885</v>
       </c>
-      <c r="E141" s="16">
+      <c r="E146" s="16">
         <v>44888</v>
       </c>
-      <c r="F141" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="G141" s="32" t="s">
+      <c r="F146" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="G146" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="H141" s="17" t="s">
+      <c r="H146" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="I141" s="126"/>
-      <c r="J141" s="129"/>
-      <c r="K141" s="132"/>
-      <c r="L141" s="90"/>
-    </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A142" s="133">
+      <c r="I146" s="128"/>
+      <c r="J146" s="131"/>
+      <c r="K146" s="134"/>
+      <c r="L146" s="90"/>
+    </row>
+    <row r="147" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A147" s="135">
         <v>44</v>
       </c>
-      <c r="B142" s="49" t="s">
+      <c r="B147" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="C142" s="56">
+      <c r="C147" s="56">
         <v>44848</v>
       </c>
-      <c r="D142" s="56"/>
-      <c r="E142" s="56">
+      <c r="D147" s="56"/>
+      <c r="E147" s="56">
         <v>44850</v>
       </c>
-      <c r="F142" s="57" t="s">
+      <c r="F147" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="G142" s="52" t="s">
+      <c r="G147" s="52" t="s">
         <v>39</v>
       </c>
-      <c r="H142" s="52" t="s">
+      <c r="H147" s="52" t="s">
         <v>40</v>
       </c>
-      <c r="I142" s="125" t="s">
+      <c r="I147" s="127" t="s">
         <v>4</v>
       </c>
-      <c r="J142" s="136">
+      <c r="J147" s="138">
         <v>39</v>
       </c>
-      <c r="K142" s="139">
+      <c r="K147" s="141">
         <v>3</v>
       </c>
-      <c r="L142" s="121"/>
-    </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A143" s="134"/>
-      <c r="B143" s="52" t="s">
+      <c r="L147" s="123"/>
+    </row>
+    <row r="148" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A148" s="136"/>
+      <c r="B148" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="C143" s="104">
+      <c r="C148" s="104">
         <v>44863</v>
       </c>
-      <c r="D143" s="104"/>
-      <c r="E143" s="104">
+      <c r="D148" s="104"/>
+      <c r="E148" s="104">
         <v>44864</v>
       </c>
-      <c r="F143" s="105" t="s">
+      <c r="F148" s="105" t="s">
         <v>7</v>
       </c>
-      <c r="G143" s="98" t="s">
+      <c r="G148" s="98" t="s">
         <v>18</v>
       </c>
-      <c r="H143" s="98" t="s">
+      <c r="H148" s="98" t="s">
         <v>8</v>
       </c>
-      <c r="I143" s="126"/>
-      <c r="J143" s="137"/>
-      <c r="K143" s="140"/>
-      <c r="L143" s="121"/>
-    </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A144" s="135"/>
-      <c r="B144" s="18" t="s">
+      <c r="I148" s="128"/>
+      <c r="J148" s="139"/>
+      <c r="K148" s="142"/>
+      <c r="L148" s="123"/>
+    </row>
+    <row r="149" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A149" s="137"/>
+      <c r="B149" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="C144" s="8">
+      <c r="C149" s="8">
         <v>44878</v>
       </c>
-      <c r="D144" s="8">
+      <c r="D149" s="8">
         <v>44885</v>
       </c>
-      <c r="E144" s="8">
+      <c r="E149" s="8">
         <v>44888</v>
       </c>
-      <c r="F144" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="G144" s="18" t="s">
+      <c r="F149" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="G149" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="H144" s="18" t="s">
+      <c r="H149" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="I144" s="126"/>
-      <c r="J144" s="138"/>
-      <c r="K144" s="141"/>
-      <c r="L144" s="88"/>
-    </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A145" s="122">
+      <c r="I149" s="128"/>
+      <c r="J149" s="140"/>
+      <c r="K149" s="143"/>
+      <c r="L149" s="88"/>
+    </row>
+    <row r="150" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A150" s="124">
         <v>45</v>
       </c>
-      <c r="B145" s="44" t="s">
+      <c r="B150" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="C145" s="58">
+      <c r="C150" s="58">
         <v>44829</v>
       </c>
-      <c r="D145" s="58"/>
-      <c r="E145" s="58">
+      <c r="D150" s="58"/>
+      <c r="E150" s="58">
         <v>44829</v>
       </c>
-      <c r="F145" s="59" t="s">
-        <v>10</v>
-      </c>
-      <c r="G145" s="60" t="s">
+      <c r="F150" s="59" t="s">
+        <v>10</v>
+      </c>
+      <c r="G150" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="H145" s="60" t="s">
+      <c r="H150" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="I145" s="147" t="s">
+      <c r="I150" s="149" t="s">
         <v>0</v>
       </c>
-      <c r="J145" s="130">
+      <c r="J150" s="132">
         <v>53</v>
       </c>
-      <c r="K145" s="150">
+      <c r="K150" s="152">
         <v>3</v>
       </c>
-      <c r="L145" s="120"/>
-    </row>
-    <row r="146" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A146" s="163"/>
-      <c r="B146" s="33" t="s">
+      <c r="L150" s="122"/>
+    </row>
+    <row r="151" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A151" s="165"/>
+      <c r="B151" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="C146" s="15">
+      <c r="C151" s="15">
         <v>44848</v>
       </c>
-      <c r="D146" s="15"/>
-      <c r="E146" s="15">
+      <c r="D151" s="15"/>
+      <c r="E151" s="15">
         <v>44829</v>
       </c>
-      <c r="F146" s="34" t="s">
+      <c r="F151" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="G146" s="35" t="s">
+      <c r="G151" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="H146" s="35" t="s">
+      <c r="H151" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="I146" s="164"/>
-      <c r="J146" s="165"/>
-      <c r="K146" s="166"/>
-      <c r="L146" s="167"/>
+      <c r="I151" s="166"/>
+      <c r="J151" s="167"/>
+      <c r="K151" s="168"/>
+      <c r="L151" s="169"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L146"/>
+  <autoFilter ref="A1:L151"/>
   <mergeCells count="199">
-    <mergeCell ref="A112:A115"/>
-    <mergeCell ref="I112:I115"/>
-    <mergeCell ref="J112:J115"/>
-    <mergeCell ref="K112:K115"/>
+    <mergeCell ref="K80:K83"/>
+    <mergeCell ref="A117:A120"/>
+    <mergeCell ref="I117:I120"/>
+    <mergeCell ref="J117:J120"/>
+    <mergeCell ref="K117:K120"/>
+    <mergeCell ref="A41:A43"/>
+    <mergeCell ref="I41:I43"/>
+    <mergeCell ref="J41:J43"/>
+    <mergeCell ref="K41:K43"/>
+    <mergeCell ref="A49:A51"/>
+    <mergeCell ref="I49:I51"/>
+    <mergeCell ref="J49:J51"/>
+    <mergeCell ref="K49:K51"/>
+    <mergeCell ref="A53:A56"/>
+    <mergeCell ref="I53:I56"/>
+    <mergeCell ref="J53:J56"/>
+    <mergeCell ref="K53:K56"/>
+    <mergeCell ref="A72:A75"/>
+    <mergeCell ref="I72:I75"/>
+    <mergeCell ref="J72:J75"/>
+    <mergeCell ref="K72:K75"/>
+    <mergeCell ref="A80:A83"/>
+    <mergeCell ref="I80:I83"/>
+    <mergeCell ref="J80:J83"/>
     <mergeCell ref="L29:L32"/>
     <mergeCell ref="A34:A37"/>
     <mergeCell ref="I34:I37"/>
     <mergeCell ref="J34:J37"/>
     <mergeCell ref="K34:K37"/>
     <mergeCell ref="L34:L37"/>
-    <mergeCell ref="I119:I123"/>
-    <mergeCell ref="J119:J123"/>
-    <mergeCell ref="K119:K123"/>
-    <mergeCell ref="L119:L123"/>
-    <mergeCell ref="A119:A123"/>
-    <mergeCell ref="J89:J91"/>
-    <mergeCell ref="A83:A85"/>
-    <mergeCell ref="I83:I85"/>
-    <mergeCell ref="J83:J85"/>
-    <mergeCell ref="K83:K85"/>
-    <mergeCell ref="L83:L85"/>
-    <mergeCell ref="A79:A82"/>
-    <mergeCell ref="I79:I82"/>
-    <mergeCell ref="J79:J82"/>
-    <mergeCell ref="K79:K82"/>
-    <mergeCell ref="L79:L82"/>
-    <mergeCell ref="A116:A118"/>
-    <mergeCell ref="I116:I118"/>
+    <mergeCell ref="I124:I128"/>
+    <mergeCell ref="J124:J128"/>
+    <mergeCell ref="K124:K128"/>
+    <mergeCell ref="L124:L128"/>
+    <mergeCell ref="A124:A128"/>
+    <mergeCell ref="J94:J96"/>
+    <mergeCell ref="A88:A90"/>
+    <mergeCell ref="I88:I90"/>
+    <mergeCell ref="J88:J90"/>
+    <mergeCell ref="K88:K90"/>
+    <mergeCell ref="L88:L90"/>
+    <mergeCell ref="A84:A87"/>
+    <mergeCell ref="I84:I87"/>
+    <mergeCell ref="J84:J87"/>
+    <mergeCell ref="K84:K87"/>
+    <mergeCell ref="L84:L87"/>
+    <mergeCell ref="A121:A123"/>
+    <mergeCell ref="I121:I123"/>
     <mergeCell ref="I2:I6"/>
     <mergeCell ref="J2:J6"/>
     <mergeCell ref="K2:K6"/>
@@ -6043,114 +6218,99 @@
     <mergeCell ref="I26:I28"/>
     <mergeCell ref="J26:J28"/>
     <mergeCell ref="K26:K28"/>
-    <mergeCell ref="L142:L143"/>
-    <mergeCell ref="A128:A131"/>
-    <mergeCell ref="I128:I131"/>
-    <mergeCell ref="J128:J131"/>
-    <mergeCell ref="K128:K131"/>
-    <mergeCell ref="L128:L131"/>
-    <mergeCell ref="L133:L135"/>
-    <mergeCell ref="L65:L67"/>
+    <mergeCell ref="L147:L148"/>
+    <mergeCell ref="A133:A136"/>
+    <mergeCell ref="I133:I136"/>
+    <mergeCell ref="J133:J136"/>
+    <mergeCell ref="K133:K136"/>
+    <mergeCell ref="L133:L136"/>
+    <mergeCell ref="L138:L140"/>
+    <mergeCell ref="L68:L70"/>
     <mergeCell ref="I38:I40"/>
     <mergeCell ref="J38:J40"/>
     <mergeCell ref="K38:K40"/>
     <mergeCell ref="L38:L40"/>
     <mergeCell ref="A38:A40"/>
-    <mergeCell ref="A76:A78"/>
-    <mergeCell ref="J76:J78"/>
-    <mergeCell ref="K76:K78"/>
-    <mergeCell ref="L76:L78"/>
-    <mergeCell ref="I54:I56"/>
-    <mergeCell ref="J41:J42"/>
-    <mergeCell ref="K41:K42"/>
+    <mergeCell ref="L80:L82"/>
+    <mergeCell ref="I57:I59"/>
     <mergeCell ref="L41:L42"/>
-    <mergeCell ref="A51:A53"/>
-    <mergeCell ref="L137:L140"/>
-    <mergeCell ref="K89:K91"/>
-    <mergeCell ref="J116:J118"/>
-    <mergeCell ref="K116:K118"/>
-    <mergeCell ref="L116:L118"/>
-    <mergeCell ref="A124:A127"/>
-    <mergeCell ref="I124:I127"/>
-    <mergeCell ref="J124:J127"/>
-    <mergeCell ref="A109:A111"/>
-    <mergeCell ref="I109:I111"/>
-    <mergeCell ref="J109:J111"/>
-    <mergeCell ref="K109:K111"/>
-    <mergeCell ref="L109:L111"/>
-    <mergeCell ref="K124:K127"/>
-    <mergeCell ref="L124:L127"/>
-    <mergeCell ref="A97:A100"/>
-    <mergeCell ref="J97:J100"/>
-    <mergeCell ref="K97:K100"/>
-    <mergeCell ref="L97:L100"/>
-    <mergeCell ref="L101:L103"/>
-    <mergeCell ref="I76:I78"/>
-    <mergeCell ref="K48:K49"/>
-    <mergeCell ref="L48:L49"/>
-    <mergeCell ref="K86:K88"/>
-    <mergeCell ref="L51:L53"/>
-    <mergeCell ref="L69:L71"/>
-    <mergeCell ref="A69:A71"/>
-    <mergeCell ref="J69:J71"/>
-    <mergeCell ref="K69:K71"/>
-    <mergeCell ref="I51:I53"/>
-    <mergeCell ref="K72:K73"/>
-    <mergeCell ref="L74:L75"/>
-    <mergeCell ref="I74:I75"/>
-    <mergeCell ref="L61:L63"/>
-    <mergeCell ref="J57:J60"/>
-    <mergeCell ref="K57:K60"/>
-    <mergeCell ref="A61:A64"/>
-    <mergeCell ref="I61:I64"/>
-    <mergeCell ref="J61:J64"/>
-    <mergeCell ref="A65:A68"/>
-    <mergeCell ref="I65:I68"/>
-    <mergeCell ref="J65:J68"/>
-    <mergeCell ref="K65:K68"/>
+    <mergeCell ref="L142:L145"/>
+    <mergeCell ref="K94:K96"/>
+    <mergeCell ref="J121:J123"/>
+    <mergeCell ref="K121:K123"/>
+    <mergeCell ref="L121:L123"/>
+    <mergeCell ref="A129:A132"/>
+    <mergeCell ref="I129:I132"/>
+    <mergeCell ref="J129:J132"/>
+    <mergeCell ref="A114:A116"/>
+    <mergeCell ref="I114:I116"/>
+    <mergeCell ref="J114:J116"/>
+    <mergeCell ref="K114:K116"/>
+    <mergeCell ref="L114:L116"/>
+    <mergeCell ref="K129:K132"/>
+    <mergeCell ref="L129:L132"/>
+    <mergeCell ref="A102:A105"/>
+    <mergeCell ref="J102:J105"/>
+    <mergeCell ref="K102:K105"/>
+    <mergeCell ref="L102:L105"/>
+    <mergeCell ref="L106:L108"/>
+    <mergeCell ref="L49:L50"/>
+    <mergeCell ref="K91:K93"/>
+    <mergeCell ref="L53:L55"/>
+    <mergeCell ref="L72:L74"/>
+    <mergeCell ref="K76:K77"/>
+    <mergeCell ref="L78:L79"/>
+    <mergeCell ref="I78:I79"/>
+    <mergeCell ref="L64:L66"/>
+    <mergeCell ref="J60:J63"/>
+    <mergeCell ref="K60:K63"/>
+    <mergeCell ref="A64:A67"/>
+    <mergeCell ref="I64:I67"/>
+    <mergeCell ref="J64:J67"/>
+    <mergeCell ref="A68:A71"/>
+    <mergeCell ref="I68:I71"/>
+    <mergeCell ref="J68:J71"/>
+    <mergeCell ref="K68:K71"/>
+    <mergeCell ref="L60:L62"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="I44:I45"/>
+    <mergeCell ref="J44:J45"/>
+    <mergeCell ref="K44:K45"/>
+    <mergeCell ref="L44:L45"/>
+    <mergeCell ref="A46:A48"/>
+    <mergeCell ref="I46:I48"/>
+    <mergeCell ref="J46:J48"/>
+    <mergeCell ref="K46:K48"/>
+    <mergeCell ref="L46:L48"/>
+    <mergeCell ref="J57:J59"/>
+    <mergeCell ref="K57:K59"/>
     <mergeCell ref="L57:L59"/>
-    <mergeCell ref="J51:J53"/>
-    <mergeCell ref="K51:K53"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="I43:I44"/>
-    <mergeCell ref="J43:J44"/>
-    <mergeCell ref="K43:K44"/>
-    <mergeCell ref="L43:L44"/>
-    <mergeCell ref="A45:A47"/>
-    <mergeCell ref="I45:I47"/>
-    <mergeCell ref="J45:J47"/>
-    <mergeCell ref="K45:K47"/>
-    <mergeCell ref="L45:L47"/>
-    <mergeCell ref="J54:J56"/>
-    <mergeCell ref="K54:K56"/>
-    <mergeCell ref="L54:L56"/>
-    <mergeCell ref="A57:A60"/>
-    <mergeCell ref="I57:I60"/>
-    <mergeCell ref="A145:A146"/>
-    <mergeCell ref="I145:I146"/>
-    <mergeCell ref="J145:J146"/>
-    <mergeCell ref="K145:K146"/>
-    <mergeCell ref="L145:L146"/>
-    <mergeCell ref="L86:L88"/>
-    <mergeCell ref="L89:L90"/>
-    <mergeCell ref="I86:I88"/>
-    <mergeCell ref="L112:L114"/>
-    <mergeCell ref="A86:A88"/>
-    <mergeCell ref="I89:I91"/>
-    <mergeCell ref="A92:A96"/>
-    <mergeCell ref="I92:I96"/>
-    <mergeCell ref="J92:J96"/>
-    <mergeCell ref="K92:K96"/>
-    <mergeCell ref="L105:L107"/>
-    <mergeCell ref="L92:L96"/>
-    <mergeCell ref="I97:I100"/>
-    <mergeCell ref="J86:J88"/>
-    <mergeCell ref="A89:A90"/>
-    <mergeCell ref="J72:J73"/>
-    <mergeCell ref="I69:I71"/>
-    <mergeCell ref="A74:A75"/>
-    <mergeCell ref="J74:J75"/>
-    <mergeCell ref="K74:K75"/>
+    <mergeCell ref="A60:A63"/>
+    <mergeCell ref="I60:I63"/>
+    <mergeCell ref="A150:A151"/>
+    <mergeCell ref="I150:I151"/>
+    <mergeCell ref="J150:J151"/>
+    <mergeCell ref="K150:K151"/>
+    <mergeCell ref="L150:L151"/>
+    <mergeCell ref="L91:L93"/>
+    <mergeCell ref="L94:L95"/>
+    <mergeCell ref="I91:I93"/>
+    <mergeCell ref="L117:L119"/>
+    <mergeCell ref="A91:A93"/>
+    <mergeCell ref="I94:I96"/>
+    <mergeCell ref="A97:A101"/>
+    <mergeCell ref="I97:I101"/>
+    <mergeCell ref="J97:J101"/>
+    <mergeCell ref="K97:K101"/>
+    <mergeCell ref="L110:L112"/>
+    <mergeCell ref="L97:L101"/>
+    <mergeCell ref="I102:I105"/>
+    <mergeCell ref="J91:J93"/>
+    <mergeCell ref="A94:A95"/>
+    <mergeCell ref="J76:J77"/>
+    <mergeCell ref="A78:A79"/>
+    <mergeCell ref="J78:J79"/>
+    <mergeCell ref="K78:K79"/>
     <mergeCell ref="A14:A18"/>
     <mergeCell ref="J14:J18"/>
     <mergeCell ref="K14:K18"/>
@@ -6159,41 +6319,36 @@
     <mergeCell ref="I19:I21"/>
     <mergeCell ref="J19:J21"/>
     <mergeCell ref="K19:K21"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="I41:I42"/>
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="I48:I49"/>
-    <mergeCell ref="J48:J49"/>
-    <mergeCell ref="A54:A56"/>
+    <mergeCell ref="A57:A59"/>
     <mergeCell ref="A29:A32"/>
     <mergeCell ref="J29:J32"/>
     <mergeCell ref="K29:K32"/>
     <mergeCell ref="I29:I32"/>
-    <mergeCell ref="K61:K64"/>
+    <mergeCell ref="K64:K67"/>
     <mergeCell ref="L19:L21"/>
     <mergeCell ref="L14:L17"/>
-    <mergeCell ref="A137:A141"/>
-    <mergeCell ref="I137:I141"/>
-    <mergeCell ref="J137:J141"/>
-    <mergeCell ref="K137:K141"/>
-    <mergeCell ref="A142:A144"/>
-    <mergeCell ref="I142:I144"/>
-    <mergeCell ref="J142:J144"/>
-    <mergeCell ref="K142:K144"/>
-    <mergeCell ref="A101:A104"/>
-    <mergeCell ref="I101:I104"/>
-    <mergeCell ref="J101:J104"/>
-    <mergeCell ref="K101:K104"/>
-    <mergeCell ref="A105:A108"/>
-    <mergeCell ref="I105:I108"/>
-    <mergeCell ref="J105:J108"/>
-    <mergeCell ref="K105:K108"/>
-    <mergeCell ref="A133:A136"/>
-    <mergeCell ref="I133:I136"/>
-    <mergeCell ref="J133:J136"/>
-    <mergeCell ref="K133:K136"/>
-    <mergeCell ref="A72:A73"/>
-    <mergeCell ref="I72:I73"/>
+    <mergeCell ref="A142:A146"/>
+    <mergeCell ref="I142:I146"/>
+    <mergeCell ref="J142:J146"/>
+    <mergeCell ref="K142:K146"/>
+    <mergeCell ref="A147:A149"/>
+    <mergeCell ref="I147:I149"/>
+    <mergeCell ref="J147:J149"/>
+    <mergeCell ref="K147:K149"/>
+    <mergeCell ref="A106:A109"/>
+    <mergeCell ref="I106:I109"/>
+    <mergeCell ref="J106:J109"/>
+    <mergeCell ref="K106:K109"/>
+    <mergeCell ref="A110:A113"/>
+    <mergeCell ref="I110:I113"/>
+    <mergeCell ref="J110:J113"/>
+    <mergeCell ref="K110:K113"/>
+    <mergeCell ref="A138:A141"/>
+    <mergeCell ref="I138:I141"/>
+    <mergeCell ref="J138:J141"/>
+    <mergeCell ref="K138:K141"/>
+    <mergeCell ref="A76:A77"/>
+    <mergeCell ref="I76:I77"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0" right="0" top="1.1811023622047244E-2" bottom="0.11811023622047245" header="0" footer="0"/>

--- a/sheet/CONTROLE_DE_TERRITORIO_2022.xlsx
+++ b/sheet/CONTROLE_DE_TERRITORIO_2022.xlsx
@@ -15,8 +15,8 @@
     <sheet name="NOVA" sheetId="3" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">NOVA!$A$1:$L$159</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">NOVA!$A$1:$K$159</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">NOVA!$A$1:$L$156</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">NOVA!$A$1:$K$156</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="674" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="662" uniqueCount="47">
   <si>
     <t>OK</t>
   </si>
@@ -169,9 +169,6 @@
   </si>
   <si>
     <t>JOAO LIMA</t>
-  </si>
-  <si>
-    <t>6ª</t>
   </si>
 </sst>
 </file>
@@ -356,7 +353,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="41">
+  <borders count="44">
     <border>
       <left/>
       <right/>
@@ -850,6 +847,43 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -859,7 +893,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="190">
+  <cellXfs count="187">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1086,124 +1120,316 @@
     <xf numFmtId="0" fontId="5" fillId="8" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="29" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="29" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="3" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="16" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="16" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="3" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="16" fillId="7" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="7" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="16" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="16" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="16" fillId="7" borderId="7" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="16" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="8" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="29" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="7" borderId="7" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="7" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="7" borderId="7" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="36" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="8" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="3" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="16" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="16" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="3" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="16" fillId="7" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="7" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="16" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="16" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="16" fillId="7" borderId="7" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="16" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="8" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="9" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="4" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="5" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="37" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="20" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="29" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="29" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="36" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="8" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1215,217 +1441,16 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="4" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="5" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="20" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="29" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="29" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="37" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="7" borderId="7" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="7" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="14" fillId="7" borderId="7" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="41" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="42" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="43" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1716,19 +1741,19 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L159"/>
+  <dimension ref="A1:L156"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="99" zoomScaleNormal="100" zoomScalePageLayoutView="45" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="99" zoomScaleNormal="100" zoomScalePageLayoutView="45" workbookViewId="0">
+      <selection activeCell="I76" sqref="I76:I79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.140625" style="38" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20" style="104" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.140625" style="104" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.85546875" style="104" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20" style="101" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.140625" style="101" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.85546875" style="101" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19.85546875" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="45" style="3" customWidth="1"/>
     <col min="8" max="8" width="24.42578125" style="3" bestFit="1" customWidth="1"/>
@@ -1748,13 +1773,13 @@
       <c r="B1" s="67" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="102" t="s">
+      <c r="C1" s="99" t="s">
         <v>31</v>
       </c>
-      <c r="D1" s="102" t="s">
+      <c r="D1" s="99" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="102" t="s">
+      <c r="E1" s="99" t="s">
         <v>33</v>
       </c>
       <c r="F1" s="67" t="s">
@@ -1780,7 +1805,7 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="173">
+      <c r="A2" s="154">
         <v>1</v>
       </c>
       <c r="B2" s="68" t="s">
@@ -1802,19 +1827,19 @@
       <c r="H2" s="71" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="114" t="s">
+      <c r="I2" s="111" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="171">
+      <c r="J2" s="156">
         <v>5</v>
       </c>
-      <c r="K2" s="171">
+      <c r="K2" s="156">
         <v>1</v>
       </c>
-      <c r="L2" s="172"/>
+      <c r="L2" s="157"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="174"/>
+      <c r="A3" s="155"/>
       <c r="B3" s="39" t="s">
         <v>25</v>
       </c>
@@ -1834,13 +1859,13 @@
       <c r="H3" s="43" t="s">
         <v>40</v>
       </c>
-      <c r="I3" s="115"/>
-      <c r="J3" s="120"/>
-      <c r="K3" s="120"/>
-      <c r="L3" s="109"/>
+      <c r="I3" s="112"/>
+      <c r="J3" s="114"/>
+      <c r="K3" s="114"/>
+      <c r="L3" s="116"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="174"/>
+      <c r="A4" s="155"/>
       <c r="B4" s="43" t="s">
         <v>27</v>
       </c>
@@ -1860,13 +1885,13 @@
       <c r="H4" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="115"/>
-      <c r="J4" s="120"/>
-      <c r="K4" s="120"/>
-      <c r="L4" s="109"/>
+      <c r="I4" s="112"/>
+      <c r="J4" s="114"/>
+      <c r="K4" s="114"/>
+      <c r="L4" s="116"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="174"/>
+      <c r="A5" s="155"/>
       <c r="B5" s="43" t="s">
         <v>41</v>
       </c>
@@ -1886,13 +1911,13 @@
       <c r="H5" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="115"/>
-      <c r="J5" s="120"/>
-      <c r="K5" s="120"/>
-      <c r="L5" s="109"/>
+      <c r="I5" s="112"/>
+      <c r="J5" s="114"/>
+      <c r="K5" s="114"/>
+      <c r="L5" s="116"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="174"/>
+      <c r="A6" s="155"/>
       <c r="B6" s="43" t="s">
         <v>44</v>
       </c>
@@ -1912,13 +1937,13 @@
       <c r="H6" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="I6" s="115"/>
-      <c r="J6" s="120"/>
-      <c r="K6" s="120"/>
-      <c r="L6" s="109"/>
+      <c r="I6" s="112"/>
+      <c r="J6" s="114"/>
+      <c r="K6" s="114"/>
+      <c r="L6" s="116"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="175"/>
+      <c r="A7" s="118"/>
       <c r="B7" s="13" t="s">
         <v>45</v>
       </c>
@@ -1940,16 +1965,16 @@
       <c r="H7" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="I7" s="176"/>
-      <c r="J7" s="121"/>
-      <c r="K7" s="121"/>
-      <c r="L7" s="109"/>
+      <c r="I7" s="153"/>
+      <c r="J7" s="115"/>
+      <c r="K7" s="115"/>
+      <c r="L7" s="116"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="133">
         <v>2</v>
       </c>
-      <c r="B8" s="91" t="s">
+      <c r="B8" s="88" t="s">
         <v>26</v>
       </c>
       <c r="C8" s="45">
@@ -1968,20 +1993,20 @@
       <c r="H8" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="I8" s="114" t="s">
+      <c r="I8" s="111" t="s">
         <v>4</v>
       </c>
-      <c r="J8" s="128">
+      <c r="J8" s="130">
         <v>60</v>
       </c>
-      <c r="K8" s="128">
+      <c r="K8" s="130">
         <v>4</v>
       </c>
-      <c r="L8" s="110"/>
+      <c r="L8" s="146"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="134"/>
-      <c r="B9" s="91" t="s">
+      <c r="B9" s="88" t="s">
         <v>25</v>
       </c>
       <c r="C9" s="45">
@@ -2002,14 +2027,14 @@
       <c r="H9" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="I9" s="115"/>
-      <c r="J9" s="129"/>
-      <c r="K9" s="129"/>
-      <c r="L9" s="110"/>
+      <c r="I9" s="112"/>
+      <c r="J9" s="131"/>
+      <c r="K9" s="131"/>
+      <c r="L9" s="146"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="134"/>
-      <c r="B10" s="88" t="s">
+      <c r="B10" s="85" t="s">
         <v>27</v>
       </c>
       <c r="C10" s="48">
@@ -2028,14 +2053,14 @@
       <c r="H10" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="I10" s="115"/>
-      <c r="J10" s="129"/>
-      <c r="K10" s="129"/>
-      <c r="L10" s="110"/>
+      <c r="I10" s="112"/>
+      <c r="J10" s="131"/>
+      <c r="K10" s="131"/>
+      <c r="L10" s="146"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="134"/>
-      <c r="B11" s="88" t="s">
+      <c r="B11" s="85" t="s">
         <v>41</v>
       </c>
       <c r="C11" s="48">
@@ -2054,36 +2079,36 @@
       <c r="H11" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="I11" s="115"/>
-      <c r="J11" s="129"/>
-      <c r="K11" s="129"/>
-      <c r="L11" s="110"/>
+      <c r="I11" s="112"/>
+      <c r="J11" s="131"/>
+      <c r="K11" s="131"/>
+      <c r="L11" s="146"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="134"/>
-      <c r="B12" s="88" t="s">
+      <c r="B12" s="85" t="s">
         <v>44</v>
       </c>
-      <c r="C12" s="85">
+      <c r="C12" s="82">
         <v>44870</v>
       </c>
-      <c r="D12" s="85"/>
-      <c r="E12" s="85">
+      <c r="D12" s="82"/>
+      <c r="E12" s="82">
         <v>44871</v>
       </c>
-      <c r="F12" s="86" t="s">
+      <c r="F12" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="G12" s="87" t="s">
+      <c r="G12" s="84" t="s">
         <v>9</v>
       </c>
-      <c r="H12" s="88" t="s">
+      <c r="H12" s="85" t="s">
         <v>8</v>
       </c>
-      <c r="I12" s="115"/>
-      <c r="J12" s="129"/>
-      <c r="K12" s="129"/>
-      <c r="L12" s="110"/>
+      <c r="I12" s="112"/>
+      <c r="J12" s="131"/>
+      <c r="K12" s="131"/>
+      <c r="L12" s="146"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="135"/>
@@ -2108,13 +2133,13 @@
       <c r="H13" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="I13" s="176"/>
-      <c r="J13" s="130"/>
-      <c r="K13" s="130"/>
-      <c r="L13" s="78"/>
+      <c r="I13" s="153"/>
+      <c r="J13" s="132"/>
+      <c r="K13" s="132"/>
+      <c r="L13" s="77"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="182">
+      <c r="A14" s="117">
         <v>3</v>
       </c>
       <c r="B14" s="43" t="s">
@@ -2136,19 +2161,19 @@
       <c r="H14" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="I14" s="131" t="s">
+      <c r="I14" s="119" t="s">
         <v>4</v>
       </c>
-      <c r="J14" s="149">
+      <c r="J14" s="120">
         <v>7</v>
       </c>
-      <c r="K14" s="119">
+      <c r="K14" s="113">
         <v>1</v>
       </c>
-      <c r="L14" s="109"/>
+      <c r="L14" s="116"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="175"/>
+      <c r="A15" s="118"/>
       <c r="B15" s="13" t="s">
         <v>25</v>
       </c>
@@ -2170,124 +2195,124 @@
       <c r="H15" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="I15" s="115"/>
-      <c r="J15" s="151"/>
-      <c r="K15" s="121"/>
-      <c r="L15" s="109"/>
+      <c r="I15" s="112"/>
+      <c r="J15" s="121"/>
+      <c r="K15" s="115"/>
+      <c r="L15" s="116"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="133">
         <v>4</v>
       </c>
-      <c r="B16" s="91" t="s">
+      <c r="B16" s="88" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="92">
+      <c r="C16" s="89">
         <v>44805</v>
       </c>
-      <c r="D16" s="92">
+      <c r="D16" s="89">
         <v>44812</v>
       </c>
-      <c r="E16" s="92">
+      <c r="E16" s="89">
         <v>44815</v>
       </c>
-      <c r="F16" s="93" t="s">
+      <c r="F16" s="90" t="s">
         <v>3</v>
       </c>
-      <c r="G16" s="91" t="s">
+      <c r="G16" s="88" t="s">
         <v>13</v>
       </c>
-      <c r="H16" s="91" t="s">
+      <c r="H16" s="88" t="s">
         <v>1</v>
       </c>
-      <c r="I16" s="114" t="s">
+      <c r="I16" s="111" t="s">
         <v>4</v>
       </c>
-      <c r="J16" s="125">
+      <c r="J16" s="177">
         <v>59</v>
       </c>
-      <c r="K16" s="128">
+      <c r="K16" s="130">
         <v>4</v>
       </c>
-      <c r="L16" s="110"/>
+      <c r="L16" s="146"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="134"/>
-      <c r="B17" s="91" t="s">
+      <c r="B17" s="88" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="94">
+      <c r="C17" s="91">
         <v>44846</v>
       </c>
-      <c r="D17" s="94"/>
-      <c r="E17" s="94">
+      <c r="D17" s="91"/>
+      <c r="E17" s="91">
         <v>44850</v>
       </c>
-      <c r="F17" s="95" t="s">
+      <c r="F17" s="92" t="s">
         <v>23</v>
       </c>
-      <c r="G17" s="88" t="s">
+      <c r="G17" s="85" t="s">
         <v>39</v>
       </c>
-      <c r="H17" s="88" t="s">
+      <c r="H17" s="85" t="s">
         <v>40</v>
       </c>
-      <c r="I17" s="115"/>
-      <c r="J17" s="126"/>
-      <c r="K17" s="129"/>
-      <c r="L17" s="110"/>
+      <c r="I17" s="112"/>
+      <c r="J17" s="178"/>
+      <c r="K17" s="131"/>
+      <c r="L17" s="146"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="134"/>
-      <c r="B18" s="88" t="s">
+      <c r="B18" s="85" t="s">
         <v>27</v>
       </c>
-      <c r="C18" s="85">
+      <c r="C18" s="82">
         <v>44856</v>
       </c>
-      <c r="D18" s="85"/>
-      <c r="E18" s="85">
+      <c r="D18" s="82"/>
+      <c r="E18" s="82">
         <v>44857</v>
       </c>
-      <c r="F18" s="86" t="s">
+      <c r="F18" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="G18" s="87" t="s">
+      <c r="G18" s="84" t="s">
         <v>42</v>
       </c>
-      <c r="H18" s="88" t="s">
+      <c r="H18" s="85" t="s">
         <v>8</v>
       </c>
-      <c r="I18" s="115"/>
-      <c r="J18" s="126"/>
-      <c r="K18" s="129"/>
-      <c r="L18" s="110"/>
+      <c r="I18" s="112"/>
+      <c r="J18" s="178"/>
+      <c r="K18" s="131"/>
+      <c r="L18" s="146"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="134"/>
-      <c r="B19" s="88" t="s">
+      <c r="B19" s="85" t="s">
         <v>41</v>
       </c>
-      <c r="C19" s="85">
+      <c r="C19" s="82">
         <v>44870</v>
       </c>
-      <c r="D19" s="85"/>
-      <c r="E19" s="85">
+      <c r="D19" s="82"/>
+      <c r="E19" s="82">
         <v>44871</v>
       </c>
-      <c r="F19" s="86" t="s">
+      <c r="F19" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="G19" s="87" t="s">
+      <c r="G19" s="84" t="s">
         <v>9</v>
       </c>
-      <c r="H19" s="88" t="s">
+      <c r="H19" s="85" t="s">
         <v>8</v>
       </c>
-      <c r="I19" s="115"/>
-      <c r="J19" s="126"/>
-      <c r="K19" s="129"/>
-      <c r="L19" s="110"/>
+      <c r="I19" s="112"/>
+      <c r="J19" s="178"/>
+      <c r="K19" s="131"/>
+      <c r="L19" s="146"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="135"/>
@@ -2312,77 +2337,77 @@
       <c r="H20" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="I20" s="115"/>
-      <c r="J20" s="127"/>
-      <c r="K20" s="130"/>
-      <c r="L20" s="78"/>
+      <c r="I20" s="112"/>
+      <c r="J20" s="179"/>
+      <c r="K20" s="132"/>
+      <c r="L20" s="77"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="111">
+      <c r="A21" s="108">
         <v>5</v>
       </c>
       <c r="B21" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="C21" s="82">
+      <c r="C21" s="79">
         <v>44822</v>
       </c>
-      <c r="D21" s="82">
+      <c r="D21" s="79">
         <v>44829</v>
       </c>
-      <c r="E21" s="82">
+      <c r="E21" s="79">
         <v>44829</v>
       </c>
-      <c r="F21" s="83" t="s">
-        <v>10</v>
-      </c>
-      <c r="G21" s="84" t="s">
+      <c r="F21" s="80" t="s">
+        <v>10</v>
+      </c>
+      <c r="G21" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="H21" s="84" t="s">
+      <c r="H21" s="81" t="s">
         <v>11</v>
       </c>
-      <c r="I21" s="131" t="s">
+      <c r="I21" s="119" t="s">
         <v>4</v>
       </c>
-      <c r="J21" s="119">
+      <c r="J21" s="113">
         <v>8</v>
       </c>
-      <c r="K21" s="119">
+      <c r="K21" s="113">
         <v>1</v>
       </c>
-      <c r="L21" s="109"/>
+      <c r="L21" s="116"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="112"/>
-      <c r="B22" s="81" t="s">
+      <c r="A22" s="109"/>
+      <c r="B22" s="78" t="s">
         <v>25</v>
       </c>
-      <c r="C22" s="82">
+      <c r="C22" s="79">
         <v>44861</v>
       </c>
-      <c r="D22" s="82">
+      <c r="D22" s="79">
         <v>44868</v>
       </c>
-      <c r="E22" s="82">
+      <c r="E22" s="79">
         <v>44871</v>
       </c>
-      <c r="F22" s="83" t="s">
+      <c r="F22" s="80" t="s">
         <v>3</v>
       </c>
-      <c r="G22" s="84" t="s">
+      <c r="G22" s="81" t="s">
         <v>38</v>
       </c>
-      <c r="H22" s="84" t="s">
+      <c r="H22" s="81" t="s">
         <v>1</v>
       </c>
-      <c r="I22" s="115"/>
-      <c r="J22" s="120"/>
-      <c r="K22" s="120"/>
-      <c r="L22" s="109"/>
+      <c r="I22" s="112"/>
+      <c r="J22" s="114"/>
+      <c r="K22" s="114"/>
+      <c r="L22" s="116"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="113"/>
+      <c r="A23" s="110"/>
       <c r="B23" s="37" t="s">
         <v>27</v>
       </c>
@@ -2404,13 +2429,13 @@
       <c r="H23" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="I23" s="132"/>
-      <c r="J23" s="121"/>
-      <c r="K23" s="121"/>
-      <c r="L23" s="109"/>
+      <c r="I23" s="128"/>
+      <c r="J23" s="115"/>
+      <c r="K23" s="115"/>
+      <c r="L23" s="116"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="183">
+      <c r="A24" s="122">
         <v>6</v>
       </c>
       <c r="B24" s="44" t="s">
@@ -2434,19 +2459,19 @@
       <c r="H24" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I24" s="131" t="s">
+      <c r="I24" s="119" t="s">
         <v>4</v>
       </c>
-      <c r="J24" s="185">
+      <c r="J24" s="124">
         <v>28</v>
       </c>
-      <c r="K24" s="187">
+      <c r="K24" s="126">
         <v>2</v>
       </c>
-      <c r="L24" s="76"/>
+      <c r="L24" s="146"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="184"/>
+      <c r="A25" s="123"/>
       <c r="B25" s="14" t="s">
         <v>25</v>
       </c>
@@ -2468,13 +2493,13 @@
       <c r="H25" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="I25" s="115"/>
-      <c r="J25" s="186"/>
-      <c r="K25" s="188"/>
-      <c r="L25" s="108"/>
+      <c r="I25" s="112"/>
+      <c r="J25" s="125"/>
+      <c r="K25" s="127"/>
+      <c r="L25" s="146"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="111">
+      <c r="A26" s="108">
         <v>7</v>
       </c>
       <c r="B26" s="39" t="s">
@@ -2498,47 +2523,47 @@
       <c r="H26" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="I26" s="131" t="s">
+      <c r="I26" s="119" t="s">
         <v>4</v>
       </c>
-      <c r="J26" s="165">
+      <c r="J26" s="158">
         <v>21</v>
       </c>
-      <c r="K26" s="149">
+      <c r="K26" s="120">
         <v>2</v>
       </c>
-      <c r="L26" s="109"/>
+      <c r="L26" s="116"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="112"/>
-      <c r="B27" s="81" t="s">
+      <c r="A27" s="109"/>
+      <c r="B27" s="78" t="s">
         <v>25</v>
       </c>
-      <c r="C27" s="82">
+      <c r="C27" s="79">
         <v>44861</v>
       </c>
-      <c r="D27" s="82">
+      <c r="D27" s="79">
         <v>44868</v>
       </c>
-      <c r="E27" s="82">
+      <c r="E27" s="79">
         <v>44871</v>
       </c>
-      <c r="F27" s="83" t="s">
+      <c r="F27" s="80" t="s">
         <v>3</v>
       </c>
-      <c r="G27" s="84" t="s">
+      <c r="G27" s="81" t="s">
         <v>38</v>
       </c>
-      <c r="H27" s="84" t="s">
+      <c r="H27" s="81" t="s">
         <v>1</v>
       </c>
-      <c r="I27" s="115"/>
-      <c r="J27" s="166"/>
-      <c r="K27" s="150"/>
-      <c r="L27" s="109"/>
+      <c r="I27" s="112"/>
+      <c r="J27" s="159"/>
+      <c r="K27" s="161"/>
+      <c r="L27" s="116"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="113"/>
+      <c r="A28" s="110"/>
       <c r="B28" s="37" t="s">
         <v>27</v>
       </c>
@@ -2560,10 +2585,10 @@
       <c r="H28" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="I28" s="132"/>
-      <c r="J28" s="167"/>
-      <c r="K28" s="151"/>
-      <c r="L28" s="109"/>
+      <c r="I28" s="128"/>
+      <c r="J28" s="160"/>
+      <c r="K28" s="121"/>
+      <c r="L28" s="116"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="133">
@@ -2590,44 +2615,44 @@
       <c r="H29" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="I29" s="131" t="s">
+      <c r="I29" s="119" t="s">
         <v>4</v>
       </c>
       <c r="J29" s="162">
         <v>33</v>
       </c>
-      <c r="K29" s="168">
+      <c r="K29" s="142">
         <v>2</v>
       </c>
-      <c r="L29" s="110"/>
+      <c r="L29" s="146"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="134"/>
       <c r="B30" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="C30" s="85">
+      <c r="C30" s="82">
         <v>44861</v>
       </c>
-      <c r="D30" s="85">
+      <c r="D30" s="82">
         <v>44868</v>
       </c>
-      <c r="E30" s="85">
+      <c r="E30" s="82">
         <v>44871</v>
       </c>
-      <c r="F30" s="86" t="s">
+      <c r="F30" s="83" t="s">
         <v>3</v>
       </c>
-      <c r="G30" s="87" t="s">
+      <c r="G30" s="84" t="s">
         <v>38</v>
       </c>
-      <c r="H30" s="88" t="s">
+      <c r="H30" s="85" t="s">
         <v>1</v>
       </c>
-      <c r="I30" s="115"/>
-      <c r="J30" s="164"/>
-      <c r="K30" s="169"/>
-      <c r="L30" s="110"/>
+      <c r="I30" s="112"/>
+      <c r="J30" s="163"/>
+      <c r="K30" s="143"/>
+      <c r="L30" s="146"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="135"/>
@@ -2652,13 +2677,13 @@
       <c r="H31" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="I31" s="132"/>
-      <c r="J31" s="163"/>
-      <c r="K31" s="170"/>
-      <c r="L31" s="77"/>
+      <c r="I31" s="128"/>
+      <c r="J31" s="164"/>
+      <c r="K31" s="144"/>
+      <c r="L31" s="76"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A32" s="111">
+      <c r="A32" s="108">
         <v>9</v>
       </c>
       <c r="B32" s="39" t="s">
@@ -2680,19 +2705,19 @@
       <c r="H32" s="43" t="s">
         <v>40</v>
       </c>
-      <c r="I32" s="131" t="s">
+      <c r="I32" s="119" t="s">
         <v>4</v>
       </c>
-      <c r="J32" s="146">
+      <c r="J32" s="168">
         <v>61</v>
       </c>
-      <c r="K32" s="149">
+      <c r="K32" s="120">
         <v>4</v>
       </c>
-      <c r="L32" s="109"/>
+      <c r="L32" s="116"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A33" s="112"/>
+      <c r="A33" s="109"/>
       <c r="B33" s="39" t="s">
         <v>25</v>
       </c>
@@ -2712,41 +2737,41 @@
       <c r="H33" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="I33" s="115"/>
-      <c r="J33" s="147"/>
-      <c r="K33" s="150"/>
-      <c r="L33" s="109"/>
+      <c r="I33" s="112"/>
+      <c r="J33" s="169"/>
+      <c r="K33" s="161"/>
+      <c r="L33" s="116"/>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A34" s="112"/>
-      <c r="B34" s="89" t="s">
+      <c r="A34" s="109"/>
+      <c r="B34" s="86" t="s">
         <v>27</v>
       </c>
-      <c r="C34" s="82">
+      <c r="C34" s="79">
         <v>44861</v>
       </c>
-      <c r="D34" s="82">
+      <c r="D34" s="79">
         <v>44868</v>
       </c>
-      <c r="E34" s="82">
+      <c r="E34" s="79">
         <v>44871</v>
       </c>
-      <c r="F34" s="83" t="s">
+      <c r="F34" s="80" t="s">
         <v>3</v>
       </c>
-      <c r="G34" s="84" t="s">
+      <c r="G34" s="81" t="s">
         <v>38</v>
       </c>
-      <c r="H34" s="84" t="s">
+      <c r="H34" s="81" t="s">
         <v>1</v>
       </c>
-      <c r="I34" s="115"/>
-      <c r="J34" s="147"/>
-      <c r="K34" s="150"/>
-      <c r="L34" s="109"/>
+      <c r="I34" s="112"/>
+      <c r="J34" s="169"/>
+      <c r="K34" s="161"/>
+      <c r="L34" s="116"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A35" s="113"/>
+      <c r="A35" s="110"/>
       <c r="B35" s="37" t="s">
         <v>41</v>
       </c>
@@ -2768,19 +2793,19 @@
       <c r="H35" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="I35" s="132"/>
-      <c r="J35" s="148"/>
-      <c r="K35" s="151"/>
-      <c r="L35" s="109"/>
+      <c r="I35" s="128"/>
+      <c r="J35" s="170"/>
+      <c r="K35" s="121"/>
+      <c r="L35" s="116"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="10">
         <v>10</v>
       </c>
       <c r="B36" s="2"/>
-      <c r="C36" s="103"/>
-      <c r="D36" s="103"/>
-      <c r="E36" s="103"/>
+      <c r="C36" s="100"/>
+      <c r="D36" s="100"/>
+      <c r="E36" s="100"/>
       <c r="F36" s="9"/>
       <c r="G36" s="9"/>
       <c r="H36" s="9"/>
@@ -2790,7 +2815,7 @@
       <c r="L36" s="73"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A37" s="111">
+      <c r="A37" s="108">
         <v>11</v>
       </c>
       <c r="B37" s="43" t="s">
@@ -2812,19 +2837,19 @@
       <c r="H37" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="I37" s="114" t="s">
+      <c r="I37" s="111" t="s">
         <v>4</v>
       </c>
-      <c r="J37" s="119">
+      <c r="J37" s="113">
         <v>132</v>
       </c>
-      <c r="K37" s="119">
+      <c r="K37" s="113">
         <v>8</v>
       </c>
-      <c r="L37" s="109"/>
+      <c r="L37" s="116"/>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A38" s="112"/>
+      <c r="A38" s="109"/>
       <c r="B38" s="43" t="s">
         <v>25</v>
       </c>
@@ -2846,40 +2871,40 @@
       <c r="H38" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="I38" s="115"/>
-      <c r="J38" s="120"/>
-      <c r="K38" s="120"/>
-      <c r="L38" s="109"/>
+      <c r="I38" s="112"/>
+      <c r="J38" s="114"/>
+      <c r="K38" s="114"/>
+      <c r="L38" s="116"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A39" s="112"/>
-      <c r="B39" s="90" t="s">
+      <c r="A39" s="109"/>
+      <c r="B39" s="87" t="s">
         <v>27</v>
       </c>
-      <c r="C39" s="82">
+      <c r="C39" s="79">
         <v>44870</v>
       </c>
-      <c r="D39" s="82"/>
-      <c r="E39" s="82">
+      <c r="D39" s="79"/>
+      <c r="E39" s="79">
         <v>44871</v>
       </c>
-      <c r="F39" s="83" t="s">
+      <c r="F39" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="G39" s="84" t="s">
+      <c r="G39" s="81" t="s">
         <v>9</v>
       </c>
-      <c r="H39" s="84" t="s">
+      <c r="H39" s="81" t="s">
         <v>8</v>
       </c>
-      <c r="I39" s="115"/>
-      <c r="J39" s="120"/>
-      <c r="K39" s="120"/>
-      <c r="L39" s="109"/>
+      <c r="I39" s="112"/>
+      <c r="J39" s="114"/>
+      <c r="K39" s="114"/>
+      <c r="L39" s="116"/>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A40" s="112"/>
-      <c r="B40" s="189" t="s">
+      <c r="A40" s="109"/>
+      <c r="B40" s="107" t="s">
         <v>41</v>
       </c>
       <c r="C40" s="53">
@@ -2900,13 +2925,13 @@
       <c r="H40" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="I40" s="115"/>
-      <c r="J40" s="120"/>
-      <c r="K40" s="120"/>
-      <c r="L40" s="109"/>
+      <c r="I40" s="112"/>
+      <c r="J40" s="114"/>
+      <c r="K40" s="114"/>
+      <c r="L40" s="116"/>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A41" s="113"/>
+      <c r="A41" s="110"/>
       <c r="B41" s="37" t="s">
         <v>43</v>
       </c>
@@ -2928,10 +2953,10 @@
       <c r="H41" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="I41" s="115"/>
-      <c r="J41" s="121"/>
-      <c r="K41" s="121"/>
-      <c r="L41" s="109"/>
+      <c r="I41" s="112"/>
+      <c r="J41" s="115"/>
+      <c r="K41" s="115"/>
+      <c r="L41" s="116"/>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="133">
@@ -2956,16 +2981,16 @@
       <c r="H42" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="I42" s="131" t="s">
+      <c r="I42" s="119" t="s">
         <v>4</v>
       </c>
-      <c r="J42" s="128">
+      <c r="J42" s="130">
         <v>72</v>
       </c>
-      <c r="K42" s="141">
+      <c r="K42" s="139">
         <v>5</v>
       </c>
-      <c r="L42" s="110"/>
+      <c r="L42" s="146"/>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="134"/>
@@ -2988,10 +3013,10 @@
       <c r="H43" s="47" t="s">
         <v>40</v>
       </c>
-      <c r="I43" s="115"/>
-      <c r="J43" s="129"/>
-      <c r="K43" s="158"/>
-      <c r="L43" s="110"/>
+      <c r="I43" s="112"/>
+      <c r="J43" s="131"/>
+      <c r="K43" s="140"/>
+      <c r="L43" s="146"/>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="135"/>
@@ -3016,13 +3041,13 @@
       <c r="H44" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="I44" s="132"/>
-      <c r="J44" s="130"/>
-      <c r="K44" s="142"/>
-      <c r="L44" s="110"/>
+      <c r="I44" s="128"/>
+      <c r="J44" s="132"/>
+      <c r="K44" s="141"/>
+      <c r="L44" s="146"/>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A45" s="111">
+      <c r="A45" s="108">
         <v>13</v>
       </c>
       <c r="B45" s="43" t="s">
@@ -3044,19 +3069,19 @@
       <c r="H45" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="I45" s="131" t="s">
+      <c r="I45" s="119" t="s">
         <v>4</v>
       </c>
-      <c r="J45" s="119">
+      <c r="J45" s="113">
         <v>7</v>
       </c>
-      <c r="K45" s="119">
+      <c r="K45" s="113">
         <v>1</v>
       </c>
-      <c r="L45" s="109"/>
+      <c r="L45" s="116"/>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A46" s="112"/>
+      <c r="A46" s="109"/>
       <c r="B46" s="43" t="s">
         <v>25</v>
       </c>
@@ -3078,13 +3103,13 @@
       <c r="H46" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="I46" s="115"/>
-      <c r="J46" s="120"/>
-      <c r="K46" s="120"/>
-      <c r="L46" s="109"/>
+      <c r="I46" s="112"/>
+      <c r="J46" s="114"/>
+      <c r="K46" s="114"/>
+      <c r="L46" s="116"/>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A47" s="113"/>
+      <c r="A47" s="110"/>
       <c r="B47" s="13" t="s">
         <v>27</v>
       </c>
@@ -3106,10 +3131,10 @@
       <c r="H47" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="I47" s="132"/>
-      <c r="J47" s="121"/>
-      <c r="K47" s="121"/>
-      <c r="L47" s="109"/>
+      <c r="I47" s="128"/>
+      <c r="J47" s="115"/>
+      <c r="K47" s="115"/>
+      <c r="L47" s="116"/>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="133">
@@ -3134,16 +3159,16 @@
       <c r="H48" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="I48" s="136" t="s">
+      <c r="I48" s="150" t="s">
         <v>0</v>
       </c>
-      <c r="J48" s="128">
+      <c r="J48" s="130">
         <v>39</v>
       </c>
-      <c r="K48" s="141">
+      <c r="K48" s="139">
         <v>3</v>
       </c>
-      <c r="L48" s="110"/>
+      <c r="L48" s="146"/>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" s="135"/>
@@ -3168,13 +3193,13 @@
       <c r="H49" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="I49" s="138"/>
-      <c r="J49" s="130"/>
-      <c r="K49" s="142"/>
-      <c r="L49" s="110"/>
+      <c r="I49" s="152"/>
+      <c r="J49" s="132"/>
+      <c r="K49" s="141"/>
+      <c r="L49" s="146"/>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A50" s="111">
+      <c r="A50" s="108">
         <v>15</v>
       </c>
       <c r="B50" s="43" t="s">
@@ -3196,19 +3221,19 @@
       <c r="H50" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="I50" s="131" t="s">
+      <c r="I50" s="119" t="s">
         <v>4</v>
       </c>
-      <c r="J50" s="139">
+      <c r="J50" s="147">
         <v>39</v>
       </c>
-      <c r="K50" s="146">
+      <c r="K50" s="168">
         <v>3</v>
       </c>
-      <c r="L50" s="109"/>
+      <c r="L50" s="116"/>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A51" s="112"/>
+      <c r="A51" s="109"/>
       <c r="B51" s="43" t="s">
         <v>25</v>
       </c>
@@ -3228,13 +3253,13 @@
       <c r="H51" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="I51" s="115"/>
-      <c r="J51" s="160"/>
-      <c r="K51" s="147"/>
-      <c r="L51" s="109"/>
+      <c r="I51" s="112"/>
+      <c r="J51" s="148"/>
+      <c r="K51" s="169"/>
+      <c r="L51" s="116"/>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A52" s="113"/>
+      <c r="A52" s="110"/>
       <c r="B52" s="13" t="s">
         <v>27</v>
       </c>
@@ -3256,10 +3281,10 @@
       <c r="H52" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="I52" s="132"/>
-      <c r="J52" s="140"/>
-      <c r="K52" s="148"/>
-      <c r="L52" s="109"/>
+      <c r="I52" s="128"/>
+      <c r="J52" s="149"/>
+      <c r="K52" s="170"/>
+      <c r="L52" s="116"/>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" s="133">
@@ -3284,29 +3309,29 @@
       <c r="H53" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="I53" s="131" t="s">
+      <c r="I53" s="119" t="s">
         <v>4</v>
       </c>
-      <c r="J53" s="141">
+      <c r="J53" s="139">
         <v>39</v>
       </c>
-      <c r="K53" s="168">
+      <c r="K53" s="142">
         <v>3</v>
       </c>
-      <c r="L53" s="110"/>
+      <c r="L53" s="146"/>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" s="134"/>
       <c r="B54" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="C54" s="179">
+      <c r="C54" s="106">
         <v>44854</v>
       </c>
-      <c r="D54" s="179">
+      <c r="D54" s="106">
         <v>44861</v>
       </c>
-      <c r="E54" s="179">
+      <c r="E54" s="106">
         <v>44864</v>
       </c>
       <c r="F54" s="46" t="s">
@@ -3318,10 +3343,10 @@
       <c r="H54" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="I54" s="115"/>
-      <c r="J54" s="158"/>
-      <c r="K54" s="169"/>
-      <c r="L54" s="110"/>
+      <c r="I54" s="112"/>
+      <c r="J54" s="140"/>
+      <c r="K54" s="143"/>
+      <c r="L54" s="146"/>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" s="135"/>
@@ -3337,28 +3362,28 @@
       <c r="E55" s="35">
         <v>44888</v>
       </c>
-      <c r="F55" s="177" t="s">
-        <v>10</v>
-      </c>
-      <c r="G55" s="178" t="s">
+      <c r="F55" s="104" t="s">
+        <v>10</v>
+      </c>
+      <c r="G55" s="105" t="s">
         <v>9</v>
       </c>
-      <c r="H55" s="178" t="s">
+      <c r="H55" s="105" t="s">
         <v>11</v>
       </c>
-      <c r="I55" s="132"/>
-      <c r="J55" s="142"/>
-      <c r="K55" s="170"/>
-      <c r="L55" s="106"/>
+      <c r="I55" s="128"/>
+      <c r="J55" s="141"/>
+      <c r="K55" s="144"/>
+      <c r="L55" s="102"/>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" s="10">
         <v>17</v>
       </c>
       <c r="B56" s="2"/>
-      <c r="C56" s="103"/>
-      <c r="D56" s="103"/>
-      <c r="E56" s="103"/>
+      <c r="C56" s="100"/>
+      <c r="D56" s="100"/>
+      <c r="E56" s="100"/>
       <c r="F56" s="9"/>
       <c r="G56" s="9"/>
       <c r="H56" s="9"/>
@@ -3371,7 +3396,7 @@
       <c r="A57" s="133">
         <v>18</v>
       </c>
-      <c r="B57" s="91" t="s">
+      <c r="B57" s="88" t="s">
         <v>26</v>
       </c>
       <c r="C57" s="51">
@@ -3390,20 +3415,20 @@
       <c r="H57" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="I57" s="131" t="s">
+      <c r="I57" s="119" t="s">
         <v>4</v>
       </c>
-      <c r="J57" s="128">
+      <c r="J57" s="130">
         <v>47</v>
       </c>
-      <c r="K57" s="128">
+      <c r="K57" s="130">
         <v>3</v>
       </c>
-      <c r="L57" s="110"/>
+      <c r="L57" s="146"/>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" s="134"/>
-      <c r="B58" s="91" t="s">
+      <c r="B58" s="88" t="s">
         <v>25</v>
       </c>
       <c r="C58" s="51">
@@ -3422,14 +3447,14 @@
       <c r="H58" s="47" t="s">
         <v>40</v>
       </c>
-      <c r="I58" s="115"/>
-      <c r="J58" s="129"/>
-      <c r="K58" s="129"/>
-      <c r="L58" s="110"/>
+      <c r="I58" s="112"/>
+      <c r="J58" s="131"/>
+      <c r="K58" s="131"/>
+      <c r="L58" s="146"/>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" s="134"/>
-      <c r="B59" s="88" t="s">
+      <c r="B59" s="85" t="s">
         <v>27</v>
       </c>
       <c r="C59" s="51">
@@ -3450,10 +3475,10 @@
       <c r="H59" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="I59" s="115"/>
-      <c r="J59" s="129"/>
-      <c r="K59" s="129"/>
-      <c r="L59" s="110"/>
+      <c r="I59" s="112"/>
+      <c r="J59" s="131"/>
+      <c r="K59" s="131"/>
+      <c r="L59" s="146"/>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" s="135"/>
@@ -3469,22 +3494,22 @@
       <c r="E60" s="35">
         <v>44888</v>
       </c>
-      <c r="F60" s="177" t="s">
-        <v>10</v>
-      </c>
-      <c r="G60" s="178" t="s">
+      <c r="F60" s="104" t="s">
+        <v>10</v>
+      </c>
+      <c r="G60" s="105" t="s">
         <v>9</v>
       </c>
-      <c r="H60" s="178" t="s">
+      <c r="H60" s="105" t="s">
         <v>11</v>
       </c>
-      <c r="I60" s="132"/>
-      <c r="J60" s="130"/>
-      <c r="K60" s="130"/>
-      <c r="L60" s="106"/>
+      <c r="I60" s="128"/>
+      <c r="J60" s="132"/>
+      <c r="K60" s="132"/>
+      <c r="L60" s="102"/>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A61" s="143">
+      <c r="A61" s="165">
         <v>19</v>
       </c>
       <c r="B61" s="43" t="s">
@@ -3506,19 +3531,19 @@
       <c r="H61" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="I61" s="136" t="s">
+      <c r="I61" s="150" t="s">
         <v>0</v>
       </c>
-      <c r="J61" s="119">
+      <c r="J61" s="113">
         <v>68</v>
       </c>
-      <c r="K61" s="139">
+      <c r="K61" s="147">
         <v>4</v>
       </c>
-      <c r="L61" s="109"/>
+      <c r="L61" s="116"/>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A62" s="144"/>
+      <c r="A62" s="166"/>
       <c r="B62" s="43" t="s">
         <v>25</v>
       </c>
@@ -3538,13 +3563,13 @@
       <c r="H62" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="I62" s="137"/>
-      <c r="J62" s="120"/>
-      <c r="K62" s="160"/>
-      <c r="L62" s="109"/>
+      <c r="I62" s="151"/>
+      <c r="J62" s="114"/>
+      <c r="K62" s="148"/>
+      <c r="L62" s="116"/>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A63" s="145"/>
+      <c r="A63" s="167"/>
       <c r="B63" s="13" t="s">
         <v>27</v>
       </c>
@@ -3566,98 +3591,98 @@
       <c r="H63" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="I63" s="138"/>
-      <c r="J63" s="121"/>
-      <c r="K63" s="140"/>
-      <c r="L63" s="109"/>
+      <c r="I63" s="152"/>
+      <c r="J63" s="115"/>
+      <c r="K63" s="149"/>
+      <c r="L63" s="116"/>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" s="133">
         <v>20</v>
       </c>
-      <c r="B64" s="91" t="s">
+      <c r="B64" s="88" t="s">
         <v>26</v>
       </c>
-      <c r="C64" s="92">
+      <c r="C64" s="89">
         <v>44815</v>
       </c>
-      <c r="D64" s="92"/>
-      <c r="E64" s="92">
+      <c r="D64" s="89"/>
+      <c r="E64" s="89">
         <v>44818</v>
       </c>
-      <c r="F64" s="93" t="s">
-        <v>10</v>
-      </c>
-      <c r="G64" s="91" t="s">
+      <c r="F64" s="90" t="s">
+        <v>10</v>
+      </c>
+      <c r="G64" s="88" t="s">
         <v>2</v>
       </c>
-      <c r="H64" s="91" t="s">
+      <c r="H64" s="88" t="s">
         <v>11</v>
       </c>
-      <c r="I64" s="131" t="s">
+      <c r="I64" s="119" t="s">
         <v>4</v>
       </c>
-      <c r="J64" s="128">
+      <c r="J64" s="130">
         <v>13</v>
       </c>
-      <c r="K64" s="128">
+      <c r="K64" s="130">
         <v>1</v>
       </c>
-      <c r="L64" s="110"/>
+      <c r="L64" s="146"/>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" s="134"/>
-      <c r="B65" s="91" t="s">
+      <c r="B65" s="88" t="s">
         <v>25</v>
       </c>
-      <c r="C65" s="92">
+      <c r="C65" s="89">
         <v>44842</v>
       </c>
-      <c r="D65" s="92"/>
-      <c r="E65" s="92">
+      <c r="D65" s="89"/>
+      <c r="E65" s="89">
         <v>44813</v>
       </c>
-      <c r="F65" s="93" t="s">
-        <v>10</v>
-      </c>
-      <c r="G65" s="91" t="s">
+      <c r="F65" s="90" t="s">
+        <v>10</v>
+      </c>
+      <c r="G65" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="H65" s="91" t="s">
+      <c r="H65" s="88" t="s">
         <v>8</v>
       </c>
-      <c r="I65" s="115"/>
-      <c r="J65" s="129"/>
-      <c r="K65" s="129"/>
-      <c r="L65" s="110"/>
+      <c r="I65" s="112"/>
+      <c r="J65" s="131"/>
+      <c r="K65" s="131"/>
+      <c r="L65" s="146"/>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66" s="134"/>
-      <c r="B66" s="88" t="s">
+      <c r="B66" s="85" t="s">
         <v>27</v>
       </c>
-      <c r="C66" s="92">
+      <c r="C66" s="89">
         <v>44857</v>
       </c>
-      <c r="D66" s="92">
+      <c r="D66" s="89">
         <v>44871</v>
       </c>
-      <c r="E66" s="92">
+      <c r="E66" s="89">
         <v>44875</v>
       </c>
-      <c r="F66" s="93" t="s">
-        <v>10</v>
-      </c>
-      <c r="G66" s="91" t="s">
+      <c r="F66" s="90" t="s">
+        <v>10</v>
+      </c>
+      <c r="G66" s="88" t="s">
         <v>12</v>
       </c>
-      <c r="H66" s="91" t="s">
+      <c r="H66" s="88" t="s">
         <v>11</v>
       </c>
-      <c r="I66" s="115"/>
-      <c r="J66" s="129"/>
-      <c r="K66" s="129"/>
-      <c r="L66" s="110"/>
+      <c r="I66" s="112"/>
+      <c r="J66" s="131"/>
+      <c r="K66" s="131"/>
+      <c r="L66" s="146"/>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" s="135"/>
@@ -3682,13 +3707,13 @@
       <c r="H67" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="I67" s="132"/>
-      <c r="J67" s="130"/>
-      <c r="K67" s="130"/>
-      <c r="L67" s="78"/>
+      <c r="I67" s="128"/>
+      <c r="J67" s="132"/>
+      <c r="K67" s="132"/>
+      <c r="L67" s="77"/>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A68" s="111">
+      <c r="A68" s="108">
         <v>21</v>
       </c>
       <c r="B68" s="39" t="s">
@@ -3710,19 +3735,19 @@
       <c r="H68" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="I68" s="131" t="s">
+      <c r="I68" s="119" t="s">
         <v>4</v>
       </c>
-      <c r="J68" s="119">
+      <c r="J68" s="113">
         <v>94</v>
       </c>
-      <c r="K68" s="119">
+      <c r="K68" s="113">
         <v>6</v>
       </c>
-      <c r="L68" s="109"/>
+      <c r="L68" s="116"/>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A69" s="112"/>
+      <c r="A69" s="109"/>
       <c r="B69" s="43" t="s">
         <v>25</v>
       </c>
@@ -3742,41 +3767,41 @@
       <c r="H69" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="I69" s="115"/>
-      <c r="J69" s="120"/>
-      <c r="K69" s="120"/>
-      <c r="L69" s="109"/>
+      <c r="I69" s="112"/>
+      <c r="J69" s="114"/>
+      <c r="K69" s="114"/>
+      <c r="L69" s="116"/>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A70" s="112"/>
-      <c r="B70" s="90" t="s">
+      <c r="A70" s="109"/>
+      <c r="B70" s="87" t="s">
         <v>27</v>
       </c>
-      <c r="C70" s="96">
+      <c r="C70" s="93">
         <v>44857</v>
       </c>
-      <c r="D70" s="96">
+      <c r="D70" s="93">
         <v>44871</v>
       </c>
-      <c r="E70" s="96">
+      <c r="E70" s="93">
         <v>44875</v>
       </c>
-      <c r="F70" s="97" t="s">
-        <v>10</v>
-      </c>
-      <c r="G70" s="90" t="s">
+      <c r="F70" s="94" t="s">
+        <v>10</v>
+      </c>
+      <c r="G70" s="87" t="s">
         <v>12</v>
       </c>
-      <c r="H70" s="90" t="s">
+      <c r="H70" s="87" t="s">
         <v>11</v>
       </c>
-      <c r="I70" s="115"/>
-      <c r="J70" s="120"/>
-      <c r="K70" s="120"/>
-      <c r="L70" s="109"/>
+      <c r="I70" s="112"/>
+      <c r="J70" s="114"/>
+      <c r="K70" s="114"/>
+      <c r="L70" s="116"/>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A71" s="113"/>
+      <c r="A71" s="110"/>
       <c r="B71" s="65" t="s">
         <v>41</v>
       </c>
@@ -3798,100 +3823,100 @@
       <c r="H71" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="I71" s="132"/>
-      <c r="J71" s="121"/>
-      <c r="K71" s="121"/>
-      <c r="L71" s="80"/>
+      <c r="I71" s="128"/>
+      <c r="J71" s="115"/>
+      <c r="K71" s="115"/>
+      <c r="L71" s="116"/>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72" s="133">
         <v>22</v>
       </c>
-      <c r="B72" s="91" t="s">
+      <c r="B72" s="88" t="s">
         <v>26</v>
       </c>
-      <c r="C72" s="94">
+      <c r="C72" s="91">
         <v>44822</v>
       </c>
-      <c r="D72" s="94">
+      <c r="D72" s="91">
         <v>44828</v>
       </c>
-      <c r="E72" s="94">
+      <c r="E72" s="91">
         <v>44828</v>
       </c>
-      <c r="F72" s="95" t="s">
-        <v>10</v>
-      </c>
-      <c r="G72" s="88" t="s">
+      <c r="F72" s="92" t="s">
+        <v>10</v>
+      </c>
+      <c r="G72" s="85" t="s">
         <v>2</v>
       </c>
-      <c r="H72" s="88" t="s">
+      <c r="H72" s="85" t="s">
         <v>11</v>
       </c>
-      <c r="I72" s="131" t="s">
+      <c r="I72" s="119" t="s">
         <v>4</v>
       </c>
-      <c r="J72" s="128">
+      <c r="J72" s="130">
         <v>67</v>
       </c>
-      <c r="K72" s="128">
+      <c r="K72" s="130">
         <v>4</v>
       </c>
-      <c r="L72" s="110"/>
+      <c r="L72" s="146"/>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73" s="134"/>
-      <c r="B73" s="91" t="s">
+      <c r="B73" s="88" t="s">
         <v>25</v>
       </c>
-      <c r="C73" s="94">
+      <c r="C73" s="91">
         <v>44846</v>
       </c>
-      <c r="D73" s="94"/>
-      <c r="E73" s="94">
+      <c r="D73" s="91"/>
+      <c r="E73" s="91">
         <v>44850</v>
       </c>
-      <c r="F73" s="95" t="s">
+      <c r="F73" s="92" t="s">
         <v>23</v>
       </c>
-      <c r="G73" s="88" t="s">
+      <c r="G73" s="85" t="s">
         <v>39</v>
       </c>
-      <c r="H73" s="88" t="s">
+      <c r="H73" s="85" t="s">
         <v>40</v>
       </c>
-      <c r="I73" s="115"/>
-      <c r="J73" s="129"/>
-      <c r="K73" s="129"/>
-      <c r="L73" s="110"/>
+      <c r="I73" s="112"/>
+      <c r="J73" s="131"/>
+      <c r="K73" s="131"/>
+      <c r="L73" s="146"/>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74" s="134"/>
-      <c r="B74" s="88" t="s">
+      <c r="B74" s="85" t="s">
         <v>27</v>
       </c>
-      <c r="C74" s="98">
+      <c r="C74" s="95">
         <v>44854</v>
       </c>
-      <c r="D74" s="98">
+      <c r="D74" s="95">
         <v>44861</v>
       </c>
-      <c r="E74" s="98">
+      <c r="E74" s="95">
         <v>44864</v>
       </c>
-      <c r="F74" s="93" t="s">
+      <c r="F74" s="90" t="s">
         <v>3</v>
       </c>
-      <c r="G74" s="91" t="s">
+      <c r="G74" s="88" t="s">
         <v>13</v>
       </c>
-      <c r="H74" s="91" t="s">
+      <c r="H74" s="88" t="s">
         <v>1</v>
       </c>
-      <c r="I74" s="115"/>
-      <c r="J74" s="129"/>
-      <c r="K74" s="129"/>
-      <c r="L74" s="110"/>
+      <c r="I74" s="112"/>
+      <c r="J74" s="131"/>
+      <c r="K74" s="131"/>
+      <c r="L74" s="146"/>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75" s="135"/>
@@ -3916,13 +3941,13 @@
       <c r="H75" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="I75" s="132"/>
-      <c r="J75" s="130"/>
-      <c r="K75" s="130"/>
-      <c r="L75" s="78"/>
+      <c r="I75" s="128"/>
+      <c r="J75" s="132"/>
+      <c r="K75" s="132"/>
+      <c r="L75" s="77"/>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A76" s="111">
+      <c r="A76" s="108">
         <v>23</v>
       </c>
       <c r="B76" s="39" t="s">
@@ -3944,19 +3969,19 @@
       <c r="H76" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="I76" s="131" t="s">
+      <c r="I76" s="119" t="s">
         <v>4</v>
       </c>
-      <c r="J76" s="119">
+      <c r="J76" s="113">
         <v>22</v>
       </c>
-      <c r="K76" s="119">
+      <c r="K76" s="113">
         <v>2</v>
       </c>
-      <c r="L76" s="109"/>
+      <c r="L76" s="116"/>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A77" s="112"/>
+      <c r="A77" s="109"/>
       <c r="B77" s="43" t="s">
         <v>25</v>
       </c>
@@ -3976,13 +4001,13 @@
       <c r="H77" s="55" t="s">
         <v>40</v>
       </c>
-      <c r="I77" s="115"/>
-      <c r="J77" s="120"/>
-      <c r="K77" s="120"/>
-      <c r="L77" s="109"/>
+      <c r="I77" s="112"/>
+      <c r="J77" s="114"/>
+      <c r="K77" s="114"/>
+      <c r="L77" s="116"/>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A78" s="112"/>
+      <c r="A78" s="109"/>
       <c r="B78" s="43" t="s">
         <v>27</v>
       </c>
@@ -4004,13 +4029,13 @@
       <c r="H78" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="I78" s="115"/>
-      <c r="J78" s="120"/>
-      <c r="K78" s="120"/>
-      <c r="L78" s="109"/>
+      <c r="I78" s="112"/>
+      <c r="J78" s="114"/>
+      <c r="K78" s="114"/>
+      <c r="L78" s="116"/>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A79" s="113"/>
+      <c r="A79" s="110"/>
       <c r="B79" s="65" t="s">
         <v>41</v>
       </c>
@@ -4032,41 +4057,41 @@
       <c r="H79" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="I79" s="132"/>
-      <c r="J79" s="121"/>
-      <c r="K79" s="121"/>
-      <c r="L79" s="105"/>
+      <c r="I79" s="128"/>
+      <c r="J79" s="115"/>
+      <c r="K79" s="115"/>
+      <c r="L79" s="116"/>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80" s="133">
         <v>24</v>
       </c>
-      <c r="B80" s="88" t="s">
+      <c r="B80" s="85" t="s">
         <v>26</v>
       </c>
-      <c r="C80" s="94">
+      <c r="C80" s="91">
         <v>44815</v>
       </c>
-      <c r="D80" s="94"/>
-      <c r="E80" s="94">
+      <c r="D80" s="91"/>
+      <c r="E80" s="91">
         <v>44818</v>
       </c>
-      <c r="F80" s="95" t="s">
-        <v>10</v>
-      </c>
-      <c r="G80" s="88" t="s">
+      <c r="F80" s="92" t="s">
+        <v>10</v>
+      </c>
+      <c r="G80" s="85" t="s">
         <v>14</v>
       </c>
-      <c r="H80" s="88" t="s">
+      <c r="H80" s="85" t="s">
         <v>11</v>
       </c>
-      <c r="I80" s="131" t="s">
+      <c r="I80" s="119" t="s">
         <v>4</v>
       </c>
-      <c r="J80" s="128">
+      <c r="J80" s="130">
         <v>31</v>
       </c>
-      <c r="K80" s="128">
+      <c r="K80" s="130">
         <v>2</v>
       </c>
       <c r="L80" s="74"/>
@@ -4094,13 +4119,13 @@
       <c r="H81" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="I81" s="115"/>
-      <c r="J81" s="130"/>
-      <c r="K81" s="130"/>
-      <c r="L81" s="78"/>
+      <c r="I81" s="112"/>
+      <c r="J81" s="132"/>
+      <c r="K81" s="132"/>
+      <c r="L81" s="77"/>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A82" s="111">
+      <c r="A82" s="108">
         <v>25</v>
       </c>
       <c r="B82" s="43" t="s">
@@ -4122,19 +4147,19 @@
       <c r="H82" s="55" t="s">
         <v>40</v>
       </c>
-      <c r="I82" s="136" t="s">
+      <c r="I82" s="150" t="s">
         <v>0</v>
       </c>
-      <c r="J82" s="119">
+      <c r="J82" s="113">
         <v>44</v>
       </c>
-      <c r="K82" s="139">
+      <c r="K82" s="147">
         <v>3</v>
       </c>
-      <c r="L82" s="109"/>
+      <c r="L82" s="116"/>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A83" s="113"/>
+      <c r="A83" s="110"/>
       <c r="B83" s="13" t="s">
         <v>25</v>
       </c>
@@ -4156,10 +4181,10 @@
       <c r="H83" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="I83" s="138"/>
-      <c r="J83" s="121"/>
-      <c r="K83" s="140"/>
-      <c r="L83" s="109"/>
+      <c r="I83" s="152"/>
+      <c r="J83" s="115"/>
+      <c r="K83" s="149"/>
+      <c r="L83" s="116"/>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84" s="133">
@@ -4184,16 +4209,16 @@
       <c r="H84" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="I84" s="131" t="s">
+      <c r="I84" s="119" t="s">
         <v>4</v>
       </c>
-      <c r="J84" s="128">
+      <c r="J84" s="130">
         <v>30</v>
       </c>
-      <c r="K84" s="128">
+      <c r="K84" s="130">
         <v>3</v>
       </c>
-      <c r="L84" s="110"/>
+      <c r="L84" s="146"/>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A85" s="134"/>
@@ -4216,10 +4241,10 @@
       <c r="H85" s="47" t="s">
         <v>40</v>
       </c>
-      <c r="I85" s="115"/>
-      <c r="J85" s="129"/>
-      <c r="K85" s="129"/>
-      <c r="L85" s="110"/>
+      <c r="I85" s="112"/>
+      <c r="J85" s="131"/>
+      <c r="K85" s="131"/>
+      <c r="L85" s="146"/>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A86" s="134"/>
@@ -4244,10 +4269,10 @@
       <c r="H86" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="I86" s="115"/>
-      <c r="J86" s="129"/>
-      <c r="K86" s="129"/>
-      <c r="L86" s="110"/>
+      <c r="I86" s="112"/>
+      <c r="J86" s="131"/>
+      <c r="K86" s="131"/>
+      <c r="L86" s="146"/>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A87" s="135"/>
@@ -4272,13 +4297,13 @@
       <c r="H87" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="I87" s="132"/>
-      <c r="J87" s="130"/>
-      <c r="K87" s="130"/>
-      <c r="L87" s="106"/>
+      <c r="I87" s="128"/>
+      <c r="J87" s="132"/>
+      <c r="K87" s="132"/>
+      <c r="L87" s="102"/>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A88" s="111">
+      <c r="A88" s="108">
         <v>27</v>
       </c>
       <c r="B88" s="39" t="s">
@@ -4300,19 +4325,19 @@
       <c r="H88" s="63" t="s">
         <v>16</v>
       </c>
-      <c r="I88" s="131" t="s">
+      <c r="I88" s="119" t="s">
         <v>4</v>
       </c>
-      <c r="J88" s="119">
+      <c r="J88" s="113">
         <v>12</v>
       </c>
-      <c r="K88" s="139">
+      <c r="K88" s="147">
         <v>1</v>
       </c>
-      <c r="L88" s="109"/>
+      <c r="L88" s="116"/>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A89" s="112"/>
+      <c r="A89" s="109"/>
       <c r="B89" s="43" t="s">
         <v>25</v>
       </c>
@@ -4332,13 +4357,13 @@
       <c r="H89" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="I89" s="115"/>
-      <c r="J89" s="120"/>
-      <c r="K89" s="160"/>
-      <c r="L89" s="109"/>
+      <c r="I89" s="112"/>
+      <c r="J89" s="114"/>
+      <c r="K89" s="148"/>
+      <c r="L89" s="116"/>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A90" s="112"/>
+      <c r="A90" s="109"/>
       <c r="B90" s="43" t="s">
         <v>27</v>
       </c>
@@ -4360,13 +4385,13 @@
       <c r="H90" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="I90" s="115"/>
-      <c r="J90" s="120"/>
-      <c r="K90" s="160"/>
-      <c r="L90" s="109"/>
+      <c r="I90" s="112"/>
+      <c r="J90" s="114"/>
+      <c r="K90" s="148"/>
+      <c r="L90" s="116"/>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A91" s="113"/>
+      <c r="A91" s="110"/>
       <c r="B91" s="65" t="s">
         <v>41</v>
       </c>
@@ -4388,10 +4413,10 @@
       <c r="H91" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="I91" s="132"/>
-      <c r="J91" s="121"/>
-      <c r="K91" s="140"/>
-      <c r="L91" s="109"/>
+      <c r="I91" s="128"/>
+      <c r="J91" s="115"/>
+      <c r="K91" s="149"/>
+      <c r="L91" s="116"/>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A92" s="133">
@@ -4416,16 +4441,16 @@
       <c r="H92" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="I92" s="131" t="s">
+      <c r="I92" s="119" t="s">
         <v>4</v>
       </c>
-      <c r="J92" s="128">
+      <c r="J92" s="130">
         <v>21</v>
       </c>
-      <c r="K92" s="141">
+      <c r="K92" s="139">
         <v>2</v>
       </c>
-      <c r="L92" s="110"/>
+      <c r="L92" s="146"/>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A93" s="134"/>
@@ -4450,10 +4475,10 @@
       <c r="H93" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="I93" s="115"/>
-      <c r="J93" s="129"/>
-      <c r="K93" s="158"/>
-      <c r="L93" s="110"/>
+      <c r="I93" s="112"/>
+      <c r="J93" s="131"/>
+      <c r="K93" s="140"/>
+      <c r="L93" s="146"/>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A94" s="135"/>
@@ -4478,13 +4503,13 @@
       <c r="H94" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="I94" s="132"/>
-      <c r="J94" s="130"/>
-      <c r="K94" s="142"/>
-      <c r="L94" s="110"/>
+      <c r="I94" s="128"/>
+      <c r="J94" s="132"/>
+      <c r="K94" s="141"/>
+      <c r="L94" s="146"/>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A95" s="111">
+      <c r="A95" s="108">
         <v>29</v>
       </c>
       <c r="B95" s="39" t="s">
@@ -4506,19 +4531,19 @@
       <c r="H95" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="I95" s="131" t="s">
-        <v>4</v>
-      </c>
-      <c r="J95" s="119">
+      <c r="I95" s="183" t="s">
+        <v>0</v>
+      </c>
+      <c r="J95" s="113">
         <v>35</v>
       </c>
-      <c r="K95" s="119">
+      <c r="K95" s="113">
         <v>2</v>
       </c>
-      <c r="L95" s="109"/>
+      <c r="L95" s="116"/>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A96" s="112"/>
+      <c r="A96" s="109"/>
       <c r="B96" s="39" t="s">
         <v>25</v>
       </c>
@@ -4538,74 +4563,80 @@
       <c r="H96" s="63" t="s">
         <v>16</v>
       </c>
-      <c r="I96" s="115"/>
-      <c r="J96" s="120"/>
-      <c r="K96" s="120"/>
-      <c r="L96" s="109"/>
+      <c r="I96" s="183"/>
+      <c r="J96" s="114"/>
+      <c r="K96" s="114"/>
+      <c r="L96" s="116"/>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A97" s="112"/>
-      <c r="B97" s="43" t="s">
+      <c r="A97" s="109"/>
+      <c r="B97" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="C97" s="53">
+      <c r="C97" s="8">
         <v>44829</v>
       </c>
-      <c r="D97" s="53">
+      <c r="D97" s="8">
         <v>44843</v>
       </c>
-      <c r="E97" s="53">
+      <c r="E97" s="8">
         <v>44843</v>
       </c>
-      <c r="F97" s="54" t="s">
-        <v>10</v>
-      </c>
-      <c r="G97" s="55" t="s">
+      <c r="F97" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G97" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="H97" s="55" t="s">
+      <c r="H97" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="I97" s="115"/>
-      <c r="J97" s="120"/>
-      <c r="K97" s="120"/>
-      <c r="L97" s="109"/>
+      <c r="I97" s="183"/>
+      <c r="J97" s="114"/>
+      <c r="K97" s="114"/>
+      <c r="L97" s="116"/>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A98" s="113"/>
-      <c r="B98" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="C98" s="8">
-        <v>44877</v>
-      </c>
-      <c r="D98" s="8"/>
-      <c r="E98" s="8">
-        <v>44878</v>
-      </c>
-      <c r="F98" s="15" t="s">
+      <c r="A98" s="133">
+        <v>30</v>
+      </c>
+      <c r="B98" s="44" t="s">
+        <v>26</v>
+      </c>
+      <c r="C98" s="45">
+        <v>44807</v>
+      </c>
+      <c r="D98" s="45"/>
+      <c r="E98" s="45">
+        <v>44815</v>
+      </c>
+      <c r="F98" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="G98" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="H98" s="16" t="s">
+      <c r="G98" s="44" t="s">
+        <v>9</v>
+      </c>
+      <c r="H98" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="I98" s="132"/>
-      <c r="J98" s="121"/>
-      <c r="K98" s="121"/>
-      <c r="L98" s="109"/>
+      <c r="I98" s="184" t="s">
+        <v>0</v>
+      </c>
+      <c r="J98" s="130">
+        <v>19</v>
+      </c>
+      <c r="K98" s="130">
+        <v>1</v>
+      </c>
+      <c r="L98" s="146"/>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A99" s="133">
-        <v>30</v>
-      </c>
+      <c r="A99" s="134"/>
       <c r="B99" s="44" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C99" s="45">
-        <v>44807</v>
+        <v>44814</v>
       </c>
       <c r="D99" s="45"/>
       <c r="E99" s="45">
@@ -4615,1760 +4646,1780 @@
         <v>7</v>
       </c>
       <c r="G99" s="44" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="H99" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="I99" s="131" t="s">
-        <v>4</v>
-      </c>
-      <c r="J99" s="128">
-        <v>19</v>
-      </c>
-      <c r="K99" s="128">
-        <v>1</v>
-      </c>
-      <c r="L99" s="110"/>
+      <c r="I99" s="185"/>
+      <c r="J99" s="131"/>
+      <c r="K99" s="131"/>
+      <c r="L99" s="146"/>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A100" s="134"/>
-      <c r="B100" s="44" t="s">
+      <c r="B100" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C100" s="51">
+        <v>44855</v>
+      </c>
+      <c r="D100" s="51">
+        <v>44862</v>
+      </c>
+      <c r="E100" s="51">
+        <v>44864</v>
+      </c>
+      <c r="F100" s="52" t="s">
+        <v>6</v>
+      </c>
+      <c r="G100" s="47" t="s">
+        <v>2</v>
+      </c>
+      <c r="H100" s="47" t="s">
+        <v>5</v>
+      </c>
+      <c r="I100" s="185"/>
+      <c r="J100" s="131"/>
+      <c r="K100" s="131"/>
+      <c r="L100" s="74"/>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A101" s="135"/>
+      <c r="B101" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="C101" s="6">
+        <v>44877</v>
+      </c>
+      <c r="D101" s="6"/>
+      <c r="E101" s="6">
+        <v>44878</v>
+      </c>
+      <c r="F101" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="G101" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="H101" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="I101" s="186"/>
+      <c r="J101" s="132"/>
+      <c r="K101" s="132"/>
+      <c r="L101" s="102"/>
+    </row>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A102" s="108">
+        <v>31</v>
+      </c>
+      <c r="B102" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="C102" s="61">
+        <v>44813</v>
+      </c>
+      <c r="D102" s="61"/>
+      <c r="E102" s="61">
+        <v>44815</v>
+      </c>
+      <c r="F102" s="62" t="s">
+        <v>6</v>
+      </c>
+      <c r="G102" s="63" t="s">
+        <v>2</v>
+      </c>
+      <c r="H102" s="63" t="s">
+        <v>5</v>
+      </c>
+      <c r="I102" s="183" t="s">
+        <v>0</v>
+      </c>
+      <c r="J102" s="113">
+        <v>50</v>
+      </c>
+      <c r="K102" s="113">
+        <v>4</v>
+      </c>
+      <c r="L102" s="116"/>
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A103" s="109"/>
+      <c r="B103" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="C100" s="45">
-        <v>44814</v>
-      </c>
-      <c r="D100" s="45"/>
-      <c r="E100" s="45">
-        <v>44815</v>
-      </c>
-      <c r="F100" s="46" t="s">
-        <v>7</v>
-      </c>
-      <c r="G100" s="44" t="s">
-        <v>18</v>
-      </c>
-      <c r="H100" s="44" t="s">
-        <v>8</v>
-      </c>
-      <c r="I100" s="115"/>
-      <c r="J100" s="129"/>
-      <c r="K100" s="129"/>
-      <c r="L100" s="110"/>
-    </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A101" s="134"/>
-      <c r="B101" s="47" t="s">
+      <c r="C103" s="56">
+        <v>44824</v>
+      </c>
+      <c r="D103" s="56"/>
+      <c r="E103" s="56">
+        <v>44832</v>
+      </c>
+      <c r="F103" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="G103" s="55" t="s">
+        <v>22</v>
+      </c>
+      <c r="H103" s="55" t="s">
+        <v>16</v>
+      </c>
+      <c r="I103" s="183"/>
+      <c r="J103" s="114"/>
+      <c r="K103" s="114"/>
+      <c r="L103" s="116"/>
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A104" s="109"/>
+      <c r="B104" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="C101" s="51">
-        <v>44855</v>
-      </c>
-      <c r="D101" s="51">
-        <v>44862</v>
-      </c>
-      <c r="E101" s="51">
-        <v>44864</v>
-      </c>
-      <c r="F101" s="52" t="s">
-        <v>6</v>
-      </c>
-      <c r="G101" s="47" t="s">
-        <v>2</v>
-      </c>
-      <c r="H101" s="47" t="s">
-        <v>5</v>
-      </c>
-      <c r="I101" s="115"/>
-      <c r="J101" s="129"/>
-      <c r="K101" s="129"/>
-      <c r="L101" s="74"/>
-    </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A102" s="135"/>
-      <c r="B102" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="C102" s="6">
-        <v>44877</v>
-      </c>
-      <c r="D102" s="6"/>
-      <c r="E102" s="6">
-        <v>44878</v>
-      </c>
-      <c r="F102" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="G102" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="H102" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="I102" s="132"/>
-      <c r="J102" s="130"/>
-      <c r="K102" s="130"/>
-      <c r="L102" s="106"/>
-    </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A103" s="111">
-        <v>31</v>
-      </c>
-      <c r="B103" s="39" t="s">
-        <v>26</v>
-      </c>
-      <c r="C103" s="61">
-        <v>44813</v>
-      </c>
-      <c r="D103" s="61"/>
-      <c r="E103" s="61">
-        <v>44815</v>
-      </c>
-      <c r="F103" s="62" t="s">
-        <v>6</v>
-      </c>
-      <c r="G103" s="63" t="s">
-        <v>2</v>
-      </c>
-      <c r="H103" s="63" t="s">
-        <v>5</v>
-      </c>
-      <c r="I103" s="131" t="s">
-        <v>4</v>
-      </c>
-      <c r="J103" s="119">
-        <v>50</v>
-      </c>
-      <c r="K103" s="119">
-        <v>4</v>
-      </c>
-      <c r="L103" s="109"/>
-    </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A104" s="112"/>
-      <c r="B104" s="43" t="s">
-        <v>25</v>
-      </c>
       <c r="C104" s="56">
-        <v>44824</v>
+        <v>44843</v>
       </c>
       <c r="D104" s="56"/>
       <c r="E104" s="56">
-        <v>44832</v>
+        <v>44843</v>
       </c>
       <c r="F104" s="57" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G104" s="55" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="H104" s="55" t="s">
-        <v>16</v>
-      </c>
-      <c r="I104" s="115"/>
-      <c r="J104" s="120"/>
-      <c r="K104" s="120"/>
-      <c r="L104" s="109"/>
+        <v>11</v>
+      </c>
+      <c r="I104" s="183"/>
+      <c r="J104" s="114"/>
+      <c r="K104" s="114"/>
+      <c r="L104" s="116"/>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A105" s="112"/>
-      <c r="B105" s="43" t="s">
-        <v>27</v>
+      <c r="A105" s="109"/>
+      <c r="B105" s="39" t="s">
+        <v>41</v>
       </c>
       <c r="C105" s="56">
-        <v>44843</v>
+        <v>44850</v>
       </c>
       <c r="D105" s="56"/>
       <c r="E105" s="56">
+        <v>44850</v>
+      </c>
+      <c r="F105" s="57" t="s">
+        <v>10</v>
+      </c>
+      <c r="G105" s="55" t="s">
+        <v>39</v>
+      </c>
+      <c r="H105" s="55" t="s">
+        <v>40</v>
+      </c>
+      <c r="I105" s="183"/>
+      <c r="J105" s="114"/>
+      <c r="K105" s="114"/>
+      <c r="L105" s="116"/>
+    </row>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A106" s="109"/>
+      <c r="B106" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="C106" s="4">
+        <v>44857</v>
+      </c>
+      <c r="D106" s="4">
+        <v>44871</v>
+      </c>
+      <c r="E106" s="4">
+        <v>44875</v>
+      </c>
+      <c r="F106" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="G106" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="H106" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="I106" s="183"/>
+      <c r="J106" s="114"/>
+      <c r="K106" s="114"/>
+      <c r="L106" s="116"/>
+    </row>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A107" s="129">
+        <v>32</v>
+      </c>
+      <c r="B107" s="44" t="s">
+        <v>26</v>
+      </c>
+      <c r="C107" s="51">
+        <v>44813</v>
+      </c>
+      <c r="D107" s="51"/>
+      <c r="E107" s="60">
+        <v>44815</v>
+      </c>
+      <c r="F107" s="52" t="s">
+        <v>6</v>
+      </c>
+      <c r="G107" s="47" t="s">
+        <v>2</v>
+      </c>
+      <c r="H107" s="47" t="s">
+        <v>5</v>
+      </c>
+      <c r="I107" s="184" t="s">
+        <v>0</v>
+      </c>
+      <c r="J107" s="130">
+        <v>77</v>
+      </c>
+      <c r="K107" s="130">
+        <v>4</v>
+      </c>
+      <c r="L107" s="146"/>
+    </row>
+    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A108" s="129"/>
+      <c r="B108" s="44" t="s">
+        <v>25</v>
+      </c>
+      <c r="C108" s="51">
         <v>44843</v>
       </c>
-      <c r="F105" s="57" t="s">
-        <v>10</v>
-      </c>
-      <c r="G105" s="55" t="s">
+      <c r="D108" s="51"/>
+      <c r="E108" s="51">
+        <v>44843</v>
+      </c>
+      <c r="F108" s="52" t="s">
+        <v>10</v>
+      </c>
+      <c r="G108" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="H105" s="55" t="s">
+      <c r="H108" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="I105" s="115"/>
-      <c r="J105" s="120"/>
-      <c r="K105" s="120"/>
-      <c r="L105" s="109"/>
-    </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A106" s="112"/>
-      <c r="B106" s="39" t="s">
+      <c r="I108" s="185"/>
+      <c r="J108" s="131"/>
+      <c r="K108" s="131"/>
+      <c r="L108" s="146"/>
+    </row>
+    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A109" s="129"/>
+      <c r="B109" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C109" s="51">
+        <v>44850</v>
+      </c>
+      <c r="D109" s="51"/>
+      <c r="E109" s="51">
+        <v>44850</v>
+      </c>
+      <c r="F109" s="52" t="s">
+        <v>10</v>
+      </c>
+      <c r="G109" s="47" t="s">
+        <v>39</v>
+      </c>
+      <c r="H109" s="47" t="s">
+        <v>40</v>
+      </c>
+      <c r="I109" s="185"/>
+      <c r="J109" s="131"/>
+      <c r="K109" s="131"/>
+      <c r="L109" s="146"/>
+    </row>
+    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A110" s="129"/>
+      <c r="B110" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="C106" s="56">
+      <c r="C110" s="6">
+        <v>44857</v>
+      </c>
+      <c r="D110" s="23">
+        <v>44871</v>
+      </c>
+      <c r="E110" s="23">
+        <v>44875</v>
+      </c>
+      <c r="F110" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="G110" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="H110" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="I110" s="186"/>
+      <c r="J110" s="131"/>
+      <c r="K110" s="131"/>
+      <c r="L110" s="146"/>
+    </row>
+    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A111" s="108">
+        <v>33</v>
+      </c>
+      <c r="B111" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="C111" s="61">
+        <v>44806</v>
+      </c>
+      <c r="D111" s="61"/>
+      <c r="E111" s="61">
+        <v>44815</v>
+      </c>
+      <c r="F111" s="62" t="s">
+        <v>6</v>
+      </c>
+      <c r="G111" s="63" t="s">
+        <v>2</v>
+      </c>
+      <c r="H111" s="63" t="s">
+        <v>5</v>
+      </c>
+      <c r="I111" s="119" t="s">
+        <v>4</v>
+      </c>
+      <c r="J111" s="113">
+        <v>62</v>
+      </c>
+      <c r="K111" s="113">
+        <v>4</v>
+      </c>
+      <c r="L111" s="116"/>
+    </row>
+    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A112" s="109"/>
+      <c r="B112" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="C112" s="56">
+        <v>44824</v>
+      </c>
+      <c r="D112" s="56"/>
+      <c r="E112" s="64">
+        <v>44832</v>
+      </c>
+      <c r="F112" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="G112" s="55" t="s">
+        <v>22</v>
+      </c>
+      <c r="H112" s="55" t="s">
+        <v>16</v>
+      </c>
+      <c r="I112" s="112"/>
+      <c r="J112" s="114"/>
+      <c r="K112" s="114"/>
+      <c r="L112" s="116"/>
+    </row>
+    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A113" s="109"/>
+      <c r="B113" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="C113" s="93">
+        <v>44857</v>
+      </c>
+      <c r="D113" s="93">
+        <v>44871</v>
+      </c>
+      <c r="E113" s="93">
+        <v>44875</v>
+      </c>
+      <c r="F113" s="94" t="s">
+        <v>10</v>
+      </c>
+      <c r="G113" s="81" t="s">
+        <v>14</v>
+      </c>
+      <c r="H113" s="81" t="s">
+        <v>11</v>
+      </c>
+      <c r="I113" s="112"/>
+      <c r="J113" s="114"/>
+      <c r="K113" s="114"/>
+      <c r="L113" s="116"/>
+    </row>
+    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A114" s="110"/>
+      <c r="B114" s="65" t="s">
+        <v>41</v>
+      </c>
+      <c r="C114" s="4">
+        <v>44878</v>
+      </c>
+      <c r="D114" s="4">
+        <v>44885</v>
+      </c>
+      <c r="E114" s="4">
+        <v>44888</v>
+      </c>
+      <c r="F114" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="G114" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="H114" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="I114" s="128"/>
+      <c r="J114" s="115"/>
+      <c r="K114" s="115"/>
+      <c r="L114" s="116"/>
+    </row>
+    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A115" s="133">
+        <v>34</v>
+      </c>
+      <c r="B115" s="88" t="s">
+        <v>26</v>
+      </c>
+      <c r="C115" s="89">
+        <v>44807</v>
+      </c>
+      <c r="D115" s="89"/>
+      <c r="E115" s="89">
+        <v>44808</v>
+      </c>
+      <c r="F115" s="90" t="s">
+        <v>7</v>
+      </c>
+      <c r="G115" s="88" t="s">
+        <v>9</v>
+      </c>
+      <c r="H115" s="88" t="s">
+        <v>8</v>
+      </c>
+      <c r="I115" s="119" t="s">
+        <v>4</v>
+      </c>
+      <c r="J115" s="130">
+        <v>58</v>
+      </c>
+      <c r="K115" s="130">
+        <v>3</v>
+      </c>
+      <c r="L115" s="146"/>
+    </row>
+    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A116" s="134"/>
+      <c r="B116" s="88" t="s">
+        <v>25</v>
+      </c>
+      <c r="C116" s="91">
+        <v>44829</v>
+      </c>
+      <c r="D116" s="91">
+        <v>44836</v>
+      </c>
+      <c r="E116" s="91">
+        <f>D116+3</f>
+        <v>44839</v>
+      </c>
+      <c r="F116" s="92" t="s">
+        <v>10</v>
+      </c>
+      <c r="G116" s="85" t="s">
+        <v>2</v>
+      </c>
+      <c r="H116" s="85" t="s">
+        <v>11</v>
+      </c>
+      <c r="I116" s="112"/>
+      <c r="J116" s="131"/>
+      <c r="K116" s="131"/>
+      <c r="L116" s="146"/>
+    </row>
+    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A117" s="134"/>
+      <c r="B117" s="85" t="s">
+        <v>27</v>
+      </c>
+      <c r="C117" s="91">
+        <v>44843</v>
+      </c>
+      <c r="D117" s="91"/>
+      <c r="E117" s="91">
+        <v>44843</v>
+      </c>
+      <c r="F117" s="92" t="s">
+        <v>10</v>
+      </c>
+      <c r="G117" s="85" t="s">
+        <v>9</v>
+      </c>
+      <c r="H117" s="85" t="s">
+        <v>11</v>
+      </c>
+      <c r="I117" s="112"/>
+      <c r="J117" s="131"/>
+      <c r="K117" s="131"/>
+      <c r="L117" s="146"/>
+    </row>
+    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A118" s="134"/>
+      <c r="B118" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="C118" s="6">
+        <v>44878</v>
+      </c>
+      <c r="D118" s="6">
+        <v>44885</v>
+      </c>
+      <c r="E118" s="6">
+        <v>44888</v>
+      </c>
+      <c r="F118" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="G118" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="H118" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="I118" s="128"/>
+      <c r="J118" s="132"/>
+      <c r="K118" s="132"/>
+      <c r="L118" s="146"/>
+    </row>
+    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A119" s="165">
+        <v>35</v>
+      </c>
+      <c r="B119" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="C119" s="53">
+        <v>44807</v>
+      </c>
+      <c r="D119" s="53"/>
+      <c r="E119" s="53">
+        <v>44808</v>
+      </c>
+      <c r="F119" s="54" t="s">
+        <v>7</v>
+      </c>
+      <c r="G119" s="55" t="s">
+        <v>9</v>
+      </c>
+      <c r="H119" s="55" t="s">
+        <v>8</v>
+      </c>
+      <c r="I119" s="119" t="s">
+        <v>4</v>
+      </c>
+      <c r="J119" s="113">
+        <v>40</v>
+      </c>
+      <c r="K119" s="147">
+        <v>2</v>
+      </c>
+      <c r="L119" s="116"/>
+    </row>
+    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A120" s="166"/>
+      <c r="B120" s="39" t="s">
+        <v>25</v>
+      </c>
+      <c r="C120" s="56">
+        <v>44843</v>
+      </c>
+      <c r="D120" s="56"/>
+      <c r="E120" s="56">
+        <v>44843</v>
+      </c>
+      <c r="F120" s="57" t="s">
+        <v>10</v>
+      </c>
+      <c r="G120" s="55" t="s">
+        <v>9</v>
+      </c>
+      <c r="H120" s="55" t="s">
+        <v>11</v>
+      </c>
+      <c r="I120" s="112"/>
+      <c r="J120" s="114"/>
+      <c r="K120" s="148"/>
+      <c r="L120" s="116"/>
+    </row>
+    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A121" s="167"/>
+      <c r="B121" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C121" s="12">
+        <v>44863</v>
+      </c>
+      <c r="D121" s="12"/>
+      <c r="E121" s="12">
+        <v>44864</v>
+      </c>
+      <c r="F121" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="G121" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="H121" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="I121" s="128"/>
+      <c r="J121" s="115"/>
+      <c r="K121" s="149"/>
+      <c r="L121" s="116"/>
+    </row>
+    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A122" s="136">
+        <v>36</v>
+      </c>
+      <c r="B122" s="44" t="s">
+        <v>26</v>
+      </c>
+      <c r="C122" s="51">
+        <v>44808</v>
+      </c>
+      <c r="D122" s="51">
+        <v>44815</v>
+      </c>
+      <c r="E122" s="60">
+        <v>44818</v>
+      </c>
+      <c r="F122" s="52" t="s">
+        <v>10</v>
+      </c>
+      <c r="G122" s="47" t="s">
+        <v>12</v>
+      </c>
+      <c r="H122" s="47" t="s">
+        <v>11</v>
+      </c>
+      <c r="I122" s="119" t="s">
+        <v>4</v>
+      </c>
+      <c r="J122" s="130">
+        <v>152</v>
+      </c>
+      <c r="K122" s="130">
+        <v>8</v>
+      </c>
+      <c r="L122" s="176"/>
+    </row>
+    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A123" s="137"/>
+      <c r="B123" s="47" t="s">
+        <v>25</v>
+      </c>
+      <c r="C123" s="51">
+        <v>44840</v>
+      </c>
+      <c r="D123" s="51"/>
+      <c r="E123" s="51">
+        <v>44843</v>
+      </c>
+      <c r="F123" s="52" t="s">
+        <v>3</v>
+      </c>
+      <c r="G123" s="47" t="s">
+        <v>38</v>
+      </c>
+      <c r="H123" s="47" t="s">
+        <v>1</v>
+      </c>
+      <c r="I123" s="112"/>
+      <c r="J123" s="131"/>
+      <c r="K123" s="131"/>
+      <c r="L123" s="176"/>
+    </row>
+    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A124" s="137"/>
+      <c r="B124" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C124" s="51">
+        <v>44847</v>
+      </c>
+      <c r="D124" s="51"/>
+      <c r="E124" s="51">
         <v>44850</v>
       </c>
-      <c r="D106" s="56"/>
-      <c r="E106" s="56">
+      <c r="F124" s="52" t="s">
+        <v>3</v>
+      </c>
+      <c r="G124" s="47" t="s">
+        <v>39</v>
+      </c>
+      <c r="H124" s="47" t="s">
+        <v>40</v>
+      </c>
+      <c r="I124" s="112"/>
+      <c r="J124" s="131"/>
+      <c r="K124" s="131"/>
+      <c r="L124" s="176"/>
+    </row>
+    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A125" s="138"/>
+      <c r="B125" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="C125" s="6">
+        <v>44857</v>
+      </c>
+      <c r="D125" s="6">
+        <v>44871</v>
+      </c>
+      <c r="E125" s="6">
+        <v>44874</v>
+      </c>
+      <c r="F125" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="G125" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="H125" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="I125" s="128"/>
+      <c r="J125" s="132"/>
+      <c r="K125" s="132"/>
+      <c r="L125" s="103"/>
+    </row>
+    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A126" s="108">
+        <v>37</v>
+      </c>
+      <c r="B126" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="C126" s="61">
+        <v>44822</v>
+      </c>
+      <c r="D126" s="61"/>
+      <c r="E126" s="61">
+        <v>44822</v>
+      </c>
+      <c r="F126" s="62" t="s">
+        <v>10</v>
+      </c>
+      <c r="G126" s="63" t="s">
+        <v>12</v>
+      </c>
+      <c r="H126" s="63" t="s">
+        <v>11</v>
+      </c>
+      <c r="I126" s="150" t="s">
+        <v>0</v>
+      </c>
+      <c r="J126" s="113">
+        <v>55</v>
+      </c>
+      <c r="K126" s="147">
+        <v>3</v>
+      </c>
+      <c r="L126" s="116"/>
+    </row>
+    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A127" s="109"/>
+      <c r="B127" s="39" t="s">
+        <v>25</v>
+      </c>
+      <c r="C127" s="61">
+        <v>44847</v>
+      </c>
+      <c r="D127" s="61"/>
+      <c r="E127" s="61">
         <v>44850</v>
       </c>
-      <c r="F106" s="57" t="s">
-        <v>10</v>
-      </c>
-      <c r="G106" s="55" t="s">
+      <c r="F127" s="62" t="s">
+        <v>3</v>
+      </c>
+      <c r="G127" s="63" t="s">
         <v>39</v>
       </c>
-      <c r="H106" s="55" t="s">
+      <c r="H127" s="63" t="s">
         <v>40</v>
       </c>
-      <c r="I106" s="115"/>
-      <c r="J106" s="120"/>
-      <c r="K106" s="120"/>
-      <c r="L106" s="109"/>
-    </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A107" s="112"/>
-      <c r="B107" s="39" t="s">
-        <v>43</v>
-      </c>
-      <c r="C107" s="56">
+      <c r="I127" s="151"/>
+      <c r="J127" s="114"/>
+      <c r="K127" s="148"/>
+      <c r="L127" s="116"/>
+    </row>
+    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A128" s="110"/>
+      <c r="B128" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C128" s="32">
         <v>44857</v>
       </c>
-      <c r="D107" s="56">
+      <c r="D128" s="4">
         <v>44871</v>
       </c>
-      <c r="E107" s="56">
+      <c r="E128" s="4">
         <v>44875</v>
       </c>
-      <c r="F107" s="57" t="s">
-        <v>10</v>
-      </c>
-      <c r="G107" s="55" t="s">
-        <v>14</v>
-      </c>
-      <c r="H107" s="55" t="s">
+      <c r="F128" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="G128" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="H128" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="I107" s="115"/>
-      <c r="J107" s="120"/>
-      <c r="K107" s="120"/>
-      <c r="L107" s="109"/>
-    </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A108" s="112"/>
-      <c r="B108" s="26" t="s">
-        <v>47</v>
-      </c>
-      <c r="C108" s="4">
-        <v>44877</v>
-      </c>
-      <c r="D108" s="4"/>
-      <c r="E108" s="4">
-        <v>44878</v>
-      </c>
-      <c r="F108" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="G108" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="H108" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="I108" s="132"/>
-      <c r="J108" s="121"/>
-      <c r="K108" s="121"/>
-      <c r="L108" s="109"/>
-    </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A109" s="180">
-        <v>32</v>
-      </c>
-      <c r="B109" s="44" t="s">
+      <c r="I128" s="152"/>
+      <c r="J128" s="115"/>
+      <c r="K128" s="149"/>
+      <c r="L128" s="116"/>
+    </row>
+    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A129" s="133">
+        <v>38</v>
+      </c>
+      <c r="B129" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="C109" s="51">
-        <v>44813</v>
-      </c>
-      <c r="D109" s="51"/>
-      <c r="E109" s="60">
+      <c r="C129" s="45">
         <v>44815</v>
       </c>
-      <c r="F109" s="52" t="s">
-        <v>6</v>
-      </c>
-      <c r="G109" s="47" t="s">
-        <v>2</v>
-      </c>
-      <c r="H109" s="47" t="s">
-        <v>5</v>
-      </c>
-      <c r="I109" s="131" t="s">
-        <v>4</v>
-      </c>
-      <c r="J109" s="128">
-        <v>77</v>
-      </c>
-      <c r="K109" s="128">
-        <v>4</v>
-      </c>
-      <c r="L109" s="110"/>
-    </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A110" s="180"/>
-      <c r="B110" s="44" t="s">
-        <v>25</v>
-      </c>
-      <c r="C110" s="51">
-        <v>44843</v>
-      </c>
-      <c r="D110" s="51"/>
-      <c r="E110" s="51">
-        <v>44843</v>
-      </c>
-      <c r="F110" s="52" t="s">
-        <v>10</v>
-      </c>
-      <c r="G110" s="47" t="s">
-        <v>14</v>
-      </c>
-      <c r="H110" s="47" t="s">
+      <c r="D129" s="45"/>
+      <c r="E129" s="45">
+        <v>44818</v>
+      </c>
+      <c r="F129" s="46" t="s">
+        <v>10</v>
+      </c>
+      <c r="G129" s="44" t="s">
+        <v>12</v>
+      </c>
+      <c r="H129" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="I110" s="115"/>
-      <c r="J110" s="129"/>
-      <c r="K110" s="129"/>
-      <c r="L110" s="110"/>
-    </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A111" s="180"/>
-      <c r="B111" s="47" t="s">
-        <v>27</v>
-      </c>
-      <c r="C111" s="51">
-        <v>44850</v>
-      </c>
-      <c r="D111" s="51"/>
-      <c r="E111" s="51">
-        <v>44850</v>
-      </c>
-      <c r="F111" s="52" t="s">
-        <v>10</v>
-      </c>
-      <c r="G111" s="47" t="s">
-        <v>39</v>
-      </c>
-      <c r="H111" s="47" t="s">
-        <v>40</v>
-      </c>
-      <c r="I111" s="115"/>
-      <c r="J111" s="129"/>
-      <c r="K111" s="129"/>
-      <c r="L111" s="110"/>
-    </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A112" s="180"/>
-      <c r="B112" s="47" t="s">
-        <v>41</v>
-      </c>
-      <c r="C112" s="51">
-        <v>44857</v>
-      </c>
-      <c r="D112" s="45">
-        <v>44871</v>
-      </c>
-      <c r="E112" s="45">
-        <v>44875</v>
-      </c>
-      <c r="F112" s="52" t="s">
-        <v>10</v>
-      </c>
-      <c r="G112" s="47" t="s">
-        <v>14</v>
-      </c>
-      <c r="H112" s="47" t="s">
-        <v>11</v>
-      </c>
-      <c r="I112" s="115"/>
-      <c r="J112" s="129"/>
-      <c r="K112" s="129"/>
-      <c r="L112" s="110"/>
-    </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A113" s="181"/>
-      <c r="B113" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="C113" s="6">
-        <v>44877</v>
-      </c>
-      <c r="D113" s="23"/>
-      <c r="E113" s="23">
-        <v>44878</v>
-      </c>
-      <c r="F113" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="G113" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="H113" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="I113" s="132"/>
-      <c r="J113" s="130"/>
-      <c r="K113" s="130"/>
-      <c r="L113" s="106"/>
-    </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A114" s="111">
-        <v>33</v>
-      </c>
-      <c r="B114" s="39" t="s">
-        <v>26</v>
-      </c>
-      <c r="C114" s="61">
-        <v>44806</v>
-      </c>
-      <c r="D114" s="61"/>
-      <c r="E114" s="61">
-        <v>44815</v>
-      </c>
-      <c r="F114" s="62" t="s">
-        <v>6</v>
-      </c>
-      <c r="G114" s="63" t="s">
-        <v>2</v>
-      </c>
-      <c r="H114" s="63" t="s">
-        <v>5</v>
-      </c>
-      <c r="I114" s="131" t="s">
-        <v>4</v>
-      </c>
-      <c r="J114" s="119">
-        <v>62</v>
-      </c>
-      <c r="K114" s="119">
-        <v>4</v>
-      </c>
-      <c r="L114" s="109"/>
-    </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A115" s="112"/>
-      <c r="B115" s="43" t="s">
-        <v>25</v>
-      </c>
-      <c r="C115" s="56">
-        <v>44824</v>
-      </c>
-      <c r="D115" s="56"/>
-      <c r="E115" s="64">
-        <v>44832</v>
-      </c>
-      <c r="F115" s="57" t="s">
-        <v>15</v>
-      </c>
-      <c r="G115" s="55" t="s">
-        <v>22</v>
-      </c>
-      <c r="H115" s="55" t="s">
-        <v>16</v>
-      </c>
-      <c r="I115" s="115"/>
-      <c r="J115" s="120"/>
-      <c r="K115" s="120"/>
-      <c r="L115" s="109"/>
-    </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A116" s="112"/>
-      <c r="B116" s="43" t="s">
-        <v>27</v>
-      </c>
-      <c r="C116" s="96">
-        <v>44857</v>
-      </c>
-      <c r="D116" s="96">
-        <v>44871</v>
-      </c>
-      <c r="E116" s="96">
-        <v>44875</v>
-      </c>
-      <c r="F116" s="97" t="s">
-        <v>10</v>
-      </c>
-      <c r="G116" s="84" t="s">
-        <v>14</v>
-      </c>
-      <c r="H116" s="84" t="s">
-        <v>11</v>
-      </c>
-      <c r="I116" s="115"/>
-      <c r="J116" s="120"/>
-      <c r="K116" s="120"/>
-      <c r="L116" s="109"/>
-    </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A117" s="113"/>
-      <c r="B117" s="65" t="s">
-        <v>41</v>
-      </c>
-      <c r="C117" s="4">
-        <v>44878</v>
-      </c>
-      <c r="D117" s="4">
-        <v>44885</v>
-      </c>
-      <c r="E117" s="4">
-        <v>44888</v>
-      </c>
-      <c r="F117" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="G117" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="H117" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="I117" s="132"/>
-      <c r="J117" s="121"/>
-      <c r="K117" s="121"/>
-      <c r="L117" s="80"/>
-    </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A118" s="133">
-        <v>34</v>
-      </c>
-      <c r="B118" s="91" t="s">
-        <v>26</v>
-      </c>
-      <c r="C118" s="92">
-        <v>44807</v>
-      </c>
-      <c r="D118" s="92"/>
-      <c r="E118" s="92">
-        <v>44808</v>
-      </c>
-      <c r="F118" s="93" t="s">
-        <v>7</v>
-      </c>
-      <c r="G118" s="91" t="s">
-        <v>9</v>
-      </c>
-      <c r="H118" s="91" t="s">
-        <v>8</v>
-      </c>
-      <c r="I118" s="131" t="s">
-        <v>4</v>
-      </c>
-      <c r="J118" s="128">
-        <v>58</v>
-      </c>
-      <c r="K118" s="128">
-        <v>3</v>
-      </c>
-      <c r="L118" s="161"/>
-    </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A119" s="134"/>
-      <c r="B119" s="91" t="s">
-        <v>25</v>
-      </c>
-      <c r="C119" s="94">
-        <v>44829</v>
-      </c>
-      <c r="D119" s="94">
-        <v>44836</v>
-      </c>
-      <c r="E119" s="94">
-        <f>D119+3</f>
-        <v>44839</v>
-      </c>
-      <c r="F119" s="95" t="s">
-        <v>10</v>
-      </c>
-      <c r="G119" s="88" t="s">
-        <v>2</v>
-      </c>
-      <c r="H119" s="88" t="s">
-        <v>11</v>
-      </c>
-      <c r="I119" s="115"/>
-      <c r="J119" s="129"/>
-      <c r="K119" s="129"/>
-      <c r="L119" s="161"/>
-    </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A120" s="134"/>
-      <c r="B120" s="88" t="s">
-        <v>27</v>
-      </c>
-      <c r="C120" s="94">
-        <v>44843</v>
-      </c>
-      <c r="D120" s="94"/>
-      <c r="E120" s="94">
-        <v>44843</v>
-      </c>
-      <c r="F120" s="95" t="s">
-        <v>10</v>
-      </c>
-      <c r="G120" s="88" t="s">
-        <v>9</v>
-      </c>
-      <c r="H120" s="88" t="s">
-        <v>11</v>
-      </c>
-      <c r="I120" s="115"/>
-      <c r="J120" s="129"/>
-      <c r="K120" s="129"/>
-      <c r="L120" s="161"/>
-    </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A121" s="134"/>
-      <c r="B121" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="C121" s="6">
-        <v>44878</v>
-      </c>
-      <c r="D121" s="6">
-        <v>44885</v>
-      </c>
-      <c r="E121" s="6">
-        <v>44888</v>
-      </c>
-      <c r="F121" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="G121" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="H121" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="I121" s="132"/>
-      <c r="J121" s="130"/>
-      <c r="K121" s="130"/>
-      <c r="L121" s="79"/>
-    </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A122" s="143">
-        <v>35</v>
-      </c>
-      <c r="B122" s="39" t="s">
-        <v>26</v>
-      </c>
-      <c r="C122" s="53">
-        <v>44807</v>
-      </c>
-      <c r="D122" s="53"/>
-      <c r="E122" s="53">
-        <v>44808</v>
-      </c>
-      <c r="F122" s="54" t="s">
-        <v>7</v>
-      </c>
-      <c r="G122" s="55" t="s">
-        <v>9</v>
-      </c>
-      <c r="H122" s="55" t="s">
-        <v>8</v>
-      </c>
-      <c r="I122" s="131" t="s">
-        <v>4</v>
-      </c>
-      <c r="J122" s="119">
-        <v>40</v>
-      </c>
-      <c r="K122" s="139">
-        <v>2</v>
-      </c>
-      <c r="L122" s="109"/>
-    </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A123" s="144"/>
-      <c r="B123" s="39" t="s">
-        <v>25</v>
-      </c>
-      <c r="C123" s="56">
-        <v>44843</v>
-      </c>
-      <c r="D123" s="56"/>
-      <c r="E123" s="56">
-        <v>44843</v>
-      </c>
-      <c r="F123" s="57" t="s">
-        <v>10</v>
-      </c>
-      <c r="G123" s="55" t="s">
-        <v>9</v>
-      </c>
-      <c r="H123" s="55" t="s">
-        <v>11</v>
-      </c>
-      <c r="I123" s="115"/>
-      <c r="J123" s="120"/>
-      <c r="K123" s="160"/>
-      <c r="L123" s="109"/>
-    </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A124" s="145"/>
-      <c r="B124" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="C124" s="12">
-        <v>44863</v>
-      </c>
-      <c r="D124" s="12"/>
-      <c r="E124" s="12">
-        <v>44864</v>
-      </c>
-      <c r="F124" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="G124" s="28" t="s">
-        <v>24</v>
-      </c>
-      <c r="H124" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="I124" s="132"/>
-      <c r="J124" s="121"/>
-      <c r="K124" s="140"/>
-      <c r="L124" s="109"/>
-    </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A125" s="122">
-        <v>36</v>
-      </c>
-      <c r="B125" s="44" t="s">
-        <v>26</v>
-      </c>
-      <c r="C125" s="51">
-        <v>44808</v>
-      </c>
-      <c r="D125" s="51">
-        <v>44815</v>
-      </c>
-      <c r="E125" s="60">
-        <v>44818</v>
-      </c>
-      <c r="F125" s="52" t="s">
-        <v>10</v>
-      </c>
-      <c r="G125" s="47" t="s">
-        <v>12</v>
-      </c>
-      <c r="H125" s="47" t="s">
-        <v>11</v>
-      </c>
-      <c r="I125" s="131" t="s">
-        <v>4</v>
-      </c>
-      <c r="J125" s="128">
-        <v>152</v>
-      </c>
-      <c r="K125" s="128">
-        <v>8</v>
-      </c>
-      <c r="L125" s="157"/>
-    </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A126" s="123"/>
-      <c r="B126" s="47" t="s">
-        <v>25</v>
-      </c>
-      <c r="C126" s="51">
-        <v>44840</v>
-      </c>
-      <c r="D126" s="51"/>
-      <c r="E126" s="51">
-        <v>44843</v>
-      </c>
-      <c r="F126" s="52" t="s">
-        <v>3</v>
-      </c>
-      <c r="G126" s="47" t="s">
-        <v>38</v>
-      </c>
-      <c r="H126" s="47" t="s">
-        <v>1</v>
-      </c>
-      <c r="I126" s="115"/>
-      <c r="J126" s="129"/>
-      <c r="K126" s="129"/>
-      <c r="L126" s="157"/>
-    </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A127" s="123"/>
-      <c r="B127" s="47" t="s">
-        <v>27</v>
-      </c>
-      <c r="C127" s="51">
-        <v>44847</v>
-      </c>
-      <c r="D127" s="51"/>
-      <c r="E127" s="51">
-        <v>44850</v>
-      </c>
-      <c r="F127" s="52" t="s">
-        <v>3</v>
-      </c>
-      <c r="G127" s="47" t="s">
-        <v>39</v>
-      </c>
-      <c r="H127" s="47" t="s">
-        <v>40</v>
-      </c>
-      <c r="I127" s="115"/>
-      <c r="J127" s="129"/>
-      <c r="K127" s="129"/>
-      <c r="L127" s="157"/>
-    </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A128" s="124"/>
-      <c r="B128" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="C128" s="6">
-        <v>44857</v>
-      </c>
-      <c r="D128" s="6">
-        <v>44871</v>
-      </c>
-      <c r="E128" s="6">
-        <v>44874</v>
-      </c>
-      <c r="F128" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="G128" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="H128" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="I128" s="132"/>
-      <c r="J128" s="130"/>
-      <c r="K128" s="130"/>
-      <c r="L128" s="107"/>
-    </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A129" s="111">
-        <v>37</v>
-      </c>
-      <c r="B129" s="39" t="s">
-        <v>26</v>
-      </c>
-      <c r="C129" s="61">
-        <v>44822</v>
-      </c>
-      <c r="D129" s="61"/>
-      <c r="E129" s="61">
-        <v>44822</v>
-      </c>
-      <c r="F129" s="62" t="s">
-        <v>10</v>
-      </c>
-      <c r="G129" s="63" t="s">
-        <v>12</v>
-      </c>
-      <c r="H129" s="63" t="s">
-        <v>11</v>
-      </c>
-      <c r="I129" s="136" t="s">
+      <c r="I129" s="145" t="s">
         <v>0</v>
       </c>
-      <c r="J129" s="119">
-        <v>55</v>
+      <c r="J129" s="130">
+        <v>61</v>
       </c>
       <c r="K129" s="139">
         <v>3</v>
       </c>
-      <c r="L129" s="109"/>
+      <c r="L129" s="146"/>
     </row>
     <row r="130" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A130" s="112"/>
-      <c r="B130" s="39" t="s">
+      <c r="A130" s="134"/>
+      <c r="B130" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="C130" s="61">
+      <c r="C130" s="51">
+        <v>44829</v>
+      </c>
+      <c r="D130" s="51"/>
+      <c r="E130" s="51">
+        <v>44836</v>
+      </c>
+      <c r="F130" s="52" t="s">
+        <v>10</v>
+      </c>
+      <c r="G130" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="H130" s="47" t="s">
+        <v>11</v>
+      </c>
+      <c r="I130" s="145"/>
+      <c r="J130" s="131"/>
+      <c r="K130" s="140"/>
+      <c r="L130" s="146"/>
+    </row>
+    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A131" s="134"/>
+      <c r="B131" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C131" s="51">
+        <v>44843</v>
+      </c>
+      <c r="D131" s="51"/>
+      <c r="E131" s="51">
+        <v>44843</v>
+      </c>
+      <c r="F131" s="52" t="s">
+        <v>10</v>
+      </c>
+      <c r="G131" s="47" t="s">
+        <v>2</v>
+      </c>
+      <c r="H131" s="47" t="s">
+        <v>11</v>
+      </c>
+      <c r="I131" s="145"/>
+      <c r="J131" s="131"/>
+      <c r="K131" s="140"/>
+      <c r="L131" s="146"/>
+    </row>
+    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A132" s="134"/>
+      <c r="B132" s="47" t="s">
+        <v>41</v>
+      </c>
+      <c r="C132" s="51">
         <v>44847</v>
       </c>
-      <c r="D130" s="61"/>
-      <c r="E130" s="61">
+      <c r="D132" s="51"/>
+      <c r="E132" s="51">
         <v>44850</v>
       </c>
-      <c r="F130" s="62" t="s">
+      <c r="F132" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="G130" s="63" t="s">
+      <c r="G132" s="47" t="s">
         <v>39</v>
       </c>
-      <c r="H130" s="63" t="s">
+      <c r="H132" s="47" t="s">
         <v>40</v>
       </c>
-      <c r="I130" s="137"/>
-      <c r="J130" s="120"/>
-      <c r="K130" s="160"/>
-      <c r="L130" s="109"/>
-    </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A131" s="113"/>
-      <c r="B131" s="13" t="s">
+      <c r="I132" s="145"/>
+      <c r="J132" s="131"/>
+      <c r="K132" s="140"/>
+      <c r="L132" s="146"/>
+    </row>
+    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A133" s="135"/>
+      <c r="B133" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C133" s="6">
+        <v>44857</v>
+      </c>
+      <c r="D133" s="23">
+        <v>44871</v>
+      </c>
+      <c r="E133" s="23">
+        <v>44875</v>
+      </c>
+      <c r="F133" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="G133" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="H133" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="I133" s="145"/>
+      <c r="J133" s="132"/>
+      <c r="K133" s="141"/>
+      <c r="L133" s="146"/>
+    </row>
+    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A134" s="108">
+        <v>39</v>
+      </c>
+      <c r="B134" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="C134" s="61">
+        <v>44822</v>
+      </c>
+      <c r="D134" s="61"/>
+      <c r="E134" s="61">
+        <v>44822</v>
+      </c>
+      <c r="F134" s="62" t="s">
+        <v>10</v>
+      </c>
+      <c r="G134" s="63" t="s">
+        <v>12</v>
+      </c>
+      <c r="H134" s="63" t="s">
+        <v>11</v>
+      </c>
+      <c r="I134" s="145" t="s">
+        <v>0</v>
+      </c>
+      <c r="J134" s="120">
+        <v>20</v>
+      </c>
+      <c r="K134" s="147">
+        <v>1</v>
+      </c>
+      <c r="L134" s="116"/>
+    </row>
+    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A135" s="109"/>
+      <c r="B135" s="39" t="s">
+        <v>25</v>
+      </c>
+      <c r="C135" s="53">
+        <v>44829</v>
+      </c>
+      <c r="D135" s="53"/>
+      <c r="E135" s="53">
+        <v>44829</v>
+      </c>
+      <c r="F135" s="54" t="s">
+        <v>10</v>
+      </c>
+      <c r="G135" s="55" t="s">
+        <v>2</v>
+      </c>
+      <c r="H135" s="55" t="s">
+        <v>11</v>
+      </c>
+      <c r="I135" s="145"/>
+      <c r="J135" s="161"/>
+      <c r="K135" s="148"/>
+      <c r="L135" s="116"/>
+    </row>
+    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A136" s="109"/>
+      <c r="B136" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="C131" s="32">
+      <c r="C136" s="53">
+        <v>44847</v>
+      </c>
+      <c r="D136" s="53"/>
+      <c r="E136" s="53">
+        <v>44850</v>
+      </c>
+      <c r="F136" s="54" t="s">
+        <v>3</v>
+      </c>
+      <c r="G136" s="55" t="s">
+        <v>39</v>
+      </c>
+      <c r="H136" s="55" t="s">
+        <v>40</v>
+      </c>
+      <c r="I136" s="145"/>
+      <c r="J136" s="161"/>
+      <c r="K136" s="148"/>
+      <c r="L136" s="116"/>
+    </row>
+    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A137" s="110"/>
+      <c r="B137" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C137" s="32">
         <v>44857</v>
       </c>
-      <c r="D131" s="4">
+      <c r="D137" s="4">
         <v>44871</v>
       </c>
-      <c r="E131" s="4">
+      <c r="E137" s="4">
         <v>44875</v>
       </c>
-      <c r="F131" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="G131" s="34" t="s">
+      <c r="F137" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="G137" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="H131" s="34" t="s">
+      <c r="H137" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="I131" s="138"/>
-      <c r="J131" s="121"/>
-      <c r="K131" s="140"/>
-      <c r="L131" s="109"/>
-    </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A132" s="133">
-        <v>38</v>
-      </c>
-      <c r="B132" s="44" t="s">
+      <c r="I137" s="145"/>
+      <c r="J137" s="121"/>
+      <c r="K137" s="149"/>
+      <c r="L137" s="116"/>
+    </row>
+    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A138" s="133">
+        <v>40</v>
+      </c>
+      <c r="B138" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="C132" s="45">
+      <c r="C138" s="45">
+        <v>44822</v>
+      </c>
+      <c r="D138" s="45"/>
+      <c r="E138" s="45">
+        <v>44822</v>
+      </c>
+      <c r="F138" s="46" t="s">
+        <v>10</v>
+      </c>
+      <c r="G138" s="44" t="s">
+        <v>12</v>
+      </c>
+      <c r="H138" s="44" t="s">
+        <v>11</v>
+      </c>
+      <c r="I138" s="145" t="s">
+        <v>0</v>
+      </c>
+      <c r="J138" s="139">
+        <v>17</v>
+      </c>
+      <c r="K138" s="162">
+        <v>1</v>
+      </c>
+      <c r="L138" s="146"/>
+    </row>
+    <row r="139" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A139" s="134"/>
+      <c r="B139" s="44" t="s">
+        <v>25</v>
+      </c>
+      <c r="C139" s="51">
+        <v>44829</v>
+      </c>
+      <c r="D139" s="51"/>
+      <c r="E139" s="51">
+        <v>44829</v>
+      </c>
+      <c r="F139" s="52" t="s">
+        <v>10</v>
+      </c>
+      <c r="G139" s="47" t="s">
+        <v>2</v>
+      </c>
+      <c r="H139" s="47" t="s">
+        <v>11</v>
+      </c>
+      <c r="I139" s="145"/>
+      <c r="J139" s="140"/>
+      <c r="K139" s="163"/>
+      <c r="L139" s="146"/>
+    </row>
+    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A140" s="134"/>
+      <c r="B140" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C140" s="51">
+        <v>44847</v>
+      </c>
+      <c r="D140" s="51"/>
+      <c r="E140" s="51">
+        <v>44850</v>
+      </c>
+      <c r="F140" s="52" t="s">
+        <v>3</v>
+      </c>
+      <c r="G140" s="47" t="s">
+        <v>39</v>
+      </c>
+      <c r="H140" s="47" t="s">
+        <v>40</v>
+      </c>
+      <c r="I140" s="145"/>
+      <c r="J140" s="140"/>
+      <c r="K140" s="163"/>
+      <c r="L140" s="146"/>
+    </row>
+    <row r="141" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A141" s="135"/>
+      <c r="B141" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="C141" s="6">
+        <v>44857</v>
+      </c>
+      <c r="D141" s="23">
+        <v>44871</v>
+      </c>
+      <c r="E141" s="23">
+        <v>44875</v>
+      </c>
+      <c r="F141" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="G141" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="H141" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="I141" s="145"/>
+      <c r="J141" s="141"/>
+      <c r="K141" s="164"/>
+      <c r="L141" s="146"/>
+    </row>
+    <row r="142" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A142" s="10">
+        <v>41</v>
+      </c>
+      <c r="B142" s="2"/>
+      <c r="C142" s="100"/>
+      <c r="D142" s="100"/>
+      <c r="E142" s="100"/>
+      <c r="F142" s="9"/>
+      <c r="G142" s="9"/>
+      <c r="H142" s="9"/>
+      <c r="I142" s="9"/>
+      <c r="J142" s="9"/>
+      <c r="K142" s="9"/>
+      <c r="L142" s="73"/>
+    </row>
+    <row r="143" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A143" s="136">
+        <v>42</v>
+      </c>
+      <c r="B143" s="88" t="s">
+        <v>26</v>
+      </c>
+      <c r="C143" s="91">
+        <v>44822</v>
+      </c>
+      <c r="D143" s="91"/>
+      <c r="E143" s="91">
+        <v>44822</v>
+      </c>
+      <c r="F143" s="92" t="s">
+        <v>10</v>
+      </c>
+      <c r="G143" s="85" t="s">
+        <v>9</v>
+      </c>
+      <c r="H143" s="85" t="s">
+        <v>11</v>
+      </c>
+      <c r="I143" s="119" t="s">
+        <v>4</v>
+      </c>
+      <c r="J143" s="130">
+        <v>41</v>
+      </c>
+      <c r="K143" s="130">
+        <v>3</v>
+      </c>
+      <c r="L143" s="146"/>
+    </row>
+    <row r="144" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A144" s="137"/>
+      <c r="B144" s="85" t="s">
+        <v>25</v>
+      </c>
+      <c r="C144" s="91">
+        <v>44839</v>
+      </c>
+      <c r="D144" s="91"/>
+      <c r="E144" s="91">
+        <v>44839</v>
+      </c>
+      <c r="F144" s="92" t="s">
+        <v>23</v>
+      </c>
+      <c r="G144" s="85" t="s">
+        <v>2</v>
+      </c>
+      <c r="H144" s="85" t="s">
+        <v>1</v>
+      </c>
+      <c r="I144" s="112"/>
+      <c r="J144" s="131"/>
+      <c r="K144" s="131"/>
+      <c r="L144" s="146"/>
+    </row>
+    <row r="145" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A145" s="137"/>
+      <c r="B145" s="85" t="s">
+        <v>27</v>
+      </c>
+      <c r="C145" s="91">
+        <v>44863</v>
+      </c>
+      <c r="D145" s="91"/>
+      <c r="E145" s="91">
+        <v>44864</v>
+      </c>
+      <c r="F145" s="92" t="s">
+        <v>7</v>
+      </c>
+      <c r="G145" s="85" t="s">
+        <v>18</v>
+      </c>
+      <c r="H145" s="85" t="s">
+        <v>8</v>
+      </c>
+      <c r="I145" s="112"/>
+      <c r="J145" s="131"/>
+      <c r="K145" s="131"/>
+      <c r="L145" s="146"/>
+    </row>
+    <row r="146" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A146" s="138"/>
+      <c r="B146" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="C146" s="6">
+        <v>44878</v>
+      </c>
+      <c r="D146" s="6">
+        <v>44885</v>
+      </c>
+      <c r="E146" s="6">
+        <v>44888</v>
+      </c>
+      <c r="F146" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="G146" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H146" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="I146" s="128"/>
+      <c r="J146" s="132"/>
+      <c r="K146" s="132"/>
+      <c r="L146" s="77"/>
+    </row>
+    <row r="147" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A147" s="108">
+        <v>43</v>
+      </c>
+      <c r="B147" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="C147" s="53">
         <v>44815</v>
       </c>
-      <c r="D132" s="45"/>
-      <c r="E132" s="45">
-        <v>44818</v>
-      </c>
-      <c r="F132" s="46" t="s">
-        <v>10</v>
-      </c>
-      <c r="G132" s="44" t="s">
-        <v>12</v>
-      </c>
-      <c r="H132" s="44" t="s">
+      <c r="D147" s="53">
+        <v>44822</v>
+      </c>
+      <c r="E147" s="53">
+        <v>44822</v>
+      </c>
+      <c r="F147" s="54" t="s">
+        <v>10</v>
+      </c>
+      <c r="G147" s="55" t="s">
+        <v>9</v>
+      </c>
+      <c r="H147" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="I132" s="159" t="s">
+      <c r="I147" s="111" t="s">
+        <v>4</v>
+      </c>
+      <c r="J147" s="180">
+        <v>77</v>
+      </c>
+      <c r="K147" s="113">
+        <v>4</v>
+      </c>
+      <c r="L147" s="116"/>
+    </row>
+    <row r="148" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A148" s="109"/>
+      <c r="B148" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="C148" s="53">
+        <v>44839</v>
+      </c>
+      <c r="D148" s="53"/>
+      <c r="E148" s="53">
+        <v>44839</v>
+      </c>
+      <c r="F148" s="54" t="s">
+        <v>23</v>
+      </c>
+      <c r="G148" s="55" t="s">
+        <v>2</v>
+      </c>
+      <c r="H148" s="55" t="s">
+        <v>1</v>
+      </c>
+      <c r="I148" s="112"/>
+      <c r="J148" s="181"/>
+      <c r="K148" s="114"/>
+      <c r="L148" s="116"/>
+    </row>
+    <row r="149" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A149" s="109"/>
+      <c r="B149" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="C149" s="53">
+        <v>44848</v>
+      </c>
+      <c r="D149" s="53"/>
+      <c r="E149" s="53">
+        <v>44850</v>
+      </c>
+      <c r="F149" s="54" t="s">
+        <v>6</v>
+      </c>
+      <c r="G149" s="55" t="s">
+        <v>39</v>
+      </c>
+      <c r="H149" s="55" t="s">
+        <v>40</v>
+      </c>
+      <c r="I149" s="112"/>
+      <c r="J149" s="181"/>
+      <c r="K149" s="114"/>
+      <c r="L149" s="116"/>
+    </row>
+    <row r="150" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A150" s="109"/>
+      <c r="B150" s="87" t="s">
+        <v>41</v>
+      </c>
+      <c r="C150" s="96">
+        <v>44863</v>
+      </c>
+      <c r="D150" s="96"/>
+      <c r="E150" s="96">
+        <v>44864</v>
+      </c>
+      <c r="F150" s="97" t="s">
+        <v>7</v>
+      </c>
+      <c r="G150" s="98" t="s">
+        <v>18</v>
+      </c>
+      <c r="H150" s="87" t="s">
+        <v>8</v>
+      </c>
+      <c r="I150" s="112"/>
+      <c r="J150" s="181"/>
+      <c r="K150" s="114"/>
+      <c r="L150" s="116"/>
+    </row>
+    <row r="151" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A151" s="110"/>
+      <c r="B151" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="C151" s="12">
+        <v>44878</v>
+      </c>
+      <c r="D151" s="12">
+        <v>44885</v>
+      </c>
+      <c r="E151" s="12">
+        <v>44888</v>
+      </c>
+      <c r="F151" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="G151" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H151" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="I151" s="112"/>
+      <c r="J151" s="182"/>
+      <c r="K151" s="115"/>
+      <c r="L151" s="116"/>
+    </row>
+    <row r="152" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A152" s="136">
+        <v>44</v>
+      </c>
+      <c r="B152" s="44" t="s">
+        <v>26</v>
+      </c>
+      <c r="C152" s="51">
+        <v>44848</v>
+      </c>
+      <c r="D152" s="51"/>
+      <c r="E152" s="51">
+        <v>44850</v>
+      </c>
+      <c r="F152" s="52" t="s">
+        <v>6</v>
+      </c>
+      <c r="G152" s="47" t="s">
+        <v>39</v>
+      </c>
+      <c r="H152" s="47" t="s">
+        <v>40</v>
+      </c>
+      <c r="I152" s="111" t="s">
+        <v>4</v>
+      </c>
+      <c r="J152" s="177">
+        <v>39</v>
+      </c>
+      <c r="K152" s="130">
+        <v>3</v>
+      </c>
+      <c r="L152" s="146"/>
+    </row>
+    <row r="153" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A153" s="137"/>
+      <c r="B153" s="47" t="s">
+        <v>25</v>
+      </c>
+      <c r="C153" s="91">
+        <v>44863</v>
+      </c>
+      <c r="D153" s="91"/>
+      <c r="E153" s="91">
+        <v>44864</v>
+      </c>
+      <c r="F153" s="92" t="s">
+        <v>7</v>
+      </c>
+      <c r="G153" s="85" t="s">
+        <v>18</v>
+      </c>
+      <c r="H153" s="85" t="s">
+        <v>8</v>
+      </c>
+      <c r="I153" s="112"/>
+      <c r="J153" s="178"/>
+      <c r="K153" s="131"/>
+      <c r="L153" s="146"/>
+    </row>
+    <row r="154" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A154" s="138"/>
+      <c r="B154" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C154" s="6">
+        <v>44878</v>
+      </c>
+      <c r="D154" s="6">
+        <v>44885</v>
+      </c>
+      <c r="E154" s="6">
+        <v>44888</v>
+      </c>
+      <c r="F154" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="G154" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H154" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="I154" s="112"/>
+      <c r="J154" s="179"/>
+      <c r="K154" s="132"/>
+      <c r="L154" s="77"/>
+    </row>
+    <row r="155" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A155" s="108">
+        <v>45</v>
+      </c>
+      <c r="B155" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="C155" s="53">
+        <v>44829</v>
+      </c>
+      <c r="D155" s="53"/>
+      <c r="E155" s="53">
+        <v>44829</v>
+      </c>
+      <c r="F155" s="54" t="s">
+        <v>10</v>
+      </c>
+      <c r="G155" s="55" t="s">
+        <v>9</v>
+      </c>
+      <c r="H155" s="55" t="s">
+        <v>11</v>
+      </c>
+      <c r="I155" s="150" t="s">
         <v>0</v>
       </c>
-      <c r="J132" s="128">
-        <v>61</v>
-      </c>
-      <c r="K132" s="141">
+      <c r="J155" s="113">
+        <v>53</v>
+      </c>
+      <c r="K155" s="147">
         <v>3</v>
       </c>
-      <c r="L132" s="110"/>
-    </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A133" s="134"/>
-      <c r="B133" s="44" t="s">
+      <c r="L155" s="116"/>
+    </row>
+    <row r="156" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A156" s="171"/>
+      <c r="B156" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="C133" s="51">
+      <c r="C156" s="11">
+        <v>44848</v>
+      </c>
+      <c r="D156" s="11"/>
+      <c r="E156" s="11">
         <v>44829</v>
       </c>
-      <c r="D133" s="51"/>
-      <c r="E133" s="51">
-        <v>44836</v>
-      </c>
-      <c r="F133" s="52" t="s">
-        <v>10</v>
-      </c>
-      <c r="G133" s="47" t="s">
-        <v>24</v>
-      </c>
-      <c r="H133" s="47" t="s">
-        <v>11</v>
-      </c>
-      <c r="I133" s="159"/>
-      <c r="J133" s="129"/>
-      <c r="K133" s="158"/>
-      <c r="L133" s="110"/>
-    </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A134" s="134"/>
-      <c r="B134" s="47" t="s">
-        <v>27</v>
-      </c>
-      <c r="C134" s="51">
-        <v>44843</v>
-      </c>
-      <c r="D134" s="51"/>
-      <c r="E134" s="51">
-        <v>44843</v>
-      </c>
-      <c r="F134" s="52" t="s">
-        <v>10</v>
-      </c>
-      <c r="G134" s="47" t="s">
-        <v>2</v>
-      </c>
-      <c r="H134" s="47" t="s">
-        <v>11</v>
-      </c>
-      <c r="I134" s="159"/>
-      <c r="J134" s="129"/>
-      <c r="K134" s="158"/>
-      <c r="L134" s="110"/>
-    </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A135" s="134"/>
-      <c r="B135" s="47" t="s">
-        <v>41</v>
-      </c>
-      <c r="C135" s="51">
-        <v>44847</v>
-      </c>
-      <c r="D135" s="51"/>
-      <c r="E135" s="51">
-        <v>44850</v>
-      </c>
-      <c r="F135" s="52" t="s">
-        <v>3</v>
-      </c>
-      <c r="G135" s="47" t="s">
+      <c r="F156" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="G156" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="H135" s="47" t="s">
+      <c r="H156" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="I135" s="159"/>
-      <c r="J135" s="129"/>
-      <c r="K135" s="158"/>
-      <c r="L135" s="110"/>
-    </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A136" s="135"/>
-      <c r="B136" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="C136" s="6">
-        <v>44857</v>
-      </c>
-      <c r="D136" s="23">
-        <v>44871</v>
-      </c>
-      <c r="E136" s="23">
-        <v>44875</v>
-      </c>
-      <c r="F136" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="G136" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="H136" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="I136" s="159"/>
-      <c r="J136" s="130"/>
-      <c r="K136" s="142"/>
-      <c r="L136" s="110"/>
-    </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A137" s="111">
-        <v>39</v>
-      </c>
-      <c r="B137" s="39" t="s">
-        <v>26</v>
-      </c>
-      <c r="C137" s="61">
-        <v>44822</v>
-      </c>
-      <c r="D137" s="61"/>
-      <c r="E137" s="61">
-        <v>44822</v>
-      </c>
-      <c r="F137" s="62" t="s">
-        <v>10</v>
-      </c>
-      <c r="G137" s="63" t="s">
-        <v>12</v>
-      </c>
-      <c r="H137" s="63" t="s">
-        <v>11</v>
-      </c>
-      <c r="I137" s="159" t="s">
-        <v>0</v>
-      </c>
-      <c r="J137" s="149">
-        <v>20</v>
-      </c>
-      <c r="K137" s="139">
-        <v>1</v>
-      </c>
-      <c r="L137" s="109"/>
-    </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A138" s="112"/>
-      <c r="B138" s="39" t="s">
-        <v>25</v>
-      </c>
-      <c r="C138" s="53">
-        <v>44829</v>
-      </c>
-      <c r="D138" s="53"/>
-      <c r="E138" s="53">
-        <v>44829</v>
-      </c>
-      <c r="F138" s="54" t="s">
-        <v>10</v>
-      </c>
-      <c r="G138" s="55" t="s">
-        <v>2</v>
-      </c>
-      <c r="H138" s="55" t="s">
-        <v>11</v>
-      </c>
-      <c r="I138" s="159"/>
-      <c r="J138" s="150"/>
-      <c r="K138" s="160"/>
-      <c r="L138" s="109"/>
-    </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A139" s="112"/>
-      <c r="B139" s="43" t="s">
-        <v>27</v>
-      </c>
-      <c r="C139" s="53">
-        <v>44847</v>
-      </c>
-      <c r="D139" s="53"/>
-      <c r="E139" s="53">
-        <v>44850</v>
-      </c>
-      <c r="F139" s="54" t="s">
-        <v>3</v>
-      </c>
-      <c r="G139" s="55" t="s">
-        <v>39</v>
-      </c>
-      <c r="H139" s="55" t="s">
-        <v>40</v>
-      </c>
-      <c r="I139" s="159"/>
-      <c r="J139" s="150"/>
-      <c r="K139" s="160"/>
-      <c r="L139" s="109"/>
-    </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A140" s="113"/>
-      <c r="B140" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="C140" s="32">
-        <v>44857</v>
-      </c>
-      <c r="D140" s="4">
-        <v>44871</v>
-      </c>
-      <c r="E140" s="4">
-        <v>44875</v>
-      </c>
-      <c r="F140" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="G140" s="34" t="s">
-        <v>9</v>
-      </c>
-      <c r="H140" s="34" t="s">
-        <v>11</v>
-      </c>
-      <c r="I140" s="159"/>
-      <c r="J140" s="151"/>
-      <c r="K140" s="140"/>
-      <c r="L140" s="109"/>
-    </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A141" s="133">
-        <v>40</v>
-      </c>
-      <c r="B141" s="44" t="s">
-        <v>26</v>
-      </c>
-      <c r="C141" s="45">
-        <v>44822</v>
-      </c>
-      <c r="D141" s="45"/>
-      <c r="E141" s="45">
-        <v>44822</v>
-      </c>
-      <c r="F141" s="46" t="s">
-        <v>10</v>
-      </c>
-      <c r="G141" s="44" t="s">
-        <v>12</v>
-      </c>
-      <c r="H141" s="44" t="s">
-        <v>11</v>
-      </c>
-      <c r="I141" s="159" t="s">
-        <v>0</v>
-      </c>
-      <c r="J141" s="141">
-        <v>17</v>
-      </c>
-      <c r="K141" s="162">
-        <v>1</v>
-      </c>
-      <c r="L141" s="110"/>
-    </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A142" s="134"/>
-      <c r="B142" s="44" t="s">
-        <v>25</v>
-      </c>
-      <c r="C142" s="51">
-        <v>44829</v>
-      </c>
-      <c r="D142" s="51"/>
-      <c r="E142" s="51">
-        <v>44829</v>
-      </c>
-      <c r="F142" s="52" t="s">
-        <v>10</v>
-      </c>
-      <c r="G142" s="47" t="s">
-        <v>2</v>
-      </c>
-      <c r="H142" s="47" t="s">
-        <v>11</v>
-      </c>
-      <c r="I142" s="159"/>
-      <c r="J142" s="158"/>
-      <c r="K142" s="164"/>
-      <c r="L142" s="110"/>
-    </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A143" s="134"/>
-      <c r="B143" s="47" t="s">
-        <v>27</v>
-      </c>
-      <c r="C143" s="51">
-        <v>44847</v>
-      </c>
-      <c r="D143" s="51"/>
-      <c r="E143" s="51">
-        <v>44850</v>
-      </c>
-      <c r="F143" s="52" t="s">
-        <v>3</v>
-      </c>
-      <c r="G143" s="47" t="s">
-        <v>39</v>
-      </c>
-      <c r="H143" s="47" t="s">
-        <v>40</v>
-      </c>
-      <c r="I143" s="159"/>
-      <c r="J143" s="158"/>
-      <c r="K143" s="164"/>
-      <c r="L143" s="110"/>
-    </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A144" s="135"/>
-      <c r="B144" s="36" t="s">
-        <v>41</v>
-      </c>
-      <c r="C144" s="6">
-        <v>44857</v>
-      </c>
-      <c r="D144" s="23">
-        <v>44871</v>
-      </c>
-      <c r="E144" s="23">
-        <v>44875</v>
-      </c>
-      <c r="F144" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="G144" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="H144" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="I144" s="159"/>
-      <c r="J144" s="142"/>
-      <c r="K144" s="163"/>
-      <c r="L144" s="110"/>
-    </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A145" s="10">
-        <v>41</v>
-      </c>
-      <c r="B145" s="2"/>
-      <c r="C145" s="103"/>
-      <c r="D145" s="103"/>
-      <c r="E145" s="103"/>
-      <c r="F145" s="9"/>
-      <c r="G145" s="9"/>
-      <c r="H145" s="9"/>
-      <c r="I145" s="9"/>
-      <c r="J145" s="9"/>
-      <c r="K145" s="9"/>
-      <c r="L145" s="73"/>
-    </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A146" s="122">
-        <v>42</v>
-      </c>
-      <c r="B146" s="91" t="s">
-        <v>26</v>
-      </c>
-      <c r="C146" s="94">
-        <v>44822</v>
-      </c>
-      <c r="D146" s="94"/>
-      <c r="E146" s="94">
-        <v>44822</v>
-      </c>
-      <c r="F146" s="95" t="s">
-        <v>10</v>
-      </c>
-      <c r="G146" s="88" t="s">
-        <v>9</v>
-      </c>
-      <c r="H146" s="88" t="s">
-        <v>11</v>
-      </c>
-      <c r="I146" s="131" t="s">
-        <v>4</v>
-      </c>
-      <c r="J146" s="128">
-        <v>41</v>
-      </c>
-      <c r="K146" s="128">
-        <v>3</v>
-      </c>
-      <c r="L146" s="110"/>
-    </row>
-    <row r="147" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A147" s="123"/>
-      <c r="B147" s="88" t="s">
-        <v>25</v>
-      </c>
-      <c r="C147" s="94">
-        <v>44839</v>
-      </c>
-      <c r="D147" s="94"/>
-      <c r="E147" s="94">
-        <v>44839</v>
-      </c>
-      <c r="F147" s="95" t="s">
-        <v>23</v>
-      </c>
-      <c r="G147" s="88" t="s">
-        <v>2</v>
-      </c>
-      <c r="H147" s="88" t="s">
-        <v>1</v>
-      </c>
-      <c r="I147" s="115"/>
-      <c r="J147" s="129"/>
-      <c r="K147" s="129"/>
-      <c r="L147" s="110"/>
-    </row>
-    <row r="148" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A148" s="123"/>
-      <c r="B148" s="88" t="s">
-        <v>27</v>
-      </c>
-      <c r="C148" s="94">
-        <v>44863</v>
-      </c>
-      <c r="D148" s="94"/>
-      <c r="E148" s="94">
-        <v>44864</v>
-      </c>
-      <c r="F148" s="95" t="s">
-        <v>7</v>
-      </c>
-      <c r="G148" s="88" t="s">
-        <v>18</v>
-      </c>
-      <c r="H148" s="88" t="s">
-        <v>8</v>
-      </c>
-      <c r="I148" s="115"/>
-      <c r="J148" s="129"/>
-      <c r="K148" s="129"/>
-      <c r="L148" s="110"/>
-    </row>
-    <row r="149" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A149" s="124"/>
-      <c r="B149" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="C149" s="6">
-        <v>44878</v>
-      </c>
-      <c r="D149" s="6">
-        <v>44885</v>
-      </c>
-      <c r="E149" s="6">
-        <v>44888</v>
-      </c>
-      <c r="F149" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="G149" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="H149" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="I149" s="132"/>
-      <c r="J149" s="130"/>
-      <c r="K149" s="130"/>
-      <c r="L149" s="78"/>
-    </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A150" s="111">
-        <v>43</v>
-      </c>
-      <c r="B150" s="39" t="s">
-        <v>26</v>
-      </c>
-      <c r="C150" s="53">
-        <v>44815</v>
-      </c>
-      <c r="D150" s="53">
-        <v>44822</v>
-      </c>
-      <c r="E150" s="53">
-        <v>44822</v>
-      </c>
-      <c r="F150" s="54" t="s">
-        <v>10</v>
-      </c>
-      <c r="G150" s="55" t="s">
-        <v>9</v>
-      </c>
-      <c r="H150" s="55" t="s">
-        <v>11</v>
-      </c>
-      <c r="I150" s="114" t="s">
-        <v>4</v>
-      </c>
-      <c r="J150" s="116">
-        <v>77</v>
-      </c>
-      <c r="K150" s="119">
-        <v>4</v>
-      </c>
-      <c r="L150" s="109"/>
-    </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A151" s="112"/>
-      <c r="B151" s="43" t="s">
-        <v>25</v>
-      </c>
-      <c r="C151" s="53">
-        <v>44839</v>
-      </c>
-      <c r="D151" s="53"/>
-      <c r="E151" s="53">
-        <v>44839</v>
-      </c>
-      <c r="F151" s="54" t="s">
-        <v>23</v>
-      </c>
-      <c r="G151" s="55" t="s">
-        <v>2</v>
-      </c>
-      <c r="H151" s="55" t="s">
-        <v>1</v>
-      </c>
-      <c r="I151" s="115"/>
-      <c r="J151" s="117"/>
-      <c r="K151" s="120"/>
-      <c r="L151" s="109"/>
-    </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A152" s="112"/>
-      <c r="B152" s="43" t="s">
-        <v>27</v>
-      </c>
-      <c r="C152" s="53">
-        <v>44848</v>
-      </c>
-      <c r="D152" s="53"/>
-      <c r="E152" s="53">
-        <v>44850</v>
-      </c>
-      <c r="F152" s="54" t="s">
-        <v>6</v>
-      </c>
-      <c r="G152" s="55" t="s">
-        <v>39</v>
-      </c>
-      <c r="H152" s="55" t="s">
-        <v>40</v>
-      </c>
-      <c r="I152" s="115"/>
-      <c r="J152" s="117"/>
-      <c r="K152" s="120"/>
-      <c r="L152" s="109"/>
-    </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A153" s="112"/>
-      <c r="B153" s="90" t="s">
-        <v>41</v>
-      </c>
-      <c r="C153" s="99">
-        <v>44863</v>
-      </c>
-      <c r="D153" s="99"/>
-      <c r="E153" s="99">
-        <v>44864</v>
-      </c>
-      <c r="F153" s="100" t="s">
-        <v>7</v>
-      </c>
-      <c r="G153" s="101" t="s">
-        <v>18</v>
-      </c>
-      <c r="H153" s="90" t="s">
-        <v>8</v>
-      </c>
-      <c r="I153" s="115"/>
-      <c r="J153" s="117"/>
-      <c r="K153" s="120"/>
-      <c r="L153" s="109"/>
-    </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A154" s="113"/>
-      <c r="B154" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="C154" s="12">
-        <v>44878</v>
-      </c>
-      <c r="D154" s="12">
-        <v>44885</v>
-      </c>
-      <c r="E154" s="12">
-        <v>44888</v>
-      </c>
-      <c r="F154" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="G154" s="28" t="s">
-        <v>46</v>
-      </c>
-      <c r="H154" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="I154" s="115"/>
-      <c r="J154" s="118"/>
-      <c r="K154" s="121"/>
-      <c r="L154" s="80"/>
-    </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A155" s="122">
-        <v>44</v>
-      </c>
-      <c r="B155" s="44" t="s">
-        <v>26</v>
-      </c>
-      <c r="C155" s="51">
-        <v>44848</v>
-      </c>
-      <c r="D155" s="51"/>
-      <c r="E155" s="51">
-        <v>44850</v>
-      </c>
-      <c r="F155" s="52" t="s">
-        <v>6</v>
-      </c>
-      <c r="G155" s="47" t="s">
-        <v>39</v>
-      </c>
-      <c r="H155" s="47" t="s">
-        <v>40</v>
-      </c>
-      <c r="I155" s="114" t="s">
-        <v>4</v>
-      </c>
-      <c r="J155" s="125">
-        <v>39</v>
-      </c>
-      <c r="K155" s="128">
-        <v>3</v>
-      </c>
-      <c r="L155" s="110"/>
-    </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A156" s="123"/>
-      <c r="B156" s="47" t="s">
-        <v>25</v>
-      </c>
-      <c r="C156" s="94">
-        <v>44863</v>
-      </c>
-      <c r="D156" s="94"/>
-      <c r="E156" s="94">
-        <v>44864</v>
-      </c>
-      <c r="F156" s="95" t="s">
-        <v>7</v>
-      </c>
-      <c r="G156" s="88" t="s">
-        <v>18</v>
-      </c>
-      <c r="H156" s="88" t="s">
-        <v>8</v>
-      </c>
-      <c r="I156" s="115"/>
-      <c r="J156" s="126"/>
-      <c r="K156" s="129"/>
-      <c r="L156" s="110"/>
-    </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A157" s="124"/>
-      <c r="B157" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="C157" s="6">
-        <v>44878</v>
-      </c>
-      <c r="D157" s="6">
-        <v>44885</v>
-      </c>
-      <c r="E157" s="6">
-        <v>44888</v>
-      </c>
-      <c r="F157" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="G157" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="H157" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="I157" s="115"/>
-      <c r="J157" s="127"/>
-      <c r="K157" s="130"/>
-      <c r="L157" s="78"/>
-    </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A158" s="111">
-        <v>45</v>
-      </c>
-      <c r="B158" s="39" t="s">
-        <v>26</v>
-      </c>
-      <c r="C158" s="53">
-        <v>44829</v>
-      </c>
-      <c r="D158" s="53"/>
-      <c r="E158" s="53">
-        <v>44829</v>
-      </c>
-      <c r="F158" s="54" t="s">
-        <v>10</v>
-      </c>
-      <c r="G158" s="55" t="s">
-        <v>9</v>
-      </c>
-      <c r="H158" s="55" t="s">
-        <v>11</v>
-      </c>
-      <c r="I158" s="136" t="s">
-        <v>0</v>
-      </c>
-      <c r="J158" s="119">
-        <v>53</v>
-      </c>
-      <c r="K158" s="139">
-        <v>3</v>
-      </c>
-      <c r="L158" s="109"/>
-    </row>
-    <row r="159" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A159" s="152"/>
-      <c r="B159" s="29" t="s">
-        <v>25</v>
-      </c>
-      <c r="C159" s="11">
-        <v>44848</v>
-      </c>
-      <c r="D159" s="11"/>
-      <c r="E159" s="11">
-        <v>44829</v>
-      </c>
-      <c r="F159" s="30" t="s">
-        <v>6</v>
-      </c>
-      <c r="G159" s="31" t="s">
-        <v>39</v>
-      </c>
-      <c r="H159" s="31" t="s">
-        <v>40</v>
-      </c>
-      <c r="I159" s="153"/>
-      <c r="J159" s="154"/>
-      <c r="K159" s="155"/>
-      <c r="L159" s="156"/>
+      <c r="I156" s="172"/>
+      <c r="J156" s="173"/>
+      <c r="K156" s="174"/>
+      <c r="L156" s="175"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L159"/>
-  <mergeCells count="208">
-    <mergeCell ref="A37:A41"/>
-    <mergeCell ref="I37:I41"/>
-    <mergeCell ref="J37:J41"/>
-    <mergeCell ref="K37:K41"/>
-    <mergeCell ref="L37:L41"/>
-    <mergeCell ref="L45:L47"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="J14:J15"/>
-    <mergeCell ref="K14:K15"/>
-    <mergeCell ref="L14:L15"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="I24:I25"/>
-    <mergeCell ref="J24:J25"/>
-    <mergeCell ref="K24:K25"/>
-    <mergeCell ref="A103:A108"/>
-    <mergeCell ref="I103:I108"/>
-    <mergeCell ref="J103:J108"/>
-    <mergeCell ref="K103:K108"/>
-    <mergeCell ref="L103:L108"/>
-    <mergeCell ref="A109:A113"/>
-    <mergeCell ref="I109:I113"/>
-    <mergeCell ref="J109:J113"/>
-    <mergeCell ref="K109:K113"/>
-    <mergeCell ref="K84:K87"/>
-    <mergeCell ref="A95:A98"/>
-    <mergeCell ref="I95:I98"/>
-    <mergeCell ref="J95:J98"/>
-    <mergeCell ref="K95:K98"/>
-    <mergeCell ref="L95:L98"/>
-    <mergeCell ref="A99:A102"/>
-    <mergeCell ref="I99:I102"/>
-    <mergeCell ref="J99:J102"/>
-    <mergeCell ref="K99:K102"/>
-    <mergeCell ref="A125:A128"/>
-    <mergeCell ref="I125:I128"/>
-    <mergeCell ref="J125:J128"/>
-    <mergeCell ref="K125:K128"/>
+  <autoFilter ref="A1:L156"/>
+  <mergeCells count="209">
+    <mergeCell ref="L24:L25"/>
+    <mergeCell ref="L147:L151"/>
+    <mergeCell ref="L21:L23"/>
+    <mergeCell ref="L16:L19"/>
+    <mergeCell ref="A147:A151"/>
+    <mergeCell ref="I147:I151"/>
+    <mergeCell ref="J147:J151"/>
+    <mergeCell ref="K147:K151"/>
+    <mergeCell ref="A152:A154"/>
+    <mergeCell ref="I152:I154"/>
+    <mergeCell ref="J152:J154"/>
+    <mergeCell ref="K152:K154"/>
+    <mergeCell ref="A111:A114"/>
+    <mergeCell ref="I111:I114"/>
+    <mergeCell ref="J111:J114"/>
+    <mergeCell ref="K111:K114"/>
+    <mergeCell ref="A115:A118"/>
+    <mergeCell ref="I115:I118"/>
+    <mergeCell ref="J115:J118"/>
+    <mergeCell ref="K115:K118"/>
+    <mergeCell ref="A143:A146"/>
+    <mergeCell ref="I143:I146"/>
+    <mergeCell ref="J143:J146"/>
+    <mergeCell ref="K143:K146"/>
+    <mergeCell ref="A80:A81"/>
+    <mergeCell ref="I80:I81"/>
+    <mergeCell ref="A16:A20"/>
+    <mergeCell ref="J16:J20"/>
+    <mergeCell ref="K16:K20"/>
+    <mergeCell ref="I16:I20"/>
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="I21:I23"/>
+    <mergeCell ref="J21:J23"/>
+    <mergeCell ref="K21:K23"/>
+    <mergeCell ref="A61:A63"/>
+    <mergeCell ref="A32:A35"/>
+    <mergeCell ref="J32:J35"/>
+    <mergeCell ref="K32:K35"/>
+    <mergeCell ref="I32:I35"/>
+    <mergeCell ref="J61:J63"/>
+    <mergeCell ref="K61:K63"/>
+    <mergeCell ref="L61:L63"/>
+    <mergeCell ref="A64:A67"/>
+    <mergeCell ref="I64:I67"/>
+    <mergeCell ref="A155:A156"/>
+    <mergeCell ref="I155:I156"/>
+    <mergeCell ref="J155:J156"/>
+    <mergeCell ref="K155:K156"/>
+    <mergeCell ref="L155:L156"/>
+    <mergeCell ref="L98:L99"/>
+    <mergeCell ref="L122:L124"/>
+    <mergeCell ref="J80:J81"/>
+    <mergeCell ref="A82:A83"/>
+    <mergeCell ref="J82:J83"/>
+    <mergeCell ref="K82:K83"/>
+    <mergeCell ref="K68:K71"/>
+    <mergeCell ref="L115:L118"/>
+    <mergeCell ref="L111:L114"/>
+    <mergeCell ref="L68:L71"/>
+    <mergeCell ref="L76:L79"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="I48:I49"/>
+    <mergeCell ref="J48:J49"/>
+    <mergeCell ref="K48:K49"/>
+    <mergeCell ref="L48:L49"/>
+    <mergeCell ref="A50:A52"/>
+    <mergeCell ref="I50:I52"/>
+    <mergeCell ref="J50:J52"/>
+    <mergeCell ref="K50:K52"/>
+    <mergeCell ref="L50:L52"/>
+    <mergeCell ref="I82:I83"/>
+    <mergeCell ref="J64:J67"/>
+    <mergeCell ref="K64:K67"/>
+    <mergeCell ref="A68:A71"/>
+    <mergeCell ref="I68:I71"/>
+    <mergeCell ref="J68:J71"/>
+    <mergeCell ref="A72:A75"/>
+    <mergeCell ref="I72:I75"/>
+    <mergeCell ref="J72:J75"/>
+    <mergeCell ref="K72:K75"/>
+    <mergeCell ref="L64:L66"/>
+    <mergeCell ref="K134:K137"/>
+    <mergeCell ref="L134:L137"/>
+    <mergeCell ref="L107:L110"/>
+    <mergeCell ref="L53:L54"/>
+    <mergeCell ref="L57:L59"/>
+    <mergeCell ref="K80:K81"/>
+    <mergeCell ref="L82:L83"/>
+    <mergeCell ref="J29:J31"/>
+    <mergeCell ref="K29:K31"/>
+    <mergeCell ref="L152:L153"/>
+    <mergeCell ref="A138:A141"/>
+    <mergeCell ref="I138:I141"/>
+    <mergeCell ref="J138:J141"/>
+    <mergeCell ref="K138:K141"/>
+    <mergeCell ref="L138:L141"/>
+    <mergeCell ref="L143:L145"/>
+    <mergeCell ref="L72:L74"/>
+    <mergeCell ref="I42:I44"/>
+    <mergeCell ref="J42:J44"/>
+    <mergeCell ref="K42:K44"/>
+    <mergeCell ref="L42:L44"/>
+    <mergeCell ref="A42:A44"/>
+    <mergeCell ref="L84:L86"/>
+    <mergeCell ref="I61:I63"/>
+    <mergeCell ref="J126:J128"/>
+    <mergeCell ref="K126:K128"/>
+    <mergeCell ref="L126:L128"/>
+    <mergeCell ref="A134:A137"/>
+    <mergeCell ref="I134:I137"/>
+    <mergeCell ref="J134:J137"/>
+    <mergeCell ref="L8:L12"/>
+    <mergeCell ref="A8:A13"/>
+    <mergeCell ref="I8:I13"/>
+    <mergeCell ref="J8:J13"/>
+    <mergeCell ref="K8:K13"/>
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="I2:I7"/>
+    <mergeCell ref="J2:J7"/>
+    <mergeCell ref="K2:K7"/>
+    <mergeCell ref="L2:L7"/>
+    <mergeCell ref="I129:I133"/>
+    <mergeCell ref="J129:J133"/>
+    <mergeCell ref="K129:K133"/>
+    <mergeCell ref="L129:L133"/>
+    <mergeCell ref="A129:A133"/>
+    <mergeCell ref="A92:A94"/>
+    <mergeCell ref="I92:I94"/>
+    <mergeCell ref="J92:J94"/>
+    <mergeCell ref="K92:K94"/>
+    <mergeCell ref="L92:L94"/>
+    <mergeCell ref="A126:A128"/>
+    <mergeCell ref="I126:I128"/>
+    <mergeCell ref="A119:A121"/>
+    <mergeCell ref="I119:I121"/>
+    <mergeCell ref="J119:J121"/>
+    <mergeCell ref="K119:K121"/>
+    <mergeCell ref="L119:L121"/>
+    <mergeCell ref="A122:A125"/>
+    <mergeCell ref="I122:I125"/>
+    <mergeCell ref="J122:J125"/>
+    <mergeCell ref="K122:K125"/>
     <mergeCell ref="A45:A47"/>
     <mergeCell ref="I45:I47"/>
     <mergeCell ref="J45:J47"/>
@@ -6388,34 +6439,46 @@
     <mergeCell ref="A84:A87"/>
     <mergeCell ref="I84:I87"/>
     <mergeCell ref="J84:J87"/>
-    <mergeCell ref="L32:L35"/>
-    <mergeCell ref="I132:I136"/>
-    <mergeCell ref="J132:J136"/>
-    <mergeCell ref="K132:K136"/>
-    <mergeCell ref="L132:L136"/>
-    <mergeCell ref="A132:A136"/>
-    <mergeCell ref="A92:A94"/>
-    <mergeCell ref="I92:I94"/>
-    <mergeCell ref="J92:J94"/>
-    <mergeCell ref="K92:K94"/>
-    <mergeCell ref="L92:L94"/>
     <mergeCell ref="A88:A91"/>
+    <mergeCell ref="K84:K87"/>
+    <mergeCell ref="A95:A97"/>
+    <mergeCell ref="I95:I97"/>
+    <mergeCell ref="J95:J97"/>
+    <mergeCell ref="K95:K97"/>
+    <mergeCell ref="L95:L97"/>
+    <mergeCell ref="A98:A101"/>
+    <mergeCell ref="I98:I101"/>
+    <mergeCell ref="J98:J101"/>
+    <mergeCell ref="K98:K101"/>
     <mergeCell ref="I88:I91"/>
     <mergeCell ref="J88:J91"/>
     <mergeCell ref="K88:K91"/>
     <mergeCell ref="L88:L91"/>
-    <mergeCell ref="A129:A131"/>
-    <mergeCell ref="I129:I131"/>
-    <mergeCell ref="L8:L12"/>
-    <mergeCell ref="A8:A13"/>
-    <mergeCell ref="I8:I13"/>
-    <mergeCell ref="J8:J13"/>
-    <mergeCell ref="K8:K13"/>
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="I2:I7"/>
-    <mergeCell ref="J2:J7"/>
-    <mergeCell ref="K2:K7"/>
-    <mergeCell ref="L2:L7"/>
+    <mergeCell ref="A102:A106"/>
+    <mergeCell ref="I102:I106"/>
+    <mergeCell ref="J102:J106"/>
+    <mergeCell ref="K102:K106"/>
+    <mergeCell ref="L102:L106"/>
+    <mergeCell ref="A107:A110"/>
+    <mergeCell ref="I107:I110"/>
+    <mergeCell ref="J107:J110"/>
+    <mergeCell ref="K107:K110"/>
+    <mergeCell ref="A37:A41"/>
+    <mergeCell ref="I37:I41"/>
+    <mergeCell ref="J37:J41"/>
+    <mergeCell ref="K37:K41"/>
+    <mergeCell ref="L37:L41"/>
+    <mergeCell ref="L45:L47"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="J14:J15"/>
+    <mergeCell ref="K14:K15"/>
+    <mergeCell ref="L14:L15"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="I24:I25"/>
+    <mergeCell ref="J24:J25"/>
+    <mergeCell ref="K24:K25"/>
+    <mergeCell ref="L32:L35"/>
     <mergeCell ref="L29:L30"/>
     <mergeCell ref="A26:A28"/>
     <mergeCell ref="I26:I28"/>
@@ -6424,121 +6487,6 @@
     <mergeCell ref="L26:L28"/>
     <mergeCell ref="A29:A31"/>
     <mergeCell ref="I29:I31"/>
-    <mergeCell ref="J29:J31"/>
-    <mergeCell ref="K29:K31"/>
-    <mergeCell ref="L155:L156"/>
-    <mergeCell ref="A141:A144"/>
-    <mergeCell ref="I141:I144"/>
-    <mergeCell ref="J141:J144"/>
-    <mergeCell ref="K141:K144"/>
-    <mergeCell ref="L141:L144"/>
-    <mergeCell ref="L146:L148"/>
-    <mergeCell ref="L72:L74"/>
-    <mergeCell ref="I42:I44"/>
-    <mergeCell ref="J42:J44"/>
-    <mergeCell ref="K42:K44"/>
-    <mergeCell ref="L42:L44"/>
-    <mergeCell ref="A42:A44"/>
-    <mergeCell ref="L84:L86"/>
-    <mergeCell ref="I61:I63"/>
-    <mergeCell ref="L150:L153"/>
-    <mergeCell ref="J129:J131"/>
-    <mergeCell ref="K129:K131"/>
-    <mergeCell ref="L129:L131"/>
-    <mergeCell ref="A137:A140"/>
-    <mergeCell ref="I137:I140"/>
-    <mergeCell ref="J137:J140"/>
-    <mergeCell ref="A122:A124"/>
-    <mergeCell ref="I122:I124"/>
-    <mergeCell ref="J122:J124"/>
-    <mergeCell ref="K122:K124"/>
-    <mergeCell ref="L122:L124"/>
-    <mergeCell ref="K137:K140"/>
-    <mergeCell ref="L137:L140"/>
-    <mergeCell ref="L109:L112"/>
-    <mergeCell ref="L114:L116"/>
-    <mergeCell ref="L53:L54"/>
-    <mergeCell ref="L57:L59"/>
-    <mergeCell ref="L76:L78"/>
-    <mergeCell ref="K80:K81"/>
-    <mergeCell ref="L82:L83"/>
-    <mergeCell ref="I82:I83"/>
-    <mergeCell ref="L68:L70"/>
-    <mergeCell ref="J64:J67"/>
-    <mergeCell ref="K64:K67"/>
-    <mergeCell ref="A68:A71"/>
-    <mergeCell ref="I68:I71"/>
-    <mergeCell ref="J68:J71"/>
-    <mergeCell ref="A72:A75"/>
-    <mergeCell ref="I72:I75"/>
-    <mergeCell ref="J72:J75"/>
-    <mergeCell ref="K72:K75"/>
-    <mergeCell ref="L64:L66"/>
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="I48:I49"/>
-    <mergeCell ref="J48:J49"/>
-    <mergeCell ref="K48:K49"/>
-    <mergeCell ref="L48:L49"/>
-    <mergeCell ref="A50:A52"/>
-    <mergeCell ref="I50:I52"/>
-    <mergeCell ref="J50:J52"/>
-    <mergeCell ref="K50:K52"/>
-    <mergeCell ref="L50:L52"/>
-    <mergeCell ref="J61:J63"/>
-    <mergeCell ref="K61:K63"/>
-    <mergeCell ref="L61:L63"/>
-    <mergeCell ref="A64:A67"/>
-    <mergeCell ref="I64:I67"/>
-    <mergeCell ref="A158:A159"/>
-    <mergeCell ref="I158:I159"/>
-    <mergeCell ref="J158:J159"/>
-    <mergeCell ref="K158:K159"/>
-    <mergeCell ref="L158:L159"/>
-    <mergeCell ref="L99:L100"/>
-    <mergeCell ref="L125:L127"/>
-    <mergeCell ref="L118:L120"/>
-    <mergeCell ref="J80:J81"/>
-    <mergeCell ref="A82:A83"/>
-    <mergeCell ref="J82:J83"/>
-    <mergeCell ref="K82:K83"/>
-    <mergeCell ref="A16:A20"/>
-    <mergeCell ref="J16:J20"/>
-    <mergeCell ref="K16:K20"/>
-    <mergeCell ref="I16:I20"/>
-    <mergeCell ref="A21:A23"/>
-    <mergeCell ref="I21:I23"/>
-    <mergeCell ref="J21:J23"/>
-    <mergeCell ref="K21:K23"/>
-    <mergeCell ref="A61:A63"/>
-    <mergeCell ref="A32:A35"/>
-    <mergeCell ref="J32:J35"/>
-    <mergeCell ref="K32:K35"/>
-    <mergeCell ref="I32:I35"/>
-    <mergeCell ref="K68:K71"/>
-    <mergeCell ref="L21:L23"/>
-    <mergeCell ref="L16:L19"/>
-    <mergeCell ref="A150:A154"/>
-    <mergeCell ref="I150:I154"/>
-    <mergeCell ref="J150:J154"/>
-    <mergeCell ref="K150:K154"/>
-    <mergeCell ref="A155:A157"/>
-    <mergeCell ref="I155:I157"/>
-    <mergeCell ref="J155:J157"/>
-    <mergeCell ref="K155:K157"/>
-    <mergeCell ref="A114:A117"/>
-    <mergeCell ref="I114:I117"/>
-    <mergeCell ref="J114:J117"/>
-    <mergeCell ref="K114:K117"/>
-    <mergeCell ref="A118:A121"/>
-    <mergeCell ref="I118:I121"/>
-    <mergeCell ref="J118:J121"/>
-    <mergeCell ref="K118:K121"/>
-    <mergeCell ref="A146:A149"/>
-    <mergeCell ref="I146:I149"/>
-    <mergeCell ref="J146:J149"/>
-    <mergeCell ref="K146:K149"/>
-    <mergeCell ref="A80:A81"/>
-    <mergeCell ref="I80:I81"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0" right="0" top="1.1811023622047244E-2" bottom="0.11811023622047245" header="0" footer="0"/>

--- a/sheet/CONTROLE_DE_TERRITORIO_2022.xlsx
+++ b/sheet/CONTROLE_DE_TERRITORIO_2022.xlsx
@@ -1543,8 +1543,8 @@
   </sheetPr>
   <dimension ref="A1:L173"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A120" zoomScale="99" zoomScaleNormal="100" zoomScalePageLayoutView="45" workbookViewId="0">
-      <selection activeCell="I158" sqref="I158"/>
+    <sheetView tabSelected="1" topLeftCell="A123" zoomScale="99" zoomScaleNormal="100" zoomScalePageLayoutView="45" workbookViewId="0">
+      <selection activeCell="G67" sqref="G67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>

--- a/sheet/CONTROLE_DE_TERRITORIO_2022.xlsx
+++ b/sheet/CONTROLE_DE_TERRITORIO_2022.xlsx
@@ -15,8 +15,8 @@
     <sheet name="NOVA" sheetId="3" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">NOVA!$A$1:$L$171</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">NOVA!$A$1:$K$171</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">NOVA!$A$1:$L$172</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">NOVA!$A$1:$K$172</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="732" uniqueCount="49">
   <si>
     <t>OK</t>
   </si>
@@ -1560,10 +1560,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L171"/>
+  <dimension ref="A1:L172"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A90" zoomScale="99" zoomScaleNormal="100" zoomScalePageLayoutView="45" workbookViewId="0">
-      <selection activeCell="F104" sqref="F104"/>
+    <sheetView tabSelected="1" topLeftCell="A110" zoomScale="99" zoomScaleNormal="100" zoomScalePageLayoutView="45" workbookViewId="0">
+      <selection activeCell="E133" sqref="E133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -5393,7 +5393,7 @@
       <c r="L131" s="143"/>
     </row>
     <row r="132" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A132" s="150">
+      <c r="A132" s="124">
         <v>36</v>
       </c>
       <c r="B132" s="25" t="s">
@@ -5417,19 +5417,19 @@
       <c r="H132" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="I132" s="151" t="s">
-        <v>0</v>
-      </c>
-      <c r="J132" s="152">
+      <c r="I132" s="154" t="s">
+        <v>4</v>
+      </c>
+      <c r="J132" s="131">
         <v>152</v>
       </c>
-      <c r="K132" s="153">
+      <c r="K132" s="131">
         <v>8</v>
       </c>
       <c r="L132" s="137"/>
     </row>
     <row r="133" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A133" s="150"/>
+      <c r="A133" s="125"/>
       <c r="B133" s="30" t="s">
         <v>25</v>
       </c>
@@ -5449,13 +5449,13 @@
       <c r="H133" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="I133" s="151"/>
-      <c r="J133" s="152"/>
-      <c r="K133" s="153"/>
+      <c r="I133" s="154"/>
+      <c r="J133" s="132"/>
+      <c r="K133" s="132"/>
       <c r="L133" s="138"/>
     </row>
     <row r="134" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A134" s="150"/>
+      <c r="A134" s="125"/>
       <c r="B134" s="30" t="s">
         <v>27</v>
       </c>
@@ -5475,121 +5475,121 @@
       <c r="H134" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="I134" s="151"/>
-      <c r="J134" s="152"/>
-      <c r="K134" s="153"/>
+      <c r="I134" s="154"/>
+      <c r="J134" s="132"/>
+      <c r="K134" s="132"/>
       <c r="L134" s="138"/>
     </row>
     <row r="135" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A135" s="150"/>
-      <c r="B135" s="35" t="s">
+      <c r="A135" s="125"/>
+      <c r="B135" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="C135" s="36">
+      <c r="C135" s="32">
         <v>44857</v>
       </c>
-      <c r="D135" s="36">
+      <c r="D135" s="32">
         <v>44871</v>
       </c>
-      <c r="E135" s="36">
+      <c r="E135" s="32">
         <v>44874</v>
       </c>
-      <c r="F135" s="37" t="s">
-        <v>10</v>
-      </c>
-      <c r="G135" s="35" t="s">
+      <c r="F135" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="G135" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="H135" s="53" t="s">
+      <c r="H135" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="I135" s="151"/>
-      <c r="J135" s="152"/>
-      <c r="K135" s="153"/>
-      <c r="L135" s="139"/>
+      <c r="I135" s="154"/>
+      <c r="J135" s="132"/>
+      <c r="K135" s="132"/>
+      <c r="L135" s="138"/>
     </row>
     <row r="136" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A136" s="144">
+      <c r="A136" s="126"/>
+      <c r="B136" s="35" t="s">
+        <v>43</v>
+      </c>
+      <c r="C136" s="36">
+        <v>44890</v>
+      </c>
+      <c r="D136" s="36">
+        <v>44897</v>
+      </c>
+      <c r="E136" s="36">
+        <v>44899</v>
+      </c>
+      <c r="F136" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="G136" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="H136" s="53" t="s">
+        <v>5</v>
+      </c>
+      <c r="I136" s="154"/>
+      <c r="J136" s="133"/>
+      <c r="K136" s="133"/>
+      <c r="L136" s="139"/>
+    </row>
+    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A137" s="144">
         <v>37</v>
       </c>
-      <c r="B136" s="12" t="s">
+      <c r="B137" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="C136" s="86">
+      <c r="C137" s="86">
         <v>44822</v>
-      </c>
-      <c r="D136" s="86"/>
-      <c r="E136" s="86">
-        <v>44822</v>
-      </c>
-      <c r="F136" s="87" t="s">
-        <v>10</v>
-      </c>
-      <c r="G136" s="88" t="s">
-        <v>12</v>
-      </c>
-      <c r="H136" s="89" t="s">
-        <v>11</v>
-      </c>
-      <c r="I136" s="151" t="s">
-        <v>0</v>
-      </c>
-      <c r="J136" s="148">
-        <v>55</v>
-      </c>
-      <c r="K136" s="149">
-        <v>3</v>
-      </c>
-      <c r="L136" s="143"/>
-    </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A137" s="144"/>
-      <c r="B137" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C137" s="86">
-        <v>44847</v>
       </c>
       <c r="D137" s="86"/>
       <c r="E137" s="86">
-        <v>44850</v>
+        <v>44822</v>
       </c>
       <c r="F137" s="87" t="s">
+        <v>10</v>
+      </c>
+      <c r="G137" s="88" t="s">
+        <v>12</v>
+      </c>
+      <c r="H137" s="89" t="s">
+        <v>11</v>
+      </c>
+      <c r="I137" s="151" t="s">
+        <v>0</v>
+      </c>
+      <c r="J137" s="148">
+        <v>55</v>
+      </c>
+      <c r="K137" s="149">
         <v>3</v>
       </c>
-      <c r="G137" s="88" t="s">
-        <v>39</v>
-      </c>
-      <c r="H137" s="89" t="s">
-        <v>40</v>
-      </c>
-      <c r="I137" s="151"/>
-      <c r="J137" s="148"/>
-      <c r="K137" s="149"/>
       <c r="L137" s="143"/>
     </row>
     <row r="138" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A138" s="144"/>
-      <c r="B138" s="64" t="s">
-        <v>27</v>
-      </c>
-      <c r="C138" s="94">
-        <v>44857</v>
-      </c>
-      <c r="D138" s="72">
-        <v>44871</v>
-      </c>
-      <c r="E138" s="72">
-        <v>44875</v>
-      </c>
-      <c r="F138" s="95" t="s">
-        <v>10</v>
-      </c>
-      <c r="G138" s="96" t="s">
-        <v>9</v>
-      </c>
-      <c r="H138" s="97" t="s">
-        <v>11</v>
+      <c r="B138" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C138" s="86">
+        <v>44847</v>
+      </c>
+      <c r="D138" s="86"/>
+      <c r="E138" s="86">
+        <v>44850</v>
+      </c>
+      <c r="F138" s="87" t="s">
+        <v>3</v>
+      </c>
+      <c r="G138" s="88" t="s">
+        <v>39</v>
+      </c>
+      <c r="H138" s="89" t="s">
+        <v>40</v>
       </c>
       <c r="I138" s="151"/>
       <c r="J138" s="148"/>
@@ -5598,24 +5598,26 @@
     </row>
     <row r="139" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A139" s="144"/>
-      <c r="B139" s="82" t="s">
-        <v>41</v>
-      </c>
-      <c r="C139" s="18">
-        <v>44884</v>
-      </c>
-      <c r="D139" s="18"/>
-      <c r="E139" s="18">
-        <v>44885</v>
-      </c>
-      <c r="F139" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="G139" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="H139" s="21" t="s">
-        <v>8</v>
+      <c r="B139" s="64" t="s">
+        <v>27</v>
+      </c>
+      <c r="C139" s="94">
+        <v>44857</v>
+      </c>
+      <c r="D139" s="72">
+        <v>44871</v>
+      </c>
+      <c r="E139" s="72">
+        <v>44875</v>
+      </c>
+      <c r="F139" s="95" t="s">
+        <v>10</v>
+      </c>
+      <c r="G139" s="96" t="s">
+        <v>9</v>
+      </c>
+      <c r="H139" s="97" t="s">
+        <v>11</v>
       </c>
       <c r="I139" s="151"/>
       <c r="J139" s="148"/>
@@ -5623,82 +5625,82 @@
       <c r="L139" s="143"/>
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A140" s="150">
+      <c r="A140" s="144"/>
+      <c r="B140" s="82" t="s">
+        <v>41</v>
+      </c>
+      <c r="C140" s="18">
+        <v>44884</v>
+      </c>
+      <c r="D140" s="18"/>
+      <c r="E140" s="18">
+        <v>44885</v>
+      </c>
+      <c r="F140" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="G140" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H140" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="I140" s="151"/>
+      <c r="J140" s="148"/>
+      <c r="K140" s="149"/>
+      <c r="L140" s="143"/>
+    </row>
+    <row r="141" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A141" s="150">
         <v>38</v>
       </c>
-      <c r="B140" s="22" t="s">
+      <c r="B141" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="C140" s="23">
+      <c r="C141" s="23">
         <v>44815</v>
       </c>
-      <c r="D140" s="23"/>
-      <c r="E140" s="23">
+      <c r="D141" s="23"/>
+      <c r="E141" s="23">
         <v>44818</v>
       </c>
-      <c r="F140" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="G140" s="25" t="s">
+      <c r="F141" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="G141" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="H140" s="26" t="s">
+      <c r="H141" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="I140" s="151" t="s">
+      <c r="I141" s="151" t="s">
         <v>0</v>
       </c>
-      <c r="J140" s="152">
+      <c r="J141" s="152">
         <v>61</v>
       </c>
-      <c r="K140" s="153">
+      <c r="K141" s="153">
         <v>3</v>
       </c>
-      <c r="L140" s="134"/>
-    </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A141" s="150"/>
-      <c r="B141" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="C141" s="28">
-        <v>44829</v>
-      </c>
-      <c r="D141" s="28"/>
-      <c r="E141" s="28">
-        <v>44836</v>
-      </c>
-      <c r="F141" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="G141" s="30" t="s">
-        <v>24</v>
-      </c>
-      <c r="H141" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="I141" s="151"/>
-      <c r="J141" s="152"/>
-      <c r="K141" s="153"/>
-      <c r="L141" s="135"/>
+      <c r="L141" s="134"/>
     </row>
     <row r="142" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A142" s="150"/>
-      <c r="B142" s="27" t="s">
-        <v>27</v>
+      <c r="B142" s="22" t="s">
+        <v>25</v>
       </c>
       <c r="C142" s="28">
-        <v>44843</v>
+        <v>44829</v>
       </c>
       <c r="D142" s="28"/>
       <c r="E142" s="28">
-        <v>44843</v>
+        <v>44836</v>
       </c>
       <c r="F142" s="29" t="s">
         <v>10</v>
       </c>
       <c r="G142" s="30" t="s">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="H142" s="31" t="s">
         <v>11</v>
@@ -5711,23 +5713,23 @@
     <row r="143" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A143" s="150"/>
       <c r="B143" s="27" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="C143" s="28">
-        <v>44847</v>
+        <v>44843</v>
       </c>
       <c r="D143" s="28"/>
       <c r="E143" s="28">
-        <v>44850</v>
+        <v>44843</v>
       </c>
       <c r="F143" s="29" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="G143" s="30" t="s">
-        <v>39</v>
+        <v>2</v>
       </c>
       <c r="H143" s="31" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="I143" s="151"/>
       <c r="J143" s="152"/>
@@ -5737,25 +5739,23 @@
     <row r="144" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A144" s="150"/>
       <c r="B144" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="C144" s="49">
-        <v>44857</v>
-      </c>
-      <c r="D144" s="92">
-        <v>44871</v>
-      </c>
-      <c r="E144" s="92">
-        <v>44875</v>
-      </c>
-      <c r="F144" s="50" t="s">
-        <v>10</v>
-      </c>
-      <c r="G144" s="51" t="s">
-        <v>9</v>
-      </c>
-      <c r="H144" s="52" t="s">
-        <v>11</v>
+        <v>41</v>
+      </c>
+      <c r="C144" s="28">
+        <v>44847</v>
+      </c>
+      <c r="D144" s="28"/>
+      <c r="E144" s="28">
+        <v>44850</v>
+      </c>
+      <c r="F144" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="G144" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="H144" s="31" t="s">
+        <v>40</v>
       </c>
       <c r="I144" s="151"/>
       <c r="J144" s="152"/>
@@ -5764,110 +5764,112 @@
     </row>
     <row r="145" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A145" s="150"/>
-      <c r="B145" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="C145" s="36">
-        <v>44884</v>
-      </c>
-      <c r="D145" s="74"/>
-      <c r="E145" s="74">
-        <v>44885</v>
-      </c>
-      <c r="F145" s="37" t="s">
-        <v>7</v>
-      </c>
-      <c r="G145" s="35" t="s">
-        <v>46</v>
-      </c>
-      <c r="H145" s="53" t="s">
-        <v>8</v>
+      <c r="B145" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="C145" s="49">
+        <v>44857</v>
+      </c>
+      <c r="D145" s="92">
+        <v>44871</v>
+      </c>
+      <c r="E145" s="92">
+        <v>44875</v>
+      </c>
+      <c r="F145" s="50" t="s">
+        <v>10</v>
+      </c>
+      <c r="G145" s="51" t="s">
+        <v>9</v>
+      </c>
+      <c r="H145" s="52" t="s">
+        <v>11</v>
       </c>
       <c r="I145" s="151"/>
       <c r="J145" s="152"/>
       <c r="K145" s="153"/>
-      <c r="L145" s="136"/>
+      <c r="L145" s="135"/>
     </row>
     <row r="146" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A146" s="144">
+      <c r="A146" s="150"/>
+      <c r="B146" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="C146" s="36">
+        <v>44884</v>
+      </c>
+      <c r="D146" s="74"/>
+      <c r="E146" s="74">
+        <v>44885</v>
+      </c>
+      <c r="F146" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="G146" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H146" s="53" t="s">
+        <v>8</v>
+      </c>
+      <c r="I146" s="151"/>
+      <c r="J146" s="152"/>
+      <c r="K146" s="153"/>
+      <c r="L146" s="136"/>
+    </row>
+    <row r="147" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A147" s="144">
         <v>39</v>
       </c>
-      <c r="B146" s="12" t="s">
+      <c r="B147" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="C146" s="86">
+      <c r="C147" s="86">
         <v>44822</v>
       </c>
-      <c r="D146" s="86"/>
-      <c r="E146" s="86">
+      <c r="D147" s="86"/>
+      <c r="E147" s="86">
         <v>44822</v>
       </c>
-      <c r="F146" s="87" t="s">
-        <v>10</v>
-      </c>
-      <c r="G146" s="88" t="s">
+      <c r="F147" s="87" t="s">
+        <v>10</v>
+      </c>
+      <c r="G147" s="88" t="s">
         <v>12</v>
       </c>
-      <c r="H146" s="89" t="s">
+      <c r="H147" s="89" t="s">
         <v>11</v>
       </c>
-      <c r="I146" s="145" t="s">
+      <c r="I147" s="145" t="s">
         <v>0</v>
       </c>
-      <c r="J146" s="148">
+      <c r="J147" s="148">
         <v>20</v>
       </c>
-      <c r="K146" s="149">
+      <c r="K147" s="149">
         <v>1</v>
       </c>
-      <c r="L146" s="143"/>
-    </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A147" s="144"/>
-      <c r="B147" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C147" s="54">
-        <v>44829</v>
-      </c>
-      <c r="D147" s="54"/>
-      <c r="E147" s="54">
-        <v>44829</v>
-      </c>
-      <c r="F147" s="55" t="s">
-        <v>10</v>
-      </c>
-      <c r="G147" s="56" t="s">
-        <v>2</v>
-      </c>
-      <c r="H147" s="57" t="s">
-        <v>11</v>
-      </c>
-      <c r="I147" s="146"/>
-      <c r="J147" s="148"/>
-      <c r="K147" s="149"/>
       <c r="L147" s="143"/>
     </row>
     <row r="148" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A148" s="144"/>
       <c r="B148" s="15" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C148" s="54">
-        <v>44847</v>
+        <v>44829</v>
       </c>
       <c r="D148" s="54"/>
       <c r="E148" s="54">
-        <v>44850</v>
+        <v>44829</v>
       </c>
       <c r="F148" s="55" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="G148" s="56" t="s">
-        <v>39</v>
+        <v>2</v>
       </c>
       <c r="H148" s="57" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="I148" s="146"/>
       <c r="J148" s="148"/>
@@ -5876,26 +5878,24 @@
     </row>
     <row r="149" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A149" s="144"/>
-      <c r="B149" s="47" t="s">
-        <v>41</v>
-      </c>
-      <c r="C149" s="94">
-        <v>44857</v>
-      </c>
-      <c r="D149" s="72">
-        <v>44871</v>
-      </c>
-      <c r="E149" s="72">
-        <v>44875</v>
-      </c>
-      <c r="F149" s="95" t="s">
-        <v>10</v>
-      </c>
-      <c r="G149" s="96" t="s">
-        <v>9</v>
-      </c>
-      <c r="H149" s="97" t="s">
-        <v>11</v>
+      <c r="B149" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="C149" s="54">
+        <v>44847</v>
+      </c>
+      <c r="D149" s="54"/>
+      <c r="E149" s="54">
+        <v>44850</v>
+      </c>
+      <c r="F149" s="55" t="s">
+        <v>3</v>
+      </c>
+      <c r="G149" s="56" t="s">
+        <v>39</v>
+      </c>
+      <c r="H149" s="57" t="s">
+        <v>40</v>
       </c>
       <c r="I149" s="146"/>
       <c r="J149" s="148"/>
@@ -5904,110 +5904,112 @@
     </row>
     <row r="150" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A150" s="144"/>
-      <c r="B150" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="C150" s="98">
-        <v>44884</v>
-      </c>
-      <c r="D150" s="83"/>
-      <c r="E150" s="83">
-        <v>44885</v>
-      </c>
-      <c r="F150" s="99" t="s">
-        <v>7</v>
-      </c>
-      <c r="G150" s="100" t="s">
-        <v>46</v>
-      </c>
-      <c r="H150" s="101" t="s">
-        <v>8</v>
-      </c>
-      <c r="I150" s="147"/>
+      <c r="B150" s="47" t="s">
+        <v>41</v>
+      </c>
+      <c r="C150" s="94">
+        <v>44857</v>
+      </c>
+      <c r="D150" s="72">
+        <v>44871</v>
+      </c>
+      <c r="E150" s="72">
+        <v>44875</v>
+      </c>
+      <c r="F150" s="95" t="s">
+        <v>10</v>
+      </c>
+      <c r="G150" s="96" t="s">
+        <v>9</v>
+      </c>
+      <c r="H150" s="97" t="s">
+        <v>11</v>
+      </c>
+      <c r="I150" s="146"/>
       <c r="J150" s="148"/>
       <c r="K150" s="149"/>
       <c r="L150" s="143"/>
     </row>
     <row r="151" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A151" s="150">
+      <c r="A151" s="144"/>
+      <c r="B151" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="C151" s="98">
+        <v>44884</v>
+      </c>
+      <c r="D151" s="83"/>
+      <c r="E151" s="83">
+        <v>44885</v>
+      </c>
+      <c r="F151" s="99" t="s">
+        <v>7</v>
+      </c>
+      <c r="G151" s="100" t="s">
+        <v>46</v>
+      </c>
+      <c r="H151" s="101" t="s">
+        <v>8</v>
+      </c>
+      <c r="I151" s="147"/>
+      <c r="J151" s="148"/>
+      <c r="K151" s="149"/>
+      <c r="L151" s="143"/>
+    </row>
+    <row r="152" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A152" s="150">
         <v>40</v>
       </c>
-      <c r="B151" s="25" t="s">
+      <c r="B152" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="C151" s="23">
+      <c r="C152" s="23">
         <v>44822</v>
       </c>
-      <c r="D151" s="23"/>
-      <c r="E151" s="23">
+      <c r="D152" s="23"/>
+      <c r="E152" s="23">
         <v>44822</v>
       </c>
-      <c r="F151" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="G151" s="25" t="s">
+      <c r="F152" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="G152" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="H151" s="26" t="s">
+      <c r="H152" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="I151" s="151" t="s">
+      <c r="I152" s="151" t="s">
         <v>0</v>
       </c>
-      <c r="J151" s="152">
+      <c r="J152" s="152">
         <v>17</v>
       </c>
-      <c r="K151" s="153">
+      <c r="K152" s="153">
         <v>1</v>
       </c>
-      <c r="L151" s="134"/>
-    </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A152" s="150"/>
-      <c r="B152" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="C152" s="28">
-        <v>44829</v>
-      </c>
-      <c r="D152" s="28"/>
-      <c r="E152" s="28">
-        <v>44829</v>
-      </c>
-      <c r="F152" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="G152" s="30" t="s">
-        <v>2</v>
-      </c>
-      <c r="H152" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="I152" s="151"/>
-      <c r="J152" s="152"/>
-      <c r="K152" s="153"/>
-      <c r="L152" s="135"/>
+      <c r="L152" s="134"/>
     </row>
     <row r="153" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A153" s="150"/>
-      <c r="B153" s="30" t="s">
-        <v>27</v>
+      <c r="B153" s="25" t="s">
+        <v>25</v>
       </c>
       <c r="C153" s="28">
-        <v>44847</v>
+        <v>44829</v>
       </c>
       <c r="D153" s="28"/>
       <c r="E153" s="28">
-        <v>44850</v>
+        <v>44829</v>
       </c>
       <c r="F153" s="29" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="G153" s="30" t="s">
-        <v>39</v>
+        <v>2</v>
       </c>
       <c r="H153" s="31" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="I153" s="151"/>
       <c r="J153" s="152"/>
@@ -6016,26 +6018,24 @@
     </row>
     <row r="154" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A154" s="150"/>
-      <c r="B154" s="51" t="s">
-        <v>41</v>
-      </c>
-      <c r="C154" s="49">
-        <v>44857</v>
-      </c>
-      <c r="D154" s="92">
-        <v>44871</v>
-      </c>
-      <c r="E154" s="92">
-        <v>44875</v>
-      </c>
-      <c r="F154" s="50" t="s">
-        <v>10</v>
-      </c>
-      <c r="G154" s="51" t="s">
-        <v>9</v>
-      </c>
-      <c r="H154" s="52" t="s">
-        <v>11</v>
+      <c r="B154" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="C154" s="28">
+        <v>44847</v>
+      </c>
+      <c r="D154" s="28"/>
+      <c r="E154" s="28">
+        <v>44850</v>
+      </c>
+      <c r="F154" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="G154" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="H154" s="31" t="s">
+        <v>40</v>
       </c>
       <c r="I154" s="151"/>
       <c r="J154" s="152"/>
@@ -6044,128 +6044,130 @@
     </row>
     <row r="155" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A155" s="150"/>
-      <c r="B155" s="35" t="s">
-        <v>44</v>
-      </c>
-      <c r="C155" s="36">
-        <v>44884</v>
-      </c>
-      <c r="D155" s="74"/>
-      <c r="E155" s="74">
-        <v>44885</v>
-      </c>
-      <c r="F155" s="37" t="s">
-        <v>7</v>
-      </c>
-      <c r="G155" s="35" t="s">
-        <v>46</v>
-      </c>
-      <c r="H155" s="53" t="s">
-        <v>8</v>
+      <c r="B155" s="51" t="s">
+        <v>41</v>
+      </c>
+      <c r="C155" s="49">
+        <v>44857</v>
+      </c>
+      <c r="D155" s="92">
+        <v>44871</v>
+      </c>
+      <c r="E155" s="92">
+        <v>44875</v>
+      </c>
+      <c r="F155" s="50" t="s">
+        <v>10</v>
+      </c>
+      <c r="G155" s="51" t="s">
+        <v>9</v>
+      </c>
+      <c r="H155" s="52" t="s">
+        <v>11</v>
       </c>
       <c r="I155" s="151"/>
       <c r="J155" s="152"/>
       <c r="K155" s="153"/>
-      <c r="L155" s="136"/>
+      <c r="L155" s="135"/>
     </row>
     <row r="156" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A156" s="108">
+      <c r="A156" s="150"/>
+      <c r="B156" s="35" t="s">
+        <v>44</v>
+      </c>
+      <c r="C156" s="36">
+        <v>44884</v>
+      </c>
+      <c r="D156" s="74"/>
+      <c r="E156" s="74">
+        <v>44885</v>
+      </c>
+      <c r="F156" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="G156" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H156" s="53" t="s">
+        <v>8</v>
+      </c>
+      <c r="I156" s="151"/>
+      <c r="J156" s="152"/>
+      <c r="K156" s="153"/>
+      <c r="L156" s="136"/>
+    </row>
+    <row r="157" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A157" s="108">
         <v>41</v>
       </c>
-      <c r="B156" s="109"/>
-      <c r="C156" s="110"/>
-      <c r="D156" s="110"/>
-      <c r="E156" s="110"/>
-      <c r="F156" s="109"/>
-      <c r="G156" s="109"/>
-      <c r="H156" s="111"/>
-      <c r="I156" s="176" t="s">
+      <c r="B157" s="109"/>
+      <c r="C157" s="110"/>
+      <c r="D157" s="110"/>
+      <c r="E157" s="110"/>
+      <c r="F157" s="109"/>
+      <c r="G157" s="109"/>
+      <c r="H157" s="111"/>
+      <c r="I157" s="176" t="s">
         <v>0</v>
       </c>
-      <c r="J156" s="112"/>
-      <c r="K156" s="109"/>
-      <c r="L156" s="113"/>
-    </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A157" s="150">
+      <c r="J157" s="112"/>
+      <c r="K157" s="109"/>
+      <c r="L157" s="113"/>
+    </row>
+    <row r="158" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A158" s="150">
         <v>42</v>
       </c>
-      <c r="B157" s="22" t="s">
+      <c r="B158" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="C157" s="32">
+      <c r="C158" s="32">
         <v>44822</v>
-      </c>
-      <c r="D157" s="32"/>
-      <c r="E157" s="32">
-        <v>44822</v>
-      </c>
-      <c r="F157" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="G157" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="H157" s="34" t="s">
-        <v>11</v>
-      </c>
-      <c r="I157" s="151" t="s">
-        <v>0</v>
-      </c>
-      <c r="J157" s="152">
-        <v>41</v>
-      </c>
-      <c r="K157" s="153">
-        <v>3</v>
-      </c>
-      <c r="L157" s="134"/>
-    </row>
-    <row r="158" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A158" s="150"/>
-      <c r="B158" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="C158" s="32">
-        <v>44839</v>
       </c>
       <c r="D158" s="32"/>
       <c r="E158" s="32">
-        <v>44839</v>
+        <v>44822</v>
       </c>
       <c r="F158" s="33" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="G158" s="27" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="H158" s="34" t="s">
-        <v>1</v>
-      </c>
-      <c r="I158" s="151"/>
-      <c r="J158" s="152"/>
-      <c r="K158" s="153"/>
-      <c r="L158" s="135"/>
+        <v>11</v>
+      </c>
+      <c r="I158" s="151" t="s">
+        <v>0</v>
+      </c>
+      <c r="J158" s="152">
+        <v>41</v>
+      </c>
+      <c r="K158" s="153">
+        <v>3</v>
+      </c>
+      <c r="L158" s="134"/>
     </row>
     <row r="159" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="150"/>
       <c r="B159" s="27" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C159" s="32">
-        <v>44863</v>
+        <v>44839</v>
       </c>
       <c r="D159" s="32"/>
       <c r="E159" s="32">
-        <v>44864</v>
+        <v>44839</v>
       </c>
       <c r="F159" s="33" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="G159" s="27" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="H159" s="34" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="I159" s="151"/>
       <c r="J159" s="152"/>
@@ -6174,114 +6176,114 @@
     </row>
     <row r="160" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="150"/>
-      <c r="B160" s="35" t="s">
-        <v>41</v>
-      </c>
-      <c r="C160" s="36">
-        <v>44878</v>
-      </c>
-      <c r="D160" s="36">
-        <v>44885</v>
-      </c>
-      <c r="E160" s="36">
-        <v>44888</v>
-      </c>
-      <c r="F160" s="37" t="s">
-        <v>10</v>
-      </c>
-      <c r="G160" s="35" t="s">
-        <v>46</v>
-      </c>
-      <c r="H160" s="53" t="s">
-        <v>11</v>
+      <c r="B160" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="C160" s="32">
+        <v>44863</v>
+      </c>
+      <c r="D160" s="32"/>
+      <c r="E160" s="32">
+        <v>44864</v>
+      </c>
+      <c r="F160" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="G160" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="H160" s="34" t="s">
+        <v>8</v>
       </c>
       <c r="I160" s="151"/>
       <c r="J160" s="152"/>
       <c r="K160" s="153"/>
-      <c r="L160" s="136"/>
-    </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A161" s="144">
+      <c r="L160" s="135"/>
+    </row>
+    <row r="161" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A161" s="150"/>
+      <c r="B161" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="C161" s="36">
+        <v>44878</v>
+      </c>
+      <c r="D161" s="36">
+        <v>44885</v>
+      </c>
+      <c r="E161" s="36">
+        <v>44888</v>
+      </c>
+      <c r="F161" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="G161" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H161" s="53" t="s">
+        <v>11</v>
+      </c>
+      <c r="I161" s="151"/>
+      <c r="J161" s="152"/>
+      <c r="K161" s="153"/>
+      <c r="L161" s="136"/>
+    </row>
+    <row r="162" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A162" s="144">
         <v>43</v>
       </c>
-      <c r="B161" s="12" t="s">
+      <c r="B162" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="C161" s="54">
+      <c r="C162" s="54">
         <v>44815</v>
       </c>
-      <c r="D161" s="54">
+      <c r="D162" s="54">
         <v>44822</v>
       </c>
-      <c r="E161" s="54">
+      <c r="E162" s="54">
         <v>44822</v>
       </c>
-      <c r="F161" s="55" t="s">
-        <v>10</v>
-      </c>
-      <c r="G161" s="56" t="s">
+      <c r="F162" s="55" t="s">
+        <v>10</v>
+      </c>
+      <c r="G162" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="H161" s="57" t="s">
+      <c r="H162" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="I161" s="151" t="s">
+      <c r="I162" s="151" t="s">
         <v>0</v>
       </c>
-      <c r="J161" s="148">
+      <c r="J162" s="148">
         <v>77</v>
       </c>
-      <c r="K161" s="149">
+      <c r="K162" s="149">
         <v>4</v>
       </c>
-      <c r="L161" s="143"/>
-    </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A162" s="144"/>
-      <c r="B162" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C162" s="54">
-        <v>44839</v>
-      </c>
-      <c r="D162" s="54"/>
-      <c r="E162" s="54">
-        <v>44839</v>
-      </c>
-      <c r="F162" s="55" t="s">
-        <v>23</v>
-      </c>
-      <c r="G162" s="56" t="s">
-        <v>2</v>
-      </c>
-      <c r="H162" s="57" t="s">
-        <v>1</v>
-      </c>
-      <c r="I162" s="151"/>
-      <c r="J162" s="148"/>
-      <c r="K162" s="149"/>
       <c r="L162" s="143"/>
     </row>
     <row r="163" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A163" s="144"/>
       <c r="B163" s="15" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C163" s="54">
-        <v>44848</v>
+        <v>44839</v>
       </c>
       <c r="D163" s="54"/>
       <c r="E163" s="54">
-        <v>44850</v>
+        <v>44839</v>
       </c>
       <c r="F163" s="55" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="G163" s="56" t="s">
-        <v>39</v>
+        <v>2</v>
       </c>
       <c r="H163" s="57" t="s">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="I163" s="151"/>
       <c r="J163" s="148"/>
@@ -6290,24 +6292,24 @@
     </row>
     <row r="164" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A164" s="144"/>
-      <c r="B164" s="47" t="s">
-        <v>41</v>
-      </c>
-      <c r="C164" s="79">
-        <v>44863</v>
-      </c>
-      <c r="D164" s="79"/>
-      <c r="E164" s="79">
-        <v>44864</v>
-      </c>
-      <c r="F164" s="80" t="s">
-        <v>7</v>
-      </c>
-      <c r="G164" s="47" t="s">
-        <v>18</v>
-      </c>
-      <c r="H164" s="81" t="s">
-        <v>8</v>
+      <c r="B164" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="C164" s="54">
+        <v>44848</v>
+      </c>
+      <c r="D164" s="54"/>
+      <c r="E164" s="54">
+        <v>44850</v>
+      </c>
+      <c r="F164" s="55" t="s">
+        <v>6</v>
+      </c>
+      <c r="G164" s="56" t="s">
+        <v>39</v>
+      </c>
+      <c r="H164" s="57" t="s">
+        <v>40</v>
       </c>
       <c r="I164" s="151"/>
       <c r="J164" s="148"/>
@@ -6316,26 +6318,24 @@
     </row>
     <row r="165" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A165" s="144"/>
-      <c r="B165" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="C165" s="83">
-        <v>44878</v>
-      </c>
-      <c r="D165" s="83">
-        <v>44885</v>
-      </c>
-      <c r="E165" s="83">
-        <v>44888</v>
-      </c>
-      <c r="F165" s="84" t="s">
-        <v>10</v>
-      </c>
-      <c r="G165" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="H165" s="85" t="s">
-        <v>11</v>
+      <c r="B165" s="47" t="s">
+        <v>41</v>
+      </c>
+      <c r="C165" s="79">
+        <v>44863</v>
+      </c>
+      <c r="D165" s="79"/>
+      <c r="E165" s="79">
+        <v>44864</v>
+      </c>
+      <c r="F165" s="80" t="s">
+        <v>7</v>
+      </c>
+      <c r="G165" s="47" t="s">
+        <v>18</v>
+      </c>
+      <c r="H165" s="81" t="s">
+        <v>8</v>
       </c>
       <c r="I165" s="151"/>
       <c r="J165" s="148"/>
@@ -6343,188 +6343,216 @@
       <c r="L165" s="143"/>
     </row>
     <row r="166" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A166" s="150">
+      <c r="A166" s="144"/>
+      <c r="B166" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="B166" s="25" t="s">
+      <c r="C166" s="83">
+        <v>44878</v>
+      </c>
+      <c r="D166" s="83">
+        <v>44885</v>
+      </c>
+      <c r="E166" s="83">
+        <v>44888</v>
+      </c>
+      <c r="F166" s="84" t="s">
+        <v>10</v>
+      </c>
+      <c r="G166" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H166" s="85" t="s">
+        <v>11</v>
+      </c>
+      <c r="I166" s="151"/>
+      <c r="J166" s="148"/>
+      <c r="K166" s="149"/>
+      <c r="L166" s="143"/>
+    </row>
+    <row r="167" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A167" s="150">
+        <v>44</v>
+      </c>
+      <c r="B167" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="C166" s="28">
+      <c r="C167" s="28">
         <v>44848</v>
       </c>
-      <c r="D166" s="28"/>
-      <c r="E166" s="28">
+      <c r="D167" s="28"/>
+      <c r="E167" s="28">
         <v>44850</v>
       </c>
-      <c r="F166" s="29" t="s">
+      <c r="F167" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="G166" s="30" t="s">
+      <c r="G167" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="H166" s="31" t="s">
+      <c r="H167" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="I166" s="151" t="s">
+      <c r="I167" s="151" t="s">
         <v>0</v>
       </c>
-      <c r="J166" s="152">
+      <c r="J167" s="152">
         <v>39</v>
       </c>
-      <c r="K166" s="153">
+      <c r="K167" s="153">
         <v>3</v>
       </c>
-      <c r="L166" s="134"/>
-    </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A167" s="150"/>
-      <c r="B167" s="30" t="s">
-        <v>25</v>
-      </c>
-      <c r="C167" s="32">
-        <v>44863</v>
-      </c>
-      <c r="D167" s="32"/>
-      <c r="E167" s="32">
-        <v>44864</v>
-      </c>
-      <c r="F167" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="G167" s="27" t="s">
-        <v>18</v>
-      </c>
-      <c r="H167" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="I167" s="151"/>
-      <c r="J167" s="152"/>
-      <c r="K167" s="153"/>
-      <c r="L167" s="135"/>
+      <c r="L167" s="134"/>
     </row>
     <row r="168" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A168" s="150"/>
-      <c r="B168" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="C168" s="36">
-        <v>44878</v>
-      </c>
-      <c r="D168" s="36">
-        <v>44885</v>
-      </c>
-      <c r="E168" s="36">
-        <v>44888</v>
-      </c>
-      <c r="F168" s="37" t="s">
-        <v>10</v>
-      </c>
-      <c r="G168" s="35" t="s">
-        <v>46</v>
-      </c>
-      <c r="H168" s="53" t="s">
-        <v>11</v>
+      <c r="B168" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="C168" s="32">
+        <v>44863</v>
+      </c>
+      <c r="D168" s="32"/>
+      <c r="E168" s="32">
+        <v>44864</v>
+      </c>
+      <c r="F168" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="G168" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="H168" s="34" t="s">
+        <v>8</v>
       </c>
       <c r="I168" s="151"/>
       <c r="J168" s="152"/>
       <c r="K168" s="153"/>
-      <c r="L168" s="136"/>
+      <c r="L168" s="135"/>
     </row>
     <row r="169" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A169" s="144">
+      <c r="A169" s="150"/>
+      <c r="B169" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="C169" s="36">
+        <v>44878</v>
+      </c>
+      <c r="D169" s="36">
+        <v>44885</v>
+      </c>
+      <c r="E169" s="36">
+        <v>44888</v>
+      </c>
+      <c r="F169" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="G169" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H169" s="53" t="s">
+        <v>11</v>
+      </c>
+      <c r="I169" s="151"/>
+      <c r="J169" s="152"/>
+      <c r="K169" s="153"/>
+      <c r="L169" s="136"/>
+    </row>
+    <row r="170" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A170" s="144">
         <v>45</v>
       </c>
-      <c r="B169" s="12" t="s">
+      <c r="B170" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="C169" s="54">
+      <c r="C170" s="54">
         <v>44829</v>
-      </c>
-      <c r="D169" s="54"/>
-      <c r="E169" s="54">
-        <v>44829</v>
-      </c>
-      <c r="F169" s="55" t="s">
-        <v>10</v>
-      </c>
-      <c r="G169" s="56" t="s">
-        <v>9</v>
-      </c>
-      <c r="H169" s="56" t="s">
-        <v>11</v>
-      </c>
-      <c r="I169" s="151" t="s">
-        <v>0</v>
-      </c>
-      <c r="J169" s="149">
-        <v>53</v>
-      </c>
-      <c r="K169" s="149">
-        <v>3</v>
-      </c>
-      <c r="L169" s="143"/>
-    </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A170" s="144"/>
-      <c r="B170" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C170" s="54">
-        <v>44848</v>
       </c>
       <c r="D170" s="54"/>
       <c r="E170" s="54">
         <v>44829</v>
       </c>
       <c r="F170" s="55" t="s">
+        <v>10</v>
+      </c>
+      <c r="G170" s="56" t="s">
+        <v>9</v>
+      </c>
+      <c r="H170" s="56" t="s">
+        <v>11</v>
+      </c>
+      <c r="I170" s="151" t="s">
+        <v>0</v>
+      </c>
+      <c r="J170" s="149">
+        <v>53</v>
+      </c>
+      <c r="K170" s="149">
+        <v>3</v>
+      </c>
+      <c r="L170" s="143"/>
+    </row>
+    <row r="171" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A171" s="144"/>
+      <c r="B171" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C171" s="54">
+        <v>44848</v>
+      </c>
+      <c r="D171" s="54"/>
+      <c r="E171" s="54">
+        <v>44829</v>
+      </c>
+      <c r="F171" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="G170" s="56" t="s">
+      <c r="G171" s="56" t="s">
         <v>39</v>
       </c>
-      <c r="H170" s="56" t="s">
+      <c r="H171" s="56" t="s">
         <v>40</v>
       </c>
-      <c r="I170" s="151"/>
-      <c r="J170" s="149"/>
-      <c r="K170" s="149"/>
-      <c r="L170" s="143"/>
-    </row>
-    <row r="171" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A171" s="172"/>
-      <c r="B171" s="102" t="s">
+      <c r="I171" s="151"/>
+      <c r="J171" s="149"/>
+      <c r="K171" s="149"/>
+      <c r="L171" s="143"/>
+    </row>
+    <row r="172" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A172" s="172"/>
+      <c r="B172" s="102" t="s">
         <v>27</v>
       </c>
-      <c r="C171" s="103">
+      <c r="C172" s="103">
         <v>44878</v>
       </c>
-      <c r="D171" s="103">
+      <c r="D172" s="103">
         <v>44885</v>
       </c>
-      <c r="E171" s="103">
+      <c r="E172" s="103">
         <v>44888</v>
       </c>
-      <c r="F171" s="104" t="s">
-        <v>10</v>
-      </c>
-      <c r="G171" s="105" t="s">
+      <c r="F172" s="104" t="s">
+        <v>10</v>
+      </c>
+      <c r="G172" s="105" t="s">
         <v>24</v>
       </c>
-      <c r="H171" s="105" t="s">
+      <c r="H172" s="105" t="s">
         <v>11</v>
       </c>
-      <c r="I171" s="177"/>
-      <c r="J171" s="173"/>
-      <c r="K171" s="173"/>
-      <c r="L171" s="174"/>
+      <c r="I172" s="177"/>
+      <c r="J172" s="173"/>
+      <c r="K172" s="173"/>
+      <c r="L172" s="174"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L171"/>
+  <autoFilter ref="A1:L172"/>
   <mergeCells count="210">
-    <mergeCell ref="A157:A160"/>
-    <mergeCell ref="I157:I160"/>
-    <mergeCell ref="J157:J160"/>
-    <mergeCell ref="K157:K160"/>
+    <mergeCell ref="A158:A161"/>
+    <mergeCell ref="I158:I161"/>
+    <mergeCell ref="J158:J161"/>
+    <mergeCell ref="K158:K161"/>
     <mergeCell ref="J129:J131"/>
     <mergeCell ref="K129:K131"/>
     <mergeCell ref="L129:L131"/>
@@ -6538,6 +6566,11 @@
     <mergeCell ref="J105:J109"/>
     <mergeCell ref="K105:K109"/>
     <mergeCell ref="A110:A115"/>
+    <mergeCell ref="A132:A136"/>
+    <mergeCell ref="I132:I136"/>
+    <mergeCell ref="J132:J136"/>
+    <mergeCell ref="K132:K136"/>
+    <mergeCell ref="L132:L136"/>
     <mergeCell ref="I78:I81"/>
     <mergeCell ref="J78:J81"/>
     <mergeCell ref="K78:K81"/>
@@ -6551,10 +6584,6 @@
     <mergeCell ref="K125:K128"/>
     <mergeCell ref="A86:A87"/>
     <mergeCell ref="I86:I87"/>
-    <mergeCell ref="A132:A135"/>
-    <mergeCell ref="I132:I135"/>
-    <mergeCell ref="J132:J135"/>
-    <mergeCell ref="K132:K135"/>
     <mergeCell ref="K86:K87"/>
     <mergeCell ref="A82:A85"/>
     <mergeCell ref="I95:I98"/>
@@ -6579,23 +6608,23 @@
     <mergeCell ref="I66:I69"/>
     <mergeCell ref="J66:J69"/>
     <mergeCell ref="K66:K69"/>
-    <mergeCell ref="A169:A171"/>
-    <mergeCell ref="I169:I171"/>
-    <mergeCell ref="J169:J171"/>
-    <mergeCell ref="K169:K171"/>
-    <mergeCell ref="L169:L171"/>
+    <mergeCell ref="A170:A172"/>
+    <mergeCell ref="I170:I172"/>
+    <mergeCell ref="J170:J172"/>
+    <mergeCell ref="K170:K172"/>
+    <mergeCell ref="L170:L172"/>
     <mergeCell ref="J86:J87"/>
     <mergeCell ref="L125:L128"/>
     <mergeCell ref="L121:L124"/>
-    <mergeCell ref="L161:L165"/>
-    <mergeCell ref="A161:A165"/>
-    <mergeCell ref="I161:I165"/>
-    <mergeCell ref="J161:J165"/>
-    <mergeCell ref="K161:K165"/>
-    <mergeCell ref="A166:A168"/>
-    <mergeCell ref="I166:I168"/>
-    <mergeCell ref="J166:J168"/>
-    <mergeCell ref="K166:K168"/>
+    <mergeCell ref="L162:L166"/>
+    <mergeCell ref="A162:A166"/>
+    <mergeCell ref="I162:I166"/>
+    <mergeCell ref="J162:J166"/>
+    <mergeCell ref="K162:K166"/>
+    <mergeCell ref="A167:A169"/>
+    <mergeCell ref="I167:I169"/>
+    <mergeCell ref="J167:J169"/>
+    <mergeCell ref="K167:K169"/>
     <mergeCell ref="A121:A124"/>
     <mergeCell ref="I121:I124"/>
     <mergeCell ref="J121:J124"/>
@@ -6679,28 +6708,27 @@
     <mergeCell ref="K116:K120"/>
     <mergeCell ref="A125:A128"/>
     <mergeCell ref="I125:I128"/>
-    <mergeCell ref="A136:A139"/>
-    <mergeCell ref="I136:I139"/>
-    <mergeCell ref="J136:J139"/>
-    <mergeCell ref="K136:K139"/>
-    <mergeCell ref="L136:L139"/>
-    <mergeCell ref="A140:A145"/>
-    <mergeCell ref="I140:I145"/>
-    <mergeCell ref="J140:J145"/>
-    <mergeCell ref="K140:K145"/>
-    <mergeCell ref="A146:A150"/>
-    <mergeCell ref="I146:I150"/>
-    <mergeCell ref="J146:J150"/>
-    <mergeCell ref="K146:K150"/>
-    <mergeCell ref="L146:L150"/>
-    <mergeCell ref="A151:A155"/>
-    <mergeCell ref="I151:I155"/>
-    <mergeCell ref="J151:J155"/>
-    <mergeCell ref="K151:K155"/>
-    <mergeCell ref="L166:L168"/>
-    <mergeCell ref="L151:L155"/>
-    <mergeCell ref="L140:L145"/>
-    <mergeCell ref="L132:L135"/>
+    <mergeCell ref="A137:A140"/>
+    <mergeCell ref="I137:I140"/>
+    <mergeCell ref="J137:J140"/>
+    <mergeCell ref="K137:K140"/>
+    <mergeCell ref="L137:L140"/>
+    <mergeCell ref="A141:A146"/>
+    <mergeCell ref="I141:I146"/>
+    <mergeCell ref="J141:J146"/>
+    <mergeCell ref="K141:K146"/>
+    <mergeCell ref="A147:A151"/>
+    <mergeCell ref="I147:I151"/>
+    <mergeCell ref="J147:J151"/>
+    <mergeCell ref="K147:K151"/>
+    <mergeCell ref="L147:L151"/>
+    <mergeCell ref="A152:A156"/>
+    <mergeCell ref="I152:I156"/>
+    <mergeCell ref="J152:J156"/>
+    <mergeCell ref="K152:K156"/>
+    <mergeCell ref="L167:L169"/>
+    <mergeCell ref="L152:L156"/>
+    <mergeCell ref="L141:L146"/>
     <mergeCell ref="L32:L34"/>
     <mergeCell ref="L58:L60"/>
     <mergeCell ref="L62:L65"/>
@@ -6716,7 +6744,7 @@
     <mergeCell ref="L35:L38"/>
     <mergeCell ref="L49:L51"/>
     <mergeCell ref="L95:L98"/>
-    <mergeCell ref="L157:L160"/>
+    <mergeCell ref="L158:L161"/>
     <mergeCell ref="L66:L69"/>
     <mergeCell ref="L74:L77"/>
     <mergeCell ref="L82:L85"/>

--- a/sheet/CONTROLE_DE_TERRITORIO_2022.xlsx
+++ b/sheet/CONTROLE_DE_TERRITORIO_2022.xlsx
@@ -15,8 +15,8 @@
     <sheet name="NOVA" sheetId="3" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">NOVA!$A$1:$L$172</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">NOVA!$A$1:$K$172</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">NOVA!$A$1:$L$177</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">NOVA!$A$1:$K$177</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="732" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="752" uniqueCount="49">
   <si>
     <t>OK</t>
   </si>
@@ -184,7 +184,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-416]dddd"/>
   </numFmts>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -317,6 +317,12 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="2" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="9">
     <fill>
@@ -739,7 +745,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="178">
+  <cellXfs count="190">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1110,6 +1116,42 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="4" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="6" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1119,25 +1161,121 @@
     <xf numFmtId="0" fontId="7" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="3" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="15" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="16" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="17" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="3" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1149,127 +1287,31 @@
     <xf numFmtId="0" fontId="6" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="15" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="16" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="17" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="3" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="20" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1560,10 +1602,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L172"/>
+  <dimension ref="A1:L177"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A110" zoomScale="99" zoomScaleNormal="100" zoomScalePageLayoutView="45" workbookViewId="0">
-      <selection activeCell="E133" sqref="E133"/>
+    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="99" zoomScaleNormal="100" zoomScalePageLayoutView="45" workbookViewId="0">
+      <selection activeCell="H56" sqref="H56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1624,7 +1666,7 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="169">
+      <c r="A2" s="159">
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
@@ -1646,19 +1688,19 @@
       <c r="H2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="151" t="s">
+      <c r="I2" s="129" t="s">
         <v>0</v>
       </c>
-      <c r="J2" s="157">
+      <c r="J2" s="165">
         <v>5</v>
       </c>
-      <c r="K2" s="160">
+      <c r="K2" s="155">
         <v>1</v>
       </c>
-      <c r="L2" s="142"/>
+      <c r="L2" s="166"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="161"/>
+      <c r="A3" s="152"/>
       <c r="B3" s="12" t="s">
         <v>25</v>
       </c>
@@ -1678,13 +1720,13 @@
       <c r="H3" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="I3" s="151"/>
-      <c r="J3" s="148"/>
-      <c r="K3" s="149"/>
-      <c r="L3" s="143"/>
+      <c r="I3" s="129"/>
+      <c r="J3" s="132"/>
+      <c r="K3" s="133"/>
+      <c r="L3" s="134"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="161"/>
+      <c r="A4" s="152"/>
       <c r="B4" s="15" t="s">
         <v>27</v>
       </c>
@@ -1704,13 +1746,13 @@
       <c r="H4" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="151"/>
-      <c r="J4" s="148"/>
-      <c r="K4" s="149"/>
-      <c r="L4" s="143"/>
+      <c r="I4" s="129"/>
+      <c r="J4" s="132"/>
+      <c r="K4" s="133"/>
+      <c r="L4" s="134"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="161"/>
+      <c r="A5" s="152"/>
       <c r="B5" s="15" t="s">
         <v>41</v>
       </c>
@@ -1730,13 +1772,13 @@
       <c r="H5" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="151"/>
-      <c r="J5" s="148"/>
-      <c r="K5" s="149"/>
-      <c r="L5" s="143"/>
+      <c r="I5" s="129"/>
+      <c r="J5" s="132"/>
+      <c r="K5" s="133"/>
+      <c r="L5" s="134"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="161"/>
+      <c r="A6" s="152"/>
       <c r="B6" s="15" t="s">
         <v>44</v>
       </c>
@@ -1756,13 +1798,13 @@
       <c r="H6" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="I6" s="151"/>
-      <c r="J6" s="148"/>
-      <c r="K6" s="149"/>
-      <c r="L6" s="143"/>
+      <c r="I6" s="129"/>
+      <c r="J6" s="132"/>
+      <c r="K6" s="133"/>
+      <c r="L6" s="134"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="161"/>
+      <c r="A7" s="152"/>
       <c r="B7" s="17" t="s">
         <v>45</v>
       </c>
@@ -1784,13 +1826,13 @@
       <c r="H7" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="I7" s="151"/>
-      <c r="J7" s="148"/>
-      <c r="K7" s="149"/>
-      <c r="L7" s="143"/>
+      <c r="I7" s="129"/>
+      <c r="J7" s="132"/>
+      <c r="K7" s="133"/>
+      <c r="L7" s="134"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="124">
+      <c r="A8" s="136">
         <v>2</v>
       </c>
       <c r="B8" s="22" t="s">
@@ -1812,19 +1854,19 @@
       <c r="H8" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="I8" s="127" t="s">
+      <c r="I8" s="169" t="s">
         <v>4</v>
       </c>
-      <c r="J8" s="128">
+      <c r="J8" s="140">
         <v>60</v>
       </c>
-      <c r="K8" s="131">
+      <c r="K8" s="143">
         <v>4</v>
       </c>
-      <c r="L8" s="134"/>
+      <c r="L8" s="178"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="125"/>
+      <c r="A9" s="137"/>
       <c r="B9" s="22" t="s">
         <v>25</v>
       </c>
@@ -1846,13 +1888,13 @@
       <c r="H9" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="I9" s="127"/>
-      <c r="J9" s="129"/>
-      <c r="K9" s="132"/>
-      <c r="L9" s="135"/>
+      <c r="I9" s="169"/>
+      <c r="J9" s="141"/>
+      <c r="K9" s="144"/>
+      <c r="L9" s="179"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="125"/>
+      <c r="A10" s="137"/>
       <c r="B10" s="27" t="s">
         <v>27</v>
       </c>
@@ -1872,13 +1914,13 @@
       <c r="H10" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="I10" s="127"/>
-      <c r="J10" s="129"/>
-      <c r="K10" s="132"/>
-      <c r="L10" s="135"/>
+      <c r="I10" s="169"/>
+      <c r="J10" s="141"/>
+      <c r="K10" s="144"/>
+      <c r="L10" s="179"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="125"/>
+      <c r="A11" s="137"/>
       <c r="B11" s="27" t="s">
         <v>41</v>
       </c>
@@ -1898,13 +1940,13 @@
       <c r="H11" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="I11" s="127"/>
-      <c r="J11" s="129"/>
-      <c r="K11" s="132"/>
-      <c r="L11" s="135"/>
+      <c r="I11" s="169"/>
+      <c r="J11" s="141"/>
+      <c r="K11" s="144"/>
+      <c r="L11" s="179"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="125"/>
+      <c r="A12" s="137"/>
       <c r="B12" s="27" t="s">
         <v>44</v>
       </c>
@@ -1924,13 +1966,13 @@
       <c r="H12" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="I12" s="127"/>
-      <c r="J12" s="129"/>
-      <c r="K12" s="132"/>
-      <c r="L12" s="135"/>
+      <c r="I12" s="169"/>
+      <c r="J12" s="141"/>
+      <c r="K12" s="144"/>
+      <c r="L12" s="179"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="125"/>
+      <c r="A13" s="137"/>
       <c r="B13" s="27" t="s">
         <v>45</v>
       </c>
@@ -1950,13 +1992,13 @@
       <c r="H13" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="I13" s="127"/>
-      <c r="J13" s="129"/>
-      <c r="K13" s="132"/>
-      <c r="L13" s="135"/>
+      <c r="I13" s="169"/>
+      <c r="J13" s="141"/>
+      <c r="K13" s="144"/>
+      <c r="L13" s="179"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="126"/>
+      <c r="A14" s="138"/>
       <c r="B14" s="35" t="s">
         <v>48</v>
       </c>
@@ -1978,13 +2020,13 @@
       <c r="H14" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="I14" s="127"/>
-      <c r="J14" s="130"/>
-      <c r="K14" s="133"/>
-      <c r="L14" s="136"/>
+      <c r="I14" s="169"/>
+      <c r="J14" s="142"/>
+      <c r="K14" s="145"/>
+      <c r="L14" s="180"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="161">
+      <c r="A15" s="152">
         <v>3</v>
       </c>
       <c r="B15" s="15" t="s">
@@ -2006,19 +2048,19 @@
       <c r="H15" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="I15" s="151" t="s">
+      <c r="I15" s="129" t="s">
         <v>0</v>
       </c>
-      <c r="J15" s="148">
+      <c r="J15" s="132">
         <v>7</v>
       </c>
-      <c r="K15" s="149">
+      <c r="K15" s="133">
         <v>1</v>
       </c>
-      <c r="L15" s="143"/>
+      <c r="L15" s="134"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="161"/>
+      <c r="A16" s="152"/>
       <c r="B16" s="17" t="s">
         <v>25</v>
       </c>
@@ -2040,13 +2082,13 @@
       <c r="H16" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="I16" s="151"/>
-      <c r="J16" s="148"/>
-      <c r="K16" s="149"/>
-      <c r="L16" s="143"/>
+      <c r="I16" s="129"/>
+      <c r="J16" s="132"/>
+      <c r="K16" s="133"/>
+      <c r="L16" s="134"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="124">
+      <c r="A17" s="136">
         <v>4</v>
       </c>
       <c r="B17" s="22" t="s">
@@ -2070,19 +2112,19 @@
       <c r="H17" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="I17" s="127" t="s">
+      <c r="I17" s="169" t="s">
         <v>4</v>
       </c>
-      <c r="J17" s="128">
+      <c r="J17" s="140">
         <v>59</v>
       </c>
-      <c r="K17" s="131">
+      <c r="K17" s="143">
         <v>4</v>
       </c>
-      <c r="L17" s="134"/>
+      <c r="L17" s="178"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="125"/>
+      <c r="A18" s="137"/>
       <c r="B18" s="22" t="s">
         <v>25</v>
       </c>
@@ -2102,13 +2144,13 @@
       <c r="H18" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="I18" s="127"/>
-      <c r="J18" s="129"/>
-      <c r="K18" s="132"/>
-      <c r="L18" s="135"/>
+      <c r="I18" s="169"/>
+      <c r="J18" s="141"/>
+      <c r="K18" s="144"/>
+      <c r="L18" s="179"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="125"/>
+      <c r="A19" s="137"/>
       <c r="B19" s="27" t="s">
         <v>27</v>
       </c>
@@ -2128,13 +2170,13 @@
       <c r="H19" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="I19" s="127"/>
-      <c r="J19" s="129"/>
-      <c r="K19" s="132"/>
-      <c r="L19" s="135"/>
+      <c r="I19" s="169"/>
+      <c r="J19" s="141"/>
+      <c r="K19" s="144"/>
+      <c r="L19" s="179"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="125"/>
+      <c r="A20" s="137"/>
       <c r="B20" s="27" t="s">
         <v>41</v>
       </c>
@@ -2154,13 +2196,13 @@
       <c r="H20" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="I20" s="127"/>
-      <c r="J20" s="129"/>
-      <c r="K20" s="132"/>
-      <c r="L20" s="135"/>
+      <c r="I20" s="169"/>
+      <c r="J20" s="141"/>
+      <c r="K20" s="144"/>
+      <c r="L20" s="179"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="125"/>
+      <c r="A21" s="137"/>
       <c r="B21" s="27" t="s">
         <v>43</v>
       </c>
@@ -2180,13 +2222,13 @@
       <c r="H21" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="I21" s="127"/>
-      <c r="J21" s="129"/>
-      <c r="K21" s="132"/>
-      <c r="L21" s="135"/>
+      <c r="I21" s="169"/>
+      <c r="J21" s="141"/>
+      <c r="K21" s="144"/>
+      <c r="L21" s="179"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="126"/>
+      <c r="A22" s="138"/>
       <c r="B22" s="35" t="s">
         <v>47</v>
       </c>
@@ -2208,13 +2250,13 @@
       <c r="H22" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="I22" s="127"/>
-      <c r="J22" s="130"/>
-      <c r="K22" s="133"/>
-      <c r="L22" s="136"/>
+      <c r="I22" s="169"/>
+      <c r="J22" s="142"/>
+      <c r="K22" s="145"/>
+      <c r="L22" s="180"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="166">
+      <c r="A23" s="146">
         <v>5</v>
       </c>
       <c r="B23" s="12" t="s">
@@ -2238,19 +2280,19 @@
       <c r="H23" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="I23" s="127" t="s">
+      <c r="I23" s="169" t="s">
         <v>4</v>
       </c>
-      <c r="J23" s="155">
+      <c r="J23" s="167">
         <v>8</v>
       </c>
-      <c r="K23" s="158">
+      <c r="K23" s="153">
         <v>1</v>
       </c>
-      <c r="L23" s="140"/>
+      <c r="L23" s="170"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="167"/>
+      <c r="A24" s="147"/>
       <c r="B24" s="46" t="s">
         <v>25</v>
       </c>
@@ -2272,13 +2314,13 @@
       <c r="H24" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="I24" s="127"/>
-      <c r="J24" s="156"/>
-      <c r="K24" s="159"/>
-      <c r="L24" s="141"/>
+      <c r="I24" s="169"/>
+      <c r="J24" s="168"/>
+      <c r="K24" s="154"/>
+      <c r="L24" s="171"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="167"/>
+      <c r="A25" s="147"/>
       <c r="B25" s="47" t="s">
         <v>27</v>
       </c>
@@ -2298,13 +2340,13 @@
       <c r="H25" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="I25" s="127"/>
-      <c r="J25" s="156"/>
-      <c r="K25" s="159"/>
-      <c r="L25" s="141"/>
+      <c r="I25" s="169"/>
+      <c r="J25" s="168"/>
+      <c r="K25" s="154"/>
+      <c r="L25" s="171"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="168"/>
+      <c r="A26" s="148"/>
       <c r="B26" s="17" t="s">
         <v>41</v>
       </c>
@@ -2326,13 +2368,13 @@
       <c r="H26" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="I26" s="127"/>
-      <c r="J26" s="157"/>
-      <c r="K26" s="160"/>
-      <c r="L26" s="142"/>
+      <c r="I26" s="169"/>
+      <c r="J26" s="165"/>
+      <c r="K26" s="155"/>
+      <c r="L26" s="166"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="162">
+      <c r="A27" s="172">
         <v>6</v>
       </c>
       <c r="B27" s="48" t="s">
@@ -2356,1103 +2398,1099 @@
       <c r="H27" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="I27" s="151" t="s">
+      <c r="I27" s="125" t="s">
+        <v>4</v>
+      </c>
+      <c r="J27" s="181">
+        <v>28</v>
+      </c>
+      <c r="K27" s="181">
+        <v>2</v>
+      </c>
+      <c r="L27" s="178"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" s="173"/>
+      <c r="B28" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" s="32">
+        <v>44878</v>
+      </c>
+      <c r="D28" s="32">
+        <v>44885</v>
+      </c>
+      <c r="E28" s="32">
+        <v>44888</v>
+      </c>
+      <c r="F28" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="G28" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="H28" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="I28" s="126"/>
+      <c r="J28" s="182"/>
+      <c r="K28" s="182"/>
+      <c r="L28" s="179"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" s="174"/>
+      <c r="B29" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29" s="36">
+        <v>44891</v>
+      </c>
+      <c r="D29" s="36"/>
+      <c r="E29" s="36">
+        <v>44892</v>
+      </c>
+      <c r="F29" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="G29" s="35" t="s">
+        <v>24</v>
+      </c>
+      <c r="H29" s="53" t="s">
+        <v>8</v>
+      </c>
+      <c r="I29" s="127"/>
+      <c r="J29" s="183"/>
+      <c r="K29" s="183"/>
+      <c r="L29" s="180"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" s="146">
+        <v>7</v>
+      </c>
+      <c r="B30" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" s="54">
+        <v>44822</v>
+      </c>
+      <c r="D30" s="54">
+        <v>44829</v>
+      </c>
+      <c r="E30" s="54">
+        <v>44829</v>
+      </c>
+      <c r="F30" s="55" t="s">
+        <v>10</v>
+      </c>
+      <c r="G30" s="56" t="s">
+        <v>14</v>
+      </c>
+      <c r="H30" s="57" t="s">
+        <v>11</v>
+      </c>
+      <c r="I30" s="169" t="s">
+        <v>4</v>
+      </c>
+      <c r="J30" s="153">
+        <v>21</v>
+      </c>
+      <c r="K30" s="153">
+        <v>2</v>
+      </c>
+      <c r="L30" s="170"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" s="147"/>
+      <c r="B31" s="46" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" s="42">
+        <v>44861</v>
+      </c>
+      <c r="D31" s="42">
+        <v>44868</v>
+      </c>
+      <c r="E31" s="42">
+        <v>44871</v>
+      </c>
+      <c r="F31" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="G31" s="44" t="s">
+        <v>38</v>
+      </c>
+      <c r="H31" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="I31" s="169"/>
+      <c r="J31" s="154"/>
+      <c r="K31" s="154"/>
+      <c r="L31" s="171"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" s="147"/>
+      <c r="B32" s="184" t="s">
+        <v>27</v>
+      </c>
+      <c r="C32" s="185">
+        <v>44873</v>
+      </c>
+      <c r="D32" s="185">
+        <v>44880</v>
+      </c>
+      <c r="E32" s="185">
+        <v>44881</v>
+      </c>
+      <c r="F32" s="186" t="s">
+        <v>15</v>
+      </c>
+      <c r="G32" s="187" t="s">
+        <v>2</v>
+      </c>
+      <c r="H32" s="188" t="s">
+        <v>16</v>
+      </c>
+      <c r="I32" s="169"/>
+      <c r="J32" s="154"/>
+      <c r="K32" s="154"/>
+      <c r="L32" s="171"/>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33" s="148"/>
+      <c r="B33" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="C33" s="18">
+        <v>44891</v>
+      </c>
+      <c r="D33" s="18"/>
+      <c r="E33" s="18">
+        <v>44892</v>
+      </c>
+      <c r="F33" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="G33" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="H33" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="I33" s="169"/>
+      <c r="J33" s="155"/>
+      <c r="K33" s="155"/>
+      <c r="L33" s="166"/>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34" s="136">
+        <v>8</v>
+      </c>
+      <c r="B34" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" s="28">
+        <v>44822</v>
+      </c>
+      <c r="D34" s="28">
+        <v>44829</v>
+      </c>
+      <c r="E34" s="28">
+        <v>44829</v>
+      </c>
+      <c r="F34" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="G34" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="H34" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="I34" s="125" t="s">
+        <v>4</v>
+      </c>
+      <c r="J34" s="143">
+        <v>33</v>
+      </c>
+      <c r="K34" s="143">
+        <v>2</v>
+      </c>
+      <c r="L34" s="178"/>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35" s="137"/>
+      <c r="B35" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="C35" s="32">
+        <v>44861</v>
+      </c>
+      <c r="D35" s="32">
+        <v>44868</v>
+      </c>
+      <c r="E35" s="32">
+        <v>44871</v>
+      </c>
+      <c r="F35" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="G35" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="H35" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="I35" s="126"/>
+      <c r="J35" s="144"/>
+      <c r="K35" s="144"/>
+      <c r="L35" s="179"/>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A36" s="137"/>
+      <c r="B36" s="189" t="s">
+        <v>27</v>
+      </c>
+      <c r="C36" s="32">
+        <v>44873</v>
+      </c>
+      <c r="D36" s="32">
+        <v>44880</v>
+      </c>
+      <c r="E36" s="32">
+        <v>44881</v>
+      </c>
+      <c r="F36" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="G36" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="H36" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="I36" s="126"/>
+      <c r="J36" s="144"/>
+      <c r="K36" s="144"/>
+      <c r="L36" s="179"/>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A37" s="138"/>
+      <c r="B37" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="C37" s="36">
+        <v>44891</v>
+      </c>
+      <c r="D37" s="36"/>
+      <c r="E37" s="36">
+        <v>44892</v>
+      </c>
+      <c r="F37" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="G37" s="35" t="s">
+        <v>24</v>
+      </c>
+      <c r="H37" s="53" t="s">
+        <v>8</v>
+      </c>
+      <c r="I37" s="127"/>
+      <c r="J37" s="145"/>
+      <c r="K37" s="145"/>
+      <c r="L37" s="180"/>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A38" s="146">
+        <v>9</v>
+      </c>
+      <c r="B38" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C38" s="13">
+        <v>44846</v>
+      </c>
+      <c r="D38" s="13"/>
+      <c r="E38" s="13">
+        <v>44850</v>
+      </c>
+      <c r="F38" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="G38" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="H38" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="I38" s="169" t="s">
+        <v>4</v>
+      </c>
+      <c r="J38" s="153">
+        <v>61</v>
+      </c>
+      <c r="K38" s="153">
+        <v>4</v>
+      </c>
+      <c r="L38" s="170"/>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A39" s="147"/>
+      <c r="B39" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C39" s="13">
+        <v>44856</v>
+      </c>
+      <c r="D39" s="13"/>
+      <c r="E39" s="13">
+        <v>44857</v>
+      </c>
+      <c r="F39" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="G39" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="H39" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="I39" s="169"/>
+      <c r="J39" s="154"/>
+      <c r="K39" s="154"/>
+      <c r="L39" s="171"/>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A40" s="147"/>
+      <c r="B40" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C40" s="42">
+        <v>44861</v>
+      </c>
+      <c r="D40" s="42">
+        <v>44868</v>
+      </c>
+      <c r="E40" s="42">
+        <v>44871</v>
+      </c>
+      <c r="F40" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="G40" s="44" t="s">
+        <v>38</v>
+      </c>
+      <c r="H40" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="I40" s="169"/>
+      <c r="J40" s="154"/>
+      <c r="K40" s="154"/>
+      <c r="L40" s="171"/>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A41" s="147"/>
+      <c r="B41" s="47" t="s">
+        <v>41</v>
+      </c>
+      <c r="C41" s="42">
+        <v>44873</v>
+      </c>
+      <c r="D41" s="42">
+        <v>44880</v>
+      </c>
+      <c r="E41" s="42">
+        <v>44881</v>
+      </c>
+      <c r="F41" s="43" t="s">
+        <v>15</v>
+      </c>
+      <c r="G41" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="H41" s="45" t="s">
+        <v>16</v>
+      </c>
+      <c r="I41" s="169"/>
+      <c r="J41" s="154"/>
+      <c r="K41" s="154"/>
+      <c r="L41" s="171"/>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A42" s="148"/>
+      <c r="B42" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="C42" s="18">
+        <v>44891</v>
+      </c>
+      <c r="D42" s="18"/>
+      <c r="E42" s="18">
+        <v>44892</v>
+      </c>
+      <c r="F42" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="G42" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="H42" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="I42" s="169"/>
+      <c r="J42" s="155"/>
+      <c r="K42" s="155"/>
+      <c r="L42" s="166"/>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A43" s="58">
+        <v>10</v>
+      </c>
+      <c r="B43" s="36"/>
+      <c r="C43" s="59">
+        <v>44887</v>
+      </c>
+      <c r="D43" s="59">
+        <v>44894</v>
+      </c>
+      <c r="E43" s="59">
+        <v>44895</v>
+      </c>
+      <c r="F43" s="60" t="s">
+        <v>15</v>
+      </c>
+      <c r="G43" s="114" t="s">
+        <v>2</v>
+      </c>
+      <c r="H43" s="61" t="s">
+        <v>16</v>
+      </c>
+      <c r="I43" s="115" t="s">
+        <v>4</v>
+      </c>
+      <c r="J43" s="62"/>
+      <c r="K43" s="36"/>
+      <c r="L43" s="63"/>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A44" s="146">
+        <v>11</v>
+      </c>
+      <c r="B44" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C44" s="54">
+        <v>44845</v>
+      </c>
+      <c r="D44" s="54"/>
+      <c r="E44" s="54">
+        <v>44845</v>
+      </c>
+      <c r="F44" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="G44" s="56" t="s">
+        <v>22</v>
+      </c>
+      <c r="H44" s="57" t="s">
+        <v>16</v>
+      </c>
+      <c r="I44" s="129" t="s">
         <v>0</v>
       </c>
-      <c r="J27" s="163">
-        <v>28</v>
-      </c>
-      <c r="K27" s="164">
+      <c r="J44" s="167">
+        <v>132</v>
+      </c>
+      <c r="K44" s="153">
+        <v>8</v>
+      </c>
+      <c r="L44" s="170"/>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A45" s="147"/>
+      <c r="B45" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C45" s="54">
+        <v>44853</v>
+      </c>
+      <c r="D45" s="54">
+        <v>44860</v>
+      </c>
+      <c r="E45" s="54">
+        <v>44860</v>
+      </c>
+      <c r="F45" s="55" t="s">
+        <v>23</v>
+      </c>
+      <c r="G45" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="L27" s="165"/>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="162"/>
-      <c r="B28" s="35" t="s">
+      <c r="H45" s="57" t="s">
+        <v>1</v>
+      </c>
+      <c r="I45" s="129"/>
+      <c r="J45" s="168"/>
+      <c r="K45" s="154"/>
+      <c r="L45" s="171"/>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A46" s="147"/>
+      <c r="B46" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C46" s="42">
+        <v>44870</v>
+      </c>
+      <c r="D46" s="42"/>
+      <c r="E46" s="42">
+        <v>44871</v>
+      </c>
+      <c r="F46" s="43" t="s">
+        <v>7</v>
+      </c>
+      <c r="G46" s="44" t="s">
+        <v>9</v>
+      </c>
+      <c r="H46" s="45" t="s">
+        <v>8</v>
+      </c>
+      <c r="I46" s="129"/>
+      <c r="J46" s="168"/>
+      <c r="K46" s="154"/>
+      <c r="L46" s="171"/>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A47" s="147"/>
+      <c r="B47" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="C47" s="54">
+        <v>44873</v>
+      </c>
+      <c r="D47" s="54">
+        <v>44880</v>
+      </c>
+      <c r="E47" s="54">
+        <v>44881</v>
+      </c>
+      <c r="F47" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="G47" s="56" t="s">
+        <v>17</v>
+      </c>
+      <c r="H47" s="57" t="s">
+        <v>16</v>
+      </c>
+      <c r="I47" s="129"/>
+      <c r="J47" s="168"/>
+      <c r="K47" s="154"/>
+      <c r="L47" s="171"/>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A48" s="147"/>
+      <c r="B48" s="64" t="s">
+        <v>43</v>
+      </c>
+      <c r="C48" s="65">
+        <v>44878</v>
+      </c>
+      <c r="D48" s="65">
+        <v>44885</v>
+      </c>
+      <c r="E48" s="65">
+        <v>44888</v>
+      </c>
+      <c r="F48" s="66" t="s">
+        <v>10</v>
+      </c>
+      <c r="G48" s="67" t="s">
+        <v>2</v>
+      </c>
+      <c r="H48" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="I48" s="129"/>
+      <c r="J48" s="168"/>
+      <c r="K48" s="154"/>
+      <c r="L48" s="171"/>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A49" s="148"/>
+      <c r="B49" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="C49" s="18">
+        <v>44873</v>
+      </c>
+      <c r="D49" s="18">
+        <v>44880</v>
+      </c>
+      <c r="E49" s="18">
+        <v>44881</v>
+      </c>
+      <c r="F49" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="G49" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="H49" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="I49" s="129"/>
+      <c r="J49" s="165"/>
+      <c r="K49" s="155"/>
+      <c r="L49" s="166"/>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A50" s="136">
+        <v>12</v>
+      </c>
+      <c r="B50" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C50" s="28">
+        <v>44838</v>
+      </c>
+      <c r="D50" s="28"/>
+      <c r="E50" s="28">
+        <v>44839</v>
+      </c>
+      <c r="F50" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="G50" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="H50" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="I50" s="125" t="s">
+        <v>4</v>
+      </c>
+      <c r="J50" s="143">
+        <v>72</v>
+      </c>
+      <c r="K50" s="143">
+        <v>5</v>
+      </c>
+      <c r="L50" s="178"/>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A51" s="137"/>
+      <c r="B51" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="C28" s="36">
-        <v>44878</v>
-      </c>
-      <c r="D28" s="36">
-        <v>44885</v>
-      </c>
-      <c r="E28" s="36">
-        <v>44888</v>
-      </c>
-      <c r="F28" s="37" t="s">
-        <v>10</v>
-      </c>
-      <c r="G28" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="H28" s="53" t="s">
-        <v>11</v>
-      </c>
-      <c r="I28" s="151"/>
-      <c r="J28" s="163"/>
-      <c r="K28" s="164"/>
-      <c r="L28" s="165"/>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" s="144">
+      <c r="C51" s="28">
+        <v>44845</v>
+      </c>
+      <c r="D51" s="28"/>
+      <c r="E51" s="28">
+        <v>44850</v>
+      </c>
+      <c r="F51" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="G51" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="H51" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="I51" s="126"/>
+      <c r="J51" s="144"/>
+      <c r="K51" s="144"/>
+      <c r="L51" s="179"/>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A52" s="137"/>
+      <c r="B52" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="C52" s="32">
+        <v>44859</v>
+      </c>
+      <c r="D52" s="32">
+        <v>44835</v>
+      </c>
+      <c r="E52" s="32">
+        <v>44836</v>
+      </c>
+      <c r="F52" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="G52" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="H52" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="I52" s="126"/>
+      <c r="J52" s="144"/>
+      <c r="K52" s="144"/>
+      <c r="L52" s="179"/>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A53" s="138"/>
+      <c r="B53" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="C53" s="36">
+        <v>44891</v>
+      </c>
+      <c r="D53" s="36"/>
+      <c r="E53" s="36">
+        <v>44892</v>
+      </c>
+      <c r="F53" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="B29" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="C29" s="54">
-        <v>44822</v>
-      </c>
-      <c r="D29" s="54">
-        <v>44829</v>
-      </c>
-      <c r="E29" s="54">
-        <v>44829</v>
-      </c>
-      <c r="F29" s="55" t="s">
-        <v>10</v>
-      </c>
-      <c r="G29" s="56" t="s">
-        <v>14</v>
-      </c>
-      <c r="H29" s="57" t="s">
-        <v>11</v>
-      </c>
-      <c r="I29" s="151" t="s">
-        <v>0</v>
-      </c>
-      <c r="J29" s="148">
-        <v>21</v>
-      </c>
-      <c r="K29" s="149">
-        <v>2</v>
-      </c>
-      <c r="L29" s="143"/>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" s="144"/>
-      <c r="B30" s="46" t="s">
-        <v>25</v>
-      </c>
-      <c r="C30" s="42">
-        <v>44861</v>
-      </c>
-      <c r="D30" s="42">
-        <v>44868</v>
-      </c>
-      <c r="E30" s="42">
-        <v>44871</v>
-      </c>
-      <c r="F30" s="43" t="s">
-        <v>3</v>
-      </c>
-      <c r="G30" s="44" t="s">
-        <v>38</v>
-      </c>
-      <c r="H30" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="I30" s="151"/>
-      <c r="J30" s="148"/>
-      <c r="K30" s="149"/>
-      <c r="L30" s="143"/>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" s="144"/>
-      <c r="B31" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="C31" s="18">
-        <v>44873</v>
-      </c>
-      <c r="D31" s="18">
-        <v>44880</v>
-      </c>
-      <c r="E31" s="18">
-        <v>44881</v>
-      </c>
-      <c r="F31" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="G31" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="H31" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="I31" s="151"/>
-      <c r="J31" s="148"/>
-      <c r="K31" s="149"/>
-      <c r="L31" s="143"/>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A32" s="150">
+      <c r="G53" s="35" t="s">
+        <v>24</v>
+      </c>
+      <c r="H53" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="B32" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="C32" s="28">
-        <v>44822</v>
-      </c>
-      <c r="D32" s="28">
-        <v>44829</v>
-      </c>
-      <c r="E32" s="28">
-        <v>44829</v>
-      </c>
-      <c r="F32" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="G32" s="30" t="s">
-        <v>14</v>
-      </c>
-      <c r="H32" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="I32" s="151" t="s">
-        <v>0</v>
-      </c>
-      <c r="J32" s="152">
-        <v>33</v>
-      </c>
-      <c r="K32" s="153">
-        <v>2</v>
-      </c>
-      <c r="L32" s="134"/>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A33" s="150"/>
-      <c r="B33" s="30" t="s">
-        <v>25</v>
-      </c>
-      <c r="C33" s="32">
-        <v>44861</v>
-      </c>
-      <c r="D33" s="32">
-        <v>44868</v>
-      </c>
-      <c r="E33" s="32">
-        <v>44871</v>
-      </c>
-      <c r="F33" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="G33" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="H33" s="34" t="s">
-        <v>1</v>
-      </c>
-      <c r="I33" s="151"/>
-      <c r="J33" s="152"/>
-      <c r="K33" s="153"/>
-      <c r="L33" s="135"/>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A34" s="150"/>
-      <c r="B34" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="C34" s="36">
-        <v>44873</v>
-      </c>
-      <c r="D34" s="36">
-        <v>44880</v>
-      </c>
-      <c r="E34" s="36">
-        <v>44881</v>
-      </c>
-      <c r="F34" s="37" t="s">
-        <v>15</v>
-      </c>
-      <c r="G34" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="H34" s="53" t="s">
-        <v>16</v>
-      </c>
-      <c r="I34" s="151"/>
-      <c r="J34" s="152"/>
-      <c r="K34" s="153"/>
-      <c r="L34" s="136"/>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A35" s="144">
-        <v>9</v>
-      </c>
-      <c r="B35" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="C35" s="13">
-        <v>44846</v>
-      </c>
-      <c r="D35" s="13"/>
-      <c r="E35" s="13">
-        <v>44850</v>
-      </c>
-      <c r="F35" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="G35" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="H35" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="I35" s="151" t="s">
-        <v>0</v>
-      </c>
-      <c r="J35" s="148">
-        <v>61</v>
-      </c>
-      <c r="K35" s="149">
-        <v>4</v>
-      </c>
-      <c r="L35" s="143"/>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A36" s="144"/>
-      <c r="B36" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C36" s="13">
-        <v>44856</v>
-      </c>
-      <c r="D36" s="13"/>
-      <c r="E36" s="13">
-        <v>44857</v>
-      </c>
-      <c r="F36" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="G36" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="H36" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="I36" s="151"/>
-      <c r="J36" s="148"/>
-      <c r="K36" s="149"/>
-      <c r="L36" s="143"/>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A37" s="144"/>
-      <c r="B37" s="47" t="s">
-        <v>27</v>
-      </c>
-      <c r="C37" s="42">
-        <v>44861</v>
-      </c>
-      <c r="D37" s="42">
-        <v>44868</v>
-      </c>
-      <c r="E37" s="42">
-        <v>44871</v>
-      </c>
-      <c r="F37" s="43" t="s">
-        <v>3</v>
-      </c>
-      <c r="G37" s="44" t="s">
-        <v>38</v>
-      </c>
-      <c r="H37" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="I37" s="151"/>
-      <c r="J37" s="148"/>
-      <c r="K37" s="149"/>
-      <c r="L37" s="143"/>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A38" s="144"/>
-      <c r="B38" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="C38" s="18">
-        <v>44873</v>
-      </c>
-      <c r="D38" s="18">
-        <v>44880</v>
-      </c>
-      <c r="E38" s="18">
-        <v>44881</v>
-      </c>
-      <c r="F38" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="G38" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="H38" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="I38" s="151"/>
-      <c r="J38" s="148"/>
-      <c r="K38" s="149"/>
-      <c r="L38" s="143"/>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A39" s="58">
-        <v>10</v>
-      </c>
-      <c r="B39" s="36"/>
-      <c r="C39" s="59">
-        <v>44887</v>
-      </c>
-      <c r="D39" s="59">
-        <v>44894</v>
-      </c>
-      <c r="E39" s="59">
-        <v>44895</v>
-      </c>
-      <c r="F39" s="60" t="s">
-        <v>15</v>
-      </c>
-      <c r="G39" s="114" t="s">
-        <v>2</v>
-      </c>
-      <c r="H39" s="61" t="s">
-        <v>16</v>
-      </c>
-      <c r="I39" s="115" t="s">
-        <v>4</v>
-      </c>
-      <c r="J39" s="62"/>
-      <c r="K39" s="36"/>
-      <c r="L39" s="63"/>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A40" s="166">
-        <v>11</v>
-      </c>
-      <c r="B40" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="C40" s="54">
-        <v>44845</v>
-      </c>
-      <c r="D40" s="54"/>
-      <c r="E40" s="54">
-        <v>44845</v>
-      </c>
-      <c r="F40" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="G40" s="56" t="s">
-        <v>22</v>
-      </c>
-      <c r="H40" s="57" t="s">
-        <v>16</v>
-      </c>
-      <c r="I40" s="151" t="s">
-        <v>0</v>
-      </c>
-      <c r="J40" s="155">
-        <v>132</v>
-      </c>
-      <c r="K40" s="158">
-        <v>8</v>
-      </c>
-      <c r="L40" s="140"/>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A41" s="167"/>
-      <c r="B41" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C41" s="54">
-        <v>44853</v>
-      </c>
-      <c r="D41" s="54">
-        <v>44860</v>
-      </c>
-      <c r="E41" s="54">
-        <v>44860</v>
-      </c>
-      <c r="F41" s="55" t="s">
-        <v>23</v>
-      </c>
-      <c r="G41" s="56" t="s">
-        <v>2</v>
-      </c>
-      <c r="H41" s="57" t="s">
-        <v>1</v>
-      </c>
-      <c r="I41" s="151"/>
-      <c r="J41" s="156"/>
-      <c r="K41" s="159"/>
-      <c r="L41" s="141"/>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A42" s="167"/>
-      <c r="B42" s="47" t="s">
-        <v>27</v>
-      </c>
-      <c r="C42" s="42">
-        <v>44870</v>
-      </c>
-      <c r="D42" s="42"/>
-      <c r="E42" s="42">
-        <v>44871</v>
-      </c>
-      <c r="F42" s="43" t="s">
-        <v>7</v>
-      </c>
-      <c r="G42" s="44" t="s">
-        <v>9</v>
-      </c>
-      <c r="H42" s="45" t="s">
-        <v>8</v>
-      </c>
-      <c r="I42" s="151"/>
-      <c r="J42" s="156"/>
-      <c r="K42" s="159"/>
-      <c r="L42" s="141"/>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A43" s="167"/>
-      <c r="B43" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="C43" s="54">
-        <v>44873</v>
-      </c>
-      <c r="D43" s="54">
-        <v>44880</v>
-      </c>
-      <c r="E43" s="54">
-        <v>44881</v>
-      </c>
-      <c r="F43" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="G43" s="56" t="s">
-        <v>17</v>
-      </c>
-      <c r="H43" s="57" t="s">
-        <v>16</v>
-      </c>
-      <c r="I43" s="151"/>
-      <c r="J43" s="156"/>
-      <c r="K43" s="159"/>
-      <c r="L43" s="141"/>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A44" s="167"/>
-      <c r="B44" s="64" t="s">
-        <v>43</v>
-      </c>
-      <c r="C44" s="65">
-        <v>44878</v>
-      </c>
-      <c r="D44" s="65">
-        <v>44885</v>
-      </c>
-      <c r="E44" s="65">
-        <v>44888</v>
-      </c>
-      <c r="F44" s="66" t="s">
-        <v>10</v>
-      </c>
-      <c r="G44" s="67" t="s">
-        <v>2</v>
-      </c>
-      <c r="H44" s="68" t="s">
-        <v>11</v>
-      </c>
-      <c r="I44" s="151"/>
-      <c r="J44" s="156"/>
-      <c r="K44" s="159"/>
-      <c r="L44" s="141"/>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A45" s="168"/>
-      <c r="B45" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="C45" s="18">
-        <v>44873</v>
-      </c>
-      <c r="D45" s="18">
-        <v>44880</v>
-      </c>
-      <c r="E45" s="18">
-        <v>44881</v>
-      </c>
-      <c r="F45" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="G45" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="H45" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="I45" s="151"/>
-      <c r="J45" s="157"/>
-      <c r="K45" s="160"/>
-      <c r="L45" s="142"/>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A46" s="150">
-        <v>12</v>
-      </c>
-      <c r="B46" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="C46" s="28">
-        <v>44838</v>
-      </c>
-      <c r="D46" s="28"/>
-      <c r="E46" s="28">
-        <v>44839</v>
-      </c>
-      <c r="F46" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="G46" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="H46" s="31" t="s">
-        <v>16</v>
-      </c>
-      <c r="I46" s="151" t="s">
-        <v>0</v>
-      </c>
-      <c r="J46" s="152">
-        <v>72</v>
-      </c>
-      <c r="K46" s="153">
-        <v>5</v>
-      </c>
-      <c r="L46" s="165"/>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A47" s="150"/>
-      <c r="B47" s="30" t="s">
-        <v>25</v>
-      </c>
-      <c r="C47" s="28">
-        <v>44845</v>
-      </c>
-      <c r="D47" s="28"/>
-      <c r="E47" s="28">
-        <v>44850</v>
-      </c>
-      <c r="F47" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="G47" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="H47" s="31" t="s">
-        <v>40</v>
-      </c>
-      <c r="I47" s="151"/>
-      <c r="J47" s="152"/>
-      <c r="K47" s="153"/>
-      <c r="L47" s="165"/>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A48" s="150"/>
-      <c r="B48" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="C48" s="36">
-        <v>44859</v>
-      </c>
-      <c r="D48" s="36">
-        <v>44835</v>
-      </c>
-      <c r="E48" s="36">
-        <v>44836</v>
-      </c>
-      <c r="F48" s="37" t="s">
-        <v>15</v>
-      </c>
-      <c r="G48" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="H48" s="53" t="s">
-        <v>16</v>
-      </c>
-      <c r="I48" s="151"/>
-      <c r="J48" s="152"/>
-      <c r="K48" s="153"/>
-      <c r="L48" s="165"/>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A49" s="144">
+      <c r="I53" s="127"/>
+      <c r="J53" s="145"/>
+      <c r="K53" s="145"/>
+      <c r="L53" s="180"/>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A54" s="156">
         <v>13</v>
-      </c>
-      <c r="B49" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="C49" s="13">
-        <v>44829</v>
-      </c>
-      <c r="D49" s="13"/>
-      <c r="E49" s="54">
-        <v>44829</v>
-      </c>
-      <c r="F49" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="G49" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="H49" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="I49" s="154" t="s">
-        <v>4</v>
-      </c>
-      <c r="J49" s="148">
-        <v>7</v>
-      </c>
-      <c r="K49" s="149">
-        <v>1</v>
-      </c>
-      <c r="L49" s="143"/>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A50" s="144"/>
-      <c r="B50" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C50" s="54">
-        <v>44853</v>
-      </c>
-      <c r="D50" s="54">
-        <v>44860</v>
-      </c>
-      <c r="E50" s="54">
-        <v>44860</v>
-      </c>
-      <c r="F50" s="55" t="s">
-        <v>23</v>
-      </c>
-      <c r="G50" s="56" t="s">
-        <v>2</v>
-      </c>
-      <c r="H50" s="57" t="s">
-        <v>1</v>
-      </c>
-      <c r="I50" s="154"/>
-      <c r="J50" s="148"/>
-      <c r="K50" s="149"/>
-      <c r="L50" s="143"/>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A51" s="144"/>
-      <c r="B51" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="C51" s="18">
-        <v>44878</v>
-      </c>
-      <c r="D51" s="18">
-        <v>44885</v>
-      </c>
-      <c r="E51" s="18">
-        <v>44888</v>
-      </c>
-      <c r="F51" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="G51" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="H51" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="I51" s="154"/>
-      <c r="J51" s="148"/>
-      <c r="K51" s="149"/>
-      <c r="L51" s="143"/>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A52" s="150">
-        <v>14</v>
-      </c>
-      <c r="B52" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="C52" s="28">
-        <v>44843</v>
-      </c>
-      <c r="D52" s="28"/>
-      <c r="E52" s="28">
-        <v>44843</v>
-      </c>
-      <c r="F52" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="G52" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="H52" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="I52" s="151" t="s">
-        <v>0</v>
-      </c>
-      <c r="J52" s="152">
-        <v>39</v>
-      </c>
-      <c r="K52" s="153">
-        <v>3</v>
-      </c>
-      <c r="L52" s="165"/>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A53" s="150"/>
-      <c r="B53" s="35" t="s">
-        <v>25</v>
-      </c>
-      <c r="C53" s="36">
-        <v>44859</v>
-      </c>
-      <c r="D53" s="36">
-        <v>44835</v>
-      </c>
-      <c r="E53" s="36">
-        <v>44836</v>
-      </c>
-      <c r="F53" s="37" t="s">
-        <v>15</v>
-      </c>
-      <c r="G53" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="H53" s="53" t="s">
-        <v>16</v>
-      </c>
-      <c r="I53" s="151"/>
-      <c r="J53" s="152"/>
-      <c r="K53" s="153"/>
-      <c r="L53" s="165"/>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A54" s="166">
-        <v>15</v>
       </c>
       <c r="B54" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="C54" s="69">
-        <v>44826</v>
-      </c>
-      <c r="D54" s="69"/>
-      <c r="E54" s="69">
+      <c r="C54" s="13">
         <v>44829</v>
       </c>
-      <c r="F54" s="70" t="s">
-        <v>3</v>
-      </c>
-      <c r="G54" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="H54" s="71" t="s">
+      <c r="D54" s="13"/>
+      <c r="E54" s="54">
+        <v>44829</v>
+      </c>
+      <c r="F54" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="G54" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="H54" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="I54" s="139" t="s">
+        <v>4</v>
+      </c>
+      <c r="J54" s="132">
+        <v>7</v>
+      </c>
+      <c r="K54" s="133">
         <v>1</v>
       </c>
-      <c r="I54" s="151" t="s">
-        <v>0</v>
-      </c>
-      <c r="J54" s="155">
-        <v>39</v>
-      </c>
-      <c r="K54" s="158">
-        <v>3</v>
-      </c>
-      <c r="L54" s="140"/>
+      <c r="L54" s="134"/>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A55" s="167"/>
+      <c r="A55" s="156"/>
       <c r="B55" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="C55" s="13">
+      <c r="C55" s="54">
+        <v>44853</v>
+      </c>
+      <c r="D55" s="54">
+        <v>44860</v>
+      </c>
+      <c r="E55" s="54">
+        <v>44860</v>
+      </c>
+      <c r="F55" s="55" t="s">
+        <v>23</v>
+      </c>
+      <c r="G55" s="56" t="s">
+        <v>2</v>
+      </c>
+      <c r="H55" s="57" t="s">
+        <v>1</v>
+      </c>
+      <c r="I55" s="139"/>
+      <c r="J55" s="132"/>
+      <c r="K55" s="133"/>
+      <c r="L55" s="134"/>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A56" s="156"/>
+      <c r="B56" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="C56" s="18">
+        <v>44878</v>
+      </c>
+      <c r="D56" s="18">
+        <v>44885</v>
+      </c>
+      <c r="E56" s="18">
+        <v>44888</v>
+      </c>
+      <c r="F56" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="G56" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="H56" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="I56" s="139"/>
+      <c r="J56" s="132"/>
+      <c r="K56" s="133"/>
+      <c r="L56" s="134"/>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A57" s="128">
+        <v>14</v>
+      </c>
+      <c r="B57" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C57" s="28">
         <v>44843</v>
       </c>
-      <c r="D55" s="13"/>
-      <c r="E55" s="13">
+      <c r="D57" s="28"/>
+      <c r="E57" s="28">
         <v>44843</v>
       </c>
-      <c r="F55" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="G55" s="56" t="s">
+      <c r="F57" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="G57" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="H55" s="57" t="s">
+      <c r="H57" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="I55" s="151"/>
-      <c r="J55" s="156"/>
-      <c r="K55" s="159"/>
-      <c r="L55" s="141"/>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A56" s="167"/>
-      <c r="B56" s="64" t="s">
+      <c r="I57" s="129" t="s">
+        <v>0</v>
+      </c>
+      <c r="J57" s="130">
+        <v>39</v>
+      </c>
+      <c r="K57" s="131">
+        <v>3</v>
+      </c>
+      <c r="L57" s="164"/>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A58" s="128"/>
+      <c r="B58" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="C58" s="36">
+        <v>44859</v>
+      </c>
+      <c r="D58" s="36">
+        <v>44835</v>
+      </c>
+      <c r="E58" s="36">
+        <v>44836</v>
+      </c>
+      <c r="F58" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="G58" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="H58" s="53" t="s">
+        <v>16</v>
+      </c>
+      <c r="I58" s="129"/>
+      <c r="J58" s="130"/>
+      <c r="K58" s="131"/>
+      <c r="L58" s="164"/>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A59" s="146">
+        <v>15</v>
+      </c>
+      <c r="B59" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C59" s="69">
+        <v>44826</v>
+      </c>
+      <c r="D59" s="69"/>
+      <c r="E59" s="69">
+        <v>44829</v>
+      </c>
+      <c r="F59" s="70" t="s">
+        <v>3</v>
+      </c>
+      <c r="G59" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="H59" s="71" t="s">
+        <v>1</v>
+      </c>
+      <c r="I59" s="129" t="s">
+        <v>0</v>
+      </c>
+      <c r="J59" s="167">
+        <v>39</v>
+      </c>
+      <c r="K59" s="153">
+        <v>3</v>
+      </c>
+      <c r="L59" s="170"/>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A60" s="147"/>
+      <c r="B60" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C60" s="13">
+        <v>44843</v>
+      </c>
+      <c r="D60" s="13"/>
+      <c r="E60" s="13">
+        <v>44843</v>
+      </c>
+      <c r="F60" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="G60" s="56" t="s">
+        <v>12</v>
+      </c>
+      <c r="H60" s="57" t="s">
+        <v>11</v>
+      </c>
+      <c r="I60" s="129"/>
+      <c r="J60" s="168"/>
+      <c r="K60" s="154"/>
+      <c r="L60" s="171"/>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A61" s="147"/>
+      <c r="B61" s="64" t="s">
         <v>27</v>
       </c>
-      <c r="C56" s="72">
+      <c r="C61" s="72">
         <v>44859</v>
       </c>
-      <c r="D56" s="72">
+      <c r="D61" s="72">
         <v>44835</v>
       </c>
-      <c r="E56" s="72">
+      <c r="E61" s="72">
         <v>44836</v>
       </c>
-      <c r="F56" s="73" t="s">
+      <c r="F61" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="G56" s="67" t="s">
+      <c r="G61" s="67" t="s">
         <v>22</v>
       </c>
-      <c r="H56" s="68" t="s">
+      <c r="H61" s="68" t="s">
         <v>16</v>
       </c>
-      <c r="I56" s="151"/>
-      <c r="J56" s="156"/>
-      <c r="K56" s="159"/>
-      <c r="L56" s="141"/>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A57" s="168"/>
-      <c r="B57" s="17" t="s">
+      <c r="I61" s="129"/>
+      <c r="J61" s="168"/>
+      <c r="K61" s="154"/>
+      <c r="L61" s="171"/>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A62" s="148"/>
+      <c r="B62" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="C57" s="18">
+      <c r="C62" s="18">
         <v>44873</v>
       </c>
-      <c r="D57" s="18">
+      <c r="D62" s="18">
         <v>44880</v>
       </c>
-      <c r="E57" s="18">
+      <c r="E62" s="18">
         <v>44881</v>
       </c>
-      <c r="F57" s="19" t="s">
+      <c r="F62" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="G57" s="20" t="s">
+      <c r="G62" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="H57" s="21" t="s">
+      <c r="H62" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="I57" s="151"/>
-      <c r="J57" s="157"/>
-      <c r="K57" s="160"/>
-      <c r="L57" s="142"/>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A58" s="150">
+      <c r="I62" s="129"/>
+      <c r="J62" s="165"/>
+      <c r="K62" s="155"/>
+      <c r="L62" s="166"/>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A63" s="128">
         <v>16</v>
       </c>
-      <c r="B58" s="25" t="s">
+      <c r="B63" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="C58" s="23">
+      <c r="C63" s="23">
         <v>44826</v>
       </c>
-      <c r="D58" s="23"/>
-      <c r="E58" s="23">
+      <c r="D63" s="23"/>
+      <c r="E63" s="23">
         <v>44829</v>
       </c>
-      <c r="F58" s="24" t="s">
+      <c r="F63" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="G58" s="25" t="s">
+      <c r="G63" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="H58" s="26" t="s">
+      <c r="H63" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="I58" s="154" t="s">
+      <c r="I63" s="139" t="s">
         <v>4</v>
       </c>
-      <c r="J58" s="152">
+      <c r="J63" s="130">
         <v>39</v>
       </c>
-      <c r="K58" s="153">
+      <c r="K63" s="131">
         <v>3</v>
       </c>
-      <c r="L58" s="134"/>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A59" s="150"/>
-      <c r="B59" s="30" t="s">
+      <c r="L63" s="178"/>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A64" s="128"/>
+      <c r="B64" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="C59" s="23">
+      <c r="C64" s="23">
         <v>44854</v>
       </c>
-      <c r="D59" s="23">
+      <c r="D64" s="23">
         <v>44861</v>
       </c>
-      <c r="E59" s="23">
+      <c r="E64" s="23">
         <v>44864</v>
       </c>
-      <c r="F59" s="24" t="s">
+      <c r="F64" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="G59" s="25" t="s">
+      <c r="G64" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="H59" s="26" t="s">
+      <c r="H64" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="I59" s="154"/>
-      <c r="J59" s="152"/>
-      <c r="K59" s="153"/>
-      <c r="L59" s="135"/>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A60" s="150"/>
-      <c r="B60" s="35" t="s">
+      <c r="I64" s="139"/>
+      <c r="J64" s="130"/>
+      <c r="K64" s="131"/>
+      <c r="L64" s="179"/>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A65" s="128"/>
+      <c r="B65" s="35" t="s">
         <v>27</v>
-      </c>
-      <c r="C60" s="74">
-        <v>44878</v>
-      </c>
-      <c r="D60" s="74">
-        <v>44885</v>
-      </c>
-      <c r="E60" s="74">
-        <v>44888</v>
-      </c>
-      <c r="F60" s="75" t="s">
-        <v>10</v>
-      </c>
-      <c r="G60" s="76" t="s">
-        <v>9</v>
-      </c>
-      <c r="H60" s="77" t="s">
-        <v>11</v>
-      </c>
-      <c r="I60" s="154"/>
-      <c r="J60" s="152"/>
-      <c r="K60" s="153"/>
-      <c r="L60" s="136"/>
-    </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A61" s="108">
-        <v>17</v>
-      </c>
-      <c r="B61" s="109"/>
-      <c r="C61" s="110"/>
-      <c r="D61" s="110"/>
-      <c r="E61" s="110"/>
-      <c r="F61" s="109"/>
-      <c r="G61" s="109"/>
-      <c r="H61" s="111"/>
-      <c r="I61" s="176" t="s">
-        <v>0</v>
-      </c>
-      <c r="J61" s="112"/>
-      <c r="K61" s="109"/>
-      <c r="L61" s="113"/>
-    </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A62" s="150">
-        <v>18</v>
-      </c>
-      <c r="B62" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="C62" s="28">
-        <v>44835</v>
-      </c>
-      <c r="D62" s="28"/>
-      <c r="E62" s="78">
-        <v>44836</v>
-      </c>
-      <c r="F62" s="29" t="s">
-        <v>7</v>
-      </c>
-      <c r="G62" s="30" t="s">
-        <v>36</v>
-      </c>
-      <c r="H62" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="I62" s="154" t="s">
-        <v>4</v>
-      </c>
-      <c r="J62" s="152">
-        <v>47</v>
-      </c>
-      <c r="K62" s="153">
-        <v>3</v>
-      </c>
-      <c r="L62" s="134"/>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A63" s="150"/>
-      <c r="B63" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="C63" s="28">
-        <v>44846</v>
-      </c>
-      <c r="D63" s="28"/>
-      <c r="E63" s="28">
-        <v>44850</v>
-      </c>
-      <c r="F63" s="29" t="s">
-        <v>23</v>
-      </c>
-      <c r="G63" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="H63" s="31" t="s">
-        <v>40</v>
-      </c>
-      <c r="I63" s="154"/>
-      <c r="J63" s="152"/>
-      <c r="K63" s="153"/>
-      <c r="L63" s="135"/>
-    </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A64" s="150"/>
-      <c r="B64" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="C64" s="28">
-        <v>44859</v>
-      </c>
-      <c r="D64" s="28">
-        <v>44835</v>
-      </c>
-      <c r="E64" s="28">
-        <v>44836</v>
-      </c>
-      <c r="F64" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="G64" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="H64" s="31" t="s">
-        <v>16</v>
-      </c>
-      <c r="I64" s="154"/>
-      <c r="J64" s="152"/>
-      <c r="K64" s="153"/>
-      <c r="L64" s="135"/>
-    </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A65" s="150"/>
-      <c r="B65" s="35" t="s">
-        <v>41</v>
       </c>
       <c r="C65" s="74">
         <v>44878</v>
@@ -3472,671 +3510,659 @@
       <c r="H65" s="77" t="s">
         <v>11</v>
       </c>
-      <c r="I65" s="154"/>
-      <c r="J65" s="152"/>
-      <c r="K65" s="153"/>
-      <c r="L65" s="136"/>
+      <c r="I65" s="139"/>
+      <c r="J65" s="130"/>
+      <c r="K65" s="131"/>
+      <c r="L65" s="180"/>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A66" s="170">
+      <c r="A66" s="108">
+        <v>17</v>
+      </c>
+      <c r="B66" s="109"/>
+      <c r="C66" s="110"/>
+      <c r="D66" s="110"/>
+      <c r="E66" s="110"/>
+      <c r="F66" s="109"/>
+      <c r="G66" s="109"/>
+      <c r="H66" s="111"/>
+      <c r="I66" s="124" t="s">
+        <v>0</v>
+      </c>
+      <c r="J66" s="112"/>
+      <c r="K66" s="109"/>
+      <c r="L66" s="113"/>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A67" s="128">
+        <v>18</v>
+      </c>
+      <c r="B67" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C67" s="28">
+        <v>44835</v>
+      </c>
+      <c r="D67" s="28"/>
+      <c r="E67" s="78">
+        <v>44836</v>
+      </c>
+      <c r="F67" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="G67" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="H67" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="I67" s="139" t="s">
+        <v>4</v>
+      </c>
+      <c r="J67" s="130">
+        <v>47</v>
+      </c>
+      <c r="K67" s="131">
+        <v>3</v>
+      </c>
+      <c r="L67" s="178"/>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A68" s="128"/>
+      <c r="B68" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C68" s="28">
+        <v>44846</v>
+      </c>
+      <c r="D68" s="28"/>
+      <c r="E68" s="28">
+        <v>44850</v>
+      </c>
+      <c r="F68" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="G68" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="H68" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="I68" s="139"/>
+      <c r="J68" s="130"/>
+      <c r="K68" s="131"/>
+      <c r="L68" s="179"/>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A69" s="128"/>
+      <c r="B69" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="C69" s="28">
+        <v>44859</v>
+      </c>
+      <c r="D69" s="28">
+        <v>44835</v>
+      </c>
+      <c r="E69" s="28">
+        <v>44836</v>
+      </c>
+      <c r="F69" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="G69" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="H69" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="I69" s="139"/>
+      <c r="J69" s="130"/>
+      <c r="K69" s="131"/>
+      <c r="L69" s="179"/>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A70" s="128"/>
+      <c r="B70" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="C70" s="74">
+        <v>44878</v>
+      </c>
+      <c r="D70" s="74">
+        <v>44885</v>
+      </c>
+      <c r="E70" s="74">
+        <v>44888</v>
+      </c>
+      <c r="F70" s="75" t="s">
+        <v>10</v>
+      </c>
+      <c r="G70" s="76" t="s">
+        <v>9</v>
+      </c>
+      <c r="H70" s="77" t="s">
+        <v>11</v>
+      </c>
+      <c r="I70" s="139"/>
+      <c r="J70" s="130"/>
+      <c r="K70" s="131"/>
+      <c r="L70" s="180"/>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A71" s="157">
         <v>19</v>
       </c>
-      <c r="B66" s="15" t="s">
+      <c r="B71" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="C66" s="13">
+      <c r="C71" s="13">
         <v>44822</v>
       </c>
-      <c r="D66" s="13"/>
-      <c r="E66" s="13">
+      <c r="D71" s="13"/>
+      <c r="E71" s="13">
         <v>44822</v>
       </c>
-      <c r="F66" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="G66" s="15" t="s">
+      <c r="F71" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="G71" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="H66" s="16" t="s">
+      <c r="H71" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="I66" s="154" t="s">
+      <c r="I71" s="139" t="s">
         <v>4</v>
       </c>
-      <c r="J66" s="158">
+      <c r="J71" s="153">
         <v>68</v>
       </c>
-      <c r="K66" s="158">
+      <c r="K71" s="153">
         <v>4</v>
       </c>
-      <c r="L66" s="140"/>
-    </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A67" s="171"/>
-      <c r="B67" s="15" t="s">
+      <c r="L71" s="170"/>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A72" s="158"/>
+      <c r="B72" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="C67" s="13">
+      <c r="C72" s="13">
         <v>44842</v>
       </c>
-      <c r="D67" s="13"/>
-      <c r="E67" s="13">
+      <c r="D72" s="13"/>
+      <c r="E72" s="13">
         <v>44813</v>
       </c>
-      <c r="F67" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="G67" s="15" t="s">
+      <c r="F72" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="G72" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="H67" s="16" t="s">
+      <c r="H72" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="I67" s="154"/>
-      <c r="J67" s="159"/>
-      <c r="K67" s="159"/>
-      <c r="L67" s="141"/>
-    </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A68" s="171"/>
-      <c r="B68" s="47" t="s">
+      <c r="I72" s="139"/>
+      <c r="J72" s="154"/>
+      <c r="K72" s="154"/>
+      <c r="L72" s="171"/>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A73" s="158"/>
+      <c r="B73" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="C68" s="79">
+      <c r="C73" s="79">
         <v>44857</v>
       </c>
-      <c r="D68" s="79">
+      <c r="D73" s="79">
         <v>44871</v>
       </c>
-      <c r="E68" s="79">
+      <c r="E73" s="79">
         <v>44875</v>
       </c>
-      <c r="F68" s="80" t="s">
-        <v>10</v>
-      </c>
-      <c r="G68" s="47" t="s">
+      <c r="F73" s="80" t="s">
+        <v>10</v>
+      </c>
+      <c r="G73" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="H68" s="81" t="s">
+      <c r="H73" s="81" t="s">
         <v>11</v>
       </c>
-      <c r="I68" s="154"/>
-      <c r="J68" s="159"/>
-      <c r="K68" s="159"/>
-      <c r="L68" s="141"/>
-    </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A69" s="169"/>
-      <c r="B69" s="17" t="s">
+      <c r="I73" s="139"/>
+      <c r="J73" s="154"/>
+      <c r="K73" s="154"/>
+      <c r="L73" s="171"/>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A74" s="159"/>
+      <c r="B74" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="C69" s="18">
+      <c r="C74" s="18">
         <v>44887</v>
       </c>
-      <c r="D69" s="18">
+      <c r="D74" s="18">
         <v>44894</v>
       </c>
-      <c r="E69" s="18">
+      <c r="E74" s="18">
         <v>44895</v>
       </c>
-      <c r="F69" s="19" t="s">
+      <c r="F74" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="G69" s="20" t="s">
+      <c r="G74" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="H69" s="21" t="s">
+      <c r="H74" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="I69" s="154"/>
-      <c r="J69" s="160"/>
-      <c r="K69" s="160"/>
-      <c r="L69" s="142"/>
-    </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A70" s="150">
+      <c r="I74" s="139"/>
+      <c r="J74" s="155"/>
+      <c r="K74" s="155"/>
+      <c r="L74" s="166"/>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A75" s="128">
         <v>20</v>
       </c>
-      <c r="B70" s="22" t="s">
+      <c r="B75" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="C70" s="39">
+      <c r="C75" s="39">
         <v>44815</v>
       </c>
-      <c r="D70" s="39"/>
-      <c r="E70" s="39">
+      <c r="D75" s="39"/>
+      <c r="E75" s="39">
         <v>44818</v>
       </c>
-      <c r="F70" s="40" t="s">
-        <v>10</v>
-      </c>
-      <c r="G70" s="22" t="s">
+      <c r="F75" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="G75" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="H70" s="41" t="s">
+      <c r="H75" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="I70" s="154" t="s">
+      <c r="I75" s="139" t="s">
         <v>4</v>
       </c>
-      <c r="J70" s="152">
+      <c r="J75" s="130">
         <v>13</v>
       </c>
-      <c r="K70" s="153">
+      <c r="K75" s="131">
         <v>1</v>
       </c>
-      <c r="L70" s="134"/>
-    </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A71" s="150"/>
-      <c r="B71" s="22" t="s">
+      <c r="L75" s="178"/>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A76" s="128"/>
+      <c r="B76" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="C71" s="39">
+      <c r="C76" s="39">
         <v>44842</v>
       </c>
-      <c r="D71" s="39"/>
-      <c r="E71" s="39">
+      <c r="D76" s="39"/>
+      <c r="E76" s="39">
         <v>44813</v>
       </c>
-      <c r="F71" s="40" t="s">
-        <v>10</v>
-      </c>
-      <c r="G71" s="22" t="s">
+      <c r="F76" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="G76" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="H71" s="41" t="s">
+      <c r="H76" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="I71" s="154"/>
-      <c r="J71" s="152"/>
-      <c r="K71" s="153"/>
-      <c r="L71" s="135"/>
-    </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A72" s="150"/>
-      <c r="B72" s="27" t="s">
+      <c r="I76" s="139"/>
+      <c r="J76" s="130"/>
+      <c r="K76" s="131"/>
+      <c r="L76" s="179"/>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A77" s="128"/>
+      <c r="B77" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="C72" s="39">
+      <c r="C77" s="39">
         <v>44857</v>
       </c>
-      <c r="D72" s="39">
+      <c r="D77" s="39">
         <v>44871</v>
       </c>
-      <c r="E72" s="39">
+      <c r="E77" s="39">
         <v>44875</v>
       </c>
-      <c r="F72" s="40" t="s">
-        <v>10</v>
-      </c>
-      <c r="G72" s="22" t="s">
+      <c r="F77" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="G77" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="H72" s="41" t="s">
+      <c r="H77" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="I72" s="154"/>
-      <c r="J72" s="152"/>
-      <c r="K72" s="153"/>
-      <c r="L72" s="135"/>
-    </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A73" s="150"/>
-      <c r="B73" s="35" t="s">
+      <c r="I77" s="139"/>
+      <c r="J77" s="130"/>
+      <c r="K77" s="131"/>
+      <c r="L77" s="179"/>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A78" s="128"/>
+      <c r="B78" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="C73" s="74">
+      <c r="C78" s="74">
         <v>44878</v>
       </c>
-      <c r="D73" s="74">
+      <c r="D78" s="74">
         <v>44885</v>
       </c>
-      <c r="E73" s="74">
+      <c r="E78" s="74">
         <v>44888</v>
       </c>
-      <c r="F73" s="75" t="s">
-        <v>10</v>
-      </c>
-      <c r="G73" s="76" t="s">
+      <c r="F78" s="75" t="s">
+        <v>10</v>
+      </c>
+      <c r="G78" s="76" t="s">
         <v>38</v>
       </c>
-      <c r="H73" s="77" t="s">
+      <c r="H78" s="77" t="s">
         <v>11</v>
       </c>
-      <c r="I73" s="154"/>
-      <c r="J73" s="152"/>
-      <c r="K73" s="153"/>
-      <c r="L73" s="136"/>
-    </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A74" s="144">
+      <c r="I78" s="139"/>
+      <c r="J78" s="130"/>
+      <c r="K78" s="131"/>
+      <c r="L78" s="180"/>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A79" s="156">
         <v>21</v>
       </c>
-      <c r="B74" s="12" t="s">
+      <c r="B79" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="C74" s="54">
+      <c r="C79" s="54">
         <v>44815</v>
       </c>
-      <c r="D74" s="54"/>
-      <c r="E74" s="54">
+      <c r="D79" s="54"/>
+      <c r="E79" s="54">
         <v>44818</v>
       </c>
-      <c r="F74" s="55" t="s">
-        <v>10</v>
-      </c>
-      <c r="G74" s="56" t="s">
+      <c r="F79" s="55" t="s">
+        <v>10</v>
+      </c>
+      <c r="G79" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="H74" s="57" t="s">
+      <c r="H79" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="I74" s="154" t="s">
+      <c r="I79" s="139" t="s">
         <v>4</v>
       </c>
-      <c r="J74" s="148">
+      <c r="J79" s="132">
         <v>94</v>
       </c>
-      <c r="K74" s="149">
+      <c r="K79" s="133">
         <v>6</v>
       </c>
-      <c r="L74" s="143"/>
-    </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A75" s="144"/>
-      <c r="B75" s="15" t="s">
+      <c r="L79" s="134"/>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A80" s="156"/>
+      <c r="B80" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="C75" s="13">
+      <c r="C80" s="13">
         <v>44842</v>
       </c>
-      <c r="D75" s="13"/>
-      <c r="E75" s="13">
+      <c r="D80" s="13"/>
+      <c r="E80" s="13">
         <v>44813</v>
       </c>
-      <c r="F75" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="G75" s="15" t="s">
+      <c r="F80" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="G80" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="H75" s="16" t="s">
+      <c r="H80" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="I75" s="154"/>
-      <c r="J75" s="148"/>
-      <c r="K75" s="149"/>
-      <c r="L75" s="143"/>
-    </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A76" s="144"/>
-      <c r="B76" s="47" t="s">
+      <c r="I80" s="139"/>
+      <c r="J80" s="132"/>
+      <c r="K80" s="133"/>
+      <c r="L80" s="134"/>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A81" s="156"/>
+      <c r="B81" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="C76" s="79">
+      <c r="C81" s="79">
         <v>44857</v>
       </c>
-      <c r="D76" s="79">
+      <c r="D81" s="79">
         <v>44871</v>
       </c>
-      <c r="E76" s="79">
+      <c r="E81" s="79">
         <v>44875</v>
       </c>
-      <c r="F76" s="80" t="s">
-        <v>10</v>
-      </c>
-      <c r="G76" s="47" t="s">
+      <c r="F81" s="80" t="s">
+        <v>10</v>
+      </c>
+      <c r="G81" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="H76" s="81" t="s">
+      <c r="H81" s="81" t="s">
         <v>11</v>
       </c>
-      <c r="I76" s="154"/>
-      <c r="J76" s="148"/>
-      <c r="K76" s="149"/>
-      <c r="L76" s="143"/>
-    </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A77" s="144"/>
-      <c r="B77" s="82" t="s">
+      <c r="I81" s="139"/>
+      <c r="J81" s="132"/>
+      <c r="K81" s="133"/>
+      <c r="L81" s="134"/>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A82" s="156"/>
+      <c r="B82" s="82" t="s">
         <v>41</v>
       </c>
-      <c r="C77" s="83">
+      <c r="C82" s="83">
         <v>44878</v>
       </c>
-      <c r="D77" s="83">
+      <c r="D82" s="83">
         <v>44885</v>
       </c>
-      <c r="E77" s="83">
+      <c r="E82" s="83">
         <v>44888</v>
       </c>
-      <c r="F77" s="84" t="s">
-        <v>10</v>
-      </c>
-      <c r="G77" s="17" t="s">
+      <c r="F82" s="84" t="s">
+        <v>10</v>
+      </c>
+      <c r="G82" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="H77" s="85" t="s">
+      <c r="H82" s="85" t="s">
         <v>11</v>
       </c>
-      <c r="I77" s="154"/>
-      <c r="J77" s="148"/>
-      <c r="K77" s="149"/>
-      <c r="L77" s="143"/>
-    </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A78" s="150">
+      <c r="I82" s="139"/>
+      <c r="J82" s="132"/>
+      <c r="K82" s="133"/>
+      <c r="L82" s="134"/>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A83" s="128">
         <v>22</v>
       </c>
-      <c r="B78" s="22" t="s">
+      <c r="B83" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="C78" s="32">
+      <c r="C83" s="32">
         <v>44822</v>
       </c>
-      <c r="D78" s="32">
+      <c r="D83" s="32">
         <v>44828</v>
       </c>
-      <c r="E78" s="32">
+      <c r="E83" s="32">
         <v>44828</v>
       </c>
-      <c r="F78" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="G78" s="27" t="s">
+      <c r="F83" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="G83" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="H78" s="34" t="s">
+      <c r="H83" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="I78" s="154" t="s">
+      <c r="I83" s="139" t="s">
         <v>4</v>
       </c>
-      <c r="J78" s="152">
+      <c r="J83" s="130">
         <v>67</v>
       </c>
-      <c r="K78" s="153">
+      <c r="K83" s="131">
         <v>4</v>
       </c>
-      <c r="L78" s="134"/>
-    </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A79" s="150"/>
-      <c r="B79" s="22" t="s">
+      <c r="L83" s="178"/>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A84" s="128"/>
+      <c r="B84" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="C79" s="32">
+      <c r="C84" s="32">
         <v>44846</v>
       </c>
-      <c r="D79" s="32"/>
-      <c r="E79" s="32">
+      <c r="D84" s="32"/>
+      <c r="E84" s="32">
         <v>44850</v>
       </c>
-      <c r="F79" s="33" t="s">
+      <c r="F84" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="G79" s="27" t="s">
+      <c r="G84" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="H79" s="34" t="s">
+      <c r="H84" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="I79" s="154"/>
-      <c r="J79" s="152"/>
-      <c r="K79" s="153"/>
-      <c r="L79" s="135"/>
-    </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A80" s="150"/>
-      <c r="B80" s="27" t="s">
+      <c r="I84" s="139"/>
+      <c r="J84" s="130"/>
+      <c r="K84" s="131"/>
+      <c r="L84" s="179"/>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A85" s="128"/>
+      <c r="B85" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="C80" s="39">
+      <c r="C85" s="39">
         <v>44854</v>
       </c>
-      <c r="D80" s="39">
+      <c r="D85" s="39">
         <v>44861</v>
       </c>
-      <c r="E80" s="39">
+      <c r="E85" s="39">
         <v>44864</v>
       </c>
-      <c r="F80" s="40" t="s">
+      <c r="F85" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="G80" s="22" t="s">
+      <c r="G85" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="H80" s="41" t="s">
+      <c r="H85" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="I80" s="154"/>
-      <c r="J80" s="152"/>
-      <c r="K80" s="153"/>
-      <c r="L80" s="135"/>
-    </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A81" s="150"/>
-      <c r="B81" s="35" t="s">
+      <c r="I85" s="139"/>
+      <c r="J85" s="130"/>
+      <c r="K85" s="131"/>
+      <c r="L85" s="179"/>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A86" s="128"/>
+      <c r="B86" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="C81" s="74">
+      <c r="C86" s="74">
         <v>44878</v>
       </c>
-      <c r="D81" s="74">
+      <c r="D86" s="74">
         <v>44885</v>
       </c>
-      <c r="E81" s="74">
+      <c r="E86" s="74">
         <v>44888</v>
       </c>
-      <c r="F81" s="75" t="s">
-        <v>10</v>
-      </c>
-      <c r="G81" s="76" t="s">
+      <c r="F86" s="75" t="s">
+        <v>10</v>
+      </c>
+      <c r="G86" s="76" t="s">
         <v>38</v>
       </c>
-      <c r="H81" s="77" t="s">
+      <c r="H86" s="77" t="s">
         <v>11</v>
       </c>
-      <c r="I81" s="154"/>
-      <c r="J81" s="152"/>
-      <c r="K81" s="153"/>
-      <c r="L81" s="136"/>
-    </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A82" s="144">
+      <c r="I86" s="139"/>
+      <c r="J86" s="130"/>
+      <c r="K86" s="131"/>
+      <c r="L86" s="180"/>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A87" s="156">
         <v>23</v>
       </c>
-      <c r="B82" s="12" t="s">
+      <c r="B87" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="C82" s="54">
+      <c r="C87" s="54">
         <v>44808</v>
       </c>
-      <c r="D82" s="54"/>
-      <c r="E82" s="54">
+      <c r="D87" s="54"/>
+      <c r="E87" s="54">
         <v>44818</v>
       </c>
-      <c r="F82" s="55" t="s">
-        <v>10</v>
-      </c>
-      <c r="G82" s="56" t="s">
+      <c r="F87" s="55" t="s">
+        <v>10</v>
+      </c>
+      <c r="G87" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="H82" s="57" t="s">
+      <c r="H87" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="I82" s="154" t="s">
+      <c r="I87" s="139" t="s">
         <v>4</v>
       </c>
-      <c r="J82" s="148">
+      <c r="J87" s="132">
         <v>22</v>
       </c>
-      <c r="K82" s="149">
+      <c r="K87" s="133">
         <v>2</v>
       </c>
-      <c r="L82" s="143"/>
-    </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A83" s="144"/>
-      <c r="B83" s="15" t="s">
+      <c r="L87" s="134"/>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A88" s="156"/>
+      <c r="B88" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="C83" s="54">
+      <c r="C88" s="54">
         <v>44850</v>
-      </c>
-      <c r="D83" s="54"/>
-      <c r="E83" s="54">
-        <v>44850</v>
-      </c>
-      <c r="F83" s="55" t="s">
-        <v>10</v>
-      </c>
-      <c r="G83" s="56" t="s">
-        <v>39</v>
-      </c>
-      <c r="H83" s="57" t="s">
-        <v>40</v>
-      </c>
-      <c r="I83" s="154"/>
-      <c r="J83" s="148"/>
-      <c r="K83" s="149"/>
-      <c r="L83" s="143"/>
-    </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A84" s="144"/>
-      <c r="B84" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="C84" s="54">
-        <v>44854</v>
-      </c>
-      <c r="D84" s="54">
-        <v>44861</v>
-      </c>
-      <c r="E84" s="54">
-        <v>44864</v>
-      </c>
-      <c r="F84" s="55" t="s">
-        <v>3</v>
-      </c>
-      <c r="G84" s="56" t="s">
-        <v>13</v>
-      </c>
-      <c r="H84" s="57" t="s">
-        <v>1</v>
-      </c>
-      <c r="I84" s="154"/>
-      <c r="J84" s="148"/>
-      <c r="K84" s="149"/>
-      <c r="L84" s="143"/>
-    </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A85" s="144"/>
-      <c r="B85" s="82" t="s">
-        <v>41</v>
-      </c>
-      <c r="C85" s="18">
-        <v>44878</v>
-      </c>
-      <c r="D85" s="18">
-        <v>44885</v>
-      </c>
-      <c r="E85" s="18">
-        <v>44888</v>
-      </c>
-      <c r="F85" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="G85" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="H85" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="I85" s="154"/>
-      <c r="J85" s="148"/>
-      <c r="K85" s="149"/>
-      <c r="L85" s="143"/>
-    </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A86" s="150">
-        <v>24</v>
-      </c>
-      <c r="B86" s="27" t="s">
-        <v>26</v>
-      </c>
-      <c r="C86" s="32">
-        <v>44815</v>
-      </c>
-      <c r="D86" s="32"/>
-      <c r="E86" s="32">
-        <v>44818</v>
-      </c>
-      <c r="F86" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="G86" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="H86" s="34" t="s">
-        <v>11</v>
-      </c>
-      <c r="I86" s="154" t="s">
-        <v>4</v>
-      </c>
-      <c r="J86" s="152">
-        <v>31</v>
-      </c>
-      <c r="K86" s="153">
-        <v>2</v>
-      </c>
-      <c r="L86" s="134"/>
-    </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A87" s="150"/>
-      <c r="B87" s="35" t="s">
-        <v>25</v>
-      </c>
-      <c r="C87" s="74">
-        <v>44878</v>
-      </c>
-      <c r="D87" s="74">
-        <v>44885</v>
-      </c>
-      <c r="E87" s="74">
-        <v>44888</v>
-      </c>
-      <c r="F87" s="75" t="s">
-        <v>10</v>
-      </c>
-      <c r="G87" s="76" t="s">
-        <v>38</v>
-      </c>
-      <c r="H87" s="77" t="s">
-        <v>11</v>
-      </c>
-      <c r="I87" s="154"/>
-      <c r="J87" s="152"/>
-      <c r="K87" s="153"/>
-      <c r="L87" s="136"/>
-    </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A88" s="166">
-        <v>25</v>
-      </c>
-      <c r="B88" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="C88" s="54">
-        <v>44846</v>
       </c>
       <c r="D88" s="54"/>
       <c r="E88" s="54">
-        <v>44846</v>
+        <v>44850</v>
       </c>
       <c r="F88" s="55" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="G88" s="56" t="s">
         <v>39</v>
@@ -4144,2611 +4170,2570 @@
       <c r="H88" s="57" t="s">
         <v>40</v>
       </c>
-      <c r="I88" s="154" t="s">
+      <c r="I88" s="139"/>
+      <c r="J88" s="132"/>
+      <c r="K88" s="133"/>
+      <c r="L88" s="134"/>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A89" s="156"/>
+      <c r="B89" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="C89" s="54">
+        <v>44854</v>
+      </c>
+      <c r="D89" s="54">
+        <v>44861</v>
+      </c>
+      <c r="E89" s="54">
+        <v>44864</v>
+      </c>
+      <c r="F89" s="55" t="s">
+        <v>3</v>
+      </c>
+      <c r="G89" s="56" t="s">
+        <v>13</v>
+      </c>
+      <c r="H89" s="57" t="s">
+        <v>1</v>
+      </c>
+      <c r="I89" s="139"/>
+      <c r="J89" s="132"/>
+      <c r="K89" s="133"/>
+      <c r="L89" s="134"/>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A90" s="156"/>
+      <c r="B90" s="82" t="s">
+        <v>41</v>
+      </c>
+      <c r="C90" s="18">
+        <v>44878</v>
+      </c>
+      <c r="D90" s="18">
+        <v>44885</v>
+      </c>
+      <c r="E90" s="18">
+        <v>44888</v>
+      </c>
+      <c r="F90" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="G90" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="H90" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="I90" s="139"/>
+      <c r="J90" s="132"/>
+      <c r="K90" s="133"/>
+      <c r="L90" s="134"/>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A91" s="128">
+        <v>24</v>
+      </c>
+      <c r="B91" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C91" s="32">
+        <v>44815</v>
+      </c>
+      <c r="D91" s="32"/>
+      <c r="E91" s="32">
+        <v>44818</v>
+      </c>
+      <c r="F91" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="G91" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="H91" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="I91" s="139" t="s">
         <v>4</v>
       </c>
-      <c r="J88" s="158">
+      <c r="J91" s="130">
+        <v>31</v>
+      </c>
+      <c r="K91" s="131">
+        <v>2</v>
+      </c>
+      <c r="L91" s="178"/>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A92" s="128"/>
+      <c r="B92" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="C92" s="74">
+        <v>44878</v>
+      </c>
+      <c r="D92" s="74">
+        <v>44885</v>
+      </c>
+      <c r="E92" s="74">
+        <v>44888</v>
+      </c>
+      <c r="F92" s="75" t="s">
+        <v>10</v>
+      </c>
+      <c r="G92" s="76" t="s">
+        <v>38</v>
+      </c>
+      <c r="H92" s="77" t="s">
+        <v>11</v>
+      </c>
+      <c r="I92" s="139"/>
+      <c r="J92" s="130"/>
+      <c r="K92" s="131"/>
+      <c r="L92" s="180"/>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A93" s="146">
+        <v>25</v>
+      </c>
+      <c r="B93" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C93" s="54">
+        <v>44846</v>
+      </c>
+      <c r="D93" s="54"/>
+      <c r="E93" s="54">
+        <v>44846</v>
+      </c>
+      <c r="F93" s="55" t="s">
+        <v>23</v>
+      </c>
+      <c r="G93" s="56" t="s">
+        <v>39</v>
+      </c>
+      <c r="H93" s="57" t="s">
+        <v>40</v>
+      </c>
+      <c r="I93" s="139" t="s">
+        <v>4</v>
+      </c>
+      <c r="J93" s="153">
         <v>44</v>
       </c>
-      <c r="K88" s="158">
+      <c r="K93" s="153">
         <v>3</v>
       </c>
-      <c r="L88" s="140"/>
-    </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A89" s="167"/>
-      <c r="B89" s="47" t="s">
+      <c r="L93" s="170"/>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A94" s="147"/>
+      <c r="B94" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="C89" s="42">
+      <c r="C94" s="42">
         <v>44855</v>
       </c>
-      <c r="D89" s="42">
+      <c r="D94" s="42">
         <v>44862</v>
       </c>
-      <c r="E89" s="42">
+      <c r="E94" s="42">
         <v>44864</v>
       </c>
-      <c r="F89" s="43" t="s">
+      <c r="F94" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="G89" s="44" t="s">
+      <c r="G94" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="H89" s="45" t="s">
+      <c r="H94" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="I89" s="154"/>
-      <c r="J89" s="159"/>
-      <c r="K89" s="159"/>
-      <c r="L89" s="141"/>
-    </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A90" s="168"/>
-      <c r="B90" s="17" t="s">
+      <c r="I94" s="139"/>
+      <c r="J94" s="154"/>
+      <c r="K94" s="154"/>
+      <c r="L94" s="171"/>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A95" s="148"/>
+      <c r="B95" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="C90" s="18">
+      <c r="C95" s="18">
         <v>44887</v>
       </c>
-      <c r="D90" s="18">
+      <c r="D95" s="18">
         <v>44894</v>
       </c>
-      <c r="E90" s="18">
+      <c r="E95" s="18">
         <v>44895</v>
       </c>
-      <c r="F90" s="19" t="s">
+      <c r="F95" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="G90" s="20" t="s">
+      <c r="G95" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="H90" s="21" t="s">
+      <c r="H95" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="I90" s="154"/>
-      <c r="J90" s="160"/>
-      <c r="K90" s="160"/>
-      <c r="L90" s="142"/>
-    </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A91" s="150">
+      <c r="I95" s="139"/>
+      <c r="J95" s="155"/>
+      <c r="K95" s="155"/>
+      <c r="L95" s="166"/>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A96" s="128">
         <v>26</v>
       </c>
-      <c r="B91" s="25" t="s">
+      <c r="B96" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="C91" s="28">
+      <c r="C96" s="28">
         <v>44829</v>
       </c>
-      <c r="D91" s="28"/>
-      <c r="E91" s="28">
+      <c r="D96" s="28"/>
+      <c r="E96" s="28">
         <v>44832</v>
       </c>
-      <c r="F91" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="G91" s="30" t="s">
+      <c r="F96" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="G96" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="H91" s="31" t="s">
+      <c r="H96" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="I91" s="154" t="s">
+      <c r="I96" s="139" t="s">
         <v>4</v>
       </c>
-      <c r="J91" s="152">
+      <c r="J96" s="130">
         <v>30</v>
       </c>
-      <c r="K91" s="153">
+      <c r="K96" s="131">
         <v>3</v>
       </c>
-      <c r="L91" s="134"/>
-    </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A92" s="150"/>
-      <c r="B92" s="25" t="s">
+      <c r="L96" s="178"/>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A97" s="128"/>
+      <c r="B97" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="C92" s="28">
+      <c r="C97" s="28">
         <v>44850</v>
       </c>
-      <c r="D92" s="28"/>
-      <c r="E92" s="28">
+      <c r="D97" s="28"/>
+      <c r="E97" s="28">
         <v>44850</v>
       </c>
-      <c r="F92" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="G92" s="30" t="s">
+      <c r="F97" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="G97" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="H92" s="31" t="s">
+      <c r="H97" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="I92" s="154"/>
-      <c r="J92" s="152"/>
-      <c r="K92" s="153"/>
-      <c r="L92" s="135"/>
-    </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A93" s="150"/>
-      <c r="B93" s="30" t="s">
+      <c r="I97" s="139"/>
+      <c r="J97" s="130"/>
+      <c r="K97" s="131"/>
+      <c r="L97" s="179"/>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A98" s="128"/>
+      <c r="B98" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="C93" s="28">
+      <c r="C98" s="28">
         <v>44855</v>
       </c>
-      <c r="D93" s="28">
+      <c r="D98" s="28">
         <v>44862</v>
       </c>
-      <c r="E93" s="28">
+      <c r="E98" s="28">
         <v>44864</v>
       </c>
-      <c r="F93" s="29" t="s">
+      <c r="F98" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="G93" s="30" t="s">
+      <c r="G98" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="H93" s="31" t="s">
+      <c r="H98" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="I93" s="154"/>
-      <c r="J93" s="152"/>
-      <c r="K93" s="153"/>
-      <c r="L93" s="135"/>
-    </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A94" s="150"/>
-      <c r="B94" s="35" t="s">
+      <c r="I98" s="139"/>
+      <c r="J98" s="130"/>
+      <c r="K98" s="131"/>
+      <c r="L98" s="179"/>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A99" s="128"/>
+      <c r="B99" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="C94" s="74">
+      <c r="C99" s="74">
         <v>44878</v>
       </c>
-      <c r="D94" s="74">
+      <c r="D99" s="74">
         <v>44885</v>
       </c>
-      <c r="E94" s="74">
+      <c r="E99" s="74">
         <v>44888</v>
       </c>
-      <c r="F94" s="75" t="s">
-        <v>10</v>
-      </c>
-      <c r="G94" s="76" t="s">
+      <c r="F99" s="75" t="s">
+        <v>10</v>
+      </c>
+      <c r="G99" s="76" t="s">
         <v>38</v>
       </c>
-      <c r="H94" s="77" t="s">
+      <c r="H99" s="77" t="s">
         <v>11</v>
       </c>
-      <c r="I94" s="154"/>
-      <c r="J94" s="152"/>
-      <c r="K94" s="153"/>
-      <c r="L94" s="136"/>
-    </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A95" s="144">
+      <c r="I99" s="139"/>
+      <c r="J99" s="130"/>
+      <c r="K99" s="131"/>
+      <c r="L99" s="180"/>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A100" s="156">
         <v>27</v>
       </c>
-      <c r="B95" s="12" t="s">
+      <c r="B100" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="C95" s="86">
+      <c r="C100" s="86">
         <v>44810</v>
       </c>
-      <c r="D95" s="86"/>
-      <c r="E95" s="86">
+      <c r="D100" s="86"/>
+      <c r="E100" s="86">
         <v>44818</v>
       </c>
-      <c r="F95" s="87" t="s">
+      <c r="F100" s="87" t="s">
         <v>15</v>
       </c>
-      <c r="G95" s="88" t="s">
+      <c r="G100" s="88" t="s">
         <v>17</v>
       </c>
-      <c r="H95" s="89" t="s">
+      <c r="H100" s="89" t="s">
         <v>16</v>
       </c>
-      <c r="I95" s="151" t="s">
+      <c r="I100" s="129" t="s">
         <v>0</v>
       </c>
-      <c r="J95" s="148">
+      <c r="J100" s="132">
         <v>12</v>
       </c>
-      <c r="K95" s="149">
+      <c r="K100" s="133">
         <v>1</v>
       </c>
-      <c r="L95" s="143"/>
-    </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A96" s="144"/>
-      <c r="B96" s="15" t="s">
+      <c r="L100" s="134"/>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A101" s="156"/>
+      <c r="B101" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="C96" s="54">
+      <c r="C101" s="54">
         <v>44829</v>
       </c>
-      <c r="D96" s="54"/>
-      <c r="E96" s="54">
+      <c r="D101" s="54"/>
+      <c r="E101" s="54">
         <v>44836</v>
       </c>
-      <c r="F96" s="55" t="s">
-        <v>10</v>
-      </c>
-      <c r="G96" s="56" t="s">
+      <c r="F101" s="55" t="s">
+        <v>10</v>
+      </c>
+      <c r="G101" s="56" t="s">
         <v>24</v>
       </c>
-      <c r="H96" s="57" t="s">
+      <c r="H101" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="I96" s="151"/>
-      <c r="J96" s="148"/>
-      <c r="K96" s="149"/>
-      <c r="L96" s="143"/>
-    </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A97" s="144"/>
-      <c r="B97" s="15" t="s">
+      <c r="I101" s="129"/>
+      <c r="J101" s="132"/>
+      <c r="K101" s="133"/>
+      <c r="L101" s="134"/>
+    </row>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A102" s="156"/>
+      <c r="B102" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="C97" s="54">
+      <c r="C102" s="54">
         <v>44855</v>
       </c>
-      <c r="D97" s="54">
+      <c r="D102" s="54">
         <v>44862</v>
       </c>
-      <c r="E97" s="54">
+      <c r="E102" s="54">
         <v>44864</v>
       </c>
-      <c r="F97" s="55" t="s">
+      <c r="F102" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="G97" s="56" t="s">
+      <c r="G102" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="H97" s="57" t="s">
+      <c r="H102" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="I97" s="151"/>
-      <c r="J97" s="148"/>
-      <c r="K97" s="149"/>
-      <c r="L97" s="143"/>
-    </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A98" s="144"/>
-      <c r="B98" s="82" t="s">
+      <c r="I102" s="129"/>
+      <c r="J102" s="132"/>
+      <c r="K102" s="133"/>
+      <c r="L102" s="134"/>
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A103" s="156"/>
+      <c r="B103" s="82" t="s">
         <v>41</v>
       </c>
-      <c r="C98" s="18">
+      <c r="C103" s="18">
         <v>44869</v>
       </c>
-      <c r="D98" s="18">
+      <c r="D103" s="18">
         <v>44876</v>
       </c>
-      <c r="E98" s="18">
+      <c r="E103" s="18">
         <v>44878</v>
       </c>
-      <c r="F98" s="19" t="s">
+      <c r="F103" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="G98" s="20" t="s">
+      <c r="G103" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="H98" s="21" t="s">
+      <c r="H103" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="I98" s="151"/>
-      <c r="J98" s="148"/>
-      <c r="K98" s="149"/>
-      <c r="L98" s="143"/>
-    </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A99" s="150">
+      <c r="I103" s="129"/>
+      <c r="J103" s="132"/>
+      <c r="K103" s="133"/>
+      <c r="L103" s="134"/>
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A104" s="128">
         <v>28</v>
       </c>
-      <c r="B99" s="25" t="s">
+      <c r="B104" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="C99" s="23">
+      <c r="C104" s="23">
         <v>44807</v>
       </c>
-      <c r="D99" s="23"/>
-      <c r="E99" s="23">
+      <c r="D104" s="23"/>
+      <c r="E104" s="23">
         <v>44808</v>
       </c>
-      <c r="F99" s="24" t="s">
+      <c r="F104" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="G99" s="25" t="s">
+      <c r="G104" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="H99" s="26" t="s">
+      <c r="H104" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="I99" s="151" t="s">
+      <c r="I104" s="129" t="s">
         <v>0</v>
       </c>
-      <c r="J99" s="152">
+      <c r="J104" s="130">
         <v>21</v>
       </c>
-      <c r="K99" s="153">
+      <c r="K104" s="131">
         <v>2</v>
       </c>
-      <c r="L99" s="165"/>
-    </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A100" s="150"/>
-      <c r="B100" s="25" t="s">
+      <c r="L104" s="164"/>
+    </row>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A105" s="128"/>
+      <c r="B105" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="C100" s="28">
+      <c r="C105" s="28">
         <v>44829</v>
       </c>
-      <c r="D100" s="28">
+      <c r="D105" s="28">
         <v>44843</v>
       </c>
-      <c r="E100" s="28">
+      <c r="E105" s="28">
         <v>44843</v>
       </c>
-      <c r="F100" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="G100" s="30" t="s">
+      <c r="F105" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="G105" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="H100" s="31" t="s">
+      <c r="H105" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="I100" s="151"/>
-      <c r="J100" s="152"/>
-      <c r="K100" s="153"/>
-      <c r="L100" s="165"/>
-    </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A101" s="150"/>
-      <c r="B101" s="35" t="s">
+      <c r="I105" s="129"/>
+      <c r="J105" s="130"/>
+      <c r="K105" s="131"/>
+      <c r="L105" s="164"/>
+    </row>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A106" s="128"/>
+      <c r="B106" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="C101" s="36">
+      <c r="C106" s="36">
         <v>44869</v>
       </c>
-      <c r="D101" s="36">
+      <c r="D106" s="36">
         <v>44876</v>
       </c>
-      <c r="E101" s="36">
+      <c r="E106" s="36">
         <v>44878</v>
       </c>
-      <c r="F101" s="37" t="s">
+      <c r="F106" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="G101" s="35" t="s">
+      <c r="G106" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="H101" s="53" t="s">
+      <c r="H106" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="I101" s="151"/>
-      <c r="J101" s="152"/>
-      <c r="K101" s="153"/>
-      <c r="L101" s="165"/>
-    </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A102" s="175">
+      <c r="I106" s="129"/>
+      <c r="J106" s="130"/>
+      <c r="K106" s="131"/>
+      <c r="L106" s="164"/>
+    </row>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A107" s="135">
         <v>29</v>
       </c>
-      <c r="B102" s="12" t="s">
+      <c r="B107" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="C102" s="86">
+      <c r="C107" s="86">
         <v>44807</v>
       </c>
-      <c r="D102" s="86"/>
-      <c r="E102" s="86">
+      <c r="D107" s="86"/>
+      <c r="E107" s="86">
         <v>44808</v>
       </c>
-      <c r="F102" s="87" t="s">
+      <c r="F107" s="87" t="s">
         <v>7</v>
       </c>
-      <c r="G102" s="88" t="s">
+      <c r="G107" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="H102" s="89" t="s">
+      <c r="H107" s="89" t="s">
         <v>8</v>
       </c>
-      <c r="I102" s="151" t="s">
+      <c r="I107" s="129" t="s">
         <v>0</v>
       </c>
-      <c r="J102" s="148">
+      <c r="J107" s="132">
         <v>35</v>
       </c>
-      <c r="K102" s="149">
+      <c r="K107" s="133">
         <v>2</v>
       </c>
-      <c r="L102" s="143"/>
-    </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A103" s="175"/>
-      <c r="B103" s="15" t="s">
+      <c r="L107" s="134"/>
+    </row>
+    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A108" s="135"/>
+      <c r="B108" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="C103" s="86">
+      <c r="C108" s="86">
         <v>44810</v>
       </c>
-      <c r="D103" s="86"/>
-      <c r="E103" s="86">
+      <c r="D108" s="86"/>
+      <c r="E108" s="86">
         <v>44818</v>
       </c>
-      <c r="F103" s="87" t="s">
+      <c r="F108" s="87" t="s">
         <v>15</v>
       </c>
-      <c r="G103" s="88" t="s">
+      <c r="G108" s="88" t="s">
         <v>17</v>
       </c>
-      <c r="H103" s="89" t="s">
+      <c r="H108" s="89" t="s">
         <v>16</v>
       </c>
-      <c r="I103" s="151"/>
-      <c r="J103" s="148"/>
-      <c r="K103" s="149"/>
-      <c r="L103" s="143"/>
-    </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A104" s="175"/>
-      <c r="B104" s="116" t="s">
+      <c r="I108" s="129"/>
+      <c r="J108" s="132"/>
+      <c r="K108" s="133"/>
+      <c r="L108" s="134"/>
+    </row>
+    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A109" s="135"/>
+      <c r="B109" s="116" t="s">
         <v>27</v>
       </c>
-      <c r="C104" s="120">
+      <c r="C109" s="120">
         <v>44829</v>
       </c>
-      <c r="D104" s="120">
+      <c r="D109" s="120">
         <v>44843</v>
       </c>
-      <c r="E104" s="120">
+      <c r="E109" s="120">
         <v>44843</v>
       </c>
-      <c r="F104" s="121" t="s">
-        <v>10</v>
-      </c>
-      <c r="G104" s="122" t="s">
+      <c r="F109" s="121" t="s">
+        <v>10</v>
+      </c>
+      <c r="G109" s="122" t="s">
         <v>24</v>
       </c>
-      <c r="H104" s="123" t="s">
+      <c r="H109" s="123" t="s">
         <v>11</v>
       </c>
-      <c r="I104" s="151"/>
-      <c r="J104" s="148"/>
-      <c r="K104" s="149"/>
-      <c r="L104" s="143"/>
-    </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A105" s="124">
+      <c r="I109" s="129"/>
+      <c r="J109" s="132"/>
+      <c r="K109" s="133"/>
+      <c r="L109" s="134"/>
+    </row>
+    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A110" s="136">
         <v>30</v>
       </c>
-      <c r="B105" s="25" t="s">
+      <c r="B110" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="C105" s="23">
+      <c r="C110" s="23">
         <v>44807</v>
       </c>
-      <c r="D105" s="23"/>
-      <c r="E105" s="23">
+      <c r="D110" s="23"/>
+      <c r="E110" s="23">
         <v>44815</v>
       </c>
-      <c r="F105" s="24" t="s">
+      <c r="F110" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="G105" s="25" t="s">
+      <c r="G110" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="H105" s="26" t="s">
+      <c r="H110" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="I105" s="154" t="s">
+      <c r="I110" s="139" t="s">
         <v>4</v>
       </c>
-      <c r="J105" s="128">
+      <c r="J110" s="140">
         <v>19</v>
       </c>
-      <c r="K105" s="131">
+      <c r="K110" s="143">
         <v>1</v>
       </c>
-      <c r="L105" s="134"/>
-    </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A106" s="125"/>
-      <c r="B106" s="25" t="s">
+      <c r="L110" s="178"/>
+    </row>
+    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A111" s="137"/>
+      <c r="B111" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="C106" s="23">
+      <c r="C111" s="23">
         <v>44814</v>
       </c>
-      <c r="D106" s="23"/>
-      <c r="E106" s="23">
+      <c r="D111" s="23"/>
+      <c r="E111" s="23">
         <v>44815</v>
       </c>
-      <c r="F106" s="24" t="s">
+      <c r="F111" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="G106" s="25" t="s">
+      <c r="G111" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="H106" s="26" t="s">
+      <c r="H111" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="I106" s="154"/>
-      <c r="J106" s="129"/>
-      <c r="K106" s="132"/>
-      <c r="L106" s="135"/>
-    </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A107" s="125"/>
-      <c r="B107" s="30" t="s">
+      <c r="I111" s="139"/>
+      <c r="J111" s="141"/>
+      <c r="K111" s="144"/>
+      <c r="L111" s="179"/>
+    </row>
+    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A112" s="137"/>
+      <c r="B112" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="C107" s="28">
+      <c r="C112" s="28">
         <v>44855</v>
       </c>
-      <c r="D107" s="28">
+      <c r="D112" s="28">
         <v>44862</v>
       </c>
-      <c r="E107" s="28">
+      <c r="E112" s="28">
         <v>44864</v>
       </c>
-      <c r="F107" s="29" t="s">
+      <c r="F112" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="G107" s="30" t="s">
+      <c r="G112" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="H107" s="31" t="s">
+      <c r="H112" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="I107" s="154"/>
-      <c r="J107" s="129"/>
-      <c r="K107" s="132"/>
-      <c r="L107" s="135"/>
-    </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A108" s="125"/>
-      <c r="B108" s="51" t="s">
+      <c r="I112" s="139"/>
+      <c r="J112" s="141"/>
+      <c r="K112" s="144"/>
+      <c r="L112" s="179"/>
+    </row>
+    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A113" s="137"/>
+      <c r="B113" s="51" t="s">
         <v>41</v>
       </c>
-      <c r="C108" s="49">
+      <c r="C113" s="49">
         <v>44877</v>
       </c>
-      <c r="D108" s="49"/>
-      <c r="E108" s="49">
+      <c r="D113" s="49"/>
+      <c r="E113" s="49">
         <v>44878</v>
       </c>
-      <c r="F108" s="50" t="s">
+      <c r="F113" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="G108" s="51" t="s">
+      <c r="G113" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="H108" s="52" t="s">
+      <c r="H113" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="I108" s="154"/>
-      <c r="J108" s="129"/>
-      <c r="K108" s="132"/>
-      <c r="L108" s="135"/>
-    </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A109" s="126"/>
-      <c r="B109" s="35" t="s">
+      <c r="I113" s="139"/>
+      <c r="J113" s="141"/>
+      <c r="K113" s="144"/>
+      <c r="L113" s="179"/>
+    </row>
+    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A114" s="138"/>
+      <c r="B114" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="C109" s="36">
+      <c r="C114" s="36">
         <v>44882</v>
       </c>
-      <c r="D109" s="36">
+      <c r="D114" s="36">
         <v>44889</v>
       </c>
-      <c r="E109" s="36">
+      <c r="E114" s="36">
         <v>44892</v>
       </c>
-      <c r="F109" s="37" t="s">
+      <c r="F114" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="G109" s="35" t="s">
+      <c r="G114" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="H109" s="53" t="s">
+      <c r="H114" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="I109" s="154"/>
-      <c r="J109" s="130"/>
-      <c r="K109" s="133"/>
-      <c r="L109" s="136"/>
-    </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A110" s="166">
+      <c r="I114" s="139"/>
+      <c r="J114" s="142"/>
+      <c r="K114" s="145"/>
+      <c r="L114" s="180"/>
+    </row>
+    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A115" s="146">
         <v>31</v>
       </c>
-      <c r="B110" s="12" t="s">
+      <c r="B115" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="C110" s="86">
+      <c r="C115" s="86">
         <v>44813</v>
       </c>
-      <c r="D110" s="86"/>
-      <c r="E110" s="86">
+      <c r="D115" s="86"/>
+      <c r="E115" s="86">
         <v>44815</v>
       </c>
-      <c r="F110" s="87" t="s">
+      <c r="F115" s="87" t="s">
         <v>6</v>
       </c>
-      <c r="G110" s="88" t="s">
+      <c r="G115" s="88" t="s">
         <v>2</v>
       </c>
-      <c r="H110" s="89" t="s">
+      <c r="H115" s="89" t="s">
         <v>5</v>
       </c>
-      <c r="I110" s="154" t="s">
+      <c r="I115" s="139" t="s">
         <v>4</v>
       </c>
-      <c r="J110" s="155">
+      <c r="J115" s="167">
         <v>50</v>
       </c>
-      <c r="K110" s="158">
+      <c r="K115" s="153">
         <v>4</v>
       </c>
-      <c r="L110" s="140"/>
-    </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A111" s="167"/>
-      <c r="B111" s="15" t="s">
+      <c r="L115" s="170"/>
+    </row>
+    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A116" s="147"/>
+      <c r="B116" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="C111" s="13">
+      <c r="C116" s="13">
         <v>44824</v>
       </c>
-      <c r="D111" s="13"/>
-      <c r="E111" s="13">
+      <c r="D116" s="13"/>
+      <c r="E116" s="13">
         <v>44832</v>
       </c>
-      <c r="F111" s="14" t="s">
+      <c r="F116" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="G111" s="56" t="s">
+      <c r="G116" s="56" t="s">
         <v>22</v>
       </c>
-      <c r="H111" s="57" t="s">
+      <c r="H116" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="I111" s="154"/>
-      <c r="J111" s="156"/>
-      <c r="K111" s="159"/>
-      <c r="L111" s="141"/>
-    </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A112" s="167"/>
-      <c r="B112" s="15" t="s">
+      <c r="I116" s="139"/>
+      <c r="J116" s="168"/>
+      <c r="K116" s="154"/>
+      <c r="L116" s="171"/>
+    </row>
+    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A117" s="147"/>
+      <c r="B117" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="C112" s="13">
+      <c r="C117" s="13">
         <v>44843</v>
       </c>
-      <c r="D112" s="13"/>
-      <c r="E112" s="13">
+      <c r="D117" s="13"/>
+      <c r="E117" s="13">
         <v>44843</v>
       </c>
-      <c r="F112" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="G112" s="56" t="s">
+      <c r="F117" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="G117" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="H112" s="57" t="s">
+      <c r="H117" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="I112" s="154"/>
-      <c r="J112" s="156"/>
-      <c r="K112" s="159"/>
-      <c r="L112" s="141"/>
-    </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A113" s="167"/>
-      <c r="B113" s="12" t="s">
+      <c r="I117" s="139"/>
+      <c r="J117" s="168"/>
+      <c r="K117" s="154"/>
+      <c r="L117" s="171"/>
+    </row>
+    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A118" s="147"/>
+      <c r="B118" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="C113" s="13">
+      <c r="C118" s="13">
         <v>44850</v>
       </c>
-      <c r="D113" s="13"/>
-      <c r="E113" s="13">
+      <c r="D118" s="13"/>
+      <c r="E118" s="13">
         <v>44850</v>
       </c>
-      <c r="F113" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="G113" s="56" t="s">
+      <c r="F118" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="G118" s="56" t="s">
         <v>39</v>
       </c>
-      <c r="H113" s="57" t="s">
+      <c r="H118" s="57" t="s">
         <v>40</v>
       </c>
-      <c r="I113" s="154"/>
-      <c r="J113" s="156"/>
-      <c r="K113" s="159"/>
-      <c r="L113" s="141"/>
-    </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A114" s="167"/>
-      <c r="B114" s="90" t="s">
+      <c r="I118" s="139"/>
+      <c r="J118" s="168"/>
+      <c r="K118" s="154"/>
+      <c r="L118" s="171"/>
+    </row>
+    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A119" s="147"/>
+      <c r="B119" s="90" t="s">
         <v>43</v>
       </c>
-      <c r="C114" s="72">
+      <c r="C119" s="72">
         <v>44857</v>
       </c>
-      <c r="D114" s="72">
+      <c r="D119" s="72">
         <v>44871</v>
       </c>
-      <c r="E114" s="72">
+      <c r="E119" s="72">
         <v>44875</v>
       </c>
-      <c r="F114" s="73" t="s">
-        <v>10</v>
-      </c>
-      <c r="G114" s="67" t="s">
+      <c r="F119" s="73" t="s">
+        <v>10</v>
+      </c>
+      <c r="G119" s="67" t="s">
         <v>14</v>
       </c>
-      <c r="H114" s="68" t="s">
+      <c r="H119" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="I114" s="154"/>
-      <c r="J114" s="156"/>
-      <c r="K114" s="159"/>
-      <c r="L114" s="141"/>
-    </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A115" s="168"/>
-      <c r="B115" s="91" t="s">
+      <c r="I119" s="139"/>
+      <c r="J119" s="168"/>
+      <c r="K119" s="154"/>
+      <c r="L119" s="171"/>
+    </row>
+    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A120" s="148"/>
+      <c r="B120" s="91" t="s">
         <v>47</v>
       </c>
-      <c r="C115" s="83">
+      <c r="C120" s="83">
         <v>44882</v>
       </c>
-      <c r="D115" s="83">
+      <c r="D120" s="83">
         <v>44889</v>
       </c>
-      <c r="E115" s="83">
+      <c r="E120" s="83">
         <v>44892</v>
       </c>
-      <c r="F115" s="84" t="s">
+      <c r="F120" s="84" t="s">
         <v>3</v>
       </c>
-      <c r="G115" s="20" t="s">
+      <c r="G120" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="H115" s="21" t="s">
+      <c r="H120" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="I115" s="154"/>
-      <c r="J115" s="157"/>
-      <c r="K115" s="160"/>
-      <c r="L115" s="142"/>
-    </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A116" s="124">
+      <c r="I120" s="139"/>
+      <c r="J120" s="165"/>
+      <c r="K120" s="155"/>
+      <c r="L120" s="166"/>
+    </row>
+    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A121" s="136">
         <v>32</v>
       </c>
-      <c r="B116" s="25" t="s">
+      <c r="B121" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="C116" s="28">
+      <c r="C121" s="28">
         <v>44813</v>
       </c>
-      <c r="D116" s="28"/>
-      <c r="E116" s="78">
+      <c r="D121" s="28"/>
+      <c r="E121" s="78">
         <v>44815</v>
       </c>
-      <c r="F116" s="29" t="s">
+      <c r="F121" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="G116" s="30" t="s">
+      <c r="G121" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="H116" s="31" t="s">
+      <c r="H121" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="I116" s="154" t="s">
+      <c r="I121" s="139" t="s">
         <v>4</v>
       </c>
-      <c r="J116" s="128">
+      <c r="J121" s="140">
         <v>77</v>
       </c>
-      <c r="K116" s="131">
+      <c r="K121" s="143">
         <v>4</v>
       </c>
-      <c r="L116" s="134"/>
-    </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A117" s="125"/>
-      <c r="B117" s="25" t="s">
+      <c r="L121" s="178"/>
+    </row>
+    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A122" s="137"/>
+      <c r="B122" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="C117" s="28">
+      <c r="C122" s="28">
         <v>44843</v>
       </c>
-      <c r="D117" s="28"/>
-      <c r="E117" s="28">
+      <c r="D122" s="28"/>
+      <c r="E122" s="28">
         <v>44843</v>
       </c>
-      <c r="F117" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="G117" s="30" t="s">
+      <c r="F122" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="G122" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="H117" s="31" t="s">
+      <c r="H122" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="I117" s="154"/>
-      <c r="J117" s="129"/>
-      <c r="K117" s="132"/>
-      <c r="L117" s="135"/>
-    </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A118" s="125"/>
-      <c r="B118" s="30" t="s">
+      <c r="I122" s="139"/>
+      <c r="J122" s="141"/>
+      <c r="K122" s="144"/>
+      <c r="L122" s="179"/>
+    </row>
+    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A123" s="137"/>
+      <c r="B123" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="C118" s="28">
+      <c r="C123" s="28">
         <v>44850</v>
       </c>
-      <c r="D118" s="28"/>
-      <c r="E118" s="28">
+      <c r="D123" s="28"/>
+      <c r="E123" s="28">
         <v>44850</v>
       </c>
-      <c r="F118" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="G118" s="30" t="s">
+      <c r="F123" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="G123" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="H118" s="31" t="s">
+      <c r="H123" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="I118" s="154"/>
-      <c r="J118" s="129"/>
-      <c r="K118" s="132"/>
-      <c r="L118" s="135"/>
-    </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A119" s="125"/>
-      <c r="B119" s="51" t="s">
+      <c r="I123" s="139"/>
+      <c r="J123" s="141"/>
+      <c r="K123" s="144"/>
+      <c r="L123" s="179"/>
+    </row>
+    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A124" s="137"/>
+      <c r="B124" s="51" t="s">
         <v>41</v>
       </c>
-      <c r="C119" s="49">
+      <c r="C124" s="49">
         <v>44857</v>
       </c>
-      <c r="D119" s="92">
+      <c r="D124" s="92">
         <v>44871</v>
       </c>
-      <c r="E119" s="92">
+      <c r="E124" s="92">
         <v>44875</v>
       </c>
-      <c r="F119" s="50" t="s">
-        <v>10</v>
-      </c>
-      <c r="G119" s="51" t="s">
+      <c r="F124" s="50" t="s">
+        <v>10</v>
+      </c>
+      <c r="G124" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="H119" s="52" t="s">
+      <c r="H124" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="I119" s="154"/>
-      <c r="J119" s="129"/>
-      <c r="K119" s="132"/>
-      <c r="L119" s="135"/>
-    </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A120" s="126"/>
-      <c r="B120" s="35" t="s">
+      <c r="I124" s="139"/>
+      <c r="J124" s="141"/>
+      <c r="K124" s="144"/>
+      <c r="L124" s="179"/>
+    </row>
+    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A125" s="138"/>
+      <c r="B125" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="C120" s="36">
+      <c r="C125" s="36">
         <v>44882</v>
       </c>
-      <c r="D120" s="36">
+      <c r="D125" s="36">
         <v>44889</v>
       </c>
-      <c r="E120" s="36">
+      <c r="E125" s="36">
         <v>44892</v>
       </c>
-      <c r="F120" s="37" t="s">
+      <c r="F125" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="G120" s="35" t="s">
+      <c r="G125" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="H120" s="53" t="s">
+      <c r="H125" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="I120" s="154"/>
-      <c r="J120" s="130"/>
-      <c r="K120" s="133"/>
-      <c r="L120" s="136"/>
-    </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A121" s="144">
+      <c r="I125" s="139"/>
+      <c r="J125" s="142"/>
+      <c r="K125" s="145"/>
+      <c r="L125" s="180"/>
+    </row>
+    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A126" s="156">
         <v>33</v>
       </c>
-      <c r="B121" s="12" t="s">
+      <c r="B126" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="C121" s="86">
+      <c r="C126" s="86">
         <v>44806</v>
       </c>
-      <c r="D121" s="86"/>
-      <c r="E121" s="86">
+      <c r="D126" s="86"/>
+      <c r="E126" s="86">
         <v>44815</v>
       </c>
-      <c r="F121" s="87" t="s">
+      <c r="F126" s="87" t="s">
         <v>6</v>
       </c>
-      <c r="G121" s="88" t="s">
+      <c r="G126" s="88" t="s">
         <v>2</v>
       </c>
-      <c r="H121" s="89" t="s">
+      <c r="H126" s="89" t="s">
         <v>5</v>
       </c>
-      <c r="I121" s="151" t="s">
+      <c r="I126" s="129" t="s">
         <v>0</v>
       </c>
-      <c r="J121" s="148">
+      <c r="J126" s="132">
         <v>62</v>
       </c>
-      <c r="K121" s="149">
+      <c r="K126" s="133">
         <v>4</v>
       </c>
-      <c r="L121" s="143"/>
-    </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A122" s="144"/>
-      <c r="B122" s="15" t="s">
+      <c r="L126" s="134"/>
+    </row>
+    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A127" s="156"/>
+      <c r="B127" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="C122" s="13">
+      <c r="C127" s="13">
         <v>44824</v>
       </c>
-      <c r="D122" s="13"/>
-      <c r="E122" s="93">
+      <c r="D127" s="13"/>
+      <c r="E127" s="93">
         <v>44832</v>
       </c>
-      <c r="F122" s="14" t="s">
+      <c r="F127" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="G122" s="56" t="s">
+      <c r="G127" s="56" t="s">
         <v>22</v>
       </c>
-      <c r="H122" s="57" t="s">
+      <c r="H127" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="I122" s="151"/>
-      <c r="J122" s="148"/>
-      <c r="K122" s="149"/>
-      <c r="L122" s="143"/>
-    </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A123" s="144"/>
-      <c r="B123" s="15" t="s">
+      <c r="I127" s="129"/>
+      <c r="J127" s="132"/>
+      <c r="K127" s="133"/>
+      <c r="L127" s="134"/>
+    </row>
+    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A128" s="156"/>
+      <c r="B128" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="C123" s="79">
+      <c r="C128" s="79">
         <v>44857</v>
       </c>
-      <c r="D123" s="79">
+      <c r="D128" s="79">
         <v>44871</v>
       </c>
-      <c r="E123" s="79">
+      <c r="E128" s="79">
         <v>44875</v>
       </c>
-      <c r="F123" s="80" t="s">
-        <v>10</v>
-      </c>
-      <c r="G123" s="44" t="s">
+      <c r="F128" s="80" t="s">
+        <v>10</v>
+      </c>
+      <c r="G128" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="H123" s="45" t="s">
+      <c r="H128" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="I123" s="151"/>
-      <c r="J123" s="148"/>
-      <c r="K123" s="149"/>
-      <c r="L123" s="143"/>
-    </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A124" s="144"/>
-      <c r="B124" s="82" t="s">
+      <c r="I128" s="129"/>
+      <c r="J128" s="132"/>
+      <c r="K128" s="133"/>
+      <c r="L128" s="134"/>
+    </row>
+    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A129" s="156"/>
+      <c r="B129" s="82" t="s">
         <v>41</v>
       </c>
-      <c r="C124" s="83">
+      <c r="C129" s="83">
         <v>44878</v>
       </c>
-      <c r="D124" s="83">
+      <c r="D129" s="83">
         <v>44885</v>
       </c>
-      <c r="E124" s="83">
+      <c r="E129" s="83">
         <v>44888</v>
       </c>
-      <c r="F124" s="84" t="s">
-        <v>10</v>
-      </c>
-      <c r="G124" s="20" t="s">
+      <c r="F129" s="84" t="s">
+        <v>10</v>
+      </c>
+      <c r="G129" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="H124" s="21" t="s">
+      <c r="H129" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="I124" s="151"/>
-      <c r="J124" s="148"/>
-      <c r="K124" s="149"/>
-      <c r="L124" s="143"/>
-    </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A125" s="150">
+      <c r="I129" s="129"/>
+      <c r="J129" s="132"/>
+      <c r="K129" s="133"/>
+      <c r="L129" s="134"/>
+    </row>
+    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A130" s="128">
         <v>34</v>
       </c>
-      <c r="B125" s="22" t="s">
+      <c r="B130" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="C125" s="39">
+      <c r="C130" s="39">
         <v>44807</v>
       </c>
-      <c r="D125" s="39"/>
-      <c r="E125" s="39">
+      <c r="D130" s="39"/>
+      <c r="E130" s="39">
         <v>44808</v>
       </c>
-      <c r="F125" s="40" t="s">
+      <c r="F130" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="G125" s="22" t="s">
+      <c r="G130" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="H125" s="41" t="s">
+      <c r="H130" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="I125" s="151" t="s">
+      <c r="I130" s="129" t="s">
         <v>0</v>
       </c>
-      <c r="J125" s="152">
+      <c r="J130" s="130">
         <v>58</v>
       </c>
-      <c r="K125" s="153">
+      <c r="K130" s="131">
         <v>3</v>
       </c>
-      <c r="L125" s="165"/>
-    </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A126" s="150"/>
-      <c r="B126" s="22" t="s">
+      <c r="L130" s="164"/>
+    </row>
+    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A131" s="128"/>
+      <c r="B131" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="C126" s="32">
+      <c r="C131" s="32">
         <v>44829</v>
       </c>
-      <c r="D126" s="32">
+      <c r="D131" s="32">
         <v>44836</v>
       </c>
-      <c r="E126" s="32">
-        <f>D126+3</f>
+      <c r="E131" s="32">
+        <f>D131+3</f>
         <v>44839</v>
       </c>
-      <c r="F126" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="G126" s="27" t="s">
+      <c r="F131" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="G131" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="H126" s="34" t="s">
+      <c r="H131" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="I126" s="151"/>
-      <c r="J126" s="152"/>
-      <c r="K126" s="153"/>
-      <c r="L126" s="165"/>
-    </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A127" s="150"/>
-      <c r="B127" s="27" t="s">
+      <c r="I131" s="129"/>
+      <c r="J131" s="130"/>
+      <c r="K131" s="131"/>
+      <c r="L131" s="164"/>
+    </row>
+    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A132" s="128"/>
+      <c r="B132" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="C127" s="32">
+      <c r="C132" s="32">
         <v>44843</v>
       </c>
-      <c r="D127" s="32"/>
-      <c r="E127" s="32">
+      <c r="D132" s="32"/>
+      <c r="E132" s="32">
         <v>44843</v>
       </c>
-      <c r="F127" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="G127" s="27" t="s">
+      <c r="F132" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="G132" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="H127" s="34" t="s">
+      <c r="H132" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="I127" s="151"/>
-      <c r="J127" s="152"/>
-      <c r="K127" s="153"/>
-      <c r="L127" s="165"/>
-    </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A128" s="150"/>
-      <c r="B128" s="35" t="s">
+      <c r="I132" s="129"/>
+      <c r="J132" s="130"/>
+      <c r="K132" s="131"/>
+      <c r="L132" s="164"/>
+    </row>
+    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A133" s="128"/>
+      <c r="B133" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="C128" s="36">
+      <c r="C133" s="36">
         <v>44878</v>
       </c>
-      <c r="D128" s="36">
+      <c r="D133" s="36">
         <v>44885</v>
       </c>
-      <c r="E128" s="36">
+      <c r="E133" s="36">
         <v>44888</v>
       </c>
-      <c r="F128" s="37" t="s">
-        <v>10</v>
-      </c>
-      <c r="G128" s="35" t="s">
+      <c r="F133" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="G133" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="H128" s="53" t="s">
+      <c r="H133" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="I128" s="151"/>
-      <c r="J128" s="152"/>
-      <c r="K128" s="153"/>
-      <c r="L128" s="165"/>
-    </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A129" s="161">
+      <c r="I133" s="129"/>
+      <c r="J133" s="130"/>
+      <c r="K133" s="131"/>
+      <c r="L133" s="164"/>
+    </row>
+    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A134" s="152">
         <v>35</v>
       </c>
-      <c r="B129" s="12" t="s">
+      <c r="B134" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="C129" s="54">
+      <c r="C134" s="54">
         <v>44807</v>
       </c>
-      <c r="D129" s="54"/>
-      <c r="E129" s="54">
+      <c r="D134" s="54"/>
+      <c r="E134" s="54">
         <v>44808</v>
       </c>
-      <c r="F129" s="55" t="s">
+      <c r="F134" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="G129" s="56" t="s">
+      <c r="G134" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="H129" s="57" t="s">
+      <c r="H134" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="I129" s="151" t="s">
+      <c r="I134" s="129" t="s">
         <v>0</v>
       </c>
-      <c r="J129" s="148">
+      <c r="J134" s="132">
         <v>40</v>
       </c>
-      <c r="K129" s="149">
+      <c r="K134" s="133">
         <v>2</v>
       </c>
-      <c r="L129" s="143"/>
-    </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A130" s="161"/>
-      <c r="B130" s="12" t="s">
+      <c r="L134" s="134"/>
+    </row>
+    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A135" s="152"/>
+      <c r="B135" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="C130" s="13">
+      <c r="C135" s="13">
         <v>44843</v>
       </c>
-      <c r="D130" s="13"/>
-      <c r="E130" s="13">
+      <c r="D135" s="13"/>
+      <c r="E135" s="13">
         <v>44843</v>
       </c>
-      <c r="F130" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="G130" s="56" t="s">
+      <c r="F135" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="G135" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="H130" s="57" t="s">
+      <c r="H135" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="I130" s="151"/>
-      <c r="J130" s="148"/>
-      <c r="K130" s="149"/>
-      <c r="L130" s="143"/>
-    </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A131" s="161"/>
-      <c r="B131" s="116" t="s">
+      <c r="I135" s="129"/>
+      <c r="J135" s="132"/>
+      <c r="K135" s="133"/>
+      <c r="L135" s="134"/>
+    </row>
+    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A136" s="152"/>
+      <c r="B136" s="116" t="s">
         <v>27</v>
       </c>
-      <c r="C131" s="117">
+      <c r="C136" s="117">
         <v>44863</v>
       </c>
-      <c r="D131" s="117"/>
-      <c r="E131" s="117">
+      <c r="D136" s="117"/>
+      <c r="E136" s="117">
         <v>44864</v>
       </c>
-      <c r="F131" s="118" t="s">
+      <c r="F136" s="118" t="s">
         <v>7</v>
       </c>
-      <c r="G131" s="116" t="s">
+      <c r="G136" s="116" t="s">
         <v>24</v>
       </c>
-      <c r="H131" s="119" t="s">
+      <c r="H136" s="119" t="s">
         <v>8</v>
       </c>
-      <c r="I131" s="151"/>
-      <c r="J131" s="148"/>
-      <c r="K131" s="149"/>
-      <c r="L131" s="143"/>
-    </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A132" s="124">
+      <c r="I136" s="129"/>
+      <c r="J136" s="132"/>
+      <c r="K136" s="133"/>
+      <c r="L136" s="134"/>
+    </row>
+    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A137" s="136">
         <v>36</v>
       </c>
-      <c r="B132" s="25" t="s">
+      <c r="B137" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="C132" s="28">
+      <c r="C137" s="28">
         <v>44808</v>
       </c>
-      <c r="D132" s="28">
+      <c r="D137" s="28">
         <v>44815</v>
       </c>
-      <c r="E132" s="78">
+      <c r="E137" s="78">
         <v>44818</v>
       </c>
-      <c r="F132" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="G132" s="30" t="s">
+      <c r="F137" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="G137" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="H132" s="31" t="s">
+      <c r="H137" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="I132" s="154" t="s">
+      <c r="I137" s="139" t="s">
         <v>4</v>
       </c>
-      <c r="J132" s="131">
+      <c r="J137" s="143">
         <v>152</v>
       </c>
-      <c r="K132" s="131">
+      <c r="K137" s="143">
         <v>8</v>
       </c>
-      <c r="L132" s="137"/>
-    </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A133" s="125"/>
-      <c r="B133" s="30" t="s">
+      <c r="L137" s="149"/>
+    </row>
+    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A138" s="137"/>
+      <c r="B138" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="C133" s="28">
+      <c r="C138" s="28">
         <v>44840</v>
       </c>
-      <c r="D133" s="28"/>
-      <c r="E133" s="28">
+      <c r="D138" s="28"/>
+      <c r="E138" s="28">
         <v>44843</v>
       </c>
-      <c r="F133" s="29" t="s">
+      <c r="F138" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="G133" s="30" t="s">
+      <c r="G138" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="H133" s="31" t="s">
+      <c r="H138" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="I133" s="154"/>
-      <c r="J133" s="132"/>
-      <c r="K133" s="132"/>
-      <c r="L133" s="138"/>
-    </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A134" s="125"/>
-      <c r="B134" s="30" t="s">
+      <c r="I138" s="139"/>
+      <c r="J138" s="144"/>
+      <c r="K138" s="144"/>
+      <c r="L138" s="150"/>
+    </row>
+    <row r="139" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A139" s="137"/>
+      <c r="B139" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="C134" s="28">
+      <c r="C139" s="28">
         <v>44847</v>
       </c>
-      <c r="D134" s="28"/>
-      <c r="E134" s="28">
+      <c r="D139" s="28"/>
+      <c r="E139" s="28">
         <v>44850</v>
       </c>
-      <c r="F134" s="29" t="s">
+      <c r="F139" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="G134" s="30" t="s">
+      <c r="G139" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="H134" s="31" t="s">
+      <c r="H139" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="I134" s="154"/>
-      <c r="J134" s="132"/>
-      <c r="K134" s="132"/>
-      <c r="L134" s="138"/>
-    </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A135" s="125"/>
-      <c r="B135" s="27" t="s">
+      <c r="I139" s="139"/>
+      <c r="J139" s="144"/>
+      <c r="K139" s="144"/>
+      <c r="L139" s="150"/>
+    </row>
+    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A140" s="137"/>
+      <c r="B140" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="C135" s="32">
+      <c r="C140" s="32">
         <v>44857</v>
       </c>
-      <c r="D135" s="32">
+      <c r="D140" s="32">
         <v>44871</v>
       </c>
-      <c r="E135" s="32">
+      <c r="E140" s="32">
         <v>44874</v>
       </c>
-      <c r="F135" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="G135" s="27" t="s">
+      <c r="F140" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="G140" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="H135" s="34" t="s">
+      <c r="H140" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="I135" s="154"/>
-      <c r="J135" s="132"/>
-      <c r="K135" s="132"/>
-      <c r="L135" s="138"/>
-    </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A136" s="126"/>
-      <c r="B136" s="35" t="s">
+      <c r="I140" s="139"/>
+      <c r="J140" s="144"/>
+      <c r="K140" s="144"/>
+      <c r="L140" s="150"/>
+    </row>
+    <row r="141" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A141" s="138"/>
+      <c r="B141" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="C136" s="36">
+      <c r="C141" s="36">
         <v>44890</v>
       </c>
-      <c r="D136" s="36">
+      <c r="D141" s="36">
         <v>44897</v>
       </c>
-      <c r="E136" s="36">
+      <c r="E141" s="36">
         <v>44899</v>
       </c>
-      <c r="F136" s="37" t="s">
+      <c r="F141" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="G136" s="35" t="s">
+      <c r="G141" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="H136" s="53" t="s">
+      <c r="H141" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="I136" s="154"/>
-      <c r="J136" s="133"/>
-      <c r="K136" s="133"/>
-      <c r="L136" s="139"/>
-    </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A137" s="144">
+      <c r="I141" s="139"/>
+      <c r="J141" s="145"/>
+      <c r="K141" s="145"/>
+      <c r="L141" s="151"/>
+    </row>
+    <row r="142" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A142" s="156">
         <v>37</v>
       </c>
-      <c r="B137" s="12" t="s">
+      <c r="B142" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="C137" s="86">
+      <c r="C142" s="86">
         <v>44822</v>
       </c>
-      <c r="D137" s="86"/>
-      <c r="E137" s="86">
+      <c r="D142" s="86"/>
+      <c r="E142" s="86">
         <v>44822</v>
       </c>
-      <c r="F137" s="87" t="s">
-        <v>10</v>
-      </c>
-      <c r="G137" s="88" t="s">
+      <c r="F142" s="87" t="s">
+        <v>10</v>
+      </c>
+      <c r="G142" s="88" t="s">
         <v>12</v>
       </c>
-      <c r="H137" s="89" t="s">
+      <c r="H142" s="89" t="s">
         <v>11</v>
       </c>
-      <c r="I137" s="151" t="s">
+      <c r="I142" s="129" t="s">
         <v>0</v>
       </c>
-      <c r="J137" s="148">
+      <c r="J142" s="132">
         <v>55</v>
       </c>
-      <c r="K137" s="149">
+      <c r="K142" s="133">
         <v>3</v>
       </c>
-      <c r="L137" s="143"/>
-    </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A138" s="144"/>
-      <c r="B138" s="12" t="s">
+      <c r="L142" s="134"/>
+    </row>
+    <row r="143" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A143" s="156"/>
+      <c r="B143" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="C138" s="86">
+      <c r="C143" s="86">
         <v>44847</v>
       </c>
-      <c r="D138" s="86"/>
-      <c r="E138" s="86">
+      <c r="D143" s="86"/>
+      <c r="E143" s="86">
         <v>44850</v>
       </c>
-      <c r="F138" s="87" t="s">
+      <c r="F143" s="87" t="s">
         <v>3</v>
       </c>
-      <c r="G138" s="88" t="s">
+      <c r="G143" s="88" t="s">
         <v>39</v>
       </c>
-      <c r="H138" s="89" t="s">
+      <c r="H143" s="89" t="s">
         <v>40</v>
       </c>
-      <c r="I138" s="151"/>
-      <c r="J138" s="148"/>
-      <c r="K138" s="149"/>
-      <c r="L138" s="143"/>
-    </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A139" s="144"/>
-      <c r="B139" s="64" t="s">
+      <c r="I143" s="129"/>
+      <c r="J143" s="132"/>
+      <c r="K143" s="133"/>
+      <c r="L143" s="134"/>
+    </row>
+    <row r="144" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A144" s="156"/>
+      <c r="B144" s="64" t="s">
         <v>27</v>
       </c>
-      <c r="C139" s="94">
+      <c r="C144" s="94">
         <v>44857</v>
       </c>
-      <c r="D139" s="72">
+      <c r="D144" s="72">
         <v>44871</v>
       </c>
-      <c r="E139" s="72">
+      <c r="E144" s="72">
         <v>44875</v>
       </c>
-      <c r="F139" s="95" t="s">
-        <v>10</v>
-      </c>
-      <c r="G139" s="96" t="s">
+      <c r="F144" s="95" t="s">
+        <v>10</v>
+      </c>
+      <c r="G144" s="96" t="s">
         <v>9</v>
       </c>
-      <c r="H139" s="97" t="s">
+      <c r="H144" s="97" t="s">
         <v>11</v>
       </c>
-      <c r="I139" s="151"/>
-      <c r="J139" s="148"/>
-      <c r="K139" s="149"/>
-      <c r="L139" s="143"/>
-    </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A140" s="144"/>
-      <c r="B140" s="82" t="s">
+      <c r="I144" s="129"/>
+      <c r="J144" s="132"/>
+      <c r="K144" s="133"/>
+      <c r="L144" s="134"/>
+    </row>
+    <row r="145" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A145" s="156"/>
+      <c r="B145" s="82" t="s">
         <v>41</v>
       </c>
-      <c r="C140" s="18">
+      <c r="C145" s="18">
         <v>44884</v>
       </c>
-      <c r="D140" s="18"/>
-      <c r="E140" s="18">
+      <c r="D145" s="18"/>
+      <c r="E145" s="18">
         <v>44885</v>
       </c>
-      <c r="F140" s="19" t="s">
+      <c r="F145" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="G140" s="20" t="s">
+      <c r="G145" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="H140" s="21" t="s">
+      <c r="H145" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="I140" s="151"/>
-      <c r="J140" s="148"/>
-      <c r="K140" s="149"/>
-      <c r="L140" s="143"/>
-    </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A141" s="150">
+      <c r="I145" s="129"/>
+      <c r="J145" s="132"/>
+      <c r="K145" s="133"/>
+      <c r="L145" s="134"/>
+    </row>
+    <row r="146" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A146" s="128">
         <v>38</v>
       </c>
-      <c r="B141" s="22" t="s">
+      <c r="B146" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="C141" s="23">
+      <c r="C146" s="23">
         <v>44815</v>
       </c>
-      <c r="D141" s="23"/>
-      <c r="E141" s="23">
+      <c r="D146" s="23"/>
+      <c r="E146" s="23">
         <v>44818</v>
       </c>
-      <c r="F141" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="G141" s="25" t="s">
+      <c r="F146" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="G146" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="H141" s="26" t="s">
+      <c r="H146" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="I141" s="151" t="s">
+      <c r="I146" s="129" t="s">
         <v>0</v>
       </c>
-      <c r="J141" s="152">
+      <c r="J146" s="130">
         <v>61</v>
       </c>
-      <c r="K141" s="153">
+      <c r="K146" s="131">
         <v>3</v>
       </c>
-      <c r="L141" s="134"/>
-    </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A142" s="150"/>
-      <c r="B142" s="22" t="s">
+      <c r="L146" s="178"/>
+    </row>
+    <row r="147" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A147" s="128"/>
+      <c r="B147" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="C142" s="28">
+      <c r="C147" s="28">
         <v>44829</v>
       </c>
-      <c r="D142" s="28"/>
-      <c r="E142" s="28">
+      <c r="D147" s="28"/>
+      <c r="E147" s="28">
         <v>44836</v>
       </c>
-      <c r="F142" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="G142" s="30" t="s">
+      <c r="F147" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="G147" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="H142" s="31" t="s">
+      <c r="H147" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="I142" s="151"/>
-      <c r="J142" s="152"/>
-      <c r="K142" s="153"/>
-      <c r="L142" s="135"/>
-    </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A143" s="150"/>
-      <c r="B143" s="27" t="s">
+      <c r="I147" s="129"/>
+      <c r="J147" s="130"/>
+      <c r="K147" s="131"/>
+      <c r="L147" s="179"/>
+    </row>
+    <row r="148" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A148" s="128"/>
+      <c r="B148" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="C143" s="28">
+      <c r="C148" s="28">
         <v>44843</v>
       </c>
-      <c r="D143" s="28"/>
-      <c r="E143" s="28">
+      <c r="D148" s="28"/>
+      <c r="E148" s="28">
         <v>44843</v>
       </c>
-      <c r="F143" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="G143" s="30" t="s">
+      <c r="F148" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="G148" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="H143" s="31" t="s">
+      <c r="H148" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="I143" s="151"/>
-      <c r="J143" s="152"/>
-      <c r="K143" s="153"/>
-      <c r="L143" s="135"/>
-    </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A144" s="150"/>
-      <c r="B144" s="27" t="s">
+      <c r="I148" s="129"/>
+      <c r="J148" s="130"/>
+      <c r="K148" s="131"/>
+      <c r="L148" s="179"/>
+    </row>
+    <row r="149" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A149" s="128"/>
+      <c r="B149" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="C144" s="28">
+      <c r="C149" s="28">
         <v>44847</v>
       </c>
-      <c r="D144" s="28"/>
-      <c r="E144" s="28">
+      <c r="D149" s="28"/>
+      <c r="E149" s="28">
         <v>44850</v>
       </c>
-      <c r="F144" s="29" t="s">
+      <c r="F149" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="G144" s="30" t="s">
+      <c r="G149" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="H144" s="31" t="s">
+      <c r="H149" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="I144" s="151"/>
-      <c r="J144" s="152"/>
-      <c r="K144" s="153"/>
-      <c r="L144" s="135"/>
-    </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A145" s="150"/>
-      <c r="B145" s="27" t="s">
+      <c r="I149" s="129"/>
+      <c r="J149" s="130"/>
+      <c r="K149" s="131"/>
+      <c r="L149" s="179"/>
+    </row>
+    <row r="150" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A150" s="128"/>
+      <c r="B150" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="C145" s="49">
+      <c r="C150" s="49">
         <v>44857</v>
       </c>
-      <c r="D145" s="92">
+      <c r="D150" s="92">
         <v>44871</v>
       </c>
-      <c r="E145" s="92">
+      <c r="E150" s="92">
         <v>44875</v>
       </c>
-      <c r="F145" s="50" t="s">
-        <v>10</v>
-      </c>
-      <c r="G145" s="51" t="s">
+      <c r="F150" s="50" t="s">
+        <v>10</v>
+      </c>
+      <c r="G150" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="H145" s="52" t="s">
+      <c r="H150" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="I145" s="151"/>
-      <c r="J145" s="152"/>
-      <c r="K145" s="153"/>
-      <c r="L145" s="135"/>
-    </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A146" s="150"/>
-      <c r="B146" s="35" t="s">
+      <c r="I150" s="129"/>
+      <c r="J150" s="130"/>
+      <c r="K150" s="131"/>
+      <c r="L150" s="179"/>
+    </row>
+    <row r="151" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A151" s="128"/>
+      <c r="B151" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="C146" s="36">
+      <c r="C151" s="36">
         <v>44884</v>
       </c>
-      <c r="D146" s="74"/>
-      <c r="E146" s="74">
+      <c r="D151" s="74"/>
+      <c r="E151" s="74">
         <v>44885</v>
       </c>
-      <c r="F146" s="37" t="s">
+      <c r="F151" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="G146" s="35" t="s">
+      <c r="G151" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="H146" s="53" t="s">
+      <c r="H151" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="I146" s="151"/>
-      <c r="J146" s="152"/>
-      <c r="K146" s="153"/>
-      <c r="L146" s="136"/>
-    </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A147" s="144">
+      <c r="I151" s="129"/>
+      <c r="J151" s="130"/>
+      <c r="K151" s="131"/>
+      <c r="L151" s="180"/>
+    </row>
+    <row r="152" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A152" s="156">
         <v>39</v>
       </c>
-      <c r="B147" s="12" t="s">
+      <c r="B152" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="C147" s="86">
+      <c r="C152" s="86">
         <v>44822</v>
       </c>
-      <c r="D147" s="86"/>
-      <c r="E147" s="86">
+      <c r="D152" s="86"/>
+      <c r="E152" s="86">
         <v>44822</v>
       </c>
-      <c r="F147" s="87" t="s">
-        <v>10</v>
-      </c>
-      <c r="G147" s="88" t="s">
+      <c r="F152" s="87" t="s">
+        <v>10</v>
+      </c>
+      <c r="G152" s="88" t="s">
         <v>12</v>
       </c>
-      <c r="H147" s="89" t="s">
+      <c r="H152" s="89" t="s">
         <v>11</v>
       </c>
-      <c r="I147" s="145" t="s">
+      <c r="I152" s="175" t="s">
         <v>0</v>
       </c>
-      <c r="J147" s="148">
+      <c r="J152" s="132">
         <v>20</v>
       </c>
-      <c r="K147" s="149">
+      <c r="K152" s="133">
         <v>1</v>
       </c>
-      <c r="L147" s="143"/>
-    </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A148" s="144"/>
-      <c r="B148" s="15" t="s">
+      <c r="L152" s="134"/>
+    </row>
+    <row r="153" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A153" s="156"/>
+      <c r="B153" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="C148" s="54">
+      <c r="C153" s="54">
         <v>44829</v>
       </c>
-      <c r="D148" s="54"/>
-      <c r="E148" s="54">
+      <c r="D153" s="54"/>
+      <c r="E153" s="54">
         <v>44829</v>
       </c>
-      <c r="F148" s="55" t="s">
-        <v>10</v>
-      </c>
-      <c r="G148" s="56" t="s">
+      <c r="F153" s="55" t="s">
+        <v>10</v>
+      </c>
+      <c r="G153" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="H148" s="57" t="s">
+      <c r="H153" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="I148" s="146"/>
-      <c r="J148" s="148"/>
-      <c r="K148" s="149"/>
-      <c r="L148" s="143"/>
-    </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A149" s="144"/>
-      <c r="B149" s="15" t="s">
+      <c r="I153" s="176"/>
+      <c r="J153" s="132"/>
+      <c r="K153" s="133"/>
+      <c r="L153" s="134"/>
+    </row>
+    <row r="154" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A154" s="156"/>
+      <c r="B154" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="C149" s="54">
+      <c r="C154" s="54">
         <v>44847</v>
       </c>
-      <c r="D149" s="54"/>
-      <c r="E149" s="54">
+      <c r="D154" s="54"/>
+      <c r="E154" s="54">
         <v>44850</v>
       </c>
-      <c r="F149" s="55" t="s">
+      <c r="F154" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="G149" s="56" t="s">
+      <c r="G154" s="56" t="s">
         <v>39</v>
       </c>
-      <c r="H149" s="57" t="s">
+      <c r="H154" s="57" t="s">
         <v>40</v>
       </c>
-      <c r="I149" s="146"/>
-      <c r="J149" s="148"/>
-      <c r="K149" s="149"/>
-      <c r="L149" s="143"/>
-    </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A150" s="144"/>
-      <c r="B150" s="47" t="s">
+      <c r="I154" s="176"/>
+      <c r="J154" s="132"/>
+      <c r="K154" s="133"/>
+      <c r="L154" s="134"/>
+    </row>
+    <row r="155" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A155" s="156"/>
+      <c r="B155" s="47" t="s">
         <v>41</v>
       </c>
-      <c r="C150" s="94">
+      <c r="C155" s="94">
         <v>44857</v>
       </c>
-      <c r="D150" s="72">
+      <c r="D155" s="72">
         <v>44871</v>
       </c>
-      <c r="E150" s="72">
+      <c r="E155" s="72">
         <v>44875</v>
       </c>
-      <c r="F150" s="95" t="s">
-        <v>10</v>
-      </c>
-      <c r="G150" s="96" t="s">
+      <c r="F155" s="95" t="s">
+        <v>10</v>
+      </c>
+      <c r="G155" s="96" t="s">
         <v>9</v>
       </c>
-      <c r="H150" s="97" t="s">
+      <c r="H155" s="97" t="s">
         <v>11</v>
       </c>
-      <c r="I150" s="146"/>
-      <c r="J150" s="148"/>
-      <c r="K150" s="149"/>
-      <c r="L150" s="143"/>
-    </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A151" s="144"/>
-      <c r="B151" s="17" t="s">
+      <c r="I155" s="176"/>
+      <c r="J155" s="132"/>
+      <c r="K155" s="133"/>
+      <c r="L155" s="134"/>
+    </row>
+    <row r="156" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A156" s="156"/>
+      <c r="B156" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="C151" s="98">
+      <c r="C156" s="98">
         <v>44884</v>
       </c>
-      <c r="D151" s="83"/>
-      <c r="E151" s="83">
+      <c r="D156" s="83"/>
+      <c r="E156" s="83">
         <v>44885</v>
       </c>
-      <c r="F151" s="99" t="s">
+      <c r="F156" s="99" t="s">
         <v>7</v>
       </c>
-      <c r="G151" s="100" t="s">
+      <c r="G156" s="100" t="s">
         <v>46</v>
       </c>
-      <c r="H151" s="101" t="s">
+      <c r="H156" s="101" t="s">
         <v>8</v>
       </c>
-      <c r="I151" s="147"/>
-      <c r="J151" s="148"/>
-      <c r="K151" s="149"/>
-      <c r="L151" s="143"/>
-    </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A152" s="150">
+      <c r="I156" s="177"/>
+      <c r="J156" s="132"/>
+      <c r="K156" s="133"/>
+      <c r="L156" s="134"/>
+    </row>
+    <row r="157" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A157" s="128">
         <v>40</v>
       </c>
-      <c r="B152" s="25" t="s">
+      <c r="B157" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="C152" s="23">
+      <c r="C157" s="23">
         <v>44822</v>
       </c>
-      <c r="D152" s="23"/>
-      <c r="E152" s="23">
+      <c r="D157" s="23"/>
+      <c r="E157" s="23">
         <v>44822</v>
       </c>
-      <c r="F152" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="G152" s="25" t="s">
+      <c r="F157" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="G157" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="H152" s="26" t="s">
+      <c r="H157" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="I152" s="151" t="s">
+      <c r="I157" s="129" t="s">
         <v>0</v>
       </c>
-      <c r="J152" s="152">
+      <c r="J157" s="130">
         <v>17</v>
       </c>
-      <c r="K152" s="153">
+      <c r="K157" s="131">
         <v>1</v>
       </c>
-      <c r="L152" s="134"/>
-    </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A153" s="150"/>
-      <c r="B153" s="25" t="s">
+      <c r="L157" s="178"/>
+    </row>
+    <row r="158" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A158" s="128"/>
+      <c r="B158" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="C153" s="28">
+      <c r="C158" s="28">
         <v>44829</v>
       </c>
-      <c r="D153" s="28"/>
-      <c r="E153" s="28">
+      <c r="D158" s="28"/>
+      <c r="E158" s="28">
         <v>44829</v>
       </c>
-      <c r="F153" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="G153" s="30" t="s">
+      <c r="F158" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="G158" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="H153" s="31" t="s">
+      <c r="H158" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="I153" s="151"/>
-      <c r="J153" s="152"/>
-      <c r="K153" s="153"/>
-      <c r="L153" s="135"/>
-    </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A154" s="150"/>
-      <c r="B154" s="30" t="s">
+      <c r="I158" s="129"/>
+      <c r="J158" s="130"/>
+      <c r="K158" s="131"/>
+      <c r="L158" s="179"/>
+    </row>
+    <row r="159" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A159" s="128"/>
+      <c r="B159" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="C154" s="28">
+      <c r="C159" s="28">
         <v>44847</v>
       </c>
-      <c r="D154" s="28"/>
-      <c r="E154" s="28">
+      <c r="D159" s="28"/>
+      <c r="E159" s="28">
         <v>44850</v>
       </c>
-      <c r="F154" s="29" t="s">
+      <c r="F159" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="G154" s="30" t="s">
+      <c r="G159" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="H154" s="31" t="s">
+      <c r="H159" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="I154" s="151"/>
-      <c r="J154" s="152"/>
-      <c r="K154" s="153"/>
-      <c r="L154" s="135"/>
-    </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A155" s="150"/>
-      <c r="B155" s="51" t="s">
+      <c r="I159" s="129"/>
+      <c r="J159" s="130"/>
+      <c r="K159" s="131"/>
+      <c r="L159" s="179"/>
+    </row>
+    <row r="160" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A160" s="128"/>
+      <c r="B160" s="51" t="s">
         <v>41</v>
       </c>
-      <c r="C155" s="49">
+      <c r="C160" s="49">
         <v>44857</v>
       </c>
-      <c r="D155" s="92">
+      <c r="D160" s="92">
         <v>44871</v>
       </c>
-      <c r="E155" s="92">
+      <c r="E160" s="92">
         <v>44875</v>
       </c>
-      <c r="F155" s="50" t="s">
-        <v>10</v>
-      </c>
-      <c r="G155" s="51" t="s">
+      <c r="F160" s="50" t="s">
+        <v>10</v>
+      </c>
+      <c r="G160" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="H155" s="52" t="s">
+      <c r="H160" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="I155" s="151"/>
-      <c r="J155" s="152"/>
-      <c r="K155" s="153"/>
-      <c r="L155" s="135"/>
-    </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A156" s="150"/>
-      <c r="B156" s="35" t="s">
+      <c r="I160" s="129"/>
+      <c r="J160" s="130"/>
+      <c r="K160" s="131"/>
+      <c r="L160" s="179"/>
+    </row>
+    <row r="161" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A161" s="128"/>
+      <c r="B161" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="C156" s="36">
+      <c r="C161" s="36">
         <v>44884</v>
       </c>
-      <c r="D156" s="74"/>
-      <c r="E156" s="74">
+      <c r="D161" s="74"/>
+      <c r="E161" s="74">
         <v>44885</v>
       </c>
-      <c r="F156" s="37" t="s">
+      <c r="F161" s="37" t="s">
         <v>7</v>
-      </c>
-      <c r="G156" s="35" t="s">
-        <v>46</v>
-      </c>
-      <c r="H156" s="53" t="s">
-        <v>8</v>
-      </c>
-      <c r="I156" s="151"/>
-      <c r="J156" s="152"/>
-      <c r="K156" s="153"/>
-      <c r="L156" s="136"/>
-    </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A157" s="108">
-        <v>41</v>
-      </c>
-      <c r="B157" s="109"/>
-      <c r="C157" s="110"/>
-      <c r="D157" s="110"/>
-      <c r="E157" s="110"/>
-      <c r="F157" s="109"/>
-      <c r="G157" s="109"/>
-      <c r="H157" s="111"/>
-      <c r="I157" s="176" t="s">
-        <v>0</v>
-      </c>
-      <c r="J157" s="112"/>
-      <c r="K157" s="109"/>
-      <c r="L157" s="113"/>
-    </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A158" s="150">
-        <v>42</v>
-      </c>
-      <c r="B158" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="C158" s="32">
-        <v>44822</v>
-      </c>
-      <c r="D158" s="32"/>
-      <c r="E158" s="32">
-        <v>44822</v>
-      </c>
-      <c r="F158" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="G158" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="H158" s="34" t="s">
-        <v>11</v>
-      </c>
-      <c r="I158" s="151" t="s">
-        <v>0</v>
-      </c>
-      <c r="J158" s="152">
-        <v>41</v>
-      </c>
-      <c r="K158" s="153">
-        <v>3</v>
-      </c>
-      <c r="L158" s="134"/>
-    </row>
-    <row r="159" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A159" s="150"/>
-      <c r="B159" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="C159" s="32">
-        <v>44839</v>
-      </c>
-      <c r="D159" s="32"/>
-      <c r="E159" s="32">
-        <v>44839</v>
-      </c>
-      <c r="F159" s="33" t="s">
-        <v>23</v>
-      </c>
-      <c r="G159" s="27" t="s">
-        <v>2</v>
-      </c>
-      <c r="H159" s="34" t="s">
-        <v>1</v>
-      </c>
-      <c r="I159" s="151"/>
-      <c r="J159" s="152"/>
-      <c r="K159" s="153"/>
-      <c r="L159" s="135"/>
-    </row>
-    <row r="160" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A160" s="150"/>
-      <c r="B160" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="C160" s="32">
-        <v>44863</v>
-      </c>
-      <c r="D160" s="32"/>
-      <c r="E160" s="32">
-        <v>44864</v>
-      </c>
-      <c r="F160" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="G160" s="27" t="s">
-        <v>18</v>
-      </c>
-      <c r="H160" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="I160" s="151"/>
-      <c r="J160" s="152"/>
-      <c r="K160" s="153"/>
-      <c r="L160" s="135"/>
-    </row>
-    <row r="161" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A161" s="150"/>
-      <c r="B161" s="35" t="s">
-        <v>41</v>
-      </c>
-      <c r="C161" s="36">
-        <v>44878</v>
-      </c>
-      <c r="D161" s="36">
-        <v>44885</v>
-      </c>
-      <c r="E161" s="36">
-        <v>44888</v>
-      </c>
-      <c r="F161" s="37" t="s">
-        <v>10</v>
       </c>
       <c r="G161" s="35" t="s">
         <v>46</v>
       </c>
       <c r="H161" s="53" t="s">
+        <v>8</v>
+      </c>
+      <c r="I161" s="129"/>
+      <c r="J161" s="130"/>
+      <c r="K161" s="131"/>
+      <c r="L161" s="180"/>
+    </row>
+    <row r="162" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A162" s="108">
+        <v>41</v>
+      </c>
+      <c r="B162" s="109"/>
+      <c r="C162" s="110"/>
+      <c r="D162" s="110"/>
+      <c r="E162" s="110"/>
+      <c r="F162" s="109"/>
+      <c r="G162" s="109"/>
+      <c r="H162" s="111"/>
+      <c r="I162" s="124" t="s">
+        <v>0</v>
+      </c>
+      <c r="J162" s="112"/>
+      <c r="K162" s="109"/>
+      <c r="L162" s="113"/>
+    </row>
+    <row r="163" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A163" s="128">
+        <v>42</v>
+      </c>
+      <c r="B163" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C163" s="32">
+        <v>44822</v>
+      </c>
+      <c r="D163" s="32"/>
+      <c r="E163" s="32">
+        <v>44822</v>
+      </c>
+      <c r="F163" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="G163" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="H163" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="I161" s="151"/>
-      <c r="J161" s="152"/>
-      <c r="K161" s="153"/>
-      <c r="L161" s="136"/>
-    </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A162" s="144">
+      <c r="I163" s="129" t="s">
+        <v>0</v>
+      </c>
+      <c r="J163" s="130">
+        <v>41</v>
+      </c>
+      <c r="K163" s="131">
+        <v>3</v>
+      </c>
+      <c r="L163" s="178"/>
+    </row>
+    <row r="164" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A164" s="128"/>
+      <c r="B164" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C164" s="32">
+        <v>44839</v>
+      </c>
+      <c r="D164" s="32"/>
+      <c r="E164" s="32">
+        <v>44839</v>
+      </c>
+      <c r="F164" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="G164" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="H164" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="I164" s="129"/>
+      <c r="J164" s="130"/>
+      <c r="K164" s="131"/>
+      <c r="L164" s="179"/>
+    </row>
+    <row r="165" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A165" s="128"/>
+      <c r="B165" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="C165" s="32">
+        <v>44863</v>
+      </c>
+      <c r="D165" s="32"/>
+      <c r="E165" s="32">
+        <v>44864</v>
+      </c>
+      <c r="F165" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="G165" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="H165" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="I165" s="129"/>
+      <c r="J165" s="130"/>
+      <c r="K165" s="131"/>
+      <c r="L165" s="179"/>
+    </row>
+    <row r="166" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A166" s="128"/>
+      <c r="B166" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="C166" s="36">
+        <v>44878</v>
+      </c>
+      <c r="D166" s="36">
+        <v>44885</v>
+      </c>
+      <c r="E166" s="36">
+        <v>44888</v>
+      </c>
+      <c r="F166" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="G166" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H166" s="53" t="s">
+        <v>11</v>
+      </c>
+      <c r="I166" s="129"/>
+      <c r="J166" s="130"/>
+      <c r="K166" s="131"/>
+      <c r="L166" s="180"/>
+    </row>
+    <row r="167" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A167" s="156">
         <v>43</v>
       </c>
-      <c r="B162" s="12" t="s">
+      <c r="B167" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="C162" s="54">
+      <c r="C167" s="54">
         <v>44815</v>
       </c>
-      <c r="D162" s="54">
+      <c r="D167" s="54">
         <v>44822</v>
       </c>
-      <c r="E162" s="54">
+      <c r="E167" s="54">
         <v>44822</v>
       </c>
-      <c r="F162" s="55" t="s">
-        <v>10</v>
-      </c>
-      <c r="G162" s="56" t="s">
+      <c r="F167" s="55" t="s">
+        <v>10</v>
+      </c>
+      <c r="G167" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="H162" s="57" t="s">
+      <c r="H167" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="I162" s="151" t="s">
+      <c r="I167" s="129" t="s">
         <v>0</v>
       </c>
-      <c r="J162" s="148">
+      <c r="J167" s="132">
         <v>77</v>
       </c>
-      <c r="K162" s="149">
+      <c r="K167" s="133">
         <v>4</v>
       </c>
-      <c r="L162" s="143"/>
-    </row>
-    <row r="163" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A163" s="144"/>
-      <c r="B163" s="15" t="s">
+      <c r="L167" s="134"/>
+    </row>
+    <row r="168" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A168" s="156"/>
+      <c r="B168" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="C163" s="54">
+      <c r="C168" s="54">
         <v>44839</v>
       </c>
-      <c r="D163" s="54"/>
-      <c r="E163" s="54">
+      <c r="D168" s="54"/>
+      <c r="E168" s="54">
         <v>44839</v>
       </c>
-      <c r="F163" s="55" t="s">
+      <c r="F168" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="G163" s="56" t="s">
+      <c r="G168" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="H163" s="57" t="s">
+      <c r="H168" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="I163" s="151"/>
-      <c r="J163" s="148"/>
-      <c r="K163" s="149"/>
-      <c r="L163" s="143"/>
-    </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A164" s="144"/>
-      <c r="B164" s="15" t="s">
+      <c r="I168" s="129"/>
+      <c r="J168" s="132"/>
+      <c r="K168" s="133"/>
+      <c r="L168" s="134"/>
+    </row>
+    <row r="169" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A169" s="156"/>
+      <c r="B169" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="C164" s="54">
+      <c r="C169" s="54">
         <v>44848</v>
       </c>
-      <c r="D164" s="54"/>
-      <c r="E164" s="54">
+      <c r="D169" s="54"/>
+      <c r="E169" s="54">
         <v>44850</v>
       </c>
-      <c r="F164" s="55" t="s">
+      <c r="F169" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="G164" s="56" t="s">
+      <c r="G169" s="56" t="s">
         <v>39</v>
       </c>
-      <c r="H164" s="57" t="s">
+      <c r="H169" s="57" t="s">
         <v>40</v>
       </c>
-      <c r="I164" s="151"/>
-      <c r="J164" s="148"/>
-      <c r="K164" s="149"/>
-      <c r="L164" s="143"/>
-    </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A165" s="144"/>
-      <c r="B165" s="47" t="s">
+      <c r="I169" s="129"/>
+      <c r="J169" s="132"/>
+      <c r="K169" s="133"/>
+      <c r="L169" s="134"/>
+    </row>
+    <row r="170" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A170" s="156"/>
+      <c r="B170" s="47" t="s">
         <v>41</v>
       </c>
-      <c r="C165" s="79">
+      <c r="C170" s="79">
         <v>44863</v>
       </c>
-      <c r="D165" s="79"/>
-      <c r="E165" s="79">
+      <c r="D170" s="79"/>
+      <c r="E170" s="79">
         <v>44864</v>
       </c>
-      <c r="F165" s="80" t="s">
+      <c r="F170" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="G165" s="47" t="s">
+      <c r="G170" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="H165" s="81" t="s">
+      <c r="H170" s="81" t="s">
         <v>8</v>
       </c>
-      <c r="I165" s="151"/>
-      <c r="J165" s="148"/>
-      <c r="K165" s="149"/>
-      <c r="L165" s="143"/>
-    </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A166" s="144"/>
-      <c r="B166" s="17" t="s">
+      <c r="I170" s="129"/>
+      <c r="J170" s="132"/>
+      <c r="K170" s="133"/>
+      <c r="L170" s="134"/>
+    </row>
+    <row r="171" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A171" s="156"/>
+      <c r="B171" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="C166" s="83">
+      <c r="C171" s="83">
         <v>44878</v>
       </c>
-      <c r="D166" s="83">
+      <c r="D171" s="83">
         <v>44885</v>
       </c>
-      <c r="E166" s="83">
+      <c r="E171" s="83">
         <v>44888</v>
       </c>
-      <c r="F166" s="84" t="s">
-        <v>10</v>
-      </c>
-      <c r="G166" s="17" t="s">
+      <c r="F171" s="84" t="s">
+        <v>10</v>
+      </c>
+      <c r="G171" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="H166" s="85" t="s">
+      <c r="H171" s="85" t="s">
         <v>11</v>
       </c>
-      <c r="I166" s="151"/>
-      <c r="J166" s="148"/>
-      <c r="K166" s="149"/>
-      <c r="L166" s="143"/>
-    </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A167" s="150">
+      <c r="I171" s="129"/>
+      <c r="J171" s="132"/>
+      <c r="K171" s="133"/>
+      <c r="L171" s="134"/>
+    </row>
+    <row r="172" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A172" s="128">
         <v>44</v>
       </c>
-      <c r="B167" s="25" t="s">
+      <c r="B172" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="C167" s="28">
+      <c r="C172" s="28">
         <v>44848</v>
       </c>
-      <c r="D167" s="28"/>
-      <c r="E167" s="28">
+      <c r="D172" s="28"/>
+      <c r="E172" s="28">
         <v>44850</v>
       </c>
-      <c r="F167" s="29" t="s">
+      <c r="F172" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="G167" s="30" t="s">
+      <c r="G172" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="H167" s="31" t="s">
+      <c r="H172" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="I167" s="151" t="s">
+      <c r="I172" s="129" t="s">
         <v>0</v>
       </c>
-      <c r="J167" s="152">
+      <c r="J172" s="130">
         <v>39</v>
       </c>
-      <c r="K167" s="153">
+      <c r="K172" s="131">
         <v>3</v>
       </c>
-      <c r="L167" s="134"/>
-    </row>
-    <row r="168" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A168" s="150"/>
-      <c r="B168" s="30" t="s">
+      <c r="L172" s="178"/>
+    </row>
+    <row r="173" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A173" s="128"/>
+      <c r="B173" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="C168" s="32">
+      <c r="C173" s="32">
         <v>44863</v>
       </c>
-      <c r="D168" s="32"/>
-      <c r="E168" s="32">
+      <c r="D173" s="32"/>
+      <c r="E173" s="32">
         <v>44864</v>
       </c>
-      <c r="F168" s="33" t="s">
+      <c r="F173" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="G168" s="27" t="s">
+      <c r="G173" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="H168" s="34" t="s">
+      <c r="H173" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="I168" s="151"/>
-      <c r="J168" s="152"/>
-      <c r="K168" s="153"/>
-      <c r="L168" s="135"/>
-    </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A169" s="150"/>
-      <c r="B169" s="35" t="s">
+      <c r="I173" s="129"/>
+      <c r="J173" s="130"/>
+      <c r="K173" s="131"/>
+      <c r="L173" s="179"/>
+    </row>
+    <row r="174" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A174" s="128"/>
+      <c r="B174" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="C169" s="36">
+      <c r="C174" s="36">
         <v>44878</v>
       </c>
-      <c r="D169" s="36">
+      <c r="D174" s="36">
         <v>44885</v>
       </c>
-      <c r="E169" s="36">
+      <c r="E174" s="36">
         <v>44888</v>
       </c>
-      <c r="F169" s="37" t="s">
-        <v>10</v>
-      </c>
-      <c r="G169" s="35" t="s">
+      <c r="F174" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="G174" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="H169" s="53" t="s">
+      <c r="H174" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="I169" s="151"/>
-      <c r="J169" s="152"/>
-      <c r="K169" s="153"/>
-      <c r="L169" s="136"/>
-    </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A170" s="144">
+      <c r="I174" s="129"/>
+      <c r="J174" s="130"/>
+      <c r="K174" s="131"/>
+      <c r="L174" s="180"/>
+    </row>
+    <row r="175" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A175" s="156">
         <v>45</v>
       </c>
-      <c r="B170" s="12" t="s">
+      <c r="B175" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="C170" s="54">
+      <c r="C175" s="54">
         <v>44829</v>
       </c>
-      <c r="D170" s="54"/>
-      <c r="E170" s="54">
+      <c r="D175" s="54"/>
+      <c r="E175" s="54">
         <v>44829</v>
       </c>
-      <c r="F170" s="55" t="s">
-        <v>10</v>
-      </c>
-      <c r="G170" s="56" t="s">
+      <c r="F175" s="55" t="s">
+        <v>10</v>
+      </c>
+      <c r="G175" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="H170" s="56" t="s">
+      <c r="H175" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="I170" s="151" t="s">
+      <c r="I175" s="129" t="s">
         <v>0</v>
       </c>
-      <c r="J170" s="149">
+      <c r="J175" s="133">
         <v>53</v>
       </c>
-      <c r="K170" s="149">
+      <c r="K175" s="133">
         <v>3</v>
       </c>
-      <c r="L170" s="143"/>
-    </row>
-    <row r="171" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A171" s="144"/>
-      <c r="B171" s="12" t="s">
+      <c r="L175" s="134"/>
+    </row>
+    <row r="176" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A176" s="156"/>
+      <c r="B176" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="C171" s="54">
+      <c r="C176" s="54">
         <v>44848</v>
       </c>
-      <c r="D171" s="54"/>
-      <c r="E171" s="54">
+      <c r="D176" s="54"/>
+      <c r="E176" s="54">
         <v>44829</v>
       </c>
-      <c r="F171" s="55" t="s">
+      <c r="F176" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="G171" s="56" t="s">
+      <c r="G176" s="56" t="s">
         <v>39</v>
       </c>
-      <c r="H171" s="56" t="s">
+      <c r="H176" s="56" t="s">
         <v>40</v>
       </c>
-      <c r="I171" s="151"/>
-      <c r="J171" s="149"/>
-      <c r="K171" s="149"/>
-      <c r="L171" s="143"/>
-    </row>
-    <row r="172" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A172" s="172"/>
-      <c r="B172" s="102" t="s">
+      <c r="I176" s="129"/>
+      <c r="J176" s="133"/>
+      <c r="K176" s="133"/>
+      <c r="L176" s="134"/>
+    </row>
+    <row r="177" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A177" s="160"/>
+      <c r="B177" s="102" t="s">
         <v>27</v>
       </c>
-      <c r="C172" s="103">
+      <c r="C177" s="103">
         <v>44878</v>
       </c>
-      <c r="D172" s="103">
+      <c r="D177" s="103">
         <v>44885</v>
       </c>
-      <c r="E172" s="103">
+      <c r="E177" s="103">
         <v>44888</v>
       </c>
-      <c r="F172" s="104" t="s">
-        <v>10</v>
-      </c>
-      <c r="G172" s="105" t="s">
+      <c r="F177" s="104" t="s">
+        <v>10</v>
+      </c>
+      <c r="G177" s="105" t="s">
         <v>24</v>
       </c>
-      <c r="H172" s="105" t="s">
+      <c r="H177" s="105" t="s">
         <v>11</v>
       </c>
-      <c r="I172" s="177"/>
-      <c r="J172" s="173"/>
-      <c r="K172" s="173"/>
-      <c r="L172" s="174"/>
+      <c r="I177" s="161"/>
+      <c r="J177" s="162"/>
+      <c r="K177" s="162"/>
+      <c r="L177" s="163"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L172"/>
+  <autoFilter ref="A1:L177"/>
   <mergeCells count="210">
-    <mergeCell ref="A158:A161"/>
-    <mergeCell ref="I158:I161"/>
-    <mergeCell ref="J158:J161"/>
-    <mergeCell ref="K158:K161"/>
-    <mergeCell ref="J129:J131"/>
-    <mergeCell ref="K129:K131"/>
-    <mergeCell ref="L129:L131"/>
-    <mergeCell ref="A102:A104"/>
-    <mergeCell ref="I102:I104"/>
-    <mergeCell ref="J102:J104"/>
-    <mergeCell ref="K102:K104"/>
-    <mergeCell ref="L102:L104"/>
-    <mergeCell ref="A105:A109"/>
-    <mergeCell ref="I105:I109"/>
-    <mergeCell ref="J105:J109"/>
-    <mergeCell ref="K105:K109"/>
-    <mergeCell ref="A110:A115"/>
-    <mergeCell ref="A132:A136"/>
-    <mergeCell ref="I132:I136"/>
-    <mergeCell ref="J132:J136"/>
-    <mergeCell ref="K132:K136"/>
-    <mergeCell ref="L132:L136"/>
-    <mergeCell ref="I78:I81"/>
-    <mergeCell ref="J78:J81"/>
-    <mergeCell ref="K78:K81"/>
-    <mergeCell ref="A129:A131"/>
-    <mergeCell ref="I129:I131"/>
-    <mergeCell ref="A88:A90"/>
-    <mergeCell ref="I88:I90"/>
-    <mergeCell ref="J88:J90"/>
-    <mergeCell ref="K88:K90"/>
-    <mergeCell ref="J125:J128"/>
-    <mergeCell ref="K125:K128"/>
-    <mergeCell ref="A86:A87"/>
-    <mergeCell ref="I86:I87"/>
-    <mergeCell ref="K86:K87"/>
-    <mergeCell ref="A82:A85"/>
-    <mergeCell ref="I95:I98"/>
-    <mergeCell ref="J95:J98"/>
-    <mergeCell ref="K95:K98"/>
-    <mergeCell ref="A91:A94"/>
-    <mergeCell ref="I91:I94"/>
-    <mergeCell ref="J91:J94"/>
-    <mergeCell ref="A95:A98"/>
-    <mergeCell ref="K91:K94"/>
-    <mergeCell ref="K121:K124"/>
-    <mergeCell ref="A52:A53"/>
-    <mergeCell ref="I52:I53"/>
-    <mergeCell ref="J52:J53"/>
-    <mergeCell ref="K52:K53"/>
-    <mergeCell ref="J32:J34"/>
-    <mergeCell ref="A62:A65"/>
-    <mergeCell ref="I62:I65"/>
-    <mergeCell ref="J62:J65"/>
-    <mergeCell ref="K62:K65"/>
-    <mergeCell ref="A66:A69"/>
-    <mergeCell ref="I66:I69"/>
-    <mergeCell ref="J66:J69"/>
-    <mergeCell ref="K66:K69"/>
-    <mergeCell ref="A170:A172"/>
-    <mergeCell ref="I170:I172"/>
-    <mergeCell ref="J170:J172"/>
-    <mergeCell ref="K170:K172"/>
-    <mergeCell ref="L170:L172"/>
-    <mergeCell ref="J86:J87"/>
-    <mergeCell ref="L125:L128"/>
-    <mergeCell ref="L121:L124"/>
-    <mergeCell ref="L162:L166"/>
-    <mergeCell ref="A162:A166"/>
-    <mergeCell ref="I162:I166"/>
-    <mergeCell ref="J162:J166"/>
-    <mergeCell ref="K162:K166"/>
-    <mergeCell ref="A167:A169"/>
-    <mergeCell ref="I167:I169"/>
-    <mergeCell ref="J167:J169"/>
-    <mergeCell ref="K167:K169"/>
-    <mergeCell ref="A121:A124"/>
-    <mergeCell ref="I121:I124"/>
-    <mergeCell ref="J121:J124"/>
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="I2:I7"/>
-    <mergeCell ref="J2:J7"/>
-    <mergeCell ref="K2:K7"/>
-    <mergeCell ref="L2:L7"/>
-    <mergeCell ref="A99:A101"/>
-    <mergeCell ref="I99:I101"/>
-    <mergeCell ref="J99:J101"/>
-    <mergeCell ref="K99:K101"/>
-    <mergeCell ref="L99:L101"/>
-    <mergeCell ref="I46:I48"/>
-    <mergeCell ref="J46:J48"/>
-    <mergeCell ref="K46:K48"/>
-    <mergeCell ref="L46:L48"/>
-    <mergeCell ref="I82:I85"/>
-    <mergeCell ref="J82:J85"/>
-    <mergeCell ref="K82:K85"/>
-    <mergeCell ref="L52:L53"/>
-    <mergeCell ref="J70:J73"/>
-    <mergeCell ref="K70:K73"/>
-    <mergeCell ref="A74:A77"/>
-    <mergeCell ref="I74:I77"/>
-    <mergeCell ref="J74:J77"/>
-    <mergeCell ref="A78:A81"/>
-    <mergeCell ref="A70:A73"/>
-    <mergeCell ref="I70:I73"/>
-    <mergeCell ref="K74:K77"/>
-    <mergeCell ref="K32:K34"/>
-    <mergeCell ref="A46:A48"/>
-    <mergeCell ref="A40:A45"/>
-    <mergeCell ref="I40:I45"/>
-    <mergeCell ref="J40:J45"/>
-    <mergeCell ref="K40:K45"/>
-    <mergeCell ref="A54:A57"/>
-    <mergeCell ref="I54:I57"/>
-    <mergeCell ref="J54:J57"/>
-    <mergeCell ref="K54:K57"/>
-    <mergeCell ref="A49:A51"/>
-    <mergeCell ref="I49:I51"/>
-    <mergeCell ref="A35:A38"/>
-    <mergeCell ref="J35:J38"/>
-    <mergeCell ref="K35:K38"/>
-    <mergeCell ref="J49:J51"/>
-    <mergeCell ref="K49:K51"/>
-    <mergeCell ref="A58:A60"/>
-    <mergeCell ref="I58:I60"/>
-    <mergeCell ref="J58:J60"/>
-    <mergeCell ref="K58:K60"/>
-    <mergeCell ref="A29:A31"/>
-    <mergeCell ref="I29:I31"/>
-    <mergeCell ref="J29:J31"/>
-    <mergeCell ref="K29:K31"/>
-    <mergeCell ref="I35:I38"/>
-    <mergeCell ref="L29:L31"/>
-    <mergeCell ref="A32:A34"/>
-    <mergeCell ref="I32:I34"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="K15:K16"/>
-    <mergeCell ref="L15:L16"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="I27:I28"/>
-    <mergeCell ref="J27:J28"/>
-    <mergeCell ref="K27:K28"/>
-    <mergeCell ref="L27:L28"/>
-    <mergeCell ref="A23:A26"/>
-    <mergeCell ref="I23:I26"/>
-    <mergeCell ref="J23:J26"/>
-    <mergeCell ref="K23:K26"/>
-    <mergeCell ref="L23:L26"/>
-    <mergeCell ref="I110:I115"/>
-    <mergeCell ref="J110:J115"/>
-    <mergeCell ref="K110:K115"/>
-    <mergeCell ref="A116:A120"/>
-    <mergeCell ref="I116:I120"/>
-    <mergeCell ref="J116:J120"/>
-    <mergeCell ref="K116:K120"/>
-    <mergeCell ref="A125:A128"/>
-    <mergeCell ref="I125:I128"/>
-    <mergeCell ref="A137:A140"/>
-    <mergeCell ref="I137:I140"/>
-    <mergeCell ref="J137:J140"/>
-    <mergeCell ref="K137:K140"/>
-    <mergeCell ref="L137:L140"/>
-    <mergeCell ref="A141:A146"/>
-    <mergeCell ref="I141:I146"/>
-    <mergeCell ref="J141:J146"/>
-    <mergeCell ref="K141:K146"/>
-    <mergeCell ref="A147:A151"/>
-    <mergeCell ref="I147:I151"/>
-    <mergeCell ref="J147:J151"/>
-    <mergeCell ref="K147:K151"/>
-    <mergeCell ref="L147:L151"/>
-    <mergeCell ref="A152:A156"/>
-    <mergeCell ref="I152:I156"/>
-    <mergeCell ref="J152:J156"/>
-    <mergeCell ref="K152:K156"/>
-    <mergeCell ref="L167:L169"/>
-    <mergeCell ref="L152:L156"/>
-    <mergeCell ref="L141:L146"/>
-    <mergeCell ref="L32:L34"/>
-    <mergeCell ref="L58:L60"/>
-    <mergeCell ref="L62:L65"/>
-    <mergeCell ref="L70:L73"/>
-    <mergeCell ref="L78:L81"/>
-    <mergeCell ref="L86:L87"/>
-    <mergeCell ref="L91:L94"/>
-    <mergeCell ref="L105:L109"/>
-    <mergeCell ref="L110:L115"/>
-    <mergeCell ref="L116:L120"/>
-    <mergeCell ref="L40:L45"/>
-    <mergeCell ref="L54:L57"/>
-    <mergeCell ref="L35:L38"/>
-    <mergeCell ref="L49:L51"/>
-    <mergeCell ref="L95:L98"/>
-    <mergeCell ref="L158:L161"/>
-    <mergeCell ref="L66:L69"/>
-    <mergeCell ref="L74:L77"/>
-    <mergeCell ref="L82:L85"/>
-    <mergeCell ref="L88:L90"/>
+    <mergeCell ref="A38:A42"/>
+    <mergeCell ref="I38:I42"/>
+    <mergeCell ref="J38:J42"/>
+    <mergeCell ref="K38:K42"/>
+    <mergeCell ref="L38:L42"/>
+    <mergeCell ref="A50:A53"/>
+    <mergeCell ref="I50:I53"/>
+    <mergeCell ref="J50:J53"/>
+    <mergeCell ref="K50:K53"/>
+    <mergeCell ref="L50:L53"/>
+    <mergeCell ref="L79:L82"/>
+    <mergeCell ref="L87:L90"/>
+    <mergeCell ref="L93:L95"/>
     <mergeCell ref="A8:A14"/>
     <mergeCell ref="I8:I14"/>
     <mergeCell ref="J8:J14"/>
@@ -6759,6 +6744,193 @@
     <mergeCell ref="J17:J22"/>
     <mergeCell ref="K17:K22"/>
     <mergeCell ref="L17:L22"/>
+    <mergeCell ref="J27:J29"/>
+    <mergeCell ref="K27:K29"/>
+    <mergeCell ref="L27:L29"/>
+    <mergeCell ref="A30:A33"/>
+    <mergeCell ref="I30:I33"/>
+    <mergeCell ref="J30:J33"/>
+    <mergeCell ref="K30:K33"/>
+    <mergeCell ref="L30:L33"/>
+    <mergeCell ref="A34:A37"/>
+    <mergeCell ref="I34:I37"/>
+    <mergeCell ref="J34:J37"/>
+    <mergeCell ref="A157:A161"/>
+    <mergeCell ref="I157:I161"/>
+    <mergeCell ref="J157:J161"/>
+    <mergeCell ref="K157:K161"/>
+    <mergeCell ref="L172:L174"/>
+    <mergeCell ref="L157:L161"/>
+    <mergeCell ref="L146:L151"/>
+    <mergeCell ref="L63:L65"/>
+    <mergeCell ref="L67:L70"/>
+    <mergeCell ref="L75:L78"/>
+    <mergeCell ref="L83:L86"/>
+    <mergeCell ref="L91:L92"/>
+    <mergeCell ref="L96:L99"/>
+    <mergeCell ref="L110:L114"/>
+    <mergeCell ref="L115:L120"/>
+    <mergeCell ref="L121:L125"/>
+    <mergeCell ref="L44:L49"/>
+    <mergeCell ref="L59:L62"/>
+    <mergeCell ref="L54:L56"/>
+    <mergeCell ref="L100:L103"/>
+    <mergeCell ref="L163:L166"/>
+    <mergeCell ref="L71:L74"/>
+    <mergeCell ref="L142:L145"/>
+    <mergeCell ref="A146:A151"/>
+    <mergeCell ref="I146:I151"/>
+    <mergeCell ref="J146:J151"/>
+    <mergeCell ref="K146:K151"/>
+    <mergeCell ref="A152:A156"/>
+    <mergeCell ref="I152:I156"/>
+    <mergeCell ref="J152:J156"/>
+    <mergeCell ref="K152:K156"/>
+    <mergeCell ref="L152:L156"/>
+    <mergeCell ref="J115:J120"/>
+    <mergeCell ref="K115:K120"/>
+    <mergeCell ref="A121:A125"/>
+    <mergeCell ref="I121:I125"/>
+    <mergeCell ref="J121:J125"/>
+    <mergeCell ref="K121:K125"/>
+    <mergeCell ref="A130:A133"/>
+    <mergeCell ref="I130:I133"/>
+    <mergeCell ref="A142:A145"/>
+    <mergeCell ref="I142:I145"/>
+    <mergeCell ref="J142:J145"/>
+    <mergeCell ref="K142:K145"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="K15:K16"/>
+    <mergeCell ref="L15:L16"/>
+    <mergeCell ref="A23:A26"/>
+    <mergeCell ref="I23:I26"/>
+    <mergeCell ref="J23:J26"/>
+    <mergeCell ref="K23:K26"/>
+    <mergeCell ref="L23:L26"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="K34:K37"/>
+    <mergeCell ref="L34:L37"/>
+    <mergeCell ref="A75:A78"/>
+    <mergeCell ref="I75:I78"/>
+    <mergeCell ref="K79:K82"/>
+    <mergeCell ref="A44:A49"/>
+    <mergeCell ref="I44:I49"/>
+    <mergeCell ref="J44:J49"/>
+    <mergeCell ref="K44:K49"/>
+    <mergeCell ref="A59:A62"/>
+    <mergeCell ref="I59:I62"/>
+    <mergeCell ref="J59:J62"/>
+    <mergeCell ref="K59:K62"/>
+    <mergeCell ref="A54:A56"/>
+    <mergeCell ref="I54:I56"/>
+    <mergeCell ref="J54:J56"/>
+    <mergeCell ref="K54:K56"/>
+    <mergeCell ref="A63:A65"/>
+    <mergeCell ref="I63:I65"/>
+    <mergeCell ref="J63:J65"/>
+    <mergeCell ref="K63:K65"/>
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="I2:I7"/>
+    <mergeCell ref="J2:J7"/>
+    <mergeCell ref="K2:K7"/>
+    <mergeCell ref="L2:L7"/>
+    <mergeCell ref="A104:A106"/>
+    <mergeCell ref="I104:I106"/>
+    <mergeCell ref="J104:J106"/>
+    <mergeCell ref="K104:K106"/>
+    <mergeCell ref="L104:L106"/>
+    <mergeCell ref="I87:I90"/>
+    <mergeCell ref="J87:J90"/>
+    <mergeCell ref="K87:K90"/>
+    <mergeCell ref="L57:L58"/>
+    <mergeCell ref="J75:J78"/>
+    <mergeCell ref="K75:K78"/>
+    <mergeCell ref="A79:A82"/>
+    <mergeCell ref="I79:I82"/>
+    <mergeCell ref="J79:J82"/>
+    <mergeCell ref="A83:A86"/>
+    <mergeCell ref="A71:A74"/>
+    <mergeCell ref="I71:I74"/>
+    <mergeCell ref="J71:J74"/>
+    <mergeCell ref="K71:K74"/>
+    <mergeCell ref="A175:A177"/>
+    <mergeCell ref="I175:I177"/>
+    <mergeCell ref="J175:J177"/>
+    <mergeCell ref="K175:K177"/>
+    <mergeCell ref="L175:L177"/>
+    <mergeCell ref="J91:J92"/>
+    <mergeCell ref="L130:L133"/>
+    <mergeCell ref="L126:L129"/>
+    <mergeCell ref="L167:L171"/>
+    <mergeCell ref="A167:A171"/>
+    <mergeCell ref="I167:I171"/>
+    <mergeCell ref="J167:J171"/>
+    <mergeCell ref="K167:K171"/>
+    <mergeCell ref="A172:A174"/>
+    <mergeCell ref="I172:I174"/>
+    <mergeCell ref="J172:J174"/>
+    <mergeCell ref="K172:K174"/>
+    <mergeCell ref="A126:A129"/>
+    <mergeCell ref="I126:I129"/>
+    <mergeCell ref="J126:J129"/>
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="I57:I58"/>
+    <mergeCell ref="J57:J58"/>
+    <mergeCell ref="K57:K58"/>
+    <mergeCell ref="A67:A70"/>
+    <mergeCell ref="I67:I70"/>
+    <mergeCell ref="J67:J70"/>
+    <mergeCell ref="K67:K70"/>
+    <mergeCell ref="J83:J86"/>
+    <mergeCell ref="K83:K86"/>
+    <mergeCell ref="A134:A136"/>
+    <mergeCell ref="I134:I136"/>
+    <mergeCell ref="A93:A95"/>
+    <mergeCell ref="I93:I95"/>
+    <mergeCell ref="J93:J95"/>
+    <mergeCell ref="K93:K95"/>
+    <mergeCell ref="J130:J133"/>
+    <mergeCell ref="K130:K133"/>
+    <mergeCell ref="A91:A92"/>
+    <mergeCell ref="I91:I92"/>
+    <mergeCell ref="K91:K92"/>
+    <mergeCell ref="A87:A90"/>
+    <mergeCell ref="I100:I103"/>
+    <mergeCell ref="J100:J103"/>
+    <mergeCell ref="K100:K103"/>
+    <mergeCell ref="A96:A99"/>
+    <mergeCell ref="I96:I99"/>
+    <mergeCell ref="J96:J99"/>
+    <mergeCell ref="A100:A103"/>
+    <mergeCell ref="K96:K99"/>
+    <mergeCell ref="K126:K129"/>
+    <mergeCell ref="I115:I120"/>
+    <mergeCell ref="I27:I29"/>
+    <mergeCell ref="A163:A166"/>
+    <mergeCell ref="I163:I166"/>
+    <mergeCell ref="J163:J166"/>
+    <mergeCell ref="K163:K166"/>
+    <mergeCell ref="J134:J136"/>
+    <mergeCell ref="K134:K136"/>
+    <mergeCell ref="L134:L136"/>
+    <mergeCell ref="A107:A109"/>
+    <mergeCell ref="I107:I109"/>
+    <mergeCell ref="J107:J109"/>
+    <mergeCell ref="K107:K109"/>
+    <mergeCell ref="L107:L109"/>
+    <mergeCell ref="A110:A114"/>
+    <mergeCell ref="I110:I114"/>
+    <mergeCell ref="J110:J114"/>
+    <mergeCell ref="K110:K114"/>
+    <mergeCell ref="A115:A120"/>
+    <mergeCell ref="A137:A141"/>
+    <mergeCell ref="I137:I141"/>
+    <mergeCell ref="J137:J141"/>
+    <mergeCell ref="K137:K141"/>
+    <mergeCell ref="L137:L141"/>
+    <mergeCell ref="I83:I86"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0" right="0" top="1.1811023622047244E-2" bottom="0.11811023622047245" header="0" footer="0"/>

--- a/sheet/CONTROLE_DE_TERRITORIO_2022.xlsx
+++ b/sheet/CONTROLE_DE_TERRITORIO_2022.xlsx
@@ -15,8 +15,8 @@
     <sheet name="NOVA" sheetId="3" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">NOVA!$A$1:$L$177</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">NOVA!$A$1:$K$177</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">NOVA!$A$1:$L$180</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">NOVA!$A$1:$K$180</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="752" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="767" uniqueCount="49">
   <si>
     <t>OK</t>
   </si>
@@ -745,7 +745,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="190">
+  <cellXfs count="191">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1114,6 +1114,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="3" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1602,10 +1605,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L177"/>
+  <dimension ref="A1:L180"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="99" zoomScaleNormal="100" zoomScalePageLayoutView="45" workbookViewId="0">
-      <selection activeCell="H56" sqref="H56"/>
+    <sheetView tabSelected="1" zoomScale="99" zoomScaleNormal="100" zoomScalePageLayoutView="45" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1666,7 +1669,7 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="159">
+      <c r="A2" s="160">
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
@@ -1688,19 +1691,19 @@
       <c r="H2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="129" t="s">
+      <c r="I2" s="130" t="s">
         <v>0</v>
       </c>
-      <c r="J2" s="165">
+      <c r="J2" s="166">
         <v>5</v>
       </c>
-      <c r="K2" s="155">
+      <c r="K2" s="156">
         <v>1</v>
       </c>
-      <c r="L2" s="166"/>
+      <c r="L2" s="167"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="152"/>
+      <c r="A3" s="153"/>
       <c r="B3" s="12" t="s">
         <v>25</v>
       </c>
@@ -1720,13 +1723,13 @@
       <c r="H3" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="I3" s="129"/>
-      <c r="J3" s="132"/>
-      <c r="K3" s="133"/>
-      <c r="L3" s="134"/>
+      <c r="I3" s="130"/>
+      <c r="J3" s="133"/>
+      <c r="K3" s="134"/>
+      <c r="L3" s="135"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="152"/>
+      <c r="A4" s="153"/>
       <c r="B4" s="15" t="s">
         <v>27</v>
       </c>
@@ -1746,13 +1749,13 @@
       <c r="H4" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="129"/>
-      <c r="J4" s="132"/>
-      <c r="K4" s="133"/>
-      <c r="L4" s="134"/>
+      <c r="I4" s="130"/>
+      <c r="J4" s="133"/>
+      <c r="K4" s="134"/>
+      <c r="L4" s="135"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="152"/>
+      <c r="A5" s="153"/>
       <c r="B5" s="15" t="s">
         <v>41</v>
       </c>
@@ -1772,13 +1775,13 @@
       <c r="H5" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="129"/>
-      <c r="J5" s="132"/>
-      <c r="K5" s="133"/>
-      <c r="L5" s="134"/>
+      <c r="I5" s="130"/>
+      <c r="J5" s="133"/>
+      <c r="K5" s="134"/>
+      <c r="L5" s="135"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="152"/>
+      <c r="A6" s="153"/>
       <c r="B6" s="15" t="s">
         <v>44</v>
       </c>
@@ -1798,13 +1801,13 @@
       <c r="H6" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="I6" s="129"/>
-      <c r="J6" s="132"/>
-      <c r="K6" s="133"/>
-      <c r="L6" s="134"/>
+      <c r="I6" s="130"/>
+      <c r="J6" s="133"/>
+      <c r="K6" s="134"/>
+      <c r="L6" s="135"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="152"/>
+      <c r="A7" s="153"/>
       <c r="B7" s="17" t="s">
         <v>45</v>
       </c>
@@ -1826,13 +1829,13 @@
       <c r="H7" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="I7" s="129"/>
-      <c r="J7" s="132"/>
-      <c r="K7" s="133"/>
-      <c r="L7" s="134"/>
+      <c r="I7" s="130"/>
+      <c r="J7" s="133"/>
+      <c r="K7" s="134"/>
+      <c r="L7" s="135"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="136">
+      <c r="A8" s="137">
         <v>2</v>
       </c>
       <c r="B8" s="22" t="s">
@@ -1854,19 +1857,19 @@
       <c r="H8" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="I8" s="169" t="s">
+      <c r="I8" s="170" t="s">
         <v>4</v>
       </c>
-      <c r="J8" s="140">
+      <c r="J8" s="141">
         <v>60</v>
       </c>
-      <c r="K8" s="143">
+      <c r="K8" s="144">
         <v>4</v>
       </c>
-      <c r="L8" s="178"/>
+      <c r="L8" s="179"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="137"/>
+      <c r="A9" s="138"/>
       <c r="B9" s="22" t="s">
         <v>25</v>
       </c>
@@ -1888,13 +1891,13 @@
       <c r="H9" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="I9" s="169"/>
-      <c r="J9" s="141"/>
-      <c r="K9" s="144"/>
-      <c r="L9" s="179"/>
+      <c r="I9" s="170"/>
+      <c r="J9" s="142"/>
+      <c r="K9" s="145"/>
+      <c r="L9" s="180"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="137"/>
+      <c r="A10" s="138"/>
       <c r="B10" s="27" t="s">
         <v>27</v>
       </c>
@@ -1914,13 +1917,13 @@
       <c r="H10" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="I10" s="169"/>
-      <c r="J10" s="141"/>
-      <c r="K10" s="144"/>
-      <c r="L10" s="179"/>
+      <c r="I10" s="170"/>
+      <c r="J10" s="142"/>
+      <c r="K10" s="145"/>
+      <c r="L10" s="180"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="137"/>
+      <c r="A11" s="138"/>
       <c r="B11" s="27" t="s">
         <v>41</v>
       </c>
@@ -1940,13 +1943,13 @@
       <c r="H11" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="I11" s="169"/>
-      <c r="J11" s="141"/>
-      <c r="K11" s="144"/>
-      <c r="L11" s="179"/>
+      <c r="I11" s="170"/>
+      <c r="J11" s="142"/>
+      <c r="K11" s="145"/>
+      <c r="L11" s="180"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="137"/>
+      <c r="A12" s="138"/>
       <c r="B12" s="27" t="s">
         <v>44</v>
       </c>
@@ -1966,13 +1969,13 @@
       <c r="H12" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="I12" s="169"/>
-      <c r="J12" s="141"/>
-      <c r="K12" s="144"/>
-      <c r="L12" s="179"/>
+      <c r="I12" s="170"/>
+      <c r="J12" s="142"/>
+      <c r="K12" s="145"/>
+      <c r="L12" s="180"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="137"/>
+      <c r="A13" s="138"/>
       <c r="B13" s="27" t="s">
         <v>45</v>
       </c>
@@ -1992,13 +1995,13 @@
       <c r="H13" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="I13" s="169"/>
-      <c r="J13" s="141"/>
-      <c r="K13" s="144"/>
-      <c r="L13" s="179"/>
+      <c r="I13" s="170"/>
+      <c r="J13" s="142"/>
+      <c r="K13" s="145"/>
+      <c r="L13" s="180"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="138"/>
+      <c r="A14" s="139"/>
       <c r="B14" s="35" t="s">
         <v>48</v>
       </c>
@@ -2020,13 +2023,13 @@
       <c r="H14" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="I14" s="169"/>
-      <c r="J14" s="142"/>
-      <c r="K14" s="145"/>
-      <c r="L14" s="180"/>
+      <c r="I14" s="170"/>
+      <c r="J14" s="143"/>
+      <c r="K14" s="146"/>
+      <c r="L14" s="181"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="152">
+      <c r="A15" s="153">
         <v>3</v>
       </c>
       <c r="B15" s="15" t="s">
@@ -2048,19 +2051,19 @@
       <c r="H15" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="I15" s="129" t="s">
+      <c r="I15" s="130" t="s">
         <v>0</v>
       </c>
-      <c r="J15" s="132">
+      <c r="J15" s="133">
         <v>7</v>
       </c>
-      <c r="K15" s="133">
+      <c r="K15" s="134">
         <v>1</v>
       </c>
-      <c r="L15" s="134"/>
+      <c r="L15" s="135"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="152"/>
+      <c r="A16" s="153"/>
       <c r="B16" s="17" t="s">
         <v>25</v>
       </c>
@@ -2082,13 +2085,13 @@
       <c r="H16" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="I16" s="129"/>
-      <c r="J16" s="132"/>
-      <c r="K16" s="133"/>
-      <c r="L16" s="134"/>
+      <c r="I16" s="130"/>
+      <c r="J16" s="133"/>
+      <c r="K16" s="134"/>
+      <c r="L16" s="135"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="136">
+      <c r="A17" s="137">
         <v>4</v>
       </c>
       <c r="B17" s="22" t="s">
@@ -2112,19 +2115,19 @@
       <c r="H17" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="I17" s="169" t="s">
+      <c r="I17" s="170" t="s">
         <v>4</v>
       </c>
-      <c r="J17" s="140">
+      <c r="J17" s="141">
         <v>59</v>
       </c>
-      <c r="K17" s="143">
+      <c r="K17" s="144">
         <v>4</v>
       </c>
-      <c r="L17" s="178"/>
+      <c r="L17" s="179"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="137"/>
+      <c r="A18" s="138"/>
       <c r="B18" s="22" t="s">
         <v>25</v>
       </c>
@@ -2144,13 +2147,13 @@
       <c r="H18" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="I18" s="169"/>
-      <c r="J18" s="141"/>
-      <c r="K18" s="144"/>
-      <c r="L18" s="179"/>
+      <c r="I18" s="170"/>
+      <c r="J18" s="142"/>
+      <c r="K18" s="145"/>
+      <c r="L18" s="180"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="137"/>
+      <c r="A19" s="138"/>
       <c r="B19" s="27" t="s">
         <v>27</v>
       </c>
@@ -2170,13 +2173,13 @@
       <c r="H19" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="I19" s="169"/>
-      <c r="J19" s="141"/>
-      <c r="K19" s="144"/>
-      <c r="L19" s="179"/>
+      <c r="I19" s="170"/>
+      <c r="J19" s="142"/>
+      <c r="K19" s="145"/>
+      <c r="L19" s="180"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="137"/>
+      <c r="A20" s="138"/>
       <c r="B20" s="27" t="s">
         <v>41</v>
       </c>
@@ -2196,13 +2199,13 @@
       <c r="H20" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="I20" s="169"/>
-      <c r="J20" s="141"/>
-      <c r="K20" s="144"/>
-      <c r="L20" s="179"/>
+      <c r="I20" s="170"/>
+      <c r="J20" s="142"/>
+      <c r="K20" s="145"/>
+      <c r="L20" s="180"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="137"/>
+      <c r="A21" s="138"/>
       <c r="B21" s="27" t="s">
         <v>43</v>
       </c>
@@ -2222,13 +2225,13 @@
       <c r="H21" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="I21" s="169"/>
-      <c r="J21" s="141"/>
-      <c r="K21" s="144"/>
-      <c r="L21" s="179"/>
+      <c r="I21" s="170"/>
+      <c r="J21" s="142"/>
+      <c r="K21" s="145"/>
+      <c r="L21" s="180"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="138"/>
+      <c r="A22" s="139"/>
       <c r="B22" s="35" t="s">
         <v>47</v>
       </c>
@@ -2250,13 +2253,13 @@
       <c r="H22" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="I22" s="169"/>
-      <c r="J22" s="142"/>
-      <c r="K22" s="145"/>
-      <c r="L22" s="180"/>
+      <c r="I22" s="170"/>
+      <c r="J22" s="143"/>
+      <c r="K22" s="146"/>
+      <c r="L22" s="181"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="146">
+      <c r="A23" s="147">
         <v>5</v>
       </c>
       <c r="B23" s="12" t="s">
@@ -2280,19 +2283,19 @@
       <c r="H23" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="I23" s="169" t="s">
+      <c r="I23" s="170" t="s">
         <v>4</v>
       </c>
-      <c r="J23" s="167">
+      <c r="J23" s="168">
         <v>8</v>
       </c>
-      <c r="K23" s="153">
+      <c r="K23" s="154">
         <v>1</v>
       </c>
-      <c r="L23" s="170"/>
+      <c r="L23" s="171"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="147"/>
+      <c r="A24" s="148"/>
       <c r="B24" s="46" t="s">
         <v>25</v>
       </c>
@@ -2314,13 +2317,13 @@
       <c r="H24" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="I24" s="169"/>
-      <c r="J24" s="168"/>
-      <c r="K24" s="154"/>
-      <c r="L24" s="171"/>
+      <c r="I24" s="170"/>
+      <c r="J24" s="169"/>
+      <c r="K24" s="155"/>
+      <c r="L24" s="172"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="147"/>
+      <c r="A25" s="148"/>
       <c r="B25" s="47" t="s">
         <v>27</v>
       </c>
@@ -2340,13 +2343,13 @@
       <c r="H25" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="I25" s="169"/>
-      <c r="J25" s="168"/>
-      <c r="K25" s="154"/>
-      <c r="L25" s="171"/>
+      <c r="I25" s="170"/>
+      <c r="J25" s="169"/>
+      <c r="K25" s="155"/>
+      <c r="L25" s="172"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="148"/>
+      <c r="A26" s="149"/>
       <c r="B26" s="17" t="s">
         <v>41</v>
       </c>
@@ -2368,13 +2371,13 @@
       <c r="H26" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="I26" s="169"/>
-      <c r="J26" s="165"/>
-      <c r="K26" s="155"/>
-      <c r="L26" s="166"/>
+      <c r="I26" s="170"/>
+      <c r="J26" s="166"/>
+      <c r="K26" s="156"/>
+      <c r="L26" s="167"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="172">
+      <c r="A27" s="173">
         <v>6</v>
       </c>
       <c r="B27" s="48" t="s">
@@ -2398,19 +2401,19 @@
       <c r="H27" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="I27" s="125" t="s">
+      <c r="I27" s="126" t="s">
         <v>4</v>
       </c>
-      <c r="J27" s="181">
+      <c r="J27" s="182">
         <v>28</v>
       </c>
-      <c r="K27" s="181">
+      <c r="K27" s="182">
         <v>2</v>
       </c>
-      <c r="L27" s="178"/>
+      <c r="L27" s="179"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="173"/>
+      <c r="A28" s="174"/>
       <c r="B28" s="27" t="s">
         <v>25</v>
       </c>
@@ -2432,13 +2435,13 @@
       <c r="H28" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="I28" s="126"/>
-      <c r="J28" s="182"/>
-      <c r="K28" s="182"/>
-      <c r="L28" s="179"/>
+      <c r="I28" s="127"/>
+      <c r="J28" s="183"/>
+      <c r="K28" s="183"/>
+      <c r="L28" s="180"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" s="174"/>
+      <c r="A29" s="175"/>
       <c r="B29" s="35" t="s">
         <v>27</v>
       </c>
@@ -2458,13 +2461,13 @@
       <c r="H29" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="I29" s="127"/>
-      <c r="J29" s="183"/>
-      <c r="K29" s="183"/>
-      <c r="L29" s="180"/>
+      <c r="I29" s="128"/>
+      <c r="J29" s="184"/>
+      <c r="K29" s="184"/>
+      <c r="L29" s="181"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" s="146">
+      <c r="A30" s="147">
         <v>7</v>
       </c>
       <c r="B30" s="12" t="s">
@@ -2488,19 +2491,19 @@
       <c r="H30" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="I30" s="169" t="s">
+      <c r="I30" s="170" t="s">
         <v>4</v>
       </c>
-      <c r="J30" s="153">
+      <c r="J30" s="154">
         <v>21</v>
       </c>
-      <c r="K30" s="153">
+      <c r="K30" s="154">
         <v>2</v>
       </c>
-      <c r="L30" s="170"/>
+      <c r="L30" s="171"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" s="147"/>
+      <c r="A31" s="148"/>
       <c r="B31" s="46" t="s">
         <v>25</v>
       </c>
@@ -2522,41 +2525,41 @@
       <c r="H31" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="I31" s="169"/>
-      <c r="J31" s="154"/>
-      <c r="K31" s="154"/>
-      <c r="L31" s="171"/>
+      <c r="I31" s="170"/>
+      <c r="J31" s="155"/>
+      <c r="K31" s="155"/>
+      <c r="L31" s="172"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A32" s="147"/>
-      <c r="B32" s="184" t="s">
+      <c r="A32" s="148"/>
+      <c r="B32" s="185" t="s">
         <v>27</v>
       </c>
-      <c r="C32" s="185">
+      <c r="C32" s="186">
         <v>44873</v>
       </c>
-      <c r="D32" s="185">
+      <c r="D32" s="186">
         <v>44880</v>
       </c>
-      <c r="E32" s="185">
+      <c r="E32" s="186">
         <v>44881</v>
       </c>
-      <c r="F32" s="186" t="s">
+      <c r="F32" s="187" t="s">
         <v>15</v>
       </c>
-      <c r="G32" s="187" t="s">
+      <c r="G32" s="188" t="s">
         <v>2</v>
       </c>
-      <c r="H32" s="188" t="s">
+      <c r="H32" s="189" t="s">
         <v>16</v>
       </c>
-      <c r="I32" s="169"/>
-      <c r="J32" s="154"/>
-      <c r="K32" s="154"/>
-      <c r="L32" s="171"/>
+      <c r="I32" s="170"/>
+      <c r="J32" s="155"/>
+      <c r="K32" s="155"/>
+      <c r="L32" s="172"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A33" s="148"/>
+      <c r="A33" s="149"/>
       <c r="B33" s="17" t="s">
         <v>41</v>
       </c>
@@ -2576,13 +2579,13 @@
       <c r="H33" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="I33" s="169"/>
-      <c r="J33" s="155"/>
-      <c r="K33" s="155"/>
-      <c r="L33" s="166"/>
+      <c r="I33" s="170"/>
+      <c r="J33" s="156"/>
+      <c r="K33" s="156"/>
+      <c r="L33" s="167"/>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A34" s="136">
+      <c r="A34" s="137">
         <v>8</v>
       </c>
       <c r="B34" s="25" t="s">
@@ -2606,19 +2609,19 @@
       <c r="H34" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="I34" s="125" t="s">
+      <c r="I34" s="126" t="s">
         <v>4</v>
       </c>
-      <c r="J34" s="143">
+      <c r="J34" s="144">
         <v>33</v>
       </c>
-      <c r="K34" s="143">
+      <c r="K34" s="144">
         <v>2</v>
       </c>
-      <c r="L34" s="178"/>
+      <c r="L34" s="179"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A35" s="137"/>
+      <c r="A35" s="138"/>
       <c r="B35" s="30" t="s">
         <v>25</v>
       </c>
@@ -2640,14 +2643,14 @@
       <c r="H35" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="I35" s="126"/>
-      <c r="J35" s="144"/>
-      <c r="K35" s="144"/>
-      <c r="L35" s="179"/>
+      <c r="I35" s="127"/>
+      <c r="J35" s="145"/>
+      <c r="K35" s="145"/>
+      <c r="L35" s="180"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A36" s="137"/>
-      <c r="B36" s="189" t="s">
+      <c r="A36" s="138"/>
+      <c r="B36" s="190" t="s">
         <v>27</v>
       </c>
       <c r="C36" s="32">
@@ -2668,13 +2671,13 @@
       <c r="H36" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="I36" s="126"/>
-      <c r="J36" s="144"/>
-      <c r="K36" s="144"/>
-      <c r="L36" s="179"/>
+      <c r="I36" s="127"/>
+      <c r="J36" s="145"/>
+      <c r="K36" s="145"/>
+      <c r="L36" s="180"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A37" s="138"/>
+      <c r="A37" s="139"/>
       <c r="B37" s="35" t="s">
         <v>41</v>
       </c>
@@ -2694,13 +2697,13 @@
       <c r="H37" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="I37" s="127"/>
-      <c r="J37" s="145"/>
-      <c r="K37" s="145"/>
-      <c r="L37" s="180"/>
+      <c r="I37" s="128"/>
+      <c r="J37" s="146"/>
+      <c r="K37" s="146"/>
+      <c r="L37" s="181"/>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A38" s="146">
+      <c r="A38" s="147">
         <v>9</v>
       </c>
       <c r="B38" s="12" t="s">
@@ -2722,19 +2725,19 @@
       <c r="H38" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="I38" s="169" t="s">
+      <c r="I38" s="170" t="s">
         <v>4</v>
       </c>
-      <c r="J38" s="153">
+      <c r="J38" s="154">
         <v>61</v>
       </c>
-      <c r="K38" s="153">
+      <c r="K38" s="154">
         <v>4</v>
       </c>
-      <c r="L38" s="170"/>
+      <c r="L38" s="171"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A39" s="147"/>
+      <c r="A39" s="148"/>
       <c r="B39" s="12" t="s">
         <v>25</v>
       </c>
@@ -2754,13 +2757,13 @@
       <c r="H39" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="I39" s="169"/>
-      <c r="J39" s="154"/>
-      <c r="K39" s="154"/>
-      <c r="L39" s="171"/>
+      <c r="I39" s="170"/>
+      <c r="J39" s="155"/>
+      <c r="K39" s="155"/>
+      <c r="L39" s="172"/>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A40" s="147"/>
+      <c r="A40" s="148"/>
       <c r="B40" s="47" t="s">
         <v>27</v>
       </c>
@@ -2782,13 +2785,13 @@
       <c r="H40" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="I40" s="169"/>
-      <c r="J40" s="154"/>
-      <c r="K40" s="154"/>
-      <c r="L40" s="171"/>
+      <c r="I40" s="170"/>
+      <c r="J40" s="155"/>
+      <c r="K40" s="155"/>
+      <c r="L40" s="172"/>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A41" s="147"/>
+      <c r="A41" s="148"/>
       <c r="B41" s="47" t="s">
         <v>41</v>
       </c>
@@ -2810,13 +2813,13 @@
       <c r="H41" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="I41" s="169"/>
-      <c r="J41" s="154"/>
-      <c r="K41" s="154"/>
-      <c r="L41" s="171"/>
+      <c r="I41" s="170"/>
+      <c r="J41" s="155"/>
+      <c r="K41" s="155"/>
+      <c r="L41" s="172"/>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A42" s="148"/>
+      <c r="A42" s="149"/>
       <c r="B42" s="17" t="s">
         <v>43</v>
       </c>
@@ -2836,10 +2839,10 @@
       <c r="H42" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="I42" s="169"/>
-      <c r="J42" s="155"/>
-      <c r="K42" s="155"/>
-      <c r="L42" s="166"/>
+      <c r="I42" s="170"/>
+      <c r="J42" s="156"/>
+      <c r="K42" s="156"/>
+      <c r="L42" s="167"/>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="58">
@@ -2872,7 +2875,7 @@
       <c r="L43" s="63"/>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A44" s="146">
+      <c r="A44" s="147">
         <v>11</v>
       </c>
       <c r="B44" s="15" t="s">
@@ -2894,19 +2897,19 @@
       <c r="H44" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="I44" s="129" t="s">
-        <v>0</v>
-      </c>
-      <c r="J44" s="167">
+      <c r="I44" s="170" t="s">
+        <v>4</v>
+      </c>
+      <c r="J44" s="154">
         <v>132</v>
       </c>
-      <c r="K44" s="153">
+      <c r="K44" s="154">
         <v>8</v>
       </c>
-      <c r="L44" s="170"/>
+      <c r="L44" s="171"/>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A45" s="147"/>
+      <c r="A45" s="148"/>
       <c r="B45" s="15" t="s">
         <v>25</v>
       </c>
@@ -2928,13 +2931,13 @@
       <c r="H45" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="I45" s="129"/>
-      <c r="J45" s="168"/>
-      <c r="K45" s="154"/>
-      <c r="L45" s="171"/>
+      <c r="I45" s="170"/>
+      <c r="J45" s="155"/>
+      <c r="K45" s="155"/>
+      <c r="L45" s="172"/>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A46" s="147"/>
+      <c r="A46" s="148"/>
       <c r="B46" s="47" t="s">
         <v>27</v>
       </c>
@@ -2954,13 +2957,13 @@
       <c r="H46" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="I46" s="129"/>
-      <c r="J46" s="168"/>
-      <c r="K46" s="154"/>
-      <c r="L46" s="171"/>
+      <c r="I46" s="170"/>
+      <c r="J46" s="155"/>
+      <c r="K46" s="155"/>
+      <c r="L46" s="172"/>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A47" s="147"/>
+      <c r="A47" s="148"/>
       <c r="B47" s="15" t="s">
         <v>41</v>
       </c>
@@ -2982,13 +2985,13 @@
       <c r="H47" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="I47" s="129"/>
-      <c r="J47" s="168"/>
-      <c r="K47" s="154"/>
-      <c r="L47" s="171"/>
+      <c r="I47" s="170"/>
+      <c r="J47" s="155"/>
+      <c r="K47" s="155"/>
+      <c r="L47" s="172"/>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A48" s="147"/>
+      <c r="A48" s="148"/>
       <c r="B48" s="64" t="s">
         <v>43</v>
       </c>
@@ -3010,147 +3013,149 @@
       <c r="H48" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="I48" s="129"/>
-      <c r="J48" s="168"/>
-      <c r="K48" s="154"/>
-      <c r="L48" s="171"/>
+      <c r="I48" s="170"/>
+      <c r="J48" s="155"/>
+      <c r="K48" s="155"/>
+      <c r="L48" s="172"/>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" s="148"/>
-      <c r="B49" s="17" t="s">
+      <c r="B49" s="47" t="s">
         <v>47</v>
       </c>
-      <c r="C49" s="18">
+      <c r="C49" s="42">
         <v>44873</v>
       </c>
-      <c r="D49" s="18">
+      <c r="D49" s="42">
         <v>44880</v>
       </c>
-      <c r="E49" s="18">
+      <c r="E49" s="42">
         <v>44881</v>
       </c>
-      <c r="F49" s="19" t="s">
+      <c r="F49" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="G49" s="20" t="s">
+      <c r="G49" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="H49" s="21" t="s">
+      <c r="H49" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="I49" s="129"/>
-      <c r="J49" s="165"/>
+      <c r="I49" s="170"/>
+      <c r="J49" s="155"/>
       <c r="K49" s="155"/>
-      <c r="L49" s="166"/>
+      <c r="L49" s="172"/>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A50" s="136">
+      <c r="A50" s="149"/>
+      <c r="B50" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="C50" s="18">
+        <v>44892</v>
+      </c>
+      <c r="D50" s="18">
+        <v>44899</v>
+      </c>
+      <c r="E50" s="18">
+        <v>44902</v>
+      </c>
+      <c r="F50" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="G50" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="H50" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="I50" s="170"/>
+      <c r="J50" s="156"/>
+      <c r="K50" s="156"/>
+      <c r="L50" s="167"/>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A51" s="137">
         <v>12</v>
       </c>
-      <c r="B50" s="25" t="s">
+      <c r="B51" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="C50" s="28">
+      <c r="C51" s="28">
         <v>44838</v>
-      </c>
-      <c r="D50" s="28"/>
-      <c r="E50" s="28">
-        <v>44839</v>
-      </c>
-      <c r="F50" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="G50" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="H50" s="31" t="s">
-        <v>16</v>
-      </c>
-      <c r="I50" s="125" t="s">
-        <v>4</v>
-      </c>
-      <c r="J50" s="143">
-        <v>72</v>
-      </c>
-      <c r="K50" s="143">
-        <v>5</v>
-      </c>
-      <c r="L50" s="178"/>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A51" s="137"/>
-      <c r="B51" s="30" t="s">
-        <v>25</v>
-      </c>
-      <c r="C51" s="28">
-        <v>44845</v>
       </c>
       <c r="D51" s="28"/>
       <c r="E51" s="28">
-        <v>44850</v>
+        <v>44839</v>
       </c>
       <c r="F51" s="29" t="s">
         <v>15</v>
       </c>
       <c r="G51" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="H51" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="I51" s="126" t="s">
+        <v>4</v>
+      </c>
+      <c r="J51" s="144">
+        <v>72</v>
+      </c>
+      <c r="K51" s="144">
+        <v>5</v>
+      </c>
+      <c r="L51" s="179"/>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A52" s="138"/>
+      <c r="B52" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="C52" s="28">
+        <v>44845</v>
+      </c>
+      <c r="D52" s="28"/>
+      <c r="E52" s="28">
+        <v>44850</v>
+      </c>
+      <c r="F52" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="G52" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="H51" s="31" t="s">
+      <c r="H52" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="I51" s="126"/>
-      <c r="J51" s="144"/>
-      <c r="K51" s="144"/>
-      <c r="L51" s="179"/>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A52" s="137"/>
-      <c r="B52" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="C52" s="32">
-        <v>44859</v>
-      </c>
-      <c r="D52" s="32">
-        <v>44835</v>
-      </c>
-      <c r="E52" s="32">
-        <v>44836</v>
-      </c>
-      <c r="F52" s="33" t="s">
-        <v>15</v>
-      </c>
-      <c r="G52" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="H52" s="34" t="s">
-        <v>16</v>
-      </c>
-      <c r="I52" s="126"/>
-      <c r="J52" s="144"/>
-      <c r="K52" s="144"/>
-      <c r="L52" s="179"/>
+      <c r="I52" s="127"/>
+      <c r="J52" s="145"/>
+      <c r="K52" s="145"/>
+      <c r="L52" s="180"/>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" s="138"/>
-      <c r="B53" s="35" t="s">
-        <v>41</v>
-      </c>
-      <c r="C53" s="36">
-        <v>44891</v>
-      </c>
-      <c r="D53" s="36"/>
-      <c r="E53" s="36">
-        <v>44892</v>
-      </c>
-      <c r="F53" s="37" t="s">
-        <v>7</v>
-      </c>
-      <c r="G53" s="35" t="s">
-        <v>24</v>
-      </c>
-      <c r="H53" s="53" t="s">
-        <v>8</v>
+      <c r="B53" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="C53" s="32">
+        <v>44859</v>
+      </c>
+      <c r="D53" s="32">
+        <v>44835</v>
+      </c>
+      <c r="E53" s="32">
+        <v>44836</v>
+      </c>
+      <c r="F53" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="G53" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="H53" s="34" t="s">
+        <v>16</v>
       </c>
       <c r="I53" s="127"/>
       <c r="J53" s="145"/>
@@ -3158,3582 +3163,3687 @@
       <c r="L53" s="180"/>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A54" s="156">
+      <c r="A54" s="139"/>
+      <c r="B54" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="C54" s="36">
+        <v>44891</v>
+      </c>
+      <c r="D54" s="36"/>
+      <c r="E54" s="36">
+        <v>44892</v>
+      </c>
+      <c r="F54" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="G54" s="35" t="s">
+        <v>24</v>
+      </c>
+      <c r="H54" s="53" t="s">
+        <v>8</v>
+      </c>
+      <c r="I54" s="128"/>
+      <c r="J54" s="146"/>
+      <c r="K54" s="146"/>
+      <c r="L54" s="181"/>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A55" s="157">
         <v>13</v>
       </c>
-      <c r="B54" s="15" t="s">
+      <c r="B55" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="C54" s="13">
+      <c r="C55" s="13">
         <v>44829</v>
       </c>
-      <c r="D54" s="13"/>
-      <c r="E54" s="54">
+      <c r="D55" s="13"/>
+      <c r="E55" s="54">
         <v>44829</v>
       </c>
-      <c r="F54" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="G54" s="15" t="s">
+      <c r="F55" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="G55" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="H54" s="16" t="s">
+      <c r="H55" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="I54" s="139" t="s">
+      <c r="I55" s="140" t="s">
         <v>4</v>
       </c>
-      <c r="J54" s="132">
+      <c r="J55" s="133">
         <v>7</v>
       </c>
-      <c r="K54" s="133">
+      <c r="K55" s="134">
         <v>1</v>
       </c>
-      <c r="L54" s="134"/>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A55" s="156"/>
-      <c r="B55" s="15" t="s">
+      <c r="L55" s="135"/>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A56" s="157"/>
+      <c r="B56" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="C55" s="54">
+      <c r="C56" s="54">
         <v>44853</v>
       </c>
-      <c r="D55" s="54">
+      <c r="D56" s="54">
         <v>44860</v>
       </c>
-      <c r="E55" s="54">
+      <c r="E56" s="54">
         <v>44860</v>
       </c>
-      <c r="F55" s="55" t="s">
+      <c r="F56" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="G55" s="56" t="s">
+      <c r="G56" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="H55" s="57" t="s">
+      <c r="H56" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="I55" s="139"/>
-      <c r="J55" s="132"/>
-      <c r="K55" s="133"/>
-      <c r="L55" s="134"/>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A56" s="156"/>
-      <c r="B56" s="17" t="s">
+      <c r="I56" s="140"/>
+      <c r="J56" s="133"/>
+      <c r="K56" s="134"/>
+      <c r="L56" s="135"/>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A57" s="157"/>
+      <c r="B57" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="C56" s="18">
+      <c r="C57" s="18">
         <v>44878</v>
       </c>
-      <c r="D56" s="18">
+      <c r="D57" s="18">
         <v>44885</v>
       </c>
-      <c r="E56" s="18">
+      <c r="E57" s="18">
         <v>44888</v>
       </c>
-      <c r="F56" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="G56" s="20" t="s">
+      <c r="F57" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="G57" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="H56" s="21" t="s">
+      <c r="H57" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="I56" s="139"/>
-      <c r="J56" s="132"/>
-      <c r="K56" s="133"/>
-      <c r="L56" s="134"/>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A57" s="128">
+      <c r="I57" s="140"/>
+      <c r="J57" s="133"/>
+      <c r="K57" s="134"/>
+      <c r="L57" s="135"/>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A58" s="137">
         <v>14</v>
       </c>
-      <c r="B57" s="25" t="s">
+      <c r="B58" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="C57" s="28">
+      <c r="C58" s="28">
         <v>44843</v>
       </c>
-      <c r="D57" s="28"/>
-      <c r="E57" s="28">
+      <c r="D58" s="28"/>
+      <c r="E58" s="28">
         <v>44843</v>
       </c>
-      <c r="F57" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="G57" s="30" t="s">
+      <c r="F58" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="G58" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="H57" s="31" t="s">
+      <c r="H58" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="I57" s="129" t="s">
-        <v>0</v>
-      </c>
-      <c r="J57" s="130">
+      <c r="I58" s="140" t="s">
+        <v>4</v>
+      </c>
+      <c r="J58" s="144">
         <v>39</v>
       </c>
-      <c r="K57" s="131">
+      <c r="K58" s="144">
         <v>3</v>
       </c>
-      <c r="L57" s="164"/>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A58" s="128"/>
-      <c r="B58" s="35" t="s">
+      <c r="L58" s="179"/>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A59" s="138"/>
+      <c r="B59" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="C58" s="36">
+      <c r="C59" s="32">
         <v>44859</v>
       </c>
-      <c r="D58" s="36">
+      <c r="D59" s="32">
         <v>44835</v>
       </c>
-      <c r="E58" s="36">
+      <c r="E59" s="32">
         <v>44836</v>
       </c>
-      <c r="F58" s="37" t="s">
+      <c r="F59" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="G58" s="35" t="s">
+      <c r="G59" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="H58" s="53" t="s">
+      <c r="H59" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="I58" s="129"/>
-      <c r="J58" s="130"/>
-      <c r="K58" s="131"/>
-      <c r="L58" s="164"/>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A59" s="146">
+      <c r="I59" s="140"/>
+      <c r="J59" s="145"/>
+      <c r="K59" s="145"/>
+      <c r="L59" s="180"/>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A60" s="139"/>
+      <c r="B60" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="C60" s="36">
+        <v>44892</v>
+      </c>
+      <c r="D60" s="36">
+        <v>44899</v>
+      </c>
+      <c r="E60" s="36">
+        <v>44902</v>
+      </c>
+      <c r="F60" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="G60" s="35" t="s">
+        <v>24</v>
+      </c>
+      <c r="H60" s="53" t="s">
+        <v>11</v>
+      </c>
+      <c r="I60" s="140"/>
+      <c r="J60" s="146"/>
+      <c r="K60" s="146"/>
+      <c r="L60" s="181"/>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A61" s="147">
         <v>15</v>
       </c>
-      <c r="B59" s="15" t="s">
+      <c r="B61" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="C59" s="69">
+      <c r="C61" s="69">
         <v>44826</v>
       </c>
-      <c r="D59" s="69"/>
-      <c r="E59" s="69">
+      <c r="D61" s="69"/>
+      <c r="E61" s="69">
         <v>44829</v>
       </c>
-      <c r="F59" s="70" t="s">
+      <c r="F61" s="70" t="s">
         <v>3</v>
       </c>
-      <c r="G59" s="12" t="s">
+      <c r="G61" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="H59" s="71" t="s">
+      <c r="H61" s="71" t="s">
         <v>1</v>
       </c>
-      <c r="I59" s="129" t="s">
-        <v>0</v>
-      </c>
-      <c r="J59" s="167">
+      <c r="I61" s="170" t="s">
+        <v>4</v>
+      </c>
+      <c r="J61" s="154">
         <v>39</v>
       </c>
-      <c r="K59" s="153">
+      <c r="K61" s="154">
         <v>3</v>
       </c>
-      <c r="L59" s="170"/>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A60" s="147"/>
-      <c r="B60" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C60" s="13">
-        <v>44843</v>
-      </c>
-      <c r="D60" s="13"/>
-      <c r="E60" s="13">
-        <v>44843</v>
-      </c>
-      <c r="F60" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="G60" s="56" t="s">
-        <v>12</v>
-      </c>
-      <c r="H60" s="57" t="s">
-        <v>11</v>
-      </c>
-      <c r="I60" s="129"/>
-      <c r="J60" s="168"/>
-      <c r="K60" s="154"/>
-      <c r="L60" s="171"/>
-    </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A61" s="147"/>
-      <c r="B61" s="64" t="s">
-        <v>27</v>
-      </c>
-      <c r="C61" s="72">
-        <v>44859</v>
-      </c>
-      <c r="D61" s="72">
-        <v>44835</v>
-      </c>
-      <c r="E61" s="72">
-        <v>44836</v>
-      </c>
-      <c r="F61" s="73" t="s">
-        <v>15</v>
-      </c>
-      <c r="G61" s="67" t="s">
-        <v>22</v>
-      </c>
-      <c r="H61" s="68" t="s">
-        <v>16</v>
-      </c>
-      <c r="I61" s="129"/>
-      <c r="J61" s="168"/>
-      <c r="K61" s="154"/>
       <c r="L61" s="171"/>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" s="148"/>
-      <c r="B62" s="17" t="s">
+      <c r="B62" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C62" s="13">
+        <v>44843</v>
+      </c>
+      <c r="D62" s="13"/>
+      <c r="E62" s="13">
+        <v>44843</v>
+      </c>
+      <c r="F62" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="G62" s="56" t="s">
+        <v>12</v>
+      </c>
+      <c r="H62" s="57" t="s">
+        <v>11</v>
+      </c>
+      <c r="I62" s="170"/>
+      <c r="J62" s="155"/>
+      <c r="K62" s="155"/>
+      <c r="L62" s="172"/>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A63" s="148"/>
+      <c r="B63" s="64" t="s">
+        <v>27</v>
+      </c>
+      <c r="C63" s="72">
+        <v>44859</v>
+      </c>
+      <c r="D63" s="72">
+        <v>44835</v>
+      </c>
+      <c r="E63" s="72">
+        <v>44836</v>
+      </c>
+      <c r="F63" s="73" t="s">
+        <v>15</v>
+      </c>
+      <c r="G63" s="67" t="s">
+        <v>22</v>
+      </c>
+      <c r="H63" s="68" t="s">
+        <v>16</v>
+      </c>
+      <c r="I63" s="170"/>
+      <c r="J63" s="155"/>
+      <c r="K63" s="155"/>
+      <c r="L63" s="172"/>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A64" s="148"/>
+      <c r="B64" s="47" t="s">
         <v>41</v>
       </c>
-      <c r="C62" s="18">
+      <c r="C64" s="42">
         <v>44873</v>
       </c>
-      <c r="D62" s="18">
+      <c r="D64" s="42">
         <v>44880</v>
       </c>
-      <c r="E62" s="18">
+      <c r="E64" s="42">
         <v>44881</v>
       </c>
-      <c r="F62" s="19" t="s">
+      <c r="F64" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="G62" s="20" t="s">
+      <c r="G64" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="H62" s="21" t="s">
+      <c r="H64" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="I62" s="129"/>
-      <c r="J62" s="165"/>
-      <c r="K62" s="155"/>
-      <c r="L62" s="166"/>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A63" s="128">
+      <c r="I64" s="170"/>
+      <c r="J64" s="155"/>
+      <c r="K64" s="155"/>
+      <c r="L64" s="172"/>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A65" s="149"/>
+      <c r="B65" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="C65" s="18">
+        <v>44892</v>
+      </c>
+      <c r="D65" s="18">
+        <v>44899</v>
+      </c>
+      <c r="E65" s="18">
+        <v>44902</v>
+      </c>
+      <c r="F65" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="G65" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="H65" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="I65" s="170"/>
+      <c r="J65" s="156"/>
+      <c r="K65" s="156"/>
+      <c r="L65" s="167"/>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A66" s="129">
         <v>16</v>
       </c>
-      <c r="B63" s="25" t="s">
+      <c r="B66" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="C63" s="23">
+      <c r="C66" s="23">
         <v>44826</v>
       </c>
-      <c r="D63" s="23"/>
-      <c r="E63" s="23">
+      <c r="D66" s="23"/>
+      <c r="E66" s="23">
         <v>44829</v>
       </c>
-      <c r="F63" s="24" t="s">
+      <c r="F66" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="G63" s="25" t="s">
+      <c r="G66" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="H63" s="26" t="s">
+      <c r="H66" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="I63" s="139" t="s">
+      <c r="I66" s="140" t="s">
         <v>4</v>
       </c>
-      <c r="J63" s="130">
+      <c r="J66" s="131">
         <v>39</v>
       </c>
-      <c r="K63" s="131">
+      <c r="K66" s="132">
         <v>3</v>
       </c>
-      <c r="L63" s="178"/>
-    </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A64" s="128"/>
-      <c r="B64" s="30" t="s">
+      <c r="L66" s="179"/>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A67" s="129"/>
+      <c r="B67" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="C64" s="23">
+      <c r="C67" s="23">
         <v>44854</v>
       </c>
-      <c r="D64" s="23">
+      <c r="D67" s="23">
         <v>44861</v>
       </c>
-      <c r="E64" s="23">
+      <c r="E67" s="23">
         <v>44864</v>
       </c>
-      <c r="F64" s="24" t="s">
+      <c r="F67" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="G64" s="25" t="s">
+      <c r="G67" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="H64" s="26" t="s">
+      <c r="H67" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="I64" s="139"/>
-      <c r="J64" s="130"/>
-      <c r="K64" s="131"/>
-      <c r="L64" s="179"/>
-    </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A65" s="128"/>
-      <c r="B65" s="35" t="s">
+      <c r="I67" s="140"/>
+      <c r="J67" s="131"/>
+      <c r="K67" s="132"/>
+      <c r="L67" s="180"/>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A68" s="129"/>
+      <c r="B68" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="C65" s="74">
+      <c r="C68" s="74">
         <v>44878</v>
       </c>
-      <c r="D65" s="74">
+      <c r="D68" s="74">
         <v>44885</v>
       </c>
-      <c r="E65" s="74">
+      <c r="E68" s="74">
         <v>44888</v>
       </c>
-      <c r="F65" s="75" t="s">
-        <v>10</v>
-      </c>
-      <c r="G65" s="76" t="s">
+      <c r="F68" s="75" t="s">
+        <v>10</v>
+      </c>
+      <c r="G68" s="76" t="s">
         <v>9</v>
       </c>
-      <c r="H65" s="77" t="s">
+      <c r="H68" s="77" t="s">
         <v>11</v>
       </c>
-      <c r="I65" s="139"/>
-      <c r="J65" s="130"/>
-      <c r="K65" s="131"/>
-      <c r="L65" s="180"/>
-    </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A66" s="108">
+      <c r="I68" s="140"/>
+      <c r="J68" s="131"/>
+      <c r="K68" s="132"/>
+      <c r="L68" s="181"/>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A69" s="108">
         <v>17</v>
       </c>
-      <c r="B66" s="109"/>
-      <c r="C66" s="110"/>
-      <c r="D66" s="110"/>
-      <c r="E66" s="110"/>
-      <c r="F66" s="109"/>
-      <c r="G66" s="109"/>
-      <c r="H66" s="111"/>
-      <c r="I66" s="124" t="s">
+      <c r="B69" s="109"/>
+      <c r="C69" s="110">
+        <v>44892</v>
+      </c>
+      <c r="D69" s="110">
+        <v>44899</v>
+      </c>
+      <c r="E69" s="110">
+        <v>44902</v>
+      </c>
+      <c r="F69" s="109" t="s">
+        <v>10</v>
+      </c>
+      <c r="G69" s="109" t="s">
+        <v>24</v>
+      </c>
+      <c r="H69" s="111" t="s">
+        <v>11</v>
+      </c>
+      <c r="I69" s="124" t="s">
+        <v>4</v>
+      </c>
+      <c r="J69" s="112"/>
+      <c r="K69" s="109"/>
+      <c r="L69" s="113"/>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A70" s="129">
+        <v>18</v>
+      </c>
+      <c r="B70" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C70" s="28">
+        <v>44835</v>
+      </c>
+      <c r="D70" s="28"/>
+      <c r="E70" s="78">
+        <v>44836</v>
+      </c>
+      <c r="F70" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="G70" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="H70" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="I70" s="140" t="s">
+        <v>4</v>
+      </c>
+      <c r="J70" s="131">
+        <v>47</v>
+      </c>
+      <c r="K70" s="132">
+        <v>3</v>
+      </c>
+      <c r="L70" s="179"/>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A71" s="129"/>
+      <c r="B71" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C71" s="28">
+        <v>44846</v>
+      </c>
+      <c r="D71" s="28"/>
+      <c r="E71" s="28">
+        <v>44850</v>
+      </c>
+      <c r="F71" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="G71" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="H71" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="I71" s="140"/>
+      <c r="J71" s="131"/>
+      <c r="K71" s="132"/>
+      <c r="L71" s="180"/>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A72" s="129"/>
+      <c r="B72" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="C72" s="28">
+        <v>44859</v>
+      </c>
+      <c r="D72" s="28">
+        <v>44835</v>
+      </c>
+      <c r="E72" s="28">
+        <v>44836</v>
+      </c>
+      <c r="F72" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="G72" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="H72" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="I72" s="140"/>
+      <c r="J72" s="131"/>
+      <c r="K72" s="132"/>
+      <c r="L72" s="180"/>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A73" s="129"/>
+      <c r="B73" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="C73" s="74">
+        <v>44878</v>
+      </c>
+      <c r="D73" s="74">
+        <v>44885</v>
+      </c>
+      <c r="E73" s="74">
+        <v>44888</v>
+      </c>
+      <c r="F73" s="75" t="s">
+        <v>10</v>
+      </c>
+      <c r="G73" s="76" t="s">
+        <v>9</v>
+      </c>
+      <c r="H73" s="77" t="s">
+        <v>11</v>
+      </c>
+      <c r="I73" s="140"/>
+      <c r="J73" s="131"/>
+      <c r="K73" s="132"/>
+      <c r="L73" s="181"/>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A74" s="158">
+        <v>19</v>
+      </c>
+      <c r="B74" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C74" s="13">
+        <v>44822</v>
+      </c>
+      <c r="D74" s="13"/>
+      <c r="E74" s="13">
+        <v>44822</v>
+      </c>
+      <c r="F74" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="G74" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="H74" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="I74" s="140" t="s">
+        <v>4</v>
+      </c>
+      <c r="J74" s="154">
+        <v>68</v>
+      </c>
+      <c r="K74" s="154">
+        <v>4</v>
+      </c>
+      <c r="L74" s="171"/>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A75" s="159"/>
+      <c r="B75" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C75" s="13">
+        <v>44842</v>
+      </c>
+      <c r="D75" s="13"/>
+      <c r="E75" s="13">
+        <v>44813</v>
+      </c>
+      <c r="F75" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="G75" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="H75" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="I75" s="140"/>
+      <c r="J75" s="155"/>
+      <c r="K75" s="155"/>
+      <c r="L75" s="172"/>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A76" s="159"/>
+      <c r="B76" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C76" s="79">
+        <v>44857</v>
+      </c>
+      <c r="D76" s="79">
+        <v>44871</v>
+      </c>
+      <c r="E76" s="79">
+        <v>44875</v>
+      </c>
+      <c r="F76" s="80" t="s">
+        <v>10</v>
+      </c>
+      <c r="G76" s="47" t="s">
+        <v>12</v>
+      </c>
+      <c r="H76" s="81" t="s">
+        <v>11</v>
+      </c>
+      <c r="I76" s="140"/>
+      <c r="J76" s="155"/>
+      <c r="K76" s="155"/>
+      <c r="L76" s="172"/>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A77" s="160"/>
+      <c r="B77" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="C77" s="18">
+        <v>44887</v>
+      </c>
+      <c r="D77" s="18">
+        <v>44894</v>
+      </c>
+      <c r="E77" s="18">
+        <v>44895</v>
+      </c>
+      <c r="F77" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="G77" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="H77" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="I77" s="140"/>
+      <c r="J77" s="156"/>
+      <c r="K77" s="156"/>
+      <c r="L77" s="167"/>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A78" s="129">
+        <v>20</v>
+      </c>
+      <c r="B78" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C78" s="39">
+        <v>44815</v>
+      </c>
+      <c r="D78" s="39"/>
+      <c r="E78" s="39">
+        <v>44818</v>
+      </c>
+      <c r="F78" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="G78" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="H78" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="I78" s="140" t="s">
+        <v>4</v>
+      </c>
+      <c r="J78" s="131">
+        <v>13</v>
+      </c>
+      <c r="K78" s="132">
+        <v>1</v>
+      </c>
+      <c r="L78" s="179"/>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A79" s="129"/>
+      <c r="B79" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C79" s="39">
+        <v>44842</v>
+      </c>
+      <c r="D79" s="39"/>
+      <c r="E79" s="39">
+        <v>44813</v>
+      </c>
+      <c r="F79" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="G79" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="H79" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="I79" s="140"/>
+      <c r="J79" s="131"/>
+      <c r="K79" s="132"/>
+      <c r="L79" s="180"/>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A80" s="129"/>
+      <c r="B80" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="C80" s="39">
+        <v>44857</v>
+      </c>
+      <c r="D80" s="39">
+        <v>44871</v>
+      </c>
+      <c r="E80" s="39">
+        <v>44875</v>
+      </c>
+      <c r="F80" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="G80" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="H80" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="I80" s="140"/>
+      <c r="J80" s="131"/>
+      <c r="K80" s="132"/>
+      <c r="L80" s="180"/>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A81" s="129"/>
+      <c r="B81" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="C81" s="74">
+        <v>44878</v>
+      </c>
+      <c r="D81" s="74">
+        <v>44885</v>
+      </c>
+      <c r="E81" s="74">
+        <v>44888</v>
+      </c>
+      <c r="F81" s="75" t="s">
+        <v>10</v>
+      </c>
+      <c r="G81" s="76" t="s">
+        <v>38</v>
+      </c>
+      <c r="H81" s="77" t="s">
+        <v>11</v>
+      </c>
+      <c r="I81" s="140"/>
+      <c r="J81" s="131"/>
+      <c r="K81" s="132"/>
+      <c r="L81" s="181"/>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A82" s="157">
+        <v>21</v>
+      </c>
+      <c r="B82" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C82" s="54">
+        <v>44815</v>
+      </c>
+      <c r="D82" s="54"/>
+      <c r="E82" s="54">
+        <v>44818</v>
+      </c>
+      <c r="F82" s="55" t="s">
+        <v>10</v>
+      </c>
+      <c r="G82" s="56" t="s">
+        <v>2</v>
+      </c>
+      <c r="H82" s="57" t="s">
+        <v>11</v>
+      </c>
+      <c r="I82" s="140" t="s">
+        <v>4</v>
+      </c>
+      <c r="J82" s="133">
+        <v>94</v>
+      </c>
+      <c r="K82" s="134">
+        <v>6</v>
+      </c>
+      <c r="L82" s="135"/>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A83" s="157"/>
+      <c r="B83" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C83" s="13">
+        <v>44842</v>
+      </c>
+      <c r="D83" s="13"/>
+      <c r="E83" s="13">
+        <v>44813</v>
+      </c>
+      <c r="F83" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="G83" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="H83" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="I83" s="140"/>
+      <c r="J83" s="133"/>
+      <c r="K83" s="134"/>
+      <c r="L83" s="135"/>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A84" s="157"/>
+      <c r="B84" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C84" s="79">
+        <v>44857</v>
+      </c>
+      <c r="D84" s="79">
+        <v>44871</v>
+      </c>
+      <c r="E84" s="79">
+        <v>44875</v>
+      </c>
+      <c r="F84" s="80" t="s">
+        <v>10</v>
+      </c>
+      <c r="G84" s="47" t="s">
+        <v>12</v>
+      </c>
+      <c r="H84" s="81" t="s">
+        <v>11</v>
+      </c>
+      <c r="I84" s="140"/>
+      <c r="J84" s="133"/>
+      <c r="K84" s="134"/>
+      <c r="L84" s="135"/>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A85" s="157"/>
+      <c r="B85" s="82" t="s">
+        <v>41</v>
+      </c>
+      <c r="C85" s="83">
+        <v>44878</v>
+      </c>
+      <c r="D85" s="83">
+        <v>44885</v>
+      </c>
+      <c r="E85" s="83">
+        <v>44888</v>
+      </c>
+      <c r="F85" s="84" t="s">
+        <v>10</v>
+      </c>
+      <c r="G85" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="H85" s="85" t="s">
+        <v>11</v>
+      </c>
+      <c r="I85" s="140"/>
+      <c r="J85" s="133"/>
+      <c r="K85" s="134"/>
+      <c r="L85" s="135"/>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A86" s="129">
+        <v>22</v>
+      </c>
+      <c r="B86" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C86" s="32">
+        <v>44822</v>
+      </c>
+      <c r="D86" s="32">
+        <v>44828</v>
+      </c>
+      <c r="E86" s="32">
+        <v>44828</v>
+      </c>
+      <c r="F86" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="G86" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="H86" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="I86" s="140" t="s">
+        <v>4</v>
+      </c>
+      <c r="J86" s="131">
+        <v>67</v>
+      </c>
+      <c r="K86" s="132">
+        <v>4</v>
+      </c>
+      <c r="L86" s="179"/>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A87" s="129"/>
+      <c r="B87" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C87" s="32">
+        <v>44846</v>
+      </c>
+      <c r="D87" s="32"/>
+      <c r="E87" s="32">
+        <v>44850</v>
+      </c>
+      <c r="F87" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="G87" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="H87" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="I87" s="140"/>
+      <c r="J87" s="131"/>
+      <c r="K87" s="132"/>
+      <c r="L87" s="180"/>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A88" s="129"/>
+      <c r="B88" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="C88" s="39">
+        <v>44854</v>
+      </c>
+      <c r="D88" s="39">
+        <v>44861</v>
+      </c>
+      <c r="E88" s="39">
+        <v>44864</v>
+      </c>
+      <c r="F88" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="G88" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="H88" s="41" t="s">
+        <v>1</v>
+      </c>
+      <c r="I88" s="140"/>
+      <c r="J88" s="131"/>
+      <c r="K88" s="132"/>
+      <c r="L88" s="180"/>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A89" s="129"/>
+      <c r="B89" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="C89" s="74">
+        <v>44878</v>
+      </c>
+      <c r="D89" s="74">
+        <v>44885</v>
+      </c>
+      <c r="E89" s="74">
+        <v>44888</v>
+      </c>
+      <c r="F89" s="75" t="s">
+        <v>10</v>
+      </c>
+      <c r="G89" s="76" t="s">
+        <v>38</v>
+      </c>
+      <c r="H89" s="77" t="s">
+        <v>11</v>
+      </c>
+      <c r="I89" s="140"/>
+      <c r="J89" s="131"/>
+      <c r="K89" s="132"/>
+      <c r="L89" s="181"/>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A90" s="157">
+        <v>23</v>
+      </c>
+      <c r="B90" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C90" s="54">
+        <v>44808</v>
+      </c>
+      <c r="D90" s="54"/>
+      <c r="E90" s="54">
+        <v>44818</v>
+      </c>
+      <c r="F90" s="55" t="s">
+        <v>10</v>
+      </c>
+      <c r="G90" s="56" t="s">
+        <v>14</v>
+      </c>
+      <c r="H90" s="57" t="s">
+        <v>11</v>
+      </c>
+      <c r="I90" s="140" t="s">
+        <v>4</v>
+      </c>
+      <c r="J90" s="133">
+        <v>22</v>
+      </c>
+      <c r="K90" s="134">
+        <v>2</v>
+      </c>
+      <c r="L90" s="135"/>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A91" s="157"/>
+      <c r="B91" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C91" s="54">
+        <v>44850</v>
+      </c>
+      <c r="D91" s="54"/>
+      <c r="E91" s="54">
+        <v>44850</v>
+      </c>
+      <c r="F91" s="55" t="s">
+        <v>10</v>
+      </c>
+      <c r="G91" s="56" t="s">
+        <v>39</v>
+      </c>
+      <c r="H91" s="57" t="s">
+        <v>40</v>
+      </c>
+      <c r="I91" s="140"/>
+      <c r="J91" s="133"/>
+      <c r="K91" s="134"/>
+      <c r="L91" s="135"/>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A92" s="157"/>
+      <c r="B92" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="C92" s="54">
+        <v>44854</v>
+      </c>
+      <c r="D92" s="54">
+        <v>44861</v>
+      </c>
+      <c r="E92" s="54">
+        <v>44864</v>
+      </c>
+      <c r="F92" s="55" t="s">
+        <v>3</v>
+      </c>
+      <c r="G92" s="56" t="s">
+        <v>13</v>
+      </c>
+      <c r="H92" s="57" t="s">
+        <v>1</v>
+      </c>
+      <c r="I92" s="140"/>
+      <c r="J92" s="133"/>
+      <c r="K92" s="134"/>
+      <c r="L92" s="135"/>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A93" s="157"/>
+      <c r="B93" s="82" t="s">
+        <v>41</v>
+      </c>
+      <c r="C93" s="18">
+        <v>44878</v>
+      </c>
+      <c r="D93" s="18">
+        <v>44885</v>
+      </c>
+      <c r="E93" s="18">
+        <v>44888</v>
+      </c>
+      <c r="F93" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="G93" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="H93" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="I93" s="140"/>
+      <c r="J93" s="133"/>
+      <c r="K93" s="134"/>
+      <c r="L93" s="135"/>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A94" s="129">
+        <v>24</v>
+      </c>
+      <c r="B94" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C94" s="32">
+        <v>44815</v>
+      </c>
+      <c r="D94" s="32"/>
+      <c r="E94" s="32">
+        <v>44818</v>
+      </c>
+      <c r="F94" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="G94" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="H94" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="I94" s="140" t="s">
+        <v>4</v>
+      </c>
+      <c r="J94" s="131">
+        <v>31</v>
+      </c>
+      <c r="K94" s="132">
+        <v>2</v>
+      </c>
+      <c r="L94" s="179"/>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A95" s="129"/>
+      <c r="B95" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="C95" s="74">
+        <v>44878</v>
+      </c>
+      <c r="D95" s="74">
+        <v>44885</v>
+      </c>
+      <c r="E95" s="74">
+        <v>44888</v>
+      </c>
+      <c r="F95" s="75" t="s">
+        <v>10</v>
+      </c>
+      <c r="G95" s="76" t="s">
+        <v>38</v>
+      </c>
+      <c r="H95" s="77" t="s">
+        <v>11</v>
+      </c>
+      <c r="I95" s="140"/>
+      <c r="J95" s="131"/>
+      <c r="K95" s="132"/>
+      <c r="L95" s="181"/>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A96" s="147">
+        <v>25</v>
+      </c>
+      <c r="B96" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C96" s="54">
+        <v>44846</v>
+      </c>
+      <c r="D96" s="54"/>
+      <c r="E96" s="54">
+        <v>44846</v>
+      </c>
+      <c r="F96" s="55" t="s">
+        <v>23</v>
+      </c>
+      <c r="G96" s="56" t="s">
+        <v>39</v>
+      </c>
+      <c r="H96" s="57" t="s">
+        <v>40</v>
+      </c>
+      <c r="I96" s="140" t="s">
+        <v>4</v>
+      </c>
+      <c r="J96" s="154">
+        <v>44</v>
+      </c>
+      <c r="K96" s="154">
+        <v>3</v>
+      </c>
+      <c r="L96" s="171"/>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A97" s="148"/>
+      <c r="B97" s="47" t="s">
+        <v>25</v>
+      </c>
+      <c r="C97" s="42">
+        <v>44855</v>
+      </c>
+      <c r="D97" s="42">
+        <v>44862</v>
+      </c>
+      <c r="E97" s="42">
+        <v>44864</v>
+      </c>
+      <c r="F97" s="43" t="s">
+        <v>6</v>
+      </c>
+      <c r="G97" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="H97" s="45" t="s">
+        <v>5</v>
+      </c>
+      <c r="I97" s="140"/>
+      <c r="J97" s="155"/>
+      <c r="K97" s="155"/>
+      <c r="L97" s="172"/>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A98" s="149"/>
+      <c r="B98" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="C98" s="18">
+        <v>44887</v>
+      </c>
+      <c r="D98" s="18">
+        <v>44894</v>
+      </c>
+      <c r="E98" s="18">
+        <v>44895</v>
+      </c>
+      <c r="F98" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="G98" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="H98" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="I98" s="140"/>
+      <c r="J98" s="156"/>
+      <c r="K98" s="156"/>
+      <c r="L98" s="167"/>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A99" s="129">
+        <v>26</v>
+      </c>
+      <c r="B99" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C99" s="28">
+        <v>44829</v>
+      </c>
+      <c r="D99" s="28"/>
+      <c r="E99" s="28">
+        <v>44832</v>
+      </c>
+      <c r="F99" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="G99" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="H99" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="I99" s="140" t="s">
+        <v>4</v>
+      </c>
+      <c r="J99" s="131">
+        <v>30</v>
+      </c>
+      <c r="K99" s="132">
+        <v>3</v>
+      </c>
+      <c r="L99" s="179"/>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A100" s="129"/>
+      <c r="B100" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C100" s="28">
+        <v>44850</v>
+      </c>
+      <c r="D100" s="28"/>
+      <c r="E100" s="28">
+        <v>44850</v>
+      </c>
+      <c r="F100" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="G100" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="H100" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="I100" s="140"/>
+      <c r="J100" s="131"/>
+      <c r="K100" s="132"/>
+      <c r="L100" s="180"/>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A101" s="129"/>
+      <c r="B101" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="C101" s="28">
+        <v>44855</v>
+      </c>
+      <c r="D101" s="28">
+        <v>44862</v>
+      </c>
+      <c r="E101" s="28">
+        <v>44864</v>
+      </c>
+      <c r="F101" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="G101" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="H101" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="I101" s="140"/>
+      <c r="J101" s="131"/>
+      <c r="K101" s="132"/>
+      <c r="L101" s="180"/>
+    </row>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A102" s="129"/>
+      <c r="B102" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="C102" s="74">
+        <v>44878</v>
+      </c>
+      <c r="D102" s="74">
+        <v>44885</v>
+      </c>
+      <c r="E102" s="74">
+        <v>44888</v>
+      </c>
+      <c r="F102" s="75" t="s">
+        <v>10</v>
+      </c>
+      <c r="G102" s="76" t="s">
+        <v>38</v>
+      </c>
+      <c r="H102" s="77" t="s">
+        <v>11</v>
+      </c>
+      <c r="I102" s="140"/>
+      <c r="J102" s="131"/>
+      <c r="K102" s="132"/>
+      <c r="L102" s="181"/>
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A103" s="157">
+        <v>27</v>
+      </c>
+      <c r="B103" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C103" s="86">
+        <v>44810</v>
+      </c>
+      <c r="D103" s="86"/>
+      <c r="E103" s="86">
+        <v>44818</v>
+      </c>
+      <c r="F103" s="87" t="s">
+        <v>15</v>
+      </c>
+      <c r="G103" s="88" t="s">
+        <v>17</v>
+      </c>
+      <c r="H103" s="89" t="s">
+        <v>16</v>
+      </c>
+      <c r="I103" s="130" t="s">
         <v>0</v>
       </c>
-      <c r="J66" s="112"/>
-      <c r="K66" s="109"/>
-      <c r="L66" s="113"/>
-    </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A67" s="128">
-        <v>18</v>
-      </c>
-      <c r="B67" s="22" t="s">
+      <c r="J103" s="133">
+        <v>12</v>
+      </c>
+      <c r="K103" s="134">
+        <v>1</v>
+      </c>
+      <c r="L103" s="135"/>
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A104" s="157"/>
+      <c r="B104" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C104" s="54">
+        <v>44829</v>
+      </c>
+      <c r="D104" s="54"/>
+      <c r="E104" s="54">
+        <v>44836</v>
+      </c>
+      <c r="F104" s="55" t="s">
+        <v>10</v>
+      </c>
+      <c r="G104" s="56" t="s">
+        <v>24</v>
+      </c>
+      <c r="H104" s="57" t="s">
+        <v>11</v>
+      </c>
+      <c r="I104" s="130"/>
+      <c r="J104" s="133"/>
+      <c r="K104" s="134"/>
+      <c r="L104" s="135"/>
+    </row>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A105" s="157"/>
+      <c r="B105" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="C105" s="54">
+        <v>44855</v>
+      </c>
+      <c r="D105" s="54">
+        <v>44862</v>
+      </c>
+      <c r="E105" s="54">
+        <v>44864</v>
+      </c>
+      <c r="F105" s="55" t="s">
+        <v>6</v>
+      </c>
+      <c r="G105" s="56" t="s">
+        <v>2</v>
+      </c>
+      <c r="H105" s="57" t="s">
+        <v>5</v>
+      </c>
+      <c r="I105" s="130"/>
+      <c r="J105" s="133"/>
+      <c r="K105" s="134"/>
+      <c r="L105" s="135"/>
+    </row>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A106" s="157"/>
+      <c r="B106" s="82" t="s">
+        <v>41</v>
+      </c>
+      <c r="C106" s="18">
+        <v>44869</v>
+      </c>
+      <c r="D106" s="18">
+        <v>44876</v>
+      </c>
+      <c r="E106" s="18">
+        <v>44878</v>
+      </c>
+      <c r="F106" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="G106" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="H106" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="I106" s="130"/>
+      <c r="J106" s="133"/>
+      <c r="K106" s="134"/>
+      <c r="L106" s="135"/>
+    </row>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A107" s="129">
+        <v>28</v>
+      </c>
+      <c r="B107" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="C67" s="28">
-        <v>44835</v>
-      </c>
-      <c r="D67" s="28"/>
-      <c r="E67" s="78">
-        <v>44836</v>
-      </c>
-      <c r="F67" s="29" t="s">
+      <c r="C107" s="23">
+        <v>44807</v>
+      </c>
+      <c r="D107" s="23"/>
+      <c r="E107" s="23">
+        <v>44808</v>
+      </c>
+      <c r="F107" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="G67" s="30" t="s">
-        <v>36</v>
-      </c>
-      <c r="H67" s="31" t="s">
+      <c r="G107" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="H107" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="I67" s="139" t="s">
-        <v>4</v>
-      </c>
-      <c r="J67" s="130">
-        <v>47</v>
-      </c>
-      <c r="K67" s="131">
-        <v>3</v>
-      </c>
-      <c r="L67" s="178"/>
-    </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A68" s="128"/>
-      <c r="B68" s="22" t="s">
+      <c r="I107" s="130" t="s">
+        <v>0</v>
+      </c>
+      <c r="J107" s="131">
+        <v>21</v>
+      </c>
+      <c r="K107" s="132">
+        <v>2</v>
+      </c>
+      <c r="L107" s="165"/>
+    </row>
+    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A108" s="129"/>
+      <c r="B108" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="C68" s="28">
-        <v>44846</v>
-      </c>
-      <c r="D68" s="28"/>
-      <c r="E68" s="28">
-        <v>44850</v>
-      </c>
-      <c r="F68" s="29" t="s">
-        <v>23</v>
-      </c>
-      <c r="G68" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="H68" s="31" t="s">
-        <v>40</v>
-      </c>
-      <c r="I68" s="139"/>
-      <c r="J68" s="130"/>
-      <c r="K68" s="131"/>
-      <c r="L68" s="179"/>
-    </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A69" s="128"/>
-      <c r="B69" s="27" t="s">
+      <c r="C108" s="28">
+        <v>44829</v>
+      </c>
+      <c r="D108" s="28">
+        <v>44843</v>
+      </c>
+      <c r="E108" s="28">
+        <v>44843</v>
+      </c>
+      <c r="F108" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="G108" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="H108" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="I108" s="130"/>
+      <c r="J108" s="131"/>
+      <c r="K108" s="132"/>
+      <c r="L108" s="165"/>
+    </row>
+    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A109" s="129"/>
+      <c r="B109" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="C69" s="28">
-        <v>44859</v>
-      </c>
-      <c r="D69" s="28">
-        <v>44835</v>
-      </c>
-      <c r="E69" s="28">
-        <v>44836</v>
-      </c>
-      <c r="F69" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="G69" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="H69" s="31" t="s">
-        <v>16</v>
-      </c>
-      <c r="I69" s="139"/>
-      <c r="J69" s="130"/>
-      <c r="K69" s="131"/>
-      <c r="L69" s="179"/>
-    </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A70" s="128"/>
-      <c r="B70" s="35" t="s">
-        <v>41</v>
-      </c>
-      <c r="C70" s="74">
+      <c r="C109" s="36">
+        <v>44869</v>
+      </c>
+      <c r="D109" s="36">
+        <v>44876</v>
+      </c>
+      <c r="E109" s="36">
         <v>44878</v>
       </c>
-      <c r="D70" s="74">
-        <v>44885</v>
-      </c>
-      <c r="E70" s="74">
-        <v>44888</v>
-      </c>
-      <c r="F70" s="75" t="s">
-        <v>10</v>
-      </c>
-      <c r="G70" s="76" t="s">
-        <v>9</v>
-      </c>
-      <c r="H70" s="77" t="s">
-        <v>11</v>
-      </c>
-      <c r="I70" s="139"/>
-      <c r="J70" s="130"/>
-      <c r="K70" s="131"/>
-      <c r="L70" s="180"/>
-    </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A71" s="157">
-        <v>19</v>
-      </c>
-      <c r="B71" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="C71" s="13">
-        <v>44822</v>
-      </c>
-      <c r="D71" s="13"/>
-      <c r="E71" s="13">
-        <v>44822</v>
-      </c>
-      <c r="F71" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="G71" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="H71" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="I71" s="139" t="s">
-        <v>4</v>
-      </c>
-      <c r="J71" s="153">
-        <v>68</v>
-      </c>
-      <c r="K71" s="153">
-        <v>4</v>
-      </c>
-      <c r="L71" s="170"/>
-    </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A72" s="158"/>
-      <c r="B72" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C72" s="13">
-        <v>44842</v>
-      </c>
-      <c r="D72" s="13"/>
-      <c r="E72" s="13">
-        <v>44813</v>
-      </c>
-      <c r="F72" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="G72" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="H72" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="I72" s="139"/>
-      <c r="J72" s="154"/>
-      <c r="K72" s="154"/>
-      <c r="L72" s="171"/>
-    </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A73" s="158"/>
-      <c r="B73" s="47" t="s">
-        <v>27</v>
-      </c>
-      <c r="C73" s="79">
-        <v>44857</v>
-      </c>
-      <c r="D73" s="79">
-        <v>44871</v>
-      </c>
-      <c r="E73" s="79">
-        <v>44875</v>
-      </c>
-      <c r="F73" s="80" t="s">
-        <v>10</v>
-      </c>
-      <c r="G73" s="47" t="s">
-        <v>12</v>
-      </c>
-      <c r="H73" s="81" t="s">
-        <v>11</v>
-      </c>
-      <c r="I73" s="139"/>
-      <c r="J73" s="154"/>
-      <c r="K73" s="154"/>
-      <c r="L73" s="171"/>
-    </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A74" s="159"/>
-      <c r="B74" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="C74" s="18">
-        <v>44887</v>
-      </c>
-      <c r="D74" s="18">
-        <v>44894</v>
-      </c>
-      <c r="E74" s="18">
-        <v>44895</v>
-      </c>
-      <c r="F74" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="G74" s="20" t="s">
+      <c r="F109" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="G109" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="H74" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="I74" s="139"/>
-      <c r="J74" s="155"/>
-      <c r="K74" s="155"/>
-      <c r="L74" s="166"/>
-    </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A75" s="128">
-        <v>20</v>
-      </c>
-      <c r="B75" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="C75" s="39">
-        <v>44815</v>
-      </c>
-      <c r="D75" s="39"/>
-      <c r="E75" s="39">
-        <v>44818</v>
-      </c>
-      <c r="F75" s="40" t="s">
-        <v>10</v>
-      </c>
-      <c r="G75" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="H75" s="41" t="s">
-        <v>11</v>
-      </c>
-      <c r="I75" s="139" t="s">
-        <v>4</v>
-      </c>
-      <c r="J75" s="130">
-        <v>13</v>
-      </c>
-      <c r="K75" s="131">
-        <v>1</v>
-      </c>
-      <c r="L75" s="178"/>
-    </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A76" s="128"/>
-      <c r="B76" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="C76" s="39">
-        <v>44842</v>
-      </c>
-      <c r="D76" s="39"/>
-      <c r="E76" s="39">
-        <v>44813</v>
-      </c>
-      <c r="F76" s="40" t="s">
-        <v>10</v>
-      </c>
-      <c r="G76" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="H76" s="41" t="s">
-        <v>8</v>
-      </c>
-      <c r="I76" s="139"/>
-      <c r="J76" s="130"/>
-      <c r="K76" s="131"/>
-      <c r="L76" s="179"/>
-    </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A77" s="128"/>
-      <c r="B77" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="C77" s="39">
-        <v>44857</v>
-      </c>
-      <c r="D77" s="39">
-        <v>44871</v>
-      </c>
-      <c r="E77" s="39">
-        <v>44875</v>
-      </c>
-      <c r="F77" s="40" t="s">
-        <v>10</v>
-      </c>
-      <c r="G77" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="H77" s="41" t="s">
-        <v>11</v>
-      </c>
-      <c r="I77" s="139"/>
-      <c r="J77" s="130"/>
-      <c r="K77" s="131"/>
-      <c r="L77" s="179"/>
-    </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A78" s="128"/>
-      <c r="B78" s="35" t="s">
-        <v>41</v>
-      </c>
-      <c r="C78" s="74">
-        <v>44878</v>
-      </c>
-      <c r="D78" s="74">
-        <v>44885</v>
-      </c>
-      <c r="E78" s="74">
-        <v>44888</v>
-      </c>
-      <c r="F78" s="75" t="s">
-        <v>10</v>
-      </c>
-      <c r="G78" s="76" t="s">
-        <v>38</v>
-      </c>
-      <c r="H78" s="77" t="s">
-        <v>11</v>
-      </c>
-      <c r="I78" s="139"/>
-      <c r="J78" s="130"/>
-      <c r="K78" s="131"/>
-      <c r="L78" s="180"/>
-    </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A79" s="156">
-        <v>21</v>
-      </c>
-      <c r="B79" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="C79" s="54">
-        <v>44815</v>
-      </c>
-      <c r="D79" s="54"/>
-      <c r="E79" s="54">
-        <v>44818</v>
-      </c>
-      <c r="F79" s="55" t="s">
-        <v>10</v>
-      </c>
-      <c r="G79" s="56" t="s">
-        <v>2</v>
-      </c>
-      <c r="H79" s="57" t="s">
-        <v>11</v>
-      </c>
-      <c r="I79" s="139" t="s">
-        <v>4</v>
-      </c>
-      <c r="J79" s="132">
-        <v>94</v>
-      </c>
-      <c r="K79" s="133">
-        <v>6</v>
-      </c>
-      <c r="L79" s="134"/>
-    </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A80" s="156"/>
-      <c r="B80" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C80" s="13">
-        <v>44842</v>
-      </c>
-      <c r="D80" s="13"/>
-      <c r="E80" s="13">
-        <v>44813</v>
-      </c>
-      <c r="F80" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="G80" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="H80" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="I80" s="139"/>
-      <c r="J80" s="132"/>
-      <c r="K80" s="133"/>
-      <c r="L80" s="134"/>
-    </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A81" s="156"/>
-      <c r="B81" s="47" t="s">
-        <v>27</v>
-      </c>
-      <c r="C81" s="79">
-        <v>44857</v>
-      </c>
-      <c r="D81" s="79">
-        <v>44871</v>
-      </c>
-      <c r="E81" s="79">
-        <v>44875</v>
-      </c>
-      <c r="F81" s="80" t="s">
-        <v>10</v>
-      </c>
-      <c r="G81" s="47" t="s">
-        <v>12</v>
-      </c>
-      <c r="H81" s="81" t="s">
-        <v>11</v>
-      </c>
-      <c r="I81" s="139"/>
-      <c r="J81" s="132"/>
-      <c r="K81" s="133"/>
-      <c r="L81" s="134"/>
-    </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A82" s="156"/>
-      <c r="B82" s="82" t="s">
-        <v>41</v>
-      </c>
-      <c r="C82" s="83">
-        <v>44878</v>
-      </c>
-      <c r="D82" s="83">
-        <v>44885</v>
-      </c>
-      <c r="E82" s="83">
-        <v>44888</v>
-      </c>
-      <c r="F82" s="84" t="s">
-        <v>10</v>
-      </c>
-      <c r="G82" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="H82" s="85" t="s">
-        <v>11</v>
-      </c>
-      <c r="I82" s="139"/>
-      <c r="J82" s="132"/>
-      <c r="K82" s="133"/>
-      <c r="L82" s="134"/>
-    </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A83" s="128">
-        <v>22</v>
-      </c>
-      <c r="B83" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="C83" s="32">
-        <v>44822</v>
-      </c>
-      <c r="D83" s="32">
-        <v>44828</v>
-      </c>
-      <c r="E83" s="32">
-        <v>44828</v>
-      </c>
-      <c r="F83" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="G83" s="27" t="s">
-        <v>2</v>
-      </c>
-      <c r="H83" s="34" t="s">
-        <v>11</v>
-      </c>
-      <c r="I83" s="139" t="s">
-        <v>4</v>
-      </c>
-      <c r="J83" s="130">
-        <v>67</v>
-      </c>
-      <c r="K83" s="131">
-        <v>4</v>
-      </c>
-      <c r="L83" s="178"/>
-    </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A84" s="128"/>
-      <c r="B84" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="C84" s="32">
-        <v>44846</v>
-      </c>
-      <c r="D84" s="32"/>
-      <c r="E84" s="32">
-        <v>44850</v>
-      </c>
-      <c r="F84" s="33" t="s">
-        <v>23</v>
-      </c>
-      <c r="G84" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="H84" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="I84" s="139"/>
-      <c r="J84" s="130"/>
-      <c r="K84" s="131"/>
-      <c r="L84" s="179"/>
-    </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A85" s="128"/>
-      <c r="B85" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="C85" s="39">
-        <v>44854</v>
-      </c>
-      <c r="D85" s="39">
-        <v>44861</v>
-      </c>
-      <c r="E85" s="39">
-        <v>44864</v>
-      </c>
-      <c r="F85" s="40" t="s">
-        <v>3</v>
-      </c>
-      <c r="G85" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="H85" s="41" t="s">
-        <v>1</v>
-      </c>
-      <c r="I85" s="139"/>
-      <c r="J85" s="130"/>
-      <c r="K85" s="131"/>
-      <c r="L85" s="179"/>
-    </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A86" s="128"/>
-      <c r="B86" s="35" t="s">
-        <v>41</v>
-      </c>
-      <c r="C86" s="74">
-        <v>44878</v>
-      </c>
-      <c r="D86" s="74">
-        <v>44885</v>
-      </c>
-      <c r="E86" s="74">
-        <v>44888</v>
-      </c>
-      <c r="F86" s="75" t="s">
-        <v>10</v>
-      </c>
-      <c r="G86" s="76" t="s">
-        <v>38</v>
-      </c>
-      <c r="H86" s="77" t="s">
-        <v>11</v>
-      </c>
-      <c r="I86" s="139"/>
-      <c r="J86" s="130"/>
-      <c r="K86" s="131"/>
-      <c r="L86" s="180"/>
-    </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A87" s="156">
-        <v>23</v>
-      </c>
-      <c r="B87" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="C87" s="54">
-        <v>44808</v>
-      </c>
-      <c r="D87" s="54"/>
-      <c r="E87" s="54">
-        <v>44818</v>
-      </c>
-      <c r="F87" s="55" t="s">
-        <v>10</v>
-      </c>
-      <c r="G87" s="56" t="s">
-        <v>14</v>
-      </c>
-      <c r="H87" s="57" t="s">
-        <v>11</v>
-      </c>
-      <c r="I87" s="139" t="s">
-        <v>4</v>
-      </c>
-      <c r="J87" s="132">
-        <v>22</v>
-      </c>
-      <c r="K87" s="133">
-        <v>2</v>
-      </c>
-      <c r="L87" s="134"/>
-    </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A88" s="156"/>
-      <c r="B88" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C88" s="54">
-        <v>44850</v>
-      </c>
-      <c r="D88" s="54"/>
-      <c r="E88" s="54">
-        <v>44850</v>
-      </c>
-      <c r="F88" s="55" t="s">
-        <v>10</v>
-      </c>
-      <c r="G88" s="56" t="s">
-        <v>39</v>
-      </c>
-      <c r="H88" s="57" t="s">
-        <v>40</v>
-      </c>
-      <c r="I88" s="139"/>
-      <c r="J88" s="132"/>
-      <c r="K88" s="133"/>
-      <c r="L88" s="134"/>
-    </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A89" s="156"/>
-      <c r="B89" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="C89" s="54">
-        <v>44854</v>
-      </c>
-      <c r="D89" s="54">
-        <v>44861</v>
-      </c>
-      <c r="E89" s="54">
-        <v>44864</v>
-      </c>
-      <c r="F89" s="55" t="s">
-        <v>3</v>
-      </c>
-      <c r="G89" s="56" t="s">
-        <v>13</v>
-      </c>
-      <c r="H89" s="57" t="s">
-        <v>1</v>
-      </c>
-      <c r="I89" s="139"/>
-      <c r="J89" s="132"/>
-      <c r="K89" s="133"/>
-      <c r="L89" s="134"/>
-    </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A90" s="156"/>
-      <c r="B90" s="82" t="s">
-        <v>41</v>
-      </c>
-      <c r="C90" s="18">
-        <v>44878</v>
-      </c>
-      <c r="D90" s="18">
-        <v>44885</v>
-      </c>
-      <c r="E90" s="18">
-        <v>44888</v>
-      </c>
-      <c r="F90" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="G90" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="H90" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="I90" s="139"/>
-      <c r="J90" s="132"/>
-      <c r="K90" s="133"/>
-      <c r="L90" s="134"/>
-    </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A91" s="128">
-        <v>24</v>
-      </c>
-      <c r="B91" s="27" t="s">
-        <v>26</v>
-      </c>
-      <c r="C91" s="32">
-        <v>44815</v>
-      </c>
-      <c r="D91" s="32"/>
-      <c r="E91" s="32">
-        <v>44818</v>
-      </c>
-      <c r="F91" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="G91" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="H91" s="34" t="s">
-        <v>11</v>
-      </c>
-      <c r="I91" s="139" t="s">
-        <v>4</v>
-      </c>
-      <c r="J91" s="130">
-        <v>31</v>
-      </c>
-      <c r="K91" s="131">
-        <v>2</v>
-      </c>
-      <c r="L91" s="178"/>
-    </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A92" s="128"/>
-      <c r="B92" s="35" t="s">
-        <v>25</v>
-      </c>
-      <c r="C92" s="74">
-        <v>44878</v>
-      </c>
-      <c r="D92" s="74">
-        <v>44885</v>
-      </c>
-      <c r="E92" s="74">
-        <v>44888</v>
-      </c>
-      <c r="F92" s="75" t="s">
-        <v>10</v>
-      </c>
-      <c r="G92" s="76" t="s">
-        <v>38</v>
-      </c>
-      <c r="H92" s="77" t="s">
-        <v>11</v>
-      </c>
-      <c r="I92" s="139"/>
-      <c r="J92" s="130"/>
-      <c r="K92" s="131"/>
-      <c r="L92" s="180"/>
-    </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A93" s="146">
-        <v>25</v>
-      </c>
-      <c r="B93" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="C93" s="54">
-        <v>44846</v>
-      </c>
-      <c r="D93" s="54"/>
-      <c r="E93" s="54">
-        <v>44846</v>
-      </c>
-      <c r="F93" s="55" t="s">
-        <v>23</v>
-      </c>
-      <c r="G93" s="56" t="s">
-        <v>39</v>
-      </c>
-      <c r="H93" s="57" t="s">
-        <v>40</v>
-      </c>
-      <c r="I93" s="139" t="s">
-        <v>4</v>
-      </c>
-      <c r="J93" s="153">
-        <v>44</v>
-      </c>
-      <c r="K93" s="153">
-        <v>3</v>
-      </c>
-      <c r="L93" s="170"/>
-    </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A94" s="147"/>
-      <c r="B94" s="47" t="s">
-        <v>25</v>
-      </c>
-      <c r="C94" s="42">
-        <v>44855</v>
-      </c>
-      <c r="D94" s="42">
-        <v>44862</v>
-      </c>
-      <c r="E94" s="42">
-        <v>44864</v>
-      </c>
-      <c r="F94" s="43" t="s">
-        <v>6</v>
-      </c>
-      <c r="G94" s="44" t="s">
-        <v>2</v>
-      </c>
-      <c r="H94" s="45" t="s">
+      <c r="H109" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="I94" s="139"/>
-      <c r="J94" s="154"/>
-      <c r="K94" s="154"/>
-      <c r="L94" s="171"/>
-    </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A95" s="148"/>
-      <c r="B95" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="C95" s="18">
-        <v>44887</v>
-      </c>
-      <c r="D95" s="18">
-        <v>44894</v>
-      </c>
-      <c r="E95" s="18">
-        <v>44895</v>
-      </c>
-      <c r="F95" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="G95" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="H95" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="I95" s="139"/>
-      <c r="J95" s="155"/>
-      <c r="K95" s="155"/>
-      <c r="L95" s="166"/>
-    </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A96" s="128">
-        <v>26</v>
-      </c>
-      <c r="B96" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="C96" s="28">
-        <v>44829</v>
-      </c>
-      <c r="D96" s="28"/>
-      <c r="E96" s="28">
-        <v>44832</v>
-      </c>
-      <c r="F96" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="G96" s="30" t="s">
-        <v>14</v>
-      </c>
-      <c r="H96" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="I96" s="139" t="s">
-        <v>4</v>
-      </c>
-      <c r="J96" s="130">
-        <v>30</v>
-      </c>
-      <c r="K96" s="131">
-        <v>3</v>
-      </c>
-      <c r="L96" s="178"/>
-    </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A97" s="128"/>
-      <c r="B97" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="C97" s="28">
-        <v>44850</v>
-      </c>
-      <c r="D97" s="28"/>
-      <c r="E97" s="28">
-        <v>44850</v>
-      </c>
-      <c r="F97" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="G97" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="H97" s="31" t="s">
-        <v>40</v>
-      </c>
-      <c r="I97" s="139"/>
-      <c r="J97" s="130"/>
-      <c r="K97" s="131"/>
-      <c r="L97" s="179"/>
-    </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A98" s="128"/>
-      <c r="B98" s="30" t="s">
-        <v>27</v>
-      </c>
-      <c r="C98" s="28">
-        <v>44855</v>
-      </c>
-      <c r="D98" s="28">
-        <v>44862</v>
-      </c>
-      <c r="E98" s="28">
-        <v>44864</v>
-      </c>
-      <c r="F98" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="G98" s="30" t="s">
-        <v>2</v>
-      </c>
-      <c r="H98" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="I98" s="139"/>
-      <c r="J98" s="130"/>
-      <c r="K98" s="131"/>
-      <c r="L98" s="179"/>
-    </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A99" s="128"/>
-      <c r="B99" s="35" t="s">
-        <v>41</v>
-      </c>
-      <c r="C99" s="74">
-        <v>44878</v>
-      </c>
-      <c r="D99" s="74">
-        <v>44885</v>
-      </c>
-      <c r="E99" s="74">
-        <v>44888</v>
-      </c>
-      <c r="F99" s="75" t="s">
-        <v>10</v>
-      </c>
-      <c r="G99" s="76" t="s">
-        <v>38</v>
-      </c>
-      <c r="H99" s="77" t="s">
-        <v>11</v>
-      </c>
-      <c r="I99" s="139"/>
-      <c r="J99" s="130"/>
-      <c r="K99" s="131"/>
-      <c r="L99" s="180"/>
-    </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A100" s="156">
-        <v>27</v>
-      </c>
-      <c r="B100" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="C100" s="86">
-        <v>44810</v>
-      </c>
-      <c r="D100" s="86"/>
-      <c r="E100" s="86">
-        <v>44818</v>
-      </c>
-      <c r="F100" s="87" t="s">
-        <v>15</v>
-      </c>
-      <c r="G100" s="88" t="s">
-        <v>17</v>
-      </c>
-      <c r="H100" s="89" t="s">
-        <v>16</v>
-      </c>
-      <c r="I100" s="129" t="s">
-        <v>0</v>
-      </c>
-      <c r="J100" s="132">
-        <v>12</v>
-      </c>
-      <c r="K100" s="133">
-        <v>1</v>
-      </c>
-      <c r="L100" s="134"/>
-    </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A101" s="156"/>
-      <c r="B101" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C101" s="54">
-        <v>44829</v>
-      </c>
-      <c r="D101" s="54"/>
-      <c r="E101" s="54">
-        <v>44836</v>
-      </c>
-      <c r="F101" s="55" t="s">
-        <v>10</v>
-      </c>
-      <c r="G101" s="56" t="s">
-        <v>24</v>
-      </c>
-      <c r="H101" s="57" t="s">
-        <v>11</v>
-      </c>
-      <c r="I101" s="129"/>
-      <c r="J101" s="132"/>
-      <c r="K101" s="133"/>
-      <c r="L101" s="134"/>
-    </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A102" s="156"/>
-      <c r="B102" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="C102" s="54">
-        <v>44855</v>
-      </c>
-      <c r="D102" s="54">
-        <v>44862</v>
-      </c>
-      <c r="E102" s="54">
-        <v>44864</v>
-      </c>
-      <c r="F102" s="55" t="s">
-        <v>6</v>
-      </c>
-      <c r="G102" s="56" t="s">
-        <v>2</v>
-      </c>
-      <c r="H102" s="57" t="s">
-        <v>5</v>
-      </c>
-      <c r="I102" s="129"/>
-      <c r="J102" s="132"/>
-      <c r="K102" s="133"/>
-      <c r="L102" s="134"/>
-    </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A103" s="156"/>
-      <c r="B103" s="82" t="s">
-        <v>41</v>
-      </c>
-      <c r="C103" s="18">
-        <v>44869</v>
-      </c>
-      <c r="D103" s="18">
-        <v>44876</v>
-      </c>
-      <c r="E103" s="18">
-        <v>44878</v>
-      </c>
-      <c r="F103" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="G103" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="H103" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="I103" s="129"/>
-      <c r="J103" s="132"/>
-      <c r="K103" s="133"/>
-      <c r="L103" s="134"/>
-    </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A104" s="128">
-        <v>28</v>
-      </c>
-      <c r="B104" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="C104" s="23">
-        <v>44807</v>
-      </c>
-      <c r="D104" s="23"/>
-      <c r="E104" s="23">
-        <v>44808</v>
-      </c>
-      <c r="F104" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="G104" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="H104" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="I104" s="129" t="s">
-        <v>0</v>
-      </c>
-      <c r="J104" s="130">
-        <v>21</v>
-      </c>
-      <c r="K104" s="131">
-        <v>2</v>
-      </c>
-      <c r="L104" s="164"/>
-    </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A105" s="128"/>
-      <c r="B105" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="C105" s="28">
-        <v>44829</v>
-      </c>
-      <c r="D105" s="28">
-        <v>44843</v>
-      </c>
-      <c r="E105" s="28">
-        <v>44843</v>
-      </c>
-      <c r="F105" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="G105" s="30" t="s">
-        <v>24</v>
-      </c>
-      <c r="H105" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="I105" s="129"/>
-      <c r="J105" s="130"/>
-      <c r="K105" s="131"/>
-      <c r="L105" s="164"/>
-    </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A106" s="128"/>
-      <c r="B106" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="C106" s="36">
-        <v>44869</v>
-      </c>
-      <c r="D106" s="36">
-        <v>44876</v>
-      </c>
-      <c r="E106" s="36">
-        <v>44878</v>
-      </c>
-      <c r="F106" s="37" t="s">
-        <v>6</v>
-      </c>
-      <c r="G106" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="H106" s="53" t="s">
-        <v>5</v>
-      </c>
-      <c r="I106" s="129"/>
-      <c r="J106" s="130"/>
-      <c r="K106" s="131"/>
-      <c r="L106" s="164"/>
-    </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A107" s="135">
-        <v>29</v>
-      </c>
-      <c r="B107" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="C107" s="86">
-        <v>44807</v>
-      </c>
-      <c r="D107" s="86"/>
-      <c r="E107" s="86">
-        <v>44808</v>
-      </c>
-      <c r="F107" s="87" t="s">
-        <v>7</v>
-      </c>
-      <c r="G107" s="88" t="s">
-        <v>9</v>
-      </c>
-      <c r="H107" s="89" t="s">
-        <v>8</v>
-      </c>
-      <c r="I107" s="129" t="s">
-        <v>0</v>
-      </c>
-      <c r="J107" s="132">
-        <v>35</v>
-      </c>
-      <c r="K107" s="133">
-        <v>2</v>
-      </c>
-      <c r="L107" s="134"/>
-    </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A108" s="135"/>
-      <c r="B108" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C108" s="86">
-        <v>44810</v>
-      </c>
-      <c r="D108" s="86"/>
-      <c r="E108" s="86">
-        <v>44818</v>
-      </c>
-      <c r="F108" s="87" t="s">
-        <v>15</v>
-      </c>
-      <c r="G108" s="88" t="s">
-        <v>17</v>
-      </c>
-      <c r="H108" s="89" t="s">
-        <v>16</v>
-      </c>
-      <c r="I108" s="129"/>
-      <c r="J108" s="132"/>
-      <c r="K108" s="133"/>
-      <c r="L108" s="134"/>
-    </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A109" s="135"/>
-      <c r="B109" s="116" t="s">
-        <v>27</v>
-      </c>
-      <c r="C109" s="120">
-        <v>44829</v>
-      </c>
-      <c r="D109" s="120">
-        <v>44843</v>
-      </c>
-      <c r="E109" s="120">
-        <v>44843</v>
-      </c>
-      <c r="F109" s="121" t="s">
-        <v>10</v>
-      </c>
-      <c r="G109" s="122" t="s">
-        <v>24</v>
-      </c>
-      <c r="H109" s="123" t="s">
-        <v>11</v>
-      </c>
-      <c r="I109" s="129"/>
-      <c r="J109" s="132"/>
-      <c r="K109" s="133"/>
-      <c r="L109" s="134"/>
+      <c r="I109" s="130"/>
+      <c r="J109" s="131"/>
+      <c r="K109" s="132"/>
+      <c r="L109" s="165"/>
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A110" s="136">
+        <v>29</v>
+      </c>
+      <c r="B110" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C110" s="86">
+        <v>44807</v>
+      </c>
+      <c r="D110" s="86"/>
+      <c r="E110" s="86">
+        <v>44808</v>
+      </c>
+      <c r="F110" s="87" t="s">
+        <v>7</v>
+      </c>
+      <c r="G110" s="88" t="s">
+        <v>9</v>
+      </c>
+      <c r="H110" s="89" t="s">
+        <v>8</v>
+      </c>
+      <c r="I110" s="130" t="s">
+        <v>0</v>
+      </c>
+      <c r="J110" s="133">
+        <v>35</v>
+      </c>
+      <c r="K110" s="134">
+        <v>2</v>
+      </c>
+      <c r="L110" s="135"/>
+    </row>
+    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A111" s="136"/>
+      <c r="B111" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C111" s="86">
+        <v>44810</v>
+      </c>
+      <c r="D111" s="86"/>
+      <c r="E111" s="86">
+        <v>44818</v>
+      </c>
+      <c r="F111" s="87" t="s">
+        <v>15</v>
+      </c>
+      <c r="G111" s="88" t="s">
+        <v>17</v>
+      </c>
+      <c r="H111" s="89" t="s">
+        <v>16</v>
+      </c>
+      <c r="I111" s="130"/>
+      <c r="J111" s="133"/>
+      <c r="K111" s="134"/>
+      <c r="L111" s="135"/>
+    </row>
+    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A112" s="136"/>
+      <c r="B112" s="116" t="s">
+        <v>27</v>
+      </c>
+      <c r="C112" s="120">
+        <v>44829</v>
+      </c>
+      <c r="D112" s="120">
+        <v>44843</v>
+      </c>
+      <c r="E112" s="120">
+        <v>44843</v>
+      </c>
+      <c r="F112" s="121" t="s">
+        <v>10</v>
+      </c>
+      <c r="G112" s="122" t="s">
+        <v>24</v>
+      </c>
+      <c r="H112" s="123" t="s">
+        <v>11</v>
+      </c>
+      <c r="I112" s="130"/>
+      <c r="J112" s="133"/>
+      <c r="K112" s="134"/>
+      <c r="L112" s="135"/>
+    </row>
+    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A113" s="137">
         <v>30</v>
       </c>
-      <c r="B110" s="25" t="s">
+      <c r="B113" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="C110" s="23">
+      <c r="C113" s="23">
         <v>44807</v>
       </c>
-      <c r="D110" s="23"/>
-      <c r="E110" s="23">
+      <c r="D113" s="23"/>
+      <c r="E113" s="23">
         <v>44815</v>
       </c>
-      <c r="F110" s="24" t="s">
+      <c r="F113" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="G110" s="25" t="s">
+      <c r="G113" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="H110" s="26" t="s">
+      <c r="H113" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="I110" s="139" t="s">
+      <c r="I113" s="140" t="s">
         <v>4</v>
       </c>
-      <c r="J110" s="140">
+      <c r="J113" s="141">
         <v>19</v>
       </c>
-      <c r="K110" s="143">
+      <c r="K113" s="144">
         <v>1</v>
       </c>
-      <c r="L110" s="178"/>
-    </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A111" s="137"/>
-      <c r="B111" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="C111" s="23">
-        <v>44814</v>
-      </c>
-      <c r="D111" s="23"/>
-      <c r="E111" s="23">
-        <v>44815</v>
-      </c>
-      <c r="F111" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="G111" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="H111" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="I111" s="139"/>
-      <c r="J111" s="141"/>
-      <c r="K111" s="144"/>
-      <c r="L111" s="179"/>
-    </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A112" s="137"/>
-      <c r="B112" s="30" t="s">
-        <v>27</v>
-      </c>
-      <c r="C112" s="28">
-        <v>44855</v>
-      </c>
-      <c r="D112" s="28">
-        <v>44862</v>
-      </c>
-      <c r="E112" s="28">
-        <v>44864</v>
-      </c>
-      <c r="F112" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="G112" s="30" t="s">
-        <v>2</v>
-      </c>
-      <c r="H112" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="I112" s="139"/>
-      <c r="J112" s="141"/>
-      <c r="K112" s="144"/>
-      <c r="L112" s="179"/>
-    </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A113" s="137"/>
-      <c r="B113" s="51" t="s">
-        <v>41</v>
-      </c>
-      <c r="C113" s="49">
-        <v>44877</v>
-      </c>
-      <c r="D113" s="49"/>
-      <c r="E113" s="49">
-        <v>44878</v>
-      </c>
-      <c r="F113" s="50" t="s">
-        <v>7</v>
-      </c>
-      <c r="G113" s="51" t="s">
-        <v>18</v>
-      </c>
-      <c r="H113" s="52" t="s">
-        <v>8</v>
-      </c>
-      <c r="I113" s="139"/>
-      <c r="J113" s="141"/>
-      <c r="K113" s="144"/>
       <c r="L113" s="179"/>
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A114" s="138"/>
-      <c r="B114" s="35" t="s">
-        <v>43</v>
-      </c>
-      <c r="C114" s="36">
-        <v>44882</v>
-      </c>
-      <c r="D114" s="36">
-        <v>44889</v>
-      </c>
-      <c r="E114" s="36">
-        <v>44892</v>
-      </c>
-      <c r="F114" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="G114" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="H114" s="53" t="s">
-        <v>1</v>
-      </c>
-      <c r="I114" s="139"/>
+      <c r="B114" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C114" s="23">
+        <v>44814</v>
+      </c>
+      <c r="D114" s="23"/>
+      <c r="E114" s="23">
+        <v>44815</v>
+      </c>
+      <c r="F114" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="G114" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="H114" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="I114" s="140"/>
       <c r="J114" s="142"/>
       <c r="K114" s="145"/>
       <c r="L114" s="180"/>
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A115" s="146">
+      <c r="A115" s="138"/>
+      <c r="B115" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="C115" s="28">
+        <v>44855</v>
+      </c>
+      <c r="D115" s="28">
+        <v>44862</v>
+      </c>
+      <c r="E115" s="28">
+        <v>44864</v>
+      </c>
+      <c r="F115" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="G115" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="H115" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="I115" s="140"/>
+      <c r="J115" s="142"/>
+      <c r="K115" s="145"/>
+      <c r="L115" s="180"/>
+    </row>
+    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A116" s="138"/>
+      <c r="B116" s="51" t="s">
+        <v>41</v>
+      </c>
+      <c r="C116" s="49">
+        <v>44877</v>
+      </c>
+      <c r="D116" s="49"/>
+      <c r="E116" s="49">
+        <v>44878</v>
+      </c>
+      <c r="F116" s="50" t="s">
+        <v>7</v>
+      </c>
+      <c r="G116" s="51" t="s">
+        <v>18</v>
+      </c>
+      <c r="H116" s="52" t="s">
+        <v>8</v>
+      </c>
+      <c r="I116" s="140"/>
+      <c r="J116" s="142"/>
+      <c r="K116" s="145"/>
+      <c r="L116" s="180"/>
+    </row>
+    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A117" s="139"/>
+      <c r="B117" s="35" t="s">
+        <v>43</v>
+      </c>
+      <c r="C117" s="36">
+        <v>44882</v>
+      </c>
+      <c r="D117" s="36">
+        <v>44889</v>
+      </c>
+      <c r="E117" s="36">
+        <v>44892</v>
+      </c>
+      <c r="F117" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="G117" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="H117" s="53" t="s">
+        <v>1</v>
+      </c>
+      <c r="I117" s="140"/>
+      <c r="J117" s="143"/>
+      <c r="K117" s="146"/>
+      <c r="L117" s="181"/>
+    </row>
+    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A118" s="147">
         <v>31</v>
       </c>
-      <c r="B115" s="12" t="s">
+      <c r="B118" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="C115" s="86">
+      <c r="C118" s="86">
         <v>44813</v>
       </c>
-      <c r="D115" s="86"/>
-      <c r="E115" s="86">
+      <c r="D118" s="86"/>
+      <c r="E118" s="86">
         <v>44815</v>
       </c>
-      <c r="F115" s="87" t="s">
+      <c r="F118" s="87" t="s">
         <v>6</v>
       </c>
-      <c r="G115" s="88" t="s">
+      <c r="G118" s="88" t="s">
         <v>2</v>
       </c>
-      <c r="H115" s="89" t="s">
+      <c r="H118" s="89" t="s">
         <v>5</v>
       </c>
-      <c r="I115" s="139" t="s">
+      <c r="I118" s="140" t="s">
         <v>4</v>
       </c>
-      <c r="J115" s="167">
+      <c r="J118" s="168">
         <v>50</v>
       </c>
-      <c r="K115" s="153">
+      <c r="K118" s="154">
         <v>4</v>
       </c>
-      <c r="L115" s="170"/>
-    </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A116" s="147"/>
-      <c r="B116" s="15" t="s">
+      <c r="L118" s="171"/>
+    </row>
+    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A119" s="148"/>
+      <c r="B119" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="C116" s="13">
+      <c r="C119" s="13">
         <v>44824</v>
       </c>
-      <c r="D116" s="13"/>
-      <c r="E116" s="13">
+      <c r="D119" s="13"/>
+      <c r="E119" s="13">
         <v>44832</v>
       </c>
-      <c r="F116" s="14" t="s">
+      <c r="F119" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="G116" s="56" t="s">
+      <c r="G119" s="56" t="s">
         <v>22</v>
       </c>
-      <c r="H116" s="57" t="s">
+      <c r="H119" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="I116" s="139"/>
-      <c r="J116" s="168"/>
-      <c r="K116" s="154"/>
-      <c r="L116" s="171"/>
-    </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A117" s="147"/>
-      <c r="B117" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="C117" s="13">
-        <v>44843</v>
-      </c>
-      <c r="D117" s="13"/>
-      <c r="E117" s="13">
-        <v>44843</v>
-      </c>
-      <c r="F117" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="G117" s="56" t="s">
-        <v>14</v>
-      </c>
-      <c r="H117" s="57" t="s">
-        <v>11</v>
-      </c>
-      <c r="I117" s="139"/>
-      <c r="J117" s="168"/>
-      <c r="K117" s="154"/>
-      <c r="L117" s="171"/>
-    </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A118" s="147"/>
-      <c r="B118" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="C118" s="13">
-        <v>44850</v>
-      </c>
-      <c r="D118" s="13"/>
-      <c r="E118" s="13">
-        <v>44850</v>
-      </c>
-      <c r="F118" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="G118" s="56" t="s">
-        <v>39</v>
-      </c>
-      <c r="H118" s="57" t="s">
-        <v>40</v>
-      </c>
-      <c r="I118" s="139"/>
-      <c r="J118" s="168"/>
-      <c r="K118" s="154"/>
-      <c r="L118" s="171"/>
-    </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A119" s="147"/>
-      <c r="B119" s="90" t="s">
-        <v>43</v>
-      </c>
-      <c r="C119" s="72">
-        <v>44857</v>
-      </c>
-      <c r="D119" s="72">
-        <v>44871</v>
-      </c>
-      <c r="E119" s="72">
-        <v>44875</v>
-      </c>
-      <c r="F119" s="73" t="s">
-        <v>10</v>
-      </c>
-      <c r="G119" s="67" t="s">
-        <v>14</v>
-      </c>
-      <c r="H119" s="68" t="s">
-        <v>11</v>
-      </c>
-      <c r="I119" s="139"/>
-      <c r="J119" s="168"/>
-      <c r="K119" s="154"/>
-      <c r="L119" s="171"/>
+      <c r="I119" s="140"/>
+      <c r="J119" s="169"/>
+      <c r="K119" s="155"/>
+      <c r="L119" s="172"/>
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A120" s="148"/>
-      <c r="B120" s="91" t="s">
+      <c r="B120" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="C120" s="13">
+        <v>44843</v>
+      </c>
+      <c r="D120" s="13"/>
+      <c r="E120" s="13">
+        <v>44843</v>
+      </c>
+      <c r="F120" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="G120" s="56" t="s">
+        <v>14</v>
+      </c>
+      <c r="H120" s="57" t="s">
+        <v>11</v>
+      </c>
+      <c r="I120" s="140"/>
+      <c r="J120" s="169"/>
+      <c r="K120" s="155"/>
+      <c r="L120" s="172"/>
+    </row>
+    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A121" s="148"/>
+      <c r="B121" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="C121" s="13">
+        <v>44850</v>
+      </c>
+      <c r="D121" s="13"/>
+      <c r="E121" s="13">
+        <v>44850</v>
+      </c>
+      <c r="F121" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="G121" s="56" t="s">
+        <v>39</v>
+      </c>
+      <c r="H121" s="57" t="s">
+        <v>40</v>
+      </c>
+      <c r="I121" s="140"/>
+      <c r="J121" s="169"/>
+      <c r="K121" s="155"/>
+      <c r="L121" s="172"/>
+    </row>
+    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A122" s="148"/>
+      <c r="B122" s="90" t="s">
+        <v>43</v>
+      </c>
+      <c r="C122" s="72">
+        <v>44857</v>
+      </c>
+      <c r="D122" s="72">
+        <v>44871</v>
+      </c>
+      <c r="E122" s="72">
+        <v>44875</v>
+      </c>
+      <c r="F122" s="73" t="s">
+        <v>10</v>
+      </c>
+      <c r="G122" s="67" t="s">
+        <v>14</v>
+      </c>
+      <c r="H122" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="I122" s="140"/>
+      <c r="J122" s="169"/>
+      <c r="K122" s="155"/>
+      <c r="L122" s="172"/>
+    </row>
+    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A123" s="149"/>
+      <c r="B123" s="91" t="s">
         <v>47</v>
       </c>
-      <c r="C120" s="83">
+      <c r="C123" s="83">
         <v>44882</v>
       </c>
-      <c r="D120" s="83">
+      <c r="D123" s="83">
         <v>44889</v>
       </c>
-      <c r="E120" s="83">
+      <c r="E123" s="83">
         <v>44892</v>
       </c>
-      <c r="F120" s="84" t="s">
+      <c r="F123" s="84" t="s">
         <v>3</v>
       </c>
-      <c r="G120" s="20" t="s">
+      <c r="G123" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="H120" s="21" t="s">
+      <c r="H123" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="I120" s="139"/>
-      <c r="J120" s="165"/>
-      <c r="K120" s="155"/>
-      <c r="L120" s="166"/>
-    </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A121" s="136">
+      <c r="I123" s="140"/>
+      <c r="J123" s="166"/>
+      <c r="K123" s="156"/>
+      <c r="L123" s="167"/>
+    </row>
+    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A124" s="137">
         <v>32</v>
       </c>
-      <c r="B121" s="25" t="s">
+      <c r="B124" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="C121" s="28">
+      <c r="C124" s="28">
         <v>44813</v>
       </c>
-      <c r="D121" s="28"/>
-      <c r="E121" s="78">
+      <c r="D124" s="28"/>
+      <c r="E124" s="78">
         <v>44815</v>
       </c>
-      <c r="F121" s="29" t="s">
+      <c r="F124" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="G121" s="30" t="s">
+      <c r="G124" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="H121" s="31" t="s">
+      <c r="H124" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="I121" s="139" t="s">
+      <c r="I124" s="140" t="s">
         <v>4</v>
       </c>
-      <c r="J121" s="140">
+      <c r="J124" s="141">
         <v>77</v>
       </c>
-      <c r="K121" s="143">
+      <c r="K124" s="144">
         <v>4</v>
       </c>
-      <c r="L121" s="178"/>
-    </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A122" s="137"/>
-      <c r="B122" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="C122" s="28">
-        <v>44843</v>
-      </c>
-      <c r="D122" s="28"/>
-      <c r="E122" s="28">
-        <v>44843</v>
-      </c>
-      <c r="F122" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="G122" s="30" t="s">
-        <v>14</v>
-      </c>
-      <c r="H122" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="I122" s="139"/>
-      <c r="J122" s="141"/>
-      <c r="K122" s="144"/>
-      <c r="L122" s="179"/>
-    </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A123" s="137"/>
-      <c r="B123" s="30" t="s">
-        <v>27</v>
-      </c>
-      <c r="C123" s="28">
-        <v>44850</v>
-      </c>
-      <c r="D123" s="28"/>
-      <c r="E123" s="28">
-        <v>44850</v>
-      </c>
-      <c r="F123" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="G123" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="H123" s="31" t="s">
-        <v>40</v>
-      </c>
-      <c r="I123" s="139"/>
-      <c r="J123" s="141"/>
-      <c r="K123" s="144"/>
-      <c r="L123" s="179"/>
-    </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A124" s="137"/>
-      <c r="B124" s="51" t="s">
-        <v>41</v>
-      </c>
-      <c r="C124" s="49">
-        <v>44857</v>
-      </c>
-      <c r="D124" s="92">
-        <v>44871</v>
-      </c>
-      <c r="E124" s="92">
-        <v>44875</v>
-      </c>
-      <c r="F124" s="50" t="s">
-        <v>10</v>
-      </c>
-      <c r="G124" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="H124" s="52" t="s">
-        <v>11</v>
-      </c>
-      <c r="I124" s="139"/>
-      <c r="J124" s="141"/>
-      <c r="K124" s="144"/>
       <c r="L124" s="179"/>
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A125" s="138"/>
-      <c r="B125" s="35" t="s">
-        <v>43</v>
-      </c>
-      <c r="C125" s="36">
-        <v>44882</v>
-      </c>
-      <c r="D125" s="36">
-        <v>44889</v>
-      </c>
-      <c r="E125" s="36">
-        <v>44892</v>
-      </c>
-      <c r="F125" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="G125" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="H125" s="53" t="s">
-        <v>1</v>
-      </c>
-      <c r="I125" s="139"/>
+      <c r="B125" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C125" s="28">
+        <v>44843</v>
+      </c>
+      <c r="D125" s="28"/>
+      <c r="E125" s="28">
+        <v>44843</v>
+      </c>
+      <c r="F125" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="G125" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="H125" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="I125" s="140"/>
       <c r="J125" s="142"/>
       <c r="K125" s="145"/>
       <c r="L125" s="180"/>
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A126" s="156">
+      <c r="A126" s="138"/>
+      <c r="B126" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="C126" s="28">
+        <v>44850</v>
+      </c>
+      <c r="D126" s="28"/>
+      <c r="E126" s="28">
+        <v>44850</v>
+      </c>
+      <c r="F126" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="G126" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="H126" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="I126" s="140"/>
+      <c r="J126" s="142"/>
+      <c r="K126" s="145"/>
+      <c r="L126" s="180"/>
+    </row>
+    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A127" s="138"/>
+      <c r="B127" s="51" t="s">
+        <v>41</v>
+      </c>
+      <c r="C127" s="49">
+        <v>44857</v>
+      </c>
+      <c r="D127" s="92">
+        <v>44871</v>
+      </c>
+      <c r="E127" s="92">
+        <v>44875</v>
+      </c>
+      <c r="F127" s="50" t="s">
+        <v>10</v>
+      </c>
+      <c r="G127" s="51" t="s">
+        <v>14</v>
+      </c>
+      <c r="H127" s="52" t="s">
+        <v>11</v>
+      </c>
+      <c r="I127" s="140"/>
+      <c r="J127" s="142"/>
+      <c r="K127" s="145"/>
+      <c r="L127" s="180"/>
+    </row>
+    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A128" s="139"/>
+      <c r="B128" s="35" t="s">
+        <v>43</v>
+      </c>
+      <c r="C128" s="36">
+        <v>44882</v>
+      </c>
+      <c r="D128" s="36">
+        <v>44889</v>
+      </c>
+      <c r="E128" s="36">
+        <v>44892</v>
+      </c>
+      <c r="F128" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="G128" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="H128" s="53" t="s">
+        <v>1</v>
+      </c>
+      <c r="I128" s="140"/>
+      <c r="J128" s="143"/>
+      <c r="K128" s="146"/>
+      <c r="L128" s="181"/>
+    </row>
+    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A129" s="157">
         <v>33</v>
       </c>
-      <c r="B126" s="12" t="s">
+      <c r="B129" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="C126" s="86">
+      <c r="C129" s="86">
         <v>44806</v>
       </c>
-      <c r="D126" s="86"/>
-      <c r="E126" s="86">
+      <c r="D129" s="86"/>
+      <c r="E129" s="86">
         <v>44815</v>
       </c>
-      <c r="F126" s="87" t="s">
+      <c r="F129" s="87" t="s">
         <v>6</v>
       </c>
-      <c r="G126" s="88" t="s">
+      <c r="G129" s="88" t="s">
         <v>2</v>
       </c>
-      <c r="H126" s="89" t="s">
+      <c r="H129" s="89" t="s">
         <v>5</v>
       </c>
-      <c r="I126" s="129" t="s">
+      <c r="I129" s="130" t="s">
         <v>0</v>
       </c>
-      <c r="J126" s="132">
+      <c r="J129" s="133">
         <v>62</v>
       </c>
-      <c r="K126" s="133">
+      <c r="K129" s="134">
         <v>4</v>
       </c>
-      <c r="L126" s="134"/>
-    </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A127" s="156"/>
-      <c r="B127" s="15" t="s">
+      <c r="L129" s="135"/>
+    </row>
+    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A130" s="157"/>
+      <c r="B130" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="C127" s="13">
+      <c r="C130" s="13">
         <v>44824</v>
       </c>
-      <c r="D127" s="13"/>
-      <c r="E127" s="93">
+      <c r="D130" s="13"/>
+      <c r="E130" s="93">
         <v>44832</v>
       </c>
-      <c r="F127" s="14" t="s">
+      <c r="F130" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="G127" s="56" t="s">
+      <c r="G130" s="56" t="s">
         <v>22</v>
       </c>
-      <c r="H127" s="57" t="s">
+      <c r="H130" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="I127" s="129"/>
-      <c r="J127" s="132"/>
-      <c r="K127" s="133"/>
-      <c r="L127" s="134"/>
-    </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A128" s="156"/>
-      <c r="B128" s="15" t="s">
+      <c r="I130" s="130"/>
+      <c r="J130" s="133"/>
+      <c r="K130" s="134"/>
+      <c r="L130" s="135"/>
+    </row>
+    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A131" s="157"/>
+      <c r="B131" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="C128" s="79">
+      <c r="C131" s="79">
         <v>44857</v>
       </c>
-      <c r="D128" s="79">
+      <c r="D131" s="79">
         <v>44871</v>
       </c>
-      <c r="E128" s="79">
+      <c r="E131" s="79">
         <v>44875</v>
       </c>
-      <c r="F128" s="80" t="s">
-        <v>10</v>
-      </c>
-      <c r="G128" s="44" t="s">
+      <c r="F131" s="80" t="s">
+        <v>10</v>
+      </c>
+      <c r="G131" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="H128" s="45" t="s">
+      <c r="H131" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="I128" s="129"/>
-      <c r="J128" s="132"/>
-      <c r="K128" s="133"/>
-      <c r="L128" s="134"/>
-    </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A129" s="156"/>
-      <c r="B129" s="82" t="s">
+      <c r="I131" s="130"/>
+      <c r="J131" s="133"/>
+      <c r="K131" s="134"/>
+      <c r="L131" s="135"/>
+    </row>
+    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A132" s="157"/>
+      <c r="B132" s="82" t="s">
         <v>41</v>
       </c>
-      <c r="C129" s="83">
+      <c r="C132" s="83">
         <v>44878</v>
       </c>
-      <c r="D129" s="83">
+      <c r="D132" s="83">
         <v>44885</v>
       </c>
-      <c r="E129" s="83">
+      <c r="E132" s="83">
         <v>44888</v>
       </c>
-      <c r="F129" s="84" t="s">
-        <v>10</v>
-      </c>
-      <c r="G129" s="20" t="s">
+      <c r="F132" s="84" t="s">
+        <v>10</v>
+      </c>
+      <c r="G132" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="H129" s="21" t="s">
+      <c r="H132" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="I129" s="129"/>
-      <c r="J129" s="132"/>
-      <c r="K129" s="133"/>
-      <c r="L129" s="134"/>
-    </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A130" s="128">
+      <c r="I132" s="130"/>
+      <c r="J132" s="133"/>
+      <c r="K132" s="134"/>
+      <c r="L132" s="135"/>
+    </row>
+    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A133" s="129">
         <v>34</v>
       </c>
-      <c r="B130" s="22" t="s">
+      <c r="B133" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="C130" s="39">
+      <c r="C133" s="39">
         <v>44807</v>
       </c>
-      <c r="D130" s="39"/>
-      <c r="E130" s="39">
+      <c r="D133" s="39"/>
+      <c r="E133" s="39">
         <v>44808</v>
       </c>
-      <c r="F130" s="40" t="s">
+      <c r="F133" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="G130" s="22" t="s">
+      <c r="G133" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="H130" s="41" t="s">
+      <c r="H133" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="I130" s="129" t="s">
+      <c r="I133" s="130" t="s">
         <v>0</v>
       </c>
-      <c r="J130" s="130">
+      <c r="J133" s="131">
         <v>58</v>
       </c>
-      <c r="K130" s="131">
+      <c r="K133" s="132">
         <v>3</v>
       </c>
-      <c r="L130" s="164"/>
-    </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A131" s="128"/>
-      <c r="B131" s="22" t="s">
+      <c r="L133" s="165"/>
+    </row>
+    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A134" s="129"/>
+      <c r="B134" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="C131" s="32">
+      <c r="C134" s="32">
         <v>44829</v>
       </c>
-      <c r="D131" s="32">
+      <c r="D134" s="32">
         <v>44836</v>
       </c>
-      <c r="E131" s="32">
-        <f>D131+3</f>
+      <c r="E134" s="32">
+        <f>D134+3</f>
         <v>44839</v>
       </c>
-      <c r="F131" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="G131" s="27" t="s">
+      <c r="F134" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="G134" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="H131" s="34" t="s">
+      <c r="H134" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="I131" s="129"/>
-      <c r="J131" s="130"/>
-      <c r="K131" s="131"/>
-      <c r="L131" s="164"/>
-    </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A132" s="128"/>
-      <c r="B132" s="27" t="s">
+      <c r="I134" s="130"/>
+      <c r="J134" s="131"/>
+      <c r="K134" s="132"/>
+      <c r="L134" s="165"/>
+    </row>
+    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A135" s="129"/>
+      <c r="B135" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="C132" s="32">
+      <c r="C135" s="32">
         <v>44843</v>
       </c>
-      <c r="D132" s="32"/>
-      <c r="E132" s="32">
+      <c r="D135" s="32"/>
+      <c r="E135" s="32">
         <v>44843</v>
       </c>
-      <c r="F132" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="G132" s="27" t="s">
+      <c r="F135" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="G135" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="H132" s="34" t="s">
+      <c r="H135" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="I132" s="129"/>
-      <c r="J132" s="130"/>
-      <c r="K132" s="131"/>
-      <c r="L132" s="164"/>
-    </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A133" s="128"/>
-      <c r="B133" s="35" t="s">
+      <c r="I135" s="130"/>
+      <c r="J135" s="131"/>
+      <c r="K135" s="132"/>
+      <c r="L135" s="165"/>
+    </row>
+    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A136" s="129"/>
+      <c r="B136" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="C133" s="36">
+      <c r="C136" s="36">
         <v>44878</v>
       </c>
-      <c r="D133" s="36">
+      <c r="D136" s="36">
         <v>44885</v>
       </c>
-      <c r="E133" s="36">
+      <c r="E136" s="36">
         <v>44888</v>
       </c>
-      <c r="F133" s="37" t="s">
-        <v>10</v>
-      </c>
-      <c r="G133" s="35" t="s">
+      <c r="F136" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="G136" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="H133" s="53" t="s">
+      <c r="H136" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="I133" s="129"/>
-      <c r="J133" s="130"/>
-      <c r="K133" s="131"/>
-      <c r="L133" s="164"/>
-    </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A134" s="152">
+      <c r="I136" s="130"/>
+      <c r="J136" s="131"/>
+      <c r="K136" s="132"/>
+      <c r="L136" s="165"/>
+    </row>
+    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A137" s="153">
         <v>35</v>
       </c>
-      <c r="B134" s="12" t="s">
+      <c r="B137" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="C134" s="54">
+      <c r="C137" s="54">
         <v>44807</v>
       </c>
-      <c r="D134" s="54"/>
-      <c r="E134" s="54">
+      <c r="D137" s="54"/>
+      <c r="E137" s="54">
         <v>44808</v>
       </c>
-      <c r="F134" s="55" t="s">
+      <c r="F137" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="G134" s="56" t="s">
+      <c r="G137" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="H134" s="57" t="s">
+      <c r="H137" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="I134" s="129" t="s">
+      <c r="I137" s="130" t="s">
         <v>0</v>
       </c>
-      <c r="J134" s="132">
+      <c r="J137" s="133">
         <v>40</v>
       </c>
-      <c r="K134" s="133">
+      <c r="K137" s="134">
         <v>2</v>
       </c>
-      <c r="L134" s="134"/>
-    </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A135" s="152"/>
-      <c r="B135" s="12" t="s">
+      <c r="L137" s="135"/>
+    </row>
+    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A138" s="153"/>
+      <c r="B138" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="C135" s="13">
+      <c r="C138" s="13">
         <v>44843</v>
       </c>
-      <c r="D135" s="13"/>
-      <c r="E135" s="13">
+      <c r="D138" s="13"/>
+      <c r="E138" s="13">
         <v>44843</v>
       </c>
-      <c r="F135" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="G135" s="56" t="s">
+      <c r="F138" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="G138" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="H135" s="57" t="s">
+      <c r="H138" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="I135" s="129"/>
-      <c r="J135" s="132"/>
-      <c r="K135" s="133"/>
-      <c r="L135" s="134"/>
-    </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A136" s="152"/>
-      <c r="B136" s="116" t="s">
+      <c r="I138" s="130"/>
+      <c r="J138" s="133"/>
+      <c r="K138" s="134"/>
+      <c r="L138" s="135"/>
+    </row>
+    <row r="139" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A139" s="153"/>
+      <c r="B139" s="116" t="s">
         <v>27</v>
       </c>
-      <c r="C136" s="117">
+      <c r="C139" s="117">
         <v>44863</v>
       </c>
-      <c r="D136" s="117"/>
-      <c r="E136" s="117">
+      <c r="D139" s="117"/>
+      <c r="E139" s="117">
         <v>44864</v>
       </c>
-      <c r="F136" s="118" t="s">
+      <c r="F139" s="118" t="s">
         <v>7</v>
       </c>
-      <c r="G136" s="116" t="s">
+      <c r="G139" s="116" t="s">
         <v>24</v>
       </c>
-      <c r="H136" s="119" t="s">
+      <c r="H139" s="119" t="s">
         <v>8</v>
       </c>
-      <c r="I136" s="129"/>
-      <c r="J136" s="132"/>
-      <c r="K136" s="133"/>
-      <c r="L136" s="134"/>
-    </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A137" s="136">
+      <c r="I139" s="130"/>
+      <c r="J139" s="133"/>
+      <c r="K139" s="134"/>
+      <c r="L139" s="135"/>
+    </row>
+    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A140" s="137">
         <v>36</v>
       </c>
-      <c r="B137" s="25" t="s">
+      <c r="B140" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="C137" s="28">
+      <c r="C140" s="28">
         <v>44808</v>
       </c>
-      <c r="D137" s="28">
+      <c r="D140" s="28">
         <v>44815</v>
       </c>
-      <c r="E137" s="78">
+      <c r="E140" s="78">
         <v>44818</v>
       </c>
-      <c r="F137" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="G137" s="30" t="s">
+      <c r="F140" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="G140" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="H137" s="31" t="s">
+      <c r="H140" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="I137" s="139" t="s">
+      <c r="I140" s="140" t="s">
         <v>4</v>
       </c>
-      <c r="J137" s="143">
+      <c r="J140" s="144">
         <v>152</v>
       </c>
-      <c r="K137" s="143">
+      <c r="K140" s="144">
         <v>8</v>
       </c>
-      <c r="L137" s="149"/>
-    </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A138" s="137"/>
-      <c r="B138" s="30" t="s">
-        <v>25</v>
-      </c>
-      <c r="C138" s="28">
-        <v>44840</v>
-      </c>
-      <c r="D138" s="28"/>
-      <c r="E138" s="28">
-        <v>44843</v>
-      </c>
-      <c r="F138" s="29" t="s">
-        <v>3</v>
-      </c>
-      <c r="G138" s="30" t="s">
-        <v>38</v>
-      </c>
-      <c r="H138" s="31" t="s">
-        <v>1</v>
-      </c>
-      <c r="I138" s="139"/>
-      <c r="J138" s="144"/>
-      <c r="K138" s="144"/>
-      <c r="L138" s="150"/>
-    </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A139" s="137"/>
-      <c r="B139" s="30" t="s">
-        <v>27</v>
-      </c>
-      <c r="C139" s="28">
-        <v>44847</v>
-      </c>
-      <c r="D139" s="28"/>
-      <c r="E139" s="28">
-        <v>44850</v>
-      </c>
-      <c r="F139" s="29" t="s">
-        <v>3</v>
-      </c>
-      <c r="G139" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="H139" s="31" t="s">
-        <v>40</v>
-      </c>
-      <c r="I139" s="139"/>
-      <c r="J139" s="144"/>
-      <c r="K139" s="144"/>
-      <c r="L139" s="150"/>
-    </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A140" s="137"/>
-      <c r="B140" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="C140" s="32">
-        <v>44857</v>
-      </c>
-      <c r="D140" s="32">
-        <v>44871</v>
-      </c>
-      <c r="E140" s="32">
-        <v>44874</v>
-      </c>
-      <c r="F140" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="G140" s="27" t="s">
-        <v>2</v>
-      </c>
-      <c r="H140" s="34" t="s">
-        <v>11</v>
-      </c>
-      <c r="I140" s="139"/>
-      <c r="J140" s="144"/>
-      <c r="K140" s="144"/>
       <c r="L140" s="150"/>
     </row>
     <row r="141" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A141" s="138"/>
-      <c r="B141" s="35" t="s">
-        <v>43</v>
-      </c>
-      <c r="C141" s="36">
-        <v>44890</v>
-      </c>
-      <c r="D141" s="36">
-        <v>44897</v>
-      </c>
-      <c r="E141" s="36">
-        <v>44899</v>
-      </c>
-      <c r="F141" s="37" t="s">
-        <v>6</v>
-      </c>
-      <c r="G141" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="H141" s="53" t="s">
-        <v>5</v>
-      </c>
-      <c r="I141" s="139"/>
+      <c r="B141" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="C141" s="28">
+        <v>44840</v>
+      </c>
+      <c r="D141" s="28"/>
+      <c r="E141" s="28">
+        <v>44843</v>
+      </c>
+      <c r="F141" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="G141" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="H141" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="I141" s="140"/>
       <c r="J141" s="145"/>
       <c r="K141" s="145"/>
       <c r="L141" s="151"/>
     </row>
     <row r="142" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A142" s="156">
+      <c r="A142" s="138"/>
+      <c r="B142" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="C142" s="28">
+        <v>44847</v>
+      </c>
+      <c r="D142" s="28"/>
+      <c r="E142" s="28">
+        <v>44850</v>
+      </c>
+      <c r="F142" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="G142" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="H142" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="I142" s="140"/>
+      <c r="J142" s="145"/>
+      <c r="K142" s="145"/>
+      <c r="L142" s="151"/>
+    </row>
+    <row r="143" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A143" s="138"/>
+      <c r="B143" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="C143" s="32">
+        <v>44857</v>
+      </c>
+      <c r="D143" s="32">
+        <v>44871</v>
+      </c>
+      <c r="E143" s="32">
+        <v>44874</v>
+      </c>
+      <c r="F143" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="G143" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="H143" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="I143" s="140"/>
+      <c r="J143" s="145"/>
+      <c r="K143" s="145"/>
+      <c r="L143" s="151"/>
+    </row>
+    <row r="144" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A144" s="139"/>
+      <c r="B144" s="35" t="s">
+        <v>43</v>
+      </c>
+      <c r="C144" s="36">
+        <v>44890</v>
+      </c>
+      <c r="D144" s="36">
+        <v>44897</v>
+      </c>
+      <c r="E144" s="36">
+        <v>44899</v>
+      </c>
+      <c r="F144" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="G144" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="H144" s="53" t="s">
+        <v>5</v>
+      </c>
+      <c r="I144" s="140"/>
+      <c r="J144" s="146"/>
+      <c r="K144" s="146"/>
+      <c r="L144" s="152"/>
+    </row>
+    <row r="145" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A145" s="157">
         <v>37</v>
       </c>
-      <c r="B142" s="12" t="s">
+      <c r="B145" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="C142" s="86">
+      <c r="C145" s="86">
         <v>44822</v>
       </c>
-      <c r="D142" s="86"/>
-      <c r="E142" s="86">
+      <c r="D145" s="86"/>
+      <c r="E145" s="86">
         <v>44822</v>
       </c>
-      <c r="F142" s="87" t="s">
-        <v>10</v>
-      </c>
-      <c r="G142" s="88" t="s">
+      <c r="F145" s="87" t="s">
+        <v>10</v>
+      </c>
+      <c r="G145" s="88" t="s">
         <v>12</v>
       </c>
-      <c r="H142" s="89" t="s">
+      <c r="H145" s="89" t="s">
         <v>11</v>
       </c>
-      <c r="I142" s="129" t="s">
+      <c r="I145" s="130" t="s">
         <v>0</v>
       </c>
-      <c r="J142" s="132">
+      <c r="J145" s="133">
         <v>55</v>
       </c>
-      <c r="K142" s="133">
+      <c r="K145" s="134">
         <v>3</v>
       </c>
-      <c r="L142" s="134"/>
-    </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A143" s="156"/>
-      <c r="B143" s="12" t="s">
+      <c r="L145" s="135"/>
+    </row>
+    <row r="146" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A146" s="157"/>
+      <c r="B146" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="C143" s="86">
+      <c r="C146" s="86">
         <v>44847</v>
       </c>
-      <c r="D143" s="86"/>
-      <c r="E143" s="86">
+      <c r="D146" s="86"/>
+      <c r="E146" s="86">
         <v>44850</v>
       </c>
-      <c r="F143" s="87" t="s">
+      <c r="F146" s="87" t="s">
         <v>3</v>
       </c>
-      <c r="G143" s="88" t="s">
+      <c r="G146" s="88" t="s">
         <v>39</v>
       </c>
-      <c r="H143" s="89" t="s">
+      <c r="H146" s="89" t="s">
         <v>40</v>
       </c>
-      <c r="I143" s="129"/>
-      <c r="J143" s="132"/>
-      <c r="K143" s="133"/>
-      <c r="L143" s="134"/>
-    </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A144" s="156"/>
-      <c r="B144" s="64" t="s">
+      <c r="I146" s="130"/>
+      <c r="J146" s="133"/>
+      <c r="K146" s="134"/>
+      <c r="L146" s="135"/>
+    </row>
+    <row r="147" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A147" s="157"/>
+      <c r="B147" s="64" t="s">
         <v>27</v>
       </c>
-      <c r="C144" s="94">
+      <c r="C147" s="94">
         <v>44857</v>
       </c>
-      <c r="D144" s="72">
+      <c r="D147" s="72">
         <v>44871</v>
       </c>
-      <c r="E144" s="72">
+      <c r="E147" s="72">
         <v>44875</v>
       </c>
-      <c r="F144" s="95" t="s">
-        <v>10</v>
-      </c>
-      <c r="G144" s="96" t="s">
+      <c r="F147" s="95" t="s">
+        <v>10</v>
+      </c>
+      <c r="G147" s="96" t="s">
         <v>9</v>
       </c>
-      <c r="H144" s="97" t="s">
+      <c r="H147" s="97" t="s">
         <v>11</v>
       </c>
-      <c r="I144" s="129"/>
-      <c r="J144" s="132"/>
-      <c r="K144" s="133"/>
-      <c r="L144" s="134"/>
-    </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A145" s="156"/>
-      <c r="B145" s="82" t="s">
+      <c r="I147" s="130"/>
+      <c r="J147" s="133"/>
+      <c r="K147" s="134"/>
+      <c r="L147" s="135"/>
+    </row>
+    <row r="148" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A148" s="157"/>
+      <c r="B148" s="82" t="s">
         <v>41</v>
       </c>
-      <c r="C145" s="18">
+      <c r="C148" s="18">
         <v>44884</v>
       </c>
-      <c r="D145" s="18"/>
-      <c r="E145" s="18">
+      <c r="D148" s="18"/>
+      <c r="E148" s="18">
         <v>44885</v>
       </c>
-      <c r="F145" s="19" t="s">
+      <c r="F148" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="G145" s="20" t="s">
+      <c r="G148" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="H145" s="21" t="s">
+      <c r="H148" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="I145" s="129"/>
-      <c r="J145" s="132"/>
-      <c r="K145" s="133"/>
-      <c r="L145" s="134"/>
-    </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A146" s="128">
+      <c r="I148" s="130"/>
+      <c r="J148" s="133"/>
+      <c r="K148" s="134"/>
+      <c r="L148" s="135"/>
+    </row>
+    <row r="149" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A149" s="129">
         <v>38</v>
       </c>
-      <c r="B146" s="22" t="s">
+      <c r="B149" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="C146" s="23">
+      <c r="C149" s="23">
         <v>44815</v>
       </c>
-      <c r="D146" s="23"/>
-      <c r="E146" s="23">
+      <c r="D149" s="23"/>
+      <c r="E149" s="23">
         <v>44818</v>
       </c>
-      <c r="F146" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="G146" s="25" t="s">
+      <c r="F149" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="G149" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="H146" s="26" t="s">
+      <c r="H149" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="I146" s="129" t="s">
+      <c r="I149" s="130" t="s">
         <v>0</v>
       </c>
-      <c r="J146" s="130">
+      <c r="J149" s="131">
         <v>61</v>
       </c>
-      <c r="K146" s="131">
+      <c r="K149" s="132">
         <v>3</v>
       </c>
-      <c r="L146" s="178"/>
-    </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A147" s="128"/>
-      <c r="B147" s="22" t="s">
+      <c r="L149" s="179"/>
+    </row>
+    <row r="150" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A150" s="129"/>
+      <c r="B150" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="C147" s="28">
+      <c r="C150" s="28">
         <v>44829</v>
       </c>
-      <c r="D147" s="28"/>
-      <c r="E147" s="28">
+      <c r="D150" s="28"/>
+      <c r="E150" s="28">
         <v>44836</v>
       </c>
-      <c r="F147" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="G147" s="30" t="s">
+      <c r="F150" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="G150" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="H147" s="31" t="s">
+      <c r="H150" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="I147" s="129"/>
-      <c r="J147" s="130"/>
-      <c r="K147" s="131"/>
-      <c r="L147" s="179"/>
-    </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A148" s="128"/>
-      <c r="B148" s="27" t="s">
+      <c r="I150" s="130"/>
+      <c r="J150" s="131"/>
+      <c r="K150" s="132"/>
+      <c r="L150" s="180"/>
+    </row>
+    <row r="151" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A151" s="129"/>
+      <c r="B151" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="C148" s="28">
+      <c r="C151" s="28">
         <v>44843</v>
       </c>
-      <c r="D148" s="28"/>
-      <c r="E148" s="28">
+      <c r="D151" s="28"/>
+      <c r="E151" s="28">
         <v>44843</v>
       </c>
-      <c r="F148" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="G148" s="30" t="s">
+      <c r="F151" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="G151" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="H148" s="31" t="s">
+      <c r="H151" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="I148" s="129"/>
-      <c r="J148" s="130"/>
-      <c r="K148" s="131"/>
-      <c r="L148" s="179"/>
-    </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A149" s="128"/>
-      <c r="B149" s="27" t="s">
+      <c r="I151" s="130"/>
+      <c r="J151" s="131"/>
+      <c r="K151" s="132"/>
+      <c r="L151" s="180"/>
+    </row>
+    <row r="152" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A152" s="129"/>
+      <c r="B152" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="C149" s="28">
+      <c r="C152" s="28">
         <v>44847</v>
       </c>
-      <c r="D149" s="28"/>
-      <c r="E149" s="28">
+      <c r="D152" s="28"/>
+      <c r="E152" s="28">
         <v>44850</v>
       </c>
-      <c r="F149" s="29" t="s">
+      <c r="F152" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="G149" s="30" t="s">
+      <c r="G152" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="H149" s="31" t="s">
+      <c r="H152" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="I149" s="129"/>
-      <c r="J149" s="130"/>
-      <c r="K149" s="131"/>
-      <c r="L149" s="179"/>
-    </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A150" s="128"/>
-      <c r="B150" s="27" t="s">
+      <c r="I152" s="130"/>
+      <c r="J152" s="131"/>
+      <c r="K152" s="132"/>
+      <c r="L152" s="180"/>
+    </row>
+    <row r="153" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A153" s="129"/>
+      <c r="B153" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="C150" s="49">
+      <c r="C153" s="49">
         <v>44857</v>
       </c>
-      <c r="D150" s="92">
+      <c r="D153" s="92">
         <v>44871</v>
       </c>
-      <c r="E150" s="92">
+      <c r="E153" s="92">
         <v>44875</v>
       </c>
-      <c r="F150" s="50" t="s">
-        <v>10</v>
-      </c>
-      <c r="G150" s="51" t="s">
+      <c r="F153" s="50" t="s">
+        <v>10</v>
+      </c>
+      <c r="G153" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="H150" s="52" t="s">
+      <c r="H153" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="I150" s="129"/>
-      <c r="J150" s="130"/>
-      <c r="K150" s="131"/>
-      <c r="L150" s="179"/>
-    </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A151" s="128"/>
-      <c r="B151" s="35" t="s">
+      <c r="I153" s="130"/>
+      <c r="J153" s="131"/>
+      <c r="K153" s="132"/>
+      <c r="L153" s="180"/>
+    </row>
+    <row r="154" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A154" s="129"/>
+      <c r="B154" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="C151" s="36">
+      <c r="C154" s="36">
         <v>44884</v>
       </c>
-      <c r="D151" s="74"/>
-      <c r="E151" s="74">
+      <c r="D154" s="74"/>
+      <c r="E154" s="74">
         <v>44885</v>
       </c>
-      <c r="F151" s="37" t="s">
+      <c r="F154" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="G151" s="35" t="s">
+      <c r="G154" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="H151" s="53" t="s">
+      <c r="H154" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="I151" s="129"/>
-      <c r="J151" s="130"/>
-      <c r="K151" s="131"/>
-      <c r="L151" s="180"/>
-    </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A152" s="156">
+      <c r="I154" s="130"/>
+      <c r="J154" s="131"/>
+      <c r="K154" s="132"/>
+      <c r="L154" s="181"/>
+    </row>
+    <row r="155" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A155" s="157">
         <v>39</v>
       </c>
-      <c r="B152" s="12" t="s">
+      <c r="B155" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="C152" s="86">
+      <c r="C155" s="86">
         <v>44822</v>
       </c>
-      <c r="D152" s="86"/>
-      <c r="E152" s="86">
+      <c r="D155" s="86"/>
+      <c r="E155" s="86">
         <v>44822</v>
       </c>
-      <c r="F152" s="87" t="s">
-        <v>10</v>
-      </c>
-      <c r="G152" s="88" t="s">
+      <c r="F155" s="87" t="s">
+        <v>10</v>
+      </c>
+      <c r="G155" s="88" t="s">
         <v>12</v>
       </c>
-      <c r="H152" s="89" t="s">
+      <c r="H155" s="89" t="s">
         <v>11</v>
       </c>
-      <c r="I152" s="175" t="s">
+      <c r="I155" s="176" t="s">
         <v>0</v>
       </c>
-      <c r="J152" s="132">
+      <c r="J155" s="133">
         <v>20</v>
       </c>
-      <c r="K152" s="133">
+      <c r="K155" s="134">
         <v>1</v>
       </c>
-      <c r="L152" s="134"/>
-    </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A153" s="156"/>
-      <c r="B153" s="15" t="s">
+      <c r="L155" s="135"/>
+    </row>
+    <row r="156" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A156" s="157"/>
+      <c r="B156" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="C153" s="54">
+      <c r="C156" s="54">
         <v>44829</v>
       </c>
-      <c r="D153" s="54"/>
-      <c r="E153" s="54">
+      <c r="D156" s="54"/>
+      <c r="E156" s="54">
         <v>44829</v>
       </c>
-      <c r="F153" s="55" t="s">
-        <v>10</v>
-      </c>
-      <c r="G153" s="56" t="s">
+      <c r="F156" s="55" t="s">
+        <v>10</v>
+      </c>
+      <c r="G156" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="H153" s="57" t="s">
+      <c r="H156" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="I153" s="176"/>
-      <c r="J153" s="132"/>
-      <c r="K153" s="133"/>
-      <c r="L153" s="134"/>
-    </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A154" s="156"/>
-      <c r="B154" s="15" t="s">
+      <c r="I156" s="177"/>
+      <c r="J156" s="133"/>
+      <c r="K156" s="134"/>
+      <c r="L156" s="135"/>
+    </row>
+    <row r="157" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A157" s="157"/>
+      <c r="B157" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="C154" s="54">
+      <c r="C157" s="54">
         <v>44847</v>
       </c>
-      <c r="D154" s="54"/>
-      <c r="E154" s="54">
+      <c r="D157" s="54"/>
+      <c r="E157" s="54">
         <v>44850</v>
       </c>
-      <c r="F154" s="55" t="s">
+      <c r="F157" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="G154" s="56" t="s">
+      <c r="G157" s="56" t="s">
         <v>39</v>
       </c>
-      <c r="H154" s="57" t="s">
+      <c r="H157" s="57" t="s">
         <v>40</v>
       </c>
-      <c r="I154" s="176"/>
-      <c r="J154" s="132"/>
-      <c r="K154" s="133"/>
-      <c r="L154" s="134"/>
-    </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A155" s="156"/>
-      <c r="B155" s="47" t="s">
+      <c r="I157" s="177"/>
+      <c r="J157" s="133"/>
+      <c r="K157" s="134"/>
+      <c r="L157" s="135"/>
+    </row>
+    <row r="158" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A158" s="157"/>
+      <c r="B158" s="47" t="s">
         <v>41</v>
       </c>
-      <c r="C155" s="94">
+      <c r="C158" s="94">
         <v>44857</v>
       </c>
-      <c r="D155" s="72">
+      <c r="D158" s="72">
         <v>44871</v>
       </c>
-      <c r="E155" s="72">
+      <c r="E158" s="72">
         <v>44875</v>
       </c>
-      <c r="F155" s="95" t="s">
-        <v>10</v>
-      </c>
-      <c r="G155" s="96" t="s">
+      <c r="F158" s="95" t="s">
+        <v>10</v>
+      </c>
+      <c r="G158" s="96" t="s">
         <v>9</v>
       </c>
-      <c r="H155" s="97" t="s">
+      <c r="H158" s="97" t="s">
         <v>11</v>
       </c>
-      <c r="I155" s="176"/>
-      <c r="J155" s="132"/>
-      <c r="K155" s="133"/>
-      <c r="L155" s="134"/>
-    </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A156" s="156"/>
-      <c r="B156" s="17" t="s">
+      <c r="I158" s="177"/>
+      <c r="J158" s="133"/>
+      <c r="K158" s="134"/>
+      <c r="L158" s="135"/>
+    </row>
+    <row r="159" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A159" s="157"/>
+      <c r="B159" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="C156" s="98">
+      <c r="C159" s="98">
         <v>44884</v>
       </c>
-      <c r="D156" s="83"/>
-      <c r="E156" s="83">
+      <c r="D159" s="83"/>
+      <c r="E159" s="83">
         <v>44885</v>
       </c>
-      <c r="F156" s="99" t="s">
+      <c r="F159" s="99" t="s">
         <v>7</v>
       </c>
-      <c r="G156" s="100" t="s">
+      <c r="G159" s="100" t="s">
         <v>46</v>
       </c>
-      <c r="H156" s="101" t="s">
+      <c r="H159" s="101" t="s">
         <v>8</v>
       </c>
-      <c r="I156" s="177"/>
-      <c r="J156" s="132"/>
-      <c r="K156" s="133"/>
-      <c r="L156" s="134"/>
-    </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A157" s="128">
+      <c r="I159" s="178"/>
+      <c r="J159" s="133"/>
+      <c r="K159" s="134"/>
+      <c r="L159" s="135"/>
+    </row>
+    <row r="160" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A160" s="129">
         <v>40</v>
       </c>
-      <c r="B157" s="25" t="s">
+      <c r="B160" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="C157" s="23">
+      <c r="C160" s="23">
         <v>44822</v>
       </c>
-      <c r="D157" s="23"/>
-      <c r="E157" s="23">
+      <c r="D160" s="23"/>
+      <c r="E160" s="23">
         <v>44822</v>
       </c>
-      <c r="F157" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="G157" s="25" t="s">
+      <c r="F160" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="G160" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="H157" s="26" t="s">
+      <c r="H160" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="I157" s="129" t="s">
+      <c r="I160" s="130" t="s">
         <v>0</v>
       </c>
-      <c r="J157" s="130">
+      <c r="J160" s="131">
         <v>17</v>
       </c>
-      <c r="K157" s="131">
+      <c r="K160" s="132">
         <v>1</v>
       </c>
-      <c r="L157" s="178"/>
-    </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A158" s="128"/>
-      <c r="B158" s="25" t="s">
+      <c r="L160" s="179"/>
+    </row>
+    <row r="161" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A161" s="129"/>
+      <c r="B161" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="C158" s="28">
+      <c r="C161" s="28">
         <v>44829</v>
       </c>
-      <c r="D158" s="28"/>
-      <c r="E158" s="28">
+      <c r="D161" s="28"/>
+      <c r="E161" s="28">
         <v>44829</v>
       </c>
-      <c r="F158" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="G158" s="30" t="s">
+      <c r="F161" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="G161" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="H158" s="31" t="s">
+      <c r="H161" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="I158" s="129"/>
-      <c r="J158" s="130"/>
-      <c r="K158" s="131"/>
-      <c r="L158" s="179"/>
-    </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A159" s="128"/>
-      <c r="B159" s="30" t="s">
+      <c r="I161" s="130"/>
+      <c r="J161" s="131"/>
+      <c r="K161" s="132"/>
+      <c r="L161" s="180"/>
+    </row>
+    <row r="162" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A162" s="129"/>
+      <c r="B162" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="C159" s="28">
+      <c r="C162" s="28">
         <v>44847</v>
       </c>
-      <c r="D159" s="28"/>
-      <c r="E159" s="28">
+      <c r="D162" s="28"/>
+      <c r="E162" s="28">
         <v>44850</v>
       </c>
-      <c r="F159" s="29" t="s">
+      <c r="F162" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="G159" s="30" t="s">
+      <c r="G162" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="H159" s="31" t="s">
+      <c r="H162" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="I159" s="129"/>
-      <c r="J159" s="130"/>
-      <c r="K159" s="131"/>
-      <c r="L159" s="179"/>
-    </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A160" s="128"/>
-      <c r="B160" s="51" t="s">
+      <c r="I162" s="130"/>
+      <c r="J162" s="131"/>
+      <c r="K162" s="132"/>
+      <c r="L162" s="180"/>
+    </row>
+    <row r="163" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A163" s="129"/>
+      <c r="B163" s="51" t="s">
         <v>41</v>
       </c>
-      <c r="C160" s="49">
+      <c r="C163" s="49">
         <v>44857</v>
       </c>
-      <c r="D160" s="92">
+      <c r="D163" s="92">
         <v>44871</v>
       </c>
-      <c r="E160" s="92">
+      <c r="E163" s="92">
         <v>44875</v>
       </c>
-      <c r="F160" s="50" t="s">
-        <v>10</v>
-      </c>
-      <c r="G160" s="51" t="s">
+      <c r="F163" s="50" t="s">
+        <v>10</v>
+      </c>
+      <c r="G163" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="H160" s="52" t="s">
+      <c r="H163" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="I160" s="129"/>
-      <c r="J160" s="130"/>
-      <c r="K160" s="131"/>
-      <c r="L160" s="179"/>
-    </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A161" s="128"/>
-      <c r="B161" s="35" t="s">
+      <c r="I163" s="130"/>
+      <c r="J163" s="131"/>
+      <c r="K163" s="132"/>
+      <c r="L163" s="180"/>
+    </row>
+    <row r="164" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A164" s="129"/>
+      <c r="B164" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="C161" s="36">
+      <c r="C164" s="36">
         <v>44884</v>
       </c>
-      <c r="D161" s="74"/>
-      <c r="E161" s="74">
+      <c r="D164" s="74"/>
+      <c r="E164" s="74">
         <v>44885</v>
       </c>
-      <c r="F161" s="37" t="s">
+      <c r="F164" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="G161" s="35" t="s">
+      <c r="G164" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="H161" s="53" t="s">
+      <c r="H164" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="I161" s="129"/>
-      <c r="J161" s="130"/>
-      <c r="K161" s="131"/>
-      <c r="L161" s="180"/>
-    </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A162" s="108">
+      <c r="I164" s="130"/>
+      <c r="J164" s="131"/>
+      <c r="K164" s="132"/>
+      <c r="L164" s="181"/>
+    </row>
+    <row r="165" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A165" s="108">
         <v>41</v>
       </c>
-      <c r="B162" s="109"/>
-      <c r="C162" s="110"/>
-      <c r="D162" s="110"/>
-      <c r="E162" s="110"/>
-      <c r="F162" s="109"/>
-      <c r="G162" s="109"/>
-      <c r="H162" s="111"/>
-      <c r="I162" s="124" t="s">
+      <c r="B165" s="109"/>
+      <c r="C165" s="110"/>
+      <c r="D165" s="110"/>
+      <c r="E165" s="110"/>
+      <c r="F165" s="109"/>
+      <c r="G165" s="109"/>
+      <c r="H165" s="111"/>
+      <c r="I165" s="125" t="s">
         <v>0</v>
       </c>
-      <c r="J162" s="112"/>
-      <c r="K162" s="109"/>
-      <c r="L162" s="113"/>
-    </row>
-    <row r="163" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A163" s="128">
+      <c r="J165" s="112"/>
+      <c r="K165" s="109"/>
+      <c r="L165" s="113"/>
+    </row>
+    <row r="166" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A166" s="129">
         <v>42</v>
       </c>
-      <c r="B163" s="22" t="s">
+      <c r="B166" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="C163" s="32">
+      <c r="C166" s="32">
         <v>44822</v>
       </c>
-      <c r="D163" s="32"/>
-      <c r="E163" s="32">
+      <c r="D166" s="32"/>
+      <c r="E166" s="32">
         <v>44822</v>
       </c>
-      <c r="F163" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="G163" s="27" t="s">
+      <c r="F166" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="G166" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="H163" s="34" t="s">
+      <c r="H166" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="I163" s="129" t="s">
+      <c r="I166" s="130" t="s">
         <v>0</v>
       </c>
-      <c r="J163" s="130">
+      <c r="J166" s="131">
         <v>41</v>
       </c>
-      <c r="K163" s="131">
+      <c r="K166" s="132">
         <v>3</v>
       </c>
-      <c r="L163" s="178"/>
-    </row>
-    <row r="164" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A164" s="128"/>
-      <c r="B164" s="27" t="s">
+      <c r="L166" s="179"/>
+    </row>
+    <row r="167" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A167" s="129"/>
+      <c r="B167" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="C164" s="32">
+      <c r="C167" s="32">
         <v>44839</v>
       </c>
-      <c r="D164" s="32"/>
-      <c r="E164" s="32">
+      <c r="D167" s="32"/>
+      <c r="E167" s="32">
         <v>44839</v>
       </c>
-      <c r="F164" s="33" t="s">
+      <c r="F167" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="G164" s="27" t="s">
+      <c r="G167" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="H164" s="34" t="s">
+      <c r="H167" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="I164" s="129"/>
-      <c r="J164" s="130"/>
-      <c r="K164" s="131"/>
-      <c r="L164" s="179"/>
-    </row>
-    <row r="165" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A165" s="128"/>
-      <c r="B165" s="27" t="s">
+      <c r="I167" s="130"/>
+      <c r="J167" s="131"/>
+      <c r="K167" s="132"/>
+      <c r="L167" s="180"/>
+    </row>
+    <row r="168" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A168" s="129"/>
+      <c r="B168" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="C165" s="32">
+      <c r="C168" s="32">
         <v>44863</v>
       </c>
-      <c r="D165" s="32"/>
-      <c r="E165" s="32">
+      <c r="D168" s="32"/>
+      <c r="E168" s="32">
         <v>44864</v>
       </c>
-      <c r="F165" s="33" t="s">
+      <c r="F168" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="G165" s="27" t="s">
+      <c r="G168" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="H165" s="34" t="s">
+      <c r="H168" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="I165" s="129"/>
-      <c r="J165" s="130"/>
-      <c r="K165" s="131"/>
-      <c r="L165" s="179"/>
-    </row>
-    <row r="166" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A166" s="128"/>
-      <c r="B166" s="35" t="s">
+      <c r="I168" s="130"/>
+      <c r="J168" s="131"/>
+      <c r="K168" s="132"/>
+      <c r="L168" s="180"/>
+    </row>
+    <row r="169" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A169" s="129"/>
+      <c r="B169" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="C166" s="36">
+      <c r="C169" s="36">
         <v>44878</v>
       </c>
-      <c r="D166" s="36">
+      <c r="D169" s="36">
         <v>44885</v>
       </c>
-      <c r="E166" s="36">
+      <c r="E169" s="36">
         <v>44888</v>
       </c>
-      <c r="F166" s="37" t="s">
-        <v>10</v>
-      </c>
-      <c r="G166" s="35" t="s">
+      <c r="F169" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="G169" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="H166" s="53" t="s">
+      <c r="H169" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="I166" s="129"/>
-      <c r="J166" s="130"/>
-      <c r="K166" s="131"/>
-      <c r="L166" s="180"/>
-    </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A167" s="156">
+      <c r="I169" s="130"/>
+      <c r="J169" s="131"/>
+      <c r="K169" s="132"/>
+      <c r="L169" s="181"/>
+    </row>
+    <row r="170" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A170" s="157">
         <v>43</v>
       </c>
-      <c r="B167" s="12" t="s">
+      <c r="B170" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="C167" s="54">
+      <c r="C170" s="54">
         <v>44815</v>
       </c>
-      <c r="D167" s="54">
+      <c r="D170" s="54">
         <v>44822</v>
       </c>
-      <c r="E167" s="54">
+      <c r="E170" s="54">
         <v>44822</v>
       </c>
-      <c r="F167" s="55" t="s">
-        <v>10</v>
-      </c>
-      <c r="G167" s="56" t="s">
+      <c r="F170" s="55" t="s">
+        <v>10</v>
+      </c>
+      <c r="G170" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="H167" s="57" t="s">
+      <c r="H170" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="I167" s="129" t="s">
+      <c r="I170" s="130" t="s">
         <v>0</v>
       </c>
-      <c r="J167" s="132">
+      <c r="J170" s="133">
         <v>77</v>
       </c>
-      <c r="K167" s="133">
+      <c r="K170" s="134">
         <v>4</v>
       </c>
-      <c r="L167" s="134"/>
-    </row>
-    <row r="168" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A168" s="156"/>
-      <c r="B168" s="15" t="s">
+      <c r="L170" s="135"/>
+    </row>
+    <row r="171" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A171" s="157"/>
+      <c r="B171" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="C168" s="54">
+      <c r="C171" s="54">
         <v>44839</v>
       </c>
-      <c r="D168" s="54"/>
-      <c r="E168" s="54">
+      <c r="D171" s="54"/>
+      <c r="E171" s="54">
         <v>44839</v>
       </c>
-      <c r="F168" s="55" t="s">
+      <c r="F171" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="G168" s="56" t="s">
+      <c r="G171" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="H168" s="57" t="s">
+      <c r="H171" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="I168" s="129"/>
-      <c r="J168" s="132"/>
-      <c r="K168" s="133"/>
-      <c r="L168" s="134"/>
-    </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A169" s="156"/>
-      <c r="B169" s="15" t="s">
+      <c r="I171" s="130"/>
+      <c r="J171" s="133"/>
+      <c r="K171" s="134"/>
+      <c r="L171" s="135"/>
+    </row>
+    <row r="172" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A172" s="157"/>
+      <c r="B172" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="C169" s="54">
+      <c r="C172" s="54">
         <v>44848</v>
       </c>
-      <c r="D169" s="54"/>
-      <c r="E169" s="54">
+      <c r="D172" s="54"/>
+      <c r="E172" s="54">
         <v>44850</v>
       </c>
-      <c r="F169" s="55" t="s">
+      <c r="F172" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="G169" s="56" t="s">
+      <c r="G172" s="56" t="s">
         <v>39</v>
       </c>
-      <c r="H169" s="57" t="s">
+      <c r="H172" s="57" t="s">
         <v>40</v>
       </c>
-      <c r="I169" s="129"/>
-      <c r="J169" s="132"/>
-      <c r="K169" s="133"/>
-      <c r="L169" s="134"/>
-    </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A170" s="156"/>
-      <c r="B170" s="47" t="s">
+      <c r="I172" s="130"/>
+      <c r="J172" s="133"/>
+      <c r="K172" s="134"/>
+      <c r="L172" s="135"/>
+    </row>
+    <row r="173" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A173" s="157"/>
+      <c r="B173" s="47" t="s">
         <v>41</v>
       </c>
-      <c r="C170" s="79">
+      <c r="C173" s="79">
         <v>44863</v>
       </c>
-      <c r="D170" s="79"/>
-      <c r="E170" s="79">
+      <c r="D173" s="79"/>
+      <c r="E173" s="79">
         <v>44864</v>
       </c>
-      <c r="F170" s="80" t="s">
+      <c r="F173" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="G170" s="47" t="s">
+      <c r="G173" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="H170" s="81" t="s">
+      <c r="H173" s="81" t="s">
         <v>8</v>
       </c>
-      <c r="I170" s="129"/>
-      <c r="J170" s="132"/>
-      <c r="K170" s="133"/>
-      <c r="L170" s="134"/>
-    </row>
-    <row r="171" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A171" s="156"/>
-      <c r="B171" s="17" t="s">
+      <c r="I173" s="130"/>
+      <c r="J173" s="133"/>
+      <c r="K173" s="134"/>
+      <c r="L173" s="135"/>
+    </row>
+    <row r="174" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A174" s="157"/>
+      <c r="B174" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="C171" s="83">
+      <c r="C174" s="83">
         <v>44878</v>
       </c>
-      <c r="D171" s="83">
+      <c r="D174" s="83">
         <v>44885</v>
       </c>
-      <c r="E171" s="83">
+      <c r="E174" s="83">
         <v>44888</v>
       </c>
-      <c r="F171" s="84" t="s">
-        <v>10</v>
-      </c>
-      <c r="G171" s="17" t="s">
+      <c r="F174" s="84" t="s">
+        <v>10</v>
+      </c>
+      <c r="G174" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="H171" s="85" t="s">
+      <c r="H174" s="85" t="s">
         <v>11</v>
       </c>
-      <c r="I171" s="129"/>
-      <c r="J171" s="132"/>
-      <c r="K171" s="133"/>
-      <c r="L171" s="134"/>
-    </row>
-    <row r="172" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A172" s="128">
+      <c r="I174" s="130"/>
+      <c r="J174" s="133"/>
+      <c r="K174" s="134"/>
+      <c r="L174" s="135"/>
+    </row>
+    <row r="175" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A175" s="129">
         <v>44</v>
       </c>
-      <c r="B172" s="25" t="s">
+      <c r="B175" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="C172" s="28">
+      <c r="C175" s="28">
         <v>44848</v>
       </c>
-      <c r="D172" s="28"/>
-      <c r="E172" s="28">
+      <c r="D175" s="28"/>
+      <c r="E175" s="28">
         <v>44850</v>
       </c>
-      <c r="F172" s="29" t="s">
+      <c r="F175" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="G172" s="30" t="s">
+      <c r="G175" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="H172" s="31" t="s">
+      <c r="H175" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="I172" s="129" t="s">
+      <c r="I175" s="130" t="s">
         <v>0</v>
       </c>
-      <c r="J172" s="130">
+      <c r="J175" s="131">
         <v>39</v>
       </c>
-      <c r="K172" s="131">
+      <c r="K175" s="132">
         <v>3</v>
       </c>
-      <c r="L172" s="178"/>
-    </row>
-    <row r="173" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A173" s="128"/>
-      <c r="B173" s="30" t="s">
+      <c r="L175" s="179"/>
+    </row>
+    <row r="176" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A176" s="129"/>
+      <c r="B176" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="C173" s="32">
+      <c r="C176" s="32">
         <v>44863</v>
       </c>
-      <c r="D173" s="32"/>
-      <c r="E173" s="32">
+      <c r="D176" s="32"/>
+      <c r="E176" s="32">
         <v>44864</v>
       </c>
-      <c r="F173" s="33" t="s">
+      <c r="F176" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="G173" s="27" t="s">
+      <c r="G176" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="H173" s="34" t="s">
+      <c r="H176" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="I173" s="129"/>
-      <c r="J173" s="130"/>
-      <c r="K173" s="131"/>
-      <c r="L173" s="179"/>
-    </row>
-    <row r="174" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A174" s="128"/>
-      <c r="B174" s="35" t="s">
+      <c r="I176" s="130"/>
+      <c r="J176" s="131"/>
+      <c r="K176" s="132"/>
+      <c r="L176" s="180"/>
+    </row>
+    <row r="177" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A177" s="129"/>
+      <c r="B177" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="C174" s="36">
+      <c r="C177" s="36">
         <v>44878</v>
       </c>
-      <c r="D174" s="36">
+      <c r="D177" s="36">
         <v>44885</v>
       </c>
-      <c r="E174" s="36">
+      <c r="E177" s="36">
         <v>44888</v>
       </c>
-      <c r="F174" s="37" t="s">
-        <v>10</v>
-      </c>
-      <c r="G174" s="35" t="s">
+      <c r="F177" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="G177" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="H174" s="53" t="s">
+      <c r="H177" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="I174" s="129"/>
-      <c r="J174" s="130"/>
-      <c r="K174" s="131"/>
-      <c r="L174" s="180"/>
-    </row>
-    <row r="175" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A175" s="156">
+      <c r="I177" s="130"/>
+      <c r="J177" s="131"/>
+      <c r="K177" s="132"/>
+      <c r="L177" s="181"/>
+    </row>
+    <row r="178" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A178" s="157">
         <v>45</v>
       </c>
-      <c r="B175" s="12" t="s">
+      <c r="B178" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="C175" s="54">
+      <c r="C178" s="54">
         <v>44829</v>
       </c>
-      <c r="D175" s="54"/>
-      <c r="E175" s="54">
+      <c r="D178" s="54"/>
+      <c r="E178" s="54">
         <v>44829</v>
       </c>
-      <c r="F175" s="55" t="s">
-        <v>10</v>
-      </c>
-      <c r="G175" s="56" t="s">
+      <c r="F178" s="55" t="s">
+        <v>10</v>
+      </c>
+      <c r="G178" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="H175" s="56" t="s">
+      <c r="H178" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="I175" s="129" t="s">
+      <c r="I178" s="130" t="s">
         <v>0</v>
       </c>
-      <c r="J175" s="133">
+      <c r="J178" s="134">
         <v>53</v>
       </c>
-      <c r="K175" s="133">
+      <c r="K178" s="134">
         <v>3</v>
       </c>
-      <c r="L175" s="134"/>
-    </row>
-    <row r="176" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A176" s="156"/>
-      <c r="B176" s="12" t="s">
+      <c r="L178" s="135"/>
+    </row>
+    <row r="179" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A179" s="157"/>
+      <c r="B179" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="C176" s="54">
+      <c r="C179" s="54">
         <v>44848</v>
       </c>
-      <c r="D176" s="54"/>
-      <c r="E176" s="54">
+      <c r="D179" s="54"/>
+      <c r="E179" s="54">
         <v>44829</v>
       </c>
-      <c r="F176" s="55" t="s">
+      <c r="F179" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="G176" s="56" t="s">
+      <c r="G179" s="56" t="s">
         <v>39</v>
       </c>
-      <c r="H176" s="56" t="s">
+      <c r="H179" s="56" t="s">
         <v>40</v>
       </c>
-      <c r="I176" s="129"/>
-      <c r="J176" s="133"/>
-      <c r="K176" s="133"/>
-      <c r="L176" s="134"/>
-    </row>
-    <row r="177" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A177" s="160"/>
-      <c r="B177" s="102" t="s">
+      <c r="I179" s="130"/>
+      <c r="J179" s="134"/>
+      <c r="K179" s="134"/>
+      <c r="L179" s="135"/>
+    </row>
+    <row r="180" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A180" s="161"/>
+      <c r="B180" s="102" t="s">
         <v>27</v>
       </c>
-      <c r="C177" s="103">
+      <c r="C180" s="103">
         <v>44878</v>
       </c>
-      <c r="D177" s="103">
+      <c r="D180" s="103">
         <v>44885</v>
       </c>
-      <c r="E177" s="103">
+      <c r="E180" s="103">
         <v>44888</v>
       </c>
-      <c r="F177" s="104" t="s">
-        <v>10</v>
-      </c>
-      <c r="G177" s="105" t="s">
+      <c r="F180" s="104" t="s">
+        <v>10</v>
+      </c>
+      <c r="G180" s="105" t="s">
         <v>24</v>
       </c>
-      <c r="H177" s="105" t="s">
+      <c r="H180" s="105" t="s">
         <v>11</v>
       </c>
-      <c r="I177" s="161"/>
-      <c r="J177" s="162"/>
-      <c r="K177" s="162"/>
-      <c r="L177" s="163"/>
+      <c r="I180" s="162"/>
+      <c r="J180" s="163"/>
+      <c r="K180" s="163"/>
+      <c r="L180" s="164"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L177"/>
+  <autoFilter ref="A1:L180"/>
   <mergeCells count="210">
+    <mergeCell ref="L58:L60"/>
+    <mergeCell ref="A61:A65"/>
+    <mergeCell ref="I61:I65"/>
+    <mergeCell ref="J61:J65"/>
+    <mergeCell ref="K61:K65"/>
+    <mergeCell ref="L61:L65"/>
     <mergeCell ref="A38:A42"/>
     <mergeCell ref="I38:I42"/>
     <mergeCell ref="J38:J42"/>
     <mergeCell ref="K38:K42"/>
     <mergeCell ref="L38:L42"/>
-    <mergeCell ref="A50:A53"/>
-    <mergeCell ref="I50:I53"/>
-    <mergeCell ref="J50:J53"/>
-    <mergeCell ref="K50:K53"/>
-    <mergeCell ref="L50:L53"/>
-    <mergeCell ref="L79:L82"/>
-    <mergeCell ref="L87:L90"/>
-    <mergeCell ref="L93:L95"/>
+    <mergeCell ref="A51:A54"/>
+    <mergeCell ref="I51:I54"/>
+    <mergeCell ref="J51:J54"/>
+    <mergeCell ref="K51:K54"/>
+    <mergeCell ref="L51:L54"/>
+    <mergeCell ref="A44:A50"/>
+    <mergeCell ref="J44:J50"/>
+    <mergeCell ref="K44:K50"/>
+    <mergeCell ref="L44:L50"/>
+    <mergeCell ref="I44:I50"/>
+    <mergeCell ref="L82:L85"/>
+    <mergeCell ref="L90:L93"/>
+    <mergeCell ref="L96:L98"/>
     <mergeCell ref="A8:A14"/>
     <mergeCell ref="I8:I14"/>
     <mergeCell ref="J8:J14"/>
@@ -6755,50 +6865,48 @@
     <mergeCell ref="A34:A37"/>
     <mergeCell ref="I34:I37"/>
     <mergeCell ref="J34:J37"/>
-    <mergeCell ref="A157:A161"/>
-    <mergeCell ref="I157:I161"/>
-    <mergeCell ref="J157:J161"/>
-    <mergeCell ref="K157:K161"/>
-    <mergeCell ref="L172:L174"/>
-    <mergeCell ref="L157:L161"/>
-    <mergeCell ref="L146:L151"/>
-    <mergeCell ref="L63:L65"/>
-    <mergeCell ref="L67:L70"/>
-    <mergeCell ref="L75:L78"/>
-    <mergeCell ref="L83:L86"/>
-    <mergeCell ref="L91:L92"/>
-    <mergeCell ref="L96:L99"/>
-    <mergeCell ref="L110:L114"/>
-    <mergeCell ref="L115:L120"/>
-    <mergeCell ref="L121:L125"/>
-    <mergeCell ref="L44:L49"/>
-    <mergeCell ref="L59:L62"/>
-    <mergeCell ref="L54:L56"/>
-    <mergeCell ref="L100:L103"/>
-    <mergeCell ref="L163:L166"/>
-    <mergeCell ref="L71:L74"/>
-    <mergeCell ref="L142:L145"/>
-    <mergeCell ref="A146:A151"/>
-    <mergeCell ref="I146:I151"/>
-    <mergeCell ref="J146:J151"/>
-    <mergeCell ref="K146:K151"/>
-    <mergeCell ref="A152:A156"/>
-    <mergeCell ref="I152:I156"/>
-    <mergeCell ref="J152:J156"/>
-    <mergeCell ref="K152:K156"/>
-    <mergeCell ref="L152:L156"/>
-    <mergeCell ref="J115:J120"/>
-    <mergeCell ref="K115:K120"/>
-    <mergeCell ref="A121:A125"/>
-    <mergeCell ref="I121:I125"/>
-    <mergeCell ref="J121:J125"/>
-    <mergeCell ref="K121:K125"/>
-    <mergeCell ref="A130:A133"/>
-    <mergeCell ref="I130:I133"/>
-    <mergeCell ref="A142:A145"/>
-    <mergeCell ref="I142:I145"/>
-    <mergeCell ref="J142:J145"/>
-    <mergeCell ref="K142:K145"/>
+    <mergeCell ref="A160:A164"/>
+    <mergeCell ref="I160:I164"/>
+    <mergeCell ref="J160:J164"/>
+    <mergeCell ref="K160:K164"/>
+    <mergeCell ref="L175:L177"/>
+    <mergeCell ref="L160:L164"/>
+    <mergeCell ref="L149:L154"/>
+    <mergeCell ref="L66:L68"/>
+    <mergeCell ref="L70:L73"/>
+    <mergeCell ref="L78:L81"/>
+    <mergeCell ref="L86:L89"/>
+    <mergeCell ref="L94:L95"/>
+    <mergeCell ref="L99:L102"/>
+    <mergeCell ref="L113:L117"/>
+    <mergeCell ref="L118:L123"/>
+    <mergeCell ref="L124:L128"/>
+    <mergeCell ref="L55:L57"/>
+    <mergeCell ref="L103:L106"/>
+    <mergeCell ref="L166:L169"/>
+    <mergeCell ref="L74:L77"/>
+    <mergeCell ref="L145:L148"/>
+    <mergeCell ref="A149:A154"/>
+    <mergeCell ref="I149:I154"/>
+    <mergeCell ref="J149:J154"/>
+    <mergeCell ref="K149:K154"/>
+    <mergeCell ref="A155:A159"/>
+    <mergeCell ref="I155:I159"/>
+    <mergeCell ref="J155:J159"/>
+    <mergeCell ref="K155:K159"/>
+    <mergeCell ref="L155:L159"/>
+    <mergeCell ref="J118:J123"/>
+    <mergeCell ref="K118:K123"/>
+    <mergeCell ref="A124:A128"/>
+    <mergeCell ref="I124:I128"/>
+    <mergeCell ref="J124:J128"/>
+    <mergeCell ref="K124:K128"/>
+    <mergeCell ref="A133:A136"/>
+    <mergeCell ref="I133:I136"/>
+    <mergeCell ref="A145:A148"/>
+    <mergeCell ref="I145:I148"/>
+    <mergeCell ref="J145:J148"/>
+    <mergeCell ref="K145:K148"/>
     <mergeCell ref="A15:A16"/>
     <mergeCell ref="I15:I16"/>
     <mergeCell ref="J15:J16"/>
@@ -6812,125 +6920,116 @@
     <mergeCell ref="A27:A29"/>
     <mergeCell ref="K34:K37"/>
     <mergeCell ref="L34:L37"/>
-    <mergeCell ref="A75:A78"/>
-    <mergeCell ref="I75:I78"/>
-    <mergeCell ref="K79:K82"/>
-    <mergeCell ref="A44:A49"/>
-    <mergeCell ref="I44:I49"/>
-    <mergeCell ref="J44:J49"/>
-    <mergeCell ref="K44:K49"/>
-    <mergeCell ref="A59:A62"/>
-    <mergeCell ref="I59:I62"/>
-    <mergeCell ref="J59:J62"/>
-    <mergeCell ref="K59:K62"/>
-    <mergeCell ref="A54:A56"/>
-    <mergeCell ref="I54:I56"/>
-    <mergeCell ref="J54:J56"/>
-    <mergeCell ref="K54:K56"/>
-    <mergeCell ref="A63:A65"/>
-    <mergeCell ref="I63:I65"/>
-    <mergeCell ref="J63:J65"/>
-    <mergeCell ref="K63:K65"/>
+    <mergeCell ref="A78:A81"/>
+    <mergeCell ref="I78:I81"/>
+    <mergeCell ref="K82:K85"/>
+    <mergeCell ref="A55:A57"/>
+    <mergeCell ref="I55:I57"/>
+    <mergeCell ref="J55:J57"/>
+    <mergeCell ref="K55:K57"/>
+    <mergeCell ref="A66:A68"/>
+    <mergeCell ref="I66:I68"/>
+    <mergeCell ref="J66:J68"/>
+    <mergeCell ref="K66:K68"/>
     <mergeCell ref="A2:A7"/>
     <mergeCell ref="I2:I7"/>
     <mergeCell ref="J2:J7"/>
     <mergeCell ref="K2:K7"/>
     <mergeCell ref="L2:L7"/>
-    <mergeCell ref="A104:A106"/>
-    <mergeCell ref="I104:I106"/>
-    <mergeCell ref="J104:J106"/>
-    <mergeCell ref="K104:K106"/>
-    <mergeCell ref="L104:L106"/>
-    <mergeCell ref="I87:I90"/>
-    <mergeCell ref="J87:J90"/>
-    <mergeCell ref="K87:K90"/>
-    <mergeCell ref="L57:L58"/>
-    <mergeCell ref="J75:J78"/>
-    <mergeCell ref="K75:K78"/>
-    <mergeCell ref="A79:A82"/>
-    <mergeCell ref="I79:I82"/>
-    <mergeCell ref="J79:J82"/>
-    <mergeCell ref="A83:A86"/>
-    <mergeCell ref="A71:A74"/>
-    <mergeCell ref="I71:I74"/>
-    <mergeCell ref="J71:J74"/>
-    <mergeCell ref="K71:K74"/>
-    <mergeCell ref="A175:A177"/>
-    <mergeCell ref="I175:I177"/>
-    <mergeCell ref="J175:J177"/>
-    <mergeCell ref="K175:K177"/>
-    <mergeCell ref="L175:L177"/>
-    <mergeCell ref="J91:J92"/>
-    <mergeCell ref="L130:L133"/>
-    <mergeCell ref="L126:L129"/>
-    <mergeCell ref="L167:L171"/>
-    <mergeCell ref="A167:A171"/>
-    <mergeCell ref="I167:I171"/>
-    <mergeCell ref="J167:J171"/>
-    <mergeCell ref="K167:K171"/>
-    <mergeCell ref="A172:A174"/>
-    <mergeCell ref="I172:I174"/>
-    <mergeCell ref="J172:J174"/>
-    <mergeCell ref="K172:K174"/>
-    <mergeCell ref="A126:A129"/>
-    <mergeCell ref="I126:I129"/>
-    <mergeCell ref="J126:J129"/>
-    <mergeCell ref="A57:A58"/>
-    <mergeCell ref="I57:I58"/>
-    <mergeCell ref="J57:J58"/>
-    <mergeCell ref="K57:K58"/>
-    <mergeCell ref="A67:A70"/>
-    <mergeCell ref="I67:I70"/>
-    <mergeCell ref="J67:J70"/>
-    <mergeCell ref="K67:K70"/>
-    <mergeCell ref="J83:J86"/>
-    <mergeCell ref="K83:K86"/>
-    <mergeCell ref="A134:A136"/>
-    <mergeCell ref="I134:I136"/>
-    <mergeCell ref="A93:A95"/>
-    <mergeCell ref="I93:I95"/>
-    <mergeCell ref="J93:J95"/>
-    <mergeCell ref="K93:K95"/>
-    <mergeCell ref="J130:J133"/>
-    <mergeCell ref="K130:K133"/>
-    <mergeCell ref="A91:A92"/>
-    <mergeCell ref="I91:I92"/>
-    <mergeCell ref="K91:K92"/>
-    <mergeCell ref="A87:A90"/>
-    <mergeCell ref="I100:I103"/>
-    <mergeCell ref="J100:J103"/>
-    <mergeCell ref="K100:K103"/>
-    <mergeCell ref="A96:A99"/>
-    <mergeCell ref="I96:I99"/>
-    <mergeCell ref="J96:J99"/>
-    <mergeCell ref="A100:A103"/>
-    <mergeCell ref="K96:K99"/>
-    <mergeCell ref="K126:K129"/>
-    <mergeCell ref="I115:I120"/>
-    <mergeCell ref="I27:I29"/>
-    <mergeCell ref="A163:A166"/>
-    <mergeCell ref="I163:I166"/>
-    <mergeCell ref="J163:J166"/>
-    <mergeCell ref="K163:K166"/>
-    <mergeCell ref="J134:J136"/>
-    <mergeCell ref="K134:K136"/>
-    <mergeCell ref="L134:L136"/>
     <mergeCell ref="A107:A109"/>
     <mergeCell ref="I107:I109"/>
     <mergeCell ref="J107:J109"/>
     <mergeCell ref="K107:K109"/>
     <mergeCell ref="L107:L109"/>
-    <mergeCell ref="A110:A114"/>
-    <mergeCell ref="I110:I114"/>
-    <mergeCell ref="J110:J114"/>
-    <mergeCell ref="K110:K114"/>
-    <mergeCell ref="A115:A120"/>
-    <mergeCell ref="A137:A141"/>
-    <mergeCell ref="I137:I141"/>
-    <mergeCell ref="J137:J141"/>
-    <mergeCell ref="K137:K141"/>
-    <mergeCell ref="L137:L141"/>
-    <mergeCell ref="I83:I86"/>
+    <mergeCell ref="I90:I93"/>
+    <mergeCell ref="J90:J93"/>
+    <mergeCell ref="K90:K93"/>
+    <mergeCell ref="J78:J81"/>
+    <mergeCell ref="K78:K81"/>
+    <mergeCell ref="A82:A85"/>
+    <mergeCell ref="I82:I85"/>
+    <mergeCell ref="J82:J85"/>
+    <mergeCell ref="A86:A89"/>
+    <mergeCell ref="A74:A77"/>
+    <mergeCell ref="I74:I77"/>
+    <mergeCell ref="J74:J77"/>
+    <mergeCell ref="K74:K77"/>
+    <mergeCell ref="A178:A180"/>
+    <mergeCell ref="I178:I180"/>
+    <mergeCell ref="J178:J180"/>
+    <mergeCell ref="K178:K180"/>
+    <mergeCell ref="L178:L180"/>
+    <mergeCell ref="J94:J95"/>
+    <mergeCell ref="L133:L136"/>
+    <mergeCell ref="L129:L132"/>
+    <mergeCell ref="L170:L174"/>
+    <mergeCell ref="A170:A174"/>
+    <mergeCell ref="I170:I174"/>
+    <mergeCell ref="J170:J174"/>
+    <mergeCell ref="K170:K174"/>
+    <mergeCell ref="A175:A177"/>
+    <mergeCell ref="I175:I177"/>
+    <mergeCell ref="J175:J177"/>
+    <mergeCell ref="K175:K177"/>
+    <mergeCell ref="A129:A132"/>
+    <mergeCell ref="I129:I132"/>
+    <mergeCell ref="J129:J132"/>
+    <mergeCell ref="A70:A73"/>
+    <mergeCell ref="I70:I73"/>
+    <mergeCell ref="J70:J73"/>
+    <mergeCell ref="K70:K73"/>
+    <mergeCell ref="A58:A60"/>
+    <mergeCell ref="I58:I60"/>
+    <mergeCell ref="J58:J60"/>
+    <mergeCell ref="K58:K60"/>
+    <mergeCell ref="J86:J89"/>
+    <mergeCell ref="K86:K89"/>
+    <mergeCell ref="A137:A139"/>
+    <mergeCell ref="I137:I139"/>
+    <mergeCell ref="A96:A98"/>
+    <mergeCell ref="I96:I98"/>
+    <mergeCell ref="J96:J98"/>
+    <mergeCell ref="K96:K98"/>
+    <mergeCell ref="J133:J136"/>
+    <mergeCell ref="K133:K136"/>
+    <mergeCell ref="A94:A95"/>
+    <mergeCell ref="I94:I95"/>
+    <mergeCell ref="K94:K95"/>
+    <mergeCell ref="A90:A93"/>
+    <mergeCell ref="I103:I106"/>
+    <mergeCell ref="J103:J106"/>
+    <mergeCell ref="K103:K106"/>
+    <mergeCell ref="A99:A102"/>
+    <mergeCell ref="I99:I102"/>
+    <mergeCell ref="J99:J102"/>
+    <mergeCell ref="A103:A106"/>
+    <mergeCell ref="K99:K102"/>
+    <mergeCell ref="K129:K132"/>
+    <mergeCell ref="I118:I123"/>
+    <mergeCell ref="I27:I29"/>
+    <mergeCell ref="A166:A169"/>
+    <mergeCell ref="I166:I169"/>
+    <mergeCell ref="J166:J169"/>
+    <mergeCell ref="K166:K169"/>
+    <mergeCell ref="J137:J139"/>
+    <mergeCell ref="K137:K139"/>
+    <mergeCell ref="L137:L139"/>
+    <mergeCell ref="A110:A112"/>
+    <mergeCell ref="I110:I112"/>
+    <mergeCell ref="J110:J112"/>
+    <mergeCell ref="K110:K112"/>
+    <mergeCell ref="L110:L112"/>
+    <mergeCell ref="A113:A117"/>
+    <mergeCell ref="I113:I117"/>
+    <mergeCell ref="J113:J117"/>
+    <mergeCell ref="K113:K117"/>
+    <mergeCell ref="A118:A123"/>
+    <mergeCell ref="A140:A144"/>
+    <mergeCell ref="I140:I144"/>
+    <mergeCell ref="J140:J144"/>
+    <mergeCell ref="K140:K144"/>
+    <mergeCell ref="L140:L144"/>
+    <mergeCell ref="I86:I89"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0" right="0" top="1.1811023622047244E-2" bottom="0.11811023622047245" header="0" footer="0"/>

--- a/sheet/CONTROLE_DE_TERRITORIO_2022.xlsx
+++ b/sheet/CONTROLE_DE_TERRITORIO_2022.xlsx
@@ -15,8 +15,8 @@
     <sheet name="NOVA" sheetId="3" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">NOVA!$A$1:$L$180</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">NOVA!$A$1:$K$180</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">NOVA!$A$1:$L$185</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">NOVA!$A$1:$K$185</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="767" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="787" uniqueCount="49">
   <si>
     <t>OK</t>
   </si>
@@ -745,7 +745,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="191">
+  <cellXfs count="190">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1095,15 +1095,6 @@
     <xf numFmtId="0" fontId="19" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="19" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="19" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="19" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1152,9 +1143,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1315,6 +1303,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1605,10 +1602,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L180"/>
+  <dimension ref="A1:L185"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="99" zoomScaleNormal="100" zoomScalePageLayoutView="45" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView tabSelected="1" topLeftCell="A118" zoomScale="99" zoomScaleNormal="100" zoomScalePageLayoutView="45" workbookViewId="0">
+      <selection activeCell="E146" sqref="E146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1669,7 +1666,7 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="160">
+      <c r="A2" s="156">
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
@@ -1691,19 +1688,19 @@
       <c r="H2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="130" t="s">
+      <c r="I2" s="127" t="s">
         <v>0</v>
       </c>
-      <c r="J2" s="166">
+      <c r="J2" s="162">
         <v>5</v>
       </c>
-      <c r="K2" s="156">
+      <c r="K2" s="152">
         <v>1</v>
       </c>
-      <c r="L2" s="167"/>
+      <c r="L2" s="163"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="153"/>
+      <c r="A3" s="149"/>
       <c r="B3" s="12" t="s">
         <v>25</v>
       </c>
@@ -1723,13 +1720,13 @@
       <c r="H3" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="I3" s="130"/>
-      <c r="J3" s="133"/>
-      <c r="K3" s="134"/>
-      <c r="L3" s="135"/>
+      <c r="I3" s="127"/>
+      <c r="J3" s="130"/>
+      <c r="K3" s="131"/>
+      <c r="L3" s="132"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="153"/>
+      <c r="A4" s="149"/>
       <c r="B4" s="15" t="s">
         <v>27</v>
       </c>
@@ -1749,13 +1746,13 @@
       <c r="H4" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="130"/>
-      <c r="J4" s="133"/>
-      <c r="K4" s="134"/>
-      <c r="L4" s="135"/>
+      <c r="I4" s="127"/>
+      <c r="J4" s="130"/>
+      <c r="K4" s="131"/>
+      <c r="L4" s="132"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="153"/>
+      <c r="A5" s="149"/>
       <c r="B5" s="15" t="s">
         <v>41</v>
       </c>
@@ -1775,13 +1772,13 @@
       <c r="H5" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="130"/>
-      <c r="J5" s="133"/>
-      <c r="K5" s="134"/>
-      <c r="L5" s="135"/>
+      <c r="I5" s="127"/>
+      <c r="J5" s="130"/>
+      <c r="K5" s="131"/>
+      <c r="L5" s="132"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="153"/>
+      <c r="A6" s="149"/>
       <c r="B6" s="15" t="s">
         <v>44</v>
       </c>
@@ -1801,13 +1798,13 @@
       <c r="H6" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="I6" s="130"/>
-      <c r="J6" s="133"/>
-      <c r="K6" s="134"/>
-      <c r="L6" s="135"/>
+      <c r="I6" s="127"/>
+      <c r="J6" s="130"/>
+      <c r="K6" s="131"/>
+      <c r="L6" s="132"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="153"/>
+      <c r="A7" s="149"/>
       <c r="B7" s="17" t="s">
         <v>45</v>
       </c>
@@ -1829,13 +1826,13 @@
       <c r="H7" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="I7" s="130"/>
-      <c r="J7" s="133"/>
-      <c r="K7" s="134"/>
-      <c r="L7" s="135"/>
+      <c r="I7" s="127"/>
+      <c r="J7" s="130"/>
+      <c r="K7" s="131"/>
+      <c r="L7" s="132"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="137">
+      <c r="A8" s="133">
         <v>2</v>
       </c>
       <c r="B8" s="22" t="s">
@@ -1857,19 +1854,19 @@
       <c r="H8" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="I8" s="170" t="s">
+      <c r="I8" s="166" t="s">
         <v>4</v>
       </c>
-      <c r="J8" s="141">
+      <c r="J8" s="137">
         <v>60</v>
       </c>
-      <c r="K8" s="144">
+      <c r="K8" s="140">
         <v>4</v>
       </c>
-      <c r="L8" s="179"/>
+      <c r="L8" s="175"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="138"/>
+      <c r="A9" s="134"/>
       <c r="B9" s="22" t="s">
         <v>25</v>
       </c>
@@ -1891,13 +1888,13 @@
       <c r="H9" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="I9" s="170"/>
-      <c r="J9" s="142"/>
-      <c r="K9" s="145"/>
-      <c r="L9" s="180"/>
+      <c r="I9" s="166"/>
+      <c r="J9" s="138"/>
+      <c r="K9" s="141"/>
+      <c r="L9" s="176"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="138"/>
+      <c r="A10" s="134"/>
       <c r="B10" s="27" t="s">
         <v>27</v>
       </c>
@@ -1917,13 +1914,13 @@
       <c r="H10" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="I10" s="170"/>
-      <c r="J10" s="142"/>
-      <c r="K10" s="145"/>
-      <c r="L10" s="180"/>
+      <c r="I10" s="166"/>
+      <c r="J10" s="138"/>
+      <c r="K10" s="141"/>
+      <c r="L10" s="176"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="138"/>
+      <c r="A11" s="134"/>
       <c r="B11" s="27" t="s">
         <v>41</v>
       </c>
@@ -1943,13 +1940,13 @@
       <c r="H11" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="I11" s="170"/>
-      <c r="J11" s="142"/>
-      <c r="K11" s="145"/>
-      <c r="L11" s="180"/>
+      <c r="I11" s="166"/>
+      <c r="J11" s="138"/>
+      <c r="K11" s="141"/>
+      <c r="L11" s="176"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="138"/>
+      <c r="A12" s="134"/>
       <c r="B12" s="27" t="s">
         <v>44</v>
       </c>
@@ -1969,13 +1966,13 @@
       <c r="H12" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="I12" s="170"/>
-      <c r="J12" s="142"/>
-      <c r="K12" s="145"/>
-      <c r="L12" s="180"/>
+      <c r="I12" s="166"/>
+      <c r="J12" s="138"/>
+      <c r="K12" s="141"/>
+      <c r="L12" s="176"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="138"/>
+      <c r="A13" s="134"/>
       <c r="B13" s="27" t="s">
         <v>45</v>
       </c>
@@ -1995,13 +1992,13 @@
       <c r="H13" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="I13" s="170"/>
-      <c r="J13" s="142"/>
-      <c r="K13" s="145"/>
-      <c r="L13" s="180"/>
+      <c r="I13" s="166"/>
+      <c r="J13" s="138"/>
+      <c r="K13" s="141"/>
+      <c r="L13" s="176"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="139"/>
+      <c r="A14" s="135"/>
       <c r="B14" s="35" t="s">
         <v>48</v>
       </c>
@@ -2023,13 +2020,13 @@
       <c r="H14" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="I14" s="170"/>
-      <c r="J14" s="143"/>
-      <c r="K14" s="146"/>
-      <c r="L14" s="181"/>
+      <c r="I14" s="166"/>
+      <c r="J14" s="139"/>
+      <c r="K14" s="142"/>
+      <c r="L14" s="177"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="153">
+      <c r="A15" s="149">
         <v>3</v>
       </c>
       <c r="B15" s="15" t="s">
@@ -2051,19 +2048,19 @@
       <c r="H15" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="I15" s="130" t="s">
+      <c r="I15" s="127" t="s">
         <v>0</v>
       </c>
-      <c r="J15" s="133">
+      <c r="J15" s="130">
         <v>7</v>
       </c>
-      <c r="K15" s="134">
+      <c r="K15" s="131">
         <v>1</v>
       </c>
-      <c r="L15" s="135"/>
+      <c r="L15" s="132"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="153"/>
+      <c r="A16" s="149"/>
       <c r="B16" s="17" t="s">
         <v>25</v>
       </c>
@@ -2085,13 +2082,13 @@
       <c r="H16" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="I16" s="130"/>
-      <c r="J16" s="133"/>
-      <c r="K16" s="134"/>
-      <c r="L16" s="135"/>
+      <c r="I16" s="127"/>
+      <c r="J16" s="130"/>
+      <c r="K16" s="131"/>
+      <c r="L16" s="132"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="137">
+      <c r="A17" s="133">
         <v>4</v>
       </c>
       <c r="B17" s="22" t="s">
@@ -2115,19 +2112,19 @@
       <c r="H17" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="I17" s="170" t="s">
+      <c r="I17" s="166" t="s">
         <v>4</v>
       </c>
-      <c r="J17" s="141">
+      <c r="J17" s="137">
         <v>59</v>
       </c>
-      <c r="K17" s="144">
+      <c r="K17" s="140">
         <v>4</v>
       </c>
-      <c r="L17" s="179"/>
+      <c r="L17" s="175"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="138"/>
+      <c r="A18" s="134"/>
       <c r="B18" s="22" t="s">
         <v>25</v>
       </c>
@@ -2147,13 +2144,13 @@
       <c r="H18" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="I18" s="170"/>
-      <c r="J18" s="142"/>
-      <c r="K18" s="145"/>
-      <c r="L18" s="180"/>
+      <c r="I18" s="166"/>
+      <c r="J18" s="138"/>
+      <c r="K18" s="141"/>
+      <c r="L18" s="176"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="138"/>
+      <c r="A19" s="134"/>
       <c r="B19" s="27" t="s">
         <v>27</v>
       </c>
@@ -2173,13 +2170,13 @@
       <c r="H19" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="I19" s="170"/>
-      <c r="J19" s="142"/>
-      <c r="K19" s="145"/>
-      <c r="L19" s="180"/>
+      <c r="I19" s="166"/>
+      <c r="J19" s="138"/>
+      <c r="K19" s="141"/>
+      <c r="L19" s="176"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="138"/>
+      <c r="A20" s="134"/>
       <c r="B20" s="27" t="s">
         <v>41</v>
       </c>
@@ -2199,13 +2196,13 @@
       <c r="H20" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="I20" s="170"/>
-      <c r="J20" s="142"/>
-      <c r="K20" s="145"/>
-      <c r="L20" s="180"/>
+      <c r="I20" s="166"/>
+      <c r="J20" s="138"/>
+      <c r="K20" s="141"/>
+      <c r="L20" s="176"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="138"/>
+      <c r="A21" s="134"/>
       <c r="B21" s="27" t="s">
         <v>43</v>
       </c>
@@ -2225,13 +2222,13 @@
       <c r="H21" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="I21" s="170"/>
-      <c r="J21" s="142"/>
-      <c r="K21" s="145"/>
-      <c r="L21" s="180"/>
+      <c r="I21" s="166"/>
+      <c r="J21" s="138"/>
+      <c r="K21" s="141"/>
+      <c r="L21" s="176"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="139"/>
+      <c r="A22" s="135"/>
       <c r="B22" s="35" t="s">
         <v>47</v>
       </c>
@@ -2253,13 +2250,13 @@
       <c r="H22" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="I22" s="170"/>
-      <c r="J22" s="143"/>
-      <c r="K22" s="146"/>
-      <c r="L22" s="181"/>
+      <c r="I22" s="166"/>
+      <c r="J22" s="139"/>
+      <c r="K22" s="142"/>
+      <c r="L22" s="177"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="147">
+      <c r="A23" s="143">
         <v>5</v>
       </c>
       <c r="B23" s="12" t="s">
@@ -2283,19 +2280,19 @@
       <c r="H23" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="I23" s="170" t="s">
+      <c r="I23" s="166" t="s">
         <v>4</v>
       </c>
-      <c r="J23" s="168">
+      <c r="J23" s="164">
         <v>8</v>
       </c>
-      <c r="K23" s="154">
+      <c r="K23" s="150">
         <v>1</v>
       </c>
-      <c r="L23" s="171"/>
+      <c r="L23" s="167"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="148"/>
+      <c r="A24" s="144"/>
       <c r="B24" s="46" t="s">
         <v>25</v>
       </c>
@@ -2317,13 +2314,13 @@
       <c r="H24" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="I24" s="170"/>
-      <c r="J24" s="169"/>
-      <c r="K24" s="155"/>
-      <c r="L24" s="172"/>
+      <c r="I24" s="166"/>
+      <c r="J24" s="165"/>
+      <c r="K24" s="151"/>
+      <c r="L24" s="168"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="148"/>
+      <c r="A25" s="144"/>
       <c r="B25" s="47" t="s">
         <v>27</v>
       </c>
@@ -2343,13 +2340,13 @@
       <c r="H25" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="I25" s="170"/>
-      <c r="J25" s="169"/>
-      <c r="K25" s="155"/>
-      <c r="L25" s="172"/>
+      <c r="I25" s="166"/>
+      <c r="J25" s="165"/>
+      <c r="K25" s="151"/>
+      <c r="L25" s="168"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="149"/>
+      <c r="A26" s="145"/>
       <c r="B26" s="17" t="s">
         <v>41</v>
       </c>
@@ -2371,13 +2368,13 @@
       <c r="H26" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="I26" s="170"/>
-      <c r="J26" s="166"/>
-      <c r="K26" s="156"/>
-      <c r="L26" s="167"/>
+      <c r="I26" s="166"/>
+      <c r="J26" s="162"/>
+      <c r="K26" s="152"/>
+      <c r="L26" s="163"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="173">
+      <c r="A27" s="169">
         <v>6</v>
       </c>
       <c r="B27" s="48" t="s">
@@ -2401,19 +2398,19 @@
       <c r="H27" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="I27" s="126" t="s">
+      <c r="I27" s="123" t="s">
         <v>4</v>
       </c>
-      <c r="J27" s="182">
+      <c r="J27" s="178">
         <v>28</v>
       </c>
-      <c r="K27" s="182">
+      <c r="K27" s="178">
         <v>2</v>
       </c>
-      <c r="L27" s="179"/>
+      <c r="L27" s="175"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="174"/>
+      <c r="A28" s="170"/>
       <c r="B28" s="27" t="s">
         <v>25</v>
       </c>
@@ -2435,13 +2432,13 @@
       <c r="H28" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="I28" s="127"/>
-      <c r="J28" s="183"/>
-      <c r="K28" s="183"/>
-      <c r="L28" s="180"/>
+      <c r="I28" s="124"/>
+      <c r="J28" s="179"/>
+      <c r="K28" s="179"/>
+      <c r="L28" s="176"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" s="175"/>
+      <c r="A29" s="171"/>
       <c r="B29" s="35" t="s">
         <v>27</v>
       </c>
@@ -2461,13 +2458,13 @@
       <c r="H29" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="I29" s="128"/>
-      <c r="J29" s="184"/>
-      <c r="K29" s="184"/>
-      <c r="L29" s="181"/>
+      <c r="I29" s="125"/>
+      <c r="J29" s="180"/>
+      <c r="K29" s="180"/>
+      <c r="L29" s="177"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" s="147">
+      <c r="A30" s="143">
         <v>7</v>
       </c>
       <c r="B30" s="12" t="s">
@@ -2491,19 +2488,19 @@
       <c r="H30" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="I30" s="170" t="s">
+      <c r="I30" s="166" t="s">
         <v>4</v>
       </c>
-      <c r="J30" s="154">
+      <c r="J30" s="150">
         <v>21</v>
       </c>
-      <c r="K30" s="154">
+      <c r="K30" s="150">
         <v>2</v>
       </c>
-      <c r="L30" s="171"/>
+      <c r="L30" s="167"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" s="148"/>
+      <c r="A31" s="144"/>
       <c r="B31" s="46" t="s">
         <v>25</v>
       </c>
@@ -2525,41 +2522,41 @@
       <c r="H31" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="I31" s="170"/>
-      <c r="J31" s="155"/>
-      <c r="K31" s="155"/>
-      <c r="L31" s="172"/>
+      <c r="I31" s="166"/>
+      <c r="J31" s="151"/>
+      <c r="K31" s="151"/>
+      <c r="L31" s="168"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A32" s="148"/>
-      <c r="B32" s="185" t="s">
+      <c r="A32" s="144"/>
+      <c r="B32" s="181" t="s">
         <v>27</v>
       </c>
-      <c r="C32" s="186">
+      <c r="C32" s="182">
         <v>44873</v>
       </c>
-      <c r="D32" s="186">
+      <c r="D32" s="182">
         <v>44880</v>
       </c>
-      <c r="E32" s="186">
+      <c r="E32" s="182">
         <v>44881</v>
       </c>
-      <c r="F32" s="187" t="s">
+      <c r="F32" s="183" t="s">
         <v>15</v>
       </c>
-      <c r="G32" s="188" t="s">
+      <c r="G32" s="184" t="s">
         <v>2</v>
       </c>
-      <c r="H32" s="189" t="s">
+      <c r="H32" s="185" t="s">
         <v>16</v>
       </c>
-      <c r="I32" s="170"/>
-      <c r="J32" s="155"/>
-      <c r="K32" s="155"/>
-      <c r="L32" s="172"/>
+      <c r="I32" s="166"/>
+      <c r="J32" s="151"/>
+      <c r="K32" s="151"/>
+      <c r="L32" s="168"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A33" s="149"/>
+      <c r="A33" s="145"/>
       <c r="B33" s="17" t="s">
         <v>41</v>
       </c>
@@ -2579,13 +2576,13 @@
       <c r="H33" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="I33" s="170"/>
-      <c r="J33" s="156"/>
-      <c r="K33" s="156"/>
-      <c r="L33" s="167"/>
+      <c r="I33" s="166"/>
+      <c r="J33" s="152"/>
+      <c r="K33" s="152"/>
+      <c r="L33" s="163"/>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A34" s="137">
+      <c r="A34" s="133">
         <v>8</v>
       </c>
       <c r="B34" s="25" t="s">
@@ -2609,19 +2606,19 @@
       <c r="H34" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="I34" s="126" t="s">
+      <c r="I34" s="123" t="s">
         <v>4</v>
       </c>
-      <c r="J34" s="144">
+      <c r="J34" s="140">
         <v>33</v>
       </c>
-      <c r="K34" s="144">
+      <c r="K34" s="140">
         <v>2</v>
       </c>
-      <c r="L34" s="179"/>
+      <c r="L34" s="175"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A35" s="138"/>
+      <c r="A35" s="134"/>
       <c r="B35" s="30" t="s">
         <v>25</v>
       </c>
@@ -2643,14 +2640,14 @@
       <c r="H35" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="I35" s="127"/>
-      <c r="J35" s="145"/>
-      <c r="K35" s="145"/>
-      <c r="L35" s="180"/>
+      <c r="I35" s="124"/>
+      <c r="J35" s="141"/>
+      <c r="K35" s="141"/>
+      <c r="L35" s="176"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A36" s="138"/>
-      <c r="B36" s="190" t="s">
+      <c r="A36" s="134"/>
+      <c r="B36" s="186" t="s">
         <v>27</v>
       </c>
       <c r="C36" s="32">
@@ -2671,13 +2668,13 @@
       <c r="H36" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="I36" s="127"/>
-      <c r="J36" s="145"/>
-      <c r="K36" s="145"/>
-      <c r="L36" s="180"/>
+      <c r="I36" s="124"/>
+      <c r="J36" s="141"/>
+      <c r="K36" s="141"/>
+      <c r="L36" s="176"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A37" s="139"/>
+      <c r="A37" s="135"/>
       <c r="B37" s="35" t="s">
         <v>41</v>
       </c>
@@ -2697,13 +2694,13 @@
       <c r="H37" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="I37" s="128"/>
-      <c r="J37" s="146"/>
-      <c r="K37" s="146"/>
-      <c r="L37" s="181"/>
+      <c r="I37" s="125"/>
+      <c r="J37" s="142"/>
+      <c r="K37" s="142"/>
+      <c r="L37" s="177"/>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A38" s="147">
+      <c r="A38" s="143">
         <v>9</v>
       </c>
       <c r="B38" s="12" t="s">
@@ -2725,19 +2722,19 @@
       <c r="H38" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="I38" s="170" t="s">
+      <c r="I38" s="166" t="s">
         <v>4</v>
       </c>
-      <c r="J38" s="154">
+      <c r="J38" s="150">
         <v>61</v>
       </c>
-      <c r="K38" s="154">
+      <c r="K38" s="150">
         <v>4</v>
       </c>
-      <c r="L38" s="171"/>
+      <c r="L38" s="167"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A39" s="148"/>
+      <c r="A39" s="144"/>
       <c r="B39" s="12" t="s">
         <v>25</v>
       </c>
@@ -2757,13 +2754,13 @@
       <c r="H39" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="I39" s="170"/>
-      <c r="J39" s="155"/>
-      <c r="K39" s="155"/>
-      <c r="L39" s="172"/>
+      <c r="I39" s="166"/>
+      <c r="J39" s="151"/>
+      <c r="K39" s="151"/>
+      <c r="L39" s="168"/>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A40" s="148"/>
+      <c r="A40" s="144"/>
       <c r="B40" s="47" t="s">
         <v>27</v>
       </c>
@@ -2785,13 +2782,13 @@
       <c r="H40" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="I40" s="170"/>
-      <c r="J40" s="155"/>
-      <c r="K40" s="155"/>
-      <c r="L40" s="172"/>
+      <c r="I40" s="166"/>
+      <c r="J40" s="151"/>
+      <c r="K40" s="151"/>
+      <c r="L40" s="168"/>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A41" s="148"/>
+      <c r="A41" s="144"/>
       <c r="B41" s="47" t="s">
         <v>41</v>
       </c>
@@ -2813,13 +2810,13 @@
       <c r="H41" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="I41" s="170"/>
-      <c r="J41" s="155"/>
-      <c r="K41" s="155"/>
-      <c r="L41" s="172"/>
+      <c r="I41" s="166"/>
+      <c r="J41" s="151"/>
+      <c r="K41" s="151"/>
+      <c r="L41" s="168"/>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A42" s="149"/>
+      <c r="A42" s="145"/>
       <c r="B42" s="17" t="s">
         <v>43</v>
       </c>
@@ -2839,10 +2836,10 @@
       <c r="H42" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="I42" s="170"/>
-      <c r="J42" s="156"/>
-      <c r="K42" s="156"/>
-      <c r="L42" s="167"/>
+      <c r="I42" s="166"/>
+      <c r="J42" s="152"/>
+      <c r="K42" s="152"/>
+      <c r="L42" s="163"/>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="58">
@@ -2875,7 +2872,7 @@
       <c r="L43" s="63"/>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A44" s="147">
+      <c r="A44" s="143">
         <v>11</v>
       </c>
       <c r="B44" s="15" t="s">
@@ -2897,19 +2894,19 @@
       <c r="H44" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="I44" s="170" t="s">
+      <c r="I44" s="166" t="s">
         <v>4</v>
       </c>
-      <c r="J44" s="154">
+      <c r="J44" s="150">
         <v>132</v>
       </c>
-      <c r="K44" s="154">
+      <c r="K44" s="150">
         <v>8</v>
       </c>
-      <c r="L44" s="171"/>
+      <c r="L44" s="167"/>
     </row>
     <row r="45" spans="1:12" x14ac:d